--- a/vs-x64/Running erasure.xlsx
+++ b/vs-x64/Running erasure.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.390598</v>
+        <v>0.205708</v>
       </c>
       <c r="C2" t="n">
-        <v>0.391838</v>
+        <v>0.242487</v>
       </c>
       <c r="D2" t="n">
-        <v>0.381916</v>
+        <v>0.24084</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.381104</v>
+        <v>0.199281</v>
       </c>
       <c r="C3" t="n">
-        <v>0.384279</v>
+        <v>0.248385</v>
       </c>
       <c r="D3" t="n">
-        <v>0.374985</v>
+        <v>0.245594</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.373773</v>
+        <v>0.198861</v>
       </c>
       <c r="C4" t="n">
-        <v>0.377648</v>
+        <v>0.247661</v>
       </c>
       <c r="D4" t="n">
-        <v>0.369305</v>
+        <v>0.241347</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.367573</v>
+        <v>0.187843</v>
       </c>
       <c r="C5" t="n">
-        <v>0.372181</v>
+        <v>0.237002</v>
       </c>
       <c r="D5" t="n">
-        <v>0.364746</v>
+        <v>0.242825</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.361369</v>
+        <v>0.184557</v>
       </c>
       <c r="C6" t="n">
-        <v>0.368035</v>
+        <v>0.238586</v>
       </c>
       <c r="D6" t="n">
-        <v>0.361455</v>
+        <v>0.238829</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.35695</v>
+        <v>0.17611</v>
       </c>
       <c r="C7" t="n">
-        <v>0.36463</v>
+        <v>0.235131</v>
       </c>
       <c r="D7" t="n">
-        <v>0.359377</v>
+        <v>0.238845</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.353834</v>
+        <v>0.170692</v>
       </c>
       <c r="C8" t="n">
-        <v>0.362779</v>
+        <v>0.238358</v>
       </c>
       <c r="D8" t="n">
-        <v>0.359505</v>
+        <v>0.236911</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.352256</v>
+        <v>0.164151</v>
       </c>
       <c r="C9" t="n">
-        <v>0.362667</v>
+        <v>0.236243</v>
       </c>
       <c r="D9" t="n">
-        <v>0.469557</v>
+        <v>0.253368</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.465987</v>
+        <v>0.226298</v>
       </c>
       <c r="C10" t="n">
-        <v>0.484106</v>
+        <v>0.248517</v>
       </c>
       <c r="D10" t="n">
-        <v>0.463844</v>
+        <v>0.252354</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.454668</v>
+        <v>0.222758</v>
       </c>
       <c r="C11" t="n">
-        <v>0.471688</v>
+        <v>0.254256</v>
       </c>
       <c r="D11" t="n">
-        <v>0.452686</v>
+        <v>0.246051</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.444121</v>
+        <v>0.221797</v>
       </c>
       <c r="C12" t="n">
-        <v>0.461116</v>
+        <v>0.246921</v>
       </c>
       <c r="D12" t="n">
-        <v>0.442743</v>
+        <v>0.24381</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.433987</v>
+        <v>0.214999</v>
       </c>
       <c r="C13" t="n">
-        <v>0.450536</v>
+        <v>0.243869</v>
       </c>
       <c r="D13" t="n">
-        <v>0.432509</v>
+        <v>0.242594</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.424306</v>
+        <v>0.214314</v>
       </c>
       <c r="C14" t="n">
-        <v>0.440365</v>
+        <v>0.245963</v>
       </c>
       <c r="D14" t="n">
-        <v>0.423319</v>
+        <v>0.247516</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.415078</v>
+        <v>0.208799</v>
       </c>
       <c r="C15" t="n">
-        <v>0.430978</v>
+        <v>0.243872</v>
       </c>
       <c r="D15" t="n">
-        <v>0.415246</v>
+        <v>0.242698</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.406454</v>
+        <v>0.207121</v>
       </c>
       <c r="C16" t="n">
-        <v>0.421931</v>
+        <v>0.238851</v>
       </c>
       <c r="D16" t="n">
-        <v>0.406734</v>
+        <v>0.245653</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.398045</v>
+        <v>0.200742</v>
       </c>
       <c r="C17" t="n">
-        <v>0.413974</v>
+        <v>0.241489</v>
       </c>
       <c r="D17" t="n">
-        <v>0.399965</v>
+        <v>0.239419</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.390602</v>
+        <v>0.198391</v>
       </c>
       <c r="C18" t="n">
-        <v>0.406658</v>
+        <v>0.240015</v>
       </c>
       <c r="D18" t="n">
-        <v>0.392807</v>
+        <v>0.244895</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.383637</v>
+        <v>0.192474</v>
       </c>
       <c r="C19" t="n">
-        <v>0.399495</v>
+        <v>0.238601</v>
       </c>
       <c r="D19" t="n">
-        <v>0.387179</v>
+        <v>0.242262</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.377291</v>
+        <v>0.187131</v>
       </c>
       <c r="C20" t="n">
-        <v>0.393467</v>
+        <v>0.240461</v>
       </c>
       <c r="D20" t="n">
-        <v>0.382059</v>
+        <v>0.236774</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.372144</v>
+        <v>0.1855</v>
       </c>
       <c r="C21" t="n">
-        <v>0.389003</v>
+        <v>0.237843</v>
       </c>
       <c r="D21" t="n">
-        <v>0.3789</v>
+        <v>0.239729</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.36804</v>
+        <v>0.178338</v>
       </c>
       <c r="C22" t="n">
-        <v>0.384316</v>
+        <v>0.236911</v>
       </c>
       <c r="D22" t="n">
-        <v>0.376322</v>
+        <v>0.238879</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.36599</v>
+        <v>0.168659</v>
       </c>
       <c r="C23" t="n">
-        <v>0.383284</v>
+        <v>0.239557</v>
       </c>
       <c r="D23" t="n">
-        <v>0.492339</v>
+        <v>0.252763</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.48154</v>
+        <v>0.226735</v>
       </c>
       <c r="C24" t="n">
-        <v>0.454932</v>
+        <v>0.253605</v>
       </c>
       <c r="D24" t="n">
-        <v>0.439652</v>
+        <v>0.25448</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.470635</v>
+        <v>0.225879</v>
       </c>
       <c r="C25" t="n">
-        <v>0.445437</v>
+        <v>0.247952</v>
       </c>
       <c r="D25" t="n">
-        <v>0.430722</v>
+        <v>0.251663</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.459778</v>
+        <v>0.230612</v>
       </c>
       <c r="C26" t="n">
-        <v>0.436793</v>
+        <v>0.249353</v>
       </c>
       <c r="D26" t="n">
-        <v>0.423005</v>
+        <v>0.249894</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.449396</v>
+        <v>0.219883</v>
       </c>
       <c r="C27" t="n">
-        <v>0.428574</v>
+        <v>0.247801</v>
       </c>
       <c r="D27" t="n">
-        <v>0.41422</v>
+        <v>0.250533</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.439722</v>
+        <v>0.212715</v>
       </c>
       <c r="C28" t="n">
-        <v>0.421483</v>
+        <v>0.24333</v>
       </c>
       <c r="D28" t="n">
-        <v>0.407055</v>
+        <v>0.245007</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.430228</v>
+        <v>0.214718</v>
       </c>
       <c r="C29" t="n">
-        <v>0.414393</v>
+        <v>0.243001</v>
       </c>
       <c r="D29" t="n">
-        <v>0.398596</v>
+        <v>0.245183</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.42147</v>
+        <v>0.208223</v>
       </c>
       <c r="C30" t="n">
-        <v>0.405221</v>
+        <v>0.244743</v>
       </c>
       <c r="D30" t="n">
-        <v>0.392823</v>
+        <v>0.24792</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.413041</v>
+        <v>0.204786</v>
       </c>
       <c r="C31" t="n">
-        <v>0.399301</v>
+        <v>0.248119</v>
       </c>
       <c r="D31" t="n">
-        <v>0.387497</v>
+        <v>0.241461</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.405469</v>
+        <v>0.200412</v>
       </c>
       <c r="C32" t="n">
-        <v>0.392247</v>
+        <v>0.246367</v>
       </c>
       <c r="D32" t="n">
-        <v>0.382447</v>
+        <v>0.241531</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.398071</v>
+        <v>0.196075</v>
       </c>
       <c r="C33" t="n">
-        <v>0.387416</v>
+        <v>0.241493</v>
       </c>
       <c r="D33" t="n">
-        <v>0.376472</v>
+        <v>0.244537</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.391588</v>
+        <v>0.189705</v>
       </c>
       <c r="C34" t="n">
-        <v>0.381539</v>
+        <v>0.245594</v>
       </c>
       <c r="D34" t="n">
-        <v>0.371855</v>
+        <v>0.23991</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.386182</v>
+        <v>0.185074</v>
       </c>
       <c r="C35" t="n">
-        <v>0.376954</v>
+        <v>0.24403</v>
       </c>
       <c r="D35" t="n">
-        <v>0.368828</v>
+        <v>0.24267</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.381951</v>
+        <v>0.181946</v>
       </c>
       <c r="C36" t="n">
-        <v>0.374599</v>
+        <v>0.246176</v>
       </c>
       <c r="D36" t="n">
-        <v>0.36768</v>
+        <v>0.241805</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.379427</v>
+        <v>0.17199</v>
       </c>
       <c r="C37" t="n">
-        <v>0.373648</v>
+        <v>0.241068</v>
       </c>
       <c r="D37" t="n">
-        <v>0.510122</v>
+        <v>0.252206</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.49564</v>
+        <v>0.232453</v>
       </c>
       <c r="C38" t="n">
-        <v>0.470941</v>
+        <v>0.257093</v>
       </c>
       <c r="D38" t="n">
-        <v>0.453577</v>
+        <v>0.256659</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.485377</v>
+        <v>0.226724</v>
       </c>
       <c r="C39" t="n">
-        <v>0.460709</v>
+        <v>0.250944</v>
       </c>
       <c r="D39" t="n">
-        <v>0.445211</v>
+        <v>0.254911</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.474729</v>
+        <v>0.226184</v>
       </c>
       <c r="C40" t="n">
-        <v>0.452233</v>
+        <v>0.250866</v>
       </c>
       <c r="D40" t="n">
-        <v>0.437182</v>
+        <v>0.248263</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.464377</v>
+        <v>0.221272</v>
       </c>
       <c r="C41" t="n">
-        <v>0.444172</v>
+        <v>0.247143</v>
       </c>
       <c r="D41" t="n">
-        <v>0.429657</v>
+        <v>0.249205</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.454864</v>
+        <v>0.217354</v>
       </c>
       <c r="C42" t="n">
-        <v>0.436123</v>
+        <v>0.248107</v>
       </c>
       <c r="D42" t="n">
-        <v>0.421964</v>
+        <v>0.249588</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.44562</v>
+        <v>0.212451</v>
       </c>
       <c r="C43" t="n">
-        <v>0.427935</v>
+        <v>0.244853</v>
       </c>
       <c r="D43" t="n">
-        <v>0.413898</v>
+        <v>0.247008</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.436818</v>
+        <v>0.207268</v>
       </c>
       <c r="C44" t="n">
-        <v>0.421519</v>
+        <v>0.243774</v>
       </c>
       <c r="D44" t="n">
-        <v>0.407271</v>
+        <v>0.250721</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.428783</v>
+        <v>0.202526</v>
       </c>
       <c r="C45" t="n">
-        <v>0.4147</v>
+        <v>0.240714</v>
       </c>
       <c r="D45" t="n">
-        <v>0.402332</v>
+        <v>0.250058</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.421117</v>
+        <v>0.198717</v>
       </c>
       <c r="C46" t="n">
-        <v>0.40932</v>
+        <v>0.242765</v>
       </c>
       <c r="D46" t="n">
-        <v>0.397514</v>
+        <v>0.24623</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.414225</v>
+        <v>0.197107</v>
       </c>
       <c r="C47" t="n">
-        <v>0.403936</v>
+        <v>0.243111</v>
       </c>
       <c r="D47" t="n">
-        <v>0.391542</v>
+        <v>0.242136</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.407597</v>
+        <v>0.193741</v>
       </c>
       <c r="C48" t="n">
-        <v>0.40121</v>
+        <v>0.243433</v>
       </c>
       <c r="D48" t="n">
-        <v>0.388801</v>
+        <v>0.237706</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.402573</v>
+        <v>0.188026</v>
       </c>
       <c r="C49" t="n">
-        <v>0.39671</v>
+        <v>0.240845</v>
       </c>
       <c r="D49" t="n">
-        <v>0.385042</v>
+        <v>0.24857</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.398004</v>
+        <v>0.178845</v>
       </c>
       <c r="C50" t="n">
-        <v>0.392695</v>
+        <v>0.242013</v>
       </c>
       <c r="D50" t="n">
-        <v>0.383689</v>
+        <v>0.240203</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.394744</v>
+        <v>0.174374</v>
       </c>
       <c r="C51" t="n">
-        <v>0.391237</v>
+        <v>0.240983</v>
       </c>
       <c r="D51" t="n">
-        <v>0.530651</v>
+        <v>0.265416</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.366171</v>
+        <v>0.168491</v>
       </c>
       <c r="C52" t="n">
-        <v>0.390944</v>
+        <v>0.244508</v>
       </c>
       <c r="D52" t="n">
-        <v>0.5197040000000001</v>
+        <v>0.263069</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.503107</v>
+        <v>0.231805</v>
       </c>
       <c r="C53" t="n">
-        <v>0.481739</v>
+        <v>0.25797</v>
       </c>
       <c r="D53" t="n">
-        <v>0.461765</v>
+        <v>0.257287</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.49292</v>
+        <v>0.227368</v>
       </c>
       <c r="C54" t="n">
-        <v>0.474355</v>
+        <v>0.255913</v>
       </c>
       <c r="D54" t="n">
-        <v>0.456295</v>
+        <v>0.254047</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.482811</v>
+        <v>0.22155</v>
       </c>
       <c r="C55" t="n">
-        <v>0.465581</v>
+        <v>0.253272</v>
       </c>
       <c r="D55" t="n">
-        <v>0.448806</v>
+        <v>0.252816</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.473547</v>
+        <v>0.220585</v>
       </c>
       <c r="C56" t="n">
-        <v>0.456559</v>
+        <v>0.25197</v>
       </c>
       <c r="D56" t="n">
-        <v>0.441124</v>
+        <v>0.252868</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.464414</v>
+        <v>0.216158</v>
       </c>
       <c r="C57" t="n">
-        <v>0.450507</v>
+        <v>0.252559</v>
       </c>
       <c r="D57" t="n">
-        <v>0.435297</v>
+        <v>0.253391</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.45594</v>
+        <v>0.210447</v>
       </c>
       <c r="C58" t="n">
-        <v>0.443566</v>
+        <v>0.249183</v>
       </c>
       <c r="D58" t="n">
-        <v>0.427664</v>
+        <v>0.252662</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.447017</v>
+        <v>0.208719</v>
       </c>
       <c r="C59" t="n">
-        <v>0.437999</v>
+        <v>0.248578</v>
       </c>
       <c r="D59" t="n">
-        <v>0.422882</v>
+        <v>0.253539</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.4406</v>
+        <v>0.204283</v>
       </c>
       <c r="C60" t="n">
-        <v>0.432596</v>
+        <v>0.248277</v>
       </c>
       <c r="D60" t="n">
-        <v>0.41769</v>
+        <v>0.247099</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.434002</v>
+        <v>0.199945</v>
       </c>
       <c r="C61" t="n">
-        <v>0.425902</v>
+        <v>0.248197</v>
       </c>
       <c r="D61" t="n">
-        <v>0.413106</v>
+        <v>0.246645</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.427622</v>
+        <v>0.193981</v>
       </c>
       <c r="C62" t="n">
-        <v>0.420371</v>
+        <v>0.243224</v>
       </c>
       <c r="D62" t="n">
-        <v>0.408361</v>
+        <v>0.246508</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.422316</v>
+        <v>0.18843</v>
       </c>
       <c r="C63" t="n">
-        <v>0.416796</v>
+        <v>0.247585</v>
       </c>
       <c r="D63" t="n">
-        <v>0.40576</v>
+        <v>0.244795</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.41795</v>
+        <v>0.182674</v>
       </c>
       <c r="C64" t="n">
-        <v>0.414779</v>
+        <v>0.242301</v>
       </c>
       <c r="D64" t="n">
-        <v>0.405586</v>
+        <v>0.24321</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.41434</v>
+        <v>0.176528</v>
       </c>
       <c r="C65" t="n">
-        <v>0.413906</v>
+        <v>0.243189</v>
       </c>
       <c r="D65" t="n">
-        <v>0.405955</v>
+        <v>0.242799</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.412846</v>
+        <v>0.168787</v>
       </c>
       <c r="C66" t="n">
-        <v>0.414413</v>
+        <v>0.244919</v>
       </c>
       <c r="D66" t="n">
-        <v>0.5398770000000001</v>
+        <v>0.258268</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.526357</v>
+        <v>0.23617</v>
       </c>
       <c r="C67" t="n">
-        <v>0.502997</v>
+        <v>0.258546</v>
       </c>
       <c r="D67" t="n">
-        <v>0.483686</v>
+        <v>0.258979</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.515536</v>
+        <v>0.231644</v>
       </c>
       <c r="C68" t="n">
-        <v>0.493912</v>
+        <v>0.261819</v>
       </c>
       <c r="D68" t="n">
-        <v>0.476084</v>
+        <v>0.261253</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.505605</v>
+        <v>0.229802</v>
       </c>
       <c r="C69" t="n">
-        <v>0.486152</v>
+        <v>0.258243</v>
       </c>
       <c r="D69" t="n">
-        <v>0.468403</v>
+        <v>0.255044</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.496228</v>
+        <v>0.224572</v>
       </c>
       <c r="C70" t="n">
-        <v>0.477959</v>
+        <v>0.255756</v>
       </c>
       <c r="D70" t="n">
-        <v>0.462048</v>
+        <v>0.255658</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.490323</v>
+        <v>0.219696</v>
       </c>
       <c r="C71" t="n">
-        <v>0.472331</v>
+        <v>0.251401</v>
       </c>
       <c r="D71" t="n">
-        <v>0.457469</v>
+        <v>0.254065</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.480856</v>
+        <v>0.216249</v>
       </c>
       <c r="C72" t="n">
-        <v>0.463424</v>
+        <v>0.25231</v>
       </c>
       <c r="D72" t="n">
-        <v>0.448901</v>
+        <v>0.253949</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.473196</v>
+        <v>0.21168</v>
       </c>
       <c r="C73" t="n">
-        <v>0.459866</v>
+        <v>0.249765</v>
       </c>
       <c r="D73" t="n">
-        <v>0.444235</v>
+        <v>0.248998</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.465126</v>
+        <v>0.207062</v>
       </c>
       <c r="C74" t="n">
-        <v>0.451017</v>
+        <v>0.249948</v>
       </c>
       <c r="D74" t="n">
-        <v>0.438082</v>
+        <v>0.247372</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.457666</v>
+        <v>0.201166</v>
       </c>
       <c r="C75" t="n">
-        <v>0.446777</v>
+        <v>0.24971</v>
       </c>
       <c r="D75" t="n">
-        <v>0.434365</v>
+        <v>0.245031</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.449317</v>
+        <v>0.197386</v>
       </c>
       <c r="C76" t="n">
-        <v>0.440988</v>
+        <v>0.248111</v>
       </c>
       <c r="D76" t="n">
-        <v>0.430019</v>
+        <v>0.246583</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.442965</v>
+        <v>0.193062</v>
       </c>
       <c r="C77" t="n">
-        <v>0.437614</v>
+        <v>0.249198</v>
       </c>
       <c r="D77" t="n">
-        <v>0.426796</v>
+        <v>0.246038</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.439619</v>
+        <v>0.185643</v>
       </c>
       <c r="C78" t="n">
-        <v>0.43406</v>
+        <v>0.248307</v>
       </c>
       <c r="D78" t="n">
-        <v>0.424742</v>
+        <v>0.246659</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.436967</v>
+        <v>0.17901</v>
       </c>
       <c r="C79" t="n">
-        <v>0.432849</v>
+        <v>0.247516</v>
       </c>
       <c r="D79" t="n">
-        <v>0.426526</v>
+        <v>0.244396</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.434422</v>
+        <v>0.17526</v>
       </c>
       <c r="C80" t="n">
-        <v>0.435389</v>
+        <v>0.243806</v>
       </c>
       <c r="D80" t="n">
-        <v>0.575447</v>
+        <v>0.266185</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.565968</v>
+        <v>0.242874</v>
       </c>
       <c r="C81" t="n">
-        <v>0.5327499999999999</v>
+        <v>0.267074</v>
       </c>
       <c r="D81" t="n">
-        <v>0.51314</v>
+        <v>0.264681</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.560478</v>
+        <v>0.235402</v>
       </c>
       <c r="C82" t="n">
-        <v>0.528497</v>
+        <v>0.25905</v>
       </c>
       <c r="D82" t="n">
-        <v>0.506592</v>
+        <v>0.260065</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.552724</v>
+        <v>0.235995</v>
       </c>
       <c r="C83" t="n">
-        <v>0.51949</v>
+        <v>0.257957</v>
       </c>
       <c r="D83" t="n">
-        <v>0.499072</v>
+        <v>0.260078</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.544741</v>
+        <v>0.232314</v>
       </c>
       <c r="C84" t="n">
-        <v>0.5124339999999999</v>
+        <v>0.259435</v>
       </c>
       <c r="D84" t="n">
-        <v>0.492137</v>
+        <v>0.258491</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.537546</v>
+        <v>0.229</v>
       </c>
       <c r="C85" t="n">
-        <v>0.506908</v>
+        <v>0.257783</v>
       </c>
       <c r="D85" t="n">
-        <v>0.486941</v>
+        <v>0.254911</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.530534</v>
+        <v>0.222138</v>
       </c>
       <c r="C86" t="n">
-        <v>0.496651</v>
+        <v>0.253418</v>
       </c>
       <c r="D86" t="n">
-        <v>0.47795</v>
+        <v>0.257986</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.5214490000000001</v>
+        <v>0.216866</v>
       </c>
       <c r="C87" t="n">
-        <v>0.489099</v>
+        <v>0.252449</v>
       </c>
       <c r="D87" t="n">
-        <v>0.470991</v>
+        <v>0.251616</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.513958</v>
+        <v>0.21284</v>
       </c>
       <c r="C88" t="n">
-        <v>0.482817</v>
+        <v>0.252473</v>
       </c>
       <c r="D88" t="n">
-        <v>0.466507</v>
+        <v>0.247868</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.504652</v>
+        <v>0.210712</v>
       </c>
       <c r="C89" t="n">
-        <v>0.477962</v>
+        <v>0.252695</v>
       </c>
       <c r="D89" t="n">
-        <v>0.462838</v>
+        <v>0.249773</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.498914</v>
+        <v>0.199679</v>
       </c>
       <c r="C90" t="n">
-        <v>0.468684</v>
+        <v>0.251721</v>
       </c>
       <c r="D90" t="n">
-        <v>0.453128</v>
+        <v>0.255649</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.48933</v>
+        <v>0.194567</v>
       </c>
       <c r="C91" t="n">
-        <v>0.468871</v>
+        <v>0.249717</v>
       </c>
       <c r="D91" t="n">
-        <v>0.455563</v>
+        <v>0.245697</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.48491</v>
+        <v>0.190848</v>
       </c>
       <c r="C92" t="n">
-        <v>0.463585</v>
+        <v>0.256121</v>
       </c>
       <c r="D92" t="n">
-        <v>0.452075</v>
+        <v>0.248276</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.479149</v>
+        <v>0.184587</v>
       </c>
       <c r="C93" t="n">
-        <v>0.462024</v>
+        <v>0.246996</v>
       </c>
       <c r="D93" t="n">
-        <v>0.452057</v>
+        <v>0.244536</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.477014</v>
+        <v>0.178623</v>
       </c>
       <c r="C94" t="n">
-        <v>0.459445</v>
+        <v>0.247927</v>
       </c>
       <c r="D94" t="n">
-        <v>0.625212</v>
+        <v>0.266556</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.615771</v>
+        <v>0.243603</v>
       </c>
       <c r="C95" t="n">
-        <v>0.5791770000000001</v>
+        <v>0.268587</v>
       </c>
       <c r="D95" t="n">
-        <v>0.580606</v>
+        <v>0.265581</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.625183</v>
+        <v>0.243928</v>
       </c>
       <c r="C96" t="n">
-        <v>0.584118</v>
+        <v>0.267822</v>
       </c>
       <c r="D96" t="n">
-        <v>0.573974</v>
+        <v>0.265694</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.627619</v>
+        <v>0.238462</v>
       </c>
       <c r="C97" t="n">
-        <v>0.583971</v>
+        <v>0.263448</v>
       </c>
       <c r="D97" t="n">
-        <v>0.570699</v>
+        <v>0.258183</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.628699</v>
+        <v>0.232512</v>
       </c>
       <c r="C98" t="n">
-        <v>0.581881</v>
+        <v>0.263401</v>
       </c>
       <c r="D98" t="n">
-        <v>0.566167</v>
+        <v>0.263384</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.6248359999999999</v>
+        <v>0.227238</v>
       </c>
       <c r="C99" t="n">
-        <v>0.582977</v>
+        <v>0.256841</v>
       </c>
       <c r="D99" t="n">
-        <v>0.5646640000000001</v>
+        <v>0.261111</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.618434</v>
+        <v>0.222881</v>
       </c>
       <c r="C100" t="n">
-        <v>0.5866400000000001</v>
+        <v>0.256181</v>
       </c>
       <c r="D100" t="n">
-        <v>0.568642</v>
+        <v>0.257989</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.614816</v>
+        <v>0.217989</v>
       </c>
       <c r="C101" t="n">
-        <v>0.574329</v>
+        <v>0.255317</v>
       </c>
       <c r="D101" t="n">
-        <v>0.555435</v>
+        <v>0.253161</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.609684</v>
+        <v>0.216398</v>
       </c>
       <c r="C102" t="n">
-        <v>0.581054</v>
+        <v>0.254091</v>
       </c>
       <c r="D102" t="n">
-        <v>0.561219</v>
+        <v>0.254084</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.607858</v>
+        <v>0.208575</v>
       </c>
       <c r="C103" t="n">
-        <v>0.580578</v>
+        <v>0.255868</v>
       </c>
       <c r="D103" t="n">
-        <v>0.561532</v>
+        <v>0.253059</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.601651</v>
+        <v>0.206179</v>
       </c>
       <c r="C104" t="n">
-        <v>0.575932</v>
+        <v>0.253721</v>
       </c>
       <c r="D104" t="n">
-        <v>0.554651</v>
+        <v>0.252827</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.594377</v>
+        <v>0.198993</v>
       </c>
       <c r="C105" t="n">
-        <v>0.575098</v>
+        <v>0.24966</v>
       </c>
       <c r="D105" t="n">
-        <v>0.551903</v>
+        <v>0.250433</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.591632</v>
+        <v>0.19356</v>
       </c>
       <c r="C106" t="n">
-        <v>0.572231</v>
+        <v>0.250492</v>
       </c>
       <c r="D106" t="n">
-        <v>0.551675</v>
+        <v>0.252162</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.592825</v>
+        <v>0.184895</v>
       </c>
       <c r="C107" t="n">
-        <v>0.574908</v>
+        <v>0.249402</v>
       </c>
       <c r="D107" t="n">
-        <v>0.555581</v>
+        <v>0.248279</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.593493</v>
+        <v>0.178927</v>
       </c>
       <c r="C108" t="n">
-        <v>0.553569</v>
+        <v>0.248309</v>
       </c>
       <c r="D108" t="n">
-        <v>0.712404</v>
+        <v>0.264426</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.561189</v>
+        <v>0.171392</v>
       </c>
       <c r="C109" t="n">
-        <v>0.575809</v>
+        <v>0.246962</v>
       </c>
       <c r="D109" t="n">
-        <v>0.717092</v>
+        <v>0.264706</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.713542</v>
+        <v>0.24332</v>
       </c>
       <c r="C110" t="n">
-        <v>0.72849</v>
+        <v>0.27016</v>
       </c>
       <c r="D110" t="n">
-        <v>0.7317129999999999</v>
+        <v>0.26465</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.712306</v>
+        <v>0.237567</v>
       </c>
       <c r="C111" t="n">
-        <v>0.731681</v>
+        <v>0.267691</v>
       </c>
       <c r="D111" t="n">
-        <v>0.723956</v>
+        <v>0.262306</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.721266</v>
+        <v>0.233869</v>
       </c>
       <c r="C112" t="n">
-        <v>0.736511</v>
+        <v>0.264191</v>
       </c>
       <c r="D112" t="n">
-        <v>0.740908</v>
+        <v>0.261465</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.72642</v>
+        <v>0.232408</v>
       </c>
       <c r="C113" t="n">
-        <v>0.738642</v>
+        <v>0.262851</v>
       </c>
       <c r="D113" t="n">
-        <v>0.738827</v>
+        <v>0.260566</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.734469</v>
+        <v>0.225462</v>
       </c>
       <c r="C114" t="n">
-        <v>0.746316</v>
+        <v>0.25836</v>
       </c>
       <c r="D114" t="n">
-        <v>0.7529670000000001</v>
+        <v>0.25792</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.738177</v>
+        <v>0.22237</v>
       </c>
       <c r="C115" t="n">
-        <v>0.7499440000000001</v>
+        <v>0.258437</v>
       </c>
       <c r="D115" t="n">
-        <v>0.7543800000000001</v>
+        <v>0.256826</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.737669</v>
+        <v>0.218197</v>
       </c>
       <c r="C116" t="n">
-        <v>0.75287</v>
+        <v>0.257712</v>
       </c>
       <c r="D116" t="n">
-        <v>0.7607660000000001</v>
+        <v>0.256969</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.747733</v>
+        <v>0.210368</v>
       </c>
       <c r="C117" t="n">
-        <v>0.760428</v>
+        <v>0.25034</v>
       </c>
       <c r="D117" t="n">
-        <v>0.747818</v>
+        <v>0.252468</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.750954</v>
+        <v>0.210775</v>
       </c>
       <c r="C118" t="n">
-        <v>0.763644</v>
+        <v>0.251427</v>
       </c>
       <c r="D118" t="n">
-        <v>0.764697</v>
+        <v>0.253845</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.756479</v>
+        <v>0.200953</v>
       </c>
       <c r="C119" t="n">
-        <v>0.768473</v>
+        <v>0.246681</v>
       </c>
       <c r="D119" t="n">
-        <v>0.767522</v>
+        <v>0.258432</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.758042</v>
+        <v>0.195805</v>
       </c>
       <c r="C120" t="n">
-        <v>0.7714299999999999</v>
+        <v>0.251161</v>
       </c>
       <c r="D120" t="n">
-        <v>0.769669</v>
+        <v>0.250746</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.76302</v>
+        <v>0.194428</v>
       </c>
       <c r="C121" t="n">
-        <v>0.777766</v>
+        <v>0.24843</v>
       </c>
       <c r="D121" t="n">
-        <v>0.771825</v>
+        <v>0.247014</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.7667040000000001</v>
+        <v>0.18137</v>
       </c>
       <c r="C122" t="n">
-        <v>0.773653</v>
+        <v>0.248733</v>
       </c>
       <c r="D122" t="n">
-        <v>0.776632</v>
+        <v>0.2498</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.7703140000000001</v>
+        <v>0.172821</v>
       </c>
       <c r="C123" t="n">
-        <v>0.782984</v>
+        <v>0.247384</v>
       </c>
       <c r="D123" t="n">
-        <v>0.926185</v>
+        <v>0.268813</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.929902</v>
+        <v>0.240243</v>
       </c>
       <c r="C124" t="n">
-        <v>0.942107</v>
+        <v>0.264716</v>
       </c>
       <c r="D124" t="n">
-        <v>0.935725</v>
+        <v>0.265383</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.9384400000000001</v>
+        <v>0.239287</v>
       </c>
       <c r="C125" t="n">
-        <v>0.94681</v>
+        <v>0.262613</v>
       </c>
       <c r="D125" t="n">
-        <v>0.935107</v>
+        <v>0.265045</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.946881</v>
+        <v>0.235149</v>
       </c>
       <c r="C126" t="n">
-        <v>0.959792</v>
+        <v>0.264146</v>
       </c>
       <c r="D126" t="n">
-        <v>0.933244</v>
+        <v>0.262226</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.9514629999999999</v>
+        <v>0.231352</v>
       </c>
       <c r="C127" t="n">
-        <v>0.963234</v>
+        <v>0.263733</v>
       </c>
       <c r="D127" t="n">
-        <v>0.958448</v>
+        <v>0.257444</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.954074</v>
+        <v>0.231045</v>
       </c>
       <c r="C128" t="n">
-        <v>0.972394</v>
+        <v>0.259863</v>
       </c>
       <c r="D128" t="n">
-        <v>0.9522929999999999</v>
+        <v>0.257924</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.961182</v>
+        <v>0.223153</v>
       </c>
       <c r="C129" t="n">
-        <v>0.978176</v>
+        <v>0.255211</v>
       </c>
       <c r="D129" t="n">
-        <v>0.959046</v>
+        <v>0.25488</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.9697750000000001</v>
+        <v>0.216966</v>
       </c>
       <c r="C130" t="n">
-        <v>0.984114</v>
+        <v>0.256719</v>
       </c>
       <c r="D130" t="n">
-        <v>0.97964</v>
+        <v>0.257717</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.978108</v>
+        <v>0.20966</v>
       </c>
       <c r="C131" t="n">
-        <v>0.992324</v>
+        <v>0.257838</v>
       </c>
       <c r="D131" t="n">
-        <v>0.986726</v>
+        <v>0.250606</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.984422</v>
+        <v>0.208976</v>
       </c>
       <c r="C132" t="n">
-        <v>0.996776</v>
+        <v>0.253077</v>
       </c>
       <c r="D132" t="n">
-        <v>0.994061</v>
+        <v>0.250691</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.990686</v>
+        <v>0.199944</v>
       </c>
       <c r="C133" t="n">
-        <v>1.0071</v>
+        <v>0.249045</v>
       </c>
       <c r="D133" t="n">
-        <v>1.0007</v>
+        <v>0.250631</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.988071</v>
+        <v>0.196803</v>
       </c>
       <c r="C134" t="n">
-        <v>1.01323</v>
+        <v>0.24998</v>
       </c>
       <c r="D134" t="n">
-        <v>1.00412</v>
+        <v>0.249019</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.00471</v>
+        <v>0.188802</v>
       </c>
       <c r="C135" t="n">
-        <v>1.02516</v>
+        <v>0.248771</v>
       </c>
       <c r="D135" t="n">
-        <v>1.01228</v>
+        <v>0.245783</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.00814</v>
+        <v>0.18508</v>
       </c>
       <c r="C136" t="n">
-        <v>1.03297</v>
+        <v>0.248382</v>
       </c>
       <c r="D136" t="n">
-        <v>1.01166</v>
+        <v>0.250042</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.01527</v>
+        <v>0.175194</v>
       </c>
       <c r="C137" t="n">
-        <v>1.03436</v>
+        <v>0.24551</v>
       </c>
       <c r="D137" t="n">
-        <v>1.15916</v>
+        <v>0.278055</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.16752</v>
+        <v>0.242156</v>
       </c>
       <c r="C138" t="n">
-        <v>1.18539</v>
+        <v>0.266442</v>
       </c>
       <c r="D138" t="n">
-        <v>1.16666</v>
+        <v>0.26443</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.17321</v>
+        <v>0.241881</v>
       </c>
       <c r="C139" t="n">
-        <v>1.19203</v>
+        <v>0.267468</v>
       </c>
       <c r="D139" t="n">
-        <v>1.17526</v>
+        <v>0.266133</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.17953</v>
+        <v>0.234741</v>
       </c>
       <c r="C140" t="n">
-        <v>1.20047</v>
+        <v>0.262209</v>
       </c>
       <c r="D140" t="n">
-        <v>1.18371</v>
+        <v>0.261176</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.18701</v>
+        <v>0.233805</v>
       </c>
       <c r="C141" t="n">
-        <v>1.20575</v>
+        <v>0.256274</v>
       </c>
       <c r="D141" t="n">
-        <v>1.19078</v>
+        <v>0.254961</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.19324</v>
+        <v>0.227382</v>
       </c>
       <c r="C142" t="n">
-        <v>1.21395</v>
+        <v>0.256376</v>
       </c>
       <c r="D142" t="n">
-        <v>1.19804</v>
+        <v>0.262948</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.19787</v>
+        <v>0.222433</v>
       </c>
       <c r="C143" t="n">
-        <v>1.22161</v>
+        <v>0.253954</v>
       </c>
       <c r="D143" t="n">
-        <v>1.20537</v>
+        <v>0.254775</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Running erasure.xlsx
+++ b/vs-x64/Running erasure.xlsx
@@ -3249,13 +3249,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.201523</v>
+        <v>0.206513</v>
       </c>
       <c r="C2" t="n">
-        <v>0.242836</v>
+        <v>0.222635</v>
       </c>
       <c r="D2" t="n">
-        <v>0.247852</v>
+        <v>0.242696</v>
       </c>
     </row>
     <row r="3">
@@ -3263,13 +3263,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.191061</v>
+        <v>0.191725</v>
       </c>
       <c r="C3" t="n">
-        <v>0.238094</v>
+        <v>0.229985</v>
       </c>
       <c r="D3" t="n">
-        <v>0.250735</v>
+        <v>0.239325</v>
       </c>
     </row>
     <row r="4">
@@ -3277,13 +3277,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.19036</v>
+        <v>0.195272</v>
       </c>
       <c r="C4" t="n">
-        <v>0.234675</v>
+        <v>0.224253</v>
       </c>
       <c r="D4" t="n">
-        <v>0.236696</v>
+        <v>0.235769</v>
       </c>
     </row>
     <row r="5">
@@ -3291,13 +3291,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.181981</v>
+        <v>0.183878</v>
       </c>
       <c r="C5" t="n">
-        <v>0.237493</v>
+        <v>0.2192</v>
       </c>
       <c r="D5" t="n">
-        <v>0.232768</v>
+        <v>0.23818</v>
       </c>
     </row>
     <row r="6">
@@ -3305,13 +3305,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.177585</v>
+        <v>0.175914</v>
       </c>
       <c r="C6" t="n">
-        <v>0.232268</v>
+        <v>0.226296</v>
       </c>
       <c r="D6" t="n">
-        <v>0.234656</v>
+        <v>0.238087</v>
       </c>
     </row>
     <row r="7">
@@ -3319,13 +3319,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.173375</v>
+        <v>0.175279</v>
       </c>
       <c r="C7" t="n">
-        <v>0.237373</v>
+        <v>0.214916</v>
       </c>
       <c r="D7" t="n">
-        <v>0.236704</v>
+        <v>0.231763</v>
       </c>
     </row>
     <row r="8">
@@ -3333,13 +3333,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.166022</v>
+        <v>0.168088</v>
       </c>
       <c r="C8" t="n">
-        <v>0.22932</v>
+        <v>0.214332</v>
       </c>
       <c r="D8" t="n">
-        <v>0.232834</v>
+        <v>0.22971</v>
       </c>
     </row>
     <row r="9">
@@ -3347,13 +3347,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.166288</v>
+        <v>0.153557</v>
       </c>
       <c r="C9" t="n">
-        <v>0.233576</v>
+        <v>0.213873</v>
       </c>
       <c r="D9" t="n">
-        <v>0.246614</v>
+        <v>0.245119</v>
       </c>
     </row>
     <row r="10">
@@ -3361,13 +3361,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.228752</v>
+        <v>0.223704</v>
       </c>
       <c r="C10" t="n">
-        <v>0.242383</v>
+        <v>0.226692</v>
       </c>
       <c r="D10" t="n">
-        <v>0.246963</v>
+        <v>0.242142</v>
       </c>
     </row>
     <row r="11">
@@ -3375,13 +3375,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.220958</v>
+        <v>0.222012</v>
       </c>
       <c r="C11" t="n">
-        <v>0.24073</v>
+        <v>0.224744</v>
       </c>
       <c r="D11" t="n">
-        <v>0.241497</v>
+        <v>0.237072</v>
       </c>
     </row>
     <row r="12">
@@ -3389,13 +3389,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.215955</v>
+        <v>0.209365</v>
       </c>
       <c r="C12" t="n">
-        <v>0.239223</v>
+        <v>0.225742</v>
       </c>
       <c r="D12" t="n">
-        <v>0.23856</v>
+        <v>0.24164</v>
       </c>
     </row>
     <row r="13">
@@ -3403,13 +3403,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.215518</v>
+        <v>0.212315</v>
       </c>
       <c r="C13" t="n">
-        <v>0.239195</v>
+        <v>0.224022</v>
       </c>
       <c r="D13" t="n">
-        <v>0.244716</v>
+        <v>0.233765</v>
       </c>
     </row>
     <row r="14">
@@ -3417,13 +3417,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.204595</v>
+        <v>0.203609</v>
       </c>
       <c r="C14" t="n">
-        <v>0.238098</v>
+        <v>0.219628</v>
       </c>
       <c r="D14" t="n">
-        <v>0.239087</v>
+        <v>0.238387</v>
       </c>
     </row>
     <row r="15">
@@ -3431,13 +3431,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.20033</v>
+        <v>0.202134</v>
       </c>
       <c r="C15" t="n">
-        <v>0.238142</v>
+        <v>0.219045</v>
       </c>
       <c r="D15" t="n">
-        <v>0.238459</v>
+        <v>0.234326</v>
       </c>
     </row>
     <row r="16">
@@ -3445,13 +3445,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.201834</v>
+        <v>0.201728</v>
       </c>
       <c r="C16" t="n">
-        <v>0.237343</v>
+        <v>0.226168</v>
       </c>
       <c r="D16" t="n">
-        <v>0.237527</v>
+        <v>0.235595</v>
       </c>
     </row>
     <row r="17">
@@ -3459,13 +3459,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.193412</v>
+        <v>0.198768</v>
       </c>
       <c r="C17" t="n">
-        <v>0.238675</v>
+        <v>0.219687</v>
       </c>
       <c r="D17" t="n">
-        <v>0.240916</v>
+        <v>0.231569</v>
       </c>
     </row>
     <row r="18">
@@ -3473,13 +3473,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.189604</v>
+        <v>0.191633</v>
       </c>
       <c r="C18" t="n">
-        <v>0.240017</v>
+        <v>0.220115</v>
       </c>
       <c r="D18" t="n">
-        <v>0.238944</v>
+        <v>0.230563</v>
       </c>
     </row>
     <row r="19">
@@ -3487,13 +3487,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.184174</v>
+        <v>0.191456</v>
       </c>
       <c r="C19" t="n">
-        <v>0.23962</v>
+        <v>0.219556</v>
       </c>
       <c r="D19" t="n">
-        <v>0.241952</v>
+        <v>0.233106</v>
       </c>
     </row>
     <row r="20">
@@ -3501,13 +3501,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.179969</v>
+        <v>0.18535</v>
       </c>
       <c r="C20" t="n">
-        <v>0.232594</v>
+        <v>0.219644</v>
       </c>
       <c r="D20" t="n">
-        <v>0.233765</v>
+        <v>0.24018</v>
       </c>
     </row>
     <row r="21">
@@ -3515,13 +3515,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.175518</v>
+        <v>0.176548</v>
       </c>
       <c r="C21" t="n">
-        <v>0.23425</v>
+        <v>0.221936</v>
       </c>
       <c r="D21" t="n">
-        <v>0.233359</v>
+        <v>0.239114</v>
       </c>
     </row>
     <row r="22">
@@ -3529,13 +3529,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.17021</v>
+        <v>0.168165</v>
       </c>
       <c r="C22" t="n">
-        <v>0.234115</v>
+        <v>0.214601</v>
       </c>
       <c r="D22" t="n">
-        <v>0.234166</v>
+        <v>0.229163</v>
       </c>
     </row>
     <row r="23">
@@ -3543,13 +3543,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.162056</v>
+        <v>0.16321</v>
       </c>
       <c r="C23" t="n">
-        <v>0.237334</v>
+        <v>0.214538</v>
       </c>
       <c r="D23" t="n">
-        <v>0.246341</v>
+        <v>0.238838</v>
       </c>
     </row>
     <row r="24">
@@ -3557,13 +3557,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.224215</v>
+        <v>0.224376</v>
       </c>
       <c r="C24" t="n">
-        <v>0.250307</v>
+        <v>0.229016</v>
       </c>
       <c r="D24" t="n">
-        <v>0.247843</v>
+        <v>0.239283</v>
       </c>
     </row>
     <row r="25">
@@ -3571,13 +3571,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.217984</v>
+        <v>0.222053</v>
       </c>
       <c r="C25" t="n">
-        <v>0.243422</v>
+        <v>0.227565</v>
       </c>
       <c r="D25" t="n">
-        <v>0.244372</v>
+        <v>0.237143</v>
       </c>
     </row>
     <row r="26">
@@ -3585,13 +3585,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.216299</v>
+        <v>0.221631</v>
       </c>
       <c r="C26" t="n">
-        <v>0.247044</v>
+        <v>0.223467</v>
       </c>
       <c r="D26" t="n">
-        <v>0.243069</v>
+        <v>0.236614</v>
       </c>
     </row>
     <row r="27">
@@ -3599,13 +3599,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.221258</v>
+        <v>0.214395</v>
       </c>
       <c r="C27" t="n">
-        <v>0.242208</v>
+        <v>0.224925</v>
       </c>
       <c r="D27" t="n">
-        <v>0.244978</v>
+        <v>0.235251</v>
       </c>
     </row>
     <row r="28">
@@ -3613,13 +3613,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.214197</v>
+        <v>0.210562</v>
       </c>
       <c r="C28" t="n">
-        <v>0.240459</v>
+        <v>0.2281</v>
       </c>
       <c r="D28" t="n">
-        <v>0.239827</v>
+        <v>0.243606</v>
       </c>
     </row>
     <row r="29">
@@ -3627,13 +3627,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.210702</v>
+        <v>0.207908</v>
       </c>
       <c r="C29" t="n">
-        <v>0.24879</v>
+        <v>0.222969</v>
       </c>
       <c r="D29" t="n">
-        <v>0.244863</v>
+        <v>0.237155</v>
       </c>
     </row>
     <row r="30">
@@ -3641,13 +3641,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.203856</v>
+        <v>0.205334</v>
       </c>
       <c r="C30" t="n">
-        <v>0.238229</v>
+        <v>0.228218</v>
       </c>
       <c r="D30" t="n">
-        <v>0.240824</v>
+        <v>0.235735</v>
       </c>
     </row>
     <row r="31">
@@ -3655,13 +3655,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.209359</v>
+        <v>0.202584</v>
       </c>
       <c r="C31" t="n">
-        <v>0.244955</v>
+        <v>0.221471</v>
       </c>
       <c r="D31" t="n">
-        <v>0.240085</v>
+        <v>0.23275</v>
       </c>
     </row>
     <row r="32">
@@ -3669,13 +3669,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.197963</v>
+        <v>0.199039</v>
       </c>
       <c r="C32" t="n">
-        <v>0.245296</v>
+        <v>0.222451</v>
       </c>
       <c r="D32" t="n">
-        <v>0.239792</v>
+        <v>0.23209</v>
       </c>
     </row>
     <row r="33">
@@ -3683,13 +3683,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.189647</v>
+        <v>0.195334</v>
       </c>
       <c r="C33" t="n">
-        <v>0.236925</v>
+        <v>0.226127</v>
       </c>
       <c r="D33" t="n">
-        <v>0.2363</v>
+        <v>0.231532</v>
       </c>
     </row>
     <row r="34">
@@ -3697,13 +3697,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.191452</v>
+        <v>0.185161</v>
       </c>
       <c r="C34" t="n">
-        <v>0.235736</v>
+        <v>0.22285</v>
       </c>
       <c r="D34" t="n">
-        <v>0.239178</v>
+        <v>0.232</v>
       </c>
     </row>
     <row r="35">
@@ -3711,13 +3711,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.179571</v>
+        <v>0.180507</v>
       </c>
       <c r="C35" t="n">
-        <v>0.235461</v>
+        <v>0.217496</v>
       </c>
       <c r="D35" t="n">
-        <v>0.239208</v>
+        <v>0.230302</v>
       </c>
     </row>
     <row r="36">
@@ -3725,13 +3725,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.173583</v>
+        <v>0.179445</v>
       </c>
       <c r="C36" t="n">
-        <v>0.238663</v>
+        <v>0.217428</v>
       </c>
       <c r="D36" t="n">
-        <v>0.234785</v>
+        <v>0.230561</v>
       </c>
     </row>
     <row r="37">
@@ -3739,13 +3739,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.168068</v>
+        <v>0.170386</v>
       </c>
       <c r="C37" t="n">
-        <v>0.240907</v>
+        <v>0.22183</v>
       </c>
       <c r="D37" t="n">
-        <v>0.249719</v>
+        <v>0.241448</v>
       </c>
     </row>
     <row r="38">
@@ -3753,13 +3753,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.229391</v>
+        <v>0.225814</v>
       </c>
       <c r="C38" t="n">
-        <v>0.250548</v>
+        <v>0.234049</v>
       </c>
       <c r="D38" t="n">
-        <v>0.249226</v>
+        <v>0.241611</v>
       </c>
     </row>
     <row r="39">
@@ -3767,13 +3767,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.226579</v>
+        <v>0.228406</v>
       </c>
       <c r="C39" t="n">
-        <v>0.247575</v>
+        <v>0.231581</v>
       </c>
       <c r="D39" t="n">
-        <v>0.245605</v>
+        <v>0.241038</v>
       </c>
     </row>
     <row r="40">
@@ -3781,13 +3781,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.220232</v>
+        <v>0.22207</v>
       </c>
       <c r="C40" t="n">
-        <v>0.247079</v>
+        <v>0.231483</v>
       </c>
       <c r="D40" t="n">
-        <v>0.252189</v>
+        <v>0.238602</v>
       </c>
     </row>
     <row r="41">
@@ -3795,13 +3795,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.21917</v>
+        <v>0.218969</v>
       </c>
       <c r="C41" t="n">
-        <v>0.245902</v>
+        <v>0.230062</v>
       </c>
       <c r="D41" t="n">
-        <v>0.244748</v>
+        <v>0.243711</v>
       </c>
     </row>
     <row r="42">
@@ -3809,13 +3809,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.216749</v>
+        <v>0.219278</v>
       </c>
       <c r="C42" t="n">
-        <v>0.247262</v>
+        <v>0.227974</v>
       </c>
       <c r="D42" t="n">
-        <v>0.247351</v>
+        <v>0.239151</v>
       </c>
     </row>
     <row r="43">
@@ -3823,13 +3823,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.211547</v>
+        <v>0.211949</v>
       </c>
       <c r="C43" t="n">
-        <v>0.24409</v>
+        <v>0.223319</v>
       </c>
       <c r="D43" t="n">
-        <v>0.24092</v>
+        <v>0.258405</v>
       </c>
     </row>
     <row r="44">
@@ -3837,13 +3837,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.209932</v>
+        <v>0.20761</v>
       </c>
       <c r="C44" t="n">
-        <v>0.241288</v>
+        <v>0.229385</v>
       </c>
       <c r="D44" t="n">
-        <v>0.241661</v>
+        <v>0.235225</v>
       </c>
     </row>
     <row r="45">
@@ -3851,13 +3851,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.20562</v>
+        <v>0.200939</v>
       </c>
       <c r="C45" t="n">
-        <v>0.240675</v>
+        <v>0.223222</v>
       </c>
       <c r="D45" t="n">
-        <v>0.247202</v>
+        <v>0.236857</v>
       </c>
     </row>
     <row r="46">
@@ -3865,13 +3865,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.197452</v>
+        <v>0.201375</v>
       </c>
       <c r="C46" t="n">
-        <v>0.243419</v>
+        <v>0.222718</v>
       </c>
       <c r="D46" t="n">
-        <v>0.252579</v>
+        <v>0.239993</v>
       </c>
     </row>
     <row r="47">
@@ -3879,13 +3879,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.194619</v>
+        <v>0.194234</v>
       </c>
       <c r="C47" t="n">
-        <v>0.240787</v>
+        <v>0.222534</v>
       </c>
       <c r="D47" t="n">
-        <v>0.23978</v>
+        <v>0.236147</v>
       </c>
     </row>
     <row r="48">
@@ -3893,13 +3893,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.188042</v>
+        <v>0.190841</v>
       </c>
       <c r="C48" t="n">
-        <v>0.243088</v>
+        <v>0.220305</v>
       </c>
       <c r="D48" t="n">
-        <v>0.239805</v>
+        <v>0.233422</v>
       </c>
     </row>
     <row r="49">
@@ -3907,13 +3907,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.182903</v>
+        <v>0.186939</v>
       </c>
       <c r="C49" t="n">
-        <v>0.246832</v>
+        <v>0.220389</v>
       </c>
       <c r="D49" t="n">
-        <v>0.238606</v>
+        <v>0.231698</v>
       </c>
     </row>
     <row r="50">
@@ -3921,13 +3921,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.178609</v>
+        <v>0.179261</v>
       </c>
       <c r="C50" t="n">
-        <v>0.236892</v>
+        <v>0.218548</v>
       </c>
       <c r="D50" t="n">
-        <v>0.237481</v>
+        <v>0.236783</v>
       </c>
     </row>
     <row r="51">
@@ -3935,13 +3935,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.175585</v>
+        <v>0.170131</v>
       </c>
       <c r="C51" t="n">
-        <v>0.238105</v>
+        <v>0.218112</v>
       </c>
       <c r="D51" t="n">
-        <v>0.259515</v>
+        <v>0.251917</v>
       </c>
     </row>
     <row r="52">
@@ -3949,13 +3949,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.162775</v>
+        <v>0.163387</v>
       </c>
       <c r="C52" t="n">
-        <v>0.236807</v>
+        <v>0.21958</v>
       </c>
       <c r="D52" t="n">
-        <v>0.253918</v>
+        <v>0.247521</v>
       </c>
     </row>
     <row r="53">
@@ -3963,13 +3963,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.227825</v>
+        <v>0.224458</v>
       </c>
       <c r="C53" t="n">
-        <v>0.253015</v>
+        <v>0.233615</v>
       </c>
       <c r="D53" t="n">
-        <v>0.257137</v>
+        <v>0.248274</v>
       </c>
     </row>
     <row r="54">
@@ -3977,13 +3977,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.222249</v>
+        <v>0.222029</v>
       </c>
       <c r="C54" t="n">
-        <v>0.254023</v>
+        <v>0.233211</v>
       </c>
       <c r="D54" t="n">
-        <v>0.257104</v>
+        <v>0.250294</v>
       </c>
     </row>
     <row r="55">
@@ -3991,13 +3991,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.219733</v>
+        <v>0.221482</v>
       </c>
       <c r="C55" t="n">
-        <v>0.254919</v>
+        <v>0.236802</v>
       </c>
       <c r="D55" t="n">
-        <v>0.252598</v>
+        <v>0.243083</v>
       </c>
     </row>
     <row r="56">
@@ -4005,13 +4005,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.218538</v>
+        <v>0.214386</v>
       </c>
       <c r="C56" t="n">
-        <v>0.248909</v>
+        <v>0.22981</v>
       </c>
       <c r="D56" t="n">
-        <v>0.246413</v>
+        <v>0.245312</v>
       </c>
     </row>
     <row r="57">
@@ -4019,13 +4019,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.212818</v>
+        <v>0.211296</v>
       </c>
       <c r="C57" t="n">
-        <v>0.247486</v>
+        <v>0.228691</v>
       </c>
       <c r="D57" t="n">
-        <v>0.246271</v>
+        <v>0.246637</v>
       </c>
     </row>
     <row r="58">
@@ -4033,13 +4033,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.206926</v>
+        <v>0.20725</v>
       </c>
       <c r="C58" t="n">
-        <v>0.246141</v>
+        <v>0.228168</v>
       </c>
       <c r="D58" t="n">
-        <v>0.24923</v>
+        <v>0.240712</v>
       </c>
     </row>
     <row r="59">
@@ -4047,13 +4047,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.202811</v>
+        <v>0.202257</v>
       </c>
       <c r="C59" t="n">
-        <v>0.24957</v>
+        <v>0.231314</v>
       </c>
       <c r="D59" t="n">
-        <v>0.247171</v>
+        <v>0.239528</v>
       </c>
     </row>
     <row r="60">
@@ -4061,13 +4061,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.200272</v>
+        <v>0.199201</v>
       </c>
       <c r="C60" t="n">
-        <v>0.244765</v>
+        <v>0.226316</v>
       </c>
       <c r="D60" t="n">
-        <v>0.244617</v>
+        <v>0.237917</v>
       </c>
     </row>
     <row r="61">
@@ -4075,13 +4075,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.195479</v>
+        <v>0.194144</v>
       </c>
       <c r="C61" t="n">
-        <v>0.242832</v>
+        <v>0.230132</v>
       </c>
       <c r="D61" t="n">
-        <v>0.242993</v>
+        <v>0.246173</v>
       </c>
     </row>
     <row r="62">
@@ -4089,13 +4089,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.18999</v>
+        <v>0.189348</v>
       </c>
       <c r="C62" t="n">
-        <v>0.247289</v>
+        <v>0.229781</v>
       </c>
       <c r="D62" t="n">
-        <v>0.241408</v>
+        <v>0.23675</v>
       </c>
     </row>
     <row r="63">
@@ -4103,13 +4103,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.18592</v>
+        <v>0.18574</v>
       </c>
       <c r="C63" t="n">
-        <v>0.239587</v>
+        <v>0.225961</v>
       </c>
       <c r="D63" t="n">
-        <v>0.239894</v>
+        <v>0.235437</v>
       </c>
     </row>
     <row r="64">
@@ -4117,13 +4117,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.180091</v>
+        <v>0.180842</v>
       </c>
       <c r="C64" t="n">
-        <v>0.241657</v>
+        <v>0.222763</v>
       </c>
       <c r="D64" t="n">
-        <v>0.243031</v>
+        <v>0.23444</v>
       </c>
     </row>
     <row r="65">
@@ -4131,13 +4131,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.172748</v>
+        <v>0.171943</v>
       </c>
       <c r="C65" t="n">
-        <v>0.238885</v>
+        <v>0.222919</v>
       </c>
       <c r="D65" t="n">
-        <v>0.242618</v>
+        <v>0.245944</v>
       </c>
     </row>
     <row r="66">
@@ -4145,13 +4145,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.167577</v>
+        <v>0.168587</v>
       </c>
       <c r="C66" t="n">
-        <v>0.238211</v>
+        <v>0.220955</v>
       </c>
       <c r="D66" t="n">
-        <v>0.258481</v>
+        <v>0.249331</v>
       </c>
     </row>
     <row r="67">
@@ -4159,13 +4159,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.23163</v>
+        <v>0.232168</v>
       </c>
       <c r="C67" t="n">
-        <v>0.253894</v>
+        <v>0.237954</v>
       </c>
       <c r="D67" t="n">
-        <v>0.258616</v>
+        <v>0.248198</v>
       </c>
     </row>
     <row r="68">
@@ -4173,13 +4173,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.228588</v>
+        <v>0.228367</v>
       </c>
       <c r="C68" t="n">
-        <v>0.256813</v>
+        <v>0.234041</v>
       </c>
       <c r="D68" t="n">
-        <v>0.253941</v>
+        <v>0.245335</v>
       </c>
     </row>
     <row r="69">
@@ -4187,13 +4187,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.224647</v>
+        <v>0.225228</v>
       </c>
       <c r="C69" t="n">
-        <v>0.250327</v>
+        <v>0.235332</v>
       </c>
       <c r="D69" t="n">
-        <v>0.250097</v>
+        <v>0.249088</v>
       </c>
     </row>
     <row r="70">
@@ -4201,13 +4201,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.221224</v>
+        <v>0.224536</v>
       </c>
       <c r="C70" t="n">
-        <v>0.251867</v>
+        <v>0.232496</v>
       </c>
       <c r="D70" t="n">
-        <v>0.250052</v>
+        <v>0.245493</v>
       </c>
     </row>
     <row r="71">
@@ -4215,13 +4215,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.215952</v>
+        <v>0.218399</v>
       </c>
       <c r="C71" t="n">
-        <v>0.247222</v>
+        <v>0.233483</v>
       </c>
       <c r="D71" t="n">
-        <v>0.248156</v>
+        <v>0.244412</v>
       </c>
     </row>
     <row r="72">
@@ -4229,13 +4229,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.215335</v>
+        <v>0.213274</v>
       </c>
       <c r="C72" t="n">
-        <v>0.251541</v>
+        <v>0.228625</v>
       </c>
       <c r="D72" t="n">
-        <v>0.245135</v>
+        <v>0.245821</v>
       </c>
     </row>
     <row r="73">
@@ -4243,13 +4243,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.207277</v>
+        <v>0.209544</v>
       </c>
       <c r="C73" t="n">
-        <v>0.249194</v>
+        <v>0.227636</v>
       </c>
       <c r="D73" t="n">
-        <v>0.245994</v>
+        <v>0.243278</v>
       </c>
     </row>
     <row r="74">
@@ -4257,13 +4257,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.204387</v>
+        <v>0.205857</v>
       </c>
       <c r="C74" t="n">
-        <v>0.2435</v>
+        <v>0.230973</v>
       </c>
       <c r="D74" t="n">
-        <v>0.243001</v>
+        <v>0.239081</v>
       </c>
     </row>
     <row r="75">
@@ -4271,13 +4271,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.200416</v>
+        <v>0.201351</v>
       </c>
       <c r="C75" t="n">
-        <v>0.242312</v>
+        <v>0.233381</v>
       </c>
       <c r="D75" t="n">
-        <v>0.247747</v>
+        <v>0.240647</v>
       </c>
     </row>
     <row r="76">
@@ -4285,13 +4285,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.192226</v>
+        <v>0.193801</v>
       </c>
       <c r="C76" t="n">
-        <v>0.244994</v>
+        <v>0.232426</v>
       </c>
       <c r="D76" t="n">
-        <v>0.245027</v>
+        <v>0.237612</v>
       </c>
     </row>
     <row r="77">
@@ -4299,13 +4299,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.188482</v>
+        <v>0.19181</v>
       </c>
       <c r="C77" t="n">
-        <v>0.242051</v>
+        <v>0.223766</v>
       </c>
       <c r="D77" t="n">
-        <v>0.244609</v>
+        <v>0.240476</v>
       </c>
     </row>
     <row r="78">
@@ -4313,13 +4313,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.182484</v>
+        <v>0.185043</v>
       </c>
       <c r="C78" t="n">
-        <v>0.245929</v>
+        <v>0.223997</v>
       </c>
       <c r="D78" t="n">
-        <v>0.241631</v>
+        <v>0.23636</v>
       </c>
     </row>
     <row r="79">
@@ -4327,13 +4327,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.176351</v>
+        <v>0.17576</v>
       </c>
       <c r="C79" t="n">
-        <v>0.239628</v>
+        <v>0.225915</v>
       </c>
       <c r="D79" t="n">
-        <v>0.238117</v>
+        <v>0.24237</v>
       </c>
     </row>
     <row r="80">
@@ -4341,13 +4341,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.172724</v>
+        <v>0.16945</v>
       </c>
       <c r="C80" t="n">
-        <v>0.240015</v>
+        <v>0.222618</v>
       </c>
       <c r="D80" t="n">
-        <v>0.258708</v>
+        <v>0.261293</v>
       </c>
     </row>
     <row r="81">
@@ -4355,13 +4355,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.24271</v>
+        <v>0.245204</v>
       </c>
       <c r="C81" t="n">
-        <v>0.259965</v>
+        <v>0.247533</v>
       </c>
       <c r="D81" t="n">
-        <v>0.259047</v>
+        <v>0.265036</v>
       </c>
     </row>
     <row r="82">
@@ -4369,13 +4369,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.240333</v>
+        <v>0.244359</v>
       </c>
       <c r="C82" t="n">
-        <v>0.255806</v>
+        <v>0.24751</v>
       </c>
       <c r="D82" t="n">
-        <v>0.254565</v>
+        <v>0.257991</v>
       </c>
     </row>
     <row r="83">
@@ -4383,13 +4383,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.229501</v>
+        <v>0.247885</v>
       </c>
       <c r="C83" t="n">
-        <v>0.25413</v>
+        <v>0.249869</v>
       </c>
       <c r="D83" t="n">
-        <v>0.253489</v>
+        <v>0.258871</v>
       </c>
     </row>
     <row r="84">
@@ -4397,13 +4397,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.22335</v>
+        <v>0.232501</v>
       </c>
       <c r="C84" t="n">
-        <v>0.254227</v>
+        <v>0.238851</v>
       </c>
       <c r="D84" t="n">
-        <v>0.251921</v>
+        <v>0.250367</v>
       </c>
     </row>
     <row r="85">
@@ -4411,13 +4411,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.221198</v>
+        <v>0.224109</v>
       </c>
       <c r="C85" t="n">
-        <v>0.250342</v>
+        <v>0.236914</v>
       </c>
       <c r="D85" t="n">
-        <v>0.251675</v>
+        <v>0.251655</v>
       </c>
     </row>
     <row r="86">
@@ -4425,13 +4425,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.215682</v>
+        <v>0.216552</v>
       </c>
       <c r="C86" t="n">
-        <v>0.249735</v>
+        <v>0.237956</v>
       </c>
       <c r="D86" t="n">
-        <v>0.247803</v>
+        <v>0.246862</v>
       </c>
     </row>
     <row r="87">
@@ -4439,13 +4439,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.212808</v>
+        <v>0.216</v>
       </c>
       <c r="C87" t="n">
-        <v>0.248087</v>
+        <v>0.23781</v>
       </c>
       <c r="D87" t="n">
-        <v>0.246534</v>
+        <v>0.245506</v>
       </c>
     </row>
     <row r="88">
@@ -4453,13 +4453,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.207452</v>
+        <v>0.207892</v>
       </c>
       <c r="C88" t="n">
-        <v>0.255497</v>
+        <v>0.233638</v>
       </c>
       <c r="D88" t="n">
-        <v>0.246744</v>
+        <v>0.244746</v>
       </c>
     </row>
     <row r="89">
@@ -4467,13 +4467,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.200565</v>
+        <v>0.203179</v>
       </c>
       <c r="C89" t="n">
-        <v>0.250551</v>
+        <v>0.232352</v>
       </c>
       <c r="D89" t="n">
-        <v>0.248228</v>
+        <v>0.246096</v>
       </c>
     </row>
     <row r="90">
@@ -4481,13 +4481,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.199577</v>
+        <v>0.201311</v>
       </c>
       <c r="C90" t="n">
-        <v>0.251023</v>
+        <v>0.231549</v>
       </c>
       <c r="D90" t="n">
-        <v>0.245307</v>
+        <v>0.241485</v>
       </c>
     </row>
     <row r="91">
@@ -4495,13 +4495,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.192093</v>
+        <v>0.195768</v>
       </c>
       <c r="C91" t="n">
-        <v>0.243609</v>
+        <v>0.228352</v>
       </c>
       <c r="D91" t="n">
-        <v>0.24264</v>
+        <v>0.243184</v>
       </c>
     </row>
     <row r="92">
@@ -4509,13 +4509,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.185966</v>
+        <v>0.190158</v>
       </c>
       <c r="C92" t="n">
-        <v>0.246079</v>
+        <v>0.22699</v>
       </c>
       <c r="D92" t="n">
-        <v>0.24281</v>
+        <v>0.245371</v>
       </c>
     </row>
     <row r="93">
@@ -4523,13 +4523,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.18011</v>
+        <v>0.182817</v>
       </c>
       <c r="C93" t="n">
-        <v>0.241694</v>
+        <v>0.227453</v>
       </c>
       <c r="D93" t="n">
-        <v>0.243088</v>
+        <v>0.238469</v>
       </c>
     </row>
     <row r="94">
@@ -4537,13 +4537,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.17341</v>
+        <v>0.177026</v>
       </c>
       <c r="C94" t="n">
-        <v>0.240447</v>
+        <v>0.22531</v>
       </c>
       <c r="D94" t="n">
-        <v>0.260605</v>
+        <v>0.258482</v>
       </c>
     </row>
     <row r="95">
@@ -4551,13 +4551,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.238522</v>
+        <v>0.242015</v>
       </c>
       <c r="C95" t="n">
-        <v>0.260453</v>
+        <v>0.244672</v>
       </c>
       <c r="D95" t="n">
-        <v>0.260239</v>
+        <v>0.257704</v>
       </c>
     </row>
     <row r="96">
@@ -4565,13 +4565,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.234459</v>
+        <v>0.241653</v>
       </c>
       <c r="C96" t="n">
-        <v>0.259215</v>
+        <v>0.241612</v>
       </c>
       <c r="D96" t="n">
-        <v>0.257982</v>
+        <v>0.252501</v>
       </c>
     </row>
     <row r="97">
@@ -4579,13 +4579,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.232826</v>
+        <v>0.233672</v>
       </c>
       <c r="C97" t="n">
-        <v>0.257099</v>
+        <v>0.241235</v>
       </c>
       <c r="D97" t="n">
-        <v>0.255609</v>
+        <v>0.254437</v>
       </c>
     </row>
     <row r="98">
@@ -4593,13 +4593,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.230446</v>
+        <v>0.239637</v>
       </c>
       <c r="C98" t="n">
-        <v>0.254699</v>
+        <v>0.242256</v>
       </c>
       <c r="D98" t="n">
-        <v>0.253846</v>
+        <v>0.252919</v>
       </c>
     </row>
     <row r="99">
@@ -4607,13 +4607,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.223498</v>
+        <v>0.225146</v>
       </c>
       <c r="C99" t="n">
-        <v>0.25292</v>
+        <v>0.240811</v>
       </c>
       <c r="D99" t="n">
-        <v>0.256102</v>
+        <v>0.25175</v>
       </c>
     </row>
     <row r="100">
@@ -4621,13 +4621,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.220871</v>
+        <v>0.221387</v>
       </c>
       <c r="C100" t="n">
-        <v>0.252954</v>
+        <v>0.242347</v>
       </c>
       <c r="D100" t="n">
-        <v>0.256396</v>
+        <v>0.246984</v>
       </c>
     </row>
     <row r="101">
@@ -4635,13 +4635,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.213692</v>
+        <v>0.214844</v>
       </c>
       <c r="C101" t="n">
-        <v>0.257937</v>
+        <v>0.23524</v>
       </c>
       <c r="D101" t="n">
-        <v>0.248484</v>
+        <v>0.246123</v>
       </c>
     </row>
     <row r="102">
@@ -4649,13 +4649,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.208488</v>
+        <v>0.211361</v>
       </c>
       <c r="C102" t="n">
-        <v>0.249298</v>
+        <v>0.237533</v>
       </c>
       <c r="D102" t="n">
-        <v>0.254035</v>
+        <v>0.243541</v>
       </c>
     </row>
     <row r="103">
@@ -4663,13 +4663,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.202523</v>
+        <v>0.207243</v>
       </c>
       <c r="C103" t="n">
-        <v>0.247132</v>
+        <v>0.233718</v>
       </c>
       <c r="D103" t="n">
-        <v>0.246662</v>
+        <v>0.244235</v>
       </c>
     </row>
     <row r="104">
@@ -4677,13 +4677,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.199068</v>
+        <v>0.19875</v>
       </c>
       <c r="C104" t="n">
-        <v>0.245821</v>
+        <v>0.237525</v>
       </c>
       <c r="D104" t="n">
-        <v>0.245056</v>
+        <v>0.244792</v>
       </c>
     </row>
     <row r="105">
@@ -4691,13 +4691,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.193076</v>
+        <v>0.195986</v>
       </c>
       <c r="C105" t="n">
-        <v>0.24417</v>
+        <v>0.230973</v>
       </c>
       <c r="D105" t="n">
-        <v>0.24344</v>
+        <v>0.242852</v>
       </c>
     </row>
     <row r="106">
@@ -4705,13 +4705,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.187702</v>
+        <v>0.195054</v>
       </c>
       <c r="C106" t="n">
-        <v>0.244362</v>
+        <v>0.228879</v>
       </c>
       <c r="D106" t="n">
-        <v>0.242649</v>
+        <v>0.243951</v>
       </c>
     </row>
     <row r="107">
@@ -4719,13 +4719,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.180785</v>
+        <v>0.184148</v>
       </c>
       <c r="C107" t="n">
-        <v>0.246841</v>
+        <v>0.225921</v>
       </c>
       <c r="D107" t="n">
-        <v>0.2425</v>
+        <v>0.239298</v>
       </c>
     </row>
     <row r="108">
@@ -4733,13 +4733,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.174309</v>
+        <v>0.173719</v>
       </c>
       <c r="C108" t="n">
-        <v>0.242956</v>
+        <v>0.229427</v>
       </c>
       <c r="D108" t="n">
-        <v>0.264227</v>
+        <v>0.257039</v>
       </c>
     </row>
     <row r="109">
@@ -4747,13 +4747,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.166559</v>
+        <v>0.167645</v>
       </c>
       <c r="C109" t="n">
-        <v>0.24156</v>
+        <v>0.224694</v>
       </c>
       <c r="D109" t="n">
-        <v>0.259606</v>
+        <v>0.257154</v>
       </c>
     </row>
     <row r="110">
@@ -4761,13 +4761,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.236642</v>
+        <v>0.240514</v>
       </c>
       <c r="C110" t="n">
-        <v>0.260749</v>
+        <v>0.240906</v>
       </c>
       <c r="D110" t="n">
-        <v>0.257807</v>
+        <v>0.255889</v>
       </c>
     </row>
     <row r="111">
@@ -4775,13 +4775,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.232471</v>
+        <v>0.23339</v>
       </c>
       <c r="C111" t="n">
-        <v>0.25703</v>
+        <v>0.238881</v>
       </c>
       <c r="D111" t="n">
-        <v>0.258901</v>
+        <v>0.25234</v>
       </c>
     </row>
     <row r="112">
@@ -4789,13 +4789,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.227366</v>
+        <v>0.23119</v>
       </c>
       <c r="C112" t="n">
-        <v>0.257791</v>
+        <v>0.239788</v>
       </c>
       <c r="D112" t="n">
-        <v>0.255186</v>
+        <v>0.251524</v>
       </c>
     </row>
     <row r="113">
@@ -4803,13 +4803,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.22301</v>
+        <v>0.226899</v>
       </c>
       <c r="C113" t="n">
-        <v>0.253555</v>
+        <v>0.235911</v>
       </c>
       <c r="D113" t="n">
-        <v>0.254005</v>
+        <v>0.24884</v>
       </c>
     </row>
     <row r="114">
@@ -4817,13 +4817,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.220843</v>
+        <v>0.22459</v>
       </c>
       <c r="C114" t="n">
-        <v>0.252367</v>
+        <v>0.235276</v>
       </c>
       <c r="D114" t="n">
-        <v>0.253418</v>
+        <v>0.246517</v>
       </c>
     </row>
     <row r="115">
@@ -4831,13 +4831,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.215586</v>
+        <v>0.214091</v>
       </c>
       <c r="C115" t="n">
-        <v>0.250396</v>
+        <v>0.235865</v>
       </c>
       <c r="D115" t="n">
-        <v>0.250426</v>
+        <v>0.245022</v>
       </c>
     </row>
     <row r="116">
@@ -4845,13 +4845,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.212182</v>
+        <v>0.212758</v>
       </c>
       <c r="C116" t="n">
-        <v>0.248506</v>
+        <v>0.234419</v>
       </c>
       <c r="D116" t="n">
-        <v>0.247722</v>
+        <v>0.247037</v>
       </c>
     </row>
     <row r="117">
@@ -4859,13 +4859,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.212782</v>
+        <v>0.210027</v>
       </c>
       <c r="C117" t="n">
-        <v>0.246931</v>
+        <v>0.233323</v>
       </c>
       <c r="D117" t="n">
-        <v>0.25037</v>
+        <v>0.245666</v>
       </c>
     </row>
     <row r="118">
@@ -4873,13 +4873,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.200739</v>
+        <v>0.203605</v>
       </c>
       <c r="C118" t="n">
-        <v>0.256432</v>
+        <v>0.229743</v>
       </c>
       <c r="D118" t="n">
-        <v>0.246107</v>
+        <v>0.241564</v>
       </c>
     </row>
     <row r="119">
@@ -4887,13 +4887,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.194613</v>
+        <v>0.195253</v>
       </c>
       <c r="C119" t="n">
-        <v>0.245023</v>
+        <v>0.230994</v>
       </c>
       <c r="D119" t="n">
-        <v>0.244109</v>
+        <v>0.241769</v>
       </c>
     </row>
     <row r="120">
@@ -4901,13 +4901,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.189249</v>
+        <v>0.191051</v>
       </c>
       <c r="C120" t="n">
-        <v>0.244022</v>
+        <v>0.228548</v>
       </c>
       <c r="D120" t="n">
-        <v>0.245989</v>
+        <v>0.23994</v>
       </c>
     </row>
     <row r="121">
@@ -4915,13 +4915,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.18351</v>
+        <v>0.18444</v>
       </c>
       <c r="C121" t="n">
-        <v>0.24593</v>
+        <v>0.225535</v>
       </c>
       <c r="D121" t="n">
-        <v>0.243691</v>
+        <v>0.240544</v>
       </c>
     </row>
     <row r="122">
@@ -4929,13 +4929,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.176638</v>
+        <v>0.176981</v>
       </c>
       <c r="C122" t="n">
-        <v>0.243553</v>
+        <v>0.225402</v>
       </c>
       <c r="D122" t="n">
-        <v>0.242199</v>
+        <v>0.238263</v>
       </c>
     </row>
     <row r="123">
@@ -4943,13 +4943,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.168751</v>
+        <v>0.169136</v>
       </c>
       <c r="C123" t="n">
-        <v>0.241295</v>
+        <v>0.22402</v>
       </c>
       <c r="D123" t="n">
-        <v>0.260708</v>
+        <v>0.255304</v>
       </c>
     </row>
     <row r="124">
@@ -4957,13 +4957,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.235873</v>
+        <v>0.237301</v>
       </c>
       <c r="C124" t="n">
-        <v>0.260457</v>
+        <v>0.24257</v>
       </c>
       <c r="D124" t="n">
-        <v>0.263863</v>
+        <v>0.257155</v>
       </c>
     </row>
     <row r="125">
@@ -4971,13 +4971,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.235474</v>
+        <v>0.238201</v>
       </c>
       <c r="C125" t="n">
-        <v>0.258512</v>
+        <v>0.24055</v>
       </c>
       <c r="D125" t="n">
-        <v>0.256159</v>
+        <v>0.255898</v>
       </c>
     </row>
     <row r="126">
@@ -4985,13 +4985,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.228681</v>
+        <v>0.231492</v>
       </c>
       <c r="C126" t="n">
-        <v>0.260097</v>
+        <v>0.238527</v>
       </c>
       <c r="D126" t="n">
-        <v>0.254064</v>
+        <v>0.250592</v>
       </c>
     </row>
     <row r="127">
@@ -4999,13 +4999,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.223684</v>
+        <v>0.224793</v>
       </c>
       <c r="C127" t="n">
-        <v>0.258457</v>
+        <v>0.239225</v>
       </c>
       <c r="D127" t="n">
-        <v>0.255679</v>
+        <v>0.252785</v>
       </c>
     </row>
     <row r="128">
@@ -5013,13 +5013,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.221327</v>
+        <v>0.219971</v>
       </c>
       <c r="C128" t="n">
-        <v>0.253885</v>
+        <v>0.24397</v>
       </c>
       <c r="D128" t="n">
-        <v>0.251446</v>
+        <v>0.246221</v>
       </c>
     </row>
     <row r="129">
@@ -5027,13 +5027,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.215035</v>
+        <v>0.216543</v>
       </c>
       <c r="C129" t="n">
-        <v>0.250127</v>
+        <v>0.233647</v>
       </c>
       <c r="D129" t="n">
-        <v>0.249847</v>
+        <v>0.249993</v>
       </c>
     </row>
     <row r="130">
@@ -5041,13 +5041,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.209875</v>
+        <v>0.21063</v>
       </c>
       <c r="C130" t="n">
-        <v>0.249653</v>
+        <v>0.232669</v>
       </c>
       <c r="D130" t="n">
-        <v>0.248804</v>
+        <v>0.244019</v>
       </c>
     </row>
     <row r="131">
@@ -5055,13 +5055,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.205249</v>
+        <v>0.210684</v>
       </c>
       <c r="C131" t="n">
-        <v>0.257404</v>
+        <v>0.232943</v>
       </c>
       <c r="D131" t="n">
-        <v>0.246634</v>
+        <v>0.24344</v>
       </c>
     </row>
     <row r="132">
@@ -5069,13 +5069,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.202173</v>
+        <v>0.204246</v>
       </c>
       <c r="C132" t="n">
-        <v>0.246182</v>
+        <v>0.230009</v>
       </c>
       <c r="D132" t="n">
-        <v>0.247188</v>
+        <v>0.243968</v>
       </c>
     </row>
     <row r="133">
@@ -5083,13 +5083,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.195266</v>
+        <v>0.197725</v>
       </c>
       <c r="C133" t="n">
-        <v>0.245781</v>
+        <v>0.229438</v>
       </c>
       <c r="D133" t="n">
-        <v>0.245944</v>
+        <v>0.241853</v>
       </c>
     </row>
     <row r="134">
@@ -5097,13 +5097,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.190108</v>
+        <v>0.19011</v>
       </c>
       <c r="C134" t="n">
-        <v>0.243957</v>
+        <v>0.228026</v>
       </c>
       <c r="D134" t="n">
-        <v>0.245417</v>
+        <v>0.240192</v>
       </c>
     </row>
     <row r="135">
@@ -5111,13 +5111,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.188079</v>
+        <v>0.187251</v>
       </c>
       <c r="C135" t="n">
-        <v>0.243367</v>
+        <v>0.227767</v>
       </c>
       <c r="D135" t="n">
-        <v>0.244053</v>
+        <v>0.241387</v>
       </c>
     </row>
     <row r="136">
@@ -5125,13 +5125,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.1776</v>
+        <v>0.181727</v>
       </c>
       <c r="C136" t="n">
-        <v>0.245459</v>
+        <v>0.228514</v>
       </c>
       <c r="D136" t="n">
-        <v>0.243438</v>
+        <v>0.240811</v>
       </c>
     </row>
     <row r="137">
@@ -5139,13 +5139,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.170229</v>
+        <v>0.172733</v>
       </c>
       <c r="C137" t="n">
-        <v>0.241285</v>
+        <v>0.227176</v>
       </c>
       <c r="D137" t="n">
-        <v>0.260529</v>
+        <v>0.256058</v>
       </c>
     </row>
     <row r="138">
@@ -5153,13 +5153,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.236925</v>
+        <v>0.23967</v>
       </c>
       <c r="C138" t="n">
-        <v>0.260817</v>
+        <v>0.243648</v>
       </c>
       <c r="D138" t="n">
-        <v>0.260013</v>
+        <v>0.255757</v>
       </c>
     </row>
     <row r="139">
@@ -5167,13 +5167,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.234316</v>
+        <v>0.235581</v>
       </c>
       <c r="C139" t="n">
-        <v>0.257218</v>
+        <v>0.24379</v>
       </c>
       <c r="D139" t="n">
-        <v>0.256518</v>
+        <v>0.255694</v>
       </c>
     </row>
     <row r="140">
@@ -5181,13 +5181,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.230718</v>
+        <v>0.231133</v>
       </c>
       <c r="C140" t="n">
-        <v>0.257192</v>
+        <v>0.242658</v>
       </c>
       <c r="D140" t="n">
-        <v>0.255154</v>
+        <v>0.25009</v>
       </c>
     </row>
     <row r="141">
@@ -5195,13 +5195,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.227843</v>
+        <v>0.226192</v>
       </c>
       <c r="C141" t="n">
-        <v>0.254929</v>
+        <v>0.239235</v>
       </c>
       <c r="D141" t="n">
-        <v>0.255233</v>
+        <v>0.25209</v>
       </c>
     </row>
     <row r="142">
@@ -5209,13 +5209,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.221895</v>
+        <v>0.222929</v>
       </c>
       <c r="C142" t="n">
-        <v>0.25485</v>
+        <v>0.236723</v>
       </c>
       <c r="D142" t="n">
-        <v>0.252144</v>
+        <v>0.246714</v>
       </c>
     </row>
     <row r="143">
@@ -5223,13 +5223,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.217285</v>
+        <v>0.218351</v>
       </c>
       <c r="C143" t="n">
-        <v>0.254238</v>
+        <v>0.234169</v>
       </c>
       <c r="D143" t="n">
-        <v>0.251115</v>
+        <v>0.247336</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Running erasure.xlsx
+++ b/vs-x64/Running erasure.xlsx
@@ -3249,13 +3249,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.206513</v>
+        <v>0.199285</v>
       </c>
       <c r="C2" t="n">
-        <v>0.222635</v>
+        <v>0.218859</v>
       </c>
       <c r="D2" t="n">
-        <v>0.242696</v>
+        <v>0.237792</v>
       </c>
     </row>
     <row r="3">
@@ -3263,13 +3263,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.191725</v>
+        <v>0.191493</v>
       </c>
       <c r="C3" t="n">
-        <v>0.229985</v>
+        <v>0.221735</v>
       </c>
       <c r="D3" t="n">
-        <v>0.239325</v>
+        <v>0.247861</v>
       </c>
     </row>
     <row r="4">
@@ -3277,13 +3277,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.195272</v>
+        <v>0.197963</v>
       </c>
       <c r="C4" t="n">
-        <v>0.224253</v>
+        <v>0.224333</v>
       </c>
       <c r="D4" t="n">
-        <v>0.235769</v>
+        <v>0.240838</v>
       </c>
     </row>
     <row r="5">
@@ -3291,13 +3291,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.183878</v>
+        <v>0.188666</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2192</v>
+        <v>0.226473</v>
       </c>
       <c r="D5" t="n">
-        <v>0.23818</v>
+        <v>0.242901</v>
       </c>
     </row>
     <row r="6">
@@ -3305,13 +3305,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.175914</v>
+        <v>0.182772</v>
       </c>
       <c r="C6" t="n">
-        <v>0.226296</v>
+        <v>0.227168</v>
       </c>
       <c r="D6" t="n">
-        <v>0.238087</v>
+        <v>0.245519</v>
       </c>
     </row>
     <row r="7">
@@ -3319,13 +3319,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.175279</v>
+        <v>0.176618</v>
       </c>
       <c r="C7" t="n">
-        <v>0.214916</v>
+        <v>0.223594</v>
       </c>
       <c r="D7" t="n">
-        <v>0.231763</v>
+        <v>0.242025</v>
       </c>
     </row>
     <row r="8">
@@ -3333,13 +3333,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.168088</v>
+        <v>0.169904</v>
       </c>
       <c r="C8" t="n">
-        <v>0.214332</v>
+        <v>0.218935</v>
       </c>
       <c r="D8" t="n">
-        <v>0.22971</v>
+        <v>0.238086</v>
       </c>
     </row>
     <row r="9">
@@ -3347,13 +3347,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.153557</v>
+        <v>0.164146</v>
       </c>
       <c r="C9" t="n">
-        <v>0.213873</v>
+        <v>0.219878</v>
       </c>
       <c r="D9" t="n">
-        <v>0.245119</v>
+        <v>0.249679</v>
       </c>
     </row>
     <row r="10">
@@ -3361,13 +3361,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.223704</v>
+        <v>0.225583</v>
       </c>
       <c r="C10" t="n">
-        <v>0.226692</v>
+        <v>0.235613</v>
       </c>
       <c r="D10" t="n">
-        <v>0.242142</v>
+        <v>0.24145</v>
       </c>
     </row>
     <row r="11">
@@ -3375,13 +3375,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.222012</v>
+        <v>0.225696</v>
       </c>
       <c r="C11" t="n">
-        <v>0.224744</v>
+        <v>0.229605</v>
       </c>
       <c r="D11" t="n">
-        <v>0.237072</v>
+        <v>0.245121</v>
       </c>
     </row>
     <row r="12">
@@ -3389,13 +3389,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.209365</v>
+        <v>0.217639</v>
       </c>
       <c r="C12" t="n">
-        <v>0.225742</v>
+        <v>0.229207</v>
       </c>
       <c r="D12" t="n">
-        <v>0.24164</v>
+        <v>0.241054</v>
       </c>
     </row>
     <row r="13">
@@ -3403,13 +3403,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.212315</v>
+        <v>0.213161</v>
       </c>
       <c r="C13" t="n">
-        <v>0.224022</v>
+        <v>0.228643</v>
       </c>
       <c r="D13" t="n">
-        <v>0.233765</v>
+        <v>0.240215</v>
       </c>
     </row>
     <row r="14">
@@ -3417,13 +3417,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.203609</v>
+        <v>0.213005</v>
       </c>
       <c r="C14" t="n">
-        <v>0.219628</v>
+        <v>0.228618</v>
       </c>
       <c r="D14" t="n">
-        <v>0.238387</v>
+        <v>0.246665</v>
       </c>
     </row>
     <row r="15">
@@ -3431,13 +3431,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.202134</v>
+        <v>0.210673</v>
       </c>
       <c r="C15" t="n">
-        <v>0.219045</v>
+        <v>0.224465</v>
       </c>
       <c r="D15" t="n">
-        <v>0.234326</v>
+        <v>0.24007</v>
       </c>
     </row>
     <row r="16">
@@ -3445,13 +3445,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.201728</v>
+        <v>0.204295</v>
       </c>
       <c r="C16" t="n">
-        <v>0.226168</v>
+        <v>0.228534</v>
       </c>
       <c r="D16" t="n">
-        <v>0.235595</v>
+        <v>0.237579</v>
       </c>
     </row>
     <row r="17">
@@ -3459,13 +3459,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.198768</v>
+        <v>0.202036</v>
       </c>
       <c r="C17" t="n">
-        <v>0.219687</v>
+        <v>0.227026</v>
       </c>
       <c r="D17" t="n">
-        <v>0.231569</v>
+        <v>0.239068</v>
       </c>
     </row>
     <row r="18">
@@ -3473,13 +3473,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.191633</v>
+        <v>0.197971</v>
       </c>
       <c r="C18" t="n">
-        <v>0.220115</v>
+        <v>0.22213</v>
       </c>
       <c r="D18" t="n">
-        <v>0.230563</v>
+        <v>0.237656</v>
       </c>
     </row>
     <row r="19">
@@ -3487,13 +3487,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.191456</v>
+        <v>0.192204</v>
       </c>
       <c r="C19" t="n">
-        <v>0.219556</v>
+        <v>0.219894</v>
       </c>
       <c r="D19" t="n">
-        <v>0.233106</v>
+        <v>0.235359</v>
       </c>
     </row>
     <row r="20">
@@ -3501,13 +3501,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.18535</v>
+        <v>0.183505</v>
       </c>
       <c r="C20" t="n">
-        <v>0.219644</v>
+        <v>0.220713</v>
       </c>
       <c r="D20" t="n">
-        <v>0.24018</v>
+        <v>0.234255</v>
       </c>
     </row>
     <row r="21">
@@ -3515,13 +3515,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.176548</v>
+        <v>0.179546</v>
       </c>
       <c r="C21" t="n">
-        <v>0.221936</v>
+        <v>0.221126</v>
       </c>
       <c r="D21" t="n">
-        <v>0.239114</v>
+        <v>0.242073</v>
       </c>
     </row>
     <row r="22">
@@ -3529,13 +3529,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.168165</v>
+        <v>0.174924</v>
       </c>
       <c r="C22" t="n">
-        <v>0.214601</v>
+        <v>0.224491</v>
       </c>
       <c r="D22" t="n">
-        <v>0.229163</v>
+        <v>0.244182</v>
       </c>
     </row>
     <row r="23">
@@ -3543,13 +3543,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.16321</v>
+        <v>0.167715</v>
       </c>
       <c r="C23" t="n">
-        <v>0.214538</v>
+        <v>0.219871</v>
       </c>
       <c r="D23" t="n">
-        <v>0.238838</v>
+        <v>0.245595</v>
       </c>
     </row>
     <row r="24">
@@ -3557,13 +3557,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.224376</v>
+        <v>0.236275</v>
       </c>
       <c r="C24" t="n">
-        <v>0.229016</v>
+        <v>0.230738</v>
       </c>
       <c r="D24" t="n">
-        <v>0.239283</v>
+        <v>0.245263</v>
       </c>
     </row>
     <row r="25">
@@ -3571,13 +3571,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.222053</v>
+        <v>0.229219</v>
       </c>
       <c r="C25" t="n">
-        <v>0.227565</v>
+        <v>0.233156</v>
       </c>
       <c r="D25" t="n">
-        <v>0.237143</v>
+        <v>0.246425</v>
       </c>
     </row>
     <row r="26">
@@ -3585,13 +3585,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.221631</v>
+        <v>0.222393</v>
       </c>
       <c r="C26" t="n">
-        <v>0.223467</v>
+        <v>0.23347</v>
       </c>
       <c r="D26" t="n">
-        <v>0.236614</v>
+        <v>0.247685</v>
       </c>
     </row>
     <row r="27">
@@ -3599,13 +3599,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.214395</v>
+        <v>0.224897</v>
       </c>
       <c r="C27" t="n">
-        <v>0.224925</v>
+        <v>0.229356</v>
       </c>
       <c r="D27" t="n">
-        <v>0.235251</v>
+        <v>0.24363</v>
       </c>
     </row>
     <row r="28">
@@ -3613,13 +3613,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.210562</v>
+        <v>0.212</v>
       </c>
       <c r="C28" t="n">
-        <v>0.2281</v>
+        <v>0.228757</v>
       </c>
       <c r="D28" t="n">
-        <v>0.243606</v>
+        <v>0.240536</v>
       </c>
     </row>
     <row r="29">
@@ -3627,13 +3627,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.207908</v>
+        <v>0.209685</v>
       </c>
       <c r="C29" t="n">
-        <v>0.222969</v>
+        <v>0.232975</v>
       </c>
       <c r="D29" t="n">
-        <v>0.237155</v>
+        <v>0.237847</v>
       </c>
     </row>
     <row r="30">
@@ -3641,13 +3641,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.205334</v>
+        <v>0.204453</v>
       </c>
       <c r="C30" t="n">
-        <v>0.228218</v>
+        <v>0.225734</v>
       </c>
       <c r="D30" t="n">
-        <v>0.235735</v>
+        <v>0.243361</v>
       </c>
     </row>
     <row r="31">
@@ -3655,13 +3655,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.202584</v>
+        <v>0.202431</v>
       </c>
       <c r="C31" t="n">
-        <v>0.221471</v>
+        <v>0.229634</v>
       </c>
       <c r="D31" t="n">
-        <v>0.23275</v>
+        <v>0.235183</v>
       </c>
     </row>
     <row r="32">
@@ -3669,13 +3669,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.199039</v>
+        <v>0.202287</v>
       </c>
       <c r="C32" t="n">
-        <v>0.222451</v>
+        <v>0.228817</v>
       </c>
       <c r="D32" t="n">
-        <v>0.23209</v>
+        <v>0.246135</v>
       </c>
     </row>
     <row r="33">
@@ -3683,13 +3683,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.195334</v>
+        <v>0.198424</v>
       </c>
       <c r="C33" t="n">
-        <v>0.226127</v>
+        <v>0.226739</v>
       </c>
       <c r="D33" t="n">
-        <v>0.231532</v>
+        <v>0.240471</v>
       </c>
     </row>
     <row r="34">
@@ -3697,13 +3697,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.185161</v>
+        <v>0.192499</v>
       </c>
       <c r="C34" t="n">
-        <v>0.22285</v>
+        <v>0.223582</v>
       </c>
       <c r="D34" t="n">
-        <v>0.232</v>
+        <v>0.23727</v>
       </c>
     </row>
     <row r="35">
@@ -3711,13 +3711,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.180507</v>
+        <v>0.183268</v>
       </c>
       <c r="C35" t="n">
-        <v>0.217496</v>
+        <v>0.223781</v>
       </c>
       <c r="D35" t="n">
-        <v>0.230302</v>
+        <v>0.243505</v>
       </c>
     </row>
     <row r="36">
@@ -3725,13 +3725,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.179445</v>
+        <v>0.180566</v>
       </c>
       <c r="C36" t="n">
-        <v>0.217428</v>
+        <v>0.22519</v>
       </c>
       <c r="D36" t="n">
-        <v>0.230561</v>
+        <v>0.235025</v>
       </c>
     </row>
     <row r="37">
@@ -3739,13 +3739,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.170386</v>
+        <v>0.173425</v>
       </c>
       <c r="C37" t="n">
-        <v>0.22183</v>
+        <v>0.219994</v>
       </c>
       <c r="D37" t="n">
-        <v>0.241448</v>
+        <v>0.246059</v>
       </c>
     </row>
     <row r="38">
@@ -3753,13 +3753,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.225814</v>
+        <v>0.230666</v>
       </c>
       <c r="C38" t="n">
-        <v>0.234049</v>
+        <v>0.234769</v>
       </c>
       <c r="D38" t="n">
-        <v>0.241611</v>
+        <v>0.25077</v>
       </c>
     </row>
     <row r="39">
@@ -3767,13 +3767,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.228406</v>
+        <v>0.228116</v>
       </c>
       <c r="C39" t="n">
-        <v>0.231581</v>
+        <v>0.235819</v>
       </c>
       <c r="D39" t="n">
-        <v>0.241038</v>
+        <v>0.245163</v>
       </c>
     </row>
     <row r="40">
@@ -3781,13 +3781,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.22207</v>
+        <v>0.227485</v>
       </c>
       <c r="C40" t="n">
-        <v>0.231483</v>
+        <v>0.231334</v>
       </c>
       <c r="D40" t="n">
-        <v>0.238602</v>
+        <v>0.246434</v>
       </c>
     </row>
     <row r="41">
@@ -3795,13 +3795,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.218969</v>
+        <v>0.22117</v>
       </c>
       <c r="C41" t="n">
-        <v>0.230062</v>
+        <v>0.2307</v>
       </c>
       <c r="D41" t="n">
-        <v>0.243711</v>
+        <v>0.241594</v>
       </c>
     </row>
     <row r="42">
@@ -3809,13 +3809,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.219278</v>
+        <v>0.21923</v>
       </c>
       <c r="C42" t="n">
-        <v>0.227974</v>
+        <v>0.229406</v>
       </c>
       <c r="D42" t="n">
-        <v>0.239151</v>
+        <v>0.243356</v>
       </c>
     </row>
     <row r="43">
@@ -3823,13 +3823,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.211949</v>
+        <v>0.213491</v>
       </c>
       <c r="C43" t="n">
-        <v>0.223319</v>
+        <v>0.228812</v>
       </c>
       <c r="D43" t="n">
-        <v>0.258405</v>
+        <v>0.245764</v>
       </c>
     </row>
     <row r="44">
@@ -3837,13 +3837,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.20761</v>
+        <v>0.210285</v>
       </c>
       <c r="C44" t="n">
-        <v>0.229385</v>
+        <v>0.229491</v>
       </c>
       <c r="D44" t="n">
-        <v>0.235225</v>
+        <v>0.241684</v>
       </c>
     </row>
     <row r="45">
@@ -3851,13 +3851,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.200939</v>
+        <v>0.204276</v>
       </c>
       <c r="C45" t="n">
-        <v>0.223222</v>
+        <v>0.226911</v>
       </c>
       <c r="D45" t="n">
-        <v>0.236857</v>
+        <v>0.240411</v>
       </c>
     </row>
     <row r="46">
@@ -3865,13 +3865,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.201375</v>
+        <v>0.199911</v>
       </c>
       <c r="C46" t="n">
-        <v>0.222718</v>
+        <v>0.233111</v>
       </c>
       <c r="D46" t="n">
-        <v>0.239993</v>
+        <v>0.238825</v>
       </c>
     </row>
     <row r="47">
@@ -3879,13 +3879,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.194234</v>
+        <v>0.197036</v>
       </c>
       <c r="C47" t="n">
-        <v>0.222534</v>
+        <v>0.228449</v>
       </c>
       <c r="D47" t="n">
-        <v>0.236147</v>
+        <v>0.246701</v>
       </c>
     </row>
     <row r="48">
@@ -3893,13 +3893,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.190841</v>
+        <v>0.196658</v>
       </c>
       <c r="C48" t="n">
-        <v>0.220305</v>
+        <v>0.224766</v>
       </c>
       <c r="D48" t="n">
-        <v>0.233422</v>
+        <v>0.239166</v>
       </c>
     </row>
     <row r="49">
@@ -3907,13 +3907,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.186939</v>
+        <v>0.186535</v>
       </c>
       <c r="C49" t="n">
-        <v>0.220389</v>
+        <v>0.224701</v>
       </c>
       <c r="D49" t="n">
-        <v>0.231698</v>
+        <v>0.238642</v>
       </c>
     </row>
     <row r="50">
@@ -3921,13 +3921,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.179261</v>
+        <v>0.18167</v>
       </c>
       <c r="C50" t="n">
-        <v>0.218548</v>
+        <v>0.224073</v>
       </c>
       <c r="D50" t="n">
-        <v>0.236783</v>
+        <v>0.23874</v>
       </c>
     </row>
     <row r="51">
@@ -3935,13 +3935,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.170131</v>
+        <v>0.174721</v>
       </c>
       <c r="C51" t="n">
-        <v>0.218112</v>
+        <v>0.221355</v>
       </c>
       <c r="D51" t="n">
-        <v>0.251917</v>
+        <v>0.252574</v>
       </c>
     </row>
     <row r="52">
@@ -3949,13 +3949,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.163387</v>
+        <v>0.16631</v>
       </c>
       <c r="C52" t="n">
-        <v>0.21958</v>
+        <v>0.221963</v>
       </c>
       <c r="D52" t="n">
-        <v>0.247521</v>
+        <v>0.257275</v>
       </c>
     </row>
     <row r="53">
@@ -3963,13 +3963,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.224458</v>
+        <v>0.234107</v>
       </c>
       <c r="C53" t="n">
-        <v>0.233615</v>
+        <v>0.239695</v>
       </c>
       <c r="D53" t="n">
-        <v>0.248274</v>
+        <v>0.252978</v>
       </c>
     </row>
     <row r="54">
@@ -3977,13 +3977,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.222029</v>
+        <v>0.230012</v>
       </c>
       <c r="C54" t="n">
-        <v>0.233211</v>
+        <v>0.236337</v>
       </c>
       <c r="D54" t="n">
-        <v>0.250294</v>
+        <v>0.254102</v>
       </c>
     </row>
     <row r="55">
@@ -3991,13 +3991,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.221482</v>
+        <v>0.224715</v>
       </c>
       <c r="C55" t="n">
-        <v>0.236802</v>
+        <v>0.235975</v>
       </c>
       <c r="D55" t="n">
-        <v>0.243083</v>
+        <v>0.249991</v>
       </c>
     </row>
     <row r="56">
@@ -4005,13 +4005,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.214386</v>
+        <v>0.219829</v>
       </c>
       <c r="C56" t="n">
-        <v>0.22981</v>
+        <v>0.234119</v>
       </c>
       <c r="D56" t="n">
-        <v>0.245312</v>
+        <v>0.245135</v>
       </c>
     </row>
     <row r="57">
@@ -4019,13 +4019,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.211296</v>
+        <v>0.217415</v>
       </c>
       <c r="C57" t="n">
-        <v>0.228691</v>
+        <v>0.235015</v>
       </c>
       <c r="D57" t="n">
-        <v>0.246637</v>
+        <v>0.246097</v>
       </c>
     </row>
     <row r="58">
@@ -4033,13 +4033,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.20725</v>
+        <v>0.211968</v>
       </c>
       <c r="C58" t="n">
-        <v>0.228168</v>
+        <v>0.234194</v>
       </c>
       <c r="D58" t="n">
-        <v>0.240712</v>
+        <v>0.247619</v>
       </c>
     </row>
     <row r="59">
@@ -4047,13 +4047,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.202257</v>
+        <v>0.208524</v>
       </c>
       <c r="C59" t="n">
-        <v>0.231314</v>
+        <v>0.228898</v>
       </c>
       <c r="D59" t="n">
-        <v>0.239528</v>
+        <v>0.242959</v>
       </c>
     </row>
     <row r="60">
@@ -4061,13 +4061,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.199201</v>
+        <v>0.203474</v>
       </c>
       <c r="C60" t="n">
-        <v>0.226316</v>
+        <v>0.22994</v>
       </c>
       <c r="D60" t="n">
-        <v>0.237917</v>
+        <v>0.245537</v>
       </c>
     </row>
     <row r="61">
@@ -4075,13 +4075,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.194144</v>
+        <v>0.19921</v>
       </c>
       <c r="C61" t="n">
-        <v>0.230132</v>
+        <v>0.231372</v>
       </c>
       <c r="D61" t="n">
-        <v>0.246173</v>
+        <v>0.242471</v>
       </c>
     </row>
     <row r="62">
@@ -4089,13 +4089,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.189348</v>
+        <v>0.194777</v>
       </c>
       <c r="C62" t="n">
-        <v>0.229781</v>
+        <v>0.226799</v>
       </c>
       <c r="D62" t="n">
-        <v>0.23675</v>
+        <v>0.244047</v>
       </c>
     </row>
     <row r="63">
@@ -4103,13 +4103,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.18574</v>
+        <v>0.187592</v>
       </c>
       <c r="C63" t="n">
-        <v>0.225961</v>
+        <v>0.229318</v>
       </c>
       <c r="D63" t="n">
-        <v>0.235437</v>
+        <v>0.239635</v>
       </c>
     </row>
     <row r="64">
@@ -4117,13 +4117,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.180842</v>
+        <v>0.183426</v>
       </c>
       <c r="C64" t="n">
-        <v>0.222763</v>
+        <v>0.2249</v>
       </c>
       <c r="D64" t="n">
-        <v>0.23444</v>
+        <v>0.238541</v>
       </c>
     </row>
     <row r="65">
@@ -4131,13 +4131,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.171943</v>
+        <v>0.175357</v>
       </c>
       <c r="C65" t="n">
-        <v>0.222919</v>
+        <v>0.226924</v>
       </c>
       <c r="D65" t="n">
-        <v>0.245944</v>
+        <v>0.244388</v>
       </c>
     </row>
     <row r="66">
@@ -4145,13 +4145,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.168587</v>
+        <v>0.171186</v>
       </c>
       <c r="C66" t="n">
-        <v>0.220955</v>
+        <v>0.228292</v>
       </c>
       <c r="D66" t="n">
-        <v>0.249331</v>
+        <v>0.257006</v>
       </c>
     </row>
     <row r="67">
@@ -4159,13 +4159,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.232168</v>
+        <v>0.235154</v>
       </c>
       <c r="C67" t="n">
-        <v>0.237954</v>
+        <v>0.24052</v>
       </c>
       <c r="D67" t="n">
-        <v>0.248198</v>
+        <v>0.257208</v>
       </c>
     </row>
     <row r="68">
@@ -4173,13 +4173,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.228367</v>
+        <v>0.229384</v>
       </c>
       <c r="C68" t="n">
-        <v>0.234041</v>
+        <v>0.238822</v>
       </c>
       <c r="D68" t="n">
-        <v>0.245335</v>
+        <v>0.251564</v>
       </c>
     </row>
     <row r="69">
@@ -4187,13 +4187,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.225228</v>
+        <v>0.230773</v>
       </c>
       <c r="C69" t="n">
-        <v>0.235332</v>
+        <v>0.237102</v>
       </c>
       <c r="D69" t="n">
-        <v>0.249088</v>
+        <v>0.253169</v>
       </c>
     </row>
     <row r="70">
@@ -4201,13 +4201,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.224536</v>
+        <v>0.226855</v>
       </c>
       <c r="C70" t="n">
-        <v>0.232496</v>
+        <v>0.240524</v>
       </c>
       <c r="D70" t="n">
-        <v>0.245493</v>
+        <v>0.251554</v>
       </c>
     </row>
     <row r="71">
@@ -4215,13 +4215,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.218399</v>
+        <v>0.223616</v>
       </c>
       <c r="C71" t="n">
-        <v>0.233483</v>
+        <v>0.2347</v>
       </c>
       <c r="D71" t="n">
-        <v>0.244412</v>
+        <v>0.245372</v>
       </c>
     </row>
     <row r="72">
@@ -4229,13 +4229,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.213274</v>
+        <v>0.216926</v>
       </c>
       <c r="C72" t="n">
-        <v>0.228625</v>
+        <v>0.236853</v>
       </c>
       <c r="D72" t="n">
-        <v>0.245821</v>
+        <v>0.246316</v>
       </c>
     </row>
     <row r="73">
@@ -4243,13 +4243,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.209544</v>
+        <v>0.212033</v>
       </c>
       <c r="C73" t="n">
-        <v>0.227636</v>
+        <v>0.235139</v>
       </c>
       <c r="D73" t="n">
-        <v>0.243278</v>
+        <v>0.246663</v>
       </c>
     </row>
     <row r="74">
@@ -4257,13 +4257,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.205857</v>
+        <v>0.207083</v>
       </c>
       <c r="C74" t="n">
-        <v>0.230973</v>
+        <v>0.23362</v>
       </c>
       <c r="D74" t="n">
-        <v>0.239081</v>
+        <v>0.243758</v>
       </c>
     </row>
     <row r="75">
@@ -4271,13 +4271,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.201351</v>
+        <v>0.204934</v>
       </c>
       <c r="C75" t="n">
-        <v>0.233381</v>
+        <v>0.230018</v>
       </c>
       <c r="D75" t="n">
-        <v>0.240647</v>
+        <v>0.240782</v>
       </c>
     </row>
     <row r="76">
@@ -4285,13 +4285,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.193801</v>
+        <v>0.196682</v>
       </c>
       <c r="C76" t="n">
-        <v>0.232426</v>
+        <v>0.233044</v>
       </c>
       <c r="D76" t="n">
-        <v>0.237612</v>
+        <v>0.242159</v>
       </c>
     </row>
     <row r="77">
@@ -4299,13 +4299,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.19181</v>
+        <v>0.193831</v>
       </c>
       <c r="C77" t="n">
-        <v>0.223766</v>
+        <v>0.229993</v>
       </c>
       <c r="D77" t="n">
-        <v>0.240476</v>
+        <v>0.24226</v>
       </c>
     </row>
     <row r="78">
@@ -4313,13 +4313,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.185043</v>
+        <v>0.187205</v>
       </c>
       <c r="C78" t="n">
-        <v>0.223997</v>
+        <v>0.226012</v>
       </c>
       <c r="D78" t="n">
-        <v>0.23636</v>
+        <v>0.242516</v>
       </c>
     </row>
     <row r="79">
@@ -4327,13 +4327,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.17576</v>
+        <v>0.180555</v>
       </c>
       <c r="C79" t="n">
-        <v>0.225915</v>
+        <v>0.228113</v>
       </c>
       <c r="D79" t="n">
-        <v>0.24237</v>
+        <v>0.241008</v>
       </c>
     </row>
     <row r="80">
@@ -4341,13 +4341,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.16945</v>
+        <v>0.172883</v>
       </c>
       <c r="C80" t="n">
-        <v>0.222618</v>
+        <v>0.22812</v>
       </c>
       <c r="D80" t="n">
-        <v>0.261293</v>
+        <v>0.257065</v>
       </c>
     </row>
     <row r="81">
@@ -4355,13 +4355,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.245204</v>
+        <v>0.243925</v>
       </c>
       <c r="C81" t="n">
-        <v>0.247533</v>
+        <v>0.244418</v>
       </c>
       <c r="D81" t="n">
-        <v>0.265036</v>
+        <v>0.2578</v>
       </c>
     </row>
     <row r="82">
@@ -4369,13 +4369,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.244359</v>
+        <v>0.239971</v>
       </c>
       <c r="C82" t="n">
-        <v>0.24751</v>
+        <v>0.241983</v>
       </c>
       <c r="D82" t="n">
-        <v>0.257991</v>
+        <v>0.259671</v>
       </c>
     </row>
     <row r="83">
@@ -4383,13 +4383,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.247885</v>
+        <v>0.23488</v>
       </c>
       <c r="C83" t="n">
-        <v>0.249869</v>
+        <v>0.241285</v>
       </c>
       <c r="D83" t="n">
-        <v>0.258871</v>
+        <v>0.256399</v>
       </c>
     </row>
     <row r="84">
@@ -4397,13 +4397,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.232501</v>
+        <v>0.235588</v>
       </c>
       <c r="C84" t="n">
-        <v>0.238851</v>
+        <v>0.241831</v>
       </c>
       <c r="D84" t="n">
-        <v>0.250367</v>
+        <v>0.251255</v>
       </c>
     </row>
     <row r="85">
@@ -4411,13 +4411,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.224109</v>
+        <v>0.22689</v>
       </c>
       <c r="C85" t="n">
-        <v>0.236914</v>
+        <v>0.239115</v>
       </c>
       <c r="D85" t="n">
-        <v>0.251655</v>
+        <v>0.256684</v>
       </c>
     </row>
     <row r="86">
@@ -4425,13 +4425,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.216552</v>
+        <v>0.223309</v>
       </c>
       <c r="C86" t="n">
-        <v>0.237956</v>
+        <v>0.238773</v>
       </c>
       <c r="D86" t="n">
-        <v>0.246862</v>
+        <v>0.251894</v>
       </c>
     </row>
     <row r="87">
@@ -4439,13 +4439,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.216</v>
+        <v>0.217109</v>
       </c>
       <c r="C87" t="n">
-        <v>0.23781</v>
+        <v>0.23444</v>
       </c>
       <c r="D87" t="n">
-        <v>0.245506</v>
+        <v>0.251366</v>
       </c>
     </row>
     <row r="88">
@@ -4453,13 +4453,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.207892</v>
+        <v>0.217829</v>
       </c>
       <c r="C88" t="n">
-        <v>0.233638</v>
+        <v>0.240774</v>
       </c>
       <c r="D88" t="n">
-        <v>0.244746</v>
+        <v>0.247931</v>
       </c>
     </row>
     <row r="89">
@@ -4467,13 +4467,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.203179</v>
+        <v>0.209098</v>
       </c>
       <c r="C89" t="n">
-        <v>0.232352</v>
+        <v>0.234528</v>
       </c>
       <c r="D89" t="n">
-        <v>0.246096</v>
+        <v>0.246118</v>
       </c>
     </row>
     <row r="90">
@@ -4481,13 +4481,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.201311</v>
+        <v>0.20668</v>
       </c>
       <c r="C90" t="n">
-        <v>0.231549</v>
+        <v>0.233036</v>
       </c>
       <c r="D90" t="n">
-        <v>0.241485</v>
+        <v>0.24691</v>
       </c>
     </row>
     <row r="91">
@@ -4495,13 +4495,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.195768</v>
+        <v>0.195307</v>
       </c>
       <c r="C91" t="n">
-        <v>0.228352</v>
+        <v>0.228996</v>
       </c>
       <c r="D91" t="n">
-        <v>0.243184</v>
+        <v>0.24284</v>
       </c>
     </row>
     <row r="92">
@@ -4509,13 +4509,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.190158</v>
+        <v>0.19176</v>
       </c>
       <c r="C92" t="n">
-        <v>0.22699</v>
+        <v>0.230963</v>
       </c>
       <c r="D92" t="n">
-        <v>0.245371</v>
+        <v>0.246475</v>
       </c>
     </row>
     <row r="93">
@@ -4523,13 +4523,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.182817</v>
+        <v>0.183943</v>
       </c>
       <c r="C93" t="n">
-        <v>0.227453</v>
+        <v>0.228164</v>
       </c>
       <c r="D93" t="n">
-        <v>0.238469</v>
+        <v>0.245536</v>
       </c>
     </row>
     <row r="94">
@@ -4537,13 +4537,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.177026</v>
+        <v>0.177677</v>
       </c>
       <c r="C94" t="n">
-        <v>0.22531</v>
+        <v>0.230039</v>
       </c>
       <c r="D94" t="n">
-        <v>0.258482</v>
+        <v>0.257212</v>
       </c>
     </row>
     <row r="95">
@@ -4551,13 +4551,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.242015</v>
+        <v>0.245705</v>
       </c>
       <c r="C95" t="n">
-        <v>0.244672</v>
+        <v>0.245627</v>
       </c>
       <c r="D95" t="n">
-        <v>0.257704</v>
+        <v>0.258407</v>
       </c>
     </row>
     <row r="96">
@@ -4565,13 +4565,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.241653</v>
+        <v>0.240317</v>
       </c>
       <c r="C96" t="n">
-        <v>0.241612</v>
+        <v>0.247228</v>
       </c>
       <c r="D96" t="n">
-        <v>0.252501</v>
+        <v>0.254606</v>
       </c>
     </row>
     <row r="97">
@@ -4579,13 +4579,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.233672</v>
+        <v>0.241407</v>
       </c>
       <c r="C97" t="n">
-        <v>0.241235</v>
+        <v>0.245686</v>
       </c>
       <c r="D97" t="n">
-        <v>0.254437</v>
+        <v>0.25413</v>
       </c>
     </row>
     <row r="98">
@@ -4593,13 +4593,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.239637</v>
+        <v>0.237275</v>
       </c>
       <c r="C98" t="n">
-        <v>0.242256</v>
+        <v>0.240468</v>
       </c>
       <c r="D98" t="n">
-        <v>0.252919</v>
+        <v>0.257236</v>
       </c>
     </row>
     <row r="99">
@@ -4607,13 +4607,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.225146</v>
+        <v>0.229828</v>
       </c>
       <c r="C99" t="n">
-        <v>0.240811</v>
+        <v>0.239994</v>
       </c>
       <c r="D99" t="n">
-        <v>0.25175</v>
+        <v>0.253078</v>
       </c>
     </row>
     <row r="100">
@@ -4621,13 +4621,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.221387</v>
+        <v>0.223883</v>
       </c>
       <c r="C100" t="n">
-        <v>0.242347</v>
+        <v>0.236004</v>
       </c>
       <c r="D100" t="n">
-        <v>0.246984</v>
+        <v>0.25256</v>
       </c>
     </row>
     <row r="101">
@@ -4635,13 +4635,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.214844</v>
+        <v>0.218429</v>
       </c>
       <c r="C101" t="n">
-        <v>0.23524</v>
+        <v>0.235457</v>
       </c>
       <c r="D101" t="n">
-        <v>0.246123</v>
+        <v>0.253869</v>
       </c>
     </row>
     <row r="102">
@@ -4649,13 +4649,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.211361</v>
+        <v>0.212669</v>
       </c>
       <c r="C102" t="n">
-        <v>0.237533</v>
+        <v>0.235011</v>
       </c>
       <c r="D102" t="n">
-        <v>0.243541</v>
+        <v>0.247182</v>
       </c>
     </row>
     <row r="103">
@@ -4663,13 +4663,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.207243</v>
+        <v>0.207919</v>
       </c>
       <c r="C103" t="n">
-        <v>0.233718</v>
+        <v>0.235229</v>
       </c>
       <c r="D103" t="n">
-        <v>0.244235</v>
+        <v>0.247307</v>
       </c>
     </row>
     <row r="104">
@@ -4677,13 +4677,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.19875</v>
+        <v>0.204528</v>
       </c>
       <c r="C104" t="n">
-        <v>0.237525</v>
+        <v>0.240283</v>
       </c>
       <c r="D104" t="n">
-        <v>0.244792</v>
+        <v>0.250543</v>
       </c>
     </row>
     <row r="105">
@@ -4691,13 +4691,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.195986</v>
+        <v>0.197794</v>
       </c>
       <c r="C105" t="n">
-        <v>0.230973</v>
+        <v>0.232971</v>
       </c>
       <c r="D105" t="n">
-        <v>0.242852</v>
+        <v>0.244677</v>
       </c>
     </row>
     <row r="106">
@@ -4705,13 +4705,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.195054</v>
+        <v>0.194736</v>
       </c>
       <c r="C106" t="n">
-        <v>0.228879</v>
+        <v>0.231949</v>
       </c>
       <c r="D106" t="n">
-        <v>0.243951</v>
+        <v>0.244632</v>
       </c>
     </row>
     <row r="107">
@@ -4719,13 +4719,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.184148</v>
+        <v>0.188387</v>
       </c>
       <c r="C107" t="n">
-        <v>0.225921</v>
+        <v>0.229606</v>
       </c>
       <c r="D107" t="n">
-        <v>0.239298</v>
+        <v>0.242554</v>
       </c>
     </row>
     <row r="108">
@@ -4733,13 +4733,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.173719</v>
+        <v>0.179329</v>
       </c>
       <c r="C108" t="n">
-        <v>0.229427</v>
+        <v>0.231127</v>
       </c>
       <c r="D108" t="n">
-        <v>0.257039</v>
+        <v>0.266884</v>
       </c>
     </row>
     <row r="109">
@@ -4747,13 +4747,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.167645</v>
+        <v>0.173309</v>
       </c>
       <c r="C109" t="n">
-        <v>0.224694</v>
+        <v>0.227235</v>
       </c>
       <c r="D109" t="n">
-        <v>0.257154</v>
+        <v>0.257789</v>
       </c>
     </row>
     <row r="110">
@@ -4761,13 +4761,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.240514</v>
+        <v>0.246024</v>
       </c>
       <c r="C110" t="n">
-        <v>0.240906</v>
+        <v>0.249095</v>
       </c>
       <c r="D110" t="n">
-        <v>0.255889</v>
+        <v>0.258854</v>
       </c>
     </row>
     <row r="111">
@@ -4775,13 +4775,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.23339</v>
+        <v>0.238984</v>
       </c>
       <c r="C111" t="n">
-        <v>0.238881</v>
+        <v>0.241801</v>
       </c>
       <c r="D111" t="n">
-        <v>0.25234</v>
+        <v>0.260556</v>
       </c>
     </row>
     <row r="112">
@@ -4789,13 +4789,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.23119</v>
+        <v>0.238295</v>
       </c>
       <c r="C112" t="n">
-        <v>0.239788</v>
+        <v>0.241676</v>
       </c>
       <c r="D112" t="n">
-        <v>0.251524</v>
+        <v>0.254065</v>
       </c>
     </row>
     <row r="113">
@@ -4803,13 +4803,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.226899</v>
+        <v>0.229766</v>
       </c>
       <c r="C113" t="n">
-        <v>0.235911</v>
+        <v>0.239941</v>
       </c>
       <c r="D113" t="n">
-        <v>0.24884</v>
+        <v>0.252196</v>
       </c>
     </row>
     <row r="114">
@@ -4817,13 +4817,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.22459</v>
+        <v>0.224353</v>
       </c>
       <c r="C114" t="n">
-        <v>0.235276</v>
+        <v>0.241018</v>
       </c>
       <c r="D114" t="n">
-        <v>0.246517</v>
+        <v>0.250703</v>
       </c>
     </row>
     <row r="115">
@@ -4831,13 +4831,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.214091</v>
+        <v>0.225381</v>
       </c>
       <c r="C115" t="n">
-        <v>0.235865</v>
+        <v>0.239838</v>
       </c>
       <c r="D115" t="n">
-        <v>0.245022</v>
+        <v>0.250942</v>
       </c>
     </row>
     <row r="116">
@@ -4845,13 +4845,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.212758</v>
+        <v>0.218146</v>
       </c>
       <c r="C116" t="n">
-        <v>0.234419</v>
+        <v>0.237916</v>
       </c>
       <c r="D116" t="n">
-        <v>0.247037</v>
+        <v>0.248597</v>
       </c>
     </row>
     <row r="117">
@@ -4859,13 +4859,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.210027</v>
+        <v>0.209836</v>
       </c>
       <c r="C117" t="n">
-        <v>0.233323</v>
+        <v>0.236203</v>
       </c>
       <c r="D117" t="n">
-        <v>0.245666</v>
+        <v>0.247976</v>
       </c>
     </row>
     <row r="118">
@@ -4873,13 +4873,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.203605</v>
+        <v>0.205908</v>
       </c>
       <c r="C118" t="n">
-        <v>0.229743</v>
+        <v>0.235197</v>
       </c>
       <c r="D118" t="n">
-        <v>0.241564</v>
+        <v>0.250445</v>
       </c>
     </row>
     <row r="119">
@@ -4887,13 +4887,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.195253</v>
+        <v>0.199439</v>
       </c>
       <c r="C119" t="n">
-        <v>0.230994</v>
+        <v>0.23063</v>
       </c>
       <c r="D119" t="n">
-        <v>0.241769</v>
+        <v>0.246033</v>
       </c>
     </row>
     <row r="120">
@@ -4901,13 +4901,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.191051</v>
+        <v>0.192868</v>
       </c>
       <c r="C120" t="n">
-        <v>0.228548</v>
+        <v>0.231986</v>
       </c>
       <c r="D120" t="n">
-        <v>0.23994</v>
+        <v>0.248656</v>
       </c>
     </row>
     <row r="121">
@@ -4915,13 +4915,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.18444</v>
+        <v>0.187251</v>
       </c>
       <c r="C121" t="n">
-        <v>0.225535</v>
+        <v>0.233187</v>
       </c>
       <c r="D121" t="n">
-        <v>0.240544</v>
+        <v>0.244762</v>
       </c>
     </row>
     <row r="122">
@@ -4929,13 +4929,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.176981</v>
+        <v>0.182834</v>
       </c>
       <c r="C122" t="n">
-        <v>0.225402</v>
+        <v>0.232135</v>
       </c>
       <c r="D122" t="n">
-        <v>0.238263</v>
+        <v>0.242109</v>
       </c>
     </row>
     <row r="123">
@@ -4943,13 +4943,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.169136</v>
+        <v>0.172548</v>
       </c>
       <c r="C123" t="n">
-        <v>0.22402</v>
+        <v>0.234605</v>
       </c>
       <c r="D123" t="n">
-        <v>0.255304</v>
+        <v>0.258739</v>
       </c>
     </row>
     <row r="124">
@@ -4957,13 +4957,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.237301</v>
+        <v>0.24722</v>
       </c>
       <c r="C124" t="n">
-        <v>0.24257</v>
+        <v>0.250203</v>
       </c>
       <c r="D124" t="n">
-        <v>0.257155</v>
+        <v>0.257036</v>
       </c>
     </row>
     <row r="125">
@@ -4971,13 +4971,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.238201</v>
+        <v>0.240774</v>
       </c>
       <c r="C125" t="n">
-        <v>0.24055</v>
+        <v>0.245195</v>
       </c>
       <c r="D125" t="n">
-        <v>0.255898</v>
+        <v>0.258659</v>
       </c>
     </row>
     <row r="126">
@@ -4985,13 +4985,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.231492</v>
+        <v>0.23397</v>
       </c>
       <c r="C126" t="n">
-        <v>0.238527</v>
+        <v>0.246219</v>
       </c>
       <c r="D126" t="n">
-        <v>0.250592</v>
+        <v>0.256678</v>
       </c>
     </row>
     <row r="127">
@@ -4999,13 +4999,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.224793</v>
+        <v>0.230864</v>
       </c>
       <c r="C127" t="n">
-        <v>0.239225</v>
+        <v>0.245581</v>
       </c>
       <c r="D127" t="n">
-        <v>0.252785</v>
+        <v>0.25363</v>
       </c>
     </row>
     <row r="128">
@@ -5013,13 +5013,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.219971</v>
+        <v>0.229997</v>
       </c>
       <c r="C128" t="n">
-        <v>0.24397</v>
+        <v>0.240958</v>
       </c>
       <c r="D128" t="n">
-        <v>0.246221</v>
+        <v>0.255527</v>
       </c>
     </row>
     <row r="129">
@@ -5027,13 +5027,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.216543</v>
+        <v>0.223245</v>
       </c>
       <c r="C129" t="n">
-        <v>0.233647</v>
+        <v>0.237193</v>
       </c>
       <c r="D129" t="n">
-        <v>0.249993</v>
+        <v>0.250555</v>
       </c>
     </row>
     <row r="130">
@@ -5041,13 +5041,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.21063</v>
+        <v>0.216374</v>
       </c>
       <c r="C130" t="n">
-        <v>0.232669</v>
+        <v>0.238001</v>
       </c>
       <c r="D130" t="n">
-        <v>0.244019</v>
+        <v>0.251172</v>
       </c>
     </row>
     <row r="131">
@@ -5055,13 +5055,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.210684</v>
+        <v>0.213074</v>
       </c>
       <c r="C131" t="n">
-        <v>0.232943</v>
+        <v>0.237555</v>
       </c>
       <c r="D131" t="n">
-        <v>0.24344</v>
+        <v>0.25363</v>
       </c>
     </row>
     <row r="132">
@@ -5069,13 +5069,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.204246</v>
+        <v>0.212352</v>
       </c>
       <c r="C132" t="n">
-        <v>0.230009</v>
+        <v>0.236897</v>
       </c>
       <c r="D132" t="n">
-        <v>0.243968</v>
+        <v>0.247627</v>
       </c>
     </row>
     <row r="133">
@@ -5083,13 +5083,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.197725</v>
+        <v>0.202677</v>
       </c>
       <c r="C133" t="n">
-        <v>0.229438</v>
+        <v>0.235275</v>
       </c>
       <c r="D133" t="n">
-        <v>0.241853</v>
+        <v>0.246871</v>
       </c>
     </row>
     <row r="134">
@@ -5097,13 +5097,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.19011</v>
+        <v>0.194769</v>
       </c>
       <c r="C134" t="n">
-        <v>0.228026</v>
+        <v>0.232899</v>
       </c>
       <c r="D134" t="n">
-        <v>0.240192</v>
+        <v>0.248655</v>
       </c>
     </row>
     <row r="135">
@@ -5111,13 +5111,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.187251</v>
+        <v>0.188714</v>
       </c>
       <c r="C135" t="n">
-        <v>0.227767</v>
+        <v>0.229696</v>
       </c>
       <c r="D135" t="n">
-        <v>0.241387</v>
+        <v>0.243833</v>
       </c>
     </row>
     <row r="136">
@@ -5125,13 +5125,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.181727</v>
+        <v>0.182559</v>
       </c>
       <c r="C136" t="n">
-        <v>0.228514</v>
+        <v>0.232419</v>
       </c>
       <c r="D136" t="n">
-        <v>0.240811</v>
+        <v>0.246023</v>
       </c>
     </row>
     <row r="137">
@@ -5139,13 +5139,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.172733</v>
+        <v>0.173549</v>
       </c>
       <c r="C137" t="n">
-        <v>0.227176</v>
+        <v>0.232289</v>
       </c>
       <c r="D137" t="n">
-        <v>0.256058</v>
+        <v>0.261702</v>
       </c>
     </row>
     <row r="138">
@@ -5153,13 +5153,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.23967</v>
+        <v>0.242195</v>
       </c>
       <c r="C138" t="n">
-        <v>0.243648</v>
+        <v>0.251243</v>
       </c>
       <c r="D138" t="n">
-        <v>0.255757</v>
+        <v>0.257181</v>
       </c>
     </row>
     <row r="139">
@@ -5167,13 +5167,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.235581</v>
+        <v>0.241251</v>
       </c>
       <c r="C139" t="n">
-        <v>0.24379</v>
+        <v>0.254425</v>
       </c>
       <c r="D139" t="n">
-        <v>0.255694</v>
+        <v>0.2581</v>
       </c>
     </row>
     <row r="140">
@@ -5181,13 +5181,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.231133</v>
+        <v>0.233497</v>
       </c>
       <c r="C140" t="n">
-        <v>0.242658</v>
+        <v>0.246477</v>
       </c>
       <c r="D140" t="n">
-        <v>0.25009</v>
+        <v>0.259888</v>
       </c>
     </row>
     <row r="141">
@@ -5195,13 +5195,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.226192</v>
+        <v>0.230913</v>
       </c>
       <c r="C141" t="n">
-        <v>0.239235</v>
+        <v>0.242304</v>
       </c>
       <c r="D141" t="n">
-        <v>0.25209</v>
+        <v>0.254357</v>
       </c>
     </row>
     <row r="142">
@@ -5209,13 +5209,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.222929</v>
+        <v>0.227188</v>
       </c>
       <c r="C142" t="n">
-        <v>0.236723</v>
+        <v>0.237776</v>
       </c>
       <c r="D142" t="n">
-        <v>0.246714</v>
+        <v>0.250527</v>
       </c>
     </row>
     <row r="143">
@@ -5223,13 +5223,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.218351</v>
+        <v>0.222772</v>
       </c>
       <c r="C143" t="n">
-        <v>0.234169</v>
+        <v>0.246486</v>
       </c>
       <c r="D143" t="n">
-        <v>0.247336</v>
+        <v>0.254127</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Running erasure.xlsx
+++ b/vs-x64/Running erasure.xlsx
@@ -3249,13 +3249,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.199285</v>
+        <v>0.199072</v>
       </c>
       <c r="C2" t="n">
-        <v>0.218859</v>
+        <v>0.22843</v>
       </c>
       <c r="D2" t="n">
-        <v>0.237792</v>
+        <v>0.243073</v>
       </c>
     </row>
     <row r="3">
@@ -3263,13 +3263,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.191493</v>
+        <v>0.194755</v>
       </c>
       <c r="C3" t="n">
-        <v>0.221735</v>
+        <v>0.223071</v>
       </c>
       <c r="D3" t="n">
-        <v>0.247861</v>
+        <v>0.239273</v>
       </c>
     </row>
     <row r="4">
@@ -3277,13 +3277,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.197963</v>
+        <v>0.190899</v>
       </c>
       <c r="C4" t="n">
-        <v>0.224333</v>
+        <v>0.223137</v>
       </c>
       <c r="D4" t="n">
-        <v>0.240838</v>
+        <v>0.238165</v>
       </c>
     </row>
     <row r="5">
@@ -3291,13 +3291,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.188666</v>
+        <v>0.186186</v>
       </c>
       <c r="C5" t="n">
-        <v>0.226473</v>
+        <v>0.220428</v>
       </c>
       <c r="D5" t="n">
-        <v>0.242901</v>
+        <v>0.236154</v>
       </c>
     </row>
     <row r="6">
@@ -3305,13 +3305,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.182772</v>
+        <v>0.179128</v>
       </c>
       <c r="C6" t="n">
-        <v>0.227168</v>
+        <v>0.220112</v>
       </c>
       <c r="D6" t="n">
-        <v>0.245519</v>
+        <v>0.236216</v>
       </c>
     </row>
     <row r="7">
@@ -3319,13 +3319,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.176618</v>
+        <v>0.175455</v>
       </c>
       <c r="C7" t="n">
-        <v>0.223594</v>
+        <v>0.218202</v>
       </c>
       <c r="D7" t="n">
-        <v>0.242025</v>
+        <v>0.239036</v>
       </c>
     </row>
     <row r="8">
@@ -3333,13 +3333,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.169904</v>
+        <v>0.166457</v>
       </c>
       <c r="C8" t="n">
-        <v>0.218935</v>
+        <v>0.21866</v>
       </c>
       <c r="D8" t="n">
-        <v>0.238086</v>
+        <v>0.23306</v>
       </c>
     </row>
     <row r="9">
@@ -3347,13 +3347,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.164146</v>
+        <v>0.162751</v>
       </c>
       <c r="C9" t="n">
-        <v>0.219878</v>
+        <v>0.218889</v>
       </c>
       <c r="D9" t="n">
-        <v>0.249679</v>
+        <v>0.243951</v>
       </c>
     </row>
     <row r="10">
@@ -3361,13 +3361,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.225583</v>
+        <v>0.220852</v>
       </c>
       <c r="C10" t="n">
-        <v>0.235613</v>
+        <v>0.227049</v>
       </c>
       <c r="D10" t="n">
-        <v>0.24145</v>
+        <v>0.241846</v>
       </c>
     </row>
     <row r="11">
@@ -3375,13 +3375,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.225696</v>
+        <v>0.219143</v>
       </c>
       <c r="C11" t="n">
-        <v>0.229605</v>
+        <v>0.231817</v>
       </c>
       <c r="D11" t="n">
-        <v>0.245121</v>
+        <v>0.243413</v>
       </c>
     </row>
     <row r="12">
@@ -3389,13 +3389,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.217639</v>
+        <v>0.219576</v>
       </c>
       <c r="C12" t="n">
-        <v>0.229207</v>
+        <v>0.232667</v>
       </c>
       <c r="D12" t="n">
-        <v>0.241054</v>
+        <v>0.245908</v>
       </c>
     </row>
     <row r="13">
@@ -3403,13 +3403,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.213161</v>
+        <v>0.215896</v>
       </c>
       <c r="C13" t="n">
-        <v>0.228643</v>
+        <v>0.227211</v>
       </c>
       <c r="D13" t="n">
-        <v>0.240215</v>
+        <v>0.241406</v>
       </c>
     </row>
     <row r="14">
@@ -3417,13 +3417,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.213005</v>
+        <v>0.208872</v>
       </c>
       <c r="C14" t="n">
-        <v>0.228618</v>
+        <v>0.22782</v>
       </c>
       <c r="D14" t="n">
-        <v>0.246665</v>
+        <v>0.240342</v>
       </c>
     </row>
     <row r="15">
@@ -3431,13 +3431,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.210673</v>
+        <v>0.221855</v>
       </c>
       <c r="C15" t="n">
-        <v>0.224465</v>
+        <v>0.227076</v>
       </c>
       <c r="D15" t="n">
-        <v>0.24007</v>
+        <v>0.242084</v>
       </c>
     </row>
     <row r="16">
@@ -3445,13 +3445,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.204295</v>
+        <v>0.221455</v>
       </c>
       <c r="C16" t="n">
-        <v>0.228534</v>
+        <v>0.226144</v>
       </c>
       <c r="D16" t="n">
-        <v>0.237579</v>
+        <v>0.240164</v>
       </c>
     </row>
     <row r="17">
@@ -3459,13 +3459,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.202036</v>
+        <v>0.197014</v>
       </c>
       <c r="C17" t="n">
-        <v>0.227026</v>
+        <v>0.223026</v>
       </c>
       <c r="D17" t="n">
-        <v>0.239068</v>
+        <v>0.240456</v>
       </c>
     </row>
     <row r="18">
@@ -3473,13 +3473,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.197971</v>
+        <v>0.197479</v>
       </c>
       <c r="C18" t="n">
-        <v>0.22213</v>
+        <v>0.225542</v>
       </c>
       <c r="D18" t="n">
-        <v>0.237656</v>
+        <v>0.237284</v>
       </c>
     </row>
     <row r="19">
@@ -3487,13 +3487,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.192204</v>
+        <v>0.194536</v>
       </c>
       <c r="C19" t="n">
-        <v>0.219894</v>
+        <v>0.222972</v>
       </c>
       <c r="D19" t="n">
-        <v>0.235359</v>
+        <v>0.2374</v>
       </c>
     </row>
     <row r="20">
@@ -3501,13 +3501,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.183505</v>
+        <v>0.188688</v>
       </c>
       <c r="C20" t="n">
-        <v>0.220713</v>
+        <v>0.223353</v>
       </c>
       <c r="D20" t="n">
-        <v>0.234255</v>
+        <v>0.235064</v>
       </c>
     </row>
     <row r="21">
@@ -3515,13 +3515,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.179546</v>
+        <v>0.180583</v>
       </c>
       <c r="C21" t="n">
-        <v>0.221126</v>
+        <v>0.222692</v>
       </c>
       <c r="D21" t="n">
-        <v>0.242073</v>
+        <v>0.244381</v>
       </c>
     </row>
     <row r="22">
@@ -3529,13 +3529,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.174924</v>
+        <v>0.174874</v>
       </c>
       <c r="C22" t="n">
-        <v>0.224491</v>
+        <v>0.221577</v>
       </c>
       <c r="D22" t="n">
-        <v>0.244182</v>
+        <v>0.236921</v>
       </c>
     </row>
     <row r="23">
@@ -3543,13 +3543,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.167715</v>
+        <v>0.166246</v>
       </c>
       <c r="C23" t="n">
-        <v>0.219871</v>
+        <v>0.222391</v>
       </c>
       <c r="D23" t="n">
-        <v>0.245595</v>
+        <v>0.244893</v>
       </c>
     </row>
     <row r="24">
@@ -3557,13 +3557,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.236275</v>
+        <v>0.228567</v>
       </c>
       <c r="C24" t="n">
-        <v>0.230738</v>
+        <v>0.232192</v>
       </c>
       <c r="D24" t="n">
-        <v>0.245263</v>
+        <v>0.248708</v>
       </c>
     </row>
     <row r="25">
@@ -3571,13 +3571,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.229219</v>
+        <v>0.228509</v>
       </c>
       <c r="C25" t="n">
-        <v>0.233156</v>
+        <v>0.231354</v>
       </c>
       <c r="D25" t="n">
-        <v>0.246425</v>
+        <v>0.243426</v>
       </c>
     </row>
     <row r="26">
@@ -3585,13 +3585,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.222393</v>
+        <v>0.221904</v>
       </c>
       <c r="C26" t="n">
-        <v>0.23347</v>
+        <v>0.230634</v>
       </c>
       <c r="D26" t="n">
-        <v>0.247685</v>
+        <v>0.241771</v>
       </c>
     </row>
     <row r="27">
@@ -3599,13 +3599,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.224897</v>
+        <v>0.217306</v>
       </c>
       <c r="C27" t="n">
-        <v>0.229356</v>
+        <v>0.227473</v>
       </c>
       <c r="D27" t="n">
-        <v>0.24363</v>
+        <v>0.247809</v>
       </c>
     </row>
     <row r="28">
@@ -3613,13 +3613,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.212</v>
+        <v>0.214604</v>
       </c>
       <c r="C28" t="n">
-        <v>0.228757</v>
+        <v>0.227786</v>
       </c>
       <c r="D28" t="n">
-        <v>0.240536</v>
+        <v>0.240403</v>
       </c>
     </row>
     <row r="29">
@@ -3627,13 +3627,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.209685</v>
+        <v>0.217554</v>
       </c>
       <c r="C29" t="n">
-        <v>0.232975</v>
+        <v>0.227031</v>
       </c>
       <c r="D29" t="n">
-        <v>0.237847</v>
+        <v>0.247905</v>
       </c>
     </row>
     <row r="30">
@@ -3641,13 +3641,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.204453</v>
+        <v>0.207921</v>
       </c>
       <c r="C30" t="n">
-        <v>0.225734</v>
+        <v>0.230726</v>
       </c>
       <c r="D30" t="n">
-        <v>0.243361</v>
+        <v>0.240998</v>
       </c>
     </row>
     <row r="31">
@@ -3655,13 +3655,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.202431</v>
+        <v>0.204675</v>
       </c>
       <c r="C31" t="n">
-        <v>0.229634</v>
+        <v>0.226231</v>
       </c>
       <c r="D31" t="n">
-        <v>0.235183</v>
+        <v>0.238398</v>
       </c>
     </row>
     <row r="32">
@@ -3669,13 +3669,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.202287</v>
+        <v>0.197141</v>
       </c>
       <c r="C32" t="n">
-        <v>0.228817</v>
+        <v>0.22595</v>
       </c>
       <c r="D32" t="n">
-        <v>0.246135</v>
+        <v>0.240683</v>
       </c>
     </row>
     <row r="33">
@@ -3683,13 +3683,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.198424</v>
+        <v>0.192501</v>
       </c>
       <c r="C33" t="n">
-        <v>0.226739</v>
+        <v>0.224247</v>
       </c>
       <c r="D33" t="n">
-        <v>0.240471</v>
+        <v>0.237927</v>
       </c>
     </row>
     <row r="34">
@@ -3697,13 +3697,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.192499</v>
+        <v>0.189282</v>
       </c>
       <c r="C34" t="n">
-        <v>0.223582</v>
+        <v>0.226572</v>
       </c>
       <c r="D34" t="n">
-        <v>0.23727</v>
+        <v>0.238254</v>
       </c>
     </row>
     <row r="35">
@@ -3711,13 +3711,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.183268</v>
+        <v>0.184285</v>
       </c>
       <c r="C35" t="n">
-        <v>0.223781</v>
+        <v>0.223167</v>
       </c>
       <c r="D35" t="n">
-        <v>0.243505</v>
+        <v>0.23879</v>
       </c>
     </row>
     <row r="36">
@@ -3725,13 +3725,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.180566</v>
+        <v>0.179778</v>
       </c>
       <c r="C36" t="n">
-        <v>0.22519</v>
+        <v>0.22347</v>
       </c>
       <c r="D36" t="n">
-        <v>0.235025</v>
+        <v>0.237292</v>
       </c>
     </row>
     <row r="37">
@@ -3739,13 +3739,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.173425</v>
+        <v>0.173169</v>
       </c>
       <c r="C37" t="n">
-        <v>0.219994</v>
+        <v>0.221105</v>
       </c>
       <c r="D37" t="n">
-        <v>0.246059</v>
+        <v>0.249185</v>
       </c>
     </row>
     <row r="38">
@@ -3753,13 +3753,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.230666</v>
+        <v>0.235999</v>
       </c>
       <c r="C38" t="n">
-        <v>0.234769</v>
+        <v>0.237616</v>
       </c>
       <c r="D38" t="n">
-        <v>0.25077</v>
+        <v>0.246902</v>
       </c>
     </row>
     <row r="39">
@@ -3767,13 +3767,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.228116</v>
+        <v>0.231694</v>
       </c>
       <c r="C39" t="n">
-        <v>0.235819</v>
+        <v>0.235551</v>
       </c>
       <c r="D39" t="n">
-        <v>0.245163</v>
+        <v>0.246404</v>
       </c>
     </row>
     <row r="40">
@@ -3781,13 +3781,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.227485</v>
+        <v>0.231702</v>
       </c>
       <c r="C40" t="n">
-        <v>0.231334</v>
+        <v>0.245749</v>
       </c>
       <c r="D40" t="n">
-        <v>0.246434</v>
+        <v>0.246058</v>
       </c>
     </row>
     <row r="41">
@@ -3795,13 +3795,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.22117</v>
+        <v>0.224302</v>
       </c>
       <c r="C41" t="n">
-        <v>0.2307</v>
+        <v>0.233265</v>
       </c>
       <c r="D41" t="n">
-        <v>0.241594</v>
+        <v>0.242855</v>
       </c>
     </row>
     <row r="42">
@@ -3809,13 +3809,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.21923</v>
+        <v>0.219039</v>
       </c>
       <c r="C42" t="n">
-        <v>0.229406</v>
+        <v>0.238247</v>
       </c>
       <c r="D42" t="n">
-        <v>0.243356</v>
+        <v>0.244515</v>
       </c>
     </row>
     <row r="43">
@@ -3823,13 +3823,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.213491</v>
+        <v>0.215992</v>
       </c>
       <c r="C43" t="n">
-        <v>0.228812</v>
+        <v>0.230127</v>
       </c>
       <c r="D43" t="n">
-        <v>0.245764</v>
+        <v>0.241916</v>
       </c>
     </row>
     <row r="44">
@@ -3837,13 +3837,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.210285</v>
+        <v>0.211303</v>
       </c>
       <c r="C44" t="n">
-        <v>0.229491</v>
+        <v>0.229941</v>
       </c>
       <c r="D44" t="n">
-        <v>0.241684</v>
+        <v>0.245654</v>
       </c>
     </row>
     <row r="45">
@@ -3851,13 +3851,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.204276</v>
+        <v>0.210041</v>
       </c>
       <c r="C45" t="n">
-        <v>0.226911</v>
+        <v>0.229861</v>
       </c>
       <c r="D45" t="n">
-        <v>0.240411</v>
+        <v>0.242785</v>
       </c>
     </row>
     <row r="46">
@@ -3865,13 +3865,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.199911</v>
+        <v>0.207212</v>
       </c>
       <c r="C46" t="n">
-        <v>0.233111</v>
+        <v>0.231332</v>
       </c>
       <c r="D46" t="n">
-        <v>0.238825</v>
+        <v>0.240535</v>
       </c>
     </row>
     <row r="47">
@@ -3879,13 +3879,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.197036</v>
+        <v>0.200053</v>
       </c>
       <c r="C47" t="n">
-        <v>0.228449</v>
+        <v>0.230239</v>
       </c>
       <c r="D47" t="n">
-        <v>0.246701</v>
+        <v>0.241805</v>
       </c>
     </row>
     <row r="48">
@@ -3893,13 +3893,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.196658</v>
+        <v>0.193134</v>
       </c>
       <c r="C48" t="n">
-        <v>0.224766</v>
+        <v>0.229916</v>
       </c>
       <c r="D48" t="n">
-        <v>0.239166</v>
+        <v>0.243946</v>
       </c>
     </row>
     <row r="49">
@@ -3907,13 +3907,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.186535</v>
+        <v>0.189906</v>
       </c>
       <c r="C49" t="n">
-        <v>0.224701</v>
+        <v>0.225526</v>
       </c>
       <c r="D49" t="n">
-        <v>0.238642</v>
+        <v>0.247002</v>
       </c>
     </row>
     <row r="50">
@@ -3921,13 +3921,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.18167</v>
+        <v>0.1858</v>
       </c>
       <c r="C50" t="n">
-        <v>0.224073</v>
+        <v>0.227186</v>
       </c>
       <c r="D50" t="n">
-        <v>0.23874</v>
+        <v>0.237476</v>
       </c>
     </row>
     <row r="51">
@@ -3935,13 +3935,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.174721</v>
+        <v>0.174794</v>
       </c>
       <c r="C51" t="n">
-        <v>0.221355</v>
+        <v>0.225585</v>
       </c>
       <c r="D51" t="n">
-        <v>0.252574</v>
+        <v>0.255364</v>
       </c>
     </row>
     <row r="52">
@@ -3949,13 +3949,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.16631</v>
+        <v>0.171136</v>
       </c>
       <c r="C52" t="n">
-        <v>0.221963</v>
+        <v>0.226988</v>
       </c>
       <c r="D52" t="n">
-        <v>0.257275</v>
+        <v>0.256577</v>
       </c>
     </row>
     <row r="53">
@@ -3963,13 +3963,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.234107</v>
+        <v>0.236527</v>
       </c>
       <c r="C53" t="n">
-        <v>0.239695</v>
+        <v>0.241277</v>
       </c>
       <c r="D53" t="n">
-        <v>0.252978</v>
+        <v>0.254412</v>
       </c>
     </row>
     <row r="54">
@@ -3977,13 +3977,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.230012</v>
+        <v>0.231839</v>
       </c>
       <c r="C54" t="n">
-        <v>0.236337</v>
+        <v>0.239794</v>
       </c>
       <c r="D54" t="n">
-        <v>0.254102</v>
+        <v>0.251663</v>
       </c>
     </row>
     <row r="55">
@@ -3991,13 +3991,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.224715</v>
+        <v>0.228234</v>
       </c>
       <c r="C55" t="n">
-        <v>0.235975</v>
+        <v>0.241191</v>
       </c>
       <c r="D55" t="n">
-        <v>0.249991</v>
+        <v>0.262832</v>
       </c>
     </row>
     <row r="56">
@@ -4005,13 +4005,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.219829</v>
+        <v>0.223801</v>
       </c>
       <c r="C56" t="n">
-        <v>0.234119</v>
+        <v>0.236722</v>
       </c>
       <c r="D56" t="n">
-        <v>0.245135</v>
+        <v>0.251136</v>
       </c>
     </row>
     <row r="57">
@@ -4019,13 +4019,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.217415</v>
+        <v>0.225626</v>
       </c>
       <c r="C57" t="n">
-        <v>0.235015</v>
+        <v>0.235258</v>
       </c>
       <c r="D57" t="n">
-        <v>0.246097</v>
+        <v>0.248309</v>
       </c>
     </row>
     <row r="58">
@@ -4033,13 +4033,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.211968</v>
+        <v>0.216524</v>
       </c>
       <c r="C58" t="n">
-        <v>0.234194</v>
+        <v>0.234592</v>
       </c>
       <c r="D58" t="n">
-        <v>0.247619</v>
+        <v>0.247427</v>
       </c>
     </row>
     <row r="59">
@@ -4047,13 +4047,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.208524</v>
+        <v>0.211358</v>
       </c>
       <c r="C59" t="n">
-        <v>0.228898</v>
+        <v>0.234472</v>
       </c>
       <c r="D59" t="n">
-        <v>0.242959</v>
+        <v>0.247652</v>
       </c>
     </row>
     <row r="60">
@@ -4061,13 +4061,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.203474</v>
+        <v>0.207844</v>
       </c>
       <c r="C60" t="n">
-        <v>0.22994</v>
+        <v>0.234278</v>
       </c>
       <c r="D60" t="n">
-        <v>0.245537</v>
+        <v>0.24575</v>
       </c>
     </row>
     <row r="61">
@@ -4075,13 +4075,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.19921</v>
+        <v>0.202161</v>
       </c>
       <c r="C61" t="n">
-        <v>0.231372</v>
+        <v>0.231212</v>
       </c>
       <c r="D61" t="n">
-        <v>0.242471</v>
+        <v>0.24623</v>
       </c>
     </row>
     <row r="62">
@@ -4089,13 +4089,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.194777</v>
+        <v>0.197823</v>
       </c>
       <c r="C62" t="n">
-        <v>0.226799</v>
+        <v>0.230866</v>
       </c>
       <c r="D62" t="n">
-        <v>0.244047</v>
+        <v>0.244444</v>
       </c>
     </row>
     <row r="63">
@@ -4103,13 +4103,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.187592</v>
+        <v>0.19418</v>
       </c>
       <c r="C63" t="n">
-        <v>0.229318</v>
+        <v>0.230099</v>
       </c>
       <c r="D63" t="n">
-        <v>0.239635</v>
+        <v>0.244862</v>
       </c>
     </row>
     <row r="64">
@@ -4117,13 +4117,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.183426</v>
+        <v>0.186185</v>
       </c>
       <c r="C64" t="n">
-        <v>0.2249</v>
+        <v>0.228078</v>
       </c>
       <c r="D64" t="n">
-        <v>0.238541</v>
+        <v>0.242652</v>
       </c>
     </row>
     <row r="65">
@@ -4131,13 +4131,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.175357</v>
+        <v>0.180629</v>
       </c>
       <c r="C65" t="n">
-        <v>0.226924</v>
+        <v>0.231517</v>
       </c>
       <c r="D65" t="n">
-        <v>0.244388</v>
+        <v>0.242633</v>
       </c>
     </row>
     <row r="66">
@@ -4145,13 +4145,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.171186</v>
+        <v>0.172176</v>
       </c>
       <c r="C66" t="n">
-        <v>0.228292</v>
+        <v>0.227675</v>
       </c>
       <c r="D66" t="n">
-        <v>0.257006</v>
+        <v>0.260111</v>
       </c>
     </row>
     <row r="67">
@@ -4159,13 +4159,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.235154</v>
+        <v>0.240985</v>
       </c>
       <c r="C67" t="n">
-        <v>0.24052</v>
+        <v>0.245262</v>
       </c>
       <c r="D67" t="n">
-        <v>0.257208</v>
+        <v>0.255842</v>
       </c>
     </row>
     <row r="68">
@@ -4173,13 +4173,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.229384</v>
+        <v>0.23984</v>
       </c>
       <c r="C68" t="n">
-        <v>0.238822</v>
+        <v>0.246384</v>
       </c>
       <c r="D68" t="n">
-        <v>0.251564</v>
+        <v>0.254569</v>
       </c>
     </row>
     <row r="69">
@@ -4187,13 +4187,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.230773</v>
+        <v>0.234654</v>
       </c>
       <c r="C69" t="n">
-        <v>0.237102</v>
+        <v>0.244832</v>
       </c>
       <c r="D69" t="n">
-        <v>0.253169</v>
+        <v>0.252142</v>
       </c>
     </row>
     <row r="70">
@@ -4201,13 +4201,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.226855</v>
+        <v>0.230596</v>
       </c>
       <c r="C70" t="n">
-        <v>0.240524</v>
+        <v>0.241071</v>
       </c>
       <c r="D70" t="n">
-        <v>0.251554</v>
+        <v>0.251377</v>
       </c>
     </row>
     <row r="71">
@@ -4215,13 +4215,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.223616</v>
+        <v>0.225753</v>
       </c>
       <c r="C71" t="n">
-        <v>0.2347</v>
+        <v>0.237735</v>
       </c>
       <c r="D71" t="n">
-        <v>0.245372</v>
+        <v>0.25147</v>
       </c>
     </row>
     <row r="72">
@@ -4229,13 +4229,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.216926</v>
+        <v>0.220851</v>
       </c>
       <c r="C72" t="n">
-        <v>0.236853</v>
+        <v>0.237094</v>
       </c>
       <c r="D72" t="n">
-        <v>0.246316</v>
+        <v>0.25451</v>
       </c>
     </row>
     <row r="73">
@@ -4243,13 +4243,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.212033</v>
+        <v>0.216765</v>
       </c>
       <c r="C73" t="n">
-        <v>0.235139</v>
+        <v>0.235217</v>
       </c>
       <c r="D73" t="n">
-        <v>0.246663</v>
+        <v>0.247537</v>
       </c>
     </row>
     <row r="74">
@@ -4257,13 +4257,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.207083</v>
+        <v>0.21161</v>
       </c>
       <c r="C74" t="n">
-        <v>0.23362</v>
+        <v>0.234635</v>
       </c>
       <c r="D74" t="n">
-        <v>0.243758</v>
+        <v>0.246568</v>
       </c>
     </row>
     <row r="75">
@@ -4271,13 +4271,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.204934</v>
+        <v>0.207128</v>
       </c>
       <c r="C75" t="n">
-        <v>0.230018</v>
+        <v>0.233397</v>
       </c>
       <c r="D75" t="n">
-        <v>0.240782</v>
+        <v>0.246295</v>
       </c>
     </row>
     <row r="76">
@@ -4285,13 +4285,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.196682</v>
+        <v>0.202743</v>
       </c>
       <c r="C76" t="n">
-        <v>0.233044</v>
+        <v>0.233462</v>
       </c>
       <c r="D76" t="n">
-        <v>0.242159</v>
+        <v>0.24889</v>
       </c>
     </row>
     <row r="77">
@@ -4299,13 +4299,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.193831</v>
+        <v>0.197376</v>
       </c>
       <c r="C77" t="n">
-        <v>0.229993</v>
+        <v>0.231951</v>
       </c>
       <c r="D77" t="n">
-        <v>0.24226</v>
+        <v>0.243699</v>
       </c>
     </row>
     <row r="78">
@@ -4313,13 +4313,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.187205</v>
+        <v>0.191169</v>
       </c>
       <c r="C78" t="n">
-        <v>0.226012</v>
+        <v>0.231801</v>
       </c>
       <c r="D78" t="n">
-        <v>0.242516</v>
+        <v>0.243335</v>
       </c>
     </row>
     <row r="79">
@@ -4327,13 +4327,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.180555</v>
+        <v>0.182814</v>
       </c>
       <c r="C79" t="n">
-        <v>0.228113</v>
+        <v>0.229613</v>
       </c>
       <c r="D79" t="n">
-        <v>0.241008</v>
+        <v>0.243727</v>
       </c>
     </row>
     <row r="80">
@@ -4341,13 +4341,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.172883</v>
+        <v>0.177571</v>
       </c>
       <c r="C80" t="n">
-        <v>0.22812</v>
+        <v>0.229727</v>
       </c>
       <c r="D80" t="n">
-        <v>0.257065</v>
+        <v>0.267441</v>
       </c>
     </row>
     <row r="81">
@@ -4355,13 +4355,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.243925</v>
+        <v>0.246722</v>
       </c>
       <c r="C81" t="n">
-        <v>0.244418</v>
+        <v>0.24797</v>
       </c>
       <c r="D81" t="n">
-        <v>0.2578</v>
+        <v>0.260511</v>
       </c>
     </row>
     <row r="82">
@@ -4369,13 +4369,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.239971</v>
+        <v>0.24137</v>
       </c>
       <c r="C82" t="n">
-        <v>0.241983</v>
+        <v>0.247271</v>
       </c>
       <c r="D82" t="n">
-        <v>0.259671</v>
+        <v>0.258779</v>
       </c>
     </row>
     <row r="83">
@@ -4383,13 +4383,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.23488</v>
+        <v>0.237062</v>
       </c>
       <c r="C83" t="n">
-        <v>0.241285</v>
+        <v>0.245762</v>
       </c>
       <c r="D83" t="n">
-        <v>0.256399</v>
+        <v>0.261071</v>
       </c>
     </row>
     <row r="84">
@@ -4397,13 +4397,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.235588</v>
+        <v>0.233254</v>
       </c>
       <c r="C84" t="n">
-        <v>0.241831</v>
+        <v>0.244529</v>
       </c>
       <c r="D84" t="n">
-        <v>0.251255</v>
+        <v>0.256572</v>
       </c>
     </row>
     <row r="85">
@@ -4411,13 +4411,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.22689</v>
+        <v>0.230837</v>
       </c>
       <c r="C85" t="n">
-        <v>0.239115</v>
+        <v>0.247948</v>
       </c>
       <c r="D85" t="n">
-        <v>0.256684</v>
+        <v>0.253205</v>
       </c>
     </row>
     <row r="86">
@@ -4425,13 +4425,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.223309</v>
+        <v>0.225107</v>
       </c>
       <c r="C86" t="n">
-        <v>0.238773</v>
+        <v>0.241495</v>
       </c>
       <c r="D86" t="n">
-        <v>0.251894</v>
+        <v>0.252433</v>
       </c>
     </row>
     <row r="87">
@@ -4439,13 +4439,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.217109</v>
+        <v>0.219716</v>
       </c>
       <c r="C87" t="n">
-        <v>0.23444</v>
+        <v>0.239052</v>
       </c>
       <c r="D87" t="n">
-        <v>0.251366</v>
+        <v>0.251009</v>
       </c>
     </row>
     <row r="88">
@@ -4453,13 +4453,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.217829</v>
+        <v>0.213979</v>
       </c>
       <c r="C88" t="n">
-        <v>0.240774</v>
+        <v>0.237667</v>
       </c>
       <c r="D88" t="n">
-        <v>0.247931</v>
+        <v>0.249365</v>
       </c>
     </row>
     <row r="89">
@@ -4467,13 +4467,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.209098</v>
+        <v>0.213342</v>
       </c>
       <c r="C89" t="n">
-        <v>0.234528</v>
+        <v>0.23617</v>
       </c>
       <c r="D89" t="n">
-        <v>0.246118</v>
+        <v>0.249151</v>
       </c>
     </row>
     <row r="90">
@@ -4481,13 +4481,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.20668</v>
+        <v>0.203801</v>
       </c>
       <c r="C90" t="n">
-        <v>0.233036</v>
+        <v>0.234686</v>
       </c>
       <c r="D90" t="n">
-        <v>0.24691</v>
+        <v>0.248446</v>
       </c>
     </row>
     <row r="91">
@@ -4495,13 +4495,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.195307</v>
+        <v>0.19872</v>
       </c>
       <c r="C91" t="n">
-        <v>0.228996</v>
+        <v>0.233488</v>
       </c>
       <c r="D91" t="n">
-        <v>0.24284</v>
+        <v>0.246611</v>
       </c>
     </row>
     <row r="92">
@@ -4509,13 +4509,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.19176</v>
+        <v>0.196328</v>
       </c>
       <c r="C92" t="n">
-        <v>0.230963</v>
+        <v>0.235</v>
       </c>
       <c r="D92" t="n">
-        <v>0.246475</v>
+        <v>0.247259</v>
       </c>
     </row>
     <row r="93">
@@ -4523,13 +4523,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.183943</v>
+        <v>0.185488</v>
       </c>
       <c r="C93" t="n">
-        <v>0.228164</v>
+        <v>0.232811</v>
       </c>
       <c r="D93" t="n">
-        <v>0.245536</v>
+        <v>0.244516</v>
       </c>
     </row>
     <row r="94">
@@ -4537,13 +4537,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.177677</v>
+        <v>0.176623</v>
       </c>
       <c r="C94" t="n">
-        <v>0.230039</v>
+        <v>0.2306</v>
       </c>
       <c r="D94" t="n">
-        <v>0.257212</v>
+        <v>0.263614</v>
       </c>
     </row>
     <row r="95">
@@ -4551,13 +4551,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.245705</v>
+        <v>0.245737</v>
       </c>
       <c r="C95" t="n">
-        <v>0.245627</v>
+        <v>0.248337</v>
       </c>
       <c r="D95" t="n">
-        <v>0.258407</v>
+        <v>0.259954</v>
       </c>
     </row>
     <row r="96">
@@ -4565,13 +4565,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.240317</v>
+        <v>0.241301</v>
       </c>
       <c r="C96" t="n">
-        <v>0.247228</v>
+        <v>0.246916</v>
       </c>
       <c r="D96" t="n">
-        <v>0.254606</v>
+        <v>0.259175</v>
       </c>
     </row>
     <row r="97">
@@ -4579,13 +4579,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.241407</v>
+        <v>0.237772</v>
       </c>
       <c r="C97" t="n">
-        <v>0.245686</v>
+        <v>0.245174</v>
       </c>
       <c r="D97" t="n">
-        <v>0.25413</v>
+        <v>0.256913</v>
       </c>
     </row>
     <row r="98">
@@ -4593,13 +4593,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.237275</v>
+        <v>0.234742</v>
       </c>
       <c r="C98" t="n">
-        <v>0.240468</v>
+        <v>0.243822</v>
       </c>
       <c r="D98" t="n">
-        <v>0.257236</v>
+        <v>0.255521</v>
       </c>
     </row>
     <row r="99">
@@ -4607,13 +4607,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.229828</v>
+        <v>0.229264</v>
       </c>
       <c r="C99" t="n">
-        <v>0.239994</v>
+        <v>0.242473</v>
       </c>
       <c r="D99" t="n">
-        <v>0.253078</v>
+        <v>0.254019</v>
       </c>
     </row>
     <row r="100">
@@ -4621,13 +4621,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.223883</v>
+        <v>0.224716</v>
       </c>
       <c r="C100" t="n">
-        <v>0.236004</v>
+        <v>0.240469</v>
       </c>
       <c r="D100" t="n">
-        <v>0.25256</v>
+        <v>0.253481</v>
       </c>
     </row>
     <row r="101">
@@ -4635,13 +4635,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.218429</v>
+        <v>0.223972</v>
       </c>
       <c r="C101" t="n">
-        <v>0.235457</v>
+        <v>0.243615</v>
       </c>
       <c r="D101" t="n">
-        <v>0.253869</v>
+        <v>0.252121</v>
       </c>
     </row>
     <row r="102">
@@ -4649,13 +4649,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.212669</v>
+        <v>0.214398</v>
       </c>
       <c r="C102" t="n">
-        <v>0.235011</v>
+        <v>0.238333</v>
       </c>
       <c r="D102" t="n">
-        <v>0.247182</v>
+        <v>0.251053</v>
       </c>
     </row>
     <row r="103">
@@ -4663,13 +4663,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.207919</v>
+        <v>0.212291</v>
       </c>
       <c r="C103" t="n">
-        <v>0.235229</v>
+        <v>0.237378</v>
       </c>
       <c r="D103" t="n">
-        <v>0.247307</v>
+        <v>0.249895</v>
       </c>
     </row>
     <row r="104">
@@ -4677,13 +4677,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.204528</v>
+        <v>0.204504</v>
       </c>
       <c r="C104" t="n">
-        <v>0.240283</v>
+        <v>0.235894</v>
       </c>
       <c r="D104" t="n">
-        <v>0.250543</v>
+        <v>0.248159</v>
       </c>
     </row>
     <row r="105">
@@ -4691,13 +4691,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.197794</v>
+        <v>0.199407</v>
       </c>
       <c r="C105" t="n">
-        <v>0.232971</v>
+        <v>0.232989</v>
       </c>
       <c r="D105" t="n">
-        <v>0.244677</v>
+        <v>0.245729</v>
       </c>
     </row>
     <row r="106">
@@ -4705,13 +4705,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.194736</v>
+        <v>0.203363</v>
       </c>
       <c r="C106" t="n">
-        <v>0.231949</v>
+        <v>0.233953</v>
       </c>
       <c r="D106" t="n">
-        <v>0.244632</v>
+        <v>0.245668</v>
       </c>
     </row>
     <row r="107">
@@ -4719,13 +4719,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.188387</v>
+        <v>0.189428</v>
       </c>
       <c r="C107" t="n">
-        <v>0.229606</v>
+        <v>0.240506</v>
       </c>
       <c r="D107" t="n">
-        <v>0.242554</v>
+        <v>0.245562</v>
       </c>
     </row>
     <row r="108">
@@ -4733,13 +4733,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.179329</v>
+        <v>0.178288</v>
       </c>
       <c r="C108" t="n">
-        <v>0.231127</v>
+        <v>0.231397</v>
       </c>
       <c r="D108" t="n">
-        <v>0.266884</v>
+        <v>0.265172</v>
       </c>
     </row>
     <row r="109">
@@ -4747,13 +4747,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.173309</v>
+        <v>0.170603</v>
       </c>
       <c r="C109" t="n">
-        <v>0.227235</v>
+        <v>0.22906</v>
       </c>
       <c r="D109" t="n">
-        <v>0.257789</v>
+        <v>0.261051</v>
       </c>
     </row>
     <row r="110">
@@ -4761,13 +4761,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.246024</v>
+        <v>0.241061</v>
       </c>
       <c r="C110" t="n">
-        <v>0.249095</v>
+        <v>0.249063</v>
       </c>
       <c r="D110" t="n">
-        <v>0.258854</v>
+        <v>0.261604</v>
       </c>
     </row>
     <row r="111">
@@ -4775,13 +4775,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.238984</v>
+        <v>0.237997</v>
       </c>
       <c r="C111" t="n">
-        <v>0.241801</v>
+        <v>0.244514</v>
       </c>
       <c r="D111" t="n">
-        <v>0.260556</v>
+        <v>0.257436</v>
       </c>
     </row>
     <row r="112">
@@ -4789,13 +4789,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.238295</v>
+        <v>0.234728</v>
       </c>
       <c r="C112" t="n">
-        <v>0.241676</v>
+        <v>0.244028</v>
       </c>
       <c r="D112" t="n">
-        <v>0.254065</v>
+        <v>0.256247</v>
       </c>
     </row>
     <row r="113">
@@ -4803,13 +4803,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.229766</v>
+        <v>0.230262</v>
       </c>
       <c r="C113" t="n">
-        <v>0.239941</v>
+        <v>0.241197</v>
       </c>
       <c r="D113" t="n">
-        <v>0.252196</v>
+        <v>0.257229</v>
       </c>
     </row>
     <row r="114">
@@ -4817,13 +4817,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.224353</v>
+        <v>0.225733</v>
       </c>
       <c r="C114" t="n">
-        <v>0.241018</v>
+        <v>0.242759</v>
       </c>
       <c r="D114" t="n">
-        <v>0.250703</v>
+        <v>0.253497</v>
       </c>
     </row>
     <row r="115">
@@ -4831,13 +4831,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.225381</v>
+        <v>0.219718</v>
       </c>
       <c r="C115" t="n">
-        <v>0.239838</v>
+        <v>0.240114</v>
       </c>
       <c r="D115" t="n">
-        <v>0.250942</v>
+        <v>0.251355</v>
       </c>
     </row>
     <row r="116">
@@ -4845,13 +4845,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.218146</v>
+        <v>0.216562</v>
       </c>
       <c r="C116" t="n">
-        <v>0.237916</v>
+        <v>0.238478</v>
       </c>
       <c r="D116" t="n">
-        <v>0.248597</v>
+        <v>0.251009</v>
       </c>
     </row>
     <row r="117">
@@ -4859,13 +4859,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.209836</v>
+        <v>0.210492</v>
       </c>
       <c r="C117" t="n">
-        <v>0.236203</v>
+        <v>0.236243</v>
       </c>
       <c r="D117" t="n">
-        <v>0.247976</v>
+        <v>0.250748</v>
       </c>
     </row>
     <row r="118">
@@ -4873,13 +4873,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.205908</v>
+        <v>0.206654</v>
       </c>
       <c r="C118" t="n">
-        <v>0.235197</v>
+        <v>0.236206</v>
       </c>
       <c r="D118" t="n">
-        <v>0.250445</v>
+        <v>0.248536</v>
       </c>
     </row>
     <row r="119">
@@ -4887,13 +4887,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.199439</v>
+        <v>0.202648</v>
       </c>
       <c r="C119" t="n">
-        <v>0.23063</v>
+        <v>0.239221</v>
       </c>
       <c r="D119" t="n">
-        <v>0.246033</v>
+        <v>0.251373</v>
       </c>
     </row>
     <row r="120">
@@ -4901,13 +4901,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.192868</v>
+        <v>0.19466</v>
       </c>
       <c r="C120" t="n">
-        <v>0.231986</v>
+        <v>0.235278</v>
       </c>
       <c r="D120" t="n">
-        <v>0.248656</v>
+        <v>0.246305</v>
       </c>
     </row>
     <row r="121">
@@ -4915,13 +4915,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.187251</v>
+        <v>0.189081</v>
       </c>
       <c r="C121" t="n">
-        <v>0.233187</v>
+        <v>0.233861</v>
       </c>
       <c r="D121" t="n">
-        <v>0.244762</v>
+        <v>0.245294</v>
       </c>
     </row>
     <row r="122">
@@ -4929,13 +4929,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.182834</v>
+        <v>0.181378</v>
       </c>
       <c r="C122" t="n">
-        <v>0.232135</v>
+        <v>0.230979</v>
       </c>
       <c r="D122" t="n">
-        <v>0.242109</v>
+        <v>0.246849</v>
       </c>
     </row>
     <row r="123">
@@ -4943,13 +4943,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.172548</v>
+        <v>0.17272</v>
       </c>
       <c r="C123" t="n">
-        <v>0.234605</v>
+        <v>0.229923</v>
       </c>
       <c r="D123" t="n">
-        <v>0.258739</v>
+        <v>0.260539</v>
       </c>
     </row>
     <row r="124">
@@ -4957,13 +4957,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.24722</v>
+        <v>0.244239</v>
       </c>
       <c r="C124" t="n">
-        <v>0.250203</v>
+        <v>0.248606</v>
       </c>
       <c r="D124" t="n">
-        <v>0.257036</v>
+        <v>0.259088</v>
       </c>
     </row>
     <row r="125">
@@ -4971,13 +4971,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.240774</v>
+        <v>0.241778</v>
       </c>
       <c r="C125" t="n">
-        <v>0.245195</v>
+        <v>0.247815</v>
       </c>
       <c r="D125" t="n">
-        <v>0.258659</v>
+        <v>0.259151</v>
       </c>
     </row>
     <row r="126">
@@ -4985,13 +4985,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.23397</v>
+        <v>0.239398</v>
       </c>
       <c r="C126" t="n">
-        <v>0.246219</v>
+        <v>0.249122</v>
       </c>
       <c r="D126" t="n">
-        <v>0.256678</v>
+        <v>0.257765</v>
       </c>
     </row>
     <row r="127">
@@ -4999,13 +4999,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.230864</v>
+        <v>0.23184</v>
       </c>
       <c r="C127" t="n">
-        <v>0.245581</v>
+        <v>0.24211</v>
       </c>
       <c r="D127" t="n">
-        <v>0.25363</v>
+        <v>0.255034</v>
       </c>
     </row>
     <row r="128">
@@ -5013,13 +5013,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.229997</v>
+        <v>0.225064</v>
       </c>
       <c r="C128" t="n">
-        <v>0.240958</v>
+        <v>0.242929</v>
       </c>
       <c r="D128" t="n">
-        <v>0.255527</v>
+        <v>0.25347</v>
       </c>
     </row>
     <row r="129">
@@ -5027,13 +5027,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.223245</v>
+        <v>0.22</v>
       </c>
       <c r="C129" t="n">
-        <v>0.237193</v>
+        <v>0.239278</v>
       </c>
       <c r="D129" t="n">
-        <v>0.250555</v>
+        <v>0.253259</v>
       </c>
     </row>
     <row r="130">
@@ -5041,13 +5041,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.216374</v>
+        <v>0.216234</v>
       </c>
       <c r="C130" t="n">
-        <v>0.238001</v>
+        <v>0.236904</v>
       </c>
       <c r="D130" t="n">
-        <v>0.251172</v>
+        <v>0.252086</v>
       </c>
     </row>
     <row r="131">
@@ -5055,13 +5055,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.213074</v>
+        <v>0.210495</v>
       </c>
       <c r="C131" t="n">
-        <v>0.237555</v>
+        <v>0.237517</v>
       </c>
       <c r="D131" t="n">
-        <v>0.25363</v>
+        <v>0.249</v>
       </c>
     </row>
     <row r="132">
@@ -5069,13 +5069,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.212352</v>
+        <v>0.207632</v>
       </c>
       <c r="C132" t="n">
-        <v>0.236897</v>
+        <v>0.2353</v>
       </c>
       <c r="D132" t="n">
-        <v>0.247627</v>
+        <v>0.249965</v>
       </c>
     </row>
     <row r="133">
@@ -5083,13 +5083,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.202677</v>
+        <v>0.201132</v>
       </c>
       <c r="C133" t="n">
-        <v>0.235275</v>
+        <v>0.233912</v>
       </c>
       <c r="D133" t="n">
-        <v>0.246871</v>
+        <v>0.248332</v>
       </c>
     </row>
     <row r="134">
@@ -5097,13 +5097,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.194769</v>
+        <v>0.195463</v>
       </c>
       <c r="C134" t="n">
-        <v>0.232899</v>
+        <v>0.233547</v>
       </c>
       <c r="D134" t="n">
-        <v>0.248655</v>
+        <v>0.247247</v>
       </c>
     </row>
     <row r="135">
@@ -5111,13 +5111,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.188714</v>
+        <v>0.190347</v>
       </c>
       <c r="C135" t="n">
-        <v>0.229696</v>
+        <v>0.234984</v>
       </c>
       <c r="D135" t="n">
-        <v>0.243833</v>
+        <v>0.247549</v>
       </c>
     </row>
     <row r="136">
@@ -5125,13 +5125,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.182559</v>
+        <v>0.182247</v>
       </c>
       <c r="C136" t="n">
-        <v>0.232419</v>
+        <v>0.231541</v>
       </c>
       <c r="D136" t="n">
-        <v>0.246023</v>
+        <v>0.244523</v>
       </c>
     </row>
     <row r="137">
@@ -5139,13 +5139,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.173549</v>
+        <v>0.173961</v>
       </c>
       <c r="C137" t="n">
-        <v>0.232289</v>
+        <v>0.229448</v>
       </c>
       <c r="D137" t="n">
-        <v>0.261702</v>
+        <v>0.267026</v>
       </c>
     </row>
     <row r="138">
@@ -5153,13 +5153,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.242195</v>
+        <v>0.24389</v>
       </c>
       <c r="C138" t="n">
-        <v>0.251243</v>
+        <v>0.248695</v>
       </c>
       <c r="D138" t="n">
-        <v>0.257181</v>
+        <v>0.260904</v>
       </c>
     </row>
     <row r="139">
@@ -5167,13 +5167,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.241251</v>
+        <v>0.23857</v>
       </c>
       <c r="C139" t="n">
-        <v>0.254425</v>
+        <v>0.245191</v>
       </c>
       <c r="D139" t="n">
-        <v>0.2581</v>
+        <v>0.263145</v>
       </c>
     </row>
     <row r="140">
@@ -5181,13 +5181,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.233497</v>
+        <v>0.23738</v>
       </c>
       <c r="C140" t="n">
-        <v>0.246477</v>
+        <v>0.245496</v>
       </c>
       <c r="D140" t="n">
-        <v>0.259888</v>
+        <v>0.257322</v>
       </c>
     </row>
     <row r="141">
@@ -5195,13 +5195,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.230913</v>
+        <v>0.234103</v>
       </c>
       <c r="C141" t="n">
-        <v>0.242304</v>
+        <v>0.246458</v>
       </c>
       <c r="D141" t="n">
-        <v>0.254357</v>
+        <v>0.255465</v>
       </c>
     </row>
     <row r="142">
@@ -5209,13 +5209,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.227188</v>
+        <v>0.232371</v>
       </c>
       <c r="C142" t="n">
-        <v>0.237776</v>
+        <v>0.240762</v>
       </c>
       <c r="D142" t="n">
-        <v>0.250527</v>
+        <v>0.253267</v>
       </c>
     </row>
     <row r="143">
@@ -5223,13 +5223,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.222772</v>
+        <v>0.223182</v>
       </c>
       <c r="C143" t="n">
-        <v>0.246486</v>
+        <v>0.238937</v>
       </c>
       <c r="D143" t="n">
-        <v>0.254127</v>
+        <v>0.251849</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Running erasure.xlsx
+++ b/vs-x64/Running erasure.xlsx
@@ -3249,13 +3249,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.199072</v>
+        <v>0.20495</v>
       </c>
       <c r="C2" t="n">
-        <v>0.22843</v>
+        <v>0.227191</v>
       </c>
       <c r="D2" t="n">
-        <v>0.243073</v>
+        <v>0.24712</v>
       </c>
     </row>
     <row r="3">
@@ -3263,13 +3263,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.194755</v>
+        <v>0.202105</v>
       </c>
       <c r="C3" t="n">
-        <v>0.223071</v>
+        <v>0.231233</v>
       </c>
       <c r="D3" t="n">
-        <v>0.239273</v>
+        <v>0.244515</v>
       </c>
     </row>
     <row r="4">
@@ -3277,13 +3277,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.190899</v>
+        <v>0.197218</v>
       </c>
       <c r="C4" t="n">
-        <v>0.223137</v>
+        <v>0.226867</v>
       </c>
       <c r="D4" t="n">
-        <v>0.238165</v>
+        <v>0.23776</v>
       </c>
     </row>
     <row r="5">
@@ -3291,13 +3291,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.186186</v>
+        <v>0.188236</v>
       </c>
       <c r="C5" t="n">
-        <v>0.220428</v>
+        <v>0.225259</v>
       </c>
       <c r="D5" t="n">
-        <v>0.236154</v>
+        <v>0.243209</v>
       </c>
     </row>
     <row r="6">
@@ -3305,13 +3305,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.179128</v>
+        <v>0.185127</v>
       </c>
       <c r="C6" t="n">
-        <v>0.220112</v>
+        <v>0.227439</v>
       </c>
       <c r="D6" t="n">
-        <v>0.236216</v>
+        <v>0.236513</v>
       </c>
     </row>
     <row r="7">
@@ -3319,13 +3319,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.175455</v>
+        <v>0.180897</v>
       </c>
       <c r="C7" t="n">
-        <v>0.218202</v>
+        <v>0.224879</v>
       </c>
       <c r="D7" t="n">
-        <v>0.239036</v>
+        <v>0.238005</v>
       </c>
     </row>
     <row r="8">
@@ -3333,13 +3333,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.166457</v>
+        <v>0.169781</v>
       </c>
       <c r="C8" t="n">
-        <v>0.21866</v>
+        <v>0.218819</v>
       </c>
       <c r="D8" t="n">
-        <v>0.23306</v>
+        <v>0.234836</v>
       </c>
     </row>
     <row r="9">
@@ -3347,13 +3347,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.162751</v>
+        <v>0.160637</v>
       </c>
       <c r="C9" t="n">
-        <v>0.218889</v>
+        <v>0.220482</v>
       </c>
       <c r="D9" t="n">
-        <v>0.243951</v>
+        <v>0.246918</v>
       </c>
     </row>
     <row r="10">
@@ -3361,13 +3361,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.220852</v>
+        <v>0.229305</v>
       </c>
       <c r="C10" t="n">
-        <v>0.227049</v>
+        <v>0.230478</v>
       </c>
       <c r="D10" t="n">
-        <v>0.241846</v>
+        <v>0.241821</v>
       </c>
     </row>
     <row r="11">
@@ -3375,13 +3375,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.219143</v>
+        <v>0.218849</v>
       </c>
       <c r="C11" t="n">
-        <v>0.231817</v>
+        <v>0.233316</v>
       </c>
       <c r="D11" t="n">
-        <v>0.243413</v>
+        <v>0.248224</v>
       </c>
     </row>
     <row r="12">
@@ -3389,13 +3389,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.219576</v>
+        <v>0.219867</v>
       </c>
       <c r="C12" t="n">
-        <v>0.232667</v>
+        <v>0.227082</v>
       </c>
       <c r="D12" t="n">
-        <v>0.245908</v>
+        <v>0.23821</v>
       </c>
     </row>
     <row r="13">
@@ -3403,13 +3403,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.215896</v>
+        <v>0.215986</v>
       </c>
       <c r="C13" t="n">
-        <v>0.227211</v>
+        <v>0.231286</v>
       </c>
       <c r="D13" t="n">
-        <v>0.241406</v>
+        <v>0.236724</v>
       </c>
     </row>
     <row r="14">
@@ -3417,13 +3417,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.208872</v>
+        <v>0.2149</v>
       </c>
       <c r="C14" t="n">
-        <v>0.22782</v>
+        <v>0.225266</v>
       </c>
       <c r="D14" t="n">
-        <v>0.240342</v>
+        <v>0.245402</v>
       </c>
     </row>
     <row r="15">
@@ -3431,13 +3431,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.221855</v>
+        <v>0.206207</v>
       </c>
       <c r="C15" t="n">
-        <v>0.227076</v>
+        <v>0.223923</v>
       </c>
       <c r="D15" t="n">
-        <v>0.242084</v>
+        <v>0.238127</v>
       </c>
     </row>
     <row r="16">
@@ -3445,13 +3445,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.221455</v>
+        <v>0.200136</v>
       </c>
       <c r="C16" t="n">
-        <v>0.226144</v>
+        <v>0.223306</v>
       </c>
       <c r="D16" t="n">
-        <v>0.240164</v>
+        <v>0.241633</v>
       </c>
     </row>
     <row r="17">
@@ -3459,13 +3459,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.197014</v>
+        <v>0.20489</v>
       </c>
       <c r="C17" t="n">
-        <v>0.223026</v>
+        <v>0.226673</v>
       </c>
       <c r="D17" t="n">
-        <v>0.240456</v>
+        <v>0.238668</v>
       </c>
     </row>
     <row r="18">
@@ -3473,13 +3473,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.197479</v>
+        <v>0.198425</v>
       </c>
       <c r="C18" t="n">
-        <v>0.225542</v>
+        <v>0.224824</v>
       </c>
       <c r="D18" t="n">
-        <v>0.237284</v>
+        <v>0.240787</v>
       </c>
     </row>
     <row r="19">
@@ -3487,13 +3487,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.194536</v>
+        <v>0.189806</v>
       </c>
       <c r="C19" t="n">
-        <v>0.222972</v>
+        <v>0.222149</v>
       </c>
       <c r="D19" t="n">
-        <v>0.2374</v>
+        <v>0.235562</v>
       </c>
     </row>
     <row r="20">
@@ -3501,13 +3501,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.188688</v>
+        <v>0.183953</v>
       </c>
       <c r="C20" t="n">
-        <v>0.223353</v>
+        <v>0.219432</v>
       </c>
       <c r="D20" t="n">
-        <v>0.235064</v>
+        <v>0.236563</v>
       </c>
     </row>
     <row r="21">
@@ -3515,13 +3515,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.180583</v>
+        <v>0.176789</v>
       </c>
       <c r="C21" t="n">
-        <v>0.222692</v>
+        <v>0.221037</v>
       </c>
       <c r="D21" t="n">
-        <v>0.244381</v>
+        <v>0.242697</v>
       </c>
     </row>
     <row r="22">
@@ -3529,13 +3529,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.174874</v>
+        <v>0.174446</v>
       </c>
       <c r="C22" t="n">
-        <v>0.221577</v>
+        <v>0.226222</v>
       </c>
       <c r="D22" t="n">
-        <v>0.236921</v>
+        <v>0.234127</v>
       </c>
     </row>
     <row r="23">
@@ -3543,13 +3543,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.166246</v>
+        <v>0.165223</v>
       </c>
       <c r="C23" t="n">
-        <v>0.222391</v>
+        <v>0.218777</v>
       </c>
       <c r="D23" t="n">
-        <v>0.244893</v>
+        <v>0.246477</v>
       </c>
     </row>
     <row r="24">
@@ -3557,13 +3557,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.228567</v>
+        <v>0.23082</v>
       </c>
       <c r="C24" t="n">
-        <v>0.232192</v>
+        <v>0.231895</v>
       </c>
       <c r="D24" t="n">
-        <v>0.248708</v>
+        <v>0.246036</v>
       </c>
     </row>
     <row r="25">
@@ -3571,13 +3571,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.228509</v>
+        <v>0.229171</v>
       </c>
       <c r="C25" t="n">
-        <v>0.231354</v>
+        <v>0.233855</v>
       </c>
       <c r="D25" t="n">
-        <v>0.243426</v>
+        <v>0.240537</v>
       </c>
     </row>
     <row r="26">
@@ -3585,13 +3585,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.221904</v>
+        <v>0.225751</v>
       </c>
       <c r="C26" t="n">
-        <v>0.230634</v>
+        <v>0.232539</v>
       </c>
       <c r="D26" t="n">
-        <v>0.241771</v>
+        <v>0.244409</v>
       </c>
     </row>
     <row r="27">
@@ -3599,13 +3599,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.217306</v>
+        <v>0.220373</v>
       </c>
       <c r="C27" t="n">
-        <v>0.227473</v>
+        <v>0.23077</v>
       </c>
       <c r="D27" t="n">
-        <v>0.247809</v>
+        <v>0.244014</v>
       </c>
     </row>
     <row r="28">
@@ -3613,13 +3613,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.214604</v>
+        <v>0.218471</v>
       </c>
       <c r="C28" t="n">
-        <v>0.227786</v>
+        <v>0.232562</v>
       </c>
       <c r="D28" t="n">
-        <v>0.240403</v>
+        <v>0.239609</v>
       </c>
     </row>
     <row r="29">
@@ -3627,13 +3627,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.217554</v>
+        <v>0.206659</v>
       </c>
       <c r="C29" t="n">
-        <v>0.227031</v>
+        <v>0.231215</v>
       </c>
       <c r="D29" t="n">
-        <v>0.247905</v>
+        <v>0.245404</v>
       </c>
     </row>
     <row r="30">
@@ -3641,13 +3641,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.207921</v>
+        <v>0.20439</v>
       </c>
       <c r="C30" t="n">
-        <v>0.230726</v>
+        <v>0.227316</v>
       </c>
       <c r="D30" t="n">
-        <v>0.240998</v>
+        <v>0.238156</v>
       </c>
     </row>
     <row r="31">
@@ -3655,13 +3655,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.204675</v>
+        <v>0.200947</v>
       </c>
       <c r="C31" t="n">
-        <v>0.226231</v>
+        <v>0.227014</v>
       </c>
       <c r="D31" t="n">
-        <v>0.238398</v>
+        <v>0.242177</v>
       </c>
     </row>
     <row r="32">
@@ -3669,13 +3669,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.197141</v>
+        <v>0.199664</v>
       </c>
       <c r="C32" t="n">
-        <v>0.22595</v>
+        <v>0.225751</v>
       </c>
       <c r="D32" t="n">
-        <v>0.240683</v>
+        <v>0.243726</v>
       </c>
     </row>
     <row r="33">
@@ -3683,13 +3683,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.192501</v>
+        <v>0.193803</v>
       </c>
       <c r="C33" t="n">
-        <v>0.224247</v>
+        <v>0.22646</v>
       </c>
       <c r="D33" t="n">
-        <v>0.237927</v>
+        <v>0.236772</v>
       </c>
     </row>
     <row r="34">
@@ -3697,13 +3697,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.189282</v>
+        <v>0.189822</v>
       </c>
       <c r="C34" t="n">
-        <v>0.226572</v>
+        <v>0.238451</v>
       </c>
       <c r="D34" t="n">
-        <v>0.238254</v>
+        <v>0.238172</v>
       </c>
     </row>
     <row r="35">
@@ -3711,13 +3711,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.184285</v>
+        <v>0.184943</v>
       </c>
       <c r="C35" t="n">
-        <v>0.223167</v>
+        <v>0.223625</v>
       </c>
       <c r="D35" t="n">
-        <v>0.23879</v>
+        <v>0.234597</v>
       </c>
     </row>
     <row r="36">
@@ -3725,13 +3725,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.179778</v>
+        <v>0.176571</v>
       </c>
       <c r="C36" t="n">
-        <v>0.22347</v>
+        <v>0.229012</v>
       </c>
       <c r="D36" t="n">
-        <v>0.237292</v>
+        <v>0.236125</v>
       </c>
     </row>
     <row r="37">
@@ -3739,13 +3739,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.173169</v>
+        <v>0.17178</v>
       </c>
       <c r="C37" t="n">
-        <v>0.221105</v>
+        <v>0.226715</v>
       </c>
       <c r="D37" t="n">
-        <v>0.249185</v>
+        <v>0.252933</v>
       </c>
     </row>
     <row r="38">
@@ -3753,13 +3753,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.235999</v>
+        <v>0.231136</v>
       </c>
       <c r="C38" t="n">
-        <v>0.237616</v>
+        <v>0.236014</v>
       </c>
       <c r="D38" t="n">
-        <v>0.246902</v>
+        <v>0.249428</v>
       </c>
     </row>
     <row r="39">
@@ -3767,13 +3767,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.231694</v>
+        <v>0.228475</v>
       </c>
       <c r="C39" t="n">
-        <v>0.235551</v>
+        <v>0.234359</v>
       </c>
       <c r="D39" t="n">
-        <v>0.246404</v>
+        <v>0.244716</v>
       </c>
     </row>
     <row r="40">
@@ -3781,13 +3781,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.231702</v>
+        <v>0.224265</v>
       </c>
       <c r="C40" t="n">
-        <v>0.245749</v>
+        <v>0.235581</v>
       </c>
       <c r="D40" t="n">
-        <v>0.246058</v>
+        <v>0.239024</v>
       </c>
     </row>
     <row r="41">
@@ -3795,13 +3795,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.224302</v>
+        <v>0.221043</v>
       </c>
       <c r="C41" t="n">
-        <v>0.233265</v>
+        <v>0.230829</v>
       </c>
       <c r="D41" t="n">
-        <v>0.242855</v>
+        <v>0.243833</v>
       </c>
     </row>
     <row r="42">
@@ -3809,13 +3809,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.219039</v>
+        <v>0.216365</v>
       </c>
       <c r="C42" t="n">
-        <v>0.238247</v>
+        <v>0.231955</v>
       </c>
       <c r="D42" t="n">
-        <v>0.244515</v>
+        <v>0.243333</v>
       </c>
     </row>
     <row r="43">
@@ -3823,13 +3823,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.215992</v>
+        <v>0.216097</v>
       </c>
       <c r="C43" t="n">
-        <v>0.230127</v>
+        <v>0.226073</v>
       </c>
       <c r="D43" t="n">
-        <v>0.241916</v>
+        <v>0.23815</v>
       </c>
     </row>
     <row r="44">
@@ -3837,13 +3837,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.211303</v>
+        <v>0.208909</v>
       </c>
       <c r="C44" t="n">
-        <v>0.229941</v>
+        <v>0.229705</v>
       </c>
       <c r="D44" t="n">
-        <v>0.245654</v>
+        <v>0.246192</v>
       </c>
     </row>
     <row r="45">
@@ -3851,13 +3851,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.210041</v>
+        <v>0.203743</v>
       </c>
       <c r="C45" t="n">
-        <v>0.229861</v>
+        <v>0.224303</v>
       </c>
       <c r="D45" t="n">
-        <v>0.242785</v>
+        <v>0.249863</v>
       </c>
     </row>
     <row r="46">
@@ -3865,13 +3865,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.207212</v>
+        <v>0.201011</v>
       </c>
       <c r="C46" t="n">
-        <v>0.231332</v>
+        <v>0.223546</v>
       </c>
       <c r="D46" t="n">
-        <v>0.240535</v>
+        <v>0.236931</v>
       </c>
     </row>
     <row r="47">
@@ -3879,13 +3879,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.200053</v>
+        <v>0.197394</v>
       </c>
       <c r="C47" t="n">
-        <v>0.230239</v>
+        <v>0.225449</v>
       </c>
       <c r="D47" t="n">
-        <v>0.241805</v>
+        <v>0.248377</v>
       </c>
     </row>
     <row r="48">
@@ -3893,13 +3893,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.193134</v>
+        <v>0.1929</v>
       </c>
       <c r="C48" t="n">
-        <v>0.229916</v>
+        <v>0.224902</v>
       </c>
       <c r="D48" t="n">
-        <v>0.243946</v>
+        <v>0.239098</v>
       </c>
     </row>
     <row r="49">
@@ -3907,13 +3907,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.189906</v>
+        <v>0.185776</v>
       </c>
       <c r="C49" t="n">
-        <v>0.225526</v>
+        <v>0.226489</v>
       </c>
       <c r="D49" t="n">
-        <v>0.247002</v>
+        <v>0.242318</v>
       </c>
     </row>
     <row r="50">
@@ -3921,13 +3921,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.1858</v>
+        <v>0.178761</v>
       </c>
       <c r="C50" t="n">
-        <v>0.227186</v>
+        <v>0.223499</v>
       </c>
       <c r="D50" t="n">
-        <v>0.237476</v>
+        <v>0.244034</v>
       </c>
     </row>
     <row r="51">
@@ -3935,13 +3935,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.174794</v>
+        <v>0.173642</v>
       </c>
       <c r="C51" t="n">
-        <v>0.225585</v>
+        <v>0.22137</v>
       </c>
       <c r="D51" t="n">
-        <v>0.255364</v>
+        <v>0.254151</v>
       </c>
     </row>
     <row r="52">
@@ -3949,13 +3949,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.171136</v>
+        <v>0.165504</v>
       </c>
       <c r="C52" t="n">
-        <v>0.226988</v>
+        <v>0.221972</v>
       </c>
       <c r="D52" t="n">
-        <v>0.256577</v>
+        <v>0.253329</v>
       </c>
     </row>
     <row r="53">
@@ -3963,13 +3963,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.236527</v>
+        <v>0.230671</v>
       </c>
       <c r="C53" t="n">
-        <v>0.241277</v>
+        <v>0.239214</v>
       </c>
       <c r="D53" t="n">
-        <v>0.254412</v>
+        <v>0.252111</v>
       </c>
     </row>
     <row r="54">
@@ -3977,13 +3977,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.231839</v>
+        <v>0.226935</v>
       </c>
       <c r="C54" t="n">
-        <v>0.239794</v>
+        <v>0.237412</v>
       </c>
       <c r="D54" t="n">
-        <v>0.251663</v>
+        <v>0.254783</v>
       </c>
     </row>
     <row r="55">
@@ -3991,13 +3991,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.228234</v>
+        <v>0.225191</v>
       </c>
       <c r="C55" t="n">
-        <v>0.241191</v>
+        <v>0.237979</v>
       </c>
       <c r="D55" t="n">
-        <v>0.262832</v>
+        <v>0.251855</v>
       </c>
     </row>
     <row r="56">
@@ -4005,13 +4005,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.223801</v>
+        <v>0.221031</v>
       </c>
       <c r="C56" t="n">
-        <v>0.236722</v>
+        <v>0.242939</v>
       </c>
       <c r="D56" t="n">
-        <v>0.251136</v>
+        <v>0.251031</v>
       </c>
     </row>
     <row r="57">
@@ -4019,13 +4019,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.225626</v>
+        <v>0.219637</v>
       </c>
       <c r="C57" t="n">
-        <v>0.235258</v>
+        <v>0.235113</v>
       </c>
       <c r="D57" t="n">
-        <v>0.248309</v>
+        <v>0.248076</v>
       </c>
     </row>
     <row r="58">
@@ -4033,13 +4033,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.216524</v>
+        <v>0.210717</v>
       </c>
       <c r="C58" t="n">
-        <v>0.234592</v>
+        <v>0.235671</v>
       </c>
       <c r="D58" t="n">
-        <v>0.247427</v>
+        <v>0.245861</v>
       </c>
     </row>
     <row r="59">
@@ -4047,13 +4047,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.211358</v>
+        <v>0.209519</v>
       </c>
       <c r="C59" t="n">
-        <v>0.234472</v>
+        <v>0.233395</v>
       </c>
       <c r="D59" t="n">
-        <v>0.247652</v>
+        <v>0.243413</v>
       </c>
     </row>
     <row r="60">
@@ -4061,13 +4061,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.207844</v>
+        <v>0.207585</v>
       </c>
       <c r="C60" t="n">
-        <v>0.234278</v>
+        <v>0.235385</v>
       </c>
       <c r="D60" t="n">
-        <v>0.24575</v>
+        <v>0.243594</v>
       </c>
     </row>
     <row r="61">
@@ -4075,13 +4075,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.202161</v>
+        <v>0.19994</v>
       </c>
       <c r="C61" t="n">
-        <v>0.231212</v>
+        <v>0.233271</v>
       </c>
       <c r="D61" t="n">
-        <v>0.24623</v>
+        <v>0.24726</v>
       </c>
     </row>
     <row r="62">
@@ -4089,13 +4089,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.197823</v>
+        <v>0.191817</v>
       </c>
       <c r="C62" t="n">
-        <v>0.230866</v>
+        <v>0.234946</v>
       </c>
       <c r="D62" t="n">
-        <v>0.244444</v>
+        <v>0.241255</v>
       </c>
     </row>
     <row r="63">
@@ -4103,13 +4103,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.19418</v>
+        <v>0.187862</v>
       </c>
       <c r="C63" t="n">
-        <v>0.230099</v>
+        <v>0.229072</v>
       </c>
       <c r="D63" t="n">
-        <v>0.244862</v>
+        <v>0.242951</v>
       </c>
     </row>
     <row r="64">
@@ -4117,13 +4117,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.186185</v>
+        <v>0.188548</v>
       </c>
       <c r="C64" t="n">
-        <v>0.228078</v>
+        <v>0.228965</v>
       </c>
       <c r="D64" t="n">
-        <v>0.242652</v>
+        <v>0.245671</v>
       </c>
     </row>
     <row r="65">
@@ -4131,13 +4131,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.180629</v>
+        <v>0.177741</v>
       </c>
       <c r="C65" t="n">
-        <v>0.231517</v>
+        <v>0.225224</v>
       </c>
       <c r="D65" t="n">
-        <v>0.242633</v>
+        <v>0.237989</v>
       </c>
     </row>
     <row r="66">
@@ -4145,13 +4145,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.172176</v>
+        <v>0.168831</v>
       </c>
       <c r="C66" t="n">
-        <v>0.227675</v>
+        <v>0.223568</v>
       </c>
       <c r="D66" t="n">
-        <v>0.260111</v>
+        <v>0.25392</v>
       </c>
     </row>
     <row r="67">
@@ -4159,13 +4159,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.240985</v>
+        <v>0.235054</v>
       </c>
       <c r="C67" t="n">
-        <v>0.245262</v>
+        <v>0.243892</v>
       </c>
       <c r="D67" t="n">
-        <v>0.255842</v>
+        <v>0.258025</v>
       </c>
     </row>
     <row r="68">
@@ -4173,13 +4173,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.23984</v>
+        <v>0.235803</v>
       </c>
       <c r="C68" t="n">
-        <v>0.246384</v>
+        <v>0.237426</v>
       </c>
       <c r="D68" t="n">
-        <v>0.254569</v>
+        <v>0.252689</v>
       </c>
     </row>
     <row r="69">
@@ -4187,13 +4187,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.234654</v>
+        <v>0.234742</v>
       </c>
       <c r="C69" t="n">
-        <v>0.244832</v>
+        <v>0.239315</v>
       </c>
       <c r="D69" t="n">
-        <v>0.252142</v>
+        <v>0.251254</v>
       </c>
     </row>
     <row r="70">
@@ -4201,13 +4201,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.230596</v>
+        <v>0.227599</v>
       </c>
       <c r="C70" t="n">
-        <v>0.241071</v>
+        <v>0.236664</v>
       </c>
       <c r="D70" t="n">
-        <v>0.251377</v>
+        <v>0.253161</v>
       </c>
     </row>
     <row r="71">
@@ -4215,13 +4215,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.225753</v>
+        <v>0.222868</v>
       </c>
       <c r="C71" t="n">
-        <v>0.237735</v>
+        <v>0.237524</v>
       </c>
       <c r="D71" t="n">
-        <v>0.25147</v>
+        <v>0.252247</v>
       </c>
     </row>
     <row r="72">
@@ -4229,13 +4229,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.220851</v>
+        <v>0.215678</v>
       </c>
       <c r="C72" t="n">
-        <v>0.237094</v>
+        <v>0.232482</v>
       </c>
       <c r="D72" t="n">
-        <v>0.25451</v>
+        <v>0.248014</v>
       </c>
     </row>
     <row r="73">
@@ -4243,13 +4243,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.216765</v>
+        <v>0.209748</v>
       </c>
       <c r="C73" t="n">
-        <v>0.235217</v>
+        <v>0.233393</v>
       </c>
       <c r="D73" t="n">
-        <v>0.247537</v>
+        <v>0.246357</v>
       </c>
     </row>
     <row r="74">
@@ -4257,13 +4257,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.21161</v>
+        <v>0.205629</v>
       </c>
       <c r="C74" t="n">
-        <v>0.234635</v>
+        <v>0.237076</v>
       </c>
       <c r="D74" t="n">
-        <v>0.246568</v>
+        <v>0.244232</v>
       </c>
     </row>
     <row r="75">
@@ -4271,13 +4271,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.207128</v>
+        <v>0.201239</v>
       </c>
       <c r="C75" t="n">
-        <v>0.233397</v>
+        <v>0.23076</v>
       </c>
       <c r="D75" t="n">
-        <v>0.246295</v>
+        <v>0.244288</v>
       </c>
     </row>
     <row r="76">
@@ -4285,13 +4285,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.202743</v>
+        <v>0.195408</v>
       </c>
       <c r="C76" t="n">
-        <v>0.233462</v>
+        <v>0.22999</v>
       </c>
       <c r="D76" t="n">
-        <v>0.24889</v>
+        <v>0.245754</v>
       </c>
     </row>
     <row r="77">
@@ -4299,13 +4299,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.197376</v>
+        <v>0.191799</v>
       </c>
       <c r="C77" t="n">
-        <v>0.231951</v>
+        <v>0.228311</v>
       </c>
       <c r="D77" t="n">
-        <v>0.243699</v>
+        <v>0.240016</v>
       </c>
     </row>
     <row r="78">
@@ -4313,13 +4313,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.191169</v>
+        <v>0.186287</v>
       </c>
       <c r="C78" t="n">
-        <v>0.231801</v>
+        <v>0.226313</v>
       </c>
       <c r="D78" t="n">
-        <v>0.243335</v>
+        <v>0.240172</v>
       </c>
     </row>
     <row r="79">
@@ -4327,13 +4327,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.182814</v>
+        <v>0.182604</v>
       </c>
       <c r="C79" t="n">
-        <v>0.229613</v>
+        <v>0.233395</v>
       </c>
       <c r="D79" t="n">
-        <v>0.243727</v>
+        <v>0.240356</v>
       </c>
     </row>
     <row r="80">
@@ -4341,13 +4341,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.177571</v>
+        <v>0.172182</v>
       </c>
       <c r="C80" t="n">
-        <v>0.229727</v>
+        <v>0.229951</v>
       </c>
       <c r="D80" t="n">
-        <v>0.267441</v>
+        <v>0.257311</v>
       </c>
     </row>
     <row r="81">
@@ -4355,13 +4355,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.246722</v>
+        <v>0.244355</v>
       </c>
       <c r="C81" t="n">
-        <v>0.24797</v>
+        <v>0.245405</v>
       </c>
       <c r="D81" t="n">
-        <v>0.260511</v>
+        <v>0.256475</v>
       </c>
     </row>
     <row r="82">
@@ -4369,13 +4369,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.24137</v>
+        <v>0.236336</v>
       </c>
       <c r="C82" t="n">
-        <v>0.247271</v>
+        <v>0.245581</v>
       </c>
       <c r="D82" t="n">
-        <v>0.258779</v>
+        <v>0.25414</v>
       </c>
     </row>
     <row r="83">
@@ -4383,13 +4383,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.237062</v>
+        <v>0.231571</v>
       </c>
       <c r="C83" t="n">
-        <v>0.245762</v>
+        <v>0.240819</v>
       </c>
       <c r="D83" t="n">
-        <v>0.261071</v>
+        <v>0.252605</v>
       </c>
     </row>
     <row r="84">
@@ -4397,13 +4397,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.233254</v>
+        <v>0.236333</v>
       </c>
       <c r="C84" t="n">
-        <v>0.244529</v>
+        <v>0.240205</v>
       </c>
       <c r="D84" t="n">
-        <v>0.256572</v>
+        <v>0.254459</v>
       </c>
     </row>
     <row r="85">
@@ -4411,13 +4411,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.230837</v>
+        <v>0.227603</v>
       </c>
       <c r="C85" t="n">
-        <v>0.247948</v>
+        <v>0.239</v>
       </c>
       <c r="D85" t="n">
-        <v>0.253205</v>
+        <v>0.255909</v>
       </c>
     </row>
     <row r="86">
@@ -4425,13 +4425,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.225107</v>
+        <v>0.220526</v>
       </c>
       <c r="C86" t="n">
-        <v>0.241495</v>
+        <v>0.235906</v>
       </c>
       <c r="D86" t="n">
-        <v>0.252433</v>
+        <v>0.252669</v>
       </c>
     </row>
     <row r="87">
@@ -4439,13 +4439,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.219716</v>
+        <v>0.217517</v>
       </c>
       <c r="C87" t="n">
-        <v>0.239052</v>
+        <v>0.234043</v>
       </c>
       <c r="D87" t="n">
-        <v>0.251009</v>
+        <v>0.246382</v>
       </c>
     </row>
     <row r="88">
@@ -4453,13 +4453,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.213979</v>
+        <v>0.214614</v>
       </c>
       <c r="C88" t="n">
-        <v>0.237667</v>
+        <v>0.234918</v>
       </c>
       <c r="D88" t="n">
-        <v>0.249365</v>
+        <v>0.248636</v>
       </c>
     </row>
     <row r="89">
@@ -4467,13 +4467,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.213342</v>
+        <v>0.208739</v>
       </c>
       <c r="C89" t="n">
-        <v>0.23617</v>
+        <v>0.233528</v>
       </c>
       <c r="D89" t="n">
-        <v>0.249151</v>
+        <v>0.247878</v>
       </c>
     </row>
     <row r="90">
@@ -4481,13 +4481,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.203801</v>
+        <v>0.202945</v>
       </c>
       <c r="C90" t="n">
-        <v>0.234686</v>
+        <v>0.232173</v>
       </c>
       <c r="D90" t="n">
-        <v>0.248446</v>
+        <v>0.243165</v>
       </c>
     </row>
     <row r="91">
@@ -4495,13 +4495,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.19872</v>
+        <v>0.198806</v>
       </c>
       <c r="C91" t="n">
-        <v>0.233488</v>
+        <v>0.22764</v>
       </c>
       <c r="D91" t="n">
-        <v>0.246611</v>
+        <v>0.242626</v>
       </c>
     </row>
     <row r="92">
@@ -4509,13 +4509,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.196328</v>
+        <v>0.194784</v>
       </c>
       <c r="C92" t="n">
-        <v>0.235</v>
+        <v>0.237189</v>
       </c>
       <c r="D92" t="n">
-        <v>0.247259</v>
+        <v>0.245423</v>
       </c>
     </row>
     <row r="93">
@@ -4523,13 +4523,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.185488</v>
+        <v>0.185157</v>
       </c>
       <c r="C93" t="n">
-        <v>0.232811</v>
+        <v>0.228556</v>
       </c>
       <c r="D93" t="n">
-        <v>0.244516</v>
+        <v>0.2446</v>
       </c>
     </row>
     <row r="94">
@@ -4537,13 +4537,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.176623</v>
+        <v>0.179899</v>
       </c>
       <c r="C94" t="n">
-        <v>0.2306</v>
+        <v>0.227325</v>
       </c>
       <c r="D94" t="n">
-        <v>0.263614</v>
+        <v>0.261988</v>
       </c>
     </row>
     <row r="95">
@@ -4551,13 +4551,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.245737</v>
+        <v>0.243695</v>
       </c>
       <c r="C95" t="n">
-        <v>0.248337</v>
+        <v>0.243887</v>
       </c>
       <c r="D95" t="n">
-        <v>0.259954</v>
+        <v>0.260609</v>
       </c>
     </row>
     <row r="96">
@@ -4565,13 +4565,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.241301</v>
+        <v>0.2417</v>
       </c>
       <c r="C96" t="n">
-        <v>0.246916</v>
+        <v>0.245914</v>
       </c>
       <c r="D96" t="n">
-        <v>0.259175</v>
+        <v>0.260569</v>
       </c>
     </row>
     <row r="97">
@@ -4579,13 +4579,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.237772</v>
+        <v>0.238863</v>
       </c>
       <c r="C97" t="n">
-        <v>0.245174</v>
+        <v>0.245725</v>
       </c>
       <c r="D97" t="n">
-        <v>0.256913</v>
+        <v>0.258106</v>
       </c>
     </row>
     <row r="98">
@@ -4593,13 +4593,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.234742</v>
+        <v>0.233461</v>
       </c>
       <c r="C98" t="n">
-        <v>0.243822</v>
+        <v>0.246125</v>
       </c>
       <c r="D98" t="n">
-        <v>0.255521</v>
+        <v>0.254949</v>
       </c>
     </row>
     <row r="99">
@@ -4607,13 +4607,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.229264</v>
+        <v>0.228116</v>
       </c>
       <c r="C99" t="n">
-        <v>0.242473</v>
+        <v>0.242247</v>
       </c>
       <c r="D99" t="n">
-        <v>0.254019</v>
+        <v>0.257651</v>
       </c>
     </row>
     <row r="100">
@@ -4621,13 +4621,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.224716</v>
+        <v>0.222989</v>
       </c>
       <c r="C100" t="n">
-        <v>0.240469</v>
+        <v>0.23818</v>
       </c>
       <c r="D100" t="n">
-        <v>0.253481</v>
+        <v>0.253484</v>
       </c>
     </row>
     <row r="101">
@@ -4635,13 +4635,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.223972</v>
+        <v>0.218956</v>
       </c>
       <c r="C101" t="n">
-        <v>0.243615</v>
+        <v>0.239003</v>
       </c>
       <c r="D101" t="n">
-        <v>0.252121</v>
+        <v>0.253206</v>
       </c>
     </row>
     <row r="102">
@@ -4649,13 +4649,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.214398</v>
+        <v>0.21492</v>
       </c>
       <c r="C102" t="n">
-        <v>0.238333</v>
+        <v>0.236013</v>
       </c>
       <c r="D102" t="n">
-        <v>0.251053</v>
+        <v>0.251546</v>
       </c>
     </row>
     <row r="103">
@@ -4663,13 +4663,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.212291</v>
+        <v>0.20727</v>
       </c>
       <c r="C103" t="n">
-        <v>0.237378</v>
+        <v>0.235917</v>
       </c>
       <c r="D103" t="n">
-        <v>0.249895</v>
+        <v>0.247985</v>
       </c>
     </row>
     <row r="104">
@@ -4677,13 +4677,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.204504</v>
+        <v>0.204363</v>
       </c>
       <c r="C104" t="n">
-        <v>0.235894</v>
+        <v>0.23543</v>
       </c>
       <c r="D104" t="n">
-        <v>0.248159</v>
+        <v>0.247005</v>
       </c>
     </row>
     <row r="105">
@@ -4691,13 +4691,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.199407</v>
+        <v>0.198216</v>
       </c>
       <c r="C105" t="n">
-        <v>0.232989</v>
+        <v>0.233202</v>
       </c>
       <c r="D105" t="n">
-        <v>0.245729</v>
+        <v>0.246107</v>
       </c>
     </row>
     <row r="106">
@@ -4705,13 +4705,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.203363</v>
+        <v>0.191943</v>
       </c>
       <c r="C106" t="n">
-        <v>0.233953</v>
+        <v>0.231193</v>
       </c>
       <c r="D106" t="n">
-        <v>0.245668</v>
+        <v>0.243261</v>
       </c>
     </row>
     <row r="107">
@@ -4719,13 +4719,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.189428</v>
+        <v>0.186919</v>
       </c>
       <c r="C107" t="n">
-        <v>0.240506</v>
+        <v>0.234432</v>
       </c>
       <c r="D107" t="n">
-        <v>0.245562</v>
+        <v>0.242996</v>
       </c>
     </row>
     <row r="108">
@@ -4733,13 +4733,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.178288</v>
+        <v>0.180397</v>
       </c>
       <c r="C108" t="n">
-        <v>0.231397</v>
+        <v>0.23334</v>
       </c>
       <c r="D108" t="n">
-        <v>0.265172</v>
+        <v>0.260154</v>
       </c>
     </row>
     <row r="109">
@@ -4747,13 +4747,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.170603</v>
+        <v>0.171133</v>
       </c>
       <c r="C109" t="n">
-        <v>0.22906</v>
+        <v>0.228802</v>
       </c>
       <c r="D109" t="n">
-        <v>0.261051</v>
+        <v>0.258697</v>
       </c>
     </row>
     <row r="110">
@@ -4761,13 +4761,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.241061</v>
+        <v>0.244331</v>
       </c>
       <c r="C110" t="n">
-        <v>0.249063</v>
+        <v>0.244049</v>
       </c>
       <c r="D110" t="n">
-        <v>0.261604</v>
+        <v>0.25746</v>
       </c>
     </row>
     <row r="111">
@@ -4775,13 +4775,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.237997</v>
+        <v>0.237603</v>
       </c>
       <c r="C111" t="n">
-        <v>0.244514</v>
+        <v>0.245622</v>
       </c>
       <c r="D111" t="n">
-        <v>0.257436</v>
+        <v>0.254817</v>
       </c>
     </row>
     <row r="112">
@@ -4789,13 +4789,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.234728</v>
+        <v>0.237</v>
       </c>
       <c r="C112" t="n">
-        <v>0.244028</v>
+        <v>0.244823</v>
       </c>
       <c r="D112" t="n">
-        <v>0.256247</v>
+        <v>0.255674</v>
       </c>
     </row>
     <row r="113">
@@ -4803,13 +4803,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.230262</v>
+        <v>0.229268</v>
       </c>
       <c r="C113" t="n">
-        <v>0.241197</v>
+        <v>0.244986</v>
       </c>
       <c r="D113" t="n">
-        <v>0.257229</v>
+        <v>0.252276</v>
       </c>
     </row>
     <row r="114">
@@ -4817,13 +4817,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.225733</v>
+        <v>0.224799</v>
       </c>
       <c r="C114" t="n">
-        <v>0.242759</v>
+        <v>0.243644</v>
       </c>
       <c r="D114" t="n">
-        <v>0.253497</v>
+        <v>0.256706</v>
       </c>
     </row>
     <row r="115">
@@ -4831,13 +4831,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.219718</v>
+        <v>0.220753</v>
       </c>
       <c r="C115" t="n">
-        <v>0.240114</v>
+        <v>0.242149</v>
       </c>
       <c r="D115" t="n">
-        <v>0.251355</v>
+        <v>0.251531</v>
       </c>
     </row>
     <row r="116">
@@ -4845,13 +4845,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.216562</v>
+        <v>0.217581</v>
       </c>
       <c r="C116" t="n">
-        <v>0.238478</v>
+        <v>0.235119</v>
       </c>
       <c r="D116" t="n">
-        <v>0.251009</v>
+        <v>0.247779</v>
       </c>
     </row>
     <row r="117">
@@ -4859,13 +4859,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.210492</v>
+        <v>0.208637</v>
       </c>
       <c r="C117" t="n">
-        <v>0.236243</v>
+        <v>0.232985</v>
       </c>
       <c r="D117" t="n">
-        <v>0.250748</v>
+        <v>0.249858</v>
       </c>
     </row>
     <row r="118">
@@ -4873,13 +4873,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.206654</v>
+        <v>0.208921</v>
       </c>
       <c r="C118" t="n">
-        <v>0.236206</v>
+        <v>0.234682</v>
       </c>
       <c r="D118" t="n">
-        <v>0.248536</v>
+        <v>0.245597</v>
       </c>
     </row>
     <row r="119">
@@ -4887,13 +4887,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.202648</v>
+        <v>0.199346</v>
       </c>
       <c r="C119" t="n">
-        <v>0.239221</v>
+        <v>0.234944</v>
       </c>
       <c r="D119" t="n">
-        <v>0.251373</v>
+        <v>0.245955</v>
       </c>
     </row>
     <row r="120">
@@ -4901,13 +4901,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.19466</v>
+        <v>0.194141</v>
       </c>
       <c r="C120" t="n">
-        <v>0.235278</v>
+        <v>0.236712</v>
       </c>
       <c r="D120" t="n">
-        <v>0.246305</v>
+        <v>0.245092</v>
       </c>
     </row>
     <row r="121">
@@ -4915,13 +4915,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.189081</v>
+        <v>0.190557</v>
       </c>
       <c r="C121" t="n">
-        <v>0.233861</v>
+        <v>0.235956</v>
       </c>
       <c r="D121" t="n">
-        <v>0.245294</v>
+        <v>0.243125</v>
       </c>
     </row>
     <row r="122">
@@ -4929,13 +4929,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.181378</v>
+        <v>0.182021</v>
       </c>
       <c r="C122" t="n">
-        <v>0.230979</v>
+        <v>0.231111</v>
       </c>
       <c r="D122" t="n">
-        <v>0.246849</v>
+        <v>0.248051</v>
       </c>
     </row>
     <row r="123">
@@ -4943,13 +4943,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.17272</v>
+        <v>0.171081</v>
       </c>
       <c r="C123" t="n">
-        <v>0.229923</v>
+        <v>0.226017</v>
       </c>
       <c r="D123" t="n">
-        <v>0.260539</v>
+        <v>0.258169</v>
       </c>
     </row>
     <row r="124">
@@ -4957,13 +4957,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.244239</v>
+        <v>0.240301</v>
       </c>
       <c r="C124" t="n">
-        <v>0.248606</v>
+        <v>0.248124</v>
       </c>
       <c r="D124" t="n">
-        <v>0.259088</v>
+        <v>0.262445</v>
       </c>
     </row>
     <row r="125">
@@ -4971,13 +4971,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.241778</v>
+        <v>0.23664</v>
       </c>
       <c r="C125" t="n">
-        <v>0.247815</v>
+        <v>0.248978</v>
       </c>
       <c r="D125" t="n">
-        <v>0.259151</v>
+        <v>0.25606</v>
       </c>
     </row>
     <row r="126">
@@ -4985,13 +4985,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.239398</v>
+        <v>0.236015</v>
       </c>
       <c r="C126" t="n">
-        <v>0.249122</v>
+        <v>0.241615</v>
       </c>
       <c r="D126" t="n">
-        <v>0.257765</v>
+        <v>0.257594</v>
       </c>
     </row>
     <row r="127">
@@ -4999,13 +4999,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.23184</v>
+        <v>0.23691</v>
       </c>
       <c r="C127" t="n">
-        <v>0.24211</v>
+        <v>0.24252</v>
       </c>
       <c r="D127" t="n">
-        <v>0.255034</v>
+        <v>0.25368</v>
       </c>
     </row>
     <row r="128">
@@ -5013,13 +5013,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.225064</v>
+        <v>0.232642</v>
       </c>
       <c r="C128" t="n">
-        <v>0.242929</v>
+        <v>0.245092</v>
       </c>
       <c r="D128" t="n">
-        <v>0.25347</v>
+        <v>0.25118</v>
       </c>
     </row>
     <row r="129">
@@ -5027,13 +5027,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.22</v>
+        <v>0.2194</v>
       </c>
       <c r="C129" t="n">
-        <v>0.239278</v>
+        <v>0.237903</v>
       </c>
       <c r="D129" t="n">
-        <v>0.253259</v>
+        <v>0.25884</v>
       </c>
     </row>
     <row r="130">
@@ -5041,13 +5041,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.216234</v>
+        <v>0.217682</v>
       </c>
       <c r="C130" t="n">
-        <v>0.236904</v>
+        <v>0.240114</v>
       </c>
       <c r="D130" t="n">
-        <v>0.252086</v>
+        <v>0.251332</v>
       </c>
     </row>
     <row r="131">
@@ -5055,13 +5055,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.210495</v>
+        <v>0.209646</v>
       </c>
       <c r="C131" t="n">
-        <v>0.237517</v>
+        <v>0.236629</v>
       </c>
       <c r="D131" t="n">
-        <v>0.249</v>
+        <v>0.252822</v>
       </c>
     </row>
     <row r="132">
@@ -5069,13 +5069,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.207632</v>
+        <v>0.207549</v>
       </c>
       <c r="C132" t="n">
-        <v>0.2353</v>
+        <v>0.239634</v>
       </c>
       <c r="D132" t="n">
-        <v>0.249965</v>
+        <v>0.243747</v>
       </c>
     </row>
     <row r="133">
@@ -5083,13 +5083,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.201132</v>
+        <v>0.205233</v>
       </c>
       <c r="C133" t="n">
-        <v>0.233912</v>
+        <v>0.23323</v>
       </c>
       <c r="D133" t="n">
-        <v>0.248332</v>
+        <v>0.245006</v>
       </c>
     </row>
     <row r="134">
@@ -5097,13 +5097,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.195463</v>
+        <v>0.194644</v>
       </c>
       <c r="C134" t="n">
-        <v>0.233547</v>
+        <v>0.237192</v>
       </c>
       <c r="D134" t="n">
-        <v>0.247247</v>
+        <v>0.246098</v>
       </c>
     </row>
     <row r="135">
@@ -5111,13 +5111,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.190347</v>
+        <v>0.190667</v>
       </c>
       <c r="C135" t="n">
-        <v>0.234984</v>
+        <v>0.231332</v>
       </c>
       <c r="D135" t="n">
-        <v>0.247549</v>
+        <v>0.241703</v>
       </c>
     </row>
     <row r="136">
@@ -5125,13 +5125,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.182247</v>
+        <v>0.182014</v>
       </c>
       <c r="C136" t="n">
-        <v>0.231541</v>
+        <v>0.231277</v>
       </c>
       <c r="D136" t="n">
-        <v>0.244523</v>
+        <v>0.24553</v>
       </c>
     </row>
     <row r="137">
@@ -5139,13 +5139,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.173961</v>
+        <v>0.17352</v>
       </c>
       <c r="C137" t="n">
-        <v>0.229448</v>
+        <v>0.229468</v>
       </c>
       <c r="D137" t="n">
-        <v>0.267026</v>
+        <v>0.262336</v>
       </c>
     </row>
     <row r="138">
@@ -5153,13 +5153,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.24389</v>
+        <v>0.245983</v>
       </c>
       <c r="C138" t="n">
-        <v>0.248695</v>
+        <v>0.250448</v>
       </c>
       <c r="D138" t="n">
-        <v>0.260904</v>
+        <v>0.258957</v>
       </c>
     </row>
     <row r="139">
@@ -5167,13 +5167,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.23857</v>
+        <v>0.239819</v>
       </c>
       <c r="C139" t="n">
-        <v>0.245191</v>
+        <v>0.242137</v>
       </c>
       <c r="D139" t="n">
-        <v>0.263145</v>
+        <v>0.263627</v>
       </c>
     </row>
     <row r="140">
@@ -5181,13 +5181,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.23738</v>
+        <v>0.237193</v>
       </c>
       <c r="C140" t="n">
-        <v>0.245496</v>
+        <v>0.243044</v>
       </c>
       <c r="D140" t="n">
-        <v>0.257322</v>
+        <v>0.259352</v>
       </c>
     </row>
     <row r="141">
@@ -5195,13 +5195,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.234103</v>
+        <v>0.233665</v>
       </c>
       <c r="C141" t="n">
-        <v>0.246458</v>
+        <v>0.24622</v>
       </c>
       <c r="D141" t="n">
-        <v>0.255465</v>
+        <v>0.256952</v>
       </c>
     </row>
     <row r="142">
@@ -5209,13 +5209,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.232371</v>
+        <v>0.230652</v>
       </c>
       <c r="C142" t="n">
-        <v>0.240762</v>
+        <v>0.237177</v>
       </c>
       <c r="D142" t="n">
-        <v>0.253267</v>
+        <v>0.252029</v>
       </c>
     </row>
     <row r="143">
@@ -5223,13 +5223,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.223182</v>
+        <v>0.227592</v>
       </c>
       <c r="C143" t="n">
-        <v>0.238937</v>
+        <v>0.244103</v>
       </c>
       <c r="D143" t="n">
-        <v>0.251849</v>
+        <v>0.255543</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Running erasure.xlsx
+++ b/vs-x64/Running erasure.xlsx
@@ -3249,13 +3249,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.20495</v>
+        <v>0.207344</v>
       </c>
       <c r="C2" t="n">
-        <v>0.227191</v>
+        <v>0.230127</v>
       </c>
       <c r="D2" t="n">
-        <v>0.24712</v>
+        <v>0.240015</v>
       </c>
     </row>
     <row r="3">
@@ -3263,13 +3263,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.202105</v>
+        <v>0.20263</v>
       </c>
       <c r="C3" t="n">
-        <v>0.231233</v>
+        <v>0.231186</v>
       </c>
       <c r="D3" t="n">
-        <v>0.244515</v>
+        <v>0.240208</v>
       </c>
     </row>
     <row r="4">
@@ -3277,13 +3277,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.197218</v>
+        <v>0.190974</v>
       </c>
       <c r="C4" t="n">
-        <v>0.226867</v>
+        <v>0.228602</v>
       </c>
       <c r="D4" t="n">
-        <v>0.23776</v>
+        <v>0.242669</v>
       </c>
     </row>
     <row r="5">
@@ -3291,13 +3291,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.188236</v>
+        <v>0.192515</v>
       </c>
       <c r="C5" t="n">
-        <v>0.225259</v>
+        <v>0.226009</v>
       </c>
       <c r="D5" t="n">
-        <v>0.243209</v>
+        <v>0.241728</v>
       </c>
     </row>
     <row r="6">
@@ -3305,13 +3305,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.185127</v>
+        <v>0.186087</v>
       </c>
       <c r="C6" t="n">
-        <v>0.227439</v>
+        <v>0.221891</v>
       </c>
       <c r="D6" t="n">
-        <v>0.236513</v>
+        <v>0.244224</v>
       </c>
     </row>
     <row r="7">
@@ -3319,13 +3319,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.180897</v>
+        <v>0.179828</v>
       </c>
       <c r="C7" t="n">
-        <v>0.224879</v>
+        <v>0.22314</v>
       </c>
       <c r="D7" t="n">
-        <v>0.238005</v>
+        <v>0.239583</v>
       </c>
     </row>
     <row r="8">
@@ -3333,13 +3333,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.169781</v>
+        <v>0.171047</v>
       </c>
       <c r="C8" t="n">
-        <v>0.218819</v>
+        <v>0.218593</v>
       </c>
       <c r="D8" t="n">
-        <v>0.234836</v>
+        <v>0.234311</v>
       </c>
     </row>
     <row r="9">
@@ -3347,13 +3347,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.160637</v>
+        <v>0.161218</v>
       </c>
       <c r="C9" t="n">
-        <v>0.220482</v>
+        <v>0.220237</v>
       </c>
       <c r="D9" t="n">
-        <v>0.246918</v>
+        <v>0.246566</v>
       </c>
     </row>
     <row r="10">
@@ -3361,13 +3361,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.229305</v>
+        <v>0.229121</v>
       </c>
       <c r="C10" t="n">
-        <v>0.230478</v>
+        <v>0.230624</v>
       </c>
       <c r="D10" t="n">
-        <v>0.241821</v>
+        <v>0.247879</v>
       </c>
     </row>
     <row r="11">
@@ -3375,13 +3375,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.218849</v>
+        <v>0.225603</v>
       </c>
       <c r="C11" t="n">
-        <v>0.233316</v>
+        <v>0.230426</v>
       </c>
       <c r="D11" t="n">
-        <v>0.248224</v>
+        <v>0.243793</v>
       </c>
     </row>
     <row r="12">
@@ -3389,13 +3389,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.219867</v>
+        <v>0.21952</v>
       </c>
       <c r="C12" t="n">
-        <v>0.227082</v>
+        <v>0.227959</v>
       </c>
       <c r="D12" t="n">
-        <v>0.23821</v>
+        <v>0.23866</v>
       </c>
     </row>
     <row r="13">
@@ -3403,13 +3403,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.215986</v>
+        <v>0.211339</v>
       </c>
       <c r="C13" t="n">
-        <v>0.231286</v>
+        <v>0.229035</v>
       </c>
       <c r="D13" t="n">
-        <v>0.236724</v>
+        <v>0.23899</v>
       </c>
     </row>
     <row r="14">
@@ -3417,13 +3417,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.2149</v>
+        <v>0.207894</v>
       </c>
       <c r="C14" t="n">
-        <v>0.225266</v>
+        <v>0.228962</v>
       </c>
       <c r="D14" t="n">
-        <v>0.245402</v>
+        <v>0.24338</v>
       </c>
     </row>
     <row r="15">
@@ -3431,13 +3431,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.206207</v>
+        <v>0.206099</v>
       </c>
       <c r="C15" t="n">
-        <v>0.223923</v>
+        <v>0.225624</v>
       </c>
       <c r="D15" t="n">
-        <v>0.238127</v>
+        <v>0.244114</v>
       </c>
     </row>
     <row r="16">
@@ -3445,13 +3445,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.200136</v>
+        <v>0.202914</v>
       </c>
       <c r="C16" t="n">
-        <v>0.223306</v>
+        <v>0.220565</v>
       </c>
       <c r="D16" t="n">
-        <v>0.241633</v>
+        <v>0.241829</v>
       </c>
     </row>
     <row r="17">
@@ -3459,13 +3459,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.20489</v>
+        <v>0.198896</v>
       </c>
       <c r="C17" t="n">
-        <v>0.226673</v>
+        <v>0.22614</v>
       </c>
       <c r="D17" t="n">
-        <v>0.238668</v>
+        <v>0.240164</v>
       </c>
     </row>
     <row r="18">
@@ -3473,13 +3473,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.198425</v>
+        <v>0.196007</v>
       </c>
       <c r="C18" t="n">
-        <v>0.224824</v>
+        <v>0.223957</v>
       </c>
       <c r="D18" t="n">
-        <v>0.240787</v>
+        <v>0.239999</v>
       </c>
     </row>
     <row r="19">
@@ -3487,13 +3487,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.189806</v>
+        <v>0.190006</v>
       </c>
       <c r="C19" t="n">
-        <v>0.222149</v>
+        <v>0.221925</v>
       </c>
       <c r="D19" t="n">
-        <v>0.235562</v>
+        <v>0.243005</v>
       </c>
     </row>
     <row r="20">
@@ -3501,13 +3501,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.183953</v>
+        <v>0.183244</v>
       </c>
       <c r="C20" t="n">
-        <v>0.219432</v>
+        <v>0.220661</v>
       </c>
       <c r="D20" t="n">
-        <v>0.236563</v>
+        <v>0.235067</v>
       </c>
     </row>
     <row r="21">
@@ -3515,13 +3515,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.176789</v>
+        <v>0.183324</v>
       </c>
       <c r="C21" t="n">
-        <v>0.221037</v>
+        <v>0.227846</v>
       </c>
       <c r="D21" t="n">
-        <v>0.242697</v>
+        <v>0.23344</v>
       </c>
     </row>
     <row r="22">
@@ -3529,13 +3529,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.174446</v>
+        <v>0.180313</v>
       </c>
       <c r="C22" t="n">
-        <v>0.226222</v>
+        <v>0.218877</v>
       </c>
       <c r="D22" t="n">
-        <v>0.234127</v>
+        <v>0.238853</v>
       </c>
     </row>
     <row r="23">
@@ -3543,13 +3543,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.165223</v>
+        <v>0.170767</v>
       </c>
       <c r="C23" t="n">
-        <v>0.218777</v>
+        <v>0.224132</v>
       </c>
       <c r="D23" t="n">
-        <v>0.246477</v>
+        <v>0.244468</v>
       </c>
     </row>
     <row r="24">
@@ -3557,13 +3557,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.23082</v>
+        <v>0.225789</v>
       </c>
       <c r="C24" t="n">
-        <v>0.231895</v>
+        <v>0.232825</v>
       </c>
       <c r="D24" t="n">
-        <v>0.246036</v>
+        <v>0.24562</v>
       </c>
     </row>
     <row r="25">
@@ -3571,13 +3571,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.229171</v>
+        <v>0.22763</v>
       </c>
       <c r="C25" t="n">
-        <v>0.233855</v>
+        <v>0.230194</v>
       </c>
       <c r="D25" t="n">
-        <v>0.240537</v>
+        <v>0.245835</v>
       </c>
     </row>
     <row r="26">
@@ -3585,13 +3585,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.225751</v>
+        <v>0.223276</v>
       </c>
       <c r="C26" t="n">
-        <v>0.232539</v>
+        <v>0.231947</v>
       </c>
       <c r="D26" t="n">
-        <v>0.244409</v>
+        <v>0.246091</v>
       </c>
     </row>
     <row r="27">
@@ -3599,13 +3599,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.220373</v>
+        <v>0.224862</v>
       </c>
       <c r="C27" t="n">
-        <v>0.23077</v>
+        <v>0.229533</v>
       </c>
       <c r="D27" t="n">
-        <v>0.244014</v>
+        <v>0.243045</v>
       </c>
     </row>
     <row r="28">
@@ -3613,13 +3613,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.218471</v>
+        <v>0.215878</v>
       </c>
       <c r="C28" t="n">
-        <v>0.232562</v>
+        <v>0.226835</v>
       </c>
       <c r="D28" t="n">
-        <v>0.239609</v>
+        <v>0.244338</v>
       </c>
     </row>
     <row r="29">
@@ -3627,13 +3627,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.206659</v>
+        <v>0.211606</v>
       </c>
       <c r="C29" t="n">
-        <v>0.231215</v>
+        <v>0.226776</v>
       </c>
       <c r="D29" t="n">
-        <v>0.245404</v>
+        <v>0.235448</v>
       </c>
     </row>
     <row r="30">
@@ -3641,13 +3641,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.20439</v>
+        <v>0.207561</v>
       </c>
       <c r="C30" t="n">
-        <v>0.227316</v>
+        <v>0.226468</v>
       </c>
       <c r="D30" t="n">
-        <v>0.238156</v>
+        <v>0.24066</v>
       </c>
     </row>
     <row r="31">
@@ -3655,13 +3655,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.200947</v>
+        <v>0.203838</v>
       </c>
       <c r="C31" t="n">
-        <v>0.227014</v>
+        <v>0.230916</v>
       </c>
       <c r="D31" t="n">
-        <v>0.242177</v>
+        <v>0.246773</v>
       </c>
     </row>
     <row r="32">
@@ -3669,13 +3669,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.199664</v>
+        <v>0.201726</v>
       </c>
       <c r="C32" t="n">
-        <v>0.225751</v>
+        <v>0.225988</v>
       </c>
       <c r="D32" t="n">
-        <v>0.243726</v>
+        <v>0.245211</v>
       </c>
     </row>
     <row r="33">
@@ -3683,13 +3683,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.193803</v>
+        <v>0.196955</v>
       </c>
       <c r="C33" t="n">
-        <v>0.22646</v>
+        <v>0.222718</v>
       </c>
       <c r="D33" t="n">
-        <v>0.236772</v>
+        <v>0.235875</v>
       </c>
     </row>
     <row r="34">
@@ -3697,13 +3697,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.189822</v>
+        <v>0.192745</v>
       </c>
       <c r="C34" t="n">
-        <v>0.238451</v>
+        <v>0.228786</v>
       </c>
       <c r="D34" t="n">
-        <v>0.238172</v>
+        <v>0.24093</v>
       </c>
     </row>
     <row r="35">
@@ -3711,13 +3711,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.184943</v>
+        <v>0.188659</v>
       </c>
       <c r="C35" t="n">
-        <v>0.223625</v>
+        <v>0.223762</v>
       </c>
       <c r="D35" t="n">
-        <v>0.234597</v>
+        <v>0.236975</v>
       </c>
     </row>
     <row r="36">
@@ -3725,13 +3725,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.176571</v>
+        <v>0.177442</v>
       </c>
       <c r="C36" t="n">
-        <v>0.229012</v>
+        <v>0.222387</v>
       </c>
       <c r="D36" t="n">
-        <v>0.236125</v>
+        <v>0.239474</v>
       </c>
     </row>
     <row r="37">
@@ -3739,13 +3739,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.17178</v>
+        <v>0.170514</v>
       </c>
       <c r="C37" t="n">
-        <v>0.226715</v>
+        <v>0.223232</v>
       </c>
       <c r="D37" t="n">
-        <v>0.252933</v>
+        <v>0.256559</v>
       </c>
     </row>
     <row r="38">
@@ -3753,13 +3753,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.231136</v>
+        <v>0.232329</v>
       </c>
       <c r="C38" t="n">
-        <v>0.236014</v>
+        <v>0.233877</v>
       </c>
       <c r="D38" t="n">
-        <v>0.249428</v>
+        <v>0.251759</v>
       </c>
     </row>
     <row r="39">
@@ -3767,13 +3767,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.228475</v>
+        <v>0.229475</v>
       </c>
       <c r="C39" t="n">
-        <v>0.234359</v>
+        <v>0.236136</v>
       </c>
       <c r="D39" t="n">
-        <v>0.244716</v>
+        <v>0.245554</v>
       </c>
     </row>
     <row r="40">
@@ -3781,13 +3781,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.224265</v>
+        <v>0.225615</v>
       </c>
       <c r="C40" t="n">
-        <v>0.235581</v>
+        <v>0.235241</v>
       </c>
       <c r="D40" t="n">
-        <v>0.239024</v>
+        <v>0.255233</v>
       </c>
     </row>
     <row r="41">
@@ -3795,13 +3795,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.221043</v>
+        <v>0.221657</v>
       </c>
       <c r="C41" t="n">
-        <v>0.230829</v>
+        <v>0.228831</v>
       </c>
       <c r="D41" t="n">
-        <v>0.243833</v>
+        <v>0.244953</v>
       </c>
     </row>
     <row r="42">
@@ -3809,13 +3809,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.216365</v>
+        <v>0.216606</v>
       </c>
       <c r="C42" t="n">
-        <v>0.231955</v>
+        <v>0.229486</v>
       </c>
       <c r="D42" t="n">
-        <v>0.243333</v>
+        <v>0.241426</v>
       </c>
     </row>
     <row r="43">
@@ -3823,13 +3823,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.216097</v>
+        <v>0.213342</v>
       </c>
       <c r="C43" t="n">
-        <v>0.226073</v>
+        <v>0.228992</v>
       </c>
       <c r="D43" t="n">
-        <v>0.23815</v>
+        <v>0.247066</v>
       </c>
     </row>
     <row r="44">
@@ -3837,13 +3837,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.208909</v>
+        <v>0.210687</v>
       </c>
       <c r="C44" t="n">
-        <v>0.229705</v>
+        <v>0.231083</v>
       </c>
       <c r="D44" t="n">
-        <v>0.246192</v>
+        <v>0.246354</v>
       </c>
     </row>
     <row r="45">
@@ -3851,13 +3851,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.203743</v>
+        <v>0.203222</v>
       </c>
       <c r="C45" t="n">
-        <v>0.224303</v>
+        <v>0.225592</v>
       </c>
       <c r="D45" t="n">
-        <v>0.249863</v>
+        <v>0.249939</v>
       </c>
     </row>
     <row r="46">
@@ -3865,13 +3865,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.201011</v>
+        <v>0.199005</v>
       </c>
       <c r="C46" t="n">
-        <v>0.223546</v>
+        <v>0.223346</v>
       </c>
       <c r="D46" t="n">
-        <v>0.236931</v>
+        <v>0.240545</v>
       </c>
     </row>
     <row r="47">
@@ -3879,13 +3879,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.197394</v>
+        <v>0.196447</v>
       </c>
       <c r="C47" t="n">
-        <v>0.225449</v>
+        <v>0.224155</v>
       </c>
       <c r="D47" t="n">
-        <v>0.248377</v>
+        <v>0.246453</v>
       </c>
     </row>
     <row r="48">
@@ -3893,13 +3893,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.1929</v>
+        <v>0.191251</v>
       </c>
       <c r="C48" t="n">
-        <v>0.224902</v>
+        <v>0.223928</v>
       </c>
       <c r="D48" t="n">
-        <v>0.239098</v>
+        <v>0.244823</v>
       </c>
     </row>
     <row r="49">
@@ -3907,13 +3907,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.185776</v>
+        <v>0.185888</v>
       </c>
       <c r="C49" t="n">
-        <v>0.226489</v>
+        <v>0.225577</v>
       </c>
       <c r="D49" t="n">
-        <v>0.242318</v>
+        <v>0.24317</v>
       </c>
     </row>
     <row r="50">
@@ -3921,13 +3921,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.178761</v>
+        <v>0.180143</v>
       </c>
       <c r="C50" t="n">
-        <v>0.223499</v>
+        <v>0.221751</v>
       </c>
       <c r="D50" t="n">
-        <v>0.244034</v>
+        <v>0.243137</v>
       </c>
     </row>
     <row r="51">
@@ -3935,13 +3935,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.173642</v>
+        <v>0.173979</v>
       </c>
       <c r="C51" t="n">
-        <v>0.22137</v>
+        <v>0.223167</v>
       </c>
       <c r="D51" t="n">
-        <v>0.254151</v>
+        <v>0.253644</v>
       </c>
     </row>
     <row r="52">
@@ -3949,13 +3949,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.165504</v>
+        <v>0.164618</v>
       </c>
       <c r="C52" t="n">
-        <v>0.221972</v>
+        <v>0.219312</v>
       </c>
       <c r="D52" t="n">
-        <v>0.253329</v>
+        <v>0.254057</v>
       </c>
     </row>
     <row r="53">
@@ -3963,13 +3963,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.230671</v>
+        <v>0.229893</v>
       </c>
       <c r="C53" t="n">
-        <v>0.239214</v>
+        <v>0.23725</v>
       </c>
       <c r="D53" t="n">
-        <v>0.252111</v>
+        <v>0.249836</v>
       </c>
     </row>
     <row r="54">
@@ -3977,13 +3977,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.226935</v>
+        <v>0.229274</v>
       </c>
       <c r="C54" t="n">
-        <v>0.237412</v>
+        <v>0.239978</v>
       </c>
       <c r="D54" t="n">
-        <v>0.254783</v>
+        <v>0.250133</v>
       </c>
     </row>
     <row r="55">
@@ -3991,13 +3991,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.225191</v>
+        <v>0.225732</v>
       </c>
       <c r="C55" t="n">
-        <v>0.237979</v>
+        <v>0.237334</v>
       </c>
       <c r="D55" t="n">
-        <v>0.251855</v>
+        <v>0.252088</v>
       </c>
     </row>
     <row r="56">
@@ -4005,13 +4005,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.221031</v>
+        <v>0.218781</v>
       </c>
       <c r="C56" t="n">
-        <v>0.242939</v>
+        <v>0.235294</v>
       </c>
       <c r="D56" t="n">
-        <v>0.251031</v>
+        <v>0.246455</v>
       </c>
     </row>
     <row r="57">
@@ -4019,13 +4019,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.219637</v>
+        <v>0.22223</v>
       </c>
       <c r="C57" t="n">
-        <v>0.235113</v>
+        <v>0.235283</v>
       </c>
       <c r="D57" t="n">
-        <v>0.248076</v>
+        <v>0.245927</v>
       </c>
     </row>
     <row r="58">
@@ -4033,13 +4033,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.210717</v>
+        <v>0.211793</v>
       </c>
       <c r="C58" t="n">
-        <v>0.235671</v>
+        <v>0.233181</v>
       </c>
       <c r="D58" t="n">
-        <v>0.245861</v>
+        <v>0.245545</v>
       </c>
     </row>
     <row r="59">
@@ -4047,13 +4047,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.209519</v>
+        <v>0.206733</v>
       </c>
       <c r="C59" t="n">
-        <v>0.233395</v>
+        <v>0.231791</v>
       </c>
       <c r="D59" t="n">
-        <v>0.243413</v>
+        <v>0.248787</v>
       </c>
     </row>
     <row r="60">
@@ -4061,13 +4061,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.207585</v>
+        <v>0.202891</v>
       </c>
       <c r="C60" t="n">
-        <v>0.235385</v>
+        <v>0.22774</v>
       </c>
       <c r="D60" t="n">
-        <v>0.243594</v>
+        <v>0.24273</v>
       </c>
     </row>
     <row r="61">
@@ -4075,13 +4075,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.19994</v>
+        <v>0.199875</v>
       </c>
       <c r="C61" t="n">
-        <v>0.233271</v>
+        <v>0.231051</v>
       </c>
       <c r="D61" t="n">
-        <v>0.24726</v>
+        <v>0.243136</v>
       </c>
     </row>
     <row r="62">
@@ -4089,13 +4089,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.191817</v>
+        <v>0.194946</v>
       </c>
       <c r="C62" t="n">
-        <v>0.234946</v>
+        <v>0.226099</v>
       </c>
       <c r="D62" t="n">
-        <v>0.241255</v>
+        <v>0.238949</v>
       </c>
     </row>
     <row r="63">
@@ -4103,13 +4103,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.187862</v>
+        <v>0.192555</v>
       </c>
       <c r="C63" t="n">
-        <v>0.229072</v>
+        <v>0.230878</v>
       </c>
       <c r="D63" t="n">
-        <v>0.242951</v>
+        <v>0.241626</v>
       </c>
     </row>
     <row r="64">
@@ -4117,13 +4117,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.188548</v>
+        <v>0.184541</v>
       </c>
       <c r="C64" t="n">
-        <v>0.228965</v>
+        <v>0.225747</v>
       </c>
       <c r="D64" t="n">
-        <v>0.245671</v>
+        <v>0.240574</v>
       </c>
     </row>
     <row r="65">
@@ -4131,13 +4131,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.177741</v>
+        <v>0.176899</v>
       </c>
       <c r="C65" t="n">
-        <v>0.225224</v>
+        <v>0.225001</v>
       </c>
       <c r="D65" t="n">
-        <v>0.237989</v>
+        <v>0.239454</v>
       </c>
     </row>
     <row r="66">
@@ -4145,13 +4145,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.168831</v>
+        <v>0.169571</v>
       </c>
       <c r="C66" t="n">
-        <v>0.223568</v>
+        <v>0.22442</v>
       </c>
       <c r="D66" t="n">
-        <v>0.25392</v>
+        <v>0.254079</v>
       </c>
     </row>
     <row r="67">
@@ -4159,13 +4159,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.235054</v>
+        <v>0.237733</v>
       </c>
       <c r="C67" t="n">
-        <v>0.243892</v>
+        <v>0.244225</v>
       </c>
       <c r="D67" t="n">
-        <v>0.258025</v>
+        <v>0.253795</v>
       </c>
     </row>
     <row r="68">
@@ -4173,13 +4173,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.235803</v>
+        <v>0.232723</v>
       </c>
       <c r="C68" t="n">
-        <v>0.237426</v>
+        <v>0.238878</v>
       </c>
       <c r="D68" t="n">
-        <v>0.252689</v>
+        <v>0.250691</v>
       </c>
     </row>
     <row r="69">
@@ -4187,13 +4187,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.234742</v>
+        <v>0.231556</v>
       </c>
       <c r="C69" t="n">
-        <v>0.239315</v>
+        <v>0.237546</v>
       </c>
       <c r="D69" t="n">
-        <v>0.251254</v>
+        <v>0.251594</v>
       </c>
     </row>
     <row r="70">
@@ -4201,13 +4201,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.227599</v>
+        <v>0.223984</v>
       </c>
       <c r="C70" t="n">
-        <v>0.236664</v>
+        <v>0.244153</v>
       </c>
       <c r="D70" t="n">
-        <v>0.253161</v>
+        <v>0.249885</v>
       </c>
     </row>
     <row r="71">
@@ -4215,13 +4215,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.222868</v>
+        <v>0.222554</v>
       </c>
       <c r="C71" t="n">
-        <v>0.237524</v>
+        <v>0.23438</v>
       </c>
       <c r="D71" t="n">
-        <v>0.252247</v>
+        <v>0.246214</v>
       </c>
     </row>
     <row r="72">
@@ -4229,13 +4229,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.215678</v>
+        <v>0.216313</v>
       </c>
       <c r="C72" t="n">
-        <v>0.232482</v>
+        <v>0.232091</v>
       </c>
       <c r="D72" t="n">
-        <v>0.248014</v>
+        <v>0.248269</v>
       </c>
     </row>
     <row r="73">
@@ -4243,13 +4243,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.209748</v>
+        <v>0.215523</v>
       </c>
       <c r="C73" t="n">
-        <v>0.233393</v>
+        <v>0.233362</v>
       </c>
       <c r="D73" t="n">
-        <v>0.246357</v>
+        <v>0.246485</v>
       </c>
     </row>
     <row r="74">
@@ -4257,13 +4257,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.205629</v>
+        <v>0.210113</v>
       </c>
       <c r="C74" t="n">
-        <v>0.237076</v>
+        <v>0.233243</v>
       </c>
       <c r="D74" t="n">
-        <v>0.244232</v>
+        <v>0.244253</v>
       </c>
     </row>
     <row r="75">
@@ -4271,13 +4271,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.201239</v>
+        <v>0.201312</v>
       </c>
       <c r="C75" t="n">
-        <v>0.23076</v>
+        <v>0.238229</v>
       </c>
       <c r="D75" t="n">
-        <v>0.244288</v>
+        <v>0.242946</v>
       </c>
     </row>
     <row r="76">
@@ -4285,13 +4285,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.195408</v>
+        <v>0.198926</v>
       </c>
       <c r="C76" t="n">
-        <v>0.22999</v>
+        <v>0.228118</v>
       </c>
       <c r="D76" t="n">
-        <v>0.245754</v>
+        <v>0.242413</v>
       </c>
     </row>
     <row r="77">
@@ -4299,13 +4299,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.191799</v>
+        <v>0.191836</v>
       </c>
       <c r="C77" t="n">
-        <v>0.228311</v>
+        <v>0.227781</v>
       </c>
       <c r="D77" t="n">
-        <v>0.240016</v>
+        <v>0.240973</v>
       </c>
     </row>
     <row r="78">
@@ -4313,13 +4313,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.186287</v>
+        <v>0.186952</v>
       </c>
       <c r="C78" t="n">
-        <v>0.226313</v>
+        <v>0.228489</v>
       </c>
       <c r="D78" t="n">
-        <v>0.240172</v>
+        <v>0.244475</v>
       </c>
     </row>
     <row r="79">
@@ -4327,13 +4327,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.182604</v>
+        <v>0.18211</v>
       </c>
       <c r="C79" t="n">
-        <v>0.233395</v>
+        <v>0.230662</v>
       </c>
       <c r="D79" t="n">
-        <v>0.240356</v>
+        <v>0.241004</v>
       </c>
     </row>
     <row r="80">
@@ -4341,13 +4341,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.172182</v>
+        <v>0.171381</v>
       </c>
       <c r="C80" t="n">
-        <v>0.229951</v>
+        <v>0.224423</v>
       </c>
       <c r="D80" t="n">
-        <v>0.257311</v>
+        <v>0.258013</v>
       </c>
     </row>
     <row r="81">
@@ -4355,13 +4355,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.244355</v>
+        <v>0.240119</v>
       </c>
       <c r="C81" t="n">
-        <v>0.245405</v>
+        <v>0.244378</v>
       </c>
       <c r="D81" t="n">
-        <v>0.256475</v>
+        <v>0.255549</v>
       </c>
     </row>
     <row r="82">
@@ -4369,13 +4369,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.236336</v>
+        <v>0.237759</v>
       </c>
       <c r="C82" t="n">
-        <v>0.245581</v>
+        <v>0.243686</v>
       </c>
       <c r="D82" t="n">
-        <v>0.25414</v>
+        <v>0.256853</v>
       </c>
     </row>
     <row r="83">
@@ -4383,13 +4383,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.231571</v>
+        <v>0.234594</v>
       </c>
       <c r="C83" t="n">
-        <v>0.240819</v>
+        <v>0.242384</v>
       </c>
       <c r="D83" t="n">
-        <v>0.252605</v>
+        <v>0.256529</v>
       </c>
     </row>
     <row r="84">
@@ -4397,13 +4397,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.236333</v>
+        <v>0.230956</v>
       </c>
       <c r="C84" t="n">
-        <v>0.240205</v>
+        <v>0.241326</v>
       </c>
       <c r="D84" t="n">
-        <v>0.254459</v>
+        <v>0.250447</v>
       </c>
     </row>
     <row r="85">
@@ -4411,13 +4411,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.227603</v>
+        <v>0.226158</v>
       </c>
       <c r="C85" t="n">
-        <v>0.239</v>
+        <v>0.240229</v>
       </c>
       <c r="D85" t="n">
-        <v>0.255909</v>
+        <v>0.251207</v>
       </c>
     </row>
     <row r="86">
@@ -4425,13 +4425,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.220526</v>
+        <v>0.221328</v>
       </c>
       <c r="C86" t="n">
-        <v>0.235906</v>
+        <v>0.23866</v>
       </c>
       <c r="D86" t="n">
-        <v>0.252669</v>
+        <v>0.251267</v>
       </c>
     </row>
     <row r="87">
@@ -4439,13 +4439,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.217517</v>
+        <v>0.217049</v>
       </c>
       <c r="C87" t="n">
-        <v>0.234043</v>
+        <v>0.236031</v>
       </c>
       <c r="D87" t="n">
-        <v>0.246382</v>
+        <v>0.247449</v>
       </c>
     </row>
     <row r="88">
@@ -4453,13 +4453,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.214614</v>
+        <v>0.211296</v>
       </c>
       <c r="C88" t="n">
-        <v>0.234918</v>
+        <v>0.235029</v>
       </c>
       <c r="D88" t="n">
-        <v>0.248636</v>
+        <v>0.25125</v>
       </c>
     </row>
     <row r="89">
@@ -4467,13 +4467,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.208739</v>
+        <v>0.206157</v>
       </c>
       <c r="C89" t="n">
-        <v>0.233528</v>
+        <v>0.235707</v>
       </c>
       <c r="D89" t="n">
-        <v>0.247878</v>
+        <v>0.247993</v>
       </c>
     </row>
     <row r="90">
@@ -4481,13 +4481,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.202945</v>
+        <v>0.202721</v>
       </c>
       <c r="C90" t="n">
-        <v>0.232173</v>
+        <v>0.230584</v>
       </c>
       <c r="D90" t="n">
-        <v>0.243165</v>
+        <v>0.24399</v>
       </c>
     </row>
     <row r="91">
@@ -4495,13 +4495,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.198806</v>
+        <v>0.197118</v>
       </c>
       <c r="C91" t="n">
-        <v>0.22764</v>
+        <v>0.234663</v>
       </c>
       <c r="D91" t="n">
-        <v>0.242626</v>
+        <v>0.24682</v>
       </c>
     </row>
     <row r="92">
@@ -4509,13 +4509,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.194784</v>
+        <v>0.189418</v>
       </c>
       <c r="C92" t="n">
-        <v>0.237189</v>
+        <v>0.231297</v>
       </c>
       <c r="D92" t="n">
-        <v>0.245423</v>
+        <v>0.242951</v>
       </c>
     </row>
     <row r="93">
@@ -4523,13 +4523,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.185157</v>
+        <v>0.184162</v>
       </c>
       <c r="C93" t="n">
-        <v>0.228556</v>
+        <v>0.229885</v>
       </c>
       <c r="D93" t="n">
-        <v>0.2446</v>
+        <v>0.241258</v>
       </c>
     </row>
     <row r="94">
@@ -4537,13 +4537,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.179899</v>
+        <v>0.177874</v>
       </c>
       <c r="C94" t="n">
-        <v>0.227325</v>
+        <v>0.226379</v>
       </c>
       <c r="D94" t="n">
-        <v>0.261988</v>
+        <v>0.261846</v>
       </c>
     </row>
     <row r="95">
@@ -4551,13 +4551,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.243695</v>
+        <v>0.246965</v>
       </c>
       <c r="C95" t="n">
-        <v>0.243887</v>
+        <v>0.248928</v>
       </c>
       <c r="D95" t="n">
-        <v>0.260609</v>
+        <v>0.256773</v>
       </c>
     </row>
     <row r="96">
@@ -4565,13 +4565,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.2417</v>
+        <v>0.247002</v>
       </c>
       <c r="C96" t="n">
-        <v>0.245914</v>
+        <v>0.248228</v>
       </c>
       <c r="D96" t="n">
-        <v>0.260569</v>
+        <v>0.259084</v>
       </c>
     </row>
     <row r="97">
@@ -4579,13 +4579,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.238863</v>
+        <v>0.237537</v>
       </c>
       <c r="C97" t="n">
-        <v>0.245725</v>
+        <v>0.244843</v>
       </c>
       <c r="D97" t="n">
-        <v>0.258106</v>
+        <v>0.25575</v>
       </c>
     </row>
     <row r="98">
@@ -4593,13 +4593,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.233461</v>
+        <v>0.236968</v>
       </c>
       <c r="C98" t="n">
-        <v>0.246125</v>
+        <v>0.243023</v>
       </c>
       <c r="D98" t="n">
-        <v>0.254949</v>
+        <v>0.258515</v>
       </c>
     </row>
     <row r="99">
@@ -4607,13 +4607,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.228116</v>
+        <v>0.228493</v>
       </c>
       <c r="C99" t="n">
-        <v>0.242247</v>
+        <v>0.241468</v>
       </c>
       <c r="D99" t="n">
-        <v>0.257651</v>
+        <v>0.252207</v>
       </c>
     </row>
     <row r="100">
@@ -4621,13 +4621,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.222989</v>
+        <v>0.224139</v>
       </c>
       <c r="C100" t="n">
-        <v>0.23818</v>
+        <v>0.245119</v>
       </c>
       <c r="D100" t="n">
-        <v>0.253484</v>
+        <v>0.251601</v>
       </c>
     </row>
     <row r="101">
@@ -4635,13 +4635,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.218956</v>
+        <v>0.219119</v>
       </c>
       <c r="C101" t="n">
-        <v>0.239003</v>
+        <v>0.238852</v>
       </c>
       <c r="D101" t="n">
-        <v>0.253206</v>
+        <v>0.250953</v>
       </c>
     </row>
     <row r="102">
@@ -4649,13 +4649,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.21492</v>
+        <v>0.217423</v>
       </c>
       <c r="C102" t="n">
-        <v>0.236013</v>
+        <v>0.235023</v>
       </c>
       <c r="D102" t="n">
-        <v>0.251546</v>
+        <v>0.248992</v>
       </c>
     </row>
     <row r="103">
@@ -4663,13 +4663,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.20727</v>
+        <v>0.210634</v>
       </c>
       <c r="C103" t="n">
-        <v>0.235917</v>
+        <v>0.233279</v>
       </c>
       <c r="D103" t="n">
-        <v>0.247985</v>
+        <v>0.252609</v>
       </c>
     </row>
     <row r="104">
@@ -4677,13 +4677,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.204363</v>
+        <v>0.204431</v>
       </c>
       <c r="C104" t="n">
-        <v>0.23543</v>
+        <v>0.237574</v>
       </c>
       <c r="D104" t="n">
-        <v>0.247005</v>
+        <v>0.246453</v>
       </c>
     </row>
     <row r="105">
@@ -4691,13 +4691,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.198216</v>
+        <v>0.200036</v>
       </c>
       <c r="C105" t="n">
-        <v>0.233202</v>
+        <v>0.236711</v>
       </c>
       <c r="D105" t="n">
-        <v>0.246107</v>
+        <v>0.245836</v>
       </c>
     </row>
     <row r="106">
@@ -4705,13 +4705,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.191943</v>
+        <v>0.191951</v>
       </c>
       <c r="C106" t="n">
-        <v>0.231193</v>
+        <v>0.23155</v>
       </c>
       <c r="D106" t="n">
-        <v>0.243261</v>
+        <v>0.248307</v>
       </c>
     </row>
     <row r="107">
@@ -4719,13 +4719,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.186919</v>
+        <v>0.186149</v>
       </c>
       <c r="C107" t="n">
-        <v>0.234432</v>
+        <v>0.23089</v>
       </c>
       <c r="D107" t="n">
-        <v>0.242996</v>
+        <v>0.242832</v>
       </c>
     </row>
     <row r="108">
@@ -4733,13 +4733,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.180397</v>
+        <v>0.179641</v>
       </c>
       <c r="C108" t="n">
-        <v>0.23334</v>
+        <v>0.230131</v>
       </c>
       <c r="D108" t="n">
-        <v>0.260154</v>
+        <v>0.264502</v>
       </c>
     </row>
     <row r="109">
@@ -4747,13 +4747,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.171133</v>
+        <v>0.170039</v>
       </c>
       <c r="C109" t="n">
-        <v>0.228802</v>
+        <v>0.230497</v>
       </c>
       <c r="D109" t="n">
-        <v>0.258697</v>
+        <v>0.259617</v>
       </c>
     </row>
     <row r="110">
@@ -4761,13 +4761,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.244331</v>
+        <v>0.242456</v>
       </c>
       <c r="C110" t="n">
-        <v>0.244049</v>
+        <v>0.247908</v>
       </c>
       <c r="D110" t="n">
-        <v>0.25746</v>
+        <v>0.256639</v>
       </c>
     </row>
     <row r="111">
@@ -4775,13 +4775,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.237603</v>
+        <v>0.241494</v>
       </c>
       <c r="C111" t="n">
-        <v>0.245622</v>
+        <v>0.242154</v>
       </c>
       <c r="D111" t="n">
-        <v>0.254817</v>
+        <v>0.258616</v>
       </c>
     </row>
     <row r="112">
@@ -4789,13 +4789,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.237</v>
+        <v>0.23504</v>
       </c>
       <c r="C112" t="n">
-        <v>0.244823</v>
+        <v>0.243923</v>
       </c>
       <c r="D112" t="n">
-        <v>0.255674</v>
+        <v>0.255748</v>
       </c>
     </row>
     <row r="113">
@@ -4803,13 +4803,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.229268</v>
+        <v>0.228603</v>
       </c>
       <c r="C113" t="n">
-        <v>0.244986</v>
+        <v>0.24265</v>
       </c>
       <c r="D113" t="n">
-        <v>0.252276</v>
+        <v>0.251155</v>
       </c>
     </row>
     <row r="114">
@@ -4817,13 +4817,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.224799</v>
+        <v>0.225785</v>
       </c>
       <c r="C114" t="n">
-        <v>0.243644</v>
+        <v>0.238228</v>
       </c>
       <c r="D114" t="n">
-        <v>0.256706</v>
+        <v>0.252507</v>
       </c>
     </row>
     <row r="115">
@@ -4831,13 +4831,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.220753</v>
+        <v>0.225927</v>
       </c>
       <c r="C115" t="n">
-        <v>0.242149</v>
+        <v>0.242926</v>
       </c>
       <c r="D115" t="n">
-        <v>0.251531</v>
+        <v>0.247703</v>
       </c>
     </row>
     <row r="116">
@@ -4845,13 +4845,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.217581</v>
+        <v>0.214185</v>
       </c>
       <c r="C116" t="n">
-        <v>0.235119</v>
+        <v>0.237586</v>
       </c>
       <c r="D116" t="n">
-        <v>0.247779</v>
+        <v>0.247976</v>
       </c>
     </row>
     <row r="117">
@@ -4859,13 +4859,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.208637</v>
+        <v>0.214011</v>
       </c>
       <c r="C117" t="n">
-        <v>0.232985</v>
+        <v>0.232718</v>
       </c>
       <c r="D117" t="n">
-        <v>0.249858</v>
+        <v>0.245924</v>
       </c>
     </row>
     <row r="118">
@@ -4873,13 +4873,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.208921</v>
+        <v>0.208083</v>
       </c>
       <c r="C118" t="n">
-        <v>0.234682</v>
+        <v>0.238458</v>
       </c>
       <c r="D118" t="n">
-        <v>0.245597</v>
+        <v>0.248264</v>
       </c>
     </row>
     <row r="119">
@@ -4887,13 +4887,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.199346</v>
+        <v>0.199983</v>
       </c>
       <c r="C119" t="n">
-        <v>0.234944</v>
+        <v>0.23142</v>
       </c>
       <c r="D119" t="n">
-        <v>0.245955</v>
+        <v>0.246599</v>
       </c>
     </row>
     <row r="120">
@@ -4901,13 +4901,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.194141</v>
+        <v>0.194965</v>
       </c>
       <c r="C120" t="n">
-        <v>0.236712</v>
+        <v>0.230939</v>
       </c>
       <c r="D120" t="n">
-        <v>0.245092</v>
+        <v>0.246923</v>
       </c>
     </row>
     <row r="121">
@@ -4915,13 +4915,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.190557</v>
+        <v>0.186198</v>
       </c>
       <c r="C121" t="n">
-        <v>0.235956</v>
+        <v>0.228546</v>
       </c>
       <c r="D121" t="n">
-        <v>0.243125</v>
+        <v>0.243906</v>
       </c>
     </row>
     <row r="122">
@@ -4929,13 +4929,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.182021</v>
+        <v>0.179664</v>
       </c>
       <c r="C122" t="n">
-        <v>0.231111</v>
+        <v>0.227959</v>
       </c>
       <c r="D122" t="n">
-        <v>0.248051</v>
+        <v>0.246202</v>
       </c>
     </row>
     <row r="123">
@@ -4943,13 +4943,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.171081</v>
+        <v>0.170961</v>
       </c>
       <c r="C123" t="n">
-        <v>0.226017</v>
+        <v>0.230637</v>
       </c>
       <c r="D123" t="n">
-        <v>0.258169</v>
+        <v>0.259788</v>
       </c>
     </row>
     <row r="124">
@@ -4957,13 +4957,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.240301</v>
+        <v>0.241906</v>
       </c>
       <c r="C124" t="n">
-        <v>0.248124</v>
+        <v>0.245463</v>
       </c>
       <c r="D124" t="n">
-        <v>0.262445</v>
+        <v>0.255521</v>
       </c>
     </row>
     <row r="125">
@@ -4971,13 +4971,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.23664</v>
+        <v>0.242111</v>
       </c>
       <c r="C125" t="n">
-        <v>0.248978</v>
+        <v>0.246205</v>
       </c>
       <c r="D125" t="n">
-        <v>0.25606</v>
+        <v>0.258182</v>
       </c>
     </row>
     <row r="126">
@@ -4985,13 +4985,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.236015</v>
+        <v>0.234743</v>
       </c>
       <c r="C126" t="n">
-        <v>0.241615</v>
+        <v>0.24311</v>
       </c>
       <c r="D126" t="n">
-        <v>0.257594</v>
+        <v>0.25406</v>
       </c>
     </row>
     <row r="127">
@@ -4999,13 +4999,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.23691</v>
+        <v>0.229386</v>
       </c>
       <c r="C127" t="n">
-        <v>0.24252</v>
+        <v>0.245791</v>
       </c>
       <c r="D127" t="n">
-        <v>0.25368</v>
+        <v>0.256902</v>
       </c>
     </row>
     <row r="128">
@@ -5013,13 +5013,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.232642</v>
+        <v>0.226485</v>
       </c>
       <c r="C128" t="n">
-        <v>0.245092</v>
+        <v>0.238695</v>
       </c>
       <c r="D128" t="n">
-        <v>0.25118</v>
+        <v>0.250276</v>
       </c>
     </row>
     <row r="129">
@@ -5027,13 +5027,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.2194</v>
+        <v>0.221142</v>
       </c>
       <c r="C129" t="n">
-        <v>0.237903</v>
+        <v>0.238159</v>
       </c>
       <c r="D129" t="n">
-        <v>0.25884</v>
+        <v>0.254074</v>
       </c>
     </row>
     <row r="130">
@@ -5041,13 +5041,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.217682</v>
+        <v>0.217664</v>
       </c>
       <c r="C130" t="n">
-        <v>0.240114</v>
+        <v>0.236614</v>
       </c>
       <c r="D130" t="n">
-        <v>0.251332</v>
+        <v>0.247906</v>
       </c>
     </row>
     <row r="131">
@@ -5055,13 +5055,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.209646</v>
+        <v>0.211357</v>
       </c>
       <c r="C131" t="n">
-        <v>0.236629</v>
+        <v>0.235113</v>
       </c>
       <c r="D131" t="n">
-        <v>0.252822</v>
+        <v>0.253083</v>
       </c>
     </row>
     <row r="132">
@@ -5069,13 +5069,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.207549</v>
+        <v>0.208517</v>
       </c>
       <c r="C132" t="n">
-        <v>0.239634</v>
+        <v>0.236167</v>
       </c>
       <c r="D132" t="n">
-        <v>0.243747</v>
+        <v>0.243913</v>
       </c>
     </row>
     <row r="133">
@@ -5083,13 +5083,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.205233</v>
+        <v>0.20155</v>
       </c>
       <c r="C133" t="n">
-        <v>0.23323</v>
+        <v>0.235388</v>
       </c>
       <c r="D133" t="n">
-        <v>0.245006</v>
+        <v>0.247433</v>
       </c>
     </row>
     <row r="134">
@@ -5097,13 +5097,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.194644</v>
+        <v>0.197179</v>
       </c>
       <c r="C134" t="n">
-        <v>0.237192</v>
+        <v>0.233469</v>
       </c>
       <c r="D134" t="n">
-        <v>0.246098</v>
+        <v>0.248229</v>
       </c>
     </row>
     <row r="135">
@@ -5111,13 +5111,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.190667</v>
+        <v>0.189733</v>
       </c>
       <c r="C135" t="n">
-        <v>0.231332</v>
+        <v>0.232342</v>
       </c>
       <c r="D135" t="n">
-        <v>0.241703</v>
+        <v>0.245666</v>
       </c>
     </row>
     <row r="136">
@@ -5125,13 +5125,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.182014</v>
+        <v>0.180898</v>
       </c>
       <c r="C136" t="n">
-        <v>0.231277</v>
+        <v>0.231372</v>
       </c>
       <c r="D136" t="n">
-        <v>0.24553</v>
+        <v>0.247287</v>
       </c>
     </row>
     <row r="137">
@@ -5139,13 +5139,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.17352</v>
+        <v>0.174298</v>
       </c>
       <c r="C137" t="n">
-        <v>0.229468</v>
+        <v>0.227866</v>
       </c>
       <c r="D137" t="n">
-        <v>0.262336</v>
+        <v>0.261193</v>
       </c>
     </row>
     <row r="138">
@@ -5153,13 +5153,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.245983</v>
+        <v>0.246892</v>
       </c>
       <c r="C138" t="n">
-        <v>0.250448</v>
+        <v>0.247444</v>
       </c>
       <c r="D138" t="n">
-        <v>0.258957</v>
+        <v>0.258066</v>
       </c>
     </row>
     <row r="139">
@@ -5167,13 +5167,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.239819</v>
+        <v>0.24193</v>
       </c>
       <c r="C139" t="n">
-        <v>0.242137</v>
+        <v>0.249968</v>
       </c>
       <c r="D139" t="n">
-        <v>0.263627</v>
+        <v>0.264282</v>
       </c>
     </row>
     <row r="140">
@@ -5181,13 +5181,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.237193</v>
+        <v>0.233491</v>
       </c>
       <c r="C140" t="n">
-        <v>0.243044</v>
+        <v>0.244173</v>
       </c>
       <c r="D140" t="n">
-        <v>0.259352</v>
+        <v>0.260259</v>
       </c>
     </row>
     <row r="141">
@@ -5195,13 +5195,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.233665</v>
+        <v>0.229849</v>
       </c>
       <c r="C141" t="n">
-        <v>0.24622</v>
+        <v>0.243336</v>
       </c>
       <c r="D141" t="n">
-        <v>0.256952</v>
+        <v>0.252915</v>
       </c>
     </row>
     <row r="142">
@@ -5209,13 +5209,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.230652</v>
+        <v>0.222344</v>
       </c>
       <c r="C142" t="n">
-        <v>0.237177</v>
+        <v>0.243095</v>
       </c>
       <c r="D142" t="n">
-        <v>0.252029</v>
+        <v>0.251029</v>
       </c>
     </row>
     <row r="143">
@@ -5223,13 +5223,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.227592</v>
+        <v>0.219982</v>
       </c>
       <c r="C143" t="n">
-        <v>0.244103</v>
+        <v>0.242664</v>
       </c>
       <c r="D143" t="n">
-        <v>0.255543</v>
+        <v>0.255918</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Running erasure.xlsx
+++ b/vs-x64/Running erasure.xlsx
@@ -3249,13 +3249,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.207344</v>
+        <v>0.207642</v>
       </c>
       <c r="C2" t="n">
-        <v>0.230127</v>
+        <v>0.226831</v>
       </c>
       <c r="D2" t="n">
-        <v>0.240015</v>
+        <v>0.240581</v>
       </c>
     </row>
     <row r="3">
@@ -3263,13 +3263,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.20263</v>
+        <v>0.200578</v>
       </c>
       <c r="C3" t="n">
-        <v>0.231186</v>
+        <v>0.22708</v>
       </c>
       <c r="D3" t="n">
-        <v>0.240208</v>
+        <v>0.245575</v>
       </c>
     </row>
     <row r="4">
@@ -3277,13 +3277,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.190974</v>
+        <v>0.19749</v>
       </c>
       <c r="C4" t="n">
-        <v>0.228602</v>
+        <v>0.223348</v>
       </c>
       <c r="D4" t="n">
-        <v>0.242669</v>
+        <v>0.241897</v>
       </c>
     </row>
     <row r="5">
@@ -3291,13 +3291,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.192515</v>
+        <v>0.188572</v>
       </c>
       <c r="C5" t="n">
-        <v>0.226009</v>
+        <v>0.223657</v>
       </c>
       <c r="D5" t="n">
-        <v>0.241728</v>
+        <v>0.234739</v>
       </c>
     </row>
     <row r="6">
@@ -3305,13 +3305,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.186087</v>
+        <v>0.182439</v>
       </c>
       <c r="C6" t="n">
-        <v>0.221891</v>
+        <v>0.223411</v>
       </c>
       <c r="D6" t="n">
-        <v>0.244224</v>
+        <v>0.243096</v>
       </c>
     </row>
     <row r="7">
@@ -3319,13 +3319,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.179828</v>
+        <v>0.177009</v>
       </c>
       <c r="C7" t="n">
-        <v>0.22314</v>
+        <v>0.221414</v>
       </c>
       <c r="D7" t="n">
-        <v>0.239583</v>
+        <v>0.23811</v>
       </c>
     </row>
     <row r="8">
@@ -3333,13 +3333,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.171047</v>
+        <v>0.171207</v>
       </c>
       <c r="C8" t="n">
-        <v>0.218593</v>
+        <v>0.220874</v>
       </c>
       <c r="D8" t="n">
-        <v>0.234311</v>
+        <v>0.236792</v>
       </c>
     </row>
     <row r="9">
@@ -3347,13 +3347,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.161218</v>
+        <v>0.160434</v>
       </c>
       <c r="C9" t="n">
-        <v>0.220237</v>
+        <v>0.218992</v>
       </c>
       <c r="D9" t="n">
-        <v>0.246566</v>
+        <v>0.241746</v>
       </c>
     </row>
     <row r="10">
@@ -3361,13 +3361,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.229121</v>
+        <v>0.224272</v>
       </c>
       <c r="C10" t="n">
-        <v>0.230624</v>
+        <v>0.228435</v>
       </c>
       <c r="D10" t="n">
-        <v>0.247879</v>
+        <v>0.244566</v>
       </c>
     </row>
     <row r="11">
@@ -3375,13 +3375,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.225603</v>
+        <v>0.223092</v>
       </c>
       <c r="C11" t="n">
-        <v>0.230426</v>
+        <v>0.232668</v>
       </c>
       <c r="D11" t="n">
-        <v>0.243793</v>
+        <v>0.242122</v>
       </c>
     </row>
     <row r="12">
@@ -3389,13 +3389,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.21952</v>
+        <v>0.222294</v>
       </c>
       <c r="C12" t="n">
-        <v>0.227959</v>
+        <v>0.227363</v>
       </c>
       <c r="D12" t="n">
-        <v>0.23866</v>
+        <v>0.244053</v>
       </c>
     </row>
     <row r="13">
@@ -3403,13 +3403,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.211339</v>
+        <v>0.213221</v>
       </c>
       <c r="C13" t="n">
-        <v>0.229035</v>
+        <v>0.229598</v>
       </c>
       <c r="D13" t="n">
-        <v>0.23899</v>
+        <v>0.240398</v>
       </c>
     </row>
     <row r="14">
@@ -3417,13 +3417,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.207894</v>
+        <v>0.216735</v>
       </c>
       <c r="C14" t="n">
-        <v>0.228962</v>
+        <v>0.22441</v>
       </c>
       <c r="D14" t="n">
-        <v>0.24338</v>
+        <v>0.243626</v>
       </c>
     </row>
     <row r="15">
@@ -3431,13 +3431,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.206099</v>
+        <v>0.210384</v>
       </c>
       <c r="C15" t="n">
-        <v>0.225624</v>
+        <v>0.226791</v>
       </c>
       <c r="D15" t="n">
-        <v>0.244114</v>
+        <v>0.239078</v>
       </c>
     </row>
     <row r="16">
@@ -3445,13 +3445,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.202914</v>
+        <v>0.20712</v>
       </c>
       <c r="C16" t="n">
-        <v>0.220565</v>
+        <v>0.222915</v>
       </c>
       <c r="D16" t="n">
-        <v>0.241829</v>
+        <v>0.240256</v>
       </c>
     </row>
     <row r="17">
@@ -3459,13 +3459,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.198896</v>
+        <v>0.199586</v>
       </c>
       <c r="C17" t="n">
-        <v>0.22614</v>
+        <v>0.225835</v>
       </c>
       <c r="D17" t="n">
-        <v>0.240164</v>
+        <v>0.238311</v>
       </c>
     </row>
     <row r="18">
@@ -3473,13 +3473,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.196007</v>
+        <v>0.193058</v>
       </c>
       <c r="C18" t="n">
-        <v>0.223957</v>
+        <v>0.22589</v>
       </c>
       <c r="D18" t="n">
-        <v>0.239999</v>
+        <v>0.236418</v>
       </c>
     </row>
     <row r="19">
@@ -3487,13 +3487,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.190006</v>
+        <v>0.192766</v>
       </c>
       <c r="C19" t="n">
-        <v>0.221925</v>
+        <v>0.221981</v>
       </c>
       <c r="D19" t="n">
-        <v>0.243005</v>
+        <v>0.238194</v>
       </c>
     </row>
     <row r="20">
@@ -3501,13 +3501,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.183244</v>
+        <v>0.189416</v>
       </c>
       <c r="C20" t="n">
-        <v>0.220661</v>
+        <v>0.220516</v>
       </c>
       <c r="D20" t="n">
-        <v>0.235067</v>
+        <v>0.241441</v>
       </c>
     </row>
     <row r="21">
@@ -3515,13 +3515,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.183324</v>
+        <v>0.184847</v>
       </c>
       <c r="C21" t="n">
-        <v>0.227846</v>
+        <v>0.224684</v>
       </c>
       <c r="D21" t="n">
-        <v>0.23344</v>
+        <v>0.240992</v>
       </c>
     </row>
     <row r="22">
@@ -3529,13 +3529,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.180313</v>
+        <v>0.174878</v>
       </c>
       <c r="C22" t="n">
-        <v>0.218877</v>
+        <v>0.224232</v>
       </c>
       <c r="D22" t="n">
-        <v>0.238853</v>
+        <v>0.235117</v>
       </c>
     </row>
     <row r="23">
@@ -3543,13 +3543,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.170767</v>
+        <v>0.16809</v>
       </c>
       <c r="C23" t="n">
-        <v>0.224132</v>
+        <v>0.221375</v>
       </c>
       <c r="D23" t="n">
-        <v>0.244468</v>
+        <v>0.246143</v>
       </c>
     </row>
     <row r="24">
@@ -3557,13 +3557,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.225789</v>
+        <v>0.233003</v>
       </c>
       <c r="C24" t="n">
-        <v>0.232825</v>
+        <v>0.23307</v>
       </c>
       <c r="D24" t="n">
-        <v>0.24562</v>
+        <v>0.245804</v>
       </c>
     </row>
     <row r="25">
@@ -3571,13 +3571,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.22763</v>
+        <v>0.226166</v>
       </c>
       <c r="C25" t="n">
-        <v>0.230194</v>
+        <v>0.232476</v>
       </c>
       <c r="D25" t="n">
-        <v>0.245835</v>
+        <v>0.245206</v>
       </c>
     </row>
     <row r="26">
@@ -3585,13 +3585,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.223276</v>
+        <v>0.230442</v>
       </c>
       <c r="C26" t="n">
-        <v>0.231947</v>
+        <v>0.227694</v>
       </c>
       <c r="D26" t="n">
-        <v>0.246091</v>
+        <v>0.24394</v>
       </c>
     </row>
     <row r="27">
@@ -3599,13 +3599,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.224862</v>
+        <v>0.22176</v>
       </c>
       <c r="C27" t="n">
-        <v>0.229533</v>
+        <v>0.229665</v>
       </c>
       <c r="D27" t="n">
-        <v>0.243045</v>
+        <v>0.247224</v>
       </c>
     </row>
     <row r="28">
@@ -3613,13 +3613,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.215878</v>
+        <v>0.218399</v>
       </c>
       <c r="C28" t="n">
-        <v>0.226835</v>
+        <v>0.234478</v>
       </c>
       <c r="D28" t="n">
-        <v>0.244338</v>
+        <v>0.242809</v>
       </c>
     </row>
     <row r="29">
@@ -3627,13 +3627,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.211606</v>
+        <v>0.209549</v>
       </c>
       <c r="C29" t="n">
-        <v>0.226776</v>
+        <v>0.227988</v>
       </c>
       <c r="D29" t="n">
-        <v>0.235448</v>
+        <v>0.239561</v>
       </c>
     </row>
     <row r="30">
@@ -3641,13 +3641,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.207561</v>
+        <v>0.209177</v>
       </c>
       <c r="C30" t="n">
-        <v>0.226468</v>
+        <v>0.226754</v>
       </c>
       <c r="D30" t="n">
-        <v>0.24066</v>
+        <v>0.243507</v>
       </c>
     </row>
     <row r="31">
@@ -3655,13 +3655,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.203838</v>
+        <v>0.207128</v>
       </c>
       <c r="C31" t="n">
-        <v>0.230916</v>
+        <v>0.228247</v>
       </c>
       <c r="D31" t="n">
-        <v>0.246773</v>
+        <v>0.241407</v>
       </c>
     </row>
     <row r="32">
@@ -3669,13 +3669,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.201726</v>
+        <v>0.198539</v>
       </c>
       <c r="C32" t="n">
-        <v>0.225988</v>
+        <v>0.222422</v>
       </c>
       <c r="D32" t="n">
-        <v>0.245211</v>
+        <v>0.240115</v>
       </c>
     </row>
     <row r="33">
@@ -3683,13 +3683,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.196955</v>
+        <v>0.198321</v>
       </c>
       <c r="C33" t="n">
-        <v>0.222718</v>
+        <v>0.227579</v>
       </c>
       <c r="D33" t="n">
-        <v>0.235875</v>
+        <v>0.238015</v>
       </c>
     </row>
     <row r="34">
@@ -3697,13 +3697,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.192745</v>
+        <v>0.194216</v>
       </c>
       <c r="C34" t="n">
-        <v>0.228786</v>
+        <v>0.225815</v>
       </c>
       <c r="D34" t="n">
-        <v>0.24093</v>
+        <v>0.241566</v>
       </c>
     </row>
     <row r="35">
@@ -3711,13 +3711,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.188659</v>
+        <v>0.184893</v>
       </c>
       <c r="C35" t="n">
-        <v>0.223762</v>
+        <v>0.226822</v>
       </c>
       <c r="D35" t="n">
-        <v>0.236975</v>
+        <v>0.240423</v>
       </c>
     </row>
     <row r="36">
@@ -3725,13 +3725,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.177442</v>
+        <v>0.178749</v>
       </c>
       <c r="C36" t="n">
-        <v>0.222387</v>
+        <v>0.22176</v>
       </c>
       <c r="D36" t="n">
-        <v>0.239474</v>
+        <v>0.235354</v>
       </c>
     </row>
     <row r="37">
@@ -3739,13 +3739,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.170514</v>
+        <v>0.174518</v>
       </c>
       <c r="C37" t="n">
-        <v>0.223232</v>
+        <v>0.226739</v>
       </c>
       <c r="D37" t="n">
-        <v>0.256559</v>
+        <v>0.251838</v>
       </c>
     </row>
     <row r="38">
@@ -3753,13 +3753,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.232329</v>
+        <v>0.234779</v>
       </c>
       <c r="C38" t="n">
-        <v>0.233877</v>
+        <v>0.236667</v>
       </c>
       <c r="D38" t="n">
-        <v>0.251759</v>
+        <v>0.246393</v>
       </c>
     </row>
     <row r="39">
@@ -3767,13 +3767,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.229475</v>
+        <v>0.233035</v>
       </c>
       <c r="C39" t="n">
-        <v>0.236136</v>
+        <v>0.236326</v>
       </c>
       <c r="D39" t="n">
-        <v>0.245554</v>
+        <v>0.251991</v>
       </c>
     </row>
     <row r="40">
@@ -3781,13 +3781,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.225615</v>
+        <v>0.227741</v>
       </c>
       <c r="C40" t="n">
-        <v>0.235241</v>
+        <v>0.234345</v>
       </c>
       <c r="D40" t="n">
-        <v>0.255233</v>
+        <v>0.251026</v>
       </c>
     </row>
     <row r="41">
@@ -3795,13 +3795,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.221657</v>
+        <v>0.223969</v>
       </c>
       <c r="C41" t="n">
-        <v>0.228831</v>
+        <v>0.23499</v>
       </c>
       <c r="D41" t="n">
-        <v>0.244953</v>
+        <v>0.245657</v>
       </c>
     </row>
     <row r="42">
@@ -3809,13 +3809,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.216606</v>
+        <v>0.222453</v>
       </c>
       <c r="C42" t="n">
-        <v>0.229486</v>
+        <v>0.232538</v>
       </c>
       <c r="D42" t="n">
-        <v>0.241426</v>
+        <v>0.243704</v>
       </c>
     </row>
     <row r="43">
@@ -3823,13 +3823,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.213342</v>
+        <v>0.214314</v>
       </c>
       <c r="C43" t="n">
-        <v>0.228992</v>
+        <v>0.234109</v>
       </c>
       <c r="D43" t="n">
-        <v>0.247066</v>
+        <v>0.241165</v>
       </c>
     </row>
     <row r="44">
@@ -3837,13 +3837,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.210687</v>
+        <v>0.20909</v>
       </c>
       <c r="C44" t="n">
-        <v>0.231083</v>
+        <v>0.229779</v>
       </c>
       <c r="D44" t="n">
-        <v>0.246354</v>
+        <v>0.244797</v>
       </c>
     </row>
     <row r="45">
@@ -3851,13 +3851,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.203222</v>
+        <v>0.205812</v>
       </c>
       <c r="C45" t="n">
-        <v>0.225592</v>
+        <v>0.229862</v>
       </c>
       <c r="D45" t="n">
-        <v>0.249939</v>
+        <v>0.243609</v>
       </c>
     </row>
     <row r="46">
@@ -3865,13 +3865,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.199005</v>
+        <v>0.201588</v>
       </c>
       <c r="C46" t="n">
-        <v>0.223346</v>
+        <v>0.228654</v>
       </c>
       <c r="D46" t="n">
-        <v>0.240545</v>
+        <v>0.243789</v>
       </c>
     </row>
     <row r="47">
@@ -3879,13 +3879,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.196447</v>
+        <v>0.197495</v>
       </c>
       <c r="C47" t="n">
-        <v>0.224155</v>
+        <v>0.227504</v>
       </c>
       <c r="D47" t="n">
-        <v>0.246453</v>
+        <v>0.241958</v>
       </c>
     </row>
     <row r="48">
@@ -3893,13 +3893,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.191251</v>
+        <v>0.195356</v>
       </c>
       <c r="C48" t="n">
-        <v>0.223928</v>
+        <v>0.225733</v>
       </c>
       <c r="D48" t="n">
-        <v>0.244823</v>
+        <v>0.24162</v>
       </c>
     </row>
     <row r="49">
@@ -3907,13 +3907,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.185888</v>
+        <v>0.187376</v>
       </c>
       <c r="C49" t="n">
-        <v>0.225577</v>
+        <v>0.226742</v>
       </c>
       <c r="D49" t="n">
-        <v>0.24317</v>
+        <v>0.238274</v>
       </c>
     </row>
     <row r="50">
@@ -3921,13 +3921,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.180143</v>
+        <v>0.182995</v>
       </c>
       <c r="C50" t="n">
-        <v>0.221751</v>
+        <v>0.226884</v>
       </c>
       <c r="D50" t="n">
-        <v>0.243137</v>
+        <v>0.238412</v>
       </c>
     </row>
     <row r="51">
@@ -3935,13 +3935,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.173979</v>
+        <v>0.178831</v>
       </c>
       <c r="C51" t="n">
-        <v>0.223167</v>
+        <v>0.225564</v>
       </c>
       <c r="D51" t="n">
-        <v>0.253644</v>
+        <v>0.253031</v>
       </c>
     </row>
     <row r="52">
@@ -3949,13 +3949,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.164618</v>
+        <v>0.168841</v>
       </c>
       <c r="C52" t="n">
-        <v>0.219312</v>
+        <v>0.225863</v>
       </c>
       <c r="D52" t="n">
-        <v>0.254057</v>
+        <v>0.255419</v>
       </c>
     </row>
     <row r="53">
@@ -3963,13 +3963,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.229893</v>
+        <v>0.23169</v>
       </c>
       <c r="C53" t="n">
-        <v>0.23725</v>
+        <v>0.238887</v>
       </c>
       <c r="D53" t="n">
-        <v>0.249836</v>
+        <v>0.252329</v>
       </c>
     </row>
     <row r="54">
@@ -3977,13 +3977,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.229274</v>
+        <v>0.231518</v>
       </c>
       <c r="C54" t="n">
-        <v>0.239978</v>
+        <v>0.240524</v>
       </c>
       <c r="D54" t="n">
-        <v>0.250133</v>
+        <v>0.251751</v>
       </c>
     </row>
     <row r="55">
@@ -3991,13 +3991,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.225732</v>
+        <v>0.225921</v>
       </c>
       <c r="C55" t="n">
-        <v>0.237334</v>
+        <v>0.238129</v>
       </c>
       <c r="D55" t="n">
-        <v>0.252088</v>
+        <v>0.25352</v>
       </c>
     </row>
     <row r="56">
@@ -4005,13 +4005,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.218781</v>
+        <v>0.223388</v>
       </c>
       <c r="C56" t="n">
-        <v>0.235294</v>
+        <v>0.238466</v>
       </c>
       <c r="D56" t="n">
-        <v>0.246455</v>
+        <v>0.249322</v>
       </c>
     </row>
     <row r="57">
@@ -4019,13 +4019,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.22223</v>
+        <v>0.219295</v>
       </c>
       <c r="C57" t="n">
-        <v>0.235283</v>
+        <v>0.234332</v>
       </c>
       <c r="D57" t="n">
-        <v>0.245927</v>
+        <v>0.248707</v>
       </c>
     </row>
     <row r="58">
@@ -4033,13 +4033,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.211793</v>
+        <v>0.213092</v>
       </c>
       <c r="C58" t="n">
-        <v>0.233181</v>
+        <v>0.233893</v>
       </c>
       <c r="D58" t="n">
-        <v>0.245545</v>
+        <v>0.24818</v>
       </c>
     </row>
     <row r="59">
@@ -4047,13 +4047,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.206733</v>
+        <v>0.213112</v>
       </c>
       <c r="C59" t="n">
-        <v>0.231791</v>
+        <v>0.233006</v>
       </c>
       <c r="D59" t="n">
-        <v>0.248787</v>
+        <v>0.246362</v>
       </c>
     </row>
     <row r="60">
@@ -4061,13 +4061,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.202891</v>
+        <v>0.209006</v>
       </c>
       <c r="C60" t="n">
-        <v>0.22774</v>
+        <v>0.230228</v>
       </c>
       <c r="D60" t="n">
-        <v>0.24273</v>
+        <v>0.247845</v>
       </c>
     </row>
     <row r="61">
@@ -4075,13 +4075,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.199875</v>
+        <v>0.201949</v>
       </c>
       <c r="C61" t="n">
-        <v>0.231051</v>
+        <v>0.230558</v>
       </c>
       <c r="D61" t="n">
-        <v>0.243136</v>
+        <v>0.244337</v>
       </c>
     </row>
     <row r="62">
@@ -4089,13 +4089,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.194946</v>
+        <v>0.195713</v>
       </c>
       <c r="C62" t="n">
-        <v>0.226099</v>
+        <v>0.230981</v>
       </c>
       <c r="D62" t="n">
-        <v>0.238949</v>
+        <v>0.244903</v>
       </c>
     </row>
     <row r="63">
@@ -4103,13 +4103,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.192555</v>
+        <v>0.190143</v>
       </c>
       <c r="C63" t="n">
-        <v>0.230878</v>
+        <v>0.227863</v>
       </c>
       <c r="D63" t="n">
-        <v>0.241626</v>
+        <v>0.242318</v>
       </c>
     </row>
     <row r="64">
@@ -4117,13 +4117,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.184541</v>
+        <v>0.185973</v>
       </c>
       <c r="C64" t="n">
-        <v>0.225747</v>
+        <v>0.227508</v>
       </c>
       <c r="D64" t="n">
-        <v>0.240574</v>
+        <v>0.242335</v>
       </c>
     </row>
     <row r="65">
@@ -4131,13 +4131,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.176899</v>
+        <v>0.179457</v>
       </c>
       <c r="C65" t="n">
-        <v>0.225001</v>
+        <v>0.230059</v>
       </c>
       <c r="D65" t="n">
-        <v>0.239454</v>
+        <v>0.240655</v>
       </c>
     </row>
     <row r="66">
@@ -4145,13 +4145,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.169571</v>
+        <v>0.172512</v>
       </c>
       <c r="C66" t="n">
-        <v>0.22442</v>
+        <v>0.227119</v>
       </c>
       <c r="D66" t="n">
-        <v>0.254079</v>
+        <v>0.256733</v>
       </c>
     </row>
     <row r="67">
@@ -4159,13 +4159,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.237733</v>
+        <v>0.241251</v>
       </c>
       <c r="C67" t="n">
-        <v>0.244225</v>
+        <v>0.239622</v>
       </c>
       <c r="D67" t="n">
-        <v>0.253795</v>
+        <v>0.253674</v>
       </c>
     </row>
     <row r="68">
@@ -4173,13 +4173,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.232723</v>
+        <v>0.235515</v>
       </c>
       <c r="C68" t="n">
-        <v>0.238878</v>
+        <v>0.242538</v>
       </c>
       <c r="D68" t="n">
-        <v>0.250691</v>
+        <v>0.251881</v>
       </c>
     </row>
     <row r="69">
@@ -4187,13 +4187,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.231556</v>
+        <v>0.236098</v>
       </c>
       <c r="C69" t="n">
-        <v>0.237546</v>
+        <v>0.240985</v>
       </c>
       <c r="D69" t="n">
-        <v>0.251594</v>
+        <v>0.248744</v>
       </c>
     </row>
     <row r="70">
@@ -4201,13 +4201,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.223984</v>
+        <v>0.229229</v>
       </c>
       <c r="C70" t="n">
-        <v>0.244153</v>
+        <v>0.239972</v>
       </c>
       <c r="D70" t="n">
-        <v>0.249885</v>
+        <v>0.248297</v>
       </c>
     </row>
     <row r="71">
@@ -4215,13 +4215,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.222554</v>
+        <v>0.221625</v>
       </c>
       <c r="C71" t="n">
-        <v>0.23438</v>
+        <v>0.239549</v>
       </c>
       <c r="D71" t="n">
-        <v>0.246214</v>
+        <v>0.247043</v>
       </c>
     </row>
     <row r="72">
@@ -4229,13 +4229,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.216313</v>
+        <v>0.22005</v>
       </c>
       <c r="C72" t="n">
-        <v>0.232091</v>
+        <v>0.237789</v>
       </c>
       <c r="D72" t="n">
-        <v>0.248269</v>
+        <v>0.245733</v>
       </c>
     </row>
     <row r="73">
@@ -4243,13 +4243,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.215523</v>
+        <v>0.216607</v>
       </c>
       <c r="C73" t="n">
-        <v>0.233362</v>
+        <v>0.239685</v>
       </c>
       <c r="D73" t="n">
-        <v>0.246485</v>
+        <v>0.248039</v>
       </c>
     </row>
     <row r="74">
@@ -4257,13 +4257,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.210113</v>
+        <v>0.207924</v>
       </c>
       <c r="C74" t="n">
-        <v>0.233243</v>
+        <v>0.233095</v>
       </c>
       <c r="D74" t="n">
-        <v>0.244253</v>
+        <v>0.243038</v>
       </c>
     </row>
     <row r="75">
@@ -4271,13 +4271,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.201312</v>
+        <v>0.203462</v>
       </c>
       <c r="C75" t="n">
-        <v>0.238229</v>
+        <v>0.234645</v>
       </c>
       <c r="D75" t="n">
-        <v>0.242946</v>
+        <v>0.245478</v>
       </c>
     </row>
     <row r="76">
@@ -4285,13 +4285,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.198926</v>
+        <v>0.198562</v>
       </c>
       <c r="C76" t="n">
-        <v>0.228118</v>
+        <v>0.228998</v>
       </c>
       <c r="D76" t="n">
-        <v>0.242413</v>
+        <v>0.244056</v>
       </c>
     </row>
     <row r="77">
@@ -4299,13 +4299,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.191836</v>
+        <v>0.19435</v>
       </c>
       <c r="C77" t="n">
-        <v>0.227781</v>
+        <v>0.232274</v>
       </c>
       <c r="D77" t="n">
-        <v>0.240973</v>
+        <v>0.242755</v>
       </c>
     </row>
     <row r="78">
@@ -4313,13 +4313,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.186952</v>
+        <v>0.18863</v>
       </c>
       <c r="C78" t="n">
-        <v>0.228489</v>
+        <v>0.225883</v>
       </c>
       <c r="D78" t="n">
-        <v>0.244475</v>
+        <v>0.242084</v>
       </c>
     </row>
     <row r="79">
@@ -4327,13 +4327,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.18211</v>
+        <v>0.180637</v>
       </c>
       <c r="C79" t="n">
-        <v>0.230662</v>
+        <v>0.23126</v>
       </c>
       <c r="D79" t="n">
-        <v>0.241004</v>
+        <v>0.242232</v>
       </c>
     </row>
     <row r="80">
@@ -4341,13 +4341,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.171381</v>
+        <v>0.173555</v>
       </c>
       <c r="C80" t="n">
-        <v>0.224423</v>
+        <v>0.226947</v>
       </c>
       <c r="D80" t="n">
-        <v>0.258013</v>
+        <v>0.256268</v>
       </c>
     </row>
     <row r="81">
@@ -4355,13 +4355,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.240119</v>
+        <v>0.244498</v>
       </c>
       <c r="C81" t="n">
-        <v>0.244378</v>
+        <v>0.246515</v>
       </c>
       <c r="D81" t="n">
-        <v>0.255549</v>
+        <v>0.257673</v>
       </c>
     </row>
     <row r="82">
@@ -4369,13 +4369,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.237759</v>
+        <v>0.243989</v>
       </c>
       <c r="C82" t="n">
-        <v>0.243686</v>
+        <v>0.242774</v>
       </c>
       <c r="D82" t="n">
-        <v>0.256853</v>
+        <v>0.255001</v>
       </c>
     </row>
     <row r="83">
@@ -4383,13 +4383,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.234594</v>
+        <v>0.234554</v>
       </c>
       <c r="C83" t="n">
-        <v>0.242384</v>
+        <v>0.24037</v>
       </c>
       <c r="D83" t="n">
-        <v>0.256529</v>
+        <v>0.254494</v>
       </c>
     </row>
     <row r="84">
@@ -4397,13 +4397,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.230956</v>
+        <v>0.231745</v>
       </c>
       <c r="C84" t="n">
-        <v>0.241326</v>
+        <v>0.239985</v>
       </c>
       <c r="D84" t="n">
-        <v>0.250447</v>
+        <v>0.253606</v>
       </c>
     </row>
     <row r="85">
@@ -4411,13 +4411,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.226158</v>
+        <v>0.229243</v>
       </c>
       <c r="C85" t="n">
-        <v>0.240229</v>
+        <v>0.24096</v>
       </c>
       <c r="D85" t="n">
-        <v>0.251207</v>
+        <v>0.252067</v>
       </c>
     </row>
     <row r="86">
@@ -4425,13 +4425,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.221328</v>
+        <v>0.225582</v>
       </c>
       <c r="C86" t="n">
-        <v>0.23866</v>
+        <v>0.238406</v>
       </c>
       <c r="D86" t="n">
-        <v>0.251267</v>
+        <v>0.248268</v>
       </c>
     </row>
     <row r="87">
@@ -4439,13 +4439,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.217049</v>
+        <v>0.21918</v>
       </c>
       <c r="C87" t="n">
-        <v>0.236031</v>
+        <v>0.235424</v>
       </c>
       <c r="D87" t="n">
-        <v>0.247449</v>
+        <v>0.257356</v>
       </c>
     </row>
     <row r="88">
@@ -4453,13 +4453,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.211296</v>
+        <v>0.214457</v>
       </c>
       <c r="C88" t="n">
-        <v>0.235029</v>
+        <v>0.236598</v>
       </c>
       <c r="D88" t="n">
-        <v>0.25125</v>
+        <v>0.247507</v>
       </c>
     </row>
     <row r="89">
@@ -4467,13 +4467,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.206157</v>
+        <v>0.207059</v>
       </c>
       <c r="C89" t="n">
-        <v>0.235707</v>
+        <v>0.236429</v>
       </c>
       <c r="D89" t="n">
-        <v>0.247993</v>
+        <v>0.24361</v>
       </c>
     </row>
     <row r="90">
@@ -4481,13 +4481,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.202721</v>
+        <v>0.204094</v>
       </c>
       <c r="C90" t="n">
-        <v>0.230584</v>
+        <v>0.234664</v>
       </c>
       <c r="D90" t="n">
-        <v>0.24399</v>
+        <v>0.243072</v>
       </c>
     </row>
     <row r="91">
@@ -4495,13 +4495,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.197118</v>
+        <v>0.198359</v>
       </c>
       <c r="C91" t="n">
-        <v>0.234663</v>
+        <v>0.233676</v>
       </c>
       <c r="D91" t="n">
-        <v>0.24682</v>
+        <v>0.245473</v>
       </c>
     </row>
     <row r="92">
@@ -4509,13 +4509,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.189418</v>
+        <v>0.190897</v>
       </c>
       <c r="C92" t="n">
-        <v>0.231297</v>
+        <v>0.232807</v>
       </c>
       <c r="D92" t="n">
-        <v>0.242951</v>
+        <v>0.243825</v>
       </c>
     </row>
     <row r="93">
@@ -4523,13 +4523,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.184162</v>
+        <v>0.184906</v>
       </c>
       <c r="C93" t="n">
-        <v>0.229885</v>
+        <v>0.231331</v>
       </c>
       <c r="D93" t="n">
-        <v>0.241258</v>
+        <v>0.243144</v>
       </c>
     </row>
     <row r="94">
@@ -4537,13 +4537,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.177874</v>
+        <v>0.176683</v>
       </c>
       <c r="C94" t="n">
-        <v>0.226379</v>
+        <v>0.228089</v>
       </c>
       <c r="D94" t="n">
-        <v>0.261846</v>
+        <v>0.268686</v>
       </c>
     </row>
     <row r="95">
@@ -4551,13 +4551,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.246965</v>
+        <v>0.246803</v>
       </c>
       <c r="C95" t="n">
-        <v>0.248928</v>
+        <v>0.248088</v>
       </c>
       <c r="D95" t="n">
-        <v>0.256773</v>
+        <v>0.260814</v>
       </c>
     </row>
     <row r="96">
@@ -4565,13 +4565,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.247002</v>
+        <v>0.241262</v>
       </c>
       <c r="C96" t="n">
-        <v>0.248228</v>
+        <v>0.246515</v>
       </c>
       <c r="D96" t="n">
-        <v>0.259084</v>
+        <v>0.262267</v>
       </c>
     </row>
     <row r="97">
@@ -4579,13 +4579,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.237537</v>
+        <v>0.240174</v>
       </c>
       <c r="C97" t="n">
-        <v>0.244843</v>
+        <v>0.245301</v>
       </c>
       <c r="D97" t="n">
-        <v>0.25575</v>
+        <v>0.256874</v>
       </c>
     </row>
     <row r="98">
@@ -4593,13 +4593,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.236968</v>
+        <v>0.231693</v>
       </c>
       <c r="C98" t="n">
-        <v>0.243023</v>
+        <v>0.244862</v>
       </c>
       <c r="D98" t="n">
-        <v>0.258515</v>
+        <v>0.25357</v>
       </c>
     </row>
     <row r="99">
@@ -4607,13 +4607,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.228493</v>
+        <v>0.230064</v>
       </c>
       <c r="C99" t="n">
-        <v>0.241468</v>
+        <v>0.240975</v>
       </c>
       <c r="D99" t="n">
-        <v>0.252207</v>
+        <v>0.255209</v>
       </c>
     </row>
     <row r="100">
@@ -4621,13 +4621,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.224139</v>
+        <v>0.223452</v>
       </c>
       <c r="C100" t="n">
-        <v>0.245119</v>
+        <v>0.243043</v>
       </c>
       <c r="D100" t="n">
-        <v>0.251601</v>
+        <v>0.251716</v>
       </c>
     </row>
     <row r="101">
@@ -4635,13 +4635,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.219119</v>
+        <v>0.222222</v>
       </c>
       <c r="C101" t="n">
-        <v>0.238852</v>
+        <v>0.236901</v>
       </c>
       <c r="D101" t="n">
-        <v>0.250953</v>
+        <v>0.249189</v>
       </c>
     </row>
     <row r="102">
@@ -4649,13 +4649,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.217423</v>
+        <v>0.215255</v>
       </c>
       <c r="C102" t="n">
-        <v>0.235023</v>
+        <v>0.2388</v>
       </c>
       <c r="D102" t="n">
-        <v>0.248992</v>
+        <v>0.246919</v>
       </c>
     </row>
     <row r="103">
@@ -4663,13 +4663,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.210634</v>
+        <v>0.21269</v>
       </c>
       <c r="C103" t="n">
-        <v>0.233279</v>
+        <v>0.237512</v>
       </c>
       <c r="D103" t="n">
-        <v>0.252609</v>
+        <v>0.248329</v>
       </c>
     </row>
     <row r="104">
@@ -4677,13 +4677,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.204431</v>
+        <v>0.203832</v>
       </c>
       <c r="C104" t="n">
-        <v>0.237574</v>
+        <v>0.237692</v>
       </c>
       <c r="D104" t="n">
-        <v>0.246453</v>
+        <v>0.246121</v>
       </c>
     </row>
     <row r="105">
@@ -4691,13 +4691,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.200036</v>
+        <v>0.200157</v>
       </c>
       <c r="C105" t="n">
-        <v>0.236711</v>
+        <v>0.231931</v>
       </c>
       <c r="D105" t="n">
-        <v>0.245836</v>
+        <v>0.244541</v>
       </c>
     </row>
     <row r="106">
@@ -4705,13 +4705,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.191951</v>
+        <v>0.19228</v>
       </c>
       <c r="C106" t="n">
-        <v>0.23155</v>
+        <v>0.233648</v>
       </c>
       <c r="D106" t="n">
-        <v>0.248307</v>
+        <v>0.244502</v>
       </c>
     </row>
     <row r="107">
@@ -4719,13 +4719,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.186149</v>
+        <v>0.183366</v>
       </c>
       <c r="C107" t="n">
-        <v>0.23089</v>
+        <v>0.235711</v>
       </c>
       <c r="D107" t="n">
-        <v>0.242832</v>
+        <v>0.245308</v>
       </c>
     </row>
     <row r="108">
@@ -4733,13 +4733,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.179641</v>
+        <v>0.181021</v>
       </c>
       <c r="C108" t="n">
-        <v>0.230131</v>
+        <v>0.230829</v>
       </c>
       <c r="D108" t="n">
-        <v>0.264502</v>
+        <v>0.263129</v>
       </c>
     </row>
     <row r="109">
@@ -4747,13 +4747,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.170039</v>
+        <v>0.170308</v>
       </c>
       <c r="C109" t="n">
-        <v>0.230497</v>
+        <v>0.22663</v>
       </c>
       <c r="D109" t="n">
-        <v>0.259617</v>
+        <v>0.256565</v>
       </c>
     </row>
     <row r="110">
@@ -4761,13 +4761,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.242456</v>
+        <v>0.243477</v>
       </c>
       <c r="C110" t="n">
-        <v>0.247908</v>
+        <v>0.245949</v>
       </c>
       <c r="D110" t="n">
-        <v>0.256639</v>
+        <v>0.257535</v>
       </c>
     </row>
     <row r="111">
@@ -4775,13 +4775,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.241494</v>
+        <v>0.238133</v>
       </c>
       <c r="C111" t="n">
-        <v>0.242154</v>
+        <v>0.249949</v>
       </c>
       <c r="D111" t="n">
-        <v>0.258616</v>
+        <v>0.258161</v>
       </c>
     </row>
     <row r="112">
@@ -4789,13 +4789,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.23504</v>
+        <v>0.233079</v>
       </c>
       <c r="C112" t="n">
-        <v>0.243923</v>
+        <v>0.245229</v>
       </c>
       <c r="D112" t="n">
-        <v>0.255748</v>
+        <v>0.252945</v>
       </c>
     </row>
     <row r="113">
@@ -4803,13 +4803,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.228603</v>
+        <v>0.232522</v>
       </c>
       <c r="C113" t="n">
-        <v>0.24265</v>
+        <v>0.243005</v>
       </c>
       <c r="D113" t="n">
-        <v>0.251155</v>
+        <v>0.257547</v>
       </c>
     </row>
     <row r="114">
@@ -4817,13 +4817,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.225785</v>
+        <v>0.224776</v>
       </c>
       <c r="C114" t="n">
-        <v>0.238228</v>
+        <v>0.24007</v>
       </c>
       <c r="D114" t="n">
-        <v>0.252507</v>
+        <v>0.251323</v>
       </c>
     </row>
     <row r="115">
@@ -4831,13 +4831,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.225927</v>
+        <v>0.218753</v>
       </c>
       <c r="C115" t="n">
-        <v>0.242926</v>
+        <v>0.239893</v>
       </c>
       <c r="D115" t="n">
-        <v>0.247703</v>
+        <v>0.252271</v>
       </c>
     </row>
     <row r="116">
@@ -4845,13 +4845,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.214185</v>
+        <v>0.216023</v>
       </c>
       <c r="C116" t="n">
-        <v>0.237586</v>
+        <v>0.237176</v>
       </c>
       <c r="D116" t="n">
-        <v>0.247976</v>
+        <v>0.249759</v>
       </c>
     </row>
     <row r="117">
@@ -4859,13 +4859,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.214011</v>
+        <v>0.213156</v>
       </c>
       <c r="C117" t="n">
-        <v>0.232718</v>
+        <v>0.236261</v>
       </c>
       <c r="D117" t="n">
-        <v>0.245924</v>
+        <v>0.249252</v>
       </c>
     </row>
     <row r="118">
@@ -4873,13 +4873,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.208083</v>
+        <v>0.207669</v>
       </c>
       <c r="C118" t="n">
-        <v>0.238458</v>
+        <v>0.236783</v>
       </c>
       <c r="D118" t="n">
-        <v>0.248264</v>
+        <v>0.247485</v>
       </c>
     </row>
     <row r="119">
@@ -4887,13 +4887,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.199983</v>
+        <v>0.200424</v>
       </c>
       <c r="C119" t="n">
-        <v>0.23142</v>
+        <v>0.232845</v>
       </c>
       <c r="D119" t="n">
-        <v>0.246599</v>
+        <v>0.248284</v>
       </c>
     </row>
     <row r="120">
@@ -4901,13 +4901,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.194965</v>
+        <v>0.192756</v>
       </c>
       <c r="C120" t="n">
-        <v>0.230939</v>
+        <v>0.23813</v>
       </c>
       <c r="D120" t="n">
-        <v>0.246923</v>
+        <v>0.249791</v>
       </c>
     </row>
     <row r="121">
@@ -4915,13 +4915,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.186198</v>
+        <v>0.187275</v>
       </c>
       <c r="C121" t="n">
-        <v>0.228546</v>
+        <v>0.234634</v>
       </c>
       <c r="D121" t="n">
-        <v>0.243906</v>
+        <v>0.244371</v>
       </c>
     </row>
     <row r="122">
@@ -4929,13 +4929,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.179664</v>
+        <v>0.183392</v>
       </c>
       <c r="C122" t="n">
-        <v>0.227959</v>
+        <v>0.23322</v>
       </c>
       <c r="D122" t="n">
-        <v>0.246202</v>
+        <v>0.243752</v>
       </c>
     </row>
     <row r="123">
@@ -4943,13 +4943,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.170961</v>
+        <v>0.173507</v>
       </c>
       <c r="C123" t="n">
-        <v>0.230637</v>
+        <v>0.230328</v>
       </c>
       <c r="D123" t="n">
-        <v>0.259788</v>
+        <v>0.258017</v>
       </c>
     </row>
     <row r="124">
@@ -4957,13 +4957,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.241906</v>
+        <v>0.244817</v>
       </c>
       <c r="C124" t="n">
-        <v>0.245463</v>
+        <v>0.245873</v>
       </c>
       <c r="D124" t="n">
-        <v>0.255521</v>
+        <v>0.257657</v>
       </c>
     </row>
     <row r="125">
@@ -4971,13 +4971,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.242111</v>
+        <v>0.245563</v>
       </c>
       <c r="C125" t="n">
-        <v>0.246205</v>
+        <v>0.245671</v>
       </c>
       <c r="D125" t="n">
-        <v>0.258182</v>
+        <v>0.257153</v>
       </c>
     </row>
     <row r="126">
@@ -4985,13 +4985,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.234743</v>
+        <v>0.235416</v>
       </c>
       <c r="C126" t="n">
-        <v>0.24311</v>
+        <v>0.246736</v>
       </c>
       <c r="D126" t="n">
-        <v>0.25406</v>
+        <v>0.258821</v>
       </c>
     </row>
     <row r="127">
@@ -4999,13 +4999,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.229386</v>
+        <v>0.231875</v>
       </c>
       <c r="C127" t="n">
-        <v>0.245791</v>
+        <v>0.244059</v>
       </c>
       <c r="D127" t="n">
-        <v>0.256902</v>
+        <v>0.254272</v>
       </c>
     </row>
     <row r="128">
@@ -5013,13 +5013,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.226485</v>
+        <v>0.229302</v>
       </c>
       <c r="C128" t="n">
-        <v>0.238695</v>
+        <v>0.241766</v>
       </c>
       <c r="D128" t="n">
-        <v>0.250276</v>
+        <v>0.252346</v>
       </c>
     </row>
     <row r="129">
@@ -5027,13 +5027,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.221142</v>
+        <v>0.220492</v>
       </c>
       <c r="C129" t="n">
-        <v>0.238159</v>
+        <v>0.242748</v>
       </c>
       <c r="D129" t="n">
-        <v>0.254074</v>
+        <v>0.250845</v>
       </c>
     </row>
     <row r="130">
@@ -5041,13 +5041,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.217664</v>
+        <v>0.219224</v>
       </c>
       <c r="C130" t="n">
-        <v>0.236614</v>
+        <v>0.240748</v>
       </c>
       <c r="D130" t="n">
-        <v>0.247906</v>
+        <v>0.249598</v>
       </c>
     </row>
     <row r="131">
@@ -5055,13 +5055,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.211357</v>
+        <v>0.211672</v>
       </c>
       <c r="C131" t="n">
-        <v>0.235113</v>
+        <v>0.23565</v>
       </c>
       <c r="D131" t="n">
-        <v>0.253083</v>
+        <v>0.249621</v>
       </c>
     </row>
     <row r="132">
@@ -5069,13 +5069,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.208517</v>
+        <v>0.208585</v>
       </c>
       <c r="C132" t="n">
-        <v>0.236167</v>
+        <v>0.243837</v>
       </c>
       <c r="D132" t="n">
-        <v>0.243913</v>
+        <v>0.246716</v>
       </c>
     </row>
     <row r="133">
@@ -5083,13 +5083,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.20155</v>
+        <v>0.2033</v>
       </c>
       <c r="C133" t="n">
-        <v>0.235388</v>
+        <v>0.236605</v>
       </c>
       <c r="D133" t="n">
-        <v>0.247433</v>
+        <v>0.245841</v>
       </c>
     </row>
     <row r="134">
@@ -5097,13 +5097,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.197179</v>
+        <v>0.196466</v>
       </c>
       <c r="C134" t="n">
-        <v>0.233469</v>
+        <v>0.236543</v>
       </c>
       <c r="D134" t="n">
-        <v>0.248229</v>
+        <v>0.249454</v>
       </c>
     </row>
     <row r="135">
@@ -5111,13 +5111,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.189733</v>
+        <v>0.189604</v>
       </c>
       <c r="C135" t="n">
-        <v>0.232342</v>
+        <v>0.231175</v>
       </c>
       <c r="D135" t="n">
-        <v>0.245666</v>
+        <v>0.245866</v>
       </c>
     </row>
     <row r="136">
@@ -5125,13 +5125,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.180898</v>
+        <v>0.183823</v>
       </c>
       <c r="C136" t="n">
-        <v>0.231372</v>
+        <v>0.231902</v>
       </c>
       <c r="D136" t="n">
-        <v>0.247287</v>
+        <v>0.248375</v>
       </c>
     </row>
     <row r="137">
@@ -5139,13 +5139,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.174298</v>
+        <v>0.17501</v>
       </c>
       <c r="C137" t="n">
-        <v>0.227866</v>
+        <v>0.234624</v>
       </c>
       <c r="D137" t="n">
-        <v>0.261193</v>
+        <v>0.262104</v>
       </c>
     </row>
     <row r="138">
@@ -5153,13 +5153,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.246892</v>
+        <v>0.247352</v>
       </c>
       <c r="C138" t="n">
-        <v>0.247444</v>
+        <v>0.250853</v>
       </c>
       <c r="D138" t="n">
-        <v>0.258066</v>
+        <v>0.265582</v>
       </c>
     </row>
     <row r="139">
@@ -5167,13 +5167,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.24193</v>
+        <v>0.242631</v>
       </c>
       <c r="C139" t="n">
-        <v>0.249968</v>
+        <v>0.247346</v>
       </c>
       <c r="D139" t="n">
-        <v>0.264282</v>
+        <v>0.258182</v>
       </c>
     </row>
     <row r="140">
@@ -5181,13 +5181,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.233491</v>
+        <v>0.236822</v>
       </c>
       <c r="C140" t="n">
-        <v>0.244173</v>
+        <v>0.250281</v>
       </c>
       <c r="D140" t="n">
-        <v>0.260259</v>
+        <v>0.254377</v>
       </c>
     </row>
     <row r="141">
@@ -5195,13 +5195,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.229849</v>
+        <v>0.232477</v>
       </c>
       <c r="C141" t="n">
-        <v>0.243336</v>
+        <v>0.244313</v>
       </c>
       <c r="D141" t="n">
-        <v>0.252915</v>
+        <v>0.253866</v>
       </c>
     </row>
     <row r="142">
@@ -5209,13 +5209,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.222344</v>
+        <v>0.226512</v>
       </c>
       <c r="C142" t="n">
-        <v>0.243095</v>
+        <v>0.24092</v>
       </c>
       <c r="D142" t="n">
-        <v>0.251029</v>
+        <v>0.255739</v>
       </c>
     </row>
     <row r="143">
@@ -5223,13 +5223,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.219982</v>
+        <v>0.222805</v>
       </c>
       <c r="C143" t="n">
-        <v>0.242664</v>
+        <v>0.243296</v>
       </c>
       <c r="D143" t="n">
-        <v>0.255918</v>
+        <v>0.254592</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Running erasure.xlsx
+++ b/vs-x64/Running erasure.xlsx
@@ -3249,13 +3249,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.207642</v>
+        <v>0.210072</v>
       </c>
       <c r="C2" t="n">
-        <v>0.226831</v>
+        <v>0.229832</v>
       </c>
       <c r="D2" t="n">
-        <v>0.240581</v>
+        <v>0.24796</v>
       </c>
     </row>
     <row r="3">
@@ -3263,13 +3263,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.200578</v>
+        <v>0.20452</v>
       </c>
       <c r="C3" t="n">
-        <v>0.22708</v>
+        <v>0.225474</v>
       </c>
       <c r="D3" t="n">
-        <v>0.245575</v>
+        <v>0.249246</v>
       </c>
     </row>
     <row r="4">
@@ -3277,13 +3277,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.19749</v>
+        <v>0.197883</v>
       </c>
       <c r="C4" t="n">
-        <v>0.223348</v>
+        <v>0.224371</v>
       </c>
       <c r="D4" t="n">
-        <v>0.241897</v>
+        <v>0.238297</v>
       </c>
     </row>
     <row r="5">
@@ -3291,13 +3291,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.188572</v>
+        <v>0.190191</v>
       </c>
       <c r="C5" t="n">
-        <v>0.223657</v>
+        <v>0.225132</v>
       </c>
       <c r="D5" t="n">
-        <v>0.234739</v>
+        <v>0.242978</v>
       </c>
     </row>
     <row r="6">
@@ -3305,13 +3305,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.182439</v>
+        <v>0.187491</v>
       </c>
       <c r="C6" t="n">
-        <v>0.223411</v>
+        <v>0.224756</v>
       </c>
       <c r="D6" t="n">
-        <v>0.243096</v>
+        <v>0.240563</v>
       </c>
     </row>
     <row r="7">
@@ -3319,13 +3319,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.177009</v>
+        <v>0.174536</v>
       </c>
       <c r="C7" t="n">
-        <v>0.221414</v>
+        <v>0.220245</v>
       </c>
       <c r="D7" t="n">
-        <v>0.23811</v>
+        <v>0.239636</v>
       </c>
     </row>
     <row r="8">
@@ -3333,13 +3333,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.171207</v>
+        <v>0.172381</v>
       </c>
       <c r="C8" t="n">
-        <v>0.220874</v>
+        <v>0.220581</v>
       </c>
       <c r="D8" t="n">
-        <v>0.236792</v>
+        <v>0.238944</v>
       </c>
     </row>
     <row r="9">
@@ -3347,13 +3347,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.160434</v>
+        <v>0.165067</v>
       </c>
       <c r="C9" t="n">
-        <v>0.218992</v>
+        <v>0.222744</v>
       </c>
       <c r="D9" t="n">
-        <v>0.241746</v>
+        <v>0.251762</v>
       </c>
     </row>
     <row r="10">
@@ -3361,13 +3361,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.224272</v>
+        <v>0.222521</v>
       </c>
       <c r="C10" t="n">
-        <v>0.228435</v>
+        <v>0.235828</v>
       </c>
       <c r="D10" t="n">
-        <v>0.244566</v>
+        <v>0.255211</v>
       </c>
     </row>
     <row r="11">
@@ -3375,13 +3375,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.223092</v>
+        <v>0.241252</v>
       </c>
       <c r="C11" t="n">
-        <v>0.232668</v>
+        <v>0.241926</v>
       </c>
       <c r="D11" t="n">
-        <v>0.242122</v>
+        <v>0.251009</v>
       </c>
     </row>
     <row r="12">
@@ -3389,13 +3389,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.222294</v>
+        <v>0.229155</v>
       </c>
       <c r="C12" t="n">
-        <v>0.227363</v>
+        <v>0.324321</v>
       </c>
       <c r="D12" t="n">
-        <v>0.244053</v>
+        <v>0.253537</v>
       </c>
     </row>
     <row r="13">
@@ -3403,13 +3403,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.213221</v>
+        <v>0.214559</v>
       </c>
       <c r="C13" t="n">
-        <v>0.229598</v>
+        <v>0.234637</v>
       </c>
       <c r="D13" t="n">
-        <v>0.240398</v>
+        <v>0.242419</v>
       </c>
     </row>
     <row r="14">
@@ -3417,13 +3417,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.216735</v>
+        <v>0.213776</v>
       </c>
       <c r="C14" t="n">
-        <v>0.22441</v>
+        <v>0.224857</v>
       </c>
       <c r="D14" t="n">
-        <v>0.243626</v>
+        <v>0.242208</v>
       </c>
     </row>
     <row r="15">
@@ -3431,13 +3431,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.210384</v>
+        <v>0.209961</v>
       </c>
       <c r="C15" t="n">
-        <v>0.226791</v>
+        <v>0.225833</v>
       </c>
       <c r="D15" t="n">
-        <v>0.239078</v>
+        <v>0.242762</v>
       </c>
     </row>
     <row r="16">
@@ -3445,13 +3445,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.20712</v>
+        <v>0.208026</v>
       </c>
       <c r="C16" t="n">
-        <v>0.222915</v>
+        <v>0.226421</v>
       </c>
       <c r="D16" t="n">
-        <v>0.240256</v>
+        <v>0.244135</v>
       </c>
     </row>
     <row r="17">
@@ -3459,13 +3459,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.199586</v>
+        <v>0.202187</v>
       </c>
       <c r="C17" t="n">
-        <v>0.225835</v>
+        <v>0.22362</v>
       </c>
       <c r="D17" t="n">
-        <v>0.238311</v>
+        <v>0.244845</v>
       </c>
     </row>
     <row r="18">
@@ -3473,13 +3473,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.193058</v>
+        <v>0.203671</v>
       </c>
       <c r="C18" t="n">
-        <v>0.22589</v>
+        <v>0.227645</v>
       </c>
       <c r="D18" t="n">
-        <v>0.236418</v>
+        <v>0.239735</v>
       </c>
     </row>
     <row r="19">
@@ -3487,13 +3487,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.192766</v>
+        <v>0.19682</v>
       </c>
       <c r="C19" t="n">
-        <v>0.221981</v>
+        <v>0.22528</v>
       </c>
       <c r="D19" t="n">
-        <v>0.238194</v>
+        <v>0.23929</v>
       </c>
     </row>
     <row r="20">
@@ -3501,13 +3501,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.189416</v>
+        <v>0.18683</v>
       </c>
       <c r="C20" t="n">
-        <v>0.220516</v>
+        <v>0.220517</v>
       </c>
       <c r="D20" t="n">
-        <v>0.241441</v>
+        <v>0.239046</v>
       </c>
     </row>
     <row r="21">
@@ -3515,13 +3515,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.184847</v>
+        <v>0.182225</v>
       </c>
       <c r="C21" t="n">
-        <v>0.224684</v>
+        <v>0.22307</v>
       </c>
       <c r="D21" t="n">
-        <v>0.240992</v>
+        <v>0.241489</v>
       </c>
     </row>
     <row r="22">
@@ -3529,13 +3529,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.174878</v>
+        <v>0.17614</v>
       </c>
       <c r="C22" t="n">
-        <v>0.224232</v>
+        <v>0.222008</v>
       </c>
       <c r="D22" t="n">
-        <v>0.235117</v>
+        <v>0.241516</v>
       </c>
     </row>
     <row r="23">
@@ -3543,13 +3543,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.16809</v>
+        <v>0.169929</v>
       </c>
       <c r="C23" t="n">
-        <v>0.221375</v>
+        <v>0.222643</v>
       </c>
       <c r="D23" t="n">
-        <v>0.246143</v>
+        <v>0.249032</v>
       </c>
     </row>
     <row r="24">
@@ -3557,13 +3557,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.233003</v>
+        <v>0.231247</v>
       </c>
       <c r="C24" t="n">
-        <v>0.23307</v>
+        <v>0.232822</v>
       </c>
       <c r="D24" t="n">
-        <v>0.245804</v>
+        <v>0.253825</v>
       </c>
     </row>
     <row r="25">
@@ -3571,13 +3571,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.226166</v>
+        <v>0.234038</v>
       </c>
       <c r="C25" t="n">
-        <v>0.232476</v>
+        <v>0.233281</v>
       </c>
       <c r="D25" t="n">
-        <v>0.245206</v>
+        <v>0.24908</v>
       </c>
     </row>
     <row r="26">
@@ -3585,13 +3585,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.230442</v>
+        <v>0.227498</v>
       </c>
       <c r="C26" t="n">
-        <v>0.227694</v>
+        <v>0.23141</v>
       </c>
       <c r="D26" t="n">
-        <v>0.24394</v>
+        <v>0.251028</v>
       </c>
     </row>
     <row r="27">
@@ -3599,13 +3599,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.22176</v>
+        <v>0.221435</v>
       </c>
       <c r="C27" t="n">
-        <v>0.229665</v>
+        <v>0.230615</v>
       </c>
       <c r="D27" t="n">
-        <v>0.247224</v>
+        <v>0.245086</v>
       </c>
     </row>
     <row r="28">
@@ -3613,13 +3613,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.218399</v>
+        <v>0.218546</v>
       </c>
       <c r="C28" t="n">
-        <v>0.234478</v>
+        <v>0.229572</v>
       </c>
       <c r="D28" t="n">
-        <v>0.242809</v>
+        <v>0.248253</v>
       </c>
     </row>
     <row r="29">
@@ -3627,13 +3627,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.209549</v>
+        <v>0.212273</v>
       </c>
       <c r="C29" t="n">
-        <v>0.227988</v>
+        <v>0.226993</v>
       </c>
       <c r="D29" t="n">
-        <v>0.239561</v>
+        <v>0.243468</v>
       </c>
     </row>
     <row r="30">
@@ -3641,13 +3641,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.209177</v>
+        <v>0.208694</v>
       </c>
       <c r="C30" t="n">
-        <v>0.226754</v>
+        <v>0.229151</v>
       </c>
       <c r="D30" t="n">
-        <v>0.243507</v>
+        <v>0.245874</v>
       </c>
     </row>
     <row r="31">
@@ -3655,13 +3655,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.207128</v>
+        <v>0.207353</v>
       </c>
       <c r="C31" t="n">
-        <v>0.228247</v>
+        <v>0.227839</v>
       </c>
       <c r="D31" t="n">
-        <v>0.241407</v>
+        <v>0.243976</v>
       </c>
     </row>
     <row r="32">
@@ -3669,13 +3669,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.198539</v>
+        <v>0.201461</v>
       </c>
       <c r="C32" t="n">
-        <v>0.222422</v>
+        <v>0.226965</v>
       </c>
       <c r="D32" t="n">
-        <v>0.240115</v>
+        <v>0.245367</v>
       </c>
     </row>
     <row r="33">
@@ -3683,13 +3683,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.198321</v>
+        <v>0.195082</v>
       </c>
       <c r="C33" t="n">
-        <v>0.227579</v>
+        <v>0.225612</v>
       </c>
       <c r="D33" t="n">
-        <v>0.238015</v>
+        <v>0.24073</v>
       </c>
     </row>
     <row r="34">
@@ -3697,13 +3697,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.194216</v>
+        <v>0.193916</v>
       </c>
       <c r="C34" t="n">
-        <v>0.225815</v>
+        <v>0.228106</v>
       </c>
       <c r="D34" t="n">
-        <v>0.241566</v>
+        <v>0.243911</v>
       </c>
     </row>
     <row r="35">
@@ -3711,13 +3711,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.184893</v>
+        <v>0.200719</v>
       </c>
       <c r="C35" t="n">
-        <v>0.226822</v>
+        <v>0.236315</v>
       </c>
       <c r="D35" t="n">
-        <v>0.240423</v>
+        <v>0.238341</v>
       </c>
     </row>
     <row r="36">
@@ -3725,13 +3725,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.178749</v>
+        <v>0.183876</v>
       </c>
       <c r="C36" t="n">
-        <v>0.22176</v>
+        <v>0.231243</v>
       </c>
       <c r="D36" t="n">
-        <v>0.235354</v>
+        <v>0.251555</v>
       </c>
     </row>
     <row r="37">
@@ -3739,13 +3739,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.174518</v>
+        <v>0.183572</v>
       </c>
       <c r="C37" t="n">
-        <v>0.226739</v>
+        <v>0.227275</v>
       </c>
       <c r="D37" t="n">
-        <v>0.251838</v>
+        <v>0.254341</v>
       </c>
     </row>
     <row r="38">
@@ -3753,13 +3753,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.234779</v>
+        <v>0.238187</v>
       </c>
       <c r="C38" t="n">
-        <v>0.236667</v>
+        <v>0.236658</v>
       </c>
       <c r="D38" t="n">
-        <v>0.246393</v>
+        <v>0.249989</v>
       </c>
     </row>
     <row r="39">
@@ -3767,13 +3767,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.233035</v>
+        <v>0.233382</v>
       </c>
       <c r="C39" t="n">
-        <v>0.236326</v>
+        <v>0.23459</v>
       </c>
       <c r="D39" t="n">
-        <v>0.251991</v>
+        <v>0.251139</v>
       </c>
     </row>
     <row r="40">
@@ -3781,13 +3781,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.227741</v>
+        <v>0.240403</v>
       </c>
       <c r="C40" t="n">
-        <v>0.234345</v>
+        <v>0.235206</v>
       </c>
       <c r="D40" t="n">
-        <v>0.251026</v>
+        <v>0.247216</v>
       </c>
     </row>
     <row r="41">
@@ -3795,13 +3795,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.223969</v>
+        <v>0.225238</v>
       </c>
       <c r="C41" t="n">
-        <v>0.23499</v>
+        <v>0.234002</v>
       </c>
       <c r="D41" t="n">
-        <v>0.245657</v>
+        <v>0.246998</v>
       </c>
     </row>
     <row r="42">
@@ -3809,13 +3809,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.222453</v>
+        <v>0.222764</v>
       </c>
       <c r="C42" t="n">
-        <v>0.232538</v>
+        <v>0.235574</v>
       </c>
       <c r="D42" t="n">
-        <v>0.243704</v>
+        <v>0.244665</v>
       </c>
     </row>
     <row r="43">
@@ -3823,13 +3823,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.214314</v>
+        <v>0.217423</v>
       </c>
       <c r="C43" t="n">
-        <v>0.234109</v>
+        <v>0.23351</v>
       </c>
       <c r="D43" t="n">
-        <v>0.241165</v>
+        <v>0.244051</v>
       </c>
     </row>
     <row r="44">
@@ -3837,13 +3837,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.20909</v>
+        <v>0.211785</v>
       </c>
       <c r="C44" t="n">
-        <v>0.229779</v>
+        <v>0.231209</v>
       </c>
       <c r="D44" t="n">
-        <v>0.244797</v>
+        <v>0.243381</v>
       </c>
     </row>
     <row r="45">
@@ -3851,13 +3851,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.205812</v>
+        <v>0.210482</v>
       </c>
       <c r="C45" t="n">
-        <v>0.229862</v>
+        <v>0.229353</v>
       </c>
       <c r="D45" t="n">
-        <v>0.243609</v>
+        <v>0.246091</v>
       </c>
     </row>
     <row r="46">
@@ -3865,13 +3865,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.201588</v>
+        <v>0.203573</v>
       </c>
       <c r="C46" t="n">
-        <v>0.228654</v>
+        <v>0.22884</v>
       </c>
       <c r="D46" t="n">
-        <v>0.243789</v>
+        <v>0.245232</v>
       </c>
     </row>
     <row r="47">
@@ -3879,13 +3879,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.197495</v>
+        <v>0.201299</v>
       </c>
       <c r="C47" t="n">
-        <v>0.227504</v>
+        <v>0.231394</v>
       </c>
       <c r="D47" t="n">
-        <v>0.241958</v>
+        <v>0.24119</v>
       </c>
     </row>
     <row r="48">
@@ -3893,13 +3893,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.195356</v>
+        <v>0.194984</v>
       </c>
       <c r="C48" t="n">
-        <v>0.225733</v>
+        <v>0.226599</v>
       </c>
       <c r="D48" t="n">
-        <v>0.24162</v>
+        <v>0.240595</v>
       </c>
     </row>
     <row r="49">
@@ -3907,13 +3907,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.187376</v>
+        <v>0.187173</v>
       </c>
       <c r="C49" t="n">
-        <v>0.226742</v>
+        <v>0.227857</v>
       </c>
       <c r="D49" t="n">
-        <v>0.238274</v>
+        <v>0.240779</v>
       </c>
     </row>
     <row r="50">
@@ -3921,13 +3921,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.182995</v>
+        <v>0.186166</v>
       </c>
       <c r="C50" t="n">
-        <v>0.226884</v>
+        <v>0.225815</v>
       </c>
       <c r="D50" t="n">
-        <v>0.238412</v>
+        <v>0.239698</v>
       </c>
     </row>
     <row r="51">
@@ -3935,13 +3935,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.178831</v>
+        <v>0.177778</v>
       </c>
       <c r="C51" t="n">
-        <v>0.225564</v>
+        <v>0.2252</v>
       </c>
       <c r="D51" t="n">
-        <v>0.253031</v>
+        <v>0.260155</v>
       </c>
     </row>
     <row r="52">
@@ -3949,13 +3949,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.168841</v>
+        <v>0.169418</v>
       </c>
       <c r="C52" t="n">
-        <v>0.225863</v>
+        <v>0.225452</v>
       </c>
       <c r="D52" t="n">
-        <v>0.255419</v>
+        <v>0.258423</v>
       </c>
     </row>
     <row r="53">
@@ -3963,13 +3963,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.23169</v>
+        <v>0.233813</v>
       </c>
       <c r="C53" t="n">
-        <v>0.238887</v>
+        <v>0.241378</v>
       </c>
       <c r="D53" t="n">
-        <v>0.252329</v>
+        <v>0.255163</v>
       </c>
     </row>
     <row r="54">
@@ -3977,13 +3977,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.231518</v>
+        <v>0.233221</v>
       </c>
       <c r="C54" t="n">
-        <v>0.240524</v>
+        <v>0.241957</v>
       </c>
       <c r="D54" t="n">
-        <v>0.251751</v>
+        <v>0.255002</v>
       </c>
     </row>
     <row r="55">
@@ -3991,13 +3991,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.225921</v>
+        <v>0.228619</v>
       </c>
       <c r="C55" t="n">
-        <v>0.238129</v>
+        <v>0.237994</v>
       </c>
       <c r="D55" t="n">
-        <v>0.25352</v>
+        <v>0.252551</v>
       </c>
     </row>
     <row r="56">
@@ -4005,13 +4005,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.223388</v>
+        <v>0.225351</v>
       </c>
       <c r="C56" t="n">
-        <v>0.238466</v>
+        <v>0.238984</v>
       </c>
       <c r="D56" t="n">
-        <v>0.249322</v>
+        <v>0.250312</v>
       </c>
     </row>
     <row r="57">
@@ -4019,13 +4019,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.219295</v>
+        <v>0.222829</v>
       </c>
       <c r="C57" t="n">
-        <v>0.234332</v>
+        <v>0.235355</v>
       </c>
       <c r="D57" t="n">
-        <v>0.248707</v>
+        <v>0.251276</v>
       </c>
     </row>
     <row r="58">
@@ -4033,13 +4033,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.213092</v>
+        <v>0.21665</v>
       </c>
       <c r="C58" t="n">
-        <v>0.233893</v>
+        <v>0.237256</v>
       </c>
       <c r="D58" t="n">
-        <v>0.24818</v>
+        <v>0.248935</v>
       </c>
     </row>
     <row r="59">
@@ -4047,13 +4047,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.213112</v>
+        <v>0.211626</v>
       </c>
       <c r="C59" t="n">
-        <v>0.233006</v>
+        <v>0.23742</v>
       </c>
       <c r="D59" t="n">
-        <v>0.246362</v>
+        <v>0.248251</v>
       </c>
     </row>
     <row r="60">
@@ -4061,13 +4061,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.209006</v>
+        <v>0.208958</v>
       </c>
       <c r="C60" t="n">
-        <v>0.230228</v>
+        <v>0.236339</v>
       </c>
       <c r="D60" t="n">
-        <v>0.247845</v>
+        <v>0.246511</v>
       </c>
     </row>
     <row r="61">
@@ -4075,13 +4075,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.201949</v>
+        <v>0.201924</v>
       </c>
       <c r="C61" t="n">
-        <v>0.230558</v>
+        <v>0.233293</v>
       </c>
       <c r="D61" t="n">
-        <v>0.244337</v>
+        <v>0.251933</v>
       </c>
     </row>
     <row r="62">
@@ -4089,13 +4089,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.195713</v>
+        <v>0.197231</v>
       </c>
       <c r="C62" t="n">
-        <v>0.230981</v>
+        <v>0.241171</v>
       </c>
       <c r="D62" t="n">
-        <v>0.244903</v>
+        <v>0.24534</v>
       </c>
     </row>
     <row r="63">
@@ -4103,13 +4103,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.190143</v>
+        <v>0.200989</v>
       </c>
       <c r="C63" t="n">
-        <v>0.227863</v>
+        <v>0.240172</v>
       </c>
       <c r="D63" t="n">
-        <v>0.242318</v>
+        <v>0.257472</v>
       </c>
     </row>
     <row r="64">
@@ -4117,13 +4117,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.185973</v>
+        <v>0.192546</v>
       </c>
       <c r="C64" t="n">
-        <v>0.227508</v>
+        <v>0.2335</v>
       </c>
       <c r="D64" t="n">
-        <v>0.242335</v>
+        <v>0.24424</v>
       </c>
     </row>
     <row r="65">
@@ -4131,13 +4131,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.179457</v>
+        <v>0.180356</v>
       </c>
       <c r="C65" t="n">
-        <v>0.230059</v>
+        <v>0.227538</v>
       </c>
       <c r="D65" t="n">
-        <v>0.240655</v>
+        <v>0.243551</v>
       </c>
     </row>
     <row r="66">
@@ -4145,13 +4145,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.172512</v>
+        <v>0.171364</v>
       </c>
       <c r="C66" t="n">
-        <v>0.227119</v>
+        <v>0.227139</v>
       </c>
       <c r="D66" t="n">
-        <v>0.256733</v>
+        <v>0.262052</v>
       </c>
     </row>
     <row r="67">
@@ -4159,13 +4159,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.241251</v>
+        <v>0.242024</v>
       </c>
       <c r="C67" t="n">
-        <v>0.239622</v>
+        <v>0.243388</v>
       </c>
       <c r="D67" t="n">
-        <v>0.253674</v>
+        <v>0.258031</v>
       </c>
     </row>
     <row r="68">
@@ -4173,13 +4173,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.235515</v>
+        <v>0.236118</v>
       </c>
       <c r="C68" t="n">
-        <v>0.242538</v>
+        <v>0.243035</v>
       </c>
       <c r="D68" t="n">
-        <v>0.251881</v>
+        <v>0.256879</v>
       </c>
     </row>
     <row r="69">
@@ -4187,13 +4187,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.236098</v>
+        <v>0.231879</v>
       </c>
       <c r="C69" t="n">
-        <v>0.240985</v>
+        <v>0.241994</v>
       </c>
       <c r="D69" t="n">
-        <v>0.248744</v>
+        <v>0.257904</v>
       </c>
     </row>
     <row r="70">
@@ -4201,13 +4201,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.229229</v>
+        <v>0.235632</v>
       </c>
       <c r="C70" t="n">
-        <v>0.239972</v>
+        <v>0.242091</v>
       </c>
       <c r="D70" t="n">
-        <v>0.248297</v>
+        <v>0.253325</v>
       </c>
     </row>
     <row r="71">
@@ -4215,13 +4215,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.221625</v>
+        <v>0.223623</v>
       </c>
       <c r="C71" t="n">
-        <v>0.239549</v>
+        <v>0.23716</v>
       </c>
       <c r="D71" t="n">
-        <v>0.247043</v>
+        <v>0.254731</v>
       </c>
     </row>
     <row r="72">
@@ -4229,13 +4229,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.22005</v>
+        <v>0.221183</v>
       </c>
       <c r="C72" t="n">
-        <v>0.237789</v>
+        <v>0.237314</v>
       </c>
       <c r="D72" t="n">
-        <v>0.245733</v>
+        <v>0.251381</v>
       </c>
     </row>
     <row r="73">
@@ -4243,13 +4243,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.216607</v>
+        <v>0.214184</v>
       </c>
       <c r="C73" t="n">
-        <v>0.239685</v>
+        <v>0.234825</v>
       </c>
       <c r="D73" t="n">
-        <v>0.248039</v>
+        <v>0.254487</v>
       </c>
     </row>
     <row r="74">
@@ -4257,13 +4257,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.207924</v>
+        <v>0.223801</v>
       </c>
       <c r="C74" t="n">
-        <v>0.233095</v>
+        <v>0.235997</v>
       </c>
       <c r="D74" t="n">
-        <v>0.243038</v>
+        <v>0.249595</v>
       </c>
     </row>
     <row r="75">
@@ -4271,13 +4271,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.203462</v>
+        <v>0.204799</v>
       </c>
       <c r="C75" t="n">
-        <v>0.234645</v>
+        <v>0.234706</v>
       </c>
       <c r="D75" t="n">
-        <v>0.245478</v>
+        <v>0.254008</v>
       </c>
     </row>
     <row r="76">
@@ -4285,13 +4285,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.198562</v>
+        <v>0.207099</v>
       </c>
       <c r="C76" t="n">
-        <v>0.228998</v>
+        <v>0.234901</v>
       </c>
       <c r="D76" t="n">
-        <v>0.244056</v>
+        <v>0.247588</v>
       </c>
     </row>
     <row r="77">
@@ -4299,13 +4299,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.19435</v>
+        <v>0.197667</v>
       </c>
       <c r="C77" t="n">
-        <v>0.232274</v>
+        <v>0.230886</v>
       </c>
       <c r="D77" t="n">
-        <v>0.242755</v>
+        <v>0.246924</v>
       </c>
     </row>
     <row r="78">
@@ -4313,13 +4313,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.18863</v>
+        <v>0.192196</v>
       </c>
       <c r="C78" t="n">
-        <v>0.225883</v>
+        <v>0.230832</v>
       </c>
       <c r="D78" t="n">
-        <v>0.242084</v>
+        <v>0.245756</v>
       </c>
     </row>
     <row r="79">
@@ -4327,13 +4327,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.180637</v>
+        <v>0.185702</v>
       </c>
       <c r="C79" t="n">
-        <v>0.23126</v>
+        <v>0.230028</v>
       </c>
       <c r="D79" t="n">
-        <v>0.242232</v>
+        <v>0.245808</v>
       </c>
     </row>
     <row r="80">
@@ -4341,13 +4341,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.173555</v>
+        <v>0.176557</v>
       </c>
       <c r="C80" t="n">
-        <v>0.226947</v>
+        <v>0.226988</v>
       </c>
       <c r="D80" t="n">
-        <v>0.256268</v>
+        <v>0.264968</v>
       </c>
     </row>
     <row r="81">
@@ -4355,13 +4355,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.244498</v>
+        <v>0.248504</v>
       </c>
       <c r="C81" t="n">
-        <v>0.246515</v>
+        <v>0.251605</v>
       </c>
       <c r="D81" t="n">
-        <v>0.257673</v>
+        <v>0.262282</v>
       </c>
     </row>
     <row r="82">
@@ -4369,13 +4369,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.243989</v>
+        <v>0.245375</v>
       </c>
       <c r="C82" t="n">
-        <v>0.242774</v>
+        <v>0.249258</v>
       </c>
       <c r="D82" t="n">
-        <v>0.255001</v>
+        <v>0.259879</v>
       </c>
     </row>
     <row r="83">
@@ -4383,13 +4383,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.234554</v>
+        <v>0.237918</v>
       </c>
       <c r="C83" t="n">
-        <v>0.24037</v>
+        <v>0.243846</v>
       </c>
       <c r="D83" t="n">
-        <v>0.254494</v>
+        <v>0.259765</v>
       </c>
     </row>
     <row r="84">
@@ -4397,13 +4397,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.231745</v>
+        <v>0.235297</v>
       </c>
       <c r="C84" t="n">
-        <v>0.239985</v>
+        <v>0.245213</v>
       </c>
       <c r="D84" t="n">
-        <v>0.253606</v>
+        <v>0.257795</v>
       </c>
     </row>
     <row r="85">
@@ -4411,13 +4411,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.229243</v>
+        <v>0.228188</v>
       </c>
       <c r="C85" t="n">
-        <v>0.24096</v>
+        <v>0.240274</v>
       </c>
       <c r="D85" t="n">
-        <v>0.252067</v>
+        <v>0.256142</v>
       </c>
     </row>
     <row r="86">
@@ -4425,13 +4425,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.225582</v>
+        <v>0.238706</v>
       </c>
       <c r="C86" t="n">
-        <v>0.238406</v>
+        <v>0.244621</v>
       </c>
       <c r="D86" t="n">
-        <v>0.248268</v>
+        <v>0.263165</v>
       </c>
     </row>
     <row r="87">
@@ -4439,13 +4439,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.21918</v>
+        <v>0.228629</v>
       </c>
       <c r="C87" t="n">
-        <v>0.235424</v>
+        <v>0.24048</v>
       </c>
       <c r="D87" t="n">
-        <v>0.257356</v>
+        <v>0.258588</v>
       </c>
     </row>
     <row r="88">
@@ -4453,13 +4453,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.214457</v>
+        <v>0.215454</v>
       </c>
       <c r="C88" t="n">
-        <v>0.236598</v>
+        <v>0.239109</v>
       </c>
       <c r="D88" t="n">
-        <v>0.247507</v>
+        <v>0.25278</v>
       </c>
     </row>
     <row r="89">
@@ -4467,13 +4467,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.207059</v>
+        <v>0.210554</v>
       </c>
       <c r="C89" t="n">
-        <v>0.236429</v>
+        <v>0.236366</v>
       </c>
       <c r="D89" t="n">
-        <v>0.24361</v>
+        <v>0.250834</v>
       </c>
     </row>
     <row r="90">
@@ -4481,13 +4481,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.204094</v>
+        <v>0.206806</v>
       </c>
       <c r="C90" t="n">
-        <v>0.234664</v>
+        <v>0.234716</v>
       </c>
       <c r="D90" t="n">
-        <v>0.243072</v>
+        <v>0.251036</v>
       </c>
     </row>
     <row r="91">
@@ -4495,13 +4495,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.198359</v>
+        <v>0.203862</v>
       </c>
       <c r="C91" t="n">
-        <v>0.233676</v>
+        <v>0.234692</v>
       </c>
       <c r="D91" t="n">
-        <v>0.245473</v>
+        <v>0.249236</v>
       </c>
     </row>
     <row r="92">
@@ -4509,13 +4509,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.190897</v>
+        <v>0.194939</v>
       </c>
       <c r="C92" t="n">
-        <v>0.232807</v>
+        <v>0.23334</v>
       </c>
       <c r="D92" t="n">
-        <v>0.243825</v>
+        <v>0.247487</v>
       </c>
     </row>
     <row r="93">
@@ -4523,13 +4523,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.184906</v>
+        <v>0.18704</v>
       </c>
       <c r="C93" t="n">
-        <v>0.231331</v>
+        <v>0.23463</v>
       </c>
       <c r="D93" t="n">
-        <v>0.243144</v>
+        <v>0.250209</v>
       </c>
     </row>
     <row r="94">
@@ -4537,13 +4537,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.176683</v>
+        <v>0.184298</v>
       </c>
       <c r="C94" t="n">
-        <v>0.228089</v>
+        <v>0.233069</v>
       </c>
       <c r="D94" t="n">
-        <v>0.268686</v>
+        <v>0.263548</v>
       </c>
     </row>
     <row r="95">
@@ -4551,13 +4551,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.246803</v>
+        <v>0.246416</v>
       </c>
       <c r="C95" t="n">
-        <v>0.248088</v>
+        <v>0.24947</v>
       </c>
       <c r="D95" t="n">
-        <v>0.260814</v>
+        <v>0.261906</v>
       </c>
     </row>
     <row r="96">
@@ -4565,13 +4565,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.241262</v>
+        <v>0.244583</v>
       </c>
       <c r="C96" t="n">
-        <v>0.246515</v>
+        <v>0.248039</v>
       </c>
       <c r="D96" t="n">
-        <v>0.262267</v>
+        <v>0.262811</v>
       </c>
     </row>
     <row r="97">
@@ -4579,13 +4579,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.240174</v>
+        <v>0.241544</v>
       </c>
       <c r="C97" t="n">
-        <v>0.245301</v>
+        <v>0.247043</v>
       </c>
       <c r="D97" t="n">
-        <v>0.256874</v>
+        <v>0.260685</v>
       </c>
     </row>
     <row r="98">
@@ -4593,13 +4593,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.231693</v>
+        <v>0.236767</v>
       </c>
       <c r="C98" t="n">
-        <v>0.244862</v>
+        <v>0.244202</v>
       </c>
       <c r="D98" t="n">
-        <v>0.25357</v>
+        <v>0.257843</v>
       </c>
     </row>
     <row r="99">
@@ -4607,13 +4607,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.230064</v>
+        <v>0.232778</v>
       </c>
       <c r="C99" t="n">
-        <v>0.240975</v>
+        <v>0.242235</v>
       </c>
       <c r="D99" t="n">
-        <v>0.255209</v>
+        <v>0.256333</v>
       </c>
     </row>
     <row r="100">
@@ -4621,13 +4621,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.223452</v>
+        <v>0.225738</v>
       </c>
       <c r="C100" t="n">
-        <v>0.243043</v>
+        <v>0.241259</v>
       </c>
       <c r="D100" t="n">
-        <v>0.251716</v>
+        <v>0.255641</v>
       </c>
     </row>
     <row r="101">
@@ -4635,13 +4635,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.222222</v>
+        <v>0.225391</v>
       </c>
       <c r="C101" t="n">
-        <v>0.236901</v>
+        <v>0.240527</v>
       </c>
       <c r="D101" t="n">
-        <v>0.249189</v>
+        <v>0.261344</v>
       </c>
     </row>
     <row r="102">
@@ -4649,13 +4649,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.215255</v>
+        <v>0.22194</v>
       </c>
       <c r="C102" t="n">
-        <v>0.2388</v>
+        <v>0.249108</v>
       </c>
       <c r="D102" t="n">
-        <v>0.246919</v>
+        <v>0.262899</v>
       </c>
     </row>
     <row r="103">
@@ -4663,13 +4663,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.21269</v>
+        <v>0.217138</v>
       </c>
       <c r="C103" t="n">
-        <v>0.237512</v>
+        <v>0.238844</v>
       </c>
       <c r="D103" t="n">
-        <v>0.248329</v>
+        <v>0.251874</v>
       </c>
     </row>
     <row r="104">
@@ -4677,13 +4677,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.203832</v>
+        <v>0.204927</v>
       </c>
       <c r="C104" t="n">
-        <v>0.237692</v>
+        <v>0.238549</v>
       </c>
       <c r="D104" t="n">
-        <v>0.246121</v>
+        <v>0.251934</v>
       </c>
     </row>
     <row r="105">
@@ -4691,13 +4691,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.200157</v>
+        <v>0.20528</v>
       </c>
       <c r="C105" t="n">
-        <v>0.231931</v>
+        <v>0.239098</v>
       </c>
       <c r="D105" t="n">
-        <v>0.244541</v>
+        <v>0.248489</v>
       </c>
     </row>
     <row r="106">
@@ -4705,13 +4705,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.19228</v>
+        <v>0.197542</v>
       </c>
       <c r="C106" t="n">
-        <v>0.233648</v>
+        <v>0.233119</v>
       </c>
       <c r="D106" t="n">
-        <v>0.244502</v>
+        <v>0.252472</v>
       </c>
     </row>
     <row r="107">
@@ -4719,13 +4719,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.183366</v>
+        <v>0.188557</v>
       </c>
       <c r="C107" t="n">
-        <v>0.235711</v>
+        <v>0.231161</v>
       </c>
       <c r="D107" t="n">
-        <v>0.245308</v>
+        <v>0.250419</v>
       </c>
     </row>
     <row r="108">
@@ -4733,13 +4733,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.181021</v>
+        <v>0.181138</v>
       </c>
       <c r="C108" t="n">
-        <v>0.230829</v>
+        <v>0.23579</v>
       </c>
       <c r="D108" t="n">
-        <v>0.263129</v>
+        <v>0.266534</v>
       </c>
     </row>
     <row r="109">
@@ -4747,13 +4747,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.170308</v>
+        <v>0.172128</v>
       </c>
       <c r="C109" t="n">
-        <v>0.22663</v>
+        <v>0.230908</v>
       </c>
       <c r="D109" t="n">
-        <v>0.256565</v>
+        <v>0.262842</v>
       </c>
     </row>
     <row r="110">
@@ -4761,13 +4761,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.243477</v>
+        <v>0.244158</v>
       </c>
       <c r="C110" t="n">
-        <v>0.245949</v>
+        <v>0.249252</v>
       </c>
       <c r="D110" t="n">
-        <v>0.257535</v>
+        <v>0.262954</v>
       </c>
     </row>
     <row r="111">
@@ -4775,13 +4775,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.238133</v>
+        <v>0.242444</v>
       </c>
       <c r="C111" t="n">
-        <v>0.249949</v>
+        <v>0.245551</v>
       </c>
       <c r="D111" t="n">
-        <v>0.258161</v>
+        <v>0.259164</v>
       </c>
     </row>
     <row r="112">
@@ -4789,13 +4789,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.233079</v>
+        <v>0.23655</v>
       </c>
       <c r="C112" t="n">
-        <v>0.245229</v>
+        <v>0.244785</v>
       </c>
       <c r="D112" t="n">
-        <v>0.252945</v>
+        <v>0.260002</v>
       </c>
     </row>
     <row r="113">
@@ -4803,13 +4803,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.232522</v>
+        <v>0.237195</v>
       </c>
       <c r="C113" t="n">
-        <v>0.243005</v>
+        <v>0.2442</v>
       </c>
       <c r="D113" t="n">
-        <v>0.257547</v>
+        <v>0.255706</v>
       </c>
     </row>
     <row r="114">
@@ -4817,13 +4817,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.224776</v>
+        <v>0.2264</v>
       </c>
       <c r="C114" t="n">
-        <v>0.24007</v>
+        <v>0.243435</v>
       </c>
       <c r="D114" t="n">
-        <v>0.251323</v>
+        <v>0.255414</v>
       </c>
     </row>
     <row r="115">
@@ -4831,13 +4831,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.218753</v>
+        <v>0.223717</v>
       </c>
       <c r="C115" t="n">
-        <v>0.239893</v>
+        <v>0.240955</v>
       </c>
       <c r="D115" t="n">
-        <v>0.252271</v>
+        <v>0.257666</v>
       </c>
     </row>
     <row r="116">
@@ -4845,13 +4845,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.216023</v>
+        <v>0.217288</v>
       </c>
       <c r="C116" t="n">
-        <v>0.237176</v>
+        <v>0.239836</v>
       </c>
       <c r="D116" t="n">
-        <v>0.249759</v>
+        <v>0.254252</v>
       </c>
     </row>
     <row r="117">
@@ -4859,13 +4859,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.213156</v>
+        <v>0.212322</v>
       </c>
       <c r="C117" t="n">
-        <v>0.236261</v>
+        <v>0.236663</v>
       </c>
       <c r="D117" t="n">
-        <v>0.249252</v>
+        <v>0.252432</v>
       </c>
     </row>
     <row r="118">
@@ -4873,13 +4873,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.207669</v>
+        <v>0.208804</v>
       </c>
       <c r="C118" t="n">
-        <v>0.236783</v>
+        <v>0.237304</v>
       </c>
       <c r="D118" t="n">
-        <v>0.247485</v>
+        <v>0.250286</v>
       </c>
     </row>
     <row r="119">
@@ -4887,13 +4887,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.200424</v>
+        <v>0.201926</v>
       </c>
       <c r="C119" t="n">
-        <v>0.232845</v>
+        <v>0.234719</v>
       </c>
       <c r="D119" t="n">
-        <v>0.248284</v>
+        <v>0.253273</v>
       </c>
     </row>
     <row r="120">
@@ -4901,13 +4901,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.192756</v>
+        <v>0.199571</v>
       </c>
       <c r="C120" t="n">
-        <v>0.23813</v>
+        <v>0.24293</v>
       </c>
       <c r="D120" t="n">
-        <v>0.249791</v>
+        <v>0.26657</v>
       </c>
     </row>
     <row r="121">
@@ -4915,13 +4915,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.187275</v>
+        <v>0.194117</v>
       </c>
       <c r="C121" t="n">
-        <v>0.234634</v>
+        <v>0.2334</v>
       </c>
       <c r="D121" t="n">
-        <v>0.244371</v>
+        <v>0.247357</v>
       </c>
     </row>
     <row r="122">
@@ -4929,13 +4929,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.183392</v>
+        <v>0.185517</v>
       </c>
       <c r="C122" t="n">
-        <v>0.23322</v>
+        <v>0.233353</v>
       </c>
       <c r="D122" t="n">
-        <v>0.243752</v>
+        <v>0.245627</v>
       </c>
     </row>
     <row r="123">
@@ -4943,13 +4943,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.173507</v>
+        <v>0.173876</v>
       </c>
       <c r="C123" t="n">
-        <v>0.230328</v>
+        <v>0.23042</v>
       </c>
       <c r="D123" t="n">
-        <v>0.258017</v>
+        <v>0.26352</v>
       </c>
     </row>
     <row r="124">
@@ -4957,13 +4957,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.244817</v>
+        <v>0.244886</v>
       </c>
       <c r="C124" t="n">
-        <v>0.245873</v>
+        <v>0.247517</v>
       </c>
       <c r="D124" t="n">
-        <v>0.257657</v>
+        <v>0.261588</v>
       </c>
     </row>
     <row r="125">
@@ -4971,13 +4971,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.245563</v>
+        <v>0.240586</v>
       </c>
       <c r="C125" t="n">
-        <v>0.245671</v>
+        <v>0.246479</v>
       </c>
       <c r="D125" t="n">
-        <v>0.257153</v>
+        <v>0.260199</v>
       </c>
     </row>
     <row r="126">
@@ -4985,13 +4985,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.235416</v>
+        <v>0.237021</v>
       </c>
       <c r="C126" t="n">
-        <v>0.246736</v>
+        <v>0.243352</v>
       </c>
       <c r="D126" t="n">
-        <v>0.258821</v>
+        <v>0.25711</v>
       </c>
     </row>
     <row r="127">
@@ -4999,13 +4999,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.231875</v>
+        <v>0.230788</v>
       </c>
       <c r="C127" t="n">
-        <v>0.244059</v>
+        <v>0.24564</v>
       </c>
       <c r="D127" t="n">
-        <v>0.254272</v>
+        <v>0.258658</v>
       </c>
     </row>
     <row r="128">
@@ -5013,13 +5013,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.229302</v>
+        <v>0.229188</v>
       </c>
       <c r="C128" t="n">
-        <v>0.241766</v>
+        <v>0.2406</v>
       </c>
       <c r="D128" t="n">
-        <v>0.252346</v>
+        <v>0.254739</v>
       </c>
     </row>
     <row r="129">
@@ -5027,13 +5027,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.220492</v>
+        <v>0.222738</v>
       </c>
       <c r="C129" t="n">
-        <v>0.242748</v>
+        <v>0.240451</v>
       </c>
       <c r="D129" t="n">
-        <v>0.250845</v>
+        <v>0.252708</v>
       </c>
     </row>
     <row r="130">
@@ -5041,13 +5041,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.219224</v>
+        <v>0.217176</v>
       </c>
       <c r="C130" t="n">
-        <v>0.240748</v>
+        <v>0.241082</v>
       </c>
       <c r="D130" t="n">
-        <v>0.249598</v>
+        <v>0.252822</v>
       </c>
     </row>
     <row r="131">
@@ -5055,13 +5055,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.211672</v>
+        <v>0.212159</v>
       </c>
       <c r="C131" t="n">
-        <v>0.23565</v>
+        <v>0.237765</v>
       </c>
       <c r="D131" t="n">
-        <v>0.249621</v>
+        <v>0.253084</v>
       </c>
     </row>
     <row r="132">
@@ -5069,13 +5069,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.208585</v>
+        <v>0.208774</v>
       </c>
       <c r="C132" t="n">
-        <v>0.243837</v>
+        <v>0.238094</v>
       </c>
       <c r="D132" t="n">
-        <v>0.246716</v>
+        <v>0.24957</v>
       </c>
     </row>
     <row r="133">
@@ -5083,13 +5083,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.2033</v>
+        <v>0.200766</v>
       </c>
       <c r="C133" t="n">
-        <v>0.236605</v>
+        <v>0.235579</v>
       </c>
       <c r="D133" t="n">
-        <v>0.245841</v>
+        <v>0.25172</v>
       </c>
     </row>
     <row r="134">
@@ -5097,13 +5097,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.196466</v>
+        <v>0.196378</v>
       </c>
       <c r="C134" t="n">
-        <v>0.236543</v>
+        <v>0.232625</v>
       </c>
       <c r="D134" t="n">
-        <v>0.249454</v>
+        <v>0.248211</v>
       </c>
     </row>
     <row r="135">
@@ -5111,13 +5111,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.189604</v>
+        <v>0.19437</v>
       </c>
       <c r="C135" t="n">
-        <v>0.231175</v>
+        <v>0.23131</v>
       </c>
       <c r="D135" t="n">
-        <v>0.245866</v>
+        <v>0.250786</v>
       </c>
     </row>
     <row r="136">
@@ -5125,13 +5125,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.183823</v>
+        <v>0.188251</v>
       </c>
       <c r="C136" t="n">
-        <v>0.231902</v>
+        <v>0.233476</v>
       </c>
       <c r="D136" t="n">
-        <v>0.248375</v>
+        <v>0.250722</v>
       </c>
     </row>
     <row r="137">
@@ -5139,13 +5139,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.17501</v>
+        <v>0.182427</v>
       </c>
       <c r="C137" t="n">
-        <v>0.234624</v>
+        <v>0.233959</v>
       </c>
       <c r="D137" t="n">
-        <v>0.262104</v>
+        <v>0.267304</v>
       </c>
     </row>
     <row r="138">
@@ -5153,13 +5153,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.247352</v>
+        <v>0.250667</v>
       </c>
       <c r="C138" t="n">
-        <v>0.250853</v>
+        <v>0.251326</v>
       </c>
       <c r="D138" t="n">
-        <v>0.265582</v>
+        <v>0.264181</v>
       </c>
     </row>
     <row r="139">
@@ -5167,13 +5167,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.242631</v>
+        <v>0.262784</v>
       </c>
       <c r="C139" t="n">
-        <v>0.247346</v>
+        <v>0.262531</v>
       </c>
       <c r="D139" t="n">
-        <v>0.258182</v>
+        <v>0.26418</v>
       </c>
     </row>
     <row r="140">
@@ -5181,13 +5181,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.236822</v>
+        <v>0.239115</v>
       </c>
       <c r="C140" t="n">
-        <v>0.250281</v>
+        <v>0.245309</v>
       </c>
       <c r="D140" t="n">
-        <v>0.254377</v>
+        <v>0.264354</v>
       </c>
     </row>
     <row r="141">
@@ -5195,13 +5195,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.232477</v>
+        <v>0.233316</v>
       </c>
       <c r="C141" t="n">
-        <v>0.244313</v>
+        <v>0.245655</v>
       </c>
       <c r="D141" t="n">
-        <v>0.253866</v>
+        <v>0.255943</v>
       </c>
     </row>
     <row r="142">
@@ -5209,13 +5209,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.226512</v>
+        <v>0.227616</v>
       </c>
       <c r="C142" t="n">
-        <v>0.24092</v>
+        <v>0.241149</v>
       </c>
       <c r="D142" t="n">
-        <v>0.255739</v>
+        <v>0.2595</v>
       </c>
     </row>
     <row r="143">
@@ -5223,13 +5223,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.222805</v>
+        <v>0.228259</v>
       </c>
       <c r="C143" t="n">
-        <v>0.243296</v>
+        <v>0.242214</v>
       </c>
       <c r="D143" t="n">
-        <v>0.254592</v>
+        <v>0.253947</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Running erasure.xlsx
+++ b/vs-x64/Running erasure.xlsx
@@ -3249,13 +3249,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.210072</v>
+        <v>0.20089</v>
       </c>
       <c r="C2" t="n">
-        <v>0.229832</v>
+        <v>0.221231</v>
       </c>
       <c r="D2" t="n">
-        <v>0.24796</v>
+        <v>0.236056</v>
       </c>
     </row>
     <row r="3">
@@ -3263,13 +3263,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.20452</v>
+        <v>0.19871</v>
       </c>
       <c r="C3" t="n">
-        <v>0.225474</v>
+        <v>0.22614</v>
       </c>
       <c r="D3" t="n">
-        <v>0.249246</v>
+        <v>0.244664</v>
       </c>
     </row>
     <row r="4">
@@ -3277,13 +3277,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.197883</v>
+        <v>0.193599</v>
       </c>
       <c r="C4" t="n">
-        <v>0.224371</v>
+        <v>0.222562</v>
       </c>
       <c r="D4" t="n">
-        <v>0.238297</v>
+        <v>0.242144</v>
       </c>
     </row>
     <row r="5">
@@ -3291,13 +3291,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.190191</v>
+        <v>0.18788</v>
       </c>
       <c r="C5" t="n">
-        <v>0.225132</v>
+        <v>0.221997</v>
       </c>
       <c r="D5" t="n">
-        <v>0.242978</v>
+        <v>0.241978</v>
       </c>
     </row>
     <row r="6">
@@ -3305,13 +3305,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.187491</v>
+        <v>0.189438</v>
       </c>
       <c r="C6" t="n">
-        <v>0.224756</v>
+        <v>0.228472</v>
       </c>
       <c r="D6" t="n">
-        <v>0.240563</v>
+        <v>0.240275</v>
       </c>
     </row>
     <row r="7">
@@ -3319,13 +3319,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.174536</v>
+        <v>0.182781</v>
       </c>
       <c r="C7" t="n">
-        <v>0.220245</v>
+        <v>0.224057</v>
       </c>
       <c r="D7" t="n">
-        <v>0.239636</v>
+        <v>0.241021</v>
       </c>
     </row>
     <row r="8">
@@ -3333,13 +3333,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.172381</v>
+        <v>0.173035</v>
       </c>
       <c r="C8" t="n">
-        <v>0.220581</v>
+        <v>0.225161</v>
       </c>
       <c r="D8" t="n">
-        <v>0.238944</v>
+        <v>0.239636</v>
       </c>
     </row>
     <row r="9">
@@ -3347,13 +3347,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.165067</v>
+        <v>0.165005</v>
       </c>
       <c r="C9" t="n">
-        <v>0.222744</v>
+        <v>0.218347</v>
       </c>
       <c r="D9" t="n">
-        <v>0.251762</v>
+        <v>0.242737</v>
       </c>
     </row>
     <row r="10">
@@ -3361,13 +3361,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.222521</v>
+        <v>0.226806</v>
       </c>
       <c r="C10" t="n">
-        <v>0.235828</v>
+        <v>0.230766</v>
       </c>
       <c r="D10" t="n">
-        <v>0.255211</v>
+        <v>0.243194</v>
       </c>
     </row>
     <row r="11">
@@ -3375,13 +3375,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.241252</v>
+        <v>0.226431</v>
       </c>
       <c r="C11" t="n">
-        <v>0.241926</v>
+        <v>0.231632</v>
       </c>
       <c r="D11" t="n">
-        <v>0.251009</v>
+        <v>0.256907</v>
       </c>
     </row>
     <row r="12">
@@ -3389,13 +3389,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.229155</v>
+        <v>0.23379</v>
       </c>
       <c r="C12" t="n">
-        <v>0.324321</v>
+        <v>0.236845</v>
       </c>
       <c r="D12" t="n">
-        <v>0.253537</v>
+        <v>0.258181</v>
       </c>
     </row>
     <row r="13">
@@ -3403,13 +3403,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.214559</v>
+        <v>0.234186</v>
       </c>
       <c r="C13" t="n">
-        <v>0.234637</v>
+        <v>0.239788</v>
       </c>
       <c r="D13" t="n">
-        <v>0.242419</v>
+        <v>0.252304</v>
       </c>
     </row>
     <row r="14">
@@ -3417,13 +3417,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.213776</v>
+        <v>0.228162</v>
       </c>
       <c r="C14" t="n">
-        <v>0.224857</v>
+        <v>0.27418</v>
       </c>
       <c r="D14" t="n">
-        <v>0.242208</v>
+        <v>0.254534</v>
       </c>
     </row>
     <row r="15">
@@ -3431,13 +3431,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.209961</v>
+        <v>0.219561</v>
       </c>
       <c r="C15" t="n">
-        <v>0.225833</v>
+        <v>0.22957</v>
       </c>
       <c r="D15" t="n">
-        <v>0.242762</v>
+        <v>0.242776</v>
       </c>
     </row>
     <row r="16">
@@ -3445,13 +3445,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.208026</v>
+        <v>0.211562</v>
       </c>
       <c r="C16" t="n">
-        <v>0.226421</v>
+        <v>0.227656</v>
       </c>
       <c r="D16" t="n">
-        <v>0.244135</v>
+        <v>0.244233</v>
       </c>
     </row>
     <row r="17">
@@ -3459,13 +3459,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.202187</v>
+        <v>0.204804</v>
       </c>
       <c r="C17" t="n">
-        <v>0.22362</v>
+        <v>0.230662</v>
       </c>
       <c r="D17" t="n">
-        <v>0.244845</v>
+        <v>0.24124</v>
       </c>
     </row>
     <row r="18">
@@ -3473,13 +3473,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.203671</v>
+        <v>0.197335</v>
       </c>
       <c r="C18" t="n">
-        <v>0.227645</v>
+        <v>0.227059</v>
       </c>
       <c r="D18" t="n">
-        <v>0.239735</v>
+        <v>0.239916</v>
       </c>
     </row>
     <row r="19">
@@ -3487,13 +3487,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.19682</v>
+        <v>0.19281</v>
       </c>
       <c r="C19" t="n">
-        <v>0.22528</v>
+        <v>0.222907</v>
       </c>
       <c r="D19" t="n">
-        <v>0.23929</v>
+        <v>0.239701</v>
       </c>
     </row>
     <row r="20">
@@ -3501,13 +3501,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.18683</v>
+        <v>0.186963</v>
       </c>
       <c r="C20" t="n">
-        <v>0.220517</v>
+        <v>0.22293</v>
       </c>
       <c r="D20" t="n">
-        <v>0.239046</v>
+        <v>0.237188</v>
       </c>
     </row>
     <row r="21">
@@ -3515,13 +3515,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.182225</v>
+        <v>0.187499</v>
       </c>
       <c r="C21" t="n">
-        <v>0.22307</v>
+        <v>0.224784</v>
       </c>
       <c r="D21" t="n">
-        <v>0.241489</v>
+        <v>0.238638</v>
       </c>
     </row>
     <row r="22">
@@ -3529,13 +3529,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.17614</v>
+        <v>0.17725</v>
       </c>
       <c r="C22" t="n">
-        <v>0.222008</v>
+        <v>0.22048</v>
       </c>
       <c r="D22" t="n">
-        <v>0.241516</v>
+        <v>0.238544</v>
       </c>
     </row>
     <row r="23">
@@ -3543,13 +3543,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.169929</v>
+        <v>0.169851</v>
       </c>
       <c r="C23" t="n">
-        <v>0.222643</v>
+        <v>0.223291</v>
       </c>
       <c r="D23" t="n">
-        <v>0.249032</v>
+        <v>0.252363</v>
       </c>
     </row>
     <row r="24">
@@ -3557,13 +3557,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.231247</v>
+        <v>0.231184</v>
       </c>
       <c r="C24" t="n">
-        <v>0.232822</v>
+        <v>0.232253</v>
       </c>
       <c r="D24" t="n">
-        <v>0.253825</v>
+        <v>0.246302</v>
       </c>
     </row>
     <row r="25">
@@ -3571,13 +3571,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.234038</v>
+        <v>0.233276</v>
       </c>
       <c r="C25" t="n">
-        <v>0.233281</v>
+        <v>0.23438</v>
       </c>
       <c r="D25" t="n">
-        <v>0.24908</v>
+        <v>0.24521</v>
       </c>
     </row>
     <row r="26">
@@ -3585,13 +3585,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.227498</v>
+        <v>0.228015</v>
       </c>
       <c r="C26" t="n">
-        <v>0.23141</v>
+        <v>0.231218</v>
       </c>
       <c r="D26" t="n">
-        <v>0.251028</v>
+        <v>0.243885</v>
       </c>
     </row>
     <row r="27">
@@ -3599,13 +3599,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.221435</v>
+        <v>0.22298</v>
       </c>
       <c r="C27" t="n">
-        <v>0.230615</v>
+        <v>0.23136</v>
       </c>
       <c r="D27" t="n">
-        <v>0.245086</v>
+        <v>0.243331</v>
       </c>
     </row>
     <row r="28">
@@ -3613,13 +3613,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.218546</v>
+        <v>0.218585</v>
       </c>
       <c r="C28" t="n">
-        <v>0.229572</v>
+        <v>0.229271</v>
       </c>
       <c r="D28" t="n">
-        <v>0.248253</v>
+        <v>0.244393</v>
       </c>
     </row>
     <row r="29">
@@ -3627,13 +3627,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.212273</v>
+        <v>0.213648</v>
       </c>
       <c r="C29" t="n">
-        <v>0.226993</v>
+        <v>0.232004</v>
       </c>
       <c r="D29" t="n">
-        <v>0.243468</v>
+        <v>0.241997</v>
       </c>
     </row>
     <row r="30">
@@ -3641,13 +3641,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.208694</v>
+        <v>0.213271</v>
       </c>
       <c r="C30" t="n">
-        <v>0.229151</v>
+        <v>0.229014</v>
       </c>
       <c r="D30" t="n">
-        <v>0.245874</v>
+        <v>0.240893</v>
       </c>
     </row>
     <row r="31">
@@ -3655,13 +3655,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.207353</v>
+        <v>0.211581</v>
       </c>
       <c r="C31" t="n">
-        <v>0.227839</v>
+        <v>0.226974</v>
       </c>
       <c r="D31" t="n">
-        <v>0.243976</v>
+        <v>0.241408</v>
       </c>
     </row>
     <row r="32">
@@ -3669,13 +3669,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.201461</v>
+        <v>0.198607</v>
       </c>
       <c r="C32" t="n">
-        <v>0.226965</v>
+        <v>0.226442</v>
       </c>
       <c r="D32" t="n">
-        <v>0.245367</v>
+        <v>0.240176</v>
       </c>
     </row>
     <row r="33">
@@ -3683,13 +3683,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.195082</v>
+        <v>0.193754</v>
       </c>
       <c r="C33" t="n">
-        <v>0.225612</v>
+        <v>0.226291</v>
       </c>
       <c r="D33" t="n">
-        <v>0.24073</v>
+        <v>0.242177</v>
       </c>
     </row>
     <row r="34">
@@ -3697,13 +3697,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.193916</v>
+        <v>0.192898</v>
       </c>
       <c r="C34" t="n">
-        <v>0.228106</v>
+        <v>0.230113</v>
       </c>
       <c r="D34" t="n">
-        <v>0.243911</v>
+        <v>0.241757</v>
       </c>
     </row>
     <row r="35">
@@ -3711,13 +3711,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.200719</v>
+        <v>0.191659</v>
       </c>
       <c r="C35" t="n">
-        <v>0.236315</v>
+        <v>0.229203</v>
       </c>
       <c r="D35" t="n">
-        <v>0.238341</v>
+        <v>0.242188</v>
       </c>
     </row>
     <row r="36">
@@ -3725,13 +3725,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.183876</v>
+        <v>0.187883</v>
       </c>
       <c r="C36" t="n">
-        <v>0.231243</v>
+        <v>0.222765</v>
       </c>
       <c r="D36" t="n">
-        <v>0.251555</v>
+        <v>0.240561</v>
       </c>
     </row>
     <row r="37">
@@ -3739,13 +3739,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.183572</v>
+        <v>0.174216</v>
       </c>
       <c r="C37" t="n">
-        <v>0.227275</v>
+        <v>0.225469</v>
       </c>
       <c r="D37" t="n">
-        <v>0.254341</v>
+        <v>0.253757</v>
       </c>
     </row>
     <row r="38">
@@ -3753,13 +3753,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.238187</v>
+        <v>0.239226</v>
       </c>
       <c r="C38" t="n">
-        <v>0.236658</v>
+        <v>0.236201</v>
       </c>
       <c r="D38" t="n">
-        <v>0.249989</v>
+        <v>0.251207</v>
       </c>
     </row>
     <row r="39">
@@ -3767,13 +3767,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.233382</v>
+        <v>0.234627</v>
       </c>
       <c r="C39" t="n">
-        <v>0.23459</v>
+        <v>0.235151</v>
       </c>
       <c r="D39" t="n">
-        <v>0.251139</v>
+        <v>0.252251</v>
       </c>
     </row>
     <row r="40">
@@ -3781,13 +3781,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.240403</v>
+        <v>0.230204</v>
       </c>
       <c r="C40" t="n">
-        <v>0.235206</v>
+        <v>0.240774</v>
       </c>
       <c r="D40" t="n">
-        <v>0.247216</v>
+        <v>0.251982</v>
       </c>
     </row>
     <row r="41">
@@ -3795,13 +3795,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.225238</v>
+        <v>0.228354</v>
       </c>
       <c r="C41" t="n">
-        <v>0.234002</v>
+        <v>0.233773</v>
       </c>
       <c r="D41" t="n">
-        <v>0.246998</v>
+        <v>0.243723</v>
       </c>
     </row>
     <row r="42">
@@ -3809,13 +3809,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.222764</v>
+        <v>0.226568</v>
       </c>
       <c r="C42" t="n">
-        <v>0.235574</v>
+        <v>0.249015</v>
       </c>
       <c r="D42" t="n">
-        <v>0.244665</v>
+        <v>0.251364</v>
       </c>
     </row>
     <row r="43">
@@ -3823,13 +3823,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.217423</v>
+        <v>0.229201</v>
       </c>
       <c r="C43" t="n">
-        <v>0.23351</v>
+        <v>0.247515</v>
       </c>
       <c r="D43" t="n">
-        <v>0.244051</v>
+        <v>0.267535</v>
       </c>
     </row>
     <row r="44">
@@ -3837,13 +3837,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.211785</v>
+        <v>0.229629</v>
       </c>
       <c r="C44" t="n">
-        <v>0.231209</v>
+        <v>0.286811</v>
       </c>
       <c r="D44" t="n">
-        <v>0.243381</v>
+        <v>0.253099</v>
       </c>
     </row>
     <row r="45">
@@ -3851,13 +3851,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.210482</v>
+        <v>0.216849</v>
       </c>
       <c r="C45" t="n">
-        <v>0.229353</v>
+        <v>0.235326</v>
       </c>
       <c r="D45" t="n">
-        <v>0.246091</v>
+        <v>0.251514</v>
       </c>
     </row>
     <row r="46">
@@ -3865,13 +3865,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.203573</v>
+        <v>0.209262</v>
       </c>
       <c r="C46" t="n">
-        <v>0.22884</v>
+        <v>0.231165</v>
       </c>
       <c r="D46" t="n">
-        <v>0.245232</v>
+        <v>0.243628</v>
       </c>
     </row>
     <row r="47">
@@ -3879,13 +3879,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.201299</v>
+        <v>0.203149</v>
       </c>
       <c r="C47" t="n">
-        <v>0.231394</v>
+        <v>0.235274</v>
       </c>
       <c r="D47" t="n">
-        <v>0.24119</v>
+        <v>0.248037</v>
       </c>
     </row>
     <row r="48">
@@ -3893,13 +3893,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.194984</v>
+        <v>0.20317</v>
       </c>
       <c r="C48" t="n">
-        <v>0.226599</v>
+        <v>0.236378</v>
       </c>
       <c r="D48" t="n">
-        <v>0.240595</v>
+        <v>0.245729</v>
       </c>
     </row>
     <row r="49">
@@ -3907,13 +3907,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.187173</v>
+        <v>0.194717</v>
       </c>
       <c r="C49" t="n">
-        <v>0.227857</v>
+        <v>0.231575</v>
       </c>
       <c r="D49" t="n">
-        <v>0.240779</v>
+        <v>0.24371</v>
       </c>
     </row>
     <row r="50">
@@ -3921,13 +3921,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.186166</v>
+        <v>0.192755</v>
       </c>
       <c r="C50" t="n">
-        <v>0.225815</v>
+        <v>0.230391</v>
       </c>
       <c r="D50" t="n">
-        <v>0.239698</v>
+        <v>0.240554</v>
       </c>
     </row>
     <row r="51">
@@ -3935,13 +3935,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.177778</v>
+        <v>0.181156</v>
       </c>
       <c r="C51" t="n">
-        <v>0.2252</v>
+        <v>0.227133</v>
       </c>
       <c r="D51" t="n">
-        <v>0.260155</v>
+        <v>0.260231</v>
       </c>
     </row>
     <row r="52">
@@ -3949,13 +3949,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.169418</v>
+        <v>0.169188</v>
       </c>
       <c r="C52" t="n">
-        <v>0.225452</v>
+        <v>0.226334</v>
       </c>
       <c r="D52" t="n">
-        <v>0.258423</v>
+        <v>0.261253</v>
       </c>
     </row>
     <row r="53">
@@ -3963,13 +3963,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.233813</v>
+        <v>0.24483</v>
       </c>
       <c r="C53" t="n">
-        <v>0.241378</v>
+        <v>0.244633</v>
       </c>
       <c r="D53" t="n">
-        <v>0.255163</v>
+        <v>0.2576</v>
       </c>
     </row>
     <row r="54">
@@ -3977,13 +3977,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.233221</v>
+        <v>0.239111</v>
       </c>
       <c r="C54" t="n">
-        <v>0.241957</v>
+        <v>0.241608</v>
       </c>
       <c r="D54" t="n">
-        <v>0.255002</v>
+        <v>0.257625</v>
       </c>
     </row>
     <row r="55">
@@ -3991,13 +3991,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.228619</v>
+        <v>0.235913</v>
       </c>
       <c r="C55" t="n">
-        <v>0.237994</v>
+        <v>0.241251</v>
       </c>
       <c r="D55" t="n">
-        <v>0.252551</v>
+        <v>0.255863</v>
       </c>
     </row>
     <row r="56">
@@ -4005,13 +4005,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.225351</v>
+        <v>0.227933</v>
       </c>
       <c r="C56" t="n">
-        <v>0.238984</v>
+        <v>0.241056</v>
       </c>
       <c r="D56" t="n">
-        <v>0.250312</v>
+        <v>0.261471</v>
       </c>
     </row>
     <row r="57">
@@ -4019,13 +4019,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.222829</v>
+        <v>0.227249</v>
       </c>
       <c r="C57" t="n">
-        <v>0.235355</v>
+        <v>0.240625</v>
       </c>
       <c r="D57" t="n">
-        <v>0.251276</v>
+        <v>0.254332</v>
       </c>
     </row>
     <row r="58">
@@ -4033,13 +4033,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.21665</v>
+        <v>0.219917</v>
       </c>
       <c r="C58" t="n">
-        <v>0.237256</v>
+        <v>0.238505</v>
       </c>
       <c r="D58" t="n">
-        <v>0.248935</v>
+        <v>0.25429</v>
       </c>
     </row>
     <row r="59">
@@ -4047,13 +4047,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.211626</v>
+        <v>0.215853</v>
       </c>
       <c r="C59" t="n">
-        <v>0.23742</v>
+        <v>0.236363</v>
       </c>
       <c r="D59" t="n">
-        <v>0.248251</v>
+        <v>0.25161</v>
       </c>
     </row>
     <row r="60">
@@ -4061,13 +4061,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.208958</v>
+        <v>0.211165</v>
       </c>
       <c r="C60" t="n">
-        <v>0.236339</v>
+        <v>0.234068</v>
       </c>
       <c r="D60" t="n">
-        <v>0.246511</v>
+        <v>0.25895</v>
       </c>
     </row>
     <row r="61">
@@ -4075,13 +4075,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.201924</v>
+        <v>0.205675</v>
       </c>
       <c r="C61" t="n">
-        <v>0.233293</v>
+        <v>0.242885</v>
       </c>
       <c r="D61" t="n">
-        <v>0.251933</v>
+        <v>0.26336</v>
       </c>
     </row>
     <row r="62">
@@ -4089,13 +4089,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.197231</v>
+        <v>0.21811</v>
       </c>
       <c r="C62" t="n">
-        <v>0.241171</v>
+        <v>0.237156</v>
       </c>
       <c r="D62" t="n">
-        <v>0.24534</v>
+        <v>0.252324</v>
       </c>
     </row>
     <row r="63">
@@ -4103,13 +4103,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.200989</v>
+        <v>0.194172</v>
       </c>
       <c r="C63" t="n">
-        <v>0.240172</v>
+        <v>0.230128</v>
       </c>
       <c r="D63" t="n">
-        <v>0.257472</v>
+        <v>0.242522</v>
       </c>
     </row>
     <row r="64">
@@ -4117,13 +4117,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.192546</v>
+        <v>0.187802</v>
       </c>
       <c r="C64" t="n">
-        <v>0.2335</v>
+        <v>0.231229</v>
       </c>
       <c r="D64" t="n">
-        <v>0.24424</v>
+        <v>0.245152</v>
       </c>
     </row>
     <row r="65">
@@ -4131,13 +4131,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.180356</v>
+        <v>0.185947</v>
       </c>
       <c r="C65" t="n">
-        <v>0.227538</v>
+        <v>0.232887</v>
       </c>
       <c r="D65" t="n">
-        <v>0.243551</v>
+        <v>0.243277</v>
       </c>
     </row>
     <row r="66">
@@ -4145,13 +4145,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.171364</v>
+        <v>0.175643</v>
       </c>
       <c r="C66" t="n">
-        <v>0.227139</v>
+        <v>0.228246</v>
       </c>
       <c r="D66" t="n">
-        <v>0.262052</v>
+        <v>0.261748</v>
       </c>
     </row>
     <row r="67">
@@ -4159,13 +4159,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.242024</v>
+        <v>0.253206</v>
       </c>
       <c r="C67" t="n">
-        <v>0.243388</v>
+        <v>0.247856</v>
       </c>
       <c r="D67" t="n">
-        <v>0.258031</v>
+        <v>0.263894</v>
       </c>
     </row>
     <row r="68">
@@ -4173,13 +4173,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.236118</v>
+        <v>0.242702</v>
       </c>
       <c r="C68" t="n">
-        <v>0.243035</v>
+        <v>0.250084</v>
       </c>
       <c r="D68" t="n">
-        <v>0.256879</v>
+        <v>0.259694</v>
       </c>
     </row>
     <row r="69">
@@ -4187,13 +4187,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.231879</v>
+        <v>0.243278</v>
       </c>
       <c r="C69" t="n">
-        <v>0.241994</v>
+        <v>0.247856</v>
       </c>
       <c r="D69" t="n">
-        <v>0.257904</v>
+        <v>0.259126</v>
       </c>
     </row>
     <row r="70">
@@ -4201,13 +4201,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.235632</v>
+        <v>0.234453</v>
       </c>
       <c r="C70" t="n">
-        <v>0.242091</v>
+        <v>0.240716</v>
       </c>
       <c r="D70" t="n">
-        <v>0.253325</v>
+        <v>0.254613</v>
       </c>
     </row>
     <row r="71">
@@ -4215,13 +4215,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.223623</v>
+        <v>0.228512</v>
       </c>
       <c r="C71" t="n">
-        <v>0.23716</v>
+        <v>0.240263</v>
       </c>
       <c r="D71" t="n">
-        <v>0.254731</v>
+        <v>0.252917</v>
       </c>
     </row>
     <row r="72">
@@ -4229,13 +4229,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.221183</v>
+        <v>0.224091</v>
       </c>
       <c r="C72" t="n">
-        <v>0.237314</v>
+        <v>0.239559</v>
       </c>
       <c r="D72" t="n">
-        <v>0.251381</v>
+        <v>0.251079</v>
       </c>
     </row>
     <row r="73">
@@ -4243,13 +4243,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.214184</v>
+        <v>0.218983</v>
       </c>
       <c r="C73" t="n">
-        <v>0.234825</v>
+        <v>0.238178</v>
       </c>
       <c r="D73" t="n">
-        <v>0.254487</v>
+        <v>0.251881</v>
       </c>
     </row>
     <row r="74">
@@ -4257,13 +4257,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.223801</v>
+        <v>0.216338</v>
       </c>
       <c r="C74" t="n">
-        <v>0.235997</v>
+        <v>0.238545</v>
       </c>
       <c r="D74" t="n">
-        <v>0.249595</v>
+        <v>0.247585</v>
       </c>
     </row>
     <row r="75">
@@ -4271,13 +4271,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.204799</v>
+        <v>0.210182</v>
       </c>
       <c r="C75" t="n">
-        <v>0.234706</v>
+        <v>0.235845</v>
       </c>
       <c r="D75" t="n">
-        <v>0.254008</v>
+        <v>0.24827</v>
       </c>
     </row>
     <row r="76">
@@ -4285,13 +4285,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.207099</v>
+        <v>0.205565</v>
       </c>
       <c r="C76" t="n">
-        <v>0.234901</v>
+        <v>0.238706</v>
       </c>
       <c r="D76" t="n">
-        <v>0.247588</v>
+        <v>0.250952</v>
       </c>
     </row>
     <row r="77">
@@ -4299,13 +4299,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.197667</v>
+        <v>0.200845</v>
       </c>
       <c r="C77" t="n">
-        <v>0.230886</v>
+        <v>0.236099</v>
       </c>
       <c r="D77" t="n">
-        <v>0.246924</v>
+        <v>0.248962</v>
       </c>
     </row>
     <row r="78">
@@ -4313,13 +4313,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.192196</v>
+        <v>0.19468</v>
       </c>
       <c r="C78" t="n">
-        <v>0.230832</v>
+        <v>0.230833</v>
       </c>
       <c r="D78" t="n">
-        <v>0.245756</v>
+        <v>0.245947</v>
       </c>
     </row>
     <row r="79">
@@ -4327,13 +4327,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.185702</v>
+        <v>0.186323</v>
       </c>
       <c r="C79" t="n">
-        <v>0.230028</v>
+        <v>0.230845</v>
       </c>
       <c r="D79" t="n">
-        <v>0.245808</v>
+        <v>0.243659</v>
       </c>
     </row>
     <row r="80">
@@ -4341,13 +4341,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.176557</v>
+        <v>0.186456</v>
       </c>
       <c r="C80" t="n">
-        <v>0.226988</v>
+        <v>0.230362</v>
       </c>
       <c r="D80" t="n">
-        <v>0.264968</v>
+        <v>0.26555</v>
       </c>
     </row>
     <row r="81">
@@ -4355,13 +4355,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.248504</v>
+        <v>0.247862</v>
       </c>
       <c r="C81" t="n">
-        <v>0.251605</v>
+        <v>0.250566</v>
       </c>
       <c r="D81" t="n">
-        <v>0.262282</v>
+        <v>0.260982</v>
       </c>
     </row>
     <row r="82">
@@ -4369,13 +4369,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.245375</v>
+        <v>0.243182</v>
       </c>
       <c r="C82" t="n">
-        <v>0.249258</v>
+        <v>0.25818</v>
       </c>
       <c r="D82" t="n">
-        <v>0.259879</v>
+        <v>0.261817</v>
       </c>
     </row>
     <row r="83">
@@ -4383,13 +4383,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.237918</v>
+        <v>0.236807</v>
       </c>
       <c r="C83" t="n">
-        <v>0.243846</v>
+        <v>0.243896</v>
       </c>
       <c r="D83" t="n">
-        <v>0.259765</v>
+        <v>0.255319</v>
       </c>
     </row>
     <row r="84">
@@ -4397,13 +4397,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.235297</v>
+        <v>0.236202</v>
       </c>
       <c r="C84" t="n">
-        <v>0.245213</v>
+        <v>0.243552</v>
       </c>
       <c r="D84" t="n">
-        <v>0.257795</v>
+        <v>0.255476</v>
       </c>
     </row>
     <row r="85">
@@ -4411,13 +4411,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.228188</v>
+        <v>0.228592</v>
       </c>
       <c r="C85" t="n">
-        <v>0.240274</v>
+        <v>0.243162</v>
       </c>
       <c r="D85" t="n">
-        <v>0.256142</v>
+        <v>0.253179</v>
       </c>
     </row>
     <row r="86">
@@ -4425,13 +4425,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.238706</v>
+        <v>0.223216</v>
       </c>
       <c r="C86" t="n">
-        <v>0.244621</v>
+        <v>0.238309</v>
       </c>
       <c r="D86" t="n">
-        <v>0.263165</v>
+        <v>0.250931</v>
       </c>
     </row>
     <row r="87">
@@ -4439,13 +4439,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.228629</v>
+        <v>0.222463</v>
       </c>
       <c r="C87" t="n">
-        <v>0.24048</v>
+        <v>0.238109</v>
       </c>
       <c r="D87" t="n">
-        <v>0.258588</v>
+        <v>0.249336</v>
       </c>
     </row>
     <row r="88">
@@ -4453,13 +4453,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.215454</v>
+        <v>0.21585</v>
       </c>
       <c r="C88" t="n">
-        <v>0.239109</v>
+        <v>0.237105</v>
       </c>
       <c r="D88" t="n">
-        <v>0.25278</v>
+        <v>0.25022</v>
       </c>
     </row>
     <row r="89">
@@ -4467,13 +4467,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.210554</v>
+        <v>0.211659</v>
       </c>
       <c r="C89" t="n">
-        <v>0.236366</v>
+        <v>0.233702</v>
       </c>
       <c r="D89" t="n">
-        <v>0.250834</v>
+        <v>0.246864</v>
       </c>
     </row>
     <row r="90">
@@ -4481,13 +4481,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.206806</v>
+        <v>0.206192</v>
       </c>
       <c r="C90" t="n">
-        <v>0.234716</v>
+        <v>0.23255</v>
       </c>
       <c r="D90" t="n">
-        <v>0.251036</v>
+        <v>0.245292</v>
       </c>
     </row>
     <row r="91">
@@ -4495,13 +4495,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.203862</v>
+        <v>0.202269</v>
       </c>
       <c r="C91" t="n">
-        <v>0.234692</v>
+        <v>0.236623</v>
       </c>
       <c r="D91" t="n">
-        <v>0.249236</v>
+        <v>0.245746</v>
       </c>
     </row>
     <row r="92">
@@ -4509,13 +4509,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.194939</v>
+        <v>0.19304</v>
       </c>
       <c r="C92" t="n">
-        <v>0.23334</v>
+        <v>0.234328</v>
       </c>
       <c r="D92" t="n">
-        <v>0.247487</v>
+        <v>0.24759</v>
       </c>
     </row>
     <row r="93">
@@ -4523,13 +4523,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.18704</v>
+        <v>0.185862</v>
       </c>
       <c r="C93" t="n">
-        <v>0.23463</v>
+        <v>0.228896</v>
       </c>
       <c r="D93" t="n">
-        <v>0.250209</v>
+        <v>0.243943</v>
       </c>
     </row>
     <row r="94">
@@ -4537,13 +4537,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.184298</v>
+        <v>0.17715</v>
       </c>
       <c r="C94" t="n">
-        <v>0.233069</v>
+        <v>0.22855</v>
       </c>
       <c r="D94" t="n">
-        <v>0.263548</v>
+        <v>0.265504</v>
       </c>
     </row>
     <row r="95">
@@ -4551,13 +4551,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.246416</v>
+        <v>0.246141</v>
       </c>
       <c r="C95" t="n">
-        <v>0.24947</v>
+        <v>0.24647</v>
       </c>
       <c r="D95" t="n">
-        <v>0.261906</v>
+        <v>0.263069</v>
       </c>
     </row>
     <row r="96">
@@ -4565,13 +4565,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.244583</v>
+        <v>0.241032</v>
       </c>
       <c r="C96" t="n">
-        <v>0.248039</v>
+        <v>0.246713</v>
       </c>
       <c r="D96" t="n">
-        <v>0.262811</v>
+        <v>0.25963</v>
       </c>
     </row>
     <row r="97">
@@ -4579,13 +4579,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.241544</v>
+        <v>0.236412</v>
       </c>
       <c r="C97" t="n">
-        <v>0.247043</v>
+        <v>0.242448</v>
       </c>
       <c r="D97" t="n">
-        <v>0.260685</v>
+        <v>0.255279</v>
       </c>
     </row>
     <row r="98">
@@ -4593,13 +4593,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.236767</v>
+        <v>0.231878</v>
       </c>
       <c r="C98" t="n">
-        <v>0.244202</v>
+        <v>0.244353</v>
       </c>
       <c r="D98" t="n">
-        <v>0.257843</v>
+        <v>0.256747</v>
       </c>
     </row>
     <row r="99">
@@ -4607,13 +4607,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.232778</v>
+        <v>0.229279</v>
       </c>
       <c r="C99" t="n">
-        <v>0.242235</v>
+        <v>0.243507</v>
       </c>
       <c r="D99" t="n">
-        <v>0.256333</v>
+        <v>0.253867</v>
       </c>
     </row>
     <row r="100">
@@ -4621,13 +4621,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.225738</v>
+        <v>0.223383</v>
       </c>
       <c r="C100" t="n">
-        <v>0.241259</v>
+        <v>0.238578</v>
       </c>
       <c r="D100" t="n">
-        <v>0.255641</v>
+        <v>0.251207</v>
       </c>
     </row>
     <row r="101">
@@ -4635,13 +4635,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.225391</v>
+        <v>0.218589</v>
       </c>
       <c r="C101" t="n">
-        <v>0.240527</v>
+        <v>0.239527</v>
       </c>
       <c r="D101" t="n">
-        <v>0.261344</v>
+        <v>0.247867</v>
       </c>
     </row>
     <row r="102">
@@ -4649,13 +4649,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.22194</v>
+        <v>0.213495</v>
       </c>
       <c r="C102" t="n">
-        <v>0.249108</v>
+        <v>0.237623</v>
       </c>
       <c r="D102" t="n">
-        <v>0.262899</v>
+        <v>0.247042</v>
       </c>
     </row>
     <row r="103">
@@ -4663,13 +4663,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.217138</v>
+        <v>0.208717</v>
       </c>
       <c r="C103" t="n">
-        <v>0.238844</v>
+        <v>0.236023</v>
       </c>
       <c r="D103" t="n">
-        <v>0.251874</v>
+        <v>0.248839</v>
       </c>
     </row>
     <row r="104">
@@ -4677,13 +4677,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.204927</v>
+        <v>0.205979</v>
       </c>
       <c r="C104" t="n">
-        <v>0.238549</v>
+        <v>0.233798</v>
       </c>
       <c r="D104" t="n">
-        <v>0.251934</v>
+        <v>0.253178</v>
       </c>
     </row>
     <row r="105">
@@ -4691,13 +4691,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.20528</v>
+        <v>0.197135</v>
       </c>
       <c r="C105" t="n">
-        <v>0.239098</v>
+        <v>0.23151</v>
       </c>
       <c r="D105" t="n">
-        <v>0.248489</v>
+        <v>0.246199</v>
       </c>
     </row>
     <row r="106">
@@ -4705,13 +4705,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.197542</v>
+        <v>0.194204</v>
       </c>
       <c r="C106" t="n">
-        <v>0.233119</v>
+        <v>0.238605</v>
       </c>
       <c r="D106" t="n">
-        <v>0.252472</v>
+        <v>0.241561</v>
       </c>
     </row>
     <row r="107">
@@ -4719,13 +4719,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.188557</v>
+        <v>0.187839</v>
       </c>
       <c r="C107" t="n">
-        <v>0.231161</v>
+        <v>0.231151</v>
       </c>
       <c r="D107" t="n">
-        <v>0.250419</v>
+        <v>0.244295</v>
       </c>
     </row>
     <row r="108">
@@ -4733,13 +4733,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.181138</v>
+        <v>0.178331</v>
       </c>
       <c r="C108" t="n">
-        <v>0.23579</v>
+        <v>0.233192</v>
       </c>
       <c r="D108" t="n">
-        <v>0.266534</v>
+        <v>0.263382</v>
       </c>
     </row>
     <row r="109">
@@ -4747,13 +4747,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.172128</v>
+        <v>0.170217</v>
       </c>
       <c r="C109" t="n">
-        <v>0.230908</v>
+        <v>0.23122</v>
       </c>
       <c r="D109" t="n">
-        <v>0.262842</v>
+        <v>0.258955</v>
       </c>
     </row>
     <row r="110">
@@ -4761,13 +4761,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.244158</v>
+        <v>0.241882</v>
       </c>
       <c r="C110" t="n">
-        <v>0.249252</v>
+        <v>0.246119</v>
       </c>
       <c r="D110" t="n">
-        <v>0.262954</v>
+        <v>0.257994</v>
       </c>
     </row>
     <row r="111">
@@ -4775,13 +4775,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.242444</v>
+        <v>0.247221</v>
       </c>
       <c r="C111" t="n">
-        <v>0.245551</v>
+        <v>0.247983</v>
       </c>
       <c r="D111" t="n">
-        <v>0.259164</v>
+        <v>0.257751</v>
       </c>
     </row>
     <row r="112">
@@ -4789,13 +4789,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.23655</v>
+        <v>0.234589</v>
       </c>
       <c r="C112" t="n">
-        <v>0.244785</v>
+        <v>0.245516</v>
       </c>
       <c r="D112" t="n">
-        <v>0.260002</v>
+        <v>0.257363</v>
       </c>
     </row>
     <row r="113">
@@ -4803,13 +4803,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.237195</v>
+        <v>0.228596</v>
       </c>
       <c r="C113" t="n">
-        <v>0.2442</v>
+        <v>0.240085</v>
       </c>
       <c r="D113" t="n">
-        <v>0.255706</v>
+        <v>0.251026</v>
       </c>
     </row>
     <row r="114">
@@ -4817,13 +4817,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.2264</v>
+        <v>0.228823</v>
       </c>
       <c r="C114" t="n">
-        <v>0.243435</v>
+        <v>0.2397</v>
       </c>
       <c r="D114" t="n">
-        <v>0.255414</v>
+        <v>0.25283</v>
       </c>
     </row>
     <row r="115">
@@ -4831,13 +4831,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.223717</v>
+        <v>0.218918</v>
       </c>
       <c r="C115" t="n">
-        <v>0.240955</v>
+        <v>0.238665</v>
       </c>
       <c r="D115" t="n">
-        <v>0.257666</v>
+        <v>0.253734</v>
       </c>
     </row>
     <row r="116">
@@ -4845,13 +4845,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.217288</v>
+        <v>0.214219</v>
       </c>
       <c r="C116" t="n">
-        <v>0.239836</v>
+        <v>0.237762</v>
       </c>
       <c r="D116" t="n">
-        <v>0.254252</v>
+        <v>0.248702</v>
       </c>
     </row>
     <row r="117">
@@ -4859,13 +4859,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.212322</v>
+        <v>0.20901</v>
       </c>
       <c r="C117" t="n">
-        <v>0.236663</v>
+        <v>0.234761</v>
       </c>
       <c r="D117" t="n">
-        <v>0.252432</v>
+        <v>0.249902</v>
       </c>
     </row>
     <row r="118">
@@ -4873,13 +4873,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.208804</v>
+        <v>0.207253</v>
       </c>
       <c r="C118" t="n">
-        <v>0.237304</v>
+        <v>0.236225</v>
       </c>
       <c r="D118" t="n">
-        <v>0.250286</v>
+        <v>0.246929</v>
       </c>
     </row>
     <row r="119">
@@ -4887,13 +4887,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.201926</v>
+        <v>0.200464</v>
       </c>
       <c r="C119" t="n">
-        <v>0.234719</v>
+        <v>0.231868</v>
       </c>
       <c r="D119" t="n">
-        <v>0.253273</v>
+        <v>0.247268</v>
       </c>
     </row>
     <row r="120">
@@ -4901,13 +4901,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.199571</v>
+        <v>0.19674</v>
       </c>
       <c r="C120" t="n">
-        <v>0.24293</v>
+        <v>0.232076</v>
       </c>
       <c r="D120" t="n">
-        <v>0.26657</v>
+        <v>0.243988</v>
       </c>
     </row>
     <row r="121">
@@ -4915,13 +4915,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.194117</v>
+        <v>0.189872</v>
       </c>
       <c r="C121" t="n">
-        <v>0.2334</v>
+        <v>0.234805</v>
       </c>
       <c r="D121" t="n">
-        <v>0.247357</v>
+        <v>0.24493</v>
       </c>
     </row>
     <row r="122">
@@ -4929,13 +4929,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.185517</v>
+        <v>0.179986</v>
       </c>
       <c r="C122" t="n">
-        <v>0.233353</v>
+        <v>0.231524</v>
       </c>
       <c r="D122" t="n">
-        <v>0.245627</v>
+        <v>0.242643</v>
       </c>
     </row>
     <row r="123">
@@ -4943,13 +4943,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.173876</v>
+        <v>0.171052</v>
       </c>
       <c r="C123" t="n">
-        <v>0.23042</v>
+        <v>0.230651</v>
       </c>
       <c r="D123" t="n">
-        <v>0.26352</v>
+        <v>0.258981</v>
       </c>
     </row>
     <row r="124">
@@ -4957,13 +4957,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.244886</v>
+        <v>0.252175</v>
       </c>
       <c r="C124" t="n">
-        <v>0.247517</v>
+        <v>0.246668</v>
       </c>
       <c r="D124" t="n">
-        <v>0.261588</v>
+        <v>0.257607</v>
       </c>
     </row>
     <row r="125">
@@ -4971,13 +4971,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.240586</v>
+        <v>0.237291</v>
       </c>
       <c r="C125" t="n">
-        <v>0.246479</v>
+        <v>0.247153</v>
       </c>
       <c r="D125" t="n">
-        <v>0.260199</v>
+        <v>0.257714</v>
       </c>
     </row>
     <row r="126">
@@ -4985,13 +4985,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.237021</v>
+        <v>0.244911</v>
       </c>
       <c r="C126" t="n">
-        <v>0.243352</v>
+        <v>0.244194</v>
       </c>
       <c r="D126" t="n">
-        <v>0.25711</v>
+        <v>0.25351</v>
       </c>
     </row>
     <row r="127">
@@ -4999,13 +4999,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.230788</v>
+        <v>0.233412</v>
       </c>
       <c r="C127" t="n">
-        <v>0.24564</v>
+        <v>0.242069</v>
       </c>
       <c r="D127" t="n">
-        <v>0.258658</v>
+        <v>0.256376</v>
       </c>
     </row>
     <row r="128">
@@ -5013,13 +5013,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.229188</v>
+        <v>0.229134</v>
       </c>
       <c r="C128" t="n">
-        <v>0.2406</v>
+        <v>0.238594</v>
       </c>
       <c r="D128" t="n">
-        <v>0.254739</v>
+        <v>0.248142</v>
       </c>
     </row>
     <row r="129">
@@ -5027,13 +5027,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.222738</v>
+        <v>0.221817</v>
       </c>
       <c r="C129" t="n">
-        <v>0.240451</v>
+        <v>0.242467</v>
       </c>
       <c r="D129" t="n">
-        <v>0.252708</v>
+        <v>0.249998</v>
       </c>
     </row>
     <row r="130">
@@ -5041,13 +5041,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.217176</v>
+        <v>0.218412</v>
       </c>
       <c r="C130" t="n">
-        <v>0.241082</v>
+        <v>0.238399</v>
       </c>
       <c r="D130" t="n">
-        <v>0.252822</v>
+        <v>0.250073</v>
       </c>
     </row>
     <row r="131">
@@ -5055,13 +5055,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.212159</v>
+        <v>0.211923</v>
       </c>
       <c r="C131" t="n">
-        <v>0.237765</v>
+        <v>0.237709</v>
       </c>
       <c r="D131" t="n">
-        <v>0.253084</v>
+        <v>0.250192</v>
       </c>
     </row>
     <row r="132">
@@ -5069,13 +5069,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.208774</v>
+        <v>0.208344</v>
       </c>
       <c r="C132" t="n">
-        <v>0.238094</v>
+        <v>0.235419</v>
       </c>
       <c r="D132" t="n">
-        <v>0.24957</v>
+        <v>0.248446</v>
       </c>
     </row>
     <row r="133">
@@ -5083,13 +5083,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.200766</v>
+        <v>0.200855</v>
       </c>
       <c r="C133" t="n">
-        <v>0.235579</v>
+        <v>0.234254</v>
       </c>
       <c r="D133" t="n">
-        <v>0.25172</v>
+        <v>0.244192</v>
       </c>
     </row>
     <row r="134">
@@ -5097,13 +5097,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.196378</v>
+        <v>0.196361</v>
       </c>
       <c r="C134" t="n">
-        <v>0.232625</v>
+        <v>0.231613</v>
       </c>
       <c r="D134" t="n">
-        <v>0.248211</v>
+        <v>0.249892</v>
       </c>
     </row>
     <row r="135">
@@ -5111,13 +5111,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.19437</v>
+        <v>0.185983</v>
       </c>
       <c r="C135" t="n">
-        <v>0.23131</v>
+        <v>0.23303</v>
       </c>
       <c r="D135" t="n">
-        <v>0.250786</v>
+        <v>0.24787</v>
       </c>
     </row>
     <row r="136">
@@ -5125,13 +5125,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.188251</v>
+        <v>0.180271</v>
       </c>
       <c r="C136" t="n">
-        <v>0.233476</v>
+        <v>0.232263</v>
       </c>
       <c r="D136" t="n">
-        <v>0.250722</v>
+        <v>0.245745</v>
       </c>
     </row>
     <row r="137">
@@ -5139,13 +5139,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.182427</v>
+        <v>0.174188</v>
       </c>
       <c r="C137" t="n">
-        <v>0.233959</v>
+        <v>0.230832</v>
       </c>
       <c r="D137" t="n">
-        <v>0.267304</v>
+        <v>0.261905</v>
       </c>
     </row>
     <row r="138">
@@ -5153,13 +5153,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.250667</v>
+        <v>0.243688</v>
       </c>
       <c r="C138" t="n">
-        <v>0.251326</v>
+        <v>0.25086</v>
       </c>
       <c r="D138" t="n">
-        <v>0.264181</v>
+        <v>0.260711</v>
       </c>
     </row>
     <row r="139">
@@ -5167,13 +5167,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.262784</v>
+        <v>0.24171</v>
       </c>
       <c r="C139" t="n">
-        <v>0.262531</v>
+        <v>0.24443</v>
       </c>
       <c r="D139" t="n">
-        <v>0.26418</v>
+        <v>0.255513</v>
       </c>
     </row>
     <row r="140">
@@ -5181,13 +5181,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.239115</v>
+        <v>0.236968</v>
       </c>
       <c r="C140" t="n">
-        <v>0.245309</v>
+        <v>0.247911</v>
       </c>
       <c r="D140" t="n">
-        <v>0.264354</v>
+        <v>0.257949</v>
       </c>
     </row>
     <row r="141">
@@ -5195,13 +5195,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.233316</v>
+        <v>0.232107</v>
       </c>
       <c r="C141" t="n">
-        <v>0.245655</v>
+        <v>0.248229</v>
       </c>
       <c r="D141" t="n">
-        <v>0.255943</v>
+        <v>0.251872</v>
       </c>
     </row>
     <row r="142">
@@ -5209,13 +5209,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.227616</v>
+        <v>0.223388</v>
       </c>
       <c r="C142" t="n">
-        <v>0.241149</v>
+        <v>0.243611</v>
       </c>
       <c r="D142" t="n">
-        <v>0.2595</v>
+        <v>0.248641</v>
       </c>
     </row>
     <row r="143">
@@ -5223,13 +5223,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.228259</v>
+        <v>0.220098</v>
       </c>
       <c r="C143" t="n">
-        <v>0.242214</v>
+        <v>0.240315</v>
       </c>
       <c r="D143" t="n">
-        <v>0.253947</v>
+        <v>0.25028</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Running erasure.xlsx
+++ b/vs-x64/Running erasure.xlsx
@@ -3249,13 +3249,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.20089</v>
+        <v>0.209162</v>
       </c>
       <c r="C2" t="n">
-        <v>0.221231</v>
+        <v>0.240105</v>
       </c>
       <c r="D2" t="n">
-        <v>0.236056</v>
+        <v>0.249026</v>
       </c>
     </row>
     <row r="3">
@@ -3263,13 +3263,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.19871</v>
+        <v>0.205546</v>
       </c>
       <c r="C3" t="n">
-        <v>0.22614</v>
+        <v>0.242676</v>
       </c>
       <c r="D3" t="n">
-        <v>0.244664</v>
+        <v>0.248911</v>
       </c>
     </row>
     <row r="4">
@@ -3277,13 +3277,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.193599</v>
+        <v>0.197649</v>
       </c>
       <c r="C4" t="n">
-        <v>0.222562</v>
+        <v>0.235995</v>
       </c>
       <c r="D4" t="n">
-        <v>0.242144</v>
+        <v>0.249673</v>
       </c>
     </row>
     <row r="5">
@@ -3291,13 +3291,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.18788</v>
+        <v>0.190604</v>
       </c>
       <c r="C5" t="n">
-        <v>0.221997</v>
+        <v>0.234588</v>
       </c>
       <c r="D5" t="n">
-        <v>0.241978</v>
+        <v>0.244538</v>
       </c>
     </row>
     <row r="6">
@@ -3305,13 +3305,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.189438</v>
+        <v>0.185558</v>
       </c>
       <c r="C6" t="n">
-        <v>0.228472</v>
+        <v>0.234099</v>
       </c>
       <c r="D6" t="n">
-        <v>0.240275</v>
+        <v>0.243874</v>
       </c>
     </row>
     <row r="7">
@@ -3319,13 +3319,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.182781</v>
+        <v>0.178048</v>
       </c>
       <c r="C7" t="n">
-        <v>0.224057</v>
+        <v>0.228532</v>
       </c>
       <c r="D7" t="n">
-        <v>0.241021</v>
+        <v>0.241812</v>
       </c>
     </row>
     <row r="8">
@@ -3333,13 +3333,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.173035</v>
+        <v>0.174307</v>
       </c>
       <c r="C8" t="n">
-        <v>0.225161</v>
+        <v>0.232794</v>
       </c>
       <c r="D8" t="n">
-        <v>0.239636</v>
+        <v>0.243027</v>
       </c>
     </row>
     <row r="9">
@@ -3347,13 +3347,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.165005</v>
+        <v>0.164263</v>
       </c>
       <c r="C9" t="n">
-        <v>0.218347</v>
+        <v>0.230416</v>
       </c>
       <c r="D9" t="n">
-        <v>0.242737</v>
+        <v>0.253145</v>
       </c>
     </row>
     <row r="10">
@@ -3361,13 +3361,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.226806</v>
+        <v>0.230303</v>
       </c>
       <c r="C10" t="n">
-        <v>0.230766</v>
+        <v>0.244605</v>
       </c>
       <c r="D10" t="n">
-        <v>0.243194</v>
+        <v>0.250921</v>
       </c>
     </row>
     <row r="11">
@@ -3375,13 +3375,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.226431</v>
+        <v>0.228628</v>
       </c>
       <c r="C11" t="n">
-        <v>0.231632</v>
+        <v>0.242543</v>
       </c>
       <c r="D11" t="n">
-        <v>0.256907</v>
+        <v>0.251252</v>
       </c>
     </row>
     <row r="12">
@@ -3389,13 +3389,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.23379</v>
+        <v>0.217841</v>
       </c>
       <c r="C12" t="n">
-        <v>0.236845</v>
+        <v>0.241811</v>
       </c>
       <c r="D12" t="n">
-        <v>0.258181</v>
+        <v>0.247994</v>
       </c>
     </row>
     <row r="13">
@@ -3403,13 +3403,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.234186</v>
+        <v>0.216859</v>
       </c>
       <c r="C13" t="n">
-        <v>0.239788</v>
+        <v>0.23567</v>
       </c>
       <c r="D13" t="n">
-        <v>0.252304</v>
+        <v>0.246943</v>
       </c>
     </row>
     <row r="14">
@@ -3417,13 +3417,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.228162</v>
+        <v>0.21358</v>
       </c>
       <c r="C14" t="n">
-        <v>0.27418</v>
+        <v>0.235162</v>
       </c>
       <c r="D14" t="n">
-        <v>0.254534</v>
+        <v>0.246057</v>
       </c>
     </row>
     <row r="15">
@@ -3431,13 +3431,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.219561</v>
+        <v>0.208403</v>
       </c>
       <c r="C15" t="n">
-        <v>0.22957</v>
+        <v>0.238419</v>
       </c>
       <c r="D15" t="n">
-        <v>0.242776</v>
+        <v>0.247663</v>
       </c>
     </row>
     <row r="16">
@@ -3445,13 +3445,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.211562</v>
+        <v>0.205687</v>
       </c>
       <c r="C16" t="n">
-        <v>0.227656</v>
+        <v>0.23842</v>
       </c>
       <c r="D16" t="n">
-        <v>0.244233</v>
+        <v>0.246947</v>
       </c>
     </row>
     <row r="17">
@@ -3459,13 +3459,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.204804</v>
+        <v>0.203643</v>
       </c>
       <c r="C17" t="n">
-        <v>0.230662</v>
+        <v>0.235207</v>
       </c>
       <c r="D17" t="n">
-        <v>0.24124</v>
+        <v>0.249345</v>
       </c>
     </row>
     <row r="18">
@@ -3473,13 +3473,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.197335</v>
+        <v>0.198697</v>
       </c>
       <c r="C18" t="n">
-        <v>0.227059</v>
+        <v>0.233525</v>
       </c>
       <c r="D18" t="n">
-        <v>0.239916</v>
+        <v>0.247563</v>
       </c>
     </row>
     <row r="19">
@@ -3487,13 +3487,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.19281</v>
+        <v>0.19425</v>
       </c>
       <c r="C19" t="n">
-        <v>0.222907</v>
+        <v>0.233562</v>
       </c>
       <c r="D19" t="n">
-        <v>0.239701</v>
+        <v>0.246153</v>
       </c>
     </row>
     <row r="20">
@@ -3501,13 +3501,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.186963</v>
+        <v>0.192135</v>
       </c>
       <c r="C20" t="n">
-        <v>0.22293</v>
+        <v>0.235546</v>
       </c>
       <c r="D20" t="n">
-        <v>0.237188</v>
+        <v>0.243764</v>
       </c>
     </row>
     <row r="21">
@@ -3515,13 +3515,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.187499</v>
+        <v>0.182232</v>
       </c>
       <c r="C21" t="n">
-        <v>0.224784</v>
+        <v>0.230758</v>
       </c>
       <c r="D21" t="n">
-        <v>0.238638</v>
+        <v>0.248337</v>
       </c>
     </row>
     <row r="22">
@@ -3529,13 +3529,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.17725</v>
+        <v>0.173917</v>
       </c>
       <c r="C22" t="n">
-        <v>0.22048</v>
+        <v>0.232191</v>
       </c>
       <c r="D22" t="n">
-        <v>0.238544</v>
+        <v>0.245144</v>
       </c>
     </row>
     <row r="23">
@@ -3543,13 +3543,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.169851</v>
+        <v>0.169271</v>
       </c>
       <c r="C23" t="n">
-        <v>0.223291</v>
+        <v>0.227308</v>
       </c>
       <c r="D23" t="n">
-        <v>0.252363</v>
+        <v>0.252794</v>
       </c>
     </row>
     <row r="24">
@@ -3557,13 +3557,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.231184</v>
+        <v>0.231994</v>
       </c>
       <c r="C24" t="n">
-        <v>0.232253</v>
+        <v>0.239653</v>
       </c>
       <c r="D24" t="n">
-        <v>0.246302</v>
+        <v>0.253318</v>
       </c>
     </row>
     <row r="25">
@@ -3571,13 +3571,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.233276</v>
+        <v>0.228572</v>
       </c>
       <c r="C25" t="n">
-        <v>0.23438</v>
+        <v>0.241336</v>
       </c>
       <c r="D25" t="n">
-        <v>0.24521</v>
+        <v>0.250846</v>
       </c>
     </row>
     <row r="26">
@@ -3585,13 +3585,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.228015</v>
+        <v>0.227429</v>
       </c>
       <c r="C26" t="n">
-        <v>0.231218</v>
+        <v>0.240849</v>
       </c>
       <c r="D26" t="n">
-        <v>0.243885</v>
+        <v>0.246885</v>
       </c>
     </row>
     <row r="27">
@@ -3599,13 +3599,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.22298</v>
+        <v>0.219223</v>
       </c>
       <c r="C27" t="n">
-        <v>0.23136</v>
+        <v>0.234242</v>
       </c>
       <c r="D27" t="n">
-        <v>0.243331</v>
+        <v>0.245465</v>
       </c>
     </row>
     <row r="28">
@@ -3613,13 +3613,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.218585</v>
+        <v>0.218633</v>
       </c>
       <c r="C28" t="n">
-        <v>0.229271</v>
+        <v>0.237469</v>
       </c>
       <c r="D28" t="n">
-        <v>0.244393</v>
+        <v>0.254934</v>
       </c>
     </row>
     <row r="29">
@@ -3627,13 +3627,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.213648</v>
+        <v>0.208853</v>
       </c>
       <c r="C29" t="n">
-        <v>0.232004</v>
+        <v>0.233453</v>
       </c>
       <c r="D29" t="n">
-        <v>0.241997</v>
+        <v>0.247136</v>
       </c>
     </row>
     <row r="30">
@@ -3641,13 +3641,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.213271</v>
+        <v>0.202885</v>
       </c>
       <c r="C30" t="n">
-        <v>0.229014</v>
+        <v>0.230146</v>
       </c>
       <c r="D30" t="n">
-        <v>0.240893</v>
+        <v>0.250963</v>
       </c>
     </row>
     <row r="31">
@@ -3655,13 +3655,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.211581</v>
+        <v>0.202145</v>
       </c>
       <c r="C31" t="n">
-        <v>0.226974</v>
+        <v>0.229379</v>
       </c>
       <c r="D31" t="n">
-        <v>0.241408</v>
+        <v>0.244302</v>
       </c>
     </row>
     <row r="32">
@@ -3669,13 +3669,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.198607</v>
+        <v>0.199644</v>
       </c>
       <c r="C32" t="n">
-        <v>0.226442</v>
+        <v>0.233051</v>
       </c>
       <c r="D32" t="n">
-        <v>0.240176</v>
+        <v>0.24273</v>
       </c>
     </row>
     <row r="33">
@@ -3683,13 +3683,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.193754</v>
+        <v>0.189895</v>
       </c>
       <c r="C33" t="n">
-        <v>0.226291</v>
+        <v>0.233422</v>
       </c>
       <c r="D33" t="n">
-        <v>0.242177</v>
+        <v>0.242576</v>
       </c>
     </row>
     <row r="34">
@@ -3697,13 +3697,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.192898</v>
+        <v>0.185409</v>
       </c>
       <c r="C34" t="n">
-        <v>0.230113</v>
+        <v>0.230416</v>
       </c>
       <c r="D34" t="n">
-        <v>0.241757</v>
+        <v>0.246397</v>
       </c>
     </row>
     <row r="35">
@@ -3711,13 +3711,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.191659</v>
+        <v>0.184795</v>
       </c>
       <c r="C35" t="n">
-        <v>0.229203</v>
+        <v>0.230876</v>
       </c>
       <c r="D35" t="n">
-        <v>0.242188</v>
+        <v>0.245298</v>
       </c>
     </row>
     <row r="36">
@@ -3725,13 +3725,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.187883</v>
+        <v>0.177796</v>
       </c>
       <c r="C36" t="n">
-        <v>0.222765</v>
+        <v>0.2335</v>
       </c>
       <c r="D36" t="n">
-        <v>0.240561</v>
+        <v>0.244152</v>
       </c>
     </row>
     <row r="37">
@@ -3739,13 +3739,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.174216</v>
+        <v>0.174148</v>
       </c>
       <c r="C37" t="n">
-        <v>0.225469</v>
+        <v>0.23794</v>
       </c>
       <c r="D37" t="n">
-        <v>0.253757</v>
+        <v>0.262607</v>
       </c>
     </row>
     <row r="38">
@@ -3753,13 +3753,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.239226</v>
+        <v>0.236887</v>
       </c>
       <c r="C38" t="n">
-        <v>0.236201</v>
+        <v>0.241684</v>
       </c>
       <c r="D38" t="n">
-        <v>0.251207</v>
+        <v>0.260967</v>
       </c>
     </row>
     <row r="39">
@@ -3767,13 +3767,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.234627</v>
+        <v>0.232417</v>
       </c>
       <c r="C39" t="n">
-        <v>0.235151</v>
+        <v>0.243832</v>
       </c>
       <c r="D39" t="n">
-        <v>0.252251</v>
+        <v>0.250716</v>
       </c>
     </row>
     <row r="40">
@@ -3781,13 +3781,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.230204</v>
+        <v>0.226916</v>
       </c>
       <c r="C40" t="n">
-        <v>0.240774</v>
+        <v>0.239647</v>
       </c>
       <c r="D40" t="n">
-        <v>0.251982</v>
+        <v>0.252577</v>
       </c>
     </row>
     <row r="41">
@@ -3795,13 +3795,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.228354</v>
+        <v>0.225083</v>
       </c>
       <c r="C41" t="n">
-        <v>0.233773</v>
+        <v>0.237565</v>
       </c>
       <c r="D41" t="n">
-        <v>0.243723</v>
+        <v>0.253605</v>
       </c>
     </row>
     <row r="42">
@@ -3809,13 +3809,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.226568</v>
+        <v>0.217756</v>
       </c>
       <c r="C42" t="n">
-        <v>0.249015</v>
+        <v>0.238377</v>
       </c>
       <c r="D42" t="n">
-        <v>0.251364</v>
+        <v>0.259107</v>
       </c>
     </row>
     <row r="43">
@@ -3823,13 +3823,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.229201</v>
+        <v>0.216214</v>
       </c>
       <c r="C43" t="n">
-        <v>0.247515</v>
+        <v>0.236468</v>
       </c>
       <c r="D43" t="n">
-        <v>0.267535</v>
+        <v>0.255592</v>
       </c>
     </row>
     <row r="44">
@@ -3837,13 +3837,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.229629</v>
+        <v>0.212177</v>
       </c>
       <c r="C44" t="n">
-        <v>0.286811</v>
+        <v>0.237901</v>
       </c>
       <c r="D44" t="n">
-        <v>0.253099</v>
+        <v>0.251012</v>
       </c>
     </row>
     <row r="45">
@@ -3851,13 +3851,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.216849</v>
+        <v>0.209137</v>
       </c>
       <c r="C45" t="n">
-        <v>0.235326</v>
+        <v>0.236172</v>
       </c>
       <c r="D45" t="n">
-        <v>0.251514</v>
+        <v>0.253077</v>
       </c>
     </row>
     <row r="46">
@@ -3865,13 +3865,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.209262</v>
+        <v>0.203886</v>
       </c>
       <c r="C46" t="n">
-        <v>0.231165</v>
+        <v>0.236763</v>
       </c>
       <c r="D46" t="n">
-        <v>0.243628</v>
+        <v>0.253117</v>
       </c>
     </row>
     <row r="47">
@@ -3879,13 +3879,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.203149</v>
+        <v>0.201864</v>
       </c>
       <c r="C47" t="n">
-        <v>0.235274</v>
+        <v>0.237605</v>
       </c>
       <c r="D47" t="n">
-        <v>0.248037</v>
+        <v>0.249477</v>
       </c>
     </row>
     <row r="48">
@@ -3893,13 +3893,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.20317</v>
+        <v>0.196201</v>
       </c>
       <c r="C48" t="n">
-        <v>0.236378</v>
+        <v>0.233054</v>
       </c>
       <c r="D48" t="n">
-        <v>0.245729</v>
+        <v>0.248322</v>
       </c>
     </row>
     <row r="49">
@@ -3907,13 +3907,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.194717</v>
+        <v>0.189358</v>
       </c>
       <c r="C49" t="n">
-        <v>0.231575</v>
+        <v>0.230733</v>
       </c>
       <c r="D49" t="n">
-        <v>0.24371</v>
+        <v>0.242519</v>
       </c>
     </row>
     <row r="50">
@@ -3921,13 +3921,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.192755</v>
+        <v>0.185516</v>
       </c>
       <c r="C50" t="n">
-        <v>0.230391</v>
+        <v>0.233805</v>
       </c>
       <c r="D50" t="n">
-        <v>0.240554</v>
+        <v>0.246071</v>
       </c>
     </row>
     <row r="51">
@@ -3935,13 +3935,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.181156</v>
+        <v>0.175929</v>
       </c>
       <c r="C51" t="n">
-        <v>0.227133</v>
+        <v>0.232467</v>
       </c>
       <c r="D51" t="n">
-        <v>0.260231</v>
+        <v>0.264545</v>
       </c>
     </row>
     <row r="52">
@@ -3949,13 +3949,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.169188</v>
+        <v>0.167951</v>
       </c>
       <c r="C52" t="n">
-        <v>0.226334</v>
+        <v>0.230309</v>
       </c>
       <c r="D52" t="n">
-        <v>0.261253</v>
+        <v>0.263196</v>
       </c>
     </row>
     <row r="53">
@@ -3963,13 +3963,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.24483</v>
+        <v>0.233505</v>
       </c>
       <c r="C53" t="n">
-        <v>0.244633</v>
+        <v>0.246321</v>
       </c>
       <c r="D53" t="n">
-        <v>0.2576</v>
+        <v>0.259018</v>
       </c>
     </row>
     <row r="54">
@@ -3977,13 +3977,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.239111</v>
+        <v>0.228868</v>
       </c>
       <c r="C54" t="n">
-        <v>0.241608</v>
+        <v>0.247686</v>
       </c>
       <c r="D54" t="n">
-        <v>0.257625</v>
+        <v>0.257595</v>
       </c>
     </row>
     <row r="55">
@@ -3991,13 +3991,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.235913</v>
+        <v>0.229862</v>
       </c>
       <c r="C55" t="n">
-        <v>0.241251</v>
+        <v>0.241941</v>
       </c>
       <c r="D55" t="n">
-        <v>0.255863</v>
+        <v>0.25792</v>
       </c>
     </row>
     <row r="56">
@@ -4005,13 +4005,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.227933</v>
+        <v>0.220118</v>
       </c>
       <c r="C56" t="n">
-        <v>0.241056</v>
+        <v>0.24317</v>
       </c>
       <c r="D56" t="n">
-        <v>0.261471</v>
+        <v>0.25664</v>
       </c>
     </row>
     <row r="57">
@@ -4019,13 +4019,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.227249</v>
+        <v>0.216955</v>
       </c>
       <c r="C57" t="n">
-        <v>0.240625</v>
+        <v>0.240518</v>
       </c>
       <c r="D57" t="n">
-        <v>0.254332</v>
+        <v>0.257178</v>
       </c>
     </row>
     <row r="58">
@@ -4033,13 +4033,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.219917</v>
+        <v>0.213363</v>
       </c>
       <c r="C58" t="n">
-        <v>0.238505</v>
+        <v>0.244651</v>
       </c>
       <c r="D58" t="n">
-        <v>0.25429</v>
+        <v>0.256311</v>
       </c>
     </row>
     <row r="59">
@@ -4047,13 +4047,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.215853</v>
+        <v>0.208487</v>
       </c>
       <c r="C59" t="n">
-        <v>0.236363</v>
+        <v>0.239885</v>
       </c>
       <c r="D59" t="n">
-        <v>0.25161</v>
+        <v>0.25355</v>
       </c>
     </row>
     <row r="60">
@@ -4061,13 +4061,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.211165</v>
+        <v>0.206102</v>
       </c>
       <c r="C60" t="n">
-        <v>0.234068</v>
+        <v>0.237947</v>
       </c>
       <c r="D60" t="n">
-        <v>0.25895</v>
+        <v>0.249289</v>
       </c>
     </row>
     <row r="61">
@@ -4075,13 +4075,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.205675</v>
+        <v>0.202645</v>
       </c>
       <c r="C61" t="n">
-        <v>0.242885</v>
+        <v>0.238978</v>
       </c>
       <c r="D61" t="n">
-        <v>0.26336</v>
+        <v>0.251374</v>
       </c>
     </row>
     <row r="62">
@@ -4089,13 +4089,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.21811</v>
+        <v>0.198267</v>
       </c>
       <c r="C62" t="n">
-        <v>0.237156</v>
+        <v>0.237521</v>
       </c>
       <c r="D62" t="n">
-        <v>0.252324</v>
+        <v>0.253218</v>
       </c>
     </row>
     <row r="63">
@@ -4103,13 +4103,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.194172</v>
+        <v>0.191938</v>
       </c>
       <c r="C63" t="n">
-        <v>0.230128</v>
+        <v>0.235315</v>
       </c>
       <c r="D63" t="n">
-        <v>0.242522</v>
+        <v>0.245178</v>
       </c>
     </row>
     <row r="64">
@@ -4117,13 +4117,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.187802</v>
+        <v>0.186628</v>
       </c>
       <c r="C64" t="n">
-        <v>0.231229</v>
+        <v>0.236126</v>
       </c>
       <c r="D64" t="n">
-        <v>0.245152</v>
+        <v>0.24568</v>
       </c>
     </row>
     <row r="65">
@@ -4131,13 +4131,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.185947</v>
+        <v>0.178533</v>
       </c>
       <c r="C65" t="n">
-        <v>0.232887</v>
+        <v>0.232718</v>
       </c>
       <c r="D65" t="n">
-        <v>0.243277</v>
+        <v>0.245848</v>
       </c>
     </row>
     <row r="66">
@@ -4145,13 +4145,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.175643</v>
+        <v>0.168264</v>
       </c>
       <c r="C66" t="n">
-        <v>0.228246</v>
+        <v>0.236699</v>
       </c>
       <c r="D66" t="n">
-        <v>0.261748</v>
+        <v>0.264369</v>
       </c>
     </row>
     <row r="67">
@@ -4159,13 +4159,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.253206</v>
+        <v>0.241781</v>
       </c>
       <c r="C67" t="n">
-        <v>0.247856</v>
+        <v>0.248325</v>
       </c>
       <c r="D67" t="n">
-        <v>0.263894</v>
+        <v>0.26391</v>
       </c>
     </row>
     <row r="68">
@@ -4173,13 +4173,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.242702</v>
+        <v>0.238234</v>
       </c>
       <c r="C68" t="n">
-        <v>0.250084</v>
+        <v>0.248282</v>
       </c>
       <c r="D68" t="n">
-        <v>0.259694</v>
+        <v>0.263568</v>
       </c>
     </row>
     <row r="69">
@@ -4187,13 +4187,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.243278</v>
+        <v>0.231356</v>
       </c>
       <c r="C69" t="n">
-        <v>0.247856</v>
+        <v>0.246755</v>
       </c>
       <c r="D69" t="n">
-        <v>0.259126</v>
+        <v>0.257021</v>
       </c>
     </row>
     <row r="70">
@@ -4201,13 +4201,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.234453</v>
+        <v>0.227851</v>
       </c>
       <c r="C70" t="n">
-        <v>0.240716</v>
+        <v>0.24351</v>
       </c>
       <c r="D70" t="n">
-        <v>0.254613</v>
+        <v>0.257087</v>
       </c>
     </row>
     <row r="71">
@@ -4215,13 +4215,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.228512</v>
+        <v>0.221723</v>
       </c>
       <c r="C71" t="n">
-        <v>0.240263</v>
+        <v>0.245055</v>
       </c>
       <c r="D71" t="n">
-        <v>0.252917</v>
+        <v>0.257561</v>
       </c>
     </row>
     <row r="72">
@@ -4229,13 +4229,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.224091</v>
+        <v>0.217363</v>
       </c>
       <c r="C72" t="n">
-        <v>0.239559</v>
+        <v>0.242168</v>
       </c>
       <c r="D72" t="n">
-        <v>0.251079</v>
+        <v>0.252703</v>
       </c>
     </row>
     <row r="73">
@@ -4243,13 +4243,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.218983</v>
+        <v>0.215375</v>
       </c>
       <c r="C73" t="n">
-        <v>0.238178</v>
+        <v>0.238485</v>
       </c>
       <c r="D73" t="n">
-        <v>0.251881</v>
+        <v>0.251341</v>
       </c>
     </row>
     <row r="74">
@@ -4257,13 +4257,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.216338</v>
+        <v>0.209761</v>
       </c>
       <c r="C74" t="n">
-        <v>0.238545</v>
+        <v>0.238731</v>
       </c>
       <c r="D74" t="n">
-        <v>0.247585</v>
+        <v>0.253055</v>
       </c>
     </row>
     <row r="75">
@@ -4271,13 +4271,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.210182</v>
+        <v>0.203908</v>
       </c>
       <c r="C75" t="n">
-        <v>0.235845</v>
+        <v>0.238094</v>
       </c>
       <c r="D75" t="n">
-        <v>0.24827</v>
+        <v>0.251794</v>
       </c>
     </row>
     <row r="76">
@@ -4285,13 +4285,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.205565</v>
+        <v>0.199608</v>
       </c>
       <c r="C76" t="n">
-        <v>0.238706</v>
+        <v>0.239243</v>
       </c>
       <c r="D76" t="n">
-        <v>0.250952</v>
+        <v>0.250998</v>
       </c>
     </row>
     <row r="77">
@@ -4299,13 +4299,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.200845</v>
+        <v>0.194555</v>
       </c>
       <c r="C77" t="n">
-        <v>0.236099</v>
+        <v>0.241222</v>
       </c>
       <c r="D77" t="n">
-        <v>0.248962</v>
+        <v>0.250171</v>
       </c>
     </row>
     <row r="78">
@@ -4313,13 +4313,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.19468</v>
+        <v>0.188146</v>
       </c>
       <c r="C78" t="n">
-        <v>0.230833</v>
+        <v>0.238125</v>
       </c>
       <c r="D78" t="n">
-        <v>0.245947</v>
+        <v>0.248288</v>
       </c>
     </row>
     <row r="79">
@@ -4327,13 +4327,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.186323</v>
+        <v>0.187116</v>
       </c>
       <c r="C79" t="n">
-        <v>0.230845</v>
+        <v>0.234896</v>
       </c>
       <c r="D79" t="n">
-        <v>0.243659</v>
+        <v>0.250281</v>
       </c>
     </row>
     <row r="80">
@@ -4341,13 +4341,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.186456</v>
+        <v>0.176179</v>
       </c>
       <c r="C80" t="n">
-        <v>0.230362</v>
+        <v>0.235901</v>
       </c>
       <c r="D80" t="n">
-        <v>0.26555</v>
+        <v>0.266949</v>
       </c>
     </row>
     <row r="81">
@@ -4355,13 +4355,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.247862</v>
+        <v>0.248053</v>
       </c>
       <c r="C81" t="n">
-        <v>0.250566</v>
+        <v>0.25879</v>
       </c>
       <c r="D81" t="n">
-        <v>0.260982</v>
+        <v>0.262765</v>
       </c>
     </row>
     <row r="82">
@@ -4369,13 +4369,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.243182</v>
+        <v>0.242807</v>
       </c>
       <c r="C82" t="n">
-        <v>0.25818</v>
+        <v>0.25388</v>
       </c>
       <c r="D82" t="n">
-        <v>0.261817</v>
+        <v>0.263695</v>
       </c>
     </row>
     <row r="83">
@@ -4383,13 +4383,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.236807</v>
+        <v>0.239474</v>
       </c>
       <c r="C83" t="n">
-        <v>0.243896</v>
+        <v>0.250469</v>
       </c>
       <c r="D83" t="n">
-        <v>0.255319</v>
+        <v>0.26228</v>
       </c>
     </row>
     <row r="84">
@@ -4397,13 +4397,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.236202</v>
+        <v>0.233626</v>
       </c>
       <c r="C84" t="n">
-        <v>0.243552</v>
+        <v>0.250412</v>
       </c>
       <c r="D84" t="n">
-        <v>0.255476</v>
+        <v>0.260135</v>
       </c>
     </row>
     <row r="85">
@@ -4411,13 +4411,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.228592</v>
+        <v>0.230541</v>
       </c>
       <c r="C85" t="n">
-        <v>0.243162</v>
+        <v>0.246332</v>
       </c>
       <c r="D85" t="n">
-        <v>0.253179</v>
+        <v>0.260299</v>
       </c>
     </row>
     <row r="86">
@@ -4425,13 +4425,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.223216</v>
+        <v>0.224764</v>
       </c>
       <c r="C86" t="n">
-        <v>0.238309</v>
+        <v>0.244343</v>
       </c>
       <c r="D86" t="n">
-        <v>0.250931</v>
+        <v>0.261654</v>
       </c>
     </row>
     <row r="87">
@@ -4439,13 +4439,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.222463</v>
+        <v>0.220225</v>
       </c>
       <c r="C87" t="n">
-        <v>0.238109</v>
+        <v>0.245858</v>
       </c>
       <c r="D87" t="n">
-        <v>0.249336</v>
+        <v>0.25761</v>
       </c>
     </row>
     <row r="88">
@@ -4453,13 +4453,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.21585</v>
+        <v>0.214212</v>
       </c>
       <c r="C88" t="n">
-        <v>0.237105</v>
+        <v>0.246389</v>
       </c>
       <c r="D88" t="n">
-        <v>0.25022</v>
+        <v>0.252515</v>
       </c>
     </row>
     <row r="89">
@@ -4467,13 +4467,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.211659</v>
+        <v>0.209746</v>
       </c>
       <c r="C89" t="n">
-        <v>0.233702</v>
+        <v>0.240608</v>
       </c>
       <c r="D89" t="n">
-        <v>0.246864</v>
+        <v>0.255012</v>
       </c>
     </row>
     <row r="90">
@@ -4481,13 +4481,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.206192</v>
+        <v>0.205524</v>
       </c>
       <c r="C90" t="n">
-        <v>0.23255</v>
+        <v>0.240833</v>
       </c>
       <c r="D90" t="n">
-        <v>0.245292</v>
+        <v>0.25645</v>
       </c>
     </row>
     <row r="91">
@@ -4495,13 +4495,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.202269</v>
+        <v>0.199009</v>
       </c>
       <c r="C91" t="n">
-        <v>0.236623</v>
+        <v>0.242595</v>
       </c>
       <c r="D91" t="n">
-        <v>0.245746</v>
+        <v>0.254546</v>
       </c>
     </row>
     <row r="92">
@@ -4509,13 +4509,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.19304</v>
+        <v>0.196509</v>
       </c>
       <c r="C92" t="n">
-        <v>0.234328</v>
+        <v>0.239888</v>
       </c>
       <c r="D92" t="n">
-        <v>0.24759</v>
+        <v>0.25026</v>
       </c>
     </row>
     <row r="93">
@@ -4523,13 +4523,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.185862</v>
+        <v>0.183602</v>
       </c>
       <c r="C93" t="n">
-        <v>0.228896</v>
+        <v>0.238495</v>
       </c>
       <c r="D93" t="n">
-        <v>0.243943</v>
+        <v>0.249182</v>
       </c>
     </row>
     <row r="94">
@@ -4537,13 +4537,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.17715</v>
+        <v>0.179481</v>
       </c>
       <c r="C94" t="n">
-        <v>0.22855</v>
+        <v>0.237883</v>
       </c>
       <c r="D94" t="n">
-        <v>0.265504</v>
+        <v>0.270475</v>
       </c>
     </row>
     <row r="95">
@@ -4551,13 +4551,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.246141</v>
+        <v>0.247707</v>
       </c>
       <c r="C95" t="n">
-        <v>0.24647</v>
+        <v>0.259506</v>
       </c>
       <c r="D95" t="n">
-        <v>0.263069</v>
+        <v>0.266136</v>
       </c>
     </row>
     <row r="96">
@@ -4565,13 +4565,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.241032</v>
+        <v>0.243058</v>
       </c>
       <c r="C96" t="n">
-        <v>0.246713</v>
+        <v>0.254766</v>
       </c>
       <c r="D96" t="n">
-        <v>0.25963</v>
+        <v>0.266705</v>
       </c>
     </row>
     <row r="97">
@@ -4579,13 +4579,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.236412</v>
+        <v>0.237965</v>
       </c>
       <c r="C97" t="n">
-        <v>0.242448</v>
+        <v>0.254348</v>
       </c>
       <c r="D97" t="n">
-        <v>0.255279</v>
+        <v>0.262826</v>
       </c>
     </row>
     <row r="98">
@@ -4593,13 +4593,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.231878</v>
+        <v>0.235432</v>
       </c>
       <c r="C98" t="n">
-        <v>0.244353</v>
+        <v>0.248933</v>
       </c>
       <c r="D98" t="n">
-        <v>0.256747</v>
+        <v>0.261919</v>
       </c>
     </row>
     <row r="99">
@@ -4607,13 +4607,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.229279</v>
+        <v>0.23115</v>
       </c>
       <c r="C99" t="n">
-        <v>0.243507</v>
+        <v>0.249876</v>
       </c>
       <c r="D99" t="n">
-        <v>0.253867</v>
+        <v>0.267293</v>
       </c>
     </row>
     <row r="100">
@@ -4621,13 +4621,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.223383</v>
+        <v>0.225699</v>
       </c>
       <c r="C100" t="n">
-        <v>0.238578</v>
+        <v>0.247503</v>
       </c>
       <c r="D100" t="n">
-        <v>0.251207</v>
+        <v>0.258002</v>
       </c>
     </row>
     <row r="101">
@@ -4635,13 +4635,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.218589</v>
+        <v>0.219656</v>
       </c>
       <c r="C101" t="n">
-        <v>0.239527</v>
+        <v>0.246036</v>
       </c>
       <c r="D101" t="n">
-        <v>0.247867</v>
+        <v>0.256295</v>
       </c>
     </row>
     <row r="102">
@@ -4649,13 +4649,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.213495</v>
+        <v>0.217751</v>
       </c>
       <c r="C102" t="n">
-        <v>0.237623</v>
+        <v>0.244458</v>
       </c>
       <c r="D102" t="n">
-        <v>0.247042</v>
+        <v>0.258043</v>
       </c>
     </row>
     <row r="103">
@@ -4663,13 +4663,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.208717</v>
+        <v>0.210578</v>
       </c>
       <c r="C103" t="n">
-        <v>0.236023</v>
+        <v>0.243373</v>
       </c>
       <c r="D103" t="n">
-        <v>0.248839</v>
+        <v>0.255346</v>
       </c>
     </row>
     <row r="104">
@@ -4677,13 +4677,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.205979</v>
+        <v>0.20334</v>
       </c>
       <c r="C104" t="n">
-        <v>0.233798</v>
+        <v>0.243137</v>
       </c>
       <c r="D104" t="n">
-        <v>0.253178</v>
+        <v>0.254088</v>
       </c>
     </row>
     <row r="105">
@@ -4691,13 +4691,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.197135</v>
+        <v>0.199546</v>
       </c>
       <c r="C105" t="n">
-        <v>0.23151</v>
+        <v>0.241078</v>
       </c>
       <c r="D105" t="n">
-        <v>0.246199</v>
+        <v>0.254859</v>
       </c>
     </row>
     <row r="106">
@@ -4705,13 +4705,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.194204</v>
+        <v>0.197403</v>
       </c>
       <c r="C106" t="n">
-        <v>0.238605</v>
+        <v>0.243175</v>
       </c>
       <c r="D106" t="n">
-        <v>0.241561</v>
+        <v>0.254617</v>
       </c>
     </row>
     <row r="107">
@@ -4719,13 +4719,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.187839</v>
+        <v>0.191318</v>
       </c>
       <c r="C107" t="n">
-        <v>0.231151</v>
+        <v>0.246191</v>
       </c>
       <c r="D107" t="n">
-        <v>0.244295</v>
+        <v>0.255373</v>
       </c>
     </row>
     <row r="108">
@@ -4733,13 +4733,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.178331</v>
+        <v>0.182295</v>
       </c>
       <c r="C108" t="n">
-        <v>0.233192</v>
+        <v>0.239087</v>
       </c>
       <c r="D108" t="n">
-        <v>0.263382</v>
+        <v>0.269867</v>
       </c>
     </row>
     <row r="109">
@@ -4747,13 +4747,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.170217</v>
+        <v>0.172595</v>
       </c>
       <c r="C109" t="n">
-        <v>0.23122</v>
+        <v>0.241152</v>
       </c>
       <c r="D109" t="n">
-        <v>0.258955</v>
+        <v>0.269521</v>
       </c>
     </row>
     <row r="110">
@@ -4761,13 +4761,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.241882</v>
+        <v>0.244141</v>
       </c>
       <c r="C110" t="n">
-        <v>0.246119</v>
+        <v>0.254734</v>
       </c>
       <c r="D110" t="n">
-        <v>0.257994</v>
+        <v>0.263411</v>
       </c>
     </row>
     <row r="111">
@@ -4775,13 +4775,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.247221</v>
+        <v>0.240493</v>
       </c>
       <c r="C111" t="n">
-        <v>0.247983</v>
+        <v>0.254518</v>
       </c>
       <c r="D111" t="n">
-        <v>0.257751</v>
+        <v>0.2637</v>
       </c>
     </row>
     <row r="112">
@@ -4789,13 +4789,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.234589</v>
+        <v>0.237835</v>
       </c>
       <c r="C112" t="n">
-        <v>0.245516</v>
+        <v>0.255398</v>
       </c>
       <c r="D112" t="n">
-        <v>0.257363</v>
+        <v>0.266268</v>
       </c>
     </row>
     <row r="113">
@@ -4803,13 +4803,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.228596</v>
+        <v>0.23342</v>
       </c>
       <c r="C113" t="n">
-        <v>0.240085</v>
+        <v>0.249742</v>
       </c>
       <c r="D113" t="n">
-        <v>0.251026</v>
+        <v>0.263533</v>
       </c>
     </row>
     <row r="114">
@@ -4817,13 +4817,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.228823</v>
+        <v>0.2256</v>
       </c>
       <c r="C114" t="n">
-        <v>0.2397</v>
+        <v>0.245785</v>
       </c>
       <c r="D114" t="n">
-        <v>0.25283</v>
+        <v>0.26392</v>
       </c>
     </row>
     <row r="115">
@@ -4831,13 +4831,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.218918</v>
+        <v>0.223247</v>
       </c>
       <c r="C115" t="n">
-        <v>0.238665</v>
+        <v>0.24747</v>
       </c>
       <c r="D115" t="n">
-        <v>0.253734</v>
+        <v>0.259568</v>
       </c>
     </row>
     <row r="116">
@@ -4845,13 +4845,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.214219</v>
+        <v>0.217108</v>
       </c>
       <c r="C116" t="n">
-        <v>0.237762</v>
+        <v>0.246437</v>
       </c>
       <c r="D116" t="n">
-        <v>0.248702</v>
+        <v>0.263322</v>
       </c>
     </row>
     <row r="117">
@@ -4859,13 +4859,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.20901</v>
+        <v>0.214048</v>
       </c>
       <c r="C117" t="n">
-        <v>0.234761</v>
+        <v>0.24312</v>
       </c>
       <c r="D117" t="n">
-        <v>0.249902</v>
+        <v>0.257674</v>
       </c>
     </row>
     <row r="118">
@@ -4873,13 +4873,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.207253</v>
+        <v>0.209106</v>
       </c>
       <c r="C118" t="n">
-        <v>0.236225</v>
+        <v>0.244496</v>
       </c>
       <c r="D118" t="n">
-        <v>0.246929</v>
+        <v>0.257863</v>
       </c>
     </row>
     <row r="119">
@@ -4887,13 +4887,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.200464</v>
+        <v>0.209618</v>
       </c>
       <c r="C119" t="n">
-        <v>0.231868</v>
+        <v>0.239142</v>
       </c>
       <c r="D119" t="n">
-        <v>0.247268</v>
+        <v>0.254642</v>
       </c>
     </row>
     <row r="120">
@@ -4901,13 +4901,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.19674</v>
+        <v>0.196894</v>
       </c>
       <c r="C120" t="n">
-        <v>0.232076</v>
+        <v>0.242775</v>
       </c>
       <c r="D120" t="n">
-        <v>0.243988</v>
+        <v>0.253465</v>
       </c>
     </row>
     <row r="121">
@@ -4915,13 +4915,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.189872</v>
+        <v>0.190746</v>
       </c>
       <c r="C121" t="n">
-        <v>0.234805</v>
+        <v>0.23804</v>
       </c>
       <c r="D121" t="n">
-        <v>0.24493</v>
+        <v>0.25026</v>
       </c>
     </row>
     <row r="122">
@@ -4929,13 +4929,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.179986</v>
+        <v>0.183239</v>
       </c>
       <c r="C122" t="n">
-        <v>0.231524</v>
+        <v>0.239155</v>
       </c>
       <c r="D122" t="n">
-        <v>0.242643</v>
+        <v>0.252228</v>
       </c>
     </row>
     <row r="123">
@@ -4943,13 +4943,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.171052</v>
+        <v>0.175103</v>
       </c>
       <c r="C123" t="n">
-        <v>0.230651</v>
+        <v>0.240779</v>
       </c>
       <c r="D123" t="n">
-        <v>0.258981</v>
+        <v>0.267479</v>
       </c>
     </row>
     <row r="124">
@@ -4957,13 +4957,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.252175</v>
+        <v>0.248142</v>
       </c>
       <c r="C124" t="n">
-        <v>0.246668</v>
+        <v>0.254598</v>
       </c>
       <c r="D124" t="n">
-        <v>0.257607</v>
+        <v>0.265137</v>
       </c>
     </row>
     <row r="125">
@@ -4971,13 +4971,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.237291</v>
+        <v>0.242227</v>
       </c>
       <c r="C125" t="n">
-        <v>0.247153</v>
+        <v>0.261516</v>
       </c>
       <c r="D125" t="n">
-        <v>0.257714</v>
+        <v>0.263834</v>
       </c>
     </row>
     <row r="126">
@@ -4985,13 +4985,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.244911</v>
+        <v>0.236975</v>
       </c>
       <c r="C126" t="n">
-        <v>0.244194</v>
+        <v>0.254104</v>
       </c>
       <c r="D126" t="n">
-        <v>0.25351</v>
+        <v>0.268394</v>
       </c>
     </row>
     <row r="127">
@@ -4999,13 +4999,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.233412</v>
+        <v>0.23431</v>
       </c>
       <c r="C127" t="n">
-        <v>0.242069</v>
+        <v>0.247473</v>
       </c>
       <c r="D127" t="n">
-        <v>0.256376</v>
+        <v>0.261506</v>
       </c>
     </row>
     <row r="128">
@@ -5013,13 +5013,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.229134</v>
+        <v>0.229159</v>
       </c>
       <c r="C128" t="n">
-        <v>0.238594</v>
+        <v>0.248306</v>
       </c>
       <c r="D128" t="n">
-        <v>0.248142</v>
+        <v>0.259613</v>
       </c>
     </row>
     <row r="129">
@@ -5027,13 +5027,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.221817</v>
+        <v>0.225169</v>
       </c>
       <c r="C129" t="n">
-        <v>0.242467</v>
+        <v>0.247298</v>
       </c>
       <c r="D129" t="n">
-        <v>0.249998</v>
+        <v>0.261958</v>
       </c>
     </row>
     <row r="130">
@@ -5041,13 +5041,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.218412</v>
+        <v>0.216224</v>
       </c>
       <c r="C130" t="n">
-        <v>0.238399</v>
+        <v>0.246607</v>
       </c>
       <c r="D130" t="n">
-        <v>0.250073</v>
+        <v>0.264761</v>
       </c>
     </row>
     <row r="131">
@@ -5055,13 +5055,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.211923</v>
+        <v>0.212148</v>
       </c>
       <c r="C131" t="n">
-        <v>0.237709</v>
+        <v>0.249076</v>
       </c>
       <c r="D131" t="n">
-        <v>0.250192</v>
+        <v>0.255547</v>
       </c>
     </row>
     <row r="132">
@@ -5069,13 +5069,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.208344</v>
+        <v>0.211028</v>
       </c>
       <c r="C132" t="n">
-        <v>0.235419</v>
+        <v>0.246023</v>
       </c>
       <c r="D132" t="n">
-        <v>0.248446</v>
+        <v>0.255451</v>
       </c>
     </row>
     <row r="133">
@@ -5083,13 +5083,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.200855</v>
+        <v>0.204386</v>
       </c>
       <c r="C133" t="n">
-        <v>0.234254</v>
+        <v>0.241649</v>
       </c>
       <c r="D133" t="n">
-        <v>0.244192</v>
+        <v>0.25198</v>
       </c>
     </row>
     <row r="134">
@@ -5097,13 +5097,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.196361</v>
+        <v>0.198125</v>
       </c>
       <c r="C134" t="n">
-        <v>0.231613</v>
+        <v>0.245535</v>
       </c>
       <c r="D134" t="n">
-        <v>0.249892</v>
+        <v>0.254747</v>
       </c>
     </row>
     <row r="135">
@@ -5111,13 +5111,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.185983</v>
+        <v>0.192671</v>
       </c>
       <c r="C135" t="n">
-        <v>0.23303</v>
+        <v>0.241021</v>
       </c>
       <c r="D135" t="n">
-        <v>0.24787</v>
+        <v>0.253647</v>
       </c>
     </row>
     <row r="136">
@@ -5125,13 +5125,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.180271</v>
+        <v>0.183448</v>
       </c>
       <c r="C136" t="n">
-        <v>0.232263</v>
+        <v>0.239411</v>
       </c>
       <c r="D136" t="n">
-        <v>0.245745</v>
+        <v>0.256172</v>
       </c>
     </row>
     <row r="137">
@@ -5139,13 +5139,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.174188</v>
+        <v>0.176575</v>
       </c>
       <c r="C137" t="n">
-        <v>0.230832</v>
+        <v>0.24193</v>
       </c>
       <c r="D137" t="n">
-        <v>0.261905</v>
+        <v>0.272406</v>
       </c>
     </row>
     <row r="138">
@@ -5153,13 +5153,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.243688</v>
+        <v>0.250136</v>
       </c>
       <c r="C138" t="n">
-        <v>0.25086</v>
+        <v>0.2595</v>
       </c>
       <c r="D138" t="n">
-        <v>0.260711</v>
+        <v>0.271554</v>
       </c>
     </row>
     <row r="139">
@@ -5167,13 +5167,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.24171</v>
+        <v>0.240962</v>
       </c>
       <c r="C139" t="n">
-        <v>0.24443</v>
+        <v>0.250004</v>
       </c>
       <c r="D139" t="n">
-        <v>0.255513</v>
+        <v>0.270281</v>
       </c>
     </row>
     <row r="140">
@@ -5181,13 +5181,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.236968</v>
+        <v>0.237911</v>
       </c>
       <c r="C140" t="n">
-        <v>0.247911</v>
+        <v>0.24841</v>
       </c>
       <c r="D140" t="n">
-        <v>0.257949</v>
+        <v>0.260434</v>
       </c>
     </row>
     <row r="141">
@@ -5195,13 +5195,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.232107</v>
+        <v>0.229359</v>
       </c>
       <c r="C141" t="n">
-        <v>0.248229</v>
+        <v>0.244635</v>
       </c>
       <c r="D141" t="n">
-        <v>0.251872</v>
+        <v>0.256819</v>
       </c>
     </row>
     <row r="142">
@@ -5209,13 +5209,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.223388</v>
+        <v>0.226358</v>
       </c>
       <c r="C142" t="n">
-        <v>0.243611</v>
+        <v>0.253916</v>
       </c>
       <c r="D142" t="n">
-        <v>0.248641</v>
+        <v>0.255626</v>
       </c>
     </row>
     <row r="143">
@@ -5223,13 +5223,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.220098</v>
+        <v>0.231367</v>
       </c>
       <c r="C143" t="n">
-        <v>0.240315</v>
+        <v>0.251174</v>
       </c>
       <c r="D143" t="n">
-        <v>0.25028</v>
+        <v>0.26152</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Running erasure.xlsx
+++ b/vs-x64/Running erasure.xlsx
@@ -3249,13 +3249,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.209162</v>
+        <v>0.199349</v>
       </c>
       <c r="C2" t="n">
-        <v>0.240105</v>
+        <v>0.234413</v>
       </c>
       <c r="D2" t="n">
-        <v>0.249026</v>
+        <v>0.235136</v>
       </c>
     </row>
     <row r="3">
@@ -3263,13 +3263,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.205546</v>
+        <v>0.197624</v>
       </c>
       <c r="C3" t="n">
-        <v>0.242676</v>
+        <v>0.230467</v>
       </c>
       <c r="D3" t="n">
-        <v>0.248911</v>
+        <v>0.231919</v>
       </c>
     </row>
     <row r="4">
@@ -3277,13 +3277,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.197649</v>
+        <v>0.192384</v>
       </c>
       <c r="C4" t="n">
-        <v>0.235995</v>
+        <v>0.233358</v>
       </c>
       <c r="D4" t="n">
-        <v>0.249673</v>
+        <v>0.236491</v>
       </c>
     </row>
     <row r="5">
@@ -3291,13 +3291,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.190604</v>
+        <v>0.201741</v>
       </c>
       <c r="C5" t="n">
-        <v>0.234588</v>
+        <v>0.236078</v>
       </c>
       <c r="D5" t="n">
-        <v>0.244538</v>
+        <v>0.234817</v>
       </c>
     </row>
     <row r="6">
@@ -3305,13 +3305,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.185558</v>
+        <v>0.192619</v>
       </c>
       <c r="C6" t="n">
-        <v>0.234099</v>
+        <v>0.256742</v>
       </c>
       <c r="D6" t="n">
-        <v>0.243874</v>
+        <v>0.245249</v>
       </c>
     </row>
     <row r="7">
@@ -3319,13 +3319,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.178048</v>
+        <v>0.185244</v>
       </c>
       <c r="C7" t="n">
-        <v>0.228532</v>
+        <v>0.268985</v>
       </c>
       <c r="D7" t="n">
-        <v>0.241812</v>
+        <v>0.233953</v>
       </c>
     </row>
     <row r="8">
@@ -3333,13 +3333,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.174307</v>
+        <v>0.171914</v>
       </c>
       <c r="C8" t="n">
-        <v>0.232794</v>
+        <v>0.224888</v>
       </c>
       <c r="D8" t="n">
-        <v>0.243027</v>
+        <v>0.225908</v>
       </c>
     </row>
     <row r="9">
@@ -3347,13 +3347,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.164263</v>
+        <v>0.160674</v>
       </c>
       <c r="C9" t="n">
-        <v>0.230416</v>
+        <v>0.226001</v>
       </c>
       <c r="D9" t="n">
-        <v>0.253145</v>
+        <v>0.238383</v>
       </c>
     </row>
     <row r="10">
@@ -3361,13 +3361,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.230303</v>
+        <v>0.229867</v>
       </c>
       <c r="C10" t="n">
-        <v>0.244605</v>
+        <v>0.238551</v>
       </c>
       <c r="D10" t="n">
-        <v>0.250921</v>
+        <v>0.237668</v>
       </c>
     </row>
     <row r="11">
@@ -3375,13 +3375,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.228628</v>
+        <v>0.225047</v>
       </c>
       <c r="C11" t="n">
-        <v>0.242543</v>
+        <v>0.237864</v>
       </c>
       <c r="D11" t="n">
-        <v>0.251252</v>
+        <v>0.238011</v>
       </c>
     </row>
     <row r="12">
@@ -3389,13 +3389,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.217841</v>
+        <v>0.217775</v>
       </c>
       <c r="C12" t="n">
-        <v>0.241811</v>
+        <v>0.23675</v>
       </c>
       <c r="D12" t="n">
-        <v>0.247994</v>
+        <v>0.237953</v>
       </c>
     </row>
     <row r="13">
@@ -3403,13 +3403,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.216859</v>
+        <v>0.215039</v>
       </c>
       <c r="C13" t="n">
-        <v>0.23567</v>
+        <v>0.234032</v>
       </c>
       <c r="D13" t="n">
-        <v>0.246943</v>
+        <v>0.235597</v>
       </c>
     </row>
     <row r="14">
@@ -3417,13 +3417,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.21358</v>
+        <v>0.211155</v>
       </c>
       <c r="C14" t="n">
-        <v>0.235162</v>
+        <v>0.234555</v>
       </c>
       <c r="D14" t="n">
-        <v>0.246057</v>
+        <v>0.234486</v>
       </c>
     </row>
     <row r="15">
@@ -3431,13 +3431,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.208403</v>
+        <v>0.207459</v>
       </c>
       <c r="C15" t="n">
-        <v>0.238419</v>
+        <v>0.234648</v>
       </c>
       <c r="D15" t="n">
-        <v>0.247663</v>
+        <v>0.234105</v>
       </c>
     </row>
     <row r="16">
@@ -3445,13 +3445,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.205687</v>
+        <v>0.209015</v>
       </c>
       <c r="C16" t="n">
-        <v>0.23842</v>
+        <v>0.233073</v>
       </c>
       <c r="D16" t="n">
-        <v>0.246947</v>
+        <v>0.23582</v>
       </c>
     </row>
     <row r="17">
@@ -3459,13 +3459,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.203643</v>
+        <v>0.201659</v>
       </c>
       <c r="C17" t="n">
-        <v>0.235207</v>
+        <v>0.233418</v>
       </c>
       <c r="D17" t="n">
-        <v>0.249345</v>
+        <v>0.23639</v>
       </c>
     </row>
     <row r="18">
@@ -3473,13 +3473,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.198697</v>
+        <v>0.198746</v>
       </c>
       <c r="C18" t="n">
-        <v>0.233525</v>
+        <v>0.229684</v>
       </c>
       <c r="D18" t="n">
-        <v>0.247563</v>
+        <v>0.235312</v>
       </c>
     </row>
     <row r="19">
@@ -3487,13 +3487,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.19425</v>
+        <v>0.191522</v>
       </c>
       <c r="C19" t="n">
-        <v>0.233562</v>
+        <v>0.228733</v>
       </c>
       <c r="D19" t="n">
-        <v>0.246153</v>
+        <v>0.234879</v>
       </c>
     </row>
     <row r="20">
@@ -3501,13 +3501,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.192135</v>
+        <v>0.193633</v>
       </c>
       <c r="C20" t="n">
-        <v>0.235546</v>
+        <v>0.231101</v>
       </c>
       <c r="D20" t="n">
-        <v>0.243764</v>
+        <v>0.23078</v>
       </c>
     </row>
     <row r="21">
@@ -3515,13 +3515,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.182232</v>
+        <v>0.185362</v>
       </c>
       <c r="C21" t="n">
-        <v>0.230758</v>
+        <v>0.2282</v>
       </c>
       <c r="D21" t="n">
-        <v>0.248337</v>
+        <v>0.229944</v>
       </c>
     </row>
     <row r="22">
@@ -3529,13 +3529,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.173917</v>
+        <v>0.179273</v>
       </c>
       <c r="C22" t="n">
-        <v>0.232191</v>
+        <v>0.228705</v>
       </c>
       <c r="D22" t="n">
-        <v>0.245144</v>
+        <v>0.231596</v>
       </c>
     </row>
     <row r="23">
@@ -3543,13 +3543,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.169271</v>
+        <v>0.169741</v>
       </c>
       <c r="C23" t="n">
-        <v>0.227308</v>
+        <v>0.229498</v>
       </c>
       <c r="D23" t="n">
-        <v>0.252794</v>
+        <v>0.241703</v>
       </c>
     </row>
     <row r="24">
@@ -3557,13 +3557,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.231994</v>
+        <v>0.235986</v>
       </c>
       <c r="C24" t="n">
-        <v>0.239653</v>
+        <v>0.242837</v>
       </c>
       <c r="D24" t="n">
-        <v>0.253318</v>
+        <v>0.244611</v>
       </c>
     </row>
     <row r="25">
@@ -3571,13 +3571,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.228572</v>
+        <v>0.227481</v>
       </c>
       <c r="C25" t="n">
-        <v>0.241336</v>
+        <v>0.237139</v>
       </c>
       <c r="D25" t="n">
-        <v>0.250846</v>
+        <v>0.24007</v>
       </c>
     </row>
     <row r="26">
@@ -3585,13 +3585,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.227429</v>
+        <v>0.224892</v>
       </c>
       <c r="C26" t="n">
-        <v>0.240849</v>
+        <v>0.239058</v>
       </c>
       <c r="D26" t="n">
-        <v>0.246885</v>
+        <v>0.239845</v>
       </c>
     </row>
     <row r="27">
@@ -3599,13 +3599,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.219223</v>
+        <v>0.221368</v>
       </c>
       <c r="C27" t="n">
-        <v>0.234242</v>
+        <v>0.234301</v>
       </c>
       <c r="D27" t="n">
-        <v>0.245465</v>
+        <v>0.240222</v>
       </c>
     </row>
     <row r="28">
@@ -3613,13 +3613,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.218633</v>
+        <v>0.215633</v>
       </c>
       <c r="C28" t="n">
-        <v>0.237469</v>
+        <v>0.236417</v>
       </c>
       <c r="D28" t="n">
-        <v>0.254934</v>
+        <v>0.237673</v>
       </c>
     </row>
     <row r="29">
@@ -3627,13 +3627,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.208853</v>
+        <v>0.213943</v>
       </c>
       <c r="C29" t="n">
-        <v>0.233453</v>
+        <v>0.236866</v>
       </c>
       <c r="D29" t="n">
-        <v>0.247136</v>
+        <v>0.236862</v>
       </c>
     </row>
     <row r="30">
@@ -3641,13 +3641,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.202885</v>
+        <v>0.217063</v>
       </c>
       <c r="C30" t="n">
-        <v>0.230146</v>
+        <v>0.235993</v>
       </c>
       <c r="D30" t="n">
-        <v>0.250963</v>
+        <v>0.240588</v>
       </c>
     </row>
     <row r="31">
@@ -3655,13 +3655,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.202145</v>
+        <v>0.221295</v>
       </c>
       <c r="C31" t="n">
-        <v>0.229379</v>
+        <v>0.247932</v>
       </c>
       <c r="D31" t="n">
-        <v>0.244302</v>
+        <v>0.248009</v>
       </c>
     </row>
     <row r="32">
@@ -3669,13 +3669,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.199644</v>
+        <v>0.210401</v>
       </c>
       <c r="C32" t="n">
-        <v>0.233051</v>
+        <v>0.236517</v>
       </c>
       <c r="D32" t="n">
-        <v>0.24273</v>
+        <v>0.237955</v>
       </c>
     </row>
     <row r="33">
@@ -3683,13 +3683,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.189895</v>
+        <v>0.206655</v>
       </c>
       <c r="C33" t="n">
-        <v>0.233422</v>
+        <v>0.234046</v>
       </c>
       <c r="D33" t="n">
-        <v>0.242576</v>
+        <v>0.237018</v>
       </c>
     </row>
     <row r="34">
@@ -3697,13 +3697,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.185409</v>
+        <v>0.190766</v>
       </c>
       <c r="C34" t="n">
-        <v>0.230416</v>
+        <v>0.230371</v>
       </c>
       <c r="D34" t="n">
-        <v>0.246397</v>
+        <v>0.233825</v>
       </c>
     </row>
     <row r="35">
@@ -3711,13 +3711,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.184795</v>
+        <v>0.188304</v>
       </c>
       <c r="C35" t="n">
-        <v>0.230876</v>
+        <v>0.234251</v>
       </c>
       <c r="D35" t="n">
-        <v>0.245298</v>
+        <v>0.237618</v>
       </c>
     </row>
     <row r="36">
@@ -3725,13 +3725,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.177796</v>
+        <v>0.180616</v>
       </c>
       <c r="C36" t="n">
-        <v>0.2335</v>
+        <v>0.228982</v>
       </c>
       <c r="D36" t="n">
-        <v>0.244152</v>
+        <v>0.234963</v>
       </c>
     </row>
     <row r="37">
@@ -3739,13 +3739,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.174148</v>
+        <v>0.175603</v>
       </c>
       <c r="C37" t="n">
-        <v>0.23794</v>
+        <v>0.227989</v>
       </c>
       <c r="D37" t="n">
-        <v>0.262607</v>
+        <v>0.245487</v>
       </c>
     </row>
     <row r="38">
@@ -3753,13 +3753,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.236887</v>
+        <v>0.236855</v>
       </c>
       <c r="C38" t="n">
-        <v>0.241684</v>
+        <v>0.241831</v>
       </c>
       <c r="D38" t="n">
-        <v>0.260967</v>
+        <v>0.245476</v>
       </c>
     </row>
     <row r="39">
@@ -3767,13 +3767,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.232417</v>
+        <v>0.230911</v>
       </c>
       <c r="C39" t="n">
-        <v>0.243832</v>
+        <v>0.240287</v>
       </c>
       <c r="D39" t="n">
-        <v>0.250716</v>
+        <v>0.244129</v>
       </c>
     </row>
     <row r="40">
@@ -3781,13 +3781,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.226916</v>
+        <v>0.228554</v>
       </c>
       <c r="C40" t="n">
-        <v>0.239647</v>
+        <v>0.242226</v>
       </c>
       <c r="D40" t="n">
-        <v>0.252577</v>
+        <v>0.24524</v>
       </c>
     </row>
     <row r="41">
@@ -3795,13 +3795,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.225083</v>
+        <v>0.228756</v>
       </c>
       <c r="C41" t="n">
-        <v>0.237565</v>
+        <v>0.236852</v>
       </c>
       <c r="D41" t="n">
-        <v>0.253605</v>
+        <v>0.241685</v>
       </c>
     </row>
     <row r="42">
@@ -3809,13 +3809,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.217756</v>
+        <v>0.218976</v>
       </c>
       <c r="C42" t="n">
-        <v>0.238377</v>
+        <v>0.23691</v>
       </c>
       <c r="D42" t="n">
-        <v>0.259107</v>
+        <v>0.239046</v>
       </c>
     </row>
     <row r="43">
@@ -3823,13 +3823,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.216214</v>
+        <v>0.217148</v>
       </c>
       <c r="C43" t="n">
-        <v>0.236468</v>
+        <v>0.237903</v>
       </c>
       <c r="D43" t="n">
-        <v>0.255592</v>
+        <v>0.238571</v>
       </c>
     </row>
     <row r="44">
@@ -3837,13 +3837,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.212177</v>
+        <v>0.215484</v>
       </c>
       <c r="C44" t="n">
-        <v>0.237901</v>
+        <v>0.237595</v>
       </c>
       <c r="D44" t="n">
-        <v>0.251012</v>
+        <v>0.238857</v>
       </c>
     </row>
     <row r="45">
@@ -3851,13 +3851,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.209137</v>
+        <v>0.208249</v>
       </c>
       <c r="C45" t="n">
-        <v>0.236172</v>
+        <v>0.235608</v>
       </c>
       <c r="D45" t="n">
-        <v>0.253077</v>
+        <v>0.236484</v>
       </c>
     </row>
     <row r="46">
@@ -3865,13 +3865,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.203886</v>
+        <v>0.205936</v>
       </c>
       <c r="C46" t="n">
-        <v>0.236763</v>
+        <v>0.23335</v>
       </c>
       <c r="D46" t="n">
-        <v>0.253117</v>
+        <v>0.236327</v>
       </c>
     </row>
     <row r="47">
@@ -3879,13 +3879,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.201864</v>
+        <v>0.198653</v>
       </c>
       <c r="C47" t="n">
-        <v>0.237605</v>
+        <v>0.234111</v>
       </c>
       <c r="D47" t="n">
-        <v>0.249477</v>
+        <v>0.235503</v>
       </c>
     </row>
     <row r="48">
@@ -3893,13 +3893,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.196201</v>
+        <v>0.19593</v>
       </c>
       <c r="C48" t="n">
-        <v>0.233054</v>
+        <v>0.235125</v>
       </c>
       <c r="D48" t="n">
-        <v>0.248322</v>
+        <v>0.236039</v>
       </c>
     </row>
     <row r="49">
@@ -3907,13 +3907,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.189358</v>
+        <v>0.189184</v>
       </c>
       <c r="C49" t="n">
-        <v>0.230733</v>
+        <v>0.231615</v>
       </c>
       <c r="D49" t="n">
-        <v>0.242519</v>
+        <v>0.234272</v>
       </c>
     </row>
     <row r="50">
@@ -3921,13 +3921,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.185516</v>
+        <v>0.183432</v>
       </c>
       <c r="C50" t="n">
-        <v>0.233805</v>
+        <v>0.235427</v>
       </c>
       <c r="D50" t="n">
-        <v>0.246071</v>
+        <v>0.234584</v>
       </c>
     </row>
     <row r="51">
@@ -3935,13 +3935,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.175929</v>
+        <v>0.179238</v>
       </c>
       <c r="C51" t="n">
-        <v>0.232467</v>
+        <v>0.230258</v>
       </c>
       <c r="D51" t="n">
-        <v>0.264545</v>
+        <v>0.254312</v>
       </c>
     </row>
     <row r="52">
@@ -3949,13 +3949,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.167951</v>
+        <v>0.167926</v>
       </c>
       <c r="C52" t="n">
-        <v>0.230309</v>
+        <v>0.231017</v>
       </c>
       <c r="D52" t="n">
-        <v>0.263196</v>
+        <v>0.2525</v>
       </c>
     </row>
     <row r="53">
@@ -3963,13 +3963,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.233505</v>
+        <v>0.235778</v>
       </c>
       <c r="C53" t="n">
-        <v>0.246321</v>
+        <v>0.248569</v>
       </c>
       <c r="D53" t="n">
-        <v>0.259018</v>
+        <v>0.254736</v>
       </c>
     </row>
     <row r="54">
@@ -3977,13 +3977,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.228868</v>
+        <v>0.232827</v>
       </c>
       <c r="C54" t="n">
-        <v>0.247686</v>
+        <v>0.246535</v>
       </c>
       <c r="D54" t="n">
-        <v>0.257595</v>
+        <v>0.249159</v>
       </c>
     </row>
     <row r="55">
@@ -3991,13 +3991,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.229862</v>
+        <v>0.230663</v>
       </c>
       <c r="C55" t="n">
-        <v>0.241941</v>
+        <v>0.244208</v>
       </c>
       <c r="D55" t="n">
-        <v>0.25792</v>
+        <v>0.246338</v>
       </c>
     </row>
     <row r="56">
@@ -4005,13 +4005,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.220118</v>
+        <v>0.224382</v>
       </c>
       <c r="C56" t="n">
-        <v>0.24317</v>
+        <v>0.241979</v>
       </c>
       <c r="D56" t="n">
-        <v>0.25664</v>
+        <v>0.245398</v>
       </c>
     </row>
     <row r="57">
@@ -4019,13 +4019,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.216955</v>
+        <v>0.219404</v>
       </c>
       <c r="C57" t="n">
-        <v>0.240518</v>
+        <v>0.239701</v>
       </c>
       <c r="D57" t="n">
-        <v>0.257178</v>
+        <v>0.246918</v>
       </c>
     </row>
     <row r="58">
@@ -4033,13 +4033,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.213363</v>
+        <v>0.214532</v>
       </c>
       <c r="C58" t="n">
-        <v>0.244651</v>
+        <v>0.249593</v>
       </c>
       <c r="D58" t="n">
-        <v>0.256311</v>
+        <v>0.246643</v>
       </c>
     </row>
     <row r="59">
@@ -4047,13 +4047,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.208487</v>
+        <v>0.217853</v>
       </c>
       <c r="C59" t="n">
-        <v>0.239885</v>
+        <v>0.250862</v>
       </c>
       <c r="D59" t="n">
-        <v>0.25355</v>
+        <v>0.24908</v>
       </c>
     </row>
     <row r="60">
@@ -4061,13 +4061,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.206102</v>
+        <v>0.20987</v>
       </c>
       <c r="C60" t="n">
-        <v>0.237947</v>
+        <v>0.241533</v>
       </c>
       <c r="D60" t="n">
-        <v>0.249289</v>
+        <v>0.243666</v>
       </c>
     </row>
     <row r="61">
@@ -4075,13 +4075,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.202645</v>
+        <v>0.20258</v>
       </c>
       <c r="C61" t="n">
-        <v>0.238978</v>
+        <v>0.239494</v>
       </c>
       <c r="D61" t="n">
-        <v>0.251374</v>
+        <v>0.240475</v>
       </c>
     </row>
     <row r="62">
@@ -4089,13 +4089,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.198267</v>
+        <v>0.197406</v>
       </c>
       <c r="C62" t="n">
-        <v>0.237521</v>
+        <v>0.237629</v>
       </c>
       <c r="D62" t="n">
-        <v>0.253218</v>
+        <v>0.239668</v>
       </c>
     </row>
     <row r="63">
@@ -4103,13 +4103,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.191938</v>
+        <v>0.194366</v>
       </c>
       <c r="C63" t="n">
-        <v>0.235315</v>
+        <v>0.235178</v>
       </c>
       <c r="D63" t="n">
-        <v>0.245178</v>
+        <v>0.239905</v>
       </c>
     </row>
     <row r="64">
@@ -4117,13 +4117,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.186628</v>
+        <v>0.189559</v>
       </c>
       <c r="C64" t="n">
-        <v>0.236126</v>
+        <v>0.23505</v>
       </c>
       <c r="D64" t="n">
-        <v>0.24568</v>
+        <v>0.238801</v>
       </c>
     </row>
     <row r="65">
@@ -4131,13 +4131,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.178533</v>
+        <v>0.178276</v>
       </c>
       <c r="C65" t="n">
-        <v>0.232718</v>
+        <v>0.236287</v>
       </c>
       <c r="D65" t="n">
-        <v>0.245848</v>
+        <v>0.240953</v>
       </c>
     </row>
     <row r="66">
@@ -4145,13 +4145,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.168264</v>
+        <v>0.172661</v>
       </c>
       <c r="C66" t="n">
-        <v>0.236699</v>
+        <v>0.234558</v>
       </c>
       <c r="D66" t="n">
-        <v>0.264369</v>
+        <v>0.253944</v>
       </c>
     </row>
     <row r="67">
@@ -4159,13 +4159,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.241781</v>
+        <v>0.241633</v>
       </c>
       <c r="C67" t="n">
-        <v>0.248325</v>
+        <v>0.250224</v>
       </c>
       <c r="D67" t="n">
-        <v>0.26391</v>
+        <v>0.251486</v>
       </c>
     </row>
     <row r="68">
@@ -4173,13 +4173,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.238234</v>
+        <v>0.238789</v>
       </c>
       <c r="C68" t="n">
-        <v>0.248282</v>
+        <v>0.246101</v>
       </c>
       <c r="D68" t="n">
-        <v>0.263568</v>
+        <v>0.25112</v>
       </c>
     </row>
     <row r="69">
@@ -4187,13 +4187,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.231356</v>
+        <v>0.23646</v>
       </c>
       <c r="C69" t="n">
-        <v>0.246755</v>
+        <v>0.247029</v>
       </c>
       <c r="D69" t="n">
-        <v>0.257021</v>
+        <v>0.250255</v>
       </c>
     </row>
     <row r="70">
@@ -4201,13 +4201,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.227851</v>
+        <v>0.231353</v>
       </c>
       <c r="C70" t="n">
-        <v>0.24351</v>
+        <v>0.245226</v>
       </c>
       <c r="D70" t="n">
-        <v>0.257087</v>
+        <v>0.252094</v>
       </c>
     </row>
     <row r="71">
@@ -4215,13 +4215,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.221723</v>
+        <v>0.228533</v>
       </c>
       <c r="C71" t="n">
-        <v>0.245055</v>
+        <v>0.243633</v>
       </c>
       <c r="D71" t="n">
-        <v>0.257561</v>
+        <v>0.245213</v>
       </c>
     </row>
     <row r="72">
@@ -4229,13 +4229,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.217363</v>
+        <v>0.220226</v>
       </c>
       <c r="C72" t="n">
-        <v>0.242168</v>
+        <v>0.23972</v>
       </c>
       <c r="D72" t="n">
-        <v>0.252703</v>
+        <v>0.243834</v>
       </c>
     </row>
     <row r="73">
@@ -4243,13 +4243,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.215375</v>
+        <v>0.216971</v>
       </c>
       <c r="C73" t="n">
-        <v>0.238485</v>
+        <v>0.243148</v>
       </c>
       <c r="D73" t="n">
-        <v>0.251341</v>
+        <v>0.246349</v>
       </c>
     </row>
     <row r="74">
@@ -4257,13 +4257,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.209761</v>
+        <v>0.215912</v>
       </c>
       <c r="C74" t="n">
-        <v>0.238731</v>
+        <v>0.24035</v>
       </c>
       <c r="D74" t="n">
-        <v>0.253055</v>
+        <v>0.249771</v>
       </c>
     </row>
     <row r="75">
@@ -4271,13 +4271,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.203908</v>
+        <v>0.207593</v>
       </c>
       <c r="C75" t="n">
-        <v>0.238094</v>
+        <v>0.23915</v>
       </c>
       <c r="D75" t="n">
-        <v>0.251794</v>
+        <v>0.245108</v>
       </c>
     </row>
     <row r="76">
@@ -4285,13 +4285,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.199608</v>
+        <v>0.200778</v>
       </c>
       <c r="C76" t="n">
-        <v>0.239243</v>
+        <v>0.23814</v>
       </c>
       <c r="D76" t="n">
-        <v>0.250998</v>
+        <v>0.242976</v>
       </c>
     </row>
     <row r="77">
@@ -4299,13 +4299,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.194555</v>
+        <v>0.199812</v>
       </c>
       <c r="C77" t="n">
-        <v>0.241222</v>
+        <v>0.240007</v>
       </c>
       <c r="D77" t="n">
-        <v>0.250171</v>
+        <v>0.240506</v>
       </c>
     </row>
     <row r="78">
@@ -4313,13 +4313,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.188146</v>
+        <v>0.191572</v>
       </c>
       <c r="C78" t="n">
-        <v>0.238125</v>
+        <v>0.235813</v>
       </c>
       <c r="D78" t="n">
-        <v>0.248288</v>
+        <v>0.238411</v>
       </c>
     </row>
     <row r="79">
@@ -4327,13 +4327,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.187116</v>
+        <v>0.183764</v>
       </c>
       <c r="C79" t="n">
-        <v>0.234896</v>
+        <v>0.238902</v>
       </c>
       <c r="D79" t="n">
-        <v>0.250281</v>
+        <v>0.237958</v>
       </c>
     </row>
     <row r="80">
@@ -4341,13 +4341,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.176179</v>
+        <v>0.17655</v>
       </c>
       <c r="C80" t="n">
-        <v>0.235901</v>
+        <v>0.234509</v>
       </c>
       <c r="D80" t="n">
-        <v>0.266949</v>
+        <v>0.259774</v>
       </c>
     </row>
     <row r="81">
@@ -4355,13 +4355,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.248053</v>
+        <v>0.248259</v>
       </c>
       <c r="C81" t="n">
-        <v>0.25879</v>
+        <v>0.255393</v>
       </c>
       <c r="D81" t="n">
-        <v>0.262765</v>
+        <v>0.257375</v>
       </c>
     </row>
     <row r="82">
@@ -4369,13 +4369,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.242807</v>
+        <v>0.247988</v>
       </c>
       <c r="C82" t="n">
-        <v>0.25388</v>
+        <v>0.251091</v>
       </c>
       <c r="D82" t="n">
-        <v>0.263695</v>
+        <v>0.259837</v>
       </c>
     </row>
     <row r="83">
@@ -4383,13 +4383,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.239474</v>
+        <v>0.251503</v>
       </c>
       <c r="C83" t="n">
-        <v>0.250469</v>
+        <v>0.257299</v>
       </c>
       <c r="D83" t="n">
-        <v>0.26228</v>
+        <v>0.257958</v>
       </c>
     </row>
     <row r="84">
@@ -4397,13 +4397,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.233626</v>
+        <v>0.23498</v>
       </c>
       <c r="C84" t="n">
-        <v>0.250412</v>
+        <v>0.248094</v>
       </c>
       <c r="D84" t="n">
-        <v>0.260135</v>
+        <v>0.253579</v>
       </c>
     </row>
     <row r="85">
@@ -4411,13 +4411,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.230541</v>
+        <v>0.231096</v>
       </c>
       <c r="C85" t="n">
-        <v>0.246332</v>
+        <v>0.251593</v>
       </c>
       <c r="D85" t="n">
-        <v>0.260299</v>
+        <v>0.251008</v>
       </c>
     </row>
     <row r="86">
@@ -4425,13 +4425,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.224764</v>
+        <v>0.223998</v>
       </c>
       <c r="C86" t="n">
-        <v>0.244343</v>
+        <v>0.246361</v>
       </c>
       <c r="D86" t="n">
-        <v>0.261654</v>
+        <v>0.251781</v>
       </c>
     </row>
     <row r="87">
@@ -4439,13 +4439,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.220225</v>
+        <v>0.221794</v>
       </c>
       <c r="C87" t="n">
-        <v>0.245858</v>
+        <v>0.245359</v>
       </c>
       <c r="D87" t="n">
-        <v>0.25761</v>
+        <v>0.250443</v>
       </c>
     </row>
     <row r="88">
@@ -4453,13 +4453,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.214212</v>
+        <v>0.215869</v>
       </c>
       <c r="C88" t="n">
-        <v>0.246389</v>
+        <v>0.2432</v>
       </c>
       <c r="D88" t="n">
-        <v>0.252515</v>
+        <v>0.248172</v>
       </c>
     </row>
     <row r="89">
@@ -4467,13 +4467,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.209746</v>
+        <v>0.212893</v>
       </c>
       <c r="C89" t="n">
-        <v>0.240608</v>
+        <v>0.242834</v>
       </c>
       <c r="D89" t="n">
-        <v>0.255012</v>
+        <v>0.245527</v>
       </c>
     </row>
     <row r="90">
@@ -4481,13 +4481,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.205524</v>
+        <v>0.205497</v>
       </c>
       <c r="C90" t="n">
-        <v>0.240833</v>
+        <v>0.239832</v>
       </c>
       <c r="D90" t="n">
-        <v>0.25645</v>
+        <v>0.245562</v>
       </c>
     </row>
     <row r="91">
@@ -4495,13 +4495,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.199009</v>
+        <v>0.19959</v>
       </c>
       <c r="C91" t="n">
-        <v>0.242595</v>
+        <v>0.238732</v>
       </c>
       <c r="D91" t="n">
-        <v>0.254546</v>
+        <v>0.241948</v>
       </c>
     </row>
     <row r="92">
@@ -4509,13 +4509,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.196509</v>
+        <v>0.193746</v>
       </c>
       <c r="C92" t="n">
-        <v>0.239888</v>
+        <v>0.238433</v>
       </c>
       <c r="D92" t="n">
-        <v>0.25026</v>
+        <v>0.24389</v>
       </c>
     </row>
     <row r="93">
@@ -4523,13 +4523,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.183602</v>
+        <v>0.190038</v>
       </c>
       <c r="C93" t="n">
-        <v>0.238495</v>
+        <v>0.242796</v>
       </c>
       <c r="D93" t="n">
-        <v>0.249182</v>
+        <v>0.243224</v>
       </c>
     </row>
     <row r="94">
@@ -4537,13 +4537,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.179481</v>
+        <v>0.181136</v>
       </c>
       <c r="C94" t="n">
-        <v>0.237883</v>
+        <v>0.23793</v>
       </c>
       <c r="D94" t="n">
-        <v>0.270475</v>
+        <v>0.260084</v>
       </c>
     </row>
     <row r="95">
@@ -4551,13 +4551,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.247707</v>
+        <v>0.247021</v>
       </c>
       <c r="C95" t="n">
-        <v>0.259506</v>
+        <v>0.256677</v>
       </c>
       <c r="D95" t="n">
-        <v>0.266136</v>
+        <v>0.258401</v>
       </c>
     </row>
     <row r="96">
@@ -4565,13 +4565,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.243058</v>
+        <v>0.242713</v>
       </c>
       <c r="C96" t="n">
-        <v>0.254766</v>
+        <v>0.255743</v>
       </c>
       <c r="D96" t="n">
-        <v>0.266705</v>
+        <v>0.257165</v>
       </c>
     </row>
     <row r="97">
@@ -4579,13 +4579,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.237965</v>
+        <v>0.241367</v>
       </c>
       <c r="C97" t="n">
-        <v>0.254348</v>
+        <v>0.255007</v>
       </c>
       <c r="D97" t="n">
-        <v>0.262826</v>
+        <v>0.255179</v>
       </c>
     </row>
     <row r="98">
@@ -4593,13 +4593,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.235432</v>
+        <v>0.24079</v>
       </c>
       <c r="C98" t="n">
-        <v>0.248933</v>
+        <v>0.256427</v>
       </c>
       <c r="D98" t="n">
-        <v>0.261919</v>
+        <v>0.262129</v>
       </c>
     </row>
     <row r="99">
@@ -4607,13 +4607,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.23115</v>
+        <v>0.250866</v>
       </c>
       <c r="C99" t="n">
-        <v>0.249876</v>
+        <v>0.249496</v>
       </c>
       <c r="D99" t="n">
-        <v>0.267293</v>
+        <v>0.259586</v>
       </c>
     </row>
     <row r="100">
@@ -4621,13 +4621,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.225699</v>
+        <v>0.225355</v>
       </c>
       <c r="C100" t="n">
-        <v>0.247503</v>
+        <v>0.245927</v>
       </c>
       <c r="D100" t="n">
-        <v>0.258002</v>
+        <v>0.25326</v>
       </c>
     </row>
     <row r="101">
@@ -4635,13 +4635,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.219656</v>
+        <v>0.220808</v>
       </c>
       <c r="C101" t="n">
-        <v>0.246036</v>
+        <v>0.245128</v>
       </c>
       <c r="D101" t="n">
-        <v>0.256295</v>
+        <v>0.248383</v>
       </c>
     </row>
     <row r="102">
@@ -4649,13 +4649,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.217751</v>
+        <v>0.218609</v>
       </c>
       <c r="C102" t="n">
-        <v>0.244458</v>
+        <v>0.24288</v>
       </c>
       <c r="D102" t="n">
-        <v>0.258043</v>
+        <v>0.245989</v>
       </c>
     </row>
     <row r="103">
@@ -4663,13 +4663,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.210578</v>
+        <v>0.211164</v>
       </c>
       <c r="C103" t="n">
-        <v>0.243373</v>
+        <v>0.241978</v>
       </c>
       <c r="D103" t="n">
-        <v>0.255346</v>
+        <v>0.24614</v>
       </c>
     </row>
     <row r="104">
@@ -4677,13 +4677,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.20334</v>
+        <v>0.207333</v>
       </c>
       <c r="C104" t="n">
-        <v>0.243137</v>
+        <v>0.2424</v>
       </c>
       <c r="D104" t="n">
-        <v>0.254088</v>
+        <v>0.248587</v>
       </c>
     </row>
     <row r="105">
@@ -4691,13 +4691,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.199546</v>
+        <v>0.201034</v>
       </c>
       <c r="C105" t="n">
-        <v>0.241078</v>
+        <v>0.239867</v>
       </c>
       <c r="D105" t="n">
-        <v>0.254859</v>
+        <v>0.243245</v>
       </c>
     </row>
     <row r="106">
@@ -4705,13 +4705,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.197403</v>
+        <v>0.194796</v>
       </c>
       <c r="C106" t="n">
-        <v>0.243175</v>
+        <v>0.238183</v>
       </c>
       <c r="D106" t="n">
-        <v>0.254617</v>
+        <v>0.242344</v>
       </c>
     </row>
     <row r="107">
@@ -4719,13 +4719,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.191318</v>
+        <v>0.189187</v>
       </c>
       <c r="C107" t="n">
-        <v>0.246191</v>
+        <v>0.242052</v>
       </c>
       <c r="D107" t="n">
-        <v>0.255373</v>
+        <v>0.241061</v>
       </c>
     </row>
     <row r="108">
@@ -4733,13 +4733,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.182295</v>
+        <v>0.180801</v>
       </c>
       <c r="C108" t="n">
-        <v>0.239087</v>
+        <v>0.23779</v>
       </c>
       <c r="D108" t="n">
-        <v>0.269867</v>
+        <v>0.25998</v>
       </c>
     </row>
     <row r="109">
@@ -4747,13 +4747,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.172595</v>
+        <v>0.176142</v>
       </c>
       <c r="C109" t="n">
-        <v>0.241152</v>
+        <v>0.237123</v>
       </c>
       <c r="D109" t="n">
-        <v>0.269521</v>
+        <v>0.257958</v>
       </c>
     </row>
     <row r="110">
@@ -4761,13 +4761,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.244141</v>
+        <v>0.244668</v>
       </c>
       <c r="C110" t="n">
-        <v>0.254734</v>
+        <v>0.254189</v>
       </c>
       <c r="D110" t="n">
-        <v>0.263411</v>
+        <v>0.258218</v>
       </c>
     </row>
     <row r="111">
@@ -4775,13 +4775,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.240493</v>
+        <v>0.240231</v>
       </c>
       <c r="C111" t="n">
-        <v>0.254518</v>
+        <v>0.254622</v>
       </c>
       <c r="D111" t="n">
-        <v>0.2637</v>
+        <v>0.256326</v>
       </c>
     </row>
     <row r="112">
@@ -4789,13 +4789,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.237835</v>
+        <v>0.236699</v>
       </c>
       <c r="C112" t="n">
-        <v>0.255398</v>
+        <v>0.250115</v>
       </c>
       <c r="D112" t="n">
-        <v>0.266268</v>
+        <v>0.252804</v>
       </c>
     </row>
     <row r="113">
@@ -4803,13 +4803,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.23342</v>
+        <v>0.232437</v>
       </c>
       <c r="C113" t="n">
-        <v>0.249742</v>
+        <v>0.248146</v>
       </c>
       <c r="D113" t="n">
-        <v>0.263533</v>
+        <v>0.24992</v>
       </c>
     </row>
     <row r="114">
@@ -4817,13 +4817,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.2256</v>
+        <v>0.228465</v>
       </c>
       <c r="C114" t="n">
-        <v>0.245785</v>
+        <v>0.248255</v>
       </c>
       <c r="D114" t="n">
-        <v>0.26392</v>
+        <v>0.249326</v>
       </c>
     </row>
     <row r="115">
@@ -4831,13 +4831,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.223247</v>
+        <v>0.228063</v>
       </c>
       <c r="C115" t="n">
-        <v>0.24747</v>
+        <v>0.244924</v>
       </c>
       <c r="D115" t="n">
-        <v>0.259568</v>
+        <v>0.247834</v>
       </c>
     </row>
     <row r="116">
@@ -4845,13 +4845,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.217108</v>
+        <v>0.217005</v>
       </c>
       <c r="C116" t="n">
-        <v>0.246437</v>
+        <v>0.246898</v>
       </c>
       <c r="D116" t="n">
-        <v>0.263322</v>
+        <v>0.257376</v>
       </c>
     </row>
     <row r="117">
@@ -4859,13 +4859,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.214048</v>
+        <v>0.212282</v>
       </c>
       <c r="C117" t="n">
-        <v>0.24312</v>
+        <v>0.243843</v>
       </c>
       <c r="D117" t="n">
-        <v>0.257674</v>
+        <v>0.24731</v>
       </c>
     </row>
     <row r="118">
@@ -4873,13 +4873,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.209106</v>
+        <v>0.20679</v>
       </c>
       <c r="C118" t="n">
-        <v>0.244496</v>
+        <v>0.240921</v>
       </c>
       <c r="D118" t="n">
-        <v>0.257863</v>
+        <v>0.247861</v>
       </c>
     </row>
     <row r="119">
@@ -4887,13 +4887,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.209618</v>
+        <v>0.202316</v>
       </c>
       <c r="C119" t="n">
-        <v>0.239142</v>
+        <v>0.238857</v>
       </c>
       <c r="D119" t="n">
-        <v>0.254642</v>
+        <v>0.249808</v>
       </c>
     </row>
     <row r="120">
@@ -4901,13 +4901,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.196894</v>
+        <v>0.195703</v>
       </c>
       <c r="C120" t="n">
-        <v>0.242775</v>
+        <v>0.239351</v>
       </c>
       <c r="D120" t="n">
-        <v>0.253465</v>
+        <v>0.240409</v>
       </c>
     </row>
     <row r="121">
@@ -4915,13 +4915,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.190746</v>
+        <v>0.191534</v>
       </c>
       <c r="C121" t="n">
-        <v>0.23804</v>
+        <v>0.24082</v>
       </c>
       <c r="D121" t="n">
-        <v>0.25026</v>
+        <v>0.242098</v>
       </c>
     </row>
     <row r="122">
@@ -4929,13 +4929,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.183239</v>
+        <v>0.17985</v>
       </c>
       <c r="C122" t="n">
-        <v>0.239155</v>
+        <v>0.235882</v>
       </c>
       <c r="D122" t="n">
-        <v>0.252228</v>
+        <v>0.236789</v>
       </c>
     </row>
     <row r="123">
@@ -4943,13 +4943,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.175103</v>
+        <v>0.173716</v>
       </c>
       <c r="C123" t="n">
-        <v>0.240779</v>
+        <v>0.237921</v>
       </c>
       <c r="D123" t="n">
-        <v>0.267479</v>
+        <v>0.258952</v>
       </c>
     </row>
     <row r="124">
@@ -4957,13 +4957,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.248142</v>
+        <v>0.24556</v>
       </c>
       <c r="C124" t="n">
-        <v>0.254598</v>
+        <v>0.253446</v>
       </c>
       <c r="D124" t="n">
-        <v>0.265137</v>
+        <v>0.255596</v>
       </c>
     </row>
     <row r="125">
@@ -4971,13 +4971,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.242227</v>
+        <v>0.240285</v>
       </c>
       <c r="C125" t="n">
-        <v>0.261516</v>
+        <v>0.249843</v>
       </c>
       <c r="D125" t="n">
-        <v>0.263834</v>
+        <v>0.256749</v>
       </c>
     </row>
     <row r="126">
@@ -4985,13 +4985,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.236975</v>
+        <v>0.236707</v>
       </c>
       <c r="C126" t="n">
-        <v>0.254104</v>
+        <v>0.252208</v>
       </c>
       <c r="D126" t="n">
-        <v>0.268394</v>
+        <v>0.253625</v>
       </c>
     </row>
     <row r="127">
@@ -4999,13 +4999,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.23431</v>
+        <v>0.231031</v>
       </c>
       <c r="C127" t="n">
-        <v>0.247473</v>
+        <v>0.246005</v>
       </c>
       <c r="D127" t="n">
-        <v>0.261506</v>
+        <v>0.259201</v>
       </c>
     </row>
     <row r="128">
@@ -5013,13 +5013,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.229159</v>
+        <v>0.227096</v>
       </c>
       <c r="C128" t="n">
-        <v>0.248306</v>
+        <v>0.249034</v>
       </c>
       <c r="D128" t="n">
-        <v>0.259613</v>
+        <v>0.247059</v>
       </c>
     </row>
     <row r="129">
@@ -5027,13 +5027,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.225169</v>
+        <v>0.225317</v>
       </c>
       <c r="C129" t="n">
-        <v>0.247298</v>
+        <v>0.241889</v>
       </c>
       <c r="D129" t="n">
-        <v>0.261958</v>
+        <v>0.249379</v>
       </c>
     </row>
     <row r="130">
@@ -5041,13 +5041,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.216224</v>
+        <v>0.217913</v>
       </c>
       <c r="C130" t="n">
-        <v>0.246607</v>
+        <v>0.243982</v>
       </c>
       <c r="D130" t="n">
-        <v>0.264761</v>
+        <v>0.245289</v>
       </c>
     </row>
     <row r="131">
@@ -5055,13 +5055,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.212148</v>
+        <v>0.211804</v>
       </c>
       <c r="C131" t="n">
-        <v>0.249076</v>
+        <v>0.243227</v>
       </c>
       <c r="D131" t="n">
-        <v>0.255547</v>
+        <v>0.244748</v>
       </c>
     </row>
     <row r="132">
@@ -5069,13 +5069,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.211028</v>
+        <v>0.206982</v>
       </c>
       <c r="C132" t="n">
-        <v>0.246023</v>
+        <v>0.248225</v>
       </c>
       <c r="D132" t="n">
-        <v>0.255451</v>
+        <v>0.241476</v>
       </c>
     </row>
     <row r="133">
@@ -5083,13 +5083,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.204386</v>
+        <v>0.202001</v>
       </c>
       <c r="C133" t="n">
-        <v>0.241649</v>
+        <v>0.238689</v>
       </c>
       <c r="D133" t="n">
-        <v>0.25198</v>
+        <v>0.23905</v>
       </c>
     </row>
     <row r="134">
@@ -5097,13 +5097,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.198125</v>
+        <v>0.199481</v>
       </c>
       <c r="C134" t="n">
-        <v>0.245535</v>
+        <v>0.238704</v>
       </c>
       <c r="D134" t="n">
-        <v>0.254747</v>
+        <v>0.241173</v>
       </c>
     </row>
     <row r="135">
@@ -5111,13 +5111,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.192671</v>
+        <v>0.193549</v>
       </c>
       <c r="C135" t="n">
-        <v>0.241021</v>
+        <v>0.236136</v>
       </c>
       <c r="D135" t="n">
-        <v>0.253647</v>
+        <v>0.24124</v>
       </c>
     </row>
     <row r="136">
@@ -5125,13 +5125,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.183448</v>
+        <v>0.186577</v>
       </c>
       <c r="C136" t="n">
-        <v>0.239411</v>
+        <v>0.237045</v>
       </c>
       <c r="D136" t="n">
-        <v>0.256172</v>
+        <v>0.246196</v>
       </c>
     </row>
     <row r="137">
@@ -5139,13 +5139,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.176575</v>
+        <v>0.177821</v>
       </c>
       <c r="C137" t="n">
-        <v>0.24193</v>
+        <v>0.23142</v>
       </c>
       <c r="D137" t="n">
-        <v>0.272406</v>
+        <v>0.257445</v>
       </c>
     </row>
     <row r="138">
@@ -5153,13 +5153,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.250136</v>
+        <v>0.250638</v>
       </c>
       <c r="C138" t="n">
-        <v>0.2595</v>
+        <v>0.258311</v>
       </c>
       <c r="D138" t="n">
-        <v>0.271554</v>
+        <v>0.253299</v>
       </c>
     </row>
     <row r="139">
@@ -5167,13 +5167,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.240962</v>
+        <v>0.242312</v>
       </c>
       <c r="C139" t="n">
-        <v>0.250004</v>
+        <v>0.253959</v>
       </c>
       <c r="D139" t="n">
-        <v>0.270281</v>
+        <v>0.2571</v>
       </c>
     </row>
     <row r="140">
@@ -5181,13 +5181,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.237911</v>
+        <v>0.238341</v>
       </c>
       <c r="C140" t="n">
-        <v>0.24841</v>
+        <v>0.246696</v>
       </c>
       <c r="D140" t="n">
-        <v>0.260434</v>
+        <v>0.250609</v>
       </c>
     </row>
     <row r="141">
@@ -5195,13 +5195,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.229359</v>
+        <v>0.237399</v>
       </c>
       <c r="C141" t="n">
-        <v>0.244635</v>
+        <v>0.246706</v>
       </c>
       <c r="D141" t="n">
-        <v>0.256819</v>
+        <v>0.251479</v>
       </c>
     </row>
     <row r="142">
@@ -5209,13 +5209,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.226358</v>
+        <v>0.227498</v>
       </c>
       <c r="C142" t="n">
-        <v>0.253916</v>
+        <v>0.245558</v>
       </c>
       <c r="D142" t="n">
-        <v>0.255626</v>
+        <v>0.251048</v>
       </c>
     </row>
     <row r="143">
@@ -5223,13 +5223,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.231367</v>
+        <v>0.228538</v>
       </c>
       <c r="C143" t="n">
-        <v>0.251174</v>
+        <v>0.245536</v>
       </c>
       <c r="D143" t="n">
-        <v>0.26152</v>
+        <v>0.2484</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Running erasure.xlsx
+++ b/vs-x64/Running erasure.xlsx
@@ -3249,13 +3249,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.199349</v>
+        <v>0.199618</v>
       </c>
       <c r="C2" t="n">
-        <v>0.234413</v>
+        <v>0.225317</v>
       </c>
       <c r="D2" t="n">
-        <v>0.235136</v>
+        <v>0.227152</v>
       </c>
     </row>
     <row r="3">
@@ -3263,13 +3263,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.197624</v>
+        <v>0.192571</v>
       </c>
       <c r="C3" t="n">
-        <v>0.230467</v>
+        <v>0.227883</v>
       </c>
       <c r="D3" t="n">
-        <v>0.231919</v>
+        <v>0.223457</v>
       </c>
     </row>
     <row r="4">
@@ -3277,13 +3277,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.192384</v>
+        <v>0.19014</v>
       </c>
       <c r="C4" t="n">
-        <v>0.233358</v>
+        <v>0.225617</v>
       </c>
       <c r="D4" t="n">
-        <v>0.236491</v>
+        <v>0.224849</v>
       </c>
     </row>
     <row r="5">
@@ -3291,13 +3291,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.201741</v>
+        <v>0.186402</v>
       </c>
       <c r="C5" t="n">
-        <v>0.236078</v>
+        <v>0.230271</v>
       </c>
       <c r="D5" t="n">
-        <v>0.234817</v>
+        <v>0.2245</v>
       </c>
     </row>
     <row r="6">
@@ -3305,13 +3305,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.192619</v>
+        <v>0.184216</v>
       </c>
       <c r="C6" t="n">
-        <v>0.256742</v>
+        <v>0.223898</v>
       </c>
       <c r="D6" t="n">
-        <v>0.245249</v>
+        <v>0.231876</v>
       </c>
     </row>
     <row r="7">
@@ -3319,13 +3319,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.185244</v>
+        <v>0.180082</v>
       </c>
       <c r="C7" t="n">
-        <v>0.268985</v>
+        <v>0.223105</v>
       </c>
       <c r="D7" t="n">
-        <v>0.233953</v>
+        <v>0.231185</v>
       </c>
     </row>
     <row r="8">
@@ -3333,13 +3333,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.171914</v>
+        <v>0.168097</v>
       </c>
       <c r="C8" t="n">
-        <v>0.224888</v>
+        <v>0.231046</v>
       </c>
       <c r="D8" t="n">
-        <v>0.225908</v>
+        <v>0.229951</v>
       </c>
     </row>
     <row r="9">
@@ -3347,13 +3347,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.160674</v>
+        <v>0.159021</v>
       </c>
       <c r="C9" t="n">
-        <v>0.226001</v>
+        <v>0.224507</v>
       </c>
       <c r="D9" t="n">
-        <v>0.238383</v>
+        <v>0.243713</v>
       </c>
     </row>
     <row r="10">
@@ -3361,13 +3361,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.229867</v>
+        <v>0.231951</v>
       </c>
       <c r="C10" t="n">
-        <v>0.238551</v>
+        <v>0.235093</v>
       </c>
       <c r="D10" t="n">
-        <v>0.237668</v>
+        <v>0.23603</v>
       </c>
     </row>
     <row r="11">
@@ -3375,13 +3375,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.225047</v>
+        <v>0.22242</v>
       </c>
       <c r="C11" t="n">
-        <v>0.237864</v>
+        <v>0.232408</v>
       </c>
       <c r="D11" t="n">
-        <v>0.238011</v>
+        <v>0.233955</v>
       </c>
     </row>
     <row r="12">
@@ -3389,13 +3389,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.217775</v>
+        <v>0.218522</v>
       </c>
       <c r="C12" t="n">
-        <v>0.23675</v>
+        <v>0.234758</v>
       </c>
       <c r="D12" t="n">
-        <v>0.237953</v>
+        <v>0.238739</v>
       </c>
     </row>
     <row r="13">
@@ -3403,13 +3403,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.215039</v>
+        <v>0.214596</v>
       </c>
       <c r="C13" t="n">
-        <v>0.234032</v>
+        <v>0.23717</v>
       </c>
       <c r="D13" t="n">
-        <v>0.235597</v>
+        <v>0.23701</v>
       </c>
     </row>
     <row r="14">
@@ -3417,13 +3417,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.211155</v>
+        <v>0.213492</v>
       </c>
       <c r="C14" t="n">
-        <v>0.234555</v>
+        <v>0.230978</v>
       </c>
       <c r="D14" t="n">
-        <v>0.234486</v>
+        <v>0.23536</v>
       </c>
     </row>
     <row r="15">
@@ -3431,13 +3431,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.207459</v>
+        <v>0.208232</v>
       </c>
       <c r="C15" t="n">
-        <v>0.234648</v>
+        <v>0.233742</v>
       </c>
       <c r="D15" t="n">
-        <v>0.234105</v>
+        <v>0.231778</v>
       </c>
     </row>
     <row r="16">
@@ -3445,13 +3445,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.209015</v>
+        <v>0.20335</v>
       </c>
       <c r="C16" t="n">
-        <v>0.233073</v>
+        <v>0.230612</v>
       </c>
       <c r="D16" t="n">
-        <v>0.23582</v>
+        <v>0.232776</v>
       </c>
     </row>
     <row r="17">
@@ -3459,13 +3459,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.201659</v>
+        <v>0.203608</v>
       </c>
       <c r="C17" t="n">
-        <v>0.233418</v>
+        <v>0.231507</v>
       </c>
       <c r="D17" t="n">
-        <v>0.23639</v>
+        <v>0.232772</v>
       </c>
     </row>
     <row r="18">
@@ -3473,13 +3473,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.198746</v>
+        <v>0.198824</v>
       </c>
       <c r="C18" t="n">
-        <v>0.229684</v>
+        <v>0.230919</v>
       </c>
       <c r="D18" t="n">
-        <v>0.235312</v>
+        <v>0.235947</v>
       </c>
     </row>
     <row r="19">
@@ -3487,13 +3487,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.191522</v>
+        <v>0.189561</v>
       </c>
       <c r="C19" t="n">
-        <v>0.228733</v>
+        <v>0.224751</v>
       </c>
       <c r="D19" t="n">
-        <v>0.234879</v>
+        <v>0.230671</v>
       </c>
     </row>
     <row r="20">
@@ -3501,13 +3501,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.193633</v>
+        <v>0.185762</v>
       </c>
       <c r="C20" t="n">
-        <v>0.231101</v>
+        <v>0.231225</v>
       </c>
       <c r="D20" t="n">
-        <v>0.23078</v>
+        <v>0.230554</v>
       </c>
     </row>
     <row r="21">
@@ -3515,13 +3515,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.185362</v>
+        <v>0.180763</v>
       </c>
       <c r="C21" t="n">
-        <v>0.2282</v>
+        <v>0.232009</v>
       </c>
       <c r="D21" t="n">
-        <v>0.229944</v>
+        <v>0.236358</v>
       </c>
     </row>
     <row r="22">
@@ -3529,13 +3529,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.179273</v>
+        <v>0.178103</v>
       </c>
       <c r="C22" t="n">
-        <v>0.228705</v>
+        <v>0.228349</v>
       </c>
       <c r="D22" t="n">
-        <v>0.231596</v>
+        <v>0.231577</v>
       </c>
     </row>
     <row r="23">
@@ -3543,13 +3543,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.169741</v>
+        <v>0.169406</v>
       </c>
       <c r="C23" t="n">
-        <v>0.229498</v>
+        <v>0.23187</v>
       </c>
       <c r="D23" t="n">
-        <v>0.241703</v>
+        <v>0.242518</v>
       </c>
     </row>
     <row r="24">
@@ -3557,13 +3557,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.235986</v>
+        <v>0.225907</v>
       </c>
       <c r="C24" t="n">
-        <v>0.242837</v>
+        <v>0.237579</v>
       </c>
       <c r="D24" t="n">
-        <v>0.244611</v>
+        <v>0.248214</v>
       </c>
     </row>
     <row r="25">
@@ -3571,13 +3571,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.227481</v>
+        <v>0.227094</v>
       </c>
       <c r="C25" t="n">
-        <v>0.237139</v>
+        <v>0.239377</v>
       </c>
       <c r="D25" t="n">
-        <v>0.24007</v>
+        <v>0.239243</v>
       </c>
     </row>
     <row r="26">
@@ -3585,13 +3585,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.224892</v>
+        <v>0.222273</v>
       </c>
       <c r="C26" t="n">
-        <v>0.239058</v>
+        <v>0.235717</v>
       </c>
       <c r="D26" t="n">
-        <v>0.239845</v>
+        <v>0.236485</v>
       </c>
     </row>
     <row r="27">
@@ -3599,13 +3599,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.221368</v>
+        <v>0.221478</v>
       </c>
       <c r="C27" t="n">
-        <v>0.234301</v>
+        <v>0.233575</v>
       </c>
       <c r="D27" t="n">
-        <v>0.240222</v>
+        <v>0.235151</v>
       </c>
     </row>
     <row r="28">
@@ -3613,13 +3613,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.215633</v>
+        <v>0.223421</v>
       </c>
       <c r="C28" t="n">
-        <v>0.236417</v>
+        <v>0.240417</v>
       </c>
       <c r="D28" t="n">
-        <v>0.237673</v>
+        <v>0.238713</v>
       </c>
     </row>
     <row r="29">
@@ -3627,13 +3627,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.213943</v>
+        <v>0.211667</v>
       </c>
       <c r="C29" t="n">
-        <v>0.236866</v>
+        <v>0.234365</v>
       </c>
       <c r="D29" t="n">
-        <v>0.236862</v>
+        <v>0.239737</v>
       </c>
     </row>
     <row r="30">
@@ -3641,13 +3641,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.217063</v>
+        <v>0.206791</v>
       </c>
       <c r="C30" t="n">
-        <v>0.235993</v>
+        <v>0.229726</v>
       </c>
       <c r="D30" t="n">
-        <v>0.240588</v>
+        <v>0.234333</v>
       </c>
     </row>
     <row r="31">
@@ -3655,13 +3655,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.221295</v>
+        <v>0.204637</v>
       </c>
       <c r="C31" t="n">
-        <v>0.247932</v>
+        <v>0.233286</v>
       </c>
       <c r="D31" t="n">
-        <v>0.248009</v>
+        <v>0.238032</v>
       </c>
     </row>
     <row r="32">
@@ -3669,13 +3669,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.210401</v>
+        <v>0.197005</v>
       </c>
       <c r="C32" t="n">
-        <v>0.236517</v>
+        <v>0.23067</v>
       </c>
       <c r="D32" t="n">
-        <v>0.237955</v>
+        <v>0.236209</v>
       </c>
     </row>
     <row r="33">
@@ -3683,13 +3683,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.206655</v>
+        <v>0.194044</v>
       </c>
       <c r="C33" t="n">
-        <v>0.234046</v>
+        <v>0.22968</v>
       </c>
       <c r="D33" t="n">
-        <v>0.237018</v>
+        <v>0.232646</v>
       </c>
     </row>
     <row r="34">
@@ -3697,13 +3697,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.190766</v>
+        <v>0.193368</v>
       </c>
       <c r="C34" t="n">
-        <v>0.230371</v>
+        <v>0.231354</v>
       </c>
       <c r="D34" t="n">
-        <v>0.233825</v>
+        <v>0.230179</v>
       </c>
     </row>
     <row r="35">
@@ -3711,13 +3711,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.188304</v>
+        <v>0.184403</v>
       </c>
       <c r="C35" t="n">
-        <v>0.234251</v>
+        <v>0.226615</v>
       </c>
       <c r="D35" t="n">
-        <v>0.237618</v>
+        <v>0.239495</v>
       </c>
     </row>
     <row r="36">
@@ -3725,13 +3725,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.180616</v>
+        <v>0.18124</v>
       </c>
       <c r="C36" t="n">
-        <v>0.228982</v>
+        <v>0.230831</v>
       </c>
       <c r="D36" t="n">
-        <v>0.234963</v>
+        <v>0.232033</v>
       </c>
     </row>
     <row r="37">
@@ -3739,13 +3739,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.175603</v>
+        <v>0.171965</v>
       </c>
       <c r="C37" t="n">
-        <v>0.227989</v>
+        <v>0.234229</v>
       </c>
       <c r="D37" t="n">
-        <v>0.245487</v>
+        <v>0.242217</v>
       </c>
     </row>
     <row r="38">
@@ -3753,13 +3753,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.236855</v>
+        <v>0.232259</v>
       </c>
       <c r="C38" t="n">
-        <v>0.241831</v>
+        <v>0.241052</v>
       </c>
       <c r="D38" t="n">
-        <v>0.245476</v>
+        <v>0.245919</v>
       </c>
     </row>
     <row r="39">
@@ -3767,13 +3767,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.230911</v>
+        <v>0.227073</v>
       </c>
       <c r="C39" t="n">
-        <v>0.240287</v>
+        <v>0.237778</v>
       </c>
       <c r="D39" t="n">
-        <v>0.244129</v>
+        <v>0.244506</v>
       </c>
     </row>
     <row r="40">
@@ -3781,13 +3781,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.228554</v>
+        <v>0.22356</v>
       </c>
       <c r="C40" t="n">
-        <v>0.242226</v>
+        <v>0.23853</v>
       </c>
       <c r="D40" t="n">
-        <v>0.24524</v>
+        <v>0.241135</v>
       </c>
     </row>
     <row r="41">
@@ -3795,13 +3795,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.228756</v>
+        <v>0.220221</v>
       </c>
       <c r="C41" t="n">
-        <v>0.236852</v>
+        <v>0.236122</v>
       </c>
       <c r="D41" t="n">
-        <v>0.241685</v>
+        <v>0.244858</v>
       </c>
     </row>
     <row r="42">
@@ -3809,13 +3809,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.218976</v>
+        <v>0.219145</v>
       </c>
       <c r="C42" t="n">
-        <v>0.23691</v>
+        <v>0.233863</v>
       </c>
       <c r="D42" t="n">
-        <v>0.239046</v>
+        <v>0.236305</v>
       </c>
     </row>
     <row r="43">
@@ -3823,13 +3823,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.217148</v>
+        <v>0.213822</v>
       </c>
       <c r="C43" t="n">
-        <v>0.237903</v>
+        <v>0.232161</v>
       </c>
       <c r="D43" t="n">
-        <v>0.238571</v>
+        <v>0.237151</v>
       </c>
     </row>
     <row r="44">
@@ -3837,13 +3837,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.215484</v>
+        <v>0.209897</v>
       </c>
       <c r="C44" t="n">
-        <v>0.237595</v>
+        <v>0.23448</v>
       </c>
       <c r="D44" t="n">
-        <v>0.238857</v>
+        <v>0.235139</v>
       </c>
     </row>
     <row r="45">
@@ -3851,13 +3851,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.208249</v>
+        <v>0.20536</v>
       </c>
       <c r="C45" t="n">
-        <v>0.235608</v>
+        <v>0.234366</v>
       </c>
       <c r="D45" t="n">
-        <v>0.236484</v>
+        <v>0.237355</v>
       </c>
     </row>
     <row r="46">
@@ -3865,13 +3865,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.205936</v>
+        <v>0.20332</v>
       </c>
       <c r="C46" t="n">
-        <v>0.23335</v>
+        <v>0.232823</v>
       </c>
       <c r="D46" t="n">
-        <v>0.236327</v>
+        <v>0.234804</v>
       </c>
     </row>
     <row r="47">
@@ -3879,13 +3879,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.198653</v>
+        <v>0.194569</v>
       </c>
       <c r="C47" t="n">
-        <v>0.234111</v>
+        <v>0.231646</v>
       </c>
       <c r="D47" t="n">
-        <v>0.235503</v>
+        <v>0.242452</v>
       </c>
     </row>
     <row r="48">
@@ -3893,13 +3893,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.19593</v>
+        <v>0.194785</v>
       </c>
       <c r="C48" t="n">
-        <v>0.235125</v>
+        <v>0.229232</v>
       </c>
       <c r="D48" t="n">
-        <v>0.236039</v>
+        <v>0.235795</v>
       </c>
     </row>
     <row r="49">
@@ -3907,13 +3907,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.189184</v>
+        <v>0.186136</v>
       </c>
       <c r="C49" t="n">
-        <v>0.231615</v>
+        <v>0.228769</v>
       </c>
       <c r="D49" t="n">
-        <v>0.234272</v>
+        <v>0.238896</v>
       </c>
     </row>
     <row r="50">
@@ -3921,13 +3921,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.183432</v>
+        <v>0.180595</v>
       </c>
       <c r="C50" t="n">
-        <v>0.235427</v>
+        <v>0.229251</v>
       </c>
       <c r="D50" t="n">
-        <v>0.234584</v>
+        <v>0.235023</v>
       </c>
     </row>
     <row r="51">
@@ -3935,13 +3935,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.179238</v>
+        <v>0.173763</v>
       </c>
       <c r="C51" t="n">
-        <v>0.230258</v>
+        <v>0.227189</v>
       </c>
       <c r="D51" t="n">
-        <v>0.254312</v>
+        <v>0.254067</v>
       </c>
     </row>
     <row r="52">
@@ -3949,13 +3949,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.167926</v>
+        <v>0.164775</v>
       </c>
       <c r="C52" t="n">
-        <v>0.231017</v>
+        <v>0.229682</v>
       </c>
       <c r="D52" t="n">
-        <v>0.2525</v>
+        <v>0.249199</v>
       </c>
     </row>
     <row r="53">
@@ -3963,13 +3963,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.235778</v>
+        <v>0.230943</v>
       </c>
       <c r="C53" t="n">
-        <v>0.248569</v>
+        <v>0.243807</v>
       </c>
       <c r="D53" t="n">
-        <v>0.254736</v>
+        <v>0.249063</v>
       </c>
     </row>
     <row r="54">
@@ -3977,13 +3977,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.232827</v>
+        <v>0.227596</v>
       </c>
       <c r="C54" t="n">
-        <v>0.246535</v>
+        <v>0.2433</v>
       </c>
       <c r="D54" t="n">
-        <v>0.249159</v>
+        <v>0.251845</v>
       </c>
     </row>
     <row r="55">
@@ -3991,13 +3991,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.230663</v>
+        <v>0.224687</v>
       </c>
       <c r="C55" t="n">
-        <v>0.244208</v>
+        <v>0.242381</v>
       </c>
       <c r="D55" t="n">
-        <v>0.246338</v>
+        <v>0.246569</v>
       </c>
     </row>
     <row r="56">
@@ -4005,13 +4005,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.224382</v>
+        <v>0.220971</v>
       </c>
       <c r="C56" t="n">
-        <v>0.241979</v>
+        <v>0.240011</v>
       </c>
       <c r="D56" t="n">
-        <v>0.245398</v>
+        <v>0.245003</v>
       </c>
     </row>
     <row r="57">
@@ -4019,13 +4019,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.219404</v>
+        <v>0.219412</v>
       </c>
       <c r="C57" t="n">
-        <v>0.239701</v>
+        <v>0.239694</v>
       </c>
       <c r="D57" t="n">
-        <v>0.246918</v>
+        <v>0.242766</v>
       </c>
     </row>
     <row r="58">
@@ -4033,13 +4033,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.214532</v>
+        <v>0.211701</v>
       </c>
       <c r="C58" t="n">
-        <v>0.249593</v>
+        <v>0.241508</v>
       </c>
       <c r="D58" t="n">
-        <v>0.246643</v>
+        <v>0.241842</v>
       </c>
     </row>
     <row r="59">
@@ -4047,13 +4047,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.217853</v>
+        <v>0.209684</v>
       </c>
       <c r="C59" t="n">
-        <v>0.250862</v>
+        <v>0.23601</v>
       </c>
       <c r="D59" t="n">
-        <v>0.24908</v>
+        <v>0.239496</v>
       </c>
     </row>
     <row r="60">
@@ -4061,13 +4061,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.20987</v>
+        <v>0.203228</v>
       </c>
       <c r="C60" t="n">
-        <v>0.241533</v>
+        <v>0.235732</v>
       </c>
       <c r="D60" t="n">
-        <v>0.243666</v>
+        <v>0.240458</v>
       </c>
     </row>
     <row r="61">
@@ -4075,13 +4075,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.20258</v>
+        <v>0.199684</v>
       </c>
       <c r="C61" t="n">
-        <v>0.239494</v>
+        <v>0.235802</v>
       </c>
       <c r="D61" t="n">
-        <v>0.240475</v>
+        <v>0.238894</v>
       </c>
     </row>
     <row r="62">
@@ -4089,13 +4089,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.197406</v>
+        <v>0.194095</v>
       </c>
       <c r="C62" t="n">
-        <v>0.237629</v>
+        <v>0.234207</v>
       </c>
       <c r="D62" t="n">
-        <v>0.239668</v>
+        <v>0.237665</v>
       </c>
     </row>
     <row r="63">
@@ -4103,13 +4103,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.194366</v>
+        <v>0.188508</v>
       </c>
       <c r="C63" t="n">
-        <v>0.235178</v>
+        <v>0.232483</v>
       </c>
       <c r="D63" t="n">
-        <v>0.239905</v>
+        <v>0.237438</v>
       </c>
     </row>
     <row r="64">
@@ -4117,13 +4117,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.189559</v>
+        <v>0.183112</v>
       </c>
       <c r="C64" t="n">
-        <v>0.23505</v>
+        <v>0.233015</v>
       </c>
       <c r="D64" t="n">
-        <v>0.238801</v>
+        <v>0.236475</v>
       </c>
     </row>
     <row r="65">
@@ -4131,13 +4131,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.178276</v>
+        <v>0.1767</v>
       </c>
       <c r="C65" t="n">
-        <v>0.236287</v>
+        <v>0.230703</v>
       </c>
       <c r="D65" t="n">
-        <v>0.240953</v>
+        <v>0.231932</v>
       </c>
     </row>
     <row r="66">
@@ -4145,13 +4145,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.172661</v>
+        <v>0.16896</v>
       </c>
       <c r="C66" t="n">
-        <v>0.234558</v>
+        <v>0.228168</v>
       </c>
       <c r="D66" t="n">
-        <v>0.253944</v>
+        <v>0.251216</v>
       </c>
     </row>
     <row r="67">
@@ -4159,13 +4159,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.241633</v>
+        <v>0.235323</v>
       </c>
       <c r="C67" t="n">
-        <v>0.250224</v>
+        <v>0.249002</v>
       </c>
       <c r="D67" t="n">
-        <v>0.251486</v>
+        <v>0.252064</v>
       </c>
     </row>
     <row r="68">
@@ -4173,13 +4173,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.238789</v>
+        <v>0.232466</v>
       </c>
       <c r="C68" t="n">
-        <v>0.246101</v>
+        <v>0.244357</v>
       </c>
       <c r="D68" t="n">
-        <v>0.25112</v>
+        <v>0.247106</v>
       </c>
     </row>
     <row r="69">
@@ -4187,13 +4187,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.23646</v>
+        <v>0.229127</v>
       </c>
       <c r="C69" t="n">
-        <v>0.247029</v>
+        <v>0.242678</v>
       </c>
       <c r="D69" t="n">
-        <v>0.250255</v>
+        <v>0.243691</v>
       </c>
     </row>
     <row r="70">
@@ -4201,13 +4201,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.231353</v>
+        <v>0.225263</v>
       </c>
       <c r="C70" t="n">
-        <v>0.245226</v>
+        <v>0.242247</v>
       </c>
       <c r="D70" t="n">
-        <v>0.252094</v>
+        <v>0.247808</v>
       </c>
     </row>
     <row r="71">
@@ -4215,13 +4215,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.228533</v>
+        <v>0.222244</v>
       </c>
       <c r="C71" t="n">
-        <v>0.243633</v>
+        <v>0.24375</v>
       </c>
       <c r="D71" t="n">
-        <v>0.245213</v>
+        <v>0.243654</v>
       </c>
     </row>
     <row r="72">
@@ -4229,13 +4229,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.220226</v>
+        <v>0.2152</v>
       </c>
       <c r="C72" t="n">
-        <v>0.23972</v>
+        <v>0.244944</v>
       </c>
       <c r="D72" t="n">
-        <v>0.243834</v>
+        <v>0.245796</v>
       </c>
     </row>
     <row r="73">
@@ -4243,13 +4243,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.216971</v>
+        <v>0.21401</v>
       </c>
       <c r="C73" t="n">
-        <v>0.243148</v>
+        <v>0.241395</v>
       </c>
       <c r="D73" t="n">
-        <v>0.246349</v>
+        <v>0.242013</v>
       </c>
     </row>
     <row r="74">
@@ -4257,13 +4257,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.215912</v>
+        <v>0.209291</v>
       </c>
       <c r="C74" t="n">
-        <v>0.24035</v>
+        <v>0.239595</v>
       </c>
       <c r="D74" t="n">
-        <v>0.249771</v>
+        <v>0.244396</v>
       </c>
     </row>
     <row r="75">
@@ -4271,13 +4271,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.207593</v>
+        <v>0.205793</v>
       </c>
       <c r="C75" t="n">
-        <v>0.23915</v>
+        <v>0.23862</v>
       </c>
       <c r="D75" t="n">
-        <v>0.245108</v>
+        <v>0.241832</v>
       </c>
     </row>
     <row r="76">
@@ -4285,13 +4285,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.200778</v>
+        <v>0.19794</v>
       </c>
       <c r="C76" t="n">
-        <v>0.23814</v>
+        <v>0.23903</v>
       </c>
       <c r="D76" t="n">
-        <v>0.242976</v>
+        <v>0.23605</v>
       </c>
     </row>
     <row r="77">
@@ -4299,13 +4299,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.199812</v>
+        <v>0.194559</v>
       </c>
       <c r="C77" t="n">
-        <v>0.240007</v>
+        <v>0.23554</v>
       </c>
       <c r="D77" t="n">
-        <v>0.240506</v>
+        <v>0.236455</v>
       </c>
     </row>
     <row r="78">
@@ -4313,13 +4313,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.191572</v>
+        <v>0.187279</v>
       </c>
       <c r="C78" t="n">
-        <v>0.235813</v>
+        <v>0.235376</v>
       </c>
       <c r="D78" t="n">
-        <v>0.238411</v>
+        <v>0.237748</v>
       </c>
     </row>
     <row r="79">
@@ -4327,13 +4327,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.183764</v>
+        <v>0.18034</v>
       </c>
       <c r="C79" t="n">
-        <v>0.238902</v>
+        <v>0.231136</v>
       </c>
       <c r="D79" t="n">
-        <v>0.237958</v>
+        <v>0.236373</v>
       </c>
     </row>
     <row r="80">
@@ -4341,13 +4341,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.17655</v>
+        <v>0.171906</v>
       </c>
       <c r="C80" t="n">
-        <v>0.234509</v>
+        <v>0.234564</v>
       </c>
       <c r="D80" t="n">
-        <v>0.259774</v>
+        <v>0.255349</v>
       </c>
     </row>
     <row r="81">
@@ -4355,13 +4355,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.248259</v>
+        <v>0.238814</v>
       </c>
       <c r="C81" t="n">
-        <v>0.255393</v>
+        <v>0.249476</v>
       </c>
       <c r="D81" t="n">
-        <v>0.257375</v>
+        <v>0.248965</v>
       </c>
     </row>
     <row r="82">
@@ -4369,13 +4369,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.247988</v>
+        <v>0.238749</v>
       </c>
       <c r="C82" t="n">
-        <v>0.251091</v>
+        <v>0.246917</v>
       </c>
       <c r="D82" t="n">
-        <v>0.259837</v>
+        <v>0.252084</v>
       </c>
     </row>
     <row r="83">
@@ -4383,13 +4383,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.251503</v>
+        <v>0.234785</v>
       </c>
       <c r="C83" t="n">
-        <v>0.257299</v>
+        <v>0.249243</v>
       </c>
       <c r="D83" t="n">
-        <v>0.257958</v>
+        <v>0.249894</v>
       </c>
     </row>
     <row r="84">
@@ -4397,13 +4397,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.23498</v>
+        <v>0.234693</v>
       </c>
       <c r="C84" t="n">
-        <v>0.248094</v>
+        <v>0.2439</v>
       </c>
       <c r="D84" t="n">
-        <v>0.253579</v>
+        <v>0.245501</v>
       </c>
     </row>
     <row r="85">
@@ -4411,13 +4411,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.231096</v>
+        <v>0.229139</v>
       </c>
       <c r="C85" t="n">
-        <v>0.251593</v>
+        <v>0.241915</v>
       </c>
       <c r="D85" t="n">
-        <v>0.251008</v>
+        <v>0.246721</v>
       </c>
     </row>
     <row r="86">
@@ -4425,13 +4425,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.223998</v>
+        <v>0.223415</v>
       </c>
       <c r="C86" t="n">
-        <v>0.246361</v>
+        <v>0.24213</v>
       </c>
       <c r="D86" t="n">
-        <v>0.251781</v>
+        <v>0.251059</v>
       </c>
     </row>
     <row r="87">
@@ -4439,13 +4439,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.221794</v>
+        <v>0.217247</v>
       </c>
       <c r="C87" t="n">
-        <v>0.245359</v>
+        <v>0.247117</v>
       </c>
       <c r="D87" t="n">
-        <v>0.250443</v>
+        <v>0.246625</v>
       </c>
     </row>
     <row r="88">
@@ -4453,13 +4453,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.215869</v>
+        <v>0.215067</v>
       </c>
       <c r="C88" t="n">
-        <v>0.2432</v>
+        <v>0.242484</v>
       </c>
       <c r="D88" t="n">
-        <v>0.248172</v>
+        <v>0.243488</v>
       </c>
     </row>
     <row r="89">
@@ -4467,13 +4467,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.212893</v>
+        <v>0.208718</v>
       </c>
       <c r="C89" t="n">
-        <v>0.242834</v>
+        <v>0.236036</v>
       </c>
       <c r="D89" t="n">
-        <v>0.245527</v>
+        <v>0.240462</v>
       </c>
     </row>
     <row r="90">
@@ -4481,13 +4481,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.205497</v>
+        <v>0.199678</v>
       </c>
       <c r="C90" t="n">
-        <v>0.239832</v>
+        <v>0.240266</v>
       </c>
       <c r="D90" t="n">
-        <v>0.245562</v>
+        <v>0.244852</v>
       </c>
     </row>
     <row r="91">
@@ -4495,13 +4495,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.19959</v>
+        <v>0.196723</v>
       </c>
       <c r="C91" t="n">
-        <v>0.238732</v>
+        <v>0.238827</v>
       </c>
       <c r="D91" t="n">
-        <v>0.241948</v>
+        <v>0.240985</v>
       </c>
     </row>
     <row r="92">
@@ -4509,13 +4509,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.193746</v>
+        <v>0.191666</v>
       </c>
       <c r="C92" t="n">
-        <v>0.238433</v>
+        <v>0.239147</v>
       </c>
       <c r="D92" t="n">
-        <v>0.24389</v>
+        <v>0.238554</v>
       </c>
     </row>
     <row r="93">
@@ -4523,13 +4523,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.190038</v>
+        <v>0.186756</v>
       </c>
       <c r="C93" t="n">
-        <v>0.242796</v>
+        <v>0.234888</v>
       </c>
       <c r="D93" t="n">
-        <v>0.243224</v>
+        <v>0.237067</v>
       </c>
     </row>
     <row r="94">
@@ -4537,13 +4537,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.181136</v>
+        <v>0.17596</v>
       </c>
       <c r="C94" t="n">
-        <v>0.23793</v>
+        <v>0.236103</v>
       </c>
       <c r="D94" t="n">
-        <v>0.260084</v>
+        <v>0.257577</v>
       </c>
     </row>
     <row r="95">
@@ -4551,13 +4551,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.247021</v>
+        <v>0.245919</v>
       </c>
       <c r="C95" t="n">
-        <v>0.256677</v>
+        <v>0.257775</v>
       </c>
       <c r="D95" t="n">
-        <v>0.258401</v>
+        <v>0.256361</v>
       </c>
     </row>
     <row r="96">
@@ -4565,13 +4565,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.242713</v>
+        <v>0.245092</v>
       </c>
       <c r="C96" t="n">
-        <v>0.255743</v>
+        <v>0.252981</v>
       </c>
       <c r="D96" t="n">
-        <v>0.257165</v>
+        <v>0.251962</v>
       </c>
     </row>
     <row r="97">
@@ -4579,13 +4579,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.241367</v>
+        <v>0.236408</v>
       </c>
       <c r="C97" t="n">
-        <v>0.255007</v>
+        <v>0.250267</v>
       </c>
       <c r="D97" t="n">
-        <v>0.255179</v>
+        <v>0.252793</v>
       </c>
     </row>
     <row r="98">
@@ -4593,13 +4593,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.24079</v>
+        <v>0.232934</v>
       </c>
       <c r="C98" t="n">
-        <v>0.256427</v>
+        <v>0.253229</v>
       </c>
       <c r="D98" t="n">
-        <v>0.262129</v>
+        <v>0.250035</v>
       </c>
     </row>
     <row r="99">
@@ -4607,13 +4607,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.250866</v>
+        <v>0.230018</v>
       </c>
       <c r="C99" t="n">
-        <v>0.249496</v>
+        <v>0.245477</v>
       </c>
       <c r="D99" t="n">
-        <v>0.259586</v>
+        <v>0.248663</v>
       </c>
     </row>
     <row r="100">
@@ -4621,13 +4621,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.225355</v>
+        <v>0.227247</v>
       </c>
       <c r="C100" t="n">
-        <v>0.245927</v>
+        <v>0.243788</v>
       </c>
       <c r="D100" t="n">
-        <v>0.25326</v>
+        <v>0.24757</v>
       </c>
     </row>
     <row r="101">
@@ -4635,13 +4635,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.220808</v>
+        <v>0.222284</v>
       </c>
       <c r="C101" t="n">
-        <v>0.245128</v>
+        <v>0.244572</v>
       </c>
       <c r="D101" t="n">
-        <v>0.248383</v>
+        <v>0.24683</v>
       </c>
     </row>
     <row r="102">
@@ -4649,13 +4649,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.218609</v>
+        <v>0.212382</v>
       </c>
       <c r="C102" t="n">
-        <v>0.24288</v>
+        <v>0.240902</v>
       </c>
       <c r="D102" t="n">
-        <v>0.245989</v>
+        <v>0.243716</v>
       </c>
     </row>
     <row r="103">
@@ -4663,13 +4663,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.211164</v>
+        <v>0.212512</v>
       </c>
       <c r="C103" t="n">
-        <v>0.241978</v>
+        <v>0.242673</v>
       </c>
       <c r="D103" t="n">
-        <v>0.24614</v>
+        <v>0.243856</v>
       </c>
     </row>
     <row r="104">
@@ -4677,13 +4677,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.207333</v>
+        <v>0.206533</v>
       </c>
       <c r="C104" t="n">
-        <v>0.2424</v>
+        <v>0.242066</v>
       </c>
       <c r="D104" t="n">
-        <v>0.248587</v>
+        <v>0.241942</v>
       </c>
     </row>
     <row r="105">
@@ -4691,13 +4691,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.201034</v>
+        <v>0.200003</v>
       </c>
       <c r="C105" t="n">
-        <v>0.239867</v>
+        <v>0.23937</v>
       </c>
       <c r="D105" t="n">
-        <v>0.243245</v>
+        <v>0.239871</v>
       </c>
     </row>
     <row r="106">
@@ -4705,13 +4705,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.194796</v>
+        <v>0.194189</v>
       </c>
       <c r="C106" t="n">
-        <v>0.238183</v>
+        <v>0.238759</v>
       </c>
       <c r="D106" t="n">
-        <v>0.242344</v>
+        <v>0.241438</v>
       </c>
     </row>
     <row r="107">
@@ -4719,13 +4719,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.189187</v>
+        <v>0.189345</v>
       </c>
       <c r="C107" t="n">
-        <v>0.242052</v>
+        <v>0.236003</v>
       </c>
       <c r="D107" t="n">
-        <v>0.241061</v>
+        <v>0.239174</v>
       </c>
     </row>
     <row r="108">
@@ -4733,13 +4733,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.180801</v>
+        <v>0.179416</v>
       </c>
       <c r="C108" t="n">
-        <v>0.23779</v>
+        <v>0.236947</v>
       </c>
       <c r="D108" t="n">
-        <v>0.25998</v>
+        <v>0.263307</v>
       </c>
     </row>
     <row r="109">
@@ -4747,13 +4747,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.176142</v>
+        <v>0.171468</v>
       </c>
       <c r="C109" t="n">
-        <v>0.237123</v>
+        <v>0.236208</v>
       </c>
       <c r="D109" t="n">
-        <v>0.257958</v>
+        <v>0.259877</v>
       </c>
     </row>
     <row r="110">
@@ -4761,13 +4761,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.244668</v>
+        <v>0.241508</v>
       </c>
       <c r="C110" t="n">
-        <v>0.254189</v>
+        <v>0.252515</v>
       </c>
       <c r="D110" t="n">
-        <v>0.258218</v>
+        <v>0.255848</v>
       </c>
     </row>
     <row r="111">
@@ -4775,13 +4775,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.240231</v>
+        <v>0.238639</v>
       </c>
       <c r="C111" t="n">
-        <v>0.254622</v>
+        <v>0.251209</v>
       </c>
       <c r="D111" t="n">
-        <v>0.256326</v>
+        <v>0.252202</v>
       </c>
     </row>
     <row r="112">
@@ -4789,13 +4789,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.236699</v>
+        <v>0.235509</v>
       </c>
       <c r="C112" t="n">
-        <v>0.250115</v>
+        <v>0.249713</v>
       </c>
       <c r="D112" t="n">
-        <v>0.252804</v>
+        <v>0.250141</v>
       </c>
     </row>
     <row r="113">
@@ -4803,13 +4803,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.232437</v>
+        <v>0.230652</v>
       </c>
       <c r="C113" t="n">
-        <v>0.248146</v>
+        <v>0.244756</v>
       </c>
       <c r="D113" t="n">
-        <v>0.24992</v>
+        <v>0.249441</v>
       </c>
     </row>
     <row r="114">
@@ -4817,13 +4817,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.228465</v>
+        <v>0.226092</v>
       </c>
       <c r="C114" t="n">
-        <v>0.248255</v>
+        <v>0.247781</v>
       </c>
       <c r="D114" t="n">
-        <v>0.249326</v>
+        <v>0.248001</v>
       </c>
     </row>
     <row r="115">
@@ -4831,13 +4831,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.228063</v>
+        <v>0.224837</v>
       </c>
       <c r="C115" t="n">
-        <v>0.244924</v>
+        <v>0.243133</v>
       </c>
       <c r="D115" t="n">
-        <v>0.247834</v>
+        <v>0.245939</v>
       </c>
     </row>
     <row r="116">
@@ -4845,13 +4845,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.217005</v>
+        <v>0.218639</v>
       </c>
       <c r="C116" t="n">
-        <v>0.246898</v>
+        <v>0.242919</v>
       </c>
       <c r="D116" t="n">
-        <v>0.257376</v>
+        <v>0.241457</v>
       </c>
     </row>
     <row r="117">
@@ -4859,13 +4859,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.212282</v>
+        <v>0.212705</v>
       </c>
       <c r="C117" t="n">
-        <v>0.243843</v>
+        <v>0.241758</v>
       </c>
       <c r="D117" t="n">
-        <v>0.24731</v>
+        <v>0.242868</v>
       </c>
     </row>
     <row r="118">
@@ -4873,13 +4873,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.20679</v>
+        <v>0.205014</v>
       </c>
       <c r="C118" t="n">
-        <v>0.240921</v>
+        <v>0.239887</v>
       </c>
       <c r="D118" t="n">
-        <v>0.247861</v>
+        <v>0.241597</v>
       </c>
     </row>
     <row r="119">
@@ -4887,13 +4887,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.202316</v>
+        <v>0.200093</v>
       </c>
       <c r="C119" t="n">
-        <v>0.238857</v>
+        <v>0.241293</v>
       </c>
       <c r="D119" t="n">
-        <v>0.249808</v>
+        <v>0.242125</v>
       </c>
     </row>
     <row r="120">
@@ -4901,13 +4901,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.195703</v>
+        <v>0.195325</v>
       </c>
       <c r="C120" t="n">
-        <v>0.239351</v>
+        <v>0.241192</v>
       </c>
       <c r="D120" t="n">
-        <v>0.240409</v>
+        <v>0.238123</v>
       </c>
     </row>
     <row r="121">
@@ -4915,13 +4915,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.191534</v>
+        <v>0.189943</v>
       </c>
       <c r="C121" t="n">
-        <v>0.24082</v>
+        <v>0.238683</v>
       </c>
       <c r="D121" t="n">
-        <v>0.242098</v>
+        <v>0.237748</v>
       </c>
     </row>
     <row r="122">
@@ -4929,13 +4929,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.17985</v>
+        <v>0.183728</v>
       </c>
       <c r="C122" t="n">
-        <v>0.235882</v>
+        <v>0.236029</v>
       </c>
       <c r="D122" t="n">
-        <v>0.236789</v>
+        <v>0.237666</v>
       </c>
     </row>
     <row r="123">
@@ -4943,13 +4943,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.173716</v>
+        <v>0.172399</v>
       </c>
       <c r="C123" t="n">
-        <v>0.237921</v>
+        <v>0.2424</v>
       </c>
       <c r="D123" t="n">
-        <v>0.258952</v>
+        <v>0.259901</v>
       </c>
     </row>
     <row r="124">
@@ -4957,13 +4957,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.24556</v>
+        <v>0.243686</v>
       </c>
       <c r="C124" t="n">
-        <v>0.253446</v>
+        <v>0.254279</v>
       </c>
       <c r="D124" t="n">
-        <v>0.255596</v>
+        <v>0.260446</v>
       </c>
     </row>
     <row r="125">
@@ -4971,13 +4971,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.240285</v>
+        <v>0.240451</v>
       </c>
       <c r="C125" t="n">
-        <v>0.249843</v>
+        <v>0.253074</v>
       </c>
       <c r="D125" t="n">
-        <v>0.256749</v>
+        <v>0.256305</v>
       </c>
     </row>
     <row r="126">
@@ -4985,13 +4985,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.236707</v>
+        <v>0.236196</v>
       </c>
       <c r="C126" t="n">
-        <v>0.252208</v>
+        <v>0.24772</v>
       </c>
       <c r="D126" t="n">
-        <v>0.253625</v>
+        <v>0.254614</v>
       </c>
     </row>
     <row r="127">
@@ -4999,13 +4999,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.231031</v>
+        <v>0.230847</v>
       </c>
       <c r="C127" t="n">
-        <v>0.246005</v>
+        <v>0.247294</v>
       </c>
       <c r="D127" t="n">
-        <v>0.259201</v>
+        <v>0.25082</v>
       </c>
     </row>
     <row r="128">
@@ -5013,13 +5013,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.227096</v>
+        <v>0.226902</v>
       </c>
       <c r="C128" t="n">
-        <v>0.249034</v>
+        <v>0.244446</v>
       </c>
       <c r="D128" t="n">
-        <v>0.247059</v>
+        <v>0.247278</v>
       </c>
     </row>
     <row r="129">
@@ -5027,13 +5027,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.225317</v>
+        <v>0.221808</v>
       </c>
       <c r="C129" t="n">
-        <v>0.241889</v>
+        <v>0.244584</v>
       </c>
       <c r="D129" t="n">
-        <v>0.249379</v>
+        <v>0.249013</v>
       </c>
     </row>
     <row r="130">
@@ -5041,13 +5041,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.217913</v>
+        <v>0.217007</v>
       </c>
       <c r="C130" t="n">
-        <v>0.243982</v>
+        <v>0.247321</v>
       </c>
       <c r="D130" t="n">
-        <v>0.245289</v>
+        <v>0.24835</v>
       </c>
     </row>
     <row r="131">
@@ -5055,13 +5055,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.211804</v>
+        <v>0.212119</v>
       </c>
       <c r="C131" t="n">
-        <v>0.243227</v>
+        <v>0.240275</v>
       </c>
       <c r="D131" t="n">
-        <v>0.244748</v>
+        <v>0.249044</v>
       </c>
     </row>
     <row r="132">
@@ -5069,13 +5069,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.206982</v>
+        <v>0.209247</v>
       </c>
       <c r="C132" t="n">
-        <v>0.248225</v>
+        <v>0.242036</v>
       </c>
       <c r="D132" t="n">
-        <v>0.241476</v>
+        <v>0.24659</v>
       </c>
     </row>
     <row r="133">
@@ -5083,13 +5083,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.202001</v>
+        <v>0.204179</v>
       </c>
       <c r="C133" t="n">
-        <v>0.238689</v>
+        <v>0.239903</v>
       </c>
       <c r="D133" t="n">
-        <v>0.23905</v>
+        <v>0.247636</v>
       </c>
     </row>
     <row r="134">
@@ -5097,13 +5097,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.199481</v>
+        <v>0.196638</v>
       </c>
       <c r="C134" t="n">
-        <v>0.238704</v>
+        <v>0.237474</v>
       </c>
       <c r="D134" t="n">
-        <v>0.241173</v>
+        <v>0.239243</v>
       </c>
     </row>
     <row r="135">
@@ -5111,13 +5111,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.193549</v>
+        <v>0.191527</v>
       </c>
       <c r="C135" t="n">
-        <v>0.236136</v>
+        <v>0.241264</v>
       </c>
       <c r="D135" t="n">
-        <v>0.24124</v>
+        <v>0.240284</v>
       </c>
     </row>
     <row r="136">
@@ -5125,13 +5125,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.186577</v>
+        <v>0.184081</v>
       </c>
       <c r="C136" t="n">
-        <v>0.237045</v>
+        <v>0.236885</v>
       </c>
       <c r="D136" t="n">
-        <v>0.246196</v>
+        <v>0.240878</v>
       </c>
     </row>
     <row r="137">
@@ -5139,13 +5139,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.177821</v>
+        <v>0.174598</v>
       </c>
       <c r="C137" t="n">
-        <v>0.23142</v>
+        <v>0.232171</v>
       </c>
       <c r="D137" t="n">
-        <v>0.257445</v>
+        <v>0.257191</v>
       </c>
     </row>
     <row r="138">
@@ -5153,13 +5153,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.250638</v>
+        <v>0.246129</v>
       </c>
       <c r="C138" t="n">
-        <v>0.258311</v>
+        <v>0.258351</v>
       </c>
       <c r="D138" t="n">
-        <v>0.253299</v>
+        <v>0.259311</v>
       </c>
     </row>
     <row r="139">
@@ -5167,13 +5167,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.242312</v>
+        <v>0.23714</v>
       </c>
       <c r="C139" t="n">
-        <v>0.253959</v>
+        <v>0.24716</v>
       </c>
       <c r="D139" t="n">
-        <v>0.2571</v>
+        <v>0.249502</v>
       </c>
     </row>
     <row r="140">
@@ -5181,13 +5181,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.238341</v>
+        <v>0.234878</v>
       </c>
       <c r="C140" t="n">
-        <v>0.246696</v>
+        <v>0.250148</v>
       </c>
       <c r="D140" t="n">
-        <v>0.250609</v>
+        <v>0.254126</v>
       </c>
     </row>
     <row r="141">
@@ -5195,13 +5195,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.237399</v>
+        <v>0.234601</v>
       </c>
       <c r="C141" t="n">
-        <v>0.246706</v>
+        <v>0.24668</v>
       </c>
       <c r="D141" t="n">
-        <v>0.251479</v>
+        <v>0.250611</v>
       </c>
     </row>
     <row r="142">
@@ -5209,13 +5209,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.227498</v>
+        <v>0.23051</v>
       </c>
       <c r="C142" t="n">
-        <v>0.245558</v>
+        <v>0.245745</v>
       </c>
       <c r="D142" t="n">
-        <v>0.251048</v>
+        <v>0.255375</v>
       </c>
     </row>
     <row r="143">
@@ -5223,13 +5223,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.228538</v>
+        <v>0.221522</v>
       </c>
       <c r="C143" t="n">
-        <v>0.245536</v>
+        <v>0.253629</v>
       </c>
       <c r="D143" t="n">
-        <v>0.2484</v>
+        <v>0.247597</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Running erasure.xlsx
+++ b/vs-x64/Running erasure.xlsx
@@ -3249,13 +3249,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.199618</v>
+        <v>0.195142</v>
       </c>
       <c r="C2" t="n">
-        <v>0.225317</v>
+        <v>0.228345</v>
       </c>
       <c r="D2" t="n">
-        <v>0.227152</v>
+        <v>0.230268</v>
       </c>
     </row>
     <row r="3">
@@ -3263,13 +3263,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.192571</v>
+        <v>0.197689</v>
       </c>
       <c r="C3" t="n">
-        <v>0.227883</v>
+        <v>0.233668</v>
       </c>
       <c r="D3" t="n">
-        <v>0.223457</v>
+        <v>0.245195</v>
       </c>
     </row>
     <row r="4">
@@ -3277,13 +3277,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.19014</v>
+        <v>0.191859</v>
       </c>
       <c r="C4" t="n">
-        <v>0.225617</v>
+        <v>0.237163</v>
       </c>
       <c r="D4" t="n">
-        <v>0.224849</v>
+        <v>0.237026</v>
       </c>
     </row>
     <row r="5">
@@ -3291,13 +3291,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.186402</v>
+        <v>0.198612</v>
       </c>
       <c r="C5" t="n">
-        <v>0.230271</v>
+        <v>0.235569</v>
       </c>
       <c r="D5" t="n">
-        <v>0.2245</v>
+        <v>0.232739</v>
       </c>
     </row>
     <row r="6">
@@ -3305,13 +3305,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.184216</v>
+        <v>0.203608</v>
       </c>
       <c r="C6" t="n">
-        <v>0.223898</v>
+        <v>0.239327</v>
       </c>
       <c r="D6" t="n">
-        <v>0.231876</v>
+        <v>0.229571</v>
       </c>
     </row>
     <row r="7">
@@ -3319,13 +3319,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.180082</v>
+        <v>0.178043</v>
       </c>
       <c r="C7" t="n">
-        <v>0.223105</v>
+        <v>0.226443</v>
       </c>
       <c r="D7" t="n">
-        <v>0.231185</v>
+        <v>0.230592</v>
       </c>
     </row>
     <row r="8">
@@ -3333,13 +3333,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.168097</v>
+        <v>0.170111</v>
       </c>
       <c r="C8" t="n">
-        <v>0.231046</v>
+        <v>0.23112</v>
       </c>
       <c r="D8" t="n">
-        <v>0.229951</v>
+        <v>0.228808</v>
       </c>
     </row>
     <row r="9">
@@ -3347,13 +3347,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.159021</v>
+        <v>0.161583</v>
       </c>
       <c r="C9" t="n">
-        <v>0.224507</v>
+        <v>0.226138</v>
       </c>
       <c r="D9" t="n">
-        <v>0.243713</v>
+        <v>0.24006</v>
       </c>
     </row>
     <row r="10">
@@ -3361,13 +3361,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.231951</v>
+        <v>0.225738</v>
       </c>
       <c r="C10" t="n">
-        <v>0.235093</v>
+        <v>0.23726</v>
       </c>
       <c r="D10" t="n">
-        <v>0.23603</v>
+        <v>0.237794</v>
       </c>
     </row>
     <row r="11">
@@ -3375,13 +3375,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.22242</v>
+        <v>0.231631</v>
       </c>
       <c r="C11" t="n">
-        <v>0.232408</v>
+        <v>0.237519</v>
       </c>
       <c r="D11" t="n">
-        <v>0.233955</v>
+        <v>0.244081</v>
       </c>
     </row>
     <row r="12">
@@ -3389,13 +3389,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.218522</v>
+        <v>0.223547</v>
       </c>
       <c r="C12" t="n">
-        <v>0.234758</v>
+        <v>0.236972</v>
       </c>
       <c r="D12" t="n">
-        <v>0.238739</v>
+        <v>0.238884</v>
       </c>
     </row>
     <row r="13">
@@ -3403,13 +3403,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.214596</v>
+        <v>0.219337</v>
       </c>
       <c r="C13" t="n">
-        <v>0.23717</v>
+        <v>0.235949</v>
       </c>
       <c r="D13" t="n">
-        <v>0.23701</v>
+        <v>0.23587</v>
       </c>
     </row>
     <row r="14">
@@ -3417,13 +3417,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.213492</v>
+        <v>0.211372</v>
       </c>
       <c r="C14" t="n">
-        <v>0.230978</v>
+        <v>0.23419</v>
       </c>
       <c r="D14" t="n">
-        <v>0.23536</v>
+        <v>0.234729</v>
       </c>
     </row>
     <row r="15">
@@ -3431,13 +3431,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.208232</v>
+        <v>0.210215</v>
       </c>
       <c r="C15" t="n">
-        <v>0.233742</v>
+        <v>0.231256</v>
       </c>
       <c r="D15" t="n">
-        <v>0.231778</v>
+        <v>0.238924</v>
       </c>
     </row>
     <row r="16">
@@ -3445,13 +3445,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.20335</v>
+        <v>0.209148</v>
       </c>
       <c r="C16" t="n">
-        <v>0.230612</v>
+        <v>0.23245</v>
       </c>
       <c r="D16" t="n">
-        <v>0.232776</v>
+        <v>0.233286</v>
       </c>
     </row>
     <row r="17">
@@ -3459,13 +3459,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.203608</v>
+        <v>0.201989</v>
       </c>
       <c r="C17" t="n">
-        <v>0.231507</v>
+        <v>0.23737</v>
       </c>
       <c r="D17" t="n">
-        <v>0.232772</v>
+        <v>0.233986</v>
       </c>
     </row>
     <row r="18">
@@ -3473,13 +3473,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.198824</v>
+        <v>0.195412</v>
       </c>
       <c r="C18" t="n">
-        <v>0.230919</v>
+        <v>0.230981</v>
       </c>
       <c r="D18" t="n">
-        <v>0.235947</v>
+        <v>0.234515</v>
       </c>
     </row>
     <row r="19">
@@ -3487,13 +3487,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.189561</v>
+        <v>0.192384</v>
       </c>
       <c r="C19" t="n">
-        <v>0.224751</v>
+        <v>0.230506</v>
       </c>
       <c r="D19" t="n">
-        <v>0.230671</v>
+        <v>0.232114</v>
       </c>
     </row>
     <row r="20">
@@ -3501,13 +3501,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.185762</v>
+        <v>0.190926</v>
       </c>
       <c r="C20" t="n">
-        <v>0.231225</v>
+        <v>0.233334</v>
       </c>
       <c r="D20" t="n">
-        <v>0.230554</v>
+        <v>0.234519</v>
       </c>
     </row>
     <row r="21">
@@ -3515,13 +3515,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.180763</v>
+        <v>0.183745</v>
       </c>
       <c r="C21" t="n">
-        <v>0.232009</v>
+        <v>0.230673</v>
       </c>
       <c r="D21" t="n">
-        <v>0.236358</v>
+        <v>0.231113</v>
       </c>
     </row>
     <row r="22">
@@ -3529,13 +3529,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.178103</v>
+        <v>0.17653</v>
       </c>
       <c r="C22" t="n">
-        <v>0.228349</v>
+        <v>0.228132</v>
       </c>
       <c r="D22" t="n">
-        <v>0.231577</v>
+        <v>0.230778</v>
       </c>
     </row>
     <row r="23">
@@ -3543,13 +3543,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.169406</v>
+        <v>0.168332</v>
       </c>
       <c r="C23" t="n">
-        <v>0.23187</v>
+        <v>0.23143</v>
       </c>
       <c r="D23" t="n">
-        <v>0.242518</v>
+        <v>0.245075</v>
       </c>
     </row>
     <row r="24">
@@ -3557,13 +3557,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.225907</v>
+        <v>0.230618</v>
       </c>
       <c r="C24" t="n">
-        <v>0.237579</v>
+        <v>0.241215</v>
       </c>
       <c r="D24" t="n">
-        <v>0.248214</v>
+        <v>0.242226</v>
       </c>
     </row>
     <row r="25">
@@ -3571,13 +3571,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.227094</v>
+        <v>0.226377</v>
       </c>
       <c r="C25" t="n">
-        <v>0.239377</v>
+        <v>0.237659</v>
       </c>
       <c r="D25" t="n">
-        <v>0.239243</v>
+        <v>0.241703</v>
       </c>
     </row>
     <row r="26">
@@ -3585,13 +3585,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.222273</v>
+        <v>0.222214</v>
       </c>
       <c r="C26" t="n">
-        <v>0.235717</v>
+        <v>0.236787</v>
       </c>
       <c r="D26" t="n">
-        <v>0.236485</v>
+        <v>0.240047</v>
       </c>
     </row>
     <row r="27">
@@ -3599,13 +3599,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.221478</v>
+        <v>0.217348</v>
       </c>
       <c r="C27" t="n">
-        <v>0.233575</v>
+        <v>0.235822</v>
       </c>
       <c r="D27" t="n">
-        <v>0.235151</v>
+        <v>0.237496</v>
       </c>
     </row>
     <row r="28">
@@ -3613,13 +3613,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.223421</v>
+        <v>0.217611</v>
       </c>
       <c r="C28" t="n">
-        <v>0.240417</v>
+        <v>0.236118</v>
       </c>
       <c r="D28" t="n">
-        <v>0.238713</v>
+        <v>0.238375</v>
       </c>
     </row>
     <row r="29">
@@ -3627,13 +3627,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.211667</v>
+        <v>0.214073</v>
       </c>
       <c r="C29" t="n">
-        <v>0.234365</v>
+        <v>0.233914</v>
       </c>
       <c r="D29" t="n">
-        <v>0.239737</v>
+        <v>0.238563</v>
       </c>
     </row>
     <row r="30">
@@ -3641,13 +3641,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.206791</v>
+        <v>0.209451</v>
       </c>
       <c r="C30" t="n">
-        <v>0.229726</v>
+        <v>0.232428</v>
       </c>
       <c r="D30" t="n">
-        <v>0.234333</v>
+        <v>0.238809</v>
       </c>
     </row>
     <row r="31">
@@ -3655,13 +3655,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.204637</v>
+        <v>0.204966</v>
       </c>
       <c r="C31" t="n">
-        <v>0.233286</v>
+        <v>0.238013</v>
       </c>
       <c r="D31" t="n">
-        <v>0.238032</v>
+        <v>0.234115</v>
       </c>
     </row>
     <row r="32">
@@ -3669,13 +3669,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.197005</v>
+        <v>0.200111</v>
       </c>
       <c r="C32" t="n">
-        <v>0.23067</v>
+        <v>0.229708</v>
       </c>
       <c r="D32" t="n">
-        <v>0.236209</v>
+        <v>0.237595</v>
       </c>
     </row>
     <row r="33">
@@ -3683,13 +3683,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.194044</v>
+        <v>0.195305</v>
       </c>
       <c r="C33" t="n">
-        <v>0.22968</v>
+        <v>0.231246</v>
       </c>
       <c r="D33" t="n">
-        <v>0.232646</v>
+        <v>0.236623</v>
       </c>
     </row>
     <row r="34">
@@ -3697,13 +3697,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.193368</v>
+        <v>0.190317</v>
       </c>
       <c r="C34" t="n">
-        <v>0.231354</v>
+        <v>0.230074</v>
       </c>
       <c r="D34" t="n">
-        <v>0.230179</v>
+        <v>0.236828</v>
       </c>
     </row>
     <row r="35">
@@ -3711,13 +3711,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.184403</v>
+        <v>0.187801</v>
       </c>
       <c r="C35" t="n">
-        <v>0.226615</v>
+        <v>0.229419</v>
       </c>
       <c r="D35" t="n">
-        <v>0.239495</v>
+        <v>0.235606</v>
       </c>
     </row>
     <row r="36">
@@ -3725,13 +3725,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.18124</v>
+        <v>0.180508</v>
       </c>
       <c r="C36" t="n">
-        <v>0.230831</v>
+        <v>0.239899</v>
       </c>
       <c r="D36" t="n">
-        <v>0.232033</v>
+        <v>0.234691</v>
       </c>
     </row>
     <row r="37">
@@ -3739,13 +3739,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.171965</v>
+        <v>0.1776</v>
       </c>
       <c r="C37" t="n">
-        <v>0.234229</v>
+        <v>0.239129</v>
       </c>
       <c r="D37" t="n">
-        <v>0.242217</v>
+        <v>0.262697</v>
       </c>
     </row>
     <row r="38">
@@ -3753,13 +3753,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.232259</v>
+        <v>0.247337</v>
       </c>
       <c r="C38" t="n">
-        <v>0.241052</v>
+        <v>0.250789</v>
       </c>
       <c r="D38" t="n">
-        <v>0.245919</v>
+        <v>0.246621</v>
       </c>
     </row>
     <row r="39">
@@ -3767,13 +3767,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.227073</v>
+        <v>0.234276</v>
       </c>
       <c r="C39" t="n">
-        <v>0.237778</v>
+        <v>0.244721</v>
       </c>
       <c r="D39" t="n">
-        <v>0.244506</v>
+        <v>0.245135</v>
       </c>
     </row>
     <row r="40">
@@ -3781,13 +3781,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.22356</v>
+        <v>0.232193</v>
       </c>
       <c r="C40" t="n">
-        <v>0.23853</v>
+        <v>0.240012</v>
       </c>
       <c r="D40" t="n">
-        <v>0.241135</v>
+        <v>0.243664</v>
       </c>
     </row>
     <row r="41">
@@ -3795,13 +3795,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.220221</v>
+        <v>0.227288</v>
       </c>
       <c r="C41" t="n">
-        <v>0.236122</v>
+        <v>0.240289</v>
       </c>
       <c r="D41" t="n">
-        <v>0.244858</v>
+        <v>0.241478</v>
       </c>
     </row>
     <row r="42">
@@ -3809,13 +3809,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.219145</v>
+        <v>0.222238</v>
       </c>
       <c r="C42" t="n">
-        <v>0.233863</v>
+        <v>0.238147</v>
       </c>
       <c r="D42" t="n">
-        <v>0.236305</v>
+        <v>0.242069</v>
       </c>
     </row>
     <row r="43">
@@ -3823,13 +3823,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.213822</v>
+        <v>0.217363</v>
       </c>
       <c r="C43" t="n">
-        <v>0.232161</v>
+        <v>0.236466</v>
       </c>
       <c r="D43" t="n">
-        <v>0.237151</v>
+        <v>0.239833</v>
       </c>
     </row>
     <row r="44">
@@ -3837,13 +3837,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.209897</v>
+        <v>0.212704</v>
       </c>
       <c r="C44" t="n">
-        <v>0.23448</v>
+        <v>0.235256</v>
       </c>
       <c r="D44" t="n">
-        <v>0.235139</v>
+        <v>0.238265</v>
       </c>
     </row>
     <row r="45">
@@ -3851,13 +3851,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.20536</v>
+        <v>0.210363</v>
       </c>
       <c r="C45" t="n">
-        <v>0.234366</v>
+        <v>0.236963</v>
       </c>
       <c r="D45" t="n">
-        <v>0.237355</v>
+        <v>0.243472</v>
       </c>
     </row>
     <row r="46">
@@ -3865,13 +3865,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.20332</v>
+        <v>0.204827</v>
       </c>
       <c r="C46" t="n">
-        <v>0.232823</v>
+        <v>0.234577</v>
       </c>
       <c r="D46" t="n">
-        <v>0.234804</v>
+        <v>0.237923</v>
       </c>
     </row>
     <row r="47">
@@ -3879,13 +3879,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.194569</v>
+        <v>0.199485</v>
       </c>
       <c r="C47" t="n">
-        <v>0.231646</v>
+        <v>0.234446</v>
       </c>
       <c r="D47" t="n">
-        <v>0.242452</v>
+        <v>0.237317</v>
       </c>
     </row>
     <row r="48">
@@ -3893,13 +3893,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.194785</v>
+        <v>0.193853</v>
       </c>
       <c r="C48" t="n">
-        <v>0.229232</v>
+        <v>0.236578</v>
       </c>
       <c r="D48" t="n">
-        <v>0.235795</v>
+        <v>0.237282</v>
       </c>
     </row>
     <row r="49">
@@ -3907,13 +3907,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.186136</v>
+        <v>0.19119</v>
       </c>
       <c r="C49" t="n">
-        <v>0.228769</v>
+        <v>0.23399</v>
       </c>
       <c r="D49" t="n">
-        <v>0.238896</v>
+        <v>0.238468</v>
       </c>
     </row>
     <row r="50">
@@ -3921,13 +3921,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.180595</v>
+        <v>0.183655</v>
       </c>
       <c r="C50" t="n">
-        <v>0.229251</v>
+        <v>0.231763</v>
       </c>
       <c r="D50" t="n">
-        <v>0.235023</v>
+        <v>0.235945</v>
       </c>
     </row>
     <row r="51">
@@ -3935,13 +3935,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.173763</v>
+        <v>0.175735</v>
       </c>
       <c r="C51" t="n">
-        <v>0.227189</v>
+        <v>0.229639</v>
       </c>
       <c r="D51" t="n">
-        <v>0.254067</v>
+        <v>0.253213</v>
       </c>
     </row>
     <row r="52">
@@ -3949,13 +3949,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.164775</v>
+        <v>0.171597</v>
       </c>
       <c r="C52" t="n">
-        <v>0.229682</v>
+        <v>0.23117</v>
       </c>
       <c r="D52" t="n">
-        <v>0.249199</v>
+        <v>0.252679</v>
       </c>
     </row>
     <row r="53">
@@ -3963,13 +3963,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.230943</v>
+        <v>0.240306</v>
       </c>
       <c r="C53" t="n">
-        <v>0.243807</v>
+        <v>0.249221</v>
       </c>
       <c r="D53" t="n">
-        <v>0.249063</v>
+        <v>0.252083</v>
       </c>
     </row>
     <row r="54">
@@ -3977,13 +3977,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.227596</v>
+        <v>0.235156</v>
       </c>
       <c r="C54" t="n">
-        <v>0.2433</v>
+        <v>0.247208</v>
       </c>
       <c r="D54" t="n">
-        <v>0.251845</v>
+        <v>0.261386</v>
       </c>
     </row>
     <row r="55">
@@ -3991,13 +3991,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.224687</v>
+        <v>0.230323</v>
       </c>
       <c r="C55" t="n">
-        <v>0.242381</v>
+        <v>0.256853</v>
       </c>
       <c r="D55" t="n">
-        <v>0.246569</v>
+        <v>0.258972</v>
       </c>
     </row>
     <row r="56">
@@ -4005,13 +4005,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.220971</v>
+        <v>0.231536</v>
       </c>
       <c r="C56" t="n">
-        <v>0.240011</v>
+        <v>0.247502</v>
       </c>
       <c r="D56" t="n">
-        <v>0.245003</v>
+        <v>0.246153</v>
       </c>
     </row>
     <row r="57">
@@ -4019,13 +4019,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.219412</v>
+        <v>0.221342</v>
       </c>
       <c r="C57" t="n">
-        <v>0.239694</v>
+        <v>0.243001</v>
       </c>
       <c r="D57" t="n">
-        <v>0.242766</v>
+        <v>0.246806</v>
       </c>
     </row>
     <row r="58">
@@ -4033,13 +4033,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.211701</v>
+        <v>0.215492</v>
       </c>
       <c r="C58" t="n">
-        <v>0.241508</v>
+        <v>0.241404</v>
       </c>
       <c r="D58" t="n">
-        <v>0.241842</v>
+        <v>0.243962</v>
       </c>
     </row>
     <row r="59">
@@ -4047,13 +4047,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.209684</v>
+        <v>0.211158</v>
       </c>
       <c r="C59" t="n">
-        <v>0.23601</v>
+        <v>0.239129</v>
       </c>
       <c r="D59" t="n">
-        <v>0.239496</v>
+        <v>0.243895</v>
       </c>
     </row>
     <row r="60">
@@ -4061,13 +4061,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.203228</v>
+        <v>0.208457</v>
       </c>
       <c r="C60" t="n">
-        <v>0.235732</v>
+        <v>0.237253</v>
       </c>
       <c r="D60" t="n">
-        <v>0.240458</v>
+        <v>0.241438</v>
       </c>
     </row>
     <row r="61">
@@ -4075,13 +4075,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.199684</v>
+        <v>0.202799</v>
       </c>
       <c r="C61" t="n">
-        <v>0.235802</v>
+        <v>0.237904</v>
       </c>
       <c r="D61" t="n">
-        <v>0.238894</v>
+        <v>0.242704</v>
       </c>
     </row>
     <row r="62">
@@ -4089,13 +4089,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.194095</v>
+        <v>0.202394</v>
       </c>
       <c r="C62" t="n">
-        <v>0.234207</v>
+        <v>0.237397</v>
       </c>
       <c r="D62" t="n">
-        <v>0.237665</v>
+        <v>0.244248</v>
       </c>
     </row>
     <row r="63">
@@ -4103,13 +4103,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.188508</v>
+        <v>0.191916</v>
       </c>
       <c r="C63" t="n">
-        <v>0.232483</v>
+        <v>0.235795</v>
       </c>
       <c r="D63" t="n">
-        <v>0.237438</v>
+        <v>0.239507</v>
       </c>
     </row>
     <row r="64">
@@ -4117,13 +4117,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.183112</v>
+        <v>0.189561</v>
       </c>
       <c r="C64" t="n">
-        <v>0.233015</v>
+        <v>0.234307</v>
       </c>
       <c r="D64" t="n">
-        <v>0.236475</v>
+        <v>0.239854</v>
       </c>
     </row>
     <row r="65">
@@ -4131,13 +4131,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.1767</v>
+        <v>0.183008</v>
       </c>
       <c r="C65" t="n">
-        <v>0.230703</v>
+        <v>0.236285</v>
       </c>
       <c r="D65" t="n">
-        <v>0.231932</v>
+        <v>0.238315</v>
       </c>
     </row>
     <row r="66">
@@ -4145,13 +4145,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.16896</v>
+        <v>0.179219</v>
       </c>
       <c r="C66" t="n">
-        <v>0.228168</v>
+        <v>0.237254</v>
       </c>
       <c r="D66" t="n">
-        <v>0.251216</v>
+        <v>0.258599</v>
       </c>
     </row>
     <row r="67">
@@ -4159,13 +4159,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.235323</v>
+        <v>0.240801</v>
       </c>
       <c r="C67" t="n">
-        <v>0.249002</v>
+        <v>0.250048</v>
       </c>
       <c r="D67" t="n">
-        <v>0.252064</v>
+        <v>0.251774</v>
       </c>
     </row>
     <row r="68">
@@ -4173,13 +4173,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.232466</v>
+        <v>0.236702</v>
       </c>
       <c r="C68" t="n">
-        <v>0.244357</v>
+        <v>0.24879</v>
       </c>
       <c r="D68" t="n">
-        <v>0.247106</v>
+        <v>0.254415</v>
       </c>
     </row>
     <row r="69">
@@ -4187,13 +4187,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.229127</v>
+        <v>0.237</v>
       </c>
       <c r="C69" t="n">
-        <v>0.242678</v>
+        <v>0.24781</v>
       </c>
       <c r="D69" t="n">
-        <v>0.243691</v>
+        <v>0.250821</v>
       </c>
     </row>
     <row r="70">
@@ -4201,13 +4201,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.225263</v>
+        <v>0.228508</v>
       </c>
       <c r="C70" t="n">
-        <v>0.242247</v>
+        <v>0.24346</v>
       </c>
       <c r="D70" t="n">
-        <v>0.247808</v>
+        <v>0.248601</v>
       </c>
     </row>
     <row r="71">
@@ -4215,13 +4215,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.222244</v>
+        <v>0.227315</v>
       </c>
       <c r="C71" t="n">
-        <v>0.24375</v>
+        <v>0.243378</v>
       </c>
       <c r="D71" t="n">
-        <v>0.243654</v>
+        <v>0.248749</v>
       </c>
     </row>
     <row r="72">
@@ -4229,13 +4229,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.2152</v>
+        <v>0.222598</v>
       </c>
       <c r="C72" t="n">
-        <v>0.244944</v>
+        <v>0.24504</v>
       </c>
       <c r="D72" t="n">
-        <v>0.245796</v>
+        <v>0.248719</v>
       </c>
     </row>
     <row r="73">
@@ -4243,13 +4243,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.21401</v>
+        <v>0.218646</v>
       </c>
       <c r="C73" t="n">
-        <v>0.241395</v>
+        <v>0.246583</v>
       </c>
       <c r="D73" t="n">
-        <v>0.242013</v>
+        <v>0.24755</v>
       </c>
     </row>
     <row r="74">
@@ -4257,13 +4257,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.209291</v>
+        <v>0.216519</v>
       </c>
       <c r="C74" t="n">
-        <v>0.239595</v>
+        <v>0.242117</v>
       </c>
       <c r="D74" t="n">
-        <v>0.244396</v>
+        <v>0.24457</v>
       </c>
     </row>
     <row r="75">
@@ -4271,13 +4271,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.205793</v>
+        <v>0.208986</v>
       </c>
       <c r="C75" t="n">
-        <v>0.23862</v>
+        <v>0.240293</v>
       </c>
       <c r="D75" t="n">
-        <v>0.241832</v>
+        <v>0.244024</v>
       </c>
     </row>
     <row r="76">
@@ -4285,13 +4285,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.19794</v>
+        <v>0.207855</v>
       </c>
       <c r="C76" t="n">
-        <v>0.23903</v>
+        <v>0.241575</v>
       </c>
       <c r="D76" t="n">
-        <v>0.23605</v>
+        <v>0.242693</v>
       </c>
     </row>
     <row r="77">
@@ -4299,13 +4299,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.194559</v>
+        <v>0.19876</v>
       </c>
       <c r="C77" t="n">
-        <v>0.23554</v>
+        <v>0.249414</v>
       </c>
       <c r="D77" t="n">
-        <v>0.236455</v>
+        <v>0.242318</v>
       </c>
     </row>
     <row r="78">
@@ -4313,13 +4313,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.187279</v>
+        <v>0.188398</v>
       </c>
       <c r="C78" t="n">
-        <v>0.235376</v>
+        <v>0.234969</v>
       </c>
       <c r="D78" t="n">
-        <v>0.237748</v>
+        <v>0.238757</v>
       </c>
     </row>
     <row r="79">
@@ -4327,13 +4327,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.18034</v>
+        <v>0.180878</v>
       </c>
       <c r="C79" t="n">
-        <v>0.231136</v>
+        <v>0.230955</v>
       </c>
       <c r="D79" t="n">
-        <v>0.236373</v>
+        <v>0.235867</v>
       </c>
     </row>
     <row r="80">
@@ -4341,13 +4341,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.171906</v>
+        <v>0.17336</v>
       </c>
       <c r="C80" t="n">
-        <v>0.234564</v>
+        <v>0.232236</v>
       </c>
       <c r="D80" t="n">
-        <v>0.255349</v>
+        <v>0.254109</v>
       </c>
     </row>
     <row r="81">
@@ -4355,13 +4355,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.238814</v>
+        <v>0.249268</v>
       </c>
       <c r="C81" t="n">
-        <v>0.249476</v>
+        <v>0.250967</v>
       </c>
       <c r="D81" t="n">
-        <v>0.248965</v>
+        <v>0.252122</v>
       </c>
     </row>
     <row r="82">
@@ -4369,13 +4369,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.238749</v>
+        <v>0.238445</v>
       </c>
       <c r="C82" t="n">
-        <v>0.246917</v>
+        <v>0.249278</v>
       </c>
       <c r="D82" t="n">
-        <v>0.252084</v>
+        <v>0.253799</v>
       </c>
     </row>
     <row r="83">
@@ -4383,13 +4383,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.234785</v>
+        <v>0.23887</v>
       </c>
       <c r="C83" t="n">
-        <v>0.249243</v>
+        <v>0.248556</v>
       </c>
       <c r="D83" t="n">
-        <v>0.249894</v>
+        <v>0.251199</v>
       </c>
     </row>
     <row r="84">
@@ -4397,13 +4397,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.234693</v>
+        <v>0.230946</v>
       </c>
       <c r="C84" t="n">
-        <v>0.2439</v>
+        <v>0.24818</v>
       </c>
       <c r="D84" t="n">
-        <v>0.245501</v>
+        <v>0.24862</v>
       </c>
     </row>
     <row r="85">
@@ -4411,13 +4411,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.229139</v>
+        <v>0.231499</v>
       </c>
       <c r="C85" t="n">
-        <v>0.241915</v>
+        <v>0.245922</v>
       </c>
       <c r="D85" t="n">
-        <v>0.246721</v>
+        <v>0.251183</v>
       </c>
     </row>
     <row r="86">
@@ -4425,13 +4425,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.223415</v>
+        <v>0.227134</v>
       </c>
       <c r="C86" t="n">
-        <v>0.24213</v>
+        <v>0.245152</v>
       </c>
       <c r="D86" t="n">
-        <v>0.251059</v>
+        <v>0.246422</v>
       </c>
     </row>
     <row r="87">
@@ -4439,13 +4439,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.217247</v>
+        <v>0.216959</v>
       </c>
       <c r="C87" t="n">
-        <v>0.247117</v>
+        <v>0.23964</v>
       </c>
       <c r="D87" t="n">
-        <v>0.246625</v>
+        <v>0.241302</v>
       </c>
     </row>
     <row r="88">
@@ -4453,13 +4453,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.215067</v>
+        <v>0.216042</v>
       </c>
       <c r="C88" t="n">
-        <v>0.242484</v>
+        <v>0.24619</v>
       </c>
       <c r="D88" t="n">
-        <v>0.243488</v>
+        <v>0.244135</v>
       </c>
     </row>
     <row r="89">
@@ -4467,13 +4467,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.208718</v>
+        <v>0.211447</v>
       </c>
       <c r="C89" t="n">
-        <v>0.236036</v>
+        <v>0.238502</v>
       </c>
       <c r="D89" t="n">
-        <v>0.240462</v>
+        <v>0.252064</v>
       </c>
     </row>
     <row r="90">
@@ -4481,13 +4481,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.199678</v>
+        <v>0.204811</v>
       </c>
       <c r="C90" t="n">
-        <v>0.240266</v>
+        <v>0.234652</v>
       </c>
       <c r="D90" t="n">
-        <v>0.244852</v>
+        <v>0.241853</v>
       </c>
     </row>
     <row r="91">
@@ -4495,13 +4495,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.196723</v>
+        <v>0.197405</v>
       </c>
       <c r="C91" t="n">
-        <v>0.238827</v>
+        <v>0.237986</v>
       </c>
       <c r="D91" t="n">
-        <v>0.240985</v>
+        <v>0.239792</v>
       </c>
     </row>
     <row r="92">
@@ -4509,13 +4509,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.191666</v>
+        <v>0.193067</v>
       </c>
       <c r="C92" t="n">
-        <v>0.239147</v>
+        <v>0.236354</v>
       </c>
       <c r="D92" t="n">
-        <v>0.238554</v>
+        <v>0.240397</v>
       </c>
     </row>
     <row r="93">
@@ -4523,13 +4523,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.186756</v>
+        <v>0.189352</v>
       </c>
       <c r="C93" t="n">
-        <v>0.234888</v>
+        <v>0.237796</v>
       </c>
       <c r="D93" t="n">
-        <v>0.237067</v>
+        <v>0.236374</v>
       </c>
     </row>
     <row r="94">
@@ -4537,13 +4537,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.17596</v>
+        <v>0.176051</v>
       </c>
       <c r="C94" t="n">
-        <v>0.236103</v>
+        <v>0.233576</v>
       </c>
       <c r="D94" t="n">
-        <v>0.257577</v>
+        <v>0.258181</v>
       </c>
     </row>
     <row r="95">
@@ -4551,13 +4551,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.245919</v>
+        <v>0.244952</v>
       </c>
       <c r="C95" t="n">
-        <v>0.257775</v>
+        <v>0.255219</v>
       </c>
       <c r="D95" t="n">
-        <v>0.256361</v>
+        <v>0.256244</v>
       </c>
     </row>
     <row r="96">
@@ -4565,13 +4565,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.245092</v>
+        <v>0.243662</v>
       </c>
       <c r="C96" t="n">
-        <v>0.252981</v>
+        <v>0.253496</v>
       </c>
       <c r="D96" t="n">
-        <v>0.251962</v>
+        <v>0.25377</v>
       </c>
     </row>
     <row r="97">
@@ -4579,13 +4579,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.236408</v>
+        <v>0.2384</v>
       </c>
       <c r="C97" t="n">
-        <v>0.250267</v>
+        <v>0.249336</v>
       </c>
       <c r="D97" t="n">
-        <v>0.252793</v>
+        <v>0.253681</v>
       </c>
     </row>
     <row r="98">
@@ -4593,13 +4593,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.232934</v>
+        <v>0.238813</v>
       </c>
       <c r="C98" t="n">
-        <v>0.253229</v>
+        <v>0.249323</v>
       </c>
       <c r="D98" t="n">
-        <v>0.250035</v>
+        <v>0.250461</v>
       </c>
     </row>
     <row r="99">
@@ -4607,13 +4607,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.230018</v>
+        <v>0.227991</v>
       </c>
       <c r="C99" t="n">
-        <v>0.245477</v>
+        <v>0.248097</v>
       </c>
       <c r="D99" t="n">
-        <v>0.248663</v>
+        <v>0.24892</v>
       </c>
     </row>
     <row r="100">
@@ -4621,13 +4621,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.227247</v>
+        <v>0.222556</v>
       </c>
       <c r="C100" t="n">
-        <v>0.243788</v>
+        <v>0.248492</v>
       </c>
       <c r="D100" t="n">
-        <v>0.24757</v>
+        <v>0.250449</v>
       </c>
     </row>
     <row r="101">
@@ -4635,13 +4635,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.222284</v>
+        <v>0.221344</v>
       </c>
       <c r="C101" t="n">
-        <v>0.244572</v>
+        <v>0.241749</v>
       </c>
       <c r="D101" t="n">
-        <v>0.24683</v>
+        <v>0.24559</v>
       </c>
     </row>
     <row r="102">
@@ -4649,13 +4649,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.212382</v>
+        <v>0.212989</v>
       </c>
       <c r="C102" t="n">
-        <v>0.240902</v>
+        <v>0.243447</v>
       </c>
       <c r="D102" t="n">
-        <v>0.243716</v>
+        <v>0.245768</v>
       </c>
     </row>
     <row r="103">
@@ -4663,13 +4663,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.212512</v>
+        <v>0.211197</v>
       </c>
       <c r="C103" t="n">
-        <v>0.242673</v>
+        <v>0.242329</v>
       </c>
       <c r="D103" t="n">
-        <v>0.243856</v>
+        <v>0.245841</v>
       </c>
     </row>
     <row r="104">
@@ -4677,13 +4677,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.206533</v>
+        <v>0.205342</v>
       </c>
       <c r="C104" t="n">
-        <v>0.242066</v>
+        <v>0.239681</v>
       </c>
       <c r="D104" t="n">
-        <v>0.241942</v>
+        <v>0.243598</v>
       </c>
     </row>
     <row r="105">
@@ -4691,13 +4691,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.200003</v>
+        <v>0.198944</v>
       </c>
       <c r="C105" t="n">
-        <v>0.23937</v>
+        <v>0.242399</v>
       </c>
       <c r="D105" t="n">
-        <v>0.239871</v>
+        <v>0.239672</v>
       </c>
     </row>
     <row r="106">
@@ -4705,13 +4705,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.194189</v>
+        <v>0.193381</v>
       </c>
       <c r="C106" t="n">
-        <v>0.238759</v>
+        <v>0.239142</v>
       </c>
       <c r="D106" t="n">
-        <v>0.241438</v>
+        <v>0.238551</v>
       </c>
     </row>
     <row r="107">
@@ -4719,13 +4719,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.189345</v>
+        <v>0.191514</v>
       </c>
       <c r="C107" t="n">
-        <v>0.236003</v>
+        <v>0.236103</v>
       </c>
       <c r="D107" t="n">
-        <v>0.239174</v>
+        <v>0.237652</v>
       </c>
     </row>
     <row r="108">
@@ -4733,13 +4733,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.179416</v>
+        <v>0.179641</v>
       </c>
       <c r="C108" t="n">
-        <v>0.236947</v>
+        <v>0.237404</v>
       </c>
       <c r="D108" t="n">
-        <v>0.263307</v>
+        <v>0.2608</v>
       </c>
     </row>
     <row r="109">
@@ -4747,13 +4747,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.171468</v>
+        <v>0.172185</v>
       </c>
       <c r="C109" t="n">
-        <v>0.236208</v>
+        <v>0.236567</v>
       </c>
       <c r="D109" t="n">
-        <v>0.259877</v>
+        <v>0.253235</v>
       </c>
     </row>
     <row r="110">
@@ -4761,13 +4761,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.241508</v>
+        <v>0.240489</v>
       </c>
       <c r="C110" t="n">
-        <v>0.252515</v>
+        <v>0.251756</v>
       </c>
       <c r="D110" t="n">
-        <v>0.255848</v>
+        <v>0.254704</v>
       </c>
     </row>
     <row r="111">
@@ -4775,13 +4775,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.238639</v>
+        <v>0.240479</v>
       </c>
       <c r="C111" t="n">
-        <v>0.251209</v>
+        <v>0.249519</v>
       </c>
       <c r="D111" t="n">
-        <v>0.252202</v>
+        <v>0.254401</v>
       </c>
     </row>
     <row r="112">
@@ -4789,13 +4789,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.235509</v>
+        <v>0.235293</v>
       </c>
       <c r="C112" t="n">
-        <v>0.249713</v>
+        <v>0.246012</v>
       </c>
       <c r="D112" t="n">
-        <v>0.250141</v>
+        <v>0.254254</v>
       </c>
     </row>
     <row r="113">
@@ -4803,13 +4803,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.230652</v>
+        <v>0.231612</v>
       </c>
       <c r="C113" t="n">
-        <v>0.244756</v>
+        <v>0.249397</v>
       </c>
       <c r="D113" t="n">
-        <v>0.249441</v>
+        <v>0.246965</v>
       </c>
     </row>
     <row r="114">
@@ -4817,13 +4817,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.226092</v>
+        <v>0.224559</v>
       </c>
       <c r="C114" t="n">
-        <v>0.247781</v>
+        <v>0.242432</v>
       </c>
       <c r="D114" t="n">
-        <v>0.248001</v>
+        <v>0.252036</v>
       </c>
     </row>
     <row r="115">
@@ -4831,13 +4831,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.224837</v>
+        <v>0.227706</v>
       </c>
       <c r="C115" t="n">
-        <v>0.243133</v>
+        <v>0.244349</v>
       </c>
       <c r="D115" t="n">
-        <v>0.245939</v>
+        <v>0.245786</v>
       </c>
     </row>
     <row r="116">
@@ -4845,13 +4845,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.218639</v>
+        <v>0.218471</v>
       </c>
       <c r="C116" t="n">
-        <v>0.242919</v>
+        <v>0.244263</v>
       </c>
       <c r="D116" t="n">
-        <v>0.241457</v>
+        <v>0.246712</v>
       </c>
     </row>
     <row r="117">
@@ -4859,13 +4859,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.212705</v>
+        <v>0.213413</v>
       </c>
       <c r="C117" t="n">
-        <v>0.241758</v>
+        <v>0.246172</v>
       </c>
       <c r="D117" t="n">
-        <v>0.242868</v>
+        <v>0.245674</v>
       </c>
     </row>
     <row r="118">
@@ -4873,13 +4873,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.205014</v>
+        <v>0.211426</v>
       </c>
       <c r="C118" t="n">
-        <v>0.239887</v>
+        <v>0.239181</v>
       </c>
       <c r="D118" t="n">
-        <v>0.241597</v>
+        <v>0.240583</v>
       </c>
     </row>
     <row r="119">
@@ -4887,13 +4887,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.200093</v>
+        <v>0.201053</v>
       </c>
       <c r="C119" t="n">
-        <v>0.241293</v>
+        <v>0.240793</v>
       </c>
       <c r="D119" t="n">
-        <v>0.242125</v>
+        <v>0.240757</v>
       </c>
     </row>
     <row r="120">
@@ -4901,13 +4901,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.195325</v>
+        <v>0.197119</v>
       </c>
       <c r="C120" t="n">
-        <v>0.241192</v>
+        <v>0.238284</v>
       </c>
       <c r="D120" t="n">
-        <v>0.238123</v>
+        <v>0.240229</v>
       </c>
     </row>
     <row r="121">
@@ -4915,13 +4915,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.189943</v>
+        <v>0.188079</v>
       </c>
       <c r="C121" t="n">
-        <v>0.238683</v>
+        <v>0.236775</v>
       </c>
       <c r="D121" t="n">
-        <v>0.237748</v>
+        <v>0.249187</v>
       </c>
     </row>
     <row r="122">
@@ -4929,13 +4929,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.183728</v>
+        <v>0.182375</v>
       </c>
       <c r="C122" t="n">
-        <v>0.236029</v>
+        <v>0.239152</v>
       </c>
       <c r="D122" t="n">
-        <v>0.237666</v>
+        <v>0.237213</v>
       </c>
     </row>
     <row r="123">
@@ -4943,13 +4943,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.172399</v>
+        <v>0.172306</v>
       </c>
       <c r="C123" t="n">
-        <v>0.2424</v>
+        <v>0.238593</v>
       </c>
       <c r="D123" t="n">
-        <v>0.259901</v>
+        <v>0.257177</v>
       </c>
     </row>
     <row r="124">
@@ -4957,13 +4957,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.243686</v>
+        <v>0.246397</v>
       </c>
       <c r="C124" t="n">
-        <v>0.254279</v>
+        <v>0.252652</v>
       </c>
       <c r="D124" t="n">
-        <v>0.260446</v>
+        <v>0.259023</v>
       </c>
     </row>
     <row r="125">
@@ -4971,13 +4971,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.240451</v>
+        <v>0.241612</v>
       </c>
       <c r="C125" t="n">
-        <v>0.253074</v>
+        <v>0.254722</v>
       </c>
       <c r="D125" t="n">
-        <v>0.256305</v>
+        <v>0.258112</v>
       </c>
     </row>
     <row r="126">
@@ -4985,13 +4985,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.236196</v>
+        <v>0.245362</v>
       </c>
       <c r="C126" t="n">
-        <v>0.24772</v>
+        <v>0.250259</v>
       </c>
       <c r="D126" t="n">
-        <v>0.254614</v>
+        <v>0.255661</v>
       </c>
     </row>
     <row r="127">
@@ -4999,13 +4999,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.230847</v>
+        <v>0.231772</v>
       </c>
       <c r="C127" t="n">
-        <v>0.247294</v>
+        <v>0.244655</v>
       </c>
       <c r="D127" t="n">
-        <v>0.25082</v>
+        <v>0.253538</v>
       </c>
     </row>
     <row r="128">
@@ -5013,13 +5013,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.226902</v>
+        <v>0.225423</v>
       </c>
       <c r="C128" t="n">
-        <v>0.244446</v>
+        <v>0.246478</v>
       </c>
       <c r="D128" t="n">
-        <v>0.247278</v>
+        <v>0.250069</v>
       </c>
     </row>
     <row r="129">
@@ -5027,13 +5027,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.221808</v>
+        <v>0.220673</v>
       </c>
       <c r="C129" t="n">
-        <v>0.244584</v>
+        <v>0.242502</v>
       </c>
       <c r="D129" t="n">
-        <v>0.249013</v>
+        <v>0.248269</v>
       </c>
     </row>
     <row r="130">
@@ -5041,13 +5041,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.217007</v>
+        <v>0.216155</v>
       </c>
       <c r="C130" t="n">
-        <v>0.247321</v>
+        <v>0.242691</v>
       </c>
       <c r="D130" t="n">
-        <v>0.24835</v>
+        <v>0.245003</v>
       </c>
     </row>
     <row r="131">
@@ -5055,13 +5055,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.212119</v>
+        <v>0.211993</v>
       </c>
       <c r="C131" t="n">
-        <v>0.240275</v>
+        <v>0.240611</v>
       </c>
       <c r="D131" t="n">
-        <v>0.249044</v>
+        <v>0.25243</v>
       </c>
     </row>
     <row r="132">
@@ -5069,13 +5069,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.209247</v>
+        <v>0.209594</v>
       </c>
       <c r="C132" t="n">
-        <v>0.242036</v>
+        <v>0.245037</v>
       </c>
       <c r="D132" t="n">
-        <v>0.24659</v>
+        <v>0.244495</v>
       </c>
     </row>
     <row r="133">
@@ -5083,13 +5083,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.204179</v>
+        <v>0.207258</v>
       </c>
       <c r="C133" t="n">
-        <v>0.239903</v>
+        <v>0.237166</v>
       </c>
       <c r="D133" t="n">
-        <v>0.247636</v>
+        <v>0.244409</v>
       </c>
     </row>
     <row r="134">
@@ -5097,13 +5097,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.196638</v>
+        <v>0.198903</v>
       </c>
       <c r="C134" t="n">
-        <v>0.237474</v>
+        <v>0.239527</v>
       </c>
       <c r="D134" t="n">
-        <v>0.239243</v>
+        <v>0.241916</v>
       </c>
     </row>
     <row r="135">
@@ -5111,13 +5111,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.191527</v>
+        <v>0.193698</v>
       </c>
       <c r="C135" t="n">
-        <v>0.241264</v>
+        <v>0.24043</v>
       </c>
       <c r="D135" t="n">
-        <v>0.240284</v>
+        <v>0.243264</v>
       </c>
     </row>
     <row r="136">
@@ -5125,13 +5125,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.184081</v>
+        <v>0.184974</v>
       </c>
       <c r="C136" t="n">
-        <v>0.236885</v>
+        <v>0.237787</v>
       </c>
       <c r="D136" t="n">
-        <v>0.240878</v>
+        <v>0.241229</v>
       </c>
     </row>
     <row r="137">
@@ -5139,13 +5139,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.174598</v>
+        <v>0.176081</v>
       </c>
       <c r="C137" t="n">
-        <v>0.232171</v>
+        <v>0.236491</v>
       </c>
       <c r="D137" t="n">
-        <v>0.257191</v>
+        <v>0.265385</v>
       </c>
     </row>
     <row r="138">
@@ -5153,13 +5153,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.246129</v>
+        <v>0.242566</v>
       </c>
       <c r="C138" t="n">
-        <v>0.258351</v>
+        <v>0.252392</v>
       </c>
       <c r="D138" t="n">
-        <v>0.259311</v>
+        <v>0.262641</v>
       </c>
     </row>
     <row r="139">
@@ -5167,13 +5167,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.23714</v>
+        <v>0.247103</v>
       </c>
       <c r="C139" t="n">
-        <v>0.24716</v>
+        <v>0.255408</v>
       </c>
       <c r="D139" t="n">
-        <v>0.249502</v>
+        <v>0.252133</v>
       </c>
     </row>
     <row r="140">
@@ -5181,13 +5181,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.234878</v>
+        <v>0.239476</v>
       </c>
       <c r="C140" t="n">
-        <v>0.250148</v>
+        <v>0.250897</v>
       </c>
       <c r="D140" t="n">
-        <v>0.254126</v>
+        <v>0.252624</v>
       </c>
     </row>
     <row r="141">
@@ -5195,13 +5195,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.234601</v>
+        <v>0.243171</v>
       </c>
       <c r="C141" t="n">
-        <v>0.24668</v>
+        <v>0.247819</v>
       </c>
       <c r="D141" t="n">
-        <v>0.250611</v>
+        <v>0.251758</v>
       </c>
     </row>
     <row r="142">
@@ -5209,13 +5209,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.23051</v>
+        <v>0.233177</v>
       </c>
       <c r="C142" t="n">
-        <v>0.245745</v>
+        <v>0.246708</v>
       </c>
       <c r="D142" t="n">
-        <v>0.255375</v>
+        <v>0.249332</v>
       </c>
     </row>
     <row r="143">
@@ -5223,13 +5223,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.221522</v>
+        <v>0.224825</v>
       </c>
       <c r="C143" t="n">
-        <v>0.253629</v>
+        <v>0.247462</v>
       </c>
       <c r="D143" t="n">
-        <v>0.247597</v>
+        <v>0.245655</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Running erasure.xlsx
+++ b/vs-x64/Running erasure.xlsx
@@ -3249,13 +3249,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.195142</v>
+        <v>0.20508</v>
       </c>
       <c r="C2" t="n">
-        <v>0.228345</v>
+        <v>0.230191</v>
       </c>
       <c r="D2" t="n">
-        <v>0.230268</v>
+        <v>0.237059</v>
       </c>
     </row>
     <row r="3">
@@ -3263,13 +3263,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.197689</v>
+        <v>0.201961</v>
       </c>
       <c r="C3" t="n">
-        <v>0.233668</v>
+        <v>0.231779</v>
       </c>
       <c r="D3" t="n">
-        <v>0.245195</v>
+        <v>0.233349</v>
       </c>
     </row>
     <row r="4">
@@ -3277,13 +3277,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.191859</v>
+        <v>0.199492</v>
       </c>
       <c r="C4" t="n">
-        <v>0.237163</v>
+        <v>0.229259</v>
       </c>
       <c r="D4" t="n">
-        <v>0.237026</v>
+        <v>0.231175</v>
       </c>
     </row>
     <row r="5">
@@ -3291,13 +3291,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.198612</v>
+        <v>0.193502</v>
       </c>
       <c r="C5" t="n">
-        <v>0.235569</v>
+        <v>0.228453</v>
       </c>
       <c r="D5" t="n">
-        <v>0.232739</v>
+        <v>0.227565</v>
       </c>
     </row>
     <row r="6">
@@ -3305,13 +3305,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.203608</v>
+        <v>0.187116</v>
       </c>
       <c r="C6" t="n">
-        <v>0.239327</v>
+        <v>0.227925</v>
       </c>
       <c r="D6" t="n">
-        <v>0.229571</v>
+        <v>0.229381</v>
       </c>
     </row>
     <row r="7">
@@ -3319,13 +3319,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.178043</v>
+        <v>0.178065</v>
       </c>
       <c r="C7" t="n">
-        <v>0.226443</v>
+        <v>0.224278</v>
       </c>
       <c r="D7" t="n">
-        <v>0.230592</v>
+        <v>0.227998</v>
       </c>
     </row>
     <row r="8">
@@ -3333,13 +3333,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.170111</v>
+        <v>0.174569</v>
       </c>
       <c r="C8" t="n">
-        <v>0.23112</v>
+        <v>0.226503</v>
       </c>
       <c r="D8" t="n">
-        <v>0.228808</v>
+        <v>0.223573</v>
       </c>
     </row>
     <row r="9">
@@ -3347,13 +3347,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.161583</v>
+        <v>0.163412</v>
       </c>
       <c r="C9" t="n">
-        <v>0.226138</v>
+        <v>0.223061</v>
       </c>
       <c r="D9" t="n">
-        <v>0.24006</v>
+        <v>0.235399</v>
       </c>
     </row>
     <row r="10">
@@ -3361,13 +3361,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.225738</v>
+        <v>0.227249</v>
       </c>
       <c r="C10" t="n">
-        <v>0.23726</v>
+        <v>0.236675</v>
       </c>
       <c r="D10" t="n">
-        <v>0.237794</v>
+        <v>0.239602</v>
       </c>
     </row>
     <row r="11">
@@ -3375,13 +3375,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.231631</v>
+        <v>0.228964</v>
       </c>
       <c r="C11" t="n">
-        <v>0.237519</v>
+        <v>0.239325</v>
       </c>
       <c r="D11" t="n">
-        <v>0.244081</v>
+        <v>0.235415</v>
       </c>
     </row>
     <row r="12">
@@ -3389,13 +3389,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.223547</v>
+        <v>0.222838</v>
       </c>
       <c r="C12" t="n">
-        <v>0.236972</v>
+        <v>0.235718</v>
       </c>
       <c r="D12" t="n">
-        <v>0.238884</v>
+        <v>0.234208</v>
       </c>
     </row>
     <row r="13">
@@ -3403,13 +3403,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.219337</v>
+        <v>0.219433</v>
       </c>
       <c r="C13" t="n">
-        <v>0.235949</v>
+        <v>0.239977</v>
       </c>
       <c r="D13" t="n">
-        <v>0.23587</v>
+        <v>0.236679</v>
       </c>
     </row>
     <row r="14">
@@ -3417,13 +3417,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.211372</v>
+        <v>0.216153</v>
       </c>
       <c r="C14" t="n">
-        <v>0.23419</v>
+        <v>0.233988</v>
       </c>
       <c r="D14" t="n">
-        <v>0.234729</v>
+        <v>0.235626</v>
       </c>
     </row>
     <row r="15">
@@ -3431,13 +3431,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.210215</v>
+        <v>0.210671</v>
       </c>
       <c r="C15" t="n">
-        <v>0.231256</v>
+        <v>0.232738</v>
       </c>
       <c r="D15" t="n">
-        <v>0.238924</v>
+        <v>0.234531</v>
       </c>
     </row>
     <row r="16">
@@ -3445,13 +3445,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.209148</v>
+        <v>0.206764</v>
       </c>
       <c r="C16" t="n">
-        <v>0.23245</v>
+        <v>0.226655</v>
       </c>
       <c r="D16" t="n">
-        <v>0.233286</v>
+        <v>0.233897</v>
       </c>
     </row>
     <row r="17">
@@ -3459,13 +3459,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.201989</v>
+        <v>0.207286</v>
       </c>
       <c r="C17" t="n">
-        <v>0.23737</v>
+        <v>0.229158</v>
       </c>
       <c r="D17" t="n">
-        <v>0.233986</v>
+        <v>0.238854</v>
       </c>
     </row>
     <row r="18">
@@ -3473,13 +3473,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.195412</v>
+        <v>0.200637</v>
       </c>
       <c r="C18" t="n">
-        <v>0.230981</v>
+        <v>0.22835</v>
       </c>
       <c r="D18" t="n">
-        <v>0.234515</v>
+        <v>0.233346</v>
       </c>
     </row>
     <row r="19">
@@ -3487,13 +3487,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.192384</v>
+        <v>0.198594</v>
       </c>
       <c r="C19" t="n">
-        <v>0.230506</v>
+        <v>0.231509</v>
       </c>
       <c r="D19" t="n">
-        <v>0.232114</v>
+        <v>0.233119</v>
       </c>
     </row>
     <row r="20">
@@ -3501,13 +3501,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.190926</v>
+        <v>0.193949</v>
       </c>
       <c r="C20" t="n">
-        <v>0.233334</v>
+        <v>0.232448</v>
       </c>
       <c r="D20" t="n">
-        <v>0.234519</v>
+        <v>0.227941</v>
       </c>
     </row>
     <row r="21">
@@ -3515,13 +3515,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.183745</v>
+        <v>0.184183</v>
       </c>
       <c r="C21" t="n">
-        <v>0.230673</v>
+        <v>0.233243</v>
       </c>
       <c r="D21" t="n">
-        <v>0.231113</v>
+        <v>0.230044</v>
       </c>
     </row>
     <row r="22">
@@ -3529,13 +3529,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.17653</v>
+        <v>0.179021</v>
       </c>
       <c r="C22" t="n">
-        <v>0.228132</v>
+        <v>0.232627</v>
       </c>
       <c r="D22" t="n">
-        <v>0.230778</v>
+        <v>0.235225</v>
       </c>
     </row>
     <row r="23">
@@ -3543,13 +3543,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.168332</v>
+        <v>0.169871</v>
       </c>
       <c r="C23" t="n">
-        <v>0.23143</v>
+        <v>0.228839</v>
       </c>
       <c r="D23" t="n">
-        <v>0.245075</v>
+        <v>0.23857</v>
       </c>
     </row>
     <row r="24">
@@ -3557,13 +3557,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.230618</v>
+        <v>0.233674</v>
       </c>
       <c r="C24" t="n">
-        <v>0.241215</v>
+        <v>0.234613</v>
       </c>
       <c r="D24" t="n">
-        <v>0.242226</v>
+        <v>0.246999</v>
       </c>
     </row>
     <row r="25">
@@ -3571,13 +3571,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.226377</v>
+        <v>0.230423</v>
       </c>
       <c r="C25" t="n">
-        <v>0.237659</v>
+        <v>0.234037</v>
       </c>
       <c r="D25" t="n">
-        <v>0.241703</v>
+        <v>0.240505</v>
       </c>
     </row>
     <row r="26">
@@ -3585,13 +3585,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.222214</v>
+        <v>0.22437</v>
       </c>
       <c r="C26" t="n">
-        <v>0.236787</v>
+        <v>0.235612</v>
       </c>
       <c r="D26" t="n">
-        <v>0.240047</v>
+        <v>0.237394</v>
       </c>
     </row>
     <row r="27">
@@ -3599,13 +3599,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.217348</v>
+        <v>0.219069</v>
       </c>
       <c r="C27" t="n">
-        <v>0.235822</v>
+        <v>0.236121</v>
       </c>
       <c r="D27" t="n">
-        <v>0.237496</v>
+        <v>0.238352</v>
       </c>
     </row>
     <row r="28">
@@ -3613,13 +3613,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.217611</v>
+        <v>0.217722</v>
       </c>
       <c r="C28" t="n">
-        <v>0.236118</v>
+        <v>0.239436</v>
       </c>
       <c r="D28" t="n">
-        <v>0.238375</v>
+        <v>0.234928</v>
       </c>
     </row>
     <row r="29">
@@ -3627,13 +3627,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.214073</v>
+        <v>0.214599</v>
       </c>
       <c r="C29" t="n">
-        <v>0.233914</v>
+        <v>0.234631</v>
       </c>
       <c r="D29" t="n">
-        <v>0.238563</v>
+        <v>0.235286</v>
       </c>
     </row>
     <row r="30">
@@ -3641,13 +3641,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.209451</v>
+        <v>0.215688</v>
       </c>
       <c r="C30" t="n">
-        <v>0.232428</v>
+        <v>0.232312</v>
       </c>
       <c r="D30" t="n">
-        <v>0.238809</v>
+        <v>0.237297</v>
       </c>
     </row>
     <row r="31">
@@ -3655,13 +3655,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.204966</v>
+        <v>0.208521</v>
       </c>
       <c r="C31" t="n">
-        <v>0.238013</v>
+        <v>0.23159</v>
       </c>
       <c r="D31" t="n">
-        <v>0.234115</v>
+        <v>0.232234</v>
       </c>
     </row>
     <row r="32">
@@ -3669,13 +3669,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.200111</v>
+        <v>0.202556</v>
       </c>
       <c r="C32" t="n">
-        <v>0.229708</v>
+        <v>0.233483</v>
       </c>
       <c r="D32" t="n">
-        <v>0.237595</v>
+        <v>0.241729</v>
       </c>
     </row>
     <row r="33">
@@ -3683,13 +3683,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.195305</v>
+        <v>0.196645</v>
       </c>
       <c r="C33" t="n">
-        <v>0.231246</v>
+        <v>0.231797</v>
       </c>
       <c r="D33" t="n">
-        <v>0.236623</v>
+        <v>0.235646</v>
       </c>
     </row>
     <row r="34">
@@ -3697,13 +3697,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.190317</v>
+        <v>0.194747</v>
       </c>
       <c r="C34" t="n">
-        <v>0.230074</v>
+        <v>0.232776</v>
       </c>
       <c r="D34" t="n">
-        <v>0.236828</v>
+        <v>0.233537</v>
       </c>
     </row>
     <row r="35">
@@ -3711,13 +3711,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.187801</v>
+        <v>0.188025</v>
       </c>
       <c r="C35" t="n">
-        <v>0.229419</v>
+        <v>0.232031</v>
       </c>
       <c r="D35" t="n">
-        <v>0.235606</v>
+        <v>0.238254</v>
       </c>
     </row>
     <row r="36">
@@ -3725,13 +3725,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.180508</v>
+        <v>0.184878</v>
       </c>
       <c r="C36" t="n">
-        <v>0.239899</v>
+        <v>0.22853</v>
       </c>
       <c r="D36" t="n">
-        <v>0.234691</v>
+        <v>0.230691</v>
       </c>
     </row>
     <row r="37">
@@ -3739,13 +3739,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.1776</v>
+        <v>0.180495</v>
       </c>
       <c r="C37" t="n">
-        <v>0.239129</v>
+        <v>0.228688</v>
       </c>
       <c r="D37" t="n">
-        <v>0.262697</v>
+        <v>0.244205</v>
       </c>
     </row>
     <row r="38">
@@ -3753,13 +3753,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.247337</v>
+        <v>0.231637</v>
       </c>
       <c r="C38" t="n">
-        <v>0.250789</v>
+        <v>0.239262</v>
       </c>
       <c r="D38" t="n">
-        <v>0.246621</v>
+        <v>0.246894</v>
       </c>
     </row>
     <row r="39">
@@ -3767,13 +3767,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.234276</v>
+        <v>0.230327</v>
       </c>
       <c r="C39" t="n">
-        <v>0.244721</v>
+        <v>0.236653</v>
       </c>
       <c r="D39" t="n">
-        <v>0.245135</v>
+        <v>0.24404</v>
       </c>
     </row>
     <row r="40">
@@ -3781,13 +3781,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.232193</v>
+        <v>0.228851</v>
       </c>
       <c r="C40" t="n">
-        <v>0.240012</v>
+        <v>0.237125</v>
       </c>
       <c r="D40" t="n">
-        <v>0.243664</v>
+        <v>0.246995</v>
       </c>
     </row>
     <row r="41">
@@ -3795,13 +3795,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.227288</v>
+        <v>0.226573</v>
       </c>
       <c r="C41" t="n">
-        <v>0.240289</v>
+        <v>0.234654</v>
       </c>
       <c r="D41" t="n">
-        <v>0.241478</v>
+        <v>0.240564</v>
       </c>
     </row>
     <row r="42">
@@ -3809,13 +3809,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.222238</v>
+        <v>0.222834</v>
       </c>
       <c r="C42" t="n">
-        <v>0.238147</v>
+        <v>0.235935</v>
       </c>
       <c r="D42" t="n">
-        <v>0.242069</v>
+        <v>0.237186</v>
       </c>
     </row>
     <row r="43">
@@ -3823,13 +3823,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.217363</v>
+        <v>0.217747</v>
       </c>
       <c r="C43" t="n">
-        <v>0.236466</v>
+        <v>0.231991</v>
       </c>
       <c r="D43" t="n">
-        <v>0.239833</v>
+        <v>0.236814</v>
       </c>
     </row>
     <row r="44">
@@ -3837,13 +3837,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.212704</v>
+        <v>0.213525</v>
       </c>
       <c r="C44" t="n">
-        <v>0.235256</v>
+        <v>0.232314</v>
       </c>
       <c r="D44" t="n">
-        <v>0.238265</v>
+        <v>0.24434</v>
       </c>
     </row>
     <row r="45">
@@ -3851,13 +3851,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.210363</v>
+        <v>0.208228</v>
       </c>
       <c r="C45" t="n">
-        <v>0.236963</v>
+        <v>0.230872</v>
       </c>
       <c r="D45" t="n">
-        <v>0.243472</v>
+        <v>0.243379</v>
       </c>
     </row>
     <row r="46">
@@ -3865,13 +3865,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.204827</v>
+        <v>0.205867</v>
       </c>
       <c r="C46" t="n">
-        <v>0.234577</v>
+        <v>0.232227</v>
       </c>
       <c r="D46" t="n">
-        <v>0.237923</v>
+        <v>0.239226</v>
       </c>
     </row>
     <row r="47">
@@ -3879,13 +3879,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.199485</v>
+        <v>0.201449</v>
       </c>
       <c r="C47" t="n">
-        <v>0.234446</v>
+        <v>0.231654</v>
       </c>
       <c r="D47" t="n">
-        <v>0.237317</v>
+        <v>0.237705</v>
       </c>
     </row>
     <row r="48">
@@ -3893,13 +3893,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.193853</v>
+        <v>0.196347</v>
       </c>
       <c r="C48" t="n">
-        <v>0.236578</v>
+        <v>0.230804</v>
       </c>
       <c r="D48" t="n">
-        <v>0.237282</v>
+        <v>0.233268</v>
       </c>
     </row>
     <row r="49">
@@ -3907,13 +3907,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.19119</v>
+        <v>0.189133</v>
       </c>
       <c r="C49" t="n">
-        <v>0.23399</v>
+        <v>0.233121</v>
       </c>
       <c r="D49" t="n">
-        <v>0.238468</v>
+        <v>0.237118</v>
       </c>
     </row>
     <row r="50">
@@ -3921,13 +3921,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.183655</v>
+        <v>0.186552</v>
       </c>
       <c r="C50" t="n">
-        <v>0.231763</v>
+        <v>0.231224</v>
       </c>
       <c r="D50" t="n">
-        <v>0.235945</v>
+        <v>0.230449</v>
       </c>
     </row>
     <row r="51">
@@ -3935,13 +3935,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.175735</v>
+        <v>0.17682</v>
       </c>
       <c r="C51" t="n">
-        <v>0.229639</v>
+        <v>0.22946</v>
       </c>
       <c r="D51" t="n">
-        <v>0.253213</v>
+        <v>0.25202</v>
       </c>
     </row>
     <row r="52">
@@ -3949,13 +3949,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.171597</v>
+        <v>0.170033</v>
       </c>
       <c r="C52" t="n">
-        <v>0.23117</v>
+        <v>0.22933</v>
       </c>
       <c r="D52" t="n">
-        <v>0.252679</v>
+        <v>0.249197</v>
       </c>
     </row>
     <row r="53">
@@ -3963,13 +3963,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.240306</v>
+        <v>0.237837</v>
       </c>
       <c r="C53" t="n">
-        <v>0.249221</v>
+        <v>0.242458</v>
       </c>
       <c r="D53" t="n">
-        <v>0.252083</v>
+        <v>0.249663</v>
       </c>
     </row>
     <row r="54">
@@ -3977,13 +3977,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.235156</v>
+        <v>0.2323</v>
       </c>
       <c r="C54" t="n">
-        <v>0.247208</v>
+        <v>0.244566</v>
       </c>
       <c r="D54" t="n">
-        <v>0.261386</v>
+        <v>0.251101</v>
       </c>
     </row>
     <row r="55">
@@ -3991,13 +3991,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.230323</v>
+        <v>0.228381</v>
       </c>
       <c r="C55" t="n">
-        <v>0.256853</v>
+        <v>0.241562</v>
       </c>
       <c r="D55" t="n">
-        <v>0.258972</v>
+        <v>0.248088</v>
       </c>
     </row>
     <row r="56">
@@ -4005,13 +4005,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.231536</v>
+        <v>0.22455</v>
       </c>
       <c r="C56" t="n">
-        <v>0.247502</v>
+        <v>0.242049</v>
       </c>
       <c r="D56" t="n">
-        <v>0.246153</v>
+        <v>0.24451</v>
       </c>
     </row>
     <row r="57">
@@ -4019,13 +4019,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.221342</v>
+        <v>0.220232</v>
       </c>
       <c r="C57" t="n">
-        <v>0.243001</v>
+        <v>0.237864</v>
       </c>
       <c r="D57" t="n">
-        <v>0.246806</v>
+        <v>0.241949</v>
       </c>
     </row>
     <row r="58">
@@ -4033,13 +4033,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.215492</v>
+        <v>0.217712</v>
       </c>
       <c r="C58" t="n">
-        <v>0.241404</v>
+        <v>0.237384</v>
       </c>
       <c r="D58" t="n">
-        <v>0.243962</v>
+        <v>0.24044</v>
       </c>
     </row>
     <row r="59">
@@ -4047,13 +4047,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.211158</v>
+        <v>0.211944</v>
       </c>
       <c r="C59" t="n">
-        <v>0.239129</v>
+        <v>0.236981</v>
       </c>
       <c r="D59" t="n">
-        <v>0.243895</v>
+        <v>0.243501</v>
       </c>
     </row>
     <row r="60">
@@ -4061,13 +4061,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.208457</v>
+        <v>0.208187</v>
       </c>
       <c r="C60" t="n">
-        <v>0.237253</v>
+        <v>0.235504</v>
       </c>
       <c r="D60" t="n">
-        <v>0.241438</v>
+        <v>0.24485</v>
       </c>
     </row>
     <row r="61">
@@ -4075,13 +4075,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.202799</v>
+        <v>0.205639</v>
       </c>
       <c r="C61" t="n">
-        <v>0.237904</v>
+        <v>0.235353</v>
       </c>
       <c r="D61" t="n">
-        <v>0.242704</v>
+        <v>0.242122</v>
       </c>
     </row>
     <row r="62">
@@ -4089,13 +4089,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.202394</v>
+        <v>0.201253</v>
       </c>
       <c r="C62" t="n">
-        <v>0.237397</v>
+        <v>0.233357</v>
       </c>
       <c r="D62" t="n">
-        <v>0.244248</v>
+        <v>0.238332</v>
       </c>
     </row>
     <row r="63">
@@ -4103,13 +4103,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.191916</v>
+        <v>0.193842</v>
       </c>
       <c r="C63" t="n">
-        <v>0.235795</v>
+        <v>0.23434</v>
       </c>
       <c r="D63" t="n">
-        <v>0.239507</v>
+        <v>0.240101</v>
       </c>
     </row>
     <row r="64">
@@ -4117,13 +4117,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.189561</v>
+        <v>0.18529</v>
       </c>
       <c r="C64" t="n">
-        <v>0.234307</v>
+        <v>0.231934</v>
       </c>
       <c r="D64" t="n">
-        <v>0.239854</v>
+        <v>0.236582</v>
       </c>
     </row>
     <row r="65">
@@ -4131,13 +4131,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.183008</v>
+        <v>0.181818</v>
       </c>
       <c r="C65" t="n">
-        <v>0.236285</v>
+        <v>0.231862</v>
       </c>
       <c r="D65" t="n">
-        <v>0.238315</v>
+        <v>0.240374</v>
       </c>
     </row>
     <row r="66">
@@ -4145,13 +4145,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.179219</v>
+        <v>0.172087</v>
       </c>
       <c r="C66" t="n">
-        <v>0.237254</v>
+        <v>0.23103</v>
       </c>
       <c r="D66" t="n">
-        <v>0.258599</v>
+        <v>0.248793</v>
       </c>
     </row>
     <row r="67">
@@ -4159,13 +4159,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.240801</v>
+        <v>0.240274</v>
       </c>
       <c r="C67" t="n">
-        <v>0.250048</v>
+        <v>0.244006</v>
       </c>
       <c r="D67" t="n">
-        <v>0.251774</v>
+        <v>0.250173</v>
       </c>
     </row>
     <row r="68">
@@ -4173,13 +4173,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.236702</v>
+        <v>0.237959</v>
       </c>
       <c r="C68" t="n">
-        <v>0.24879</v>
+        <v>0.249795</v>
       </c>
       <c r="D68" t="n">
-        <v>0.254415</v>
+        <v>0.248983</v>
       </c>
     </row>
     <row r="69">
@@ -4187,13 +4187,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.237</v>
+        <v>0.235604</v>
       </c>
       <c r="C69" t="n">
-        <v>0.24781</v>
+        <v>0.240975</v>
       </c>
       <c r="D69" t="n">
-        <v>0.250821</v>
+        <v>0.251022</v>
       </c>
     </row>
     <row r="70">
@@ -4201,13 +4201,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.228508</v>
+        <v>0.231737</v>
       </c>
       <c r="C70" t="n">
-        <v>0.24346</v>
+        <v>0.241813</v>
       </c>
       <c r="D70" t="n">
-        <v>0.248601</v>
+        <v>0.245699</v>
       </c>
     </row>
     <row r="71">
@@ -4215,13 +4215,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.227315</v>
+        <v>0.224322</v>
       </c>
       <c r="C71" t="n">
-        <v>0.243378</v>
+        <v>0.245435</v>
       </c>
       <c r="D71" t="n">
-        <v>0.248749</v>
+        <v>0.251879</v>
       </c>
     </row>
     <row r="72">
@@ -4229,13 +4229,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.222598</v>
+        <v>0.223</v>
       </c>
       <c r="C72" t="n">
-        <v>0.24504</v>
+        <v>0.240433</v>
       </c>
       <c r="D72" t="n">
-        <v>0.248719</v>
+        <v>0.243844</v>
       </c>
     </row>
     <row r="73">
@@ -4243,13 +4243,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.218646</v>
+        <v>0.216646</v>
       </c>
       <c r="C73" t="n">
-        <v>0.246583</v>
+        <v>0.237683</v>
       </c>
       <c r="D73" t="n">
-        <v>0.24755</v>
+        <v>0.242431</v>
       </c>
     </row>
     <row r="74">
@@ -4257,13 +4257,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.216519</v>
+        <v>0.211818</v>
       </c>
       <c r="C74" t="n">
-        <v>0.242117</v>
+        <v>0.234714</v>
       </c>
       <c r="D74" t="n">
-        <v>0.24457</v>
+        <v>0.239191</v>
       </c>
     </row>
     <row r="75">
@@ -4271,13 +4271,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.208986</v>
+        <v>0.208035</v>
       </c>
       <c r="C75" t="n">
-        <v>0.240293</v>
+        <v>0.235695</v>
       </c>
       <c r="D75" t="n">
-        <v>0.244024</v>
+        <v>0.23912</v>
       </c>
     </row>
     <row r="76">
@@ -4285,13 +4285,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.207855</v>
+        <v>0.202433</v>
       </c>
       <c r="C76" t="n">
-        <v>0.241575</v>
+        <v>0.236037</v>
       </c>
       <c r="D76" t="n">
-        <v>0.242693</v>
+        <v>0.241266</v>
       </c>
     </row>
     <row r="77">
@@ -4299,13 +4299,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.19876</v>
+        <v>0.198882</v>
       </c>
       <c r="C77" t="n">
-        <v>0.249414</v>
+        <v>0.231872</v>
       </c>
       <c r="D77" t="n">
-        <v>0.242318</v>
+        <v>0.238284</v>
       </c>
     </row>
     <row r="78">
@@ -4313,13 +4313,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.188398</v>
+        <v>0.193002</v>
       </c>
       <c r="C78" t="n">
-        <v>0.234969</v>
+        <v>0.234769</v>
       </c>
       <c r="D78" t="n">
-        <v>0.238757</v>
+        <v>0.244476</v>
       </c>
     </row>
     <row r="79">
@@ -4327,13 +4327,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.180878</v>
+        <v>0.184452</v>
       </c>
       <c r="C79" t="n">
-        <v>0.230955</v>
+        <v>0.233377</v>
       </c>
       <c r="D79" t="n">
-        <v>0.235867</v>
+        <v>0.237416</v>
       </c>
     </row>
     <row r="80">
@@ -4341,13 +4341,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.17336</v>
+        <v>0.175517</v>
       </c>
       <c r="C80" t="n">
-        <v>0.232236</v>
+        <v>0.234036</v>
       </c>
       <c r="D80" t="n">
-        <v>0.254109</v>
+        <v>0.257275</v>
       </c>
     </row>
     <row r="81">
@@ -4355,13 +4355,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.249268</v>
+        <v>0.249931</v>
       </c>
       <c r="C81" t="n">
-        <v>0.250967</v>
+        <v>0.250225</v>
       </c>
       <c r="D81" t="n">
-        <v>0.252122</v>
+        <v>0.253734</v>
       </c>
     </row>
     <row r="82">
@@ -4369,13 +4369,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.238445</v>
+        <v>0.247801</v>
       </c>
       <c r="C82" t="n">
-        <v>0.249278</v>
+        <v>0.247968</v>
       </c>
       <c r="D82" t="n">
-        <v>0.253799</v>
+        <v>0.250995</v>
       </c>
     </row>
     <row r="83">
@@ -4383,13 +4383,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.23887</v>
+        <v>0.238878</v>
       </c>
       <c r="C83" t="n">
-        <v>0.248556</v>
+        <v>0.2478</v>
       </c>
       <c r="D83" t="n">
-        <v>0.251199</v>
+        <v>0.25101</v>
       </c>
     </row>
     <row r="84">
@@ -4397,13 +4397,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.230946</v>
+        <v>0.234852</v>
       </c>
       <c r="C84" t="n">
-        <v>0.24818</v>
+        <v>0.246326</v>
       </c>
       <c r="D84" t="n">
-        <v>0.24862</v>
+        <v>0.24886</v>
       </c>
     </row>
     <row r="85">
@@ -4411,13 +4411,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.231499</v>
+        <v>0.232752</v>
       </c>
       <c r="C85" t="n">
-        <v>0.245922</v>
+        <v>0.240229</v>
       </c>
       <c r="D85" t="n">
-        <v>0.251183</v>
+        <v>0.246043</v>
       </c>
     </row>
     <row r="86">
@@ -4425,13 +4425,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.227134</v>
+        <v>0.226119</v>
       </c>
       <c r="C86" t="n">
-        <v>0.245152</v>
+        <v>0.241458</v>
       </c>
       <c r="D86" t="n">
-        <v>0.246422</v>
+        <v>0.247182</v>
       </c>
     </row>
     <row r="87">
@@ -4439,13 +4439,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.216959</v>
+        <v>0.221391</v>
       </c>
       <c r="C87" t="n">
-        <v>0.23964</v>
+        <v>0.24091</v>
       </c>
       <c r="D87" t="n">
-        <v>0.241302</v>
+        <v>0.246807</v>
       </c>
     </row>
     <row r="88">
@@ -4453,13 +4453,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.216042</v>
+        <v>0.214288</v>
       </c>
       <c r="C88" t="n">
-        <v>0.24619</v>
+        <v>0.24203</v>
       </c>
       <c r="D88" t="n">
-        <v>0.244135</v>
+        <v>0.244192</v>
       </c>
     </row>
     <row r="89">
@@ -4467,13 +4467,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.211447</v>
+        <v>0.212153</v>
       </c>
       <c r="C89" t="n">
-        <v>0.238502</v>
+        <v>0.236427</v>
       </c>
       <c r="D89" t="n">
-        <v>0.252064</v>
+        <v>0.2413</v>
       </c>
     </row>
     <row r="90">
@@ -4481,13 +4481,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.204811</v>
+        <v>0.207592</v>
       </c>
       <c r="C90" t="n">
-        <v>0.234652</v>
+        <v>0.235961</v>
       </c>
       <c r="D90" t="n">
-        <v>0.241853</v>
+        <v>0.240847</v>
       </c>
     </row>
     <row r="91">
@@ -4495,13 +4495,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.197405</v>
+        <v>0.200272</v>
       </c>
       <c r="C91" t="n">
-        <v>0.237986</v>
+        <v>0.236709</v>
       </c>
       <c r="D91" t="n">
-        <v>0.239792</v>
+        <v>0.240642</v>
       </c>
     </row>
     <row r="92">
@@ -4509,13 +4509,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.193067</v>
+        <v>0.196101</v>
       </c>
       <c r="C92" t="n">
-        <v>0.236354</v>
+        <v>0.237302</v>
       </c>
       <c r="D92" t="n">
-        <v>0.240397</v>
+        <v>0.242098</v>
       </c>
     </row>
     <row r="93">
@@ -4523,13 +4523,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.189352</v>
+        <v>0.189142</v>
       </c>
       <c r="C93" t="n">
-        <v>0.237796</v>
+        <v>0.238843</v>
       </c>
       <c r="D93" t="n">
-        <v>0.236374</v>
+        <v>0.238222</v>
       </c>
     </row>
     <row r="94">
@@ -4537,13 +4537,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.176051</v>
+        <v>0.180163</v>
       </c>
       <c r="C94" t="n">
-        <v>0.233576</v>
+        <v>0.237078</v>
       </c>
       <c r="D94" t="n">
-        <v>0.258181</v>
+        <v>0.255501</v>
       </c>
     </row>
     <row r="95">
@@ -4551,13 +4551,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.244952</v>
+        <v>0.247146</v>
       </c>
       <c r="C95" t="n">
-        <v>0.255219</v>
+        <v>0.254537</v>
       </c>
       <c r="D95" t="n">
-        <v>0.256244</v>
+        <v>0.256966</v>
       </c>
     </row>
     <row r="96">
@@ -4565,13 +4565,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.243662</v>
+        <v>0.243487</v>
       </c>
       <c r="C96" t="n">
-        <v>0.253496</v>
+        <v>0.251707</v>
       </c>
       <c r="D96" t="n">
-        <v>0.25377</v>
+        <v>0.256073</v>
       </c>
     </row>
     <row r="97">
@@ -4579,13 +4579,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.2384</v>
+        <v>0.241705</v>
       </c>
       <c r="C97" t="n">
-        <v>0.249336</v>
+        <v>0.251421</v>
       </c>
       <c r="D97" t="n">
-        <v>0.253681</v>
+        <v>0.251388</v>
       </c>
     </row>
     <row r="98">
@@ -4593,13 +4593,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.238813</v>
+        <v>0.235973</v>
       </c>
       <c r="C98" t="n">
-        <v>0.249323</v>
+        <v>0.247661</v>
       </c>
       <c r="D98" t="n">
-        <v>0.250461</v>
+        <v>0.255787</v>
       </c>
     </row>
     <row r="99">
@@ -4607,13 +4607,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.227991</v>
+        <v>0.234287</v>
       </c>
       <c r="C99" t="n">
-        <v>0.248097</v>
+        <v>0.246505</v>
       </c>
       <c r="D99" t="n">
-        <v>0.24892</v>
+        <v>0.246761</v>
       </c>
     </row>
     <row r="100">
@@ -4621,13 +4621,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.222556</v>
+        <v>0.226702</v>
       </c>
       <c r="C100" t="n">
-        <v>0.248492</v>
+        <v>0.246465</v>
       </c>
       <c r="D100" t="n">
-        <v>0.250449</v>
+        <v>0.251689</v>
       </c>
     </row>
     <row r="101">
@@ -4635,13 +4635,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.221344</v>
+        <v>0.223485</v>
       </c>
       <c r="C101" t="n">
-        <v>0.241749</v>
+        <v>0.248266</v>
       </c>
       <c r="D101" t="n">
-        <v>0.24559</v>
+        <v>0.246194</v>
       </c>
     </row>
     <row r="102">
@@ -4649,13 +4649,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.212989</v>
+        <v>0.218086</v>
       </c>
       <c r="C102" t="n">
-        <v>0.243447</v>
+        <v>0.243473</v>
       </c>
       <c r="D102" t="n">
-        <v>0.245768</v>
+        <v>0.243365</v>
       </c>
     </row>
     <row r="103">
@@ -4663,13 +4663,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.211197</v>
+        <v>0.212145</v>
       </c>
       <c r="C103" t="n">
-        <v>0.242329</v>
+        <v>0.238459</v>
       </c>
       <c r="D103" t="n">
-        <v>0.245841</v>
+        <v>0.241167</v>
       </c>
     </row>
     <row r="104">
@@ -4677,13 +4677,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.205342</v>
+        <v>0.207984</v>
       </c>
       <c r="C104" t="n">
-        <v>0.239681</v>
+        <v>0.23737</v>
       </c>
       <c r="D104" t="n">
-        <v>0.243598</v>
+        <v>0.242731</v>
       </c>
     </row>
     <row r="105">
@@ -4691,13 +4691,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.198944</v>
+        <v>0.201164</v>
       </c>
       <c r="C105" t="n">
-        <v>0.242399</v>
+        <v>0.239197</v>
       </c>
       <c r="D105" t="n">
-        <v>0.239672</v>
+        <v>0.243326</v>
       </c>
     </row>
     <row r="106">
@@ -4705,13 +4705,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.193381</v>
+        <v>0.195121</v>
       </c>
       <c r="C106" t="n">
-        <v>0.239142</v>
+        <v>0.24044</v>
       </c>
       <c r="D106" t="n">
-        <v>0.238551</v>
+        <v>0.239338</v>
       </c>
     </row>
     <row r="107">
@@ -4719,13 +4719,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.191514</v>
+        <v>0.190809</v>
       </c>
       <c r="C107" t="n">
-        <v>0.236103</v>
+        <v>0.237077</v>
       </c>
       <c r="D107" t="n">
-        <v>0.237652</v>
+        <v>0.240129</v>
       </c>
     </row>
     <row r="108">
@@ -4733,13 +4733,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.179641</v>
+        <v>0.183987</v>
       </c>
       <c r="C108" t="n">
-        <v>0.237404</v>
+        <v>0.23595</v>
       </c>
       <c r="D108" t="n">
-        <v>0.2608</v>
+        <v>0.258688</v>
       </c>
     </row>
     <row r="109">
@@ -4747,13 +4747,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.172185</v>
+        <v>0.173812</v>
       </c>
       <c r="C109" t="n">
-        <v>0.236567</v>
+        <v>0.234711</v>
       </c>
       <c r="D109" t="n">
-        <v>0.253235</v>
+        <v>0.254842</v>
       </c>
     </row>
     <row r="110">
@@ -4761,13 +4761,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.240489</v>
+        <v>0.244464</v>
       </c>
       <c r="C110" t="n">
-        <v>0.251756</v>
+        <v>0.252499</v>
       </c>
       <c r="D110" t="n">
-        <v>0.254704</v>
+        <v>0.254744</v>
       </c>
     </row>
     <row r="111">
@@ -4775,13 +4775,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.240479</v>
+        <v>0.24024</v>
       </c>
       <c r="C111" t="n">
-        <v>0.249519</v>
+        <v>0.249217</v>
       </c>
       <c r="D111" t="n">
-        <v>0.254401</v>
+        <v>0.251871</v>
       </c>
     </row>
     <row r="112">
@@ -4789,13 +4789,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.235293</v>
+        <v>0.241413</v>
       </c>
       <c r="C112" t="n">
-        <v>0.246012</v>
+        <v>0.251537</v>
       </c>
       <c r="D112" t="n">
-        <v>0.254254</v>
+        <v>0.254844</v>
       </c>
     </row>
     <row r="113">
@@ -4803,13 +4803,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.231612</v>
+        <v>0.234702</v>
       </c>
       <c r="C113" t="n">
-        <v>0.249397</v>
+        <v>0.250977</v>
       </c>
       <c r="D113" t="n">
-        <v>0.246965</v>
+        <v>0.249255</v>
       </c>
     </row>
     <row r="114">
@@ -4817,13 +4817,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.224559</v>
+        <v>0.230502</v>
       </c>
       <c r="C114" t="n">
-        <v>0.242432</v>
+        <v>0.246069</v>
       </c>
       <c r="D114" t="n">
-        <v>0.252036</v>
+        <v>0.250048</v>
       </c>
     </row>
     <row r="115">
@@ -4831,13 +4831,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.227706</v>
+        <v>0.224444</v>
       </c>
       <c r="C115" t="n">
-        <v>0.244349</v>
+        <v>0.242352</v>
       </c>
       <c r="D115" t="n">
-        <v>0.245786</v>
+        <v>0.247962</v>
       </c>
     </row>
     <row r="116">
@@ -4845,13 +4845,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.218471</v>
+        <v>0.217921</v>
       </c>
       <c r="C116" t="n">
-        <v>0.244263</v>
+        <v>0.241246</v>
       </c>
       <c r="D116" t="n">
-        <v>0.246712</v>
+        <v>0.245861</v>
       </c>
     </row>
     <row r="117">
@@ -4859,13 +4859,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.213413</v>
+        <v>0.215278</v>
       </c>
       <c r="C117" t="n">
-        <v>0.246172</v>
+        <v>0.242496</v>
       </c>
       <c r="D117" t="n">
-        <v>0.245674</v>
+        <v>0.245012</v>
       </c>
     </row>
     <row r="118">
@@ -4873,13 +4873,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.211426</v>
+        <v>0.2079</v>
       </c>
       <c r="C118" t="n">
-        <v>0.239181</v>
+        <v>0.241767</v>
       </c>
       <c r="D118" t="n">
-        <v>0.240583</v>
+        <v>0.244096</v>
       </c>
     </row>
     <row r="119">
@@ -4887,13 +4887,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.201053</v>
+        <v>0.20296</v>
       </c>
       <c r="C119" t="n">
-        <v>0.240793</v>
+        <v>0.237801</v>
       </c>
       <c r="D119" t="n">
-        <v>0.240757</v>
+        <v>0.238572</v>
       </c>
     </row>
     <row r="120">
@@ -4901,13 +4901,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.197119</v>
+        <v>0.200844</v>
       </c>
       <c r="C120" t="n">
-        <v>0.238284</v>
+        <v>0.238154</v>
       </c>
       <c r="D120" t="n">
-        <v>0.240229</v>
+        <v>0.244039</v>
       </c>
     </row>
     <row r="121">
@@ -4915,13 +4915,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.188079</v>
+        <v>0.19518</v>
       </c>
       <c r="C121" t="n">
-        <v>0.236775</v>
+        <v>0.23403</v>
       </c>
       <c r="D121" t="n">
-        <v>0.249187</v>
+        <v>0.240017</v>
       </c>
     </row>
     <row r="122">
@@ -4929,13 +4929,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.182375</v>
+        <v>0.185902</v>
       </c>
       <c r="C122" t="n">
-        <v>0.239152</v>
+        <v>0.235074</v>
       </c>
       <c r="D122" t="n">
-        <v>0.237213</v>
+        <v>0.235942</v>
       </c>
     </row>
     <row r="123">
@@ -4943,13 +4943,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.172306</v>
+        <v>0.177365</v>
       </c>
       <c r="C123" t="n">
-        <v>0.238593</v>
+        <v>0.233541</v>
       </c>
       <c r="D123" t="n">
-        <v>0.257177</v>
+        <v>0.253744</v>
       </c>
     </row>
     <row r="124">
@@ -4957,13 +4957,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.246397</v>
+        <v>0.247211</v>
       </c>
       <c r="C124" t="n">
-        <v>0.252652</v>
+        <v>0.259779</v>
       </c>
       <c r="D124" t="n">
-        <v>0.259023</v>
+        <v>0.253043</v>
       </c>
     </row>
     <row r="125">
@@ -4971,13 +4971,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.241612</v>
+        <v>0.244268</v>
       </c>
       <c r="C125" t="n">
-        <v>0.254722</v>
+        <v>0.253439</v>
       </c>
       <c r="D125" t="n">
-        <v>0.258112</v>
+        <v>0.253341</v>
       </c>
     </row>
     <row r="126">
@@ -4985,13 +4985,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.245362</v>
+        <v>0.248638</v>
       </c>
       <c r="C126" t="n">
-        <v>0.250259</v>
+        <v>0.246233</v>
       </c>
       <c r="D126" t="n">
-        <v>0.255661</v>
+        <v>0.25451</v>
       </c>
     </row>
     <row r="127">
@@ -4999,13 +4999,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.231772</v>
+        <v>0.233615</v>
       </c>
       <c r="C127" t="n">
-        <v>0.244655</v>
+        <v>0.245369</v>
       </c>
       <c r="D127" t="n">
-        <v>0.253538</v>
+        <v>0.251111</v>
       </c>
     </row>
     <row r="128">
@@ -5013,13 +5013,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.225423</v>
+        <v>0.23067</v>
       </c>
       <c r="C128" t="n">
-        <v>0.246478</v>
+        <v>0.250215</v>
       </c>
       <c r="D128" t="n">
-        <v>0.250069</v>
+        <v>0.253461</v>
       </c>
     </row>
     <row r="129">
@@ -5027,13 +5027,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.220673</v>
+        <v>0.227582</v>
       </c>
       <c r="C129" t="n">
-        <v>0.242502</v>
+        <v>0.242824</v>
       </c>
       <c r="D129" t="n">
-        <v>0.248269</v>
+        <v>0.24826</v>
       </c>
     </row>
     <row r="130">
@@ -5041,13 +5041,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.216155</v>
+        <v>0.217874</v>
       </c>
       <c r="C130" t="n">
-        <v>0.242691</v>
+        <v>0.241658</v>
       </c>
       <c r="D130" t="n">
-        <v>0.245003</v>
+        <v>0.243201</v>
       </c>
     </row>
     <row r="131">
@@ -5055,13 +5055,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.211993</v>
+        <v>0.215909</v>
       </c>
       <c r="C131" t="n">
-        <v>0.240611</v>
+        <v>0.242707</v>
       </c>
       <c r="D131" t="n">
-        <v>0.25243</v>
+        <v>0.245675</v>
       </c>
     </row>
     <row r="132">
@@ -5069,13 +5069,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.209594</v>
+        <v>0.215543</v>
       </c>
       <c r="C132" t="n">
-        <v>0.245037</v>
+        <v>0.242384</v>
       </c>
       <c r="D132" t="n">
-        <v>0.244495</v>
+        <v>0.241796</v>
       </c>
     </row>
     <row r="133">
@@ -5083,13 +5083,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.207258</v>
+        <v>0.206525</v>
       </c>
       <c r="C133" t="n">
-        <v>0.237166</v>
+        <v>0.238263</v>
       </c>
       <c r="D133" t="n">
-        <v>0.244409</v>
+        <v>0.251251</v>
       </c>
     </row>
     <row r="134">
@@ -5097,13 +5097,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.198903</v>
+        <v>0.200829</v>
       </c>
       <c r="C134" t="n">
-        <v>0.239527</v>
+        <v>0.236339</v>
       </c>
       <c r="D134" t="n">
-        <v>0.241916</v>
+        <v>0.240742</v>
       </c>
     </row>
     <row r="135">
@@ -5111,13 +5111,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.193698</v>
+        <v>0.196149</v>
       </c>
       <c r="C135" t="n">
-        <v>0.24043</v>
+        <v>0.237377</v>
       </c>
       <c r="D135" t="n">
-        <v>0.243264</v>
+        <v>0.240508</v>
       </c>
     </row>
     <row r="136">
@@ -5125,13 +5125,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.184974</v>
+        <v>0.185657</v>
       </c>
       <c r="C136" t="n">
-        <v>0.237787</v>
+        <v>0.244561</v>
       </c>
       <c r="D136" t="n">
-        <v>0.241229</v>
+        <v>0.239612</v>
       </c>
     </row>
     <row r="137">
@@ -5139,13 +5139,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.176081</v>
+        <v>0.180358</v>
       </c>
       <c r="C137" t="n">
-        <v>0.236491</v>
+        <v>0.235097</v>
       </c>
       <c r="D137" t="n">
-        <v>0.265385</v>
+        <v>0.25697</v>
       </c>
     </row>
     <row r="138">
@@ -5153,13 +5153,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.242566</v>
+        <v>0.247648</v>
       </c>
       <c r="C138" t="n">
-        <v>0.252392</v>
+        <v>0.250837</v>
       </c>
       <c r="D138" t="n">
-        <v>0.262641</v>
+        <v>0.254589</v>
       </c>
     </row>
     <row r="139">
@@ -5167,13 +5167,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.247103</v>
+        <v>0.241601</v>
       </c>
       <c r="C139" t="n">
-        <v>0.255408</v>
+        <v>0.251598</v>
       </c>
       <c r="D139" t="n">
-        <v>0.252133</v>
+        <v>0.250955</v>
       </c>
     </row>
     <row r="140">
@@ -5181,13 +5181,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.239476</v>
+        <v>0.24026</v>
       </c>
       <c r="C140" t="n">
-        <v>0.250897</v>
+        <v>0.246371</v>
       </c>
       <c r="D140" t="n">
-        <v>0.252624</v>
+        <v>0.254692</v>
       </c>
     </row>
     <row r="141">
@@ -5195,13 +5195,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.243171</v>
+        <v>0.237668</v>
       </c>
       <c r="C141" t="n">
-        <v>0.247819</v>
+        <v>0.249764</v>
       </c>
       <c r="D141" t="n">
-        <v>0.251758</v>
+        <v>0.253236</v>
       </c>
     </row>
     <row r="142">
@@ -5209,13 +5209,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.233177</v>
+        <v>0.228659</v>
       </c>
       <c r="C142" t="n">
-        <v>0.246708</v>
+        <v>0.241639</v>
       </c>
       <c r="D142" t="n">
-        <v>0.249332</v>
+        <v>0.249148</v>
       </c>
     </row>
     <row r="143">
@@ -5223,13 +5223,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.224825</v>
+        <v>0.227462</v>
       </c>
       <c r="C143" t="n">
-        <v>0.247462</v>
+        <v>0.247483</v>
       </c>
       <c r="D143" t="n">
-        <v>0.245655</v>
+        <v>0.244018</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Running erasure.xlsx
+++ b/vs-x64/Running erasure.xlsx
@@ -3249,13 +3249,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.20508</v>
+        <v>0.201627</v>
       </c>
       <c r="C2" t="n">
-        <v>0.230191</v>
+        <v>0.238357</v>
       </c>
       <c r="D2" t="n">
-        <v>0.237059</v>
+        <v>0.236358</v>
       </c>
     </row>
     <row r="3">
@@ -3263,13 +3263,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.201961</v>
+        <v>0.197168</v>
       </c>
       <c r="C3" t="n">
-        <v>0.231779</v>
+        <v>0.234858</v>
       </c>
       <c r="D3" t="n">
-        <v>0.233349</v>
+        <v>0.232094</v>
       </c>
     </row>
     <row r="4">
@@ -3277,13 +3277,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.199492</v>
+        <v>0.19879</v>
       </c>
       <c r="C4" t="n">
-        <v>0.229259</v>
+        <v>0.22971</v>
       </c>
       <c r="D4" t="n">
-        <v>0.231175</v>
+        <v>0.232129</v>
       </c>
     </row>
     <row r="5">
@@ -3291,13 +3291,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.193502</v>
+        <v>0.188494</v>
       </c>
       <c r="C5" t="n">
-        <v>0.228453</v>
+        <v>0.23003</v>
       </c>
       <c r="D5" t="n">
-        <v>0.227565</v>
+        <v>0.231036</v>
       </c>
     </row>
     <row r="6">
@@ -3305,13 +3305,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.187116</v>
+        <v>0.187436</v>
       </c>
       <c r="C6" t="n">
-        <v>0.227925</v>
+        <v>0.234061</v>
       </c>
       <c r="D6" t="n">
-        <v>0.229381</v>
+        <v>0.24031</v>
       </c>
     </row>
     <row r="7">
@@ -3319,13 +3319,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.178065</v>
+        <v>0.183749</v>
       </c>
       <c r="C7" t="n">
-        <v>0.224278</v>
+        <v>0.231527</v>
       </c>
       <c r="D7" t="n">
-        <v>0.227998</v>
+        <v>0.234619</v>
       </c>
     </row>
     <row r="8">
@@ -3333,13 +3333,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.174569</v>
+        <v>0.181253</v>
       </c>
       <c r="C8" t="n">
-        <v>0.226503</v>
+        <v>0.230678</v>
       </c>
       <c r="D8" t="n">
-        <v>0.223573</v>
+        <v>0.231705</v>
       </c>
     </row>
     <row r="9">
@@ -3347,13 +3347,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.163412</v>
+        <v>0.174518</v>
       </c>
       <c r="C9" t="n">
-        <v>0.223061</v>
+        <v>0.228422</v>
       </c>
       <c r="D9" t="n">
-        <v>0.235399</v>
+        <v>0.246921</v>
       </c>
     </row>
     <row r="10">
@@ -3361,13 +3361,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.227249</v>
+        <v>0.227292</v>
       </c>
       <c r="C10" t="n">
-        <v>0.236675</v>
+        <v>0.240016</v>
       </c>
       <c r="D10" t="n">
-        <v>0.239602</v>
+        <v>0.23871</v>
       </c>
     </row>
     <row r="11">
@@ -3375,13 +3375,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.228964</v>
+        <v>0.225652</v>
       </c>
       <c r="C11" t="n">
-        <v>0.239325</v>
+        <v>0.238792</v>
       </c>
       <c r="D11" t="n">
-        <v>0.235415</v>
+        <v>0.247312</v>
       </c>
     </row>
     <row r="12">
@@ -3389,13 +3389,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.222838</v>
+        <v>0.219818</v>
       </c>
       <c r="C12" t="n">
-        <v>0.235718</v>
+        <v>0.238471</v>
       </c>
       <c r="D12" t="n">
-        <v>0.234208</v>
+        <v>0.240934</v>
       </c>
     </row>
     <row r="13">
@@ -3403,13 +3403,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.219433</v>
+        <v>0.220276</v>
       </c>
       <c r="C13" t="n">
-        <v>0.239977</v>
+        <v>0.235973</v>
       </c>
       <c r="D13" t="n">
-        <v>0.236679</v>
+        <v>0.242295</v>
       </c>
     </row>
     <row r="14">
@@ -3417,13 +3417,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.216153</v>
+        <v>0.211326</v>
       </c>
       <c r="C14" t="n">
-        <v>0.233988</v>
+        <v>0.234109</v>
       </c>
       <c r="D14" t="n">
-        <v>0.235626</v>
+        <v>0.237509</v>
       </c>
     </row>
     <row r="15">
@@ -3431,13 +3431,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.210671</v>
+        <v>0.210668</v>
       </c>
       <c r="C15" t="n">
-        <v>0.232738</v>
+        <v>0.235952</v>
       </c>
       <c r="D15" t="n">
-        <v>0.234531</v>
+        <v>0.238563</v>
       </c>
     </row>
     <row r="16">
@@ -3445,13 +3445,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.206764</v>
+        <v>0.207432</v>
       </c>
       <c r="C16" t="n">
-        <v>0.226655</v>
+        <v>0.235104</v>
       </c>
       <c r="D16" t="n">
-        <v>0.233897</v>
+        <v>0.235236</v>
       </c>
     </row>
     <row r="17">
@@ -3459,13 +3459,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.207286</v>
+        <v>0.204431</v>
       </c>
       <c r="C17" t="n">
-        <v>0.229158</v>
+        <v>0.234856</v>
       </c>
       <c r="D17" t="n">
-        <v>0.238854</v>
+        <v>0.238539</v>
       </c>
     </row>
     <row r="18">
@@ -3473,13 +3473,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.200637</v>
+        <v>0.199517</v>
       </c>
       <c r="C18" t="n">
-        <v>0.22835</v>
+        <v>0.230701</v>
       </c>
       <c r="D18" t="n">
-        <v>0.233346</v>
+        <v>0.236892</v>
       </c>
     </row>
     <row r="19">
@@ -3487,13 +3487,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.198594</v>
+        <v>0.196593</v>
       </c>
       <c r="C19" t="n">
-        <v>0.231509</v>
+        <v>0.230395</v>
       </c>
       <c r="D19" t="n">
-        <v>0.233119</v>
+        <v>0.233708</v>
       </c>
     </row>
     <row r="20">
@@ -3501,13 +3501,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.193949</v>
+        <v>0.192508</v>
       </c>
       <c r="C20" t="n">
-        <v>0.232448</v>
+        <v>0.230756</v>
       </c>
       <c r="D20" t="n">
-        <v>0.227941</v>
+        <v>0.234073</v>
       </c>
     </row>
     <row r="21">
@@ -3515,13 +3515,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.184183</v>
+        <v>0.189183</v>
       </c>
       <c r="C21" t="n">
-        <v>0.233243</v>
+        <v>0.231285</v>
       </c>
       <c r="D21" t="n">
-        <v>0.230044</v>
+        <v>0.230826</v>
       </c>
     </row>
     <row r="22">
@@ -3529,13 +3529,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.179021</v>
+        <v>0.181729</v>
       </c>
       <c r="C22" t="n">
-        <v>0.232627</v>
+        <v>0.227968</v>
       </c>
       <c r="D22" t="n">
-        <v>0.235225</v>
+        <v>0.233297</v>
       </c>
     </row>
     <row r="23">
@@ -3543,13 +3543,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.169871</v>
+        <v>0.175645</v>
       </c>
       <c r="C23" t="n">
-        <v>0.228839</v>
+        <v>0.227776</v>
       </c>
       <c r="D23" t="n">
-        <v>0.23857</v>
+        <v>0.246355</v>
       </c>
     </row>
     <row r="24">
@@ -3557,13 +3557,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.233674</v>
+        <v>0.236709</v>
       </c>
       <c r="C24" t="n">
-        <v>0.234613</v>
+        <v>0.242845</v>
       </c>
       <c r="D24" t="n">
-        <v>0.246999</v>
+        <v>0.24508</v>
       </c>
     </row>
     <row r="25">
@@ -3571,13 +3571,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.230423</v>
+        <v>0.2333</v>
       </c>
       <c r="C25" t="n">
-        <v>0.234037</v>
+        <v>0.243599</v>
       </c>
       <c r="D25" t="n">
-        <v>0.240505</v>
+        <v>0.244905</v>
       </c>
     </row>
     <row r="26">
@@ -3585,13 +3585,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.22437</v>
+        <v>0.228325</v>
       </c>
       <c r="C26" t="n">
-        <v>0.235612</v>
+        <v>0.244694</v>
       </c>
       <c r="D26" t="n">
-        <v>0.237394</v>
+        <v>0.24618</v>
       </c>
     </row>
     <row r="27">
@@ -3599,13 +3599,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.219069</v>
+        <v>0.222589</v>
       </c>
       <c r="C27" t="n">
-        <v>0.236121</v>
+        <v>0.241796</v>
       </c>
       <c r="D27" t="n">
-        <v>0.238352</v>
+        <v>0.243221</v>
       </c>
     </row>
     <row r="28">
@@ -3613,13 +3613,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.217722</v>
+        <v>0.219273</v>
       </c>
       <c r="C28" t="n">
-        <v>0.239436</v>
+        <v>0.239091</v>
       </c>
       <c r="D28" t="n">
-        <v>0.234928</v>
+        <v>0.240967</v>
       </c>
     </row>
     <row r="29">
@@ -3627,13 +3627,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.214599</v>
+        <v>0.215869</v>
       </c>
       <c r="C29" t="n">
-        <v>0.234631</v>
+        <v>0.23938</v>
       </c>
       <c r="D29" t="n">
-        <v>0.235286</v>
+        <v>0.23947</v>
       </c>
     </row>
     <row r="30">
@@ -3641,13 +3641,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.215688</v>
+        <v>0.209906</v>
       </c>
       <c r="C30" t="n">
-        <v>0.232312</v>
+        <v>0.235246</v>
       </c>
       <c r="D30" t="n">
-        <v>0.237297</v>
+        <v>0.24691</v>
       </c>
     </row>
     <row r="31">
@@ -3655,13 +3655,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.208521</v>
+        <v>0.208944</v>
       </c>
       <c r="C31" t="n">
-        <v>0.23159</v>
+        <v>0.23795</v>
       </c>
       <c r="D31" t="n">
-        <v>0.232234</v>
+        <v>0.238873</v>
       </c>
     </row>
     <row r="32">
@@ -3669,13 +3669,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.202556</v>
+        <v>0.205853</v>
       </c>
       <c r="C32" t="n">
-        <v>0.233483</v>
+        <v>0.235233</v>
       </c>
       <c r="D32" t="n">
-        <v>0.241729</v>
+        <v>0.237836</v>
       </c>
     </row>
     <row r="33">
@@ -3683,13 +3683,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.196645</v>
+        <v>0.202323</v>
       </c>
       <c r="C33" t="n">
-        <v>0.231797</v>
+        <v>0.232772</v>
       </c>
       <c r="D33" t="n">
-        <v>0.235646</v>
+        <v>0.234052</v>
       </c>
     </row>
     <row r="34">
@@ -3697,13 +3697,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.194747</v>
+        <v>0.198284</v>
       </c>
       <c r="C34" t="n">
-        <v>0.232776</v>
+        <v>0.233379</v>
       </c>
       <c r="D34" t="n">
-        <v>0.233537</v>
+        <v>0.232859</v>
       </c>
     </row>
     <row r="35">
@@ -3711,13 +3711,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.188025</v>
+        <v>0.196613</v>
       </c>
       <c r="C35" t="n">
-        <v>0.232031</v>
+        <v>0.233617</v>
       </c>
       <c r="D35" t="n">
-        <v>0.238254</v>
+        <v>0.237686</v>
       </c>
     </row>
     <row r="36">
@@ -3725,13 +3725,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.184878</v>
+        <v>0.188247</v>
       </c>
       <c r="C36" t="n">
-        <v>0.22853</v>
+        <v>0.232319</v>
       </c>
       <c r="D36" t="n">
-        <v>0.230691</v>
+        <v>0.234681</v>
       </c>
     </row>
     <row r="37">
@@ -3739,13 +3739,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.180495</v>
+        <v>0.180244</v>
       </c>
       <c r="C37" t="n">
-        <v>0.228688</v>
+        <v>0.23021</v>
       </c>
       <c r="D37" t="n">
-        <v>0.244205</v>
+        <v>0.261622</v>
       </c>
     </row>
     <row r="38">
@@ -3753,13 +3753,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.231637</v>
+        <v>0.240066</v>
       </c>
       <c r="C38" t="n">
-        <v>0.239262</v>
+        <v>0.258406</v>
       </c>
       <c r="D38" t="n">
-        <v>0.246894</v>
+        <v>0.260596</v>
       </c>
     </row>
     <row r="39">
@@ -3767,13 +3767,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.230327</v>
+        <v>0.237944</v>
       </c>
       <c r="C39" t="n">
-        <v>0.236653</v>
+        <v>0.256544</v>
       </c>
       <c r="D39" t="n">
-        <v>0.24404</v>
+        <v>0.257187</v>
       </c>
     </row>
     <row r="40">
@@ -3781,13 +3781,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.228851</v>
+        <v>0.229661</v>
       </c>
       <c r="C40" t="n">
-        <v>0.237125</v>
+        <v>0.253602</v>
       </c>
       <c r="D40" t="n">
-        <v>0.246995</v>
+        <v>0.254206</v>
       </c>
     </row>
     <row r="41">
@@ -3795,13 +3795,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.226573</v>
+        <v>0.228377</v>
       </c>
       <c r="C41" t="n">
-        <v>0.234654</v>
+        <v>0.255515</v>
       </c>
       <c r="D41" t="n">
-        <v>0.240564</v>
+        <v>0.253607</v>
       </c>
     </row>
     <row r="42">
@@ -3809,13 +3809,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.222834</v>
+        <v>0.223319</v>
       </c>
       <c r="C42" t="n">
-        <v>0.235935</v>
+        <v>0.249634</v>
       </c>
       <c r="D42" t="n">
-        <v>0.237186</v>
+        <v>0.249187</v>
       </c>
     </row>
     <row r="43">
@@ -3823,13 +3823,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.217747</v>
+        <v>0.218742</v>
       </c>
       <c r="C43" t="n">
-        <v>0.231991</v>
+        <v>0.247523</v>
       </c>
       <c r="D43" t="n">
-        <v>0.236814</v>
+        <v>0.246824</v>
       </c>
     </row>
     <row r="44">
@@ -3837,13 +3837,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.213525</v>
+        <v>0.214287</v>
       </c>
       <c r="C44" t="n">
-        <v>0.232314</v>
+        <v>0.247884</v>
       </c>
       <c r="D44" t="n">
-        <v>0.24434</v>
+        <v>0.246946</v>
       </c>
     </row>
     <row r="45">
@@ -3851,13 +3851,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.208228</v>
+        <v>0.213668</v>
       </c>
       <c r="C45" t="n">
-        <v>0.230872</v>
+        <v>0.248169</v>
       </c>
       <c r="D45" t="n">
-        <v>0.243379</v>
+        <v>0.246199</v>
       </c>
     </row>
     <row r="46">
@@ -3865,13 +3865,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.205867</v>
+        <v>0.204205</v>
       </c>
       <c r="C46" t="n">
-        <v>0.232227</v>
+        <v>0.240781</v>
       </c>
       <c r="D46" t="n">
-        <v>0.239226</v>
+        <v>0.244223</v>
       </c>
     </row>
     <row r="47">
@@ -3879,13 +3879,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.201449</v>
+        <v>0.20265</v>
       </c>
       <c r="C47" t="n">
-        <v>0.231654</v>
+        <v>0.241765</v>
       </c>
       <c r="D47" t="n">
-        <v>0.237705</v>
+        <v>0.244015</v>
       </c>
     </row>
     <row r="48">
@@ -3893,13 +3893,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.196347</v>
+        <v>0.198909</v>
       </c>
       <c r="C48" t="n">
-        <v>0.230804</v>
+        <v>0.241842</v>
       </c>
       <c r="D48" t="n">
-        <v>0.233268</v>
+        <v>0.243664</v>
       </c>
     </row>
     <row r="49">
@@ -3907,13 +3907,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.189133</v>
+        <v>0.19543</v>
       </c>
       <c r="C49" t="n">
-        <v>0.233121</v>
+        <v>0.238906</v>
       </c>
       <c r="D49" t="n">
-        <v>0.237118</v>
+        <v>0.240289</v>
       </c>
     </row>
     <row r="50">
@@ -3921,13 +3921,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.186552</v>
+        <v>0.190994</v>
       </c>
       <c r="C50" t="n">
-        <v>0.231224</v>
+        <v>0.243883</v>
       </c>
       <c r="D50" t="n">
-        <v>0.230449</v>
+        <v>0.241223</v>
       </c>
     </row>
     <row r="51">
@@ -3935,13 +3935,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.17682</v>
+        <v>0.184213</v>
       </c>
       <c r="C51" t="n">
-        <v>0.22946</v>
+        <v>0.236398</v>
       </c>
       <c r="D51" t="n">
-        <v>0.25202</v>
+        <v>0.261613</v>
       </c>
     </row>
     <row r="52">
@@ -3949,13 +3949,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.170033</v>
+        <v>0.175868</v>
       </c>
       <c r="C52" t="n">
-        <v>0.22933</v>
+        <v>0.238877</v>
       </c>
       <c r="D52" t="n">
-        <v>0.249197</v>
+        <v>0.262332</v>
       </c>
     </row>
     <row r="53">
@@ -3963,13 +3963,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.237837</v>
+        <v>0.241916</v>
       </c>
       <c r="C53" t="n">
-        <v>0.242458</v>
+        <v>0.257853</v>
       </c>
       <c r="D53" t="n">
-        <v>0.249663</v>
+        <v>0.259774</v>
       </c>
     </row>
     <row r="54">
@@ -3977,13 +3977,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.2323</v>
+        <v>0.237578</v>
       </c>
       <c r="C54" t="n">
-        <v>0.244566</v>
+        <v>0.255611</v>
       </c>
       <c r="D54" t="n">
-        <v>0.251101</v>
+        <v>0.256043</v>
       </c>
     </row>
     <row r="55">
@@ -3991,13 +3991,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.228381</v>
+        <v>0.233176</v>
       </c>
       <c r="C55" t="n">
-        <v>0.241562</v>
+        <v>0.257899</v>
       </c>
       <c r="D55" t="n">
-        <v>0.248088</v>
+        <v>0.253379</v>
       </c>
     </row>
     <row r="56">
@@ -4005,13 +4005,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.22455</v>
+        <v>0.232298</v>
       </c>
       <c r="C56" t="n">
-        <v>0.242049</v>
+        <v>0.252385</v>
       </c>
       <c r="D56" t="n">
-        <v>0.24451</v>
+        <v>0.255109</v>
       </c>
     </row>
     <row r="57">
@@ -4019,13 +4019,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.220232</v>
+        <v>0.226221</v>
       </c>
       <c r="C57" t="n">
-        <v>0.237864</v>
+        <v>0.248829</v>
       </c>
       <c r="D57" t="n">
-        <v>0.241949</v>
+        <v>0.252611</v>
       </c>
     </row>
     <row r="58">
@@ -4033,13 +4033,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.217712</v>
+        <v>0.222976</v>
       </c>
       <c r="C58" t="n">
-        <v>0.237384</v>
+        <v>0.253152</v>
       </c>
       <c r="D58" t="n">
-        <v>0.24044</v>
+        <v>0.249441</v>
       </c>
     </row>
     <row r="59">
@@ -4047,13 +4047,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.211944</v>
+        <v>0.21683</v>
       </c>
       <c r="C59" t="n">
-        <v>0.236981</v>
+        <v>0.248734</v>
       </c>
       <c r="D59" t="n">
-        <v>0.243501</v>
+        <v>0.248444</v>
       </c>
     </row>
     <row r="60">
@@ -4061,13 +4061,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.208187</v>
+        <v>0.212127</v>
       </c>
       <c r="C60" t="n">
-        <v>0.235504</v>
+        <v>0.248503</v>
       </c>
       <c r="D60" t="n">
-        <v>0.24485</v>
+        <v>0.247263</v>
       </c>
     </row>
     <row r="61">
@@ -4075,13 +4075,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.205639</v>
+        <v>0.208955</v>
       </c>
       <c r="C61" t="n">
-        <v>0.235353</v>
+        <v>0.242341</v>
       </c>
       <c r="D61" t="n">
-        <v>0.242122</v>
+        <v>0.243261</v>
       </c>
     </row>
     <row r="62">
@@ -4089,13 +4089,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.201253</v>
+        <v>0.206081</v>
       </c>
       <c r="C62" t="n">
-        <v>0.233357</v>
+        <v>0.240113</v>
       </c>
       <c r="D62" t="n">
-        <v>0.238332</v>
+        <v>0.241779</v>
       </c>
     </row>
     <row r="63">
@@ -4103,13 +4103,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.193842</v>
+        <v>0.203271</v>
       </c>
       <c r="C63" t="n">
-        <v>0.23434</v>
+        <v>0.241394</v>
       </c>
       <c r="D63" t="n">
-        <v>0.240101</v>
+        <v>0.241503</v>
       </c>
     </row>
     <row r="64">
@@ -4117,13 +4117,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.18529</v>
+        <v>0.195673</v>
       </c>
       <c r="C64" t="n">
-        <v>0.231934</v>
+        <v>0.239662</v>
       </c>
       <c r="D64" t="n">
-        <v>0.236582</v>
+        <v>0.237782</v>
       </c>
     </row>
     <row r="65">
@@ -4131,13 +4131,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.181818</v>
+        <v>0.19346</v>
       </c>
       <c r="C65" t="n">
-        <v>0.231862</v>
+        <v>0.237856</v>
       </c>
       <c r="D65" t="n">
-        <v>0.240374</v>
+        <v>0.242005</v>
       </c>
     </row>
     <row r="66">
@@ -4145,13 +4145,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.172087</v>
+        <v>0.18449</v>
       </c>
       <c r="C66" t="n">
-        <v>0.23103</v>
+        <v>0.238562</v>
       </c>
       <c r="D66" t="n">
-        <v>0.248793</v>
+        <v>0.2659</v>
       </c>
     </row>
     <row r="67">
@@ -4159,13 +4159,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.240274</v>
+        <v>0.256377</v>
       </c>
       <c r="C67" t="n">
-        <v>0.244006</v>
+        <v>0.263086</v>
       </c>
       <c r="D67" t="n">
-        <v>0.250173</v>
+        <v>0.260834</v>
       </c>
     </row>
     <row r="68">
@@ -4173,13 +4173,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.237959</v>
+        <v>0.247612</v>
       </c>
       <c r="C68" t="n">
-        <v>0.249795</v>
+        <v>0.26242</v>
       </c>
       <c r="D68" t="n">
-        <v>0.248983</v>
+        <v>0.26106</v>
       </c>
     </row>
     <row r="69">
@@ -4187,13 +4187,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.235604</v>
+        <v>0.247046</v>
       </c>
       <c r="C69" t="n">
-        <v>0.240975</v>
+        <v>0.260513</v>
       </c>
       <c r="D69" t="n">
-        <v>0.251022</v>
+        <v>0.257326</v>
       </c>
     </row>
     <row r="70">
@@ -4201,13 +4201,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.231737</v>
+        <v>0.242741</v>
       </c>
       <c r="C70" t="n">
-        <v>0.241813</v>
+        <v>0.25764</v>
       </c>
       <c r="D70" t="n">
-        <v>0.245699</v>
+        <v>0.259163</v>
       </c>
     </row>
     <row r="71">
@@ -4215,13 +4215,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.224322</v>
+        <v>0.233762</v>
       </c>
       <c r="C71" t="n">
-        <v>0.245435</v>
+        <v>0.253004</v>
       </c>
       <c r="D71" t="n">
-        <v>0.251879</v>
+        <v>0.251075</v>
       </c>
     </row>
     <row r="72">
@@ -4229,13 +4229,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.223</v>
+        <v>0.230468</v>
       </c>
       <c r="C72" t="n">
-        <v>0.240433</v>
+        <v>0.252717</v>
       </c>
       <c r="D72" t="n">
-        <v>0.243844</v>
+        <v>0.253049</v>
       </c>
     </row>
     <row r="73">
@@ -4243,13 +4243,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.216646</v>
+        <v>0.230527</v>
       </c>
       <c r="C73" t="n">
-        <v>0.237683</v>
+        <v>0.255676</v>
       </c>
       <c r="D73" t="n">
-        <v>0.242431</v>
+        <v>0.257905</v>
       </c>
     </row>
     <row r="74">
@@ -4257,13 +4257,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.211818</v>
+        <v>0.222506</v>
       </c>
       <c r="C74" t="n">
-        <v>0.234714</v>
+        <v>0.248935</v>
       </c>
       <c r="D74" t="n">
-        <v>0.239191</v>
+        <v>0.24803</v>
       </c>
     </row>
     <row r="75">
@@ -4271,13 +4271,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.208035</v>
+        <v>0.217383</v>
       </c>
       <c r="C75" t="n">
-        <v>0.235695</v>
+        <v>0.249711</v>
       </c>
       <c r="D75" t="n">
-        <v>0.23912</v>
+        <v>0.249906</v>
       </c>
     </row>
     <row r="76">
@@ -4285,13 +4285,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.202433</v>
+        <v>0.214266</v>
       </c>
       <c r="C76" t="n">
-        <v>0.236037</v>
+        <v>0.245771</v>
       </c>
       <c r="D76" t="n">
-        <v>0.241266</v>
+        <v>0.248275</v>
       </c>
     </row>
     <row r="77">
@@ -4299,13 +4299,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.198882</v>
+        <v>0.209356</v>
       </c>
       <c r="C77" t="n">
-        <v>0.231872</v>
+        <v>0.247041</v>
       </c>
       <c r="D77" t="n">
-        <v>0.238284</v>
+        <v>0.246381</v>
       </c>
     </row>
     <row r="78">
@@ -4313,13 +4313,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.193002</v>
+        <v>0.205961</v>
       </c>
       <c r="C78" t="n">
-        <v>0.234769</v>
+        <v>0.245743</v>
       </c>
       <c r="D78" t="n">
-        <v>0.244476</v>
+        <v>0.244616</v>
       </c>
     </row>
     <row r="79">
@@ -4327,13 +4327,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.184452</v>
+        <v>0.200945</v>
       </c>
       <c r="C79" t="n">
-        <v>0.233377</v>
+        <v>0.244114</v>
       </c>
       <c r="D79" t="n">
-        <v>0.237416</v>
+        <v>0.240735</v>
       </c>
     </row>
     <row r="80">
@@ -4341,13 +4341,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.175517</v>
+        <v>0.191449</v>
       </c>
       <c r="C80" t="n">
-        <v>0.234036</v>
+        <v>0.238601</v>
       </c>
       <c r="D80" t="n">
-        <v>0.257275</v>
+        <v>0.274241</v>
       </c>
     </row>
     <row r="81">
@@ -4355,13 +4355,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.249931</v>
+        <v>0.258074</v>
       </c>
       <c r="C81" t="n">
-        <v>0.250225</v>
+        <v>0.273495</v>
       </c>
       <c r="D81" t="n">
-        <v>0.253734</v>
+        <v>0.26757</v>
       </c>
     </row>
     <row r="82">
@@ -4369,13 +4369,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.247801</v>
+        <v>0.258535</v>
       </c>
       <c r="C82" t="n">
-        <v>0.247968</v>
+        <v>0.267964</v>
       </c>
       <c r="D82" t="n">
-        <v>0.250995</v>
+        <v>0.269353</v>
       </c>
     </row>
     <row r="83">
@@ -4383,13 +4383,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.238878</v>
+        <v>0.250315</v>
       </c>
       <c r="C83" t="n">
-        <v>0.2478</v>
+        <v>0.266024</v>
       </c>
       <c r="D83" t="n">
-        <v>0.25101</v>
+        <v>0.263712</v>
       </c>
     </row>
     <row r="84">
@@ -4397,13 +4397,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.234852</v>
+        <v>0.244589</v>
       </c>
       <c r="C84" t="n">
-        <v>0.246326</v>
+        <v>0.265362</v>
       </c>
       <c r="D84" t="n">
-        <v>0.24886</v>
+        <v>0.263504</v>
       </c>
     </row>
     <row r="85">
@@ -4411,13 +4411,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.232752</v>
+        <v>0.239364</v>
       </c>
       <c r="C85" t="n">
-        <v>0.240229</v>
+        <v>0.261586</v>
       </c>
       <c r="D85" t="n">
-        <v>0.246043</v>
+        <v>0.259244</v>
       </c>
     </row>
     <row r="86">
@@ -4425,13 +4425,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.226119</v>
+        <v>0.235295</v>
       </c>
       <c r="C86" t="n">
-        <v>0.241458</v>
+        <v>0.258849</v>
       </c>
       <c r="D86" t="n">
-        <v>0.247182</v>
+        <v>0.257306</v>
       </c>
     </row>
     <row r="87">
@@ -4439,13 +4439,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.221391</v>
+        <v>0.233183</v>
       </c>
       <c r="C87" t="n">
-        <v>0.24091</v>
+        <v>0.257085</v>
       </c>
       <c r="D87" t="n">
-        <v>0.246807</v>
+        <v>0.255721</v>
       </c>
     </row>
     <row r="88">
@@ -4453,13 +4453,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.214288</v>
+        <v>0.226531</v>
       </c>
       <c r="C88" t="n">
-        <v>0.24203</v>
+        <v>0.256061</v>
       </c>
       <c r="D88" t="n">
-        <v>0.244192</v>
+        <v>0.255167</v>
       </c>
     </row>
     <row r="89">
@@ -4467,13 +4467,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.212153</v>
+        <v>0.220554</v>
       </c>
       <c r="C89" t="n">
-        <v>0.236427</v>
+        <v>0.251785</v>
       </c>
       <c r="D89" t="n">
-        <v>0.2413</v>
+        <v>0.25445</v>
       </c>
     </row>
     <row r="90">
@@ -4481,13 +4481,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.207592</v>
+        <v>0.215382</v>
       </c>
       <c r="C90" t="n">
-        <v>0.235961</v>
+        <v>0.251324</v>
       </c>
       <c r="D90" t="n">
-        <v>0.240847</v>
+        <v>0.250386</v>
       </c>
     </row>
     <row r="91">
@@ -4495,13 +4495,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.200272</v>
+        <v>0.210274</v>
       </c>
       <c r="C91" t="n">
-        <v>0.236709</v>
+        <v>0.249876</v>
       </c>
       <c r="D91" t="n">
-        <v>0.240642</v>
+        <v>0.249789</v>
       </c>
     </row>
     <row r="92">
@@ -4509,13 +4509,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.196101</v>
+        <v>0.207467</v>
       </c>
       <c r="C92" t="n">
-        <v>0.237302</v>
+        <v>0.246686</v>
       </c>
       <c r="D92" t="n">
-        <v>0.242098</v>
+        <v>0.249213</v>
       </c>
     </row>
     <row r="93">
@@ -4523,13 +4523,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.189142</v>
+        <v>0.204069</v>
       </c>
       <c r="C93" t="n">
-        <v>0.238843</v>
+        <v>0.247041</v>
       </c>
       <c r="D93" t="n">
-        <v>0.238222</v>
+        <v>0.245987</v>
       </c>
     </row>
     <row r="94">
@@ -4537,13 +4537,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.180163</v>
+        <v>0.194319</v>
       </c>
       <c r="C94" t="n">
-        <v>0.237078</v>
+        <v>0.247438</v>
       </c>
       <c r="D94" t="n">
-        <v>0.255501</v>
+        <v>0.276404</v>
       </c>
     </row>
     <row r="95">
@@ -4551,13 +4551,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.247146</v>
+        <v>0.258937</v>
       </c>
       <c r="C95" t="n">
-        <v>0.254537</v>
+        <v>0.27084</v>
       </c>
       <c r="D95" t="n">
-        <v>0.256966</v>
+        <v>0.26939</v>
       </c>
     </row>
     <row r="96">
@@ -4565,13 +4565,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.243487</v>
+        <v>0.256121</v>
       </c>
       <c r="C96" t="n">
-        <v>0.251707</v>
+        <v>0.270396</v>
       </c>
       <c r="D96" t="n">
-        <v>0.256073</v>
+        <v>0.265558</v>
       </c>
     </row>
     <row r="97">
@@ -4579,13 +4579,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.241705</v>
+        <v>0.253294</v>
       </c>
       <c r="C97" t="n">
-        <v>0.251421</v>
+        <v>0.266757</v>
       </c>
       <c r="D97" t="n">
-        <v>0.251388</v>
+        <v>0.26667</v>
       </c>
     </row>
     <row r="98">
@@ -4593,13 +4593,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.235973</v>
+        <v>0.244238</v>
       </c>
       <c r="C98" t="n">
-        <v>0.247661</v>
+        <v>0.266182</v>
       </c>
       <c r="D98" t="n">
-        <v>0.255787</v>
+        <v>0.262321</v>
       </c>
     </row>
     <row r="99">
@@ -4607,13 +4607,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.234287</v>
+        <v>0.240034</v>
       </c>
       <c r="C99" t="n">
-        <v>0.246505</v>
+        <v>0.257778</v>
       </c>
       <c r="D99" t="n">
-        <v>0.246761</v>
+        <v>0.262207</v>
       </c>
     </row>
     <row r="100">
@@ -4621,13 +4621,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.226702</v>
+        <v>0.237378</v>
       </c>
       <c r="C100" t="n">
-        <v>0.246465</v>
+        <v>0.258018</v>
       </c>
       <c r="D100" t="n">
-        <v>0.251689</v>
+        <v>0.26095</v>
       </c>
     </row>
     <row r="101">
@@ -4635,13 +4635,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.223485</v>
+        <v>0.232436</v>
       </c>
       <c r="C101" t="n">
-        <v>0.248266</v>
+        <v>0.258301</v>
       </c>
       <c r="D101" t="n">
-        <v>0.246194</v>
+        <v>0.256401</v>
       </c>
     </row>
     <row r="102">
@@ -4649,13 +4649,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.218086</v>
+        <v>0.225435</v>
       </c>
       <c r="C102" t="n">
-        <v>0.243473</v>
+        <v>0.252633</v>
       </c>
       <c r="D102" t="n">
-        <v>0.243365</v>
+        <v>0.255043</v>
       </c>
     </row>
     <row r="103">
@@ -4663,13 +4663,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.212145</v>
+        <v>0.22253</v>
       </c>
       <c r="C103" t="n">
-        <v>0.238459</v>
+        <v>0.257156</v>
       </c>
       <c r="D103" t="n">
-        <v>0.241167</v>
+        <v>0.253818</v>
       </c>
     </row>
     <row r="104">
@@ -4677,13 +4677,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.207984</v>
+        <v>0.2169</v>
       </c>
       <c r="C104" t="n">
-        <v>0.23737</v>
+        <v>0.252601</v>
       </c>
       <c r="D104" t="n">
-        <v>0.242731</v>
+        <v>0.249056</v>
       </c>
     </row>
     <row r="105">
@@ -4691,13 +4691,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.201164</v>
+        <v>0.211774</v>
       </c>
       <c r="C105" t="n">
-        <v>0.239197</v>
+        <v>0.251388</v>
       </c>
       <c r="D105" t="n">
-        <v>0.243326</v>
+        <v>0.248039</v>
       </c>
     </row>
     <row r="106">
@@ -4705,13 +4705,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.195121</v>
+        <v>0.209638</v>
       </c>
       <c r="C106" t="n">
-        <v>0.24044</v>
+        <v>0.244138</v>
       </c>
       <c r="D106" t="n">
-        <v>0.239338</v>
+        <v>0.246798</v>
       </c>
     </row>
     <row r="107">
@@ -4719,13 +4719,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.190809</v>
+        <v>0.203026</v>
       </c>
       <c r="C107" t="n">
-        <v>0.237077</v>
+        <v>0.245491</v>
       </c>
       <c r="D107" t="n">
-        <v>0.240129</v>
+        <v>0.243937</v>
       </c>
     </row>
     <row r="108">
@@ -4733,13 +4733,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.183987</v>
+        <v>0.194929</v>
       </c>
       <c r="C108" t="n">
-        <v>0.23595</v>
+        <v>0.245363</v>
       </c>
       <c r="D108" t="n">
-        <v>0.258688</v>
+        <v>0.27556</v>
       </c>
     </row>
     <row r="109">
@@ -4747,13 +4747,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.173812</v>
+        <v>0.186872</v>
       </c>
       <c r="C109" t="n">
-        <v>0.234711</v>
+        <v>0.243562</v>
       </c>
       <c r="D109" t="n">
-        <v>0.254842</v>
+        <v>0.27384</v>
       </c>
     </row>
     <row r="110">
@@ -4761,13 +4761,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.244464</v>
+        <v>0.26118</v>
       </c>
       <c r="C110" t="n">
-        <v>0.252499</v>
+        <v>0.268645</v>
       </c>
       <c r="D110" t="n">
-        <v>0.254744</v>
+        <v>0.270744</v>
       </c>
     </row>
     <row r="111">
@@ -4775,13 +4775,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.24024</v>
+        <v>0.259246</v>
       </c>
       <c r="C111" t="n">
-        <v>0.249217</v>
+        <v>0.266998</v>
       </c>
       <c r="D111" t="n">
-        <v>0.251871</v>
+        <v>0.265936</v>
       </c>
     </row>
     <row r="112">
@@ -4789,13 +4789,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.241413</v>
+        <v>0.247403</v>
       </c>
       <c r="C112" t="n">
-        <v>0.251537</v>
+        <v>0.268655</v>
       </c>
       <c r="D112" t="n">
-        <v>0.254844</v>
+        <v>0.266932</v>
       </c>
     </row>
     <row r="113">
@@ -4803,13 +4803,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.234702</v>
+        <v>0.241417</v>
       </c>
       <c r="C113" t="n">
-        <v>0.250977</v>
+        <v>0.261342</v>
       </c>
       <c r="D113" t="n">
-        <v>0.249255</v>
+        <v>0.263426</v>
       </c>
     </row>
     <row r="114">
@@ -4817,13 +4817,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.230502</v>
+        <v>0.236451</v>
       </c>
       <c r="C114" t="n">
-        <v>0.246069</v>
+        <v>0.262206</v>
       </c>
       <c r="D114" t="n">
-        <v>0.250048</v>
+        <v>0.261115</v>
       </c>
     </row>
     <row r="115">
@@ -4831,13 +4831,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.224444</v>
+        <v>0.234753</v>
       </c>
       <c r="C115" t="n">
-        <v>0.242352</v>
+        <v>0.256314</v>
       </c>
       <c r="D115" t="n">
-        <v>0.247962</v>
+        <v>0.263386</v>
       </c>
     </row>
     <row r="116">
@@ -4845,13 +4845,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.217921</v>
+        <v>0.228255</v>
       </c>
       <c r="C116" t="n">
-        <v>0.241246</v>
+        <v>0.255779</v>
       </c>
       <c r="D116" t="n">
-        <v>0.245861</v>
+        <v>0.257235</v>
       </c>
     </row>
     <row r="117">
@@ -4859,13 +4859,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.215278</v>
+        <v>0.223947</v>
       </c>
       <c r="C117" t="n">
-        <v>0.242496</v>
+        <v>0.255469</v>
       </c>
       <c r="D117" t="n">
-        <v>0.245012</v>
+        <v>0.254333</v>
       </c>
     </row>
     <row r="118">
@@ -4873,13 +4873,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.2079</v>
+        <v>0.216783</v>
       </c>
       <c r="C118" t="n">
-        <v>0.241767</v>
+        <v>0.251768</v>
       </c>
       <c r="D118" t="n">
-        <v>0.244096</v>
+        <v>0.253268</v>
       </c>
     </row>
     <row r="119">
@@ -4887,13 +4887,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.20296</v>
+        <v>0.211773</v>
       </c>
       <c r="C119" t="n">
-        <v>0.237801</v>
+        <v>0.251365</v>
       </c>
       <c r="D119" t="n">
-        <v>0.238572</v>
+        <v>0.250874</v>
       </c>
     </row>
     <row r="120">
@@ -4901,13 +4901,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.200844</v>
+        <v>0.211343</v>
       </c>
       <c r="C120" t="n">
-        <v>0.238154</v>
+        <v>0.250812</v>
       </c>
       <c r="D120" t="n">
-        <v>0.244039</v>
+        <v>0.249975</v>
       </c>
     </row>
     <row r="121">
@@ -4915,13 +4915,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.19518</v>
+        <v>0.202288</v>
       </c>
       <c r="C121" t="n">
-        <v>0.23403</v>
+        <v>0.247842</v>
       </c>
       <c r="D121" t="n">
-        <v>0.240017</v>
+        <v>0.246734</v>
       </c>
     </row>
     <row r="122">
@@ -4929,13 +4929,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.185902</v>
+        <v>0.201676</v>
       </c>
       <c r="C122" t="n">
-        <v>0.235074</v>
+        <v>0.241505</v>
       </c>
       <c r="D122" t="n">
-        <v>0.235942</v>
+        <v>0.247894</v>
       </c>
     </row>
     <row r="123">
@@ -4943,13 +4943,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.177365</v>
+        <v>0.189311</v>
       </c>
       <c r="C123" t="n">
-        <v>0.233541</v>
+        <v>0.245064</v>
       </c>
       <c r="D123" t="n">
-        <v>0.253744</v>
+        <v>0.276148</v>
       </c>
     </row>
     <row r="124">
@@ -4957,13 +4957,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.247211</v>
+        <v>0.26098</v>
       </c>
       <c r="C124" t="n">
-        <v>0.259779</v>
+        <v>0.27239</v>
       </c>
       <c r="D124" t="n">
-        <v>0.253043</v>
+        <v>0.273233</v>
       </c>
     </row>
     <row r="125">
@@ -4971,13 +4971,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.244268</v>
+        <v>0.254212</v>
       </c>
       <c r="C125" t="n">
-        <v>0.253439</v>
+        <v>0.270416</v>
       </c>
       <c r="D125" t="n">
-        <v>0.253341</v>
+        <v>0.270195</v>
       </c>
     </row>
     <row r="126">
@@ -4985,13 +4985,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.248638</v>
+        <v>0.247572</v>
       </c>
       <c r="C126" t="n">
-        <v>0.246233</v>
+        <v>0.265124</v>
       </c>
       <c r="D126" t="n">
-        <v>0.25451</v>
+        <v>0.266091</v>
       </c>
     </row>
     <row r="127">
@@ -4999,13 +4999,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.233615</v>
+        <v>0.24447</v>
       </c>
       <c r="C127" t="n">
-        <v>0.245369</v>
+        <v>0.263086</v>
       </c>
       <c r="D127" t="n">
-        <v>0.251111</v>
+        <v>0.265267</v>
       </c>
     </row>
     <row r="128">
@@ -5013,13 +5013,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.23067</v>
+        <v>0.241344</v>
       </c>
       <c r="C128" t="n">
-        <v>0.250215</v>
+        <v>0.257444</v>
       </c>
       <c r="D128" t="n">
-        <v>0.253461</v>
+        <v>0.263299</v>
       </c>
     </row>
     <row r="129">
@@ -5027,13 +5027,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.227582</v>
+        <v>0.232298</v>
       </c>
       <c r="C129" t="n">
-        <v>0.242824</v>
+        <v>0.25927</v>
       </c>
       <c r="D129" t="n">
-        <v>0.24826</v>
+        <v>0.258669</v>
       </c>
     </row>
     <row r="130">
@@ -5041,13 +5041,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.217874</v>
+        <v>0.229289</v>
       </c>
       <c r="C130" t="n">
-        <v>0.241658</v>
+        <v>0.257824</v>
       </c>
       <c r="D130" t="n">
-        <v>0.243201</v>
+        <v>0.256284</v>
       </c>
     </row>
     <row r="131">
@@ -5055,13 +5055,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.215909</v>
+        <v>0.226933</v>
       </c>
       <c r="C131" t="n">
-        <v>0.242707</v>
+        <v>0.256084</v>
       </c>
       <c r="D131" t="n">
-        <v>0.245675</v>
+        <v>0.256177</v>
       </c>
     </row>
     <row r="132">
@@ -5069,13 +5069,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.215543</v>
+        <v>0.221175</v>
       </c>
       <c r="C132" t="n">
-        <v>0.242384</v>
+        <v>0.255576</v>
       </c>
       <c r="D132" t="n">
-        <v>0.241796</v>
+        <v>0.250488</v>
       </c>
     </row>
     <row r="133">
@@ -5083,13 +5083,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.206525</v>
+        <v>0.213269</v>
       </c>
       <c r="C133" t="n">
-        <v>0.238263</v>
+        <v>0.250281</v>
       </c>
       <c r="D133" t="n">
-        <v>0.251251</v>
+        <v>0.251292</v>
       </c>
     </row>
     <row r="134">
@@ -5097,13 +5097,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.200829</v>
+        <v>0.208284</v>
       </c>
       <c r="C134" t="n">
-        <v>0.236339</v>
+        <v>0.249685</v>
       </c>
       <c r="D134" t="n">
-        <v>0.240742</v>
+        <v>0.247963</v>
       </c>
     </row>
     <row r="135">
@@ -5111,13 +5111,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.196149</v>
+        <v>0.205255</v>
       </c>
       <c r="C135" t="n">
-        <v>0.237377</v>
+        <v>0.248752</v>
       </c>
       <c r="D135" t="n">
-        <v>0.240508</v>
+        <v>0.250378</v>
       </c>
     </row>
     <row r="136">
@@ -5125,13 +5125,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.185657</v>
+        <v>0.200141</v>
       </c>
       <c r="C136" t="n">
-        <v>0.244561</v>
+        <v>0.250215</v>
       </c>
       <c r="D136" t="n">
-        <v>0.239612</v>
+        <v>0.248556</v>
       </c>
     </row>
     <row r="137">
@@ -5139,13 +5139,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.180358</v>
+        <v>0.189651</v>
       </c>
       <c r="C137" t="n">
-        <v>0.235097</v>
+        <v>0.248865</v>
       </c>
       <c r="D137" t="n">
-        <v>0.25697</v>
+        <v>0.271663</v>
       </c>
     </row>
     <row r="138">
@@ -5153,13 +5153,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.247648</v>
+        <v>0.2616</v>
       </c>
       <c r="C138" t="n">
-        <v>0.250837</v>
+        <v>0.270789</v>
       </c>
       <c r="D138" t="n">
-        <v>0.254589</v>
+        <v>0.272693</v>
       </c>
     </row>
     <row r="139">
@@ -5167,13 +5167,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.241601</v>
+        <v>0.255514</v>
       </c>
       <c r="C139" t="n">
-        <v>0.251598</v>
+        <v>0.267147</v>
       </c>
       <c r="D139" t="n">
-        <v>0.250955</v>
+        <v>0.272937</v>
       </c>
     </row>
     <row r="140">
@@ -5181,13 +5181,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.24026</v>
+        <v>0.252858</v>
       </c>
       <c r="C140" t="n">
-        <v>0.246371</v>
+        <v>0.269582</v>
       </c>
       <c r="D140" t="n">
-        <v>0.254692</v>
+        <v>0.265902</v>
       </c>
     </row>
     <row r="141">
@@ -5195,13 +5195,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.237668</v>
+        <v>0.245265</v>
       </c>
       <c r="C141" t="n">
-        <v>0.249764</v>
+        <v>0.26147</v>
       </c>
       <c r="D141" t="n">
-        <v>0.253236</v>
+        <v>0.265972</v>
       </c>
     </row>
     <row r="142">
@@ -5209,13 +5209,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.228659</v>
+        <v>0.238431</v>
       </c>
       <c r="C142" t="n">
-        <v>0.241639</v>
+        <v>0.260644</v>
       </c>
       <c r="D142" t="n">
-        <v>0.249148</v>
+        <v>0.259731</v>
       </c>
     </row>
     <row r="143">
@@ -5223,13 +5223,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.227462</v>
+        <v>0.232187</v>
       </c>
       <c r="C143" t="n">
-        <v>0.247483</v>
+        <v>0.255626</v>
       </c>
       <c r="D143" t="n">
-        <v>0.244018</v>
+        <v>0.259673</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Running erasure.xlsx
+++ b/vs-x64/Running erasure.xlsx
@@ -93,7 +93,7 @@
           <idx val="3"/>
           <order val="0"/>
           <tx>
-            <v>absl::flat_hash_set</v>
+            <v>absl::flat_hash_map</v>
           </tx>
           <spPr>
             <a:ln>
@@ -553,430 +553,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.205708</v>
+                  <v>0.187292</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.199281</v>
+                  <v>0.183982</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.198861</v>
+                  <v>0.179004</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.187843</v>
+                  <v>0.176892</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.184557</v>
+                  <v>0.17022</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.17611</v>
+                  <v>0.163509</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.170692</v>
+                  <v>0.156318</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.164151</v>
+                  <v>0.146334</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.226298</v>
+                  <v>0.231139</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.222758</v>
+                  <v>0.228081</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.221797</v>
+                  <v>0.225517</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.214999</v>
+                  <v>0.222864</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.214314</v>
+                  <v>0.21893</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.208799</v>
+                  <v>0.214659</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.207121</v>
+                  <v>0.209928</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.200742</v>
+                  <v>0.20518</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.198391</v>
+                  <v>0.200207</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.192474</v>
+                  <v>0.195783</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.187131</v>
+                  <v>0.189275</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.1855</v>
+                  <v>0.181574</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.178338</v>
+                  <v>0.174132</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.168659</v>
+                  <v>0.16528</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.226735</v>
+                  <v>0.243142</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.225879</v>
+                  <v>0.239615</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.230612</v>
+                  <v>0.236139</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.219883</v>
+                  <v>0.232566</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.212715</v>
+                  <v>0.227385</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.214718</v>
+                  <v>0.222635</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.208223</v>
+                  <v>0.217695</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.204786</v>
+                  <v>0.212684</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.200412</v>
+                  <v>0.20734</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.196075</v>
+                  <v>0.20071</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.189705</v>
+                  <v>0.194395</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.185074</v>
+                  <v>0.186684</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.181946</v>
+                  <v>0.181061</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.17199</v>
+                  <v>0.169795</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.232453</v>
+                  <v>0.248879</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.226724</v>
+                  <v>0.244774</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.226184</v>
+                  <v>0.241026</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.221272</v>
+                  <v>0.236858</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.217354</v>
+                  <v>0.232237</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.212451</v>
+                  <v>0.227177</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.207268</v>
+                  <v>0.22226</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.202526</v>
+                  <v>0.216502</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.198717</v>
+                  <v>0.2114</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.197107</v>
+                  <v>0.204573</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.193741</v>
+                  <v>0.198267</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.188026</v>
+                  <v>0.191099</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.178845</v>
+                  <v>0.183731</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.174374</v>
+                  <v>0.172869</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.168491</v>
+                  <v>0.161871</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.231805</v>
+                  <v>0.247769</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.227368</v>
+                  <v>0.243592</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.22155</v>
+                  <v>0.239389</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.220585</v>
+                  <v>0.234805</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.216158</v>
+                  <v>0.230401</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.210447</v>
+                  <v>0.224628</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.208719</v>
+                  <v>0.218949</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.204283</v>
+                  <v>0.213275</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.199945</v>
+                  <v>0.206692</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.193981</v>
+                  <v>0.200398</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.18843</v>
+                  <v>0.193096</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.182674</v>
+                  <v>0.185345</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.176528</v>
+                  <v>0.177726</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.168787</v>
+                  <v>0.167032</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.23617</v>
+                  <v>0.250983</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.231644</v>
+                  <v>0.246922</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.229802</v>
+                  <v>0.24234</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.224572</v>
+                  <v>0.237651</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.219696</v>
+                  <v>0.232612</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.216249</v>
+                  <v>0.2275</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.21168</v>
+                  <v>0.222083</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.207062</v>
+                  <v>0.215699</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.201166</v>
+                  <v>0.209667</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.197386</v>
+                  <v>0.202946</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.193062</v>
+                  <v>0.196222</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.185643</v>
+                  <v>0.188555</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.17901</v>
+                  <v>0.179944</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.17526</v>
+                  <v>0.169766</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.242874</v>
+                  <v>0.251071</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.235402</v>
+                  <v>0.247217</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.235995</v>
+                  <v>0.243499</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.232314</v>
+                  <v>0.239247</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.229</v>
+                  <v>0.233745</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.222138</v>
+                  <v>0.228775</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.216866</v>
+                  <v>0.223145</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.21284</v>
+                  <v>0.217208</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.210712</v>
+                  <v>0.211176</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.199679</v>
+                  <v>0.20484</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.194567</v>
+                  <v>0.197888</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.190848</v>
+                  <v>0.190605</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.184587</v>
+                  <v>0.182097</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.178623</v>
+                  <v>0.1719</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.243603</v>
+                  <v>0.251299</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.243928</v>
+                  <v>0.248019</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.238462</v>
+                  <v>0.244127</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.232512</v>
+                  <v>0.239723</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.227238</v>
+                  <v>0.23491</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.222881</v>
+                  <v>0.229923</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.217989</v>
+                  <v>0.224131</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.216398</v>
+                  <v>0.218559</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.208575</v>
+                  <v>0.212431</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.206179</v>
+                  <v>0.206093</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.198993</v>
+                  <v>0.199207</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.19356</v>
+                  <v>0.192019</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.184895</v>
+                  <v>0.183749</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.178927</v>
+                  <v>0.174303</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.171392</v>
+                  <v>0.162838</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.24332</v>
+                  <v>0.249639</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.237567</v>
+                  <v>0.245731</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.233869</v>
+                  <v>0.241243</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.232408</v>
+                  <v>0.236498</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.225462</v>
+                  <v>0.231101</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.22237</v>
+                  <v>0.225563</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.218197</v>
+                  <v>0.219876</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.210368</v>
+                  <v>0.213794</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.210775</v>
+                  <v>0.207545</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.200953</v>
+                  <v>0.200654</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.195805</v>
+                  <v>0.193435</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.194428</v>
+                  <v>0.185456</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.18137</v>
+                  <v>0.175966</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.172821</v>
+                  <v>0.16491</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.240243</v>
+                  <v>0.251293</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.239287</v>
+                  <v>0.247604</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.235149</v>
+                  <v>0.243229</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.231352</v>
+                  <v>0.237169</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.231045</v>
+                  <v>0.232007</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.223153</v>
+                  <v>0.226576</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.216966</v>
+                  <v>0.221042</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.20966</v>
+                  <v>0.214901</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.208976</v>
+                  <v>0.208636</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.199944</v>
+                  <v>0.201996</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.196803</v>
+                  <v>0.195117</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.188802</v>
+                  <v>0.18742</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.18508</v>
+                  <v>0.178418</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.175194</v>
+                  <v>0.167876</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.242156</v>
+                  <v>0.250586</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.241881</v>
+                  <v>0.247147</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.234741</v>
+                  <v>0.242923</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.233805</v>
+                  <v>0.238252</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.227382</v>
+                  <v>0.2333</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.222433</v>
+                  <v>0.227843</v>
                 </pt>
               </numCache>
             </numRef>
@@ -987,7 +987,7 @@
           <idx val="4"/>
           <order val="1"/>
           <tx>
-            <v>foa_unordered_rc16_set</v>
+            <v>foa_unordered_rc16_map</v>
           </tx>
           <spPr>
             <a:ln>
@@ -1447,430 +1447,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.242487</v>
+                  <v>0.206229</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.248385</v>
+                  <v>0.206842</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.247661</v>
+                  <v>0.206135</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.237002</v>
+                  <v>0.206722</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.238586</v>
+                  <v>0.206327</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.235131</v>
+                  <v>0.206321</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.238358</v>
+                  <v>0.206192</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.236243</v>
+                  <v>0.205238</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.248517</v>
+                  <v>0.224944</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.254256</v>
+                  <v>0.224007</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.246921</v>
+                  <v>0.222663</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.243869</v>
+                  <v>0.221498</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.245963</v>
+                  <v>0.221017</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.243872</v>
+                  <v>0.220245</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.238851</v>
+                  <v>0.219581</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.241489</v>
+                  <v>0.218457</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.240015</v>
+                  <v>0.217573</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.238601</v>
+                  <v>0.217195</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.240461</v>
+                  <v>0.216497</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.237843</v>
+                  <v>0.215746</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.236911</v>
+                  <v>0.214832</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.239557</v>
+                  <v>0.21423</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.253605</v>
+                  <v>0.228939</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.247952</v>
+                  <v>0.227393</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.249353</v>
+                  <v>0.227107</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.247801</v>
+                  <v>0.224972</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.24333</v>
+                  <v>0.224321</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.243001</v>
+                  <v>0.223063</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.244743</v>
+                  <v>0.221902</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.248119</v>
+                  <v>0.220735</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.246367</v>
+                  <v>0.219663</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.241493</v>
+                  <v>0.219014</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.245594</v>
+                  <v>0.21802</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.24403</v>
+                  <v>0.217046</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.246176</v>
+                  <v>0.216342</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.241068</v>
+                  <v>0.215854</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.257093</v>
+                  <v>0.229763</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.250944</v>
+                  <v>0.228245</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.250866</v>
+                  <v>0.226658</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.247143</v>
+                  <v>0.225711</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.248107</v>
+                  <v>0.224436</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.244853</v>
+                  <v>0.223405</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.243774</v>
+                  <v>0.222302</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.240714</v>
+                  <v>0.22123</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.242765</v>
+                  <v>0.220403</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.243111</v>
+                  <v>0.219849</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.243433</v>
+                  <v>0.218845</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.240845</v>
+                  <v>0.217926</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.242013</v>
+                  <v>0.217302</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.240983</v>
+                  <v>0.216228</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.244508</v>
+                  <v>0.215748</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.25797</v>
+                  <v>0.229059</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.255913</v>
+                  <v>0.227574</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.253272</v>
+                  <v>0.226449</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.25197</v>
+                  <v>0.22552</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.252559</v>
+                  <v>0.224386</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.249183</v>
+                  <v>0.223346</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.248578</v>
+                  <v>0.222174</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.248277</v>
+                  <v>0.221052</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.248197</v>
+                  <v>0.220193</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.243224</v>
+                  <v>0.219293</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.247585</v>
+                  <v>0.218512</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.242301</v>
+                  <v>0.217698</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.243189</v>
+                  <v>0.216983</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.244919</v>
+                  <v>0.215886</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.258546</v>
+                  <v>0.231128</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.261819</v>
+                  <v>0.229816</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.258243</v>
+                  <v>0.228207</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.255756</v>
+                  <v>0.226759</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.251401</v>
+                  <v>0.225621</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.25231</v>
+                  <v>0.224178</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.249765</v>
+                  <v>0.223074</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.249948</v>
+                  <v>0.221867</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.24971</v>
+                  <v>0.220973</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.248111</v>
+                  <v>0.22015</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.249198</v>
+                  <v>0.219205</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.248307</v>
+                  <v>0.218341</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.247516</v>
+                  <v>0.217394</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.243806</v>
+                  <v>0.216569</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.267074</v>
+                  <v>0.238485</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.25905</v>
+                  <v>0.233573</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.257957</v>
+                  <v>0.230278</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.259435</v>
+                  <v>0.227726</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.257783</v>
+                  <v>0.225567</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.253418</v>
+                  <v>0.224477</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.252449</v>
+                  <v>0.223515</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.252473</v>
+                  <v>0.222424</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.252695</v>
+                  <v>0.221344</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.251721</v>
+                  <v>0.220256</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.249717</v>
+                  <v>0.219415</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.256121</v>
+                  <v>0.218492</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.246996</v>
+                  <v>0.217706</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.247927</v>
+                  <v>0.216915</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.268587</v>
+                  <v>0.235879</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.267822</v>
+                  <v>0.232276</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.263448</v>
+                  <v>0.229777</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.263401</v>
+                  <v>0.227738</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.256841</v>
+                  <v>0.226186</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.256181</v>
+                  <v>0.224924</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.255317</v>
+                  <v>0.223825</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.254091</v>
+                  <v>0.222639</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.255868</v>
+                  <v>0.221594</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.253721</v>
+                  <v>0.220637</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.24966</v>
+                  <v>0.219782</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.250492</v>
+                  <v>0.218899</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.249402</v>
+                  <v>0.218093</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.248309</v>
+                  <v>0.217262</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.246962</v>
+                  <v>0.216542</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.27016</v>
+                  <v>0.233106</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.267691</v>
+                  <v>0.230117</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.264191</v>
+                  <v>0.227957</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.262851</v>
+                  <v>0.226393</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.25836</v>
+                  <v>0.224926</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.258437</v>
+                  <v>0.223667</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.257712</v>
+                  <v>0.223096</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.25034</v>
+                  <v>0.221964</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.251427</v>
+                  <v>0.221041</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.246681</v>
+                  <v>0.220161</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.251161</v>
+                  <v>0.219251</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.24843</v>
+                  <v>0.218443</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.248733</v>
+                  <v>0.217652</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.247384</v>
+                  <v>0.216747</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.264716</v>
+                  <v>0.233339</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.262613</v>
+                  <v>0.230313</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.264146</v>
+                  <v>0.228265</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.263733</v>
+                  <v>0.226554</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.259863</v>
+                  <v>0.225147</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.255211</v>
+                  <v>0.223895</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.256719</v>
+                  <v>0.222836</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.257838</v>
+                  <v>0.221859</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.253077</v>
+                  <v>0.220818</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.249045</v>
+                  <v>0.219893</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.24998</v>
+                  <v>0.219067</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.248771</v>
+                  <v>0.218239</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.248382</v>
+                  <v>0.217829</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.24551</v>
+                  <v>0.21699</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.266442</v>
+                  <v>0.234758</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.267468</v>
+                  <v>0.231578</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.262209</v>
+                  <v>0.229123</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.256274</v>
+                  <v>0.227302</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.256376</v>
+                  <v>0.225811</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.253954</v>
+                  <v>0.22452</v>
                 </pt>
               </numCache>
             </numRef>
@@ -1881,7 +1881,7 @@
           <idx val="5"/>
           <order val="2"/>
           <tx>
-            <v>foa_unordered_rc15_set</v>
+            <v>foa_unordered_rc15_map</v>
           </tx>
           <spPr>
             <a:ln>
@@ -2341,430 +2341,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.24084</v>
+                  <v>0.209873</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.245594</v>
+                  <v>0.211012</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.241347</v>
+                  <v>0.210745</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.242825</v>
+                  <v>0.211549</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.238829</v>
+                  <v>0.212704</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.238845</v>
+                  <v>0.211818</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.236911</v>
+                  <v>0.212862</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.253368</v>
+                  <v>0.227673</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.252354</v>
+                  <v>0.226193</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.246051</v>
+                  <v>0.226517</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.24381</v>
+                  <v>0.225181</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.242594</v>
+                  <v>0.224215</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.247516</v>
+                  <v>0.224629</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.242698</v>
+                  <v>0.224124</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.245653</v>
+                  <v>0.22305</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.239419</v>
+                  <v>0.222995</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.244895</v>
+                  <v>0.221534</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.242262</v>
+                  <v>0.221762</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.236774</v>
+                  <v>0.221599</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.239729</v>
+                  <v>0.220998</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.238879</v>
+                  <v>0.21979</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.252763</v>
+                  <v>0.233436</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.25448</v>
+                  <v>0.232471</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.251663</v>
+                  <v>0.231226</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.249894</v>
+                  <v>0.230275</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.250533</v>
+                  <v>0.229388</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.245007</v>
+                  <v>0.228411</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.245183</v>
+                  <v>0.227283</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.24792</v>
+                  <v>0.226614</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.241461</v>
+                  <v>0.225598</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.241531</v>
+                  <v>0.225321</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.244537</v>
+                  <v>0.224224</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.23991</v>
+                  <v>0.223667</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.24267</v>
+                  <v>0.222733</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.241805</v>
+                  <v>0.222081</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.252206</v>
+                  <v>0.235696</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.256659</v>
+                  <v>0.234257</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.254911</v>
+                  <v>0.233102</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.248263</v>
+                  <v>0.231628</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.249205</v>
+                  <v>0.230805</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.249588</v>
+                  <v>0.229469</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.247008</v>
+                  <v>0.228368</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.250721</v>
+                  <v>0.227503</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.250058</v>
+                  <v>0.226573</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.24623</v>
+                  <v>0.225474</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.242136</v>
+                  <v>0.224613</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.237706</v>
+                  <v>0.223838</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.24857</v>
+                  <v>0.223185</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.240203</v>
+                  <v>0.222298</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.265416</v>
+                  <v>0.236836</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.263069</v>
+                  <v>0.235449</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.257287</v>
+                  <v>0.234269</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.254047</v>
+                  <v>0.232952</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.252816</v>
+                  <v>0.231637</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.252868</v>
+                  <v>0.230491</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.253391</v>
+                  <v>0.229579</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.252662</v>
+                  <v>0.22827</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.253539</v>
+                  <v>0.227342</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.247099</v>
+                  <v>0.226352</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.246645</v>
+                  <v>0.225524</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.246508</v>
+                  <v>0.22462</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.244795</v>
+                  <v>0.223724</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.24321</v>
+                  <v>0.222897</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.242799</v>
+                  <v>0.222256</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.258268</v>
+                  <v>0.236524</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.258979</v>
+                  <v>0.234957</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.261253</v>
+                  <v>0.23352</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.255044</v>
+                  <v>0.232314</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.255658</v>
+                  <v>0.231079</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.254065</v>
+                  <v>0.230032</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.253949</v>
+                  <v>0.228745</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.248998</v>
+                  <v>0.227756</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.247372</v>
+                  <v>0.226814</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.245031</v>
+                  <v>0.225878</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.246583</v>
+                  <v>0.225063</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.246038</v>
+                  <v>0.224187</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.246659</v>
+                  <v>0.223308</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.244396</v>
+                  <v>0.222776</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.266185</v>
+                  <v>0.238898</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.264681</v>
+                  <v>0.236543</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.260065</v>
+                  <v>0.234982</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.260078</v>
+                  <v>0.233183</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.258491</v>
+                  <v>0.231928</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.254911</v>
+                  <v>0.230557</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.257986</v>
+                  <v>0.229474</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.251616</v>
+                  <v>0.228263</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.247868</v>
+                  <v>0.22724</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.249773</v>
+                  <v>0.226241</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.255649</v>
+                  <v>0.225489</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.245697</v>
+                  <v>0.224505</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.248276</v>
+                  <v>0.223735</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.244536</v>
+                  <v>0.222895</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.266556</v>
+                  <v>0.239711</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.265581</v>
+                  <v>0.237182</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.265694</v>
+                  <v>0.235335</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.258183</v>
+                  <v>0.233933</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.263384</v>
+                  <v>0.232964</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.261111</v>
+                  <v>0.231522</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.257989</v>
+                  <v>0.230428</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.253161</v>
+                  <v>0.228937</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.254084</v>
+                  <v>0.227841</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.253059</v>
+                  <v>0.226936</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.252827</v>
+                  <v>0.226475</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.250433</v>
+                  <v>0.22552</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.252162</v>
+                  <v>0.22466</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.248279</v>
+                  <v>0.223865</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.264426</v>
+                  <v>0.239576</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.264706</v>
+                  <v>0.237213</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.26465</v>
+                  <v>0.235342</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.262306</v>
+                  <v>0.233703</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.261465</v>
+                  <v>0.232291</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.260566</v>
+                  <v>0.230896</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.25792</v>
+                  <v>0.229691</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.256826</v>
+                  <v>0.22859</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.256969</v>
+                  <v>0.227856</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.252468</v>
+                  <v>0.226983</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.253845</v>
+                  <v>0.226085</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.258432</v>
+                  <v>0.225282</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.250746</v>
+                  <v>0.224461</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.247014</v>
+                  <v>0.223722</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.2498</v>
+                  <v>0.223001</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.268813</v>
+                  <v>0.237285</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.265383</v>
+                  <v>0.235374</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.265045</v>
+                  <v>0.2337</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.262226</v>
+                  <v>0.232315</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.257444</v>
+                  <v>0.230895</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.257924</v>
+                  <v>0.229728</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.25488</v>
+                  <v>0.228673</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.257717</v>
+                  <v>0.227668</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.250606</v>
+                  <v>0.226699</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.250691</v>
+                  <v>0.225807</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.250631</v>
+                  <v>0.224951</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.249019</v>
+                  <v>0.224143</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.245783</v>
+                  <v>0.223409</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.250042</v>
+                  <v>0.223041</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.278055</v>
+                  <v>0.238591</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.26443</v>
+                  <v>0.236406</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.266133</v>
+                  <v>0.234698</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.261176</v>
+                  <v>0.233163</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.254961</v>
+                  <v>0.231711</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.262948</v>
+                  <v>0.230522</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.254775</v>
+                  <v>0.229318</v>
                 </pt>
               </numCache>
             </numRef>
@@ -3217,30 +3217,30 @@
   </sheetPr>
   <dimension ref="A1:D143"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
-      <selection activeCell="N31" sqref="N31"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="3" min="1" style="1" width="11.42578125"/>
-    <col customWidth="1" max="16384" min="4" style="1" width="11.42578125"/>
+    <col customWidth="1" max="6" min="1" style="1" width="11.42578125"/>
+    <col customWidth="1" max="16384" min="7" style="1" width="11.42578125"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="B1" t="inlineStr">
         <is>
-          <t>absl::flat_hash_set</t>
+          <t>absl::flat_hash_map</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>foa_unordered_rc16_set</t>
+          <t>foa_unordered_rc16_map</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>foa_unordered_rc15_set</t>
+          <t>foa_unordered_rc15_map</t>
         </is>
       </c>
     </row>

--- a/vs-x64/Running erasure.xlsx
+++ b/vs-x64/Running erasure.xlsx
@@ -3249,13 +3249,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.201627</v>
+        <v>0.19954</v>
       </c>
       <c r="C2" t="n">
-        <v>0.238357</v>
+        <v>0.23773</v>
       </c>
       <c r="D2" t="n">
-        <v>0.236358</v>
+        <v>0.236397</v>
       </c>
     </row>
     <row r="3">
@@ -3263,13 +3263,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.197168</v>
+        <v>0.19742</v>
       </c>
       <c r="C3" t="n">
-        <v>0.234858</v>
+        <v>0.233107</v>
       </c>
       <c r="D3" t="n">
-        <v>0.232094</v>
+        <v>0.234153</v>
       </c>
     </row>
     <row r="4">
@@ -3277,13 +3277,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.19879</v>
+        <v>0.193655</v>
       </c>
       <c r="C4" t="n">
-        <v>0.22971</v>
+        <v>0.23141</v>
       </c>
       <c r="D4" t="n">
-        <v>0.232129</v>
+        <v>0.231322</v>
       </c>
     </row>
     <row r="5">
@@ -3291,13 +3291,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.188494</v>
+        <v>0.190569</v>
       </c>
       <c r="C5" t="n">
-        <v>0.23003</v>
+        <v>0.232834</v>
       </c>
       <c r="D5" t="n">
-        <v>0.231036</v>
+        <v>0.233832</v>
       </c>
     </row>
     <row r="6">
@@ -3305,13 +3305,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.187436</v>
+        <v>0.190295</v>
       </c>
       <c r="C6" t="n">
-        <v>0.234061</v>
+        <v>0.226097</v>
       </c>
       <c r="D6" t="n">
-        <v>0.24031</v>
+        <v>0.233609</v>
       </c>
     </row>
     <row r="7">
@@ -3319,13 +3319,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.183749</v>
+        <v>0.1862</v>
       </c>
       <c r="C7" t="n">
-        <v>0.231527</v>
+        <v>0.227859</v>
       </c>
       <c r="D7" t="n">
-        <v>0.234619</v>
+        <v>0.231216</v>
       </c>
     </row>
     <row r="8">
@@ -3333,13 +3333,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.181253</v>
+        <v>0.179891</v>
       </c>
       <c r="C8" t="n">
-        <v>0.230678</v>
+        <v>0.231201</v>
       </c>
       <c r="D8" t="n">
-        <v>0.231705</v>
+        <v>0.232687</v>
       </c>
     </row>
     <row r="9">
@@ -3347,13 +3347,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.174518</v>
+        <v>0.17389</v>
       </c>
       <c r="C9" t="n">
-        <v>0.228422</v>
+        <v>0.228437</v>
       </c>
       <c r="D9" t="n">
-        <v>0.246921</v>
+        <v>0.248864</v>
       </c>
     </row>
     <row r="10">
@@ -3361,13 +3361,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.227292</v>
+        <v>0.227806</v>
       </c>
       <c r="C10" t="n">
-        <v>0.240016</v>
+        <v>0.239936</v>
       </c>
       <c r="D10" t="n">
-        <v>0.23871</v>
+        <v>0.241692</v>
       </c>
     </row>
     <row r="11">
@@ -3375,13 +3375,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.225652</v>
+        <v>0.226883</v>
       </c>
       <c r="C11" t="n">
-        <v>0.238792</v>
+        <v>0.238328</v>
       </c>
       <c r="D11" t="n">
-        <v>0.247312</v>
+        <v>0.243249</v>
       </c>
     </row>
     <row r="12">
@@ -3389,13 +3389,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.219818</v>
+        <v>0.219406</v>
       </c>
       <c r="C12" t="n">
-        <v>0.238471</v>
+        <v>0.241173</v>
       </c>
       <c r="D12" t="n">
-        <v>0.240934</v>
+        <v>0.247513</v>
       </c>
     </row>
     <row r="13">
@@ -3403,13 +3403,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.220276</v>
+        <v>0.215237</v>
       </c>
       <c r="C13" t="n">
-        <v>0.235973</v>
+        <v>0.234556</v>
       </c>
       <c r="D13" t="n">
-        <v>0.242295</v>
+        <v>0.247645</v>
       </c>
     </row>
     <row r="14">
@@ -3417,13 +3417,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.211326</v>
+        <v>0.216653</v>
       </c>
       <c r="C14" t="n">
-        <v>0.234109</v>
+        <v>0.234061</v>
       </c>
       <c r="D14" t="n">
-        <v>0.237509</v>
+        <v>0.237972</v>
       </c>
     </row>
     <row r="15">
@@ -3431,13 +3431,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.210668</v>
+        <v>0.209537</v>
       </c>
       <c r="C15" t="n">
-        <v>0.235952</v>
+        <v>0.23427</v>
       </c>
       <c r="D15" t="n">
-        <v>0.238563</v>
+        <v>0.235678</v>
       </c>
     </row>
     <row r="16">
@@ -3445,13 +3445,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.207432</v>
+        <v>0.210783</v>
       </c>
       <c r="C16" t="n">
-        <v>0.235104</v>
+        <v>0.237085</v>
       </c>
       <c r="D16" t="n">
-        <v>0.235236</v>
+        <v>0.238528</v>
       </c>
     </row>
     <row r="17">
@@ -3459,13 +3459,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.204431</v>
+        <v>0.205382</v>
       </c>
       <c r="C17" t="n">
-        <v>0.234856</v>
+        <v>0.236871</v>
       </c>
       <c r="D17" t="n">
-        <v>0.238539</v>
+        <v>0.238293</v>
       </c>
     </row>
     <row r="18">
@@ -3473,13 +3473,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.199517</v>
+        <v>0.197089</v>
       </c>
       <c r="C18" t="n">
-        <v>0.230701</v>
+        <v>0.234609</v>
       </c>
       <c r="D18" t="n">
-        <v>0.236892</v>
+        <v>0.237808</v>
       </c>
     </row>
     <row r="19">
@@ -3487,13 +3487,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.196593</v>
+        <v>0.200584</v>
       </c>
       <c r="C19" t="n">
-        <v>0.230395</v>
+        <v>0.239302</v>
       </c>
       <c r="D19" t="n">
-        <v>0.233708</v>
+        <v>0.235792</v>
       </c>
     </row>
     <row r="20">
@@ -3501,13 +3501,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.192508</v>
+        <v>0.195548</v>
       </c>
       <c r="C20" t="n">
-        <v>0.230756</v>
+        <v>0.232429</v>
       </c>
       <c r="D20" t="n">
-        <v>0.234073</v>
+        <v>0.236946</v>
       </c>
     </row>
     <row r="21">
@@ -3515,13 +3515,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.189183</v>
+        <v>0.190095</v>
       </c>
       <c r="C21" t="n">
-        <v>0.231285</v>
+        <v>0.243351</v>
       </c>
       <c r="D21" t="n">
-        <v>0.230826</v>
+        <v>0.231119</v>
       </c>
     </row>
     <row r="22">
@@ -3529,13 +3529,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.181729</v>
+        <v>0.189493</v>
       </c>
       <c r="C22" t="n">
-        <v>0.227968</v>
+        <v>0.233343</v>
       </c>
       <c r="D22" t="n">
-        <v>0.233297</v>
+        <v>0.244959</v>
       </c>
     </row>
     <row r="23">
@@ -3543,13 +3543,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.175645</v>
+        <v>0.178779</v>
       </c>
       <c r="C23" t="n">
-        <v>0.227776</v>
+        <v>0.227377</v>
       </c>
       <c r="D23" t="n">
-        <v>0.246355</v>
+        <v>0.245216</v>
       </c>
     </row>
     <row r="24">
@@ -3557,13 +3557,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.236709</v>
+        <v>0.235497</v>
       </c>
       <c r="C24" t="n">
-        <v>0.242845</v>
+        <v>0.243362</v>
       </c>
       <c r="D24" t="n">
-        <v>0.24508</v>
+        <v>0.242216</v>
       </c>
     </row>
     <row r="25">
@@ -3571,13 +3571,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.2333</v>
+        <v>0.229892</v>
       </c>
       <c r="C25" t="n">
-        <v>0.243599</v>
+        <v>0.245581</v>
       </c>
       <c r="D25" t="n">
-        <v>0.244905</v>
+        <v>0.244723</v>
       </c>
     </row>
     <row r="26">
@@ -3585,13 +3585,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.228325</v>
+        <v>0.227235</v>
       </c>
       <c r="C26" t="n">
-        <v>0.244694</v>
+        <v>0.240868</v>
       </c>
       <c r="D26" t="n">
-        <v>0.24618</v>
+        <v>0.25696</v>
       </c>
     </row>
     <row r="27">
@@ -3599,13 +3599,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.222589</v>
+        <v>0.223848</v>
       </c>
       <c r="C27" t="n">
-        <v>0.241796</v>
+        <v>0.240946</v>
       </c>
       <c r="D27" t="n">
-        <v>0.243221</v>
+        <v>0.243157</v>
       </c>
     </row>
     <row r="28">
@@ -3613,13 +3613,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.219273</v>
+        <v>0.221848</v>
       </c>
       <c r="C28" t="n">
-        <v>0.239091</v>
+        <v>0.24369</v>
       </c>
       <c r="D28" t="n">
-        <v>0.240967</v>
+        <v>0.242485</v>
       </c>
     </row>
     <row r="29">
@@ -3627,13 +3627,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.215869</v>
+        <v>0.216447</v>
       </c>
       <c r="C29" t="n">
-        <v>0.23938</v>
+        <v>0.238277</v>
       </c>
       <c r="D29" t="n">
-        <v>0.23947</v>
+        <v>0.24576</v>
       </c>
     </row>
     <row r="30">
@@ -3641,13 +3641,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.209906</v>
+        <v>0.211376</v>
       </c>
       <c r="C30" t="n">
-        <v>0.235246</v>
+        <v>0.237404</v>
       </c>
       <c r="D30" t="n">
-        <v>0.24691</v>
+        <v>0.240935</v>
       </c>
     </row>
     <row r="31">
@@ -3655,13 +3655,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.208944</v>
+        <v>0.206576</v>
       </c>
       <c r="C31" t="n">
-        <v>0.23795</v>
+        <v>0.23819</v>
       </c>
       <c r="D31" t="n">
-        <v>0.238873</v>
+        <v>0.240638</v>
       </c>
     </row>
     <row r="32">
@@ -3669,13 +3669,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.205853</v>
+        <v>0.204861</v>
       </c>
       <c r="C32" t="n">
-        <v>0.235233</v>
+        <v>0.235889</v>
       </c>
       <c r="D32" t="n">
-        <v>0.237836</v>
+        <v>0.237297</v>
       </c>
     </row>
     <row r="33">
@@ -3683,13 +3683,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.202323</v>
+        <v>0.201656</v>
       </c>
       <c r="C33" t="n">
-        <v>0.232772</v>
+        <v>0.236441</v>
       </c>
       <c r="D33" t="n">
-        <v>0.234052</v>
+        <v>0.238622</v>
       </c>
     </row>
     <row r="34">
@@ -3697,13 +3697,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.198284</v>
+        <v>0.1986</v>
       </c>
       <c r="C34" t="n">
-        <v>0.233379</v>
+        <v>0.236169</v>
       </c>
       <c r="D34" t="n">
-        <v>0.232859</v>
+        <v>0.235852</v>
       </c>
     </row>
     <row r="35">
@@ -3711,13 +3711,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.196613</v>
+        <v>0.194106</v>
       </c>
       <c r="C35" t="n">
-        <v>0.233617</v>
+        <v>0.235692</v>
       </c>
       <c r="D35" t="n">
-        <v>0.237686</v>
+        <v>0.23628</v>
       </c>
     </row>
     <row r="36">
@@ -3725,13 +3725,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.188247</v>
+        <v>0.189477</v>
       </c>
       <c r="C36" t="n">
-        <v>0.232319</v>
+        <v>0.235019</v>
       </c>
       <c r="D36" t="n">
-        <v>0.234681</v>
+        <v>0.236135</v>
       </c>
     </row>
     <row r="37">
@@ -3739,13 +3739,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.180244</v>
+        <v>0.184539</v>
       </c>
       <c r="C37" t="n">
-        <v>0.23021</v>
+        <v>0.234338</v>
       </c>
       <c r="D37" t="n">
-        <v>0.261622</v>
+        <v>0.262911</v>
       </c>
     </row>
     <row r="38">
@@ -3753,13 +3753,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.240066</v>
+        <v>0.240866</v>
       </c>
       <c r="C38" t="n">
-        <v>0.258406</v>
+        <v>0.25889</v>
       </c>
       <c r="D38" t="n">
-        <v>0.260596</v>
+        <v>0.258517</v>
       </c>
     </row>
     <row r="39">
@@ -3767,13 +3767,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.237944</v>
+        <v>0.238984</v>
       </c>
       <c r="C39" t="n">
-        <v>0.256544</v>
+        <v>0.257406</v>
       </c>
       <c r="D39" t="n">
-        <v>0.257187</v>
+        <v>0.258295</v>
       </c>
     </row>
     <row r="40">
@@ -3781,13 +3781,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.229661</v>
+        <v>0.232884</v>
       </c>
       <c r="C40" t="n">
-        <v>0.253602</v>
+        <v>0.257836</v>
       </c>
       <c r="D40" t="n">
-        <v>0.254206</v>
+        <v>0.254952</v>
       </c>
     </row>
     <row r="41">
@@ -3795,13 +3795,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.228377</v>
+        <v>0.227369</v>
       </c>
       <c r="C41" t="n">
-        <v>0.255515</v>
+        <v>0.250567</v>
       </c>
       <c r="D41" t="n">
-        <v>0.253607</v>
+        <v>0.255433</v>
       </c>
     </row>
     <row r="42">
@@ -3809,13 +3809,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.223319</v>
+        <v>0.226555</v>
       </c>
       <c r="C42" t="n">
-        <v>0.249634</v>
+        <v>0.25015</v>
       </c>
       <c r="D42" t="n">
-        <v>0.249187</v>
+        <v>0.249776</v>
       </c>
     </row>
     <row r="43">
@@ -3823,13 +3823,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.218742</v>
+        <v>0.219491</v>
       </c>
       <c r="C43" t="n">
-        <v>0.247523</v>
+        <v>0.248858</v>
       </c>
       <c r="D43" t="n">
-        <v>0.246824</v>
+        <v>0.250237</v>
       </c>
     </row>
     <row r="44">
@@ -3837,13 +3837,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.214287</v>
+        <v>0.216635</v>
       </c>
       <c r="C44" t="n">
-        <v>0.247884</v>
+        <v>0.248578</v>
       </c>
       <c r="D44" t="n">
-        <v>0.246946</v>
+        <v>0.246591</v>
       </c>
     </row>
     <row r="45">
@@ -3851,13 +3851,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.213668</v>
+        <v>0.213949</v>
       </c>
       <c r="C45" t="n">
-        <v>0.248169</v>
+        <v>0.246612</v>
       </c>
       <c r="D45" t="n">
-        <v>0.246199</v>
+        <v>0.245778</v>
       </c>
     </row>
     <row r="46">
@@ -3865,13 +3865,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.204205</v>
+        <v>0.205978</v>
       </c>
       <c r="C46" t="n">
-        <v>0.240781</v>
+        <v>0.243699</v>
       </c>
       <c r="D46" t="n">
-        <v>0.244223</v>
+        <v>0.244502</v>
       </c>
     </row>
     <row r="47">
@@ -3879,13 +3879,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.20265</v>
+        <v>0.205523</v>
       </c>
       <c r="C47" t="n">
-        <v>0.241765</v>
+        <v>0.245537</v>
       </c>
       <c r="D47" t="n">
-        <v>0.244015</v>
+        <v>0.246124</v>
       </c>
     </row>
     <row r="48">
@@ -3893,13 +3893,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.198909</v>
+        <v>0.202762</v>
       </c>
       <c r="C48" t="n">
-        <v>0.241842</v>
+        <v>0.241604</v>
       </c>
       <c r="D48" t="n">
-        <v>0.243664</v>
+        <v>0.242983</v>
       </c>
     </row>
     <row r="49">
@@ -3907,13 +3907,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.19543</v>
+        <v>0.195321</v>
       </c>
       <c r="C49" t="n">
-        <v>0.238906</v>
+        <v>0.241063</v>
       </c>
       <c r="D49" t="n">
-        <v>0.240289</v>
+        <v>0.242819</v>
       </c>
     </row>
     <row r="50">
@@ -3921,13 +3921,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.190994</v>
+        <v>0.192997</v>
       </c>
       <c r="C50" t="n">
-        <v>0.243883</v>
+        <v>0.239233</v>
       </c>
       <c r="D50" t="n">
-        <v>0.241223</v>
+        <v>0.242952</v>
       </c>
     </row>
     <row r="51">
@@ -3935,13 +3935,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.184213</v>
+        <v>0.189079</v>
       </c>
       <c r="C51" t="n">
-        <v>0.236398</v>
+        <v>0.235625</v>
       </c>
       <c r="D51" t="n">
-        <v>0.261613</v>
+        <v>0.261885</v>
       </c>
     </row>
     <row r="52">
@@ -3949,13 +3949,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.175868</v>
+        <v>0.178242</v>
       </c>
       <c r="C52" t="n">
-        <v>0.238877</v>
+        <v>0.237545</v>
       </c>
       <c r="D52" t="n">
-        <v>0.262332</v>
+        <v>0.260565</v>
       </c>
     </row>
     <row r="53">
@@ -3963,13 +3963,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.241916</v>
+        <v>0.242486</v>
       </c>
       <c r="C53" t="n">
-        <v>0.257853</v>
+        <v>0.257142</v>
       </c>
       <c r="D53" t="n">
-        <v>0.259774</v>
+        <v>0.257613</v>
       </c>
     </row>
     <row r="54">
@@ -3977,13 +3977,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.237578</v>
+        <v>0.238882</v>
       </c>
       <c r="C54" t="n">
-        <v>0.255611</v>
+        <v>0.258965</v>
       </c>
       <c r="D54" t="n">
-        <v>0.256043</v>
+        <v>0.26032</v>
       </c>
     </row>
     <row r="55">
@@ -3991,13 +3991,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.233176</v>
+        <v>0.234183</v>
       </c>
       <c r="C55" t="n">
-        <v>0.257899</v>
+        <v>0.253316</v>
       </c>
       <c r="D55" t="n">
-        <v>0.253379</v>
+        <v>0.254306</v>
       </c>
     </row>
     <row r="56">
@@ -4005,13 +4005,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.232298</v>
+        <v>0.231211</v>
       </c>
       <c r="C56" t="n">
-        <v>0.252385</v>
+        <v>0.252525</v>
       </c>
       <c r="D56" t="n">
-        <v>0.255109</v>
+        <v>0.254973</v>
       </c>
     </row>
     <row r="57">
@@ -4019,13 +4019,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.226221</v>
+        <v>0.22372</v>
       </c>
       <c r="C57" t="n">
-        <v>0.248829</v>
+        <v>0.249494</v>
       </c>
       <c r="D57" t="n">
-        <v>0.252611</v>
+        <v>0.2522</v>
       </c>
     </row>
     <row r="58">
@@ -4033,13 +4033,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.222976</v>
+        <v>0.22007</v>
       </c>
       <c r="C58" t="n">
-        <v>0.253152</v>
+        <v>0.250351</v>
       </c>
       <c r="D58" t="n">
-        <v>0.249441</v>
+        <v>0.247494</v>
       </c>
     </row>
     <row r="59">
@@ -4047,13 +4047,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.21683</v>
+        <v>0.218628</v>
       </c>
       <c r="C59" t="n">
-        <v>0.248734</v>
+        <v>0.245167</v>
       </c>
       <c r="D59" t="n">
-        <v>0.248444</v>
+        <v>0.251047</v>
       </c>
     </row>
     <row r="60">
@@ -4061,13 +4061,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.212127</v>
+        <v>0.214587</v>
       </c>
       <c r="C60" t="n">
-        <v>0.248503</v>
+        <v>0.242638</v>
       </c>
       <c r="D60" t="n">
-        <v>0.247263</v>
+        <v>0.246037</v>
       </c>
     </row>
     <row r="61">
@@ -4075,13 +4075,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.208955</v>
+        <v>0.20749</v>
       </c>
       <c r="C61" t="n">
-        <v>0.242341</v>
+        <v>0.241703</v>
       </c>
       <c r="D61" t="n">
-        <v>0.243261</v>
+        <v>0.248117</v>
       </c>
     </row>
     <row r="62">
@@ -4089,13 +4089,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.206081</v>
+        <v>0.206644</v>
       </c>
       <c r="C62" t="n">
-        <v>0.240113</v>
+        <v>0.24079</v>
       </c>
       <c r="D62" t="n">
-        <v>0.241779</v>
+        <v>0.249543</v>
       </c>
     </row>
     <row r="63">
@@ -4103,13 +4103,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.203271</v>
+        <v>0.203571</v>
       </c>
       <c r="C63" t="n">
-        <v>0.241394</v>
+        <v>0.240693</v>
       </c>
       <c r="D63" t="n">
-        <v>0.241503</v>
+        <v>0.245919</v>
       </c>
     </row>
     <row r="64">
@@ -4117,13 +4117,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.195673</v>
+        <v>0.196751</v>
       </c>
       <c r="C64" t="n">
-        <v>0.239662</v>
+        <v>0.239685</v>
       </c>
       <c r="D64" t="n">
-        <v>0.237782</v>
+        <v>0.239511</v>
       </c>
     </row>
     <row r="65">
@@ -4131,13 +4131,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.19346</v>
+        <v>0.192201</v>
       </c>
       <c r="C65" t="n">
-        <v>0.237856</v>
+        <v>0.237775</v>
       </c>
       <c r="D65" t="n">
-        <v>0.242005</v>
+        <v>0.241152</v>
       </c>
     </row>
     <row r="66">
@@ -4145,13 +4145,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.18449</v>
+        <v>0.186071</v>
       </c>
       <c r="C66" t="n">
-        <v>0.238562</v>
+        <v>0.240916</v>
       </c>
       <c r="D66" t="n">
-        <v>0.2659</v>
+        <v>0.271037</v>
       </c>
     </row>
     <row r="67">
@@ -4159,13 +4159,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.256377</v>
+        <v>0.258361</v>
       </c>
       <c r="C67" t="n">
-        <v>0.263086</v>
+        <v>0.264732</v>
       </c>
       <c r="D67" t="n">
-        <v>0.260834</v>
+        <v>0.263977</v>
       </c>
     </row>
     <row r="68">
@@ -4173,13 +4173,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.247612</v>
+        <v>0.250647</v>
       </c>
       <c r="C68" t="n">
-        <v>0.26242</v>
+        <v>0.262293</v>
       </c>
       <c r="D68" t="n">
-        <v>0.26106</v>
+        <v>0.260678</v>
       </c>
     </row>
     <row r="69">
@@ -4187,13 +4187,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.247046</v>
+        <v>0.245627</v>
       </c>
       <c r="C69" t="n">
-        <v>0.260513</v>
+        <v>0.257759</v>
       </c>
       <c r="D69" t="n">
-        <v>0.257326</v>
+        <v>0.2587</v>
       </c>
     </row>
     <row r="70">
@@ -4201,13 +4201,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.242741</v>
+        <v>0.238443</v>
       </c>
       <c r="C70" t="n">
-        <v>0.25764</v>
+        <v>0.25537</v>
       </c>
       <c r="D70" t="n">
-        <v>0.259163</v>
+        <v>0.256092</v>
       </c>
     </row>
     <row r="71">
@@ -4215,13 +4215,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.233762</v>
+        <v>0.236097</v>
       </c>
       <c r="C71" t="n">
-        <v>0.253004</v>
+        <v>0.256017</v>
       </c>
       <c r="D71" t="n">
-        <v>0.251075</v>
+        <v>0.258203</v>
       </c>
     </row>
     <row r="72">
@@ -4229,13 +4229,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.230468</v>
+        <v>0.227875</v>
       </c>
       <c r="C72" t="n">
-        <v>0.252717</v>
+        <v>0.253725</v>
       </c>
       <c r="D72" t="n">
-        <v>0.253049</v>
+        <v>0.257597</v>
       </c>
     </row>
     <row r="73">
@@ -4243,13 +4243,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.230527</v>
+        <v>0.225733</v>
       </c>
       <c r="C73" t="n">
-        <v>0.255676</v>
+        <v>0.251731</v>
       </c>
       <c r="D73" t="n">
-        <v>0.257905</v>
+        <v>0.252696</v>
       </c>
     </row>
     <row r="74">
@@ -4257,13 +4257,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.222506</v>
+        <v>0.221036</v>
       </c>
       <c r="C74" t="n">
-        <v>0.248935</v>
+        <v>0.248092</v>
       </c>
       <c r="D74" t="n">
-        <v>0.24803</v>
+        <v>0.250987</v>
       </c>
     </row>
     <row r="75">
@@ -4271,13 +4271,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.217383</v>
+        <v>0.21541</v>
       </c>
       <c r="C75" t="n">
-        <v>0.249711</v>
+        <v>0.247506</v>
       </c>
       <c r="D75" t="n">
-        <v>0.249906</v>
+        <v>0.250333</v>
       </c>
     </row>
     <row r="76">
@@ -4285,13 +4285,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.214266</v>
+        <v>0.215501</v>
       </c>
       <c r="C76" t="n">
-        <v>0.245771</v>
+        <v>0.247791</v>
       </c>
       <c r="D76" t="n">
-        <v>0.248275</v>
+        <v>0.249677</v>
       </c>
     </row>
     <row r="77">
@@ -4299,13 +4299,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.209356</v>
+        <v>0.210436</v>
       </c>
       <c r="C77" t="n">
-        <v>0.247041</v>
+        <v>0.249344</v>
       </c>
       <c r="D77" t="n">
-        <v>0.246381</v>
+        <v>0.244202</v>
       </c>
     </row>
     <row r="78">
@@ -4313,13 +4313,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.205961</v>
+        <v>0.207475</v>
       </c>
       <c r="C78" t="n">
-        <v>0.245743</v>
+        <v>0.244724</v>
       </c>
       <c r="D78" t="n">
-        <v>0.244616</v>
+        <v>0.245597</v>
       </c>
     </row>
     <row r="79">
@@ -4327,13 +4327,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.200945</v>
+        <v>0.198761</v>
       </c>
       <c r="C79" t="n">
-        <v>0.244114</v>
+        <v>0.242088</v>
       </c>
       <c r="D79" t="n">
-        <v>0.240735</v>
+        <v>0.247233</v>
       </c>
     </row>
     <row r="80">
@@ -4341,13 +4341,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.191449</v>
+        <v>0.190167</v>
       </c>
       <c r="C80" t="n">
-        <v>0.238601</v>
+        <v>0.241545</v>
       </c>
       <c r="D80" t="n">
-        <v>0.274241</v>
+        <v>0.273211</v>
       </c>
     </row>
     <row r="81">
@@ -4355,13 +4355,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.258074</v>
+        <v>0.259249</v>
       </c>
       <c r="C81" t="n">
-        <v>0.273495</v>
+        <v>0.267548</v>
       </c>
       <c r="D81" t="n">
-        <v>0.26757</v>
+        <v>0.270241</v>
       </c>
     </row>
     <row r="82">
@@ -4369,13 +4369,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.258535</v>
+        <v>0.256792</v>
       </c>
       <c r="C82" t="n">
-        <v>0.267964</v>
+        <v>0.26879</v>
       </c>
       <c r="D82" t="n">
-        <v>0.269353</v>
+        <v>0.268603</v>
       </c>
     </row>
     <row r="83">
@@ -4383,13 +4383,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.250315</v>
+        <v>0.252688</v>
       </c>
       <c r="C83" t="n">
-        <v>0.266024</v>
+        <v>0.2639</v>
       </c>
       <c r="D83" t="n">
-        <v>0.263712</v>
+        <v>0.264608</v>
       </c>
     </row>
     <row r="84">
@@ -4397,13 +4397,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.244589</v>
+        <v>0.244162</v>
       </c>
       <c r="C84" t="n">
-        <v>0.265362</v>
+        <v>0.264044</v>
       </c>
       <c r="D84" t="n">
-        <v>0.263504</v>
+        <v>0.262575</v>
       </c>
     </row>
     <row r="85">
@@ -4411,13 +4411,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.239364</v>
+        <v>0.238769</v>
       </c>
       <c r="C85" t="n">
-        <v>0.261586</v>
+        <v>0.260294</v>
       </c>
       <c r="D85" t="n">
-        <v>0.259244</v>
+        <v>0.259812</v>
       </c>
     </row>
     <row r="86">
@@ -4425,13 +4425,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.235295</v>
+        <v>0.234183</v>
       </c>
       <c r="C86" t="n">
-        <v>0.258849</v>
+        <v>0.257148</v>
       </c>
       <c r="D86" t="n">
-        <v>0.257306</v>
+        <v>0.257579</v>
       </c>
     </row>
     <row r="87">
@@ -4439,13 +4439,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.233183</v>
+        <v>0.229628</v>
       </c>
       <c r="C87" t="n">
-        <v>0.257085</v>
+        <v>0.255945</v>
       </c>
       <c r="D87" t="n">
-        <v>0.255721</v>
+        <v>0.258216</v>
       </c>
     </row>
     <row r="88">
@@ -4453,13 +4453,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.226531</v>
+        <v>0.227547</v>
       </c>
       <c r="C88" t="n">
-        <v>0.256061</v>
+        <v>0.2569</v>
       </c>
       <c r="D88" t="n">
-        <v>0.255167</v>
+        <v>0.253858</v>
       </c>
     </row>
     <row r="89">
@@ -4467,13 +4467,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.220554</v>
+        <v>0.218598</v>
       </c>
       <c r="C89" t="n">
-        <v>0.251785</v>
+        <v>0.255223</v>
       </c>
       <c r="D89" t="n">
-        <v>0.25445</v>
+        <v>0.253818</v>
       </c>
     </row>
     <row r="90">
@@ -4481,13 +4481,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.215382</v>
+        <v>0.217222</v>
       </c>
       <c r="C90" t="n">
-        <v>0.251324</v>
+        <v>0.250546</v>
       </c>
       <c r="D90" t="n">
-        <v>0.250386</v>
+        <v>0.250755</v>
       </c>
     </row>
     <row r="91">
@@ -4495,13 +4495,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.210274</v>
+        <v>0.20899</v>
       </c>
       <c r="C91" t="n">
-        <v>0.249876</v>
+        <v>0.249255</v>
       </c>
       <c r="D91" t="n">
-        <v>0.249789</v>
+        <v>0.252024</v>
       </c>
     </row>
     <row r="92">
@@ -4509,13 +4509,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.207467</v>
+        <v>0.206688</v>
       </c>
       <c r="C92" t="n">
-        <v>0.246686</v>
+        <v>0.24704</v>
       </c>
       <c r="D92" t="n">
-        <v>0.249213</v>
+        <v>0.247475</v>
       </c>
     </row>
     <row r="93">
@@ -4523,13 +4523,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.204069</v>
+        <v>0.199847</v>
       </c>
       <c r="C93" t="n">
-        <v>0.247041</v>
+        <v>0.243049</v>
       </c>
       <c r="D93" t="n">
-        <v>0.245987</v>
+        <v>0.245709</v>
       </c>
     </row>
     <row r="94">
@@ -4537,13 +4537,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.194319</v>
+        <v>0.193716</v>
       </c>
       <c r="C94" t="n">
-        <v>0.247438</v>
+        <v>0.243458</v>
       </c>
       <c r="D94" t="n">
-        <v>0.276404</v>
+        <v>0.274976</v>
       </c>
     </row>
     <row r="95">
@@ -4551,13 +4551,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.258937</v>
+        <v>0.259383</v>
       </c>
       <c r="C95" t="n">
-        <v>0.27084</v>
+        <v>0.276603</v>
       </c>
       <c r="D95" t="n">
-        <v>0.26939</v>
+        <v>0.270495</v>
       </c>
     </row>
     <row r="96">
@@ -4565,13 +4565,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.256121</v>
+        <v>0.256617</v>
       </c>
       <c r="C96" t="n">
-        <v>0.270396</v>
+        <v>0.269495</v>
       </c>
       <c r="D96" t="n">
-        <v>0.265558</v>
+        <v>0.268892</v>
       </c>
     </row>
     <row r="97">
@@ -4579,13 +4579,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.253294</v>
+        <v>0.251583</v>
       </c>
       <c r="C97" t="n">
-        <v>0.266757</v>
+        <v>0.26585</v>
       </c>
       <c r="D97" t="n">
-        <v>0.26667</v>
+        <v>0.266818</v>
       </c>
     </row>
     <row r="98">
@@ -4593,13 +4593,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.244238</v>
+        <v>0.246636</v>
       </c>
       <c r="C98" t="n">
-        <v>0.266182</v>
+        <v>0.265177</v>
       </c>
       <c r="D98" t="n">
-        <v>0.262321</v>
+        <v>0.266259</v>
       </c>
     </row>
     <row r="99">
@@ -4607,13 +4607,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.240034</v>
+        <v>0.242906</v>
       </c>
       <c r="C99" t="n">
-        <v>0.257778</v>
+        <v>0.260275</v>
       </c>
       <c r="D99" t="n">
-        <v>0.262207</v>
+        <v>0.26222</v>
       </c>
     </row>
     <row r="100">
@@ -4621,13 +4621,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.237378</v>
+        <v>0.2405</v>
       </c>
       <c r="C100" t="n">
-        <v>0.258018</v>
+        <v>0.257377</v>
       </c>
       <c r="D100" t="n">
-        <v>0.26095</v>
+        <v>0.266082</v>
       </c>
     </row>
     <row r="101">
@@ -4635,13 +4635,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.232436</v>
+        <v>0.229477</v>
       </c>
       <c r="C101" t="n">
-        <v>0.258301</v>
+        <v>0.25716</v>
       </c>
       <c r="D101" t="n">
-        <v>0.256401</v>
+        <v>0.261488</v>
       </c>
     </row>
     <row r="102">
@@ -4649,13 +4649,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.225435</v>
+        <v>0.225765</v>
       </c>
       <c r="C102" t="n">
-        <v>0.252633</v>
+        <v>0.254934</v>
       </c>
       <c r="D102" t="n">
-        <v>0.255043</v>
+        <v>0.254613</v>
       </c>
     </row>
     <row r="103">
@@ -4663,13 +4663,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.22253</v>
+        <v>0.22409</v>
       </c>
       <c r="C103" t="n">
-        <v>0.257156</v>
+        <v>0.254107</v>
       </c>
       <c r="D103" t="n">
-        <v>0.253818</v>
+        <v>0.253899</v>
       </c>
     </row>
     <row r="104">
@@ -4677,13 +4677,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.2169</v>
+        <v>0.221161</v>
       </c>
       <c r="C104" t="n">
-        <v>0.252601</v>
+        <v>0.254545</v>
       </c>
       <c r="D104" t="n">
-        <v>0.249056</v>
+        <v>0.256945</v>
       </c>
     </row>
     <row r="105">
@@ -4691,13 +4691,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.211774</v>
+        <v>0.214393</v>
       </c>
       <c r="C105" t="n">
-        <v>0.251388</v>
+        <v>0.252572</v>
       </c>
       <c r="D105" t="n">
-        <v>0.248039</v>
+        <v>0.250324</v>
       </c>
     </row>
     <row r="106">
@@ -4705,13 +4705,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.209638</v>
+        <v>0.207898</v>
       </c>
       <c r="C106" t="n">
-        <v>0.244138</v>
+        <v>0.247215</v>
       </c>
       <c r="D106" t="n">
-        <v>0.246798</v>
+        <v>0.247153</v>
       </c>
     </row>
     <row r="107">
@@ -4719,13 +4719,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.203026</v>
+        <v>0.203821</v>
       </c>
       <c r="C107" t="n">
-        <v>0.245491</v>
+        <v>0.248643</v>
       </c>
       <c r="D107" t="n">
-        <v>0.243937</v>
+        <v>0.246234</v>
       </c>
     </row>
     <row r="108">
@@ -4733,13 +4733,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.194929</v>
+        <v>0.196089</v>
       </c>
       <c r="C108" t="n">
-        <v>0.245363</v>
+        <v>0.245121</v>
       </c>
       <c r="D108" t="n">
-        <v>0.27556</v>
+        <v>0.277942</v>
       </c>
     </row>
     <row r="109">
@@ -4747,13 +4747,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.186872</v>
+        <v>0.18833</v>
       </c>
       <c r="C109" t="n">
-        <v>0.243562</v>
+        <v>0.243152</v>
       </c>
       <c r="D109" t="n">
-        <v>0.27384</v>
+        <v>0.274212</v>
       </c>
     </row>
     <row r="110">
@@ -4761,13 +4761,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.26118</v>
+        <v>0.257587</v>
       </c>
       <c r="C110" t="n">
-        <v>0.268645</v>
+        <v>0.273947</v>
       </c>
       <c r="D110" t="n">
-        <v>0.270744</v>
+        <v>0.272132</v>
       </c>
     </row>
     <row r="111">
@@ -4775,13 +4775,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.259246</v>
+        <v>0.253249</v>
       </c>
       <c r="C111" t="n">
-        <v>0.266998</v>
+        <v>0.266403</v>
       </c>
       <c r="D111" t="n">
-        <v>0.265936</v>
+        <v>0.265216</v>
       </c>
     </row>
     <row r="112">
@@ -4789,13 +4789,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.247403</v>
+        <v>0.247606</v>
       </c>
       <c r="C112" t="n">
-        <v>0.268655</v>
+        <v>0.269926</v>
       </c>
       <c r="D112" t="n">
-        <v>0.266932</v>
+        <v>0.265118</v>
       </c>
     </row>
     <row r="113">
@@ -4803,13 +4803,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.241417</v>
+        <v>0.244675</v>
       </c>
       <c r="C113" t="n">
-        <v>0.261342</v>
+        <v>0.262446</v>
       </c>
       <c r="D113" t="n">
-        <v>0.263426</v>
+        <v>0.265916</v>
       </c>
     </row>
     <row r="114">
@@ -4817,13 +4817,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.236451</v>
+        <v>0.242811</v>
       </c>
       <c r="C114" t="n">
-        <v>0.262206</v>
+        <v>0.258133</v>
       </c>
       <c r="D114" t="n">
-        <v>0.261115</v>
+        <v>0.259127</v>
       </c>
     </row>
     <row r="115">
@@ -4831,13 +4831,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.234753</v>
+        <v>0.234953</v>
       </c>
       <c r="C115" t="n">
-        <v>0.256314</v>
+        <v>0.259202</v>
       </c>
       <c r="D115" t="n">
-        <v>0.263386</v>
+        <v>0.258937</v>
       </c>
     </row>
     <row r="116">
@@ -4845,13 +4845,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.228255</v>
+        <v>0.228902</v>
       </c>
       <c r="C116" t="n">
-        <v>0.255779</v>
+        <v>0.256651</v>
       </c>
       <c r="D116" t="n">
-        <v>0.257235</v>
+        <v>0.257753</v>
       </c>
     </row>
     <row r="117">
@@ -4859,13 +4859,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.223947</v>
+        <v>0.223425</v>
       </c>
       <c r="C117" t="n">
-        <v>0.255469</v>
+        <v>0.256878</v>
       </c>
       <c r="D117" t="n">
-        <v>0.254333</v>
+        <v>0.250783</v>
       </c>
     </row>
     <row r="118">
@@ -4873,13 +4873,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.216783</v>
+        <v>0.220581</v>
       </c>
       <c r="C118" t="n">
-        <v>0.251768</v>
+        <v>0.254366</v>
       </c>
       <c r="D118" t="n">
-        <v>0.253268</v>
+        <v>0.253348</v>
       </c>
     </row>
     <row r="119">
@@ -4887,13 +4887,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.211773</v>
+        <v>0.218961</v>
       </c>
       <c r="C119" t="n">
-        <v>0.251365</v>
+        <v>0.250189</v>
       </c>
       <c r="D119" t="n">
-        <v>0.250874</v>
+        <v>0.249599</v>
       </c>
     </row>
     <row r="120">
@@ -4901,13 +4901,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.211343</v>
+        <v>0.211884</v>
       </c>
       <c r="C120" t="n">
-        <v>0.250812</v>
+        <v>0.248759</v>
       </c>
       <c r="D120" t="n">
-        <v>0.249975</v>
+        <v>0.252457</v>
       </c>
     </row>
     <row r="121">
@@ -4915,13 +4915,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.202288</v>
+        <v>0.206966</v>
       </c>
       <c r="C121" t="n">
-        <v>0.247842</v>
+        <v>0.249605</v>
       </c>
       <c r="D121" t="n">
-        <v>0.246734</v>
+        <v>0.247602</v>
       </c>
     </row>
     <row r="122">
@@ -4929,13 +4929,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.201676</v>
+        <v>0.197779</v>
       </c>
       <c r="C122" t="n">
-        <v>0.241505</v>
+        <v>0.243982</v>
       </c>
       <c r="D122" t="n">
-        <v>0.247894</v>
+        <v>0.2482</v>
       </c>
     </row>
     <row r="123">
@@ -4943,13 +4943,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.189311</v>
+        <v>0.19575</v>
       </c>
       <c r="C123" t="n">
-        <v>0.245064</v>
+        <v>0.250825</v>
       </c>
       <c r="D123" t="n">
-        <v>0.276148</v>
+        <v>0.278819</v>
       </c>
     </row>
     <row r="124">
@@ -4957,13 +4957,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.26098</v>
+        <v>0.268273</v>
       </c>
       <c r="C124" t="n">
-        <v>0.27239</v>
+        <v>0.269863</v>
       </c>
       <c r="D124" t="n">
-        <v>0.273233</v>
+        <v>0.27009</v>
       </c>
     </row>
     <row r="125">
@@ -4971,13 +4971,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.254212</v>
+        <v>0.253393</v>
       </c>
       <c r="C125" t="n">
-        <v>0.270416</v>
+        <v>0.269086</v>
       </c>
       <c r="D125" t="n">
-        <v>0.270195</v>
+        <v>0.2699</v>
       </c>
     </row>
     <row r="126">
@@ -4985,13 +4985,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.247572</v>
+        <v>0.248794</v>
       </c>
       <c r="C126" t="n">
-        <v>0.265124</v>
+        <v>0.265419</v>
       </c>
       <c r="D126" t="n">
-        <v>0.266091</v>
+        <v>0.265107</v>
       </c>
     </row>
     <row r="127">
@@ -4999,13 +4999,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.24447</v>
+        <v>0.241283</v>
       </c>
       <c r="C127" t="n">
-        <v>0.263086</v>
+        <v>0.264457</v>
       </c>
       <c r="D127" t="n">
-        <v>0.265267</v>
+        <v>0.267137</v>
       </c>
     </row>
     <row r="128">
@@ -5013,13 +5013,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.241344</v>
+        <v>0.235607</v>
       </c>
       <c r="C128" t="n">
-        <v>0.257444</v>
+        <v>0.262396</v>
       </c>
       <c r="D128" t="n">
-        <v>0.263299</v>
+        <v>0.262158</v>
       </c>
     </row>
     <row r="129">
@@ -5027,13 +5027,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.232298</v>
+        <v>0.232825</v>
       </c>
       <c r="C129" t="n">
-        <v>0.25927</v>
+        <v>0.264079</v>
       </c>
       <c r="D129" t="n">
-        <v>0.258669</v>
+        <v>0.255232</v>
       </c>
     </row>
     <row r="130">
@@ -5041,13 +5041,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.229289</v>
+        <v>0.231841</v>
       </c>
       <c r="C130" t="n">
-        <v>0.257824</v>
+        <v>0.256425</v>
       </c>
       <c r="D130" t="n">
-        <v>0.256284</v>
+        <v>0.257949</v>
       </c>
     </row>
     <row r="131">
@@ -5055,13 +5055,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.226933</v>
+        <v>0.224426</v>
       </c>
       <c r="C131" t="n">
-        <v>0.256084</v>
+        <v>0.257836</v>
       </c>
       <c r="D131" t="n">
-        <v>0.256177</v>
+        <v>0.25648</v>
       </c>
     </row>
     <row r="132">
@@ -5069,13 +5069,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.221175</v>
+        <v>0.222506</v>
       </c>
       <c r="C132" t="n">
-        <v>0.255576</v>
+        <v>0.253419</v>
       </c>
       <c r="D132" t="n">
-        <v>0.250488</v>
+        <v>0.251049</v>
       </c>
     </row>
     <row r="133">
@@ -5083,13 +5083,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.213269</v>
+        <v>0.215926</v>
       </c>
       <c r="C133" t="n">
-        <v>0.250281</v>
+        <v>0.249956</v>
       </c>
       <c r="D133" t="n">
-        <v>0.251292</v>
+        <v>0.257294</v>
       </c>
     </row>
     <row r="134">
@@ -5097,13 +5097,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.208284</v>
+        <v>0.208559</v>
       </c>
       <c r="C134" t="n">
-        <v>0.249685</v>
+        <v>0.252856</v>
       </c>
       <c r="D134" t="n">
-        <v>0.247963</v>
+        <v>0.251637</v>
       </c>
     </row>
     <row r="135">
@@ -5111,13 +5111,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.205255</v>
+        <v>0.207807</v>
       </c>
       <c r="C135" t="n">
-        <v>0.248752</v>
+        <v>0.249496</v>
       </c>
       <c r="D135" t="n">
-        <v>0.250378</v>
+        <v>0.252218</v>
       </c>
     </row>
     <row r="136">
@@ -5125,13 +5125,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.200141</v>
+        <v>0.198986</v>
       </c>
       <c r="C136" t="n">
-        <v>0.250215</v>
+        <v>0.250453</v>
       </c>
       <c r="D136" t="n">
-        <v>0.248556</v>
+        <v>0.252941</v>
       </c>
     </row>
     <row r="137">
@@ -5139,13 +5139,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.189651</v>
+        <v>0.193131</v>
       </c>
       <c r="C137" t="n">
-        <v>0.248865</v>
+        <v>0.246866</v>
       </c>
       <c r="D137" t="n">
-        <v>0.271663</v>
+        <v>0.274432</v>
       </c>
     </row>
     <row r="138">
@@ -5153,13 +5153,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.2616</v>
+        <v>0.258504</v>
       </c>
       <c r="C138" t="n">
-        <v>0.270789</v>
+        <v>0.271453</v>
       </c>
       <c r="D138" t="n">
-        <v>0.272693</v>
+        <v>0.274616</v>
       </c>
     </row>
     <row r="139">
@@ -5167,13 +5167,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.255514</v>
+        <v>0.254026</v>
       </c>
       <c r="C139" t="n">
-        <v>0.267147</v>
+        <v>0.266061</v>
       </c>
       <c r="D139" t="n">
-        <v>0.272937</v>
+        <v>0.271272</v>
       </c>
     </row>
     <row r="140">
@@ -5181,13 +5181,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.252858</v>
+        <v>0.248503</v>
       </c>
       <c r="C140" t="n">
-        <v>0.269582</v>
+        <v>0.266331</v>
       </c>
       <c r="D140" t="n">
-        <v>0.265902</v>
+        <v>0.260068</v>
       </c>
     </row>
     <row r="141">
@@ -5195,13 +5195,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.245265</v>
+        <v>0.242245</v>
       </c>
       <c r="C141" t="n">
-        <v>0.26147</v>
+        <v>0.271115</v>
       </c>
       <c r="D141" t="n">
-        <v>0.265972</v>
+        <v>0.266877</v>
       </c>
     </row>
     <row r="142">
@@ -5209,13 +5209,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.238431</v>
+        <v>0.242002</v>
       </c>
       <c r="C142" t="n">
-        <v>0.260644</v>
+        <v>0.264579</v>
       </c>
       <c r="D142" t="n">
-        <v>0.259731</v>
+        <v>0.261424</v>
       </c>
     </row>
     <row r="143">
@@ -5223,13 +5223,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.232187</v>
+        <v>0.231706</v>
       </c>
       <c r="C143" t="n">
-        <v>0.255626</v>
+        <v>0.255787</v>
       </c>
       <c r="D143" t="n">
-        <v>0.259673</v>
+        <v>0.255629</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Running erasure.xlsx
+++ b/vs-x64/Running erasure.xlsx
@@ -3249,13 +3249,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.19954</v>
+        <v>0.210335</v>
       </c>
       <c r="C2" t="n">
-        <v>0.23773</v>
+        <v>0.238639</v>
       </c>
       <c r="D2" t="n">
-        <v>0.236397</v>
+        <v>0.23859</v>
       </c>
     </row>
     <row r="3">
@@ -3263,13 +3263,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.19742</v>
+        <v>0.203949</v>
       </c>
       <c r="C3" t="n">
-        <v>0.233107</v>
+        <v>0.239813</v>
       </c>
       <c r="D3" t="n">
-        <v>0.234153</v>
+        <v>0.235119</v>
       </c>
     </row>
     <row r="4">
@@ -3277,13 +3277,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.193655</v>
+        <v>0.197261</v>
       </c>
       <c r="C4" t="n">
-        <v>0.23141</v>
+        <v>0.23174</v>
       </c>
       <c r="D4" t="n">
-        <v>0.231322</v>
+        <v>0.234615</v>
       </c>
     </row>
     <row r="5">
@@ -3291,13 +3291,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.190569</v>
+        <v>0.197548</v>
       </c>
       <c r="C5" t="n">
-        <v>0.232834</v>
+        <v>0.229174</v>
       </c>
       <c r="D5" t="n">
-        <v>0.233832</v>
+        <v>0.233179</v>
       </c>
     </row>
     <row r="6">
@@ -3305,13 +3305,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.190295</v>
+        <v>0.188265</v>
       </c>
       <c r="C6" t="n">
-        <v>0.226097</v>
+        <v>0.22789</v>
       </c>
       <c r="D6" t="n">
-        <v>0.233609</v>
+        <v>0.233105</v>
       </c>
     </row>
     <row r="7">
@@ -3319,13 +3319,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.1862</v>
+        <v>0.189117</v>
       </c>
       <c r="C7" t="n">
-        <v>0.227859</v>
+        <v>0.233259</v>
       </c>
       <c r="D7" t="n">
-        <v>0.231216</v>
+        <v>0.232986</v>
       </c>
     </row>
     <row r="8">
@@ -3333,13 +3333,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.179891</v>
+        <v>0.18787</v>
       </c>
       <c r="C8" t="n">
-        <v>0.231201</v>
+        <v>0.236279</v>
       </c>
       <c r="D8" t="n">
-        <v>0.232687</v>
+        <v>0.233927</v>
       </c>
     </row>
     <row r="9">
@@ -3347,13 +3347,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.17389</v>
+        <v>0.17665</v>
       </c>
       <c r="C9" t="n">
-        <v>0.228437</v>
+        <v>0.237064</v>
       </c>
       <c r="D9" t="n">
-        <v>0.248864</v>
+        <v>0.238361</v>
       </c>
     </row>
     <row r="10">
@@ -3361,13 +3361,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.227806</v>
+        <v>0.232603</v>
       </c>
       <c r="C10" t="n">
-        <v>0.239936</v>
+        <v>0.243158</v>
       </c>
       <c r="D10" t="n">
-        <v>0.241692</v>
+        <v>0.24905</v>
       </c>
     </row>
     <row r="11">
@@ -3375,13 +3375,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.226883</v>
+        <v>0.222506</v>
       </c>
       <c r="C11" t="n">
-        <v>0.238328</v>
+        <v>0.241686</v>
       </c>
       <c r="D11" t="n">
-        <v>0.243249</v>
+        <v>0.238763</v>
       </c>
     </row>
     <row r="12">
@@ -3389,13 +3389,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.219406</v>
+        <v>0.221147</v>
       </c>
       <c r="C12" t="n">
-        <v>0.241173</v>
+        <v>0.237453</v>
       </c>
       <c r="D12" t="n">
-        <v>0.247513</v>
+        <v>0.241522</v>
       </c>
     </row>
     <row r="13">
@@ -3403,13 +3403,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.215237</v>
+        <v>0.217517</v>
       </c>
       <c r="C13" t="n">
-        <v>0.234556</v>
+        <v>0.234273</v>
       </c>
       <c r="D13" t="n">
-        <v>0.247645</v>
+        <v>0.238255</v>
       </c>
     </row>
     <row r="14">
@@ -3417,13 +3417,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.216653</v>
+        <v>0.213138</v>
       </c>
       <c r="C14" t="n">
-        <v>0.234061</v>
+        <v>0.234082</v>
       </c>
       <c r="D14" t="n">
-        <v>0.237972</v>
+        <v>0.235024</v>
       </c>
     </row>
     <row r="15">
@@ -3431,13 +3431,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.209537</v>
+        <v>0.209438</v>
       </c>
       <c r="C15" t="n">
-        <v>0.23427</v>
+        <v>0.237615</v>
       </c>
       <c r="D15" t="n">
-        <v>0.235678</v>
+        <v>0.238753</v>
       </c>
     </row>
     <row r="16">
@@ -3445,13 +3445,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.210783</v>
+        <v>0.207804</v>
       </c>
       <c r="C16" t="n">
-        <v>0.237085</v>
+        <v>0.236853</v>
       </c>
       <c r="D16" t="n">
-        <v>0.238528</v>
+        <v>0.239672</v>
       </c>
     </row>
     <row r="17">
@@ -3459,13 +3459,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.205382</v>
+        <v>0.203459</v>
       </c>
       <c r="C17" t="n">
-        <v>0.236871</v>
+        <v>0.236816</v>
       </c>
       <c r="D17" t="n">
-        <v>0.238293</v>
+        <v>0.237926</v>
       </c>
     </row>
     <row r="18">
@@ -3473,13 +3473,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.197089</v>
+        <v>0.200957</v>
       </c>
       <c r="C18" t="n">
-        <v>0.234609</v>
+        <v>0.232071</v>
       </c>
       <c r="D18" t="n">
-        <v>0.237808</v>
+        <v>0.237531</v>
       </c>
     </row>
     <row r="19">
@@ -3487,13 +3487,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.200584</v>
+        <v>0.195996</v>
       </c>
       <c r="C19" t="n">
-        <v>0.239302</v>
+        <v>0.232049</v>
       </c>
       <c r="D19" t="n">
-        <v>0.235792</v>
+        <v>0.232112</v>
       </c>
     </row>
     <row r="20">
@@ -3501,13 +3501,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.195548</v>
+        <v>0.192816</v>
       </c>
       <c r="C20" t="n">
-        <v>0.232429</v>
+        <v>0.233059</v>
       </c>
       <c r="D20" t="n">
-        <v>0.236946</v>
+        <v>0.239647</v>
       </c>
     </row>
     <row r="21">
@@ -3515,13 +3515,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.190095</v>
+        <v>0.189161</v>
       </c>
       <c r="C21" t="n">
-        <v>0.243351</v>
+        <v>0.234732</v>
       </c>
       <c r="D21" t="n">
-        <v>0.231119</v>
+        <v>0.232091</v>
       </c>
     </row>
     <row r="22">
@@ -3529,13 +3529,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.189493</v>
+        <v>0.182539</v>
       </c>
       <c r="C22" t="n">
-        <v>0.233343</v>
+        <v>0.231833</v>
       </c>
       <c r="D22" t="n">
-        <v>0.244959</v>
+        <v>0.229005</v>
       </c>
     </row>
     <row r="23">
@@ -3543,13 +3543,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.178779</v>
+        <v>0.177702</v>
       </c>
       <c r="C23" t="n">
-        <v>0.227377</v>
+        <v>0.229607</v>
       </c>
       <c r="D23" t="n">
-        <v>0.245216</v>
+        <v>0.248611</v>
       </c>
     </row>
     <row r="24">
@@ -3557,13 +3557,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.235497</v>
+        <v>0.231916</v>
       </c>
       <c r="C24" t="n">
-        <v>0.243362</v>
+        <v>0.243531</v>
       </c>
       <c r="D24" t="n">
-        <v>0.242216</v>
+        <v>0.245424</v>
       </c>
     </row>
     <row r="25">
@@ -3571,13 +3571,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.229892</v>
+        <v>0.231185</v>
       </c>
       <c r="C25" t="n">
-        <v>0.245581</v>
+        <v>0.244205</v>
       </c>
       <c r="D25" t="n">
-        <v>0.244723</v>
+        <v>0.246255</v>
       </c>
     </row>
     <row r="26">
@@ -3585,13 +3585,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.227235</v>
+        <v>0.228669</v>
       </c>
       <c r="C26" t="n">
-        <v>0.240868</v>
+        <v>0.242614</v>
       </c>
       <c r="D26" t="n">
-        <v>0.25696</v>
+        <v>0.240814</v>
       </c>
     </row>
     <row r="27">
@@ -3599,13 +3599,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.223848</v>
+        <v>0.223169</v>
       </c>
       <c r="C27" t="n">
-        <v>0.240946</v>
+        <v>0.240262</v>
       </c>
       <c r="D27" t="n">
-        <v>0.243157</v>
+        <v>0.236453</v>
       </c>
     </row>
     <row r="28">
@@ -3613,13 +3613,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.221848</v>
+        <v>0.218648</v>
       </c>
       <c r="C28" t="n">
-        <v>0.24369</v>
+        <v>0.240981</v>
       </c>
       <c r="D28" t="n">
-        <v>0.242485</v>
+        <v>0.240252</v>
       </c>
     </row>
     <row r="29">
@@ -3627,13 +3627,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.216447</v>
+        <v>0.210273</v>
       </c>
       <c r="C29" t="n">
-        <v>0.238277</v>
+        <v>0.237312</v>
       </c>
       <c r="D29" t="n">
-        <v>0.24576</v>
+        <v>0.239342</v>
       </c>
     </row>
     <row r="30">
@@ -3641,13 +3641,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.211376</v>
+        <v>0.207832</v>
       </c>
       <c r="C30" t="n">
-        <v>0.237404</v>
+        <v>0.239191</v>
       </c>
       <c r="D30" t="n">
-        <v>0.240935</v>
+        <v>0.235388</v>
       </c>
     </row>
     <row r="31">
@@ -3655,13 +3655,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.206576</v>
+        <v>0.207063</v>
       </c>
       <c r="C31" t="n">
-        <v>0.23819</v>
+        <v>0.238079</v>
       </c>
       <c r="D31" t="n">
-        <v>0.240638</v>
+        <v>0.240552</v>
       </c>
     </row>
     <row r="32">
@@ -3669,13 +3669,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.204861</v>
+        <v>0.204383</v>
       </c>
       <c r="C32" t="n">
-        <v>0.235889</v>
+        <v>0.232773</v>
       </c>
       <c r="D32" t="n">
-        <v>0.237297</v>
+        <v>0.234246</v>
       </c>
     </row>
     <row r="33">
@@ -3683,13 +3683,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.201656</v>
+        <v>0.202031</v>
       </c>
       <c r="C33" t="n">
-        <v>0.236441</v>
+        <v>0.232291</v>
       </c>
       <c r="D33" t="n">
-        <v>0.238622</v>
+        <v>0.237242</v>
       </c>
     </row>
     <row r="34">
@@ -3697,13 +3697,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.1986</v>
+        <v>0.195931</v>
       </c>
       <c r="C34" t="n">
-        <v>0.236169</v>
+        <v>0.229815</v>
       </c>
       <c r="D34" t="n">
-        <v>0.235852</v>
+        <v>0.239201</v>
       </c>
     </row>
     <row r="35">
@@ -3711,13 +3711,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.194106</v>
+        <v>0.189408</v>
       </c>
       <c r="C35" t="n">
-        <v>0.235692</v>
+        <v>0.229985</v>
       </c>
       <c r="D35" t="n">
-        <v>0.23628</v>
+        <v>0.234222</v>
       </c>
     </row>
     <row r="36">
@@ -3725,13 +3725,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.189477</v>
+        <v>0.188795</v>
       </c>
       <c r="C36" t="n">
-        <v>0.235019</v>
+        <v>0.230866</v>
       </c>
       <c r="D36" t="n">
-        <v>0.236135</v>
+        <v>0.231969</v>
       </c>
     </row>
     <row r="37">
@@ -3739,13 +3739,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.184539</v>
+        <v>0.185221</v>
       </c>
       <c r="C37" t="n">
-        <v>0.234338</v>
+        <v>0.231786</v>
       </c>
       <c r="D37" t="n">
-        <v>0.262911</v>
+        <v>0.262504</v>
       </c>
     </row>
     <row r="38">
@@ -3753,13 +3753,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.240866</v>
+        <v>0.237281</v>
       </c>
       <c r="C38" t="n">
-        <v>0.25889</v>
+        <v>0.257916</v>
       </c>
       <c r="D38" t="n">
-        <v>0.258517</v>
+        <v>0.254596</v>
       </c>
     </row>
     <row r="39">
@@ -3767,13 +3767,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.238984</v>
+        <v>0.230386</v>
       </c>
       <c r="C39" t="n">
-        <v>0.257406</v>
+        <v>0.250019</v>
       </c>
       <c r="D39" t="n">
-        <v>0.258295</v>
+        <v>0.253703</v>
       </c>
     </row>
     <row r="40">
@@ -3781,13 +3781,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.232884</v>
+        <v>0.224411</v>
       </c>
       <c r="C40" t="n">
-        <v>0.257836</v>
+        <v>0.256391</v>
       </c>
       <c r="D40" t="n">
-        <v>0.254952</v>
+        <v>0.252917</v>
       </c>
     </row>
     <row r="41">
@@ -3795,13 +3795,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.227369</v>
+        <v>0.22585</v>
       </c>
       <c r="C41" t="n">
-        <v>0.250567</v>
+        <v>0.249975</v>
       </c>
       <c r="D41" t="n">
-        <v>0.255433</v>
+        <v>0.252677</v>
       </c>
     </row>
     <row r="42">
@@ -3809,13 +3809,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.226555</v>
+        <v>0.222889</v>
       </c>
       <c r="C42" t="n">
-        <v>0.25015</v>
+        <v>0.244286</v>
       </c>
       <c r="D42" t="n">
-        <v>0.249776</v>
+        <v>0.244458</v>
       </c>
     </row>
     <row r="43">
@@ -3823,13 +3823,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.219491</v>
+        <v>0.223131</v>
       </c>
       <c r="C43" t="n">
-        <v>0.248858</v>
+        <v>0.2501</v>
       </c>
       <c r="D43" t="n">
-        <v>0.250237</v>
+        <v>0.24969</v>
       </c>
     </row>
     <row r="44">
@@ -3837,13 +3837,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.216635</v>
+        <v>0.215222</v>
       </c>
       <c r="C44" t="n">
-        <v>0.248578</v>
+        <v>0.246885</v>
       </c>
       <c r="D44" t="n">
-        <v>0.246591</v>
+        <v>0.247856</v>
       </c>
     </row>
     <row r="45">
@@ -3851,13 +3851,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.213949</v>
+        <v>0.208249</v>
       </c>
       <c r="C45" t="n">
-        <v>0.246612</v>
+        <v>0.249582</v>
       </c>
       <c r="D45" t="n">
-        <v>0.245778</v>
+        <v>0.244391</v>
       </c>
     </row>
     <row r="46">
@@ -3865,13 +3865,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.205978</v>
+        <v>0.205545</v>
       </c>
       <c r="C46" t="n">
-        <v>0.243699</v>
+        <v>0.246449</v>
       </c>
       <c r="D46" t="n">
-        <v>0.244502</v>
+        <v>0.244143</v>
       </c>
     </row>
     <row r="47">
@@ -3879,13 +3879,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.205523</v>
+        <v>0.205269</v>
       </c>
       <c r="C47" t="n">
-        <v>0.245537</v>
+        <v>0.243221</v>
       </c>
       <c r="D47" t="n">
-        <v>0.246124</v>
+        <v>0.24387</v>
       </c>
     </row>
     <row r="48">
@@ -3893,13 +3893,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.202762</v>
+        <v>0.198859</v>
       </c>
       <c r="C48" t="n">
-        <v>0.241604</v>
+        <v>0.239434</v>
       </c>
       <c r="D48" t="n">
-        <v>0.242983</v>
+        <v>0.243786</v>
       </c>
     </row>
     <row r="49">
@@ -3907,13 +3907,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.195321</v>
+        <v>0.197644</v>
       </c>
       <c r="C49" t="n">
-        <v>0.241063</v>
+        <v>0.236841</v>
       </c>
       <c r="D49" t="n">
-        <v>0.242819</v>
+        <v>0.240767</v>
       </c>
     </row>
     <row r="50">
@@ -3921,13 +3921,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.192997</v>
+        <v>0.190368</v>
       </c>
       <c r="C50" t="n">
-        <v>0.239233</v>
+        <v>0.238435</v>
       </c>
       <c r="D50" t="n">
-        <v>0.242952</v>
+        <v>0.2412</v>
       </c>
     </row>
     <row r="51">
@@ -3935,13 +3935,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.189079</v>
+        <v>0.185665</v>
       </c>
       <c r="C51" t="n">
-        <v>0.235625</v>
+        <v>0.239217</v>
       </c>
       <c r="D51" t="n">
-        <v>0.261885</v>
+        <v>0.264874</v>
       </c>
     </row>
     <row r="52">
@@ -3949,13 +3949,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.178242</v>
+        <v>0.179124</v>
       </c>
       <c r="C52" t="n">
-        <v>0.237545</v>
+        <v>0.235521</v>
       </c>
       <c r="D52" t="n">
-        <v>0.260565</v>
+        <v>0.259763</v>
       </c>
     </row>
     <row r="53">
@@ -3963,13 +3963,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.242486</v>
+        <v>0.243203</v>
       </c>
       <c r="C53" t="n">
-        <v>0.257142</v>
+        <v>0.260247</v>
       </c>
       <c r="D53" t="n">
-        <v>0.257613</v>
+        <v>0.2562</v>
       </c>
     </row>
     <row r="54">
@@ -3977,13 +3977,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.238882</v>
+        <v>0.239211</v>
       </c>
       <c r="C54" t="n">
-        <v>0.258965</v>
+        <v>0.256595</v>
       </c>
       <c r="D54" t="n">
-        <v>0.26032</v>
+        <v>0.25955</v>
       </c>
     </row>
     <row r="55">
@@ -3991,13 +3991,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.234183</v>
+        <v>0.236299</v>
       </c>
       <c r="C55" t="n">
-        <v>0.253316</v>
+        <v>0.250999</v>
       </c>
       <c r="D55" t="n">
-        <v>0.254306</v>
+        <v>0.256716</v>
       </c>
     </row>
     <row r="56">
@@ -4005,13 +4005,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.231211</v>
+        <v>0.23032</v>
       </c>
       <c r="C56" t="n">
-        <v>0.252525</v>
+        <v>0.251243</v>
       </c>
       <c r="D56" t="n">
-        <v>0.254973</v>
+        <v>0.252876</v>
       </c>
     </row>
     <row r="57">
@@ -4019,13 +4019,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.22372</v>
+        <v>0.227505</v>
       </c>
       <c r="C57" t="n">
-        <v>0.249494</v>
+        <v>0.251741</v>
       </c>
       <c r="D57" t="n">
-        <v>0.2522</v>
+        <v>0.250806</v>
       </c>
     </row>
     <row r="58">
@@ -4033,13 +4033,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.22007</v>
+        <v>0.22378</v>
       </c>
       <c r="C58" t="n">
-        <v>0.250351</v>
+        <v>0.246496</v>
       </c>
       <c r="D58" t="n">
-        <v>0.247494</v>
+        <v>0.252378</v>
       </c>
     </row>
     <row r="59">
@@ -4047,13 +4047,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.218628</v>
+        <v>0.216832</v>
       </c>
       <c r="C59" t="n">
-        <v>0.245167</v>
+        <v>0.244926</v>
       </c>
       <c r="D59" t="n">
-        <v>0.251047</v>
+        <v>0.247208</v>
       </c>
     </row>
     <row r="60">
@@ -4061,13 +4061,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.214587</v>
+        <v>0.215236</v>
       </c>
       <c r="C60" t="n">
-        <v>0.242638</v>
+        <v>0.24455</v>
       </c>
       <c r="D60" t="n">
-        <v>0.246037</v>
+        <v>0.251143</v>
       </c>
     </row>
     <row r="61">
@@ -4075,13 +4075,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.20749</v>
+        <v>0.211896</v>
       </c>
       <c r="C61" t="n">
-        <v>0.241703</v>
+        <v>0.243867</v>
       </c>
       <c r="D61" t="n">
-        <v>0.248117</v>
+        <v>0.245053</v>
       </c>
     </row>
     <row r="62">
@@ -4089,13 +4089,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.206644</v>
+        <v>0.209243</v>
       </c>
       <c r="C62" t="n">
-        <v>0.24079</v>
+        <v>0.240971</v>
       </c>
       <c r="D62" t="n">
-        <v>0.249543</v>
+        <v>0.240941</v>
       </c>
     </row>
     <row r="63">
@@ -4103,13 +4103,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.203571</v>
+        <v>0.201231</v>
       </c>
       <c r="C63" t="n">
-        <v>0.240693</v>
+        <v>0.241631</v>
       </c>
       <c r="D63" t="n">
-        <v>0.245919</v>
+        <v>0.243053</v>
       </c>
     </row>
     <row r="64">
@@ -4117,13 +4117,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.196751</v>
+        <v>0.19806</v>
       </c>
       <c r="C64" t="n">
-        <v>0.239685</v>
+        <v>0.242585</v>
       </c>
       <c r="D64" t="n">
-        <v>0.239511</v>
+        <v>0.240256</v>
       </c>
     </row>
     <row r="65">
@@ -4131,13 +4131,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.192201</v>
+        <v>0.190822</v>
       </c>
       <c r="C65" t="n">
-        <v>0.237775</v>
+        <v>0.238539</v>
       </c>
       <c r="D65" t="n">
-        <v>0.241152</v>
+        <v>0.238877</v>
       </c>
     </row>
     <row r="66">
@@ -4145,13 +4145,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.186071</v>
+        <v>0.183487</v>
       </c>
       <c r="C66" t="n">
-        <v>0.240916</v>
+        <v>0.240539</v>
       </c>
       <c r="D66" t="n">
-        <v>0.271037</v>
+        <v>0.264394</v>
       </c>
     </row>
     <row r="67">
@@ -4159,13 +4159,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.258361</v>
+        <v>0.247369</v>
       </c>
       <c r="C67" t="n">
-        <v>0.264732</v>
+        <v>0.26476</v>
       </c>
       <c r="D67" t="n">
-        <v>0.263977</v>
+        <v>0.263684</v>
       </c>
     </row>
     <row r="68">
@@ -4173,13 +4173,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.250647</v>
+        <v>0.245774</v>
       </c>
       <c r="C68" t="n">
-        <v>0.262293</v>
+        <v>0.259921</v>
       </c>
       <c r="D68" t="n">
-        <v>0.260678</v>
+        <v>0.257387</v>
       </c>
     </row>
     <row r="69">
@@ -4187,13 +4187,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.245627</v>
+        <v>0.241464</v>
       </c>
       <c r="C69" t="n">
-        <v>0.257759</v>
+        <v>0.257433</v>
       </c>
       <c r="D69" t="n">
-        <v>0.2587</v>
+        <v>0.261144</v>
       </c>
     </row>
     <row r="70">
@@ -4201,13 +4201,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.238443</v>
+        <v>0.239682</v>
       </c>
       <c r="C70" t="n">
-        <v>0.25537</v>
+        <v>0.256226</v>
       </c>
       <c r="D70" t="n">
-        <v>0.256092</v>
+        <v>0.257915</v>
       </c>
     </row>
     <row r="71">
@@ -4215,13 +4215,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.236097</v>
+        <v>0.230245</v>
       </c>
       <c r="C71" t="n">
-        <v>0.256017</v>
+        <v>0.252989</v>
       </c>
       <c r="D71" t="n">
-        <v>0.258203</v>
+        <v>0.255446</v>
       </c>
     </row>
     <row r="72">
@@ -4229,13 +4229,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.227875</v>
+        <v>0.232344</v>
       </c>
       <c r="C72" t="n">
-        <v>0.253725</v>
+        <v>0.249681</v>
       </c>
       <c r="D72" t="n">
-        <v>0.257597</v>
+        <v>0.255443</v>
       </c>
     </row>
     <row r="73">
@@ -4243,13 +4243,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.225733</v>
+        <v>0.222607</v>
       </c>
       <c r="C73" t="n">
-        <v>0.251731</v>
+        <v>0.249127</v>
       </c>
       <c r="D73" t="n">
-        <v>0.252696</v>
+        <v>0.253162</v>
       </c>
     </row>
     <row r="74">
@@ -4257,13 +4257,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.221036</v>
+        <v>0.222219</v>
       </c>
       <c r="C74" t="n">
-        <v>0.248092</v>
+        <v>0.24973</v>
       </c>
       <c r="D74" t="n">
-        <v>0.250987</v>
+        <v>0.251595</v>
       </c>
     </row>
     <row r="75">
@@ -4271,13 +4271,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.21541</v>
+        <v>0.21654</v>
       </c>
       <c r="C75" t="n">
-        <v>0.247506</v>
+        <v>0.246551</v>
       </c>
       <c r="D75" t="n">
-        <v>0.250333</v>
+        <v>0.247302</v>
       </c>
     </row>
     <row r="76">
@@ -4285,13 +4285,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.215501</v>
+        <v>0.213233</v>
       </c>
       <c r="C76" t="n">
-        <v>0.247791</v>
+        <v>0.251136</v>
       </c>
       <c r="D76" t="n">
-        <v>0.249677</v>
+        <v>0.248346</v>
       </c>
     </row>
     <row r="77">
@@ -4299,13 +4299,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.210436</v>
+        <v>0.210372</v>
       </c>
       <c r="C77" t="n">
-        <v>0.249344</v>
+        <v>0.24653</v>
       </c>
       <c r="D77" t="n">
-        <v>0.244202</v>
+        <v>0.246048</v>
       </c>
     </row>
     <row r="78">
@@ -4313,13 +4313,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.207475</v>
+        <v>0.203256</v>
       </c>
       <c r="C78" t="n">
-        <v>0.244724</v>
+        <v>0.243789</v>
       </c>
       <c r="D78" t="n">
-        <v>0.245597</v>
+        <v>0.24573</v>
       </c>
     </row>
     <row r="79">
@@ -4327,13 +4327,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.198761</v>
+        <v>0.200756</v>
       </c>
       <c r="C79" t="n">
-        <v>0.242088</v>
+        <v>0.242342</v>
       </c>
       <c r="D79" t="n">
-        <v>0.247233</v>
+        <v>0.244234</v>
       </c>
     </row>
     <row r="80">
@@ -4341,13 +4341,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.190167</v>
+        <v>0.190648</v>
       </c>
       <c r="C80" t="n">
-        <v>0.241545</v>
+        <v>0.243987</v>
       </c>
       <c r="D80" t="n">
-        <v>0.273211</v>
+        <v>0.273616</v>
       </c>
     </row>
     <row r="81">
@@ -4355,13 +4355,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.259249</v>
+        <v>0.262832</v>
       </c>
       <c r="C81" t="n">
-        <v>0.267548</v>
+        <v>0.26909</v>
       </c>
       <c r="D81" t="n">
-        <v>0.270241</v>
+        <v>0.27108</v>
       </c>
     </row>
     <row r="82">
@@ -4369,13 +4369,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.256792</v>
+        <v>0.253356</v>
       </c>
       <c r="C82" t="n">
-        <v>0.26879</v>
+        <v>0.26657</v>
       </c>
       <c r="D82" t="n">
-        <v>0.268603</v>
+        <v>0.265696</v>
       </c>
     </row>
     <row r="83">
@@ -4383,13 +4383,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.252688</v>
+        <v>0.25116</v>
       </c>
       <c r="C83" t="n">
-        <v>0.2639</v>
+        <v>0.265241</v>
       </c>
       <c r="D83" t="n">
-        <v>0.264608</v>
+        <v>0.265902</v>
       </c>
     </row>
     <row r="84">
@@ -4397,13 +4397,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.244162</v>
+        <v>0.246658</v>
       </c>
       <c r="C84" t="n">
-        <v>0.264044</v>
+        <v>0.263486</v>
       </c>
       <c r="D84" t="n">
-        <v>0.262575</v>
+        <v>0.260944</v>
       </c>
     </row>
     <row r="85">
@@ -4411,13 +4411,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.238769</v>
+        <v>0.239379</v>
       </c>
       <c r="C85" t="n">
-        <v>0.260294</v>
+        <v>0.262502</v>
       </c>
       <c r="D85" t="n">
-        <v>0.259812</v>
+        <v>0.26681</v>
       </c>
     </row>
     <row r="86">
@@ -4425,13 +4425,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.234183</v>
+        <v>0.234688</v>
       </c>
       <c r="C86" t="n">
-        <v>0.257148</v>
+        <v>0.255698</v>
       </c>
       <c r="D86" t="n">
-        <v>0.257579</v>
+        <v>0.258557</v>
       </c>
     </row>
     <row r="87">
@@ -4439,13 +4439,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.229628</v>
+        <v>0.228995</v>
       </c>
       <c r="C87" t="n">
-        <v>0.255945</v>
+        <v>0.2572</v>
       </c>
       <c r="D87" t="n">
-        <v>0.258216</v>
+        <v>0.258713</v>
       </c>
     </row>
     <row r="88">
@@ -4453,13 +4453,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.227547</v>
+        <v>0.224155</v>
       </c>
       <c r="C88" t="n">
-        <v>0.2569</v>
+        <v>0.253048</v>
       </c>
       <c r="D88" t="n">
-        <v>0.253858</v>
+        <v>0.252752</v>
       </c>
     </row>
     <row r="89">
@@ -4467,13 +4467,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.218598</v>
+        <v>0.223111</v>
       </c>
       <c r="C89" t="n">
-        <v>0.255223</v>
+        <v>0.252831</v>
       </c>
       <c r="D89" t="n">
-        <v>0.253818</v>
+        <v>0.254358</v>
       </c>
     </row>
     <row r="90">
@@ -4481,13 +4481,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.217222</v>
+        <v>0.216319</v>
       </c>
       <c r="C90" t="n">
-        <v>0.250546</v>
+        <v>0.249981</v>
       </c>
       <c r="D90" t="n">
-        <v>0.250755</v>
+        <v>0.251329</v>
       </c>
     </row>
     <row r="91">
@@ -4495,13 +4495,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.20899</v>
+        <v>0.211701</v>
       </c>
       <c r="C91" t="n">
-        <v>0.249255</v>
+        <v>0.249463</v>
       </c>
       <c r="D91" t="n">
-        <v>0.252024</v>
+        <v>0.253069</v>
       </c>
     </row>
     <row r="92">
@@ -4509,13 +4509,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.206688</v>
+        <v>0.208267</v>
       </c>
       <c r="C92" t="n">
-        <v>0.24704</v>
+        <v>0.246554</v>
       </c>
       <c r="D92" t="n">
-        <v>0.247475</v>
+        <v>0.251349</v>
       </c>
     </row>
     <row r="93">
@@ -4523,13 +4523,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.199847</v>
+        <v>0.207712</v>
       </c>
       <c r="C93" t="n">
-        <v>0.243049</v>
+        <v>0.247289</v>
       </c>
       <c r="D93" t="n">
-        <v>0.245709</v>
+        <v>0.249956</v>
       </c>
     </row>
     <row r="94">
@@ -4537,13 +4537,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.193716</v>
+        <v>0.198536</v>
       </c>
       <c r="C94" t="n">
-        <v>0.243458</v>
+        <v>0.250069</v>
       </c>
       <c r="D94" t="n">
-        <v>0.274976</v>
+        <v>0.276998</v>
       </c>
     </row>
     <row r="95">
@@ -4551,13 +4551,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.259383</v>
+        <v>0.258868</v>
       </c>
       <c r="C95" t="n">
-        <v>0.276603</v>
+        <v>0.268882</v>
       </c>
       <c r="D95" t="n">
-        <v>0.270495</v>
+        <v>0.27232</v>
       </c>
     </row>
     <row r="96">
@@ -4565,13 +4565,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.256617</v>
+        <v>0.257055</v>
       </c>
       <c r="C96" t="n">
-        <v>0.269495</v>
+        <v>0.2677</v>
       </c>
       <c r="D96" t="n">
-        <v>0.268892</v>
+        <v>0.271126</v>
       </c>
     </row>
     <row r="97">
@@ -4579,13 +4579,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.251583</v>
+        <v>0.251462</v>
       </c>
       <c r="C97" t="n">
-        <v>0.26585</v>
+        <v>0.26544</v>
       </c>
       <c r="D97" t="n">
-        <v>0.266818</v>
+        <v>0.270634</v>
       </c>
     </row>
     <row r="98">
@@ -4593,13 +4593,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.246636</v>
+        <v>0.249015</v>
       </c>
       <c r="C98" t="n">
-        <v>0.265177</v>
+        <v>0.263372</v>
       </c>
       <c r="D98" t="n">
-        <v>0.266259</v>
+        <v>0.266767</v>
       </c>
     </row>
     <row r="99">
@@ -4607,13 +4607,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.242906</v>
+        <v>0.242216</v>
       </c>
       <c r="C99" t="n">
-        <v>0.260275</v>
+        <v>0.258198</v>
       </c>
       <c r="D99" t="n">
-        <v>0.26222</v>
+        <v>0.261889</v>
       </c>
     </row>
     <row r="100">
@@ -4621,13 +4621,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.2405</v>
+        <v>0.233479</v>
       </c>
       <c r="C100" t="n">
-        <v>0.257377</v>
+        <v>0.257846</v>
       </c>
       <c r="D100" t="n">
-        <v>0.266082</v>
+        <v>0.258618</v>
       </c>
     </row>
     <row r="101">
@@ -4635,13 +4635,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.229477</v>
+        <v>0.229188</v>
       </c>
       <c r="C101" t="n">
-        <v>0.25716</v>
+        <v>0.258114</v>
       </c>
       <c r="D101" t="n">
-        <v>0.261488</v>
+        <v>0.258575</v>
       </c>
     </row>
     <row r="102">
@@ -4649,13 +4649,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.225765</v>
+        <v>0.228089</v>
       </c>
       <c r="C102" t="n">
-        <v>0.254934</v>
+        <v>0.255727</v>
       </c>
       <c r="D102" t="n">
-        <v>0.254613</v>
+        <v>0.253329</v>
       </c>
     </row>
     <row r="103">
@@ -4663,13 +4663,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.22409</v>
+        <v>0.221697</v>
       </c>
       <c r="C103" t="n">
-        <v>0.254107</v>
+        <v>0.253822</v>
       </c>
       <c r="D103" t="n">
-        <v>0.253899</v>
+        <v>0.254665</v>
       </c>
     </row>
     <row r="104">
@@ -4677,13 +4677,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.221161</v>
+        <v>0.215623</v>
       </c>
       <c r="C104" t="n">
-        <v>0.254545</v>
+        <v>0.254636</v>
       </c>
       <c r="D104" t="n">
-        <v>0.256945</v>
+        <v>0.251529</v>
       </c>
     </row>
     <row r="105">
@@ -4691,13 +4691,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.214393</v>
+        <v>0.212842</v>
       </c>
       <c r="C105" t="n">
-        <v>0.252572</v>
+        <v>0.246208</v>
       </c>
       <c r="D105" t="n">
-        <v>0.250324</v>
+        <v>0.250876</v>
       </c>
     </row>
     <row r="106">
@@ -4705,13 +4705,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.207898</v>
+        <v>0.210432</v>
       </c>
       <c r="C106" t="n">
-        <v>0.247215</v>
+        <v>0.247339</v>
       </c>
       <c r="D106" t="n">
-        <v>0.247153</v>
+        <v>0.247954</v>
       </c>
     </row>
     <row r="107">
@@ -4719,13 +4719,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.203821</v>
+        <v>0.203694</v>
       </c>
       <c r="C107" t="n">
-        <v>0.248643</v>
+        <v>0.248093</v>
       </c>
       <c r="D107" t="n">
-        <v>0.246234</v>
+        <v>0.247517</v>
       </c>
     </row>
     <row r="108">
@@ -4733,13 +4733,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.196089</v>
+        <v>0.198741</v>
       </c>
       <c r="C108" t="n">
-        <v>0.245121</v>
+        <v>0.245011</v>
       </c>
       <c r="D108" t="n">
-        <v>0.277942</v>
+        <v>0.275594</v>
       </c>
     </row>
     <row r="109">
@@ -4747,13 +4747,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.18833</v>
+        <v>0.191257</v>
       </c>
       <c r="C109" t="n">
-        <v>0.243152</v>
+        <v>0.244417</v>
       </c>
       <c r="D109" t="n">
-        <v>0.274212</v>
+        <v>0.275147</v>
       </c>
     </row>
     <row r="110">
@@ -4761,13 +4761,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.257587</v>
+        <v>0.25915</v>
       </c>
       <c r="C110" t="n">
-        <v>0.273947</v>
+        <v>0.272984</v>
       </c>
       <c r="D110" t="n">
-        <v>0.272132</v>
+        <v>0.270443</v>
       </c>
     </row>
     <row r="111">
@@ -4775,13 +4775,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.253249</v>
+        <v>0.254776</v>
       </c>
       <c r="C111" t="n">
-        <v>0.266403</v>
+        <v>0.267034</v>
       </c>
       <c r="D111" t="n">
-        <v>0.265216</v>
+        <v>0.264728</v>
       </c>
     </row>
     <row r="112">
@@ -4789,13 +4789,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.247606</v>
+        <v>0.252849</v>
       </c>
       <c r="C112" t="n">
-        <v>0.269926</v>
+        <v>0.263116</v>
       </c>
       <c r="D112" t="n">
-        <v>0.265118</v>
+        <v>0.265447</v>
       </c>
     </row>
     <row r="113">
@@ -4803,13 +4803,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.244675</v>
+        <v>0.243881</v>
       </c>
       <c r="C113" t="n">
-        <v>0.262446</v>
+        <v>0.263321</v>
       </c>
       <c r="D113" t="n">
-        <v>0.265916</v>
+        <v>0.264476</v>
       </c>
     </row>
     <row r="114">
@@ -4817,13 +4817,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.242811</v>
+        <v>0.238766</v>
       </c>
       <c r="C114" t="n">
-        <v>0.258133</v>
+        <v>0.258789</v>
       </c>
       <c r="D114" t="n">
-        <v>0.259127</v>
+        <v>0.260914</v>
       </c>
     </row>
     <row r="115">
@@ -4831,13 +4831,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.234953</v>
+        <v>0.232755</v>
       </c>
       <c r="C115" t="n">
-        <v>0.259202</v>
+        <v>0.258513</v>
       </c>
       <c r="D115" t="n">
-        <v>0.258937</v>
+        <v>0.257799</v>
       </c>
     </row>
     <row r="116">
@@ -4845,13 +4845,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.228902</v>
+        <v>0.229612</v>
       </c>
       <c r="C116" t="n">
-        <v>0.256651</v>
+        <v>0.254857</v>
       </c>
       <c r="D116" t="n">
-        <v>0.257753</v>
+        <v>0.253359</v>
       </c>
     </row>
     <row r="117">
@@ -4859,13 +4859,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.223425</v>
+        <v>0.225064</v>
       </c>
       <c r="C117" t="n">
-        <v>0.256878</v>
+        <v>0.254899</v>
       </c>
       <c r="D117" t="n">
-        <v>0.250783</v>
+        <v>0.260094</v>
       </c>
     </row>
     <row r="118">
@@ -4873,13 +4873,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.220581</v>
+        <v>0.216567</v>
       </c>
       <c r="C118" t="n">
-        <v>0.254366</v>
+        <v>0.248324</v>
       </c>
       <c r="D118" t="n">
-        <v>0.253348</v>
+        <v>0.253907</v>
       </c>
     </row>
     <row r="119">
@@ -4887,13 +4887,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.218961</v>
+        <v>0.214383</v>
       </c>
       <c r="C119" t="n">
-        <v>0.250189</v>
+        <v>0.252439</v>
       </c>
       <c r="D119" t="n">
-        <v>0.249599</v>
+        <v>0.255612</v>
       </c>
     </row>
     <row r="120">
@@ -4901,13 +4901,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.211884</v>
+        <v>0.20765</v>
       </c>
       <c r="C120" t="n">
-        <v>0.248759</v>
+        <v>0.251516</v>
       </c>
       <c r="D120" t="n">
-        <v>0.252457</v>
+        <v>0.25315</v>
       </c>
     </row>
     <row r="121">
@@ -4915,13 +4915,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.206966</v>
+        <v>0.2041</v>
       </c>
       <c r="C121" t="n">
-        <v>0.249605</v>
+        <v>0.249046</v>
       </c>
       <c r="D121" t="n">
-        <v>0.247602</v>
+        <v>0.248043</v>
       </c>
     </row>
     <row r="122">
@@ -4929,13 +4929,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.197779</v>
+        <v>0.197804</v>
       </c>
       <c r="C122" t="n">
-        <v>0.243982</v>
+        <v>0.246224</v>
       </c>
       <c r="D122" t="n">
-        <v>0.2482</v>
+        <v>0.244378</v>
       </c>
     </row>
     <row r="123">
@@ -4943,13 +4943,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.19575</v>
+        <v>0.187857</v>
       </c>
       <c r="C123" t="n">
-        <v>0.250825</v>
+        <v>0.240535</v>
       </c>
       <c r="D123" t="n">
-        <v>0.278819</v>
+        <v>0.275223</v>
       </c>
     </row>
     <row r="124">
@@ -4957,13 +4957,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.268273</v>
+        <v>0.260816</v>
       </c>
       <c r="C124" t="n">
-        <v>0.269863</v>
+        <v>0.270421</v>
       </c>
       <c r="D124" t="n">
-        <v>0.27009</v>
+        <v>0.269413</v>
       </c>
     </row>
     <row r="125">
@@ -4971,13 +4971,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.253393</v>
+        <v>0.25138</v>
       </c>
       <c r="C125" t="n">
-        <v>0.269086</v>
+        <v>0.271658</v>
       </c>
       <c r="D125" t="n">
-        <v>0.2699</v>
+        <v>0.268518</v>
       </c>
     </row>
     <row r="126">
@@ -4985,13 +4985,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.248794</v>
+        <v>0.250381</v>
       </c>
       <c r="C126" t="n">
-        <v>0.265419</v>
+        <v>0.26396</v>
       </c>
       <c r="D126" t="n">
-        <v>0.265107</v>
+        <v>0.263609</v>
       </c>
     </row>
     <row r="127">
@@ -4999,13 +4999,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.241283</v>
+        <v>0.24323</v>
       </c>
       <c r="C127" t="n">
-        <v>0.264457</v>
+        <v>0.263587</v>
       </c>
       <c r="D127" t="n">
-        <v>0.267137</v>
+        <v>0.2641</v>
       </c>
     </row>
     <row r="128">
@@ -5013,13 +5013,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.235607</v>
+        <v>0.243057</v>
       </c>
       <c r="C128" t="n">
-        <v>0.262396</v>
+        <v>0.262022</v>
       </c>
       <c r="D128" t="n">
-        <v>0.262158</v>
+        <v>0.262495</v>
       </c>
     </row>
     <row r="129">
@@ -5027,13 +5027,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.232825</v>
+        <v>0.238471</v>
       </c>
       <c r="C129" t="n">
-        <v>0.264079</v>
+        <v>0.260176</v>
       </c>
       <c r="D129" t="n">
-        <v>0.255232</v>
+        <v>0.260741</v>
       </c>
     </row>
     <row r="130">
@@ -5041,13 +5041,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.231841</v>
+        <v>0.225324</v>
       </c>
       <c r="C130" t="n">
-        <v>0.256425</v>
+        <v>0.256712</v>
       </c>
       <c r="D130" t="n">
-        <v>0.257949</v>
+        <v>0.254551</v>
       </c>
     </row>
     <row r="131">
@@ -5055,13 +5055,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.224426</v>
+        <v>0.22191</v>
       </c>
       <c r="C131" t="n">
-        <v>0.257836</v>
+        <v>0.257053</v>
       </c>
       <c r="D131" t="n">
-        <v>0.25648</v>
+        <v>0.256448</v>
       </c>
     </row>
     <row r="132">
@@ -5069,13 +5069,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.222506</v>
+        <v>0.220671</v>
       </c>
       <c r="C132" t="n">
-        <v>0.253419</v>
+        <v>0.249308</v>
       </c>
       <c r="D132" t="n">
-        <v>0.251049</v>
+        <v>0.249727</v>
       </c>
     </row>
     <row r="133">
@@ -5083,13 +5083,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.215926</v>
+        <v>0.214978</v>
       </c>
       <c r="C133" t="n">
-        <v>0.249956</v>
+        <v>0.251811</v>
       </c>
       <c r="D133" t="n">
-        <v>0.257294</v>
+        <v>0.250742</v>
       </c>
     </row>
     <row r="134">
@@ -5097,13 +5097,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.208559</v>
+        <v>0.208551</v>
       </c>
       <c r="C134" t="n">
-        <v>0.252856</v>
+        <v>0.253117</v>
       </c>
       <c r="D134" t="n">
-        <v>0.251637</v>
+        <v>0.249343</v>
       </c>
     </row>
     <row r="135">
@@ -5111,13 +5111,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.207807</v>
+        <v>0.211431</v>
       </c>
       <c r="C135" t="n">
-        <v>0.249496</v>
+        <v>0.249381</v>
       </c>
       <c r="D135" t="n">
-        <v>0.252218</v>
+        <v>0.244814</v>
       </c>
     </row>
     <row r="136">
@@ -5125,13 +5125,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.198986</v>
+        <v>0.200078</v>
       </c>
       <c r="C136" t="n">
-        <v>0.250453</v>
+        <v>0.245835</v>
       </c>
       <c r="D136" t="n">
-        <v>0.252941</v>
+        <v>0.247889</v>
       </c>
     </row>
     <row r="137">
@@ -5139,13 +5139,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.193131</v>
+        <v>0.191112</v>
       </c>
       <c r="C137" t="n">
-        <v>0.246866</v>
+        <v>0.249231</v>
       </c>
       <c r="D137" t="n">
-        <v>0.274432</v>
+        <v>0.279795</v>
       </c>
     </row>
     <row r="138">
@@ -5153,13 +5153,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.258504</v>
+        <v>0.257787</v>
       </c>
       <c r="C138" t="n">
-        <v>0.271453</v>
+        <v>0.273821</v>
       </c>
       <c r="D138" t="n">
-        <v>0.274616</v>
+        <v>0.274373</v>
       </c>
     </row>
     <row r="139">
@@ -5167,13 +5167,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.254026</v>
+        <v>0.255184</v>
       </c>
       <c r="C139" t="n">
-        <v>0.266061</v>
+        <v>0.264503</v>
       </c>
       <c r="D139" t="n">
-        <v>0.271272</v>
+        <v>0.266576</v>
       </c>
     </row>
     <row r="140">
@@ -5181,13 +5181,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.248503</v>
+        <v>0.248272</v>
       </c>
       <c r="C140" t="n">
-        <v>0.266331</v>
+        <v>0.264116</v>
       </c>
       <c r="D140" t="n">
-        <v>0.260068</v>
+        <v>0.271828</v>
       </c>
     </row>
     <row r="141">
@@ -5195,13 +5195,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.242245</v>
+        <v>0.241909</v>
       </c>
       <c r="C141" t="n">
-        <v>0.271115</v>
+        <v>0.263696</v>
       </c>
       <c r="D141" t="n">
-        <v>0.266877</v>
+        <v>0.264334</v>
       </c>
     </row>
     <row r="142">
@@ -5209,13 +5209,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.242002</v>
+        <v>0.240052</v>
       </c>
       <c r="C142" t="n">
-        <v>0.264579</v>
+        <v>0.258366</v>
       </c>
       <c r="D142" t="n">
-        <v>0.261424</v>
+        <v>0.261697</v>
       </c>
     </row>
     <row r="143">
@@ -5223,13 +5223,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.231706</v>
+        <v>0.232925</v>
       </c>
       <c r="C143" t="n">
-        <v>0.255787</v>
+        <v>0.259532</v>
       </c>
       <c r="D143" t="n">
-        <v>0.255629</v>
+        <v>0.25543</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Running erasure.xlsx
+++ b/vs-x64/Running erasure.xlsx
@@ -3249,13 +3249,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.210335</v>
+        <v>0.207789</v>
       </c>
       <c r="C2" t="n">
-        <v>0.238639</v>
+        <v>0.236071</v>
       </c>
       <c r="D2" t="n">
-        <v>0.23859</v>
+        <v>0.2427</v>
       </c>
     </row>
     <row r="3">
@@ -3263,13 +3263,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.203949</v>
+        <v>0.209107</v>
       </c>
       <c r="C3" t="n">
-        <v>0.239813</v>
+        <v>0.238599</v>
       </c>
       <c r="D3" t="n">
-        <v>0.235119</v>
+        <v>0.242875</v>
       </c>
     </row>
     <row r="4">
@@ -3277,13 +3277,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.197261</v>
+        <v>0.201829</v>
       </c>
       <c r="C4" t="n">
-        <v>0.23174</v>
+        <v>0.237334</v>
       </c>
       <c r="D4" t="n">
-        <v>0.234615</v>
+        <v>0.238657</v>
       </c>
     </row>
     <row r="5">
@@ -3291,13 +3291,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.197548</v>
+        <v>0.198785</v>
       </c>
       <c r="C5" t="n">
-        <v>0.229174</v>
+        <v>0.231191</v>
       </c>
       <c r="D5" t="n">
-        <v>0.233179</v>
+        <v>0.237334</v>
       </c>
     </row>
     <row r="6">
@@ -3305,13 +3305,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.188265</v>
+        <v>0.198097</v>
       </c>
       <c r="C6" t="n">
-        <v>0.22789</v>
+        <v>0.231225</v>
       </c>
       <c r="D6" t="n">
-        <v>0.233105</v>
+        <v>0.236385</v>
       </c>
     </row>
     <row r="7">
@@ -3319,13 +3319,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.189117</v>
+        <v>0.187816</v>
       </c>
       <c r="C7" t="n">
-        <v>0.233259</v>
+        <v>0.228774</v>
       </c>
       <c r="D7" t="n">
-        <v>0.232986</v>
+        <v>0.232073</v>
       </c>
     </row>
     <row r="8">
@@ -3333,13 +3333,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.18787</v>
+        <v>0.183627</v>
       </c>
       <c r="C8" t="n">
-        <v>0.236279</v>
+        <v>0.226124</v>
       </c>
       <c r="D8" t="n">
-        <v>0.233927</v>
+        <v>0.236616</v>
       </c>
     </row>
     <row r="9">
@@ -3347,13 +3347,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.17665</v>
+        <v>0.178115</v>
       </c>
       <c r="C9" t="n">
-        <v>0.237064</v>
+        <v>0.227897</v>
       </c>
       <c r="D9" t="n">
-        <v>0.238361</v>
+        <v>0.24353</v>
       </c>
     </row>
     <row r="10">
@@ -3361,13 +3361,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.232603</v>
+        <v>0.227432</v>
       </c>
       <c r="C10" t="n">
-        <v>0.243158</v>
+        <v>0.23634</v>
       </c>
       <c r="D10" t="n">
-        <v>0.24905</v>
+        <v>0.243755</v>
       </c>
     </row>
     <row r="11">
@@ -3375,13 +3375,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.222506</v>
+        <v>0.224837</v>
       </c>
       <c r="C11" t="n">
-        <v>0.241686</v>
+        <v>0.239425</v>
       </c>
       <c r="D11" t="n">
-        <v>0.238763</v>
+        <v>0.245588</v>
       </c>
     </row>
     <row r="12">
@@ -3389,13 +3389,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.221147</v>
+        <v>0.224779</v>
       </c>
       <c r="C12" t="n">
-        <v>0.237453</v>
+        <v>0.237999</v>
       </c>
       <c r="D12" t="n">
-        <v>0.241522</v>
+        <v>0.241645</v>
       </c>
     </row>
     <row r="13">
@@ -3403,13 +3403,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.217517</v>
+        <v>0.219201</v>
       </c>
       <c r="C13" t="n">
-        <v>0.234273</v>
+        <v>0.236252</v>
       </c>
       <c r="D13" t="n">
-        <v>0.238255</v>
+        <v>0.238453</v>
       </c>
     </row>
     <row r="14">
@@ -3417,13 +3417,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.213138</v>
+        <v>0.21027</v>
       </c>
       <c r="C14" t="n">
-        <v>0.234082</v>
+        <v>0.232655</v>
       </c>
       <c r="D14" t="n">
-        <v>0.235024</v>
+        <v>0.241534</v>
       </c>
     </row>
     <row r="15">
@@ -3431,13 +3431,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.209438</v>
+        <v>0.212006</v>
       </c>
       <c r="C15" t="n">
-        <v>0.237615</v>
+        <v>0.234718</v>
       </c>
       <c r="D15" t="n">
-        <v>0.238753</v>
+        <v>0.238667</v>
       </c>
     </row>
     <row r="16">
@@ -3445,13 +3445,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.207804</v>
+        <v>0.206653</v>
       </c>
       <c r="C16" t="n">
-        <v>0.236853</v>
+        <v>0.237245</v>
       </c>
       <c r="D16" t="n">
-        <v>0.239672</v>
+        <v>0.238389</v>
       </c>
     </row>
     <row r="17">
@@ -3459,13 +3459,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.203459</v>
+        <v>0.207573</v>
       </c>
       <c r="C17" t="n">
-        <v>0.236816</v>
+        <v>0.235316</v>
       </c>
       <c r="D17" t="n">
-        <v>0.237926</v>
+        <v>0.243525</v>
       </c>
     </row>
     <row r="18">
@@ -3473,13 +3473,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.200957</v>
+        <v>0.202183</v>
       </c>
       <c r="C18" t="n">
-        <v>0.232071</v>
+        <v>0.234432</v>
       </c>
       <c r="D18" t="n">
-        <v>0.237531</v>
+        <v>0.234355</v>
       </c>
     </row>
     <row r="19">
@@ -3487,13 +3487,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.195996</v>
+        <v>0.202682</v>
       </c>
       <c r="C19" t="n">
-        <v>0.232049</v>
+        <v>0.230172</v>
       </c>
       <c r="D19" t="n">
-        <v>0.232112</v>
+        <v>0.235466</v>
       </c>
     </row>
     <row r="20">
@@ -3501,13 +3501,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.192816</v>
+        <v>0.196315</v>
       </c>
       <c r="C20" t="n">
-        <v>0.233059</v>
+        <v>0.233269</v>
       </c>
       <c r="D20" t="n">
-        <v>0.239647</v>
+        <v>0.238114</v>
       </c>
     </row>
     <row r="21">
@@ -3515,13 +3515,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.189161</v>
+        <v>0.190492</v>
       </c>
       <c r="C21" t="n">
-        <v>0.234732</v>
+        <v>0.232087</v>
       </c>
       <c r="D21" t="n">
-        <v>0.232091</v>
+        <v>0.240305</v>
       </c>
     </row>
     <row r="22">
@@ -3529,13 +3529,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.182539</v>
+        <v>0.185284</v>
       </c>
       <c r="C22" t="n">
-        <v>0.231833</v>
+        <v>0.228805</v>
       </c>
       <c r="D22" t="n">
-        <v>0.229005</v>
+        <v>0.235827</v>
       </c>
     </row>
     <row r="23">
@@ -3543,13 +3543,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.177702</v>
+        <v>0.183285</v>
       </c>
       <c r="C23" t="n">
-        <v>0.229607</v>
+        <v>0.22972</v>
       </c>
       <c r="D23" t="n">
-        <v>0.248611</v>
+        <v>0.251306</v>
       </c>
     </row>
     <row r="24">
@@ -3557,13 +3557,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.231916</v>
+        <v>0.234487</v>
       </c>
       <c r="C24" t="n">
-        <v>0.243531</v>
+        <v>0.24684</v>
       </c>
       <c r="D24" t="n">
-        <v>0.245424</v>
+        <v>0.247746</v>
       </c>
     </row>
     <row r="25">
@@ -3571,13 +3571,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.231185</v>
+        <v>0.236481</v>
       </c>
       <c r="C25" t="n">
-        <v>0.244205</v>
+        <v>0.243139</v>
       </c>
       <c r="D25" t="n">
-        <v>0.246255</v>
+        <v>0.244854</v>
       </c>
     </row>
     <row r="26">
@@ -3585,13 +3585,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.228669</v>
+        <v>0.231183</v>
       </c>
       <c r="C26" t="n">
-        <v>0.242614</v>
+        <v>0.240572</v>
       </c>
       <c r="D26" t="n">
-        <v>0.240814</v>
+        <v>0.242661</v>
       </c>
     </row>
     <row r="27">
@@ -3599,13 +3599,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.223169</v>
+        <v>0.223174</v>
       </c>
       <c r="C27" t="n">
-        <v>0.240262</v>
+        <v>0.240706</v>
       </c>
       <c r="D27" t="n">
-        <v>0.236453</v>
+        <v>0.242673</v>
       </c>
     </row>
     <row r="28">
@@ -3613,13 +3613,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.218648</v>
+        <v>0.221151</v>
       </c>
       <c r="C28" t="n">
-        <v>0.240981</v>
+        <v>0.241455</v>
       </c>
       <c r="D28" t="n">
-        <v>0.240252</v>
+        <v>0.243483</v>
       </c>
     </row>
     <row r="29">
@@ -3627,13 +3627,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.210273</v>
+        <v>0.219655</v>
       </c>
       <c r="C29" t="n">
-        <v>0.237312</v>
+        <v>0.235994</v>
       </c>
       <c r="D29" t="n">
-        <v>0.239342</v>
+        <v>0.240583</v>
       </c>
     </row>
     <row r="30">
@@ -3641,13 +3641,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.207832</v>
+        <v>0.211815</v>
       </c>
       <c r="C30" t="n">
-        <v>0.239191</v>
+        <v>0.23539</v>
       </c>
       <c r="D30" t="n">
-        <v>0.235388</v>
+        <v>0.241603</v>
       </c>
     </row>
     <row r="31">
@@ -3655,13 +3655,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.207063</v>
+        <v>0.211707</v>
       </c>
       <c r="C31" t="n">
-        <v>0.238079</v>
+        <v>0.236373</v>
       </c>
       <c r="D31" t="n">
-        <v>0.240552</v>
+        <v>0.240428</v>
       </c>
     </row>
     <row r="32">
@@ -3669,13 +3669,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.204383</v>
+        <v>0.208661</v>
       </c>
       <c r="C32" t="n">
-        <v>0.232773</v>
+        <v>0.232242</v>
       </c>
       <c r="D32" t="n">
-        <v>0.234246</v>
+        <v>0.236976</v>
       </c>
     </row>
     <row r="33">
@@ -3683,13 +3683,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.202031</v>
+        <v>0.201316</v>
       </c>
       <c r="C33" t="n">
-        <v>0.232291</v>
+        <v>0.235078</v>
       </c>
       <c r="D33" t="n">
-        <v>0.237242</v>
+        <v>0.240529</v>
       </c>
     </row>
     <row r="34">
@@ -3697,13 +3697,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.195931</v>
+        <v>0.199816</v>
       </c>
       <c r="C34" t="n">
-        <v>0.229815</v>
+        <v>0.232317</v>
       </c>
       <c r="D34" t="n">
-        <v>0.239201</v>
+        <v>0.240179</v>
       </c>
     </row>
     <row r="35">
@@ -3711,13 +3711,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.189408</v>
+        <v>0.19723</v>
       </c>
       <c r="C35" t="n">
-        <v>0.229985</v>
+        <v>0.231463</v>
       </c>
       <c r="D35" t="n">
-        <v>0.234222</v>
+        <v>0.23487</v>
       </c>
     </row>
     <row r="36">
@@ -3725,13 +3725,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.188795</v>
+        <v>0.192888</v>
       </c>
       <c r="C36" t="n">
-        <v>0.230866</v>
+        <v>0.231367</v>
       </c>
       <c r="D36" t="n">
-        <v>0.231969</v>
+        <v>0.234046</v>
       </c>
     </row>
     <row r="37">
@@ -3739,13 +3739,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.185221</v>
+        <v>0.186186</v>
       </c>
       <c r="C37" t="n">
-        <v>0.231786</v>
+        <v>0.227225</v>
       </c>
       <c r="D37" t="n">
-        <v>0.262504</v>
+        <v>0.266014</v>
       </c>
     </row>
     <row r="38">
@@ -3753,13 +3753,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.237281</v>
+        <v>0.240919</v>
       </c>
       <c r="C38" t="n">
-        <v>0.257916</v>
+        <v>0.255932</v>
       </c>
       <c r="D38" t="n">
-        <v>0.254596</v>
+        <v>0.263628</v>
       </c>
     </row>
     <row r="39">
@@ -3767,13 +3767,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.230386</v>
+        <v>0.242507</v>
       </c>
       <c r="C39" t="n">
-        <v>0.250019</v>
+        <v>0.252243</v>
       </c>
       <c r="D39" t="n">
-        <v>0.253703</v>
+        <v>0.260893</v>
       </c>
     </row>
     <row r="40">
@@ -3781,13 +3781,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.224411</v>
+        <v>0.232811</v>
       </c>
       <c r="C40" t="n">
-        <v>0.256391</v>
+        <v>0.251573</v>
       </c>
       <c r="D40" t="n">
-        <v>0.252917</v>
+        <v>0.258167</v>
       </c>
     </row>
     <row r="41">
@@ -3795,13 +3795,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.22585</v>
+        <v>0.227923</v>
       </c>
       <c r="C41" t="n">
-        <v>0.249975</v>
+        <v>0.248308</v>
       </c>
       <c r="D41" t="n">
-        <v>0.252677</v>
+        <v>0.252869</v>
       </c>
     </row>
     <row r="42">
@@ -3809,13 +3809,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.222889</v>
+        <v>0.226517</v>
       </c>
       <c r="C42" t="n">
-        <v>0.244286</v>
+        <v>0.249042</v>
       </c>
       <c r="D42" t="n">
-        <v>0.244458</v>
+        <v>0.252006</v>
       </c>
     </row>
     <row r="43">
@@ -3823,13 +3823,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.223131</v>
+        <v>0.220799</v>
       </c>
       <c r="C43" t="n">
-        <v>0.2501</v>
+        <v>0.246602</v>
       </c>
       <c r="D43" t="n">
-        <v>0.24969</v>
+        <v>0.250191</v>
       </c>
     </row>
     <row r="44">
@@ -3837,13 +3837,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.215222</v>
+        <v>0.217856</v>
       </c>
       <c r="C44" t="n">
-        <v>0.246885</v>
+        <v>0.24728</v>
       </c>
       <c r="D44" t="n">
-        <v>0.247856</v>
+        <v>0.24894</v>
       </c>
     </row>
     <row r="45">
@@ -3851,13 +3851,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.208249</v>
+        <v>0.213566</v>
       </c>
       <c r="C45" t="n">
-        <v>0.249582</v>
+        <v>0.241168</v>
       </c>
       <c r="D45" t="n">
-        <v>0.244391</v>
+        <v>0.250072</v>
       </c>
     </row>
     <row r="46">
@@ -3865,13 +3865,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.205545</v>
+        <v>0.211919</v>
       </c>
       <c r="C46" t="n">
-        <v>0.246449</v>
+        <v>0.243573</v>
       </c>
       <c r="D46" t="n">
-        <v>0.244143</v>
+        <v>0.248828</v>
       </c>
     </row>
     <row r="47">
@@ -3879,13 +3879,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.205269</v>
+        <v>0.205981</v>
       </c>
       <c r="C47" t="n">
-        <v>0.243221</v>
+        <v>0.238963</v>
       </c>
       <c r="D47" t="n">
-        <v>0.24387</v>
+        <v>0.246096</v>
       </c>
     </row>
     <row r="48">
@@ -3893,13 +3893,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.198859</v>
+        <v>0.202382</v>
       </c>
       <c r="C48" t="n">
-        <v>0.239434</v>
+        <v>0.238231</v>
       </c>
       <c r="D48" t="n">
-        <v>0.243786</v>
+        <v>0.244582</v>
       </c>
     </row>
     <row r="49">
@@ -3907,13 +3907,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.197644</v>
+        <v>0.198947</v>
       </c>
       <c r="C49" t="n">
-        <v>0.236841</v>
+        <v>0.238843</v>
       </c>
       <c r="D49" t="n">
-        <v>0.240767</v>
+        <v>0.245289</v>
       </c>
     </row>
     <row r="50">
@@ -3921,13 +3921,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.190368</v>
+        <v>0.195933</v>
       </c>
       <c r="C50" t="n">
-        <v>0.238435</v>
+        <v>0.237722</v>
       </c>
       <c r="D50" t="n">
-        <v>0.2412</v>
+        <v>0.239149</v>
       </c>
     </row>
     <row r="51">
@@ -3935,13 +3935,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.185665</v>
+        <v>0.188592</v>
       </c>
       <c r="C51" t="n">
-        <v>0.239217</v>
+        <v>0.234737</v>
       </c>
       <c r="D51" t="n">
-        <v>0.264874</v>
+        <v>0.267034</v>
       </c>
     </row>
     <row r="52">
@@ -3949,13 +3949,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.179124</v>
+        <v>0.181573</v>
       </c>
       <c r="C52" t="n">
-        <v>0.235521</v>
+        <v>0.236864</v>
       </c>
       <c r="D52" t="n">
-        <v>0.259763</v>
+        <v>0.259779</v>
       </c>
     </row>
     <row r="53">
@@ -3963,13 +3963,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.243203</v>
+        <v>0.245828</v>
       </c>
       <c r="C53" t="n">
-        <v>0.260247</v>
+        <v>0.257282</v>
       </c>
       <c r="D53" t="n">
-        <v>0.2562</v>
+        <v>0.258052</v>
       </c>
     </row>
     <row r="54">
@@ -3977,13 +3977,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.239211</v>
+        <v>0.242246</v>
       </c>
       <c r="C54" t="n">
-        <v>0.256595</v>
+        <v>0.256353</v>
       </c>
       <c r="D54" t="n">
-        <v>0.25955</v>
+        <v>0.258449</v>
       </c>
     </row>
     <row r="55">
@@ -3991,13 +3991,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.236299</v>
+        <v>0.23798</v>
       </c>
       <c r="C55" t="n">
-        <v>0.250999</v>
+        <v>0.251313</v>
       </c>
       <c r="D55" t="n">
-        <v>0.256716</v>
+        <v>0.258983</v>
       </c>
     </row>
     <row r="56">
@@ -4005,13 +4005,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.23032</v>
+        <v>0.230554</v>
       </c>
       <c r="C56" t="n">
-        <v>0.251243</v>
+        <v>0.249561</v>
       </c>
       <c r="D56" t="n">
-        <v>0.252876</v>
+        <v>0.255771</v>
       </c>
     </row>
     <row r="57">
@@ -4019,13 +4019,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.227505</v>
+        <v>0.229071</v>
       </c>
       <c r="C57" t="n">
-        <v>0.251741</v>
+        <v>0.248182</v>
       </c>
       <c r="D57" t="n">
-        <v>0.250806</v>
+        <v>0.252239</v>
       </c>
     </row>
     <row r="58">
@@ -4033,13 +4033,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.22378</v>
+        <v>0.221796</v>
       </c>
       <c r="C58" t="n">
-        <v>0.246496</v>
+        <v>0.24442</v>
       </c>
       <c r="D58" t="n">
-        <v>0.252378</v>
+        <v>0.254668</v>
       </c>
     </row>
     <row r="59">
@@ -4047,13 +4047,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.216832</v>
+        <v>0.21921</v>
       </c>
       <c r="C59" t="n">
-        <v>0.244926</v>
+        <v>0.24443</v>
       </c>
       <c r="D59" t="n">
-        <v>0.247208</v>
+        <v>0.253642</v>
       </c>
     </row>
     <row r="60">
@@ -4061,13 +4061,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.215236</v>
+        <v>0.215517</v>
       </c>
       <c r="C60" t="n">
-        <v>0.24455</v>
+        <v>0.24431</v>
       </c>
       <c r="D60" t="n">
-        <v>0.251143</v>
+        <v>0.248536</v>
       </c>
     </row>
     <row r="61">
@@ -4075,13 +4075,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.211896</v>
+        <v>0.210304</v>
       </c>
       <c r="C61" t="n">
-        <v>0.243867</v>
+        <v>0.240843</v>
       </c>
       <c r="D61" t="n">
-        <v>0.245053</v>
+        <v>0.248184</v>
       </c>
     </row>
     <row r="62">
@@ -4089,13 +4089,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.209243</v>
+        <v>0.209717</v>
       </c>
       <c r="C62" t="n">
-        <v>0.240971</v>
+        <v>0.242736</v>
       </c>
       <c r="D62" t="n">
-        <v>0.240941</v>
+        <v>0.242839</v>
       </c>
     </row>
     <row r="63">
@@ -4103,13 +4103,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.201231</v>
+        <v>0.207144</v>
       </c>
       <c r="C63" t="n">
-        <v>0.241631</v>
+        <v>0.239587</v>
       </c>
       <c r="D63" t="n">
-        <v>0.243053</v>
+        <v>0.248203</v>
       </c>
     </row>
     <row r="64">
@@ -4117,13 +4117,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.19806</v>
+        <v>0.202571</v>
       </c>
       <c r="C64" t="n">
-        <v>0.242585</v>
+        <v>0.238027</v>
       </c>
       <c r="D64" t="n">
-        <v>0.240256</v>
+        <v>0.244585</v>
       </c>
     </row>
     <row r="65">
@@ -4131,13 +4131,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.190822</v>
+        <v>0.194316</v>
       </c>
       <c r="C65" t="n">
-        <v>0.238539</v>
+        <v>0.235664</v>
       </c>
       <c r="D65" t="n">
-        <v>0.238877</v>
+        <v>0.242477</v>
       </c>
     </row>
     <row r="66">
@@ -4145,13 +4145,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.183487</v>
+        <v>0.189515</v>
       </c>
       <c r="C66" t="n">
-        <v>0.240539</v>
+        <v>0.236299</v>
       </c>
       <c r="D66" t="n">
-        <v>0.264394</v>
+        <v>0.268041</v>
       </c>
     </row>
     <row r="67">
@@ -4159,13 +4159,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.247369</v>
+        <v>0.25225</v>
       </c>
       <c r="C67" t="n">
-        <v>0.26476</v>
+        <v>0.261558</v>
       </c>
       <c r="D67" t="n">
-        <v>0.263684</v>
+        <v>0.264548</v>
       </c>
     </row>
     <row r="68">
@@ -4173,13 +4173,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.245774</v>
+        <v>0.24802</v>
       </c>
       <c r="C68" t="n">
-        <v>0.259921</v>
+        <v>0.260071</v>
       </c>
       <c r="D68" t="n">
-        <v>0.257387</v>
+        <v>0.263656</v>
       </c>
     </row>
     <row r="69">
@@ -4187,13 +4187,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.241464</v>
+        <v>0.242668</v>
       </c>
       <c r="C69" t="n">
-        <v>0.257433</v>
+        <v>0.255418</v>
       </c>
       <c r="D69" t="n">
-        <v>0.261144</v>
+        <v>0.261119</v>
       </c>
     </row>
     <row r="70">
@@ -4201,13 +4201,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.239682</v>
+        <v>0.241201</v>
       </c>
       <c r="C70" t="n">
-        <v>0.256226</v>
+        <v>0.252582</v>
       </c>
       <c r="D70" t="n">
-        <v>0.257915</v>
+        <v>0.257416</v>
       </c>
     </row>
     <row r="71">
@@ -4215,13 +4215,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.230245</v>
+        <v>0.239021</v>
       </c>
       <c r="C71" t="n">
-        <v>0.252989</v>
+        <v>0.252246</v>
       </c>
       <c r="D71" t="n">
-        <v>0.255446</v>
+        <v>0.254133</v>
       </c>
     </row>
     <row r="72">
@@ -4229,13 +4229,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.232344</v>
+        <v>0.231206</v>
       </c>
       <c r="C72" t="n">
-        <v>0.249681</v>
+        <v>0.247925</v>
       </c>
       <c r="D72" t="n">
-        <v>0.255443</v>
+        <v>0.255411</v>
       </c>
     </row>
     <row r="73">
@@ -4243,13 +4243,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.222607</v>
+        <v>0.226129</v>
       </c>
       <c r="C73" t="n">
-        <v>0.249127</v>
+        <v>0.248775</v>
       </c>
       <c r="D73" t="n">
-        <v>0.253162</v>
+        <v>0.254828</v>
       </c>
     </row>
     <row r="74">
@@ -4257,13 +4257,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.222219</v>
+        <v>0.220551</v>
       </c>
       <c r="C74" t="n">
-        <v>0.24973</v>
+        <v>0.248037</v>
       </c>
       <c r="D74" t="n">
-        <v>0.251595</v>
+        <v>0.254554</v>
       </c>
     </row>
     <row r="75">
@@ -4271,13 +4271,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.21654</v>
+        <v>0.217859</v>
       </c>
       <c r="C75" t="n">
-        <v>0.246551</v>
+        <v>0.242895</v>
       </c>
       <c r="D75" t="n">
-        <v>0.247302</v>
+        <v>0.247124</v>
       </c>
     </row>
     <row r="76">
@@ -4285,13 +4285,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.213233</v>
+        <v>0.214461</v>
       </c>
       <c r="C76" t="n">
-        <v>0.251136</v>
+        <v>0.246448</v>
       </c>
       <c r="D76" t="n">
-        <v>0.248346</v>
+        <v>0.249312</v>
       </c>
     </row>
     <row r="77">
@@ -4299,13 +4299,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.210372</v>
+        <v>0.211888</v>
       </c>
       <c r="C77" t="n">
-        <v>0.24653</v>
+        <v>0.243594</v>
       </c>
       <c r="D77" t="n">
-        <v>0.246048</v>
+        <v>0.249882</v>
       </c>
     </row>
     <row r="78">
@@ -4313,13 +4313,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.203256</v>
+        <v>0.210087</v>
       </c>
       <c r="C78" t="n">
-        <v>0.243789</v>
+        <v>0.23907</v>
       </c>
       <c r="D78" t="n">
-        <v>0.24573</v>
+        <v>0.246858</v>
       </c>
     </row>
     <row r="79">
@@ -4327,13 +4327,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.200756</v>
+        <v>0.202482</v>
       </c>
       <c r="C79" t="n">
-        <v>0.242342</v>
+        <v>0.239036</v>
       </c>
       <c r="D79" t="n">
-        <v>0.244234</v>
+        <v>0.245509</v>
       </c>
     </row>
     <row r="80">
@@ -4341,13 +4341,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.190648</v>
+        <v>0.197044</v>
       </c>
       <c r="C80" t="n">
-        <v>0.243987</v>
+        <v>0.24412</v>
       </c>
       <c r="D80" t="n">
-        <v>0.273616</v>
+        <v>0.27587</v>
       </c>
     </row>
     <row r="81">
@@ -4355,13 +4355,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.262832</v>
+        <v>0.259423</v>
       </c>
       <c r="C81" t="n">
-        <v>0.26909</v>
+        <v>0.26892</v>
       </c>
       <c r="D81" t="n">
-        <v>0.27108</v>
+        <v>0.271163</v>
       </c>
     </row>
     <row r="82">
@@ -4369,13 +4369,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.253356</v>
+        <v>0.255562</v>
       </c>
       <c r="C82" t="n">
-        <v>0.26657</v>
+        <v>0.267237</v>
       </c>
       <c r="D82" t="n">
-        <v>0.265696</v>
+        <v>0.269892</v>
       </c>
     </row>
     <row r="83">
@@ -4383,13 +4383,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.25116</v>
+        <v>0.25185</v>
       </c>
       <c r="C83" t="n">
-        <v>0.265241</v>
+        <v>0.263659</v>
       </c>
       <c r="D83" t="n">
-        <v>0.265902</v>
+        <v>0.267034</v>
       </c>
     </row>
     <row r="84">
@@ -4397,13 +4397,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.246658</v>
+        <v>0.247236</v>
       </c>
       <c r="C84" t="n">
-        <v>0.263486</v>
+        <v>0.257049</v>
       </c>
       <c r="D84" t="n">
-        <v>0.260944</v>
+        <v>0.264324</v>
       </c>
     </row>
     <row r="85">
@@ -4411,13 +4411,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.239379</v>
+        <v>0.240359</v>
       </c>
       <c r="C85" t="n">
-        <v>0.262502</v>
+        <v>0.258616</v>
       </c>
       <c r="D85" t="n">
-        <v>0.26681</v>
+        <v>0.262948</v>
       </c>
     </row>
     <row r="86">
@@ -4425,13 +4425,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.234688</v>
+        <v>0.23435</v>
       </c>
       <c r="C86" t="n">
-        <v>0.255698</v>
+        <v>0.256157</v>
       </c>
       <c r="D86" t="n">
-        <v>0.258557</v>
+        <v>0.261538</v>
       </c>
     </row>
     <row r="87">
@@ -4439,13 +4439,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.228995</v>
+        <v>0.230282</v>
       </c>
       <c r="C87" t="n">
-        <v>0.2572</v>
+        <v>0.253894</v>
       </c>
       <c r="D87" t="n">
-        <v>0.258713</v>
+        <v>0.259543</v>
       </c>
     </row>
     <row r="88">
@@ -4453,13 +4453,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.224155</v>
+        <v>0.227876</v>
       </c>
       <c r="C88" t="n">
-        <v>0.253048</v>
+        <v>0.249248</v>
       </c>
       <c r="D88" t="n">
-        <v>0.252752</v>
+        <v>0.258675</v>
       </c>
     </row>
     <row r="89">
@@ -4467,13 +4467,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.223111</v>
+        <v>0.222342</v>
       </c>
       <c r="C89" t="n">
-        <v>0.252831</v>
+        <v>0.247577</v>
       </c>
       <c r="D89" t="n">
-        <v>0.254358</v>
+        <v>0.254685</v>
       </c>
     </row>
     <row r="90">
@@ -4481,13 +4481,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.216319</v>
+        <v>0.218228</v>
       </c>
       <c r="C90" t="n">
-        <v>0.249981</v>
+        <v>0.246214</v>
       </c>
       <c r="D90" t="n">
-        <v>0.251329</v>
+        <v>0.253232</v>
       </c>
     </row>
     <row r="91">
@@ -4495,13 +4495,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.211701</v>
+        <v>0.211681</v>
       </c>
       <c r="C91" t="n">
-        <v>0.249463</v>
+        <v>0.246858</v>
       </c>
       <c r="D91" t="n">
-        <v>0.253069</v>
+        <v>0.250278</v>
       </c>
     </row>
     <row r="92">
@@ -4509,13 +4509,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.208267</v>
+        <v>0.211332</v>
       </c>
       <c r="C92" t="n">
-        <v>0.246554</v>
+        <v>0.242881</v>
       </c>
       <c r="D92" t="n">
-        <v>0.251349</v>
+        <v>0.25138</v>
       </c>
     </row>
     <row r="93">
@@ -4523,13 +4523,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.207712</v>
+        <v>0.204343</v>
       </c>
       <c r="C93" t="n">
-        <v>0.247289</v>
+        <v>0.241629</v>
       </c>
       <c r="D93" t="n">
-        <v>0.249956</v>
+        <v>0.246567</v>
       </c>
     </row>
     <row r="94">
@@ -4537,13 +4537,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.198536</v>
+        <v>0.198125</v>
       </c>
       <c r="C94" t="n">
-        <v>0.250069</v>
+        <v>0.242056</v>
       </c>
       <c r="D94" t="n">
-        <v>0.276998</v>
+        <v>0.271757</v>
       </c>
     </row>
     <row r="95">
@@ -4551,13 +4551,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.258868</v>
+        <v>0.261864</v>
       </c>
       <c r="C95" t="n">
-        <v>0.268882</v>
+        <v>0.270255</v>
       </c>
       <c r="D95" t="n">
-        <v>0.27232</v>
+        <v>0.274493</v>
       </c>
     </row>
     <row r="96">
@@ -4565,13 +4565,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.257055</v>
+        <v>0.257165</v>
       </c>
       <c r="C96" t="n">
-        <v>0.2677</v>
+        <v>0.267658</v>
       </c>
       <c r="D96" t="n">
-        <v>0.271126</v>
+        <v>0.27299</v>
       </c>
     </row>
     <row r="97">
@@ -4579,13 +4579,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.251462</v>
+        <v>0.252287</v>
       </c>
       <c r="C97" t="n">
-        <v>0.26544</v>
+        <v>0.265308</v>
       </c>
       <c r="D97" t="n">
-        <v>0.270634</v>
+        <v>0.266809</v>
       </c>
     </row>
     <row r="98">
@@ -4593,13 +4593,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.249015</v>
+        <v>0.249218</v>
       </c>
       <c r="C98" t="n">
-        <v>0.263372</v>
+        <v>0.263564</v>
       </c>
       <c r="D98" t="n">
-        <v>0.266767</v>
+        <v>0.2644</v>
       </c>
     </row>
     <row r="99">
@@ -4607,13 +4607,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.242216</v>
+        <v>0.244738</v>
       </c>
       <c r="C99" t="n">
-        <v>0.258198</v>
+        <v>0.258514</v>
       </c>
       <c r="D99" t="n">
-        <v>0.261889</v>
+        <v>0.262106</v>
       </c>
     </row>
     <row r="100">
@@ -4621,13 +4621,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.233479</v>
+        <v>0.237738</v>
       </c>
       <c r="C100" t="n">
-        <v>0.257846</v>
+        <v>0.259801</v>
       </c>
       <c r="D100" t="n">
-        <v>0.258618</v>
+        <v>0.258958</v>
       </c>
     </row>
     <row r="101">
@@ -4635,13 +4635,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.229188</v>
+        <v>0.231692</v>
       </c>
       <c r="C101" t="n">
-        <v>0.258114</v>
+        <v>0.253276</v>
       </c>
       <c r="D101" t="n">
-        <v>0.258575</v>
+        <v>0.257798</v>
       </c>
     </row>
     <row r="102">
@@ -4649,13 +4649,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.228089</v>
+        <v>0.227452</v>
       </c>
       <c r="C102" t="n">
-        <v>0.255727</v>
+        <v>0.254451</v>
       </c>
       <c r="D102" t="n">
-        <v>0.253329</v>
+        <v>0.25793</v>
       </c>
     </row>
     <row r="103">
@@ -4663,13 +4663,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.221697</v>
+        <v>0.222666</v>
       </c>
       <c r="C103" t="n">
-        <v>0.253822</v>
+        <v>0.249257</v>
       </c>
       <c r="D103" t="n">
-        <v>0.254665</v>
+        <v>0.254449</v>
       </c>
     </row>
     <row r="104">
@@ -4677,13 +4677,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.215623</v>
+        <v>0.218081</v>
       </c>
       <c r="C104" t="n">
-        <v>0.254636</v>
+        <v>0.250551</v>
       </c>
       <c r="D104" t="n">
-        <v>0.251529</v>
+        <v>0.255279</v>
       </c>
     </row>
     <row r="105">
@@ -4691,13 +4691,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.212842</v>
+        <v>0.212593</v>
       </c>
       <c r="C105" t="n">
-        <v>0.246208</v>
+        <v>0.247775</v>
       </c>
       <c r="D105" t="n">
-        <v>0.250876</v>
+        <v>0.250356</v>
       </c>
     </row>
     <row r="106">
@@ -4705,13 +4705,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.210432</v>
+        <v>0.213165</v>
       </c>
       <c r="C106" t="n">
-        <v>0.247339</v>
+        <v>0.246164</v>
       </c>
       <c r="D106" t="n">
-        <v>0.247954</v>
+        <v>0.252619</v>
       </c>
     </row>
     <row r="107">
@@ -4719,13 +4719,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.203694</v>
+        <v>0.208137</v>
       </c>
       <c r="C107" t="n">
-        <v>0.248093</v>
+        <v>0.242581</v>
       </c>
       <c r="D107" t="n">
-        <v>0.247517</v>
+        <v>0.251758</v>
       </c>
     </row>
     <row r="108">
@@ -4733,13 +4733,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.198741</v>
+        <v>0.200115</v>
       </c>
       <c r="C108" t="n">
-        <v>0.245011</v>
+        <v>0.243306</v>
       </c>
       <c r="D108" t="n">
-        <v>0.275594</v>
+        <v>0.276651</v>
       </c>
     </row>
     <row r="109">
@@ -4747,13 +4747,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.191257</v>
+        <v>0.193192</v>
       </c>
       <c r="C109" t="n">
-        <v>0.244417</v>
+        <v>0.245047</v>
       </c>
       <c r="D109" t="n">
-        <v>0.275147</v>
+        <v>0.273208</v>
       </c>
     </row>
     <row r="110">
@@ -4761,13 +4761,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.25915</v>
+        <v>0.259021</v>
       </c>
       <c r="C110" t="n">
-        <v>0.272984</v>
+        <v>0.270325</v>
       </c>
       <c r="D110" t="n">
-        <v>0.270443</v>
+        <v>0.271136</v>
       </c>
     </row>
     <row r="111">
@@ -4775,13 +4775,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.254776</v>
+        <v>0.256332</v>
       </c>
       <c r="C111" t="n">
-        <v>0.267034</v>
+        <v>0.263892</v>
       </c>
       <c r="D111" t="n">
-        <v>0.264728</v>
+        <v>0.273983</v>
       </c>
     </row>
     <row r="112">
@@ -4789,13 +4789,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.252849</v>
+        <v>0.24759</v>
       </c>
       <c r="C112" t="n">
-        <v>0.263116</v>
+        <v>0.265666</v>
       </c>
       <c r="D112" t="n">
-        <v>0.265447</v>
+        <v>0.270392</v>
       </c>
     </row>
     <row r="113">
@@ -4803,13 +4803,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.243881</v>
+        <v>0.245089</v>
       </c>
       <c r="C113" t="n">
-        <v>0.263321</v>
+        <v>0.259304</v>
       </c>
       <c r="D113" t="n">
-        <v>0.264476</v>
+        <v>0.266874</v>
       </c>
     </row>
     <row r="114">
@@ -4817,13 +4817,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.238766</v>
+        <v>0.238535</v>
       </c>
       <c r="C114" t="n">
-        <v>0.258789</v>
+        <v>0.260792</v>
       </c>
       <c r="D114" t="n">
-        <v>0.260914</v>
+        <v>0.263385</v>
       </c>
     </row>
     <row r="115">
@@ -4831,13 +4831,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.232755</v>
+        <v>0.235282</v>
       </c>
       <c r="C115" t="n">
-        <v>0.258513</v>
+        <v>0.2565</v>
       </c>
       <c r="D115" t="n">
-        <v>0.257799</v>
+        <v>0.260077</v>
       </c>
     </row>
     <row r="116">
@@ -4845,13 +4845,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.229612</v>
+        <v>0.231113</v>
       </c>
       <c r="C116" t="n">
-        <v>0.254857</v>
+        <v>0.254667</v>
       </c>
       <c r="D116" t="n">
-        <v>0.253359</v>
+        <v>0.25563</v>
       </c>
     </row>
     <row r="117">
@@ -4859,13 +4859,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.225064</v>
+        <v>0.224358</v>
       </c>
       <c r="C117" t="n">
-        <v>0.254899</v>
+        <v>0.250889</v>
       </c>
       <c r="D117" t="n">
-        <v>0.260094</v>
+        <v>0.2568</v>
       </c>
     </row>
     <row r="118">
@@ -4873,13 +4873,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.216567</v>
+        <v>0.220727</v>
       </c>
       <c r="C118" t="n">
-        <v>0.248324</v>
+        <v>0.250409</v>
       </c>
       <c r="D118" t="n">
-        <v>0.253907</v>
+        <v>0.25367</v>
       </c>
     </row>
     <row r="119">
@@ -4887,13 +4887,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.214383</v>
+        <v>0.213943</v>
       </c>
       <c r="C119" t="n">
-        <v>0.252439</v>
+        <v>0.246643</v>
       </c>
       <c r="D119" t="n">
-        <v>0.255612</v>
+        <v>0.254724</v>
       </c>
     </row>
     <row r="120">
@@ -4901,13 +4901,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.20765</v>
+        <v>0.214529</v>
       </c>
       <c r="C120" t="n">
-        <v>0.251516</v>
+        <v>0.245985</v>
       </c>
       <c r="D120" t="n">
-        <v>0.25315</v>
+        <v>0.248585</v>
       </c>
     </row>
     <row r="121">
@@ -4915,13 +4915,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.2041</v>
+        <v>0.206481</v>
       </c>
       <c r="C121" t="n">
-        <v>0.249046</v>
+        <v>0.247933</v>
       </c>
       <c r="D121" t="n">
-        <v>0.248043</v>
+        <v>0.249037</v>
       </c>
     </row>
     <row r="122">
@@ -4929,13 +4929,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.197804</v>
+        <v>0.201527</v>
       </c>
       <c r="C122" t="n">
-        <v>0.246224</v>
+        <v>0.245999</v>
       </c>
       <c r="D122" t="n">
-        <v>0.244378</v>
+        <v>0.246511</v>
       </c>
     </row>
     <row r="123">
@@ -4943,13 +4943,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.187857</v>
+        <v>0.192682</v>
       </c>
       <c r="C123" t="n">
-        <v>0.240535</v>
+        <v>0.24907</v>
       </c>
       <c r="D123" t="n">
-        <v>0.275223</v>
+        <v>0.27552</v>
       </c>
     </row>
     <row r="124">
@@ -4957,13 +4957,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.260816</v>
+        <v>0.258908</v>
       </c>
       <c r="C124" t="n">
-        <v>0.270421</v>
+        <v>0.273974</v>
       </c>
       <c r="D124" t="n">
-        <v>0.269413</v>
+        <v>0.273493</v>
       </c>
     </row>
     <row r="125">
@@ -4971,13 +4971,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.25138</v>
+        <v>0.256759</v>
       </c>
       <c r="C125" t="n">
-        <v>0.271658</v>
+        <v>0.263667</v>
       </c>
       <c r="D125" t="n">
-        <v>0.268518</v>
+        <v>0.270614</v>
       </c>
     </row>
     <row r="126">
@@ -4985,13 +4985,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.250381</v>
+        <v>0.248247</v>
       </c>
       <c r="C126" t="n">
-        <v>0.26396</v>
+        <v>0.264897</v>
       </c>
       <c r="D126" t="n">
-        <v>0.263609</v>
+        <v>0.267921</v>
       </c>
     </row>
     <row r="127">
@@ -4999,13 +4999,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.24323</v>
+        <v>0.243152</v>
       </c>
       <c r="C127" t="n">
-        <v>0.263587</v>
+        <v>0.258737</v>
       </c>
       <c r="D127" t="n">
-        <v>0.2641</v>
+        <v>0.266187</v>
       </c>
     </row>
     <row r="128">
@@ -5013,13 +5013,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.243057</v>
+        <v>0.238299</v>
       </c>
       <c r="C128" t="n">
-        <v>0.262022</v>
+        <v>0.257274</v>
       </c>
       <c r="D128" t="n">
-        <v>0.262495</v>
+        <v>0.262538</v>
       </c>
     </row>
     <row r="129">
@@ -5027,13 +5027,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.238471</v>
+        <v>0.235532</v>
       </c>
       <c r="C129" t="n">
-        <v>0.260176</v>
+        <v>0.256515</v>
       </c>
       <c r="D129" t="n">
-        <v>0.260741</v>
+        <v>0.259573</v>
       </c>
     </row>
     <row r="130">
@@ -5041,13 +5041,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.225324</v>
+        <v>0.231657</v>
       </c>
       <c r="C130" t="n">
-        <v>0.256712</v>
+        <v>0.254848</v>
       </c>
       <c r="D130" t="n">
-        <v>0.254551</v>
+        <v>0.255331</v>
       </c>
     </row>
     <row r="131">
@@ -5055,13 +5055,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.22191</v>
+        <v>0.224216</v>
       </c>
       <c r="C131" t="n">
-        <v>0.257053</v>
+        <v>0.254357</v>
       </c>
       <c r="D131" t="n">
-        <v>0.256448</v>
+        <v>0.256254</v>
       </c>
     </row>
     <row r="132">
@@ -5069,13 +5069,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.220671</v>
+        <v>0.222148</v>
       </c>
       <c r="C132" t="n">
-        <v>0.249308</v>
+        <v>0.249622</v>
       </c>
       <c r="D132" t="n">
-        <v>0.249727</v>
+        <v>0.25668</v>
       </c>
     </row>
     <row r="133">
@@ -5083,13 +5083,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.214978</v>
+        <v>0.221442</v>
       </c>
       <c r="C133" t="n">
-        <v>0.251811</v>
+        <v>0.251026</v>
       </c>
       <c r="D133" t="n">
-        <v>0.250742</v>
+        <v>0.251378</v>
       </c>
     </row>
     <row r="134">
@@ -5097,13 +5097,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.208551</v>
+        <v>0.211822</v>
       </c>
       <c r="C134" t="n">
-        <v>0.253117</v>
+        <v>0.244365</v>
       </c>
       <c r="D134" t="n">
-        <v>0.249343</v>
+        <v>0.247869</v>
       </c>
     </row>
     <row r="135">
@@ -5111,13 +5111,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.211431</v>
+        <v>0.208027</v>
       </c>
       <c r="C135" t="n">
-        <v>0.249381</v>
+        <v>0.247445</v>
       </c>
       <c r="D135" t="n">
-        <v>0.244814</v>
+        <v>0.247896</v>
       </c>
     </row>
     <row r="136">
@@ -5125,13 +5125,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.200078</v>
+        <v>0.202971</v>
       </c>
       <c r="C136" t="n">
-        <v>0.245835</v>
+        <v>0.245413</v>
       </c>
       <c r="D136" t="n">
-        <v>0.247889</v>
+        <v>0.245477</v>
       </c>
     </row>
     <row r="137">
@@ -5139,13 +5139,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.191112</v>
+        <v>0.199642</v>
       </c>
       <c r="C137" t="n">
-        <v>0.249231</v>
+        <v>0.240951</v>
       </c>
       <c r="D137" t="n">
-        <v>0.279795</v>
+        <v>0.280557</v>
       </c>
     </row>
     <row r="138">
@@ -5153,13 +5153,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.257787</v>
+        <v>0.25884</v>
       </c>
       <c r="C138" t="n">
-        <v>0.273821</v>
+        <v>0.268665</v>
       </c>
       <c r="D138" t="n">
-        <v>0.274373</v>
+        <v>0.277895</v>
       </c>
     </row>
     <row r="139">
@@ -5167,13 +5167,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.255184</v>
+        <v>0.259725</v>
       </c>
       <c r="C139" t="n">
-        <v>0.264503</v>
+        <v>0.267872</v>
       </c>
       <c r="D139" t="n">
-        <v>0.266576</v>
+        <v>0.267592</v>
       </c>
     </row>
     <row r="140">
@@ -5181,13 +5181,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.248272</v>
+        <v>0.254402</v>
       </c>
       <c r="C140" t="n">
-        <v>0.264116</v>
+        <v>0.265566</v>
       </c>
       <c r="D140" t="n">
-        <v>0.271828</v>
+        <v>0.268559</v>
       </c>
     </row>
     <row r="141">
@@ -5195,13 +5195,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.241909</v>
+        <v>0.248139</v>
       </c>
       <c r="C141" t="n">
-        <v>0.263696</v>
+        <v>0.261598</v>
       </c>
       <c r="D141" t="n">
-        <v>0.264334</v>
+        <v>0.270586</v>
       </c>
     </row>
     <row r="142">
@@ -5209,13 +5209,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.240052</v>
+        <v>0.23978</v>
       </c>
       <c r="C142" t="n">
-        <v>0.258366</v>
+        <v>0.262515</v>
       </c>
       <c r="D142" t="n">
-        <v>0.261697</v>
+        <v>0.264278</v>
       </c>
     </row>
     <row r="143">
@@ -5223,13 +5223,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.232925</v>
+        <v>0.238856</v>
       </c>
       <c r="C143" t="n">
-        <v>0.259532</v>
+        <v>0.25728</v>
       </c>
       <c r="D143" t="n">
-        <v>0.25543</v>
+        <v>0.261958</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Running erasure.xlsx
+++ b/vs-x64/Running erasure.xlsx
@@ -3249,13 +3249,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.207789</v>
+        <v>0.200704</v>
       </c>
       <c r="C2" t="n">
-        <v>0.236071</v>
+        <v>0.235104</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2427</v>
+        <v>0.237094</v>
       </c>
     </row>
     <row r="3">
@@ -3263,13 +3263,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.209107</v>
+        <v>0.201869</v>
       </c>
       <c r="C3" t="n">
-        <v>0.238599</v>
+        <v>0.233257</v>
       </c>
       <c r="D3" t="n">
-        <v>0.242875</v>
+        <v>0.230813</v>
       </c>
     </row>
     <row r="4">
@@ -3277,13 +3277,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.201829</v>
+        <v>0.189572</v>
       </c>
       <c r="C4" t="n">
-        <v>0.237334</v>
+        <v>0.235623</v>
       </c>
       <c r="D4" t="n">
-        <v>0.238657</v>
+        <v>0.23482</v>
       </c>
     </row>
     <row r="5">
@@ -3291,13 +3291,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.198785</v>
+        <v>0.191521</v>
       </c>
       <c r="C5" t="n">
-        <v>0.231191</v>
+        <v>0.230548</v>
       </c>
       <c r="D5" t="n">
-        <v>0.237334</v>
+        <v>0.229004</v>
       </c>
     </row>
     <row r="6">
@@ -3305,13 +3305,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.198097</v>
+        <v>0.192384</v>
       </c>
       <c r="C6" t="n">
-        <v>0.231225</v>
+        <v>0.225817</v>
       </c>
       <c r="D6" t="n">
-        <v>0.236385</v>
+        <v>0.228067</v>
       </c>
     </row>
     <row r="7">
@@ -3319,13 +3319,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.187816</v>
+        <v>0.187947</v>
       </c>
       <c r="C7" t="n">
-        <v>0.228774</v>
+        <v>0.232493</v>
       </c>
       <c r="D7" t="n">
-        <v>0.232073</v>
+        <v>0.229648</v>
       </c>
     </row>
     <row r="8">
@@ -3333,13 +3333,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.183627</v>
+        <v>0.182666</v>
       </c>
       <c r="C8" t="n">
-        <v>0.226124</v>
+        <v>0.227346</v>
       </c>
       <c r="D8" t="n">
-        <v>0.236616</v>
+        <v>0.233662</v>
       </c>
     </row>
     <row r="9">
@@ -3347,13 +3347,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.178115</v>
+        <v>0.171972</v>
       </c>
       <c r="C9" t="n">
-        <v>0.227897</v>
+        <v>0.227875</v>
       </c>
       <c r="D9" t="n">
-        <v>0.24353</v>
+        <v>0.243863</v>
       </c>
     </row>
     <row r="10">
@@ -3361,13 +3361,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.227432</v>
+        <v>0.223811</v>
       </c>
       <c r="C10" t="n">
-        <v>0.23634</v>
+        <v>0.236847</v>
       </c>
       <c r="D10" t="n">
-        <v>0.243755</v>
+        <v>0.239667</v>
       </c>
     </row>
     <row r="11">
@@ -3375,13 +3375,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.224837</v>
+        <v>0.222128</v>
       </c>
       <c r="C11" t="n">
-        <v>0.239425</v>
+        <v>0.238406</v>
       </c>
       <c r="D11" t="n">
-        <v>0.245588</v>
+        <v>0.247586</v>
       </c>
     </row>
     <row r="12">
@@ -3389,13 +3389,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.224779</v>
+        <v>0.223983</v>
       </c>
       <c r="C12" t="n">
-        <v>0.237999</v>
+        <v>0.241308</v>
       </c>
       <c r="D12" t="n">
-        <v>0.241645</v>
+        <v>0.240145</v>
       </c>
     </row>
     <row r="13">
@@ -3403,13 +3403,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.219201</v>
+        <v>0.220217</v>
       </c>
       <c r="C13" t="n">
-        <v>0.236252</v>
+        <v>0.239461</v>
       </c>
       <c r="D13" t="n">
-        <v>0.238453</v>
+        <v>0.238844</v>
       </c>
     </row>
     <row r="14">
@@ -3417,13 +3417,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.21027</v>
+        <v>0.216856</v>
       </c>
       <c r="C14" t="n">
-        <v>0.232655</v>
+        <v>0.240236</v>
       </c>
       <c r="D14" t="n">
-        <v>0.241534</v>
+        <v>0.234536</v>
       </c>
     </row>
     <row r="15">
@@ -3431,13 +3431,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.212006</v>
+        <v>0.214805</v>
       </c>
       <c r="C15" t="n">
-        <v>0.234718</v>
+        <v>0.240603</v>
       </c>
       <c r="D15" t="n">
-        <v>0.238667</v>
+        <v>0.236409</v>
       </c>
     </row>
     <row r="16">
@@ -3445,13 +3445,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.206653</v>
+        <v>0.206479</v>
       </c>
       <c r="C16" t="n">
-        <v>0.237245</v>
+        <v>0.239069</v>
       </c>
       <c r="D16" t="n">
-        <v>0.238389</v>
+        <v>0.254066</v>
       </c>
     </row>
     <row r="17">
@@ -3459,13 +3459,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.207573</v>
+        <v>0.200513</v>
       </c>
       <c r="C17" t="n">
-        <v>0.235316</v>
+        <v>0.234472</v>
       </c>
       <c r="D17" t="n">
-        <v>0.243525</v>
+        <v>0.233782</v>
       </c>
     </row>
     <row r="18">
@@ -3473,13 +3473,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.202183</v>
+        <v>0.200001</v>
       </c>
       <c r="C18" t="n">
-        <v>0.234432</v>
+        <v>0.239243</v>
       </c>
       <c r="D18" t="n">
-        <v>0.234355</v>
+        <v>0.235702</v>
       </c>
     </row>
     <row r="19">
@@ -3487,13 +3487,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.202682</v>
+        <v>0.195012</v>
       </c>
       <c r="C19" t="n">
-        <v>0.230172</v>
+        <v>0.230412</v>
       </c>
       <c r="D19" t="n">
-        <v>0.235466</v>
+        <v>0.24016</v>
       </c>
     </row>
     <row r="20">
@@ -3501,13 +3501,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.196315</v>
+        <v>0.198524</v>
       </c>
       <c r="C20" t="n">
-        <v>0.233269</v>
+        <v>0.233745</v>
       </c>
       <c r="D20" t="n">
-        <v>0.238114</v>
+        <v>0.240375</v>
       </c>
     </row>
     <row r="21">
@@ -3515,13 +3515,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.190492</v>
+        <v>0.193618</v>
       </c>
       <c r="C21" t="n">
-        <v>0.232087</v>
+        <v>0.235743</v>
       </c>
       <c r="D21" t="n">
-        <v>0.240305</v>
+        <v>0.229648</v>
       </c>
     </row>
     <row r="22">
@@ -3529,13 +3529,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.185284</v>
+        <v>0.188433</v>
       </c>
       <c r="C22" t="n">
-        <v>0.228805</v>
+        <v>0.231549</v>
       </c>
       <c r="D22" t="n">
-        <v>0.235827</v>
+        <v>0.236636</v>
       </c>
     </row>
     <row r="23">
@@ -3543,13 +3543,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.183285</v>
+        <v>0.180575</v>
       </c>
       <c r="C23" t="n">
-        <v>0.22972</v>
+        <v>0.231521</v>
       </c>
       <c r="D23" t="n">
-        <v>0.251306</v>
+        <v>0.246074</v>
       </c>
     </row>
     <row r="24">
@@ -3557,13 +3557,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.234487</v>
+        <v>0.236138</v>
       </c>
       <c r="C24" t="n">
-        <v>0.24684</v>
+        <v>0.245208</v>
       </c>
       <c r="D24" t="n">
-        <v>0.247746</v>
+        <v>0.246902</v>
       </c>
     </row>
     <row r="25">
@@ -3571,13 +3571,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.236481</v>
+        <v>0.228526</v>
       </c>
       <c r="C25" t="n">
-        <v>0.243139</v>
+        <v>0.243728</v>
       </c>
       <c r="D25" t="n">
-        <v>0.244854</v>
+        <v>0.246571</v>
       </c>
     </row>
     <row r="26">
@@ -3585,13 +3585,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.231183</v>
+        <v>0.226494</v>
       </c>
       <c r="C26" t="n">
-        <v>0.240572</v>
+        <v>0.244701</v>
       </c>
       <c r="D26" t="n">
-        <v>0.242661</v>
+        <v>0.246648</v>
       </c>
     </row>
     <row r="27">
@@ -3599,13 +3599,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.223174</v>
+        <v>0.224018</v>
       </c>
       <c r="C27" t="n">
-        <v>0.240706</v>
+        <v>0.244007</v>
       </c>
       <c r="D27" t="n">
-        <v>0.242673</v>
+        <v>0.247821</v>
       </c>
     </row>
     <row r="28">
@@ -3613,13 +3613,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.221151</v>
+        <v>0.218567</v>
       </c>
       <c r="C28" t="n">
-        <v>0.241455</v>
+        <v>0.237913</v>
       </c>
       <c r="D28" t="n">
-        <v>0.243483</v>
+        <v>0.243117</v>
       </c>
     </row>
     <row r="29">
@@ -3627,13 +3627,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.219655</v>
+        <v>0.215669</v>
       </c>
       <c r="C29" t="n">
-        <v>0.235994</v>
+        <v>0.240145</v>
       </c>
       <c r="D29" t="n">
-        <v>0.240583</v>
+        <v>0.238266</v>
       </c>
     </row>
     <row r="30">
@@ -3641,13 +3641,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.211815</v>
+        <v>0.209986</v>
       </c>
       <c r="C30" t="n">
-        <v>0.23539</v>
+        <v>0.241938</v>
       </c>
       <c r="D30" t="n">
-        <v>0.241603</v>
+        <v>0.24569</v>
       </c>
     </row>
     <row r="31">
@@ -3655,13 +3655,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.211707</v>
+        <v>0.208155</v>
       </c>
       <c r="C31" t="n">
-        <v>0.236373</v>
+        <v>0.238124</v>
       </c>
       <c r="D31" t="n">
-        <v>0.240428</v>
+        <v>0.235664</v>
       </c>
     </row>
     <row r="32">
@@ -3669,13 +3669,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.208661</v>
+        <v>0.202793</v>
       </c>
       <c r="C32" t="n">
-        <v>0.232242</v>
+        <v>0.236952</v>
       </c>
       <c r="D32" t="n">
-        <v>0.236976</v>
+        <v>0.239477</v>
       </c>
     </row>
     <row r="33">
@@ -3683,13 +3683,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.201316</v>
+        <v>0.200124</v>
       </c>
       <c r="C33" t="n">
-        <v>0.235078</v>
+        <v>0.236231</v>
       </c>
       <c r="D33" t="n">
-        <v>0.240529</v>
+        <v>0.244578</v>
       </c>
     </row>
     <row r="34">
@@ -3697,13 +3697,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.199816</v>
+        <v>0.199192</v>
       </c>
       <c r="C34" t="n">
-        <v>0.232317</v>
+        <v>0.235792</v>
       </c>
       <c r="D34" t="n">
-        <v>0.240179</v>
+        <v>0.247423</v>
       </c>
     </row>
     <row r="35">
@@ -3711,13 +3711,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.19723</v>
+        <v>0.195042</v>
       </c>
       <c r="C35" t="n">
-        <v>0.231463</v>
+        <v>0.232425</v>
       </c>
       <c r="D35" t="n">
-        <v>0.23487</v>
+        <v>0.238718</v>
       </c>
     </row>
     <row r="36">
@@ -3725,13 +3725,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.192888</v>
+        <v>0.19319</v>
       </c>
       <c r="C36" t="n">
-        <v>0.231367</v>
+        <v>0.233614</v>
       </c>
       <c r="D36" t="n">
-        <v>0.234046</v>
+        <v>0.234683</v>
       </c>
     </row>
     <row r="37">
@@ -3739,13 +3739,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.186186</v>
+        <v>0.18475</v>
       </c>
       <c r="C37" t="n">
-        <v>0.227225</v>
+        <v>0.232643</v>
       </c>
       <c r="D37" t="n">
-        <v>0.266014</v>
+        <v>0.264398</v>
       </c>
     </row>
     <row r="38">
@@ -3753,13 +3753,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.240919</v>
+        <v>0.240824</v>
       </c>
       <c r="C38" t="n">
-        <v>0.255932</v>
+        <v>0.260056</v>
       </c>
       <c r="D38" t="n">
-        <v>0.263628</v>
+        <v>0.260669</v>
       </c>
     </row>
     <row r="39">
@@ -3767,13 +3767,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.242507</v>
+        <v>0.239471</v>
       </c>
       <c r="C39" t="n">
-        <v>0.252243</v>
+        <v>0.254949</v>
       </c>
       <c r="D39" t="n">
-        <v>0.260893</v>
+        <v>0.255918</v>
       </c>
     </row>
     <row r="40">
@@ -3781,13 +3781,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.232811</v>
+        <v>0.234036</v>
       </c>
       <c r="C40" t="n">
-        <v>0.251573</v>
+        <v>0.25475</v>
       </c>
       <c r="D40" t="n">
-        <v>0.258167</v>
+        <v>0.253057</v>
       </c>
     </row>
     <row r="41">
@@ -3795,13 +3795,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.227923</v>
+        <v>0.229372</v>
       </c>
       <c r="C41" t="n">
-        <v>0.248308</v>
+        <v>0.260251</v>
       </c>
       <c r="D41" t="n">
-        <v>0.252869</v>
+        <v>0.251102</v>
       </c>
     </row>
     <row r="42">
@@ -3809,13 +3809,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.226517</v>
+        <v>0.225341</v>
       </c>
       <c r="C42" t="n">
-        <v>0.249042</v>
+        <v>0.24662</v>
       </c>
       <c r="D42" t="n">
-        <v>0.252006</v>
+        <v>0.252906</v>
       </c>
     </row>
     <row r="43">
@@ -3823,13 +3823,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.220799</v>
+        <v>0.221477</v>
       </c>
       <c r="C43" t="n">
-        <v>0.246602</v>
+        <v>0.247042</v>
       </c>
       <c r="D43" t="n">
-        <v>0.250191</v>
+        <v>0.250655</v>
       </c>
     </row>
     <row r="44">
@@ -3837,13 +3837,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.217856</v>
+        <v>0.214019</v>
       </c>
       <c r="C44" t="n">
-        <v>0.24728</v>
+        <v>0.250019</v>
       </c>
       <c r="D44" t="n">
-        <v>0.24894</v>
+        <v>0.251301</v>
       </c>
     </row>
     <row r="45">
@@ -3851,13 +3851,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.213566</v>
+        <v>0.210606</v>
       </c>
       <c r="C45" t="n">
-        <v>0.241168</v>
+        <v>0.24432</v>
       </c>
       <c r="D45" t="n">
-        <v>0.250072</v>
+        <v>0.246294</v>
       </c>
     </row>
     <row r="46">
@@ -3865,13 +3865,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.211919</v>
+        <v>0.206525</v>
       </c>
       <c r="C46" t="n">
-        <v>0.243573</v>
+        <v>0.244863</v>
       </c>
       <c r="D46" t="n">
-        <v>0.248828</v>
+        <v>0.245247</v>
       </c>
     </row>
     <row r="47">
@@ -3879,13 +3879,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.205981</v>
+        <v>0.204491</v>
       </c>
       <c r="C47" t="n">
-        <v>0.238963</v>
+        <v>0.23955</v>
       </c>
       <c r="D47" t="n">
-        <v>0.246096</v>
+        <v>0.249282</v>
       </c>
     </row>
     <row r="48">
@@ -3893,13 +3893,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.202382</v>
+        <v>0.203274</v>
       </c>
       <c r="C48" t="n">
-        <v>0.238231</v>
+        <v>0.243021</v>
       </c>
       <c r="D48" t="n">
-        <v>0.244582</v>
+        <v>0.239655</v>
       </c>
     </row>
     <row r="49">
@@ -3907,13 +3907,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.198947</v>
+        <v>0.197465</v>
       </c>
       <c r="C49" t="n">
-        <v>0.238843</v>
+        <v>0.239205</v>
       </c>
       <c r="D49" t="n">
-        <v>0.245289</v>
+        <v>0.239797</v>
       </c>
     </row>
     <row r="50">
@@ -3921,13 +3921,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.195933</v>
+        <v>0.195079</v>
       </c>
       <c r="C50" t="n">
-        <v>0.237722</v>
+        <v>0.239327</v>
       </c>
       <c r="D50" t="n">
-        <v>0.239149</v>
+        <v>0.241409</v>
       </c>
     </row>
     <row r="51">
@@ -3935,13 +3935,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.188592</v>
+        <v>0.187583</v>
       </c>
       <c r="C51" t="n">
-        <v>0.234737</v>
+        <v>0.237909</v>
       </c>
       <c r="D51" t="n">
-        <v>0.267034</v>
+        <v>0.266053</v>
       </c>
     </row>
     <row r="52">
@@ -3949,13 +3949,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.181573</v>
+        <v>0.180507</v>
       </c>
       <c r="C52" t="n">
-        <v>0.236864</v>
+        <v>0.237864</v>
       </c>
       <c r="D52" t="n">
-        <v>0.259779</v>
+        <v>0.261221</v>
       </c>
     </row>
     <row r="53">
@@ -3963,13 +3963,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.245828</v>
+        <v>0.240379</v>
       </c>
       <c r="C53" t="n">
-        <v>0.257282</v>
+        <v>0.255782</v>
       </c>
       <c r="D53" t="n">
-        <v>0.258052</v>
+        <v>0.258993</v>
       </c>
     </row>
     <row r="54">
@@ -3977,13 +3977,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.242246</v>
+        <v>0.23981</v>
       </c>
       <c r="C54" t="n">
-        <v>0.256353</v>
+        <v>0.254404</v>
       </c>
       <c r="D54" t="n">
-        <v>0.258449</v>
+        <v>0.256695</v>
       </c>
     </row>
     <row r="55">
@@ -3991,13 +3991,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.23798</v>
+        <v>0.234959</v>
       </c>
       <c r="C55" t="n">
-        <v>0.251313</v>
+        <v>0.256168</v>
       </c>
       <c r="D55" t="n">
-        <v>0.258983</v>
+        <v>0.253924</v>
       </c>
     </row>
     <row r="56">
@@ -4005,13 +4005,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.230554</v>
+        <v>0.228034</v>
       </c>
       <c r="C56" t="n">
-        <v>0.249561</v>
+        <v>0.251322</v>
       </c>
       <c r="D56" t="n">
-        <v>0.255771</v>
+        <v>0.253612</v>
       </c>
     </row>
     <row r="57">
@@ -4019,13 +4019,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.229071</v>
+        <v>0.226305</v>
       </c>
       <c r="C57" t="n">
-        <v>0.248182</v>
+        <v>0.249881</v>
       </c>
       <c r="D57" t="n">
-        <v>0.252239</v>
+        <v>0.249113</v>
       </c>
     </row>
     <row r="58">
@@ -4033,13 +4033,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.221796</v>
+        <v>0.22218</v>
       </c>
       <c r="C58" t="n">
-        <v>0.24442</v>
+        <v>0.251092</v>
       </c>
       <c r="D58" t="n">
-        <v>0.254668</v>
+        <v>0.251047</v>
       </c>
     </row>
     <row r="59">
@@ -4047,13 +4047,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.21921</v>
+        <v>0.218505</v>
       </c>
       <c r="C59" t="n">
-        <v>0.24443</v>
+        <v>0.24917</v>
       </c>
       <c r="D59" t="n">
-        <v>0.253642</v>
+        <v>0.249604</v>
       </c>
     </row>
     <row r="60">
@@ -4061,13 +4061,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.215517</v>
+        <v>0.212159</v>
       </c>
       <c r="C60" t="n">
-        <v>0.24431</v>
+        <v>0.250063</v>
       </c>
       <c r="D60" t="n">
-        <v>0.248536</v>
+        <v>0.245356</v>
       </c>
     </row>
     <row r="61">
@@ -4075,13 +4075,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.210304</v>
+        <v>0.21047</v>
       </c>
       <c r="C61" t="n">
-        <v>0.240843</v>
+        <v>0.242785</v>
       </c>
       <c r="D61" t="n">
-        <v>0.248184</v>
+        <v>0.245454</v>
       </c>
     </row>
     <row r="62">
@@ -4089,13 +4089,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.209717</v>
+        <v>0.208637</v>
       </c>
       <c r="C62" t="n">
-        <v>0.242736</v>
+        <v>0.24373</v>
       </c>
       <c r="D62" t="n">
-        <v>0.242839</v>
+        <v>0.243368</v>
       </c>
     </row>
     <row r="63">
@@ -4103,13 +4103,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.207144</v>
+        <v>0.204563</v>
       </c>
       <c r="C63" t="n">
-        <v>0.239587</v>
+        <v>0.239205</v>
       </c>
       <c r="D63" t="n">
-        <v>0.248203</v>
+        <v>0.243196</v>
       </c>
     </row>
     <row r="64">
@@ -4117,13 +4117,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.202571</v>
+        <v>0.198588</v>
       </c>
       <c r="C64" t="n">
-        <v>0.238027</v>
+        <v>0.238103</v>
       </c>
       <c r="D64" t="n">
-        <v>0.244585</v>
+        <v>0.239019</v>
       </c>
     </row>
     <row r="65">
@@ -4131,13 +4131,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.194316</v>
+        <v>0.194236</v>
       </c>
       <c r="C65" t="n">
-        <v>0.235664</v>
+        <v>0.239989</v>
       </c>
       <c r="D65" t="n">
-        <v>0.242477</v>
+        <v>0.239531</v>
       </c>
     </row>
     <row r="66">
@@ -4145,13 +4145,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.189515</v>
+        <v>0.185903</v>
       </c>
       <c r="C66" t="n">
-        <v>0.236299</v>
+        <v>0.23649</v>
       </c>
       <c r="D66" t="n">
-        <v>0.268041</v>
+        <v>0.265333</v>
       </c>
     </row>
     <row r="67">
@@ -4159,13 +4159,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.25225</v>
+        <v>0.257842</v>
       </c>
       <c r="C67" t="n">
-        <v>0.261558</v>
+        <v>0.263428</v>
       </c>
       <c r="D67" t="n">
-        <v>0.264548</v>
+        <v>0.261741</v>
       </c>
     </row>
     <row r="68">
@@ -4173,13 +4173,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.24802</v>
+        <v>0.248659</v>
       </c>
       <c r="C68" t="n">
-        <v>0.260071</v>
+        <v>0.2594</v>
       </c>
       <c r="D68" t="n">
-        <v>0.263656</v>
+        <v>0.260166</v>
       </c>
     </row>
     <row r="69">
@@ -4187,13 +4187,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.242668</v>
+        <v>0.242458</v>
       </c>
       <c r="C69" t="n">
-        <v>0.255418</v>
+        <v>0.254551</v>
       </c>
       <c r="D69" t="n">
-        <v>0.261119</v>
+        <v>0.254617</v>
       </c>
     </row>
     <row r="70">
@@ -4201,13 +4201,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.241201</v>
+        <v>0.242944</v>
       </c>
       <c r="C70" t="n">
-        <v>0.252582</v>
+        <v>0.256056</v>
       </c>
       <c r="D70" t="n">
-        <v>0.257416</v>
+        <v>0.256568</v>
       </c>
     </row>
     <row r="71">
@@ -4215,13 +4215,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.239021</v>
+        <v>0.234992</v>
       </c>
       <c r="C71" t="n">
-        <v>0.252246</v>
+        <v>0.25666</v>
       </c>
       <c r="D71" t="n">
-        <v>0.254133</v>
+        <v>0.257018</v>
       </c>
     </row>
     <row r="72">
@@ -4229,13 +4229,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.231206</v>
+        <v>0.226851</v>
       </c>
       <c r="C72" t="n">
-        <v>0.247925</v>
+        <v>0.251959</v>
       </c>
       <c r="D72" t="n">
-        <v>0.255411</v>
+        <v>0.247854</v>
       </c>
     </row>
     <row r="73">
@@ -4243,13 +4243,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.226129</v>
+        <v>0.226743</v>
       </c>
       <c r="C73" t="n">
-        <v>0.248775</v>
+        <v>0.250404</v>
       </c>
       <c r="D73" t="n">
-        <v>0.254828</v>
+        <v>0.250698</v>
       </c>
     </row>
     <row r="74">
@@ -4257,13 +4257,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.220551</v>
+        <v>0.223032</v>
       </c>
       <c r="C74" t="n">
-        <v>0.248037</v>
+        <v>0.247732</v>
       </c>
       <c r="D74" t="n">
-        <v>0.254554</v>
+        <v>0.254748</v>
       </c>
     </row>
     <row r="75">
@@ -4271,13 +4271,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.217859</v>
+        <v>0.223823</v>
       </c>
       <c r="C75" t="n">
-        <v>0.242895</v>
+        <v>0.247799</v>
       </c>
       <c r="D75" t="n">
-        <v>0.247124</v>
+        <v>0.247614</v>
       </c>
     </row>
     <row r="76">
@@ -4285,13 +4285,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.214461</v>
+        <v>0.216056</v>
       </c>
       <c r="C76" t="n">
-        <v>0.246448</v>
+        <v>0.245205</v>
       </c>
       <c r="D76" t="n">
-        <v>0.249312</v>
+        <v>0.245168</v>
       </c>
     </row>
     <row r="77">
@@ -4299,13 +4299,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.211888</v>
+        <v>0.209154</v>
       </c>
       <c r="C77" t="n">
-        <v>0.243594</v>
+        <v>0.248085</v>
       </c>
       <c r="D77" t="n">
-        <v>0.249882</v>
+        <v>0.246561</v>
       </c>
     </row>
     <row r="78">
@@ -4313,13 +4313,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.210087</v>
+        <v>0.204915</v>
       </c>
       <c r="C78" t="n">
-        <v>0.23907</v>
+        <v>0.244276</v>
       </c>
       <c r="D78" t="n">
-        <v>0.246858</v>
+        <v>0.244782</v>
       </c>
     </row>
     <row r="79">
@@ -4327,13 +4327,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.202482</v>
+        <v>0.200509</v>
       </c>
       <c r="C79" t="n">
-        <v>0.239036</v>
+        <v>0.243187</v>
       </c>
       <c r="D79" t="n">
-        <v>0.245509</v>
+        <v>0.243818</v>
       </c>
     </row>
     <row r="80">
@@ -4341,13 +4341,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.197044</v>
+        <v>0.193753</v>
       </c>
       <c r="C80" t="n">
-        <v>0.24412</v>
+        <v>0.239075</v>
       </c>
       <c r="D80" t="n">
-        <v>0.27587</v>
+        <v>0.270662</v>
       </c>
     </row>
     <row r="81">
@@ -4355,13 +4355,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.259423</v>
+        <v>0.25931</v>
       </c>
       <c r="C81" t="n">
-        <v>0.26892</v>
+        <v>0.26713</v>
       </c>
       <c r="D81" t="n">
-        <v>0.271163</v>
+        <v>0.271524</v>
       </c>
     </row>
     <row r="82">
@@ -4369,13 +4369,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.255562</v>
+        <v>0.254343</v>
       </c>
       <c r="C82" t="n">
-        <v>0.267237</v>
+        <v>0.265543</v>
       </c>
       <c r="D82" t="n">
-        <v>0.269892</v>
+        <v>0.268345</v>
       </c>
     </row>
     <row r="83">
@@ -4383,13 +4383,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.25185</v>
+        <v>0.251212</v>
       </c>
       <c r="C83" t="n">
-        <v>0.263659</v>
+        <v>0.264287</v>
       </c>
       <c r="D83" t="n">
-        <v>0.267034</v>
+        <v>0.262361</v>
       </c>
     </row>
     <row r="84">
@@ -4397,13 +4397,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.247236</v>
+        <v>0.242026</v>
       </c>
       <c r="C84" t="n">
-        <v>0.257049</v>
+        <v>0.261318</v>
       </c>
       <c r="D84" t="n">
-        <v>0.264324</v>
+        <v>0.260539</v>
       </c>
     </row>
     <row r="85">
@@ -4411,13 +4411,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.240359</v>
+        <v>0.238864</v>
       </c>
       <c r="C85" t="n">
-        <v>0.258616</v>
+        <v>0.257326</v>
       </c>
       <c r="D85" t="n">
-        <v>0.262948</v>
+        <v>0.2582</v>
       </c>
     </row>
     <row r="86">
@@ -4425,13 +4425,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.23435</v>
+        <v>0.235264</v>
       </c>
       <c r="C86" t="n">
-        <v>0.256157</v>
+        <v>0.257644</v>
       </c>
       <c r="D86" t="n">
-        <v>0.261538</v>
+        <v>0.257943</v>
       </c>
     </row>
     <row r="87">
@@ -4439,13 +4439,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.230282</v>
+        <v>0.226501</v>
       </c>
       <c r="C87" t="n">
-        <v>0.253894</v>
+        <v>0.25806</v>
       </c>
       <c r="D87" t="n">
-        <v>0.259543</v>
+        <v>0.257704</v>
       </c>
     </row>
     <row r="88">
@@ -4453,13 +4453,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.227876</v>
+        <v>0.22569</v>
       </c>
       <c r="C88" t="n">
-        <v>0.249248</v>
+        <v>0.253275</v>
       </c>
       <c r="D88" t="n">
-        <v>0.258675</v>
+        <v>0.256996</v>
       </c>
     </row>
     <row r="89">
@@ -4467,13 +4467,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.222342</v>
+        <v>0.220903</v>
       </c>
       <c r="C89" t="n">
-        <v>0.247577</v>
+        <v>0.250416</v>
       </c>
       <c r="D89" t="n">
-        <v>0.254685</v>
+        <v>0.252563</v>
       </c>
     </row>
     <row r="90">
@@ -4481,13 +4481,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.218228</v>
+        <v>0.215825</v>
       </c>
       <c r="C90" t="n">
-        <v>0.246214</v>
+        <v>0.251661</v>
       </c>
       <c r="D90" t="n">
-        <v>0.253232</v>
+        <v>0.251638</v>
       </c>
     </row>
     <row r="91">
@@ -4495,13 +4495,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.211681</v>
+        <v>0.213008</v>
       </c>
       <c r="C91" t="n">
-        <v>0.246858</v>
+        <v>0.248794</v>
       </c>
       <c r="D91" t="n">
-        <v>0.250278</v>
+        <v>0.250079</v>
       </c>
     </row>
     <row r="92">
@@ -4509,13 +4509,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.211332</v>
+        <v>0.207904</v>
       </c>
       <c r="C92" t="n">
-        <v>0.242881</v>
+        <v>0.250008</v>
       </c>
       <c r="D92" t="n">
-        <v>0.25138</v>
+        <v>0.245318</v>
       </c>
     </row>
     <row r="93">
@@ -4523,13 +4523,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.204343</v>
+        <v>0.204589</v>
       </c>
       <c r="C93" t="n">
-        <v>0.241629</v>
+        <v>0.243409</v>
       </c>
       <c r="D93" t="n">
-        <v>0.246567</v>
+        <v>0.246195</v>
       </c>
     </row>
     <row r="94">
@@ -4537,13 +4537,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.198125</v>
+        <v>0.199555</v>
       </c>
       <c r="C94" t="n">
-        <v>0.242056</v>
+        <v>0.249942</v>
       </c>
       <c r="D94" t="n">
-        <v>0.271757</v>
+        <v>0.274672</v>
       </c>
     </row>
     <row r="95">
@@ -4551,13 +4551,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.261864</v>
+        <v>0.259812</v>
       </c>
       <c r="C95" t="n">
-        <v>0.270255</v>
+        <v>0.271044</v>
       </c>
       <c r="D95" t="n">
-        <v>0.274493</v>
+        <v>0.270846</v>
       </c>
     </row>
     <row r="96">
@@ -4565,13 +4565,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.257165</v>
+        <v>0.255864</v>
       </c>
       <c r="C96" t="n">
-        <v>0.267658</v>
+        <v>0.269461</v>
       </c>
       <c r="D96" t="n">
-        <v>0.27299</v>
+        <v>0.267614</v>
       </c>
     </row>
     <row r="97">
@@ -4579,13 +4579,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.252287</v>
+        <v>0.255261</v>
       </c>
       <c r="C97" t="n">
-        <v>0.265308</v>
+        <v>0.264816</v>
       </c>
       <c r="D97" t="n">
-        <v>0.266809</v>
+        <v>0.26819</v>
       </c>
     </row>
     <row r="98">
@@ -4593,13 +4593,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.249218</v>
+        <v>0.245501</v>
       </c>
       <c r="C98" t="n">
-        <v>0.263564</v>
+        <v>0.266197</v>
       </c>
       <c r="D98" t="n">
-        <v>0.2644</v>
+        <v>0.263388</v>
       </c>
     </row>
     <row r="99">
@@ -4607,13 +4607,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.244738</v>
+        <v>0.240723</v>
       </c>
       <c r="C99" t="n">
-        <v>0.258514</v>
+        <v>0.261986</v>
       </c>
       <c r="D99" t="n">
-        <v>0.262106</v>
+        <v>0.261472</v>
       </c>
     </row>
     <row r="100">
@@ -4621,13 +4621,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.237738</v>
+        <v>0.236354</v>
       </c>
       <c r="C100" t="n">
-        <v>0.259801</v>
+        <v>0.257329</v>
       </c>
       <c r="D100" t="n">
-        <v>0.258958</v>
+        <v>0.260971</v>
       </c>
     </row>
     <row r="101">
@@ -4635,13 +4635,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.231692</v>
+        <v>0.230329</v>
       </c>
       <c r="C101" t="n">
-        <v>0.253276</v>
+        <v>0.256815</v>
       </c>
       <c r="D101" t="n">
-        <v>0.257798</v>
+        <v>0.254193</v>
       </c>
     </row>
     <row r="102">
@@ -4649,13 +4649,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.227452</v>
+        <v>0.228989</v>
       </c>
       <c r="C102" t="n">
-        <v>0.254451</v>
+        <v>0.254496</v>
       </c>
       <c r="D102" t="n">
-        <v>0.25793</v>
+        <v>0.256216</v>
       </c>
     </row>
     <row r="103">
@@ -4663,13 +4663,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.222666</v>
+        <v>0.223006</v>
       </c>
       <c r="C103" t="n">
-        <v>0.249257</v>
+        <v>0.253626</v>
       </c>
       <c r="D103" t="n">
-        <v>0.254449</v>
+        <v>0.255206</v>
       </c>
     </row>
     <row r="104">
@@ -4677,13 +4677,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.218081</v>
+        <v>0.215503</v>
       </c>
       <c r="C104" t="n">
-        <v>0.250551</v>
+        <v>0.249371</v>
       </c>
       <c r="D104" t="n">
-        <v>0.255279</v>
+        <v>0.255558</v>
       </c>
     </row>
     <row r="105">
@@ -4691,13 +4691,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.212593</v>
+        <v>0.213177</v>
       </c>
       <c r="C105" t="n">
-        <v>0.247775</v>
+        <v>0.249716</v>
       </c>
       <c r="D105" t="n">
-        <v>0.250356</v>
+        <v>0.251682</v>
       </c>
     </row>
     <row r="106">
@@ -4705,13 +4705,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.213165</v>
+        <v>0.211524</v>
       </c>
       <c r="C106" t="n">
-        <v>0.246164</v>
+        <v>0.250576</v>
       </c>
       <c r="D106" t="n">
-        <v>0.252619</v>
+        <v>0.249718</v>
       </c>
     </row>
     <row r="107">
@@ -4719,13 +4719,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.208137</v>
+        <v>0.206393</v>
       </c>
       <c r="C107" t="n">
-        <v>0.242581</v>
+        <v>0.246021</v>
       </c>
       <c r="D107" t="n">
-        <v>0.251758</v>
+        <v>0.246031</v>
       </c>
     </row>
     <row r="108">
@@ -4733,13 +4733,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.200115</v>
+        <v>0.202151</v>
       </c>
       <c r="C108" t="n">
-        <v>0.243306</v>
+        <v>0.244676</v>
       </c>
       <c r="D108" t="n">
-        <v>0.276651</v>
+        <v>0.275377</v>
       </c>
     </row>
     <row r="109">
@@ -4747,13 +4747,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.193192</v>
+        <v>0.191666</v>
       </c>
       <c r="C109" t="n">
-        <v>0.245047</v>
+        <v>0.24777</v>
       </c>
       <c r="D109" t="n">
-        <v>0.273208</v>
+        <v>0.274689</v>
       </c>
     </row>
     <row r="110">
@@ -4761,13 +4761,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.259021</v>
+        <v>0.257343</v>
       </c>
       <c r="C110" t="n">
-        <v>0.270325</v>
+        <v>0.268705</v>
       </c>
       <c r="D110" t="n">
-        <v>0.271136</v>
+        <v>0.273781</v>
       </c>
     </row>
     <row r="111">
@@ -4775,13 +4775,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.256332</v>
+        <v>0.25141</v>
       </c>
       <c r="C111" t="n">
-        <v>0.263892</v>
+        <v>0.269206</v>
       </c>
       <c r="D111" t="n">
-        <v>0.273983</v>
+        <v>0.267029</v>
       </c>
     </row>
     <row r="112">
@@ -4789,13 +4789,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.24759</v>
+        <v>0.248662</v>
       </c>
       <c r="C112" t="n">
-        <v>0.265666</v>
+        <v>0.268004</v>
       </c>
       <c r="D112" t="n">
-        <v>0.270392</v>
+        <v>0.263473</v>
       </c>
     </row>
     <row r="113">
@@ -4803,13 +4803,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.245089</v>
+        <v>0.244218</v>
       </c>
       <c r="C113" t="n">
-        <v>0.259304</v>
+        <v>0.264305</v>
       </c>
       <c r="D113" t="n">
-        <v>0.266874</v>
+        <v>0.260836</v>
       </c>
     </row>
     <row r="114">
@@ -4817,13 +4817,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.238535</v>
+        <v>0.239104</v>
       </c>
       <c r="C114" t="n">
-        <v>0.260792</v>
+        <v>0.264163</v>
       </c>
       <c r="D114" t="n">
-        <v>0.263385</v>
+        <v>0.261798</v>
       </c>
     </row>
     <row r="115">
@@ -4831,13 +4831,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.235282</v>
+        <v>0.234144</v>
       </c>
       <c r="C115" t="n">
-        <v>0.2565</v>
+        <v>0.257826</v>
       </c>
       <c r="D115" t="n">
-        <v>0.260077</v>
+        <v>0.259465</v>
       </c>
     </row>
     <row r="116">
@@ -4845,13 +4845,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.231113</v>
+        <v>0.227653</v>
       </c>
       <c r="C116" t="n">
-        <v>0.254667</v>
+        <v>0.253533</v>
       </c>
       <c r="D116" t="n">
-        <v>0.25563</v>
+        <v>0.258823</v>
       </c>
     </row>
     <row r="117">
@@ -4859,13 +4859,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.224358</v>
+        <v>0.223607</v>
       </c>
       <c r="C117" t="n">
-        <v>0.250889</v>
+        <v>0.252044</v>
       </c>
       <c r="D117" t="n">
-        <v>0.2568</v>
+        <v>0.255905</v>
       </c>
     </row>
     <row r="118">
@@ -4873,13 +4873,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.220727</v>
+        <v>0.218168</v>
       </c>
       <c r="C118" t="n">
-        <v>0.250409</v>
+        <v>0.252675</v>
       </c>
       <c r="D118" t="n">
-        <v>0.25367</v>
+        <v>0.251513</v>
       </c>
     </row>
     <row r="119">
@@ -4887,13 +4887,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.213943</v>
+        <v>0.215418</v>
       </c>
       <c r="C119" t="n">
-        <v>0.246643</v>
+        <v>0.246775</v>
       </c>
       <c r="D119" t="n">
-        <v>0.254724</v>
+        <v>0.250415</v>
       </c>
     </row>
     <row r="120">
@@ -4901,13 +4901,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.214529</v>
+        <v>0.21106</v>
       </c>
       <c r="C120" t="n">
-        <v>0.245985</v>
+        <v>0.249501</v>
       </c>
       <c r="D120" t="n">
-        <v>0.248585</v>
+        <v>0.251104</v>
       </c>
     </row>
     <row r="121">
@@ -4915,13 +4915,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.206481</v>
+        <v>0.205698</v>
       </c>
       <c r="C121" t="n">
-        <v>0.247933</v>
+        <v>0.247347</v>
       </c>
       <c r="D121" t="n">
-        <v>0.249037</v>
+        <v>0.250762</v>
       </c>
     </row>
     <row r="122">
@@ -4929,13 +4929,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.201527</v>
+        <v>0.199599</v>
       </c>
       <c r="C122" t="n">
-        <v>0.245999</v>
+        <v>0.245907</v>
       </c>
       <c r="D122" t="n">
-        <v>0.246511</v>
+        <v>0.249357</v>
       </c>
     </row>
     <row r="123">
@@ -4943,13 +4943,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.192682</v>
+        <v>0.193591</v>
       </c>
       <c r="C123" t="n">
-        <v>0.24907</v>
+        <v>0.246855</v>
       </c>
       <c r="D123" t="n">
-        <v>0.27552</v>
+        <v>0.274128</v>
       </c>
     </row>
     <row r="124">
@@ -4957,13 +4957,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.258908</v>
+        <v>0.256469</v>
       </c>
       <c r="C124" t="n">
-        <v>0.273974</v>
+        <v>0.270474</v>
       </c>
       <c r="D124" t="n">
-        <v>0.273493</v>
+        <v>0.275562</v>
       </c>
     </row>
     <row r="125">
@@ -4971,13 +4971,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.256759</v>
+        <v>0.258079</v>
       </c>
       <c r="C125" t="n">
-        <v>0.263667</v>
+        <v>0.264668</v>
       </c>
       <c r="D125" t="n">
-        <v>0.270614</v>
+        <v>0.271205</v>
       </c>
     </row>
     <row r="126">
@@ -4985,13 +4985,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.248247</v>
+        <v>0.249336</v>
       </c>
       <c r="C126" t="n">
-        <v>0.264897</v>
+        <v>0.265405</v>
       </c>
       <c r="D126" t="n">
-        <v>0.267921</v>
+        <v>0.270078</v>
       </c>
     </row>
     <row r="127">
@@ -4999,13 +4999,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.243152</v>
+        <v>0.243263</v>
       </c>
       <c r="C127" t="n">
-        <v>0.258737</v>
+        <v>0.264017</v>
       </c>
       <c r="D127" t="n">
-        <v>0.266187</v>
+        <v>0.262836</v>
       </c>
     </row>
     <row r="128">
@@ -5013,13 +5013,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.238299</v>
+        <v>0.239551</v>
       </c>
       <c r="C128" t="n">
-        <v>0.257274</v>
+        <v>0.26126</v>
       </c>
       <c r="D128" t="n">
-        <v>0.262538</v>
+        <v>0.261993</v>
       </c>
     </row>
     <row r="129">
@@ -5027,13 +5027,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.235532</v>
+        <v>0.233119</v>
       </c>
       <c r="C129" t="n">
-        <v>0.256515</v>
+        <v>0.260594</v>
       </c>
       <c r="D129" t="n">
-        <v>0.259573</v>
+        <v>0.259886</v>
       </c>
     </row>
     <row r="130">
@@ -5041,13 +5041,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.231657</v>
+        <v>0.231357</v>
       </c>
       <c r="C130" t="n">
-        <v>0.254848</v>
+        <v>0.260212</v>
       </c>
       <c r="D130" t="n">
-        <v>0.255331</v>
+        <v>0.26097</v>
       </c>
     </row>
     <row r="131">
@@ -5055,13 +5055,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.224216</v>
+        <v>0.225865</v>
       </c>
       <c r="C131" t="n">
-        <v>0.254357</v>
+        <v>0.253513</v>
       </c>
       <c r="D131" t="n">
-        <v>0.256254</v>
+        <v>0.251688</v>
       </c>
     </row>
     <row r="132">
@@ -5069,13 +5069,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.222148</v>
+        <v>0.222087</v>
       </c>
       <c r="C132" t="n">
-        <v>0.249622</v>
+        <v>0.252977</v>
       </c>
       <c r="D132" t="n">
-        <v>0.25668</v>
+        <v>0.256028</v>
       </c>
     </row>
     <row r="133">
@@ -5083,13 +5083,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.221442</v>
+        <v>0.214089</v>
       </c>
       <c r="C133" t="n">
-        <v>0.251026</v>
+        <v>0.248941</v>
       </c>
       <c r="D133" t="n">
-        <v>0.251378</v>
+        <v>0.253303</v>
       </c>
     </row>
     <row r="134">
@@ -5097,13 +5097,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.211822</v>
+        <v>0.211791</v>
       </c>
       <c r="C134" t="n">
-        <v>0.244365</v>
+        <v>0.249868</v>
       </c>
       <c r="D134" t="n">
-        <v>0.247869</v>
+        <v>0.247313</v>
       </c>
     </row>
     <row r="135">
@@ -5111,13 +5111,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.208027</v>
+        <v>0.209213</v>
       </c>
       <c r="C135" t="n">
-        <v>0.247445</v>
+        <v>0.248995</v>
       </c>
       <c r="D135" t="n">
-        <v>0.247896</v>
+        <v>0.248723</v>
       </c>
     </row>
     <row r="136">
@@ -5125,13 +5125,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.202971</v>
+        <v>0.201796</v>
       </c>
       <c r="C136" t="n">
-        <v>0.245413</v>
+        <v>0.246857</v>
       </c>
       <c r="D136" t="n">
-        <v>0.245477</v>
+        <v>0.246327</v>
       </c>
     </row>
     <row r="137">
@@ -5139,13 +5139,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.199642</v>
+        <v>0.192857</v>
       </c>
       <c r="C137" t="n">
-        <v>0.240951</v>
+        <v>0.242263</v>
       </c>
       <c r="D137" t="n">
-        <v>0.280557</v>
+        <v>0.272562</v>
       </c>
     </row>
     <row r="138">
@@ -5153,13 +5153,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.25884</v>
+        <v>0.259127</v>
       </c>
       <c r="C138" t="n">
-        <v>0.268665</v>
+        <v>0.272634</v>
       </c>
       <c r="D138" t="n">
-        <v>0.277895</v>
+        <v>0.275009</v>
       </c>
     </row>
     <row r="139">
@@ -5167,13 +5167,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.259725</v>
+        <v>0.2527</v>
       </c>
       <c r="C139" t="n">
-        <v>0.267872</v>
+        <v>0.273586</v>
       </c>
       <c r="D139" t="n">
-        <v>0.267592</v>
+        <v>0.272661</v>
       </c>
     </row>
     <row r="140">
@@ -5181,13 +5181,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.254402</v>
+        <v>0.249395</v>
       </c>
       <c r="C140" t="n">
-        <v>0.265566</v>
+        <v>0.263586</v>
       </c>
       <c r="D140" t="n">
-        <v>0.268559</v>
+        <v>0.268271</v>
       </c>
     </row>
     <row r="141">
@@ -5195,13 +5195,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.248139</v>
+        <v>0.246802</v>
       </c>
       <c r="C141" t="n">
-        <v>0.261598</v>
+        <v>0.264666</v>
       </c>
       <c r="D141" t="n">
-        <v>0.270586</v>
+        <v>0.264377</v>
       </c>
     </row>
     <row r="142">
@@ -5209,13 +5209,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.23978</v>
+        <v>0.238793</v>
       </c>
       <c r="C142" t="n">
-        <v>0.262515</v>
+        <v>0.257163</v>
       </c>
       <c r="D142" t="n">
-        <v>0.264278</v>
+        <v>0.264936</v>
       </c>
     </row>
     <row r="143">
@@ -5223,13 +5223,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.238856</v>
+        <v>0.229485</v>
       </c>
       <c r="C143" t="n">
-        <v>0.25728</v>
+        <v>0.255699</v>
       </c>
       <c r="D143" t="n">
-        <v>0.261958</v>
+        <v>0.259969</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Running erasure.xlsx
+++ b/vs-x64/Running erasure.xlsx
@@ -3249,13 +3249,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.200704</v>
+        <v>0.207786</v>
       </c>
       <c r="C2" t="n">
-        <v>0.235104</v>
+        <v>0.241858</v>
       </c>
       <c r="D2" t="n">
-        <v>0.237094</v>
+        <v>0.243125</v>
       </c>
     </row>
     <row r="3">
@@ -3263,13 +3263,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.201869</v>
+        <v>0.204639</v>
       </c>
       <c r="C3" t="n">
-        <v>0.233257</v>
+        <v>0.239223</v>
       </c>
       <c r="D3" t="n">
-        <v>0.230813</v>
+        <v>0.23618</v>
       </c>
     </row>
     <row r="4">
@@ -3277,13 +3277,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.189572</v>
+        <v>0.198051</v>
       </c>
       <c r="C4" t="n">
-        <v>0.235623</v>
+        <v>0.232467</v>
       </c>
       <c r="D4" t="n">
-        <v>0.23482</v>
+        <v>0.235092</v>
       </c>
     </row>
     <row r="5">
@@ -3291,13 +3291,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.191521</v>
+        <v>0.19673</v>
       </c>
       <c r="C5" t="n">
-        <v>0.230548</v>
+        <v>0.231767</v>
       </c>
       <c r="D5" t="n">
-        <v>0.229004</v>
+        <v>0.236374</v>
       </c>
     </row>
     <row r="6">
@@ -3305,13 +3305,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.192384</v>
+        <v>0.189249</v>
       </c>
       <c r="C6" t="n">
-        <v>0.225817</v>
+        <v>0.232891</v>
       </c>
       <c r="D6" t="n">
-        <v>0.228067</v>
+        <v>0.230418</v>
       </c>
     </row>
     <row r="7">
@@ -3319,13 +3319,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.187947</v>
+        <v>0.192438</v>
       </c>
       <c r="C7" t="n">
-        <v>0.232493</v>
+        <v>0.230214</v>
       </c>
       <c r="D7" t="n">
-        <v>0.229648</v>
+        <v>0.233066</v>
       </c>
     </row>
     <row r="8">
@@ -3333,13 +3333,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.182666</v>
+        <v>0.185719</v>
       </c>
       <c r="C8" t="n">
-        <v>0.227346</v>
+        <v>0.2311</v>
       </c>
       <c r="D8" t="n">
-        <v>0.233662</v>
+        <v>0.229449</v>
       </c>
     </row>
     <row r="9">
@@ -3347,13 +3347,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.171972</v>
+        <v>0.176926</v>
       </c>
       <c r="C9" t="n">
-        <v>0.227875</v>
+        <v>0.234516</v>
       </c>
       <c r="D9" t="n">
-        <v>0.243863</v>
+        <v>0.246848</v>
       </c>
     </row>
     <row r="10">
@@ -3361,13 +3361,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.223811</v>
+        <v>0.236118</v>
       </c>
       <c r="C10" t="n">
-        <v>0.236847</v>
+        <v>0.246282</v>
       </c>
       <c r="D10" t="n">
-        <v>0.239667</v>
+        <v>0.239145</v>
       </c>
     </row>
     <row r="11">
@@ -3375,13 +3375,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.222128</v>
+        <v>0.226689</v>
       </c>
       <c r="C11" t="n">
-        <v>0.238406</v>
+        <v>0.242485</v>
       </c>
       <c r="D11" t="n">
-        <v>0.247586</v>
+        <v>0.243519</v>
       </c>
     </row>
     <row r="12">
@@ -3389,13 +3389,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.223983</v>
+        <v>0.22294</v>
       </c>
       <c r="C12" t="n">
-        <v>0.241308</v>
+        <v>0.240819</v>
       </c>
       <c r="D12" t="n">
-        <v>0.240145</v>
+        <v>0.23772</v>
       </c>
     </row>
     <row r="13">
@@ -3403,13 +3403,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.220217</v>
+        <v>0.217539</v>
       </c>
       <c r="C13" t="n">
-        <v>0.239461</v>
+        <v>0.24298</v>
       </c>
       <c r="D13" t="n">
-        <v>0.238844</v>
+        <v>0.240551</v>
       </c>
     </row>
     <row r="14">
@@ -3417,13 +3417,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.216856</v>
+        <v>0.212875</v>
       </c>
       <c r="C14" t="n">
-        <v>0.240236</v>
+        <v>0.239349</v>
       </c>
       <c r="D14" t="n">
-        <v>0.234536</v>
+        <v>0.240176</v>
       </c>
     </row>
     <row r="15">
@@ -3431,13 +3431,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.214805</v>
+        <v>0.211478</v>
       </c>
       <c r="C15" t="n">
-        <v>0.240603</v>
+        <v>0.236786</v>
       </c>
       <c r="D15" t="n">
-        <v>0.236409</v>
+        <v>0.238336</v>
       </c>
     </row>
     <row r="16">
@@ -3445,13 +3445,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.206479</v>
+        <v>0.207573</v>
       </c>
       <c r="C16" t="n">
-        <v>0.239069</v>
+        <v>0.235036</v>
       </c>
       <c r="D16" t="n">
-        <v>0.254066</v>
+        <v>0.239411</v>
       </c>
     </row>
     <row r="17">
@@ -3459,13 +3459,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.200513</v>
+        <v>0.200973</v>
       </c>
       <c r="C17" t="n">
-        <v>0.234472</v>
+        <v>0.235347</v>
       </c>
       <c r="D17" t="n">
-        <v>0.233782</v>
+        <v>0.241864</v>
       </c>
     </row>
     <row r="18">
@@ -3473,13 +3473,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.200001</v>
+        <v>0.202276</v>
       </c>
       <c r="C18" t="n">
-        <v>0.239243</v>
+        <v>0.233515</v>
       </c>
       <c r="D18" t="n">
-        <v>0.235702</v>
+        <v>0.23499</v>
       </c>
     </row>
     <row r="19">
@@ -3487,13 +3487,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.195012</v>
+        <v>0.203126</v>
       </c>
       <c r="C19" t="n">
-        <v>0.230412</v>
+        <v>0.232418</v>
       </c>
       <c r="D19" t="n">
-        <v>0.24016</v>
+        <v>0.234477</v>
       </c>
     </row>
     <row r="20">
@@ -3501,13 +3501,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.198524</v>
+        <v>0.195456</v>
       </c>
       <c r="C20" t="n">
-        <v>0.233745</v>
+        <v>0.237874</v>
       </c>
       <c r="D20" t="n">
-        <v>0.240375</v>
+        <v>0.23752</v>
       </c>
     </row>
     <row r="21">
@@ -3515,13 +3515,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.193618</v>
+        <v>0.190714</v>
       </c>
       <c r="C21" t="n">
-        <v>0.235743</v>
+        <v>0.231661</v>
       </c>
       <c r="D21" t="n">
-        <v>0.229648</v>
+        <v>0.231861</v>
       </c>
     </row>
     <row r="22">
@@ -3529,13 +3529,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.188433</v>
+        <v>0.185697</v>
       </c>
       <c r="C22" t="n">
-        <v>0.231549</v>
+        <v>0.239076</v>
       </c>
       <c r="D22" t="n">
-        <v>0.236636</v>
+        <v>0.232693</v>
       </c>
     </row>
     <row r="23">
@@ -3543,13 +3543,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.180575</v>
+        <v>0.179016</v>
       </c>
       <c r="C23" t="n">
-        <v>0.231521</v>
+        <v>0.227834</v>
       </c>
       <c r="D23" t="n">
-        <v>0.246074</v>
+        <v>0.245359</v>
       </c>
     </row>
     <row r="24">
@@ -3557,13 +3557,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.236138</v>
+        <v>0.2374</v>
       </c>
       <c r="C24" t="n">
-        <v>0.245208</v>
+        <v>0.250086</v>
       </c>
       <c r="D24" t="n">
-        <v>0.246902</v>
+        <v>0.247523</v>
       </c>
     </row>
     <row r="25">
@@ -3571,13 +3571,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.228526</v>
+        <v>0.234908</v>
       </c>
       <c r="C25" t="n">
-        <v>0.243728</v>
+        <v>0.246119</v>
       </c>
       <c r="D25" t="n">
-        <v>0.246571</v>
+        <v>0.241953</v>
       </c>
     </row>
     <row r="26">
@@ -3585,13 +3585,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.226494</v>
+        <v>0.227917</v>
       </c>
       <c r="C26" t="n">
-        <v>0.244701</v>
+        <v>0.24332</v>
       </c>
       <c r="D26" t="n">
-        <v>0.246648</v>
+        <v>0.242095</v>
       </c>
     </row>
     <row r="27">
@@ -3599,13 +3599,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.224018</v>
+        <v>0.224122</v>
       </c>
       <c r="C27" t="n">
-        <v>0.244007</v>
+        <v>0.242917</v>
       </c>
       <c r="D27" t="n">
-        <v>0.247821</v>
+        <v>0.241326</v>
       </c>
     </row>
     <row r="28">
@@ -3613,13 +3613,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.218567</v>
+        <v>0.220756</v>
       </c>
       <c r="C28" t="n">
-        <v>0.237913</v>
+        <v>0.239436</v>
       </c>
       <c r="D28" t="n">
-        <v>0.243117</v>
+        <v>0.236766</v>
       </c>
     </row>
     <row r="29">
@@ -3627,13 +3627,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.215669</v>
+        <v>0.215681</v>
       </c>
       <c r="C29" t="n">
-        <v>0.240145</v>
+        <v>0.243514</v>
       </c>
       <c r="D29" t="n">
-        <v>0.238266</v>
+        <v>0.240317</v>
       </c>
     </row>
     <row r="30">
@@ -3641,13 +3641,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.209986</v>
+        <v>0.210821</v>
       </c>
       <c r="C30" t="n">
-        <v>0.241938</v>
+        <v>0.235752</v>
       </c>
       <c r="D30" t="n">
-        <v>0.24569</v>
+        <v>0.243899</v>
       </c>
     </row>
     <row r="31">
@@ -3655,13 +3655,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.208155</v>
+        <v>0.208701</v>
       </c>
       <c r="C31" t="n">
-        <v>0.238124</v>
+        <v>0.238004</v>
       </c>
       <c r="D31" t="n">
-        <v>0.235664</v>
+        <v>0.245691</v>
       </c>
     </row>
     <row r="32">
@@ -3669,13 +3669,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.202793</v>
+        <v>0.208875</v>
       </c>
       <c r="C32" t="n">
-        <v>0.236952</v>
+        <v>0.234569</v>
       </c>
       <c r="D32" t="n">
-        <v>0.239477</v>
+        <v>0.233374</v>
       </c>
     </row>
     <row r="33">
@@ -3683,13 +3683,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.200124</v>
+        <v>0.200663</v>
       </c>
       <c r="C33" t="n">
-        <v>0.236231</v>
+        <v>0.232752</v>
       </c>
       <c r="D33" t="n">
-        <v>0.244578</v>
+        <v>0.238202</v>
       </c>
     </row>
     <row r="34">
@@ -3697,13 +3697,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.199192</v>
+        <v>0.196499</v>
       </c>
       <c r="C34" t="n">
-        <v>0.235792</v>
+        <v>0.233572</v>
       </c>
       <c r="D34" t="n">
-        <v>0.247423</v>
+        <v>0.23532</v>
       </c>
     </row>
     <row r="35">
@@ -3711,13 +3711,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.195042</v>
+        <v>0.193206</v>
       </c>
       <c r="C35" t="n">
-        <v>0.232425</v>
+        <v>0.232607</v>
       </c>
       <c r="D35" t="n">
-        <v>0.238718</v>
+        <v>0.23758</v>
       </c>
     </row>
     <row r="36">
@@ -3725,13 +3725,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.19319</v>
+        <v>0.19297</v>
       </c>
       <c r="C36" t="n">
-        <v>0.233614</v>
+        <v>0.22984</v>
       </c>
       <c r="D36" t="n">
-        <v>0.234683</v>
+        <v>0.236212</v>
       </c>
     </row>
     <row r="37">
@@ -3739,13 +3739,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.18475</v>
+        <v>0.186339</v>
       </c>
       <c r="C37" t="n">
-        <v>0.232643</v>
+        <v>0.232136</v>
       </c>
       <c r="D37" t="n">
-        <v>0.264398</v>
+        <v>0.260254</v>
       </c>
     </row>
     <row r="38">
@@ -3753,13 +3753,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.240824</v>
+        <v>0.237334</v>
       </c>
       <c r="C38" t="n">
-        <v>0.260056</v>
+        <v>0.260093</v>
       </c>
       <c r="D38" t="n">
-        <v>0.260669</v>
+        <v>0.257403</v>
       </c>
     </row>
     <row r="39">
@@ -3767,13 +3767,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.239471</v>
+        <v>0.237653</v>
       </c>
       <c r="C39" t="n">
-        <v>0.254949</v>
+        <v>0.258717</v>
       </c>
       <c r="D39" t="n">
-        <v>0.255918</v>
+        <v>0.25888</v>
       </c>
     </row>
     <row r="40">
@@ -3781,13 +3781,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.234036</v>
+        <v>0.232217</v>
       </c>
       <c r="C40" t="n">
-        <v>0.25475</v>
+        <v>0.257097</v>
       </c>
       <c r="D40" t="n">
-        <v>0.253057</v>
+        <v>0.256003</v>
       </c>
     </row>
     <row r="41">
@@ -3795,13 +3795,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.229372</v>
+        <v>0.226245</v>
       </c>
       <c r="C41" t="n">
-        <v>0.260251</v>
+        <v>0.252461</v>
       </c>
       <c r="D41" t="n">
-        <v>0.251102</v>
+        <v>0.252105</v>
       </c>
     </row>
     <row r="42">
@@ -3809,13 +3809,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.225341</v>
+        <v>0.224345</v>
       </c>
       <c r="C42" t="n">
-        <v>0.24662</v>
+        <v>0.251065</v>
       </c>
       <c r="D42" t="n">
-        <v>0.252906</v>
+        <v>0.254253</v>
       </c>
     </row>
     <row r="43">
@@ -3823,13 +3823,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.221477</v>
+        <v>0.219648</v>
       </c>
       <c r="C43" t="n">
-        <v>0.247042</v>
+        <v>0.248069</v>
       </c>
       <c r="D43" t="n">
-        <v>0.250655</v>
+        <v>0.249445</v>
       </c>
     </row>
     <row r="44">
@@ -3837,13 +3837,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.214019</v>
+        <v>0.215999</v>
       </c>
       <c r="C44" t="n">
-        <v>0.250019</v>
+        <v>0.249168</v>
       </c>
       <c r="D44" t="n">
-        <v>0.251301</v>
+        <v>0.245768</v>
       </c>
     </row>
     <row r="45">
@@ -3851,13 +3851,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.210606</v>
+        <v>0.211228</v>
       </c>
       <c r="C45" t="n">
-        <v>0.24432</v>
+        <v>0.246792</v>
       </c>
       <c r="D45" t="n">
-        <v>0.246294</v>
+        <v>0.248951</v>
       </c>
     </row>
     <row r="46">
@@ -3865,13 +3865,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.206525</v>
+        <v>0.208166</v>
       </c>
       <c r="C46" t="n">
-        <v>0.244863</v>
+        <v>0.243272</v>
       </c>
       <c r="D46" t="n">
-        <v>0.245247</v>
+        <v>0.24563</v>
       </c>
     </row>
     <row r="47">
@@ -3879,13 +3879,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.204491</v>
+        <v>0.203415</v>
       </c>
       <c r="C47" t="n">
-        <v>0.23955</v>
+        <v>0.245156</v>
       </c>
       <c r="D47" t="n">
-        <v>0.249282</v>
+        <v>0.241849</v>
       </c>
     </row>
     <row r="48">
@@ -3893,13 +3893,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.203274</v>
+        <v>0.202688</v>
       </c>
       <c r="C48" t="n">
-        <v>0.243021</v>
+        <v>0.240717</v>
       </c>
       <c r="D48" t="n">
-        <v>0.239655</v>
+        <v>0.24384</v>
       </c>
     </row>
     <row r="49">
@@ -3907,13 +3907,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.197465</v>
+        <v>0.197628</v>
       </c>
       <c r="C49" t="n">
-        <v>0.239205</v>
+        <v>0.240258</v>
       </c>
       <c r="D49" t="n">
-        <v>0.239797</v>
+        <v>0.242281</v>
       </c>
     </row>
     <row r="50">
@@ -3921,13 +3921,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.195079</v>
+        <v>0.195341</v>
       </c>
       <c r="C50" t="n">
-        <v>0.239327</v>
+        <v>0.237516</v>
       </c>
       <c r="D50" t="n">
-        <v>0.241409</v>
+        <v>0.240035</v>
       </c>
     </row>
     <row r="51">
@@ -3935,13 +3935,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.187583</v>
+        <v>0.188493</v>
       </c>
       <c r="C51" t="n">
-        <v>0.237909</v>
+        <v>0.236026</v>
       </c>
       <c r="D51" t="n">
-        <v>0.266053</v>
+        <v>0.262693</v>
       </c>
     </row>
     <row r="52">
@@ -3949,13 +3949,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.180507</v>
+        <v>0.181748</v>
       </c>
       <c r="C52" t="n">
-        <v>0.237864</v>
+        <v>0.239791</v>
       </c>
       <c r="D52" t="n">
-        <v>0.261221</v>
+        <v>0.263342</v>
       </c>
     </row>
     <row r="53">
@@ -3963,13 +3963,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.240379</v>
+        <v>0.24361</v>
       </c>
       <c r="C53" t="n">
-        <v>0.255782</v>
+        <v>0.257213</v>
       </c>
       <c r="D53" t="n">
-        <v>0.258993</v>
+        <v>0.258014</v>
       </c>
     </row>
     <row r="54">
@@ -3977,13 +3977,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.23981</v>
+        <v>0.240958</v>
       </c>
       <c r="C54" t="n">
-        <v>0.254404</v>
+        <v>0.25686</v>
       </c>
       <c r="D54" t="n">
-        <v>0.256695</v>
+        <v>0.258944</v>
       </c>
     </row>
     <row r="55">
@@ -3991,13 +3991,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.234959</v>
+        <v>0.235705</v>
       </c>
       <c r="C55" t="n">
-        <v>0.256168</v>
+        <v>0.252377</v>
       </c>
       <c r="D55" t="n">
-        <v>0.253924</v>
+        <v>0.255451</v>
       </c>
     </row>
     <row r="56">
@@ -4005,13 +4005,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.228034</v>
+        <v>0.232717</v>
       </c>
       <c r="C56" t="n">
-        <v>0.251322</v>
+        <v>0.252389</v>
       </c>
       <c r="D56" t="n">
-        <v>0.253612</v>
+        <v>0.254378</v>
       </c>
     </row>
     <row r="57">
@@ -4019,13 +4019,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.226305</v>
+        <v>0.226264</v>
       </c>
       <c r="C57" t="n">
-        <v>0.249881</v>
+        <v>0.25243</v>
       </c>
       <c r="D57" t="n">
-        <v>0.249113</v>
+        <v>0.248922</v>
       </c>
     </row>
     <row r="58">
@@ -4033,13 +4033,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.22218</v>
+        <v>0.221551</v>
       </c>
       <c r="C58" t="n">
-        <v>0.251092</v>
+        <v>0.249469</v>
       </c>
       <c r="D58" t="n">
-        <v>0.251047</v>
+        <v>0.248551</v>
       </c>
     </row>
     <row r="59">
@@ -4047,13 +4047,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.218505</v>
+        <v>0.217726</v>
       </c>
       <c r="C59" t="n">
-        <v>0.24917</v>
+        <v>0.245983</v>
       </c>
       <c r="D59" t="n">
-        <v>0.249604</v>
+        <v>0.247734</v>
       </c>
     </row>
     <row r="60">
@@ -4061,13 +4061,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.212159</v>
+        <v>0.214534</v>
       </c>
       <c r="C60" t="n">
-        <v>0.250063</v>
+        <v>0.244312</v>
       </c>
       <c r="D60" t="n">
-        <v>0.245356</v>
+        <v>0.245965</v>
       </c>
     </row>
     <row r="61">
@@ -4075,13 +4075,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.21047</v>
+        <v>0.211302</v>
       </c>
       <c r="C61" t="n">
-        <v>0.242785</v>
+        <v>0.243026</v>
       </c>
       <c r="D61" t="n">
-        <v>0.245454</v>
+        <v>0.244673</v>
       </c>
     </row>
     <row r="62">
@@ -4089,13 +4089,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.208637</v>
+        <v>0.205268</v>
       </c>
       <c r="C62" t="n">
-        <v>0.24373</v>
+        <v>0.243122</v>
       </c>
       <c r="D62" t="n">
-        <v>0.243368</v>
+        <v>0.242432</v>
       </c>
     </row>
     <row r="63">
@@ -4103,13 +4103,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.204563</v>
+        <v>0.202332</v>
       </c>
       <c r="C63" t="n">
-        <v>0.239205</v>
+        <v>0.240848</v>
       </c>
       <c r="D63" t="n">
-        <v>0.243196</v>
+        <v>0.241159</v>
       </c>
     </row>
     <row r="64">
@@ -4117,13 +4117,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.198588</v>
+        <v>0.200845</v>
       </c>
       <c r="C64" t="n">
-        <v>0.238103</v>
+        <v>0.239106</v>
       </c>
       <c r="D64" t="n">
-        <v>0.239019</v>
+        <v>0.242142</v>
       </c>
     </row>
     <row r="65">
@@ -4131,13 +4131,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.194236</v>
+        <v>0.193909</v>
       </c>
       <c r="C65" t="n">
-        <v>0.239989</v>
+        <v>0.241169</v>
       </c>
       <c r="D65" t="n">
-        <v>0.239531</v>
+        <v>0.237124</v>
       </c>
     </row>
     <row r="66">
@@ -4145,13 +4145,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.185903</v>
+        <v>0.188571</v>
       </c>
       <c r="C66" t="n">
-        <v>0.23649</v>
+        <v>0.239484</v>
       </c>
       <c r="D66" t="n">
-        <v>0.265333</v>
+        <v>0.26681</v>
       </c>
     </row>
     <row r="67">
@@ -4159,13 +4159,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.257842</v>
+        <v>0.255249</v>
       </c>
       <c r="C67" t="n">
-        <v>0.263428</v>
+        <v>0.261876</v>
       </c>
       <c r="D67" t="n">
-        <v>0.261741</v>
+        <v>0.263056</v>
       </c>
     </row>
     <row r="68">
@@ -4173,13 +4173,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.248659</v>
+        <v>0.2497</v>
       </c>
       <c r="C68" t="n">
-        <v>0.2594</v>
+        <v>0.261295</v>
       </c>
       <c r="D68" t="n">
-        <v>0.260166</v>
+        <v>0.261811</v>
       </c>
     </row>
     <row r="69">
@@ -4187,13 +4187,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.242458</v>
+        <v>0.245741</v>
       </c>
       <c r="C69" t="n">
-        <v>0.254551</v>
+        <v>0.258376</v>
       </c>
       <c r="D69" t="n">
-        <v>0.254617</v>
+        <v>0.261385</v>
       </c>
     </row>
     <row r="70">
@@ -4201,13 +4201,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.242944</v>
+        <v>0.241868</v>
       </c>
       <c r="C70" t="n">
-        <v>0.256056</v>
+        <v>0.25539</v>
       </c>
       <c r="D70" t="n">
-        <v>0.256568</v>
+        <v>0.26045</v>
       </c>
     </row>
     <row r="71">
@@ -4215,13 +4215,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.234992</v>
+        <v>0.234886</v>
       </c>
       <c r="C71" t="n">
-        <v>0.25666</v>
+        <v>0.256752</v>
       </c>
       <c r="D71" t="n">
-        <v>0.257018</v>
+        <v>0.259161</v>
       </c>
     </row>
     <row r="72">
@@ -4229,13 +4229,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.226851</v>
+        <v>0.226582</v>
       </c>
       <c r="C72" t="n">
-        <v>0.251959</v>
+        <v>0.255065</v>
       </c>
       <c r="D72" t="n">
-        <v>0.247854</v>
+        <v>0.254267</v>
       </c>
     </row>
     <row r="73">
@@ -4243,13 +4243,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.226743</v>
+        <v>0.22702</v>
       </c>
       <c r="C73" t="n">
-        <v>0.250404</v>
+        <v>0.252595</v>
       </c>
       <c r="D73" t="n">
-        <v>0.250698</v>
+        <v>0.25285</v>
       </c>
     </row>
     <row r="74">
@@ -4257,13 +4257,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.223032</v>
+        <v>0.221545</v>
       </c>
       <c r="C74" t="n">
-        <v>0.247732</v>
+        <v>0.255224</v>
       </c>
       <c r="D74" t="n">
-        <v>0.254748</v>
+        <v>0.250991</v>
       </c>
     </row>
     <row r="75">
@@ -4271,13 +4271,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.223823</v>
+        <v>0.215372</v>
       </c>
       <c r="C75" t="n">
-        <v>0.247799</v>
+        <v>0.245296</v>
       </c>
       <c r="D75" t="n">
-        <v>0.247614</v>
+        <v>0.248581</v>
       </c>
     </row>
     <row r="76">
@@ -4285,13 +4285,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.216056</v>
+        <v>0.211931</v>
       </c>
       <c r="C76" t="n">
-        <v>0.245205</v>
+        <v>0.245245</v>
       </c>
       <c r="D76" t="n">
-        <v>0.245168</v>
+        <v>0.247476</v>
       </c>
     </row>
     <row r="77">
@@ -4299,13 +4299,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.209154</v>
+        <v>0.208226</v>
       </c>
       <c r="C77" t="n">
-        <v>0.248085</v>
+        <v>0.245389</v>
       </c>
       <c r="D77" t="n">
-        <v>0.246561</v>
+        <v>0.244252</v>
       </c>
     </row>
     <row r="78">
@@ -4313,13 +4313,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.204915</v>
+        <v>0.206392</v>
       </c>
       <c r="C78" t="n">
-        <v>0.244276</v>
+        <v>0.24291</v>
       </c>
       <c r="D78" t="n">
-        <v>0.244782</v>
+        <v>0.247481</v>
       </c>
     </row>
     <row r="79">
@@ -4327,13 +4327,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.200509</v>
+        <v>0.203115</v>
       </c>
       <c r="C79" t="n">
-        <v>0.243187</v>
+        <v>0.244768</v>
       </c>
       <c r="D79" t="n">
-        <v>0.243818</v>
+        <v>0.243163</v>
       </c>
     </row>
     <row r="80">
@@ -4341,13 +4341,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.193753</v>
+        <v>0.195281</v>
       </c>
       <c r="C80" t="n">
-        <v>0.239075</v>
+        <v>0.24156</v>
       </c>
       <c r="D80" t="n">
-        <v>0.270662</v>
+        <v>0.272006</v>
       </c>
     </row>
     <row r="81">
@@ -4355,13 +4355,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.25931</v>
+        <v>0.25825</v>
       </c>
       <c r="C81" t="n">
-        <v>0.26713</v>
+        <v>0.26902</v>
       </c>
       <c r="D81" t="n">
-        <v>0.271524</v>
+        <v>0.271081</v>
       </c>
     </row>
     <row r="82">
@@ -4369,13 +4369,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.254343</v>
+        <v>0.256618</v>
       </c>
       <c r="C82" t="n">
-        <v>0.265543</v>
+        <v>0.268656</v>
       </c>
       <c r="D82" t="n">
-        <v>0.268345</v>
+        <v>0.267316</v>
       </c>
     </row>
     <row r="83">
@@ -4383,13 +4383,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.251212</v>
+        <v>0.2491</v>
       </c>
       <c r="C83" t="n">
-        <v>0.264287</v>
+        <v>0.262248</v>
       </c>
       <c r="D83" t="n">
-        <v>0.262361</v>
+        <v>0.265349</v>
       </c>
     </row>
     <row r="84">
@@ -4397,13 +4397,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.242026</v>
+        <v>0.243652</v>
       </c>
       <c r="C84" t="n">
-        <v>0.261318</v>
+        <v>0.26466</v>
       </c>
       <c r="D84" t="n">
-        <v>0.260539</v>
+        <v>0.264002</v>
       </c>
     </row>
     <row r="85">
@@ -4411,13 +4411,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.238864</v>
+        <v>0.240498</v>
       </c>
       <c r="C85" t="n">
-        <v>0.257326</v>
+        <v>0.261209</v>
       </c>
       <c r="D85" t="n">
-        <v>0.2582</v>
+        <v>0.260499</v>
       </c>
     </row>
     <row r="86">
@@ -4425,13 +4425,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.235264</v>
+        <v>0.236277</v>
       </c>
       <c r="C86" t="n">
-        <v>0.257644</v>
+        <v>0.258531</v>
       </c>
       <c r="D86" t="n">
-        <v>0.257943</v>
+        <v>0.257929</v>
       </c>
     </row>
     <row r="87">
@@ -4439,13 +4439,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.226501</v>
+        <v>0.226622</v>
       </c>
       <c r="C87" t="n">
-        <v>0.25806</v>
+        <v>0.257804</v>
       </c>
       <c r="D87" t="n">
-        <v>0.257704</v>
+        <v>0.255672</v>
       </c>
     </row>
     <row r="88">
@@ -4453,13 +4453,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.22569</v>
+        <v>0.226105</v>
       </c>
       <c r="C88" t="n">
-        <v>0.253275</v>
+        <v>0.256152</v>
       </c>
       <c r="D88" t="n">
-        <v>0.256996</v>
+        <v>0.253474</v>
       </c>
     </row>
     <row r="89">
@@ -4467,13 +4467,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.220903</v>
+        <v>0.21906</v>
       </c>
       <c r="C89" t="n">
-        <v>0.250416</v>
+        <v>0.251896</v>
       </c>
       <c r="D89" t="n">
-        <v>0.252563</v>
+        <v>0.252861</v>
       </c>
     </row>
     <row r="90">
@@ -4481,13 +4481,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.215825</v>
+        <v>0.219891</v>
       </c>
       <c r="C90" t="n">
-        <v>0.251661</v>
+        <v>0.249146</v>
       </c>
       <c r="D90" t="n">
-        <v>0.251638</v>
+        <v>0.25056</v>
       </c>
     </row>
     <row r="91">
@@ -4495,13 +4495,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.213008</v>
+        <v>0.211821</v>
       </c>
       <c r="C91" t="n">
-        <v>0.248794</v>
+        <v>0.252445</v>
       </c>
       <c r="D91" t="n">
-        <v>0.250079</v>
+        <v>0.25156</v>
       </c>
     </row>
     <row r="92">
@@ -4509,13 +4509,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.207904</v>
+        <v>0.208528</v>
       </c>
       <c r="C92" t="n">
-        <v>0.250008</v>
+        <v>0.248322</v>
       </c>
       <c r="D92" t="n">
-        <v>0.245318</v>
+        <v>0.246859</v>
       </c>
     </row>
     <row r="93">
@@ -4523,13 +4523,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.204589</v>
+        <v>0.203993</v>
       </c>
       <c r="C93" t="n">
-        <v>0.243409</v>
+        <v>0.24621</v>
       </c>
       <c r="D93" t="n">
-        <v>0.246195</v>
+        <v>0.245876</v>
       </c>
     </row>
     <row r="94">
@@ -4537,13 +4537,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.199555</v>
+        <v>0.198438</v>
       </c>
       <c r="C94" t="n">
-        <v>0.249942</v>
+        <v>0.244723</v>
       </c>
       <c r="D94" t="n">
-        <v>0.274672</v>
+        <v>0.274283</v>
       </c>
     </row>
     <row r="95">
@@ -4551,13 +4551,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.259812</v>
+        <v>0.26154</v>
       </c>
       <c r="C95" t="n">
-        <v>0.271044</v>
+        <v>0.272708</v>
       </c>
       <c r="D95" t="n">
-        <v>0.270846</v>
+        <v>0.272065</v>
       </c>
     </row>
     <row r="96">
@@ -4565,13 +4565,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.255864</v>
+        <v>0.255222</v>
       </c>
       <c r="C96" t="n">
-        <v>0.269461</v>
+        <v>0.265552</v>
       </c>
       <c r="D96" t="n">
-        <v>0.267614</v>
+        <v>0.270973</v>
       </c>
     </row>
     <row r="97">
@@ -4579,13 +4579,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.255261</v>
+        <v>0.248876</v>
       </c>
       <c r="C97" t="n">
-        <v>0.264816</v>
+        <v>0.267035</v>
       </c>
       <c r="D97" t="n">
-        <v>0.26819</v>
+        <v>0.268338</v>
       </c>
     </row>
     <row r="98">
@@ -4593,13 +4593,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.245501</v>
+        <v>0.247181</v>
       </c>
       <c r="C98" t="n">
-        <v>0.266197</v>
+        <v>0.263545</v>
       </c>
       <c r="D98" t="n">
-        <v>0.263388</v>
+        <v>0.261039</v>
       </c>
     </row>
     <row r="99">
@@ -4607,13 +4607,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.240723</v>
+        <v>0.238386</v>
       </c>
       <c r="C99" t="n">
-        <v>0.261986</v>
+        <v>0.262569</v>
       </c>
       <c r="D99" t="n">
-        <v>0.261472</v>
+        <v>0.26257</v>
       </c>
     </row>
     <row r="100">
@@ -4621,13 +4621,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.236354</v>
+        <v>0.236017</v>
       </c>
       <c r="C100" t="n">
-        <v>0.257329</v>
+        <v>0.261127</v>
       </c>
       <c r="D100" t="n">
-        <v>0.260971</v>
+        <v>0.264211</v>
       </c>
     </row>
     <row r="101">
@@ -4635,13 +4635,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.230329</v>
+        <v>0.232053</v>
       </c>
       <c r="C101" t="n">
-        <v>0.256815</v>
+        <v>0.260135</v>
       </c>
       <c r="D101" t="n">
-        <v>0.254193</v>
+        <v>0.256712</v>
       </c>
     </row>
     <row r="102">
@@ -4649,13 +4649,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.228989</v>
+        <v>0.225932</v>
       </c>
       <c r="C102" t="n">
-        <v>0.254496</v>
+        <v>0.252193</v>
       </c>
       <c r="D102" t="n">
-        <v>0.256216</v>
+        <v>0.259115</v>
       </c>
     </row>
     <row r="103">
@@ -4663,13 +4663,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.223006</v>
+        <v>0.221369</v>
       </c>
       <c r="C103" t="n">
-        <v>0.253626</v>
+        <v>0.2554</v>
       </c>
       <c r="D103" t="n">
-        <v>0.255206</v>
+        <v>0.251748</v>
       </c>
     </row>
     <row r="104">
@@ -4677,13 +4677,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.215503</v>
+        <v>0.217697</v>
       </c>
       <c r="C104" t="n">
-        <v>0.249371</v>
+        <v>0.249218</v>
       </c>
       <c r="D104" t="n">
-        <v>0.255558</v>
+        <v>0.251999</v>
       </c>
     </row>
     <row r="105">
@@ -4691,13 +4691,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.213177</v>
+        <v>0.214534</v>
       </c>
       <c r="C105" t="n">
-        <v>0.249716</v>
+        <v>0.249736</v>
       </c>
       <c r="D105" t="n">
-        <v>0.251682</v>
+        <v>0.251881</v>
       </c>
     </row>
     <row r="106">
@@ -4705,13 +4705,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.211524</v>
+        <v>0.209129</v>
       </c>
       <c r="C106" t="n">
-        <v>0.250576</v>
+        <v>0.251811</v>
       </c>
       <c r="D106" t="n">
-        <v>0.249718</v>
+        <v>0.250908</v>
       </c>
     </row>
     <row r="107">
@@ -4719,13 +4719,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.206393</v>
+        <v>0.210192</v>
       </c>
       <c r="C107" t="n">
-        <v>0.246021</v>
+        <v>0.250449</v>
       </c>
       <c r="D107" t="n">
-        <v>0.246031</v>
+        <v>0.246329</v>
       </c>
     </row>
     <row r="108">
@@ -4733,13 +4733,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.202151</v>
+        <v>0.198645</v>
       </c>
       <c r="C108" t="n">
-        <v>0.244676</v>
+        <v>0.246545</v>
       </c>
       <c r="D108" t="n">
-        <v>0.275377</v>
+        <v>0.277107</v>
       </c>
     </row>
     <row r="109">
@@ -4747,13 +4747,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.191666</v>
+        <v>0.190707</v>
       </c>
       <c r="C109" t="n">
-        <v>0.24777</v>
+        <v>0.242212</v>
       </c>
       <c r="D109" t="n">
-        <v>0.274689</v>
+        <v>0.272356</v>
       </c>
     </row>
     <row r="110">
@@ -4761,13 +4761,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.257343</v>
+        <v>0.263023</v>
       </c>
       <c r="C110" t="n">
-        <v>0.268705</v>
+        <v>0.272174</v>
       </c>
       <c r="D110" t="n">
-        <v>0.273781</v>
+        <v>0.267649</v>
       </c>
     </row>
     <row r="111">
@@ -4775,13 +4775,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.25141</v>
+        <v>0.252442</v>
       </c>
       <c r="C111" t="n">
-        <v>0.269206</v>
+        <v>0.270818</v>
       </c>
       <c r="D111" t="n">
-        <v>0.267029</v>
+        <v>0.265762</v>
       </c>
     </row>
     <row r="112">
@@ -4789,13 +4789,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.248662</v>
+        <v>0.243882</v>
       </c>
       <c r="C112" t="n">
-        <v>0.268004</v>
+        <v>0.26537</v>
       </c>
       <c r="D112" t="n">
-        <v>0.263473</v>
+        <v>0.267312</v>
       </c>
     </row>
     <row r="113">
@@ -4803,13 +4803,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.244218</v>
+        <v>0.241248</v>
       </c>
       <c r="C113" t="n">
-        <v>0.264305</v>
+        <v>0.258226</v>
       </c>
       <c r="D113" t="n">
-        <v>0.260836</v>
+        <v>0.265325</v>
       </c>
     </row>
     <row r="114">
@@ -4817,13 +4817,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.239104</v>
+        <v>0.236351</v>
       </c>
       <c r="C114" t="n">
-        <v>0.264163</v>
+        <v>0.259639</v>
       </c>
       <c r="D114" t="n">
-        <v>0.261798</v>
+        <v>0.260814</v>
       </c>
     </row>
     <row r="115">
@@ -4831,13 +4831,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.234144</v>
+        <v>0.23325</v>
       </c>
       <c r="C115" t="n">
-        <v>0.257826</v>
+        <v>0.25871</v>
       </c>
       <c r="D115" t="n">
-        <v>0.259465</v>
+        <v>0.260295</v>
       </c>
     </row>
     <row r="116">
@@ -4845,13 +4845,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.227653</v>
+        <v>0.227876</v>
       </c>
       <c r="C116" t="n">
-        <v>0.253533</v>
+        <v>0.261819</v>
       </c>
       <c r="D116" t="n">
-        <v>0.258823</v>
+        <v>0.258249</v>
       </c>
     </row>
     <row r="117">
@@ -4859,13 +4859,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.223607</v>
+        <v>0.223503</v>
       </c>
       <c r="C117" t="n">
-        <v>0.252044</v>
+        <v>0.253936</v>
       </c>
       <c r="D117" t="n">
-        <v>0.255905</v>
+        <v>0.257239</v>
       </c>
     </row>
     <row r="118">
@@ -4873,13 +4873,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.218168</v>
+        <v>0.221251</v>
       </c>
       <c r="C118" t="n">
-        <v>0.252675</v>
+        <v>0.254554</v>
       </c>
       <c r="D118" t="n">
-        <v>0.251513</v>
+        <v>0.252306</v>
       </c>
     </row>
     <row r="119">
@@ -4887,13 +4887,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.215418</v>
+        <v>0.217258</v>
       </c>
       <c r="C119" t="n">
-        <v>0.246775</v>
+        <v>0.248683</v>
       </c>
       <c r="D119" t="n">
-        <v>0.250415</v>
+        <v>0.250088</v>
       </c>
     </row>
     <row r="120">
@@ -4901,13 +4901,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.21106</v>
+        <v>0.210569</v>
       </c>
       <c r="C120" t="n">
-        <v>0.249501</v>
+        <v>0.250287</v>
       </c>
       <c r="D120" t="n">
-        <v>0.251104</v>
+        <v>0.253454</v>
       </c>
     </row>
     <row r="121">
@@ -4915,13 +4915,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.205698</v>
+        <v>0.208238</v>
       </c>
       <c r="C121" t="n">
-        <v>0.247347</v>
+        <v>0.245685</v>
       </c>
       <c r="D121" t="n">
-        <v>0.250762</v>
+        <v>0.2495</v>
       </c>
     </row>
     <row r="122">
@@ -4929,13 +4929,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.199599</v>
+        <v>0.202941</v>
       </c>
       <c r="C122" t="n">
-        <v>0.245907</v>
+        <v>0.250375</v>
       </c>
       <c r="D122" t="n">
-        <v>0.249357</v>
+        <v>0.245956</v>
       </c>
     </row>
     <row r="123">
@@ -4943,13 +4943,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.193591</v>
+        <v>0.18996</v>
       </c>
       <c r="C123" t="n">
-        <v>0.246855</v>
+        <v>0.244063</v>
       </c>
       <c r="D123" t="n">
-        <v>0.274128</v>
+        <v>0.273135</v>
       </c>
     </row>
     <row r="124">
@@ -4957,13 +4957,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.256469</v>
+        <v>0.261717</v>
       </c>
       <c r="C124" t="n">
-        <v>0.270474</v>
+        <v>0.273728</v>
       </c>
       <c r="D124" t="n">
-        <v>0.275562</v>
+        <v>0.268227</v>
       </c>
     </row>
     <row r="125">
@@ -4971,13 +4971,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.258079</v>
+        <v>0.255692</v>
       </c>
       <c r="C125" t="n">
-        <v>0.264668</v>
+        <v>0.270145</v>
       </c>
       <c r="D125" t="n">
-        <v>0.271205</v>
+        <v>0.270087</v>
       </c>
     </row>
     <row r="126">
@@ -4985,13 +4985,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.249336</v>
+        <v>0.248467</v>
       </c>
       <c r="C126" t="n">
-        <v>0.265405</v>
+        <v>0.265805</v>
       </c>
       <c r="D126" t="n">
-        <v>0.270078</v>
+        <v>0.270592</v>
       </c>
     </row>
     <row r="127">
@@ -4999,13 +4999,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.243263</v>
+        <v>0.243845</v>
       </c>
       <c r="C127" t="n">
-        <v>0.264017</v>
+        <v>0.26365</v>
       </c>
       <c r="D127" t="n">
-        <v>0.262836</v>
+        <v>0.26265</v>
       </c>
     </row>
     <row r="128">
@@ -5013,13 +5013,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.239551</v>
+        <v>0.237033</v>
       </c>
       <c r="C128" t="n">
-        <v>0.26126</v>
+        <v>0.264325</v>
       </c>
       <c r="D128" t="n">
-        <v>0.261993</v>
+        <v>0.259278</v>
       </c>
     </row>
     <row r="129">
@@ -5027,13 +5027,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.233119</v>
+        <v>0.233553</v>
       </c>
       <c r="C129" t="n">
-        <v>0.260594</v>
+        <v>0.262337</v>
       </c>
       <c r="D129" t="n">
-        <v>0.259886</v>
+        <v>0.25964</v>
       </c>
     </row>
     <row r="130">
@@ -5041,13 +5041,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.231357</v>
+        <v>0.227521</v>
       </c>
       <c r="C130" t="n">
-        <v>0.260212</v>
+        <v>0.255915</v>
       </c>
       <c r="D130" t="n">
-        <v>0.26097</v>
+        <v>0.259497</v>
       </c>
     </row>
     <row r="131">
@@ -5055,13 +5055,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.225865</v>
+        <v>0.225985</v>
       </c>
       <c r="C131" t="n">
-        <v>0.253513</v>
+        <v>0.25751</v>
       </c>
       <c r="D131" t="n">
-        <v>0.251688</v>
+        <v>0.25375</v>
       </c>
     </row>
     <row r="132">
@@ -5069,13 +5069,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.222087</v>
+        <v>0.222373</v>
       </c>
       <c r="C132" t="n">
-        <v>0.252977</v>
+        <v>0.250197</v>
       </c>
       <c r="D132" t="n">
-        <v>0.256028</v>
+        <v>0.264012</v>
       </c>
     </row>
     <row r="133">
@@ -5083,13 +5083,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.214089</v>
+        <v>0.218318</v>
       </c>
       <c r="C133" t="n">
-        <v>0.248941</v>
+        <v>0.254101</v>
       </c>
       <c r="D133" t="n">
-        <v>0.253303</v>
+        <v>0.251204</v>
       </c>
     </row>
     <row r="134">
@@ -5097,13 +5097,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.211791</v>
+        <v>0.214244</v>
       </c>
       <c r="C134" t="n">
-        <v>0.249868</v>
+        <v>0.254125</v>
       </c>
       <c r="D134" t="n">
-        <v>0.247313</v>
+        <v>0.249814</v>
       </c>
     </row>
     <row r="135">
@@ -5111,13 +5111,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.209213</v>
+        <v>0.206617</v>
       </c>
       <c r="C135" t="n">
-        <v>0.248995</v>
+        <v>0.250584</v>
       </c>
       <c r="D135" t="n">
-        <v>0.248723</v>
+        <v>0.250649</v>
       </c>
     </row>
     <row r="136">
@@ -5125,13 +5125,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.201796</v>
+        <v>0.201629</v>
       </c>
       <c r="C136" t="n">
-        <v>0.246857</v>
+        <v>0.247563</v>
       </c>
       <c r="D136" t="n">
-        <v>0.246327</v>
+        <v>0.245949</v>
       </c>
     </row>
     <row r="137">
@@ -5139,13 +5139,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.192857</v>
+        <v>0.19322</v>
       </c>
       <c r="C137" t="n">
-        <v>0.242263</v>
+        <v>0.245978</v>
       </c>
       <c r="D137" t="n">
-        <v>0.272562</v>
+        <v>0.273449</v>
       </c>
     </row>
     <row r="138">
@@ -5153,13 +5153,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.259127</v>
+        <v>0.262323</v>
       </c>
       <c r="C138" t="n">
-        <v>0.272634</v>
+        <v>0.272404</v>
       </c>
       <c r="D138" t="n">
-        <v>0.275009</v>
+        <v>0.272593</v>
       </c>
     </row>
     <row r="139">
@@ -5167,13 +5167,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.2527</v>
+        <v>0.256623</v>
       </c>
       <c r="C139" t="n">
-        <v>0.273586</v>
+        <v>0.270345</v>
       </c>
       <c r="D139" t="n">
-        <v>0.272661</v>
+        <v>0.2781</v>
       </c>
     </row>
     <row r="140">
@@ -5181,13 +5181,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.249395</v>
+        <v>0.248763</v>
       </c>
       <c r="C140" t="n">
-        <v>0.263586</v>
+        <v>0.263769</v>
       </c>
       <c r="D140" t="n">
-        <v>0.268271</v>
+        <v>0.262857</v>
       </c>
     </row>
     <row r="141">
@@ -5195,13 +5195,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.246802</v>
+        <v>0.244654</v>
       </c>
       <c r="C141" t="n">
-        <v>0.264666</v>
+        <v>0.261715</v>
       </c>
       <c r="D141" t="n">
-        <v>0.264377</v>
+        <v>0.264374</v>
       </c>
     </row>
     <row r="142">
@@ -5209,13 +5209,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.238793</v>
+        <v>0.240209</v>
       </c>
       <c r="C142" t="n">
-        <v>0.257163</v>
+        <v>0.262274</v>
       </c>
       <c r="D142" t="n">
-        <v>0.264936</v>
+        <v>0.269874</v>
       </c>
     </row>
     <row r="143">
@@ -5223,13 +5223,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.229485</v>
+        <v>0.235861</v>
       </c>
       <c r="C143" t="n">
-        <v>0.255699</v>
+        <v>0.261083</v>
       </c>
       <c r="D143" t="n">
-        <v>0.259969</v>
+        <v>0.260431</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Running erasure.xlsx
+++ b/vs-x64/Running erasure.xlsx
@@ -3249,13 +3249,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.207786</v>
+        <v>0.205427</v>
       </c>
       <c r="C2" t="n">
-        <v>0.241858</v>
+        <v>0.236535</v>
       </c>
       <c r="D2" t="n">
-        <v>0.243125</v>
+        <v>0.238143</v>
       </c>
     </row>
     <row r="3">
@@ -3263,13 +3263,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.204639</v>
+        <v>0.205489</v>
       </c>
       <c r="C3" t="n">
-        <v>0.239223</v>
+        <v>0.235425</v>
       </c>
       <c r="D3" t="n">
-        <v>0.23618</v>
+        <v>0.246825</v>
       </c>
     </row>
     <row r="4">
@@ -3277,13 +3277,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.198051</v>
+        <v>0.202475</v>
       </c>
       <c r="C4" t="n">
-        <v>0.232467</v>
+        <v>0.241812</v>
       </c>
       <c r="D4" t="n">
-        <v>0.235092</v>
+        <v>0.235865</v>
       </c>
     </row>
     <row r="5">
@@ -3291,13 +3291,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.19673</v>
+        <v>0.195214</v>
       </c>
       <c r="C5" t="n">
-        <v>0.231767</v>
+        <v>0.23839</v>
       </c>
       <c r="D5" t="n">
-        <v>0.236374</v>
+        <v>0.23986</v>
       </c>
     </row>
     <row r="6">
@@ -3305,13 +3305,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.189249</v>
+        <v>0.192388</v>
       </c>
       <c r="C6" t="n">
-        <v>0.232891</v>
+        <v>0.233742</v>
       </c>
       <c r="D6" t="n">
-        <v>0.230418</v>
+        <v>0.237138</v>
       </c>
     </row>
     <row r="7">
@@ -3319,13 +3319,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.192438</v>
+        <v>0.186082</v>
       </c>
       <c r="C7" t="n">
-        <v>0.230214</v>
+        <v>0.2279</v>
       </c>
       <c r="D7" t="n">
-        <v>0.233066</v>
+        <v>0.237762</v>
       </c>
     </row>
     <row r="8">
@@ -3333,13 +3333,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.185719</v>
+        <v>0.180281</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2311</v>
+        <v>0.233849</v>
       </c>
       <c r="D8" t="n">
-        <v>0.229449</v>
+        <v>0.230595</v>
       </c>
     </row>
     <row r="9">
@@ -3347,13 +3347,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.176926</v>
+        <v>0.177626</v>
       </c>
       <c r="C9" t="n">
-        <v>0.234516</v>
+        <v>0.228638</v>
       </c>
       <c r="D9" t="n">
-        <v>0.246848</v>
+        <v>0.243576</v>
       </c>
     </row>
     <row r="10">
@@ -3361,13 +3361,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.236118</v>
+        <v>0.231409</v>
       </c>
       <c r="C10" t="n">
-        <v>0.246282</v>
+        <v>0.240633</v>
       </c>
       <c r="D10" t="n">
-        <v>0.239145</v>
+        <v>0.246062</v>
       </c>
     </row>
     <row r="11">
@@ -3375,13 +3375,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.226689</v>
+        <v>0.223205</v>
       </c>
       <c r="C11" t="n">
-        <v>0.242485</v>
+        <v>0.244974</v>
       </c>
       <c r="D11" t="n">
-        <v>0.243519</v>
+        <v>0.236921</v>
       </c>
     </row>
     <row r="12">
@@ -3389,13 +3389,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.22294</v>
+        <v>0.223741</v>
       </c>
       <c r="C12" t="n">
-        <v>0.240819</v>
+        <v>0.241289</v>
       </c>
       <c r="D12" t="n">
-        <v>0.23772</v>
+        <v>0.237991</v>
       </c>
     </row>
     <row r="13">
@@ -3403,13 +3403,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.217539</v>
+        <v>0.218543</v>
       </c>
       <c r="C13" t="n">
-        <v>0.24298</v>
+        <v>0.24885</v>
       </c>
       <c r="D13" t="n">
-        <v>0.240551</v>
+        <v>0.236152</v>
       </c>
     </row>
     <row r="14">
@@ -3417,13 +3417,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.212875</v>
+        <v>0.213738</v>
       </c>
       <c r="C14" t="n">
-        <v>0.239349</v>
+        <v>0.236568</v>
       </c>
       <c r="D14" t="n">
-        <v>0.240176</v>
+        <v>0.239841</v>
       </c>
     </row>
     <row r="15">
@@ -3431,13 +3431,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.211478</v>
+        <v>0.21266</v>
       </c>
       <c r="C15" t="n">
-        <v>0.236786</v>
+        <v>0.238368</v>
       </c>
       <c r="D15" t="n">
-        <v>0.238336</v>
+        <v>0.240226</v>
       </c>
     </row>
     <row r="16">
@@ -3445,13 +3445,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.207573</v>
+        <v>0.207873</v>
       </c>
       <c r="C16" t="n">
-        <v>0.235036</v>
+        <v>0.23704</v>
       </c>
       <c r="D16" t="n">
-        <v>0.239411</v>
+        <v>0.235824</v>
       </c>
     </row>
     <row r="17">
@@ -3459,13 +3459,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.200973</v>
+        <v>0.20144</v>
       </c>
       <c r="C17" t="n">
-        <v>0.235347</v>
+        <v>0.232463</v>
       </c>
       <c r="D17" t="n">
-        <v>0.241864</v>
+        <v>0.243408</v>
       </c>
     </row>
     <row r="18">
@@ -3473,13 +3473,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.202276</v>
+        <v>0.201445</v>
       </c>
       <c r="C18" t="n">
-        <v>0.233515</v>
+        <v>0.230671</v>
       </c>
       <c r="D18" t="n">
-        <v>0.23499</v>
+        <v>0.237484</v>
       </c>
     </row>
     <row r="19">
@@ -3487,13 +3487,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.203126</v>
+        <v>0.198112</v>
       </c>
       <c r="C19" t="n">
-        <v>0.232418</v>
+        <v>0.23722</v>
       </c>
       <c r="D19" t="n">
-        <v>0.234477</v>
+        <v>0.234415</v>
       </c>
     </row>
     <row r="20">
@@ -3501,13 +3501,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.195456</v>
+        <v>0.197616</v>
       </c>
       <c r="C20" t="n">
-        <v>0.237874</v>
+        <v>0.230038</v>
       </c>
       <c r="D20" t="n">
-        <v>0.23752</v>
+        <v>0.234613</v>
       </c>
     </row>
     <row r="21">
@@ -3515,13 +3515,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.190714</v>
+        <v>0.19164</v>
       </c>
       <c r="C21" t="n">
-        <v>0.231661</v>
+        <v>0.230117</v>
       </c>
       <c r="D21" t="n">
-        <v>0.231861</v>
+        <v>0.234785</v>
       </c>
     </row>
     <row r="22">
@@ -3529,13 +3529,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.185697</v>
+        <v>0.187495</v>
       </c>
       <c r="C22" t="n">
-        <v>0.239076</v>
+        <v>0.229514</v>
       </c>
       <c r="D22" t="n">
-        <v>0.232693</v>
+        <v>0.236942</v>
       </c>
     </row>
     <row r="23">
@@ -3543,13 +3543,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.179016</v>
+        <v>0.178174</v>
       </c>
       <c r="C23" t="n">
-        <v>0.227834</v>
+        <v>0.231884</v>
       </c>
       <c r="D23" t="n">
-        <v>0.245359</v>
+        <v>0.246254</v>
       </c>
     </row>
     <row r="24">
@@ -3557,13 +3557,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.2374</v>
+        <v>0.23431</v>
       </c>
       <c r="C24" t="n">
-        <v>0.250086</v>
+        <v>0.24772</v>
       </c>
       <c r="D24" t="n">
-        <v>0.247523</v>
+        <v>0.245022</v>
       </c>
     </row>
     <row r="25">
@@ -3571,13 +3571,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.234908</v>
+        <v>0.230086</v>
       </c>
       <c r="C25" t="n">
-        <v>0.246119</v>
+        <v>0.243228</v>
       </c>
       <c r="D25" t="n">
-        <v>0.241953</v>
+        <v>0.24733</v>
       </c>
     </row>
     <row r="26">
@@ -3585,13 +3585,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.227917</v>
+        <v>0.230488</v>
       </c>
       <c r="C26" t="n">
-        <v>0.24332</v>
+        <v>0.239636</v>
       </c>
       <c r="D26" t="n">
-        <v>0.242095</v>
+        <v>0.242794</v>
       </c>
     </row>
     <row r="27">
@@ -3599,13 +3599,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.224122</v>
+        <v>0.223742</v>
       </c>
       <c r="C27" t="n">
-        <v>0.242917</v>
+        <v>0.241899</v>
       </c>
       <c r="D27" t="n">
-        <v>0.241326</v>
+        <v>0.240907</v>
       </c>
     </row>
     <row r="28">
@@ -3613,13 +3613,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.220756</v>
+        <v>0.220616</v>
       </c>
       <c r="C28" t="n">
-        <v>0.239436</v>
+        <v>0.238929</v>
       </c>
       <c r="D28" t="n">
-        <v>0.236766</v>
+        <v>0.241086</v>
       </c>
     </row>
     <row r="29">
@@ -3627,13 +3627,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.215681</v>
+        <v>0.2142</v>
       </c>
       <c r="C29" t="n">
-        <v>0.243514</v>
+        <v>0.2381</v>
       </c>
       <c r="D29" t="n">
-        <v>0.240317</v>
+        <v>0.242382</v>
       </c>
     </row>
     <row r="30">
@@ -3641,13 +3641,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.210821</v>
+        <v>0.213954</v>
       </c>
       <c r="C30" t="n">
-        <v>0.235752</v>
+        <v>0.236364</v>
       </c>
       <c r="D30" t="n">
-        <v>0.243899</v>
+        <v>0.237087</v>
       </c>
     </row>
     <row r="31">
@@ -3655,13 +3655,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.208701</v>
+        <v>0.207975</v>
       </c>
       <c r="C31" t="n">
-        <v>0.238004</v>
+        <v>0.237712</v>
       </c>
       <c r="D31" t="n">
-        <v>0.245691</v>
+        <v>0.233356</v>
       </c>
     </row>
     <row r="32">
@@ -3669,13 +3669,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.208875</v>
+        <v>0.20701</v>
       </c>
       <c r="C32" t="n">
-        <v>0.234569</v>
+        <v>0.235695</v>
       </c>
       <c r="D32" t="n">
-        <v>0.233374</v>
+        <v>0.239186</v>
       </c>
     </row>
     <row r="33">
@@ -3683,13 +3683,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.200663</v>
+        <v>0.201799</v>
       </c>
       <c r="C33" t="n">
-        <v>0.232752</v>
+        <v>0.23699</v>
       </c>
       <c r="D33" t="n">
-        <v>0.238202</v>
+        <v>0.234491</v>
       </c>
     </row>
     <row r="34">
@@ -3697,13 +3697,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.196499</v>
+        <v>0.200417</v>
       </c>
       <c r="C34" t="n">
-        <v>0.233572</v>
+        <v>0.233464</v>
       </c>
       <c r="D34" t="n">
-        <v>0.23532</v>
+        <v>0.241338</v>
       </c>
     </row>
     <row r="35">
@@ -3711,13 +3711,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.193206</v>
+        <v>0.196877</v>
       </c>
       <c r="C35" t="n">
-        <v>0.232607</v>
+        <v>0.230918</v>
       </c>
       <c r="D35" t="n">
-        <v>0.23758</v>
+        <v>0.236022</v>
       </c>
     </row>
     <row r="36">
@@ -3725,13 +3725,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.19297</v>
+        <v>0.191584</v>
       </c>
       <c r="C36" t="n">
-        <v>0.22984</v>
+        <v>0.230588</v>
       </c>
       <c r="D36" t="n">
-        <v>0.236212</v>
+        <v>0.235113</v>
       </c>
     </row>
     <row r="37">
@@ -3739,13 +3739,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.186339</v>
+        <v>0.185793</v>
       </c>
       <c r="C37" t="n">
-        <v>0.232136</v>
+        <v>0.232137</v>
       </c>
       <c r="D37" t="n">
-        <v>0.260254</v>
+        <v>0.260684</v>
       </c>
     </row>
     <row r="38">
@@ -3753,13 +3753,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.237334</v>
+        <v>0.243384</v>
       </c>
       <c r="C38" t="n">
-        <v>0.260093</v>
+        <v>0.258732</v>
       </c>
       <c r="D38" t="n">
-        <v>0.257403</v>
+        <v>0.259978</v>
       </c>
     </row>
     <row r="39">
@@ -3767,13 +3767,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.237653</v>
+        <v>0.238118</v>
       </c>
       <c r="C39" t="n">
-        <v>0.258717</v>
+        <v>0.254856</v>
       </c>
       <c r="D39" t="n">
-        <v>0.25888</v>
+        <v>0.258084</v>
       </c>
     </row>
     <row r="40">
@@ -3781,13 +3781,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.232217</v>
+        <v>0.234067</v>
       </c>
       <c r="C40" t="n">
-        <v>0.257097</v>
+        <v>0.255181</v>
       </c>
       <c r="D40" t="n">
-        <v>0.256003</v>
+        <v>0.255547</v>
       </c>
     </row>
     <row r="41">
@@ -3795,13 +3795,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.226245</v>
+        <v>0.224851</v>
       </c>
       <c r="C41" t="n">
-        <v>0.252461</v>
+        <v>0.256647</v>
       </c>
       <c r="D41" t="n">
-        <v>0.252105</v>
+        <v>0.254325</v>
       </c>
     </row>
     <row r="42">
@@ -3809,13 +3809,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.224345</v>
+        <v>0.223528</v>
       </c>
       <c r="C42" t="n">
-        <v>0.251065</v>
+        <v>0.250103</v>
       </c>
       <c r="D42" t="n">
-        <v>0.254253</v>
+        <v>0.255579</v>
       </c>
     </row>
     <row r="43">
@@ -3823,13 +3823,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.219648</v>
+        <v>0.217494</v>
       </c>
       <c r="C43" t="n">
-        <v>0.248069</v>
+        <v>0.252709</v>
       </c>
       <c r="D43" t="n">
-        <v>0.249445</v>
+        <v>0.25215</v>
       </c>
     </row>
     <row r="44">
@@ -3837,13 +3837,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.215999</v>
+        <v>0.216803</v>
       </c>
       <c r="C44" t="n">
-        <v>0.249168</v>
+        <v>0.246559</v>
       </c>
       <c r="D44" t="n">
-        <v>0.245768</v>
+        <v>0.24769</v>
       </c>
     </row>
     <row r="45">
@@ -3851,13 +3851,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.211228</v>
+        <v>0.212345</v>
       </c>
       <c r="C45" t="n">
-        <v>0.246792</v>
+        <v>0.245207</v>
       </c>
       <c r="D45" t="n">
-        <v>0.248951</v>
+        <v>0.250959</v>
       </c>
     </row>
     <row r="46">
@@ -3865,13 +3865,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.208166</v>
+        <v>0.211298</v>
       </c>
       <c r="C46" t="n">
-        <v>0.243272</v>
+        <v>0.242538</v>
       </c>
       <c r="D46" t="n">
-        <v>0.24563</v>
+        <v>0.244643</v>
       </c>
     </row>
     <row r="47">
@@ -3879,13 +3879,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.203415</v>
+        <v>0.207678</v>
       </c>
       <c r="C47" t="n">
-        <v>0.245156</v>
+        <v>0.244682</v>
       </c>
       <c r="D47" t="n">
-        <v>0.241849</v>
+        <v>0.248718</v>
       </c>
     </row>
     <row r="48">
@@ -3893,13 +3893,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.202688</v>
+        <v>0.202774</v>
       </c>
       <c r="C48" t="n">
-        <v>0.240717</v>
+        <v>0.24196</v>
       </c>
       <c r="D48" t="n">
-        <v>0.24384</v>
+        <v>0.243238</v>
       </c>
     </row>
     <row r="49">
@@ -3907,13 +3907,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.197628</v>
+        <v>0.198696</v>
       </c>
       <c r="C49" t="n">
-        <v>0.240258</v>
+        <v>0.243267</v>
       </c>
       <c r="D49" t="n">
-        <v>0.242281</v>
+        <v>0.240516</v>
       </c>
     </row>
     <row r="50">
@@ -3921,13 +3921,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.195341</v>
+        <v>0.196669</v>
       </c>
       <c r="C50" t="n">
-        <v>0.237516</v>
+        <v>0.244355</v>
       </c>
       <c r="D50" t="n">
-        <v>0.240035</v>
+        <v>0.238423</v>
       </c>
     </row>
     <row r="51">
@@ -3935,13 +3935,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.188493</v>
+        <v>0.187694</v>
       </c>
       <c r="C51" t="n">
-        <v>0.236026</v>
+        <v>0.239363</v>
       </c>
       <c r="D51" t="n">
-        <v>0.262693</v>
+        <v>0.261672</v>
       </c>
     </row>
     <row r="52">
@@ -3949,13 +3949,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.181748</v>
+        <v>0.181129</v>
       </c>
       <c r="C52" t="n">
-        <v>0.239791</v>
+        <v>0.237598</v>
       </c>
       <c r="D52" t="n">
-        <v>0.263342</v>
+        <v>0.260768</v>
       </c>
     </row>
     <row r="53">
@@ -3963,13 +3963,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.24361</v>
+        <v>0.247498</v>
       </c>
       <c r="C53" t="n">
-        <v>0.257213</v>
+        <v>0.258982</v>
       </c>
       <c r="D53" t="n">
-        <v>0.258014</v>
+        <v>0.259212</v>
       </c>
     </row>
     <row r="54">
@@ -3977,13 +3977,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.240958</v>
+        <v>0.239783</v>
       </c>
       <c r="C54" t="n">
-        <v>0.25686</v>
+        <v>0.254806</v>
       </c>
       <c r="D54" t="n">
-        <v>0.258944</v>
+        <v>0.255714</v>
       </c>
     </row>
     <row r="55">
@@ -3991,13 +3991,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.235705</v>
+        <v>0.23274</v>
       </c>
       <c r="C55" t="n">
-        <v>0.252377</v>
+        <v>0.253468</v>
       </c>
       <c r="D55" t="n">
-        <v>0.255451</v>
+        <v>0.25466</v>
       </c>
     </row>
     <row r="56">
@@ -4005,13 +4005,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.232717</v>
+        <v>0.231531</v>
       </c>
       <c r="C56" t="n">
-        <v>0.252389</v>
+        <v>0.251485</v>
       </c>
       <c r="D56" t="n">
-        <v>0.254378</v>
+        <v>0.253124</v>
       </c>
     </row>
     <row r="57">
@@ -4019,13 +4019,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.226264</v>
+        <v>0.225068</v>
       </c>
       <c r="C57" t="n">
-        <v>0.25243</v>
+        <v>0.250307</v>
       </c>
       <c r="D57" t="n">
-        <v>0.248922</v>
+        <v>0.254665</v>
       </c>
     </row>
     <row r="58">
@@ -4033,13 +4033,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.221551</v>
+        <v>0.220764</v>
       </c>
       <c r="C58" t="n">
-        <v>0.249469</v>
+        <v>0.245909</v>
       </c>
       <c r="D58" t="n">
-        <v>0.248551</v>
+        <v>0.24914</v>
       </c>
     </row>
     <row r="59">
@@ -4047,13 +4047,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.217726</v>
+        <v>0.216216</v>
       </c>
       <c r="C59" t="n">
-        <v>0.245983</v>
+        <v>0.24564</v>
       </c>
       <c r="D59" t="n">
-        <v>0.247734</v>
+        <v>0.249231</v>
       </c>
     </row>
     <row r="60">
@@ -4061,13 +4061,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.214534</v>
+        <v>0.214926</v>
       </c>
       <c r="C60" t="n">
-        <v>0.244312</v>
+        <v>0.247419</v>
       </c>
       <c r="D60" t="n">
-        <v>0.245965</v>
+        <v>0.245224</v>
       </c>
     </row>
     <row r="61">
@@ -4075,13 +4075,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.211302</v>
+        <v>0.206845</v>
       </c>
       <c r="C61" t="n">
-        <v>0.243026</v>
+        <v>0.246145</v>
       </c>
       <c r="D61" t="n">
-        <v>0.244673</v>
+        <v>0.245004</v>
       </c>
     </row>
     <row r="62">
@@ -4089,13 +4089,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.205268</v>
+        <v>0.205249</v>
       </c>
       <c r="C62" t="n">
-        <v>0.243122</v>
+        <v>0.244762</v>
       </c>
       <c r="D62" t="n">
-        <v>0.242432</v>
+        <v>0.247081</v>
       </c>
     </row>
     <row r="63">
@@ -4103,13 +4103,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.202332</v>
+        <v>0.205686</v>
       </c>
       <c r="C63" t="n">
-        <v>0.240848</v>
+        <v>0.240804</v>
       </c>
       <c r="D63" t="n">
-        <v>0.241159</v>
+        <v>0.243074</v>
       </c>
     </row>
     <row r="64">
@@ -4117,13 +4117,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.200845</v>
+        <v>0.195946</v>
       </c>
       <c r="C64" t="n">
-        <v>0.239106</v>
+        <v>0.241201</v>
       </c>
       <c r="D64" t="n">
-        <v>0.242142</v>
+        <v>0.240041</v>
       </c>
     </row>
     <row r="65">
@@ -4131,13 +4131,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.193909</v>
+        <v>0.193675</v>
       </c>
       <c r="C65" t="n">
-        <v>0.241169</v>
+        <v>0.238362</v>
       </c>
       <c r="D65" t="n">
-        <v>0.237124</v>
+        <v>0.238689</v>
       </c>
     </row>
     <row r="66">
@@ -4145,13 +4145,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.188571</v>
+        <v>0.185915</v>
       </c>
       <c r="C66" t="n">
-        <v>0.239484</v>
+        <v>0.236392</v>
       </c>
       <c r="D66" t="n">
-        <v>0.26681</v>
+        <v>0.264227</v>
       </c>
     </row>
     <row r="67">
@@ -4159,13 +4159,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.255249</v>
+        <v>0.256435</v>
       </c>
       <c r="C67" t="n">
-        <v>0.261876</v>
+        <v>0.264199</v>
       </c>
       <c r="D67" t="n">
-        <v>0.263056</v>
+        <v>0.266562</v>
       </c>
     </row>
     <row r="68">
@@ -4173,13 +4173,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.2497</v>
+        <v>0.252122</v>
       </c>
       <c r="C68" t="n">
-        <v>0.261295</v>
+        <v>0.263198</v>
       </c>
       <c r="D68" t="n">
-        <v>0.261811</v>
+        <v>0.263363</v>
       </c>
     </row>
     <row r="69">
@@ -4187,13 +4187,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.245741</v>
+        <v>0.247252</v>
       </c>
       <c r="C69" t="n">
-        <v>0.258376</v>
+        <v>0.257457</v>
       </c>
       <c r="D69" t="n">
-        <v>0.261385</v>
+        <v>0.265416</v>
       </c>
     </row>
     <row r="70">
@@ -4201,13 +4201,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.241868</v>
+        <v>0.242388</v>
       </c>
       <c r="C70" t="n">
-        <v>0.25539</v>
+        <v>0.259508</v>
       </c>
       <c r="D70" t="n">
-        <v>0.26045</v>
+        <v>0.255211</v>
       </c>
     </row>
     <row r="71">
@@ -4215,13 +4215,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.234886</v>
+        <v>0.233977</v>
       </c>
       <c r="C71" t="n">
-        <v>0.256752</v>
+        <v>0.25427</v>
       </c>
       <c r="D71" t="n">
-        <v>0.259161</v>
+        <v>0.253447</v>
       </c>
     </row>
     <row r="72">
@@ -4229,13 +4229,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.226582</v>
+        <v>0.233031</v>
       </c>
       <c r="C72" t="n">
-        <v>0.255065</v>
+        <v>0.252756</v>
       </c>
       <c r="D72" t="n">
-        <v>0.254267</v>
+        <v>0.25267</v>
       </c>
     </row>
     <row r="73">
@@ -4243,13 +4243,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.22702</v>
+        <v>0.224872</v>
       </c>
       <c r="C73" t="n">
-        <v>0.252595</v>
+        <v>0.251107</v>
       </c>
       <c r="D73" t="n">
-        <v>0.25285</v>
+        <v>0.253766</v>
       </c>
     </row>
     <row r="74">
@@ -4257,13 +4257,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.221545</v>
+        <v>0.222329</v>
       </c>
       <c r="C74" t="n">
-        <v>0.255224</v>
+        <v>0.251571</v>
       </c>
       <c r="D74" t="n">
-        <v>0.250991</v>
+        <v>0.250165</v>
       </c>
     </row>
     <row r="75">
@@ -4271,13 +4271,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.215372</v>
+        <v>0.219562</v>
       </c>
       <c r="C75" t="n">
-        <v>0.245296</v>
+        <v>0.250805</v>
       </c>
       <c r="D75" t="n">
-        <v>0.248581</v>
+        <v>0.250394</v>
       </c>
     </row>
     <row r="76">
@@ -4285,13 +4285,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.211931</v>
+        <v>0.216433</v>
       </c>
       <c r="C76" t="n">
-        <v>0.245245</v>
+        <v>0.2483</v>
       </c>
       <c r="D76" t="n">
-        <v>0.247476</v>
+        <v>0.248171</v>
       </c>
     </row>
     <row r="77">
@@ -4299,13 +4299,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.208226</v>
+        <v>0.210647</v>
       </c>
       <c r="C77" t="n">
-        <v>0.245389</v>
+        <v>0.24478</v>
       </c>
       <c r="D77" t="n">
-        <v>0.244252</v>
+        <v>0.245236</v>
       </c>
     </row>
     <row r="78">
@@ -4313,13 +4313,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.206392</v>
+        <v>0.204667</v>
       </c>
       <c r="C78" t="n">
-        <v>0.24291</v>
+        <v>0.243553</v>
       </c>
       <c r="D78" t="n">
-        <v>0.247481</v>
+        <v>0.246117</v>
       </c>
     </row>
     <row r="79">
@@ -4327,13 +4327,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.203115</v>
+        <v>0.203336</v>
       </c>
       <c r="C79" t="n">
-        <v>0.244768</v>
+        <v>0.243295</v>
       </c>
       <c r="D79" t="n">
-        <v>0.243163</v>
+        <v>0.243139</v>
       </c>
     </row>
     <row r="80">
@@ -4341,13 +4341,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.195281</v>
+        <v>0.194063</v>
       </c>
       <c r="C80" t="n">
-        <v>0.24156</v>
+        <v>0.241519</v>
       </c>
       <c r="D80" t="n">
-        <v>0.272006</v>
+        <v>0.275044</v>
       </c>
     </row>
     <row r="81">
@@ -4355,13 +4355,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.25825</v>
+        <v>0.259331</v>
       </c>
       <c r="C81" t="n">
-        <v>0.26902</v>
+        <v>0.270358</v>
       </c>
       <c r="D81" t="n">
-        <v>0.271081</v>
+        <v>0.270416</v>
       </c>
     </row>
     <row r="82">
@@ -4369,13 +4369,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.256618</v>
+        <v>0.253659</v>
       </c>
       <c r="C82" t="n">
-        <v>0.268656</v>
+        <v>0.267012</v>
       </c>
       <c r="D82" t="n">
-        <v>0.267316</v>
+        <v>0.268233</v>
       </c>
     </row>
     <row r="83">
@@ -4383,13 +4383,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.2491</v>
+        <v>0.251142</v>
       </c>
       <c r="C83" t="n">
-        <v>0.262248</v>
+        <v>0.263625</v>
       </c>
       <c r="D83" t="n">
-        <v>0.265349</v>
+        <v>0.268136</v>
       </c>
     </row>
     <row r="84">
@@ -4397,13 +4397,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.243652</v>
+        <v>0.244411</v>
       </c>
       <c r="C84" t="n">
-        <v>0.26466</v>
+        <v>0.26407</v>
       </c>
       <c r="D84" t="n">
-        <v>0.264002</v>
+        <v>0.265134</v>
       </c>
     </row>
     <row r="85">
@@ -4411,13 +4411,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.240498</v>
+        <v>0.238399</v>
       </c>
       <c r="C85" t="n">
-        <v>0.261209</v>
+        <v>0.259104</v>
       </c>
       <c r="D85" t="n">
-        <v>0.260499</v>
+        <v>0.262094</v>
       </c>
     </row>
     <row r="86">
@@ -4425,13 +4425,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.236277</v>
+        <v>0.23492</v>
       </c>
       <c r="C86" t="n">
-        <v>0.258531</v>
+        <v>0.259609</v>
       </c>
       <c r="D86" t="n">
-        <v>0.257929</v>
+        <v>0.258076</v>
       </c>
     </row>
     <row r="87">
@@ -4439,13 +4439,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.226622</v>
+        <v>0.231705</v>
       </c>
       <c r="C87" t="n">
-        <v>0.257804</v>
+        <v>0.253053</v>
       </c>
       <c r="D87" t="n">
-        <v>0.255672</v>
+        <v>0.256351</v>
       </c>
     </row>
     <row r="88">
@@ -4453,13 +4453,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.226105</v>
+        <v>0.224772</v>
       </c>
       <c r="C88" t="n">
-        <v>0.256152</v>
+        <v>0.253065</v>
       </c>
       <c r="D88" t="n">
-        <v>0.253474</v>
+        <v>0.256002</v>
       </c>
     </row>
     <row r="89">
@@ -4467,13 +4467,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.21906</v>
+        <v>0.219643</v>
       </c>
       <c r="C89" t="n">
-        <v>0.251896</v>
+        <v>0.250761</v>
       </c>
       <c r="D89" t="n">
-        <v>0.252861</v>
+        <v>0.252676</v>
       </c>
     </row>
     <row r="90">
@@ -4481,13 +4481,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.219891</v>
+        <v>0.215958</v>
       </c>
       <c r="C90" t="n">
-        <v>0.249146</v>
+        <v>0.254831</v>
       </c>
       <c r="D90" t="n">
-        <v>0.25056</v>
+        <v>0.250479</v>
       </c>
     </row>
     <row r="91">
@@ -4495,13 +4495,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.211821</v>
+        <v>0.211386</v>
       </c>
       <c r="C91" t="n">
-        <v>0.252445</v>
+        <v>0.247434</v>
       </c>
       <c r="D91" t="n">
-        <v>0.25156</v>
+        <v>0.253407</v>
       </c>
     </row>
     <row r="92">
@@ -4509,13 +4509,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.208528</v>
+        <v>0.210007</v>
       </c>
       <c r="C92" t="n">
-        <v>0.248322</v>
+        <v>0.250053</v>
       </c>
       <c r="D92" t="n">
-        <v>0.246859</v>
+        <v>0.248092</v>
       </c>
     </row>
     <row r="93">
@@ -4523,13 +4523,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.203993</v>
+        <v>0.204323</v>
       </c>
       <c r="C93" t="n">
-        <v>0.24621</v>
+        <v>0.245532</v>
       </c>
       <c r="D93" t="n">
-        <v>0.245876</v>
+        <v>0.245005</v>
       </c>
     </row>
     <row r="94">
@@ -4537,13 +4537,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.198438</v>
+        <v>0.199013</v>
       </c>
       <c r="C94" t="n">
-        <v>0.244723</v>
+        <v>0.244658</v>
       </c>
       <c r="D94" t="n">
-        <v>0.274283</v>
+        <v>0.272989</v>
       </c>
     </row>
     <row r="95">
@@ -4551,13 +4551,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.26154</v>
+        <v>0.259749</v>
       </c>
       <c r="C95" t="n">
-        <v>0.272708</v>
+        <v>0.269675</v>
       </c>
       <c r="D95" t="n">
-        <v>0.272065</v>
+        <v>0.27104</v>
       </c>
     </row>
     <row r="96">
@@ -4565,13 +4565,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.255222</v>
+        <v>0.254758</v>
       </c>
       <c r="C96" t="n">
-        <v>0.265552</v>
+        <v>0.269333</v>
       </c>
       <c r="D96" t="n">
-        <v>0.270973</v>
+        <v>0.266619</v>
       </c>
     </row>
     <row r="97">
@@ -4579,13 +4579,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.248876</v>
+        <v>0.250789</v>
       </c>
       <c r="C97" t="n">
-        <v>0.267035</v>
+        <v>0.266507</v>
       </c>
       <c r="D97" t="n">
-        <v>0.268338</v>
+        <v>0.270473</v>
       </c>
     </row>
     <row r="98">
@@ -4593,13 +4593,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.247181</v>
+        <v>0.246574</v>
       </c>
       <c r="C98" t="n">
-        <v>0.263545</v>
+        <v>0.264458</v>
       </c>
       <c r="D98" t="n">
-        <v>0.261039</v>
+        <v>0.26318</v>
       </c>
     </row>
     <row r="99">
@@ -4607,13 +4607,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.238386</v>
+        <v>0.241094</v>
       </c>
       <c r="C99" t="n">
-        <v>0.262569</v>
+        <v>0.263499</v>
       </c>
       <c r="D99" t="n">
-        <v>0.26257</v>
+        <v>0.26125</v>
       </c>
     </row>
     <row r="100">
@@ -4621,13 +4621,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.236017</v>
+        <v>0.238674</v>
       </c>
       <c r="C100" t="n">
-        <v>0.261127</v>
+        <v>0.25822</v>
       </c>
       <c r="D100" t="n">
-        <v>0.264211</v>
+        <v>0.257177</v>
       </c>
     </row>
     <row r="101">
@@ -4635,13 +4635,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.232053</v>
+        <v>0.232124</v>
       </c>
       <c r="C101" t="n">
-        <v>0.260135</v>
+        <v>0.257468</v>
       </c>
       <c r="D101" t="n">
-        <v>0.256712</v>
+        <v>0.255569</v>
       </c>
     </row>
     <row r="102">
@@ -4649,13 +4649,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.225932</v>
+        <v>0.224736</v>
       </c>
       <c r="C102" t="n">
-        <v>0.252193</v>
+        <v>0.252759</v>
       </c>
       <c r="D102" t="n">
-        <v>0.259115</v>
+        <v>0.252473</v>
       </c>
     </row>
     <row r="103">
@@ -4663,13 +4663,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.221369</v>
+        <v>0.222178</v>
       </c>
       <c r="C103" t="n">
-        <v>0.2554</v>
+        <v>0.253707</v>
       </c>
       <c r="D103" t="n">
-        <v>0.251748</v>
+        <v>0.253707</v>
       </c>
     </row>
     <row r="104">
@@ -4677,13 +4677,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.217697</v>
+        <v>0.218511</v>
       </c>
       <c r="C104" t="n">
-        <v>0.249218</v>
+        <v>0.249645</v>
       </c>
       <c r="D104" t="n">
-        <v>0.251999</v>
+        <v>0.251924</v>
       </c>
     </row>
     <row r="105">
@@ -4691,13 +4691,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.214534</v>
+        <v>0.212402</v>
       </c>
       <c r="C105" t="n">
-        <v>0.249736</v>
+        <v>0.248945</v>
       </c>
       <c r="D105" t="n">
-        <v>0.251881</v>
+        <v>0.248305</v>
       </c>
     </row>
     <row r="106">
@@ -4705,13 +4705,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.209129</v>
+        <v>0.215621</v>
       </c>
       <c r="C106" t="n">
-        <v>0.251811</v>
+        <v>0.24874</v>
       </c>
       <c r="D106" t="n">
-        <v>0.250908</v>
+        <v>0.24998</v>
       </c>
     </row>
     <row r="107">
@@ -4719,13 +4719,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.210192</v>
+        <v>0.203321</v>
       </c>
       <c r="C107" t="n">
-        <v>0.250449</v>
+        <v>0.247707</v>
       </c>
       <c r="D107" t="n">
-        <v>0.246329</v>
+        <v>0.251218</v>
       </c>
     </row>
     <row r="108">
@@ -4733,13 +4733,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.198645</v>
+        <v>0.200423</v>
       </c>
       <c r="C108" t="n">
-        <v>0.246545</v>
+        <v>0.244001</v>
       </c>
       <c r="D108" t="n">
-        <v>0.277107</v>
+        <v>0.280559</v>
       </c>
     </row>
     <row r="109">
@@ -4747,13 +4747,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.190707</v>
+        <v>0.192204</v>
       </c>
       <c r="C109" t="n">
-        <v>0.242212</v>
+        <v>0.242742</v>
       </c>
       <c r="D109" t="n">
-        <v>0.272356</v>
+        <v>0.267954</v>
       </c>
     </row>
     <row r="110">
@@ -4761,13 +4761,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.263023</v>
+        <v>0.257754</v>
       </c>
       <c r="C110" t="n">
-        <v>0.272174</v>
+        <v>0.272885</v>
       </c>
       <c r="D110" t="n">
-        <v>0.267649</v>
+        <v>0.270686</v>
       </c>
     </row>
     <row r="111">
@@ -4775,13 +4775,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.252442</v>
+        <v>0.25299</v>
       </c>
       <c r="C111" t="n">
-        <v>0.270818</v>
+        <v>0.26977</v>
       </c>
       <c r="D111" t="n">
-        <v>0.265762</v>
+        <v>0.272573</v>
       </c>
     </row>
     <row r="112">
@@ -4789,13 +4789,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.243882</v>
+        <v>0.244731</v>
       </c>
       <c r="C112" t="n">
-        <v>0.26537</v>
+        <v>0.271713</v>
       </c>
       <c r="D112" t="n">
-        <v>0.267312</v>
+        <v>0.263176</v>
       </c>
     </row>
     <row r="113">
@@ -4803,13 +4803,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.241248</v>
+        <v>0.243178</v>
       </c>
       <c r="C113" t="n">
-        <v>0.258226</v>
+        <v>0.265226</v>
       </c>
       <c r="D113" t="n">
-        <v>0.265325</v>
+        <v>0.262864</v>
       </c>
     </row>
     <row r="114">
@@ -4817,13 +4817,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.236351</v>
+        <v>0.237264</v>
       </c>
       <c r="C114" t="n">
-        <v>0.259639</v>
+        <v>0.260985</v>
       </c>
       <c r="D114" t="n">
-        <v>0.260814</v>
+        <v>0.259587</v>
       </c>
     </row>
     <row r="115">
@@ -4831,13 +4831,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.23325</v>
+        <v>0.232635</v>
       </c>
       <c r="C115" t="n">
-        <v>0.25871</v>
+        <v>0.260104</v>
       </c>
       <c r="D115" t="n">
-        <v>0.260295</v>
+        <v>0.256518</v>
       </c>
     </row>
     <row r="116">
@@ -4845,13 +4845,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.227876</v>
+        <v>0.228231</v>
       </c>
       <c r="C116" t="n">
-        <v>0.261819</v>
+        <v>0.254946</v>
       </c>
       <c r="D116" t="n">
-        <v>0.258249</v>
+        <v>0.256024</v>
       </c>
     </row>
     <row r="117">
@@ -4859,13 +4859,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.223503</v>
+        <v>0.220571</v>
       </c>
       <c r="C117" t="n">
-        <v>0.253936</v>
+        <v>0.254418</v>
       </c>
       <c r="D117" t="n">
-        <v>0.257239</v>
+        <v>0.256374</v>
       </c>
     </row>
     <row r="118">
@@ -4873,13 +4873,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.221251</v>
+        <v>0.218532</v>
       </c>
       <c r="C118" t="n">
-        <v>0.254554</v>
+        <v>0.249467</v>
       </c>
       <c r="D118" t="n">
-        <v>0.252306</v>
+        <v>0.250498</v>
       </c>
     </row>
     <row r="119">
@@ -4887,13 +4887,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.217258</v>
+        <v>0.216546</v>
       </c>
       <c r="C119" t="n">
-        <v>0.248683</v>
+        <v>0.252342</v>
       </c>
       <c r="D119" t="n">
-        <v>0.250088</v>
+        <v>0.252158</v>
       </c>
     </row>
     <row r="120">
@@ -4901,13 +4901,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.210569</v>
+        <v>0.210735</v>
       </c>
       <c r="C120" t="n">
-        <v>0.250287</v>
+        <v>0.247965</v>
       </c>
       <c r="D120" t="n">
-        <v>0.253454</v>
+        <v>0.249559</v>
       </c>
     </row>
     <row r="121">
@@ -4915,13 +4915,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.208238</v>
+        <v>0.210315</v>
       </c>
       <c r="C121" t="n">
-        <v>0.245685</v>
+        <v>0.247396</v>
       </c>
       <c r="D121" t="n">
-        <v>0.2495</v>
+        <v>0.250531</v>
       </c>
     </row>
     <row r="122">
@@ -4929,13 +4929,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.202941</v>
+        <v>0.209178</v>
       </c>
       <c r="C122" t="n">
-        <v>0.250375</v>
+        <v>0.245682</v>
       </c>
       <c r="D122" t="n">
-        <v>0.245956</v>
+        <v>0.246643</v>
       </c>
     </row>
     <row r="123">
@@ -4943,13 +4943,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.18996</v>
+        <v>0.19083</v>
       </c>
       <c r="C123" t="n">
-        <v>0.244063</v>
+        <v>0.245116</v>
       </c>
       <c r="D123" t="n">
-        <v>0.273135</v>
+        <v>0.276895</v>
       </c>
     </row>
     <row r="124">
@@ -4957,13 +4957,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.261717</v>
+        <v>0.25456</v>
       </c>
       <c r="C124" t="n">
-        <v>0.273728</v>
+        <v>0.268817</v>
       </c>
       <c r="D124" t="n">
-        <v>0.268227</v>
+        <v>0.270242</v>
       </c>
     </row>
     <row r="125">
@@ -4971,13 +4971,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.255692</v>
+        <v>0.253756</v>
       </c>
       <c r="C125" t="n">
-        <v>0.270145</v>
+        <v>0.271435</v>
       </c>
       <c r="D125" t="n">
-        <v>0.270087</v>
+        <v>0.274073</v>
       </c>
     </row>
     <row r="126">
@@ -4985,13 +4985,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.248467</v>
+        <v>0.245125</v>
       </c>
       <c r="C126" t="n">
-        <v>0.265805</v>
+        <v>0.262539</v>
       </c>
       <c r="D126" t="n">
-        <v>0.270592</v>
+        <v>0.263433</v>
       </c>
     </row>
     <row r="127">
@@ -4999,13 +4999,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.243845</v>
+        <v>0.242799</v>
       </c>
       <c r="C127" t="n">
-        <v>0.26365</v>
+        <v>0.265269</v>
       </c>
       <c r="D127" t="n">
-        <v>0.26265</v>
+        <v>0.2646</v>
       </c>
     </row>
     <row r="128">
@@ -5013,13 +5013,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.237033</v>
+        <v>0.239943</v>
       </c>
       <c r="C128" t="n">
-        <v>0.264325</v>
+        <v>0.264866</v>
       </c>
       <c r="D128" t="n">
-        <v>0.259278</v>
+        <v>0.26087</v>
       </c>
     </row>
     <row r="129">
@@ -5027,13 +5027,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.233553</v>
+        <v>0.231691</v>
       </c>
       <c r="C129" t="n">
-        <v>0.262337</v>
+        <v>0.257956</v>
       </c>
       <c r="D129" t="n">
-        <v>0.25964</v>
+        <v>0.259616</v>
       </c>
     </row>
     <row r="130">
@@ -5041,13 +5041,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.227521</v>
+        <v>0.228796</v>
       </c>
       <c r="C130" t="n">
-        <v>0.255915</v>
+        <v>0.257776</v>
       </c>
       <c r="D130" t="n">
-        <v>0.259497</v>
+        <v>0.264273</v>
       </c>
     </row>
     <row r="131">
@@ -5055,13 +5055,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.225985</v>
+        <v>0.220535</v>
       </c>
       <c r="C131" t="n">
-        <v>0.25751</v>
+        <v>0.255886</v>
       </c>
       <c r="D131" t="n">
-        <v>0.25375</v>
+        <v>0.255781</v>
       </c>
     </row>
     <row r="132">
@@ -5069,13 +5069,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.222373</v>
+        <v>0.220184</v>
       </c>
       <c r="C132" t="n">
-        <v>0.250197</v>
+        <v>0.254873</v>
       </c>
       <c r="D132" t="n">
-        <v>0.264012</v>
+        <v>0.254105</v>
       </c>
     </row>
     <row r="133">
@@ -5083,13 +5083,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.218318</v>
+        <v>0.218642</v>
       </c>
       <c r="C133" t="n">
-        <v>0.254101</v>
+        <v>0.250958</v>
       </c>
       <c r="D133" t="n">
-        <v>0.251204</v>
+        <v>0.257414</v>
       </c>
     </row>
     <row r="134">
@@ -5097,13 +5097,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.214244</v>
+        <v>0.212732</v>
       </c>
       <c r="C134" t="n">
-        <v>0.254125</v>
+        <v>0.246317</v>
       </c>
       <c r="D134" t="n">
-        <v>0.249814</v>
+        <v>0.247287</v>
       </c>
     </row>
     <row r="135">
@@ -5111,13 +5111,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.206617</v>
+        <v>0.209762</v>
       </c>
       <c r="C135" t="n">
-        <v>0.250584</v>
+        <v>0.252723</v>
       </c>
       <c r="D135" t="n">
-        <v>0.250649</v>
+        <v>0.251589</v>
       </c>
     </row>
     <row r="136">
@@ -5125,13 +5125,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.201629</v>
+        <v>0.201767</v>
       </c>
       <c r="C136" t="n">
-        <v>0.247563</v>
+        <v>0.246669</v>
       </c>
       <c r="D136" t="n">
-        <v>0.245949</v>
+        <v>0.246012</v>
       </c>
     </row>
     <row r="137">
@@ -5139,13 +5139,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.19322</v>
+        <v>0.19946</v>
       </c>
       <c r="C137" t="n">
-        <v>0.245978</v>
+        <v>0.248585</v>
       </c>
       <c r="D137" t="n">
-        <v>0.273449</v>
+        <v>0.27378</v>
       </c>
     </row>
     <row r="138">
@@ -5153,13 +5153,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.262323</v>
+        <v>0.258085</v>
       </c>
       <c r="C138" t="n">
-        <v>0.272404</v>
+        <v>0.268893</v>
       </c>
       <c r="D138" t="n">
-        <v>0.272593</v>
+        <v>0.270785</v>
       </c>
     </row>
     <row r="139">
@@ -5167,13 +5167,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.256623</v>
+        <v>0.253673</v>
       </c>
       <c r="C139" t="n">
-        <v>0.270345</v>
+        <v>0.268354</v>
       </c>
       <c r="D139" t="n">
-        <v>0.2781</v>
+        <v>0.269829</v>
       </c>
     </row>
     <row r="140">
@@ -5181,13 +5181,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.248763</v>
+        <v>0.246645</v>
       </c>
       <c r="C140" t="n">
-        <v>0.263769</v>
+        <v>0.264536</v>
       </c>
       <c r="D140" t="n">
-        <v>0.262857</v>
+        <v>0.26618</v>
       </c>
     </row>
     <row r="141">
@@ -5195,13 +5195,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.244654</v>
+        <v>0.245836</v>
       </c>
       <c r="C141" t="n">
-        <v>0.261715</v>
+        <v>0.262833</v>
       </c>
       <c r="D141" t="n">
-        <v>0.264374</v>
+        <v>0.263281</v>
       </c>
     </row>
     <row r="142">
@@ -5209,13 +5209,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.240209</v>
+        <v>0.243323</v>
       </c>
       <c r="C142" t="n">
-        <v>0.262274</v>
+        <v>0.258698</v>
       </c>
       <c r="D142" t="n">
-        <v>0.269874</v>
+        <v>0.262814</v>
       </c>
     </row>
     <row r="143">
@@ -5223,13 +5223,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.235861</v>
+        <v>0.240012</v>
       </c>
       <c r="C143" t="n">
-        <v>0.261083</v>
+        <v>0.261232</v>
       </c>
       <c r="D143" t="n">
-        <v>0.260431</v>
+        <v>0.255598</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Running erasure.xlsx
+++ b/vs-x64/Running erasure.xlsx
@@ -3249,13 +3249,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.205427</v>
+        <v>0.199835</v>
       </c>
       <c r="C2" t="n">
-        <v>0.236535</v>
+        <v>0.231306</v>
       </c>
       <c r="D2" t="n">
-        <v>0.238143</v>
+        <v>0.234602</v>
       </c>
     </row>
     <row r="3">
@@ -3263,13 +3263,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.205489</v>
+        <v>0.202272</v>
       </c>
       <c r="C3" t="n">
-        <v>0.235425</v>
+        <v>0.23161</v>
       </c>
       <c r="D3" t="n">
-        <v>0.246825</v>
+        <v>0.243055</v>
       </c>
     </row>
     <row r="4">
@@ -3277,13 +3277,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.202475</v>
+        <v>0.194753</v>
       </c>
       <c r="C4" t="n">
-        <v>0.241812</v>
+        <v>0.229912</v>
       </c>
       <c r="D4" t="n">
-        <v>0.235865</v>
+        <v>0.236871</v>
       </c>
     </row>
     <row r="5">
@@ -3291,13 +3291,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.195214</v>
+        <v>0.190549</v>
       </c>
       <c r="C5" t="n">
-        <v>0.23839</v>
+        <v>0.226926</v>
       </c>
       <c r="D5" t="n">
-        <v>0.23986</v>
+        <v>0.235137</v>
       </c>
     </row>
     <row r="6">
@@ -3305,13 +3305,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.192388</v>
+        <v>0.188288</v>
       </c>
       <c r="C6" t="n">
-        <v>0.233742</v>
+        <v>0.229323</v>
       </c>
       <c r="D6" t="n">
-        <v>0.237138</v>
+        <v>0.236597</v>
       </c>
     </row>
     <row r="7">
@@ -3319,13 +3319,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.186082</v>
+        <v>0.18603</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2279</v>
+        <v>0.226189</v>
       </c>
       <c r="D7" t="n">
-        <v>0.237762</v>
+        <v>0.241212</v>
       </c>
     </row>
     <row r="8">
@@ -3333,13 +3333,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.180281</v>
+        <v>0.186739</v>
       </c>
       <c r="C8" t="n">
-        <v>0.233849</v>
+        <v>0.229048</v>
       </c>
       <c r="D8" t="n">
-        <v>0.230595</v>
+        <v>0.233889</v>
       </c>
     </row>
     <row r="9">
@@ -3347,13 +3347,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.177626</v>
+        <v>0.173004</v>
       </c>
       <c r="C9" t="n">
-        <v>0.228638</v>
+        <v>0.226124</v>
       </c>
       <c r="D9" t="n">
-        <v>0.243576</v>
+        <v>0.242663</v>
       </c>
     </row>
     <row r="10">
@@ -3361,13 +3361,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.231409</v>
+        <v>0.224736</v>
       </c>
       <c r="C10" t="n">
-        <v>0.240633</v>
+        <v>0.240811</v>
       </c>
       <c r="D10" t="n">
-        <v>0.246062</v>
+        <v>0.247519</v>
       </c>
     </row>
     <row r="11">
@@ -3375,13 +3375,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.223205</v>
+        <v>0.222156</v>
       </c>
       <c r="C11" t="n">
-        <v>0.244974</v>
+        <v>0.23711</v>
       </c>
       <c r="D11" t="n">
-        <v>0.236921</v>
+        <v>0.245247</v>
       </c>
     </row>
     <row r="12">
@@ -3389,13 +3389,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.223741</v>
+        <v>0.220937</v>
       </c>
       <c r="C12" t="n">
-        <v>0.241289</v>
+        <v>0.236975</v>
       </c>
       <c r="D12" t="n">
-        <v>0.237991</v>
+        <v>0.238372</v>
       </c>
     </row>
     <row r="13">
@@ -3403,13 +3403,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.218543</v>
+        <v>0.21902</v>
       </c>
       <c r="C13" t="n">
-        <v>0.24885</v>
+        <v>0.233248</v>
       </c>
       <c r="D13" t="n">
-        <v>0.236152</v>
+        <v>0.245343</v>
       </c>
     </row>
     <row r="14">
@@ -3417,13 +3417,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.213738</v>
+        <v>0.214515</v>
       </c>
       <c r="C14" t="n">
-        <v>0.236568</v>
+        <v>0.234937</v>
       </c>
       <c r="D14" t="n">
-        <v>0.239841</v>
+        <v>0.247055</v>
       </c>
     </row>
     <row r="15">
@@ -3431,13 +3431,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.21266</v>
+        <v>0.206781</v>
       </c>
       <c r="C15" t="n">
-        <v>0.238368</v>
+        <v>0.237266</v>
       </c>
       <c r="D15" t="n">
-        <v>0.240226</v>
+        <v>0.243269</v>
       </c>
     </row>
     <row r="16">
@@ -3445,13 +3445,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.207873</v>
+        <v>0.20258</v>
       </c>
       <c r="C16" t="n">
-        <v>0.23704</v>
+        <v>0.235086</v>
       </c>
       <c r="D16" t="n">
-        <v>0.235824</v>
+        <v>0.241763</v>
       </c>
     </row>
     <row r="17">
@@ -3459,13 +3459,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.20144</v>
+        <v>0.206956</v>
       </c>
       <c r="C17" t="n">
-        <v>0.232463</v>
+        <v>0.232838</v>
       </c>
       <c r="D17" t="n">
-        <v>0.243408</v>
+        <v>0.238637</v>
       </c>
     </row>
     <row r="18">
@@ -3473,13 +3473,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.201445</v>
+        <v>0.196646</v>
       </c>
       <c r="C18" t="n">
-        <v>0.230671</v>
+        <v>0.237466</v>
       </c>
       <c r="D18" t="n">
-        <v>0.237484</v>
+        <v>0.241865</v>
       </c>
     </row>
     <row r="19">
@@ -3487,13 +3487,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.198112</v>
+        <v>0.19941</v>
       </c>
       <c r="C19" t="n">
-        <v>0.23722</v>
+        <v>0.238221</v>
       </c>
       <c r="D19" t="n">
-        <v>0.234415</v>
+        <v>0.236714</v>
       </c>
     </row>
     <row r="20">
@@ -3501,13 +3501,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.197616</v>
+        <v>0.19374</v>
       </c>
       <c r="C20" t="n">
-        <v>0.230038</v>
+        <v>0.232741</v>
       </c>
       <c r="D20" t="n">
-        <v>0.234613</v>
+        <v>0.241015</v>
       </c>
     </row>
     <row r="21">
@@ -3515,13 +3515,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.19164</v>
+        <v>0.1927</v>
       </c>
       <c r="C21" t="n">
-        <v>0.230117</v>
+        <v>0.228166</v>
       </c>
       <c r="D21" t="n">
-        <v>0.234785</v>
+        <v>0.235906</v>
       </c>
     </row>
     <row r="22">
@@ -3529,13 +3529,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.187495</v>
+        <v>0.187128</v>
       </c>
       <c r="C22" t="n">
-        <v>0.229514</v>
+        <v>0.225883</v>
       </c>
       <c r="D22" t="n">
-        <v>0.236942</v>
+        <v>0.237341</v>
       </c>
     </row>
     <row r="23">
@@ -3543,13 +3543,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.178174</v>
+        <v>0.181267</v>
       </c>
       <c r="C23" t="n">
-        <v>0.231884</v>
+        <v>0.232773</v>
       </c>
       <c r="D23" t="n">
-        <v>0.246254</v>
+        <v>0.250369</v>
       </c>
     </row>
     <row r="24">
@@ -3557,13 +3557,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.23431</v>
+        <v>0.234441</v>
       </c>
       <c r="C24" t="n">
-        <v>0.24772</v>
+        <v>0.241062</v>
       </c>
       <c r="D24" t="n">
-        <v>0.245022</v>
+        <v>0.246512</v>
       </c>
     </row>
     <row r="25">
@@ -3571,13 +3571,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.230086</v>
+        <v>0.233322</v>
       </c>
       <c r="C25" t="n">
-        <v>0.243228</v>
+        <v>0.238707</v>
       </c>
       <c r="D25" t="n">
-        <v>0.24733</v>
+        <v>0.245028</v>
       </c>
     </row>
     <row r="26">
@@ -3585,13 +3585,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.230488</v>
+        <v>0.230436</v>
       </c>
       <c r="C26" t="n">
-        <v>0.239636</v>
+        <v>0.23927</v>
       </c>
       <c r="D26" t="n">
-        <v>0.242794</v>
+        <v>0.245154</v>
       </c>
     </row>
     <row r="27">
@@ -3599,13 +3599,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.223742</v>
+        <v>0.222464</v>
       </c>
       <c r="C27" t="n">
-        <v>0.241899</v>
+        <v>0.238</v>
       </c>
       <c r="D27" t="n">
-        <v>0.240907</v>
+        <v>0.240854</v>
       </c>
     </row>
     <row r="28">
@@ -3613,13 +3613,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.220616</v>
+        <v>0.220971</v>
       </c>
       <c r="C28" t="n">
-        <v>0.238929</v>
+        <v>0.239354</v>
       </c>
       <c r="D28" t="n">
-        <v>0.241086</v>
+        <v>0.248245</v>
       </c>
     </row>
     <row r="29">
@@ -3627,13 +3627,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.2142</v>
+        <v>0.217784</v>
       </c>
       <c r="C29" t="n">
-        <v>0.2381</v>
+        <v>0.234328</v>
       </c>
       <c r="D29" t="n">
-        <v>0.242382</v>
+        <v>0.242218</v>
       </c>
     </row>
     <row r="30">
@@ -3641,13 +3641,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.213954</v>
+        <v>0.212873</v>
       </c>
       <c r="C30" t="n">
-        <v>0.236364</v>
+        <v>0.234464</v>
       </c>
       <c r="D30" t="n">
-        <v>0.237087</v>
+        <v>0.236642</v>
       </c>
     </row>
     <row r="31">
@@ -3655,13 +3655,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.207975</v>
+        <v>0.207029</v>
       </c>
       <c r="C31" t="n">
-        <v>0.237712</v>
+        <v>0.235462</v>
       </c>
       <c r="D31" t="n">
-        <v>0.233356</v>
+        <v>0.240378</v>
       </c>
     </row>
     <row r="32">
@@ -3669,13 +3669,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.20701</v>
+        <v>0.208041</v>
       </c>
       <c r="C32" t="n">
-        <v>0.235695</v>
+        <v>0.236788</v>
       </c>
       <c r="D32" t="n">
-        <v>0.239186</v>
+        <v>0.237495</v>
       </c>
     </row>
     <row r="33">
@@ -3683,13 +3683,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.201799</v>
+        <v>0.201045</v>
       </c>
       <c r="C33" t="n">
-        <v>0.23699</v>
+        <v>0.231733</v>
       </c>
       <c r="D33" t="n">
-        <v>0.234491</v>
+        <v>0.237742</v>
       </c>
     </row>
     <row r="34">
@@ -3697,13 +3697,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.200417</v>
+        <v>0.197232</v>
       </c>
       <c r="C34" t="n">
-        <v>0.233464</v>
+        <v>0.234006</v>
       </c>
       <c r="D34" t="n">
-        <v>0.241338</v>
+        <v>0.238082</v>
       </c>
     </row>
     <row r="35">
@@ -3711,13 +3711,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.196877</v>
+        <v>0.193247</v>
       </c>
       <c r="C35" t="n">
-        <v>0.230918</v>
+        <v>0.235761</v>
       </c>
       <c r="D35" t="n">
-        <v>0.236022</v>
+        <v>0.236308</v>
       </c>
     </row>
     <row r="36">
@@ -3725,13 +3725,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.191584</v>
+        <v>0.191017</v>
       </c>
       <c r="C36" t="n">
-        <v>0.230588</v>
+        <v>0.234261</v>
       </c>
       <c r="D36" t="n">
-        <v>0.235113</v>
+        <v>0.239052</v>
       </c>
     </row>
     <row r="37">
@@ -3739,13 +3739,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.185793</v>
+        <v>0.183494</v>
       </c>
       <c r="C37" t="n">
-        <v>0.232137</v>
+        <v>0.229946</v>
       </c>
       <c r="D37" t="n">
-        <v>0.260684</v>
+        <v>0.266243</v>
       </c>
     </row>
     <row r="38">
@@ -3753,13 +3753,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.243384</v>
+        <v>0.24149</v>
       </c>
       <c r="C38" t="n">
-        <v>0.258732</v>
+        <v>0.257496</v>
       </c>
       <c r="D38" t="n">
-        <v>0.259978</v>
+        <v>0.262259</v>
       </c>
     </row>
     <row r="39">
@@ -3767,13 +3767,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.238118</v>
+        <v>0.238282</v>
       </c>
       <c r="C39" t="n">
-        <v>0.254856</v>
+        <v>0.253109</v>
       </c>
       <c r="D39" t="n">
-        <v>0.258084</v>
+        <v>0.256915</v>
       </c>
     </row>
     <row r="40">
@@ -3781,13 +3781,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.234067</v>
+        <v>0.232414</v>
       </c>
       <c r="C40" t="n">
-        <v>0.255181</v>
+        <v>0.25323</v>
       </c>
       <c r="D40" t="n">
-        <v>0.255547</v>
+        <v>0.257842</v>
       </c>
     </row>
     <row r="41">
@@ -3795,13 +3795,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.224851</v>
+        <v>0.228798</v>
       </c>
       <c r="C41" t="n">
-        <v>0.256647</v>
+        <v>0.250599</v>
       </c>
       <c r="D41" t="n">
-        <v>0.254325</v>
+        <v>0.257002</v>
       </c>
     </row>
     <row r="42">
@@ -3809,13 +3809,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.223528</v>
+        <v>0.225109</v>
       </c>
       <c r="C42" t="n">
-        <v>0.250103</v>
+        <v>0.250153</v>
       </c>
       <c r="D42" t="n">
-        <v>0.255579</v>
+        <v>0.25214</v>
       </c>
     </row>
     <row r="43">
@@ -3823,13 +3823,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.217494</v>
+        <v>0.223002</v>
       </c>
       <c r="C43" t="n">
-        <v>0.252709</v>
+        <v>0.248967</v>
       </c>
       <c r="D43" t="n">
-        <v>0.25215</v>
+        <v>0.251939</v>
       </c>
     </row>
     <row r="44">
@@ -3837,13 +3837,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.216803</v>
+        <v>0.216744</v>
       </c>
       <c r="C44" t="n">
-        <v>0.246559</v>
+        <v>0.245946</v>
       </c>
       <c r="D44" t="n">
-        <v>0.24769</v>
+        <v>0.248473</v>
       </c>
     </row>
     <row r="45">
@@ -3851,13 +3851,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.212345</v>
+        <v>0.216758</v>
       </c>
       <c r="C45" t="n">
-        <v>0.245207</v>
+        <v>0.242893</v>
       </c>
       <c r="D45" t="n">
-        <v>0.250959</v>
+        <v>0.247914</v>
       </c>
     </row>
     <row r="46">
@@ -3865,13 +3865,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.211298</v>
+        <v>0.209534</v>
       </c>
       <c r="C46" t="n">
-        <v>0.242538</v>
+        <v>0.242983</v>
       </c>
       <c r="D46" t="n">
-        <v>0.244643</v>
+        <v>0.243968</v>
       </c>
     </row>
     <row r="47">
@@ -3879,13 +3879,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.207678</v>
+        <v>0.204342</v>
       </c>
       <c r="C47" t="n">
-        <v>0.244682</v>
+        <v>0.241687</v>
       </c>
       <c r="D47" t="n">
-        <v>0.248718</v>
+        <v>0.245135</v>
       </c>
     </row>
     <row r="48">
@@ -3893,13 +3893,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.202774</v>
+        <v>0.202428</v>
       </c>
       <c r="C48" t="n">
-        <v>0.24196</v>
+        <v>0.244386</v>
       </c>
       <c r="D48" t="n">
-        <v>0.243238</v>
+        <v>0.244161</v>
       </c>
     </row>
     <row r="49">
@@ -3907,13 +3907,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.198696</v>
+        <v>0.198394</v>
       </c>
       <c r="C49" t="n">
-        <v>0.243267</v>
+        <v>0.238962</v>
       </c>
       <c r="D49" t="n">
-        <v>0.240516</v>
+        <v>0.243355</v>
       </c>
     </row>
     <row r="50">
@@ -3921,13 +3921,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.196669</v>
+        <v>0.195209</v>
       </c>
       <c r="C50" t="n">
-        <v>0.244355</v>
+        <v>0.239312</v>
       </c>
       <c r="D50" t="n">
-        <v>0.238423</v>
+        <v>0.237875</v>
       </c>
     </row>
     <row r="51">
@@ -3935,13 +3935,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.187694</v>
+        <v>0.184513</v>
       </c>
       <c r="C51" t="n">
-        <v>0.239363</v>
+        <v>0.23486</v>
       </c>
       <c r="D51" t="n">
-        <v>0.261672</v>
+        <v>0.262762</v>
       </c>
     </row>
     <row r="52">
@@ -3949,13 +3949,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.181129</v>
+        <v>0.175952</v>
       </c>
       <c r="C52" t="n">
-        <v>0.237598</v>
+        <v>0.235385</v>
       </c>
       <c r="D52" t="n">
-        <v>0.260768</v>
+        <v>0.263295</v>
       </c>
     </row>
     <row r="53">
@@ -3963,13 +3963,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.247498</v>
+        <v>0.245052</v>
       </c>
       <c r="C53" t="n">
-        <v>0.258982</v>
+        <v>0.255901</v>
       </c>
       <c r="D53" t="n">
-        <v>0.259212</v>
+        <v>0.260562</v>
       </c>
     </row>
     <row r="54">
@@ -3977,13 +3977,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.239783</v>
+        <v>0.23839</v>
       </c>
       <c r="C54" t="n">
-        <v>0.254806</v>
+        <v>0.252735</v>
       </c>
       <c r="D54" t="n">
-        <v>0.255714</v>
+        <v>0.257807</v>
       </c>
     </row>
     <row r="55">
@@ -3991,13 +3991,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.23274</v>
+        <v>0.235452</v>
       </c>
       <c r="C55" t="n">
-        <v>0.253468</v>
+        <v>0.252113</v>
       </c>
       <c r="D55" t="n">
-        <v>0.25466</v>
+        <v>0.255243</v>
       </c>
     </row>
     <row r="56">
@@ -4005,13 +4005,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.231531</v>
+        <v>0.231837</v>
       </c>
       <c r="C56" t="n">
-        <v>0.251485</v>
+        <v>0.24914</v>
       </c>
       <c r="D56" t="n">
-        <v>0.253124</v>
+        <v>0.253959</v>
       </c>
     </row>
     <row r="57">
@@ -4019,13 +4019,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.225068</v>
+        <v>0.22708</v>
       </c>
       <c r="C57" t="n">
-        <v>0.250307</v>
+        <v>0.247207</v>
       </c>
       <c r="D57" t="n">
-        <v>0.254665</v>
+        <v>0.25095</v>
       </c>
     </row>
     <row r="58">
@@ -4033,13 +4033,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.220764</v>
+        <v>0.221484</v>
       </c>
       <c r="C58" t="n">
-        <v>0.245909</v>
+        <v>0.246643</v>
       </c>
       <c r="D58" t="n">
-        <v>0.24914</v>
+        <v>0.251695</v>
       </c>
     </row>
     <row r="59">
@@ -4047,13 +4047,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.216216</v>
+        <v>0.219318</v>
       </c>
       <c r="C59" t="n">
-        <v>0.24564</v>
+        <v>0.244608</v>
       </c>
       <c r="D59" t="n">
-        <v>0.249231</v>
+        <v>0.250559</v>
       </c>
     </row>
     <row r="60">
@@ -4061,13 +4061,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.214926</v>
+        <v>0.214464</v>
       </c>
       <c r="C60" t="n">
-        <v>0.247419</v>
+        <v>0.243911</v>
       </c>
       <c r="D60" t="n">
-        <v>0.245224</v>
+        <v>0.245549</v>
       </c>
     </row>
     <row r="61">
@@ -4075,13 +4075,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.206845</v>
+        <v>0.210502</v>
       </c>
       <c r="C61" t="n">
-        <v>0.246145</v>
+        <v>0.242357</v>
       </c>
       <c r="D61" t="n">
-        <v>0.245004</v>
+        <v>0.246534</v>
       </c>
     </row>
     <row r="62">
@@ -4089,13 +4089,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.205249</v>
+        <v>0.206854</v>
       </c>
       <c r="C62" t="n">
-        <v>0.244762</v>
+        <v>0.238674</v>
       </c>
       <c r="D62" t="n">
-        <v>0.247081</v>
+        <v>0.242837</v>
       </c>
     </row>
     <row r="63">
@@ -4103,13 +4103,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.205686</v>
+        <v>0.202861</v>
       </c>
       <c r="C63" t="n">
-        <v>0.240804</v>
+        <v>0.239535</v>
       </c>
       <c r="D63" t="n">
-        <v>0.243074</v>
+        <v>0.244092</v>
       </c>
     </row>
     <row r="64">
@@ -4117,13 +4117,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.195946</v>
+        <v>0.198755</v>
       </c>
       <c r="C64" t="n">
-        <v>0.241201</v>
+        <v>0.238329</v>
       </c>
       <c r="D64" t="n">
-        <v>0.240041</v>
+        <v>0.246166</v>
       </c>
     </row>
     <row r="65">
@@ -4131,13 +4131,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.193675</v>
+        <v>0.192858</v>
       </c>
       <c r="C65" t="n">
-        <v>0.238362</v>
+        <v>0.235437</v>
       </c>
       <c r="D65" t="n">
-        <v>0.238689</v>
+        <v>0.241854</v>
       </c>
     </row>
     <row r="66">
@@ -4145,13 +4145,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.185915</v>
+        <v>0.18407</v>
       </c>
       <c r="C66" t="n">
-        <v>0.236392</v>
+        <v>0.236535</v>
       </c>
       <c r="D66" t="n">
-        <v>0.264227</v>
+        <v>0.267612</v>
       </c>
     </row>
     <row r="67">
@@ -4159,13 +4159,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.256435</v>
+        <v>0.247322</v>
       </c>
       <c r="C67" t="n">
-        <v>0.264199</v>
+        <v>0.256622</v>
       </c>
       <c r="D67" t="n">
-        <v>0.266562</v>
+        <v>0.265133</v>
       </c>
     </row>
     <row r="68">
@@ -4173,13 +4173,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.252122</v>
+        <v>0.25025</v>
       </c>
       <c r="C68" t="n">
-        <v>0.263198</v>
+        <v>0.25655</v>
       </c>
       <c r="D68" t="n">
-        <v>0.263363</v>
+        <v>0.263911</v>
       </c>
     </row>
     <row r="69">
@@ -4187,13 +4187,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.247252</v>
+        <v>0.242863</v>
       </c>
       <c r="C69" t="n">
-        <v>0.257457</v>
+        <v>0.257042</v>
       </c>
       <c r="D69" t="n">
-        <v>0.265416</v>
+        <v>0.263998</v>
       </c>
     </row>
     <row r="70">
@@ -4201,13 +4201,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.242388</v>
+        <v>0.242709</v>
       </c>
       <c r="C70" t="n">
-        <v>0.259508</v>
+        <v>0.253046</v>
       </c>
       <c r="D70" t="n">
-        <v>0.255211</v>
+        <v>0.262204</v>
       </c>
     </row>
     <row r="71">
@@ -4215,13 +4215,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.233977</v>
+        <v>0.235142</v>
       </c>
       <c r="C71" t="n">
-        <v>0.25427</v>
+        <v>0.249364</v>
       </c>
       <c r="D71" t="n">
-        <v>0.253447</v>
+        <v>0.255524</v>
       </c>
     </row>
     <row r="72">
@@ -4229,13 +4229,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.233031</v>
+        <v>0.227318</v>
       </c>
       <c r="C72" t="n">
-        <v>0.252756</v>
+        <v>0.252103</v>
       </c>
       <c r="D72" t="n">
-        <v>0.25267</v>
+        <v>0.257414</v>
       </c>
     </row>
     <row r="73">
@@ -4243,13 +4243,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.224872</v>
+        <v>0.223998</v>
       </c>
       <c r="C73" t="n">
-        <v>0.251107</v>
+        <v>0.248778</v>
       </c>
       <c r="D73" t="n">
-        <v>0.253766</v>
+        <v>0.25298</v>
       </c>
     </row>
     <row r="74">
@@ -4257,13 +4257,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.222329</v>
+        <v>0.219613</v>
       </c>
       <c r="C74" t="n">
-        <v>0.251571</v>
+        <v>0.24816</v>
       </c>
       <c r="D74" t="n">
-        <v>0.250165</v>
+        <v>0.253726</v>
       </c>
     </row>
     <row r="75">
@@ -4271,13 +4271,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.219562</v>
+        <v>0.218285</v>
       </c>
       <c r="C75" t="n">
-        <v>0.250805</v>
+        <v>0.248058</v>
       </c>
       <c r="D75" t="n">
-        <v>0.250394</v>
+        <v>0.252406</v>
       </c>
     </row>
     <row r="76">
@@ -4285,13 +4285,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.216433</v>
+        <v>0.210861</v>
       </c>
       <c r="C76" t="n">
-        <v>0.2483</v>
+        <v>0.246011</v>
       </c>
       <c r="D76" t="n">
-        <v>0.248171</v>
+        <v>0.248123</v>
       </c>
     </row>
     <row r="77">
@@ -4299,13 +4299,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.210647</v>
+        <v>0.208412</v>
       </c>
       <c r="C77" t="n">
-        <v>0.24478</v>
+        <v>0.240439</v>
       </c>
       <c r="D77" t="n">
-        <v>0.245236</v>
+        <v>0.245758</v>
       </c>
     </row>
     <row r="78">
@@ -4313,13 +4313,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.204667</v>
+        <v>0.208652</v>
       </c>
       <c r="C78" t="n">
-        <v>0.243553</v>
+        <v>0.240943</v>
       </c>
       <c r="D78" t="n">
-        <v>0.246117</v>
+        <v>0.246259</v>
       </c>
     </row>
     <row r="79">
@@ -4327,13 +4327,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.203336</v>
+        <v>0.199875</v>
       </c>
       <c r="C79" t="n">
-        <v>0.243295</v>
+        <v>0.237756</v>
       </c>
       <c r="D79" t="n">
-        <v>0.243139</v>
+        <v>0.246081</v>
       </c>
     </row>
     <row r="80">
@@ -4341,13 +4341,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.194063</v>
+        <v>0.195039</v>
       </c>
       <c r="C80" t="n">
-        <v>0.241519</v>
+        <v>0.239779</v>
       </c>
       <c r="D80" t="n">
-        <v>0.275044</v>
+        <v>0.270923</v>
       </c>
     </row>
     <row r="81">
@@ -4355,13 +4355,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.259331</v>
+        <v>0.25689</v>
       </c>
       <c r="C81" t="n">
-        <v>0.270358</v>
+        <v>0.267782</v>
       </c>
       <c r="D81" t="n">
-        <v>0.270416</v>
+        <v>0.274269</v>
       </c>
     </row>
     <row r="82">
@@ -4369,13 +4369,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.253659</v>
+        <v>0.254681</v>
       </c>
       <c r="C82" t="n">
-        <v>0.267012</v>
+        <v>0.264539</v>
       </c>
       <c r="D82" t="n">
-        <v>0.268233</v>
+        <v>0.268243</v>
       </c>
     </row>
     <row r="83">
@@ -4383,13 +4383,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.251142</v>
+        <v>0.250892</v>
       </c>
       <c r="C83" t="n">
-        <v>0.263625</v>
+        <v>0.261819</v>
       </c>
       <c r="D83" t="n">
-        <v>0.268136</v>
+        <v>0.262777</v>
       </c>
     </row>
     <row r="84">
@@ -4397,13 +4397,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.244411</v>
+        <v>0.246322</v>
       </c>
       <c r="C84" t="n">
-        <v>0.26407</v>
+        <v>0.259498</v>
       </c>
       <c r="D84" t="n">
-        <v>0.265134</v>
+        <v>0.264521</v>
       </c>
     </row>
     <row r="85">
@@ -4411,13 +4411,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.238399</v>
+        <v>0.237595</v>
       </c>
       <c r="C85" t="n">
-        <v>0.259104</v>
+        <v>0.258612</v>
       </c>
       <c r="D85" t="n">
-        <v>0.262094</v>
+        <v>0.264398</v>
       </c>
     </row>
     <row r="86">
@@ -4425,13 +4425,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.23492</v>
+        <v>0.234687</v>
       </c>
       <c r="C86" t="n">
-        <v>0.259609</v>
+        <v>0.2556</v>
       </c>
       <c r="D86" t="n">
-        <v>0.258076</v>
+        <v>0.257347</v>
       </c>
     </row>
     <row r="87">
@@ -4439,13 +4439,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.231705</v>
+        <v>0.230085</v>
       </c>
       <c r="C87" t="n">
-        <v>0.253053</v>
+        <v>0.253493</v>
       </c>
       <c r="D87" t="n">
-        <v>0.256351</v>
+        <v>0.255591</v>
       </c>
     </row>
     <row r="88">
@@ -4453,13 +4453,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.224772</v>
+        <v>0.223921</v>
       </c>
       <c r="C88" t="n">
-        <v>0.253065</v>
+        <v>0.254208</v>
       </c>
       <c r="D88" t="n">
-        <v>0.256002</v>
+        <v>0.261422</v>
       </c>
     </row>
     <row r="89">
@@ -4467,13 +4467,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.219643</v>
+        <v>0.220602</v>
       </c>
       <c r="C89" t="n">
-        <v>0.250761</v>
+        <v>0.250678</v>
       </c>
       <c r="D89" t="n">
-        <v>0.252676</v>
+        <v>0.255068</v>
       </c>
     </row>
     <row r="90">
@@ -4481,13 +4481,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.215958</v>
+        <v>0.215699</v>
       </c>
       <c r="C90" t="n">
-        <v>0.254831</v>
+        <v>0.246336</v>
       </c>
       <c r="D90" t="n">
-        <v>0.250479</v>
+        <v>0.25314</v>
       </c>
     </row>
     <row r="91">
@@ -4495,13 +4495,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.211386</v>
+        <v>0.212022</v>
       </c>
       <c r="C91" t="n">
-        <v>0.247434</v>
+        <v>0.244881</v>
       </c>
       <c r="D91" t="n">
-        <v>0.253407</v>
+        <v>0.250392</v>
       </c>
     </row>
     <row r="92">
@@ -4509,13 +4509,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.210007</v>
+        <v>0.20899</v>
       </c>
       <c r="C92" t="n">
-        <v>0.250053</v>
+        <v>0.246179</v>
       </c>
       <c r="D92" t="n">
-        <v>0.248092</v>
+        <v>0.250122</v>
       </c>
     </row>
     <row r="93">
@@ -4523,13 +4523,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.204323</v>
+        <v>0.201019</v>
       </c>
       <c r="C93" t="n">
-        <v>0.245532</v>
+        <v>0.243643</v>
       </c>
       <c r="D93" t="n">
-        <v>0.245005</v>
+        <v>0.246586</v>
       </c>
     </row>
     <row r="94">
@@ -4537,13 +4537,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.199013</v>
+        <v>0.194021</v>
       </c>
       <c r="C94" t="n">
-        <v>0.244658</v>
+        <v>0.24324</v>
       </c>
       <c r="D94" t="n">
-        <v>0.272989</v>
+        <v>0.272383</v>
       </c>
     </row>
     <row r="95">
@@ -4551,13 +4551,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.259749</v>
+        <v>0.260395</v>
       </c>
       <c r="C95" t="n">
-        <v>0.269675</v>
+        <v>0.272263</v>
       </c>
       <c r="D95" t="n">
-        <v>0.27104</v>
+        <v>0.271082</v>
       </c>
     </row>
     <row r="96">
@@ -4565,13 +4565,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.254758</v>
+        <v>0.256497</v>
       </c>
       <c r="C96" t="n">
-        <v>0.269333</v>
+        <v>0.265543</v>
       </c>
       <c r="D96" t="n">
-        <v>0.266619</v>
+        <v>0.268352</v>
       </c>
     </row>
     <row r="97">
@@ -4579,13 +4579,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.250789</v>
+        <v>0.250861</v>
       </c>
       <c r="C97" t="n">
-        <v>0.266507</v>
+        <v>0.264595</v>
       </c>
       <c r="D97" t="n">
-        <v>0.270473</v>
+        <v>0.267242</v>
       </c>
     </row>
     <row r="98">
@@ -4593,13 +4593,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.246574</v>
+        <v>0.248271</v>
       </c>
       <c r="C98" t="n">
-        <v>0.264458</v>
+        <v>0.261077</v>
       </c>
       <c r="D98" t="n">
-        <v>0.26318</v>
+        <v>0.265942</v>
       </c>
     </row>
     <row r="99">
@@ -4607,13 +4607,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.241094</v>
+        <v>0.2444</v>
       </c>
       <c r="C99" t="n">
-        <v>0.263499</v>
+        <v>0.256895</v>
       </c>
       <c r="D99" t="n">
-        <v>0.26125</v>
+        <v>0.261618</v>
       </c>
     </row>
     <row r="100">
@@ -4621,13 +4621,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.238674</v>
+        <v>0.235916</v>
       </c>
       <c r="C100" t="n">
-        <v>0.25822</v>
+        <v>0.257228</v>
       </c>
       <c r="D100" t="n">
-        <v>0.257177</v>
+        <v>0.261198</v>
       </c>
     </row>
     <row r="101">
@@ -4635,13 +4635,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.232124</v>
+        <v>0.232287</v>
       </c>
       <c r="C101" t="n">
-        <v>0.257468</v>
+        <v>0.257647</v>
       </c>
       <c r="D101" t="n">
-        <v>0.255569</v>
+        <v>0.25717</v>
       </c>
     </row>
     <row r="102">
@@ -4649,13 +4649,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.224736</v>
+        <v>0.228429</v>
       </c>
       <c r="C102" t="n">
-        <v>0.252759</v>
+        <v>0.252573</v>
       </c>
       <c r="D102" t="n">
-        <v>0.252473</v>
+        <v>0.255259</v>
       </c>
     </row>
     <row r="103">
@@ -4663,13 +4663,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.222178</v>
+        <v>0.222906</v>
       </c>
       <c r="C103" t="n">
-        <v>0.253707</v>
+        <v>0.25256</v>
       </c>
       <c r="D103" t="n">
-        <v>0.253707</v>
+        <v>0.254482</v>
       </c>
     </row>
     <row r="104">
@@ -4677,13 +4677,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.218511</v>
+        <v>0.219963</v>
       </c>
       <c r="C104" t="n">
-        <v>0.249645</v>
+        <v>0.250525</v>
       </c>
       <c r="D104" t="n">
-        <v>0.251924</v>
+        <v>0.257118</v>
       </c>
     </row>
     <row r="105">
@@ -4691,13 +4691,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.212402</v>
+        <v>0.21596</v>
       </c>
       <c r="C105" t="n">
-        <v>0.248945</v>
+        <v>0.245867</v>
       </c>
       <c r="D105" t="n">
-        <v>0.248305</v>
+        <v>0.252218</v>
       </c>
     </row>
     <row r="106">
@@ -4705,13 +4705,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.215621</v>
+        <v>0.213328</v>
       </c>
       <c r="C106" t="n">
-        <v>0.24874</v>
+        <v>0.243573</v>
       </c>
       <c r="D106" t="n">
-        <v>0.24998</v>
+        <v>0.249315</v>
       </c>
     </row>
     <row r="107">
@@ -4719,13 +4719,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.203321</v>
+        <v>0.206595</v>
       </c>
       <c r="C107" t="n">
-        <v>0.247707</v>
+        <v>0.244313</v>
       </c>
       <c r="D107" t="n">
-        <v>0.251218</v>
+        <v>0.247743</v>
       </c>
     </row>
     <row r="108">
@@ -4733,13 +4733,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.200423</v>
+        <v>0.197197</v>
       </c>
       <c r="C108" t="n">
-        <v>0.244001</v>
+        <v>0.241364</v>
       </c>
       <c r="D108" t="n">
-        <v>0.280559</v>
+        <v>0.274886</v>
       </c>
     </row>
     <row r="109">
@@ -4747,13 +4747,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.192204</v>
+        <v>0.187635</v>
       </c>
       <c r="C109" t="n">
-        <v>0.242742</v>
+        <v>0.243473</v>
       </c>
       <c r="D109" t="n">
-        <v>0.267954</v>
+        <v>0.269898</v>
       </c>
     </row>
     <row r="110">
@@ -4761,13 +4761,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.257754</v>
+        <v>0.258915</v>
       </c>
       <c r="C110" t="n">
-        <v>0.272885</v>
+        <v>0.268195</v>
       </c>
       <c r="D110" t="n">
-        <v>0.270686</v>
+        <v>0.270947</v>
       </c>
     </row>
     <row r="111">
@@ -4775,13 +4775,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.25299</v>
+        <v>0.252055</v>
       </c>
       <c r="C111" t="n">
-        <v>0.26977</v>
+        <v>0.261978</v>
       </c>
       <c r="D111" t="n">
-        <v>0.272573</v>
+        <v>0.267761</v>
       </c>
     </row>
     <row r="112">
@@ -4789,13 +4789,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.244731</v>
+        <v>0.251491</v>
       </c>
       <c r="C112" t="n">
-        <v>0.271713</v>
+        <v>0.272816</v>
       </c>
       <c r="D112" t="n">
-        <v>0.263176</v>
+        <v>0.268181</v>
       </c>
     </row>
     <row r="113">
@@ -4803,13 +4803,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.243178</v>
+        <v>0.247318</v>
       </c>
       <c r="C113" t="n">
-        <v>0.265226</v>
+        <v>0.262692</v>
       </c>
       <c r="D113" t="n">
-        <v>0.262864</v>
+        <v>0.263413</v>
       </c>
     </row>
     <row r="114">
@@ -4817,13 +4817,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.237264</v>
+        <v>0.237625</v>
       </c>
       <c r="C114" t="n">
-        <v>0.260985</v>
+        <v>0.257016</v>
       </c>
       <c r="D114" t="n">
-        <v>0.259587</v>
+        <v>0.262662</v>
       </c>
     </row>
     <row r="115">
@@ -4831,13 +4831,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.232635</v>
+        <v>0.234262</v>
       </c>
       <c r="C115" t="n">
-        <v>0.260104</v>
+        <v>0.258673</v>
       </c>
       <c r="D115" t="n">
-        <v>0.256518</v>
+        <v>0.264224</v>
       </c>
     </row>
     <row r="116">
@@ -4845,13 +4845,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.228231</v>
+        <v>0.229923</v>
       </c>
       <c r="C116" t="n">
-        <v>0.254946</v>
+        <v>0.253118</v>
       </c>
       <c r="D116" t="n">
-        <v>0.256024</v>
+        <v>0.255673</v>
       </c>
     </row>
     <row r="117">
@@ -4859,13 +4859,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.220571</v>
+        <v>0.224689</v>
       </c>
       <c r="C117" t="n">
-        <v>0.254418</v>
+        <v>0.252644</v>
       </c>
       <c r="D117" t="n">
-        <v>0.256374</v>
+        <v>0.256699</v>
       </c>
     </row>
     <row r="118">
@@ -4873,13 +4873,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.218532</v>
+        <v>0.216408</v>
       </c>
       <c r="C118" t="n">
-        <v>0.249467</v>
+        <v>0.250025</v>
       </c>
       <c r="D118" t="n">
-        <v>0.250498</v>
+        <v>0.256244</v>
       </c>
     </row>
     <row r="119">
@@ -4887,13 +4887,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.216546</v>
+        <v>0.214919</v>
       </c>
       <c r="C119" t="n">
-        <v>0.252342</v>
+        <v>0.248012</v>
       </c>
       <c r="D119" t="n">
-        <v>0.252158</v>
+        <v>0.25115</v>
       </c>
     </row>
     <row r="120">
@@ -4901,13 +4901,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.210735</v>
+        <v>0.213682</v>
       </c>
       <c r="C120" t="n">
-        <v>0.247965</v>
+        <v>0.247127</v>
       </c>
       <c r="D120" t="n">
-        <v>0.249559</v>
+        <v>0.252703</v>
       </c>
     </row>
     <row r="121">
@@ -4915,13 +4915,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.210315</v>
+        <v>0.209894</v>
       </c>
       <c r="C121" t="n">
-        <v>0.247396</v>
+        <v>0.245932</v>
       </c>
       <c r="D121" t="n">
-        <v>0.250531</v>
+        <v>0.247307</v>
       </c>
     </row>
     <row r="122">
@@ -4929,13 +4929,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.209178</v>
+        <v>0.203002</v>
       </c>
       <c r="C122" t="n">
-        <v>0.245682</v>
+        <v>0.243999</v>
       </c>
       <c r="D122" t="n">
-        <v>0.246643</v>
+        <v>0.251349</v>
       </c>
     </row>
     <row r="123">
@@ -4943,13 +4943,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.19083</v>
+        <v>0.192694</v>
       </c>
       <c r="C123" t="n">
-        <v>0.245116</v>
+        <v>0.243127</v>
       </c>
       <c r="D123" t="n">
-        <v>0.276895</v>
+        <v>0.279792</v>
       </c>
     </row>
     <row r="124">
@@ -4957,13 +4957,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.25456</v>
+        <v>0.25946</v>
       </c>
       <c r="C124" t="n">
-        <v>0.268817</v>
+        <v>0.266599</v>
       </c>
       <c r="D124" t="n">
-        <v>0.270242</v>
+        <v>0.27568</v>
       </c>
     </row>
     <row r="125">
@@ -4971,13 +4971,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.253756</v>
+        <v>0.256321</v>
       </c>
       <c r="C125" t="n">
-        <v>0.271435</v>
+        <v>0.268505</v>
       </c>
       <c r="D125" t="n">
-        <v>0.274073</v>
+        <v>0.26996</v>
       </c>
     </row>
     <row r="126">
@@ -4985,13 +4985,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.245125</v>
+        <v>0.247142</v>
       </c>
       <c r="C126" t="n">
-        <v>0.262539</v>
+        <v>0.264892</v>
       </c>
       <c r="D126" t="n">
-        <v>0.263433</v>
+        <v>0.26882</v>
       </c>
     </row>
     <row r="127">
@@ -4999,13 +4999,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.242799</v>
+        <v>0.245549</v>
       </c>
       <c r="C127" t="n">
-        <v>0.265269</v>
+        <v>0.264285</v>
       </c>
       <c r="D127" t="n">
-        <v>0.2646</v>
+        <v>0.267104</v>
       </c>
     </row>
     <row r="128">
@@ -5013,13 +5013,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.239943</v>
+        <v>0.238841</v>
       </c>
       <c r="C128" t="n">
-        <v>0.264866</v>
+        <v>0.260758</v>
       </c>
       <c r="D128" t="n">
-        <v>0.26087</v>
+        <v>0.26521</v>
       </c>
     </row>
     <row r="129">
@@ -5027,13 +5027,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.231691</v>
+        <v>0.232228</v>
       </c>
       <c r="C129" t="n">
-        <v>0.257956</v>
+        <v>0.260037</v>
       </c>
       <c r="D129" t="n">
-        <v>0.259616</v>
+        <v>0.258385</v>
       </c>
     </row>
     <row r="130">
@@ -5041,13 +5041,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.228796</v>
+        <v>0.232119</v>
       </c>
       <c r="C130" t="n">
-        <v>0.257776</v>
+        <v>0.257593</v>
       </c>
       <c r="D130" t="n">
-        <v>0.264273</v>
+        <v>0.264734</v>
       </c>
     </row>
     <row r="131">
@@ -5055,13 +5055,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.220535</v>
+        <v>0.225251</v>
       </c>
       <c r="C131" t="n">
-        <v>0.255886</v>
+        <v>0.26154</v>
       </c>
       <c r="D131" t="n">
-        <v>0.255781</v>
+        <v>0.257358</v>
       </c>
     </row>
     <row r="132">
@@ -5069,13 +5069,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.220184</v>
+        <v>0.221627</v>
       </c>
       <c r="C132" t="n">
-        <v>0.254873</v>
+        <v>0.248119</v>
       </c>
       <c r="D132" t="n">
-        <v>0.254105</v>
+        <v>0.252735</v>
       </c>
     </row>
     <row r="133">
@@ -5083,13 +5083,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.218642</v>
+        <v>0.213491</v>
       </c>
       <c r="C133" t="n">
-        <v>0.250958</v>
+        <v>0.253424</v>
       </c>
       <c r="D133" t="n">
-        <v>0.257414</v>
+        <v>0.252929</v>
       </c>
     </row>
     <row r="134">
@@ -5097,13 +5097,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.212732</v>
+        <v>0.210479</v>
       </c>
       <c r="C134" t="n">
-        <v>0.246317</v>
+        <v>0.248623</v>
       </c>
       <c r="D134" t="n">
-        <v>0.247287</v>
+        <v>0.250837</v>
       </c>
     </row>
     <row r="135">
@@ -5111,13 +5111,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.209762</v>
+        <v>0.208887</v>
       </c>
       <c r="C135" t="n">
-        <v>0.252723</v>
+        <v>0.244029</v>
       </c>
       <c r="D135" t="n">
-        <v>0.251589</v>
+        <v>0.247724</v>
       </c>
     </row>
     <row r="136">
@@ -5125,13 +5125,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.201767</v>
+        <v>0.201571</v>
       </c>
       <c r="C136" t="n">
-        <v>0.246669</v>
+        <v>0.246118</v>
       </c>
       <c r="D136" t="n">
-        <v>0.246012</v>
+        <v>0.247897</v>
       </c>
     </row>
     <row r="137">
@@ -5139,13 +5139,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.19946</v>
+        <v>0.191157</v>
       </c>
       <c r="C137" t="n">
-        <v>0.248585</v>
+        <v>0.242256</v>
       </c>
       <c r="D137" t="n">
-        <v>0.27378</v>
+        <v>0.278663</v>
       </c>
     </row>
     <row r="138">
@@ -5153,13 +5153,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.258085</v>
+        <v>0.266403</v>
       </c>
       <c r="C138" t="n">
-        <v>0.268893</v>
+        <v>0.271924</v>
       </c>
       <c r="D138" t="n">
-        <v>0.270785</v>
+        <v>0.27397</v>
       </c>
     </row>
     <row r="139">
@@ -5167,13 +5167,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.253673</v>
+        <v>0.253321</v>
       </c>
       <c r="C139" t="n">
-        <v>0.268354</v>
+        <v>0.262162</v>
       </c>
       <c r="D139" t="n">
-        <v>0.269829</v>
+        <v>0.27092</v>
       </c>
     </row>
     <row r="140">
@@ -5181,13 +5181,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.246645</v>
+        <v>0.254988</v>
       </c>
       <c r="C140" t="n">
-        <v>0.264536</v>
+        <v>0.265443</v>
       </c>
       <c r="D140" t="n">
-        <v>0.26618</v>
+        <v>0.272199</v>
       </c>
     </row>
     <row r="141">
@@ -5195,13 +5195,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.245836</v>
+        <v>0.24375</v>
       </c>
       <c r="C141" t="n">
-        <v>0.262833</v>
+        <v>0.25896</v>
       </c>
       <c r="D141" t="n">
-        <v>0.263281</v>
+        <v>0.269348</v>
       </c>
     </row>
     <row r="142">
@@ -5209,13 +5209,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.243323</v>
+        <v>0.246671</v>
       </c>
       <c r="C142" t="n">
-        <v>0.258698</v>
+        <v>0.256329</v>
       </c>
       <c r="D142" t="n">
-        <v>0.262814</v>
+        <v>0.270856</v>
       </c>
     </row>
     <row r="143">
@@ -5223,13 +5223,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.240012</v>
+        <v>0.234457</v>
       </c>
       <c r="C143" t="n">
-        <v>0.261232</v>
+        <v>0.254358</v>
       </c>
       <c r="D143" t="n">
-        <v>0.255598</v>
+        <v>0.265117</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Running erasure.xlsx
+++ b/vs-x64/Running erasure.xlsx
@@ -3249,13 +3249,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.199835</v>
+        <v>0.20055</v>
       </c>
       <c r="C2" t="n">
-        <v>0.231306</v>
+        <v>0.233645</v>
       </c>
       <c r="D2" t="n">
-        <v>0.234602</v>
+        <v>0.23843</v>
       </c>
     </row>
     <row r="3">
@@ -3263,13 +3263,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.202272</v>
+        <v>0.198079</v>
       </c>
       <c r="C3" t="n">
-        <v>0.23161</v>
+        <v>0.231369</v>
       </c>
       <c r="D3" t="n">
-        <v>0.243055</v>
+        <v>0.232723</v>
       </c>
     </row>
     <row r="4">
@@ -3277,13 +3277,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.194753</v>
+        <v>0.194648</v>
       </c>
       <c r="C4" t="n">
-        <v>0.229912</v>
+        <v>0.229299</v>
       </c>
       <c r="D4" t="n">
-        <v>0.236871</v>
+        <v>0.242786</v>
       </c>
     </row>
     <row r="5">
@@ -3291,13 +3291,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.190549</v>
+        <v>0.199207</v>
       </c>
       <c r="C5" t="n">
-        <v>0.226926</v>
+        <v>0.229889</v>
       </c>
       <c r="D5" t="n">
-        <v>0.235137</v>
+        <v>0.236347</v>
       </c>
     </row>
     <row r="6">
@@ -3305,13 +3305,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.188288</v>
+        <v>0.189715</v>
       </c>
       <c r="C6" t="n">
-        <v>0.229323</v>
+        <v>0.232449</v>
       </c>
       <c r="D6" t="n">
-        <v>0.236597</v>
+        <v>0.237053</v>
       </c>
     </row>
     <row r="7">
@@ -3319,13 +3319,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.18603</v>
+        <v>0.190343</v>
       </c>
       <c r="C7" t="n">
-        <v>0.226189</v>
+        <v>0.229836</v>
       </c>
       <c r="D7" t="n">
-        <v>0.241212</v>
+        <v>0.238228</v>
       </c>
     </row>
     <row r="8">
@@ -3333,13 +3333,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.186739</v>
+        <v>0.187186</v>
       </c>
       <c r="C8" t="n">
-        <v>0.229048</v>
+        <v>0.229402</v>
       </c>
       <c r="D8" t="n">
-        <v>0.233889</v>
+        <v>0.236584</v>
       </c>
     </row>
     <row r="9">
@@ -3347,13 +3347,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.173004</v>
+        <v>0.176148</v>
       </c>
       <c r="C9" t="n">
-        <v>0.226124</v>
+        <v>0.234358</v>
       </c>
       <c r="D9" t="n">
-        <v>0.242663</v>
+        <v>0.250061</v>
       </c>
     </row>
     <row r="10">
@@ -3361,13 +3361,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.224736</v>
+        <v>0.227585</v>
       </c>
       <c r="C10" t="n">
-        <v>0.240811</v>
+        <v>0.23816</v>
       </c>
       <c r="D10" t="n">
-        <v>0.247519</v>
+        <v>0.247338</v>
       </c>
     </row>
     <row r="11">
@@ -3375,13 +3375,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.222156</v>
+        <v>0.222774</v>
       </c>
       <c r="C11" t="n">
-        <v>0.23711</v>
+        <v>0.235764</v>
       </c>
       <c r="D11" t="n">
-        <v>0.245247</v>
+        <v>0.243178</v>
       </c>
     </row>
     <row r="12">
@@ -3389,13 +3389,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.220937</v>
+        <v>0.218437</v>
       </c>
       <c r="C12" t="n">
-        <v>0.236975</v>
+        <v>0.237249</v>
       </c>
       <c r="D12" t="n">
-        <v>0.238372</v>
+        <v>0.241892</v>
       </c>
     </row>
     <row r="13">
@@ -3403,13 +3403,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.21902</v>
+        <v>0.217936</v>
       </c>
       <c r="C13" t="n">
-        <v>0.233248</v>
+        <v>0.242544</v>
       </c>
       <c r="D13" t="n">
-        <v>0.245343</v>
+        <v>0.2366</v>
       </c>
     </row>
     <row r="14">
@@ -3417,13 +3417,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.214515</v>
+        <v>0.210908</v>
       </c>
       <c r="C14" t="n">
-        <v>0.234937</v>
+        <v>0.234054</v>
       </c>
       <c r="D14" t="n">
-        <v>0.247055</v>
+        <v>0.23945</v>
       </c>
     </row>
     <row r="15">
@@ -3431,13 +3431,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.206781</v>
+        <v>0.20929</v>
       </c>
       <c r="C15" t="n">
-        <v>0.237266</v>
+        <v>0.229008</v>
       </c>
       <c r="D15" t="n">
-        <v>0.243269</v>
+        <v>0.233482</v>
       </c>
     </row>
     <row r="16">
@@ -3445,13 +3445,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.20258</v>
+        <v>0.206115</v>
       </c>
       <c r="C16" t="n">
-        <v>0.235086</v>
+        <v>0.230001</v>
       </c>
       <c r="D16" t="n">
-        <v>0.241763</v>
+        <v>0.235583</v>
       </c>
     </row>
     <row r="17">
@@ -3459,13 +3459,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.206956</v>
+        <v>0.199669</v>
       </c>
       <c r="C17" t="n">
-        <v>0.232838</v>
+        <v>0.233276</v>
       </c>
       <c r="D17" t="n">
-        <v>0.238637</v>
+        <v>0.237718</v>
       </c>
     </row>
     <row r="18">
@@ -3473,13 +3473,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.196646</v>
+        <v>0.201608</v>
       </c>
       <c r="C18" t="n">
-        <v>0.237466</v>
+        <v>0.236974</v>
       </c>
       <c r="D18" t="n">
-        <v>0.241865</v>
+        <v>0.24373</v>
       </c>
     </row>
     <row r="19">
@@ -3487,13 +3487,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.19941</v>
+        <v>0.199452</v>
       </c>
       <c r="C19" t="n">
-        <v>0.238221</v>
+        <v>0.228</v>
       </c>
       <c r="D19" t="n">
-        <v>0.236714</v>
+        <v>0.242871</v>
       </c>
     </row>
     <row r="20">
@@ -3501,13 +3501,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.19374</v>
+        <v>0.196382</v>
       </c>
       <c r="C20" t="n">
-        <v>0.232741</v>
+        <v>0.22982</v>
       </c>
       <c r="D20" t="n">
-        <v>0.241015</v>
+        <v>0.236048</v>
       </c>
     </row>
     <row r="21">
@@ -3515,13 +3515,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.1927</v>
+        <v>0.188498</v>
       </c>
       <c r="C21" t="n">
-        <v>0.228166</v>
+        <v>0.231392</v>
       </c>
       <c r="D21" t="n">
-        <v>0.235906</v>
+        <v>0.235137</v>
       </c>
     </row>
     <row r="22">
@@ -3529,13 +3529,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.187128</v>
+        <v>0.184684</v>
       </c>
       <c r="C22" t="n">
-        <v>0.225883</v>
+        <v>0.227717</v>
       </c>
       <c r="D22" t="n">
-        <v>0.237341</v>
+        <v>0.235326</v>
       </c>
     </row>
     <row r="23">
@@ -3543,13 +3543,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.181267</v>
+        <v>0.179078</v>
       </c>
       <c r="C23" t="n">
-        <v>0.232773</v>
+        <v>0.227686</v>
       </c>
       <c r="D23" t="n">
-        <v>0.250369</v>
+        <v>0.253526</v>
       </c>
     </row>
     <row r="24">
@@ -3557,13 +3557,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.234441</v>
+        <v>0.235597</v>
       </c>
       <c r="C24" t="n">
-        <v>0.241062</v>
+        <v>0.243886</v>
       </c>
       <c r="D24" t="n">
-        <v>0.246512</v>
+        <v>0.247606</v>
       </c>
     </row>
     <row r="25">
@@ -3571,13 +3571,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.233322</v>
+        <v>0.231663</v>
       </c>
       <c r="C25" t="n">
-        <v>0.238707</v>
+        <v>0.242033</v>
       </c>
       <c r="D25" t="n">
-        <v>0.245028</v>
+        <v>0.244321</v>
       </c>
     </row>
     <row r="26">
@@ -3585,13 +3585,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.230436</v>
+        <v>0.227315</v>
       </c>
       <c r="C26" t="n">
-        <v>0.23927</v>
+        <v>0.247381</v>
       </c>
       <c r="D26" t="n">
-        <v>0.245154</v>
+        <v>0.254459</v>
       </c>
     </row>
     <row r="27">
@@ -3599,13 +3599,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.222464</v>
+        <v>0.224466</v>
       </c>
       <c r="C27" t="n">
-        <v>0.238</v>
+        <v>0.238743</v>
       </c>
       <c r="D27" t="n">
-        <v>0.240854</v>
+        <v>0.245129</v>
       </c>
     </row>
     <row r="28">
@@ -3613,13 +3613,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.220971</v>
+        <v>0.220805</v>
       </c>
       <c r="C28" t="n">
-        <v>0.239354</v>
+        <v>0.239434</v>
       </c>
       <c r="D28" t="n">
-        <v>0.248245</v>
+        <v>0.243057</v>
       </c>
     </row>
     <row r="29">
@@ -3627,13 +3627,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.217784</v>
+        <v>0.216869</v>
       </c>
       <c r="C29" t="n">
-        <v>0.234328</v>
+        <v>0.233416</v>
       </c>
       <c r="D29" t="n">
-        <v>0.242218</v>
+        <v>0.24004</v>
       </c>
     </row>
     <row r="30">
@@ -3641,13 +3641,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.212873</v>
+        <v>0.211324</v>
       </c>
       <c r="C30" t="n">
-        <v>0.234464</v>
+        <v>0.235189</v>
       </c>
       <c r="D30" t="n">
-        <v>0.236642</v>
+        <v>0.244075</v>
       </c>
     </row>
     <row r="31">
@@ -3655,13 +3655,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.207029</v>
+        <v>0.207232</v>
       </c>
       <c r="C31" t="n">
-        <v>0.235462</v>
+        <v>0.232906</v>
       </c>
       <c r="D31" t="n">
-        <v>0.240378</v>
+        <v>0.236546</v>
       </c>
     </row>
     <row r="32">
@@ -3669,13 +3669,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.208041</v>
+        <v>0.205304</v>
       </c>
       <c r="C32" t="n">
-        <v>0.236788</v>
+        <v>0.232317</v>
       </c>
       <c r="D32" t="n">
-        <v>0.237495</v>
+        <v>0.24139</v>
       </c>
     </row>
     <row r="33">
@@ -3683,13 +3683,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.201045</v>
+        <v>0.202049</v>
       </c>
       <c r="C33" t="n">
-        <v>0.231733</v>
+        <v>0.231558</v>
       </c>
       <c r="D33" t="n">
-        <v>0.237742</v>
+        <v>0.238292</v>
       </c>
     </row>
     <row r="34">
@@ -3697,13 +3697,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.197232</v>
+        <v>0.196987</v>
       </c>
       <c r="C34" t="n">
-        <v>0.234006</v>
+        <v>0.229</v>
       </c>
       <c r="D34" t="n">
-        <v>0.238082</v>
+        <v>0.239291</v>
       </c>
     </row>
     <row r="35">
@@ -3711,13 +3711,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.193247</v>
+        <v>0.193452</v>
       </c>
       <c r="C35" t="n">
-        <v>0.235761</v>
+        <v>0.229428</v>
       </c>
       <c r="D35" t="n">
-        <v>0.236308</v>
+        <v>0.243467</v>
       </c>
     </row>
     <row r="36">
@@ -3725,13 +3725,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.191017</v>
+        <v>0.19023</v>
       </c>
       <c r="C36" t="n">
-        <v>0.234261</v>
+        <v>0.228745</v>
       </c>
       <c r="D36" t="n">
-        <v>0.239052</v>
+        <v>0.23598</v>
       </c>
     </row>
     <row r="37">
@@ -3739,13 +3739,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.183494</v>
+        <v>0.183959</v>
       </c>
       <c r="C37" t="n">
-        <v>0.229946</v>
+        <v>0.229357</v>
       </c>
       <c r="D37" t="n">
-        <v>0.266243</v>
+        <v>0.265715</v>
       </c>
     </row>
     <row r="38">
@@ -3753,13 +3753,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.24149</v>
+        <v>0.240334</v>
       </c>
       <c r="C38" t="n">
-        <v>0.257496</v>
+        <v>0.2564</v>
       </c>
       <c r="D38" t="n">
-        <v>0.262259</v>
+        <v>0.262032</v>
       </c>
     </row>
     <row r="39">
@@ -3767,13 +3767,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.238282</v>
+        <v>0.235409</v>
       </c>
       <c r="C39" t="n">
-        <v>0.253109</v>
+        <v>0.255977</v>
       </c>
       <c r="D39" t="n">
-        <v>0.256915</v>
+        <v>0.258124</v>
       </c>
     </row>
     <row r="40">
@@ -3781,13 +3781,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.232414</v>
+        <v>0.236297</v>
       </c>
       <c r="C40" t="n">
-        <v>0.25323</v>
+        <v>0.254496</v>
       </c>
       <c r="D40" t="n">
-        <v>0.257842</v>
+        <v>0.25462</v>
       </c>
     </row>
     <row r="41">
@@ -3795,13 +3795,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.228798</v>
+        <v>0.229316</v>
       </c>
       <c r="C41" t="n">
-        <v>0.250599</v>
+        <v>0.248197</v>
       </c>
       <c r="D41" t="n">
-        <v>0.257002</v>
+        <v>0.254638</v>
       </c>
     </row>
     <row r="42">
@@ -3809,13 +3809,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.225109</v>
+        <v>0.223824</v>
       </c>
       <c r="C42" t="n">
-        <v>0.250153</v>
+        <v>0.246974</v>
       </c>
       <c r="D42" t="n">
-        <v>0.25214</v>
+        <v>0.249737</v>
       </c>
     </row>
     <row r="43">
@@ -3823,13 +3823,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.223002</v>
+        <v>0.218838</v>
       </c>
       <c r="C43" t="n">
-        <v>0.248967</v>
+        <v>0.246441</v>
       </c>
       <c r="D43" t="n">
-        <v>0.251939</v>
+        <v>0.253075</v>
       </c>
     </row>
     <row r="44">
@@ -3837,13 +3837,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.216744</v>
+        <v>0.214522</v>
       </c>
       <c r="C44" t="n">
-        <v>0.245946</v>
+        <v>0.242731</v>
       </c>
       <c r="D44" t="n">
-        <v>0.248473</v>
+        <v>0.250976</v>
       </c>
     </row>
     <row r="45">
@@ -3851,13 +3851,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.216758</v>
+        <v>0.211495</v>
       </c>
       <c r="C45" t="n">
-        <v>0.242893</v>
+        <v>0.24206</v>
       </c>
       <c r="D45" t="n">
-        <v>0.247914</v>
+        <v>0.248337</v>
       </c>
     </row>
     <row r="46">
@@ -3865,13 +3865,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.209534</v>
+        <v>0.206975</v>
       </c>
       <c r="C46" t="n">
-        <v>0.242983</v>
+        <v>0.243089</v>
       </c>
       <c r="D46" t="n">
-        <v>0.243968</v>
+        <v>0.248026</v>
       </c>
     </row>
     <row r="47">
@@ -3879,13 +3879,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.204342</v>
+        <v>0.20506</v>
       </c>
       <c r="C47" t="n">
-        <v>0.241687</v>
+        <v>0.240647</v>
       </c>
       <c r="D47" t="n">
-        <v>0.245135</v>
+        <v>0.243575</v>
       </c>
     </row>
     <row r="48">
@@ -3893,13 +3893,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.202428</v>
+        <v>0.200667</v>
       </c>
       <c r="C48" t="n">
-        <v>0.244386</v>
+        <v>0.236759</v>
       </c>
       <c r="D48" t="n">
-        <v>0.244161</v>
+        <v>0.241499</v>
       </c>
     </row>
     <row r="49">
@@ -3907,13 +3907,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.198394</v>
+        <v>0.197564</v>
       </c>
       <c r="C49" t="n">
-        <v>0.238962</v>
+        <v>0.23774</v>
       </c>
       <c r="D49" t="n">
-        <v>0.243355</v>
+        <v>0.239791</v>
       </c>
     </row>
     <row r="50">
@@ -3921,13 +3921,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.195209</v>
+        <v>0.193879</v>
       </c>
       <c r="C50" t="n">
-        <v>0.239312</v>
+        <v>0.234055</v>
       </c>
       <c r="D50" t="n">
-        <v>0.237875</v>
+        <v>0.239425</v>
       </c>
     </row>
     <row r="51">
@@ -3935,13 +3935,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.184513</v>
+        <v>0.185803</v>
       </c>
       <c r="C51" t="n">
-        <v>0.23486</v>
+        <v>0.240584</v>
       </c>
       <c r="D51" t="n">
-        <v>0.262762</v>
+        <v>0.264139</v>
       </c>
     </row>
     <row r="52">
@@ -3949,13 +3949,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.175952</v>
+        <v>0.17733</v>
       </c>
       <c r="C52" t="n">
-        <v>0.235385</v>
+        <v>0.236018</v>
       </c>
       <c r="D52" t="n">
-        <v>0.263295</v>
+        <v>0.262086</v>
       </c>
     </row>
     <row r="53">
@@ -3963,13 +3963,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.245052</v>
+        <v>0.241591</v>
       </c>
       <c r="C53" t="n">
-        <v>0.255901</v>
+        <v>0.254328</v>
       </c>
       <c r="D53" t="n">
-        <v>0.260562</v>
+        <v>0.26157</v>
       </c>
     </row>
     <row r="54">
@@ -3977,13 +3977,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.23839</v>
+        <v>0.23788</v>
       </c>
       <c r="C54" t="n">
-        <v>0.252735</v>
+        <v>0.253049</v>
       </c>
       <c r="D54" t="n">
-        <v>0.257807</v>
+        <v>0.254589</v>
       </c>
     </row>
     <row r="55">
@@ -3991,13 +3991,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.235452</v>
+        <v>0.23416</v>
       </c>
       <c r="C55" t="n">
-        <v>0.252113</v>
+        <v>0.248739</v>
       </c>
       <c r="D55" t="n">
-        <v>0.255243</v>
+        <v>0.255144</v>
       </c>
     </row>
     <row r="56">
@@ -4005,13 +4005,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.231837</v>
+        <v>0.231931</v>
       </c>
       <c r="C56" t="n">
-        <v>0.24914</v>
+        <v>0.250668</v>
       </c>
       <c r="D56" t="n">
-        <v>0.253959</v>
+        <v>0.253875</v>
       </c>
     </row>
     <row r="57">
@@ -4019,13 +4019,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.22708</v>
+        <v>0.226956</v>
       </c>
       <c r="C57" t="n">
-        <v>0.247207</v>
+        <v>0.248804</v>
       </c>
       <c r="D57" t="n">
-        <v>0.25095</v>
+        <v>0.252797</v>
       </c>
     </row>
     <row r="58">
@@ -4033,13 +4033,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.221484</v>
+        <v>0.226263</v>
       </c>
       <c r="C58" t="n">
-        <v>0.246643</v>
+        <v>0.246604</v>
       </c>
       <c r="D58" t="n">
-        <v>0.251695</v>
+        <v>0.247544</v>
       </c>
     </row>
     <row r="59">
@@ -4047,13 +4047,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.219318</v>
+        <v>0.215911</v>
       </c>
       <c r="C59" t="n">
-        <v>0.244608</v>
+        <v>0.242486</v>
       </c>
       <c r="D59" t="n">
-        <v>0.250559</v>
+        <v>0.249247</v>
       </c>
     </row>
     <row r="60">
@@ -4061,13 +4061,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.214464</v>
+        <v>0.214023</v>
       </c>
       <c r="C60" t="n">
-        <v>0.243911</v>
+        <v>0.243119</v>
       </c>
       <c r="D60" t="n">
-        <v>0.245549</v>
+        <v>0.251372</v>
       </c>
     </row>
     <row r="61">
@@ -4075,13 +4075,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.210502</v>
+        <v>0.20995</v>
       </c>
       <c r="C61" t="n">
-        <v>0.242357</v>
+        <v>0.244442</v>
       </c>
       <c r="D61" t="n">
-        <v>0.246534</v>
+        <v>0.244716</v>
       </c>
     </row>
     <row r="62">
@@ -4089,13 +4089,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.206854</v>
+        <v>0.205801</v>
       </c>
       <c r="C62" t="n">
-        <v>0.238674</v>
+        <v>0.237931</v>
       </c>
       <c r="D62" t="n">
-        <v>0.242837</v>
+        <v>0.242866</v>
       </c>
     </row>
     <row r="63">
@@ -4103,13 +4103,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.202861</v>
+        <v>0.20482</v>
       </c>
       <c r="C63" t="n">
-        <v>0.239535</v>
+        <v>0.238533</v>
       </c>
       <c r="D63" t="n">
-        <v>0.244092</v>
+        <v>0.247444</v>
       </c>
     </row>
     <row r="64">
@@ -4117,13 +4117,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.198755</v>
+        <v>0.198588</v>
       </c>
       <c r="C64" t="n">
-        <v>0.238329</v>
+        <v>0.241632</v>
       </c>
       <c r="D64" t="n">
-        <v>0.246166</v>
+        <v>0.244388</v>
       </c>
     </row>
     <row r="65">
@@ -4131,13 +4131,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.192858</v>
+        <v>0.192591</v>
       </c>
       <c r="C65" t="n">
-        <v>0.235437</v>
+        <v>0.2368</v>
       </c>
       <c r="D65" t="n">
-        <v>0.241854</v>
+        <v>0.242844</v>
       </c>
     </row>
     <row r="66">
@@ -4145,13 +4145,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.18407</v>
+        <v>0.187714</v>
       </c>
       <c r="C66" t="n">
-        <v>0.236535</v>
+        <v>0.238793</v>
       </c>
       <c r="D66" t="n">
-        <v>0.267612</v>
+        <v>0.269376</v>
       </c>
     </row>
     <row r="67">
@@ -4159,13 +4159,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.247322</v>
+        <v>0.250733</v>
       </c>
       <c r="C67" t="n">
-        <v>0.256622</v>
+        <v>0.260141</v>
       </c>
       <c r="D67" t="n">
-        <v>0.265133</v>
+        <v>0.266424</v>
       </c>
     </row>
     <row r="68">
@@ -4173,13 +4173,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.25025</v>
+        <v>0.247294</v>
       </c>
       <c r="C68" t="n">
-        <v>0.25655</v>
+        <v>0.255976</v>
       </c>
       <c r="D68" t="n">
-        <v>0.263911</v>
+        <v>0.263788</v>
       </c>
     </row>
     <row r="69">
@@ -4187,13 +4187,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.242863</v>
+        <v>0.241075</v>
       </c>
       <c r="C69" t="n">
-        <v>0.257042</v>
+        <v>0.254456</v>
       </c>
       <c r="D69" t="n">
-        <v>0.263998</v>
+        <v>0.261756</v>
       </c>
     </row>
     <row r="70">
@@ -4201,13 +4201,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.242709</v>
+        <v>0.23648</v>
       </c>
       <c r="C70" t="n">
-        <v>0.253046</v>
+        <v>0.254827</v>
       </c>
       <c r="D70" t="n">
-        <v>0.262204</v>
+        <v>0.256802</v>
       </c>
     </row>
     <row r="71">
@@ -4215,13 +4215,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.235142</v>
+        <v>0.23182</v>
       </c>
       <c r="C71" t="n">
-        <v>0.249364</v>
+        <v>0.253577</v>
       </c>
       <c r="D71" t="n">
-        <v>0.255524</v>
+        <v>0.257936</v>
       </c>
     </row>
     <row r="72">
@@ -4229,13 +4229,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.227318</v>
+        <v>0.23045</v>
       </c>
       <c r="C72" t="n">
-        <v>0.252103</v>
+        <v>0.248126</v>
       </c>
       <c r="D72" t="n">
-        <v>0.257414</v>
+        <v>0.255062</v>
       </c>
     </row>
     <row r="73">
@@ -4243,13 +4243,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.223998</v>
+        <v>0.226016</v>
       </c>
       <c r="C73" t="n">
-        <v>0.248778</v>
+        <v>0.25264</v>
       </c>
       <c r="D73" t="n">
-        <v>0.25298</v>
+        <v>0.255937</v>
       </c>
     </row>
     <row r="74">
@@ -4257,13 +4257,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.219613</v>
+        <v>0.223248</v>
       </c>
       <c r="C74" t="n">
-        <v>0.24816</v>
+        <v>0.24507</v>
       </c>
       <c r="D74" t="n">
-        <v>0.253726</v>
+        <v>0.251862</v>
       </c>
     </row>
     <row r="75">
@@ -4271,13 +4271,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.218285</v>
+        <v>0.217662</v>
       </c>
       <c r="C75" t="n">
-        <v>0.248058</v>
+        <v>0.244281</v>
       </c>
       <c r="D75" t="n">
-        <v>0.252406</v>
+        <v>0.249347</v>
       </c>
     </row>
     <row r="76">
@@ -4285,13 +4285,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.210861</v>
+        <v>0.21146</v>
       </c>
       <c r="C76" t="n">
-        <v>0.246011</v>
+        <v>0.24432</v>
       </c>
       <c r="D76" t="n">
-        <v>0.248123</v>
+        <v>0.248587</v>
       </c>
     </row>
     <row r="77">
@@ -4299,13 +4299,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.208412</v>
+        <v>0.210016</v>
       </c>
       <c r="C77" t="n">
-        <v>0.240439</v>
+        <v>0.245558</v>
       </c>
       <c r="D77" t="n">
-        <v>0.245758</v>
+        <v>0.250459</v>
       </c>
     </row>
     <row r="78">
@@ -4313,13 +4313,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.208652</v>
+        <v>0.205225</v>
       </c>
       <c r="C78" t="n">
-        <v>0.240943</v>
+        <v>0.240675</v>
       </c>
       <c r="D78" t="n">
-        <v>0.246259</v>
+        <v>0.24749</v>
       </c>
     </row>
     <row r="79">
@@ -4327,13 +4327,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.199875</v>
+        <v>0.198793</v>
       </c>
       <c r="C79" t="n">
-        <v>0.237756</v>
+        <v>0.240794</v>
       </c>
       <c r="D79" t="n">
-        <v>0.246081</v>
+        <v>0.243991</v>
       </c>
     </row>
     <row r="80">
@@ -4341,13 +4341,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.195039</v>
+        <v>0.190731</v>
       </c>
       <c r="C80" t="n">
-        <v>0.239779</v>
+        <v>0.239313</v>
       </c>
       <c r="D80" t="n">
-        <v>0.270923</v>
+        <v>0.272452</v>
       </c>
     </row>
     <row r="81">
@@ -4355,13 +4355,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.25689</v>
+        <v>0.258787</v>
       </c>
       <c r="C81" t="n">
-        <v>0.267782</v>
+        <v>0.265374</v>
       </c>
       <c r="D81" t="n">
-        <v>0.274269</v>
+        <v>0.272317</v>
       </c>
     </row>
     <row r="82">
@@ -4369,13 +4369,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.254681</v>
+        <v>0.258283</v>
       </c>
       <c r="C82" t="n">
-        <v>0.264539</v>
+        <v>0.265652</v>
       </c>
       <c r="D82" t="n">
-        <v>0.268243</v>
+        <v>0.269456</v>
       </c>
     </row>
     <row r="83">
@@ -4383,13 +4383,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.250892</v>
+        <v>0.251319</v>
       </c>
       <c r="C83" t="n">
-        <v>0.261819</v>
+        <v>0.261949</v>
       </c>
       <c r="D83" t="n">
-        <v>0.262777</v>
+        <v>0.266684</v>
       </c>
     </row>
     <row r="84">
@@ -4397,13 +4397,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.246322</v>
+        <v>0.243966</v>
       </c>
       <c r="C84" t="n">
-        <v>0.259498</v>
+        <v>0.259069</v>
       </c>
       <c r="D84" t="n">
-        <v>0.264521</v>
+        <v>0.263397</v>
       </c>
     </row>
     <row r="85">
@@ -4411,13 +4411,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.237595</v>
+        <v>0.241079</v>
       </c>
       <c r="C85" t="n">
-        <v>0.258612</v>
+        <v>0.256697</v>
       </c>
       <c r="D85" t="n">
-        <v>0.264398</v>
+        <v>0.264333</v>
       </c>
     </row>
     <row r="86">
@@ -4425,13 +4425,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.234687</v>
+        <v>0.234103</v>
       </c>
       <c r="C86" t="n">
-        <v>0.2556</v>
+        <v>0.255681</v>
       </c>
       <c r="D86" t="n">
-        <v>0.257347</v>
+        <v>0.261739</v>
       </c>
     </row>
     <row r="87">
@@ -4439,13 +4439,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.230085</v>
+        <v>0.228621</v>
       </c>
       <c r="C87" t="n">
-        <v>0.253493</v>
+        <v>0.256558</v>
       </c>
       <c r="D87" t="n">
-        <v>0.255591</v>
+        <v>0.260311</v>
       </c>
     </row>
     <row r="88">
@@ -4453,13 +4453,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.223921</v>
+        <v>0.224107</v>
       </c>
       <c r="C88" t="n">
-        <v>0.254208</v>
+        <v>0.249653</v>
       </c>
       <c r="D88" t="n">
-        <v>0.261422</v>
+        <v>0.256465</v>
       </c>
     </row>
     <row r="89">
@@ -4467,13 +4467,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.220602</v>
+        <v>0.221333</v>
       </c>
       <c r="C89" t="n">
-        <v>0.250678</v>
+        <v>0.25392</v>
       </c>
       <c r="D89" t="n">
-        <v>0.255068</v>
+        <v>0.254257</v>
       </c>
     </row>
     <row r="90">
@@ -4481,13 +4481,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.215699</v>
+        <v>0.215905</v>
       </c>
       <c r="C90" t="n">
-        <v>0.246336</v>
+        <v>0.251998</v>
       </c>
       <c r="D90" t="n">
-        <v>0.25314</v>
+        <v>0.252617</v>
       </c>
     </row>
     <row r="91">
@@ -4495,13 +4495,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.212022</v>
+        <v>0.211609</v>
       </c>
       <c r="C91" t="n">
-        <v>0.244881</v>
+        <v>0.243973</v>
       </c>
       <c r="D91" t="n">
-        <v>0.250392</v>
+        <v>0.249959</v>
       </c>
     </row>
     <row r="92">
@@ -4509,13 +4509,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.20899</v>
+        <v>0.208073</v>
       </c>
       <c r="C92" t="n">
-        <v>0.246179</v>
+        <v>0.242722</v>
       </c>
       <c r="D92" t="n">
-        <v>0.250122</v>
+        <v>0.248795</v>
       </c>
     </row>
     <row r="93">
@@ -4523,13 +4523,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.201019</v>
+        <v>0.203961</v>
       </c>
       <c r="C93" t="n">
-        <v>0.243643</v>
+        <v>0.244346</v>
       </c>
       <c r="D93" t="n">
-        <v>0.246586</v>
+        <v>0.246761</v>
       </c>
     </row>
     <row r="94">
@@ -4537,13 +4537,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.194021</v>
+        <v>0.194608</v>
       </c>
       <c r="C94" t="n">
-        <v>0.24324</v>
+        <v>0.245251</v>
       </c>
       <c r="D94" t="n">
-        <v>0.272383</v>
+        <v>0.276558</v>
       </c>
     </row>
     <row r="95">
@@ -4551,13 +4551,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.260395</v>
+        <v>0.265304</v>
       </c>
       <c r="C95" t="n">
-        <v>0.272263</v>
+        <v>0.272255</v>
       </c>
       <c r="D95" t="n">
-        <v>0.271082</v>
+        <v>0.274734</v>
       </c>
     </row>
     <row r="96">
@@ -4565,13 +4565,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.256497</v>
+        <v>0.256359</v>
       </c>
       <c r="C96" t="n">
-        <v>0.265543</v>
+        <v>0.26909</v>
       </c>
       <c r="D96" t="n">
-        <v>0.268352</v>
+        <v>0.271708</v>
       </c>
     </row>
     <row r="97">
@@ -4579,13 +4579,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.250861</v>
+        <v>0.250249</v>
       </c>
       <c r="C97" t="n">
-        <v>0.264595</v>
+        <v>0.261595</v>
       </c>
       <c r="D97" t="n">
-        <v>0.267242</v>
+        <v>0.266521</v>
       </c>
     </row>
     <row r="98">
@@ -4593,13 +4593,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.248271</v>
+        <v>0.247506</v>
       </c>
       <c r="C98" t="n">
-        <v>0.261077</v>
+        <v>0.260329</v>
       </c>
       <c r="D98" t="n">
-        <v>0.265942</v>
+        <v>0.271388</v>
       </c>
     </row>
     <row r="99">
@@ -4607,13 +4607,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.2444</v>
+        <v>0.245766</v>
       </c>
       <c r="C99" t="n">
-        <v>0.256895</v>
+        <v>0.257945</v>
       </c>
       <c r="D99" t="n">
-        <v>0.261618</v>
+        <v>0.260747</v>
       </c>
     </row>
     <row r="100">
@@ -4621,13 +4621,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.235916</v>
+        <v>0.240544</v>
       </c>
       <c r="C100" t="n">
-        <v>0.257228</v>
+        <v>0.255539</v>
       </c>
       <c r="D100" t="n">
-        <v>0.261198</v>
+        <v>0.261663</v>
       </c>
     </row>
     <row r="101">
@@ -4635,13 +4635,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.232287</v>
+        <v>0.23166</v>
       </c>
       <c r="C101" t="n">
-        <v>0.257647</v>
+        <v>0.256471</v>
       </c>
       <c r="D101" t="n">
-        <v>0.25717</v>
+        <v>0.260781</v>
       </c>
     </row>
     <row r="102">
@@ -4649,13 +4649,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.228429</v>
+        <v>0.227229</v>
       </c>
       <c r="C102" t="n">
-        <v>0.252573</v>
+        <v>0.255044</v>
       </c>
       <c r="D102" t="n">
-        <v>0.255259</v>
+        <v>0.258263</v>
       </c>
     </row>
     <row r="103">
@@ -4663,13 +4663,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.222906</v>
+        <v>0.224585</v>
       </c>
       <c r="C103" t="n">
-        <v>0.25256</v>
+        <v>0.250808</v>
       </c>
       <c r="D103" t="n">
-        <v>0.254482</v>
+        <v>0.252799</v>
       </c>
     </row>
     <row r="104">
@@ -4677,13 +4677,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.219963</v>
+        <v>0.216852</v>
       </c>
       <c r="C104" t="n">
-        <v>0.250525</v>
+        <v>0.248872</v>
       </c>
       <c r="D104" t="n">
-        <v>0.257118</v>
+        <v>0.253897</v>
       </c>
     </row>
     <row r="105">
@@ -4691,13 +4691,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.21596</v>
+        <v>0.214353</v>
       </c>
       <c r="C105" t="n">
-        <v>0.245867</v>
+        <v>0.244867</v>
       </c>
       <c r="D105" t="n">
-        <v>0.252218</v>
+        <v>0.250284</v>
       </c>
     </row>
     <row r="106">
@@ -4705,13 +4705,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.213328</v>
+        <v>0.21297</v>
       </c>
       <c r="C106" t="n">
-        <v>0.243573</v>
+        <v>0.2441</v>
       </c>
       <c r="D106" t="n">
-        <v>0.249315</v>
+        <v>0.250895</v>
       </c>
     </row>
     <row r="107">
@@ -4719,13 +4719,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.206595</v>
+        <v>0.204335</v>
       </c>
       <c r="C107" t="n">
-        <v>0.244313</v>
+        <v>0.245846</v>
       </c>
       <c r="D107" t="n">
-        <v>0.247743</v>
+        <v>0.247639</v>
       </c>
     </row>
     <row r="108">
@@ -4733,13 +4733,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.197197</v>
+        <v>0.199971</v>
       </c>
       <c r="C108" t="n">
-        <v>0.241364</v>
+        <v>0.243479</v>
       </c>
       <c r="D108" t="n">
-        <v>0.274886</v>
+        <v>0.278421</v>
       </c>
     </row>
     <row r="109">
@@ -4747,13 +4747,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.187635</v>
+        <v>0.187197</v>
       </c>
       <c r="C109" t="n">
-        <v>0.243473</v>
+        <v>0.244238</v>
       </c>
       <c r="D109" t="n">
-        <v>0.269898</v>
+        <v>0.273761</v>
       </c>
     </row>
     <row r="110">
@@ -4761,13 +4761,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.258915</v>
+        <v>0.259076</v>
       </c>
       <c r="C110" t="n">
-        <v>0.268195</v>
+        <v>0.266541</v>
       </c>
       <c r="D110" t="n">
-        <v>0.270947</v>
+        <v>0.273717</v>
       </c>
     </row>
     <row r="111">
@@ -4775,13 +4775,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.252055</v>
+        <v>0.256208</v>
       </c>
       <c r="C111" t="n">
-        <v>0.261978</v>
+        <v>0.262684</v>
       </c>
       <c r="D111" t="n">
-        <v>0.267761</v>
+        <v>0.27032</v>
       </c>
     </row>
     <row r="112">
@@ -4789,13 +4789,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.251491</v>
+        <v>0.249617</v>
       </c>
       <c r="C112" t="n">
-        <v>0.272816</v>
+        <v>0.266955</v>
       </c>
       <c r="D112" t="n">
-        <v>0.268181</v>
+        <v>0.266986</v>
       </c>
     </row>
     <row r="113">
@@ -4803,13 +4803,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.247318</v>
+        <v>0.240289</v>
       </c>
       <c r="C113" t="n">
-        <v>0.262692</v>
+        <v>0.26258</v>
       </c>
       <c r="D113" t="n">
-        <v>0.263413</v>
+        <v>0.265226</v>
       </c>
     </row>
     <row r="114">
@@ -4817,13 +4817,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.237625</v>
+        <v>0.239736</v>
       </c>
       <c r="C114" t="n">
-        <v>0.257016</v>
+        <v>0.257906</v>
       </c>
       <c r="D114" t="n">
-        <v>0.262662</v>
+        <v>0.261863</v>
       </c>
     </row>
     <row r="115">
@@ -4831,13 +4831,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.234262</v>
+        <v>0.231447</v>
       </c>
       <c r="C115" t="n">
-        <v>0.258673</v>
+        <v>0.256927</v>
       </c>
       <c r="D115" t="n">
-        <v>0.264224</v>
+        <v>0.259908</v>
       </c>
     </row>
     <row r="116">
@@ -4845,13 +4845,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.229923</v>
+        <v>0.229616</v>
       </c>
       <c r="C116" t="n">
-        <v>0.253118</v>
+        <v>0.255634</v>
       </c>
       <c r="D116" t="n">
-        <v>0.255673</v>
+        <v>0.257501</v>
       </c>
     </row>
     <row r="117">
@@ -4859,13 +4859,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.224689</v>
+        <v>0.224098</v>
       </c>
       <c r="C117" t="n">
-        <v>0.252644</v>
+        <v>0.252523</v>
       </c>
       <c r="D117" t="n">
-        <v>0.256699</v>
+        <v>0.25832</v>
       </c>
     </row>
     <row r="118">
@@ -4873,13 +4873,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.216408</v>
+        <v>0.217289</v>
       </c>
       <c r="C118" t="n">
-        <v>0.250025</v>
+        <v>0.25251</v>
       </c>
       <c r="D118" t="n">
-        <v>0.256244</v>
+        <v>0.253774</v>
       </c>
     </row>
     <row r="119">
@@ -4887,13 +4887,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.214919</v>
+        <v>0.215708</v>
       </c>
       <c r="C119" t="n">
-        <v>0.248012</v>
+        <v>0.252556</v>
       </c>
       <c r="D119" t="n">
-        <v>0.25115</v>
+        <v>0.248587</v>
       </c>
     </row>
     <row r="120">
@@ -4901,13 +4901,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.213682</v>
+        <v>0.208283</v>
       </c>
       <c r="C120" t="n">
-        <v>0.247127</v>
+        <v>0.248042</v>
       </c>
       <c r="D120" t="n">
-        <v>0.252703</v>
+        <v>0.250087</v>
       </c>
     </row>
     <row r="121">
@@ -4915,13 +4915,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.209894</v>
+        <v>0.207593</v>
       </c>
       <c r="C121" t="n">
-        <v>0.245932</v>
+        <v>0.247532</v>
       </c>
       <c r="D121" t="n">
-        <v>0.247307</v>
+        <v>0.248425</v>
       </c>
     </row>
     <row r="122">
@@ -4929,13 +4929,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.203002</v>
+        <v>0.199902</v>
       </c>
       <c r="C122" t="n">
-        <v>0.243999</v>
+        <v>0.244851</v>
       </c>
       <c r="D122" t="n">
-        <v>0.251349</v>
+        <v>0.247279</v>
       </c>
     </row>
     <row r="123">
@@ -4943,13 +4943,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.192694</v>
+        <v>0.190326</v>
       </c>
       <c r="C123" t="n">
-        <v>0.243127</v>
+        <v>0.241609</v>
       </c>
       <c r="D123" t="n">
-        <v>0.279792</v>
+        <v>0.278544</v>
       </c>
     </row>
     <row r="124">
@@ -4957,13 +4957,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.25946</v>
+        <v>0.256043</v>
       </c>
       <c r="C124" t="n">
-        <v>0.266599</v>
+        <v>0.266976</v>
       </c>
       <c r="D124" t="n">
-        <v>0.27568</v>
+        <v>0.273582</v>
       </c>
     </row>
     <row r="125">
@@ -4971,13 +4971,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.256321</v>
+        <v>0.25705</v>
       </c>
       <c r="C125" t="n">
-        <v>0.268505</v>
+        <v>0.265285</v>
       </c>
       <c r="D125" t="n">
-        <v>0.26996</v>
+        <v>0.26949</v>
       </c>
     </row>
     <row r="126">
@@ -4985,13 +4985,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.247142</v>
+        <v>0.250864</v>
       </c>
       <c r="C126" t="n">
-        <v>0.264892</v>
+        <v>0.264237</v>
       </c>
       <c r="D126" t="n">
-        <v>0.26882</v>
+        <v>0.269865</v>
       </c>
     </row>
     <row r="127">
@@ -4999,13 +4999,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.245549</v>
+        <v>0.244584</v>
       </c>
       <c r="C127" t="n">
-        <v>0.264285</v>
+        <v>0.262294</v>
       </c>
       <c r="D127" t="n">
-        <v>0.267104</v>
+        <v>0.267311</v>
       </c>
     </row>
     <row r="128">
@@ -5013,13 +5013,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.238841</v>
+        <v>0.239309</v>
       </c>
       <c r="C128" t="n">
-        <v>0.260758</v>
+        <v>0.257573</v>
       </c>
       <c r="D128" t="n">
-        <v>0.26521</v>
+        <v>0.262999</v>
       </c>
     </row>
     <row r="129">
@@ -5027,13 +5027,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.232228</v>
+        <v>0.235241</v>
       </c>
       <c r="C129" t="n">
-        <v>0.260037</v>
+        <v>0.259147</v>
       </c>
       <c r="D129" t="n">
-        <v>0.258385</v>
+        <v>0.259606</v>
       </c>
     </row>
     <row r="130">
@@ -5041,13 +5041,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.232119</v>
+        <v>0.235394</v>
       </c>
       <c r="C130" t="n">
-        <v>0.257593</v>
+        <v>0.254559</v>
       </c>
       <c r="D130" t="n">
-        <v>0.264734</v>
+        <v>0.258491</v>
       </c>
     </row>
     <row r="131">
@@ -5055,13 +5055,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.225251</v>
+        <v>0.228361</v>
       </c>
       <c r="C131" t="n">
-        <v>0.26154</v>
+        <v>0.250345</v>
       </c>
       <c r="D131" t="n">
-        <v>0.257358</v>
+        <v>0.256001</v>
       </c>
     </row>
     <row r="132">
@@ -5069,13 +5069,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.221627</v>
+        <v>0.222026</v>
       </c>
       <c r="C132" t="n">
-        <v>0.248119</v>
+        <v>0.247314</v>
       </c>
       <c r="D132" t="n">
-        <v>0.252735</v>
+        <v>0.253002</v>
       </c>
     </row>
     <row r="133">
@@ -5083,13 +5083,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.213491</v>
+        <v>0.216502</v>
       </c>
       <c r="C133" t="n">
-        <v>0.253424</v>
+        <v>0.249057</v>
       </c>
       <c r="D133" t="n">
-        <v>0.252929</v>
+        <v>0.254936</v>
       </c>
     </row>
     <row r="134">
@@ -5097,13 +5097,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.210479</v>
+        <v>0.211437</v>
       </c>
       <c r="C134" t="n">
-        <v>0.248623</v>
+        <v>0.246122</v>
       </c>
       <c r="D134" t="n">
-        <v>0.250837</v>
+        <v>0.254137</v>
       </c>
     </row>
     <row r="135">
@@ -5111,13 +5111,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.208887</v>
+        <v>0.210729</v>
       </c>
       <c r="C135" t="n">
-        <v>0.244029</v>
+        <v>0.246331</v>
       </c>
       <c r="D135" t="n">
-        <v>0.247724</v>
+        <v>0.248328</v>
       </c>
     </row>
     <row r="136">
@@ -5125,13 +5125,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.201571</v>
+        <v>0.198682</v>
       </c>
       <c r="C136" t="n">
-        <v>0.246118</v>
+        <v>0.248948</v>
       </c>
       <c r="D136" t="n">
-        <v>0.247897</v>
+        <v>0.251059</v>
       </c>
     </row>
     <row r="137">
@@ -5139,13 +5139,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.191157</v>
+        <v>0.189864</v>
       </c>
       <c r="C137" t="n">
-        <v>0.242256</v>
+        <v>0.241733</v>
       </c>
       <c r="D137" t="n">
-        <v>0.278663</v>
+        <v>0.273141</v>
       </c>
     </row>
     <row r="138">
@@ -5153,13 +5153,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.266403</v>
+        <v>0.260909</v>
       </c>
       <c r="C138" t="n">
-        <v>0.271924</v>
+        <v>0.266306</v>
       </c>
       <c r="D138" t="n">
-        <v>0.27397</v>
+        <v>0.272483</v>
       </c>
     </row>
     <row r="139">
@@ -5167,13 +5167,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.253321</v>
+        <v>0.255248</v>
       </c>
       <c r="C139" t="n">
-        <v>0.262162</v>
+        <v>0.263082</v>
       </c>
       <c r="D139" t="n">
-        <v>0.27092</v>
+        <v>0.269838</v>
       </c>
     </row>
     <row r="140">
@@ -5181,13 +5181,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.254988</v>
+        <v>0.254508</v>
       </c>
       <c r="C140" t="n">
-        <v>0.265443</v>
+        <v>0.266107</v>
       </c>
       <c r="D140" t="n">
-        <v>0.272199</v>
+        <v>0.270228</v>
       </c>
     </row>
     <row r="141">
@@ -5195,13 +5195,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.24375</v>
+        <v>0.24266</v>
       </c>
       <c r="C141" t="n">
-        <v>0.25896</v>
+        <v>0.258882</v>
       </c>
       <c r="D141" t="n">
-        <v>0.269348</v>
+        <v>0.263839</v>
       </c>
     </row>
     <row r="142">
@@ -5209,13 +5209,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.246671</v>
+        <v>0.2381</v>
       </c>
       <c r="C142" t="n">
-        <v>0.256329</v>
+        <v>0.259367</v>
       </c>
       <c r="D142" t="n">
-        <v>0.270856</v>
+        <v>0.260871</v>
       </c>
     </row>
     <row r="143">
@@ -5223,13 +5223,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.234457</v>
+        <v>0.241751</v>
       </c>
       <c r="C143" t="n">
-        <v>0.254358</v>
+        <v>0.259865</v>
       </c>
       <c r="D143" t="n">
-        <v>0.265117</v>
+        <v>0.263815</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Running erasure.xlsx
+++ b/vs-x64/Running erasure.xlsx
@@ -3249,13 +3249,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.20055</v>
+        <v>0.207859</v>
       </c>
       <c r="C2" t="n">
-        <v>0.233645</v>
+        <v>0.233792</v>
       </c>
       <c r="D2" t="n">
-        <v>0.23843</v>
+        <v>0.234285</v>
       </c>
     </row>
     <row r="3">
@@ -3263,13 +3263,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.198079</v>
+        <v>0.197703</v>
       </c>
       <c r="C3" t="n">
-        <v>0.231369</v>
+        <v>0.236213</v>
       </c>
       <c r="D3" t="n">
-        <v>0.232723</v>
+        <v>0.236371</v>
       </c>
     </row>
     <row r="4">
@@ -3277,13 +3277,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.194648</v>
+        <v>0.200772</v>
       </c>
       <c r="C4" t="n">
-        <v>0.229299</v>
+        <v>0.236703</v>
       </c>
       <c r="D4" t="n">
-        <v>0.242786</v>
+        <v>0.24302</v>
       </c>
     </row>
     <row r="5">
@@ -3291,13 +3291,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.199207</v>
+        <v>0.195089</v>
       </c>
       <c r="C5" t="n">
-        <v>0.229889</v>
+        <v>0.237477</v>
       </c>
       <c r="D5" t="n">
-        <v>0.236347</v>
+        <v>0.237208</v>
       </c>
     </row>
     <row r="6">
@@ -3305,13 +3305,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.189715</v>
+        <v>0.197946</v>
       </c>
       <c r="C6" t="n">
-        <v>0.232449</v>
+        <v>0.235069</v>
       </c>
       <c r="D6" t="n">
-        <v>0.237053</v>
+        <v>0.233703</v>
       </c>
     </row>
     <row r="7">
@@ -3319,13 +3319,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.190343</v>
+        <v>0.190488</v>
       </c>
       <c r="C7" t="n">
-        <v>0.229836</v>
+        <v>0.23103</v>
       </c>
       <c r="D7" t="n">
-        <v>0.238228</v>
+        <v>0.23166</v>
       </c>
     </row>
     <row r="8">
@@ -3333,13 +3333,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.187186</v>
+        <v>0.182491</v>
       </c>
       <c r="C8" t="n">
-        <v>0.229402</v>
+        <v>0.232531</v>
       </c>
       <c r="D8" t="n">
-        <v>0.236584</v>
+        <v>0.237425</v>
       </c>
     </row>
     <row r="9">
@@ -3347,13 +3347,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.176148</v>
+        <v>0.179101</v>
       </c>
       <c r="C9" t="n">
-        <v>0.234358</v>
+        <v>0.233179</v>
       </c>
       <c r="D9" t="n">
-        <v>0.250061</v>
+        <v>0.248485</v>
       </c>
     </row>
     <row r="10">
@@ -3361,13 +3361,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.227585</v>
+        <v>0.234021</v>
       </c>
       <c r="C10" t="n">
-        <v>0.23816</v>
+        <v>0.242112</v>
       </c>
       <c r="D10" t="n">
-        <v>0.247338</v>
+        <v>0.242904</v>
       </c>
     </row>
     <row r="11">
@@ -3375,13 +3375,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.222774</v>
+        <v>0.22743</v>
       </c>
       <c r="C11" t="n">
-        <v>0.235764</v>
+        <v>0.23644</v>
       </c>
       <c r="D11" t="n">
-        <v>0.243178</v>
+        <v>0.240602</v>
       </c>
     </row>
     <row r="12">
@@ -3389,13 +3389,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.218437</v>
+        <v>0.223703</v>
       </c>
       <c r="C12" t="n">
-        <v>0.237249</v>
+        <v>0.244286</v>
       </c>
       <c r="D12" t="n">
-        <v>0.241892</v>
+        <v>0.239889</v>
       </c>
     </row>
     <row r="13">
@@ -3403,13 +3403,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.217936</v>
+        <v>0.214805</v>
       </c>
       <c r="C13" t="n">
-        <v>0.242544</v>
+        <v>0.236128</v>
       </c>
       <c r="D13" t="n">
-        <v>0.2366</v>
+        <v>0.239901</v>
       </c>
     </row>
     <row r="14">
@@ -3417,13 +3417,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.210908</v>
+        <v>0.213809</v>
       </c>
       <c r="C14" t="n">
-        <v>0.234054</v>
+        <v>0.235377</v>
       </c>
       <c r="D14" t="n">
-        <v>0.23945</v>
+        <v>0.238494</v>
       </c>
     </row>
     <row r="15">
@@ -3431,13 +3431,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.20929</v>
+        <v>0.210679</v>
       </c>
       <c r="C15" t="n">
-        <v>0.229008</v>
+        <v>0.237786</v>
       </c>
       <c r="D15" t="n">
-        <v>0.233482</v>
+        <v>0.241307</v>
       </c>
     </row>
     <row r="16">
@@ -3445,13 +3445,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.206115</v>
+        <v>0.208343</v>
       </c>
       <c r="C16" t="n">
-        <v>0.230001</v>
+        <v>0.237477</v>
       </c>
       <c r="D16" t="n">
-        <v>0.235583</v>
+        <v>0.242023</v>
       </c>
     </row>
     <row r="17">
@@ -3459,13 +3459,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.199669</v>
+        <v>0.201648</v>
       </c>
       <c r="C17" t="n">
-        <v>0.233276</v>
+        <v>0.234507</v>
       </c>
       <c r="D17" t="n">
-        <v>0.237718</v>
+        <v>0.238476</v>
       </c>
     </row>
     <row r="18">
@@ -3473,13 +3473,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.201608</v>
+        <v>0.200062</v>
       </c>
       <c r="C18" t="n">
-        <v>0.236974</v>
+        <v>0.234372</v>
       </c>
       <c r="D18" t="n">
-        <v>0.24373</v>
+        <v>0.239455</v>
       </c>
     </row>
     <row r="19">
@@ -3487,13 +3487,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.199452</v>
+        <v>0.196458</v>
       </c>
       <c r="C19" t="n">
-        <v>0.228</v>
+        <v>0.231735</v>
       </c>
       <c r="D19" t="n">
-        <v>0.242871</v>
+        <v>0.23501</v>
       </c>
     </row>
     <row r="20">
@@ -3501,13 +3501,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.196382</v>
+        <v>0.199016</v>
       </c>
       <c r="C20" t="n">
-        <v>0.22982</v>
+        <v>0.23597</v>
       </c>
       <c r="D20" t="n">
-        <v>0.236048</v>
+        <v>0.234787</v>
       </c>
     </row>
     <row r="21">
@@ -3515,13 +3515,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.188498</v>
+        <v>0.191686</v>
       </c>
       <c r="C21" t="n">
-        <v>0.231392</v>
+        <v>0.229858</v>
       </c>
       <c r="D21" t="n">
-        <v>0.235137</v>
+        <v>0.245561</v>
       </c>
     </row>
     <row r="22">
@@ -3529,13 +3529,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.184684</v>
+        <v>0.187071</v>
       </c>
       <c r="C22" t="n">
-        <v>0.227717</v>
+        <v>0.22788</v>
       </c>
       <c r="D22" t="n">
-        <v>0.235326</v>
+        <v>0.232162</v>
       </c>
     </row>
     <row r="23">
@@ -3543,13 +3543,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.179078</v>
+        <v>0.182314</v>
       </c>
       <c r="C23" t="n">
-        <v>0.227686</v>
+        <v>0.232894</v>
       </c>
       <c r="D23" t="n">
-        <v>0.253526</v>
+        <v>0.246827</v>
       </c>
     </row>
     <row r="24">
@@ -3557,13 +3557,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.235597</v>
+        <v>0.236816</v>
       </c>
       <c r="C24" t="n">
-        <v>0.243886</v>
+        <v>0.245834</v>
       </c>
       <c r="D24" t="n">
-        <v>0.247606</v>
+        <v>0.247397</v>
       </c>
     </row>
     <row r="25">
@@ -3571,13 +3571,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.231663</v>
+        <v>0.235793</v>
       </c>
       <c r="C25" t="n">
-        <v>0.242033</v>
+        <v>0.24943</v>
       </c>
       <c r="D25" t="n">
-        <v>0.244321</v>
+        <v>0.246492</v>
       </c>
     </row>
     <row r="26">
@@ -3585,13 +3585,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.227315</v>
+        <v>0.230688</v>
       </c>
       <c r="C26" t="n">
-        <v>0.247381</v>
+        <v>0.242154</v>
       </c>
       <c r="D26" t="n">
-        <v>0.254459</v>
+        <v>0.241479</v>
       </c>
     </row>
     <row r="27">
@@ -3599,13 +3599,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.224466</v>
+        <v>0.222843</v>
       </c>
       <c r="C27" t="n">
-        <v>0.238743</v>
+        <v>0.242367</v>
       </c>
       <c r="D27" t="n">
-        <v>0.245129</v>
+        <v>0.241806</v>
       </c>
     </row>
     <row r="28">
@@ -3613,13 +3613,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.220805</v>
+        <v>0.221568</v>
       </c>
       <c r="C28" t="n">
-        <v>0.239434</v>
+        <v>0.238912</v>
       </c>
       <c r="D28" t="n">
-        <v>0.243057</v>
+        <v>0.246137</v>
       </c>
     </row>
     <row r="29">
@@ -3627,13 +3627,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.216869</v>
+        <v>0.215546</v>
       </c>
       <c r="C29" t="n">
-        <v>0.233416</v>
+        <v>0.240844</v>
       </c>
       <c r="D29" t="n">
-        <v>0.24004</v>
+        <v>0.245079</v>
       </c>
     </row>
     <row r="30">
@@ -3641,13 +3641,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.211324</v>
+        <v>0.214395</v>
       </c>
       <c r="C30" t="n">
-        <v>0.235189</v>
+        <v>0.237605</v>
       </c>
       <c r="D30" t="n">
-        <v>0.244075</v>
+        <v>0.242618</v>
       </c>
     </row>
     <row r="31">
@@ -3655,13 +3655,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.207232</v>
+        <v>0.207775</v>
       </c>
       <c r="C31" t="n">
-        <v>0.232906</v>
+        <v>0.235585</v>
       </c>
       <c r="D31" t="n">
-        <v>0.236546</v>
+        <v>0.243975</v>
       </c>
     </row>
     <row r="32">
@@ -3669,13 +3669,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.205304</v>
+        <v>0.203809</v>
       </c>
       <c r="C32" t="n">
-        <v>0.232317</v>
+        <v>0.236438</v>
       </c>
       <c r="D32" t="n">
-        <v>0.24139</v>
+        <v>0.238131</v>
       </c>
     </row>
     <row r="33">
@@ -3683,13 +3683,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.202049</v>
+        <v>0.201002</v>
       </c>
       <c r="C33" t="n">
-        <v>0.231558</v>
+        <v>0.240518</v>
       </c>
       <c r="D33" t="n">
-        <v>0.238292</v>
+        <v>0.235627</v>
       </c>
     </row>
     <row r="34">
@@ -3697,13 +3697,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.196987</v>
+        <v>0.198073</v>
       </c>
       <c r="C34" t="n">
-        <v>0.229</v>
+        <v>0.234404</v>
       </c>
       <c r="D34" t="n">
-        <v>0.239291</v>
+        <v>0.236737</v>
       </c>
     </row>
     <row r="35">
@@ -3711,13 +3711,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.193452</v>
+        <v>0.193727</v>
       </c>
       <c r="C35" t="n">
-        <v>0.229428</v>
+        <v>0.235832</v>
       </c>
       <c r="D35" t="n">
-        <v>0.243467</v>
+        <v>0.234633</v>
       </c>
     </row>
     <row r="36">
@@ -3725,13 +3725,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.19023</v>
+        <v>0.189414</v>
       </c>
       <c r="C36" t="n">
-        <v>0.228745</v>
+        <v>0.231108</v>
       </c>
       <c r="D36" t="n">
-        <v>0.23598</v>
+        <v>0.237428</v>
       </c>
     </row>
     <row r="37">
@@ -3739,13 +3739,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.183959</v>
+        <v>0.184183</v>
       </c>
       <c r="C37" t="n">
-        <v>0.229357</v>
+        <v>0.233104</v>
       </c>
       <c r="D37" t="n">
-        <v>0.265715</v>
+        <v>0.260798</v>
       </c>
     </row>
     <row r="38">
@@ -3753,13 +3753,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.240334</v>
+        <v>0.238999</v>
       </c>
       <c r="C38" t="n">
-        <v>0.2564</v>
+        <v>0.261954</v>
       </c>
       <c r="D38" t="n">
-        <v>0.262032</v>
+        <v>0.26063</v>
       </c>
     </row>
     <row r="39">
@@ -3767,13 +3767,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.235409</v>
+        <v>0.237879</v>
       </c>
       <c r="C39" t="n">
-        <v>0.255977</v>
+        <v>0.255739</v>
       </c>
       <c r="D39" t="n">
-        <v>0.258124</v>
+        <v>0.255793</v>
       </c>
     </row>
     <row r="40">
@@ -3781,13 +3781,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.236297</v>
+        <v>0.232362</v>
       </c>
       <c r="C40" t="n">
-        <v>0.254496</v>
+        <v>0.256435</v>
       </c>
       <c r="D40" t="n">
-        <v>0.25462</v>
+        <v>0.254165</v>
       </c>
     </row>
     <row r="41">
@@ -3795,13 +3795,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.229316</v>
+        <v>0.229686</v>
       </c>
       <c r="C41" t="n">
-        <v>0.248197</v>
+        <v>0.252189</v>
       </c>
       <c r="D41" t="n">
-        <v>0.254638</v>
+        <v>0.253426</v>
       </c>
     </row>
     <row r="42">
@@ -3809,13 +3809,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.223824</v>
+        <v>0.222397</v>
       </c>
       <c r="C42" t="n">
-        <v>0.246974</v>
+        <v>0.248489</v>
       </c>
       <c r="D42" t="n">
-        <v>0.249737</v>
+        <v>0.251585</v>
       </c>
     </row>
     <row r="43">
@@ -3823,13 +3823,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.218838</v>
+        <v>0.220274</v>
       </c>
       <c r="C43" t="n">
-        <v>0.246441</v>
+        <v>0.250544</v>
       </c>
       <c r="D43" t="n">
-        <v>0.253075</v>
+        <v>0.248406</v>
       </c>
     </row>
     <row r="44">
@@ -3837,13 +3837,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.214522</v>
+        <v>0.216927</v>
       </c>
       <c r="C44" t="n">
-        <v>0.242731</v>
+        <v>0.250016</v>
       </c>
       <c r="D44" t="n">
-        <v>0.250976</v>
+        <v>0.246321</v>
       </c>
     </row>
     <row r="45">
@@ -3851,13 +3851,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.211495</v>
+        <v>0.211637</v>
       </c>
       <c r="C45" t="n">
-        <v>0.24206</v>
+        <v>0.24574</v>
       </c>
       <c r="D45" t="n">
-        <v>0.248337</v>
+        <v>0.247321</v>
       </c>
     </row>
     <row r="46">
@@ -3865,13 +3865,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.206975</v>
+        <v>0.209889</v>
       </c>
       <c r="C46" t="n">
-        <v>0.243089</v>
+        <v>0.244794</v>
       </c>
       <c r="D46" t="n">
-        <v>0.248026</v>
+        <v>0.246932</v>
       </c>
     </row>
     <row r="47">
@@ -3879,13 +3879,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.20506</v>
+        <v>0.203203</v>
       </c>
       <c r="C47" t="n">
-        <v>0.240647</v>
+        <v>0.238466</v>
       </c>
       <c r="D47" t="n">
-        <v>0.243575</v>
+        <v>0.242113</v>
       </c>
     </row>
     <row r="48">
@@ -3893,13 +3893,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.200667</v>
+        <v>0.200532</v>
       </c>
       <c r="C48" t="n">
-        <v>0.236759</v>
+        <v>0.242695</v>
       </c>
       <c r="D48" t="n">
-        <v>0.241499</v>
+        <v>0.242405</v>
       </c>
     </row>
     <row r="49">
@@ -3907,13 +3907,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.197564</v>
+        <v>0.196901</v>
       </c>
       <c r="C49" t="n">
-        <v>0.23774</v>
+        <v>0.239799</v>
       </c>
       <c r="D49" t="n">
-        <v>0.239791</v>
+        <v>0.238142</v>
       </c>
     </row>
     <row r="50">
@@ -3921,13 +3921,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.193879</v>
+        <v>0.194</v>
       </c>
       <c r="C50" t="n">
-        <v>0.234055</v>
+        <v>0.237807</v>
       </c>
       <c r="D50" t="n">
-        <v>0.239425</v>
+        <v>0.239488</v>
       </c>
     </row>
     <row r="51">
@@ -3935,13 +3935,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.185803</v>
+        <v>0.18889</v>
       </c>
       <c r="C51" t="n">
-        <v>0.240584</v>
+        <v>0.23905</v>
       </c>
       <c r="D51" t="n">
-        <v>0.264139</v>
+        <v>0.259923</v>
       </c>
     </row>
     <row r="52">
@@ -3949,13 +3949,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.17733</v>
+        <v>0.180125</v>
       </c>
       <c r="C52" t="n">
-        <v>0.236018</v>
+        <v>0.239314</v>
       </c>
       <c r="D52" t="n">
-        <v>0.262086</v>
+        <v>0.26073</v>
       </c>
     </row>
     <row r="53">
@@ -3963,13 +3963,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.241591</v>
+        <v>0.242967</v>
       </c>
       <c r="C53" t="n">
-        <v>0.254328</v>
+        <v>0.255879</v>
       </c>
       <c r="D53" t="n">
-        <v>0.26157</v>
+        <v>0.257407</v>
       </c>
     </row>
     <row r="54">
@@ -3977,13 +3977,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.23788</v>
+        <v>0.23626</v>
       </c>
       <c r="C54" t="n">
-        <v>0.253049</v>
+        <v>0.255208</v>
       </c>
       <c r="D54" t="n">
-        <v>0.254589</v>
+        <v>0.254505</v>
       </c>
     </row>
     <row r="55">
@@ -3991,13 +3991,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.23416</v>
+        <v>0.235963</v>
       </c>
       <c r="C55" t="n">
-        <v>0.248739</v>
+        <v>0.254712</v>
       </c>
       <c r="D55" t="n">
-        <v>0.255144</v>
+        <v>0.254351</v>
       </c>
     </row>
     <row r="56">
@@ -4005,13 +4005,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.231931</v>
+        <v>0.226726</v>
       </c>
       <c r="C56" t="n">
-        <v>0.250668</v>
+        <v>0.251185</v>
       </c>
       <c r="D56" t="n">
-        <v>0.253875</v>
+        <v>0.251851</v>
       </c>
     </row>
     <row r="57">
@@ -4019,13 +4019,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.226956</v>
+        <v>0.224669</v>
       </c>
       <c r="C57" t="n">
-        <v>0.248804</v>
+        <v>0.251324</v>
       </c>
       <c r="D57" t="n">
-        <v>0.252797</v>
+        <v>0.248478</v>
       </c>
     </row>
     <row r="58">
@@ -4033,13 +4033,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.226263</v>
+        <v>0.220331</v>
       </c>
       <c r="C58" t="n">
-        <v>0.246604</v>
+        <v>0.24904</v>
       </c>
       <c r="D58" t="n">
-        <v>0.247544</v>
+        <v>0.252414</v>
       </c>
     </row>
     <row r="59">
@@ -4047,13 +4047,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.215911</v>
+        <v>0.216231</v>
       </c>
       <c r="C59" t="n">
-        <v>0.242486</v>
+        <v>0.244965</v>
       </c>
       <c r="D59" t="n">
-        <v>0.249247</v>
+        <v>0.250031</v>
       </c>
     </row>
     <row r="60">
@@ -4061,13 +4061,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.214023</v>
+        <v>0.210718</v>
       </c>
       <c r="C60" t="n">
-        <v>0.243119</v>
+        <v>0.247936</v>
       </c>
       <c r="D60" t="n">
-        <v>0.251372</v>
+        <v>0.245404</v>
       </c>
     </row>
     <row r="61">
@@ -4075,13 +4075,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.20995</v>
+        <v>0.208291</v>
       </c>
       <c r="C61" t="n">
-        <v>0.244442</v>
+        <v>0.242315</v>
       </c>
       <c r="D61" t="n">
-        <v>0.244716</v>
+        <v>0.248245</v>
       </c>
     </row>
     <row r="62">
@@ -4089,13 +4089,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.205801</v>
+        <v>0.206144</v>
       </c>
       <c r="C62" t="n">
-        <v>0.237931</v>
+        <v>0.242496</v>
       </c>
       <c r="D62" t="n">
-        <v>0.242866</v>
+        <v>0.242153</v>
       </c>
     </row>
     <row r="63">
@@ -4103,13 +4103,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.20482</v>
+        <v>0.205152</v>
       </c>
       <c r="C63" t="n">
-        <v>0.238533</v>
+        <v>0.242659</v>
       </c>
       <c r="D63" t="n">
-        <v>0.247444</v>
+        <v>0.242662</v>
       </c>
     </row>
     <row r="64">
@@ -4117,13 +4117,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.198588</v>
+        <v>0.196091</v>
       </c>
       <c r="C64" t="n">
-        <v>0.241632</v>
+        <v>0.237738</v>
       </c>
       <c r="D64" t="n">
-        <v>0.244388</v>
+        <v>0.240701</v>
       </c>
     </row>
     <row r="65">
@@ -4131,13 +4131,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.192591</v>
+        <v>0.19124</v>
       </c>
       <c r="C65" t="n">
-        <v>0.2368</v>
+        <v>0.240867</v>
       </c>
       <c r="D65" t="n">
-        <v>0.242844</v>
+        <v>0.239406</v>
       </c>
     </row>
     <row r="66">
@@ -4145,13 +4145,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.187714</v>
+        <v>0.185086</v>
       </c>
       <c r="C66" t="n">
-        <v>0.238793</v>
+        <v>0.235972</v>
       </c>
       <c r="D66" t="n">
-        <v>0.269376</v>
+        <v>0.269418</v>
       </c>
     </row>
     <row r="67">
@@ -4159,13 +4159,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.250733</v>
+        <v>0.257891</v>
       </c>
       <c r="C67" t="n">
-        <v>0.260141</v>
+        <v>0.26207</v>
       </c>
       <c r="D67" t="n">
-        <v>0.266424</v>
+        <v>0.261243</v>
       </c>
     </row>
     <row r="68">
@@ -4173,13 +4173,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.247294</v>
+        <v>0.248648</v>
       </c>
       <c r="C68" t="n">
-        <v>0.255976</v>
+        <v>0.260409</v>
       </c>
       <c r="D68" t="n">
-        <v>0.263788</v>
+        <v>0.262318</v>
       </c>
     </row>
     <row r="69">
@@ -4187,13 +4187,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.241075</v>
+        <v>0.244172</v>
       </c>
       <c r="C69" t="n">
-        <v>0.254456</v>
+        <v>0.261123</v>
       </c>
       <c r="D69" t="n">
-        <v>0.261756</v>
+        <v>0.261796</v>
       </c>
     </row>
     <row r="70">
@@ -4201,13 +4201,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.23648</v>
+        <v>0.239136</v>
       </c>
       <c r="C70" t="n">
-        <v>0.254827</v>
+        <v>0.253875</v>
       </c>
       <c r="D70" t="n">
-        <v>0.256802</v>
+        <v>0.257513</v>
       </c>
     </row>
     <row r="71">
@@ -4215,13 +4215,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.23182</v>
+        <v>0.236755</v>
       </c>
       <c r="C71" t="n">
-        <v>0.253577</v>
+        <v>0.255487</v>
       </c>
       <c r="D71" t="n">
-        <v>0.257936</v>
+        <v>0.260608</v>
       </c>
     </row>
     <row r="72">
@@ -4229,13 +4229,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.23045</v>
+        <v>0.23427</v>
       </c>
       <c r="C72" t="n">
-        <v>0.248126</v>
+        <v>0.253571</v>
       </c>
       <c r="D72" t="n">
-        <v>0.255062</v>
+        <v>0.252911</v>
       </c>
     </row>
     <row r="73">
@@ -4243,13 +4243,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.226016</v>
+        <v>0.224954</v>
       </c>
       <c r="C73" t="n">
-        <v>0.25264</v>
+        <v>0.252213</v>
       </c>
       <c r="D73" t="n">
-        <v>0.255937</v>
+        <v>0.253058</v>
       </c>
     </row>
     <row r="74">
@@ -4257,13 +4257,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.223248</v>
+        <v>0.223568</v>
       </c>
       <c r="C74" t="n">
-        <v>0.24507</v>
+        <v>0.250837</v>
       </c>
       <c r="D74" t="n">
-        <v>0.251862</v>
+        <v>0.252045</v>
       </c>
     </row>
     <row r="75">
@@ -4271,13 +4271,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.217662</v>
+        <v>0.221</v>
       </c>
       <c r="C75" t="n">
-        <v>0.244281</v>
+        <v>0.248842</v>
       </c>
       <c r="D75" t="n">
-        <v>0.249347</v>
+        <v>0.25139</v>
       </c>
     </row>
     <row r="76">
@@ -4285,13 +4285,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.21146</v>
+        <v>0.214591</v>
       </c>
       <c r="C76" t="n">
-        <v>0.24432</v>
+        <v>0.247582</v>
       </c>
       <c r="D76" t="n">
-        <v>0.248587</v>
+        <v>0.248716</v>
       </c>
     </row>
     <row r="77">
@@ -4299,13 +4299,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.210016</v>
+        <v>0.209852</v>
       </c>
       <c r="C77" t="n">
-        <v>0.245558</v>
+        <v>0.245672</v>
       </c>
       <c r="D77" t="n">
-        <v>0.250459</v>
+        <v>0.248298</v>
       </c>
     </row>
     <row r="78">
@@ -4313,13 +4313,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.205225</v>
+        <v>0.204782</v>
       </c>
       <c r="C78" t="n">
-        <v>0.240675</v>
+        <v>0.246362</v>
       </c>
       <c r="D78" t="n">
-        <v>0.24749</v>
+        <v>0.243155</v>
       </c>
     </row>
     <row r="79">
@@ -4327,13 +4327,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.198793</v>
+        <v>0.201071</v>
       </c>
       <c r="C79" t="n">
-        <v>0.240794</v>
+        <v>0.245614</v>
       </c>
       <c r="D79" t="n">
-        <v>0.243991</v>
+        <v>0.24361</v>
       </c>
     </row>
     <row r="80">
@@ -4341,13 +4341,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.190731</v>
+        <v>0.189421</v>
       </c>
       <c r="C80" t="n">
-        <v>0.239313</v>
+        <v>0.243098</v>
       </c>
       <c r="D80" t="n">
-        <v>0.272452</v>
+        <v>0.272429</v>
       </c>
     </row>
     <row r="81">
@@ -4355,13 +4355,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.258787</v>
+        <v>0.26177</v>
       </c>
       <c r="C81" t="n">
-        <v>0.265374</v>
+        <v>0.26864</v>
       </c>
       <c r="D81" t="n">
-        <v>0.272317</v>
+        <v>0.268869</v>
       </c>
     </row>
     <row r="82">
@@ -4369,13 +4369,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.258283</v>
+        <v>0.255112</v>
       </c>
       <c r="C82" t="n">
-        <v>0.265652</v>
+        <v>0.268335</v>
       </c>
       <c r="D82" t="n">
-        <v>0.269456</v>
+        <v>0.264417</v>
       </c>
     </row>
     <row r="83">
@@ -4383,13 +4383,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.251319</v>
+        <v>0.248114</v>
       </c>
       <c r="C83" t="n">
-        <v>0.261949</v>
+        <v>0.26542</v>
       </c>
       <c r="D83" t="n">
-        <v>0.266684</v>
+        <v>0.261308</v>
       </c>
     </row>
     <row r="84">
@@ -4397,13 +4397,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.243966</v>
+        <v>0.243844</v>
       </c>
       <c r="C84" t="n">
-        <v>0.259069</v>
+        <v>0.264454</v>
       </c>
       <c r="D84" t="n">
-        <v>0.263397</v>
+        <v>0.264085</v>
       </c>
     </row>
     <row r="85">
@@ -4411,13 +4411,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.241079</v>
+        <v>0.238681</v>
       </c>
       <c r="C85" t="n">
-        <v>0.256697</v>
+        <v>0.25852</v>
       </c>
       <c r="D85" t="n">
-        <v>0.264333</v>
+        <v>0.260107</v>
       </c>
     </row>
     <row r="86">
@@ -4425,13 +4425,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.234103</v>
+        <v>0.236854</v>
       </c>
       <c r="C86" t="n">
-        <v>0.255681</v>
+        <v>0.260402</v>
       </c>
       <c r="D86" t="n">
-        <v>0.261739</v>
+        <v>0.260451</v>
       </c>
     </row>
     <row r="87">
@@ -4439,13 +4439,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.228621</v>
+        <v>0.227478</v>
       </c>
       <c r="C87" t="n">
-        <v>0.256558</v>
+        <v>0.260629</v>
       </c>
       <c r="D87" t="n">
-        <v>0.260311</v>
+        <v>0.254504</v>
       </c>
     </row>
     <row r="88">
@@ -4453,13 +4453,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.224107</v>
+        <v>0.224822</v>
       </c>
       <c r="C88" t="n">
-        <v>0.249653</v>
+        <v>0.254699</v>
       </c>
       <c r="D88" t="n">
-        <v>0.256465</v>
+        <v>0.254789</v>
       </c>
     </row>
     <row r="89">
@@ -4467,13 +4467,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.221333</v>
+        <v>0.22543</v>
       </c>
       <c r="C89" t="n">
-        <v>0.25392</v>
+        <v>0.251862</v>
       </c>
       <c r="D89" t="n">
-        <v>0.254257</v>
+        <v>0.251165</v>
       </c>
     </row>
     <row r="90">
@@ -4481,13 +4481,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.215905</v>
+        <v>0.215402</v>
       </c>
       <c r="C90" t="n">
-        <v>0.251998</v>
+        <v>0.248537</v>
       </c>
       <c r="D90" t="n">
-        <v>0.252617</v>
+        <v>0.253246</v>
       </c>
     </row>
     <row r="91">
@@ -4495,13 +4495,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.211609</v>
+        <v>0.212421</v>
       </c>
       <c r="C91" t="n">
-        <v>0.243973</v>
+        <v>0.253352</v>
       </c>
       <c r="D91" t="n">
-        <v>0.249959</v>
+        <v>0.248581</v>
       </c>
     </row>
     <row r="92">
@@ -4509,13 +4509,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.208073</v>
+        <v>0.204657</v>
       </c>
       <c r="C92" t="n">
-        <v>0.242722</v>
+        <v>0.245856</v>
       </c>
       <c r="D92" t="n">
-        <v>0.248795</v>
+        <v>0.252488</v>
       </c>
     </row>
     <row r="93">
@@ -4523,13 +4523,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.203961</v>
+        <v>0.202691</v>
       </c>
       <c r="C93" t="n">
-        <v>0.244346</v>
+        <v>0.244431</v>
       </c>
       <c r="D93" t="n">
-        <v>0.246761</v>
+        <v>0.250223</v>
       </c>
     </row>
     <row r="94">
@@ -4537,13 +4537,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.194608</v>
+        <v>0.196031</v>
       </c>
       <c r="C94" t="n">
-        <v>0.245251</v>
+        <v>0.246693</v>
       </c>
       <c r="D94" t="n">
-        <v>0.276558</v>
+        <v>0.276776</v>
       </c>
     </row>
     <row r="95">
@@ -4551,13 +4551,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.265304</v>
+        <v>0.261905</v>
       </c>
       <c r="C95" t="n">
-        <v>0.272255</v>
+        <v>0.272351</v>
       </c>
       <c r="D95" t="n">
-        <v>0.274734</v>
+        <v>0.274196</v>
       </c>
     </row>
     <row r="96">
@@ -4565,13 +4565,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.256359</v>
+        <v>0.255057</v>
       </c>
       <c r="C96" t="n">
-        <v>0.26909</v>
+        <v>0.266687</v>
       </c>
       <c r="D96" t="n">
-        <v>0.271708</v>
+        <v>0.269101</v>
       </c>
     </row>
     <row r="97">
@@ -4579,13 +4579,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.250249</v>
+        <v>0.257125</v>
       </c>
       <c r="C97" t="n">
-        <v>0.261595</v>
+        <v>0.268979</v>
       </c>
       <c r="D97" t="n">
-        <v>0.266521</v>
+        <v>0.266046</v>
       </c>
     </row>
     <row r="98">
@@ -4593,13 +4593,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.247506</v>
+        <v>0.248165</v>
       </c>
       <c r="C98" t="n">
-        <v>0.260329</v>
+        <v>0.262781</v>
       </c>
       <c r="D98" t="n">
-        <v>0.271388</v>
+        <v>0.265082</v>
       </c>
     </row>
     <row r="99">
@@ -4607,13 +4607,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.245766</v>
+        <v>0.248967</v>
       </c>
       <c r="C99" t="n">
-        <v>0.257945</v>
+        <v>0.262616</v>
       </c>
       <c r="D99" t="n">
-        <v>0.260747</v>
+        <v>0.263888</v>
       </c>
     </row>
     <row r="100">
@@ -4621,13 +4621,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.240544</v>
+        <v>0.238487</v>
       </c>
       <c r="C100" t="n">
-        <v>0.255539</v>
+        <v>0.258662</v>
       </c>
       <c r="D100" t="n">
-        <v>0.261663</v>
+        <v>0.259956</v>
       </c>
     </row>
     <row r="101">
@@ -4635,13 +4635,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.23166</v>
+        <v>0.229059</v>
       </c>
       <c r="C101" t="n">
-        <v>0.256471</v>
+        <v>0.259477</v>
       </c>
       <c r="D101" t="n">
-        <v>0.260781</v>
+        <v>0.255642</v>
       </c>
     </row>
     <row r="102">
@@ -4649,13 +4649,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.227229</v>
+        <v>0.227143</v>
       </c>
       <c r="C102" t="n">
-        <v>0.255044</v>
+        <v>0.253122</v>
       </c>
       <c r="D102" t="n">
-        <v>0.258263</v>
+        <v>0.258124</v>
       </c>
     </row>
     <row r="103">
@@ -4663,13 +4663,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.224585</v>
+        <v>0.226565</v>
       </c>
       <c r="C103" t="n">
-        <v>0.250808</v>
+        <v>0.254007</v>
       </c>
       <c r="D103" t="n">
-        <v>0.252799</v>
+        <v>0.2555</v>
       </c>
     </row>
     <row r="104">
@@ -4677,13 +4677,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.216852</v>
+        <v>0.220435</v>
       </c>
       <c r="C104" t="n">
-        <v>0.248872</v>
+        <v>0.251957</v>
       </c>
       <c r="D104" t="n">
-        <v>0.253897</v>
+        <v>0.251618</v>
       </c>
     </row>
     <row r="105">
@@ -4691,13 +4691,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.214353</v>
+        <v>0.209908</v>
       </c>
       <c r="C105" t="n">
-        <v>0.244867</v>
+        <v>0.248372</v>
       </c>
       <c r="D105" t="n">
-        <v>0.250284</v>
+        <v>0.252283</v>
       </c>
     </row>
     <row r="106">
@@ -4705,13 +4705,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.21297</v>
+        <v>0.210342</v>
       </c>
       <c r="C106" t="n">
-        <v>0.2441</v>
+        <v>0.249123</v>
       </c>
       <c r="D106" t="n">
-        <v>0.250895</v>
+        <v>0.246912</v>
       </c>
     </row>
     <row r="107">
@@ -4719,13 +4719,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.204335</v>
+        <v>0.201247</v>
       </c>
       <c r="C107" t="n">
-        <v>0.245846</v>
+        <v>0.24573</v>
       </c>
       <c r="D107" t="n">
-        <v>0.247639</v>
+        <v>0.245872</v>
       </c>
     </row>
     <row r="108">
@@ -4733,13 +4733,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.199971</v>
+        <v>0.198343</v>
       </c>
       <c r="C108" t="n">
-        <v>0.243479</v>
+        <v>0.244985</v>
       </c>
       <c r="D108" t="n">
-        <v>0.278421</v>
+        <v>0.276439</v>
       </c>
     </row>
     <row r="109">
@@ -4747,13 +4747,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.187197</v>
+        <v>0.190935</v>
       </c>
       <c r="C109" t="n">
-        <v>0.244238</v>
+        <v>0.247666</v>
       </c>
       <c r="D109" t="n">
-        <v>0.273761</v>
+        <v>0.270262</v>
       </c>
     </row>
     <row r="110">
@@ -4761,13 +4761,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.259076</v>
+        <v>0.257574</v>
       </c>
       <c r="C110" t="n">
-        <v>0.266541</v>
+        <v>0.267515</v>
       </c>
       <c r="D110" t="n">
-        <v>0.273717</v>
+        <v>0.270606</v>
       </c>
     </row>
     <row r="111">
@@ -4775,13 +4775,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.256208</v>
+        <v>0.254523</v>
       </c>
       <c r="C111" t="n">
-        <v>0.262684</v>
+        <v>0.267321</v>
       </c>
       <c r="D111" t="n">
-        <v>0.27032</v>
+        <v>0.26744</v>
       </c>
     </row>
     <row r="112">
@@ -4789,13 +4789,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.249617</v>
+        <v>0.250556</v>
       </c>
       <c r="C112" t="n">
-        <v>0.266955</v>
+        <v>0.263194</v>
       </c>
       <c r="D112" t="n">
-        <v>0.266986</v>
+        <v>0.26321</v>
       </c>
     </row>
     <row r="113">
@@ -4803,13 +4803,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.240289</v>
+        <v>0.245309</v>
       </c>
       <c r="C113" t="n">
-        <v>0.26258</v>
+        <v>0.261865</v>
       </c>
       <c r="D113" t="n">
-        <v>0.265226</v>
+        <v>0.267335</v>
       </c>
     </row>
     <row r="114">
@@ -4817,13 +4817,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.239736</v>
+        <v>0.235642</v>
       </c>
       <c r="C114" t="n">
-        <v>0.257906</v>
+        <v>0.258148</v>
       </c>
       <c r="D114" t="n">
-        <v>0.261863</v>
+        <v>0.25977</v>
       </c>
     </row>
     <row r="115">
@@ -4831,13 +4831,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.231447</v>
+        <v>0.233641</v>
       </c>
       <c r="C115" t="n">
-        <v>0.256927</v>
+        <v>0.255638</v>
       </c>
       <c r="D115" t="n">
-        <v>0.259908</v>
+        <v>0.261962</v>
       </c>
     </row>
     <row r="116">
@@ -4845,13 +4845,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.229616</v>
+        <v>0.230612</v>
       </c>
       <c r="C116" t="n">
-        <v>0.255634</v>
+        <v>0.257547</v>
       </c>
       <c r="D116" t="n">
-        <v>0.257501</v>
+        <v>0.255058</v>
       </c>
     </row>
     <row r="117">
@@ -4859,13 +4859,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.224098</v>
+        <v>0.221855</v>
       </c>
       <c r="C117" t="n">
-        <v>0.252523</v>
+        <v>0.254467</v>
       </c>
       <c r="D117" t="n">
-        <v>0.25832</v>
+        <v>0.251738</v>
       </c>
     </row>
     <row r="118">
@@ -4873,13 +4873,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.217289</v>
+        <v>0.218664</v>
       </c>
       <c r="C118" t="n">
-        <v>0.25251</v>
+        <v>0.252148</v>
       </c>
       <c r="D118" t="n">
-        <v>0.253774</v>
+        <v>0.25144</v>
       </c>
     </row>
     <row r="119">
@@ -4887,13 +4887,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.215708</v>
+        <v>0.214573</v>
       </c>
       <c r="C119" t="n">
-        <v>0.252556</v>
+        <v>0.246932</v>
       </c>
       <c r="D119" t="n">
-        <v>0.248587</v>
+        <v>0.253241</v>
       </c>
     </row>
     <row r="120">
@@ -4901,13 +4901,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.208283</v>
+        <v>0.209571</v>
       </c>
       <c r="C120" t="n">
-        <v>0.248042</v>
+        <v>0.251059</v>
       </c>
       <c r="D120" t="n">
-        <v>0.250087</v>
+        <v>0.252417</v>
       </c>
     </row>
     <row r="121">
@@ -4915,13 +4915,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.207593</v>
+        <v>0.205475</v>
       </c>
       <c r="C121" t="n">
-        <v>0.247532</v>
+        <v>0.254377</v>
       </c>
       <c r="D121" t="n">
-        <v>0.248425</v>
+        <v>0.245283</v>
       </c>
     </row>
     <row r="122">
@@ -4929,13 +4929,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.199902</v>
+        <v>0.199649</v>
       </c>
       <c r="C122" t="n">
-        <v>0.244851</v>
+        <v>0.245255</v>
       </c>
       <c r="D122" t="n">
-        <v>0.247279</v>
+        <v>0.251566</v>
       </c>
     </row>
     <row r="123">
@@ -4943,13 +4943,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.190326</v>
+        <v>0.196348</v>
       </c>
       <c r="C123" t="n">
-        <v>0.241609</v>
+        <v>0.24564</v>
       </c>
       <c r="D123" t="n">
-        <v>0.278544</v>
+        <v>0.273041</v>
       </c>
     </row>
     <row r="124">
@@ -4957,13 +4957,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.256043</v>
+        <v>0.263485</v>
       </c>
       <c r="C124" t="n">
-        <v>0.266976</v>
+        <v>0.269029</v>
       </c>
       <c r="D124" t="n">
-        <v>0.273582</v>
+        <v>0.273156</v>
       </c>
     </row>
     <row r="125">
@@ -4971,13 +4971,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.25705</v>
+        <v>0.256007</v>
       </c>
       <c r="C125" t="n">
-        <v>0.265285</v>
+        <v>0.268497</v>
       </c>
       <c r="D125" t="n">
-        <v>0.26949</v>
+        <v>0.274257</v>
       </c>
     </row>
     <row r="126">
@@ -4985,13 +4985,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.250864</v>
+        <v>0.25317</v>
       </c>
       <c r="C126" t="n">
-        <v>0.264237</v>
+        <v>0.265615</v>
       </c>
       <c r="D126" t="n">
-        <v>0.269865</v>
+        <v>0.270332</v>
       </c>
     </row>
     <row r="127">
@@ -4999,13 +4999,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.244584</v>
+        <v>0.242803</v>
       </c>
       <c r="C127" t="n">
-        <v>0.262294</v>
+        <v>0.262144</v>
       </c>
       <c r="D127" t="n">
-        <v>0.267311</v>
+        <v>0.261031</v>
       </c>
     </row>
     <row r="128">
@@ -5013,13 +5013,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.239309</v>
+        <v>0.238892</v>
       </c>
       <c r="C128" t="n">
-        <v>0.257573</v>
+        <v>0.259799</v>
       </c>
       <c r="D128" t="n">
-        <v>0.262999</v>
+        <v>0.25874</v>
       </c>
     </row>
     <row r="129">
@@ -5027,13 +5027,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.235241</v>
+        <v>0.235913</v>
       </c>
       <c r="C129" t="n">
-        <v>0.259147</v>
+        <v>0.25752</v>
       </c>
       <c r="D129" t="n">
-        <v>0.259606</v>
+        <v>0.26096</v>
       </c>
     </row>
     <row r="130">
@@ -5041,13 +5041,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.235394</v>
+        <v>0.224872</v>
       </c>
       <c r="C130" t="n">
-        <v>0.254559</v>
+        <v>0.262029</v>
       </c>
       <c r="D130" t="n">
-        <v>0.258491</v>
+        <v>0.2575</v>
       </c>
     </row>
     <row r="131">
@@ -5055,13 +5055,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.228361</v>
+        <v>0.224069</v>
       </c>
       <c r="C131" t="n">
-        <v>0.250345</v>
+        <v>0.250967</v>
       </c>
       <c r="D131" t="n">
-        <v>0.256001</v>
+        <v>0.256428</v>
       </c>
     </row>
     <row r="132">
@@ -5069,13 +5069,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.222026</v>
+        <v>0.219482</v>
       </c>
       <c r="C132" t="n">
-        <v>0.247314</v>
+        <v>0.251229</v>
       </c>
       <c r="D132" t="n">
-        <v>0.253002</v>
+        <v>0.253462</v>
       </c>
     </row>
     <row r="133">
@@ -5083,13 +5083,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.216502</v>
+        <v>0.214957</v>
       </c>
       <c r="C133" t="n">
-        <v>0.249057</v>
+        <v>0.256907</v>
       </c>
       <c r="D133" t="n">
-        <v>0.254936</v>
+        <v>0.251435</v>
       </c>
     </row>
     <row r="134">
@@ -5097,13 +5097,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.211437</v>
+        <v>0.220345</v>
       </c>
       <c r="C134" t="n">
-        <v>0.246122</v>
+        <v>0.248408</v>
       </c>
       <c r="D134" t="n">
-        <v>0.254137</v>
+        <v>0.246045</v>
       </c>
     </row>
     <row r="135">
@@ -5111,13 +5111,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.210729</v>
+        <v>0.208253</v>
       </c>
       <c r="C135" t="n">
-        <v>0.246331</v>
+        <v>0.249929</v>
       </c>
       <c r="D135" t="n">
-        <v>0.248328</v>
+        <v>0.248788</v>
       </c>
     </row>
     <row r="136">
@@ -5125,13 +5125,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.198682</v>
+        <v>0.200687</v>
       </c>
       <c r="C136" t="n">
-        <v>0.248948</v>
+        <v>0.246106</v>
       </c>
       <c r="D136" t="n">
-        <v>0.251059</v>
+        <v>0.248788</v>
       </c>
     </row>
     <row r="137">
@@ -5139,13 +5139,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.189864</v>
+        <v>0.192325</v>
       </c>
       <c r="C137" t="n">
-        <v>0.241733</v>
+        <v>0.247205</v>
       </c>
       <c r="D137" t="n">
-        <v>0.273141</v>
+        <v>0.278483</v>
       </c>
     </row>
     <row r="138">
@@ -5153,13 +5153,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.260909</v>
+        <v>0.260957</v>
       </c>
       <c r="C138" t="n">
-        <v>0.266306</v>
+        <v>0.270281</v>
       </c>
       <c r="D138" t="n">
-        <v>0.272483</v>
+        <v>0.27163</v>
       </c>
     </row>
     <row r="139">
@@ -5167,13 +5167,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.255248</v>
+        <v>0.257881</v>
       </c>
       <c r="C139" t="n">
-        <v>0.263082</v>
+        <v>0.26642</v>
       </c>
       <c r="D139" t="n">
-        <v>0.269838</v>
+        <v>0.267111</v>
       </c>
     </row>
     <row r="140">
@@ -5181,13 +5181,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.254508</v>
+        <v>0.25128</v>
       </c>
       <c r="C140" t="n">
-        <v>0.266107</v>
+        <v>0.265286</v>
       </c>
       <c r="D140" t="n">
-        <v>0.270228</v>
+        <v>0.265964</v>
       </c>
     </row>
     <row r="141">
@@ -5195,13 +5195,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.24266</v>
+        <v>0.244741</v>
       </c>
       <c r="C141" t="n">
-        <v>0.258882</v>
+        <v>0.262777</v>
       </c>
       <c r="D141" t="n">
-        <v>0.263839</v>
+        <v>0.267701</v>
       </c>
     </row>
     <row r="142">
@@ -5209,13 +5209,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.2381</v>
+        <v>0.24021</v>
       </c>
       <c r="C142" t="n">
-        <v>0.259367</v>
+        <v>0.257937</v>
       </c>
       <c r="D142" t="n">
-        <v>0.260871</v>
+        <v>0.264111</v>
       </c>
     </row>
     <row r="143">
@@ -5223,13 +5223,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.241751</v>
+        <v>0.239608</v>
       </c>
       <c r="C143" t="n">
-        <v>0.259865</v>
+        <v>0.257311</v>
       </c>
       <c r="D143" t="n">
-        <v>0.263815</v>
+        <v>0.259252</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Running erasure.xlsx
+++ b/vs-x64/Running erasure.xlsx
@@ -3249,13 +3249,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.207859</v>
+        <v>0.205624</v>
       </c>
       <c r="C2" t="n">
-        <v>0.233792</v>
+        <v>0.196833</v>
       </c>
       <c r="D2" t="n">
-        <v>0.234285</v>
+        <v>0.230602</v>
       </c>
     </row>
     <row r="3">
@@ -3263,13 +3263,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.197703</v>
+        <v>0.201123</v>
       </c>
       <c r="C3" t="n">
-        <v>0.236213</v>
+        <v>0.214247</v>
       </c>
       <c r="D3" t="n">
-        <v>0.236371</v>
+        <v>0.229574</v>
       </c>
     </row>
     <row r="4">
@@ -3277,13 +3277,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.200772</v>
+        <v>0.19214</v>
       </c>
       <c r="C4" t="n">
-        <v>0.236703</v>
+        <v>0.228713</v>
       </c>
       <c r="D4" t="n">
-        <v>0.24302</v>
+        <v>0.227872</v>
       </c>
     </row>
     <row r="5">
@@ -3291,13 +3291,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.195089</v>
+        <v>0.196878</v>
       </c>
       <c r="C5" t="n">
-        <v>0.237477</v>
+        <v>0.253987</v>
       </c>
       <c r="D5" t="n">
-        <v>0.237208</v>
+        <v>0.233746</v>
       </c>
     </row>
     <row r="6">
@@ -3305,13 +3305,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.197946</v>
+        <v>0.195607</v>
       </c>
       <c r="C6" t="n">
-        <v>0.235069</v>
+        <v>0.285158</v>
       </c>
       <c r="D6" t="n">
-        <v>0.233703</v>
+        <v>0.228611</v>
       </c>
     </row>
     <row r="7">
@@ -3319,13 +3319,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.190488</v>
+        <v>0.191572</v>
       </c>
       <c r="C7" t="n">
-        <v>0.23103</v>
+        <v>0.320965</v>
       </c>
       <c r="D7" t="n">
-        <v>0.23166</v>
+        <v>0.234825</v>
       </c>
     </row>
     <row r="8">
@@ -3333,13 +3333,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.182491</v>
+        <v>0.189</v>
       </c>
       <c r="C8" t="n">
-        <v>0.232531</v>
+        <v>0.152101</v>
       </c>
       <c r="D8" t="n">
-        <v>0.237425</v>
+        <v>0.232318</v>
       </c>
     </row>
     <row r="9">
@@ -3347,13 +3347,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.179101</v>
+        <v>0.177198</v>
       </c>
       <c r="C9" t="n">
-        <v>0.233179</v>
+        <v>0.15426</v>
       </c>
       <c r="D9" t="n">
-        <v>0.248485</v>
+        <v>0.246303</v>
       </c>
     </row>
     <row r="10">
@@ -3361,13 +3361,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.234021</v>
+        <v>0.232942</v>
       </c>
       <c r="C10" t="n">
-        <v>0.242112</v>
+        <v>0.161128</v>
       </c>
       <c r="D10" t="n">
-        <v>0.242904</v>
+        <v>0.245971</v>
       </c>
     </row>
     <row r="11">
@@ -3375,13 +3375,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.22743</v>
+        <v>0.226336</v>
       </c>
       <c r="C11" t="n">
-        <v>0.23644</v>
+        <v>0.165451</v>
       </c>
       <c r="D11" t="n">
-        <v>0.240602</v>
+        <v>0.241125</v>
       </c>
     </row>
     <row r="12">
@@ -3389,13 +3389,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.223703</v>
+        <v>0.224161</v>
       </c>
       <c r="C12" t="n">
-        <v>0.244286</v>
+        <v>0.171966</v>
       </c>
       <c r="D12" t="n">
-        <v>0.239889</v>
+        <v>0.242569</v>
       </c>
     </row>
     <row r="13">
@@ -3403,13 +3403,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.214805</v>
+        <v>0.222157</v>
       </c>
       <c r="C13" t="n">
-        <v>0.236128</v>
+        <v>0.183285</v>
       </c>
       <c r="D13" t="n">
-        <v>0.239901</v>
+        <v>0.236765</v>
       </c>
     </row>
     <row r="14">
@@ -3417,13 +3417,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.213809</v>
+        <v>0.217609</v>
       </c>
       <c r="C14" t="n">
-        <v>0.235377</v>
+        <v>0.18805</v>
       </c>
       <c r="D14" t="n">
-        <v>0.238494</v>
+        <v>0.233714</v>
       </c>
     </row>
     <row r="15">
@@ -3431,13 +3431,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.210679</v>
+        <v>0.21129</v>
       </c>
       <c r="C15" t="n">
-        <v>0.237786</v>
+        <v>0.209347</v>
       </c>
       <c r="D15" t="n">
-        <v>0.241307</v>
+        <v>0.236424</v>
       </c>
     </row>
     <row r="16">
@@ -3445,13 +3445,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.208343</v>
+        <v>0.206326</v>
       </c>
       <c r="C16" t="n">
-        <v>0.237477</v>
+        <v>0.216338</v>
       </c>
       <c r="D16" t="n">
-        <v>0.242023</v>
+        <v>0.236181</v>
       </c>
     </row>
     <row r="17">
@@ -3459,13 +3459,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.201648</v>
+        <v>0.20672</v>
       </c>
       <c r="C17" t="n">
-        <v>0.234507</v>
+        <v>0.230544</v>
       </c>
       <c r="D17" t="n">
-        <v>0.238476</v>
+        <v>0.233481</v>
       </c>
     </row>
     <row r="18">
@@ -3473,13 +3473,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.200062</v>
+        <v>0.200161</v>
       </c>
       <c r="C18" t="n">
-        <v>0.234372</v>
+        <v>0.251435</v>
       </c>
       <c r="D18" t="n">
-        <v>0.239455</v>
+        <v>0.238525</v>
       </c>
     </row>
     <row r="19">
@@ -3487,13 +3487,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.196458</v>
+        <v>0.199078</v>
       </c>
       <c r="C19" t="n">
-        <v>0.231735</v>
+        <v>0.269815</v>
       </c>
       <c r="D19" t="n">
-        <v>0.23501</v>
+        <v>0.230884</v>
       </c>
     </row>
     <row r="20">
@@ -3501,13 +3501,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.199016</v>
+        <v>0.19577</v>
       </c>
       <c r="C20" t="n">
-        <v>0.23597</v>
+        <v>0.288455</v>
       </c>
       <c r="D20" t="n">
-        <v>0.234787</v>
+        <v>0.233211</v>
       </c>
     </row>
     <row r="21">
@@ -3515,13 +3515,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.191686</v>
+        <v>0.196297</v>
       </c>
       <c r="C21" t="n">
-        <v>0.229858</v>
+        <v>0.321212</v>
       </c>
       <c r="D21" t="n">
-        <v>0.245561</v>
+        <v>0.235351</v>
       </c>
     </row>
     <row r="22">
@@ -3529,13 +3529,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.187071</v>
+        <v>0.189567</v>
       </c>
       <c r="C22" t="n">
-        <v>0.22788</v>
+        <v>0.164732</v>
       </c>
       <c r="D22" t="n">
-        <v>0.232162</v>
+        <v>0.240298</v>
       </c>
     </row>
     <row r="23">
@@ -3543,13 +3543,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.182314</v>
+        <v>0.183508</v>
       </c>
       <c r="C23" t="n">
-        <v>0.232894</v>
+        <v>0.169744</v>
       </c>
       <c r="D23" t="n">
-        <v>0.246827</v>
+        <v>0.248463</v>
       </c>
     </row>
     <row r="24">
@@ -3557,13 +3557,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.236816</v>
+        <v>0.235674</v>
       </c>
       <c r="C24" t="n">
-        <v>0.245834</v>
+        <v>0.174012</v>
       </c>
       <c r="D24" t="n">
-        <v>0.247397</v>
+        <v>0.245256</v>
       </c>
     </row>
     <row r="25">
@@ -3571,13 +3571,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.235793</v>
+        <v>0.23711</v>
       </c>
       <c r="C25" t="n">
-        <v>0.24943</v>
+        <v>0.183687</v>
       </c>
       <c r="D25" t="n">
-        <v>0.246492</v>
+        <v>0.24557</v>
       </c>
     </row>
     <row r="26">
@@ -3585,13 +3585,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.230688</v>
+        <v>0.230352</v>
       </c>
       <c r="C26" t="n">
-        <v>0.242154</v>
+        <v>0.193024</v>
       </c>
       <c r="D26" t="n">
-        <v>0.241479</v>
+        <v>0.241487</v>
       </c>
     </row>
     <row r="27">
@@ -3599,13 +3599,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.222843</v>
+        <v>0.226083</v>
       </c>
       <c r="C27" t="n">
-        <v>0.242367</v>
+        <v>0.205604</v>
       </c>
       <c r="D27" t="n">
-        <v>0.241806</v>
+        <v>0.247045</v>
       </c>
     </row>
     <row r="28">
@@ -3613,13 +3613,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.221568</v>
+        <v>0.225121</v>
       </c>
       <c r="C28" t="n">
-        <v>0.238912</v>
+        <v>0.212053</v>
       </c>
       <c r="D28" t="n">
-        <v>0.246137</v>
+        <v>0.24471</v>
       </c>
     </row>
     <row r="29">
@@ -3627,13 +3627,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.215546</v>
+        <v>0.216474</v>
       </c>
       <c r="C29" t="n">
-        <v>0.240844</v>
+        <v>0.22655</v>
       </c>
       <c r="D29" t="n">
-        <v>0.245079</v>
+        <v>0.239884</v>
       </c>
     </row>
     <row r="30">
@@ -3641,13 +3641,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.214395</v>
+        <v>0.211942</v>
       </c>
       <c r="C30" t="n">
-        <v>0.237605</v>
+        <v>0.236616</v>
       </c>
       <c r="D30" t="n">
-        <v>0.242618</v>
+        <v>0.237094</v>
       </c>
     </row>
     <row r="31">
@@ -3655,13 +3655,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.207775</v>
+        <v>0.209176</v>
       </c>
       <c r="C31" t="n">
-        <v>0.235585</v>
+        <v>0.247825</v>
       </c>
       <c r="D31" t="n">
-        <v>0.243975</v>
+        <v>0.242494</v>
       </c>
     </row>
     <row r="32">
@@ -3669,13 +3669,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.203809</v>
+        <v>0.205846</v>
       </c>
       <c r="C32" t="n">
-        <v>0.236438</v>
+        <v>0.263499</v>
       </c>
       <c r="D32" t="n">
-        <v>0.238131</v>
+        <v>0.239952</v>
       </c>
     </row>
     <row r="33">
@@ -3683,13 +3683,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.201002</v>
+        <v>0.2023</v>
       </c>
       <c r="C33" t="n">
-        <v>0.240518</v>
+        <v>0.280797</v>
       </c>
       <c r="D33" t="n">
-        <v>0.235627</v>
+        <v>0.242941</v>
       </c>
     </row>
     <row r="34">
@@ -3697,13 +3697,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.198073</v>
+        <v>0.201866</v>
       </c>
       <c r="C34" t="n">
-        <v>0.234404</v>
+        <v>0.304852</v>
       </c>
       <c r="D34" t="n">
-        <v>0.236737</v>
+        <v>0.247808</v>
       </c>
     </row>
     <row r="35">
@@ -3711,13 +3711,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.193727</v>
+        <v>0.196367</v>
       </c>
       <c r="C35" t="n">
-        <v>0.235832</v>
+        <v>0.334681</v>
       </c>
       <c r="D35" t="n">
-        <v>0.234633</v>
+        <v>0.236886</v>
       </c>
     </row>
     <row r="36">
@@ -3725,13 +3725,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.189414</v>
+        <v>0.192554</v>
       </c>
       <c r="C36" t="n">
-        <v>0.231108</v>
+        <v>0.384166</v>
       </c>
       <c r="D36" t="n">
-        <v>0.237428</v>
+        <v>0.240226</v>
       </c>
     </row>
     <row r="37">
@@ -3739,13 +3739,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.184183</v>
+        <v>0.188439</v>
       </c>
       <c r="C37" t="n">
-        <v>0.233104</v>
+        <v>0.189259</v>
       </c>
       <c r="D37" t="n">
-        <v>0.260798</v>
+        <v>0.263566</v>
       </c>
     </row>
     <row r="38">
@@ -3753,13 +3753,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.238999</v>
+        <v>0.239282</v>
       </c>
       <c r="C38" t="n">
-        <v>0.261954</v>
+        <v>0.200292</v>
       </c>
       <c r="D38" t="n">
-        <v>0.26063</v>
+        <v>0.259851</v>
       </c>
     </row>
     <row r="39">
@@ -3767,13 +3767,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.237879</v>
+        <v>0.240903</v>
       </c>
       <c r="C39" t="n">
-        <v>0.255739</v>
+        <v>0.197751</v>
       </c>
       <c r="D39" t="n">
-        <v>0.255793</v>
+        <v>0.258455</v>
       </c>
     </row>
     <row r="40">
@@ -3781,13 +3781,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.232362</v>
+        <v>0.232676</v>
       </c>
       <c r="C40" t="n">
-        <v>0.256435</v>
+        <v>0.202882</v>
       </c>
       <c r="D40" t="n">
-        <v>0.254165</v>
+        <v>0.256914</v>
       </c>
     </row>
     <row r="41">
@@ -3795,13 +3795,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.229686</v>
+        <v>0.229349</v>
       </c>
       <c r="C41" t="n">
-        <v>0.252189</v>
+        <v>0.212847</v>
       </c>
       <c r="D41" t="n">
-        <v>0.253426</v>
+        <v>0.252536</v>
       </c>
     </row>
     <row r="42">
@@ -3809,13 +3809,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.222397</v>
+        <v>0.224038</v>
       </c>
       <c r="C42" t="n">
-        <v>0.248489</v>
+        <v>0.220988</v>
       </c>
       <c r="D42" t="n">
-        <v>0.251585</v>
+        <v>0.252697</v>
       </c>
     </row>
     <row r="43">
@@ -3823,13 +3823,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.220274</v>
+        <v>0.21979</v>
       </c>
       <c r="C43" t="n">
-        <v>0.250544</v>
+        <v>0.2311</v>
       </c>
       <c r="D43" t="n">
-        <v>0.248406</v>
+        <v>0.250638</v>
       </c>
     </row>
     <row r="44">
@@ -3837,13 +3837,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.216927</v>
+        <v>0.215674</v>
       </c>
       <c r="C44" t="n">
-        <v>0.250016</v>
+        <v>0.241384</v>
       </c>
       <c r="D44" t="n">
-        <v>0.246321</v>
+        <v>0.249554</v>
       </c>
     </row>
     <row r="45">
@@ -3851,13 +3851,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.211637</v>
+        <v>0.21498</v>
       </c>
       <c r="C45" t="n">
-        <v>0.24574</v>
+        <v>0.266874</v>
       </c>
       <c r="D45" t="n">
-        <v>0.247321</v>
+        <v>0.248766</v>
       </c>
     </row>
     <row r="46">
@@ -3865,13 +3865,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.209889</v>
+        <v>0.208784</v>
       </c>
       <c r="C46" t="n">
-        <v>0.244794</v>
+        <v>0.274254</v>
       </c>
       <c r="D46" t="n">
-        <v>0.246932</v>
+        <v>0.249233</v>
       </c>
     </row>
     <row r="47">
@@ -3879,13 +3879,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.203203</v>
+        <v>0.204223</v>
       </c>
       <c r="C47" t="n">
-        <v>0.238466</v>
+        <v>0.293025</v>
       </c>
       <c r="D47" t="n">
-        <v>0.242113</v>
+        <v>0.244818</v>
       </c>
     </row>
     <row r="48">
@@ -3893,13 +3893,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.200532</v>
+        <v>0.202806</v>
       </c>
       <c r="C48" t="n">
-        <v>0.242695</v>
+        <v>0.319323</v>
       </c>
       <c r="D48" t="n">
-        <v>0.242405</v>
+        <v>0.242052</v>
       </c>
     </row>
     <row r="49">
@@ -3907,13 +3907,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.196901</v>
+        <v>0.202257</v>
       </c>
       <c r="C49" t="n">
-        <v>0.239799</v>
+        <v>0.342932</v>
       </c>
       <c r="D49" t="n">
-        <v>0.238142</v>
+        <v>0.244141</v>
       </c>
     </row>
     <row r="50">
@@ -3921,13 +3921,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.194</v>
+        <v>0.196909</v>
       </c>
       <c r="C50" t="n">
-        <v>0.237807</v>
+        <v>0.380326</v>
       </c>
       <c r="D50" t="n">
-        <v>0.239488</v>
+        <v>0.242301</v>
       </c>
     </row>
     <row r="51">
@@ -3935,13 +3935,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.18889</v>
+        <v>0.191479</v>
       </c>
       <c r="C51" t="n">
-        <v>0.23905</v>
+        <v>0.311024</v>
       </c>
       <c r="D51" t="n">
-        <v>0.259923</v>
+        <v>0.264305</v>
       </c>
     </row>
     <row r="52">
@@ -3949,13 +3949,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.180125</v>
+        <v>0.180557</v>
       </c>
       <c r="C52" t="n">
-        <v>0.239314</v>
+        <v>0.305694</v>
       </c>
       <c r="D52" t="n">
-        <v>0.26073</v>
+        <v>0.26099</v>
       </c>
     </row>
     <row r="53">
@@ -3963,13 +3963,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.242967</v>
+        <v>0.245139</v>
       </c>
       <c r="C53" t="n">
-        <v>0.255879</v>
+        <v>0.309317</v>
       </c>
       <c r="D53" t="n">
-        <v>0.257407</v>
+        <v>0.260319</v>
       </c>
     </row>
     <row r="54">
@@ -3977,13 +3977,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.23626</v>
+        <v>0.241944</v>
       </c>
       <c r="C54" t="n">
-        <v>0.255208</v>
+        <v>0.314567</v>
       </c>
       <c r="D54" t="n">
-        <v>0.254505</v>
+        <v>0.25884</v>
       </c>
     </row>
     <row r="55">
@@ -3991,13 +3991,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.235963</v>
+        <v>0.238166</v>
       </c>
       <c r="C55" t="n">
-        <v>0.254712</v>
+        <v>0.316871</v>
       </c>
       <c r="D55" t="n">
-        <v>0.254351</v>
+        <v>0.258115</v>
       </c>
     </row>
     <row r="56">
@@ -4005,13 +4005,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.226726</v>
+        <v>0.231968</v>
       </c>
       <c r="C56" t="n">
-        <v>0.251185</v>
+        <v>0.316059</v>
       </c>
       <c r="D56" t="n">
-        <v>0.251851</v>
+        <v>0.255633</v>
       </c>
     </row>
     <row r="57">
@@ -4019,13 +4019,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.224669</v>
+        <v>0.227839</v>
       </c>
       <c r="C57" t="n">
-        <v>0.251324</v>
+        <v>0.326007</v>
       </c>
       <c r="D57" t="n">
-        <v>0.248478</v>
+        <v>0.254358</v>
       </c>
     </row>
     <row r="58">
@@ -4033,13 +4033,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.220331</v>
+        <v>0.225794</v>
       </c>
       <c r="C58" t="n">
-        <v>0.24904</v>
+        <v>0.330498</v>
       </c>
       <c r="D58" t="n">
-        <v>0.252414</v>
+        <v>0.251589</v>
       </c>
     </row>
     <row r="59">
@@ -4047,13 +4047,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.216231</v>
+        <v>0.219664</v>
       </c>
       <c r="C59" t="n">
-        <v>0.244965</v>
+        <v>0.336581</v>
       </c>
       <c r="D59" t="n">
-        <v>0.250031</v>
+        <v>0.249578</v>
       </c>
     </row>
     <row r="60">
@@ -4061,13 +4061,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.210718</v>
+        <v>0.216228</v>
       </c>
       <c r="C60" t="n">
-        <v>0.247936</v>
+        <v>0.351589</v>
       </c>
       <c r="D60" t="n">
-        <v>0.245404</v>
+        <v>0.24781</v>
       </c>
     </row>
     <row r="61">
@@ -4075,13 +4075,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.208291</v>
+        <v>0.213216</v>
       </c>
       <c r="C61" t="n">
-        <v>0.242315</v>
+        <v>0.37218</v>
       </c>
       <c r="D61" t="n">
-        <v>0.248245</v>
+        <v>0.250951</v>
       </c>
     </row>
     <row r="62">
@@ -4089,13 +4089,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.206144</v>
+        <v>0.208888</v>
       </c>
       <c r="C62" t="n">
-        <v>0.242496</v>
+        <v>0.38797</v>
       </c>
       <c r="D62" t="n">
-        <v>0.242153</v>
+        <v>0.245767</v>
       </c>
     </row>
     <row r="63">
@@ -4103,13 +4103,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.205152</v>
+        <v>0.205054</v>
       </c>
       <c r="C63" t="n">
-        <v>0.242659</v>
+        <v>0.4336</v>
       </c>
       <c r="D63" t="n">
-        <v>0.242662</v>
+        <v>0.242495</v>
       </c>
     </row>
     <row r="64">
@@ -4117,13 +4117,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.196091</v>
+        <v>0.202602</v>
       </c>
       <c r="C64" t="n">
-        <v>0.237738</v>
+        <v>0.44094</v>
       </c>
       <c r="D64" t="n">
-        <v>0.240701</v>
+        <v>0.244172</v>
       </c>
     </row>
     <row r="65">
@@ -4131,13 +4131,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.19124</v>
+        <v>0.198136</v>
       </c>
       <c r="C65" t="n">
-        <v>0.240867</v>
+        <v>0.533588</v>
       </c>
       <c r="D65" t="n">
-        <v>0.239406</v>
+        <v>0.241296</v>
       </c>
     </row>
     <row r="66">
@@ -4145,13 +4145,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.185086</v>
+        <v>0.187647</v>
       </c>
       <c r="C66" t="n">
-        <v>0.235972</v>
+        <v>0.538445</v>
       </c>
       <c r="D66" t="n">
-        <v>0.269418</v>
+        <v>0.269683</v>
       </c>
     </row>
     <row r="67">
@@ -4159,13 +4159,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.257891</v>
+        <v>0.25802</v>
       </c>
       <c r="C67" t="n">
-        <v>0.26207</v>
+        <v>0.538818</v>
       </c>
       <c r="D67" t="n">
-        <v>0.261243</v>
+        <v>0.264797</v>
       </c>
     </row>
     <row r="68">
@@ -4173,13 +4173,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.248648</v>
+        <v>0.252881</v>
       </c>
       <c r="C68" t="n">
-        <v>0.260409</v>
+        <v>0.52944</v>
       </c>
       <c r="D68" t="n">
-        <v>0.262318</v>
+        <v>0.261645</v>
       </c>
     </row>
     <row r="69">
@@ -4187,13 +4187,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.244172</v>
+        <v>0.249787</v>
       </c>
       <c r="C69" t="n">
-        <v>0.261123</v>
+        <v>0.533594</v>
       </c>
       <c r="D69" t="n">
-        <v>0.261796</v>
+        <v>0.257729</v>
       </c>
     </row>
     <row r="70">
@@ -4201,13 +4201,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.239136</v>
+        <v>0.242951</v>
       </c>
       <c r="C70" t="n">
-        <v>0.253875</v>
+        <v>0.605216</v>
       </c>
       <c r="D70" t="n">
-        <v>0.257513</v>
+        <v>0.256772</v>
       </c>
     </row>
     <row r="71">
@@ -4215,13 +4215,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.236755</v>
+        <v>0.237997</v>
       </c>
       <c r="C71" t="n">
-        <v>0.255487</v>
+        <v>0.533111</v>
       </c>
       <c r="D71" t="n">
-        <v>0.260608</v>
+        <v>0.25687</v>
       </c>
     </row>
     <row r="72">
@@ -4229,13 +4229,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.23427</v>
+        <v>0.232047</v>
       </c>
       <c r="C72" t="n">
-        <v>0.253571</v>
+        <v>0.550686</v>
       </c>
       <c r="D72" t="n">
-        <v>0.252911</v>
+        <v>0.259673</v>
       </c>
     </row>
     <row r="73">
@@ -4243,13 +4243,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.224954</v>
+        <v>0.229264</v>
       </c>
       <c r="C73" t="n">
-        <v>0.252213</v>
+        <v>0.564974</v>
       </c>
       <c r="D73" t="n">
-        <v>0.253058</v>
+        <v>0.254272</v>
       </c>
     </row>
     <row r="74">
@@ -4257,13 +4257,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.223568</v>
+        <v>0.224453</v>
       </c>
       <c r="C74" t="n">
-        <v>0.250837</v>
+        <v>0.568859</v>
       </c>
       <c r="D74" t="n">
-        <v>0.252045</v>
+        <v>0.252578</v>
       </c>
     </row>
     <row r="75">
@@ -4271,13 +4271,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.221</v>
+        <v>0.221013</v>
       </c>
       <c r="C75" t="n">
-        <v>0.248842</v>
+        <v>0.583658</v>
       </c>
       <c r="D75" t="n">
-        <v>0.25139</v>
+        <v>0.254525</v>
       </c>
     </row>
     <row r="76">
@@ -4285,13 +4285,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.214591</v>
+        <v>0.217425</v>
       </c>
       <c r="C76" t="n">
-        <v>0.247582</v>
+        <v>0.596742</v>
       </c>
       <c r="D76" t="n">
-        <v>0.248716</v>
+        <v>0.248769</v>
       </c>
     </row>
     <row r="77">
@@ -4299,13 +4299,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.209852</v>
+        <v>0.212317</v>
       </c>
       <c r="C77" t="n">
-        <v>0.245672</v>
+        <v>0.617718</v>
       </c>
       <c r="D77" t="n">
-        <v>0.248298</v>
+        <v>0.249967</v>
       </c>
     </row>
     <row r="78">
@@ -4313,13 +4313,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.204782</v>
+        <v>0.209752</v>
       </c>
       <c r="C78" t="n">
-        <v>0.246362</v>
+        <v>0.64125</v>
       </c>
       <c r="D78" t="n">
-        <v>0.243155</v>
+        <v>0.248061</v>
       </c>
     </row>
     <row r="79">
@@ -4327,13 +4327,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.201071</v>
+        <v>0.204723</v>
       </c>
       <c r="C79" t="n">
-        <v>0.245614</v>
+        <v>0.712386</v>
       </c>
       <c r="D79" t="n">
-        <v>0.24361</v>
+        <v>0.248062</v>
       </c>
     </row>
     <row r="80">
@@ -4341,13 +4341,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.189421</v>
+        <v>0.19586</v>
       </c>
       <c r="C80" t="n">
-        <v>0.243098</v>
+        <v>0.712862</v>
       </c>
       <c r="D80" t="n">
-        <v>0.272429</v>
+        <v>0.27355</v>
       </c>
     </row>
     <row r="81">
@@ -4355,13 +4355,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.26177</v>
+        <v>0.264677</v>
       </c>
       <c r="C81" t="n">
-        <v>0.26864</v>
+        <v>0.70912</v>
       </c>
       <c r="D81" t="n">
-        <v>0.268869</v>
+        <v>0.273653</v>
       </c>
     </row>
     <row r="82">
@@ -4369,13 +4369,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.255112</v>
+        <v>0.254995</v>
       </c>
       <c r="C82" t="n">
-        <v>0.268335</v>
+        <v>0.715181</v>
       </c>
       <c r="D82" t="n">
-        <v>0.264417</v>
+        <v>0.269693</v>
       </c>
     </row>
     <row r="83">
@@ -4383,13 +4383,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.248114</v>
+        <v>0.25345</v>
       </c>
       <c r="C83" t="n">
-        <v>0.26542</v>
+        <v>0.714738</v>
       </c>
       <c r="D83" t="n">
-        <v>0.261308</v>
+        <v>0.266523</v>
       </c>
     </row>
     <row r="84">
@@ -4397,13 +4397,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.243844</v>
+        <v>0.246761</v>
       </c>
       <c r="C84" t="n">
-        <v>0.264454</v>
+        <v>0.735574</v>
       </c>
       <c r="D84" t="n">
-        <v>0.264085</v>
+        <v>0.265143</v>
       </c>
     </row>
     <row r="85">
@@ -4411,13 +4411,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.238681</v>
+        <v>0.241095</v>
       </c>
       <c r="C85" t="n">
-        <v>0.25852</v>
+        <v>0.733379</v>
       </c>
       <c r="D85" t="n">
-        <v>0.260107</v>
+        <v>0.259751</v>
       </c>
     </row>
     <row r="86">
@@ -4425,13 +4425,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.236854</v>
+        <v>0.238941</v>
       </c>
       <c r="C86" t="n">
-        <v>0.260402</v>
+        <v>0.73703</v>
       </c>
       <c r="D86" t="n">
-        <v>0.260451</v>
+        <v>0.260283</v>
       </c>
     </row>
     <row r="87">
@@ -4439,13 +4439,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.227478</v>
+        <v>0.232367</v>
       </c>
       <c r="C87" t="n">
-        <v>0.260629</v>
+        <v>0.7531369999999999</v>
       </c>
       <c r="D87" t="n">
-        <v>0.254504</v>
+        <v>0.257779</v>
       </c>
     </row>
     <row r="88">
@@ -4453,13 +4453,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.224822</v>
+        <v>0.22466</v>
       </c>
       <c r="C88" t="n">
-        <v>0.254699</v>
+        <v>0.783231</v>
       </c>
       <c r="D88" t="n">
-        <v>0.254789</v>
+        <v>0.258643</v>
       </c>
     </row>
     <row r="89">
@@ -4467,13 +4467,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.22543</v>
+        <v>0.222408</v>
       </c>
       <c r="C89" t="n">
-        <v>0.251862</v>
+        <v>0.777521</v>
       </c>
       <c r="D89" t="n">
-        <v>0.251165</v>
+        <v>0.252086</v>
       </c>
     </row>
     <row r="90">
@@ -4481,13 +4481,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.215402</v>
+        <v>0.217325</v>
       </c>
       <c r="C90" t="n">
-        <v>0.248537</v>
+        <v>0.801658</v>
       </c>
       <c r="D90" t="n">
-        <v>0.253246</v>
+        <v>0.256366</v>
       </c>
     </row>
     <row r="91">
@@ -4495,13 +4495,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.212421</v>
+        <v>0.215243</v>
       </c>
       <c r="C91" t="n">
-        <v>0.253352</v>
+        <v>0.843915</v>
       </c>
       <c r="D91" t="n">
-        <v>0.248581</v>
+        <v>0.249389</v>
       </c>
     </row>
     <row r="92">
@@ -4509,13 +4509,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.204657</v>
+        <v>0.210431</v>
       </c>
       <c r="C92" t="n">
-        <v>0.245856</v>
+        <v>0.8939240000000001</v>
       </c>
       <c r="D92" t="n">
-        <v>0.252488</v>
+        <v>0.250097</v>
       </c>
     </row>
     <row r="93">
@@ -4523,13 +4523,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.202691</v>
+        <v>0.207239</v>
       </c>
       <c r="C93" t="n">
-        <v>0.244431</v>
+        <v>0.930158</v>
       </c>
       <c r="D93" t="n">
-        <v>0.250223</v>
+        <v>0.247163</v>
       </c>
     </row>
     <row r="94">
@@ -4537,13 +4537,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.196031</v>
+        <v>0.200055</v>
       </c>
       <c r="C94" t="n">
-        <v>0.246693</v>
+        <v>0.857747</v>
       </c>
       <c r="D94" t="n">
-        <v>0.276776</v>
+        <v>0.276412</v>
       </c>
     </row>
     <row r="95">
@@ -4551,13 +4551,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.261905</v>
+        <v>0.258489</v>
       </c>
       <c r="C95" t="n">
-        <v>0.272351</v>
+        <v>0.845221</v>
       </c>
       <c r="D95" t="n">
-        <v>0.274196</v>
+        <v>0.276932</v>
       </c>
     </row>
     <row r="96">
@@ -4565,13 +4565,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.255057</v>
+        <v>0.257116</v>
       </c>
       <c r="C96" t="n">
-        <v>0.266687</v>
+        <v>0.847037</v>
       </c>
       <c r="D96" t="n">
-        <v>0.269101</v>
+        <v>0.269217</v>
       </c>
     </row>
     <row r="97">
@@ -4579,13 +4579,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.257125</v>
+        <v>0.251283</v>
       </c>
       <c r="C97" t="n">
-        <v>0.268979</v>
+        <v>0.859621</v>
       </c>
       <c r="D97" t="n">
-        <v>0.266046</v>
+        <v>0.264248</v>
       </c>
     </row>
     <row r="98">
@@ -4593,13 +4593,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.248165</v>
+        <v>0.25065</v>
       </c>
       <c r="C98" t="n">
-        <v>0.262781</v>
+        <v>0.870425</v>
       </c>
       <c r="D98" t="n">
-        <v>0.265082</v>
+        <v>0.267419</v>
       </c>
     </row>
     <row r="99">
@@ -4607,13 +4607,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.248967</v>
+        <v>0.241653</v>
       </c>
       <c r="C99" t="n">
-        <v>0.262616</v>
+        <v>0.889055</v>
       </c>
       <c r="D99" t="n">
-        <v>0.263888</v>
+        <v>0.264795</v>
       </c>
     </row>
     <row r="100">
@@ -4621,13 +4621,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.238487</v>
+        <v>0.237206</v>
       </c>
       <c r="C100" t="n">
-        <v>0.258662</v>
+        <v>0.876416</v>
       </c>
       <c r="D100" t="n">
-        <v>0.259956</v>
+        <v>0.258929</v>
       </c>
     </row>
     <row r="101">
@@ -4635,13 +4635,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.229059</v>
+        <v>0.231577</v>
       </c>
       <c r="C101" t="n">
-        <v>0.259477</v>
+        <v>0.895276</v>
       </c>
       <c r="D101" t="n">
-        <v>0.255642</v>
+        <v>0.261128</v>
       </c>
     </row>
     <row r="102">
@@ -4649,13 +4649,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.227143</v>
+        <v>0.227276</v>
       </c>
       <c r="C102" t="n">
-        <v>0.253122</v>
+        <v>0.918001</v>
       </c>
       <c r="D102" t="n">
-        <v>0.258124</v>
+        <v>0.258821</v>
       </c>
     </row>
     <row r="103">
@@ -4663,13 +4663,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.226565</v>
+        <v>0.225289</v>
       </c>
       <c r="C103" t="n">
-        <v>0.254007</v>
+        <v>0.936138</v>
       </c>
       <c r="D103" t="n">
-        <v>0.2555</v>
+        <v>0.253928</v>
       </c>
     </row>
     <row r="104">
@@ -4677,13 +4677,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.220435</v>
+        <v>0.219385</v>
       </c>
       <c r="C104" t="n">
-        <v>0.251957</v>
+        <v>0.977197</v>
       </c>
       <c r="D104" t="n">
-        <v>0.251618</v>
+        <v>0.251834</v>
       </c>
     </row>
     <row r="105">
@@ -4691,13 +4691,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.209908</v>
+        <v>0.215</v>
       </c>
       <c r="C105" t="n">
-        <v>0.248372</v>
+        <v>1.00201</v>
       </c>
       <c r="D105" t="n">
-        <v>0.252283</v>
+        <v>0.248668</v>
       </c>
     </row>
     <row r="106">
@@ -4705,13 +4705,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.210342</v>
+        <v>0.214127</v>
       </c>
       <c r="C106" t="n">
-        <v>0.249123</v>
+        <v>1.04288</v>
       </c>
       <c r="D106" t="n">
-        <v>0.246912</v>
+        <v>0.249789</v>
       </c>
     </row>
     <row r="107">
@@ -4719,13 +4719,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.201247</v>
+        <v>0.206318</v>
       </c>
       <c r="C107" t="n">
-        <v>0.24573</v>
+        <v>1.10371</v>
       </c>
       <c r="D107" t="n">
-        <v>0.245872</v>
+        <v>0.246006</v>
       </c>
     </row>
     <row r="108">
@@ -4733,13 +4733,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.198343</v>
+        <v>0.199629</v>
       </c>
       <c r="C108" t="n">
-        <v>0.244985</v>
+        <v>0.927798</v>
       </c>
       <c r="D108" t="n">
-        <v>0.276439</v>
+        <v>0.281699</v>
       </c>
     </row>
     <row r="109">
@@ -4747,13 +4747,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.190935</v>
+        <v>0.192472</v>
       </c>
       <c r="C109" t="n">
-        <v>0.247666</v>
+        <v>0.917044</v>
       </c>
       <c r="D109" t="n">
-        <v>0.270262</v>
+        <v>0.27572</v>
       </c>
     </row>
     <row r="110">
@@ -4761,13 +4761,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.257574</v>
+        <v>0.259903</v>
       </c>
       <c r="C110" t="n">
-        <v>0.267515</v>
+        <v>0.942545</v>
       </c>
       <c r="D110" t="n">
-        <v>0.270606</v>
+        <v>0.270702</v>
       </c>
     </row>
     <row r="111">
@@ -4775,13 +4775,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.254523</v>
+        <v>0.254463</v>
       </c>
       <c r="C111" t="n">
-        <v>0.267321</v>
+        <v>0.925331</v>
       </c>
       <c r="D111" t="n">
-        <v>0.26744</v>
+        <v>0.271891</v>
       </c>
     </row>
     <row r="112">
@@ -4789,13 +4789,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.250556</v>
+        <v>0.251601</v>
       </c>
       <c r="C112" t="n">
-        <v>0.263194</v>
+        <v>0.943689</v>
       </c>
       <c r="D112" t="n">
-        <v>0.26321</v>
+        <v>0.267501</v>
       </c>
     </row>
     <row r="113">
@@ -4803,13 +4803,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.245309</v>
+        <v>0.244947</v>
       </c>
       <c r="C113" t="n">
-        <v>0.261865</v>
+        <v>0.942912</v>
       </c>
       <c r="D113" t="n">
-        <v>0.267335</v>
+        <v>0.266659</v>
       </c>
     </row>
     <row r="114">
@@ -4817,13 +4817,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.235642</v>
+        <v>0.240167</v>
       </c>
       <c r="C114" t="n">
-        <v>0.258148</v>
+        <v>0.959709</v>
       </c>
       <c r="D114" t="n">
-        <v>0.25977</v>
+        <v>0.263049</v>
       </c>
     </row>
     <row r="115">
@@ -4831,13 +4831,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.233641</v>
+        <v>0.235023</v>
       </c>
       <c r="C115" t="n">
-        <v>0.255638</v>
+        <v>0.975174</v>
       </c>
       <c r="D115" t="n">
-        <v>0.261962</v>
+        <v>0.259504</v>
       </c>
     </row>
     <row r="116">
@@ -4845,13 +4845,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.230612</v>
+        <v>0.233938</v>
       </c>
       <c r="C116" t="n">
-        <v>0.257547</v>
+        <v>0.982222</v>
       </c>
       <c r="D116" t="n">
-        <v>0.255058</v>
+        <v>0.258042</v>
       </c>
     </row>
     <row r="117">
@@ -4859,13 +4859,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.221855</v>
+        <v>0.224576</v>
       </c>
       <c r="C117" t="n">
-        <v>0.254467</v>
+        <v>1.00979</v>
       </c>
       <c r="D117" t="n">
-        <v>0.251738</v>
+        <v>0.253291</v>
       </c>
     </row>
     <row r="118">
@@ -4873,13 +4873,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.218664</v>
+        <v>0.219342</v>
       </c>
       <c r="C118" t="n">
-        <v>0.252148</v>
+        <v>1.05446</v>
       </c>
       <c r="D118" t="n">
-        <v>0.25144</v>
+        <v>0.254732</v>
       </c>
     </row>
     <row r="119">
@@ -4887,13 +4887,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.214573</v>
+        <v>0.21708</v>
       </c>
       <c r="C119" t="n">
-        <v>0.246932</v>
+        <v>1.0885</v>
       </c>
       <c r="D119" t="n">
-        <v>0.253241</v>
+        <v>0.251979</v>
       </c>
     </row>
     <row r="120">
@@ -4901,13 +4901,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.209571</v>
+        <v>0.210784</v>
       </c>
       <c r="C120" t="n">
-        <v>0.251059</v>
+        <v>1.13857</v>
       </c>
       <c r="D120" t="n">
-        <v>0.252417</v>
+        <v>0.254633</v>
       </c>
     </row>
     <row r="121">
@@ -4915,13 +4915,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.205475</v>
+        <v>0.210476</v>
       </c>
       <c r="C121" t="n">
-        <v>0.254377</v>
+        <v>1.21756</v>
       </c>
       <c r="D121" t="n">
-        <v>0.245283</v>
+        <v>0.249724</v>
       </c>
     </row>
     <row r="122">
@@ -4929,13 +4929,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.199649</v>
+        <v>0.204299</v>
       </c>
       <c r="C122" t="n">
-        <v>0.245255</v>
+        <v>1.01271</v>
       </c>
       <c r="D122" t="n">
-        <v>0.251566</v>
+        <v>0.249666</v>
       </c>
     </row>
     <row r="123">
@@ -4943,13 +4943,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.196348</v>
+        <v>0.196439</v>
       </c>
       <c r="C123" t="n">
-        <v>0.24564</v>
+        <v>1.0168</v>
       </c>
       <c r="D123" t="n">
-        <v>0.273041</v>
+        <v>0.280595</v>
       </c>
     </row>
     <row r="124">
@@ -4957,13 +4957,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.263485</v>
+        <v>0.263932</v>
       </c>
       <c r="C124" t="n">
-        <v>0.269029</v>
+        <v>1.05073</v>
       </c>
       <c r="D124" t="n">
-        <v>0.273156</v>
+        <v>0.268833</v>
       </c>
     </row>
     <row r="125">
@@ -4971,13 +4971,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.256007</v>
+        <v>0.254556</v>
       </c>
       <c r="C125" t="n">
-        <v>0.268497</v>
+        <v>1.01976</v>
       </c>
       <c r="D125" t="n">
-        <v>0.274257</v>
+        <v>0.269625</v>
       </c>
     </row>
     <row r="126">
@@ -4985,13 +4985,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.25317</v>
+        <v>0.25565</v>
       </c>
       <c r="C126" t="n">
-        <v>0.265615</v>
+        <v>1.04619</v>
       </c>
       <c r="D126" t="n">
-        <v>0.270332</v>
+        <v>0.26889</v>
       </c>
     </row>
     <row r="127">
@@ -4999,13 +4999,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.242803</v>
+        <v>0.244017</v>
       </c>
       <c r="C127" t="n">
-        <v>0.262144</v>
+        <v>1.03857</v>
       </c>
       <c r="D127" t="n">
-        <v>0.261031</v>
+        <v>0.271231</v>
       </c>
     </row>
     <row r="128">
@@ -5013,13 +5013,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.238892</v>
+        <v>0.24136</v>
       </c>
       <c r="C128" t="n">
-        <v>0.259799</v>
+        <v>1.04608</v>
       </c>
       <c r="D128" t="n">
-        <v>0.25874</v>
+        <v>0.265347</v>
       </c>
     </row>
     <row r="129">
@@ -5027,13 +5027,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.235913</v>
+        <v>0.232857</v>
       </c>
       <c r="C129" t="n">
-        <v>0.25752</v>
+        <v>1.07927</v>
       </c>
       <c r="D129" t="n">
-        <v>0.26096</v>
+        <v>0.258318</v>
       </c>
     </row>
     <row r="130">
@@ -5041,13 +5041,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.224872</v>
+        <v>0.231177</v>
       </c>
       <c r="C130" t="n">
-        <v>0.262029</v>
+        <v>1.08474</v>
       </c>
       <c r="D130" t="n">
-        <v>0.2575</v>
+        <v>0.260087</v>
       </c>
     </row>
     <row r="131">
@@ -5055,13 +5055,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.224069</v>
+        <v>0.228804</v>
       </c>
       <c r="C131" t="n">
-        <v>0.250967</v>
+        <v>1.11412</v>
       </c>
       <c r="D131" t="n">
-        <v>0.256428</v>
+        <v>0.252335</v>
       </c>
     </row>
     <row r="132">
@@ -5069,13 +5069,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.219482</v>
+        <v>0.218819</v>
       </c>
       <c r="C132" t="n">
-        <v>0.251229</v>
+        <v>1.12823</v>
       </c>
       <c r="D132" t="n">
-        <v>0.253462</v>
+        <v>0.256096</v>
       </c>
     </row>
     <row r="133">
@@ -5083,13 +5083,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.214957</v>
+        <v>0.21888</v>
       </c>
       <c r="C133" t="n">
-        <v>0.256907</v>
+        <v>1.1653</v>
       </c>
       <c r="D133" t="n">
-        <v>0.251435</v>
+        <v>0.257215</v>
       </c>
     </row>
     <row r="134">
@@ -5097,13 +5097,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.220345</v>
+        <v>0.217569</v>
       </c>
       <c r="C134" t="n">
-        <v>0.248408</v>
+        <v>1.22497</v>
       </c>
       <c r="D134" t="n">
-        <v>0.246045</v>
+        <v>0.254896</v>
       </c>
     </row>
     <row r="135">
@@ -5111,13 +5111,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.208253</v>
+        <v>0.206979</v>
       </c>
       <c r="C135" t="n">
-        <v>0.249929</v>
+        <v>1.3038</v>
       </c>
       <c r="D135" t="n">
-        <v>0.248788</v>
+        <v>0.249084</v>
       </c>
     </row>
     <row r="136">
@@ -5125,13 +5125,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.200687</v>
+        <v>0.204253</v>
       </c>
       <c r="C136" t="n">
-        <v>0.246106</v>
+        <v>1.18136</v>
       </c>
       <c r="D136" t="n">
-        <v>0.248788</v>
+        <v>0.245615</v>
       </c>
     </row>
     <row r="137">
@@ -5139,13 +5139,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.192325</v>
+        <v>0.193605</v>
       </c>
       <c r="C137" t="n">
-        <v>0.247205</v>
+        <v>1.18128</v>
       </c>
       <c r="D137" t="n">
-        <v>0.278483</v>
+        <v>0.275883</v>
       </c>
     </row>
     <row r="138">
@@ -5153,13 +5153,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.260957</v>
+        <v>0.262712</v>
       </c>
       <c r="C138" t="n">
-        <v>0.270281</v>
+        <v>1.15787</v>
       </c>
       <c r="D138" t="n">
-        <v>0.27163</v>
+        <v>0.273594</v>
       </c>
     </row>
     <row r="139">
@@ -5167,13 +5167,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.257881</v>
+        <v>0.256926</v>
       </c>
       <c r="C139" t="n">
-        <v>0.26642</v>
+        <v>1.17127</v>
       </c>
       <c r="D139" t="n">
-        <v>0.267111</v>
+        <v>0.269031</v>
       </c>
     </row>
     <row r="140">
@@ -5181,13 +5181,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.25128</v>
+        <v>0.249374</v>
       </c>
       <c r="C140" t="n">
-        <v>0.265286</v>
+        <v>1.21428</v>
       </c>
       <c r="D140" t="n">
-        <v>0.265964</v>
+        <v>0.271178</v>
       </c>
     </row>
     <row r="141">
@@ -5195,13 +5195,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.244741</v>
+        <v>0.245822</v>
       </c>
       <c r="C141" t="n">
-        <v>0.262777</v>
+        <v>1.20289</v>
       </c>
       <c r="D141" t="n">
-        <v>0.267701</v>
+        <v>0.264448</v>
       </c>
     </row>
     <row r="142">
@@ -5209,13 +5209,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.24021</v>
+        <v>0.23863</v>
       </c>
       <c r="C142" t="n">
-        <v>0.257937</v>
+        <v>1.22241</v>
       </c>
       <c r="D142" t="n">
-        <v>0.264111</v>
+        <v>0.265126</v>
       </c>
     </row>
     <row r="143">
@@ -5223,13 +5223,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.239608</v>
+        <v>0.235715</v>
       </c>
       <c r="C143" t="n">
-        <v>0.257311</v>
+        <v>1.20382</v>
       </c>
       <c r="D143" t="n">
-        <v>0.259252</v>
+        <v>0.266629</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Running erasure.xlsx
+++ b/vs-x64/Running erasure.xlsx
@@ -93,7 +93,15 @@
           <idx val="3"/>
           <order val="0"/>
           <tx>
-            <v>absl::flat_hash_map</v>
+            <strRef>
+              <f>plot!$B$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>absl::flat_hash_map</v>
+                </pt>
+              </strCache>
+            </strRef>
           </tx>
           <spPr>
             <a:ln>
@@ -553,430 +561,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.187292</v>
+                  <v>0.0641531</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.183982</v>
+                  <v>0.0641417</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.179004</v>
+                  <v>0.0639055</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.176892</v>
+                  <v>0.0642133</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.17022</v>
+                  <v>0.06474820000000001</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.163509</v>
+                  <v>0.06536599999999999</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.156318</v>
+                  <v>0.0651717</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.146334</v>
+                  <v>0.06583840000000001</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.231139</v>
+                  <v>0.0890715</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.228081</v>
+                  <v>0.0891439</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.225517</v>
+                  <v>0.088877</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.222864</v>
+                  <v>0.0889416</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.21893</v>
+                  <v>0.0880235</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.214659</v>
+                  <v>0.0873052</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.209928</v>
+                  <v>0.08651929999999999</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.20518</v>
+                  <v>0.08555</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.200207</v>
+                  <v>0.08422979999999999</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.195783</v>
+                  <v>0.08232540000000001</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.189275</v>
+                  <v>0.0812894</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.181574</v>
+                  <v>0.0828969</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.174132</v>
+                  <v>0.08242620000000001</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.16528</v>
+                  <v>0.0803682</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.243142</v>
+                  <v>0.130945</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.239615</v>
+                  <v>0.13039</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.236139</v>
+                  <v>0.128396</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.232566</v>
+                  <v>0.126</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.227385</v>
+                  <v>0.122747</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.222635</v>
+                  <v>0.120164</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.217695</v>
+                  <v>0.117158</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.212684</v>
+                  <v>0.114482</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.20734</v>
+                  <v>0.110654</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.20071</v>
+                  <v>0.106787</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.194395</v>
+                  <v>0.10302</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.186684</v>
+                  <v>0.09905659999999999</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.181061</v>
+                  <v>0.0947708</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.169795</v>
+                  <v>0.0912707</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.248879</v>
+                  <v>0.15299</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.244774</v>
+                  <v>0.149699</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.241026</v>
+                  <v>0.145819</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.236858</v>
+                  <v>0.142408</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.232237</v>
+                  <v>0.138561</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.227177</v>
+                  <v>0.134735</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.22226</v>
+                  <v>0.13049</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.216502</v>
+                  <v>0.126237</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.2114</v>
+                  <v>0.121969</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.204573</v>
+                  <v>0.117384</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.198267</v>
+                  <v>0.112872</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.191099</v>
+                  <v>0.107687</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.183731</v>
+                  <v>0.102518</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.172869</v>
+                  <v>0.097793</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.161871</v>
+                  <v>0.0929044</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.247769</v>
+                  <v>0.156627</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.243592</v>
+                  <v>0.152789</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.239389</v>
+                  <v>0.148886</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.234805</v>
+                  <v>0.14427</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.230401</v>
+                  <v>0.139987</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.224628</v>
+                  <v>0.135316</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.218949</v>
+                  <v>0.130625</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.213275</v>
+                  <v>0.125715</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.206692</v>
+                  <v>0.120655</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.200398</v>
+                  <v>0.115997</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.193096</v>
+                  <v>0.11107</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.185345</v>
+                  <v>0.105984</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.177726</v>
+                  <v>0.101445</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.167032</v>
+                  <v>0.0964059</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.250983</v>
+                  <v>0.160513</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.246922</v>
+                  <v>0.156502</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.24234</v>
+                  <v>0.152045</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.237651</v>
+                  <v>0.147806</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.232612</v>
+                  <v>0.143057</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.2275</v>
+                  <v>0.138315</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.222083</v>
+                  <v>0.133812</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.215699</v>
+                  <v>0.1287</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.209667</v>
+                  <v>0.123811</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.202946</v>
+                  <v>0.118628</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.196222</v>
+                  <v>0.11366</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.188555</v>
+                  <v>0.108714</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.179944</v>
+                  <v>0.1037</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.169766</v>
+                  <v>0.0989589</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.251071</v>
+                  <v>0.16153</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.247217</v>
+                  <v>0.157354</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.243499</v>
+                  <v>0.153056</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.239247</v>
+                  <v>0.148496</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.233745</v>
+                  <v>0.143805</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.228775</v>
+                  <v>0.138941</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.223145</v>
+                  <v>0.134036</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.217208</v>
+                  <v>0.12898</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.211176</v>
+                  <v>0.124047</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.20484</v>
+                  <v>0.119119</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.197888</v>
+                  <v>0.114214</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.190605</v>
+                  <v>0.109355</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.182097</v>
+                  <v>0.104326</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.1719</v>
+                  <v>0.0995196</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.251299</v>
+                  <v>0.162541</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.248019</v>
+                  <v>0.158578</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.244127</v>
+                  <v>0.154191</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.239723</v>
+                  <v>0.149705</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.23491</v>
+                  <v>0.144991</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.229923</v>
+                  <v>0.140036</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.224131</v>
+                  <v>0.135058</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.218559</v>
+                  <v>0.130142</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.212431</v>
+                  <v>0.12503</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.206093</v>
+                  <v>0.120231</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.199207</v>
+                  <v>0.115215</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.192019</v>
+                  <v>0.110352</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.183749</v>
+                  <v>0.105395</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.174303</v>
+                  <v>0.100493</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.162838</v>
+                  <v>0.0955453</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.249639</v>
+                  <v>0.159334</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.245731</v>
+                  <v>0.155161</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.241243</v>
+                  <v>0.150658</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.236498</v>
+                  <v>0.145997</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.231101</v>
+                  <v>0.141009</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.225563</v>
+                  <v>0.136065</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.219876</v>
+                  <v>0.131067</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.213794</v>
+                  <v>0.126055</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.207545</v>
+                  <v>0.121106</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.200654</v>
+                  <v>0.116169</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.193435</v>
+                  <v>0.11124</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.185456</v>
+                  <v>0.106338</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.175966</v>
+                  <v>0.10148</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.16491</v>
+                  <v>0.0966804</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.251293</v>
+                  <v>0.162912</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.247604</v>
+                  <v>0.158517</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.243229</v>
+                  <v>0.1538</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.237169</v>
+                  <v>0.148946</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.232007</v>
+                  <v>0.149784</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.226576</v>
+                  <v>0.144275</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.221042</v>
+                  <v>0.138341</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.214901</v>
+                  <v>0.133876</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.208636</v>
+                  <v>0.127861</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.201996</v>
+                  <v>0.123254</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.195117</v>
+                  <v>0.118096</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.18742</v>
+                  <v>0.112946</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.178418</v>
+                  <v>0.107887</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.167876</v>
+                  <v>0.10276</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.250586</v>
+                  <v>0.170386</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.247147</v>
+                  <v>0.165981</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.242923</v>
+                  <v>0.161275</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.238252</v>
+                  <v>0.1562</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.2333</v>
+                  <v>0.150804</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.227843</v>
+                  <v>0.145563</v>
                 </pt>
               </numCache>
             </numRef>
@@ -987,7 +995,15 @@
           <idx val="4"/>
           <order val="1"/>
           <tx>
-            <v>foa_unordered_rc16_map</v>
+            <strRef>
+              <f>plot!$C$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>ankerl::unordered_dense::map</v>
+                </pt>
+              </strCache>
+            </strRef>
           </tx>
           <spPr>
             <a:ln>
@@ -1447,430 +1463,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.206229</v>
+                  <v>0.0575077</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.206842</v>
+                  <v>0.0598211</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.206135</v>
+                  <v>0.0649882</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.206722</v>
+                  <v>0.07328460000000001</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.206327</v>
+                  <v>0.09369329999999999</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.206321</v>
+                  <v>0.111546</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.206192</v>
+                  <v>0.06318840000000001</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.205238</v>
+                  <v>0.06369279999999999</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.224944</v>
+                  <v>0.064666</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.224007</v>
+                  <v>0.0662118</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.222663</v>
+                  <v>0.0703285</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.221498</v>
+                  <v>0.0767543</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.221017</v>
+                  <v>0.0847386</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.220245</v>
+                  <v>0.0924473</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.219581</v>
+                  <v>0.103137</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.218457</v>
+                  <v>0.117766</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.217573</v>
+                  <v>0.138113</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.217195</v>
+                  <v>0.157701</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.216497</v>
+                  <v>0.183703</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.215746</v>
+                  <v>0.219332</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.214832</v>
+                  <v>0.0967408</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.21423</v>
+                  <v>0.101705</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.228939</v>
+                  <v>0.110323</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.227393</v>
+                  <v>0.118336</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.227107</v>
+                  <v>0.125077</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.224972</v>
+                  <v>0.131743</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.224321</v>
+                  <v>0.136642</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.223063</v>
+                  <v>0.159372</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.221902</v>
+                  <v>0.164708</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.220735</v>
+                  <v>0.180538</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.219663</v>
+                  <v>0.189276</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.219014</v>
+                  <v>0.205969</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.21802</v>
+                  <v>0.226981</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.217046</v>
+                  <v>0.25275</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.216342</v>
+                  <v>0.280765</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.215854</v>
+                  <v>0.125211</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.229763</v>
+                  <v>0.128879</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.228245</v>
+                  <v>0.139033</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.226658</v>
+                  <v>0.143689</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.225711</v>
+                  <v>0.153829</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.224436</v>
+                  <v>0.162005</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.223405</v>
+                  <v>0.17317</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.222302</v>
+                  <v>0.180018</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.22123</v>
+                  <v>0.189111</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.220403</v>
+                  <v>0.20117</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.219849</v>
+                  <v>0.218393</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.218845</v>
+                  <v>0.234699</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.217926</v>
+                  <v>0.256116</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.217302</v>
+                  <v>0.28101</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.216228</v>
+                  <v>0.134014</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.215748</v>
+                  <v>0.138441</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.229059</v>
+                  <v>0.144747</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.227574</v>
+                  <v>0.151243</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.226449</v>
+                  <v>0.158688</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.22552</v>
+                  <v>0.168342</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.224386</v>
+                  <v>0.174264</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.223346</v>
+                  <v>0.18304</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.222174</v>
+                  <v>0.195721</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.221052</v>
+                  <v>0.209809</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.220193</v>
+                  <v>0.221223</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.219293</v>
+                  <v>0.238103</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.218512</v>
+                  <v>0.256781</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.217698</v>
+                  <v>0.278367</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.216983</v>
+                  <v>0.142277</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.215886</v>
+                  <v>0.147209</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.231128</v>
+                  <v>0.153107</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.229816</v>
+                  <v>0.15876</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.228207</v>
+                  <v>0.165429</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.226759</v>
+                  <v>0.172505</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.225621</v>
+                  <v>0.180261</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.224178</v>
+                  <v>0.189204</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.223074</v>
+                  <v>0.200303</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.221867</v>
+                  <v>0.212441</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.220973</v>
+                  <v>0.227473</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.22015</v>
+                  <v>0.24306</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.219205</v>
+                  <v>0.261431</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.218341</v>
+                  <v>0.283264</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.217394</v>
+                  <v>0.170899</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.216569</v>
+                  <v>0.176969</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.238485</v>
+                  <v>0.182018</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.233573</v>
+                  <v>0.187372</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.230278</v>
+                  <v>0.194064</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.227726</v>
+                  <v>0.200521</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.225567</v>
+                  <v>0.208855</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.224477</v>
+                  <v>0.217776</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.223515</v>
+                  <v>0.228866</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.222424</v>
+                  <v>0.241842</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.221344</v>
+                  <v>0.253365</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.220256</v>
+                  <v>0.270187</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.219415</v>
+                  <v>0.291567</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.218492</v>
+                  <v>0.313726</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.217706</v>
+                  <v>0.340231</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.216915</v>
+                  <v>0.247908</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.235879</v>
+                  <v>0.254082</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.232276</v>
+                  <v>0.259408</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.229777</v>
+                  <v>0.265515</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.227738</v>
+                  <v>0.271721</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.226186</v>
+                  <v>0.280084</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.224924</v>
+                  <v>0.290491</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.223825</v>
+                  <v>0.300365</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.222639</v>
+                  <v>0.313845</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.221594</v>
+                  <v>0.32929</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.220637</v>
+                  <v>0.348304</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.219782</v>
+                  <v>0.371064</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.218899</v>
+                  <v>0.399163</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.218093</v>
+                  <v>0.429455</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.217262</v>
+                  <v>0.346596</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.216542</v>
+                  <v>0.351235</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.233106</v>
+                  <v>0.354989</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.230117</v>
+                  <v>0.36553</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.227957</v>
+                  <v>0.367381</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.226393</v>
+                  <v>0.377436</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.224926</v>
+                  <v>0.385652</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.223667</v>
+                  <v>0.39901</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.223096</v>
+                  <v>0.414407</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.221964</v>
+                  <v>0.432204</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.221041</v>
+                  <v>0.460297</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.220161</v>
+                  <v>0.491839</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.219251</v>
+                  <v>0.5331669999999999</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.218443</v>
+                  <v>0.583111</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.217652</v>
+                  <v>0.423701</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.216747</v>
+                  <v>0.425895</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.233339</v>
+                  <v>0.42969</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.230313</v>
+                  <v>0.434953</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.228265</v>
+                  <v>0.442049</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.226554</v>
+                  <v>0.449396</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.225147</v>
+                  <v>0.461779</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.223895</v>
+                  <v>0.47465</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.222836</v>
+                  <v>0.495717</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.221859</v>
+                  <v>0.512256</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.220818</v>
+                  <v>0.54552</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.219893</v>
+                  <v>0.582205</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.219067</v>
+                  <v>0.630783</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.218239</v>
+                  <v>0.693116</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.217829</v>
+                  <v>0.478361</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.21699</v>
+                  <v>0.479962</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.234758</v>
+                  <v>0.483763</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.231578</v>
+                  <v>0.488763</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.229123</v>
+                  <v>0.490947</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.227302</v>
+                  <v>0.518307</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.225811</v>
+                  <v>0.52015</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.22452</v>
+                  <v>0.53886</v>
                 </pt>
               </numCache>
             </numRef>
@@ -1881,7 +1897,15 @@
           <idx val="5"/>
           <order val="2"/>
           <tx>
-            <v>foa_unordered_rc15_map</v>
+            <strRef>
+              <f>plot!$D$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>foa_unordered_rc15_map</v>
+                </pt>
+              </strCache>
+            </strRef>
           </tx>
           <spPr>
             <a:ln>
@@ -2341,430 +2365,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.209873</v>
+                  <v>0.157822</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.211012</v>
+                  <v>0.158856</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.210745</v>
+                  <v>0.159729</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.211549</v>
+                  <v>0.15887</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.212704</v>
+                  <v>0.160271</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.211818</v>
+                  <v>0.159772</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.212862</v>
+                  <v>0.159948</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.227673</v>
+                  <v>0.164801</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.226193</v>
+                  <v>0.165641</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.226517</v>
+                  <v>0.165795</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.225181</v>
+                  <v>0.166284</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.224215</v>
+                  <v>0.166196</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.224629</v>
+                  <v>0.166822</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.224124</v>
+                  <v>0.16633</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.22305</v>
+                  <v>0.166022</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.222995</v>
+                  <v>0.165367</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.221534</v>
+                  <v>0.165413</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.221762</v>
+                  <v>0.165358</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.221599</v>
+                  <v>0.165959</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.220998</v>
+                  <v>0.165915</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.21979</v>
+                  <v>0.167046</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.233436</v>
+                  <v>0.182004</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.232471</v>
+                  <v>0.179886</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.231226</v>
+                  <v>0.176643</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.230275</v>
+                  <v>0.176678</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.229388</v>
+                  <v>0.175759</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.228411</v>
+                  <v>0.175754</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.227283</v>
+                  <v>0.176854</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.226614</v>
+                  <v>0.175894</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.225598</v>
+                  <v>0.172402</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.225321</v>
+                  <v>0.17302</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.224224</v>
+                  <v>0.17105</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.223667</v>
+                  <v>0.170195</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.222733</v>
+                  <v>0.169719</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.222081</v>
+                  <v>0.168159</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.235696</v>
+                  <v>0.184916</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.234257</v>
+                  <v>0.183052</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.233102</v>
+                  <v>0.182508</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.231628</v>
+                  <v>0.181083</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.230805</v>
+                  <v>0.17982</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.229469</v>
+                  <v>0.178386</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.228368</v>
+                  <v>0.178092</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.227503</v>
+                  <v>0.176222</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.226573</v>
+                  <v>0.175981</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.225474</v>
+                  <v>0.174595</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.224613</v>
+                  <v>0.173326</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.223838</v>
+                  <v>0.171569</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.223185</v>
+                  <v>0.171515</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.222298</v>
+                  <v>0.169954</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.236836</v>
+                  <v>0.186997</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.235449</v>
+                  <v>0.185308</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.234269</v>
+                  <v>0.183876</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.232952</v>
+                  <v>0.182684</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.231637</v>
+                  <v>0.181455</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.230491</v>
+                  <v>0.180231</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.229579</v>
+                  <v>0.179365</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.22827</v>
+                  <v>0.177796</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.227342</v>
+                  <v>0.176715</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.226352</v>
+                  <v>0.175502</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.225524</v>
+                  <v>0.174353</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.22462</v>
+                  <v>0.173807</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.223724</v>
+                  <v>0.17214</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.222897</v>
+                  <v>0.170786</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.222256</v>
+                  <v>0.169619</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.236524</v>
+                  <v>0.186654</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.234957</v>
+                  <v>0.185313</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.23352</v>
+                  <v>0.183854</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.232314</v>
+                  <v>0.182476</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.231079</v>
+                  <v>0.181164</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.230032</v>
+                  <v>0.179912</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.228745</v>
+                  <v>0.178749</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.227756</v>
+                  <v>0.177311</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.226814</v>
+                  <v>0.176193</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.225878</v>
+                  <v>0.174878</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.225063</v>
+                  <v>0.173741</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.224187</v>
+                  <v>0.172506</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.223308</v>
+                  <v>0.171313</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.222776</v>
+                  <v>0.170248</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.238898</v>
+                  <v>0.187436</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.236543</v>
+                  <v>0.185778</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.234982</v>
+                  <v>0.184273</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.233183</v>
+                  <v>0.182842</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.231928</v>
+                  <v>0.181428</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.230557</v>
+                  <v>0.180248</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.229474</v>
+                  <v>0.17884</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.228263</v>
+                  <v>0.177651</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.22724</v>
+                  <v>0.176506</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.226241</v>
+                  <v>0.175158</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.225489</v>
+                  <v>0.17393</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.224505</v>
+                  <v>0.172921</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.223735</v>
+                  <v>0.171658</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.222895</v>
+                  <v>0.170365</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.239711</v>
+                  <v>0.187853</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.237182</v>
+                  <v>0.186208</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.235335</v>
+                  <v>0.18493</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.233933</v>
+                  <v>0.183349</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.232964</v>
+                  <v>0.181904</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.231522</v>
+                  <v>0.180677</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.230428</v>
+                  <v>0.17923</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.228937</v>
+                  <v>0.178029</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.227841</v>
+                  <v>0.17673</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.226936</v>
+                  <v>0.175554</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.226475</v>
+                  <v>0.174295</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.22552</v>
+                  <v>0.173194</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.22466</v>
+                  <v>0.17194</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.223865</v>
+                  <v>0.170673</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.239576</v>
+                  <v>0.18821</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.237213</v>
+                  <v>0.18648</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.235342</v>
+                  <v>0.185181</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.233703</v>
+                  <v>0.183927</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.232291</v>
+                  <v>0.18249</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.230896</v>
+                  <v>0.18114</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.229691</v>
+                  <v>0.179757</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.22859</v>
+                  <v>0.178537</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.227856</v>
+                  <v>0.177269</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.226983</v>
+                  <v>0.175893</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.226085</v>
+                  <v>0.174715</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.225282</v>
+                  <v>0.173489</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.224461</v>
+                  <v>0.172158</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.223722</v>
+                  <v>0.170948</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.223001</v>
+                  <v>0.169715</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.237285</v>
+                  <v>0.187153</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.235374</v>
+                  <v>0.185547</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.2337</v>
+                  <v>0.184049</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.232315</v>
+                  <v>0.182769</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.230895</v>
+                  <v>0.181451</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.229728</v>
+                  <v>0.180103</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.228673</v>
+                  <v>0.178785</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.227668</v>
+                  <v>0.177335</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.226699</v>
+                  <v>0.176054</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.225807</v>
+                  <v>0.174854</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.224951</v>
+                  <v>0.173636</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.224143</v>
+                  <v>0.172385</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.223409</v>
+                  <v>0.171224</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.223041</v>
+                  <v>0.170001</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.238591</v>
+                  <v>0.196784</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.236406</v>
+                  <v>0.194704</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.234698</v>
+                  <v>0.192719</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.233163</v>
+                  <v>0.191072</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.231711</v>
+                  <v>0.189256</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.230522</v>
+                  <v>0.187704</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.229318</v>
+                  <v>0.185987</v>
                 </pt>
               </numCache>
             </numRef>
@@ -2825,7 +2849,6 @@
         <axId val="163989376"/>
         <scaling>
           <orientation val="minMax"/>
-          <max val="0.4"/>
         </scaling>
         <delete val="0"/>
         <axPos val="l"/>
@@ -3217,8 +3240,8 @@
   </sheetPr>
   <dimension ref="A1:D143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
+      <selection activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -3235,7 +3258,7 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>foa_unordered_rc16_map</t>
+          <t>ankerl::unordered_dense::map</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">

--- a/vs-x64/Running erasure.xlsx
+++ b/vs-x64/Running erasure.xlsx
@@ -3249,13 +3249,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.207859</v>
+        <v>0.202861</v>
       </c>
       <c r="C2" t="n">
-        <v>0.233792</v>
+        <v>0.229438</v>
       </c>
       <c r="D2" t="n">
-        <v>0.234285</v>
+        <v>0.238555</v>
       </c>
     </row>
     <row r="3">
@@ -3263,13 +3263,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.197703</v>
+        <v>0.195165</v>
       </c>
       <c r="C3" t="n">
-        <v>0.236213</v>
+        <v>0.235026</v>
       </c>
       <c r="D3" t="n">
-        <v>0.236371</v>
+        <v>0.242981</v>
       </c>
     </row>
     <row r="4">
@@ -3277,13 +3277,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.200772</v>
+        <v>0.203456</v>
       </c>
       <c r="C4" t="n">
-        <v>0.236703</v>
+        <v>0.234837</v>
       </c>
       <c r="D4" t="n">
-        <v>0.24302</v>
+        <v>0.239775</v>
       </c>
     </row>
     <row r="5">
@@ -3291,13 +3291,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.195089</v>
+        <v>0.195618</v>
       </c>
       <c r="C5" t="n">
-        <v>0.237477</v>
+        <v>0.23742</v>
       </c>
       <c r="D5" t="n">
-        <v>0.237208</v>
+        <v>0.24817</v>
       </c>
     </row>
     <row r="6">
@@ -3305,13 +3305,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.197946</v>
+        <v>0.19656</v>
       </c>
       <c r="C6" t="n">
-        <v>0.235069</v>
+        <v>0.230998</v>
       </c>
       <c r="D6" t="n">
-        <v>0.233703</v>
+        <v>0.240706</v>
       </c>
     </row>
     <row r="7">
@@ -3319,13 +3319,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.190488</v>
+        <v>0.193627</v>
       </c>
       <c r="C7" t="n">
-        <v>0.23103</v>
+        <v>0.229859</v>
       </c>
       <c r="D7" t="n">
-        <v>0.23166</v>
+        <v>0.239677</v>
       </c>
     </row>
     <row r="8">
@@ -3333,13 +3333,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.182491</v>
+        <v>0.186349</v>
       </c>
       <c r="C8" t="n">
-        <v>0.232531</v>
+        <v>0.228315</v>
       </c>
       <c r="D8" t="n">
-        <v>0.237425</v>
+        <v>0.237139</v>
       </c>
     </row>
     <row r="9">
@@ -3347,13 +3347,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.179101</v>
+        <v>0.181647</v>
       </c>
       <c r="C9" t="n">
-        <v>0.233179</v>
+        <v>0.231822</v>
       </c>
       <c r="D9" t="n">
-        <v>0.248485</v>
+        <v>0.253272</v>
       </c>
     </row>
     <row r="10">
@@ -3361,13 +3361,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.234021</v>
+        <v>0.232788</v>
       </c>
       <c r="C10" t="n">
-        <v>0.242112</v>
+        <v>0.244614</v>
       </c>
       <c r="D10" t="n">
-        <v>0.242904</v>
+        <v>0.252436</v>
       </c>
     </row>
     <row r="11">
@@ -3375,13 +3375,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.22743</v>
+        <v>0.227063</v>
       </c>
       <c r="C11" t="n">
-        <v>0.23644</v>
+        <v>0.244931</v>
       </c>
       <c r="D11" t="n">
-        <v>0.240602</v>
+        <v>0.245573</v>
       </c>
     </row>
     <row r="12">
@@ -3389,13 +3389,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.223703</v>
+        <v>0.220104</v>
       </c>
       <c r="C12" t="n">
-        <v>0.244286</v>
+        <v>0.237973</v>
       </c>
       <c r="D12" t="n">
-        <v>0.239889</v>
+        <v>0.241226</v>
       </c>
     </row>
     <row r="13">
@@ -3403,13 +3403,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.214805</v>
+        <v>0.213329</v>
       </c>
       <c r="C13" t="n">
-        <v>0.236128</v>
+        <v>0.240511</v>
       </c>
       <c r="D13" t="n">
-        <v>0.239901</v>
+        <v>0.245333</v>
       </c>
     </row>
     <row r="14">
@@ -3417,13 +3417,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.213809</v>
+        <v>0.216559</v>
       </c>
       <c r="C14" t="n">
-        <v>0.235377</v>
+        <v>0.239469</v>
       </c>
       <c r="D14" t="n">
-        <v>0.238494</v>
+        <v>0.245671</v>
       </c>
     </row>
     <row r="15">
@@ -3431,13 +3431,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.210679</v>
+        <v>0.211491</v>
       </c>
       <c r="C15" t="n">
-        <v>0.237786</v>
+        <v>0.242525</v>
       </c>
       <c r="D15" t="n">
-        <v>0.241307</v>
+        <v>0.242078</v>
       </c>
     </row>
     <row r="16">
@@ -3445,13 +3445,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.208343</v>
+        <v>0.206639</v>
       </c>
       <c r="C16" t="n">
-        <v>0.237477</v>
+        <v>0.234214</v>
       </c>
       <c r="D16" t="n">
-        <v>0.242023</v>
+        <v>0.237676</v>
       </c>
     </row>
     <row r="17">
@@ -3459,13 +3459,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.201648</v>
+        <v>0.206188</v>
       </c>
       <c r="C17" t="n">
-        <v>0.234507</v>
+        <v>0.236072</v>
       </c>
       <c r="D17" t="n">
-        <v>0.238476</v>
+        <v>0.244769</v>
       </c>
     </row>
     <row r="18">
@@ -3473,13 +3473,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.200062</v>
+        <v>0.202276</v>
       </c>
       <c r="C18" t="n">
-        <v>0.234372</v>
+        <v>0.233826</v>
       </c>
       <c r="D18" t="n">
-        <v>0.239455</v>
+        <v>0.239857</v>
       </c>
     </row>
     <row r="19">
@@ -3487,13 +3487,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.196458</v>
+        <v>0.19823</v>
       </c>
       <c r="C19" t="n">
-        <v>0.231735</v>
+        <v>0.233367</v>
       </c>
       <c r="D19" t="n">
-        <v>0.23501</v>
+        <v>0.240327</v>
       </c>
     </row>
     <row r="20">
@@ -3501,13 +3501,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.199016</v>
+        <v>0.195209</v>
       </c>
       <c r="C20" t="n">
-        <v>0.23597</v>
+        <v>0.236219</v>
       </c>
       <c r="D20" t="n">
-        <v>0.234787</v>
+        <v>0.243837</v>
       </c>
     </row>
     <row r="21">
@@ -3515,13 +3515,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.191686</v>
+        <v>0.192853</v>
       </c>
       <c r="C21" t="n">
-        <v>0.229858</v>
+        <v>0.230742</v>
       </c>
       <c r="D21" t="n">
-        <v>0.245561</v>
+        <v>0.237054</v>
       </c>
     </row>
     <row r="22">
@@ -3529,13 +3529,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.187071</v>
+        <v>0.194152</v>
       </c>
       <c r="C22" t="n">
-        <v>0.22788</v>
+        <v>0.229103</v>
       </c>
       <c r="D22" t="n">
-        <v>0.232162</v>
+        <v>0.243587</v>
       </c>
     </row>
     <row r="23">
@@ -3543,13 +3543,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.182314</v>
+        <v>0.183404</v>
       </c>
       <c r="C23" t="n">
-        <v>0.232894</v>
+        <v>0.233521</v>
       </c>
       <c r="D23" t="n">
-        <v>0.246827</v>
+        <v>0.256006</v>
       </c>
     </row>
     <row r="24">
@@ -3557,13 +3557,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.236816</v>
+        <v>0.239655</v>
       </c>
       <c r="C24" t="n">
-        <v>0.245834</v>
+        <v>0.248478</v>
       </c>
       <c r="D24" t="n">
-        <v>0.247397</v>
+        <v>0.251439</v>
       </c>
     </row>
     <row r="25">
@@ -3571,13 +3571,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.235793</v>
+        <v>0.232331</v>
       </c>
       <c r="C25" t="n">
-        <v>0.24943</v>
+        <v>0.244944</v>
       </c>
       <c r="D25" t="n">
-        <v>0.246492</v>
+        <v>0.249103</v>
       </c>
     </row>
     <row r="26">
@@ -3585,13 +3585,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.230688</v>
+        <v>0.228408</v>
       </c>
       <c r="C26" t="n">
-        <v>0.242154</v>
+        <v>0.244902</v>
       </c>
       <c r="D26" t="n">
-        <v>0.241479</v>
+        <v>0.250247</v>
       </c>
     </row>
     <row r="27">
@@ -3599,13 +3599,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.222843</v>
+        <v>0.225759</v>
       </c>
       <c r="C27" t="n">
-        <v>0.242367</v>
+        <v>0.242913</v>
       </c>
       <c r="D27" t="n">
-        <v>0.241806</v>
+        <v>0.244868</v>
       </c>
     </row>
     <row r="28">
@@ -3613,13 +3613,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.221568</v>
+        <v>0.221518</v>
       </c>
       <c r="C28" t="n">
-        <v>0.238912</v>
+        <v>0.240432</v>
       </c>
       <c r="D28" t="n">
-        <v>0.246137</v>
+        <v>0.246989</v>
       </c>
     </row>
     <row r="29">
@@ -3627,13 +3627,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.215546</v>
+        <v>0.216205</v>
       </c>
       <c r="C29" t="n">
-        <v>0.240844</v>
+        <v>0.237546</v>
       </c>
       <c r="D29" t="n">
-        <v>0.245079</v>
+        <v>0.246674</v>
       </c>
     </row>
     <row r="30">
@@ -3641,13 +3641,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.214395</v>
+        <v>0.21645</v>
       </c>
       <c r="C30" t="n">
-        <v>0.237605</v>
+        <v>0.239674</v>
       </c>
       <c r="D30" t="n">
-        <v>0.242618</v>
+        <v>0.25603</v>
       </c>
     </row>
     <row r="31">
@@ -3655,13 +3655,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.207775</v>
+        <v>0.209425</v>
       </c>
       <c r="C31" t="n">
-        <v>0.235585</v>
+        <v>0.235784</v>
       </c>
       <c r="D31" t="n">
-        <v>0.243975</v>
+        <v>0.240962</v>
       </c>
     </row>
     <row r="32">
@@ -3669,13 +3669,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.203809</v>
+        <v>0.204691</v>
       </c>
       <c r="C32" t="n">
-        <v>0.236438</v>
+        <v>0.237602</v>
       </c>
       <c r="D32" t="n">
-        <v>0.238131</v>
+        <v>0.24342</v>
       </c>
     </row>
     <row r="33">
@@ -3683,13 +3683,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.201002</v>
+        <v>0.201087</v>
       </c>
       <c r="C33" t="n">
-        <v>0.240518</v>
+        <v>0.233421</v>
       </c>
       <c r="D33" t="n">
-        <v>0.235627</v>
+        <v>0.244088</v>
       </c>
     </row>
     <row r="34">
@@ -3697,13 +3697,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.198073</v>
+        <v>0.19918</v>
       </c>
       <c r="C34" t="n">
-        <v>0.234404</v>
+        <v>0.233209</v>
       </c>
       <c r="D34" t="n">
-        <v>0.236737</v>
+        <v>0.241859</v>
       </c>
     </row>
     <row r="35">
@@ -3711,13 +3711,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.193727</v>
+        <v>0.196088</v>
       </c>
       <c r="C35" t="n">
-        <v>0.235832</v>
+        <v>0.230221</v>
       </c>
       <c r="D35" t="n">
-        <v>0.234633</v>
+        <v>0.235711</v>
       </c>
     </row>
     <row r="36">
@@ -3725,13 +3725,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.189414</v>
+        <v>0.191776</v>
       </c>
       <c r="C36" t="n">
-        <v>0.231108</v>
+        <v>0.233789</v>
       </c>
       <c r="D36" t="n">
-        <v>0.237428</v>
+        <v>0.243259</v>
       </c>
     </row>
     <row r="37">
@@ -3739,13 +3739,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.184183</v>
+        <v>0.185453</v>
       </c>
       <c r="C37" t="n">
-        <v>0.233104</v>
+        <v>0.232619</v>
       </c>
       <c r="D37" t="n">
-        <v>0.260798</v>
+        <v>0.272845</v>
       </c>
     </row>
     <row r="38">
@@ -3753,13 +3753,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.238999</v>
+        <v>0.240708</v>
       </c>
       <c r="C38" t="n">
-        <v>0.261954</v>
+        <v>0.258086</v>
       </c>
       <c r="D38" t="n">
-        <v>0.26063</v>
+        <v>0.264068</v>
       </c>
     </row>
     <row r="39">
@@ -3767,13 +3767,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.237879</v>
+        <v>0.237562</v>
       </c>
       <c r="C39" t="n">
-        <v>0.255739</v>
+        <v>0.255809</v>
       </c>
       <c r="D39" t="n">
-        <v>0.255793</v>
+        <v>0.265447</v>
       </c>
     </row>
     <row r="40">
@@ -3781,13 +3781,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.232362</v>
+        <v>0.233045</v>
       </c>
       <c r="C40" t="n">
-        <v>0.256435</v>
+        <v>0.256019</v>
       </c>
       <c r="D40" t="n">
-        <v>0.254165</v>
+        <v>0.263724</v>
       </c>
     </row>
     <row r="41">
@@ -3795,13 +3795,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.229686</v>
+        <v>0.233473</v>
       </c>
       <c r="C41" t="n">
-        <v>0.252189</v>
+        <v>0.254282</v>
       </c>
       <c r="D41" t="n">
-        <v>0.253426</v>
+        <v>0.259998</v>
       </c>
     </row>
     <row r="42">
@@ -3809,13 +3809,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.222397</v>
+        <v>0.227283</v>
       </c>
       <c r="C42" t="n">
-        <v>0.248489</v>
+        <v>0.25407</v>
       </c>
       <c r="D42" t="n">
-        <v>0.251585</v>
+        <v>0.258472</v>
       </c>
     </row>
     <row r="43">
@@ -3823,13 +3823,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.220274</v>
+        <v>0.221753</v>
       </c>
       <c r="C43" t="n">
-        <v>0.250544</v>
+        <v>0.253174</v>
       </c>
       <c r="D43" t="n">
-        <v>0.248406</v>
+        <v>0.259898</v>
       </c>
     </row>
     <row r="44">
@@ -3837,13 +3837,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.216927</v>
+        <v>0.218132</v>
       </c>
       <c r="C44" t="n">
-        <v>0.250016</v>
+        <v>0.247866</v>
       </c>
       <c r="D44" t="n">
-        <v>0.246321</v>
+        <v>0.251359</v>
       </c>
     </row>
     <row r="45">
@@ -3851,13 +3851,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.211637</v>
+        <v>0.214686</v>
       </c>
       <c r="C45" t="n">
-        <v>0.24574</v>
+        <v>0.245815</v>
       </c>
       <c r="D45" t="n">
-        <v>0.247321</v>
+        <v>0.252811</v>
       </c>
     </row>
     <row r="46">
@@ -3865,13 +3865,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.209889</v>
+        <v>0.21001</v>
       </c>
       <c r="C46" t="n">
         <v>0.244794</v>
       </c>
       <c r="D46" t="n">
-        <v>0.246932</v>
+        <v>0.251988</v>
       </c>
     </row>
     <row r="47">
@@ -3879,13 +3879,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.203203</v>
+        <v>0.207673</v>
       </c>
       <c r="C47" t="n">
-        <v>0.238466</v>
+        <v>0.242709</v>
       </c>
       <c r="D47" t="n">
-        <v>0.242113</v>
+        <v>0.251829</v>
       </c>
     </row>
     <row r="48">
@@ -3893,13 +3893,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.200532</v>
+        <v>0.203133</v>
       </c>
       <c r="C48" t="n">
-        <v>0.242695</v>
+        <v>0.243584</v>
       </c>
       <c r="D48" t="n">
-        <v>0.242405</v>
+        <v>0.248174</v>
       </c>
     </row>
     <row r="49">
@@ -3907,13 +3907,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.196901</v>
+        <v>0.198651</v>
       </c>
       <c r="C49" t="n">
-        <v>0.239799</v>
+        <v>0.242582</v>
       </c>
       <c r="D49" t="n">
-        <v>0.238142</v>
+        <v>0.246569</v>
       </c>
     </row>
     <row r="50">
@@ -3921,13 +3921,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.194</v>
+        <v>0.196537</v>
       </c>
       <c r="C50" t="n">
-        <v>0.237807</v>
+        <v>0.238903</v>
       </c>
       <c r="D50" t="n">
-        <v>0.239488</v>
+        <v>0.24629</v>
       </c>
     </row>
     <row r="51">
@@ -3935,13 +3935,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.18889</v>
+        <v>0.194733</v>
       </c>
       <c r="C51" t="n">
-        <v>0.23905</v>
+        <v>0.239101</v>
       </c>
       <c r="D51" t="n">
-        <v>0.259923</v>
+        <v>0.2689</v>
       </c>
     </row>
     <row r="52">
@@ -3949,13 +3949,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.180125</v>
+        <v>0.180015</v>
       </c>
       <c r="C52" t="n">
-        <v>0.239314</v>
+        <v>0.236372</v>
       </c>
       <c r="D52" t="n">
-        <v>0.26073</v>
+        <v>0.26892</v>
       </c>
     </row>
     <row r="53">
@@ -3963,13 +3963,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.242967</v>
+        <v>0.244688</v>
       </c>
       <c r="C53" t="n">
-        <v>0.255879</v>
+        <v>0.258615</v>
       </c>
       <c r="D53" t="n">
-        <v>0.257407</v>
+        <v>0.265192</v>
       </c>
     </row>
     <row r="54">
@@ -3977,13 +3977,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.23626</v>
+        <v>0.240892</v>
       </c>
       <c r="C54" t="n">
-        <v>0.255208</v>
+        <v>0.258348</v>
       </c>
       <c r="D54" t="n">
-        <v>0.254505</v>
+        <v>0.265432</v>
       </c>
     </row>
     <row r="55">
@@ -3991,13 +3991,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.235963</v>
+        <v>0.237228</v>
       </c>
       <c r="C55" t="n">
-        <v>0.254712</v>
+        <v>0.254261</v>
       </c>
       <c r="D55" t="n">
-        <v>0.254351</v>
+        <v>0.262005</v>
       </c>
     </row>
     <row r="56">
@@ -4005,13 +4005,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.226726</v>
+        <v>0.231113</v>
       </c>
       <c r="C56" t="n">
-        <v>0.251185</v>
+        <v>0.251537</v>
       </c>
       <c r="D56" t="n">
-        <v>0.251851</v>
+        <v>0.258765</v>
       </c>
     </row>
     <row r="57">
@@ -4019,13 +4019,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.224669</v>
+        <v>0.226625</v>
       </c>
       <c r="C57" t="n">
-        <v>0.251324</v>
+        <v>0.25051</v>
       </c>
       <c r="D57" t="n">
-        <v>0.248478</v>
+        <v>0.259255</v>
       </c>
     </row>
     <row r="58">
@@ -4033,13 +4033,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.220331</v>
+        <v>0.224592</v>
       </c>
       <c r="C58" t="n">
-        <v>0.24904</v>
+        <v>0.248969</v>
       </c>
       <c r="D58" t="n">
-        <v>0.252414</v>
+        <v>0.254968</v>
       </c>
     </row>
     <row r="59">
@@ -4047,13 +4047,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.216231</v>
+        <v>0.219241</v>
       </c>
       <c r="C59" t="n">
-        <v>0.244965</v>
+        <v>0.249492</v>
       </c>
       <c r="D59" t="n">
-        <v>0.250031</v>
+        <v>0.25398</v>
       </c>
     </row>
     <row r="60">
@@ -4061,13 +4061,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.210718</v>
+        <v>0.214903</v>
       </c>
       <c r="C60" t="n">
-        <v>0.247936</v>
+        <v>0.245311</v>
       </c>
       <c r="D60" t="n">
-        <v>0.245404</v>
+        <v>0.250411</v>
       </c>
     </row>
     <row r="61">
@@ -4075,13 +4075,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.208291</v>
+        <v>0.213729</v>
       </c>
       <c r="C61" t="n">
-        <v>0.242315</v>
+        <v>0.245404</v>
       </c>
       <c r="D61" t="n">
-        <v>0.248245</v>
+        <v>0.252281</v>
       </c>
     </row>
     <row r="62">
@@ -4089,13 +4089,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.206144</v>
+        <v>0.207207</v>
       </c>
       <c r="C62" t="n">
-        <v>0.242496</v>
+        <v>0.242345</v>
       </c>
       <c r="D62" t="n">
-        <v>0.242153</v>
+        <v>0.250885</v>
       </c>
     </row>
     <row r="63">
@@ -4103,13 +4103,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.205152</v>
+        <v>0.204673</v>
       </c>
       <c r="C63" t="n">
-        <v>0.242659</v>
+        <v>0.241686</v>
       </c>
       <c r="D63" t="n">
-        <v>0.242662</v>
+        <v>0.249225</v>
       </c>
     </row>
     <row r="64">
@@ -4117,13 +4117,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.196091</v>
+        <v>0.20063</v>
       </c>
       <c r="C64" t="n">
-        <v>0.237738</v>
+        <v>0.242115</v>
       </c>
       <c r="D64" t="n">
-        <v>0.240701</v>
+        <v>0.247464</v>
       </c>
     </row>
     <row r="65">
@@ -4131,13 +4131,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.19124</v>
+        <v>0.198355</v>
       </c>
       <c r="C65" t="n">
-        <v>0.240867</v>
+        <v>0.23887</v>
       </c>
       <c r="D65" t="n">
-        <v>0.239406</v>
+        <v>0.246554</v>
       </c>
     </row>
     <row r="66">
@@ -4145,13 +4145,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.185086</v>
+        <v>0.188934</v>
       </c>
       <c r="C66" t="n">
-        <v>0.235972</v>
+        <v>0.236577</v>
       </c>
       <c r="D66" t="n">
-        <v>0.269418</v>
+        <v>0.271468</v>
       </c>
     </row>
     <row r="67">
@@ -4159,13 +4159,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.257891</v>
+        <v>0.252377</v>
       </c>
       <c r="C67" t="n">
-        <v>0.26207</v>
+        <v>0.270491</v>
       </c>
       <c r="D67" t="n">
-        <v>0.261243</v>
+        <v>0.272212</v>
       </c>
     </row>
     <row r="68">
@@ -4173,13 +4173,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.248648</v>
+        <v>0.249102</v>
       </c>
       <c r="C68" t="n">
-        <v>0.260409</v>
+        <v>0.259081</v>
       </c>
       <c r="D68" t="n">
-        <v>0.262318</v>
+        <v>0.26653</v>
       </c>
     </row>
     <row r="69">
@@ -4187,13 +4187,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.244172</v>
+        <v>0.248436</v>
       </c>
       <c r="C69" t="n">
-        <v>0.261123</v>
+        <v>0.259767</v>
       </c>
       <c r="D69" t="n">
-        <v>0.261796</v>
+        <v>0.265259</v>
       </c>
     </row>
     <row r="70">
@@ -4201,13 +4201,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.239136</v>
+        <v>0.240137</v>
       </c>
       <c r="C70" t="n">
-        <v>0.253875</v>
+        <v>0.259995</v>
       </c>
       <c r="D70" t="n">
-        <v>0.257513</v>
+        <v>0.263374</v>
       </c>
     </row>
     <row r="71">
@@ -4215,13 +4215,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.236755</v>
+        <v>0.233471</v>
       </c>
       <c r="C71" t="n">
-        <v>0.255487</v>
+        <v>0.256499</v>
       </c>
       <c r="D71" t="n">
-        <v>0.260608</v>
+        <v>0.260579</v>
       </c>
     </row>
     <row r="72">
@@ -4229,13 +4229,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.23427</v>
+        <v>0.231674</v>
       </c>
       <c r="C72" t="n">
-        <v>0.253571</v>
+        <v>0.254581</v>
       </c>
       <c r="D72" t="n">
-        <v>0.252911</v>
+        <v>0.259849</v>
       </c>
     </row>
     <row r="73">
@@ -4243,13 +4243,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.224954</v>
+        <v>0.226236</v>
       </c>
       <c r="C73" t="n">
-        <v>0.252213</v>
+        <v>0.249501</v>
       </c>
       <c r="D73" t="n">
-        <v>0.253058</v>
+        <v>0.260358</v>
       </c>
     </row>
     <row r="74">
@@ -4257,13 +4257,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.223568</v>
+        <v>0.220413</v>
       </c>
       <c r="C74" t="n">
-        <v>0.250837</v>
+        <v>0.255803</v>
       </c>
       <c r="D74" t="n">
-        <v>0.252045</v>
+        <v>0.25357</v>
       </c>
     </row>
     <row r="75">
@@ -4271,13 +4271,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.221</v>
+        <v>0.219075</v>
       </c>
       <c r="C75" t="n">
-        <v>0.248842</v>
+        <v>0.252851</v>
       </c>
       <c r="D75" t="n">
-        <v>0.25139</v>
+        <v>0.25249</v>
       </c>
     </row>
     <row r="76">
@@ -4285,13 +4285,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.214591</v>
+        <v>0.21562</v>
       </c>
       <c r="C76" t="n">
-        <v>0.247582</v>
+        <v>0.244542</v>
       </c>
       <c r="D76" t="n">
-        <v>0.248716</v>
+        <v>0.255346</v>
       </c>
     </row>
     <row r="77">
@@ -4299,13 +4299,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.209852</v>
+        <v>0.213777</v>
       </c>
       <c r="C77" t="n">
-        <v>0.245672</v>
+        <v>0.246661</v>
       </c>
       <c r="D77" t="n">
-        <v>0.248298</v>
+        <v>0.255084</v>
       </c>
     </row>
     <row r="78">
@@ -4313,13 +4313,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.204782</v>
+        <v>0.209454</v>
       </c>
       <c r="C78" t="n">
-        <v>0.246362</v>
+        <v>0.245733</v>
       </c>
       <c r="D78" t="n">
-        <v>0.243155</v>
+        <v>0.249711</v>
       </c>
     </row>
     <row r="79">
@@ -4327,13 +4327,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.201071</v>
+        <v>0.203904</v>
       </c>
       <c r="C79" t="n">
-        <v>0.245614</v>
+        <v>0.243831</v>
       </c>
       <c r="D79" t="n">
-        <v>0.24361</v>
+        <v>0.245897</v>
       </c>
     </row>
     <row r="80">
@@ -4341,13 +4341,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.189421</v>
+        <v>0.19617</v>
       </c>
       <c r="C80" t="n">
-        <v>0.243098</v>
+        <v>0.243067</v>
       </c>
       <c r="D80" t="n">
-        <v>0.272429</v>
+        <v>0.282596</v>
       </c>
     </row>
     <row r="81">
@@ -4355,13 +4355,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.26177</v>
+        <v>0.259964</v>
       </c>
       <c r="C81" t="n">
-        <v>0.26864</v>
+        <v>0.275018</v>
       </c>
       <c r="D81" t="n">
-        <v>0.268869</v>
+        <v>0.27673</v>
       </c>
     </row>
     <row r="82">
@@ -4369,13 +4369,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.255112</v>
+        <v>0.253517</v>
       </c>
       <c r="C82" t="n">
-        <v>0.268335</v>
+        <v>0.267614</v>
       </c>
       <c r="D82" t="n">
-        <v>0.264417</v>
+        <v>0.272299</v>
       </c>
     </row>
     <row r="83">
@@ -4383,13 +4383,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.248114</v>
+        <v>0.253255</v>
       </c>
       <c r="C83" t="n">
-        <v>0.26542</v>
+        <v>0.263752</v>
       </c>
       <c r="D83" t="n">
-        <v>0.261308</v>
+        <v>0.271762</v>
       </c>
     </row>
     <row r="84">
@@ -4397,13 +4397,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.243844</v>
+        <v>0.248747</v>
       </c>
       <c r="C84" t="n">
-        <v>0.264454</v>
+        <v>0.266298</v>
       </c>
       <c r="D84" t="n">
-        <v>0.264085</v>
+        <v>0.271586</v>
       </c>
     </row>
     <row r="85">
@@ -4411,13 +4411,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.238681</v>
+        <v>0.242233</v>
       </c>
       <c r="C85" t="n">
-        <v>0.25852</v>
+        <v>0.261216</v>
       </c>
       <c r="D85" t="n">
-        <v>0.260107</v>
+        <v>0.265572</v>
       </c>
     </row>
     <row r="86">
@@ -4425,13 +4425,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.236854</v>
+        <v>0.236923</v>
       </c>
       <c r="C86" t="n">
-        <v>0.260402</v>
+        <v>0.260553</v>
       </c>
       <c r="D86" t="n">
-        <v>0.260451</v>
+        <v>0.267419</v>
       </c>
     </row>
     <row r="87">
@@ -4439,13 +4439,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.227478</v>
+        <v>0.230437</v>
       </c>
       <c r="C87" t="n">
-        <v>0.260629</v>
+        <v>0.258614</v>
       </c>
       <c r="D87" t="n">
-        <v>0.254504</v>
+        <v>0.262091</v>
       </c>
     </row>
     <row r="88">
@@ -4453,13 +4453,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.224822</v>
+        <v>0.224055</v>
       </c>
       <c r="C88" t="n">
-        <v>0.254699</v>
+        <v>0.255422</v>
       </c>
       <c r="D88" t="n">
-        <v>0.254789</v>
+        <v>0.25892</v>
       </c>
     </row>
     <row r="89">
@@ -4467,13 +4467,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.22543</v>
+        <v>0.222079</v>
       </c>
       <c r="C89" t="n">
-        <v>0.251862</v>
+        <v>0.251574</v>
       </c>
       <c r="D89" t="n">
-        <v>0.251165</v>
+        <v>0.257048</v>
       </c>
     </row>
     <row r="90">
@@ -4481,13 +4481,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.215402</v>
+        <v>0.219085</v>
       </c>
       <c r="C90" t="n">
-        <v>0.248537</v>
+        <v>0.256602</v>
       </c>
       <c r="D90" t="n">
-        <v>0.253246</v>
+        <v>0.255767</v>
       </c>
     </row>
     <row r="91">
@@ -4495,13 +4495,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.212421</v>
+        <v>0.214239</v>
       </c>
       <c r="C91" t="n">
-        <v>0.253352</v>
+        <v>0.252077</v>
       </c>
       <c r="D91" t="n">
-        <v>0.248581</v>
+        <v>0.257013</v>
       </c>
     </row>
     <row r="92">
@@ -4509,13 +4509,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.204657</v>
+        <v>0.210961</v>
       </c>
       <c r="C92" t="n">
-        <v>0.245856</v>
+        <v>0.249367</v>
       </c>
       <c r="D92" t="n">
-        <v>0.252488</v>
+        <v>0.252387</v>
       </c>
     </row>
     <row r="93">
@@ -4523,13 +4523,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.202691</v>
+        <v>0.205291</v>
       </c>
       <c r="C93" t="n">
-        <v>0.244431</v>
+        <v>0.244398</v>
       </c>
       <c r="D93" t="n">
-        <v>0.250223</v>
+        <v>0.251794</v>
       </c>
     </row>
     <row r="94">
@@ -4537,13 +4537,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.196031</v>
+        <v>0.196886</v>
       </c>
       <c r="C94" t="n">
-        <v>0.246693</v>
+        <v>0.242579</v>
       </c>
       <c r="D94" t="n">
-        <v>0.276776</v>
+        <v>0.282097</v>
       </c>
     </row>
     <row r="95">
@@ -4551,13 +4551,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.261905</v>
+        <v>0.263326</v>
       </c>
       <c r="C95" t="n">
-        <v>0.272351</v>
+        <v>0.273727</v>
       </c>
       <c r="D95" t="n">
-        <v>0.274196</v>
+        <v>0.274994</v>
       </c>
     </row>
     <row r="96">
@@ -4565,13 +4565,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.255057</v>
+        <v>0.259854</v>
       </c>
       <c r="C96" t="n">
-        <v>0.266687</v>
+        <v>0.268584</v>
       </c>
       <c r="D96" t="n">
-        <v>0.269101</v>
+        <v>0.278602</v>
       </c>
     </row>
     <row r="97">
@@ -4579,13 +4579,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.257125</v>
+        <v>0.254614</v>
       </c>
       <c r="C97" t="n">
-        <v>0.268979</v>
+        <v>0.267229</v>
       </c>
       <c r="D97" t="n">
-        <v>0.266046</v>
+        <v>0.273368</v>
       </c>
     </row>
     <row r="98">
@@ -4593,13 +4593,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.248165</v>
+        <v>0.246747</v>
       </c>
       <c r="C98" t="n">
-        <v>0.262781</v>
+        <v>0.266267</v>
       </c>
       <c r="D98" t="n">
-        <v>0.265082</v>
+        <v>0.273262</v>
       </c>
     </row>
     <row r="99">
@@ -4607,13 +4607,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.248967</v>
+        <v>0.240587</v>
       </c>
       <c r="C99" t="n">
-        <v>0.262616</v>
+        <v>0.262297</v>
       </c>
       <c r="D99" t="n">
-        <v>0.263888</v>
+        <v>0.269791</v>
       </c>
     </row>
     <row r="100">
@@ -4621,13 +4621,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.238487</v>
+        <v>0.239824</v>
       </c>
       <c r="C100" t="n">
-        <v>0.258662</v>
+        <v>0.258812</v>
       </c>
       <c r="D100" t="n">
-        <v>0.259956</v>
+        <v>0.263096</v>
       </c>
     </row>
     <row r="101">
@@ -4635,13 +4635,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.229059</v>
+        <v>0.231814</v>
       </c>
       <c r="C101" t="n">
-        <v>0.259477</v>
+        <v>0.25791</v>
       </c>
       <c r="D101" t="n">
-        <v>0.255642</v>
+        <v>0.26202</v>
       </c>
     </row>
     <row r="102">
@@ -4649,13 +4649,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.227143</v>
+        <v>0.225196</v>
       </c>
       <c r="C102" t="n">
-        <v>0.253122</v>
+        <v>0.260863</v>
       </c>
       <c r="D102" t="n">
-        <v>0.258124</v>
+        <v>0.260807</v>
       </c>
     </row>
     <row r="103">
@@ -4663,13 +4663,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.226565</v>
+        <v>0.222346</v>
       </c>
       <c r="C103" t="n">
-        <v>0.254007</v>
+        <v>0.254917</v>
       </c>
       <c r="D103" t="n">
-        <v>0.2555</v>
+        <v>0.2623</v>
       </c>
     </row>
     <row r="104">
@@ -4677,13 +4677,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.220435</v>
+        <v>0.218925</v>
       </c>
       <c r="C104" t="n">
-        <v>0.251957</v>
+        <v>0.255436</v>
       </c>
       <c r="D104" t="n">
-        <v>0.251618</v>
+        <v>0.256724</v>
       </c>
     </row>
     <row r="105">
@@ -4691,13 +4691,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.209908</v>
+        <v>0.215585</v>
       </c>
       <c r="C105" t="n">
-        <v>0.248372</v>
+        <v>0.25282</v>
       </c>
       <c r="D105" t="n">
-        <v>0.252283</v>
+        <v>0.259065</v>
       </c>
     </row>
     <row r="106">
@@ -4705,13 +4705,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.210342</v>
+        <v>0.209985</v>
       </c>
       <c r="C106" t="n">
-        <v>0.249123</v>
+        <v>0.248054</v>
       </c>
       <c r="D106" t="n">
-        <v>0.246912</v>
+        <v>0.25478</v>
       </c>
     </row>
     <row r="107">
@@ -4719,13 +4719,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.201247</v>
+        <v>0.20689</v>
       </c>
       <c r="C107" t="n">
-        <v>0.24573</v>
+        <v>0.246159</v>
       </c>
       <c r="D107" t="n">
-        <v>0.245872</v>
+        <v>0.252294</v>
       </c>
     </row>
     <row r="108">
@@ -4733,13 +4733,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.198343</v>
+        <v>0.203461</v>
       </c>
       <c r="C108" t="n">
-        <v>0.244985</v>
+        <v>0.242276</v>
       </c>
       <c r="D108" t="n">
-        <v>0.276439</v>
+        <v>0.283616</v>
       </c>
     </row>
     <row r="109">
@@ -4747,13 +4747,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.190935</v>
+        <v>0.193058</v>
       </c>
       <c r="C109" t="n">
-        <v>0.247666</v>
+        <v>0.245409</v>
       </c>
       <c r="D109" t="n">
-        <v>0.270262</v>
+        <v>0.28109</v>
       </c>
     </row>
     <row r="110">
@@ -4761,13 +4761,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.257574</v>
+        <v>0.26369</v>
       </c>
       <c r="C110" t="n">
-        <v>0.267515</v>
+        <v>0.271138</v>
       </c>
       <c r="D110" t="n">
-        <v>0.270606</v>
+        <v>0.277024</v>
       </c>
     </row>
     <row r="111">
@@ -4775,13 +4775,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.254523</v>
+        <v>0.252813</v>
       </c>
       <c r="C111" t="n">
-        <v>0.267321</v>
+        <v>0.267576</v>
       </c>
       <c r="D111" t="n">
-        <v>0.26744</v>
+        <v>0.273212</v>
       </c>
     </row>
     <row r="112">
@@ -4789,13 +4789,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.250556</v>
+        <v>0.251855</v>
       </c>
       <c r="C112" t="n">
-        <v>0.263194</v>
+        <v>0.27086</v>
       </c>
       <c r="D112" t="n">
-        <v>0.26321</v>
+        <v>0.269923</v>
       </c>
     </row>
     <row r="113">
@@ -4803,13 +4803,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.245309</v>
+        <v>0.24553</v>
       </c>
       <c r="C113" t="n">
-        <v>0.261865</v>
+        <v>0.265543</v>
       </c>
       <c r="D113" t="n">
-        <v>0.267335</v>
+        <v>0.266856</v>
       </c>
     </row>
     <row r="114">
@@ -4817,13 +4817,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.235642</v>
+        <v>0.238778</v>
       </c>
       <c r="C114" t="n">
-        <v>0.258148</v>
+        <v>0.258691</v>
       </c>
       <c r="D114" t="n">
-        <v>0.25977</v>
+        <v>0.268653</v>
       </c>
     </row>
     <row r="115">
@@ -4831,13 +4831,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.233641</v>
+        <v>0.235801</v>
       </c>
       <c r="C115" t="n">
-        <v>0.255638</v>
+        <v>0.257768</v>
       </c>
       <c r="D115" t="n">
-        <v>0.261962</v>
+        <v>0.264238</v>
       </c>
     </row>
     <row r="116">
@@ -4845,13 +4845,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.230612</v>
+        <v>0.230106</v>
       </c>
       <c r="C116" t="n">
-        <v>0.257547</v>
+        <v>0.257539</v>
       </c>
       <c r="D116" t="n">
-        <v>0.255058</v>
+        <v>0.266751</v>
       </c>
     </row>
     <row r="117">
@@ -4859,13 +4859,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.221855</v>
+        <v>0.227428</v>
       </c>
       <c r="C117" t="n">
-        <v>0.254467</v>
+        <v>0.255377</v>
       </c>
       <c r="D117" t="n">
-        <v>0.251738</v>
+        <v>0.259343</v>
       </c>
     </row>
     <row r="118">
@@ -4873,13 +4873,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.218664</v>
+        <v>0.217519</v>
       </c>
       <c r="C118" t="n">
-        <v>0.252148</v>
+        <v>0.249417</v>
       </c>
       <c r="D118" t="n">
-        <v>0.25144</v>
+        <v>0.258201</v>
       </c>
     </row>
     <row r="119">
@@ -4887,13 +4887,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.214573</v>
+        <v>0.217062</v>
       </c>
       <c r="C119" t="n">
-        <v>0.246932</v>
+        <v>0.24819</v>
       </c>
       <c r="D119" t="n">
-        <v>0.253241</v>
+        <v>0.256992</v>
       </c>
     </row>
     <row r="120">
@@ -4901,13 +4901,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.209571</v>
+        <v>0.215059</v>
       </c>
       <c r="C120" t="n">
-        <v>0.251059</v>
+        <v>0.247623</v>
       </c>
       <c r="D120" t="n">
-        <v>0.252417</v>
+        <v>0.255061</v>
       </c>
     </row>
     <row r="121">
@@ -4915,13 +4915,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.205475</v>
+        <v>0.207996</v>
       </c>
       <c r="C121" t="n">
-        <v>0.254377</v>
+        <v>0.249141</v>
       </c>
       <c r="D121" t="n">
-        <v>0.245283</v>
+        <v>0.251106</v>
       </c>
     </row>
     <row r="122">
@@ -4929,13 +4929,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.199649</v>
+        <v>0.205862</v>
       </c>
       <c r="C122" t="n">
-        <v>0.245255</v>
+        <v>0.245581</v>
       </c>
       <c r="D122" t="n">
-        <v>0.251566</v>
+        <v>0.249959</v>
       </c>
     </row>
     <row r="123">
@@ -4943,13 +4943,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.196348</v>
+        <v>0.193517</v>
       </c>
       <c r="C123" t="n">
-        <v>0.24564</v>
+        <v>0.244331</v>
       </c>
       <c r="D123" t="n">
-        <v>0.273041</v>
+        <v>0.281579</v>
       </c>
     </row>
     <row r="124">
@@ -4957,13 +4957,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.263485</v>
+        <v>0.257171</v>
       </c>
       <c r="C124" t="n">
-        <v>0.269029</v>
+        <v>0.267674</v>
       </c>
       <c r="D124" t="n">
-        <v>0.273156</v>
+        <v>0.278515</v>
       </c>
     </row>
     <row r="125">
@@ -4971,13 +4971,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.256007</v>
+        <v>0.256353</v>
       </c>
       <c r="C125" t="n">
-        <v>0.268497</v>
+        <v>0.273853</v>
       </c>
       <c r="D125" t="n">
-        <v>0.274257</v>
+        <v>0.275851</v>
       </c>
     </row>
     <row r="126">
@@ -4985,13 +4985,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.25317</v>
+        <v>0.250769</v>
       </c>
       <c r="C126" t="n">
-        <v>0.265615</v>
+        <v>0.265196</v>
       </c>
       <c r="D126" t="n">
-        <v>0.270332</v>
+        <v>0.272872</v>
       </c>
     </row>
     <row r="127">
@@ -4999,13 +4999,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.242803</v>
+        <v>0.241839</v>
       </c>
       <c r="C127" t="n">
-        <v>0.262144</v>
+        <v>0.266054</v>
       </c>
       <c r="D127" t="n">
-        <v>0.261031</v>
+        <v>0.270192</v>
       </c>
     </row>
     <row r="128">
@@ -5013,13 +5013,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.238892</v>
+        <v>0.245759</v>
       </c>
       <c r="C128" t="n">
-        <v>0.259799</v>
+        <v>0.266974</v>
       </c>
       <c r="D128" t="n">
-        <v>0.25874</v>
+        <v>0.267436</v>
       </c>
     </row>
     <row r="129">
@@ -5027,13 +5027,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.235913</v>
+        <v>0.234863</v>
       </c>
       <c r="C129" t="n">
-        <v>0.25752</v>
+        <v>0.260635</v>
       </c>
       <c r="D129" t="n">
-        <v>0.26096</v>
+        <v>0.274548</v>
       </c>
     </row>
     <row r="130">
@@ -5041,13 +5041,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.224872</v>
+        <v>0.230545</v>
       </c>
       <c r="C130" t="n">
-        <v>0.262029</v>
+        <v>0.256805</v>
       </c>
       <c r="D130" t="n">
-        <v>0.2575</v>
+        <v>0.265224</v>
       </c>
     </row>
     <row r="131">
@@ -5055,13 +5055,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.224069</v>
+        <v>0.227697</v>
       </c>
       <c r="C131" t="n">
-        <v>0.250967</v>
+        <v>0.260394</v>
       </c>
       <c r="D131" t="n">
-        <v>0.256428</v>
+        <v>0.266563</v>
       </c>
     </row>
     <row r="132">
@@ -5069,13 +5069,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.219482</v>
+        <v>0.224956</v>
       </c>
       <c r="C132" t="n">
-        <v>0.251229</v>
+        <v>0.253662</v>
       </c>
       <c r="D132" t="n">
-        <v>0.253462</v>
+        <v>0.258709</v>
       </c>
     </row>
     <row r="133">
@@ -5083,13 +5083,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.214957</v>
+        <v>0.217561</v>
       </c>
       <c r="C133" t="n">
-        <v>0.256907</v>
+        <v>0.253784</v>
       </c>
       <c r="D133" t="n">
-        <v>0.251435</v>
+        <v>0.255092</v>
       </c>
     </row>
     <row r="134">
@@ -5097,13 +5097,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.220345</v>
+        <v>0.214064</v>
       </c>
       <c r="C134" t="n">
-        <v>0.248408</v>
+        <v>0.252952</v>
       </c>
       <c r="D134" t="n">
-        <v>0.246045</v>
+        <v>0.259238</v>
       </c>
     </row>
     <row r="135">
@@ -5111,13 +5111,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.208253</v>
+        <v>0.210436</v>
       </c>
       <c r="C135" t="n">
-        <v>0.249929</v>
+        <v>0.24872</v>
       </c>
       <c r="D135" t="n">
-        <v>0.248788</v>
+        <v>0.253935</v>
       </c>
     </row>
     <row r="136">
@@ -5125,13 +5125,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.200687</v>
+        <v>0.207607</v>
       </c>
       <c r="C136" t="n">
-        <v>0.246106</v>
+        <v>0.247344</v>
       </c>
       <c r="D136" t="n">
-        <v>0.248788</v>
+        <v>0.25699</v>
       </c>
     </row>
     <row r="137">
@@ -5139,13 +5139,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.192325</v>
+        <v>0.197828</v>
       </c>
       <c r="C137" t="n">
-        <v>0.247205</v>
+        <v>0.249458</v>
       </c>
       <c r="D137" t="n">
-        <v>0.278483</v>
+        <v>0.286443</v>
       </c>
     </row>
     <row r="138">
@@ -5153,13 +5153,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.260957</v>
+        <v>0.260139</v>
       </c>
       <c r="C138" t="n">
-        <v>0.270281</v>
+        <v>0.2757</v>
       </c>
       <c r="D138" t="n">
-        <v>0.27163</v>
+        <v>0.276484</v>
       </c>
     </row>
     <row r="139">
@@ -5167,13 +5167,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.257881</v>
+        <v>0.265128</v>
       </c>
       <c r="C139" t="n">
-        <v>0.26642</v>
+        <v>0.271677</v>
       </c>
       <c r="D139" t="n">
-        <v>0.267111</v>
+        <v>0.274733</v>
       </c>
     </row>
     <row r="140">
@@ -5181,13 +5181,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.25128</v>
+        <v>0.251876</v>
       </c>
       <c r="C140" t="n">
-        <v>0.265286</v>
+        <v>0.264703</v>
       </c>
       <c r="D140" t="n">
-        <v>0.265964</v>
+        <v>0.272598</v>
       </c>
     </row>
     <row r="141">
@@ -5195,13 +5195,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.244741</v>
+        <v>0.244796</v>
       </c>
       <c r="C141" t="n">
-        <v>0.262777</v>
+        <v>0.263415</v>
       </c>
       <c r="D141" t="n">
-        <v>0.267701</v>
+        <v>0.269916</v>
       </c>
     </row>
     <row r="142">
@@ -5209,13 +5209,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.24021</v>
+        <v>0.242825</v>
       </c>
       <c r="C142" t="n">
-        <v>0.257937</v>
+        <v>0.262694</v>
       </c>
       <c r="D142" t="n">
-        <v>0.264111</v>
+        <v>0.265825</v>
       </c>
     </row>
     <row r="143">
@@ -5223,13 +5223,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.239608</v>
+        <v>0.232934</v>
       </c>
       <c r="C143" t="n">
-        <v>0.257311</v>
+        <v>0.258088</v>
       </c>
       <c r="D143" t="n">
-        <v>0.259252</v>
+        <v>0.26929</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Running erasure.xlsx
+++ b/vs-x64/Running erasure.xlsx
@@ -3249,13 +3249,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.202861</v>
+        <v>0.201899</v>
       </c>
       <c r="C2" t="n">
-        <v>0.229438</v>
+        <v>0.238839</v>
       </c>
       <c r="D2" t="n">
-        <v>0.238555</v>
+        <v>0.240453</v>
       </c>
     </row>
     <row r="3">
@@ -3263,13 +3263,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.195165</v>
+        <v>0.201818</v>
       </c>
       <c r="C3" t="n">
-        <v>0.235026</v>
+        <v>0.238212</v>
       </c>
       <c r="D3" t="n">
-        <v>0.242981</v>
+        <v>0.236485</v>
       </c>
     </row>
     <row r="4">
@@ -3277,13 +3277,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.203456</v>
+        <v>0.194364</v>
       </c>
       <c r="C4" t="n">
-        <v>0.234837</v>
+        <v>0.236502</v>
       </c>
       <c r="D4" t="n">
-        <v>0.239775</v>
+        <v>0.232172</v>
       </c>
     </row>
     <row r="5">
@@ -3291,13 +3291,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.195618</v>
+        <v>0.190597</v>
       </c>
       <c r="C5" t="n">
-        <v>0.23742</v>
+        <v>0.22926</v>
       </c>
       <c r="D5" t="n">
-        <v>0.24817</v>
+        <v>0.234108</v>
       </c>
     </row>
     <row r="6">
@@ -3305,13 +3305,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.19656</v>
+        <v>0.189664</v>
       </c>
       <c r="C6" t="n">
-        <v>0.230998</v>
+        <v>0.230714</v>
       </c>
       <c r="D6" t="n">
-        <v>0.240706</v>
+        <v>0.230357</v>
       </c>
     </row>
     <row r="7">
@@ -3319,13 +3319,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.193627</v>
+        <v>0.182937</v>
       </c>
       <c r="C7" t="n">
-        <v>0.229859</v>
+        <v>0.226664</v>
       </c>
       <c r="D7" t="n">
-        <v>0.239677</v>
+        <v>0.231342</v>
       </c>
     </row>
     <row r="8">
@@ -3333,13 +3333,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.186349</v>
+        <v>0.180528</v>
       </c>
       <c r="C8" t="n">
-        <v>0.228315</v>
+        <v>0.230072</v>
       </c>
       <c r="D8" t="n">
-        <v>0.237139</v>
+        <v>0.233015</v>
       </c>
     </row>
     <row r="9">
@@ -3347,13 +3347,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.181647</v>
+        <v>0.173785</v>
       </c>
       <c r="C9" t="n">
-        <v>0.231822</v>
+        <v>0.230671</v>
       </c>
       <c r="D9" t="n">
-        <v>0.253272</v>
+        <v>0.242095</v>
       </c>
     </row>
     <row r="10">
@@ -3361,13 +3361,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.232788</v>
+        <v>0.235224</v>
       </c>
       <c r="C10" t="n">
-        <v>0.244614</v>
+        <v>0.245197</v>
       </c>
       <c r="D10" t="n">
-        <v>0.252436</v>
+        <v>0.243606</v>
       </c>
     </row>
     <row r="11">
@@ -3375,13 +3375,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.227063</v>
+        <v>0.226291</v>
       </c>
       <c r="C11" t="n">
-        <v>0.244931</v>
+        <v>0.244566</v>
       </c>
       <c r="D11" t="n">
-        <v>0.245573</v>
+        <v>0.241275</v>
       </c>
     </row>
     <row r="12">
@@ -3389,13 +3389,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.220104</v>
+        <v>0.225666</v>
       </c>
       <c r="C12" t="n">
-        <v>0.237973</v>
+        <v>0.239455</v>
       </c>
       <c r="D12" t="n">
-        <v>0.241226</v>
+        <v>0.238913</v>
       </c>
     </row>
     <row r="13">
@@ -3403,13 +3403,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.213329</v>
+        <v>0.220963</v>
       </c>
       <c r="C13" t="n">
-        <v>0.240511</v>
+        <v>0.241974</v>
       </c>
       <c r="D13" t="n">
-        <v>0.245333</v>
+        <v>0.236795</v>
       </c>
     </row>
     <row r="14">
@@ -3417,13 +3417,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.216559</v>
+        <v>0.215566</v>
       </c>
       <c r="C14" t="n">
-        <v>0.239469</v>
+        <v>0.233931</v>
       </c>
       <c r="D14" t="n">
-        <v>0.245671</v>
+        <v>0.239568</v>
       </c>
     </row>
     <row r="15">
@@ -3431,13 +3431,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.211491</v>
+        <v>0.213919</v>
       </c>
       <c r="C15" t="n">
-        <v>0.242525</v>
+        <v>0.234562</v>
       </c>
       <c r="D15" t="n">
-        <v>0.242078</v>
+        <v>0.2388</v>
       </c>
     </row>
     <row r="16">
@@ -3445,13 +3445,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.206639</v>
+        <v>0.208113</v>
       </c>
       <c r="C16" t="n">
-        <v>0.234214</v>
+        <v>0.234844</v>
       </c>
       <c r="D16" t="n">
-        <v>0.237676</v>
+        <v>0.232287</v>
       </c>
     </row>
     <row r="17">
@@ -3459,13 +3459,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.206188</v>
+        <v>0.203337</v>
       </c>
       <c r="C17" t="n">
-        <v>0.236072</v>
+        <v>0.236397</v>
       </c>
       <c r="D17" t="n">
-        <v>0.244769</v>
+        <v>0.234968</v>
       </c>
     </row>
     <row r="18">
@@ -3473,13 +3473,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.202276</v>
+        <v>0.199133</v>
       </c>
       <c r="C18" t="n">
-        <v>0.233826</v>
+        <v>0.236816</v>
       </c>
       <c r="D18" t="n">
-        <v>0.239857</v>
+        <v>0.23722</v>
       </c>
     </row>
     <row r="19">
@@ -3487,13 +3487,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.19823</v>
+        <v>0.197091</v>
       </c>
       <c r="C19" t="n">
-        <v>0.233367</v>
+        <v>0.227609</v>
       </c>
       <c r="D19" t="n">
-        <v>0.240327</v>
+        <v>0.236361</v>
       </c>
     </row>
     <row r="20">
@@ -3501,13 +3501,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.195209</v>
+        <v>0.193843</v>
       </c>
       <c r="C20" t="n">
-        <v>0.236219</v>
+        <v>0.232323</v>
       </c>
       <c r="D20" t="n">
-        <v>0.243837</v>
+        <v>0.232368</v>
       </c>
     </row>
     <row r="21">
@@ -3515,13 +3515,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.192853</v>
+        <v>0.188348</v>
       </c>
       <c r="C21" t="n">
-        <v>0.230742</v>
+        <v>0.232678</v>
       </c>
       <c r="D21" t="n">
-        <v>0.237054</v>
+        <v>0.236071</v>
       </c>
     </row>
     <row r="22">
@@ -3529,13 +3529,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.194152</v>
+        <v>0.186454</v>
       </c>
       <c r="C22" t="n">
-        <v>0.229103</v>
+        <v>0.237699</v>
       </c>
       <c r="D22" t="n">
-        <v>0.243587</v>
+        <v>0.233464</v>
       </c>
     </row>
     <row r="23">
@@ -3543,13 +3543,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.183404</v>
+        <v>0.178684</v>
       </c>
       <c r="C23" t="n">
-        <v>0.233521</v>
+        <v>0.230189</v>
       </c>
       <c r="D23" t="n">
-        <v>0.256006</v>
+        <v>0.247668</v>
       </c>
     </row>
     <row r="24">
@@ -3557,13 +3557,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.239655</v>
+        <v>0.237839</v>
       </c>
       <c r="C24" t="n">
-        <v>0.248478</v>
+        <v>0.244668</v>
       </c>
       <c r="D24" t="n">
-        <v>0.251439</v>
+        <v>0.244395</v>
       </c>
     </row>
     <row r="25">
@@ -3571,13 +3571,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.232331</v>
+        <v>0.230496</v>
       </c>
       <c r="C25" t="n">
-        <v>0.244944</v>
+        <v>0.246046</v>
       </c>
       <c r="D25" t="n">
-        <v>0.249103</v>
+        <v>0.245308</v>
       </c>
     </row>
     <row r="26">
@@ -3585,13 +3585,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.228408</v>
+        <v>0.22932</v>
       </c>
       <c r="C26" t="n">
-        <v>0.244902</v>
+        <v>0.243803</v>
       </c>
       <c r="D26" t="n">
-        <v>0.250247</v>
+        <v>0.240576</v>
       </c>
     </row>
     <row r="27">
@@ -3599,13 +3599,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.225759</v>
+        <v>0.225625</v>
       </c>
       <c r="C27" t="n">
-        <v>0.242913</v>
+        <v>0.242513</v>
       </c>
       <c r="D27" t="n">
-        <v>0.244868</v>
+        <v>0.243729</v>
       </c>
     </row>
     <row r="28">
@@ -3613,13 +3613,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.221518</v>
+        <v>0.218705</v>
       </c>
       <c r="C28" t="n">
-        <v>0.240432</v>
+        <v>0.23764</v>
       </c>
       <c r="D28" t="n">
-        <v>0.246989</v>
+        <v>0.239863</v>
       </c>
     </row>
     <row r="29">
@@ -3627,13 +3627,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.216205</v>
+        <v>0.21561</v>
       </c>
       <c r="C29" t="n">
-        <v>0.237546</v>
+        <v>0.23828</v>
       </c>
       <c r="D29" t="n">
-        <v>0.246674</v>
+        <v>0.239895</v>
       </c>
     </row>
     <row r="30">
@@ -3641,13 +3641,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.21645</v>
+        <v>0.213805</v>
       </c>
       <c r="C30" t="n">
-        <v>0.239674</v>
+        <v>0.236826</v>
       </c>
       <c r="D30" t="n">
-        <v>0.25603</v>
+        <v>0.240017</v>
       </c>
     </row>
     <row r="31">
@@ -3655,13 +3655,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.209425</v>
+        <v>0.208516</v>
       </c>
       <c r="C31" t="n">
-        <v>0.235784</v>
+        <v>0.237918</v>
       </c>
       <c r="D31" t="n">
-        <v>0.240962</v>
+        <v>0.238556</v>
       </c>
     </row>
     <row r="32">
@@ -3669,13 +3669,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.204691</v>
+        <v>0.203845</v>
       </c>
       <c r="C32" t="n">
-        <v>0.237602</v>
+        <v>0.241091</v>
       </c>
       <c r="D32" t="n">
-        <v>0.24342</v>
+        <v>0.237703</v>
       </c>
     </row>
     <row r="33">
@@ -3683,13 +3683,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.201087</v>
+        <v>0.201911</v>
       </c>
       <c r="C33" t="n">
-        <v>0.233421</v>
+        <v>0.233317</v>
       </c>
       <c r="D33" t="n">
-        <v>0.244088</v>
+        <v>0.236936</v>
       </c>
     </row>
     <row r="34">
@@ -3697,13 +3697,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.19918</v>
+        <v>0.198397</v>
       </c>
       <c r="C34" t="n">
-        <v>0.233209</v>
+        <v>0.231547</v>
       </c>
       <c r="D34" t="n">
-        <v>0.241859</v>
+        <v>0.235448</v>
       </c>
     </row>
     <row r="35">
@@ -3711,13 +3711,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.196088</v>
+        <v>0.194939</v>
       </c>
       <c r="C35" t="n">
-        <v>0.230221</v>
+        <v>0.234</v>
       </c>
       <c r="D35" t="n">
-        <v>0.235711</v>
+        <v>0.24099</v>
       </c>
     </row>
     <row r="36">
@@ -3725,13 +3725,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.191776</v>
+        <v>0.188316</v>
       </c>
       <c r="C36" t="n">
-        <v>0.233789</v>
+        <v>0.233274</v>
       </c>
       <c r="D36" t="n">
-        <v>0.243259</v>
+        <v>0.236389</v>
       </c>
     </row>
     <row r="37">
@@ -3739,13 +3739,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.185453</v>
+        <v>0.182151</v>
       </c>
       <c r="C37" t="n">
-        <v>0.232619</v>
+        <v>0.233672</v>
       </c>
       <c r="D37" t="n">
-        <v>0.272845</v>
+        <v>0.25881</v>
       </c>
     </row>
     <row r="38">
@@ -3753,13 +3753,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.240708</v>
+        <v>0.237154</v>
       </c>
       <c r="C38" t="n">
-        <v>0.258086</v>
+        <v>0.257667</v>
       </c>
       <c r="D38" t="n">
-        <v>0.264068</v>
+        <v>0.262527</v>
       </c>
     </row>
     <row r="39">
@@ -3767,13 +3767,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.237562</v>
+        <v>0.236773</v>
       </c>
       <c r="C39" t="n">
-        <v>0.255809</v>
+        <v>0.255858</v>
       </c>
       <c r="D39" t="n">
-        <v>0.265447</v>
+        <v>0.25924</v>
       </c>
     </row>
     <row r="40">
@@ -3781,13 +3781,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.233045</v>
+        <v>0.231913</v>
       </c>
       <c r="C40" t="n">
-        <v>0.256019</v>
+        <v>0.25713</v>
       </c>
       <c r="D40" t="n">
-        <v>0.263724</v>
+        <v>0.256796</v>
       </c>
     </row>
     <row r="41">
@@ -3795,13 +3795,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.233473</v>
+        <v>0.226201</v>
       </c>
       <c r="C41" t="n">
-        <v>0.254282</v>
+        <v>0.254562</v>
       </c>
       <c r="D41" t="n">
-        <v>0.259998</v>
+        <v>0.252322</v>
       </c>
     </row>
     <row r="42">
@@ -3809,13 +3809,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.227283</v>
+        <v>0.223292</v>
       </c>
       <c r="C42" t="n">
-        <v>0.25407</v>
+        <v>0.248812</v>
       </c>
       <c r="D42" t="n">
-        <v>0.258472</v>
+        <v>0.2503</v>
       </c>
     </row>
     <row r="43">
@@ -3823,13 +3823,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.221753</v>
+        <v>0.216913</v>
       </c>
       <c r="C43" t="n">
-        <v>0.253174</v>
+        <v>0.250765</v>
       </c>
       <c r="D43" t="n">
-        <v>0.259898</v>
+        <v>0.249009</v>
       </c>
     </row>
     <row r="44">
@@ -3837,13 +3837,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.218132</v>
+        <v>0.218444</v>
       </c>
       <c r="C44" t="n">
-        <v>0.247866</v>
+        <v>0.247056</v>
       </c>
       <c r="D44" t="n">
-        <v>0.251359</v>
+        <v>0.247272</v>
       </c>
     </row>
     <row r="45">
@@ -3851,13 +3851,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.214686</v>
+        <v>0.214557</v>
       </c>
       <c r="C45" t="n">
-        <v>0.245815</v>
+        <v>0.245212</v>
       </c>
       <c r="D45" t="n">
-        <v>0.252811</v>
+        <v>0.249414</v>
       </c>
     </row>
     <row r="46">
@@ -3865,13 +3865,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.21001</v>
+        <v>0.211393</v>
       </c>
       <c r="C46" t="n">
-        <v>0.244794</v>
+        <v>0.245377</v>
       </c>
       <c r="D46" t="n">
-        <v>0.251988</v>
+        <v>0.249218</v>
       </c>
     </row>
     <row r="47">
@@ -3879,13 +3879,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.207673</v>
+        <v>0.203775</v>
       </c>
       <c r="C47" t="n">
-        <v>0.242709</v>
+        <v>0.244248</v>
       </c>
       <c r="D47" t="n">
-        <v>0.251829</v>
+        <v>0.242869</v>
       </c>
     </row>
     <row r="48">
@@ -3893,13 +3893,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.203133</v>
+        <v>0.201513</v>
       </c>
       <c r="C48" t="n">
-        <v>0.243584</v>
+        <v>0.239901</v>
       </c>
       <c r="D48" t="n">
-        <v>0.248174</v>
+        <v>0.241814</v>
       </c>
     </row>
     <row r="49">
@@ -3907,13 +3907,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.198651</v>
+        <v>0.195596</v>
       </c>
       <c r="C49" t="n">
-        <v>0.242582</v>
+        <v>0.240902</v>
       </c>
       <c r="D49" t="n">
-        <v>0.246569</v>
+        <v>0.239867</v>
       </c>
     </row>
     <row r="50">
@@ -3921,13 +3921,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.196537</v>
+        <v>0.191413</v>
       </c>
       <c r="C50" t="n">
-        <v>0.238903</v>
+        <v>0.241927</v>
       </c>
       <c r="D50" t="n">
-        <v>0.24629</v>
+        <v>0.240451</v>
       </c>
     </row>
     <row r="51">
@@ -3935,13 +3935,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.194733</v>
+        <v>0.186761</v>
       </c>
       <c r="C51" t="n">
-        <v>0.239101</v>
+        <v>0.237163</v>
       </c>
       <c r="D51" t="n">
-        <v>0.2689</v>
+        <v>0.265028</v>
       </c>
     </row>
     <row r="52">
@@ -3949,13 +3949,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.180015</v>
+        <v>0.177172</v>
       </c>
       <c r="C52" t="n">
-        <v>0.236372</v>
+        <v>0.238813</v>
       </c>
       <c r="D52" t="n">
-        <v>0.26892</v>
+        <v>0.261547</v>
       </c>
     </row>
     <row r="53">
@@ -3963,13 +3963,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.244688</v>
+        <v>0.244883</v>
       </c>
       <c r="C53" t="n">
-        <v>0.258615</v>
+        <v>0.258961</v>
       </c>
       <c r="D53" t="n">
-        <v>0.265192</v>
+        <v>0.258876</v>
       </c>
     </row>
     <row r="54">
@@ -3977,13 +3977,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.240892</v>
+        <v>0.23858</v>
       </c>
       <c r="C54" t="n">
-        <v>0.258348</v>
+        <v>0.255785</v>
       </c>
       <c r="D54" t="n">
-        <v>0.265432</v>
+        <v>0.258809</v>
       </c>
     </row>
     <row r="55">
@@ -3991,13 +3991,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.237228</v>
+        <v>0.234139</v>
       </c>
       <c r="C55" t="n">
-        <v>0.254261</v>
+        <v>0.2512</v>
       </c>
       <c r="D55" t="n">
-        <v>0.262005</v>
+        <v>0.254855</v>
       </c>
     </row>
     <row r="56">
@@ -4005,13 +4005,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.231113</v>
+        <v>0.230426</v>
       </c>
       <c r="C56" t="n">
-        <v>0.251537</v>
+        <v>0.247784</v>
       </c>
       <c r="D56" t="n">
-        <v>0.258765</v>
+        <v>0.253627</v>
       </c>
     </row>
     <row r="57">
@@ -4019,13 +4019,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.226625</v>
+        <v>0.22652</v>
       </c>
       <c r="C57" t="n">
-        <v>0.25051</v>
+        <v>0.250832</v>
       </c>
       <c r="D57" t="n">
-        <v>0.259255</v>
+        <v>0.251791</v>
       </c>
     </row>
     <row r="58">
@@ -4033,13 +4033,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.224592</v>
+        <v>0.223132</v>
       </c>
       <c r="C58" t="n">
-        <v>0.248969</v>
+        <v>0.247784</v>
       </c>
       <c r="D58" t="n">
-        <v>0.254968</v>
+        <v>0.249417</v>
       </c>
     </row>
     <row r="59">
@@ -4047,13 +4047,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.219241</v>
+        <v>0.217945</v>
       </c>
       <c r="C59" t="n">
-        <v>0.249492</v>
+        <v>0.244942</v>
       </c>
       <c r="D59" t="n">
-        <v>0.25398</v>
+        <v>0.247592</v>
       </c>
     </row>
     <row r="60">
@@ -4061,13 +4061,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.214903</v>
+        <v>0.212768</v>
       </c>
       <c r="C60" t="n">
-        <v>0.245311</v>
+        <v>0.245209</v>
       </c>
       <c r="D60" t="n">
-        <v>0.250411</v>
+        <v>0.244887</v>
       </c>
     </row>
     <row r="61">
@@ -4075,13 +4075,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.213729</v>
+        <v>0.20791</v>
       </c>
       <c r="C61" t="n">
-        <v>0.245404</v>
+        <v>0.24243</v>
       </c>
       <c r="D61" t="n">
-        <v>0.252281</v>
+        <v>0.242493</v>
       </c>
     </row>
     <row r="62">
@@ -4089,13 +4089,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.207207</v>
+        <v>0.203627</v>
       </c>
       <c r="C62" t="n">
-        <v>0.242345</v>
+        <v>0.239447</v>
       </c>
       <c r="D62" t="n">
-        <v>0.250885</v>
+        <v>0.240244</v>
       </c>
     </row>
     <row r="63">
@@ -4103,13 +4103,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.204673</v>
+        <v>0.204169</v>
       </c>
       <c r="C63" t="n">
-        <v>0.241686</v>
+        <v>0.240916</v>
       </c>
       <c r="D63" t="n">
-        <v>0.249225</v>
+        <v>0.244659</v>
       </c>
     </row>
     <row r="64">
@@ -4117,13 +4117,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.20063</v>
+        <v>0.197528</v>
       </c>
       <c r="C64" t="n">
-        <v>0.242115</v>
+        <v>0.239079</v>
       </c>
       <c r="D64" t="n">
-        <v>0.247464</v>
+        <v>0.240885</v>
       </c>
     </row>
     <row r="65">
@@ -4131,13 +4131,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.198355</v>
+        <v>0.189264</v>
       </c>
       <c r="C65" t="n">
-        <v>0.23887</v>
+        <v>0.238905</v>
       </c>
       <c r="D65" t="n">
-        <v>0.246554</v>
+        <v>0.241004</v>
       </c>
     </row>
     <row r="66">
@@ -4145,13 +4145,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.188934</v>
+        <v>0.184333</v>
       </c>
       <c r="C66" t="n">
-        <v>0.236577</v>
+        <v>0.238444</v>
       </c>
       <c r="D66" t="n">
-        <v>0.271468</v>
+        <v>0.263364</v>
       </c>
     </row>
     <row r="67">
@@ -4159,13 +4159,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.252377</v>
+        <v>0.255408</v>
       </c>
       <c r="C67" t="n">
-        <v>0.270491</v>
+        <v>0.266537</v>
       </c>
       <c r="D67" t="n">
-        <v>0.272212</v>
+        <v>0.26435</v>
       </c>
     </row>
     <row r="68">
@@ -4173,13 +4173,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.249102</v>
+        <v>0.246653</v>
       </c>
       <c r="C68" t="n">
-        <v>0.259081</v>
+        <v>0.262243</v>
       </c>
       <c r="D68" t="n">
-        <v>0.26653</v>
+        <v>0.262032</v>
       </c>
     </row>
     <row r="69">
@@ -4187,13 +4187,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.248436</v>
+        <v>0.245954</v>
       </c>
       <c r="C69" t="n">
-        <v>0.259767</v>
+        <v>0.258749</v>
       </c>
       <c r="D69" t="n">
-        <v>0.265259</v>
+        <v>0.258908</v>
       </c>
     </row>
     <row r="70">
@@ -4201,13 +4201,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.240137</v>
+        <v>0.240875</v>
       </c>
       <c r="C70" t="n">
-        <v>0.259995</v>
+        <v>0.260073</v>
       </c>
       <c r="D70" t="n">
-        <v>0.263374</v>
+        <v>0.257199</v>
       </c>
     </row>
     <row r="71">
@@ -4215,13 +4215,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.233471</v>
+        <v>0.238809</v>
       </c>
       <c r="C71" t="n">
-        <v>0.256499</v>
+        <v>0.256196</v>
       </c>
       <c r="D71" t="n">
-        <v>0.260579</v>
+        <v>0.253001</v>
       </c>
     </row>
     <row r="72">
@@ -4229,13 +4229,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.231674</v>
+        <v>0.232615</v>
       </c>
       <c r="C72" t="n">
-        <v>0.254581</v>
+        <v>0.252708</v>
       </c>
       <c r="D72" t="n">
-        <v>0.259849</v>
+        <v>0.252793</v>
       </c>
     </row>
     <row r="73">
@@ -4243,13 +4243,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.226236</v>
+        <v>0.224446</v>
       </c>
       <c r="C73" t="n">
-        <v>0.249501</v>
+        <v>0.253723</v>
       </c>
       <c r="D73" t="n">
-        <v>0.260358</v>
+        <v>0.252586</v>
       </c>
     </row>
     <row r="74">
@@ -4257,13 +4257,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.220413</v>
+        <v>0.221477</v>
       </c>
       <c r="C74" t="n">
-        <v>0.255803</v>
+        <v>0.247608</v>
       </c>
       <c r="D74" t="n">
-        <v>0.25357</v>
+        <v>0.250651</v>
       </c>
     </row>
     <row r="75">
@@ -4271,13 +4271,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.219075</v>
+        <v>0.216391</v>
       </c>
       <c r="C75" t="n">
-        <v>0.252851</v>
+        <v>0.247222</v>
       </c>
       <c r="D75" t="n">
-        <v>0.25249</v>
+        <v>0.248699</v>
       </c>
     </row>
     <row r="76">
@@ -4285,13 +4285,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.21562</v>
+        <v>0.207685</v>
       </c>
       <c r="C76" t="n">
-        <v>0.244542</v>
+        <v>0.247636</v>
       </c>
       <c r="D76" t="n">
-        <v>0.255346</v>
+        <v>0.249185</v>
       </c>
     </row>
     <row r="77">
@@ -4299,13 +4299,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.213777</v>
+        <v>0.209012</v>
       </c>
       <c r="C77" t="n">
-        <v>0.246661</v>
+        <v>0.245905</v>
       </c>
       <c r="D77" t="n">
-        <v>0.255084</v>
+        <v>0.248128</v>
       </c>
     </row>
     <row r="78">
@@ -4313,13 +4313,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.209454</v>
+        <v>0.205402</v>
       </c>
       <c r="C78" t="n">
-        <v>0.245733</v>
+        <v>0.24255</v>
       </c>
       <c r="D78" t="n">
-        <v>0.249711</v>
+        <v>0.248594</v>
       </c>
     </row>
     <row r="79">
@@ -4327,13 +4327,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.203904</v>
+        <v>0.198323</v>
       </c>
       <c r="C79" t="n">
-        <v>0.243831</v>
+        <v>0.241338</v>
       </c>
       <c r="D79" t="n">
-        <v>0.245897</v>
+        <v>0.24151</v>
       </c>
     </row>
     <row r="80">
@@ -4341,13 +4341,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.19617</v>
+        <v>0.191497</v>
       </c>
       <c r="C80" t="n">
-        <v>0.243067</v>
+        <v>0.246359</v>
       </c>
       <c r="D80" t="n">
-        <v>0.282596</v>
+        <v>0.274347</v>
       </c>
     </row>
     <row r="81">
@@ -4355,13 +4355,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.259964</v>
+        <v>0.260734</v>
       </c>
       <c r="C81" t="n">
-        <v>0.275018</v>
+        <v>0.271256</v>
       </c>
       <c r="D81" t="n">
-        <v>0.27673</v>
+        <v>0.269608</v>
       </c>
     </row>
     <row r="82">
@@ -4369,13 +4369,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.253517</v>
+        <v>0.256147</v>
       </c>
       <c r="C82" t="n">
-        <v>0.267614</v>
+        <v>0.266623</v>
       </c>
       <c r="D82" t="n">
-        <v>0.272299</v>
+        <v>0.268097</v>
       </c>
     </row>
     <row r="83">
@@ -4383,13 +4383,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.253255</v>
+        <v>0.252866</v>
       </c>
       <c r="C83" t="n">
-        <v>0.263752</v>
+        <v>0.267298</v>
       </c>
       <c r="D83" t="n">
-        <v>0.271762</v>
+        <v>0.265781</v>
       </c>
     </row>
     <row r="84">
@@ -4397,13 +4397,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.248747</v>
+        <v>0.244446</v>
       </c>
       <c r="C84" t="n">
-        <v>0.266298</v>
+        <v>0.262391</v>
       </c>
       <c r="D84" t="n">
-        <v>0.271586</v>
+        <v>0.261358</v>
       </c>
     </row>
     <row r="85">
@@ -4411,13 +4411,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.242233</v>
+        <v>0.237701</v>
       </c>
       <c r="C85" t="n">
-        <v>0.261216</v>
+        <v>0.258663</v>
       </c>
       <c r="D85" t="n">
-        <v>0.265572</v>
+        <v>0.263081</v>
       </c>
     </row>
     <row r="86">
@@ -4425,13 +4425,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.236923</v>
+        <v>0.235705</v>
       </c>
       <c r="C86" t="n">
-        <v>0.260553</v>
+        <v>0.256875</v>
       </c>
       <c r="D86" t="n">
-        <v>0.267419</v>
+        <v>0.256645</v>
       </c>
     </row>
     <row r="87">
@@ -4439,13 +4439,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.230437</v>
+        <v>0.231273</v>
       </c>
       <c r="C87" t="n">
-        <v>0.258614</v>
+        <v>0.256017</v>
       </c>
       <c r="D87" t="n">
-        <v>0.262091</v>
+        <v>0.253394</v>
       </c>
     </row>
     <row r="88">
@@ -4453,13 +4453,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.224055</v>
+        <v>0.225671</v>
       </c>
       <c r="C88" t="n">
-        <v>0.255422</v>
+        <v>0.251513</v>
       </c>
       <c r="D88" t="n">
-        <v>0.25892</v>
+        <v>0.251611</v>
       </c>
     </row>
     <row r="89">
@@ -4467,13 +4467,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.222079</v>
+        <v>0.220162</v>
       </c>
       <c r="C89" t="n">
-        <v>0.251574</v>
+        <v>0.253712</v>
       </c>
       <c r="D89" t="n">
-        <v>0.257048</v>
+        <v>0.254337</v>
       </c>
     </row>
     <row r="90">
@@ -4481,13 +4481,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.219085</v>
+        <v>0.21387</v>
       </c>
       <c r="C90" t="n">
-        <v>0.256602</v>
+        <v>0.250158</v>
       </c>
       <c r="D90" t="n">
-        <v>0.255767</v>
+        <v>0.250483</v>
       </c>
     </row>
     <row r="91">
@@ -4495,13 +4495,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.214239</v>
+        <v>0.211903</v>
       </c>
       <c r="C91" t="n">
-        <v>0.252077</v>
+        <v>0.248666</v>
       </c>
       <c r="D91" t="n">
-        <v>0.257013</v>
+        <v>0.253906</v>
       </c>
     </row>
     <row r="92">
@@ -4509,13 +4509,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.210961</v>
+        <v>0.209341</v>
       </c>
       <c r="C92" t="n">
-        <v>0.249367</v>
+        <v>0.249955</v>
       </c>
       <c r="D92" t="n">
-        <v>0.252387</v>
+        <v>0.249631</v>
       </c>
     </row>
     <row r="93">
@@ -4523,13 +4523,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.205291</v>
+        <v>0.201354</v>
       </c>
       <c r="C93" t="n">
-        <v>0.244398</v>
+        <v>0.243987</v>
       </c>
       <c r="D93" t="n">
-        <v>0.251794</v>
+        <v>0.244722</v>
       </c>
     </row>
     <row r="94">
@@ -4537,13 +4537,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.196886</v>
+        <v>0.193314</v>
       </c>
       <c r="C94" t="n">
-        <v>0.242579</v>
+        <v>0.244418</v>
       </c>
       <c r="D94" t="n">
-        <v>0.282097</v>
+        <v>0.274943</v>
       </c>
     </row>
     <row r="95">
@@ -4551,13 +4551,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.263326</v>
+        <v>0.260996</v>
       </c>
       <c r="C95" t="n">
-        <v>0.273727</v>
+        <v>0.271188</v>
       </c>
       <c r="D95" t="n">
-        <v>0.274994</v>
+        <v>0.275517</v>
       </c>
     </row>
     <row r="96">
@@ -4565,13 +4565,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.259854</v>
+        <v>0.25809</v>
       </c>
       <c r="C96" t="n">
-        <v>0.268584</v>
+        <v>0.270214</v>
       </c>
       <c r="D96" t="n">
-        <v>0.278602</v>
+        <v>0.267621</v>
       </c>
     </row>
     <row r="97">
@@ -4579,13 +4579,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.254614</v>
+        <v>0.253593</v>
       </c>
       <c r="C97" t="n">
-        <v>0.267229</v>
+        <v>0.265292</v>
       </c>
       <c r="D97" t="n">
-        <v>0.273368</v>
+        <v>0.265869</v>
       </c>
     </row>
     <row r="98">
@@ -4593,13 +4593,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.246747</v>
+        <v>0.246991</v>
       </c>
       <c r="C98" t="n">
-        <v>0.266267</v>
+        <v>0.26789</v>
       </c>
       <c r="D98" t="n">
-        <v>0.273262</v>
+        <v>0.265654</v>
       </c>
     </row>
     <row r="99">
@@ -4607,13 +4607,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.240587</v>
+        <v>0.239781</v>
       </c>
       <c r="C99" t="n">
-        <v>0.262297</v>
+        <v>0.262522</v>
       </c>
       <c r="D99" t="n">
-        <v>0.269791</v>
+        <v>0.25949</v>
       </c>
     </row>
     <row r="100">
@@ -4621,13 +4621,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.239824</v>
+        <v>0.238424</v>
       </c>
       <c r="C100" t="n">
-        <v>0.258812</v>
+        <v>0.26003</v>
       </c>
       <c r="D100" t="n">
-        <v>0.263096</v>
+        <v>0.26071</v>
       </c>
     </row>
     <row r="101">
@@ -4635,13 +4635,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.231814</v>
+        <v>0.231587</v>
       </c>
       <c r="C101" t="n">
-        <v>0.25791</v>
+        <v>0.257104</v>
       </c>
       <c r="D101" t="n">
-        <v>0.26202</v>
+        <v>0.264843</v>
       </c>
     </row>
     <row r="102">
@@ -4649,13 +4649,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.225196</v>
+        <v>0.226564</v>
       </c>
       <c r="C102" t="n">
-        <v>0.260863</v>
+        <v>0.253566</v>
       </c>
       <c r="D102" t="n">
-        <v>0.260807</v>
+        <v>0.257513</v>
       </c>
     </row>
     <row r="103">
@@ -4663,13 +4663,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.222346</v>
+        <v>0.220478</v>
       </c>
       <c r="C103" t="n">
-        <v>0.254917</v>
+        <v>0.253014</v>
       </c>
       <c r="D103" t="n">
-        <v>0.2623</v>
+        <v>0.250814</v>
       </c>
     </row>
     <row r="104">
@@ -4677,13 +4677,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.218925</v>
+        <v>0.216426</v>
       </c>
       <c r="C104" t="n">
-        <v>0.255436</v>
+        <v>0.251419</v>
       </c>
       <c r="D104" t="n">
-        <v>0.256724</v>
+        <v>0.252867</v>
       </c>
     </row>
     <row r="105">
@@ -4691,13 +4691,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.215585</v>
+        <v>0.21358</v>
       </c>
       <c r="C105" t="n">
-        <v>0.25282</v>
+        <v>0.249774</v>
       </c>
       <c r="D105" t="n">
-        <v>0.259065</v>
+        <v>0.251065</v>
       </c>
     </row>
     <row r="106">
@@ -4705,13 +4705,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.209985</v>
+        <v>0.209107</v>
       </c>
       <c r="C106" t="n">
-        <v>0.248054</v>
+        <v>0.250316</v>
       </c>
       <c r="D106" t="n">
-        <v>0.25478</v>
+        <v>0.248849</v>
       </c>
     </row>
     <row r="107">
@@ -4719,13 +4719,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.20689</v>
+        <v>0.203277</v>
       </c>
       <c r="C107" t="n">
-        <v>0.246159</v>
+        <v>0.247692</v>
       </c>
       <c r="D107" t="n">
-        <v>0.252294</v>
+        <v>0.252143</v>
       </c>
     </row>
     <row r="108">
@@ -4733,13 +4733,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.203461</v>
+        <v>0.19753</v>
       </c>
       <c r="C108" t="n">
-        <v>0.242276</v>
+        <v>0.245808</v>
       </c>
       <c r="D108" t="n">
-        <v>0.283616</v>
+        <v>0.275999</v>
       </c>
     </row>
     <row r="109">
@@ -4747,13 +4747,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.193058</v>
+        <v>0.189256</v>
       </c>
       <c r="C109" t="n">
-        <v>0.245409</v>
+        <v>0.244555</v>
       </c>
       <c r="D109" t="n">
-        <v>0.28109</v>
+        <v>0.27299</v>
       </c>
     </row>
     <row r="110">
@@ -4761,13 +4761,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.26369</v>
+        <v>0.260778</v>
       </c>
       <c r="C110" t="n">
-        <v>0.271138</v>
+        <v>0.273478</v>
       </c>
       <c r="D110" t="n">
-        <v>0.277024</v>
+        <v>0.268128</v>
       </c>
     </row>
     <row r="111">
@@ -4775,13 +4775,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.252813</v>
+        <v>0.25467</v>
       </c>
       <c r="C111" t="n">
-        <v>0.267576</v>
+        <v>0.266879</v>
       </c>
       <c r="D111" t="n">
-        <v>0.273212</v>
+        <v>0.272205</v>
       </c>
     </row>
     <row r="112">
@@ -4789,13 +4789,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.251855</v>
+        <v>0.25045</v>
       </c>
       <c r="C112" t="n">
-        <v>0.27086</v>
+        <v>0.265729</v>
       </c>
       <c r="D112" t="n">
-        <v>0.269923</v>
+        <v>0.262568</v>
       </c>
     </row>
     <row r="113">
@@ -4803,13 +4803,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.24553</v>
+        <v>0.245872</v>
       </c>
       <c r="C113" t="n">
-        <v>0.265543</v>
+        <v>0.264782</v>
       </c>
       <c r="D113" t="n">
-        <v>0.266856</v>
+        <v>0.267321</v>
       </c>
     </row>
     <row r="114">
@@ -4817,13 +4817,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.238778</v>
+        <v>0.237478</v>
       </c>
       <c r="C114" t="n">
-        <v>0.258691</v>
+        <v>0.260468</v>
       </c>
       <c r="D114" t="n">
-        <v>0.268653</v>
+        <v>0.265691</v>
       </c>
     </row>
     <row r="115">
@@ -4831,13 +4831,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.235801</v>
+        <v>0.231852</v>
       </c>
       <c r="C115" t="n">
-        <v>0.257768</v>
+        <v>0.258827</v>
       </c>
       <c r="D115" t="n">
-        <v>0.264238</v>
+        <v>0.256891</v>
       </c>
     </row>
     <row r="116">
@@ -4845,13 +4845,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.230106</v>
+        <v>0.228272</v>
       </c>
       <c r="C116" t="n">
-        <v>0.257539</v>
+        <v>0.258521</v>
       </c>
       <c r="D116" t="n">
-        <v>0.266751</v>
+        <v>0.253856</v>
       </c>
     </row>
     <row r="117">
@@ -4859,13 +4859,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.227428</v>
+        <v>0.224586</v>
       </c>
       <c r="C117" t="n">
-        <v>0.255377</v>
+        <v>0.250527</v>
       </c>
       <c r="D117" t="n">
-        <v>0.259343</v>
+        <v>0.2529</v>
       </c>
     </row>
     <row r="118">
@@ -4873,13 +4873,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.217519</v>
+        <v>0.216925</v>
       </c>
       <c r="C118" t="n">
-        <v>0.249417</v>
+        <v>0.25266</v>
       </c>
       <c r="D118" t="n">
-        <v>0.258201</v>
+        <v>0.254033</v>
       </c>
     </row>
     <row r="119">
@@ -4887,13 +4887,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.217062</v>
+        <v>0.213409</v>
       </c>
       <c r="C119" t="n">
-        <v>0.24819</v>
+        <v>0.254366</v>
       </c>
       <c r="D119" t="n">
-        <v>0.256992</v>
+        <v>0.249603</v>
       </c>
     </row>
     <row r="120">
@@ -4901,13 +4901,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.215059</v>
+        <v>0.211132</v>
       </c>
       <c r="C120" t="n">
-        <v>0.247623</v>
+        <v>0.248449</v>
       </c>
       <c r="D120" t="n">
-        <v>0.255061</v>
+        <v>0.248629</v>
       </c>
     </row>
     <row r="121">
@@ -4915,13 +4915,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.207996</v>
+        <v>0.204006</v>
       </c>
       <c r="C121" t="n">
-        <v>0.249141</v>
+        <v>0.246455</v>
       </c>
       <c r="D121" t="n">
-        <v>0.251106</v>
+        <v>0.247346</v>
       </c>
     </row>
     <row r="122">
@@ -4929,13 +4929,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.205862</v>
+        <v>0.198257</v>
       </c>
       <c r="C122" t="n">
-        <v>0.245581</v>
+        <v>0.249465</v>
       </c>
       <c r="D122" t="n">
-        <v>0.249959</v>
+        <v>0.245531</v>
       </c>
     </row>
     <row r="123">
@@ -4943,13 +4943,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.193517</v>
+        <v>0.189697</v>
       </c>
       <c r="C123" t="n">
-        <v>0.244331</v>
+        <v>0.244115</v>
       </c>
       <c r="D123" t="n">
-        <v>0.281579</v>
+        <v>0.27579</v>
       </c>
     </row>
     <row r="124">
@@ -4957,13 +4957,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.257171</v>
+        <v>0.257847</v>
       </c>
       <c r="C124" t="n">
-        <v>0.267674</v>
+        <v>0.271172</v>
       </c>
       <c r="D124" t="n">
-        <v>0.278515</v>
+        <v>0.271088</v>
       </c>
     </row>
     <row r="125">
@@ -4971,13 +4971,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.256353</v>
+        <v>0.256587</v>
       </c>
       <c r="C125" t="n">
-        <v>0.273853</v>
+        <v>0.27039</v>
       </c>
       <c r="D125" t="n">
-        <v>0.275851</v>
+        <v>0.268685</v>
       </c>
     </row>
     <row r="126">
@@ -4985,13 +4985,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.250769</v>
+        <v>0.249566</v>
       </c>
       <c r="C126" t="n">
-        <v>0.265196</v>
+        <v>0.263231</v>
       </c>
       <c r="D126" t="n">
-        <v>0.272872</v>
+        <v>0.266826</v>
       </c>
     </row>
     <row r="127">
@@ -4999,13 +4999,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.241839</v>
+        <v>0.244484</v>
       </c>
       <c r="C127" t="n">
-        <v>0.266054</v>
+        <v>0.266081</v>
       </c>
       <c r="D127" t="n">
-        <v>0.270192</v>
+        <v>0.263964</v>
       </c>
     </row>
     <row r="128">
@@ -5013,13 +5013,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.245759</v>
+        <v>0.237386</v>
       </c>
       <c r="C128" t="n">
-        <v>0.266974</v>
+        <v>0.263511</v>
       </c>
       <c r="D128" t="n">
-        <v>0.267436</v>
+        <v>0.262507</v>
       </c>
     </row>
     <row r="129">
@@ -5027,13 +5027,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.234863</v>
+        <v>0.23134</v>
       </c>
       <c r="C129" t="n">
-        <v>0.260635</v>
+        <v>0.256474</v>
       </c>
       <c r="D129" t="n">
-        <v>0.274548</v>
+        <v>0.260928</v>
       </c>
     </row>
     <row r="130">
@@ -5041,13 +5041,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.230545</v>
+        <v>0.232111</v>
       </c>
       <c r="C130" t="n">
-        <v>0.256805</v>
+        <v>0.255425</v>
       </c>
       <c r="D130" t="n">
-        <v>0.265224</v>
+        <v>0.258913</v>
       </c>
     </row>
     <row r="131">
@@ -5055,13 +5055,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.227697</v>
+        <v>0.227049</v>
       </c>
       <c r="C131" t="n">
-        <v>0.260394</v>
+        <v>0.253607</v>
       </c>
       <c r="D131" t="n">
-        <v>0.266563</v>
+        <v>0.257653</v>
       </c>
     </row>
     <row r="132">
@@ -5069,13 +5069,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.224956</v>
+        <v>0.220103</v>
       </c>
       <c r="C132" t="n">
-        <v>0.253662</v>
+        <v>0.25065</v>
       </c>
       <c r="D132" t="n">
-        <v>0.258709</v>
+        <v>0.253005</v>
       </c>
     </row>
     <row r="133">
@@ -5083,13 +5083,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.217561</v>
+        <v>0.214352</v>
       </c>
       <c r="C133" t="n">
-        <v>0.253784</v>
+        <v>0.251585</v>
       </c>
       <c r="D133" t="n">
-        <v>0.255092</v>
+        <v>0.25027</v>
       </c>
     </row>
     <row r="134">
@@ -5097,13 +5097,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.214064</v>
+        <v>0.215526</v>
       </c>
       <c r="C134" t="n">
-        <v>0.252952</v>
+        <v>0.249122</v>
       </c>
       <c r="D134" t="n">
-        <v>0.259238</v>
+        <v>0.248085</v>
       </c>
     </row>
     <row r="135">
@@ -5111,13 +5111,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.210436</v>
+        <v>0.206418</v>
       </c>
       <c r="C135" t="n">
-        <v>0.24872</v>
+        <v>0.253235</v>
       </c>
       <c r="D135" t="n">
-        <v>0.253935</v>
+        <v>0.249571</v>
       </c>
     </row>
     <row r="136">
@@ -5125,13 +5125,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.207607</v>
+        <v>0.201503</v>
       </c>
       <c r="C136" t="n">
-        <v>0.247344</v>
+        <v>0.251578</v>
       </c>
       <c r="D136" t="n">
-        <v>0.25699</v>
+        <v>0.249342</v>
       </c>
     </row>
     <row r="137">
@@ -5139,13 +5139,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.197828</v>
+        <v>0.191499</v>
       </c>
       <c r="C137" t="n">
-        <v>0.249458</v>
+        <v>0.246103</v>
       </c>
       <c r="D137" t="n">
-        <v>0.286443</v>
+        <v>0.275971</v>
       </c>
     </row>
     <row r="138">
@@ -5153,13 +5153,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.260139</v>
+        <v>0.257321</v>
       </c>
       <c r="C138" t="n">
-        <v>0.2757</v>
+        <v>0.273108</v>
       </c>
       <c r="D138" t="n">
-        <v>0.276484</v>
+        <v>0.270518</v>
       </c>
     </row>
     <row r="139">
@@ -5167,13 +5167,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.265128</v>
+        <v>0.265124</v>
       </c>
       <c r="C139" t="n">
-        <v>0.271677</v>
+        <v>0.273849</v>
       </c>
       <c r="D139" t="n">
-        <v>0.274733</v>
+        <v>0.265013</v>
       </c>
     </row>
     <row r="140">
@@ -5181,13 +5181,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.251876</v>
+        <v>0.249082</v>
       </c>
       <c r="C140" t="n">
-        <v>0.264703</v>
+        <v>0.266155</v>
       </c>
       <c r="D140" t="n">
-        <v>0.272598</v>
+        <v>0.261891</v>
       </c>
     </row>
     <row r="141">
@@ -5195,13 +5195,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.244796</v>
+        <v>0.249568</v>
       </c>
       <c r="C141" t="n">
-        <v>0.263415</v>
+        <v>0.265328</v>
       </c>
       <c r="D141" t="n">
-        <v>0.269916</v>
+        <v>0.263584</v>
       </c>
     </row>
     <row r="142">
@@ -5209,13 +5209,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.242825</v>
+        <v>0.243043</v>
       </c>
       <c r="C142" t="n">
-        <v>0.262694</v>
+        <v>0.261231</v>
       </c>
       <c r="D142" t="n">
-        <v>0.265825</v>
+        <v>0.262165</v>
       </c>
     </row>
     <row r="143">
@@ -5223,13 +5223,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.232934</v>
+        <v>0.233048</v>
       </c>
       <c r="C143" t="n">
-        <v>0.258088</v>
+        <v>0.259149</v>
       </c>
       <c r="D143" t="n">
-        <v>0.26929</v>
+        <v>0.268069</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Running erasure.xlsx
+++ b/vs-x64/Running erasure.xlsx
@@ -3249,13 +3249,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.201899</v>
+        <v>0.203342</v>
       </c>
       <c r="C2" t="n">
-        <v>0.238839</v>
+        <v>0.236631</v>
       </c>
       <c r="D2" t="n">
-        <v>0.240453</v>
+        <v>0.236858</v>
       </c>
     </row>
     <row r="3">
@@ -3263,13 +3263,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.201818</v>
+        <v>0.201448</v>
       </c>
       <c r="C3" t="n">
-        <v>0.238212</v>
+        <v>0.238461</v>
       </c>
       <c r="D3" t="n">
-        <v>0.236485</v>
+        <v>0.237402</v>
       </c>
     </row>
     <row r="4">
@@ -3277,13 +3277,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.194364</v>
+        <v>0.194349</v>
       </c>
       <c r="C4" t="n">
-        <v>0.236502</v>
+        <v>0.228012</v>
       </c>
       <c r="D4" t="n">
-        <v>0.232172</v>
+        <v>0.233418</v>
       </c>
     </row>
     <row r="5">
@@ -3291,13 +3291,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.190597</v>
+        <v>0.193072</v>
       </c>
       <c r="C5" t="n">
-        <v>0.22926</v>
+        <v>0.237439</v>
       </c>
       <c r="D5" t="n">
-        <v>0.234108</v>
+        <v>0.238343</v>
       </c>
     </row>
     <row r="6">
@@ -3305,13 +3305,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.189664</v>
+        <v>0.196737</v>
       </c>
       <c r="C6" t="n">
-        <v>0.230714</v>
+        <v>0.235264</v>
       </c>
       <c r="D6" t="n">
-        <v>0.230357</v>
+        <v>0.240864</v>
       </c>
     </row>
     <row r="7">
@@ -3319,13 +3319,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.182937</v>
+        <v>0.190126</v>
       </c>
       <c r="C7" t="n">
-        <v>0.226664</v>
+        <v>0.232864</v>
       </c>
       <c r="D7" t="n">
-        <v>0.231342</v>
+        <v>0.242442</v>
       </c>
     </row>
     <row r="8">
@@ -3333,13 +3333,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.180528</v>
+        <v>0.183213</v>
       </c>
       <c r="C8" t="n">
-        <v>0.230072</v>
+        <v>0.23139</v>
       </c>
       <c r="D8" t="n">
-        <v>0.233015</v>
+        <v>0.236834</v>
       </c>
     </row>
     <row r="9">
@@ -3347,13 +3347,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.173785</v>
+        <v>0.175354</v>
       </c>
       <c r="C9" t="n">
-        <v>0.230671</v>
+        <v>0.232402</v>
       </c>
       <c r="D9" t="n">
-        <v>0.242095</v>
+        <v>0.24664</v>
       </c>
     </row>
     <row r="10">
@@ -3361,13 +3361,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.235224</v>
+        <v>0.227711</v>
       </c>
       <c r="C10" t="n">
-        <v>0.245197</v>
+        <v>0.242092</v>
       </c>
       <c r="D10" t="n">
-        <v>0.243606</v>
+        <v>0.247742</v>
       </c>
     </row>
     <row r="11">
@@ -3375,13 +3375,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.226291</v>
+        <v>0.225647</v>
       </c>
       <c r="C11" t="n">
-        <v>0.244566</v>
+        <v>0.244091</v>
       </c>
       <c r="D11" t="n">
-        <v>0.241275</v>
+        <v>0.24236</v>
       </c>
     </row>
     <row r="12">
@@ -3389,13 +3389,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.225666</v>
+        <v>0.221487</v>
       </c>
       <c r="C12" t="n">
-        <v>0.239455</v>
+        <v>0.233468</v>
       </c>
       <c r="D12" t="n">
-        <v>0.238913</v>
+        <v>0.244214</v>
       </c>
     </row>
     <row r="13">
@@ -3403,13 +3403,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.220963</v>
+        <v>0.214412</v>
       </c>
       <c r="C13" t="n">
-        <v>0.241974</v>
+        <v>0.23386</v>
       </c>
       <c r="D13" t="n">
-        <v>0.236795</v>
+        <v>0.243157</v>
       </c>
     </row>
     <row r="14">
@@ -3417,13 +3417,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.215566</v>
+        <v>0.212942</v>
       </c>
       <c r="C14" t="n">
-        <v>0.233931</v>
+        <v>0.236087</v>
       </c>
       <c r="D14" t="n">
-        <v>0.239568</v>
+        <v>0.239164</v>
       </c>
     </row>
     <row r="15">
@@ -3431,13 +3431,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.213919</v>
+        <v>0.210998</v>
       </c>
       <c r="C15" t="n">
-        <v>0.234562</v>
+        <v>0.237917</v>
       </c>
       <c r="D15" t="n">
-        <v>0.2388</v>
+        <v>0.237935</v>
       </c>
     </row>
     <row r="16">
@@ -3445,13 +3445,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.208113</v>
+        <v>0.204337</v>
       </c>
       <c r="C16" t="n">
-        <v>0.234844</v>
+        <v>0.228934</v>
       </c>
       <c r="D16" t="n">
-        <v>0.232287</v>
+        <v>0.237588</v>
       </c>
     </row>
     <row r="17">
@@ -3459,13 +3459,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.203337</v>
+        <v>0.210512</v>
       </c>
       <c r="C17" t="n">
-        <v>0.236397</v>
+        <v>0.238226</v>
       </c>
       <c r="D17" t="n">
-        <v>0.234968</v>
+        <v>0.240262</v>
       </c>
     </row>
     <row r="18">
@@ -3473,13 +3473,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.199133</v>
+        <v>0.199412</v>
       </c>
       <c r="C18" t="n">
-        <v>0.236816</v>
+        <v>0.233425</v>
       </c>
       <c r="D18" t="n">
-        <v>0.23722</v>
+        <v>0.233751</v>
       </c>
     </row>
     <row r="19">
@@ -3487,13 +3487,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.197091</v>
+        <v>0.197574</v>
       </c>
       <c r="C19" t="n">
-        <v>0.227609</v>
+        <v>0.232192</v>
       </c>
       <c r="D19" t="n">
-        <v>0.236361</v>
+        <v>0.235929</v>
       </c>
     </row>
     <row r="20">
@@ -3501,13 +3501,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.193843</v>
+        <v>0.193159</v>
       </c>
       <c r="C20" t="n">
-        <v>0.232323</v>
+        <v>0.229513</v>
       </c>
       <c r="D20" t="n">
-        <v>0.232368</v>
+        <v>0.23755</v>
       </c>
     </row>
     <row r="21">
@@ -3515,13 +3515,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.188348</v>
+        <v>0.191533</v>
       </c>
       <c r="C21" t="n">
-        <v>0.232678</v>
+        <v>0.228422</v>
       </c>
       <c r="D21" t="n">
-        <v>0.236071</v>
+        <v>0.231925</v>
       </c>
     </row>
     <row r="22">
@@ -3529,13 +3529,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.186454</v>
+        <v>0.18721</v>
       </c>
       <c r="C22" t="n">
-        <v>0.237699</v>
+        <v>0.229204</v>
       </c>
       <c r="D22" t="n">
-        <v>0.233464</v>
+        <v>0.236138</v>
       </c>
     </row>
     <row r="23">
@@ -3543,13 +3543,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.178684</v>
+        <v>0.178132</v>
       </c>
       <c r="C23" t="n">
-        <v>0.230189</v>
+        <v>0.230945</v>
       </c>
       <c r="D23" t="n">
-        <v>0.247668</v>
+        <v>0.24664</v>
       </c>
     </row>
     <row r="24">
@@ -3557,13 +3557,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.237839</v>
+        <v>0.239833</v>
       </c>
       <c r="C24" t="n">
-        <v>0.244668</v>
+        <v>0.243653</v>
       </c>
       <c r="D24" t="n">
-        <v>0.244395</v>
+        <v>0.251024</v>
       </c>
     </row>
     <row r="25">
@@ -3571,13 +3571,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.230496</v>
+        <v>0.234369</v>
       </c>
       <c r="C25" t="n">
-        <v>0.246046</v>
+        <v>0.247601</v>
       </c>
       <c r="D25" t="n">
-        <v>0.245308</v>
+        <v>0.250758</v>
       </c>
     </row>
     <row r="26">
@@ -3585,13 +3585,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.22932</v>
+        <v>0.232431</v>
       </c>
       <c r="C26" t="n">
-        <v>0.243803</v>
+        <v>0.238789</v>
       </c>
       <c r="D26" t="n">
-        <v>0.240576</v>
+        <v>0.246534</v>
       </c>
     </row>
     <row r="27">
@@ -3599,13 +3599,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.225625</v>
+        <v>0.22806</v>
       </c>
       <c r="C27" t="n">
-        <v>0.242513</v>
+        <v>0.240871</v>
       </c>
       <c r="D27" t="n">
-        <v>0.243729</v>
+        <v>0.245619</v>
       </c>
     </row>
     <row r="28">
@@ -3613,13 +3613,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.218705</v>
+        <v>0.221927</v>
       </c>
       <c r="C28" t="n">
-        <v>0.23764</v>
+        <v>0.238304</v>
       </c>
       <c r="D28" t="n">
-        <v>0.239863</v>
+        <v>0.243858</v>
       </c>
     </row>
     <row r="29">
@@ -3627,13 +3627,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.21561</v>
+        <v>0.217677</v>
       </c>
       <c r="C29" t="n">
-        <v>0.23828</v>
+        <v>0.237058</v>
       </c>
       <c r="D29" t="n">
-        <v>0.239895</v>
+        <v>0.24152</v>
       </c>
     </row>
     <row r="30">
@@ -3641,13 +3641,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.213805</v>
+        <v>0.215034</v>
       </c>
       <c r="C30" t="n">
-        <v>0.236826</v>
+        <v>0.237855</v>
       </c>
       <c r="D30" t="n">
-        <v>0.240017</v>
+        <v>0.242458</v>
       </c>
     </row>
     <row r="31">
@@ -3655,13 +3655,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.208516</v>
+        <v>0.209686</v>
       </c>
       <c r="C31" t="n">
-        <v>0.237918</v>
+        <v>0.23552</v>
       </c>
       <c r="D31" t="n">
-        <v>0.238556</v>
+        <v>0.241345</v>
       </c>
     </row>
     <row r="32">
@@ -3669,13 +3669,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.203845</v>
+        <v>0.207091</v>
       </c>
       <c r="C32" t="n">
-        <v>0.241091</v>
+        <v>0.236836</v>
       </c>
       <c r="D32" t="n">
-        <v>0.237703</v>
+        <v>0.241623</v>
       </c>
     </row>
     <row r="33">
@@ -3683,13 +3683,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.201911</v>
+        <v>0.207103</v>
       </c>
       <c r="C33" t="n">
-        <v>0.233317</v>
+        <v>0.232666</v>
       </c>
       <c r="D33" t="n">
-        <v>0.236936</v>
+        <v>0.231356</v>
       </c>
     </row>
     <row r="34">
@@ -3697,13 +3697,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.198397</v>
+        <v>0.198032</v>
       </c>
       <c r="C34" t="n">
-        <v>0.231547</v>
+        <v>0.234088</v>
       </c>
       <c r="D34" t="n">
-        <v>0.235448</v>
+        <v>0.240604</v>
       </c>
     </row>
     <row r="35">
@@ -3711,13 +3711,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.194939</v>
+        <v>0.196099</v>
       </c>
       <c r="C35" t="n">
-        <v>0.234</v>
+        <v>0.229381</v>
       </c>
       <c r="D35" t="n">
-        <v>0.24099</v>
+        <v>0.233272</v>
       </c>
     </row>
     <row r="36">
@@ -3725,13 +3725,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.188316</v>
+        <v>0.190179</v>
       </c>
       <c r="C36" t="n">
-        <v>0.233274</v>
+        <v>0.231684</v>
       </c>
       <c r="D36" t="n">
-        <v>0.236389</v>
+        <v>0.239953</v>
       </c>
     </row>
     <row r="37">
@@ -3739,13 +3739,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.182151</v>
+        <v>0.184374</v>
       </c>
       <c r="C37" t="n">
-        <v>0.233672</v>
+        <v>0.232842</v>
       </c>
       <c r="D37" t="n">
-        <v>0.25881</v>
+        <v>0.262145</v>
       </c>
     </row>
     <row r="38">
@@ -3753,13 +3753,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.237154</v>
+        <v>0.241918</v>
       </c>
       <c r="C38" t="n">
-        <v>0.257667</v>
+        <v>0.256898</v>
       </c>
       <c r="D38" t="n">
-        <v>0.262527</v>
+        <v>0.258292</v>
       </c>
     </row>
     <row r="39">
@@ -3767,13 +3767,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.236773</v>
+        <v>0.239701</v>
       </c>
       <c r="C39" t="n">
-        <v>0.255858</v>
+        <v>0.254352</v>
       </c>
       <c r="D39" t="n">
-        <v>0.25924</v>
+        <v>0.25853</v>
       </c>
     </row>
     <row r="40">
@@ -3781,13 +3781,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.231913</v>
+        <v>0.231979</v>
       </c>
       <c r="C40" t="n">
-        <v>0.25713</v>
+        <v>0.253769</v>
       </c>
       <c r="D40" t="n">
-        <v>0.256796</v>
+        <v>0.255982</v>
       </c>
     </row>
     <row r="41">
@@ -3795,13 +3795,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.226201</v>
+        <v>0.22992</v>
       </c>
       <c r="C41" t="n">
-        <v>0.254562</v>
+        <v>0.252128</v>
       </c>
       <c r="D41" t="n">
-        <v>0.252322</v>
+        <v>0.25293</v>
       </c>
     </row>
     <row r="42">
@@ -3809,13 +3809,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.223292</v>
+        <v>0.226275</v>
       </c>
       <c r="C42" t="n">
-        <v>0.248812</v>
+        <v>0.24767</v>
       </c>
       <c r="D42" t="n">
-        <v>0.2503</v>
+        <v>0.250922</v>
       </c>
     </row>
     <row r="43">
@@ -3823,13 +3823,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.216913</v>
+        <v>0.22195</v>
       </c>
       <c r="C43" t="n">
-        <v>0.250765</v>
+        <v>0.247581</v>
       </c>
       <c r="D43" t="n">
-        <v>0.249009</v>
+        <v>0.25068</v>
       </c>
     </row>
     <row r="44">
@@ -3837,13 +3837,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.218444</v>
+        <v>0.218085</v>
       </c>
       <c r="C44" t="n">
-        <v>0.247056</v>
+        <v>0.245499</v>
       </c>
       <c r="D44" t="n">
-        <v>0.247272</v>
+        <v>0.250506</v>
       </c>
     </row>
     <row r="45">
@@ -3851,13 +3851,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.214557</v>
+        <v>0.21483</v>
       </c>
       <c r="C45" t="n">
-        <v>0.245212</v>
+        <v>0.244667</v>
       </c>
       <c r="D45" t="n">
-        <v>0.249414</v>
+        <v>0.24868</v>
       </c>
     </row>
     <row r="46">
@@ -3865,13 +3865,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.211393</v>
+        <v>0.207315</v>
       </c>
       <c r="C46" t="n">
-        <v>0.245377</v>
+        <v>0.241786</v>
       </c>
       <c r="D46" t="n">
-        <v>0.249218</v>
+        <v>0.248836</v>
       </c>
     </row>
     <row r="47">
@@ -3879,13 +3879,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.203775</v>
+        <v>0.203661</v>
       </c>
       <c r="C47" t="n">
-        <v>0.244248</v>
+        <v>0.24122</v>
       </c>
       <c r="D47" t="n">
-        <v>0.242869</v>
+        <v>0.244007</v>
       </c>
     </row>
     <row r="48">
@@ -3893,13 +3893,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.201513</v>
+        <v>0.204124</v>
       </c>
       <c r="C48" t="n">
-        <v>0.239901</v>
+        <v>0.239186</v>
       </c>
       <c r="D48" t="n">
-        <v>0.241814</v>
+        <v>0.246932</v>
       </c>
     </row>
     <row r="49">
@@ -3907,13 +3907,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.195596</v>
+        <v>0.198403</v>
       </c>
       <c r="C49" t="n">
-        <v>0.240902</v>
+        <v>0.239907</v>
       </c>
       <c r="D49" t="n">
-        <v>0.239867</v>
+        <v>0.242465</v>
       </c>
     </row>
     <row r="50">
@@ -3921,13 +3921,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.191413</v>
+        <v>0.190572</v>
       </c>
       <c r="C50" t="n">
-        <v>0.241927</v>
+        <v>0.23752</v>
       </c>
       <c r="D50" t="n">
-        <v>0.240451</v>
+        <v>0.240643</v>
       </c>
     </row>
     <row r="51">
@@ -3935,13 +3935,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.186761</v>
+        <v>0.187337</v>
       </c>
       <c r="C51" t="n">
-        <v>0.237163</v>
+        <v>0.235771</v>
       </c>
       <c r="D51" t="n">
-        <v>0.265028</v>
+        <v>0.263184</v>
       </c>
     </row>
     <row r="52">
@@ -3949,13 +3949,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.177172</v>
+        <v>0.179139</v>
       </c>
       <c r="C52" t="n">
-        <v>0.238813</v>
+        <v>0.235215</v>
       </c>
       <c r="D52" t="n">
-        <v>0.261547</v>
+        <v>0.268129</v>
       </c>
     </row>
     <row r="53">
@@ -3963,13 +3963,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.244883</v>
+        <v>0.246539</v>
       </c>
       <c r="C53" t="n">
-        <v>0.258961</v>
+        <v>0.255678</v>
       </c>
       <c r="D53" t="n">
-        <v>0.258876</v>
+        <v>0.260193</v>
       </c>
     </row>
     <row r="54">
@@ -3977,13 +3977,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.23858</v>
+        <v>0.238492</v>
       </c>
       <c r="C54" t="n">
-        <v>0.255785</v>
+        <v>0.250324</v>
       </c>
       <c r="D54" t="n">
-        <v>0.258809</v>
+        <v>0.256675</v>
       </c>
     </row>
     <row r="55">
@@ -3991,13 +3991,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.234139</v>
+        <v>0.235119</v>
       </c>
       <c r="C55" t="n">
-        <v>0.2512</v>
+        <v>0.251816</v>
       </c>
       <c r="D55" t="n">
-        <v>0.254855</v>
+        <v>0.255386</v>
       </c>
     </row>
     <row r="56">
@@ -4005,13 +4005,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.230426</v>
+        <v>0.234045</v>
       </c>
       <c r="C56" t="n">
-        <v>0.247784</v>
+        <v>0.24983</v>
       </c>
       <c r="D56" t="n">
-        <v>0.253627</v>
+        <v>0.255979</v>
       </c>
     </row>
     <row r="57">
@@ -4019,13 +4019,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.22652</v>
+        <v>0.224271</v>
       </c>
       <c r="C57" t="n">
-        <v>0.250832</v>
+        <v>0.244438</v>
       </c>
       <c r="D57" t="n">
-        <v>0.251791</v>
+        <v>0.251496</v>
       </c>
     </row>
     <row r="58">
@@ -4033,13 +4033,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.223132</v>
+        <v>0.223733</v>
       </c>
       <c r="C58" t="n">
-        <v>0.247784</v>
+        <v>0.245854</v>
       </c>
       <c r="D58" t="n">
-        <v>0.249417</v>
+        <v>0.25538</v>
       </c>
     </row>
     <row r="59">
@@ -4047,13 +4047,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.217945</v>
+        <v>0.217323</v>
       </c>
       <c r="C59" t="n">
-        <v>0.244942</v>
+        <v>0.245146</v>
       </c>
       <c r="D59" t="n">
-        <v>0.247592</v>
+        <v>0.251285</v>
       </c>
     </row>
     <row r="60">
@@ -4061,13 +4061,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.212768</v>
+        <v>0.215243</v>
       </c>
       <c r="C60" t="n">
-        <v>0.245209</v>
+        <v>0.244381</v>
       </c>
       <c r="D60" t="n">
-        <v>0.244887</v>
+        <v>0.250716</v>
       </c>
     </row>
     <row r="61">
@@ -4075,13 +4075,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.20791</v>
+        <v>0.207606</v>
       </c>
       <c r="C61" t="n">
-        <v>0.24243</v>
+        <v>0.243253</v>
       </c>
       <c r="D61" t="n">
-        <v>0.242493</v>
+        <v>0.247632</v>
       </c>
     </row>
     <row r="62">
@@ -4089,13 +4089,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.203627</v>
+        <v>0.209556</v>
       </c>
       <c r="C62" t="n">
-        <v>0.239447</v>
+        <v>0.241797</v>
       </c>
       <c r="D62" t="n">
-        <v>0.240244</v>
+        <v>0.243418</v>
       </c>
     </row>
     <row r="63">
@@ -4103,13 +4103,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.204169</v>
+        <v>0.201074</v>
       </c>
       <c r="C63" t="n">
-        <v>0.240916</v>
+        <v>0.238766</v>
       </c>
       <c r="D63" t="n">
-        <v>0.244659</v>
+        <v>0.242638</v>
       </c>
     </row>
     <row r="64">
@@ -4117,13 +4117,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.197528</v>
+        <v>0.199607</v>
       </c>
       <c r="C64" t="n">
-        <v>0.239079</v>
+        <v>0.238073</v>
       </c>
       <c r="D64" t="n">
-        <v>0.240885</v>
+        <v>0.242112</v>
       </c>
     </row>
     <row r="65">
@@ -4131,13 +4131,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.189264</v>
+        <v>0.190797</v>
       </c>
       <c r="C65" t="n">
-        <v>0.238905</v>
+        <v>0.240233</v>
       </c>
       <c r="D65" t="n">
-        <v>0.241004</v>
+        <v>0.242035</v>
       </c>
     </row>
     <row r="66">
@@ -4145,13 +4145,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.184333</v>
+        <v>0.18448</v>
       </c>
       <c r="C66" t="n">
-        <v>0.238444</v>
+        <v>0.236173</v>
       </c>
       <c r="D66" t="n">
-        <v>0.263364</v>
+        <v>0.267531</v>
       </c>
     </row>
     <row r="67">
@@ -4159,13 +4159,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.255408</v>
+        <v>0.254993</v>
       </c>
       <c r="C67" t="n">
-        <v>0.266537</v>
+        <v>0.262075</v>
       </c>
       <c r="D67" t="n">
-        <v>0.26435</v>
+        <v>0.26563</v>
       </c>
     </row>
     <row r="68">
@@ -4173,13 +4173,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.246653</v>
+        <v>0.251029</v>
       </c>
       <c r="C68" t="n">
-        <v>0.262243</v>
+        <v>0.257915</v>
       </c>
       <c r="D68" t="n">
-        <v>0.262032</v>
+        <v>0.264223</v>
       </c>
     </row>
     <row r="69">
@@ -4187,13 +4187,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.245954</v>
+        <v>0.246626</v>
       </c>
       <c r="C69" t="n">
-        <v>0.258749</v>
+        <v>0.261358</v>
       </c>
       <c r="D69" t="n">
-        <v>0.258908</v>
+        <v>0.264125</v>
       </c>
     </row>
     <row r="70">
@@ -4201,13 +4201,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.240875</v>
+        <v>0.243574</v>
       </c>
       <c r="C70" t="n">
-        <v>0.260073</v>
+        <v>0.257198</v>
       </c>
       <c r="D70" t="n">
-        <v>0.257199</v>
+        <v>0.259681</v>
       </c>
     </row>
     <row r="71">
@@ -4215,13 +4215,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.238809</v>
+        <v>0.237932</v>
       </c>
       <c r="C71" t="n">
-        <v>0.256196</v>
+        <v>0.251206</v>
       </c>
       <c r="D71" t="n">
-        <v>0.253001</v>
+        <v>0.261123</v>
       </c>
     </row>
     <row r="72">
@@ -4229,13 +4229,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.232615</v>
+        <v>0.23496</v>
       </c>
       <c r="C72" t="n">
-        <v>0.252708</v>
+        <v>0.252791</v>
       </c>
       <c r="D72" t="n">
-        <v>0.252793</v>
+        <v>0.254621</v>
       </c>
     </row>
     <row r="73">
@@ -4243,13 +4243,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.224446</v>
+        <v>0.231708</v>
       </c>
       <c r="C73" t="n">
-        <v>0.253723</v>
+        <v>0.248926</v>
       </c>
       <c r="D73" t="n">
-        <v>0.252586</v>
+        <v>0.252926</v>
       </c>
     </row>
     <row r="74">
@@ -4257,13 +4257,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.221477</v>
+        <v>0.22188</v>
       </c>
       <c r="C74" t="n">
-        <v>0.247608</v>
+        <v>0.249897</v>
       </c>
       <c r="D74" t="n">
-        <v>0.250651</v>
+        <v>0.250732</v>
       </c>
     </row>
     <row r="75">
@@ -4271,13 +4271,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.216391</v>
+        <v>0.221177</v>
       </c>
       <c r="C75" t="n">
-        <v>0.247222</v>
+        <v>0.246965</v>
       </c>
       <c r="D75" t="n">
-        <v>0.248699</v>
+        <v>0.251475</v>
       </c>
     </row>
     <row r="76">
@@ -4285,13 +4285,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.207685</v>
+        <v>0.216252</v>
       </c>
       <c r="C76" t="n">
-        <v>0.247636</v>
+        <v>0.243048</v>
       </c>
       <c r="D76" t="n">
-        <v>0.249185</v>
+        <v>0.248743</v>
       </c>
     </row>
     <row r="77">
@@ -4299,13 +4299,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.209012</v>
+        <v>0.212199</v>
       </c>
       <c r="C77" t="n">
-        <v>0.245905</v>
+        <v>0.241938</v>
       </c>
       <c r="D77" t="n">
-        <v>0.248128</v>
+        <v>0.246117</v>
       </c>
     </row>
     <row r="78">
@@ -4313,13 +4313,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.205402</v>
+        <v>0.206691</v>
       </c>
       <c r="C78" t="n">
-        <v>0.24255</v>
+        <v>0.245225</v>
       </c>
       <c r="D78" t="n">
-        <v>0.248594</v>
+        <v>0.246456</v>
       </c>
     </row>
     <row r="79">
@@ -4327,13 +4327,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.198323</v>
+        <v>0.202985</v>
       </c>
       <c r="C79" t="n">
-        <v>0.241338</v>
+        <v>0.243003</v>
       </c>
       <c r="D79" t="n">
-        <v>0.24151</v>
+        <v>0.244679</v>
       </c>
     </row>
     <row r="80">
@@ -4341,13 +4341,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.191497</v>
+        <v>0.192603</v>
       </c>
       <c r="C80" t="n">
-        <v>0.246359</v>
+        <v>0.239498</v>
       </c>
       <c r="D80" t="n">
-        <v>0.274347</v>
+        <v>0.275528</v>
       </c>
     </row>
     <row r="81">
@@ -4355,13 +4355,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.260734</v>
+        <v>0.261193</v>
       </c>
       <c r="C81" t="n">
-        <v>0.271256</v>
+        <v>0.267679</v>
       </c>
       <c r="D81" t="n">
-        <v>0.269608</v>
+        <v>0.276616</v>
       </c>
     </row>
     <row r="82">
@@ -4369,13 +4369,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.256147</v>
+        <v>0.25626</v>
       </c>
       <c r="C82" t="n">
-        <v>0.266623</v>
+        <v>0.265937</v>
       </c>
       <c r="D82" t="n">
-        <v>0.268097</v>
+        <v>0.266617</v>
       </c>
     </row>
     <row r="83">
@@ -4383,13 +4383,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.252866</v>
+        <v>0.246851</v>
       </c>
       <c r="C83" t="n">
-        <v>0.267298</v>
+        <v>0.264839</v>
       </c>
       <c r="D83" t="n">
-        <v>0.265781</v>
+        <v>0.267244</v>
       </c>
     </row>
     <row r="84">
@@ -4397,13 +4397,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.244446</v>
+        <v>0.242715</v>
       </c>
       <c r="C84" t="n">
-        <v>0.262391</v>
+        <v>0.261642</v>
       </c>
       <c r="D84" t="n">
-        <v>0.261358</v>
+        <v>0.268865</v>
       </c>
     </row>
     <row r="85">
@@ -4411,13 +4411,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.237701</v>
+        <v>0.240718</v>
       </c>
       <c r="C85" t="n">
-        <v>0.258663</v>
+        <v>0.259129</v>
       </c>
       <c r="D85" t="n">
-        <v>0.263081</v>
+        <v>0.262819</v>
       </c>
     </row>
     <row r="86">
@@ -4425,13 +4425,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.235705</v>
+        <v>0.235076</v>
       </c>
       <c r="C86" t="n">
-        <v>0.256875</v>
+        <v>0.255562</v>
       </c>
       <c r="D86" t="n">
-        <v>0.256645</v>
+        <v>0.257071</v>
       </c>
     </row>
     <row r="87">
@@ -4439,13 +4439,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.231273</v>
+        <v>0.229555</v>
       </c>
       <c r="C87" t="n">
-        <v>0.256017</v>
+        <v>0.250828</v>
       </c>
       <c r="D87" t="n">
-        <v>0.253394</v>
+        <v>0.260171</v>
       </c>
     </row>
     <row r="88">
@@ -4453,13 +4453,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.225671</v>
+        <v>0.226424</v>
       </c>
       <c r="C88" t="n">
-        <v>0.251513</v>
+        <v>0.252601</v>
       </c>
       <c r="D88" t="n">
-        <v>0.251611</v>
+        <v>0.255615</v>
       </c>
     </row>
     <row r="89">
@@ -4467,13 +4467,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.220162</v>
+        <v>0.219883</v>
       </c>
       <c r="C89" t="n">
-        <v>0.253712</v>
+        <v>0.247971</v>
       </c>
       <c r="D89" t="n">
-        <v>0.254337</v>
+        <v>0.255738</v>
       </c>
     </row>
     <row r="90">
@@ -4481,13 +4481,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.21387</v>
+        <v>0.219485</v>
       </c>
       <c r="C90" t="n">
-        <v>0.250158</v>
+        <v>0.247537</v>
       </c>
       <c r="D90" t="n">
-        <v>0.250483</v>
+        <v>0.25618</v>
       </c>
     </row>
     <row r="91">
@@ -4495,13 +4495,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.211903</v>
+        <v>0.214416</v>
       </c>
       <c r="C91" t="n">
-        <v>0.248666</v>
+        <v>0.246204</v>
       </c>
       <c r="D91" t="n">
-        <v>0.253906</v>
+        <v>0.252673</v>
       </c>
     </row>
     <row r="92">
@@ -4509,13 +4509,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.209341</v>
+        <v>0.206313</v>
       </c>
       <c r="C92" t="n">
-        <v>0.249955</v>
+        <v>0.24526</v>
       </c>
       <c r="D92" t="n">
-        <v>0.249631</v>
+        <v>0.25013</v>
       </c>
     </row>
     <row r="93">
@@ -4523,13 +4523,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.201354</v>
+        <v>0.202627</v>
       </c>
       <c r="C93" t="n">
-        <v>0.243987</v>
+        <v>0.246243</v>
       </c>
       <c r="D93" t="n">
-        <v>0.244722</v>
+        <v>0.248843</v>
       </c>
     </row>
     <row r="94">
@@ -4537,13 +4537,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.193314</v>
+        <v>0.194009</v>
       </c>
       <c r="C94" t="n">
-        <v>0.244418</v>
+        <v>0.244815</v>
       </c>
       <c r="D94" t="n">
-        <v>0.274943</v>
+        <v>0.275935</v>
       </c>
     </row>
     <row r="95">
@@ -4551,13 +4551,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.260996</v>
+        <v>0.260614</v>
       </c>
       <c r="C95" t="n">
-        <v>0.271188</v>
+        <v>0.268805</v>
       </c>
       <c r="D95" t="n">
-        <v>0.275517</v>
+        <v>0.271218</v>
       </c>
     </row>
     <row r="96">
@@ -4565,13 +4565,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.25809</v>
+        <v>0.253555</v>
       </c>
       <c r="C96" t="n">
-        <v>0.270214</v>
+        <v>0.264239</v>
       </c>
       <c r="D96" t="n">
-        <v>0.267621</v>
+        <v>0.269748</v>
       </c>
     </row>
     <row r="97">
@@ -4579,13 +4579,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.253593</v>
+        <v>0.251402</v>
       </c>
       <c r="C97" t="n">
-        <v>0.265292</v>
+        <v>0.26408</v>
       </c>
       <c r="D97" t="n">
-        <v>0.265869</v>
+        <v>0.269868</v>
       </c>
     </row>
     <row r="98">
@@ -4593,13 +4593,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.246991</v>
+        <v>0.245959</v>
       </c>
       <c r="C98" t="n">
-        <v>0.26789</v>
+        <v>0.260509</v>
       </c>
       <c r="D98" t="n">
-        <v>0.265654</v>
+        <v>0.268071</v>
       </c>
     </row>
     <row r="99">
@@ -4607,13 +4607,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.239781</v>
+        <v>0.242706</v>
       </c>
       <c r="C99" t="n">
-        <v>0.262522</v>
+        <v>0.259741</v>
       </c>
       <c r="D99" t="n">
-        <v>0.25949</v>
+        <v>0.265805</v>
       </c>
     </row>
     <row r="100">
@@ -4621,13 +4621,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.238424</v>
+        <v>0.236112</v>
       </c>
       <c r="C100" t="n">
-        <v>0.26003</v>
+        <v>0.259486</v>
       </c>
       <c r="D100" t="n">
-        <v>0.26071</v>
+        <v>0.260374</v>
       </c>
     </row>
     <row r="101">
@@ -4635,13 +4635,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.231587</v>
+        <v>0.237122</v>
       </c>
       <c r="C101" t="n">
-        <v>0.257104</v>
+        <v>0.254769</v>
       </c>
       <c r="D101" t="n">
-        <v>0.264843</v>
+        <v>0.256502</v>
       </c>
     </row>
     <row r="102">
@@ -4649,13 +4649,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.226564</v>
+        <v>0.230637</v>
       </c>
       <c r="C102" t="n">
-        <v>0.253566</v>
+        <v>0.253213</v>
       </c>
       <c r="D102" t="n">
-        <v>0.257513</v>
+        <v>0.258236</v>
       </c>
     </row>
     <row r="103">
@@ -4663,13 +4663,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.220478</v>
+        <v>0.22507</v>
       </c>
       <c r="C103" t="n">
-        <v>0.253014</v>
+        <v>0.250349</v>
       </c>
       <c r="D103" t="n">
-        <v>0.250814</v>
+        <v>0.256607</v>
       </c>
     </row>
     <row r="104">
@@ -4677,13 +4677,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.216426</v>
+        <v>0.217599</v>
       </c>
       <c r="C104" t="n">
-        <v>0.251419</v>
+        <v>0.24938</v>
       </c>
       <c r="D104" t="n">
-        <v>0.252867</v>
+        <v>0.251683</v>
       </c>
     </row>
     <row r="105">
@@ -4691,13 +4691,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.21358</v>
+        <v>0.213697</v>
       </c>
       <c r="C105" t="n">
-        <v>0.249774</v>
+        <v>0.247927</v>
       </c>
       <c r="D105" t="n">
-        <v>0.251065</v>
+        <v>0.253547</v>
       </c>
     </row>
     <row r="106">
@@ -4705,13 +4705,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.209107</v>
+        <v>0.211942</v>
       </c>
       <c r="C106" t="n">
-        <v>0.250316</v>
+        <v>0.246149</v>
       </c>
       <c r="D106" t="n">
-        <v>0.248849</v>
+        <v>0.24961</v>
       </c>
     </row>
     <row r="107">
@@ -4719,13 +4719,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.203277</v>
+        <v>0.205384</v>
       </c>
       <c r="C107" t="n">
-        <v>0.247692</v>
+        <v>0.244453</v>
       </c>
       <c r="D107" t="n">
-        <v>0.252143</v>
+        <v>0.245719</v>
       </c>
     </row>
     <row r="108">
@@ -4733,13 +4733,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.19753</v>
+        <v>0.199152</v>
       </c>
       <c r="C108" t="n">
-        <v>0.245808</v>
+        <v>0.240006</v>
       </c>
       <c r="D108" t="n">
-        <v>0.275999</v>
+        <v>0.276055</v>
       </c>
     </row>
     <row r="109">
@@ -4747,13 +4747,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.189256</v>
+        <v>0.188711</v>
       </c>
       <c r="C109" t="n">
-        <v>0.244555</v>
+        <v>0.241546</v>
       </c>
       <c r="D109" t="n">
-        <v>0.27299</v>
+        <v>0.276698</v>
       </c>
     </row>
     <row r="110">
@@ -4761,13 +4761,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.260778</v>
+        <v>0.260944</v>
       </c>
       <c r="C110" t="n">
-        <v>0.273478</v>
+        <v>0.271563</v>
       </c>
       <c r="D110" t="n">
-        <v>0.268128</v>
+        <v>0.279288</v>
       </c>
     </row>
     <row r="111">
@@ -4775,13 +4775,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.25467</v>
+        <v>0.251589</v>
       </c>
       <c r="C111" t="n">
-        <v>0.266879</v>
+        <v>0.26219</v>
       </c>
       <c r="D111" t="n">
-        <v>0.272205</v>
+        <v>0.26768</v>
       </c>
     </row>
     <row r="112">
@@ -4789,13 +4789,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.25045</v>
+        <v>0.25333</v>
       </c>
       <c r="C112" t="n">
-        <v>0.265729</v>
+        <v>0.264718</v>
       </c>
       <c r="D112" t="n">
-        <v>0.262568</v>
+        <v>0.268638</v>
       </c>
     </row>
     <row r="113">
@@ -4803,13 +4803,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.245872</v>
+        <v>0.241413</v>
       </c>
       <c r="C113" t="n">
-        <v>0.264782</v>
+        <v>0.257933</v>
       </c>
       <c r="D113" t="n">
-        <v>0.267321</v>
+        <v>0.26314</v>
       </c>
     </row>
     <row r="114">
@@ -4817,13 +4817,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.237478</v>
+        <v>0.238227</v>
       </c>
       <c r="C114" t="n">
-        <v>0.260468</v>
+        <v>0.258373</v>
       </c>
       <c r="D114" t="n">
-        <v>0.265691</v>
+        <v>0.26295</v>
       </c>
     </row>
     <row r="115">
@@ -4831,13 +4831,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.231852</v>
+        <v>0.233479</v>
       </c>
       <c r="C115" t="n">
-        <v>0.258827</v>
+        <v>0.263224</v>
       </c>
       <c r="D115" t="n">
-        <v>0.256891</v>
+        <v>0.258699</v>
       </c>
     </row>
     <row r="116">
@@ -4845,13 +4845,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.228272</v>
+        <v>0.226961</v>
       </c>
       <c r="C116" t="n">
-        <v>0.258521</v>
+        <v>0.253286</v>
       </c>
       <c r="D116" t="n">
-        <v>0.253856</v>
+        <v>0.258817</v>
       </c>
     </row>
     <row r="117">
@@ -4859,13 +4859,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.224586</v>
+        <v>0.22051</v>
       </c>
       <c r="C117" t="n">
-        <v>0.250527</v>
+        <v>0.248449</v>
       </c>
       <c r="D117" t="n">
-        <v>0.2529</v>
+        <v>0.256835</v>
       </c>
     </row>
     <row r="118">
@@ -4873,13 +4873,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.216925</v>
+        <v>0.217462</v>
       </c>
       <c r="C118" t="n">
-        <v>0.25266</v>
+        <v>0.254073</v>
       </c>
       <c r="D118" t="n">
-        <v>0.254033</v>
+        <v>0.254056</v>
       </c>
     </row>
     <row r="119">
@@ -4887,13 +4887,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.213409</v>
+        <v>0.21376</v>
       </c>
       <c r="C119" t="n">
-        <v>0.254366</v>
+        <v>0.25005</v>
       </c>
       <c r="D119" t="n">
-        <v>0.249603</v>
+        <v>0.250862</v>
       </c>
     </row>
     <row r="120">
@@ -4901,13 +4901,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.211132</v>
+        <v>0.212662</v>
       </c>
       <c r="C120" t="n">
-        <v>0.248449</v>
+        <v>0.248138</v>
       </c>
       <c r="D120" t="n">
-        <v>0.248629</v>
+        <v>0.256397</v>
       </c>
     </row>
     <row r="121">
@@ -4915,13 +4915,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.204006</v>
+        <v>0.207496</v>
       </c>
       <c r="C121" t="n">
-        <v>0.246455</v>
+        <v>0.245953</v>
       </c>
       <c r="D121" t="n">
-        <v>0.247346</v>
+        <v>0.248845</v>
       </c>
     </row>
     <row r="122">
@@ -4929,13 +4929,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.198257</v>
+        <v>0.201855</v>
       </c>
       <c r="C122" t="n">
-        <v>0.249465</v>
+        <v>0.24389</v>
       </c>
       <c r="D122" t="n">
-        <v>0.245531</v>
+        <v>0.247741</v>
       </c>
     </row>
     <row r="123">
@@ -4943,13 +4943,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.189697</v>
+        <v>0.190888</v>
       </c>
       <c r="C123" t="n">
-        <v>0.244115</v>
+        <v>0.244153</v>
       </c>
       <c r="D123" t="n">
-        <v>0.27579</v>
+        <v>0.273252</v>
       </c>
     </row>
     <row r="124">
@@ -4957,13 +4957,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.257847</v>
+        <v>0.257187</v>
       </c>
       <c r="C124" t="n">
-        <v>0.271172</v>
+        <v>0.267002</v>
       </c>
       <c r="D124" t="n">
-        <v>0.271088</v>
+        <v>0.272015</v>
       </c>
     </row>
     <row r="125">
@@ -4971,13 +4971,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.256587</v>
+        <v>0.254967</v>
       </c>
       <c r="C125" t="n">
-        <v>0.27039</v>
+        <v>0.266342</v>
       </c>
       <c r="D125" t="n">
-        <v>0.268685</v>
+        <v>0.271155</v>
       </c>
     </row>
     <row r="126">
@@ -4985,13 +4985,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.249566</v>
+        <v>0.254953</v>
       </c>
       <c r="C126" t="n">
-        <v>0.263231</v>
+        <v>0.262692</v>
       </c>
       <c r="D126" t="n">
-        <v>0.266826</v>
+        <v>0.268331</v>
       </c>
     </row>
     <row r="127">
@@ -4999,13 +4999,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.244484</v>
+        <v>0.243032</v>
       </c>
       <c r="C127" t="n">
-        <v>0.266081</v>
+        <v>0.259485</v>
       </c>
       <c r="D127" t="n">
-        <v>0.263964</v>
+        <v>0.26491</v>
       </c>
     </row>
     <row r="128">
@@ -5013,13 +5013,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.237386</v>
+        <v>0.241662</v>
       </c>
       <c r="C128" t="n">
-        <v>0.263511</v>
+        <v>0.261061</v>
       </c>
       <c r="D128" t="n">
-        <v>0.262507</v>
+        <v>0.261404</v>
       </c>
     </row>
     <row r="129">
@@ -5027,13 +5027,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.23134</v>
+        <v>0.235258</v>
       </c>
       <c r="C129" t="n">
-        <v>0.256474</v>
+        <v>0.25578</v>
       </c>
       <c r="D129" t="n">
-        <v>0.260928</v>
+        <v>0.263663</v>
       </c>
     </row>
     <row r="130">
@@ -5041,13 +5041,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.232111</v>
+        <v>0.231116</v>
       </c>
       <c r="C130" t="n">
-        <v>0.255425</v>
+        <v>0.25178</v>
       </c>
       <c r="D130" t="n">
-        <v>0.258913</v>
+        <v>0.25809</v>
       </c>
     </row>
     <row r="131">
@@ -5055,13 +5055,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.227049</v>
+        <v>0.224883</v>
       </c>
       <c r="C131" t="n">
-        <v>0.253607</v>
+        <v>0.257233</v>
       </c>
       <c r="D131" t="n">
-        <v>0.257653</v>
+        <v>0.25902</v>
       </c>
     </row>
     <row r="132">
@@ -5069,13 +5069,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.220103</v>
+        <v>0.222659</v>
       </c>
       <c r="C132" t="n">
-        <v>0.25065</v>
+        <v>0.258521</v>
       </c>
       <c r="D132" t="n">
-        <v>0.253005</v>
+        <v>0.254819</v>
       </c>
     </row>
     <row r="133">
@@ -5083,13 +5083,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.214352</v>
+        <v>0.218555</v>
       </c>
       <c r="C133" t="n">
-        <v>0.251585</v>
+        <v>0.255204</v>
       </c>
       <c r="D133" t="n">
-        <v>0.25027</v>
+        <v>0.256106</v>
       </c>
     </row>
     <row r="134">
@@ -5097,13 +5097,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.215526</v>
+        <v>0.213173</v>
       </c>
       <c r="C134" t="n">
-        <v>0.249122</v>
+        <v>0.244896</v>
       </c>
       <c r="D134" t="n">
-        <v>0.248085</v>
+        <v>0.25479</v>
       </c>
     </row>
     <row r="135">
@@ -5111,13 +5111,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.206418</v>
+        <v>0.210697</v>
       </c>
       <c r="C135" t="n">
-        <v>0.253235</v>
+        <v>0.246278</v>
       </c>
       <c r="D135" t="n">
-        <v>0.249571</v>
+        <v>0.249656</v>
       </c>
     </row>
     <row r="136">
@@ -5125,13 +5125,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.201503</v>
+        <v>0.200171</v>
       </c>
       <c r="C136" t="n">
-        <v>0.251578</v>
+        <v>0.245466</v>
       </c>
       <c r="D136" t="n">
-        <v>0.249342</v>
+        <v>0.252641</v>
       </c>
     </row>
     <row r="137">
@@ -5139,13 +5139,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.191499</v>
+        <v>0.190753</v>
       </c>
       <c r="C137" t="n">
-        <v>0.246103</v>
+        <v>0.246035</v>
       </c>
       <c r="D137" t="n">
-        <v>0.275971</v>
+        <v>0.274821</v>
       </c>
     </row>
     <row r="138">
@@ -5153,13 +5153,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.257321</v>
+        <v>0.260143</v>
       </c>
       <c r="C138" t="n">
-        <v>0.273108</v>
+        <v>0.274574</v>
       </c>
       <c r="D138" t="n">
-        <v>0.270518</v>
+        <v>0.26772</v>
       </c>
     </row>
     <row r="139">
@@ -5167,13 +5167,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.265124</v>
+        <v>0.258907</v>
       </c>
       <c r="C139" t="n">
-        <v>0.273849</v>
+        <v>0.270348</v>
       </c>
       <c r="D139" t="n">
-        <v>0.265013</v>
+        <v>0.273234</v>
       </c>
     </row>
     <row r="140">
@@ -5181,13 +5181,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.249082</v>
+        <v>0.247876</v>
       </c>
       <c r="C140" t="n">
-        <v>0.266155</v>
+        <v>0.259974</v>
       </c>
       <c r="D140" t="n">
-        <v>0.261891</v>
+        <v>0.267486</v>
       </c>
     </row>
     <row r="141">
@@ -5195,13 +5195,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.249568</v>
+        <v>0.243481</v>
       </c>
       <c r="C141" t="n">
-        <v>0.265328</v>
+        <v>0.269507</v>
       </c>
       <c r="D141" t="n">
-        <v>0.263584</v>
+        <v>0.26876</v>
       </c>
     </row>
     <row r="142">
@@ -5209,13 +5209,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.243043</v>
+        <v>0.238864</v>
       </c>
       <c r="C142" t="n">
-        <v>0.261231</v>
+        <v>0.26162</v>
       </c>
       <c r="D142" t="n">
-        <v>0.262165</v>
+        <v>0.267243</v>
       </c>
     </row>
     <row r="143">
@@ -5223,13 +5223,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.233048</v>
+        <v>0.234054</v>
       </c>
       <c r="C143" t="n">
-        <v>0.259149</v>
+        <v>0.253941</v>
       </c>
       <c r="D143" t="n">
-        <v>0.268069</v>
+        <v>0.262524</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Running erasure.xlsx
+++ b/vs-x64/Running erasure.xlsx
@@ -3249,13 +3249,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.203342</v>
+        <v>0.206791</v>
       </c>
       <c r="C2" t="n">
-        <v>0.236631</v>
+        <v>0.235507</v>
       </c>
       <c r="D2" t="n">
-        <v>0.236858</v>
+        <v>0.238314</v>
       </c>
     </row>
     <row r="3">
@@ -3263,13 +3263,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.201448</v>
+        <v>0.200122</v>
       </c>
       <c r="C3" t="n">
-        <v>0.238461</v>
+        <v>0.235246</v>
       </c>
       <c r="D3" t="n">
-        <v>0.237402</v>
+        <v>0.238554</v>
       </c>
     </row>
     <row r="4">
@@ -3277,13 +3277,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.194349</v>
+        <v>0.197971</v>
       </c>
       <c r="C4" t="n">
-        <v>0.228012</v>
+        <v>0.237549</v>
       </c>
       <c r="D4" t="n">
-        <v>0.233418</v>
+        <v>0.240008</v>
       </c>
     </row>
     <row r="5">
@@ -3291,13 +3291,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.193072</v>
+        <v>0.198943</v>
       </c>
       <c r="C5" t="n">
-        <v>0.237439</v>
+        <v>0.23289</v>
       </c>
       <c r="D5" t="n">
-        <v>0.238343</v>
+        <v>0.238483</v>
       </c>
     </row>
     <row r="6">
@@ -3305,13 +3305,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.196737</v>
+        <v>0.193087</v>
       </c>
       <c r="C6" t="n">
-        <v>0.235264</v>
+        <v>0.238968</v>
       </c>
       <c r="D6" t="n">
-        <v>0.240864</v>
+        <v>0.236599</v>
       </c>
     </row>
     <row r="7">
@@ -3319,13 +3319,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.190126</v>
+        <v>0.188887</v>
       </c>
       <c r="C7" t="n">
-        <v>0.232864</v>
+        <v>0.234069</v>
       </c>
       <c r="D7" t="n">
-        <v>0.242442</v>
+        <v>0.241162</v>
       </c>
     </row>
     <row r="8">
@@ -3333,13 +3333,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.183213</v>
+        <v>0.181691</v>
       </c>
       <c r="C8" t="n">
-        <v>0.23139</v>
+        <v>0.227523</v>
       </c>
       <c r="D8" t="n">
-        <v>0.236834</v>
+        <v>0.233165</v>
       </c>
     </row>
     <row r="9">
@@ -3347,13 +3347,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.175354</v>
+        <v>0.17748</v>
       </c>
       <c r="C9" t="n">
-        <v>0.232402</v>
+        <v>0.229415</v>
       </c>
       <c r="D9" t="n">
-        <v>0.24664</v>
+        <v>0.24773</v>
       </c>
     </row>
     <row r="10">
@@ -3361,13 +3361,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.227711</v>
+        <v>0.225453</v>
       </c>
       <c r="C10" t="n">
-        <v>0.242092</v>
+        <v>0.242192</v>
       </c>
       <c r="D10" t="n">
-        <v>0.247742</v>
+        <v>0.246929</v>
       </c>
     </row>
     <row r="11">
@@ -3375,13 +3375,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.225647</v>
+        <v>0.225605</v>
       </c>
       <c r="C11" t="n">
-        <v>0.244091</v>
+        <v>0.239211</v>
       </c>
       <c r="D11" t="n">
-        <v>0.24236</v>
+        <v>0.246522</v>
       </c>
     </row>
     <row r="12">
@@ -3389,13 +3389,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.221487</v>
+        <v>0.224003</v>
       </c>
       <c r="C12" t="n">
-        <v>0.233468</v>
+        <v>0.238973</v>
       </c>
       <c r="D12" t="n">
-        <v>0.244214</v>
+        <v>0.247751</v>
       </c>
     </row>
     <row r="13">
@@ -3403,13 +3403,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.214412</v>
+        <v>0.21902</v>
       </c>
       <c r="C13" t="n">
-        <v>0.23386</v>
+        <v>0.236712</v>
       </c>
       <c r="D13" t="n">
-        <v>0.243157</v>
+        <v>0.243791</v>
       </c>
     </row>
     <row r="14">
@@ -3417,13 +3417,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.212942</v>
+        <v>0.215859</v>
       </c>
       <c r="C14" t="n">
-        <v>0.236087</v>
+        <v>0.242673</v>
       </c>
       <c r="D14" t="n">
-        <v>0.239164</v>
+        <v>0.242564</v>
       </c>
     </row>
     <row r="15">
@@ -3431,13 +3431,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.210998</v>
+        <v>0.212203</v>
       </c>
       <c r="C15" t="n">
-        <v>0.237917</v>
+        <v>0.236977</v>
       </c>
       <c r="D15" t="n">
-        <v>0.237935</v>
+        <v>0.245241</v>
       </c>
     </row>
     <row r="16">
@@ -3445,13 +3445,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.204337</v>
+        <v>0.213547</v>
       </c>
       <c r="C16" t="n">
-        <v>0.228934</v>
+        <v>0.237232</v>
       </c>
       <c r="D16" t="n">
-        <v>0.237588</v>
+        <v>0.244967</v>
       </c>
     </row>
     <row r="17">
@@ -3459,13 +3459,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.210512</v>
+        <v>0.206821</v>
       </c>
       <c r="C17" t="n">
-        <v>0.238226</v>
+        <v>0.237967</v>
       </c>
       <c r="D17" t="n">
-        <v>0.240262</v>
+        <v>0.245408</v>
       </c>
     </row>
     <row r="18">
@@ -3473,13 +3473,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.199412</v>
+        <v>0.205635</v>
       </c>
       <c r="C18" t="n">
-        <v>0.233425</v>
+        <v>0.234745</v>
       </c>
       <c r="D18" t="n">
-        <v>0.233751</v>
+        <v>0.241481</v>
       </c>
     </row>
     <row r="19">
@@ -3487,13 +3487,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.197574</v>
+        <v>0.202908</v>
       </c>
       <c r="C19" t="n">
-        <v>0.232192</v>
+        <v>0.236702</v>
       </c>
       <c r="D19" t="n">
-        <v>0.235929</v>
+        <v>0.239049</v>
       </c>
     </row>
     <row r="20">
@@ -3501,13 +3501,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.193159</v>
+        <v>0.19729</v>
       </c>
       <c r="C20" t="n">
-        <v>0.229513</v>
+        <v>0.231668</v>
       </c>
       <c r="D20" t="n">
-        <v>0.23755</v>
+        <v>0.240195</v>
       </c>
     </row>
     <row r="21">
@@ -3515,13 +3515,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.191533</v>
+        <v>0.195328</v>
       </c>
       <c r="C21" t="n">
-        <v>0.228422</v>
+        <v>0.232666</v>
       </c>
       <c r="D21" t="n">
-        <v>0.231925</v>
+        <v>0.240546</v>
       </c>
     </row>
     <row r="22">
@@ -3529,13 +3529,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.18721</v>
+        <v>0.188721</v>
       </c>
       <c r="C22" t="n">
-        <v>0.229204</v>
+        <v>0.233497</v>
       </c>
       <c r="D22" t="n">
-        <v>0.236138</v>
+        <v>0.239266</v>
       </c>
     </row>
     <row r="23">
@@ -3543,13 +3543,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.178132</v>
+        <v>0.180793</v>
       </c>
       <c r="C23" t="n">
-        <v>0.230945</v>
+        <v>0.236104</v>
       </c>
       <c r="D23" t="n">
-        <v>0.24664</v>
+        <v>0.252803</v>
       </c>
     </row>
     <row r="24">
@@ -3557,13 +3557,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.239833</v>
+        <v>0.241086</v>
       </c>
       <c r="C24" t="n">
-        <v>0.243653</v>
+        <v>0.248396</v>
       </c>
       <c r="D24" t="n">
-        <v>0.251024</v>
+        <v>0.254445</v>
       </c>
     </row>
     <row r="25">
@@ -3571,13 +3571,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.234369</v>
+        <v>0.238394</v>
       </c>
       <c r="C25" t="n">
-        <v>0.247601</v>
+        <v>0.248124</v>
       </c>
       <c r="D25" t="n">
-        <v>0.250758</v>
+        <v>0.252834</v>
       </c>
     </row>
     <row r="26">
@@ -3585,13 +3585,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.232431</v>
+        <v>0.231476</v>
       </c>
       <c r="C26" t="n">
-        <v>0.238789</v>
+        <v>0.243335</v>
       </c>
       <c r="D26" t="n">
-        <v>0.246534</v>
+        <v>0.250392</v>
       </c>
     </row>
     <row r="27">
@@ -3599,13 +3599,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.22806</v>
+        <v>0.228352</v>
       </c>
       <c r="C27" t="n">
-        <v>0.240871</v>
+        <v>0.244788</v>
       </c>
       <c r="D27" t="n">
-        <v>0.245619</v>
+        <v>0.247793</v>
       </c>
     </row>
     <row r="28">
@@ -3613,13 +3613,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.221927</v>
+        <v>0.227344</v>
       </c>
       <c r="C28" t="n">
-        <v>0.238304</v>
+        <v>0.239677</v>
       </c>
       <c r="D28" t="n">
-        <v>0.243858</v>
+        <v>0.243238</v>
       </c>
     </row>
     <row r="29">
@@ -3627,13 +3627,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.217677</v>
+        <v>0.220924</v>
       </c>
       <c r="C29" t="n">
-        <v>0.237058</v>
+        <v>0.240713</v>
       </c>
       <c r="D29" t="n">
-        <v>0.24152</v>
+        <v>0.244567</v>
       </c>
     </row>
     <row r="30">
@@ -3641,13 +3641,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.215034</v>
+        <v>0.217625</v>
       </c>
       <c r="C30" t="n">
-        <v>0.237855</v>
+        <v>0.236625</v>
       </c>
       <c r="D30" t="n">
-        <v>0.242458</v>
+        <v>0.239918</v>
       </c>
     </row>
     <row r="31">
@@ -3655,13 +3655,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.209686</v>
+        <v>0.211158</v>
       </c>
       <c r="C31" t="n">
-        <v>0.23552</v>
+        <v>0.234455</v>
       </c>
       <c r="D31" t="n">
-        <v>0.241345</v>
+        <v>0.242251</v>
       </c>
     </row>
     <row r="32">
@@ -3669,13 +3669,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.207091</v>
+        <v>0.209471</v>
       </c>
       <c r="C32" t="n">
-        <v>0.236836</v>
+        <v>0.238933</v>
       </c>
       <c r="D32" t="n">
-        <v>0.241623</v>
+        <v>0.24323</v>
       </c>
     </row>
     <row r="33">
@@ -3683,13 +3683,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.207103</v>
+        <v>0.204566</v>
       </c>
       <c r="C33" t="n">
-        <v>0.232666</v>
+        <v>0.234539</v>
       </c>
       <c r="D33" t="n">
-        <v>0.231356</v>
+        <v>0.243968</v>
       </c>
     </row>
     <row r="34">
@@ -3697,13 +3697,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.198032</v>
+        <v>0.202875</v>
       </c>
       <c r="C34" t="n">
-        <v>0.234088</v>
+        <v>0.230842</v>
       </c>
       <c r="D34" t="n">
-        <v>0.240604</v>
+        <v>0.237491</v>
       </c>
     </row>
     <row r="35">
@@ -3711,13 +3711,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.196099</v>
+        <v>0.197462</v>
       </c>
       <c r="C35" t="n">
-        <v>0.229381</v>
+        <v>0.232588</v>
       </c>
       <c r="D35" t="n">
-        <v>0.233272</v>
+        <v>0.238442</v>
       </c>
     </row>
     <row r="36">
@@ -3725,13 +3725,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.190179</v>
+        <v>0.192184</v>
       </c>
       <c r="C36" t="n">
-        <v>0.231684</v>
+        <v>0.23236</v>
       </c>
       <c r="D36" t="n">
-        <v>0.239953</v>
+        <v>0.235825</v>
       </c>
     </row>
     <row r="37">
@@ -3739,13 +3739,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.184374</v>
+        <v>0.184148</v>
       </c>
       <c r="C37" t="n">
-        <v>0.232842</v>
+        <v>0.23044</v>
       </c>
       <c r="D37" t="n">
-        <v>0.262145</v>
+        <v>0.268469</v>
       </c>
     </row>
     <row r="38">
@@ -3753,13 +3753,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.241918</v>
+        <v>0.240576</v>
       </c>
       <c r="C38" t="n">
-        <v>0.256898</v>
+        <v>0.2604</v>
       </c>
       <c r="D38" t="n">
-        <v>0.258292</v>
+        <v>0.264127</v>
       </c>
     </row>
     <row r="39">
@@ -3767,13 +3767,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.239701</v>
+        <v>0.240579</v>
       </c>
       <c r="C39" t="n">
-        <v>0.254352</v>
+        <v>0.258062</v>
       </c>
       <c r="D39" t="n">
-        <v>0.25853</v>
+        <v>0.261616</v>
       </c>
     </row>
     <row r="40">
@@ -3781,13 +3781,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.231979</v>
+        <v>0.233746</v>
       </c>
       <c r="C40" t="n">
-        <v>0.253769</v>
+        <v>0.254019</v>
       </c>
       <c r="D40" t="n">
-        <v>0.255982</v>
+        <v>0.257606</v>
       </c>
     </row>
     <row r="41">
@@ -3795,13 +3795,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.22992</v>
+        <v>0.228196</v>
       </c>
       <c r="C41" t="n">
-        <v>0.252128</v>
+        <v>0.250555</v>
       </c>
       <c r="D41" t="n">
-        <v>0.25293</v>
+        <v>0.255576</v>
       </c>
     </row>
     <row r="42">
@@ -3809,13 +3809,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.226275</v>
+        <v>0.226991</v>
       </c>
       <c r="C42" t="n">
-        <v>0.24767</v>
+        <v>0.25008</v>
       </c>
       <c r="D42" t="n">
-        <v>0.250922</v>
+        <v>0.257731</v>
       </c>
     </row>
     <row r="43">
@@ -3823,13 +3823,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.22195</v>
+        <v>0.222618</v>
       </c>
       <c r="C43" t="n">
-        <v>0.247581</v>
+        <v>0.25012</v>
       </c>
       <c r="D43" t="n">
-        <v>0.25068</v>
+        <v>0.252723</v>
       </c>
     </row>
     <row r="44">
@@ -3837,13 +3837,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.218085</v>
+        <v>0.217148</v>
       </c>
       <c r="C44" t="n">
-        <v>0.245499</v>
+        <v>0.244468</v>
       </c>
       <c r="D44" t="n">
-        <v>0.250506</v>
+        <v>0.251413</v>
       </c>
     </row>
     <row r="45">
@@ -3851,13 +3851,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.21483</v>
+        <v>0.212559</v>
       </c>
       <c r="C45" t="n">
-        <v>0.244667</v>
+        <v>0.2452</v>
       </c>
       <c r="D45" t="n">
-        <v>0.24868</v>
+        <v>0.254249</v>
       </c>
     </row>
     <row r="46">
@@ -3865,13 +3865,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.207315</v>
+        <v>0.21311</v>
       </c>
       <c r="C46" t="n">
-        <v>0.241786</v>
+        <v>0.244371</v>
       </c>
       <c r="D46" t="n">
-        <v>0.248836</v>
+        <v>0.247076</v>
       </c>
     </row>
     <row r="47">
@@ -3879,13 +3879,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.203661</v>
+        <v>0.209379</v>
       </c>
       <c r="C47" t="n">
-        <v>0.24122</v>
+        <v>0.240888</v>
       </c>
       <c r="D47" t="n">
-        <v>0.244007</v>
+        <v>0.247583</v>
       </c>
     </row>
     <row r="48">
@@ -3893,13 +3893,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.204124</v>
+        <v>0.202121</v>
       </c>
       <c r="C48" t="n">
-        <v>0.239186</v>
+        <v>0.241193</v>
       </c>
       <c r="D48" t="n">
-        <v>0.246932</v>
+        <v>0.24462</v>
       </c>
     </row>
     <row r="49">
@@ -3907,13 +3907,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.198403</v>
+        <v>0.199455</v>
       </c>
       <c r="C49" t="n">
-        <v>0.239907</v>
+        <v>0.239233</v>
       </c>
       <c r="D49" t="n">
-        <v>0.242465</v>
+        <v>0.247434</v>
       </c>
     </row>
     <row r="50">
@@ -3921,13 +3921,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.190572</v>
+        <v>0.192716</v>
       </c>
       <c r="C50" t="n">
-        <v>0.23752</v>
+        <v>0.237179</v>
       </c>
       <c r="D50" t="n">
-        <v>0.240643</v>
+        <v>0.242327</v>
       </c>
     </row>
     <row r="51">
@@ -3935,13 +3935,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.187337</v>
+        <v>0.187729</v>
       </c>
       <c r="C51" t="n">
-        <v>0.235771</v>
+        <v>0.235302</v>
       </c>
       <c r="D51" t="n">
-        <v>0.263184</v>
+        <v>0.266012</v>
       </c>
     </row>
     <row r="52">
@@ -3949,13 +3949,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.179139</v>
+        <v>0.179331</v>
       </c>
       <c r="C52" t="n">
-        <v>0.235215</v>
+        <v>0.233816</v>
       </c>
       <c r="D52" t="n">
-        <v>0.268129</v>
+        <v>0.263865</v>
       </c>
     </row>
     <row r="53">
@@ -3963,13 +3963,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.246539</v>
+        <v>0.243751</v>
       </c>
       <c r="C53" t="n">
-        <v>0.255678</v>
+        <v>0.256073</v>
       </c>
       <c r="D53" t="n">
-        <v>0.260193</v>
+        <v>0.261496</v>
       </c>
     </row>
     <row r="54">
@@ -3977,13 +3977,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.238492</v>
+        <v>0.239271</v>
       </c>
       <c r="C54" t="n">
-        <v>0.250324</v>
+        <v>0.251458</v>
       </c>
       <c r="D54" t="n">
-        <v>0.256675</v>
+        <v>0.26037</v>
       </c>
     </row>
     <row r="55">
@@ -3991,13 +3991,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.235119</v>
+        <v>0.23632</v>
       </c>
       <c r="C55" t="n">
-        <v>0.251816</v>
+        <v>0.253755</v>
       </c>
       <c r="D55" t="n">
-        <v>0.255386</v>
+        <v>0.260068</v>
       </c>
     </row>
     <row r="56">
@@ -4005,13 +4005,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.234045</v>
+        <v>0.232753</v>
       </c>
       <c r="C56" t="n">
-        <v>0.24983</v>
+        <v>0.250166</v>
       </c>
       <c r="D56" t="n">
-        <v>0.255979</v>
+        <v>0.254137</v>
       </c>
     </row>
     <row r="57">
@@ -4019,13 +4019,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.224271</v>
+        <v>0.231109</v>
       </c>
       <c r="C57" t="n">
-        <v>0.244438</v>
+        <v>0.248768</v>
       </c>
       <c r="D57" t="n">
-        <v>0.251496</v>
+        <v>0.25224</v>
       </c>
     </row>
     <row r="58">
@@ -4033,13 +4033,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.223733</v>
+        <v>0.22414</v>
       </c>
       <c r="C58" t="n">
-        <v>0.245854</v>
+        <v>0.247451</v>
       </c>
       <c r="D58" t="n">
-        <v>0.25538</v>
+        <v>0.252465</v>
       </c>
     </row>
     <row r="59">
@@ -4047,13 +4047,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.217323</v>
+        <v>0.222265</v>
       </c>
       <c r="C59" t="n">
-        <v>0.245146</v>
+        <v>0.245318</v>
       </c>
       <c r="D59" t="n">
-        <v>0.251285</v>
+        <v>0.253516</v>
       </c>
     </row>
     <row r="60">
@@ -4061,13 +4061,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.215243</v>
+        <v>0.218326</v>
       </c>
       <c r="C60" t="n">
-        <v>0.244381</v>
+        <v>0.242546</v>
       </c>
       <c r="D60" t="n">
-        <v>0.250716</v>
+        <v>0.248088</v>
       </c>
     </row>
     <row r="61">
@@ -4075,13 +4075,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.207606</v>
+        <v>0.21267</v>
       </c>
       <c r="C61" t="n">
-        <v>0.243253</v>
+        <v>0.241758</v>
       </c>
       <c r="D61" t="n">
-        <v>0.247632</v>
+        <v>0.246414</v>
       </c>
     </row>
     <row r="62">
@@ -4089,13 +4089,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.209556</v>
+        <v>0.20803</v>
       </c>
       <c r="C62" t="n">
-        <v>0.241797</v>
+        <v>0.239691</v>
       </c>
       <c r="D62" t="n">
-        <v>0.243418</v>
+        <v>0.243439</v>
       </c>
     </row>
     <row r="63">
@@ -4103,13 +4103,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.201074</v>
+        <v>0.205133</v>
       </c>
       <c r="C63" t="n">
-        <v>0.238766</v>
+        <v>0.24042</v>
       </c>
       <c r="D63" t="n">
-        <v>0.242638</v>
+        <v>0.241516</v>
       </c>
     </row>
     <row r="64">
@@ -4117,13 +4117,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.199607</v>
+        <v>0.197633</v>
       </c>
       <c r="C64" t="n">
-        <v>0.238073</v>
+        <v>0.238521</v>
       </c>
       <c r="D64" t="n">
-        <v>0.242112</v>
+        <v>0.242084</v>
       </c>
     </row>
     <row r="65">
@@ -4131,13 +4131,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.190797</v>
+        <v>0.191483</v>
       </c>
       <c r="C65" t="n">
-        <v>0.240233</v>
+        <v>0.238255</v>
       </c>
       <c r="D65" t="n">
-        <v>0.242035</v>
+        <v>0.241873</v>
       </c>
     </row>
     <row r="66">
@@ -4145,13 +4145,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.18448</v>
+        <v>0.186923</v>
       </c>
       <c r="C66" t="n">
-        <v>0.236173</v>
+        <v>0.236713</v>
       </c>
       <c r="D66" t="n">
-        <v>0.267531</v>
+        <v>0.265611</v>
       </c>
     </row>
     <row r="67">
@@ -4159,13 +4159,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.254993</v>
+        <v>0.256412</v>
       </c>
       <c r="C67" t="n">
-        <v>0.262075</v>
+        <v>0.262906</v>
       </c>
       <c r="D67" t="n">
-        <v>0.26563</v>
+        <v>0.264398</v>
       </c>
     </row>
     <row r="68">
@@ -4173,13 +4173,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.251029</v>
+        <v>0.246572</v>
       </c>
       <c r="C68" t="n">
-        <v>0.257915</v>
+        <v>0.259873</v>
       </c>
       <c r="D68" t="n">
-        <v>0.264223</v>
+        <v>0.265024</v>
       </c>
     </row>
     <row r="69">
@@ -4187,13 +4187,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.246626</v>
+        <v>0.248787</v>
       </c>
       <c r="C69" t="n">
-        <v>0.261358</v>
+        <v>0.256169</v>
       </c>
       <c r="D69" t="n">
-        <v>0.264125</v>
+        <v>0.263401</v>
       </c>
     </row>
     <row r="70">
@@ -4201,13 +4201,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.243574</v>
+        <v>0.239243</v>
       </c>
       <c r="C70" t="n">
-        <v>0.257198</v>
+        <v>0.254255</v>
       </c>
       <c r="D70" t="n">
-        <v>0.259681</v>
+        <v>0.261026</v>
       </c>
     </row>
     <row r="71">
@@ -4215,13 +4215,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.237932</v>
+        <v>0.238128</v>
       </c>
       <c r="C71" t="n">
-        <v>0.251206</v>
+        <v>0.254647</v>
       </c>
       <c r="D71" t="n">
-        <v>0.261123</v>
+        <v>0.260451</v>
       </c>
     </row>
     <row r="72">
@@ -4229,13 +4229,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.23496</v>
+        <v>0.23368</v>
       </c>
       <c r="C72" t="n">
-        <v>0.252791</v>
+        <v>0.249726</v>
       </c>
       <c r="D72" t="n">
-        <v>0.254621</v>
+        <v>0.255023</v>
       </c>
     </row>
     <row r="73">
@@ -4243,13 +4243,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.231708</v>
+        <v>0.227725</v>
       </c>
       <c r="C73" t="n">
-        <v>0.248926</v>
+        <v>0.248203</v>
       </c>
       <c r="D73" t="n">
-        <v>0.252926</v>
+        <v>0.253725</v>
       </c>
     </row>
     <row r="74">
@@ -4257,13 +4257,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.22188</v>
+        <v>0.221364</v>
       </c>
       <c r="C74" t="n">
-        <v>0.249897</v>
+        <v>0.248469</v>
       </c>
       <c r="D74" t="n">
-        <v>0.250732</v>
+        <v>0.251142</v>
       </c>
     </row>
     <row r="75">
@@ -4271,13 +4271,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.221177</v>
+        <v>0.217996</v>
       </c>
       <c r="C75" t="n">
-        <v>0.246965</v>
+        <v>0.243311</v>
       </c>
       <c r="D75" t="n">
-        <v>0.251475</v>
+        <v>0.251595</v>
       </c>
     </row>
     <row r="76">
@@ -4285,13 +4285,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.216252</v>
+        <v>0.215484</v>
       </c>
       <c r="C76" t="n">
-        <v>0.243048</v>
+        <v>0.241305</v>
       </c>
       <c r="D76" t="n">
-        <v>0.248743</v>
+        <v>0.248044</v>
       </c>
     </row>
     <row r="77">
@@ -4299,13 +4299,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.212199</v>
+        <v>0.210679</v>
       </c>
       <c r="C77" t="n">
-        <v>0.241938</v>
+        <v>0.243158</v>
       </c>
       <c r="D77" t="n">
-        <v>0.246117</v>
+        <v>0.250495</v>
       </c>
     </row>
     <row r="78">
@@ -4313,13 +4313,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.206691</v>
+        <v>0.20441</v>
       </c>
       <c r="C78" t="n">
-        <v>0.245225</v>
+        <v>0.242527</v>
       </c>
       <c r="D78" t="n">
-        <v>0.246456</v>
+        <v>0.246726</v>
       </c>
     </row>
     <row r="79">
@@ -4327,13 +4327,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.202985</v>
+        <v>0.202559</v>
       </c>
       <c r="C79" t="n">
-        <v>0.243003</v>
+        <v>0.2448</v>
       </c>
       <c r="D79" t="n">
-        <v>0.244679</v>
+        <v>0.243653</v>
       </c>
     </row>
     <row r="80">
@@ -4341,13 +4341,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.192603</v>
+        <v>0.193426</v>
       </c>
       <c r="C80" t="n">
-        <v>0.239498</v>
+        <v>0.236686</v>
       </c>
       <c r="D80" t="n">
-        <v>0.275528</v>
+        <v>0.276236</v>
       </c>
     </row>
     <row r="81">
@@ -4355,13 +4355,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.261193</v>
+        <v>0.261404</v>
       </c>
       <c r="C81" t="n">
-        <v>0.267679</v>
+        <v>0.265925</v>
       </c>
       <c r="D81" t="n">
-        <v>0.276616</v>
+        <v>0.270162</v>
       </c>
     </row>
     <row r="82">
@@ -4369,13 +4369,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.25626</v>
+        <v>0.257912</v>
       </c>
       <c r="C82" t="n">
-        <v>0.265937</v>
+        <v>0.262863</v>
       </c>
       <c r="D82" t="n">
-        <v>0.266617</v>
+        <v>0.270422</v>
       </c>
     </row>
     <row r="83">
@@ -4383,13 +4383,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.246851</v>
+        <v>0.251608</v>
       </c>
       <c r="C83" t="n">
-        <v>0.264839</v>
+        <v>0.259759</v>
       </c>
       <c r="D83" t="n">
-        <v>0.267244</v>
+        <v>0.267698</v>
       </c>
     </row>
     <row r="84">
@@ -4397,13 +4397,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.242715</v>
+        <v>0.246759</v>
       </c>
       <c r="C84" t="n">
-        <v>0.261642</v>
+        <v>0.259172</v>
       </c>
       <c r="D84" t="n">
-        <v>0.268865</v>
+        <v>0.264579</v>
       </c>
     </row>
     <row r="85">
@@ -4411,13 +4411,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.240718</v>
+        <v>0.242551</v>
       </c>
       <c r="C85" t="n">
-        <v>0.259129</v>
+        <v>0.257726</v>
       </c>
       <c r="D85" t="n">
-        <v>0.262819</v>
+        <v>0.262052</v>
       </c>
     </row>
     <row r="86">
@@ -4425,13 +4425,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.235076</v>
+        <v>0.235155</v>
       </c>
       <c r="C86" t="n">
-        <v>0.255562</v>
+        <v>0.25445</v>
       </c>
       <c r="D86" t="n">
-        <v>0.257071</v>
+        <v>0.260561</v>
       </c>
     </row>
     <row r="87">
@@ -4439,13 +4439,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.229555</v>
+        <v>0.229357</v>
       </c>
       <c r="C87" t="n">
-        <v>0.250828</v>
+        <v>0.252292</v>
       </c>
       <c r="D87" t="n">
-        <v>0.260171</v>
+        <v>0.260814</v>
       </c>
     </row>
     <row r="88">
@@ -4453,13 +4453,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.226424</v>
+        <v>0.227909</v>
       </c>
       <c r="C88" t="n">
-        <v>0.252601</v>
+        <v>0.252885</v>
       </c>
       <c r="D88" t="n">
-        <v>0.255615</v>
+        <v>0.255504</v>
       </c>
     </row>
     <row r="89">
@@ -4467,13 +4467,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.219883</v>
+        <v>0.221888</v>
       </c>
       <c r="C89" t="n">
-        <v>0.247971</v>
+        <v>0.249834</v>
       </c>
       <c r="D89" t="n">
-        <v>0.255738</v>
+        <v>0.252076</v>
       </c>
     </row>
     <row r="90">
@@ -4481,13 +4481,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.219485</v>
+        <v>0.216477</v>
       </c>
       <c r="C90" t="n">
-        <v>0.247537</v>
+        <v>0.247513</v>
       </c>
       <c r="D90" t="n">
-        <v>0.25618</v>
+        <v>0.252682</v>
       </c>
     </row>
     <row r="91">
@@ -4495,13 +4495,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.214416</v>
+        <v>0.21461</v>
       </c>
       <c r="C91" t="n">
-        <v>0.246204</v>
+        <v>0.248948</v>
       </c>
       <c r="D91" t="n">
-        <v>0.252673</v>
+        <v>0.253364</v>
       </c>
     </row>
     <row r="92">
@@ -4509,13 +4509,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.206313</v>
+        <v>0.212244</v>
       </c>
       <c r="C92" t="n">
-        <v>0.24526</v>
+        <v>0.244258</v>
       </c>
       <c r="D92" t="n">
-        <v>0.25013</v>
+        <v>0.248541</v>
       </c>
     </row>
     <row r="93">
@@ -4523,13 +4523,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.202627</v>
+        <v>0.202797</v>
       </c>
       <c r="C93" t="n">
-        <v>0.246243</v>
+        <v>0.24272</v>
       </c>
       <c r="D93" t="n">
-        <v>0.248843</v>
+        <v>0.248772</v>
       </c>
     </row>
     <row r="94">
@@ -4537,13 +4537,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.194009</v>
+        <v>0.195758</v>
       </c>
       <c r="C94" t="n">
-        <v>0.244815</v>
+        <v>0.242242</v>
       </c>
       <c r="D94" t="n">
-        <v>0.275935</v>
+        <v>0.278105</v>
       </c>
     </row>
     <row r="95">
@@ -4551,13 +4551,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.260614</v>
+        <v>0.258154</v>
       </c>
       <c r="C95" t="n">
-        <v>0.268805</v>
+        <v>0.270252</v>
       </c>
       <c r="D95" t="n">
-        <v>0.271218</v>
+        <v>0.276672</v>
       </c>
     </row>
     <row r="96">
@@ -4565,13 +4565,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.253555</v>
+        <v>0.257373</v>
       </c>
       <c r="C96" t="n">
-        <v>0.264239</v>
+        <v>0.264508</v>
       </c>
       <c r="D96" t="n">
-        <v>0.269748</v>
+        <v>0.271574</v>
       </c>
     </row>
     <row r="97">
@@ -4579,13 +4579,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.251402</v>
+        <v>0.252037</v>
       </c>
       <c r="C97" t="n">
-        <v>0.26408</v>
+        <v>0.264542</v>
       </c>
       <c r="D97" t="n">
-        <v>0.269868</v>
+        <v>0.271959</v>
       </c>
     </row>
     <row r="98">
@@ -4593,13 +4593,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.245959</v>
+        <v>0.248221</v>
       </c>
       <c r="C98" t="n">
-        <v>0.260509</v>
+        <v>0.260673</v>
       </c>
       <c r="D98" t="n">
-        <v>0.268071</v>
+        <v>0.268253</v>
       </c>
     </row>
     <row r="99">
@@ -4607,13 +4607,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.242706</v>
+        <v>0.241731</v>
       </c>
       <c r="C99" t="n">
-        <v>0.259741</v>
+        <v>0.262526</v>
       </c>
       <c r="D99" t="n">
-        <v>0.265805</v>
+        <v>0.266107</v>
       </c>
     </row>
     <row r="100">
@@ -4621,13 +4621,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.236112</v>
+        <v>0.237509</v>
       </c>
       <c r="C100" t="n">
-        <v>0.259486</v>
+        <v>0.256408</v>
       </c>
       <c r="D100" t="n">
-        <v>0.260374</v>
+        <v>0.261133</v>
       </c>
     </row>
     <row r="101">
@@ -4635,13 +4635,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.237122</v>
+        <v>0.233231</v>
       </c>
       <c r="C101" t="n">
-        <v>0.254769</v>
+        <v>0.255802</v>
       </c>
       <c r="D101" t="n">
-        <v>0.256502</v>
+        <v>0.257454</v>
       </c>
     </row>
     <row r="102">
@@ -4649,13 +4649,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.230637</v>
+        <v>0.225417</v>
       </c>
       <c r="C102" t="n">
-        <v>0.253213</v>
+        <v>0.252851</v>
       </c>
       <c r="D102" t="n">
-        <v>0.258236</v>
+        <v>0.256844</v>
       </c>
     </row>
     <row r="103">
@@ -4663,13 +4663,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.22507</v>
+        <v>0.223576</v>
       </c>
       <c r="C103" t="n">
-        <v>0.250349</v>
+        <v>0.254165</v>
       </c>
       <c r="D103" t="n">
-        <v>0.256607</v>
+        <v>0.257334</v>
       </c>
     </row>
     <row r="104">
@@ -4677,13 +4677,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.217599</v>
+        <v>0.220446</v>
       </c>
       <c r="C104" t="n">
-        <v>0.24938</v>
+        <v>0.250076</v>
       </c>
       <c r="D104" t="n">
-        <v>0.251683</v>
+        <v>0.252659</v>
       </c>
     </row>
     <row r="105">
@@ -4691,13 +4691,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.213697</v>
+        <v>0.215755</v>
       </c>
       <c r="C105" t="n">
-        <v>0.247927</v>
+        <v>0.24638</v>
       </c>
       <c r="D105" t="n">
-        <v>0.253547</v>
+        <v>0.252995</v>
       </c>
     </row>
     <row r="106">
@@ -4705,13 +4705,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.211942</v>
+        <v>0.208671</v>
       </c>
       <c r="C106" t="n">
-        <v>0.246149</v>
+        <v>0.246068</v>
       </c>
       <c r="D106" t="n">
-        <v>0.24961</v>
+        <v>0.247773</v>
       </c>
     </row>
     <row r="107">
@@ -4719,13 +4719,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.205384</v>
+        <v>0.205409</v>
       </c>
       <c r="C107" t="n">
-        <v>0.244453</v>
+        <v>0.24345</v>
       </c>
       <c r="D107" t="n">
-        <v>0.245719</v>
+        <v>0.25069</v>
       </c>
     </row>
     <row r="108">
@@ -4733,13 +4733,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.199152</v>
+        <v>0.196457</v>
       </c>
       <c r="C108" t="n">
-        <v>0.240006</v>
+        <v>0.244004</v>
       </c>
       <c r="D108" t="n">
-        <v>0.276055</v>
+        <v>0.275355</v>
       </c>
     </row>
     <row r="109">
@@ -4747,13 +4747,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.188711</v>
+        <v>0.188124</v>
       </c>
       <c r="C109" t="n">
-        <v>0.241546</v>
+        <v>0.243503</v>
       </c>
       <c r="D109" t="n">
-        <v>0.276698</v>
+        <v>0.273488</v>
       </c>
     </row>
     <row r="110">
@@ -4761,13 +4761,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.260944</v>
+        <v>0.264405</v>
       </c>
       <c r="C110" t="n">
-        <v>0.271563</v>
+        <v>0.267586</v>
       </c>
       <c r="D110" t="n">
-        <v>0.279288</v>
+        <v>0.268572</v>
       </c>
     </row>
     <row r="111">
@@ -4775,13 +4775,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.251589</v>
+        <v>0.254068</v>
       </c>
       <c r="C111" t="n">
-        <v>0.26219</v>
+        <v>0.26284</v>
       </c>
       <c r="D111" t="n">
-        <v>0.26768</v>
+        <v>0.271454</v>
       </c>
     </row>
     <row r="112">
@@ -4789,13 +4789,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.25333</v>
+        <v>0.250131</v>
       </c>
       <c r="C112" t="n">
-        <v>0.264718</v>
+        <v>0.261482</v>
       </c>
       <c r="D112" t="n">
-        <v>0.268638</v>
+        <v>0.2682</v>
       </c>
     </row>
     <row r="113">
@@ -4803,13 +4803,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.241413</v>
+        <v>0.244691</v>
       </c>
       <c r="C113" t="n">
-        <v>0.257933</v>
+        <v>0.264614</v>
       </c>
       <c r="D113" t="n">
-        <v>0.26314</v>
+        <v>0.264019</v>
       </c>
     </row>
     <row r="114">
@@ -4817,13 +4817,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.238227</v>
+        <v>0.239407</v>
       </c>
       <c r="C114" t="n">
-        <v>0.258373</v>
+        <v>0.259003</v>
       </c>
       <c r="D114" t="n">
-        <v>0.26295</v>
+        <v>0.261392</v>
       </c>
     </row>
     <row r="115">
@@ -4831,13 +4831,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.233479</v>
+        <v>0.2373</v>
       </c>
       <c r="C115" t="n">
-        <v>0.263224</v>
+        <v>0.259085</v>
       </c>
       <c r="D115" t="n">
-        <v>0.258699</v>
+        <v>0.257207</v>
       </c>
     </row>
     <row r="116">
@@ -4845,13 +4845,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.226961</v>
+        <v>0.230898</v>
       </c>
       <c r="C116" t="n">
-        <v>0.253286</v>
+        <v>0.255254</v>
       </c>
       <c r="D116" t="n">
-        <v>0.258817</v>
+        <v>0.260172</v>
       </c>
     </row>
     <row r="117">
@@ -4859,13 +4859,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.22051</v>
+        <v>0.224533</v>
       </c>
       <c r="C117" t="n">
-        <v>0.248449</v>
+        <v>0.254855</v>
       </c>
       <c r="D117" t="n">
-        <v>0.256835</v>
+        <v>0.257206</v>
       </c>
     </row>
     <row r="118">
@@ -4873,13 +4873,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.217462</v>
+        <v>0.217824</v>
       </c>
       <c r="C118" t="n">
-        <v>0.254073</v>
+        <v>0.252072</v>
       </c>
       <c r="D118" t="n">
-        <v>0.254056</v>
+        <v>0.251993</v>
       </c>
     </row>
     <row r="119">
@@ -4887,13 +4887,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.21376</v>
+        <v>0.216447</v>
       </c>
       <c r="C119" t="n">
-        <v>0.25005</v>
+        <v>0.248505</v>
       </c>
       <c r="D119" t="n">
-        <v>0.250862</v>
+        <v>0.251351</v>
       </c>
     </row>
     <row r="120">
@@ -4901,13 +4901,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.212662</v>
+        <v>0.213861</v>
       </c>
       <c r="C120" t="n">
-        <v>0.248138</v>
+        <v>0.247385</v>
       </c>
       <c r="D120" t="n">
-        <v>0.256397</v>
+        <v>0.252904</v>
       </c>
     </row>
     <row r="121">
@@ -4915,13 +4915,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.207496</v>
+        <v>0.207484</v>
       </c>
       <c r="C121" t="n">
-        <v>0.245953</v>
+        <v>0.24658</v>
       </c>
       <c r="D121" t="n">
-        <v>0.248845</v>
+        <v>0.252958</v>
       </c>
     </row>
     <row r="122">
@@ -4929,13 +4929,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.201855</v>
+        <v>0.197817</v>
       </c>
       <c r="C122" t="n">
-        <v>0.24389</v>
+        <v>0.244368</v>
       </c>
       <c r="D122" t="n">
-        <v>0.247741</v>
+        <v>0.248817</v>
       </c>
     </row>
     <row r="123">
@@ -4943,13 +4943,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.190888</v>
+        <v>0.188127</v>
       </c>
       <c r="C123" t="n">
-        <v>0.244153</v>
+        <v>0.240461</v>
       </c>
       <c r="D123" t="n">
-        <v>0.273252</v>
+        <v>0.276929</v>
       </c>
     </row>
     <row r="124">
@@ -4957,13 +4957,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.257187</v>
+        <v>0.262299</v>
       </c>
       <c r="C124" t="n">
-        <v>0.267002</v>
+        <v>0.26621</v>
       </c>
       <c r="D124" t="n">
-        <v>0.272015</v>
+        <v>0.275498</v>
       </c>
     </row>
     <row r="125">
@@ -4971,13 +4971,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.254967</v>
+        <v>0.252085</v>
       </c>
       <c r="C125" t="n">
-        <v>0.266342</v>
+        <v>0.264797</v>
       </c>
       <c r="D125" t="n">
-        <v>0.271155</v>
+        <v>0.271067</v>
       </c>
     </row>
     <row r="126">
@@ -4985,13 +4985,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.254953</v>
+        <v>0.250159</v>
       </c>
       <c r="C126" t="n">
-        <v>0.262692</v>
+        <v>0.269036</v>
       </c>
       <c r="D126" t="n">
-        <v>0.268331</v>
+        <v>0.26776</v>
       </c>
     </row>
     <row r="127">
@@ -4999,13 +4999,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.243032</v>
+        <v>0.242533</v>
       </c>
       <c r="C127" t="n">
-        <v>0.259485</v>
+        <v>0.257508</v>
       </c>
       <c r="D127" t="n">
-        <v>0.26491</v>
+        <v>0.264069</v>
       </c>
     </row>
     <row r="128">
@@ -5013,13 +5013,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.241662</v>
+        <v>0.241251</v>
       </c>
       <c r="C128" t="n">
-        <v>0.261061</v>
+        <v>0.260844</v>
       </c>
       <c r="D128" t="n">
-        <v>0.261404</v>
+        <v>0.261876</v>
       </c>
     </row>
     <row r="129">
@@ -5027,13 +5027,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.235258</v>
+        <v>0.232939</v>
       </c>
       <c r="C129" t="n">
-        <v>0.25578</v>
+        <v>0.256238</v>
       </c>
       <c r="D129" t="n">
-        <v>0.263663</v>
+        <v>0.258961</v>
       </c>
     </row>
     <row r="130">
@@ -5041,13 +5041,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.231116</v>
+        <v>0.233788</v>
       </c>
       <c r="C130" t="n">
-        <v>0.25178</v>
+        <v>0.251257</v>
       </c>
       <c r="D130" t="n">
-        <v>0.25809</v>
+        <v>0.26498</v>
       </c>
     </row>
     <row r="131">
@@ -5055,13 +5055,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.224883</v>
+        <v>0.226651</v>
       </c>
       <c r="C131" t="n">
-        <v>0.257233</v>
+        <v>0.251901</v>
       </c>
       <c r="D131" t="n">
-        <v>0.25902</v>
+        <v>0.254662</v>
       </c>
     </row>
     <row r="132">
@@ -5069,13 +5069,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.222659</v>
+        <v>0.218364</v>
       </c>
       <c r="C132" t="n">
-        <v>0.258521</v>
+        <v>0.249955</v>
       </c>
       <c r="D132" t="n">
-        <v>0.254819</v>
+        <v>0.252658</v>
       </c>
     </row>
     <row r="133">
@@ -5083,13 +5083,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.218555</v>
+        <v>0.215258</v>
       </c>
       <c r="C133" t="n">
-        <v>0.255204</v>
+        <v>0.251472</v>
       </c>
       <c r="D133" t="n">
-        <v>0.256106</v>
+        <v>0.252226</v>
       </c>
     </row>
     <row r="134">
@@ -5097,13 +5097,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.213173</v>
+        <v>0.212481</v>
       </c>
       <c r="C134" t="n">
-        <v>0.244896</v>
+        <v>0.244193</v>
       </c>
       <c r="D134" t="n">
-        <v>0.25479</v>
+        <v>0.253366</v>
       </c>
     </row>
     <row r="135">
@@ -5111,13 +5111,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.210697</v>
+        <v>0.205907</v>
       </c>
       <c r="C135" t="n">
-        <v>0.246278</v>
+        <v>0.249318</v>
       </c>
       <c r="D135" t="n">
-        <v>0.249656</v>
+        <v>0.25122</v>
       </c>
     </row>
     <row r="136">
@@ -5125,13 +5125,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.200171</v>
+        <v>0.204151</v>
       </c>
       <c r="C136" t="n">
-        <v>0.245466</v>
+        <v>0.246273</v>
       </c>
       <c r="D136" t="n">
-        <v>0.252641</v>
+        <v>0.247606</v>
       </c>
     </row>
     <row r="137">
@@ -5139,13 +5139,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.190753</v>
+        <v>0.196043</v>
       </c>
       <c r="C137" t="n">
-        <v>0.246035</v>
+        <v>0.243568</v>
       </c>
       <c r="D137" t="n">
-        <v>0.274821</v>
+        <v>0.276876</v>
       </c>
     </row>
     <row r="138">
@@ -5153,13 +5153,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.260143</v>
+        <v>0.262006</v>
       </c>
       <c r="C138" t="n">
-        <v>0.274574</v>
+        <v>0.2693</v>
       </c>
       <c r="D138" t="n">
-        <v>0.26772</v>
+        <v>0.274313</v>
       </c>
     </row>
     <row r="139">
@@ -5167,13 +5167,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.258907</v>
+        <v>0.261246</v>
       </c>
       <c r="C139" t="n">
-        <v>0.270348</v>
+        <v>0.270328</v>
       </c>
       <c r="D139" t="n">
-        <v>0.273234</v>
+        <v>0.272796</v>
       </c>
     </row>
     <row r="140">
@@ -5181,13 +5181,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.247876</v>
+        <v>0.254095</v>
       </c>
       <c r="C140" t="n">
-        <v>0.259974</v>
+        <v>0.260481</v>
       </c>
       <c r="D140" t="n">
-        <v>0.267486</v>
+        <v>0.271963</v>
       </c>
     </row>
     <row r="141">
@@ -5195,13 +5195,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.243481</v>
+        <v>0.249293</v>
       </c>
       <c r="C141" t="n">
-        <v>0.269507</v>
+        <v>0.260559</v>
       </c>
       <c r="D141" t="n">
-        <v>0.26876</v>
+        <v>0.269552</v>
       </c>
     </row>
     <row r="142">
@@ -5209,13 +5209,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.238864</v>
+        <v>0.239387</v>
       </c>
       <c r="C142" t="n">
-        <v>0.26162</v>
+        <v>0.25874</v>
       </c>
       <c r="D142" t="n">
-        <v>0.267243</v>
+        <v>0.264928</v>
       </c>
     </row>
     <row r="143">
@@ -5223,13 +5223,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.234054</v>
+        <v>0.23757</v>
       </c>
       <c r="C143" t="n">
-        <v>0.253941</v>
+        <v>0.257434</v>
       </c>
       <c r="D143" t="n">
-        <v>0.262524</v>
+        <v>0.256987</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Running erasure.xlsx
+++ b/vs-x64/Running erasure.xlsx
@@ -3249,13 +3249,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.206791</v>
+        <v>0.204323</v>
       </c>
       <c r="C2" t="n">
-        <v>0.235507</v>
+        <v>0.232859</v>
       </c>
       <c r="D2" t="n">
-        <v>0.238314</v>
+        <v>0.238429</v>
       </c>
     </row>
     <row r="3">
@@ -3263,13 +3263,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.200122</v>
+        <v>0.201847</v>
       </c>
       <c r="C3" t="n">
-        <v>0.235246</v>
+        <v>0.233445</v>
       </c>
       <c r="D3" t="n">
-        <v>0.238554</v>
+        <v>0.237113</v>
       </c>
     </row>
     <row r="4">
@@ -3277,13 +3277,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.197971</v>
+        <v>0.193046</v>
       </c>
       <c r="C4" t="n">
-        <v>0.237549</v>
+        <v>0.232994</v>
       </c>
       <c r="D4" t="n">
-        <v>0.240008</v>
+        <v>0.232016</v>
       </c>
     </row>
     <row r="5">
@@ -3291,13 +3291,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.198943</v>
+        <v>0.194679</v>
       </c>
       <c r="C5" t="n">
-        <v>0.23289</v>
+        <v>0.234067</v>
       </c>
       <c r="D5" t="n">
-        <v>0.238483</v>
+        <v>0.237458</v>
       </c>
     </row>
     <row r="6">
@@ -3305,13 +3305,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.193087</v>
+        <v>0.194607</v>
       </c>
       <c r="C6" t="n">
-        <v>0.238968</v>
+        <v>0.232198</v>
       </c>
       <c r="D6" t="n">
-        <v>0.236599</v>
+        <v>0.235386</v>
       </c>
     </row>
     <row r="7">
@@ -3319,13 +3319,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.188887</v>
+        <v>0.186516</v>
       </c>
       <c r="C7" t="n">
-        <v>0.234069</v>
+        <v>0.233307</v>
       </c>
       <c r="D7" t="n">
-        <v>0.241162</v>
+        <v>0.23743</v>
       </c>
     </row>
     <row r="8">
@@ -3333,13 +3333,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.181691</v>
+        <v>0.179067</v>
       </c>
       <c r="C8" t="n">
-        <v>0.227523</v>
+        <v>0.232266</v>
       </c>
       <c r="D8" t="n">
-        <v>0.233165</v>
+        <v>0.235286</v>
       </c>
     </row>
     <row r="9">
@@ -3347,13 +3347,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.17748</v>
+        <v>0.173139</v>
       </c>
       <c r="C9" t="n">
-        <v>0.229415</v>
+        <v>0.229038</v>
       </c>
       <c r="D9" t="n">
-        <v>0.24773</v>
+        <v>0.234295</v>
       </c>
     </row>
     <row r="10">
@@ -3361,13 +3361,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.225453</v>
+        <v>0.232742</v>
       </c>
       <c r="C10" t="n">
-        <v>0.242192</v>
+        <v>0.242764</v>
       </c>
       <c r="D10" t="n">
-        <v>0.246929</v>
+        <v>0.241156</v>
       </c>
     </row>
     <row r="11">
@@ -3375,13 +3375,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.225605</v>
+        <v>0.227379</v>
       </c>
       <c r="C11" t="n">
-        <v>0.239211</v>
+        <v>0.244203</v>
       </c>
       <c r="D11" t="n">
-        <v>0.246522</v>
+        <v>0.242141</v>
       </c>
     </row>
     <row r="12">
@@ -3389,13 +3389,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.224003</v>
+        <v>0.222079</v>
       </c>
       <c r="C12" t="n">
-        <v>0.238973</v>
+        <v>0.23379</v>
       </c>
       <c r="D12" t="n">
-        <v>0.247751</v>
+        <v>0.243097</v>
       </c>
     </row>
     <row r="13">
@@ -3403,13 +3403,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.21902</v>
+        <v>0.221123</v>
       </c>
       <c r="C13" t="n">
-        <v>0.236712</v>
+        <v>0.23902</v>
       </c>
       <c r="D13" t="n">
-        <v>0.243791</v>
+        <v>0.237677</v>
       </c>
     </row>
     <row r="14">
@@ -3417,13 +3417,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.215859</v>
+        <v>0.215477</v>
       </c>
       <c r="C14" t="n">
-        <v>0.242673</v>
+        <v>0.235259</v>
       </c>
       <c r="D14" t="n">
-        <v>0.242564</v>
+        <v>0.237976</v>
       </c>
     </row>
     <row r="15">
@@ -3431,13 +3431,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.212203</v>
+        <v>0.21051</v>
       </c>
       <c r="C15" t="n">
-        <v>0.236977</v>
+        <v>0.236223</v>
       </c>
       <c r="D15" t="n">
-        <v>0.245241</v>
+        <v>0.239591</v>
       </c>
     </row>
     <row r="16">
@@ -3445,13 +3445,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.213547</v>
+        <v>0.209229</v>
       </c>
       <c r="C16" t="n">
-        <v>0.237232</v>
+        <v>0.235478</v>
       </c>
       <c r="D16" t="n">
-        <v>0.244967</v>
+        <v>0.240046</v>
       </c>
     </row>
     <row r="17">
@@ -3459,13 +3459,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.206821</v>
+        <v>0.206381</v>
       </c>
       <c r="C17" t="n">
-        <v>0.237967</v>
+        <v>0.235129</v>
       </c>
       <c r="D17" t="n">
-        <v>0.245408</v>
+        <v>0.241231</v>
       </c>
     </row>
     <row r="18">
@@ -3473,13 +3473,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.205635</v>
+        <v>0.197626</v>
       </c>
       <c r="C18" t="n">
-        <v>0.234745</v>
+        <v>0.232101</v>
       </c>
       <c r="D18" t="n">
-        <v>0.241481</v>
+        <v>0.234627</v>
       </c>
     </row>
     <row r="19">
@@ -3487,13 +3487,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.202908</v>
+        <v>0.199846</v>
       </c>
       <c r="C19" t="n">
-        <v>0.236702</v>
+        <v>0.233357</v>
       </c>
       <c r="D19" t="n">
-        <v>0.239049</v>
+        <v>0.234185</v>
       </c>
     </row>
     <row r="20">
@@ -3501,13 +3501,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.19729</v>
+        <v>0.196695</v>
       </c>
       <c r="C20" t="n">
-        <v>0.231668</v>
+        <v>0.231463</v>
       </c>
       <c r="D20" t="n">
-        <v>0.240195</v>
+        <v>0.236047</v>
       </c>
     </row>
     <row r="21">
@@ -3515,13 +3515,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.195328</v>
+        <v>0.190013</v>
       </c>
       <c r="C21" t="n">
-        <v>0.232666</v>
+        <v>0.234701</v>
       </c>
       <c r="D21" t="n">
-        <v>0.240546</v>
+        <v>0.232659</v>
       </c>
     </row>
     <row r="22">
@@ -3529,13 +3529,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.188721</v>
+        <v>0.184738</v>
       </c>
       <c r="C22" t="n">
-        <v>0.233497</v>
+        <v>0.229717</v>
       </c>
       <c r="D22" t="n">
-        <v>0.239266</v>
+        <v>0.238706</v>
       </c>
     </row>
     <row r="23">
@@ -3543,13 +3543,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.180793</v>
+        <v>0.177519</v>
       </c>
       <c r="C23" t="n">
-        <v>0.236104</v>
+        <v>0.229682</v>
       </c>
       <c r="D23" t="n">
-        <v>0.252803</v>
+        <v>0.230237</v>
       </c>
     </row>
     <row r="24">
@@ -3557,13 +3557,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.241086</v>
+        <v>0.237898</v>
       </c>
       <c r="C24" t="n">
-        <v>0.248396</v>
+        <v>0.245768</v>
       </c>
       <c r="D24" t="n">
-        <v>0.254445</v>
+        <v>0.24652</v>
       </c>
     </row>
     <row r="25">
@@ -3571,13 +3571,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.238394</v>
+        <v>0.233093</v>
       </c>
       <c r="C25" t="n">
-        <v>0.248124</v>
+        <v>0.245483</v>
       </c>
       <c r="D25" t="n">
-        <v>0.252834</v>
+        <v>0.248246</v>
       </c>
     </row>
     <row r="26">
@@ -3585,13 +3585,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.231476</v>
+        <v>0.227963</v>
       </c>
       <c r="C26" t="n">
-        <v>0.243335</v>
+        <v>0.242919</v>
       </c>
       <c r="D26" t="n">
-        <v>0.250392</v>
+        <v>0.24408</v>
       </c>
     </row>
     <row r="27">
@@ -3599,13 +3599,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.228352</v>
+        <v>0.222732</v>
       </c>
       <c r="C27" t="n">
-        <v>0.244788</v>
+        <v>0.240794</v>
       </c>
       <c r="D27" t="n">
-        <v>0.247793</v>
+        <v>0.244097</v>
       </c>
     </row>
     <row r="28">
@@ -3613,13 +3613,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.227344</v>
+        <v>0.216852</v>
       </c>
       <c r="C28" t="n">
-        <v>0.239677</v>
+        <v>0.238285</v>
       </c>
       <c r="D28" t="n">
-        <v>0.243238</v>
+        <v>0.242726</v>
       </c>
     </row>
     <row r="29">
@@ -3627,13 +3627,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.220924</v>
+        <v>0.2151</v>
       </c>
       <c r="C29" t="n">
-        <v>0.240713</v>
+        <v>0.236574</v>
       </c>
       <c r="D29" t="n">
-        <v>0.244567</v>
+        <v>0.241723</v>
       </c>
     </row>
     <row r="30">
@@ -3641,13 +3641,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.217625</v>
+        <v>0.209664</v>
       </c>
       <c r="C30" t="n">
-        <v>0.236625</v>
+        <v>0.235927</v>
       </c>
       <c r="D30" t="n">
-        <v>0.239918</v>
+        <v>0.237135</v>
       </c>
     </row>
     <row r="31">
@@ -3655,13 +3655,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.211158</v>
+        <v>0.208288</v>
       </c>
       <c r="C31" t="n">
-        <v>0.234455</v>
+        <v>0.237378</v>
       </c>
       <c r="D31" t="n">
-        <v>0.242251</v>
+        <v>0.240152</v>
       </c>
     </row>
     <row r="32">
@@ -3669,13 +3669,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.209471</v>
+        <v>0.204056</v>
       </c>
       <c r="C32" t="n">
-        <v>0.238933</v>
+        <v>0.234256</v>
       </c>
       <c r="D32" t="n">
-        <v>0.24323</v>
+        <v>0.240649</v>
       </c>
     </row>
     <row r="33">
@@ -3683,13 +3683,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.204566</v>
+        <v>0.200898</v>
       </c>
       <c r="C33" t="n">
-        <v>0.234539</v>
+        <v>0.235299</v>
       </c>
       <c r="D33" t="n">
-        <v>0.243968</v>
+        <v>0.235951</v>
       </c>
     </row>
     <row r="34">
@@ -3697,13 +3697,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.202875</v>
+        <v>0.194702</v>
       </c>
       <c r="C34" t="n">
-        <v>0.230842</v>
+        <v>0.235783</v>
       </c>
       <c r="D34" t="n">
-        <v>0.237491</v>
+        <v>0.233738</v>
       </c>
     </row>
     <row r="35">
@@ -3711,13 +3711,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.197462</v>
+        <v>0.19211</v>
       </c>
       <c r="C35" t="n">
-        <v>0.232588</v>
+        <v>0.233062</v>
       </c>
       <c r="D35" t="n">
-        <v>0.238442</v>
+        <v>0.235262</v>
       </c>
     </row>
     <row r="36">
@@ -3725,13 +3725,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.192184</v>
+        <v>0.188391</v>
       </c>
       <c r="C36" t="n">
-        <v>0.23236</v>
+        <v>0.232669</v>
       </c>
       <c r="D36" t="n">
-        <v>0.235825</v>
+        <v>0.234713</v>
       </c>
     </row>
     <row r="37">
@@ -3739,13 +3739,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.184148</v>
+        <v>0.182017</v>
       </c>
       <c r="C37" t="n">
-        <v>0.23044</v>
+        <v>0.232475</v>
       </c>
       <c r="D37" t="n">
-        <v>0.268469</v>
+        <v>0.233648</v>
       </c>
     </row>
     <row r="38">
@@ -3753,13 +3753,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.240576</v>
+        <v>0.238783</v>
       </c>
       <c r="C38" t="n">
-        <v>0.2604</v>
+        <v>0.256055</v>
       </c>
       <c r="D38" t="n">
-        <v>0.264127</v>
+        <v>0.259123</v>
       </c>
     </row>
     <row r="39">
@@ -3767,13 +3767,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.240579</v>
+        <v>0.238077</v>
       </c>
       <c r="C39" t="n">
-        <v>0.258062</v>
+        <v>0.254074</v>
       </c>
       <c r="D39" t="n">
-        <v>0.261616</v>
+        <v>0.259547</v>
       </c>
     </row>
     <row r="40">
@@ -3781,13 +3781,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.233746</v>
+        <v>0.233105</v>
       </c>
       <c r="C40" t="n">
-        <v>0.254019</v>
+        <v>0.256936</v>
       </c>
       <c r="D40" t="n">
-        <v>0.257606</v>
+        <v>0.256711</v>
       </c>
     </row>
     <row r="41">
@@ -3795,13 +3795,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.228196</v>
+        <v>0.225362</v>
       </c>
       <c r="C41" t="n">
-        <v>0.250555</v>
+        <v>0.253019</v>
       </c>
       <c r="D41" t="n">
-        <v>0.255576</v>
+        <v>0.254961</v>
       </c>
     </row>
     <row r="42">
@@ -3809,13 +3809,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.226991</v>
+        <v>0.221341</v>
       </c>
       <c r="C42" t="n">
-        <v>0.25008</v>
+        <v>0.250145</v>
       </c>
       <c r="D42" t="n">
-        <v>0.257731</v>
+        <v>0.253672</v>
       </c>
     </row>
     <row r="43">
@@ -3823,13 +3823,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.222618</v>
+        <v>0.218205</v>
       </c>
       <c r="C43" t="n">
-        <v>0.25012</v>
+        <v>0.251385</v>
       </c>
       <c r="D43" t="n">
-        <v>0.252723</v>
+        <v>0.253645</v>
       </c>
     </row>
     <row r="44">
@@ -3837,13 +3837,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.217148</v>
+        <v>0.212038</v>
       </c>
       <c r="C44" t="n">
-        <v>0.244468</v>
+        <v>0.247519</v>
       </c>
       <c r="D44" t="n">
-        <v>0.251413</v>
+        <v>0.250742</v>
       </c>
     </row>
     <row r="45">
@@ -3851,13 +3851,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.212559</v>
+        <v>0.211579</v>
       </c>
       <c r="C45" t="n">
-        <v>0.2452</v>
+        <v>0.249571</v>
       </c>
       <c r="D45" t="n">
-        <v>0.254249</v>
+        <v>0.248158</v>
       </c>
     </row>
     <row r="46">
@@ -3865,13 +3865,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.21311</v>
+        <v>0.208973</v>
       </c>
       <c r="C46" t="n">
-        <v>0.244371</v>
+        <v>0.24356</v>
       </c>
       <c r="D46" t="n">
-        <v>0.247076</v>
+        <v>0.250097</v>
       </c>
     </row>
     <row r="47">
@@ -3879,13 +3879,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.209379</v>
+        <v>0.205885</v>
       </c>
       <c r="C47" t="n">
-        <v>0.240888</v>
+        <v>0.243731</v>
       </c>
       <c r="D47" t="n">
-        <v>0.247583</v>
+        <v>0.247103</v>
       </c>
     </row>
     <row r="48">
@@ -3893,13 +3893,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.202121</v>
+        <v>0.202702</v>
       </c>
       <c r="C48" t="n">
-        <v>0.241193</v>
+        <v>0.243046</v>
       </c>
       <c r="D48" t="n">
-        <v>0.24462</v>
+        <v>0.244878</v>
       </c>
     </row>
     <row r="49">
@@ -3907,13 +3907,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.199455</v>
+        <v>0.199254</v>
       </c>
       <c r="C49" t="n">
-        <v>0.239233</v>
+        <v>0.241743</v>
       </c>
       <c r="D49" t="n">
-        <v>0.247434</v>
+        <v>0.242469</v>
       </c>
     </row>
     <row r="50">
@@ -3921,13 +3921,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.192716</v>
+        <v>0.193779</v>
       </c>
       <c r="C50" t="n">
-        <v>0.237179</v>
+        <v>0.239886</v>
       </c>
       <c r="D50" t="n">
-        <v>0.242327</v>
+        <v>0.240256</v>
       </c>
     </row>
     <row r="51">
@@ -3935,13 +3935,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.187729</v>
+        <v>0.184015</v>
       </c>
       <c r="C51" t="n">
-        <v>0.235302</v>
+        <v>0.236992</v>
       </c>
       <c r="D51" t="n">
-        <v>0.266012</v>
+        <v>0.237797</v>
       </c>
     </row>
     <row r="52">
@@ -3949,13 +3949,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.179331</v>
+        <v>0.177276</v>
       </c>
       <c r="C52" t="n">
-        <v>0.233816</v>
+        <v>0.23476</v>
       </c>
       <c r="D52" t="n">
-        <v>0.263865</v>
+        <v>0.239382</v>
       </c>
     </row>
     <row r="53">
@@ -3963,13 +3963,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.243751</v>
+        <v>0.24279</v>
       </c>
       <c r="C53" t="n">
-        <v>0.256073</v>
+        <v>0.255994</v>
       </c>
       <c r="D53" t="n">
-        <v>0.261496</v>
+        <v>0.260162</v>
       </c>
     </row>
     <row r="54">
@@ -3977,13 +3977,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.239271</v>
+        <v>0.236647</v>
       </c>
       <c r="C54" t="n">
-        <v>0.251458</v>
+        <v>0.253376</v>
       </c>
       <c r="D54" t="n">
-        <v>0.26037</v>
+        <v>0.257382</v>
       </c>
     </row>
     <row r="55">
@@ -3991,13 +3991,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.23632</v>
+        <v>0.233106</v>
       </c>
       <c r="C55" t="n">
-        <v>0.253755</v>
+        <v>0.250095</v>
       </c>
       <c r="D55" t="n">
-        <v>0.260068</v>
+        <v>0.256943</v>
       </c>
     </row>
     <row r="56">
@@ -4005,13 +4005,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.232753</v>
+        <v>0.228826</v>
       </c>
       <c r="C56" t="n">
-        <v>0.250166</v>
+        <v>0.252617</v>
       </c>
       <c r="D56" t="n">
-        <v>0.254137</v>
+        <v>0.25865</v>
       </c>
     </row>
     <row r="57">
@@ -4019,13 +4019,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.231109</v>
+        <v>0.229792</v>
       </c>
       <c r="C57" t="n">
-        <v>0.248768</v>
+        <v>0.252434</v>
       </c>
       <c r="D57" t="n">
-        <v>0.25224</v>
+        <v>0.255016</v>
       </c>
     </row>
     <row r="58">
@@ -4033,13 +4033,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.22414</v>
+        <v>0.225664</v>
       </c>
       <c r="C58" t="n">
-        <v>0.247451</v>
+        <v>0.245947</v>
       </c>
       <c r="D58" t="n">
-        <v>0.252465</v>
+        <v>0.251449</v>
       </c>
     </row>
     <row r="59">
@@ -4047,13 +4047,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.222265</v>
+        <v>0.216792</v>
       </c>
       <c r="C59" t="n">
-        <v>0.245318</v>
+        <v>0.246186</v>
       </c>
       <c r="D59" t="n">
-        <v>0.253516</v>
+        <v>0.250304</v>
       </c>
     </row>
     <row r="60">
@@ -4061,13 +4061,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.218326</v>
+        <v>0.213128</v>
       </c>
       <c r="C60" t="n">
-        <v>0.242546</v>
+        <v>0.245998</v>
       </c>
       <c r="D60" t="n">
-        <v>0.248088</v>
+        <v>0.247645</v>
       </c>
     </row>
     <row r="61">
@@ -4075,13 +4075,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.21267</v>
+        <v>0.210254</v>
       </c>
       <c r="C61" t="n">
-        <v>0.241758</v>
+        <v>0.245036</v>
       </c>
       <c r="D61" t="n">
-        <v>0.246414</v>
+        <v>0.245268</v>
       </c>
     </row>
     <row r="62">
@@ -4089,13 +4089,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.20803</v>
+        <v>0.205491</v>
       </c>
       <c r="C62" t="n">
-        <v>0.239691</v>
+        <v>0.240072</v>
       </c>
       <c r="D62" t="n">
-        <v>0.243439</v>
+        <v>0.245993</v>
       </c>
     </row>
     <row r="63">
@@ -4103,13 +4103,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.205133</v>
+        <v>0.203437</v>
       </c>
       <c r="C63" t="n">
-        <v>0.24042</v>
+        <v>0.241252</v>
       </c>
       <c r="D63" t="n">
-        <v>0.241516</v>
+        <v>0.245525</v>
       </c>
     </row>
     <row r="64">
@@ -4117,13 +4117,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.197633</v>
+        <v>0.198879</v>
       </c>
       <c r="C64" t="n">
-        <v>0.238521</v>
+        <v>0.238302</v>
       </c>
       <c r="D64" t="n">
-        <v>0.242084</v>
+        <v>0.24593</v>
       </c>
     </row>
     <row r="65">
@@ -4131,13 +4131,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.191483</v>
+        <v>0.192948</v>
       </c>
       <c r="C65" t="n">
-        <v>0.238255</v>
+        <v>0.237859</v>
       </c>
       <c r="D65" t="n">
-        <v>0.241873</v>
+        <v>0.240192</v>
       </c>
     </row>
     <row r="66">
@@ -4145,13 +4145,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.186923</v>
+        <v>0.18367</v>
       </c>
       <c r="C66" t="n">
-        <v>0.236713</v>
+        <v>0.241013</v>
       </c>
       <c r="D66" t="n">
-        <v>0.265611</v>
+        <v>0.239402</v>
       </c>
     </row>
     <row r="67">
@@ -4159,13 +4159,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.256412</v>
+        <v>0.250528</v>
       </c>
       <c r="C67" t="n">
-        <v>0.262906</v>
+        <v>0.262405</v>
       </c>
       <c r="D67" t="n">
-        <v>0.264398</v>
+        <v>0.269028</v>
       </c>
     </row>
     <row r="68">
@@ -4173,13 +4173,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.246572</v>
+        <v>0.246123</v>
       </c>
       <c r="C68" t="n">
-        <v>0.259873</v>
+        <v>0.261054</v>
       </c>
       <c r="D68" t="n">
-        <v>0.265024</v>
+        <v>0.263777</v>
       </c>
     </row>
     <row r="69">
@@ -4187,13 +4187,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.248787</v>
+        <v>0.242785</v>
       </c>
       <c r="C69" t="n">
-        <v>0.256169</v>
+        <v>0.261492</v>
       </c>
       <c r="D69" t="n">
-        <v>0.263401</v>
+        <v>0.262563</v>
       </c>
     </row>
     <row r="70">
@@ -4201,13 +4201,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.239243</v>
+        <v>0.237844</v>
       </c>
       <c r="C70" t="n">
-        <v>0.254255</v>
+        <v>0.258283</v>
       </c>
       <c r="D70" t="n">
-        <v>0.261026</v>
+        <v>0.257984</v>
       </c>
     </row>
     <row r="71">
@@ -4215,13 +4215,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.238128</v>
+        <v>0.235433</v>
       </c>
       <c r="C71" t="n">
-        <v>0.254647</v>
+        <v>0.253859</v>
       </c>
       <c r="D71" t="n">
-        <v>0.260451</v>
+        <v>0.258367</v>
       </c>
     </row>
     <row r="72">
@@ -4229,13 +4229,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.23368</v>
+        <v>0.233574</v>
       </c>
       <c r="C72" t="n">
-        <v>0.249726</v>
+        <v>0.255403</v>
       </c>
       <c r="D72" t="n">
-        <v>0.255023</v>
+        <v>0.255748</v>
       </c>
     </row>
     <row r="73">
@@ -4243,13 +4243,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.227725</v>
+        <v>0.2304</v>
       </c>
       <c r="C73" t="n">
-        <v>0.248203</v>
+        <v>0.250892</v>
       </c>
       <c r="D73" t="n">
-        <v>0.253725</v>
+        <v>0.251163</v>
       </c>
     </row>
     <row r="74">
@@ -4257,13 +4257,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.221364</v>
+        <v>0.22139</v>
       </c>
       <c r="C74" t="n">
-        <v>0.248469</v>
+        <v>0.247265</v>
       </c>
       <c r="D74" t="n">
-        <v>0.251142</v>
+        <v>0.249285</v>
       </c>
     </row>
     <row r="75">
@@ -4271,13 +4271,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.217996</v>
+        <v>0.214157</v>
       </c>
       <c r="C75" t="n">
-        <v>0.243311</v>
+        <v>0.244863</v>
       </c>
       <c r="D75" t="n">
-        <v>0.251595</v>
+        <v>0.251233</v>
       </c>
     </row>
     <row r="76">
@@ -4285,13 +4285,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.215484</v>
+        <v>0.213189</v>
       </c>
       <c r="C76" t="n">
-        <v>0.241305</v>
+        <v>0.246247</v>
       </c>
       <c r="D76" t="n">
-        <v>0.248044</v>
+        <v>0.248321</v>
       </c>
     </row>
     <row r="77">
@@ -4299,13 +4299,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.210679</v>
+        <v>0.210496</v>
       </c>
       <c r="C77" t="n">
-        <v>0.243158</v>
+        <v>0.244558</v>
       </c>
       <c r="D77" t="n">
-        <v>0.250495</v>
+        <v>0.247375</v>
       </c>
     </row>
     <row r="78">
@@ -4313,13 +4313,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.20441</v>
+        <v>0.201441</v>
       </c>
       <c r="C78" t="n">
-        <v>0.242527</v>
+        <v>0.240374</v>
       </c>
       <c r="D78" t="n">
-        <v>0.246726</v>
+        <v>0.245864</v>
       </c>
     </row>
     <row r="79">
@@ -4327,13 +4327,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.202559</v>
+        <v>0.20081</v>
       </c>
       <c r="C79" t="n">
-        <v>0.2448</v>
+        <v>0.24517</v>
       </c>
       <c r="D79" t="n">
-        <v>0.243653</v>
+        <v>0.246494</v>
       </c>
     </row>
     <row r="80">
@@ -4341,13 +4341,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.193426</v>
+        <v>0.18948</v>
       </c>
       <c r="C80" t="n">
-        <v>0.236686</v>
+        <v>0.242226</v>
       </c>
       <c r="D80" t="n">
-        <v>0.276236</v>
+        <v>0.24653</v>
       </c>
     </row>
     <row r="81">
@@ -4355,13 +4355,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.261404</v>
+        <v>0.257303</v>
       </c>
       <c r="C81" t="n">
-        <v>0.265925</v>
+        <v>0.268921</v>
       </c>
       <c r="D81" t="n">
-        <v>0.270162</v>
+        <v>0.270893</v>
       </c>
     </row>
     <row r="82">
@@ -4369,13 +4369,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.257912</v>
+        <v>0.256039</v>
       </c>
       <c r="C82" t="n">
-        <v>0.262863</v>
+        <v>0.273429</v>
       </c>
       <c r="D82" t="n">
-        <v>0.270422</v>
+        <v>0.269193</v>
       </c>
     </row>
     <row r="83">
@@ -4383,13 +4383,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.251608</v>
+        <v>0.253181</v>
       </c>
       <c r="C83" t="n">
-        <v>0.259759</v>
+        <v>0.266015</v>
       </c>
       <c r="D83" t="n">
-        <v>0.267698</v>
+        <v>0.267781</v>
       </c>
     </row>
     <row r="84">
@@ -4397,13 +4397,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.246759</v>
+        <v>0.244049</v>
       </c>
       <c r="C84" t="n">
-        <v>0.259172</v>
+        <v>0.262846</v>
       </c>
       <c r="D84" t="n">
-        <v>0.264579</v>
+        <v>0.269499</v>
       </c>
     </row>
     <row r="85">
@@ -4411,13 +4411,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.242551</v>
+        <v>0.241182</v>
       </c>
       <c r="C85" t="n">
-        <v>0.257726</v>
+        <v>0.259392</v>
       </c>
       <c r="D85" t="n">
-        <v>0.262052</v>
+        <v>0.262864</v>
       </c>
     </row>
     <row r="86">
@@ -4425,13 +4425,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.235155</v>
+        <v>0.235122</v>
       </c>
       <c r="C86" t="n">
-        <v>0.25445</v>
+        <v>0.257361</v>
       </c>
       <c r="D86" t="n">
-        <v>0.260561</v>
+        <v>0.263936</v>
       </c>
     </row>
     <row r="87">
@@ -4439,13 +4439,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.229357</v>
+        <v>0.230189</v>
       </c>
       <c r="C87" t="n">
-        <v>0.252292</v>
+        <v>0.256724</v>
       </c>
       <c r="D87" t="n">
-        <v>0.260814</v>
+        <v>0.260133</v>
       </c>
     </row>
     <row r="88">
@@ -4453,13 +4453,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.227909</v>
+        <v>0.226007</v>
       </c>
       <c r="C88" t="n">
-        <v>0.252885</v>
+        <v>0.255574</v>
       </c>
       <c r="D88" t="n">
-        <v>0.255504</v>
+        <v>0.257302</v>
       </c>
     </row>
     <row r="89">
@@ -4467,13 +4467,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.221888</v>
+        <v>0.222196</v>
       </c>
       <c r="C89" t="n">
-        <v>0.249834</v>
+        <v>0.252263</v>
       </c>
       <c r="D89" t="n">
-        <v>0.252076</v>
+        <v>0.253511</v>
       </c>
     </row>
     <row r="90">
@@ -4481,13 +4481,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.216477</v>
+        <v>0.214893</v>
       </c>
       <c r="C90" t="n">
-        <v>0.247513</v>
+        <v>0.249027</v>
       </c>
       <c r="D90" t="n">
-        <v>0.252682</v>
+        <v>0.251282</v>
       </c>
     </row>
     <row r="91">
@@ -4495,13 +4495,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.21461</v>
+        <v>0.209768</v>
       </c>
       <c r="C91" t="n">
-        <v>0.248948</v>
+        <v>0.250088</v>
       </c>
       <c r="D91" t="n">
-        <v>0.253364</v>
+        <v>0.251174</v>
       </c>
     </row>
     <row r="92">
@@ -4509,13 +4509,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.212244</v>
+        <v>0.206567</v>
       </c>
       <c r="C92" t="n">
-        <v>0.244258</v>
+        <v>0.248768</v>
       </c>
       <c r="D92" t="n">
-        <v>0.248541</v>
+        <v>0.251118</v>
       </c>
     </row>
     <row r="93">
@@ -4523,13 +4523,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.202797</v>
+        <v>0.201552</v>
       </c>
       <c r="C93" t="n">
-        <v>0.24272</v>
+        <v>0.245543</v>
       </c>
       <c r="D93" t="n">
-        <v>0.248772</v>
+        <v>0.249053</v>
       </c>
     </row>
     <row r="94">
@@ -4537,13 +4537,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.195758</v>
+        <v>0.195641</v>
       </c>
       <c r="C94" t="n">
-        <v>0.242242</v>
+        <v>0.245571</v>
       </c>
       <c r="D94" t="n">
-        <v>0.278105</v>
+        <v>0.246604</v>
       </c>
     </row>
     <row r="95">
@@ -4551,13 +4551,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.258154</v>
+        <v>0.259762</v>
       </c>
       <c r="C95" t="n">
-        <v>0.270252</v>
+        <v>0.269223</v>
       </c>
       <c r="D95" t="n">
-        <v>0.276672</v>
+        <v>0.273059</v>
       </c>
     </row>
     <row r="96">
@@ -4565,13 +4565,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.257373</v>
+        <v>0.258074</v>
       </c>
       <c r="C96" t="n">
-        <v>0.264508</v>
+        <v>0.267377</v>
       </c>
       <c r="D96" t="n">
-        <v>0.271574</v>
+        <v>0.268941</v>
       </c>
     </row>
     <row r="97">
@@ -4579,13 +4579,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.252037</v>
+        <v>0.25166</v>
       </c>
       <c r="C97" t="n">
-        <v>0.264542</v>
+        <v>0.268661</v>
       </c>
       <c r="D97" t="n">
-        <v>0.271959</v>
+        <v>0.268333</v>
       </c>
     </row>
     <row r="98">
@@ -4593,13 +4593,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.248221</v>
+        <v>0.245202</v>
       </c>
       <c r="C98" t="n">
-        <v>0.260673</v>
+        <v>0.263305</v>
       </c>
       <c r="D98" t="n">
-        <v>0.268253</v>
+        <v>0.262811</v>
       </c>
     </row>
     <row r="99">
@@ -4607,13 +4607,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.241731</v>
+        <v>0.241311</v>
       </c>
       <c r="C99" t="n">
-        <v>0.262526</v>
+        <v>0.258718</v>
       </c>
       <c r="D99" t="n">
-        <v>0.266107</v>
+        <v>0.265169</v>
       </c>
     </row>
     <row r="100">
@@ -4621,13 +4621,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.237509</v>
+        <v>0.237613</v>
       </c>
       <c r="C100" t="n">
-        <v>0.256408</v>
+        <v>0.256156</v>
       </c>
       <c r="D100" t="n">
-        <v>0.261133</v>
+        <v>0.263486</v>
       </c>
     </row>
     <row r="101">
@@ -4635,13 +4635,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.233231</v>
+        <v>0.230284</v>
       </c>
       <c r="C101" t="n">
-        <v>0.255802</v>
+        <v>0.261836</v>
       </c>
       <c r="D101" t="n">
-        <v>0.257454</v>
+        <v>0.258086</v>
       </c>
     </row>
     <row r="102">
@@ -4649,13 +4649,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.225417</v>
+        <v>0.22618</v>
       </c>
       <c r="C102" t="n">
-        <v>0.252851</v>
+        <v>0.255237</v>
       </c>
       <c r="D102" t="n">
-        <v>0.256844</v>
+        <v>0.25617</v>
       </c>
     </row>
     <row r="103">
@@ -4663,13 +4663,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.223576</v>
+        <v>0.221346</v>
       </c>
       <c r="C103" t="n">
-        <v>0.254165</v>
+        <v>0.250495</v>
       </c>
       <c r="D103" t="n">
-        <v>0.257334</v>
+        <v>0.259269</v>
       </c>
     </row>
     <row r="104">
@@ -4677,13 +4677,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.220446</v>
+        <v>0.218602</v>
       </c>
       <c r="C104" t="n">
-        <v>0.250076</v>
+        <v>0.252249</v>
       </c>
       <c r="D104" t="n">
-        <v>0.252659</v>
+        <v>0.253094</v>
       </c>
     </row>
     <row r="105">
@@ -4691,13 +4691,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.215755</v>
+        <v>0.212198</v>
       </c>
       <c r="C105" t="n">
-        <v>0.24638</v>
+        <v>0.250406</v>
       </c>
       <c r="D105" t="n">
-        <v>0.252995</v>
+        <v>0.252475</v>
       </c>
     </row>
     <row r="106">
@@ -4705,13 +4705,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.208671</v>
+        <v>0.206609</v>
       </c>
       <c r="C106" t="n">
-        <v>0.246068</v>
+        <v>0.246373</v>
       </c>
       <c r="D106" t="n">
-        <v>0.247773</v>
+        <v>0.24972</v>
       </c>
     </row>
     <row r="107">
@@ -4719,13 +4719,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.205409</v>
+        <v>0.205701</v>
       </c>
       <c r="C107" t="n">
-        <v>0.24345</v>
+        <v>0.248734</v>
       </c>
       <c r="D107" t="n">
-        <v>0.25069</v>
+        <v>0.246239</v>
       </c>
     </row>
     <row r="108">
@@ -4733,13 +4733,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.196457</v>
+        <v>0.200404</v>
       </c>
       <c r="C108" t="n">
-        <v>0.244004</v>
+        <v>0.244219</v>
       </c>
       <c r="D108" t="n">
-        <v>0.275355</v>
+        <v>0.24744</v>
       </c>
     </row>
     <row r="109">
@@ -4747,13 +4747,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.188124</v>
+        <v>0.191255</v>
       </c>
       <c r="C109" t="n">
-        <v>0.243503</v>
+        <v>0.245945</v>
       </c>
       <c r="D109" t="n">
-        <v>0.273488</v>
+        <v>0.244572</v>
       </c>
     </row>
     <row r="110">
@@ -4761,13 +4761,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.264405</v>
+        <v>0.260156</v>
       </c>
       <c r="C110" t="n">
-        <v>0.267586</v>
+        <v>0.270412</v>
       </c>
       <c r="D110" t="n">
-        <v>0.268572</v>
+        <v>0.274038</v>
       </c>
     </row>
     <row r="111">
@@ -4775,13 +4775,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.254068</v>
+        <v>0.253827</v>
       </c>
       <c r="C111" t="n">
-        <v>0.26284</v>
+        <v>0.267683</v>
       </c>
       <c r="D111" t="n">
-        <v>0.271454</v>
+        <v>0.271192</v>
       </c>
     </row>
     <row r="112">
@@ -4789,13 +4789,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.250131</v>
+        <v>0.247811</v>
       </c>
       <c r="C112" t="n">
-        <v>0.261482</v>
+        <v>0.263112</v>
       </c>
       <c r="D112" t="n">
-        <v>0.2682</v>
+        <v>0.270231</v>
       </c>
     </row>
     <row r="113">
@@ -4803,13 +4803,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.244691</v>
+        <v>0.242917</v>
       </c>
       <c r="C113" t="n">
-        <v>0.264614</v>
+        <v>0.260179</v>
       </c>
       <c r="D113" t="n">
-        <v>0.264019</v>
+        <v>0.262185</v>
       </c>
     </row>
     <row r="114">
@@ -4817,13 +4817,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.239407</v>
+        <v>0.234538</v>
       </c>
       <c r="C114" t="n">
-        <v>0.259003</v>
+        <v>0.258736</v>
       </c>
       <c r="D114" t="n">
-        <v>0.261392</v>
+        <v>0.26442</v>
       </c>
     </row>
     <row r="115">
@@ -4831,13 +4831,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.2373</v>
+        <v>0.234067</v>
       </c>
       <c r="C115" t="n">
-        <v>0.259085</v>
+        <v>0.255134</v>
       </c>
       <c r="D115" t="n">
-        <v>0.257207</v>
+        <v>0.259816</v>
       </c>
     </row>
     <row r="116">
@@ -4845,13 +4845,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.230898</v>
+        <v>0.23409</v>
       </c>
       <c r="C116" t="n">
-        <v>0.255254</v>
+        <v>0.252878</v>
       </c>
       <c r="D116" t="n">
-        <v>0.260172</v>
+        <v>0.256542</v>
       </c>
     </row>
     <row r="117">
@@ -4859,13 +4859,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.224533</v>
+        <v>0.225613</v>
       </c>
       <c r="C117" t="n">
-        <v>0.254855</v>
+        <v>0.256093</v>
       </c>
       <c r="D117" t="n">
-        <v>0.257206</v>
+        <v>0.25836</v>
       </c>
     </row>
     <row r="118">
@@ -4873,13 +4873,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.217824</v>
+        <v>0.21831</v>
       </c>
       <c r="C118" t="n">
-        <v>0.252072</v>
+        <v>0.252592</v>
       </c>
       <c r="D118" t="n">
-        <v>0.251993</v>
+        <v>0.252142</v>
       </c>
     </row>
     <row r="119">
@@ -4887,13 +4887,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.216447</v>
+        <v>0.214491</v>
       </c>
       <c r="C119" t="n">
-        <v>0.248505</v>
+        <v>0.249408</v>
       </c>
       <c r="D119" t="n">
-        <v>0.251351</v>
+        <v>0.256353</v>
       </c>
     </row>
     <row r="120">
@@ -4901,13 +4901,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.213861</v>
+        <v>0.2087</v>
       </c>
       <c r="C120" t="n">
-        <v>0.247385</v>
+        <v>0.250692</v>
       </c>
       <c r="D120" t="n">
-        <v>0.252904</v>
+        <v>0.252488</v>
       </c>
     </row>
     <row r="121">
@@ -4915,13 +4915,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.207484</v>
+        <v>0.206485</v>
       </c>
       <c r="C121" t="n">
-        <v>0.24658</v>
+        <v>0.251225</v>
       </c>
       <c r="D121" t="n">
-        <v>0.252958</v>
+        <v>0.250501</v>
       </c>
     </row>
     <row r="122">
@@ -4929,13 +4929,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.197817</v>
+        <v>0.197714</v>
       </c>
       <c r="C122" t="n">
-        <v>0.244368</v>
+        <v>0.244445</v>
       </c>
       <c r="D122" t="n">
-        <v>0.248817</v>
+        <v>0.246325</v>
       </c>
     </row>
     <row r="123">
@@ -4943,13 +4943,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.188127</v>
+        <v>0.191875</v>
       </c>
       <c r="C123" t="n">
-        <v>0.240461</v>
+        <v>0.242653</v>
       </c>
       <c r="D123" t="n">
-        <v>0.276929</v>
+        <v>0.245041</v>
       </c>
     </row>
     <row r="124">
@@ -4957,13 +4957,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.262299</v>
+        <v>0.261514</v>
       </c>
       <c r="C124" t="n">
-        <v>0.26621</v>
+        <v>0.271399</v>
       </c>
       <c r="D124" t="n">
-        <v>0.275498</v>
+        <v>0.277087</v>
       </c>
     </row>
     <row r="125">
@@ -4971,13 +4971,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.252085</v>
+        <v>0.258704</v>
       </c>
       <c r="C125" t="n">
-        <v>0.264797</v>
+        <v>0.265789</v>
       </c>
       <c r="D125" t="n">
-        <v>0.271067</v>
+        <v>0.273184</v>
       </c>
     </row>
     <row r="126">
@@ -4985,13 +4985,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.250159</v>
+        <v>0.255763</v>
       </c>
       <c r="C126" t="n">
-        <v>0.269036</v>
+        <v>0.267398</v>
       </c>
       <c r="D126" t="n">
-        <v>0.26776</v>
+        <v>0.269167</v>
       </c>
     </row>
     <row r="127">
@@ -4999,13 +4999,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.242533</v>
+        <v>0.244831</v>
       </c>
       <c r="C127" t="n">
-        <v>0.257508</v>
+        <v>0.265163</v>
       </c>
       <c r="D127" t="n">
-        <v>0.264069</v>
+        <v>0.266565</v>
       </c>
     </row>
     <row r="128">
@@ -5013,13 +5013,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.241251</v>
+        <v>0.237344</v>
       </c>
       <c r="C128" t="n">
-        <v>0.260844</v>
+        <v>0.262272</v>
       </c>
       <c r="D128" t="n">
-        <v>0.261876</v>
+        <v>0.262931</v>
       </c>
     </row>
     <row r="129">
@@ -5027,13 +5027,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.232939</v>
+        <v>0.233308</v>
       </c>
       <c r="C129" t="n">
-        <v>0.256238</v>
+        <v>0.260513</v>
       </c>
       <c r="D129" t="n">
-        <v>0.258961</v>
+        <v>0.260857</v>
       </c>
     </row>
     <row r="130">
@@ -5041,13 +5041,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.233788</v>
+        <v>0.235887</v>
       </c>
       <c r="C130" t="n">
-        <v>0.251257</v>
+        <v>0.258091</v>
       </c>
       <c r="D130" t="n">
-        <v>0.26498</v>
+        <v>0.260011</v>
       </c>
     </row>
     <row r="131">
@@ -5055,13 +5055,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.226651</v>
+        <v>0.228028</v>
       </c>
       <c r="C131" t="n">
-        <v>0.251901</v>
+        <v>0.254232</v>
       </c>
       <c r="D131" t="n">
-        <v>0.254662</v>
+        <v>0.255766</v>
       </c>
     </row>
     <row r="132">
@@ -5069,13 +5069,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.218364</v>
+        <v>0.224381</v>
       </c>
       <c r="C132" t="n">
-        <v>0.249955</v>
+        <v>0.258411</v>
       </c>
       <c r="D132" t="n">
-        <v>0.252658</v>
+        <v>0.256383</v>
       </c>
     </row>
     <row r="133">
@@ -5083,13 +5083,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.215258</v>
+        <v>0.215428</v>
       </c>
       <c r="C133" t="n">
-        <v>0.251472</v>
+        <v>0.248616</v>
       </c>
       <c r="D133" t="n">
-        <v>0.252226</v>
+        <v>0.252808</v>
       </c>
     </row>
     <row r="134">
@@ -5097,13 +5097,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.212481</v>
+        <v>0.209954</v>
       </c>
       <c r="C134" t="n">
-        <v>0.244193</v>
+        <v>0.250912</v>
       </c>
       <c r="D134" t="n">
-        <v>0.253366</v>
+        <v>0.250521</v>
       </c>
     </row>
     <row r="135">
@@ -5111,13 +5111,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.205907</v>
+        <v>0.211073</v>
       </c>
       <c r="C135" t="n">
-        <v>0.249318</v>
+        <v>0.247734</v>
       </c>
       <c r="D135" t="n">
-        <v>0.25122</v>
+        <v>0.252138</v>
       </c>
     </row>
     <row r="136">
@@ -5125,13 +5125,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.204151</v>
+        <v>0.2041</v>
       </c>
       <c r="C136" t="n">
-        <v>0.246273</v>
+        <v>0.246338</v>
       </c>
       <c r="D136" t="n">
-        <v>0.247606</v>
+        <v>0.246257</v>
       </c>
     </row>
     <row r="137">
@@ -5139,13 +5139,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.196043</v>
+        <v>0.190146</v>
       </c>
       <c r="C137" t="n">
-        <v>0.243568</v>
+        <v>0.249411</v>
       </c>
       <c r="D137" t="n">
-        <v>0.276876</v>
+        <v>0.245893</v>
       </c>
     </row>
     <row r="138">
@@ -5153,13 +5153,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.262006</v>
+        <v>0.263054</v>
       </c>
       <c r="C138" t="n">
-        <v>0.2693</v>
+        <v>0.27437</v>
       </c>
       <c r="D138" t="n">
-        <v>0.274313</v>
+        <v>0.274144</v>
       </c>
     </row>
     <row r="139">
@@ -5167,13 +5167,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.261246</v>
+        <v>0.258547</v>
       </c>
       <c r="C139" t="n">
-        <v>0.270328</v>
+        <v>0.268393</v>
       </c>
       <c r="D139" t="n">
-        <v>0.272796</v>
+        <v>0.271358</v>
       </c>
     </row>
     <row r="140">
@@ -5181,13 +5181,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.254095</v>
+        <v>0.257301</v>
       </c>
       <c r="C140" t="n">
-        <v>0.260481</v>
+        <v>0.262651</v>
       </c>
       <c r="D140" t="n">
-        <v>0.271963</v>
+        <v>0.270166</v>
       </c>
     </row>
     <row r="141">
@@ -5195,13 +5195,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.249293</v>
+        <v>0.247366</v>
       </c>
       <c r="C141" t="n">
-        <v>0.260559</v>
+        <v>0.261066</v>
       </c>
       <c r="D141" t="n">
-        <v>0.269552</v>
+        <v>0.268415</v>
       </c>
     </row>
     <row r="142">
@@ -5209,13 +5209,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.239387</v>
+        <v>0.238383</v>
       </c>
       <c r="C142" t="n">
-        <v>0.25874</v>
+        <v>0.263361</v>
       </c>
       <c r="D142" t="n">
-        <v>0.264928</v>
+        <v>0.262246</v>
       </c>
     </row>
     <row r="143">
@@ -5223,13 +5223,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.23757</v>
+        <v>0.233208</v>
       </c>
       <c r="C143" t="n">
-        <v>0.257434</v>
+        <v>0.2577</v>
       </c>
       <c r="D143" t="n">
-        <v>0.256987</v>
+        <v>0.257437</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Running erasure.xlsx
+++ b/vs-x64/Running erasure.xlsx
@@ -3249,13 +3249,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.204323</v>
+        <v>0.202076</v>
       </c>
       <c r="C2" t="n">
-        <v>0.232859</v>
+        <v>0.238199</v>
       </c>
       <c r="D2" t="n">
-        <v>0.238429</v>
+        <v>0.238997</v>
       </c>
     </row>
     <row r="3">
@@ -3263,13 +3263,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.201847</v>
+        <v>0.196895</v>
       </c>
       <c r="C3" t="n">
-        <v>0.233445</v>
+        <v>0.235155</v>
       </c>
       <c r="D3" t="n">
-        <v>0.237113</v>
+        <v>0.238697</v>
       </c>
     </row>
     <row r="4">
@@ -3277,13 +3277,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.193046</v>
+        <v>0.1963</v>
       </c>
       <c r="C4" t="n">
-        <v>0.232994</v>
+        <v>0.238079</v>
       </c>
       <c r="D4" t="n">
-        <v>0.232016</v>
+        <v>0.241188</v>
       </c>
     </row>
     <row r="5">
@@ -3291,13 +3291,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.194679</v>
+        <v>0.193294</v>
       </c>
       <c r="C5" t="n">
-        <v>0.234067</v>
+        <v>0.231415</v>
       </c>
       <c r="D5" t="n">
-        <v>0.237458</v>
+        <v>0.232398</v>
       </c>
     </row>
     <row r="6">
@@ -3305,13 +3305,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.194607</v>
+        <v>0.186132</v>
       </c>
       <c r="C6" t="n">
-        <v>0.232198</v>
+        <v>0.228044</v>
       </c>
       <c r="D6" t="n">
-        <v>0.235386</v>
+        <v>0.235717</v>
       </c>
     </row>
     <row r="7">
@@ -3319,13 +3319,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.186516</v>
+        <v>0.182969</v>
       </c>
       <c r="C7" t="n">
-        <v>0.233307</v>
+        <v>0.231289</v>
       </c>
       <c r="D7" t="n">
-        <v>0.23743</v>
+        <v>0.231814</v>
       </c>
     </row>
     <row r="8">
@@ -3333,13 +3333,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.179067</v>
+        <v>0.180719</v>
       </c>
       <c r="C8" t="n">
-        <v>0.232266</v>
+        <v>0.226492</v>
       </c>
       <c r="D8" t="n">
-        <v>0.235286</v>
+        <v>0.228893</v>
       </c>
     </row>
     <row r="9">
@@ -3347,13 +3347,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.173139</v>
+        <v>0.170506</v>
       </c>
       <c r="C9" t="n">
-        <v>0.229038</v>
+        <v>0.229199</v>
       </c>
       <c r="D9" t="n">
-        <v>0.234295</v>
+        <v>0.235615</v>
       </c>
     </row>
     <row r="10">
@@ -3361,13 +3361,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.232742</v>
+        <v>0.228385</v>
       </c>
       <c r="C10" t="n">
-        <v>0.242764</v>
+        <v>0.247883</v>
       </c>
       <c r="D10" t="n">
-        <v>0.241156</v>
+        <v>0.245347</v>
       </c>
     </row>
     <row r="11">
@@ -3375,13 +3375,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.227379</v>
+        <v>0.22722</v>
       </c>
       <c r="C11" t="n">
-        <v>0.244203</v>
+        <v>0.239178</v>
       </c>
       <c r="D11" t="n">
-        <v>0.242141</v>
+        <v>0.242596</v>
       </c>
     </row>
     <row r="12">
@@ -3389,13 +3389,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.222079</v>
+        <v>0.216216</v>
       </c>
       <c r="C12" t="n">
-        <v>0.23379</v>
+        <v>0.237794</v>
       </c>
       <c r="D12" t="n">
-        <v>0.243097</v>
+        <v>0.237756</v>
       </c>
     </row>
     <row r="13">
@@ -3403,13 +3403,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.221123</v>
+        <v>0.218532</v>
       </c>
       <c r="C13" t="n">
-        <v>0.23902</v>
+        <v>0.235661</v>
       </c>
       <c r="D13" t="n">
-        <v>0.237677</v>
+        <v>0.236791</v>
       </c>
     </row>
     <row r="14">
@@ -3417,13 +3417,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.215477</v>
+        <v>0.211131</v>
       </c>
       <c r="C14" t="n">
-        <v>0.235259</v>
+        <v>0.235283</v>
       </c>
       <c r="D14" t="n">
-        <v>0.237976</v>
+        <v>0.237899</v>
       </c>
     </row>
     <row r="15">
@@ -3431,13 +3431,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.21051</v>
+        <v>0.208582</v>
       </c>
       <c r="C15" t="n">
-        <v>0.236223</v>
+        <v>0.243147</v>
       </c>
       <c r="D15" t="n">
-        <v>0.239591</v>
+        <v>0.24189</v>
       </c>
     </row>
     <row r="16">
@@ -3445,13 +3445,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.209229</v>
+        <v>0.205943</v>
       </c>
       <c r="C16" t="n">
-        <v>0.235478</v>
+        <v>0.236157</v>
       </c>
       <c r="D16" t="n">
-        <v>0.240046</v>
+        <v>0.236038</v>
       </c>
     </row>
     <row r="17">
@@ -3459,13 +3459,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.206381</v>
+        <v>0.201281</v>
       </c>
       <c r="C17" t="n">
-        <v>0.235129</v>
+        <v>0.237102</v>
       </c>
       <c r="D17" t="n">
-        <v>0.241231</v>
+        <v>0.237147</v>
       </c>
     </row>
     <row r="18">
@@ -3473,13 +3473,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.197626</v>
+        <v>0.200753</v>
       </c>
       <c r="C18" t="n">
-        <v>0.232101</v>
+        <v>0.234842</v>
       </c>
       <c r="D18" t="n">
-        <v>0.234627</v>
+        <v>0.238975</v>
       </c>
     </row>
     <row r="19">
@@ -3487,13 +3487,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.199846</v>
+        <v>0.196492</v>
       </c>
       <c r="C19" t="n">
-        <v>0.233357</v>
+        <v>0.234758</v>
       </c>
       <c r="D19" t="n">
-        <v>0.234185</v>
+        <v>0.241358</v>
       </c>
     </row>
     <row r="20">
@@ -3501,13 +3501,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.196695</v>
+        <v>0.193129</v>
       </c>
       <c r="C20" t="n">
-        <v>0.231463</v>
+        <v>0.231299</v>
       </c>
       <c r="D20" t="n">
-        <v>0.236047</v>
+        <v>0.239776</v>
       </c>
     </row>
     <row r="21">
@@ -3515,13 +3515,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.190013</v>
+        <v>0.192893</v>
       </c>
       <c r="C21" t="n">
-        <v>0.234701</v>
+        <v>0.233685</v>
       </c>
       <c r="D21" t="n">
-        <v>0.232659</v>
+        <v>0.232949</v>
       </c>
     </row>
     <row r="22">
@@ -3529,13 +3529,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.184738</v>
+        <v>0.18471</v>
       </c>
       <c r="C22" t="n">
-        <v>0.229717</v>
+        <v>0.230491</v>
       </c>
       <c r="D22" t="n">
-        <v>0.238706</v>
+        <v>0.231452</v>
       </c>
     </row>
     <row r="23">
@@ -3543,13 +3543,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.177519</v>
+        <v>0.175596</v>
       </c>
       <c r="C23" t="n">
-        <v>0.229682</v>
+        <v>0.226985</v>
       </c>
       <c r="D23" t="n">
-        <v>0.230237</v>
+        <v>0.234208</v>
       </c>
     </row>
     <row r="24">
@@ -3557,13 +3557,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.237898</v>
+        <v>0.236948</v>
       </c>
       <c r="C24" t="n">
-        <v>0.245768</v>
+        <v>0.247524</v>
       </c>
       <c r="D24" t="n">
-        <v>0.24652</v>
+        <v>0.251008</v>
       </c>
     </row>
     <row r="25">
@@ -3571,13 +3571,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.233093</v>
+        <v>0.234941</v>
       </c>
       <c r="C25" t="n">
-        <v>0.245483</v>
+        <v>0.246854</v>
       </c>
       <c r="D25" t="n">
-        <v>0.248246</v>
+        <v>0.253234</v>
       </c>
     </row>
     <row r="26">
@@ -3585,13 +3585,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.227963</v>
+        <v>0.227746</v>
       </c>
       <c r="C26" t="n">
-        <v>0.242919</v>
+        <v>0.24587</v>
       </c>
       <c r="D26" t="n">
-        <v>0.24408</v>
+        <v>0.246842</v>
       </c>
     </row>
     <row r="27">
@@ -3599,13 +3599,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.222732</v>
+        <v>0.225161</v>
       </c>
       <c r="C27" t="n">
-        <v>0.240794</v>
+        <v>0.243532</v>
       </c>
       <c r="D27" t="n">
-        <v>0.244097</v>
+        <v>0.246895</v>
       </c>
     </row>
     <row r="28">
@@ -3613,13 +3613,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.216852</v>
+        <v>0.219644</v>
       </c>
       <c r="C28" t="n">
-        <v>0.238285</v>
+        <v>0.239404</v>
       </c>
       <c r="D28" t="n">
-        <v>0.242726</v>
+        <v>0.245238</v>
       </c>
     </row>
     <row r="29">
@@ -3627,13 +3627,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.2151</v>
+        <v>0.216446</v>
       </c>
       <c r="C29" t="n">
-        <v>0.236574</v>
+        <v>0.236742</v>
       </c>
       <c r="D29" t="n">
-        <v>0.241723</v>
+        <v>0.237295</v>
       </c>
     </row>
     <row r="30">
@@ -3641,13 +3641,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.209664</v>
+        <v>0.210604</v>
       </c>
       <c r="C30" t="n">
-        <v>0.235927</v>
+        <v>0.23664</v>
       </c>
       <c r="D30" t="n">
-        <v>0.237135</v>
+        <v>0.245865</v>
       </c>
     </row>
     <row r="31">
@@ -3655,13 +3655,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.208288</v>
+        <v>0.208516</v>
       </c>
       <c r="C31" t="n">
-        <v>0.237378</v>
+        <v>0.234761</v>
       </c>
       <c r="D31" t="n">
-        <v>0.240152</v>
+        <v>0.239902</v>
       </c>
     </row>
     <row r="32">
@@ -3669,13 +3669,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.204056</v>
+        <v>0.207091</v>
       </c>
       <c r="C32" t="n">
-        <v>0.234256</v>
+        <v>0.237898</v>
       </c>
       <c r="D32" t="n">
-        <v>0.240649</v>
+        <v>0.23873</v>
       </c>
     </row>
     <row r="33">
@@ -3683,13 +3683,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.200898</v>
+        <v>0.20055</v>
       </c>
       <c r="C33" t="n">
-        <v>0.235299</v>
+        <v>0.234387</v>
       </c>
       <c r="D33" t="n">
-        <v>0.235951</v>
+        <v>0.236794</v>
       </c>
     </row>
     <row r="34">
@@ -3697,13 +3697,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.194702</v>
+        <v>0.197773</v>
       </c>
       <c r="C34" t="n">
-        <v>0.235783</v>
+        <v>0.233113</v>
       </c>
       <c r="D34" t="n">
-        <v>0.233738</v>
+        <v>0.237845</v>
       </c>
     </row>
     <row r="35">
@@ -3711,13 +3711,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.19211</v>
+        <v>0.191735</v>
       </c>
       <c r="C35" t="n">
-        <v>0.233062</v>
+        <v>0.23414</v>
       </c>
       <c r="D35" t="n">
-        <v>0.235262</v>
+        <v>0.240272</v>
       </c>
     </row>
     <row r="36">
@@ -3725,13 +3725,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.188391</v>
+        <v>0.189603</v>
       </c>
       <c r="C36" t="n">
-        <v>0.232669</v>
+        <v>0.230561</v>
       </c>
       <c r="D36" t="n">
-        <v>0.234713</v>
+        <v>0.234929</v>
       </c>
     </row>
     <row r="37">
@@ -3739,13 +3739,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.182017</v>
+        <v>0.18309</v>
       </c>
       <c r="C37" t="n">
-        <v>0.232475</v>
+        <v>0.233507</v>
       </c>
       <c r="D37" t="n">
-        <v>0.233648</v>
+        <v>0.233995</v>
       </c>
     </row>
     <row r="38">
@@ -3753,13 +3753,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.238783</v>
+        <v>0.241444</v>
       </c>
       <c r="C38" t="n">
-        <v>0.256055</v>
+        <v>0.255566</v>
       </c>
       <c r="D38" t="n">
-        <v>0.259123</v>
+        <v>0.261133</v>
       </c>
     </row>
     <row r="39">
@@ -3767,13 +3767,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.238077</v>
+        <v>0.238641</v>
       </c>
       <c r="C39" t="n">
-        <v>0.254074</v>
+        <v>0.25542</v>
       </c>
       <c r="D39" t="n">
-        <v>0.259547</v>
+        <v>0.262681</v>
       </c>
     </row>
     <row r="40">
@@ -3781,13 +3781,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.233105</v>
+        <v>0.232525</v>
       </c>
       <c r="C40" t="n">
-        <v>0.256936</v>
+        <v>0.253487</v>
       </c>
       <c r="D40" t="n">
-        <v>0.256711</v>
+        <v>0.256513</v>
       </c>
     </row>
     <row r="41">
@@ -3795,13 +3795,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.225362</v>
+        <v>0.22931</v>
       </c>
       <c r="C41" t="n">
-        <v>0.253019</v>
+        <v>0.255609</v>
       </c>
       <c r="D41" t="n">
-        <v>0.254961</v>
+        <v>0.253545</v>
       </c>
     </row>
     <row r="42">
@@ -3809,13 +3809,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.221341</v>
+        <v>0.222633</v>
       </c>
       <c r="C42" t="n">
-        <v>0.250145</v>
+        <v>0.251524</v>
       </c>
       <c r="D42" t="n">
-        <v>0.253672</v>
+        <v>0.255815</v>
       </c>
     </row>
     <row r="43">
@@ -3823,13 +3823,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.218205</v>
+        <v>0.221775</v>
       </c>
       <c r="C43" t="n">
-        <v>0.251385</v>
+        <v>0.247664</v>
       </c>
       <c r="D43" t="n">
-        <v>0.253645</v>
+        <v>0.252444</v>
       </c>
     </row>
     <row r="44">
@@ -3837,13 +3837,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.212038</v>
+        <v>0.215864</v>
       </c>
       <c r="C44" t="n">
-        <v>0.247519</v>
+        <v>0.2465</v>
       </c>
       <c r="D44" t="n">
-        <v>0.250742</v>
+        <v>0.247832</v>
       </c>
     </row>
     <row r="45">
@@ -3851,13 +3851,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.211579</v>
+        <v>0.211431</v>
       </c>
       <c r="C45" t="n">
-        <v>0.249571</v>
+        <v>0.244886</v>
       </c>
       <c r="D45" t="n">
-        <v>0.248158</v>
+        <v>0.251891</v>
       </c>
     </row>
     <row r="46">
@@ -3865,13 +3865,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.208973</v>
+        <v>0.208085</v>
       </c>
       <c r="C46" t="n">
-        <v>0.24356</v>
+        <v>0.247356</v>
       </c>
       <c r="D46" t="n">
-        <v>0.250097</v>
+        <v>0.247917</v>
       </c>
     </row>
     <row r="47">
@@ -3879,13 +3879,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.205885</v>
+        <v>0.203271</v>
       </c>
       <c r="C47" t="n">
-        <v>0.243731</v>
+        <v>0.242244</v>
       </c>
       <c r="D47" t="n">
-        <v>0.247103</v>
+        <v>0.243312</v>
       </c>
     </row>
     <row r="48">
@@ -3893,13 +3893,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.202702</v>
+        <v>0.204667</v>
       </c>
       <c r="C48" t="n">
-        <v>0.243046</v>
+        <v>0.23955</v>
       </c>
       <c r="D48" t="n">
-        <v>0.244878</v>
+        <v>0.2437</v>
       </c>
     </row>
     <row r="49">
@@ -3907,13 +3907,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.199254</v>
+        <v>0.196417</v>
       </c>
       <c r="C49" t="n">
-        <v>0.241743</v>
+        <v>0.241695</v>
       </c>
       <c r="D49" t="n">
-        <v>0.242469</v>
+        <v>0.242683</v>
       </c>
     </row>
     <row r="50">
@@ -3921,13 +3921,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.193779</v>
+        <v>0.189983</v>
       </c>
       <c r="C50" t="n">
-        <v>0.239886</v>
+        <v>0.241761</v>
       </c>
       <c r="D50" t="n">
-        <v>0.240256</v>
+        <v>0.241939</v>
       </c>
     </row>
     <row r="51">
@@ -3935,13 +3935,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.184015</v>
+        <v>0.189397</v>
       </c>
       <c r="C51" t="n">
-        <v>0.236992</v>
+        <v>0.234831</v>
       </c>
       <c r="D51" t="n">
-        <v>0.237797</v>
+        <v>0.240066</v>
       </c>
     </row>
     <row r="52">
@@ -3949,13 +3949,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.177276</v>
+        <v>0.178432</v>
       </c>
       <c r="C52" t="n">
-        <v>0.23476</v>
+        <v>0.238192</v>
       </c>
       <c r="D52" t="n">
-        <v>0.239382</v>
+        <v>0.241992</v>
       </c>
     </row>
     <row r="53">
@@ -3963,13 +3963,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.24279</v>
+        <v>0.243999</v>
       </c>
       <c r="C53" t="n">
-        <v>0.255994</v>
+        <v>0.256512</v>
       </c>
       <c r="D53" t="n">
-        <v>0.260162</v>
+        <v>0.256862</v>
       </c>
     </row>
     <row r="54">
@@ -3977,13 +3977,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.236647</v>
+        <v>0.239082</v>
       </c>
       <c r="C54" t="n">
-        <v>0.253376</v>
+        <v>0.25405</v>
       </c>
       <c r="D54" t="n">
-        <v>0.257382</v>
+        <v>0.258582</v>
       </c>
     </row>
     <row r="55">
@@ -3991,13 +3991,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.233106</v>
+        <v>0.23701</v>
       </c>
       <c r="C55" t="n">
-        <v>0.250095</v>
+        <v>0.254873</v>
       </c>
       <c r="D55" t="n">
-        <v>0.256943</v>
+        <v>0.259422</v>
       </c>
     </row>
     <row r="56">
@@ -4005,13 +4005,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.228826</v>
+        <v>0.231281</v>
       </c>
       <c r="C56" t="n">
-        <v>0.252617</v>
+        <v>0.253906</v>
       </c>
       <c r="D56" t="n">
-        <v>0.25865</v>
+        <v>0.254662</v>
       </c>
     </row>
     <row r="57">
@@ -4019,13 +4019,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.229792</v>
+        <v>0.224348</v>
       </c>
       <c r="C57" t="n">
-        <v>0.252434</v>
+        <v>0.246387</v>
       </c>
       <c r="D57" t="n">
-        <v>0.255016</v>
+        <v>0.253087</v>
       </c>
     </row>
     <row r="58">
@@ -4033,13 +4033,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.225664</v>
+        <v>0.220092</v>
       </c>
       <c r="C58" t="n">
-        <v>0.245947</v>
+        <v>0.250588</v>
       </c>
       <c r="D58" t="n">
-        <v>0.251449</v>
+        <v>0.257646</v>
       </c>
     </row>
     <row r="59">
@@ -4047,13 +4047,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.216792</v>
+        <v>0.217312</v>
       </c>
       <c r="C59" t="n">
-        <v>0.246186</v>
+        <v>0.248241</v>
       </c>
       <c r="D59" t="n">
-        <v>0.250304</v>
+        <v>0.250091</v>
       </c>
     </row>
     <row r="60">
@@ -4061,13 +4061,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.213128</v>
+        <v>0.213619</v>
       </c>
       <c r="C60" t="n">
-        <v>0.245998</v>
+        <v>0.243701</v>
       </c>
       <c r="D60" t="n">
-        <v>0.247645</v>
+        <v>0.248018</v>
       </c>
     </row>
     <row r="61">
@@ -4075,13 +4075,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.210254</v>
+        <v>0.210989</v>
       </c>
       <c r="C61" t="n">
-        <v>0.245036</v>
+        <v>0.244001</v>
       </c>
       <c r="D61" t="n">
-        <v>0.245268</v>
+        <v>0.24788</v>
       </c>
     </row>
     <row r="62">
@@ -4089,13 +4089,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.205491</v>
+        <v>0.206174</v>
       </c>
       <c r="C62" t="n">
-        <v>0.240072</v>
+        <v>0.241948</v>
       </c>
       <c r="D62" t="n">
-        <v>0.245993</v>
+        <v>0.243547</v>
       </c>
     </row>
     <row r="63">
@@ -4103,13 +4103,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.203437</v>
+        <v>0.203142</v>
       </c>
       <c r="C63" t="n">
-        <v>0.241252</v>
+        <v>0.239509</v>
       </c>
       <c r="D63" t="n">
-        <v>0.245525</v>
+        <v>0.246967</v>
       </c>
     </row>
     <row r="64">
@@ -4117,13 +4117,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.198879</v>
+        <v>0.198022</v>
       </c>
       <c r="C64" t="n">
-        <v>0.238302</v>
+        <v>0.237956</v>
       </c>
       <c r="D64" t="n">
-        <v>0.24593</v>
+        <v>0.242602</v>
       </c>
     </row>
     <row r="65">
@@ -4131,13 +4131,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.192948</v>
+        <v>0.191497</v>
       </c>
       <c r="C65" t="n">
-        <v>0.237859</v>
+        <v>0.243375</v>
       </c>
       <c r="D65" t="n">
-        <v>0.240192</v>
+        <v>0.241775</v>
       </c>
     </row>
     <row r="66">
@@ -4145,13 +4145,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.18367</v>
+        <v>0.186155</v>
       </c>
       <c r="C66" t="n">
-        <v>0.241013</v>
+        <v>0.241245</v>
       </c>
       <c r="D66" t="n">
-        <v>0.239402</v>
+        <v>0.241677</v>
       </c>
     </row>
     <row r="67">
@@ -4159,13 +4159,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.250528</v>
+        <v>0.250959</v>
       </c>
       <c r="C67" t="n">
-        <v>0.262405</v>
+        <v>0.263574</v>
       </c>
       <c r="D67" t="n">
-        <v>0.269028</v>
+        <v>0.265691</v>
       </c>
     </row>
     <row r="68">
@@ -4173,13 +4173,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.246123</v>
+        <v>0.25072</v>
       </c>
       <c r="C68" t="n">
-        <v>0.261054</v>
+        <v>0.262062</v>
       </c>
       <c r="D68" t="n">
-        <v>0.263777</v>
+        <v>0.263354</v>
       </c>
     </row>
     <row r="69">
@@ -4187,13 +4187,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.242785</v>
+        <v>0.243385</v>
       </c>
       <c r="C69" t="n">
-        <v>0.261492</v>
+        <v>0.25954</v>
       </c>
       <c r="D69" t="n">
-        <v>0.262563</v>
+        <v>0.259635</v>
       </c>
     </row>
     <row r="70">
@@ -4201,13 +4201,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.237844</v>
+        <v>0.240066</v>
       </c>
       <c r="C70" t="n">
-        <v>0.258283</v>
+        <v>0.255315</v>
       </c>
       <c r="D70" t="n">
-        <v>0.257984</v>
+        <v>0.25769</v>
       </c>
     </row>
     <row r="71">
@@ -4215,13 +4215,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.235433</v>
+        <v>0.230418</v>
       </c>
       <c r="C71" t="n">
-        <v>0.253859</v>
+        <v>0.254904</v>
       </c>
       <c r="D71" t="n">
-        <v>0.258367</v>
+        <v>0.254924</v>
       </c>
     </row>
     <row r="72">
@@ -4229,13 +4229,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.233574</v>
+        <v>0.230426</v>
       </c>
       <c r="C72" t="n">
-        <v>0.255403</v>
+        <v>0.25149</v>
       </c>
       <c r="D72" t="n">
-        <v>0.255748</v>
+        <v>0.254209</v>
       </c>
     </row>
     <row r="73">
@@ -4243,13 +4243,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.2304</v>
+        <v>0.223304</v>
       </c>
       <c r="C73" t="n">
-        <v>0.250892</v>
+        <v>0.249305</v>
       </c>
       <c r="D73" t="n">
-        <v>0.251163</v>
+        <v>0.253375</v>
       </c>
     </row>
     <row r="74">
@@ -4257,13 +4257,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.22139</v>
+        <v>0.220102</v>
       </c>
       <c r="C74" t="n">
-        <v>0.247265</v>
+        <v>0.251562</v>
       </c>
       <c r="D74" t="n">
-        <v>0.249285</v>
+        <v>0.25372</v>
       </c>
     </row>
     <row r="75">
@@ -4271,13 +4271,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.214157</v>
+        <v>0.217194</v>
       </c>
       <c r="C75" t="n">
-        <v>0.244863</v>
+        <v>0.247096</v>
       </c>
       <c r="D75" t="n">
-        <v>0.251233</v>
+        <v>0.25172</v>
       </c>
     </row>
     <row r="76">
@@ -4285,13 +4285,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.213189</v>
+        <v>0.21316</v>
       </c>
       <c r="C76" t="n">
-        <v>0.246247</v>
+        <v>0.244932</v>
       </c>
       <c r="D76" t="n">
-        <v>0.248321</v>
+        <v>0.245577</v>
       </c>
     </row>
     <row r="77">
@@ -4299,13 +4299,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.210496</v>
+        <v>0.208462</v>
       </c>
       <c r="C77" t="n">
-        <v>0.244558</v>
+        <v>0.243853</v>
       </c>
       <c r="D77" t="n">
-        <v>0.247375</v>
+        <v>0.246892</v>
       </c>
     </row>
     <row r="78">
@@ -4313,13 +4313,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.201441</v>
+        <v>0.202293</v>
       </c>
       <c r="C78" t="n">
-        <v>0.240374</v>
+        <v>0.243258</v>
       </c>
       <c r="D78" t="n">
-        <v>0.245864</v>
+        <v>0.248815</v>
       </c>
     </row>
     <row r="79">
@@ -4327,13 +4327,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.20081</v>
+        <v>0.198958</v>
       </c>
       <c r="C79" t="n">
-        <v>0.24517</v>
+        <v>0.24181</v>
       </c>
       <c r="D79" t="n">
-        <v>0.246494</v>
+        <v>0.243836</v>
       </c>
     </row>
     <row r="80">
@@ -4341,13 +4341,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.18948</v>
+        <v>0.190388</v>
       </c>
       <c r="C80" t="n">
-        <v>0.242226</v>
+        <v>0.243312</v>
       </c>
       <c r="D80" t="n">
-        <v>0.24653</v>
+        <v>0.242246</v>
       </c>
     </row>
     <row r="81">
@@ -4355,13 +4355,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.257303</v>
+        <v>0.259643</v>
       </c>
       <c r="C81" t="n">
-        <v>0.268921</v>
+        <v>0.26954</v>
       </c>
       <c r="D81" t="n">
-        <v>0.270893</v>
+        <v>0.271143</v>
       </c>
     </row>
     <row r="82">
@@ -4369,13 +4369,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.256039</v>
+        <v>0.253682</v>
       </c>
       <c r="C82" t="n">
-        <v>0.273429</v>
+        <v>0.268555</v>
       </c>
       <c r="D82" t="n">
-        <v>0.269193</v>
+        <v>0.271266</v>
       </c>
     </row>
     <row r="83">
@@ -4383,13 +4383,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.253181</v>
+        <v>0.252433</v>
       </c>
       <c r="C83" t="n">
-        <v>0.266015</v>
+        <v>0.266889</v>
       </c>
       <c r="D83" t="n">
-        <v>0.267781</v>
+        <v>0.265442</v>
       </c>
     </row>
     <row r="84">
@@ -4397,13 +4397,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.244049</v>
+        <v>0.245182</v>
       </c>
       <c r="C84" t="n">
-        <v>0.262846</v>
+        <v>0.262141</v>
       </c>
       <c r="D84" t="n">
-        <v>0.269499</v>
+        <v>0.265843</v>
       </c>
     </row>
     <row r="85">
@@ -4411,13 +4411,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.241182</v>
+        <v>0.241268</v>
       </c>
       <c r="C85" t="n">
-        <v>0.259392</v>
+        <v>0.261648</v>
       </c>
       <c r="D85" t="n">
-        <v>0.262864</v>
+        <v>0.265111</v>
       </c>
     </row>
     <row r="86">
@@ -4425,13 +4425,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.235122</v>
+        <v>0.236149</v>
       </c>
       <c r="C86" t="n">
-        <v>0.257361</v>
+        <v>0.257441</v>
       </c>
       <c r="D86" t="n">
-        <v>0.263936</v>
+        <v>0.260123</v>
       </c>
     </row>
     <row r="87">
@@ -4439,13 +4439,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.230189</v>
+        <v>0.228932</v>
       </c>
       <c r="C87" t="n">
-        <v>0.256724</v>
+        <v>0.256399</v>
       </c>
       <c r="D87" t="n">
-        <v>0.260133</v>
+        <v>0.2562</v>
       </c>
     </row>
     <row r="88">
@@ -4453,13 +4453,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.226007</v>
+        <v>0.22814</v>
       </c>
       <c r="C88" t="n">
-        <v>0.255574</v>
+        <v>0.253233</v>
       </c>
       <c r="D88" t="n">
-        <v>0.257302</v>
+        <v>0.259377</v>
       </c>
     </row>
     <row r="89">
@@ -4467,13 +4467,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.222196</v>
+        <v>0.221684</v>
       </c>
       <c r="C89" t="n">
-        <v>0.252263</v>
+        <v>0.252375</v>
       </c>
       <c r="D89" t="n">
-        <v>0.253511</v>
+        <v>0.252645</v>
       </c>
     </row>
     <row r="90">
@@ -4481,13 +4481,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.214893</v>
+        <v>0.217766</v>
       </c>
       <c r="C90" t="n">
-        <v>0.249027</v>
+        <v>0.247345</v>
       </c>
       <c r="D90" t="n">
-        <v>0.251282</v>
+        <v>0.251175</v>
       </c>
     </row>
     <row r="91">
@@ -4495,13 +4495,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.209768</v>
+        <v>0.211052</v>
       </c>
       <c r="C91" t="n">
-        <v>0.250088</v>
+        <v>0.250401</v>
       </c>
       <c r="D91" t="n">
-        <v>0.251174</v>
+        <v>0.252305</v>
       </c>
     </row>
     <row r="92">
@@ -4509,13 +4509,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.206567</v>
+        <v>0.207583</v>
       </c>
       <c r="C92" t="n">
-        <v>0.248768</v>
+        <v>0.249774</v>
       </c>
       <c r="D92" t="n">
-        <v>0.251118</v>
+        <v>0.247092</v>
       </c>
     </row>
     <row r="93">
@@ -4523,13 +4523,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.201552</v>
+        <v>0.202659</v>
       </c>
       <c r="C93" t="n">
-        <v>0.245543</v>
+        <v>0.244852</v>
       </c>
       <c r="D93" t="n">
-        <v>0.249053</v>
+        <v>0.257268</v>
       </c>
     </row>
     <row r="94">
@@ -4537,13 +4537,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.195641</v>
+        <v>0.196326</v>
       </c>
       <c r="C94" t="n">
-        <v>0.245571</v>
+        <v>0.246867</v>
       </c>
       <c r="D94" t="n">
-        <v>0.246604</v>
+        <v>0.243679</v>
       </c>
     </row>
     <row r="95">
@@ -4551,13 +4551,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.259762</v>
+        <v>0.261076</v>
       </c>
       <c r="C95" t="n">
-        <v>0.269223</v>
+        <v>0.272123</v>
       </c>
       <c r="D95" t="n">
-        <v>0.273059</v>
+        <v>0.273539</v>
       </c>
     </row>
     <row r="96">
@@ -4565,13 +4565,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.258074</v>
+        <v>0.254041</v>
       </c>
       <c r="C96" t="n">
-        <v>0.267377</v>
+        <v>0.268968</v>
       </c>
       <c r="D96" t="n">
-        <v>0.268941</v>
+        <v>0.2712</v>
       </c>
     </row>
     <row r="97">
@@ -4579,13 +4579,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.25166</v>
+        <v>0.253162</v>
       </c>
       <c r="C97" t="n">
-        <v>0.268661</v>
+        <v>0.264653</v>
       </c>
       <c r="D97" t="n">
-        <v>0.268333</v>
+        <v>0.270978</v>
       </c>
     </row>
     <row r="98">
@@ -4593,13 +4593,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.245202</v>
+        <v>0.249097</v>
       </c>
       <c r="C98" t="n">
-        <v>0.263305</v>
+        <v>0.262926</v>
       </c>
       <c r="D98" t="n">
-        <v>0.262811</v>
+        <v>0.26869</v>
       </c>
     </row>
     <row r="99">
@@ -4607,13 +4607,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.241311</v>
+        <v>0.24417</v>
       </c>
       <c r="C99" t="n">
-        <v>0.258718</v>
+        <v>0.259699</v>
       </c>
       <c r="D99" t="n">
-        <v>0.265169</v>
+        <v>0.262008</v>
       </c>
     </row>
     <row r="100">
@@ -4621,13 +4621,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.237613</v>
+        <v>0.236936</v>
       </c>
       <c r="C100" t="n">
-        <v>0.256156</v>
+        <v>0.258464</v>
       </c>
       <c r="D100" t="n">
-        <v>0.263486</v>
+        <v>0.263261</v>
       </c>
     </row>
     <row r="101">
@@ -4635,13 +4635,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.230284</v>
+        <v>0.232199</v>
       </c>
       <c r="C101" t="n">
-        <v>0.261836</v>
+        <v>0.25592</v>
       </c>
       <c r="D101" t="n">
-        <v>0.258086</v>
+        <v>0.259967</v>
       </c>
     </row>
     <row r="102">
@@ -4649,13 +4649,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.22618</v>
+        <v>0.225593</v>
       </c>
       <c r="C102" t="n">
-        <v>0.255237</v>
+        <v>0.256103</v>
       </c>
       <c r="D102" t="n">
-        <v>0.25617</v>
+        <v>0.257732</v>
       </c>
     </row>
     <row r="103">
@@ -4663,13 +4663,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.221346</v>
+        <v>0.222555</v>
       </c>
       <c r="C103" t="n">
-        <v>0.250495</v>
+        <v>0.25369</v>
       </c>
       <c r="D103" t="n">
-        <v>0.259269</v>
+        <v>0.259403</v>
       </c>
     </row>
     <row r="104">
@@ -4677,13 +4677,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.218602</v>
+        <v>0.220327</v>
       </c>
       <c r="C104" t="n">
-        <v>0.252249</v>
+        <v>0.249911</v>
       </c>
       <c r="D104" t="n">
-        <v>0.253094</v>
+        <v>0.252352</v>
       </c>
     </row>
     <row r="105">
@@ -4691,13 +4691,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.212198</v>
+        <v>0.215077</v>
       </c>
       <c r="C105" t="n">
-        <v>0.250406</v>
+        <v>0.251067</v>
       </c>
       <c r="D105" t="n">
-        <v>0.252475</v>
+        <v>0.25086</v>
       </c>
     </row>
     <row r="106">
@@ -4705,13 +4705,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.206609</v>
+        <v>0.209612</v>
       </c>
       <c r="C106" t="n">
-        <v>0.246373</v>
+        <v>0.246455</v>
       </c>
       <c r="D106" t="n">
-        <v>0.24972</v>
+        <v>0.251758</v>
       </c>
     </row>
     <row r="107">
@@ -4719,13 +4719,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.205701</v>
+        <v>0.204086</v>
       </c>
       <c r="C107" t="n">
-        <v>0.248734</v>
+        <v>0.247042</v>
       </c>
       <c r="D107" t="n">
-        <v>0.246239</v>
+        <v>0.249066</v>
       </c>
     </row>
     <row r="108">
@@ -4733,13 +4733,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.200404</v>
+        <v>0.198393</v>
       </c>
       <c r="C108" t="n">
-        <v>0.244219</v>
+        <v>0.244262</v>
       </c>
       <c r="D108" t="n">
-        <v>0.24744</v>
+        <v>0.246033</v>
       </c>
     </row>
     <row r="109">
@@ -4747,13 +4747,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.191255</v>
+        <v>0.189944</v>
       </c>
       <c r="C109" t="n">
-        <v>0.245945</v>
+        <v>0.245705</v>
       </c>
       <c r="D109" t="n">
-        <v>0.244572</v>
+        <v>0.243223</v>
       </c>
     </row>
     <row r="110">
@@ -4761,13 +4761,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.260156</v>
+        <v>0.260898</v>
       </c>
       <c r="C110" t="n">
-        <v>0.270412</v>
+        <v>0.268715</v>
       </c>
       <c r="D110" t="n">
-        <v>0.274038</v>
+        <v>0.27409</v>
       </c>
     </row>
     <row r="111">
@@ -4775,13 +4775,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.253827</v>
+        <v>0.252</v>
       </c>
       <c r="C111" t="n">
-        <v>0.267683</v>
+        <v>0.266026</v>
       </c>
       <c r="D111" t="n">
-        <v>0.271192</v>
+        <v>0.27237</v>
       </c>
     </row>
     <row r="112">
@@ -4789,13 +4789,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.247811</v>
+        <v>0.248437</v>
       </c>
       <c r="C112" t="n">
-        <v>0.263112</v>
+        <v>0.263072</v>
       </c>
       <c r="D112" t="n">
-        <v>0.270231</v>
+        <v>0.26687</v>
       </c>
     </row>
     <row r="113">
@@ -4803,13 +4803,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.242917</v>
+        <v>0.249545</v>
       </c>
       <c r="C113" t="n">
-        <v>0.260179</v>
+        <v>0.260403</v>
       </c>
       <c r="D113" t="n">
-        <v>0.262185</v>
+        <v>0.265932</v>
       </c>
     </row>
     <row r="114">
@@ -4817,13 +4817,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.234538</v>
+        <v>0.238003</v>
       </c>
       <c r="C114" t="n">
-        <v>0.258736</v>
+        <v>0.259065</v>
       </c>
       <c r="D114" t="n">
-        <v>0.26442</v>
+        <v>0.26277</v>
       </c>
     </row>
     <row r="115">
@@ -4831,13 +4831,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.234067</v>
+        <v>0.229055</v>
       </c>
       <c r="C115" t="n">
-        <v>0.255134</v>
+        <v>0.264102</v>
       </c>
       <c r="D115" t="n">
-        <v>0.259816</v>
+        <v>0.26166</v>
       </c>
     </row>
     <row r="116">
@@ -4845,13 +4845,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.23409</v>
+        <v>0.230408</v>
       </c>
       <c r="C116" t="n">
-        <v>0.252878</v>
+        <v>0.25775</v>
       </c>
       <c r="D116" t="n">
-        <v>0.256542</v>
+        <v>0.258785</v>
       </c>
     </row>
     <row r="117">
@@ -4859,13 +4859,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.225613</v>
+        <v>0.221539</v>
       </c>
       <c r="C117" t="n">
-        <v>0.256093</v>
+        <v>0.251634</v>
       </c>
       <c r="D117" t="n">
-        <v>0.25836</v>
+        <v>0.252563</v>
       </c>
     </row>
     <row r="118">
@@ -4873,13 +4873,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.21831</v>
+        <v>0.220086</v>
       </c>
       <c r="C118" t="n">
-        <v>0.252592</v>
+        <v>0.252258</v>
       </c>
       <c r="D118" t="n">
-        <v>0.252142</v>
+        <v>0.258212</v>
       </c>
     </row>
     <row r="119">
@@ -4887,13 +4887,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.214491</v>
+        <v>0.212177</v>
       </c>
       <c r="C119" t="n">
-        <v>0.249408</v>
+        <v>0.248515</v>
       </c>
       <c r="D119" t="n">
-        <v>0.256353</v>
+        <v>0.252279</v>
       </c>
     </row>
     <row r="120">
@@ -4901,13 +4901,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.2087</v>
+        <v>0.209418</v>
       </c>
       <c r="C120" t="n">
-        <v>0.250692</v>
+        <v>0.249838</v>
       </c>
       <c r="D120" t="n">
-        <v>0.252488</v>
+        <v>0.249515</v>
       </c>
     </row>
     <row r="121">
@@ -4915,13 +4915,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.206485</v>
+        <v>0.206012</v>
       </c>
       <c r="C121" t="n">
-        <v>0.251225</v>
+        <v>0.250296</v>
       </c>
       <c r="D121" t="n">
-        <v>0.250501</v>
+        <v>0.250569</v>
       </c>
     </row>
     <row r="122">
@@ -4929,13 +4929,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.197714</v>
+        <v>0.200131</v>
       </c>
       <c r="C122" t="n">
-        <v>0.244445</v>
+        <v>0.247744</v>
       </c>
       <c r="D122" t="n">
-        <v>0.246325</v>
+        <v>0.246917</v>
       </c>
     </row>
     <row r="123">
@@ -4943,13 +4943,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.191875</v>
+        <v>0.190956</v>
       </c>
       <c r="C123" t="n">
-        <v>0.242653</v>
+        <v>0.246071</v>
       </c>
       <c r="D123" t="n">
-        <v>0.245041</v>
+        <v>0.247249</v>
       </c>
     </row>
     <row r="124">
@@ -4957,13 +4957,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.261514</v>
+        <v>0.261653</v>
       </c>
       <c r="C124" t="n">
-        <v>0.271399</v>
+        <v>0.270189</v>
       </c>
       <c r="D124" t="n">
-        <v>0.277087</v>
+        <v>0.273714</v>
       </c>
     </row>
     <row r="125">
@@ -4971,13 +4971,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.258704</v>
+        <v>0.252669</v>
       </c>
       <c r="C125" t="n">
-        <v>0.265789</v>
+        <v>0.270278</v>
       </c>
       <c r="D125" t="n">
-        <v>0.273184</v>
+        <v>0.268997</v>
       </c>
     </row>
     <row r="126">
@@ -4985,13 +4985,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.255763</v>
+        <v>0.25035</v>
       </c>
       <c r="C126" t="n">
-        <v>0.267398</v>
+        <v>0.267717</v>
       </c>
       <c r="D126" t="n">
-        <v>0.269167</v>
+        <v>0.270159</v>
       </c>
     </row>
     <row r="127">
@@ -4999,13 +4999,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.244831</v>
+        <v>0.249757</v>
       </c>
       <c r="C127" t="n">
-        <v>0.265163</v>
+        <v>0.263113</v>
       </c>
       <c r="D127" t="n">
-        <v>0.266565</v>
+        <v>0.264662</v>
       </c>
     </row>
     <row r="128">
@@ -5013,13 +5013,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.237344</v>
+        <v>0.240437</v>
       </c>
       <c r="C128" t="n">
-        <v>0.262272</v>
+        <v>0.260191</v>
       </c>
       <c r="D128" t="n">
-        <v>0.262931</v>
+        <v>0.264413</v>
       </c>
     </row>
     <row r="129">
@@ -5027,13 +5027,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.233308</v>
+        <v>0.234496</v>
       </c>
       <c r="C129" t="n">
-        <v>0.260513</v>
+        <v>0.262602</v>
       </c>
       <c r="D129" t="n">
-        <v>0.260857</v>
+        <v>0.26769</v>
       </c>
     </row>
     <row r="130">
@@ -5041,13 +5041,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.235887</v>
+        <v>0.230443</v>
       </c>
       <c r="C130" t="n">
-        <v>0.258091</v>
+        <v>0.257077</v>
       </c>
       <c r="D130" t="n">
-        <v>0.260011</v>
+        <v>0.259554</v>
       </c>
     </row>
     <row r="131">
@@ -5055,13 +5055,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.228028</v>
+        <v>0.223987</v>
       </c>
       <c r="C131" t="n">
-        <v>0.254232</v>
+        <v>0.257767</v>
       </c>
       <c r="D131" t="n">
-        <v>0.255766</v>
+        <v>0.259685</v>
       </c>
     </row>
     <row r="132">
@@ -5069,13 +5069,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.224381</v>
+        <v>0.221027</v>
       </c>
       <c r="C132" t="n">
-        <v>0.258411</v>
+        <v>0.251166</v>
       </c>
       <c r="D132" t="n">
-        <v>0.256383</v>
+        <v>0.252741</v>
       </c>
     </row>
     <row r="133">
@@ -5083,13 +5083,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.215428</v>
+        <v>0.214548</v>
       </c>
       <c r="C133" t="n">
-        <v>0.248616</v>
+        <v>0.252074</v>
       </c>
       <c r="D133" t="n">
-        <v>0.252808</v>
+        <v>0.255521</v>
       </c>
     </row>
     <row r="134">
@@ -5097,13 +5097,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.209954</v>
+        <v>0.211041</v>
       </c>
       <c r="C134" t="n">
-        <v>0.250912</v>
+        <v>0.248508</v>
       </c>
       <c r="D134" t="n">
-        <v>0.250521</v>
+        <v>0.252091</v>
       </c>
     </row>
     <row r="135">
@@ -5111,13 +5111,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.211073</v>
+        <v>0.205407</v>
       </c>
       <c r="C135" t="n">
-        <v>0.247734</v>
+        <v>0.246585</v>
       </c>
       <c r="D135" t="n">
-        <v>0.252138</v>
+        <v>0.251539</v>
       </c>
     </row>
     <row r="136">
@@ -5125,13 +5125,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.2041</v>
+        <v>0.200688</v>
       </c>
       <c r="C136" t="n">
-        <v>0.246338</v>
+        <v>0.248155</v>
       </c>
       <c r="D136" t="n">
-        <v>0.246257</v>
+        <v>0.245946</v>
       </c>
     </row>
     <row r="137">
@@ -5139,13 +5139,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.190146</v>
+        <v>0.196543</v>
       </c>
       <c r="C137" t="n">
-        <v>0.249411</v>
+        <v>0.243752</v>
       </c>
       <c r="D137" t="n">
-        <v>0.245893</v>
+        <v>0.246406</v>
       </c>
     </row>
     <row r="138">
@@ -5153,13 +5153,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.263054</v>
+        <v>0.261617</v>
       </c>
       <c r="C138" t="n">
-        <v>0.27437</v>
+        <v>0.271557</v>
       </c>
       <c r="D138" t="n">
-        <v>0.274144</v>
+        <v>0.274012</v>
       </c>
     </row>
     <row r="139">
@@ -5167,13 +5167,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.258547</v>
+        <v>0.26638</v>
       </c>
       <c r="C139" t="n">
-        <v>0.268393</v>
+        <v>0.267638</v>
       </c>
       <c r="D139" t="n">
-        <v>0.271358</v>
+        <v>0.270713</v>
       </c>
     </row>
     <row r="140">
@@ -5181,13 +5181,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.257301</v>
+        <v>0.249728</v>
       </c>
       <c r="C140" t="n">
-        <v>0.262651</v>
+        <v>0.264378</v>
       </c>
       <c r="D140" t="n">
-        <v>0.270166</v>
+        <v>0.266578</v>
       </c>
     </row>
     <row r="141">
@@ -5195,13 +5195,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.247366</v>
+        <v>0.244283</v>
       </c>
       <c r="C141" t="n">
-        <v>0.261066</v>
+        <v>0.265177</v>
       </c>
       <c r="D141" t="n">
-        <v>0.268415</v>
+        <v>0.260768</v>
       </c>
     </row>
     <row r="142">
@@ -5209,13 +5209,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.238383</v>
+        <v>0.241029</v>
       </c>
       <c r="C142" t="n">
-        <v>0.263361</v>
+        <v>0.260802</v>
       </c>
       <c r="D142" t="n">
-        <v>0.262246</v>
+        <v>0.260384</v>
       </c>
     </row>
     <row r="143">
@@ -5223,13 +5223,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.233208</v>
+        <v>0.232802</v>
       </c>
       <c r="C143" t="n">
-        <v>0.2577</v>
+        <v>0.260279</v>
       </c>
       <c r="D143" t="n">
-        <v>0.257437</v>
+        <v>0.259159</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Running erasure.xlsx
+++ b/vs-x64/Running erasure.xlsx
@@ -3249,13 +3249,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.202076</v>
+        <v>0.208385</v>
       </c>
       <c r="C2" t="n">
-        <v>0.238199</v>
+        <v>0.240612</v>
       </c>
       <c r="D2" t="n">
-        <v>0.238997</v>
+        <v>0.234147</v>
       </c>
     </row>
     <row r="3">
@@ -3263,13 +3263,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.196895</v>
+        <v>0.199942</v>
       </c>
       <c r="C3" t="n">
-        <v>0.235155</v>
+        <v>0.23343</v>
       </c>
       <c r="D3" t="n">
-        <v>0.238697</v>
+        <v>0.23264</v>
       </c>
     </row>
     <row r="4">
@@ -3277,13 +3277,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.1963</v>
+        <v>0.198535</v>
       </c>
       <c r="C4" t="n">
-        <v>0.238079</v>
+        <v>0.236879</v>
       </c>
       <c r="D4" t="n">
-        <v>0.241188</v>
+        <v>0.241798</v>
       </c>
     </row>
     <row r="5">
@@ -3291,13 +3291,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.193294</v>
+        <v>0.195926</v>
       </c>
       <c r="C5" t="n">
-        <v>0.231415</v>
+        <v>0.233786</v>
       </c>
       <c r="D5" t="n">
-        <v>0.232398</v>
+        <v>0.234621</v>
       </c>
     </row>
     <row r="6">
@@ -3305,13 +3305,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.186132</v>
+        <v>0.1939</v>
       </c>
       <c r="C6" t="n">
-        <v>0.228044</v>
+        <v>0.238868</v>
       </c>
       <c r="D6" t="n">
-        <v>0.235717</v>
+        <v>0.238608</v>
       </c>
     </row>
     <row r="7">
@@ -3319,13 +3319,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.182969</v>
+        <v>0.190048</v>
       </c>
       <c r="C7" t="n">
-        <v>0.231289</v>
+        <v>0.233257</v>
       </c>
       <c r="D7" t="n">
-        <v>0.231814</v>
+        <v>0.240126</v>
       </c>
     </row>
     <row r="8">
@@ -3333,13 +3333,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.180719</v>
+        <v>0.182039</v>
       </c>
       <c r="C8" t="n">
-        <v>0.226492</v>
+        <v>0.233573</v>
       </c>
       <c r="D8" t="n">
-        <v>0.228893</v>
+        <v>0.235246</v>
       </c>
     </row>
     <row r="9">
@@ -3347,13 +3347,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.170506</v>
+        <v>0.176245</v>
       </c>
       <c r="C9" t="n">
-        <v>0.229199</v>
+        <v>0.228924</v>
       </c>
       <c r="D9" t="n">
-        <v>0.235615</v>
+        <v>0.237377</v>
       </c>
     </row>
     <row r="10">
@@ -3361,13 +3361,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.228385</v>
+        <v>0.230956</v>
       </c>
       <c r="C10" t="n">
-        <v>0.247883</v>
+        <v>0.240792</v>
       </c>
       <c r="D10" t="n">
-        <v>0.245347</v>
+        <v>0.242334</v>
       </c>
     </row>
     <row r="11">
@@ -3375,13 +3375,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.22722</v>
+        <v>0.229851</v>
       </c>
       <c r="C11" t="n">
-        <v>0.239178</v>
+        <v>0.242531</v>
       </c>
       <c r="D11" t="n">
-        <v>0.242596</v>
+        <v>0.238498</v>
       </c>
     </row>
     <row r="12">
@@ -3389,13 +3389,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.216216</v>
+        <v>0.220591</v>
       </c>
       <c r="C12" t="n">
-        <v>0.237794</v>
+        <v>0.236114</v>
       </c>
       <c r="D12" t="n">
-        <v>0.237756</v>
+        <v>0.241318</v>
       </c>
     </row>
     <row r="13">
@@ -3403,13 +3403,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.218532</v>
+        <v>0.215664</v>
       </c>
       <c r="C13" t="n">
-        <v>0.235661</v>
+        <v>0.234388</v>
       </c>
       <c r="D13" t="n">
-        <v>0.236791</v>
+        <v>0.23933</v>
       </c>
     </row>
     <row r="14">
@@ -3417,13 +3417,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.211131</v>
+        <v>0.213395</v>
       </c>
       <c r="C14" t="n">
-        <v>0.235283</v>
+        <v>0.239739</v>
       </c>
       <c r="D14" t="n">
-        <v>0.237899</v>
+        <v>0.23933</v>
       </c>
     </row>
     <row r="15">
@@ -3431,13 +3431,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.208582</v>
+        <v>0.208027</v>
       </c>
       <c r="C15" t="n">
-        <v>0.243147</v>
+        <v>0.232086</v>
       </c>
       <c r="D15" t="n">
-        <v>0.24189</v>
+        <v>0.238121</v>
       </c>
     </row>
     <row r="16">
@@ -3445,13 +3445,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.205943</v>
+        <v>0.203703</v>
       </c>
       <c r="C16" t="n">
-        <v>0.236157</v>
+        <v>0.234606</v>
       </c>
       <c r="D16" t="n">
-        <v>0.236038</v>
+        <v>0.237537</v>
       </c>
     </row>
     <row r="17">
@@ -3459,13 +3459,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.201281</v>
+        <v>0.20313</v>
       </c>
       <c r="C17" t="n">
-        <v>0.237102</v>
+        <v>0.230665</v>
       </c>
       <c r="D17" t="n">
-        <v>0.237147</v>
+        <v>0.239773</v>
       </c>
     </row>
     <row r="18">
@@ -3473,13 +3473,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.200753</v>
+        <v>0.198271</v>
       </c>
       <c r="C18" t="n">
-        <v>0.234842</v>
+        <v>0.23469</v>
       </c>
       <c r="D18" t="n">
-        <v>0.238975</v>
+        <v>0.237268</v>
       </c>
     </row>
     <row r="19">
@@ -3487,13 +3487,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.196492</v>
+        <v>0.193515</v>
       </c>
       <c r="C19" t="n">
-        <v>0.234758</v>
+        <v>0.233686</v>
       </c>
       <c r="D19" t="n">
-        <v>0.241358</v>
+        <v>0.235845</v>
       </c>
     </row>
     <row r="20">
@@ -3501,13 +3501,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.193129</v>
+        <v>0.195232</v>
       </c>
       <c r="C20" t="n">
-        <v>0.231299</v>
+        <v>0.231696</v>
       </c>
       <c r="D20" t="n">
-        <v>0.239776</v>
+        <v>0.241601</v>
       </c>
     </row>
     <row r="21">
@@ -3515,13 +3515,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.192893</v>
+        <v>0.190369</v>
       </c>
       <c r="C21" t="n">
-        <v>0.233685</v>
+        <v>0.230262</v>
       </c>
       <c r="D21" t="n">
-        <v>0.232949</v>
+        <v>0.237965</v>
       </c>
     </row>
     <row r="22">
@@ -3529,13 +3529,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.18471</v>
+        <v>0.18796</v>
       </c>
       <c r="C22" t="n">
-        <v>0.230491</v>
+        <v>0.228463</v>
       </c>
       <c r="D22" t="n">
-        <v>0.231452</v>
+        <v>0.236349</v>
       </c>
     </row>
     <row r="23">
@@ -3543,13 +3543,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.175596</v>
+        <v>0.177934</v>
       </c>
       <c r="C23" t="n">
-        <v>0.226985</v>
+        <v>0.229776</v>
       </c>
       <c r="D23" t="n">
-        <v>0.234208</v>
+        <v>0.233319</v>
       </c>
     </row>
     <row r="24">
@@ -3557,13 +3557,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.236948</v>
+        <v>0.236047</v>
       </c>
       <c r="C24" t="n">
-        <v>0.247524</v>
+        <v>0.246959</v>
       </c>
       <c r="D24" t="n">
-        <v>0.251008</v>
+        <v>0.250869</v>
       </c>
     </row>
     <row r="25">
@@ -3571,13 +3571,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.234941</v>
+        <v>0.233559</v>
       </c>
       <c r="C25" t="n">
-        <v>0.246854</v>
+        <v>0.243859</v>
       </c>
       <c r="D25" t="n">
-        <v>0.253234</v>
+        <v>0.247235</v>
       </c>
     </row>
     <row r="26">
@@ -3585,13 +3585,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.227746</v>
+        <v>0.22911</v>
       </c>
       <c r="C26" t="n">
-        <v>0.24587</v>
+        <v>0.245663</v>
       </c>
       <c r="D26" t="n">
-        <v>0.246842</v>
+        <v>0.246395</v>
       </c>
     </row>
     <row r="27">
@@ -3599,13 +3599,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.225161</v>
+        <v>0.223959</v>
       </c>
       <c r="C27" t="n">
-        <v>0.243532</v>
+        <v>0.240231</v>
       </c>
       <c r="D27" t="n">
-        <v>0.246895</v>
+        <v>0.246247</v>
       </c>
     </row>
     <row r="28">
@@ -3613,13 +3613,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.219644</v>
+        <v>0.218306</v>
       </c>
       <c r="C28" t="n">
-        <v>0.239404</v>
+        <v>0.242385</v>
       </c>
       <c r="D28" t="n">
-        <v>0.245238</v>
+        <v>0.239126</v>
       </c>
     </row>
     <row r="29">
@@ -3627,13 +3627,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.216446</v>
+        <v>0.214756</v>
       </c>
       <c r="C29" t="n">
-        <v>0.236742</v>
+        <v>0.239632</v>
       </c>
       <c r="D29" t="n">
-        <v>0.237295</v>
+        <v>0.245195</v>
       </c>
     </row>
     <row r="30">
@@ -3641,13 +3641,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.210604</v>
+        <v>0.212377</v>
       </c>
       <c r="C30" t="n">
-        <v>0.23664</v>
+        <v>0.237883</v>
       </c>
       <c r="D30" t="n">
-        <v>0.245865</v>
+        <v>0.24053</v>
       </c>
     </row>
     <row r="31">
@@ -3655,13 +3655,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.208516</v>
+        <v>0.206665</v>
       </c>
       <c r="C31" t="n">
-        <v>0.234761</v>
+        <v>0.237211</v>
       </c>
       <c r="D31" t="n">
-        <v>0.239902</v>
+        <v>0.2409</v>
       </c>
     </row>
     <row r="32">
@@ -3669,13 +3669,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.207091</v>
+        <v>0.205068</v>
       </c>
       <c r="C32" t="n">
-        <v>0.237898</v>
+        <v>0.235669</v>
       </c>
       <c r="D32" t="n">
-        <v>0.23873</v>
+        <v>0.240861</v>
       </c>
     </row>
     <row r="33">
@@ -3683,13 +3683,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.20055</v>
+        <v>0.200739</v>
       </c>
       <c r="C33" t="n">
-        <v>0.234387</v>
+        <v>0.236292</v>
       </c>
       <c r="D33" t="n">
-        <v>0.236794</v>
+        <v>0.235466</v>
       </c>
     </row>
     <row r="34">
@@ -3697,13 +3697,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.197773</v>
+        <v>0.198666</v>
       </c>
       <c r="C34" t="n">
-        <v>0.233113</v>
+        <v>0.232602</v>
       </c>
       <c r="D34" t="n">
-        <v>0.237845</v>
+        <v>0.234369</v>
       </c>
     </row>
     <row r="35">
@@ -3711,13 +3711,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.191735</v>
+        <v>0.193307</v>
       </c>
       <c r="C35" t="n">
-        <v>0.23414</v>
+        <v>0.233751</v>
       </c>
       <c r="D35" t="n">
-        <v>0.240272</v>
+        <v>0.236072</v>
       </c>
     </row>
     <row r="36">
@@ -3725,13 +3725,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.189603</v>
+        <v>0.188576</v>
       </c>
       <c r="C36" t="n">
-        <v>0.230561</v>
+        <v>0.233214</v>
       </c>
       <c r="D36" t="n">
-        <v>0.234929</v>
+        <v>0.232429</v>
       </c>
     </row>
     <row r="37">
@@ -3739,13 +3739,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.18309</v>
+        <v>0.1835</v>
       </c>
       <c r="C37" t="n">
-        <v>0.233507</v>
+        <v>0.232008</v>
       </c>
       <c r="D37" t="n">
-        <v>0.233995</v>
+        <v>0.233601</v>
       </c>
     </row>
     <row r="38">
@@ -3753,13 +3753,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.241444</v>
+        <v>0.237325</v>
       </c>
       <c r="C38" t="n">
-        <v>0.255566</v>
+        <v>0.258051</v>
       </c>
       <c r="D38" t="n">
-        <v>0.261133</v>
+        <v>0.263537</v>
       </c>
     </row>
     <row r="39">
@@ -3767,13 +3767,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.238641</v>
+        <v>0.234123</v>
       </c>
       <c r="C39" t="n">
-        <v>0.25542</v>
+        <v>0.26015</v>
       </c>
       <c r="D39" t="n">
-        <v>0.262681</v>
+        <v>0.258927</v>
       </c>
     </row>
     <row r="40">
@@ -3781,13 +3781,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.232525</v>
+        <v>0.231723</v>
       </c>
       <c r="C40" t="n">
-        <v>0.253487</v>
+        <v>0.254667</v>
       </c>
       <c r="D40" t="n">
-        <v>0.256513</v>
+        <v>0.255171</v>
       </c>
     </row>
     <row r="41">
@@ -3795,13 +3795,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.22931</v>
+        <v>0.229334</v>
       </c>
       <c r="C41" t="n">
-        <v>0.255609</v>
+        <v>0.253563</v>
       </c>
       <c r="D41" t="n">
-        <v>0.253545</v>
+        <v>0.25537</v>
       </c>
     </row>
     <row r="42">
@@ -3809,13 +3809,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.222633</v>
+        <v>0.225471</v>
       </c>
       <c r="C42" t="n">
-        <v>0.251524</v>
+        <v>0.249457</v>
       </c>
       <c r="D42" t="n">
-        <v>0.255815</v>
+        <v>0.248085</v>
       </c>
     </row>
     <row r="43">
@@ -3823,13 +3823,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.221775</v>
+        <v>0.220334</v>
       </c>
       <c r="C43" t="n">
-        <v>0.247664</v>
+        <v>0.250137</v>
       </c>
       <c r="D43" t="n">
-        <v>0.252444</v>
+        <v>0.250867</v>
       </c>
     </row>
     <row r="44">
@@ -3837,13 +3837,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.215864</v>
+        <v>0.216114</v>
       </c>
       <c r="C44" t="n">
-        <v>0.2465</v>
+        <v>0.248738</v>
       </c>
       <c r="D44" t="n">
-        <v>0.247832</v>
+        <v>0.249055</v>
       </c>
     </row>
     <row r="45">
@@ -3851,13 +3851,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.211431</v>
+        <v>0.212816</v>
       </c>
       <c r="C45" t="n">
-        <v>0.244886</v>
+        <v>0.245359</v>
       </c>
       <c r="D45" t="n">
-        <v>0.251891</v>
+        <v>0.248054</v>
       </c>
     </row>
     <row r="46">
@@ -3865,13 +3865,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.208085</v>
+        <v>0.206158</v>
       </c>
       <c r="C46" t="n">
-        <v>0.247356</v>
+        <v>0.242916</v>
       </c>
       <c r="D46" t="n">
-        <v>0.247917</v>
+        <v>0.249725</v>
       </c>
     </row>
     <row r="47">
@@ -3879,13 +3879,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.203271</v>
+        <v>0.203917</v>
       </c>
       <c r="C47" t="n">
-        <v>0.242244</v>
+        <v>0.24572</v>
       </c>
       <c r="D47" t="n">
-        <v>0.243312</v>
+        <v>0.243202</v>
       </c>
     </row>
     <row r="48">
@@ -3893,13 +3893,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.204667</v>
+        <v>0.199195</v>
       </c>
       <c r="C48" t="n">
-        <v>0.23955</v>
+        <v>0.243043</v>
       </c>
       <c r="D48" t="n">
-        <v>0.2437</v>
+        <v>0.244995</v>
       </c>
     </row>
     <row r="49">
@@ -3907,13 +3907,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.196417</v>
+        <v>0.196623</v>
       </c>
       <c r="C49" t="n">
-        <v>0.241695</v>
+        <v>0.239857</v>
       </c>
       <c r="D49" t="n">
-        <v>0.242683</v>
+        <v>0.24423</v>
       </c>
     </row>
     <row r="50">
@@ -3921,13 +3921,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.189983</v>
+        <v>0.195347</v>
       </c>
       <c r="C50" t="n">
-        <v>0.241761</v>
+        <v>0.242156</v>
       </c>
       <c r="D50" t="n">
-        <v>0.241939</v>
+        <v>0.242872</v>
       </c>
     </row>
     <row r="51">
@@ -3935,13 +3935,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.189397</v>
+        <v>0.186913</v>
       </c>
       <c r="C51" t="n">
-        <v>0.234831</v>
+        <v>0.238469</v>
       </c>
       <c r="D51" t="n">
-        <v>0.240066</v>
+        <v>0.240195</v>
       </c>
     </row>
     <row r="52">
@@ -3949,13 +3949,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.178432</v>
+        <v>0.179461</v>
       </c>
       <c r="C52" t="n">
-        <v>0.238192</v>
+        <v>0.237051</v>
       </c>
       <c r="D52" t="n">
-        <v>0.241992</v>
+        <v>0.237278</v>
       </c>
     </row>
     <row r="53">
@@ -3963,13 +3963,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.243999</v>
+        <v>0.246983</v>
       </c>
       <c r="C53" t="n">
-        <v>0.256512</v>
+        <v>0.258448</v>
       </c>
       <c r="D53" t="n">
-        <v>0.256862</v>
+        <v>0.261363</v>
       </c>
     </row>
     <row r="54">
@@ -3977,13 +3977,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.239082</v>
+        <v>0.241912</v>
       </c>
       <c r="C54" t="n">
-        <v>0.25405</v>
+        <v>0.253816</v>
       </c>
       <c r="D54" t="n">
-        <v>0.258582</v>
+        <v>0.256037</v>
       </c>
     </row>
     <row r="55">
@@ -3991,13 +3991,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.23701</v>
+        <v>0.235784</v>
       </c>
       <c r="C55" t="n">
-        <v>0.254873</v>
+        <v>0.254679</v>
       </c>
       <c r="D55" t="n">
-        <v>0.259422</v>
+        <v>0.256443</v>
       </c>
     </row>
     <row r="56">
@@ -4005,13 +4005,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.231281</v>
+        <v>0.231273</v>
       </c>
       <c r="C56" t="n">
-        <v>0.253906</v>
+        <v>0.253128</v>
       </c>
       <c r="D56" t="n">
-        <v>0.254662</v>
+        <v>0.253531</v>
       </c>
     </row>
     <row r="57">
@@ -4019,13 +4019,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.224348</v>
+        <v>0.226641</v>
       </c>
       <c r="C57" t="n">
-        <v>0.246387</v>
+        <v>0.250597</v>
       </c>
       <c r="D57" t="n">
-        <v>0.253087</v>
+        <v>0.252708</v>
       </c>
     </row>
     <row r="58">
@@ -4033,13 +4033,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.220092</v>
+        <v>0.222285</v>
       </c>
       <c r="C58" t="n">
-        <v>0.250588</v>
+        <v>0.248651</v>
       </c>
       <c r="D58" t="n">
-        <v>0.257646</v>
+        <v>0.248822</v>
       </c>
     </row>
     <row r="59">
@@ -4047,13 +4047,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.217312</v>
+        <v>0.218704</v>
       </c>
       <c r="C59" t="n">
-        <v>0.248241</v>
+        <v>0.24383</v>
       </c>
       <c r="D59" t="n">
-        <v>0.250091</v>
+        <v>0.248255</v>
       </c>
     </row>
     <row r="60">
@@ -4061,13 +4061,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.213619</v>
+        <v>0.214397</v>
       </c>
       <c r="C60" t="n">
-        <v>0.243701</v>
+        <v>0.246505</v>
       </c>
       <c r="D60" t="n">
-        <v>0.248018</v>
+        <v>0.25015</v>
       </c>
     </row>
     <row r="61">
@@ -4075,13 +4075,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.210989</v>
+        <v>0.210817</v>
       </c>
       <c r="C61" t="n">
-        <v>0.244001</v>
+        <v>0.245176</v>
       </c>
       <c r="D61" t="n">
-        <v>0.24788</v>
+        <v>0.245006</v>
       </c>
     </row>
     <row r="62">
@@ -4089,13 +4089,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.206174</v>
+        <v>0.206822</v>
       </c>
       <c r="C62" t="n">
-        <v>0.241948</v>
+        <v>0.241554</v>
       </c>
       <c r="D62" t="n">
-        <v>0.243547</v>
+        <v>0.245061</v>
       </c>
     </row>
     <row r="63">
@@ -4103,13 +4103,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.203142</v>
+        <v>0.201849</v>
       </c>
       <c r="C63" t="n">
-        <v>0.239509</v>
+        <v>0.241806</v>
       </c>
       <c r="D63" t="n">
-        <v>0.246967</v>
+        <v>0.244719</v>
       </c>
     </row>
     <row r="64">
@@ -4117,13 +4117,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.198022</v>
+        <v>0.198289</v>
       </c>
       <c r="C64" t="n">
-        <v>0.237956</v>
+        <v>0.24501</v>
       </c>
       <c r="D64" t="n">
-        <v>0.242602</v>
+        <v>0.242794</v>
       </c>
     </row>
     <row r="65">
@@ -4131,13 +4131,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.191497</v>
+        <v>0.191499</v>
       </c>
       <c r="C65" t="n">
-        <v>0.243375</v>
+        <v>0.23938</v>
       </c>
       <c r="D65" t="n">
-        <v>0.241775</v>
+        <v>0.241675</v>
       </c>
     </row>
     <row r="66">
@@ -4145,13 +4145,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.186155</v>
+        <v>0.186282</v>
       </c>
       <c r="C66" t="n">
-        <v>0.241245</v>
+        <v>0.236283</v>
       </c>
       <c r="D66" t="n">
-        <v>0.241677</v>
+        <v>0.239456</v>
       </c>
     </row>
     <row r="67">
@@ -4159,13 +4159,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.250959</v>
+        <v>0.252811</v>
       </c>
       <c r="C67" t="n">
-        <v>0.263574</v>
+        <v>0.261837</v>
       </c>
       <c r="D67" t="n">
-        <v>0.265691</v>
+        <v>0.266996</v>
       </c>
     </row>
     <row r="68">
@@ -4173,13 +4173,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.25072</v>
+        <v>0.246733</v>
       </c>
       <c r="C68" t="n">
-        <v>0.262062</v>
+        <v>0.259977</v>
       </c>
       <c r="D68" t="n">
-        <v>0.263354</v>
+        <v>0.265538</v>
       </c>
     </row>
     <row r="69">
@@ -4187,13 +4187,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.243385</v>
+        <v>0.243574</v>
       </c>
       <c r="C69" t="n">
-        <v>0.25954</v>
+        <v>0.25903</v>
       </c>
       <c r="D69" t="n">
-        <v>0.259635</v>
+        <v>0.258333</v>
       </c>
     </row>
     <row r="70">
@@ -4201,13 +4201,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.240066</v>
+        <v>0.236355</v>
       </c>
       <c r="C70" t="n">
-        <v>0.255315</v>
+        <v>0.253956</v>
       </c>
       <c r="D70" t="n">
-        <v>0.25769</v>
+        <v>0.25926</v>
       </c>
     </row>
     <row r="71">
@@ -4215,13 +4215,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.230418</v>
+        <v>0.234491</v>
       </c>
       <c r="C71" t="n">
-        <v>0.254904</v>
+        <v>0.253179</v>
       </c>
       <c r="D71" t="n">
-        <v>0.254924</v>
+        <v>0.258281</v>
       </c>
     </row>
     <row r="72">
@@ -4229,13 +4229,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.230426</v>
+        <v>0.228068</v>
       </c>
       <c r="C72" t="n">
-        <v>0.25149</v>
+        <v>0.253285</v>
       </c>
       <c r="D72" t="n">
-        <v>0.254209</v>
+        <v>0.255153</v>
       </c>
     </row>
     <row r="73">
@@ -4243,13 +4243,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.223304</v>
+        <v>0.225004</v>
       </c>
       <c r="C73" t="n">
-        <v>0.249305</v>
+        <v>0.253128</v>
       </c>
       <c r="D73" t="n">
-        <v>0.253375</v>
+        <v>0.254416</v>
       </c>
     </row>
     <row r="74">
@@ -4257,13 +4257,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.220102</v>
+        <v>0.218993</v>
       </c>
       <c r="C74" t="n">
-        <v>0.251562</v>
+        <v>0.250766</v>
       </c>
       <c r="D74" t="n">
-        <v>0.25372</v>
+        <v>0.249827</v>
       </c>
     </row>
     <row r="75">
@@ -4271,13 +4271,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.217194</v>
+        <v>0.21584</v>
       </c>
       <c r="C75" t="n">
-        <v>0.247096</v>
+        <v>0.244456</v>
       </c>
       <c r="D75" t="n">
-        <v>0.25172</v>
+        <v>0.248322</v>
       </c>
     </row>
     <row r="76">
@@ -4285,13 +4285,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.21316</v>
+        <v>0.20972</v>
       </c>
       <c r="C76" t="n">
-        <v>0.244932</v>
+        <v>0.246667</v>
       </c>
       <c r="D76" t="n">
-        <v>0.245577</v>
+        <v>0.249639</v>
       </c>
     </row>
     <row r="77">
@@ -4299,13 +4299,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.208462</v>
+        <v>0.20972</v>
       </c>
       <c r="C77" t="n">
-        <v>0.243853</v>
+        <v>0.248767</v>
       </c>
       <c r="D77" t="n">
-        <v>0.246892</v>
+        <v>0.247797</v>
       </c>
     </row>
     <row r="78">
@@ -4313,13 +4313,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.202293</v>
+        <v>0.203825</v>
       </c>
       <c r="C78" t="n">
-        <v>0.243258</v>
+        <v>0.242314</v>
       </c>
       <c r="D78" t="n">
-        <v>0.248815</v>
+        <v>0.244048</v>
       </c>
     </row>
     <row r="79">
@@ -4327,13 +4327,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.198958</v>
+        <v>0.199494</v>
       </c>
       <c r="C79" t="n">
-        <v>0.24181</v>
+        <v>0.244371</v>
       </c>
       <c r="D79" t="n">
-        <v>0.243836</v>
+        <v>0.247402</v>
       </c>
     </row>
     <row r="80">
@@ -4341,13 +4341,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.190388</v>
+        <v>0.194931</v>
       </c>
       <c r="C80" t="n">
-        <v>0.243312</v>
+        <v>0.239549</v>
       </c>
       <c r="D80" t="n">
-        <v>0.242246</v>
+        <v>0.240351</v>
       </c>
     </row>
     <row r="81">
@@ -4355,13 +4355,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.259643</v>
+        <v>0.262297</v>
       </c>
       <c r="C81" t="n">
-        <v>0.26954</v>
+        <v>0.270714</v>
       </c>
       <c r="D81" t="n">
-        <v>0.271143</v>
+        <v>0.2735</v>
       </c>
     </row>
     <row r="82">
@@ -4369,13 +4369,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.253682</v>
+        <v>0.255426</v>
       </c>
       <c r="C82" t="n">
-        <v>0.268555</v>
+        <v>0.268378</v>
       </c>
       <c r="D82" t="n">
-        <v>0.271266</v>
+        <v>0.269043</v>
       </c>
     </row>
     <row r="83">
@@ -4383,13 +4383,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.252433</v>
+        <v>0.251335</v>
       </c>
       <c r="C83" t="n">
-        <v>0.266889</v>
+        <v>0.264646</v>
       </c>
       <c r="D83" t="n">
-        <v>0.265442</v>
+        <v>0.267925</v>
       </c>
     </row>
     <row r="84">
@@ -4397,13 +4397,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.245182</v>
+        <v>0.248253</v>
       </c>
       <c r="C84" t="n">
-        <v>0.262141</v>
+        <v>0.260546</v>
       </c>
       <c r="D84" t="n">
-        <v>0.265843</v>
+        <v>0.263372</v>
       </c>
     </row>
     <row r="85">
@@ -4411,13 +4411,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.241268</v>
+        <v>0.239555</v>
       </c>
       <c r="C85" t="n">
-        <v>0.261648</v>
+        <v>0.262259</v>
       </c>
       <c r="D85" t="n">
-        <v>0.265111</v>
+        <v>0.260232</v>
       </c>
     </row>
     <row r="86">
@@ -4425,13 +4425,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.236149</v>
+        <v>0.237226</v>
       </c>
       <c r="C86" t="n">
-        <v>0.257441</v>
+        <v>0.258599</v>
       </c>
       <c r="D86" t="n">
-        <v>0.260123</v>
+        <v>0.261538</v>
       </c>
     </row>
     <row r="87">
@@ -4439,13 +4439,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.228932</v>
+        <v>0.22991</v>
       </c>
       <c r="C87" t="n">
-        <v>0.256399</v>
+        <v>0.257734</v>
       </c>
       <c r="D87" t="n">
-        <v>0.2562</v>
+        <v>0.257398</v>
       </c>
     </row>
     <row r="88">
@@ -4453,13 +4453,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.22814</v>
+        <v>0.225093</v>
       </c>
       <c r="C88" t="n">
-        <v>0.253233</v>
+        <v>0.256374</v>
       </c>
       <c r="D88" t="n">
-        <v>0.259377</v>
+        <v>0.256637</v>
       </c>
     </row>
     <row r="89">
@@ -4467,13 +4467,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.221684</v>
+        <v>0.221024</v>
       </c>
       <c r="C89" t="n">
-        <v>0.252375</v>
+        <v>0.255986</v>
       </c>
       <c r="D89" t="n">
-        <v>0.252645</v>
+        <v>0.253855</v>
       </c>
     </row>
     <row r="90">
@@ -4481,13 +4481,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.217766</v>
+        <v>0.215644</v>
       </c>
       <c r="C90" t="n">
-        <v>0.247345</v>
+        <v>0.25032</v>
       </c>
       <c r="D90" t="n">
-        <v>0.251175</v>
+        <v>0.251831</v>
       </c>
     </row>
     <row r="91">
@@ -4495,13 +4495,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.211052</v>
+        <v>0.212441</v>
       </c>
       <c r="C91" t="n">
-        <v>0.250401</v>
+        <v>0.247368</v>
       </c>
       <c r="D91" t="n">
-        <v>0.252305</v>
+        <v>0.251355</v>
       </c>
     </row>
     <row r="92">
@@ -4509,13 +4509,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.207583</v>
+        <v>0.205917</v>
       </c>
       <c r="C92" t="n">
-        <v>0.249774</v>
+        <v>0.249</v>
       </c>
       <c r="D92" t="n">
-        <v>0.247092</v>
+        <v>0.248664</v>
       </c>
     </row>
     <row r="93">
@@ -4523,13 +4523,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.202659</v>
+        <v>0.203986</v>
       </c>
       <c r="C93" t="n">
-        <v>0.244852</v>
+        <v>0.24703</v>
       </c>
       <c r="D93" t="n">
-        <v>0.257268</v>
+        <v>0.247249</v>
       </c>
     </row>
     <row r="94">
@@ -4537,13 +4537,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.196326</v>
+        <v>0.194941</v>
       </c>
       <c r="C94" t="n">
-        <v>0.246867</v>
+        <v>0.246978</v>
       </c>
       <c r="D94" t="n">
-        <v>0.243679</v>
+        <v>0.246568</v>
       </c>
     </row>
     <row r="95">
@@ -4551,13 +4551,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.261076</v>
+        <v>0.261018</v>
       </c>
       <c r="C95" t="n">
-        <v>0.272123</v>
+        <v>0.271794</v>
       </c>
       <c r="D95" t="n">
-        <v>0.273539</v>
+        <v>0.27309</v>
       </c>
     </row>
     <row r="96">
@@ -4565,13 +4565,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.254041</v>
+        <v>0.253442</v>
       </c>
       <c r="C96" t="n">
-        <v>0.268968</v>
+        <v>0.269721</v>
       </c>
       <c r="D96" t="n">
-        <v>0.2712</v>
+        <v>0.270559</v>
       </c>
     </row>
     <row r="97">
@@ -4579,13 +4579,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.253162</v>
+        <v>0.250944</v>
       </c>
       <c r="C97" t="n">
-        <v>0.264653</v>
+        <v>0.267393</v>
       </c>
       <c r="D97" t="n">
-        <v>0.270978</v>
+        <v>0.268095</v>
       </c>
     </row>
     <row r="98">
@@ -4593,13 +4593,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.249097</v>
+        <v>0.246077</v>
       </c>
       <c r="C98" t="n">
-        <v>0.262926</v>
+        <v>0.265341</v>
       </c>
       <c r="D98" t="n">
-        <v>0.26869</v>
+        <v>0.266304</v>
       </c>
     </row>
     <row r="99">
@@ -4607,13 +4607,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.24417</v>
+        <v>0.241129</v>
       </c>
       <c r="C99" t="n">
-        <v>0.259699</v>
+        <v>0.260945</v>
       </c>
       <c r="D99" t="n">
-        <v>0.262008</v>
+        <v>0.262254</v>
       </c>
     </row>
     <row r="100">
@@ -4621,13 +4621,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.236936</v>
+        <v>0.239003</v>
       </c>
       <c r="C100" t="n">
-        <v>0.258464</v>
+        <v>0.261385</v>
       </c>
       <c r="D100" t="n">
-        <v>0.263261</v>
+        <v>0.262516</v>
       </c>
     </row>
     <row r="101">
@@ -4635,13 +4635,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.232199</v>
+        <v>0.230293</v>
       </c>
       <c r="C101" t="n">
-        <v>0.25592</v>
+        <v>0.259638</v>
       </c>
       <c r="D101" t="n">
-        <v>0.259967</v>
+        <v>0.262011</v>
       </c>
     </row>
     <row r="102">
@@ -4649,13 +4649,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.225593</v>
+        <v>0.225748</v>
       </c>
       <c r="C102" t="n">
-        <v>0.256103</v>
+        <v>0.252523</v>
       </c>
       <c r="D102" t="n">
-        <v>0.257732</v>
+        <v>0.259892</v>
       </c>
     </row>
     <row r="103">
@@ -4663,13 +4663,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.222555</v>
+        <v>0.221024</v>
       </c>
       <c r="C103" t="n">
-        <v>0.25369</v>
+        <v>0.253155</v>
       </c>
       <c r="D103" t="n">
-        <v>0.259403</v>
+        <v>0.252609</v>
       </c>
     </row>
     <row r="104">
@@ -4677,13 +4677,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.220327</v>
+        <v>0.217771</v>
       </c>
       <c r="C104" t="n">
-        <v>0.249911</v>
+        <v>0.249686</v>
       </c>
       <c r="D104" t="n">
-        <v>0.252352</v>
+        <v>0.252709</v>
       </c>
     </row>
     <row r="105">
@@ -4691,13 +4691,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.215077</v>
+        <v>0.212648</v>
       </c>
       <c r="C105" t="n">
-        <v>0.251067</v>
+        <v>0.247394</v>
       </c>
       <c r="D105" t="n">
-        <v>0.25086</v>
+        <v>0.254236</v>
       </c>
     </row>
     <row r="106">
@@ -4705,13 +4705,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.209612</v>
+        <v>0.210244</v>
       </c>
       <c r="C106" t="n">
-        <v>0.246455</v>
+        <v>0.248302</v>
       </c>
       <c r="D106" t="n">
-        <v>0.251758</v>
+        <v>0.247517</v>
       </c>
     </row>
     <row r="107">
@@ -4719,13 +4719,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.204086</v>
+        <v>0.20077</v>
       </c>
       <c r="C107" t="n">
-        <v>0.247042</v>
+        <v>0.247639</v>
       </c>
       <c r="D107" t="n">
-        <v>0.249066</v>
+        <v>0.248177</v>
       </c>
     </row>
     <row r="108">
@@ -4733,13 +4733,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.198393</v>
+        <v>0.197966</v>
       </c>
       <c r="C108" t="n">
-        <v>0.244262</v>
+        <v>0.250074</v>
       </c>
       <c r="D108" t="n">
-        <v>0.246033</v>
+        <v>0.247258</v>
       </c>
     </row>
     <row r="109">
@@ -4747,13 +4747,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.189944</v>
+        <v>0.186857</v>
       </c>
       <c r="C109" t="n">
-        <v>0.245705</v>
+        <v>0.245199</v>
       </c>
       <c r="D109" t="n">
-        <v>0.243223</v>
+        <v>0.247797</v>
       </c>
     </row>
     <row r="110">
@@ -4761,13 +4761,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.260898</v>
+        <v>0.262514</v>
       </c>
       <c r="C110" t="n">
-        <v>0.268715</v>
+        <v>0.268265</v>
       </c>
       <c r="D110" t="n">
-        <v>0.27409</v>
+        <v>0.275573</v>
       </c>
     </row>
     <row r="111">
@@ -4775,13 +4775,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.252</v>
+        <v>0.25316</v>
       </c>
       <c r="C111" t="n">
-        <v>0.266026</v>
+        <v>0.264512</v>
       </c>
       <c r="D111" t="n">
-        <v>0.27237</v>
+        <v>0.266952</v>
       </c>
     </row>
     <row r="112">
@@ -4789,13 +4789,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.248437</v>
+        <v>0.249511</v>
       </c>
       <c r="C112" t="n">
-        <v>0.263072</v>
+        <v>0.262435</v>
       </c>
       <c r="D112" t="n">
-        <v>0.26687</v>
+        <v>0.26345</v>
       </c>
     </row>
     <row r="113">
@@ -4803,13 +4803,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.249545</v>
+        <v>0.240635</v>
       </c>
       <c r="C113" t="n">
-        <v>0.260403</v>
+        <v>0.265914</v>
       </c>
       <c r="D113" t="n">
-        <v>0.265932</v>
+        <v>0.265778</v>
       </c>
     </row>
     <row r="114">
@@ -4817,13 +4817,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.238003</v>
+        <v>0.241513</v>
       </c>
       <c r="C114" t="n">
-        <v>0.259065</v>
+        <v>0.265641</v>
       </c>
       <c r="D114" t="n">
-        <v>0.26277</v>
+        <v>0.261382</v>
       </c>
     </row>
     <row r="115">
@@ -4831,13 +4831,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.229055</v>
+        <v>0.23211</v>
       </c>
       <c r="C115" t="n">
-        <v>0.264102</v>
+        <v>0.256499</v>
       </c>
       <c r="D115" t="n">
-        <v>0.26166</v>
+        <v>0.259886</v>
       </c>
     </row>
     <row r="116">
@@ -4845,13 +4845,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.230408</v>
+        <v>0.228717</v>
       </c>
       <c r="C116" t="n">
-        <v>0.25775</v>
+        <v>0.25906</v>
       </c>
       <c r="D116" t="n">
-        <v>0.258785</v>
+        <v>0.25937</v>
       </c>
     </row>
     <row r="117">
@@ -4859,13 +4859,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.221539</v>
+        <v>0.224079</v>
       </c>
       <c r="C117" t="n">
-        <v>0.251634</v>
+        <v>0.256334</v>
       </c>
       <c r="D117" t="n">
-        <v>0.252563</v>
+        <v>0.258396</v>
       </c>
     </row>
     <row r="118">
@@ -4873,13 +4873,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.220086</v>
+        <v>0.218324</v>
       </c>
       <c r="C118" t="n">
-        <v>0.252258</v>
+        <v>0.255589</v>
       </c>
       <c r="D118" t="n">
-        <v>0.258212</v>
+        <v>0.25269</v>
       </c>
     </row>
     <row r="119">
@@ -4887,13 +4887,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.212177</v>
+        <v>0.217053</v>
       </c>
       <c r="C119" t="n">
-        <v>0.248515</v>
+        <v>0.255472</v>
       </c>
       <c r="D119" t="n">
-        <v>0.252279</v>
+        <v>0.253837</v>
       </c>
     </row>
     <row r="120">
@@ -4901,13 +4901,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.209418</v>
+        <v>0.210349</v>
       </c>
       <c r="C120" t="n">
-        <v>0.249838</v>
+        <v>0.250467</v>
       </c>
       <c r="D120" t="n">
-        <v>0.249515</v>
+        <v>0.250089</v>
       </c>
     </row>
     <row r="121">
@@ -4915,13 +4915,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.206012</v>
+        <v>0.206426</v>
       </c>
       <c r="C121" t="n">
-        <v>0.250296</v>
+        <v>0.248179</v>
       </c>
       <c r="D121" t="n">
-        <v>0.250569</v>
+        <v>0.253733</v>
       </c>
     </row>
     <row r="122">
@@ -4929,13 +4929,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.200131</v>
+        <v>0.200674</v>
       </c>
       <c r="C122" t="n">
-        <v>0.247744</v>
+        <v>0.244561</v>
       </c>
       <c r="D122" t="n">
-        <v>0.246917</v>
+        <v>0.245292</v>
       </c>
     </row>
     <row r="123">
@@ -4943,13 +4943,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.190956</v>
+        <v>0.192479</v>
       </c>
       <c r="C123" t="n">
-        <v>0.246071</v>
+        <v>0.243068</v>
       </c>
       <c r="D123" t="n">
-        <v>0.247249</v>
+        <v>0.251333</v>
       </c>
     </row>
     <row r="124">
@@ -4957,13 +4957,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.261653</v>
+        <v>0.262159</v>
       </c>
       <c r="C124" t="n">
-        <v>0.270189</v>
+        <v>0.268448</v>
       </c>
       <c r="D124" t="n">
-        <v>0.273714</v>
+        <v>0.277515</v>
       </c>
     </row>
     <row r="125">
@@ -4971,13 +4971,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.252669</v>
+        <v>0.252992</v>
       </c>
       <c r="C125" t="n">
-        <v>0.270278</v>
+        <v>0.269232</v>
       </c>
       <c r="D125" t="n">
-        <v>0.268997</v>
+        <v>0.26755</v>
       </c>
     </row>
     <row r="126">
@@ -4985,13 +4985,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.25035</v>
+        <v>0.250922</v>
       </c>
       <c r="C126" t="n">
-        <v>0.267717</v>
+        <v>0.262245</v>
       </c>
       <c r="D126" t="n">
-        <v>0.270159</v>
+        <v>0.270768</v>
       </c>
     </row>
     <row r="127">
@@ -4999,13 +4999,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.249757</v>
+        <v>0.248811</v>
       </c>
       <c r="C127" t="n">
-        <v>0.263113</v>
+        <v>0.262601</v>
       </c>
       <c r="D127" t="n">
-        <v>0.264662</v>
+        <v>0.266318</v>
       </c>
     </row>
     <row r="128">
@@ -5013,13 +5013,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.240437</v>
+        <v>0.235799</v>
       </c>
       <c r="C128" t="n">
-        <v>0.260191</v>
+        <v>0.257111</v>
       </c>
       <c r="D128" t="n">
-        <v>0.264413</v>
+        <v>0.262693</v>
       </c>
     </row>
     <row r="129">
@@ -5027,13 +5027,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.234496</v>
+        <v>0.23406</v>
       </c>
       <c r="C129" t="n">
-        <v>0.262602</v>
+        <v>0.261187</v>
       </c>
       <c r="D129" t="n">
-        <v>0.26769</v>
+        <v>0.261066</v>
       </c>
     </row>
     <row r="130">
@@ -5041,13 +5041,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.230443</v>
+        <v>0.231195</v>
       </c>
       <c r="C130" t="n">
-        <v>0.257077</v>
+        <v>0.262636</v>
       </c>
       <c r="D130" t="n">
-        <v>0.259554</v>
+        <v>0.253868</v>
       </c>
     </row>
     <row r="131">
@@ -5055,13 +5055,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.223987</v>
+        <v>0.225716</v>
       </c>
       <c r="C131" t="n">
-        <v>0.257767</v>
+        <v>0.262056</v>
       </c>
       <c r="D131" t="n">
-        <v>0.259685</v>
+        <v>0.25729</v>
       </c>
     </row>
     <row r="132">
@@ -5069,13 +5069,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.221027</v>
+        <v>0.218875</v>
       </c>
       <c r="C132" t="n">
-        <v>0.251166</v>
+        <v>0.250309</v>
       </c>
       <c r="D132" t="n">
-        <v>0.252741</v>
+        <v>0.263802</v>
       </c>
     </row>
     <row r="133">
@@ -5083,13 +5083,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.214548</v>
+        <v>0.216984</v>
       </c>
       <c r="C133" t="n">
-        <v>0.252074</v>
+        <v>0.251218</v>
       </c>
       <c r="D133" t="n">
-        <v>0.255521</v>
+        <v>0.251278</v>
       </c>
     </row>
     <row r="134">
@@ -5097,13 +5097,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.211041</v>
+        <v>0.210341</v>
       </c>
       <c r="C134" t="n">
-        <v>0.248508</v>
+        <v>0.251298</v>
       </c>
       <c r="D134" t="n">
-        <v>0.252091</v>
+        <v>0.252232</v>
       </c>
     </row>
     <row r="135">
@@ -5111,13 +5111,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.205407</v>
+        <v>0.209188</v>
       </c>
       <c r="C135" t="n">
-        <v>0.246585</v>
+        <v>0.252659</v>
       </c>
       <c r="D135" t="n">
-        <v>0.251539</v>
+        <v>0.248065</v>
       </c>
     </row>
     <row r="136">
@@ -5125,13 +5125,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.200688</v>
+        <v>0.199737</v>
       </c>
       <c r="C136" t="n">
-        <v>0.248155</v>
+        <v>0.247691</v>
       </c>
       <c r="D136" t="n">
-        <v>0.245946</v>
+        <v>0.249548</v>
       </c>
     </row>
     <row r="137">
@@ -5139,13 +5139,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.196543</v>
+        <v>0.191853</v>
       </c>
       <c r="C137" t="n">
-        <v>0.243752</v>
+        <v>0.248634</v>
       </c>
       <c r="D137" t="n">
-        <v>0.246406</v>
+        <v>0.251029</v>
       </c>
     </row>
     <row r="138">
@@ -5153,13 +5153,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.261617</v>
+        <v>0.266944</v>
       </c>
       <c r="C138" t="n">
-        <v>0.271557</v>
+        <v>0.274162</v>
       </c>
       <c r="D138" t="n">
-        <v>0.274012</v>
+        <v>0.278712</v>
       </c>
     </row>
     <row r="139">
@@ -5167,13 +5167,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.26638</v>
+        <v>0.255881</v>
       </c>
       <c r="C139" t="n">
-        <v>0.267638</v>
+        <v>0.269755</v>
       </c>
       <c r="D139" t="n">
-        <v>0.270713</v>
+        <v>0.266611</v>
       </c>
     </row>
     <row r="140">
@@ -5181,13 +5181,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.249728</v>
+        <v>0.25518</v>
       </c>
       <c r="C140" t="n">
-        <v>0.264378</v>
+        <v>0.268404</v>
       </c>
       <c r="D140" t="n">
-        <v>0.266578</v>
+        <v>0.27035</v>
       </c>
     </row>
     <row r="141">
@@ -5195,13 +5195,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.244283</v>
+        <v>0.244798</v>
       </c>
       <c r="C141" t="n">
-        <v>0.265177</v>
+        <v>0.26364</v>
       </c>
       <c r="D141" t="n">
-        <v>0.260768</v>
+        <v>0.263428</v>
       </c>
     </row>
     <row r="142">
@@ -5209,13 +5209,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.241029</v>
+        <v>0.243636</v>
       </c>
       <c r="C142" t="n">
-        <v>0.260802</v>
+        <v>0.261882</v>
       </c>
       <c r="D142" t="n">
-        <v>0.260384</v>
+        <v>0.266485</v>
       </c>
     </row>
     <row r="143">
@@ -5223,13 +5223,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.232802</v>
+        <v>0.237927</v>
       </c>
       <c r="C143" t="n">
-        <v>0.260279</v>
+        <v>0.261137</v>
       </c>
       <c r="D143" t="n">
-        <v>0.259159</v>
+        <v>0.262769</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Running erasure.xlsx
+++ b/vs-x64/Running erasure.xlsx
@@ -3249,13 +3249,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.208385</v>
+        <v>0.197314</v>
       </c>
       <c r="C2" t="n">
-        <v>0.240612</v>
+        <v>0.231578</v>
       </c>
       <c r="D2" t="n">
-        <v>0.234147</v>
+        <v>0.233725</v>
       </c>
     </row>
     <row r="3">
@@ -3263,13 +3263,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.199942</v>
+        <v>0.194724</v>
       </c>
       <c r="C3" t="n">
-        <v>0.23343</v>
+        <v>0.230567</v>
       </c>
       <c r="D3" t="n">
-        <v>0.23264</v>
+        <v>0.230682</v>
       </c>
     </row>
     <row r="4">
@@ -3277,13 +3277,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.198535</v>
+        <v>0.190978</v>
       </c>
       <c r="C4" t="n">
-        <v>0.236879</v>
+        <v>0.233487</v>
       </c>
       <c r="D4" t="n">
-        <v>0.241798</v>
+        <v>0.234461</v>
       </c>
     </row>
     <row r="5">
@@ -3291,13 +3291,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.195926</v>
+        <v>0.192767</v>
       </c>
       <c r="C5" t="n">
-        <v>0.233786</v>
+        <v>0.228423</v>
       </c>
       <c r="D5" t="n">
-        <v>0.234621</v>
+        <v>0.230221</v>
       </c>
     </row>
     <row r="6">
@@ -3305,13 +3305,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.1939</v>
+        <v>0.192407</v>
       </c>
       <c r="C6" t="n">
-        <v>0.238868</v>
+        <v>0.231029</v>
       </c>
       <c r="D6" t="n">
-        <v>0.238608</v>
+        <v>0.2278</v>
       </c>
     </row>
     <row r="7">
@@ -3319,13 +3319,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.190048</v>
+        <v>0.184252</v>
       </c>
       <c r="C7" t="n">
-        <v>0.233257</v>
+        <v>0.231123</v>
       </c>
       <c r="D7" t="n">
-        <v>0.240126</v>
+        <v>0.236894</v>
       </c>
     </row>
     <row r="8">
@@ -3333,13 +3333,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.182039</v>
+        <v>0.185782</v>
       </c>
       <c r="C8" t="n">
-        <v>0.233573</v>
+        <v>0.224137</v>
       </c>
       <c r="D8" t="n">
-        <v>0.235246</v>
+        <v>0.228897</v>
       </c>
     </row>
     <row r="9">
@@ -3347,13 +3347,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.176245</v>
+        <v>0.172859</v>
       </c>
       <c r="C9" t="n">
-        <v>0.228924</v>
+        <v>0.227441</v>
       </c>
       <c r="D9" t="n">
-        <v>0.237377</v>
+        <v>0.230418</v>
       </c>
     </row>
     <row r="10">
@@ -3361,13 +3361,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.230956</v>
+        <v>0.226104</v>
       </c>
       <c r="C10" t="n">
-        <v>0.240792</v>
+        <v>0.240423</v>
       </c>
       <c r="D10" t="n">
-        <v>0.242334</v>
+        <v>0.244038</v>
       </c>
     </row>
     <row r="11">
@@ -3375,13 +3375,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.229851</v>
+        <v>0.225284</v>
       </c>
       <c r="C11" t="n">
-        <v>0.242531</v>
+        <v>0.244967</v>
       </c>
       <c r="D11" t="n">
-        <v>0.238498</v>
+        <v>0.247215</v>
       </c>
     </row>
     <row r="12">
@@ -3389,13 +3389,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.220591</v>
+        <v>0.221452</v>
       </c>
       <c r="C12" t="n">
-        <v>0.236114</v>
+        <v>0.240669</v>
       </c>
       <c r="D12" t="n">
-        <v>0.241318</v>
+        <v>0.236163</v>
       </c>
     </row>
     <row r="13">
@@ -3403,13 +3403,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.215664</v>
+        <v>0.217212</v>
       </c>
       <c r="C13" t="n">
-        <v>0.234388</v>
+        <v>0.238673</v>
       </c>
       <c r="D13" t="n">
-        <v>0.23933</v>
+        <v>0.240961</v>
       </c>
     </row>
     <row r="14">
@@ -3417,13 +3417,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.213395</v>
+        <v>0.210852</v>
       </c>
       <c r="C14" t="n">
-        <v>0.239739</v>
+        <v>0.234988</v>
       </c>
       <c r="D14" t="n">
-        <v>0.23933</v>
+        <v>0.238659</v>
       </c>
     </row>
     <row r="15">
@@ -3431,13 +3431,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.208027</v>
+        <v>0.208167</v>
       </c>
       <c r="C15" t="n">
-        <v>0.232086</v>
+        <v>0.234222</v>
       </c>
       <c r="D15" t="n">
-        <v>0.238121</v>
+        <v>0.240232</v>
       </c>
     </row>
     <row r="16">
@@ -3445,13 +3445,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.203703</v>
+        <v>0.204739</v>
       </c>
       <c r="C16" t="n">
-        <v>0.234606</v>
+        <v>0.236473</v>
       </c>
       <c r="D16" t="n">
-        <v>0.237537</v>
+        <v>0.237623</v>
       </c>
     </row>
     <row r="17">
@@ -3459,13 +3459,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.20313</v>
+        <v>0.199669</v>
       </c>
       <c r="C17" t="n">
-        <v>0.230665</v>
+        <v>0.235132</v>
       </c>
       <c r="D17" t="n">
-        <v>0.239773</v>
+        <v>0.237447</v>
       </c>
     </row>
     <row r="18">
@@ -3473,13 +3473,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.198271</v>
+        <v>0.200552</v>
       </c>
       <c r="C18" t="n">
-        <v>0.23469</v>
+        <v>0.235778</v>
       </c>
       <c r="D18" t="n">
-        <v>0.237268</v>
+        <v>0.235613</v>
       </c>
     </row>
     <row r="19">
@@ -3487,13 +3487,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.193515</v>
+        <v>0.199976</v>
       </c>
       <c r="C19" t="n">
-        <v>0.233686</v>
+        <v>0.230097</v>
       </c>
       <c r="D19" t="n">
-        <v>0.235845</v>
+        <v>0.233055</v>
       </c>
     </row>
     <row r="20">
@@ -3501,13 +3501,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.195232</v>
+        <v>0.195628</v>
       </c>
       <c r="C20" t="n">
-        <v>0.231696</v>
+        <v>0.230354</v>
       </c>
       <c r="D20" t="n">
-        <v>0.241601</v>
+        <v>0.23418</v>
       </c>
     </row>
     <row r="21">
@@ -3515,13 +3515,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.190369</v>
+        <v>0.192479</v>
       </c>
       <c r="C21" t="n">
-        <v>0.230262</v>
+        <v>0.238374</v>
       </c>
       <c r="D21" t="n">
-        <v>0.237965</v>
+        <v>0.230354</v>
       </c>
     </row>
     <row r="22">
@@ -3529,13 +3529,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.18796</v>
+        <v>0.18547</v>
       </c>
       <c r="C22" t="n">
-        <v>0.228463</v>
+        <v>0.229757</v>
       </c>
       <c r="D22" t="n">
-        <v>0.236349</v>
+        <v>0.233661</v>
       </c>
     </row>
     <row r="23">
@@ -3543,13 +3543,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.177934</v>
+        <v>0.181539</v>
       </c>
       <c r="C23" t="n">
-        <v>0.229776</v>
+        <v>0.231843</v>
       </c>
       <c r="D23" t="n">
-        <v>0.233319</v>
+        <v>0.235119</v>
       </c>
     </row>
     <row r="24">
@@ -3557,13 +3557,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.236047</v>
+        <v>0.236049</v>
       </c>
       <c r="C24" t="n">
-        <v>0.246959</v>
+        <v>0.243041</v>
       </c>
       <c r="D24" t="n">
-        <v>0.250869</v>
+        <v>0.248692</v>
       </c>
     </row>
     <row r="25">
@@ -3571,13 +3571,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.233559</v>
+        <v>0.231405</v>
       </c>
       <c r="C25" t="n">
-        <v>0.243859</v>
+        <v>0.240971</v>
       </c>
       <c r="D25" t="n">
-        <v>0.247235</v>
+        <v>0.243936</v>
       </c>
     </row>
     <row r="26">
@@ -3585,13 +3585,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.22911</v>
+        <v>0.224326</v>
       </c>
       <c r="C26" t="n">
-        <v>0.245663</v>
+        <v>0.241572</v>
       </c>
       <c r="D26" t="n">
-        <v>0.246395</v>
+        <v>0.243833</v>
       </c>
     </row>
     <row r="27">
@@ -3599,13 +3599,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.223959</v>
+        <v>0.223392</v>
       </c>
       <c r="C27" t="n">
-        <v>0.240231</v>
+        <v>0.243189</v>
       </c>
       <c r="D27" t="n">
-        <v>0.246247</v>
+        <v>0.241337</v>
       </c>
     </row>
     <row r="28">
@@ -3613,13 +3613,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.218306</v>
+        <v>0.21743</v>
       </c>
       <c r="C28" t="n">
-        <v>0.242385</v>
+        <v>0.237785</v>
       </c>
       <c r="D28" t="n">
-        <v>0.239126</v>
+        <v>0.241632</v>
       </c>
     </row>
     <row r="29">
@@ -3627,13 +3627,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.214756</v>
+        <v>0.218309</v>
       </c>
       <c r="C29" t="n">
-        <v>0.239632</v>
+        <v>0.238739</v>
       </c>
       <c r="D29" t="n">
-        <v>0.245195</v>
+        <v>0.241299</v>
       </c>
     </row>
     <row r="30">
@@ -3641,13 +3641,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.212377</v>
+        <v>0.209333</v>
       </c>
       <c r="C30" t="n">
-        <v>0.237883</v>
+        <v>0.23768</v>
       </c>
       <c r="D30" t="n">
-        <v>0.24053</v>
+        <v>0.242199</v>
       </c>
     </row>
     <row r="31">
@@ -3655,13 +3655,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.206665</v>
+        <v>0.208185</v>
       </c>
       <c r="C31" t="n">
-        <v>0.237211</v>
+        <v>0.235746</v>
       </c>
       <c r="D31" t="n">
-        <v>0.2409</v>
+        <v>0.240835</v>
       </c>
     </row>
     <row r="32">
@@ -3669,13 +3669,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.205068</v>
+        <v>0.207356</v>
       </c>
       <c r="C32" t="n">
-        <v>0.235669</v>
+        <v>0.231247</v>
       </c>
       <c r="D32" t="n">
-        <v>0.240861</v>
+        <v>0.23775</v>
       </c>
     </row>
     <row r="33">
@@ -3683,13 +3683,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.200739</v>
+        <v>0.201424</v>
       </c>
       <c r="C33" t="n">
-        <v>0.236292</v>
+        <v>0.232135</v>
       </c>
       <c r="D33" t="n">
-        <v>0.235466</v>
+        <v>0.236548</v>
       </c>
     </row>
     <row r="34">
@@ -3697,13 +3697,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.198666</v>
+        <v>0.201622</v>
       </c>
       <c r="C34" t="n">
-        <v>0.232602</v>
+        <v>0.235437</v>
       </c>
       <c r="D34" t="n">
-        <v>0.234369</v>
+        <v>0.235853</v>
       </c>
     </row>
     <row r="35">
@@ -3711,13 +3711,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.193307</v>
+        <v>0.193046</v>
       </c>
       <c r="C35" t="n">
-        <v>0.233751</v>
+        <v>0.232538</v>
       </c>
       <c r="D35" t="n">
-        <v>0.236072</v>
+        <v>0.236434</v>
       </c>
     </row>
     <row r="36">
@@ -3725,13 +3725,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.188576</v>
+        <v>0.190524</v>
       </c>
       <c r="C36" t="n">
-        <v>0.233214</v>
+        <v>0.232037</v>
       </c>
       <c r="D36" t="n">
-        <v>0.232429</v>
+        <v>0.238294</v>
       </c>
     </row>
     <row r="37">
@@ -3739,13 +3739,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.1835</v>
+        <v>0.18437</v>
       </c>
       <c r="C37" t="n">
-        <v>0.232008</v>
+        <v>0.230711</v>
       </c>
       <c r="D37" t="n">
-        <v>0.233601</v>
+        <v>0.23633</v>
       </c>
     </row>
     <row r="38">
@@ -3753,13 +3753,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.237325</v>
+        <v>0.238478</v>
       </c>
       <c r="C38" t="n">
-        <v>0.258051</v>
+        <v>0.258589</v>
       </c>
       <c r="D38" t="n">
-        <v>0.263537</v>
+        <v>0.259156</v>
       </c>
     </row>
     <row r="39">
@@ -3767,13 +3767,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.234123</v>
+        <v>0.235237</v>
       </c>
       <c r="C39" t="n">
-        <v>0.26015</v>
+        <v>0.257992</v>
       </c>
       <c r="D39" t="n">
-        <v>0.258927</v>
+        <v>0.259059</v>
       </c>
     </row>
     <row r="40">
@@ -3781,13 +3781,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.231723</v>
+        <v>0.232538</v>
       </c>
       <c r="C40" t="n">
-        <v>0.254667</v>
+        <v>0.253605</v>
       </c>
       <c r="D40" t="n">
-        <v>0.255171</v>
+        <v>0.256858</v>
       </c>
     </row>
     <row r="41">
@@ -3795,13 +3795,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.229334</v>
+        <v>0.228877</v>
       </c>
       <c r="C41" t="n">
-        <v>0.253563</v>
+        <v>0.255592</v>
       </c>
       <c r="D41" t="n">
-        <v>0.25537</v>
+        <v>0.255708</v>
       </c>
     </row>
     <row r="42">
@@ -3809,13 +3809,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.225471</v>
+        <v>0.22196</v>
       </c>
       <c r="C42" t="n">
-        <v>0.249457</v>
+        <v>0.248467</v>
       </c>
       <c r="D42" t="n">
-        <v>0.248085</v>
+        <v>0.254343</v>
       </c>
     </row>
     <row r="43">
@@ -3823,13 +3823,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.220334</v>
+        <v>0.219941</v>
       </c>
       <c r="C43" t="n">
-        <v>0.250137</v>
+        <v>0.250022</v>
       </c>
       <c r="D43" t="n">
-        <v>0.250867</v>
+        <v>0.25226</v>
       </c>
     </row>
     <row r="44">
@@ -3837,13 +3837,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.216114</v>
+        <v>0.213864</v>
       </c>
       <c r="C44" t="n">
-        <v>0.248738</v>
+        <v>0.244665</v>
       </c>
       <c r="D44" t="n">
-        <v>0.249055</v>
+        <v>0.251289</v>
       </c>
     </row>
     <row r="45">
@@ -3851,13 +3851,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.212816</v>
+        <v>0.211807</v>
       </c>
       <c r="C45" t="n">
-        <v>0.245359</v>
+        <v>0.246071</v>
       </c>
       <c r="D45" t="n">
-        <v>0.248054</v>
+        <v>0.249582</v>
       </c>
     </row>
     <row r="46">
@@ -3865,13 +3865,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.206158</v>
+        <v>0.204584</v>
       </c>
       <c r="C46" t="n">
-        <v>0.242916</v>
+        <v>0.246698</v>
       </c>
       <c r="D46" t="n">
-        <v>0.249725</v>
+        <v>0.249722</v>
       </c>
     </row>
     <row r="47">
@@ -3879,13 +3879,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.203917</v>
+        <v>0.204453</v>
       </c>
       <c r="C47" t="n">
-        <v>0.24572</v>
+        <v>0.241895</v>
       </c>
       <c r="D47" t="n">
-        <v>0.243202</v>
+        <v>0.244937</v>
       </c>
     </row>
     <row r="48">
@@ -3893,13 +3893,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.199195</v>
+        <v>0.201992</v>
       </c>
       <c r="C48" t="n">
-        <v>0.243043</v>
+        <v>0.241239</v>
       </c>
       <c r="D48" t="n">
-        <v>0.244995</v>
+        <v>0.242851</v>
       </c>
     </row>
     <row r="49">
@@ -3907,13 +3907,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.196623</v>
+        <v>0.199348</v>
       </c>
       <c r="C49" t="n">
-        <v>0.239857</v>
+        <v>0.242881</v>
       </c>
       <c r="D49" t="n">
-        <v>0.24423</v>
+        <v>0.241807</v>
       </c>
     </row>
     <row r="50">
@@ -3921,13 +3921,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.195347</v>
+        <v>0.194585</v>
       </c>
       <c r="C50" t="n">
-        <v>0.242156</v>
+        <v>0.241035</v>
       </c>
       <c r="D50" t="n">
-        <v>0.242872</v>
+        <v>0.241171</v>
       </c>
     </row>
     <row r="51">
@@ -3935,13 +3935,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.186913</v>
+        <v>0.18811</v>
       </c>
       <c r="C51" t="n">
-        <v>0.238469</v>
+        <v>0.23849</v>
       </c>
       <c r="D51" t="n">
-        <v>0.240195</v>
+        <v>0.239567</v>
       </c>
     </row>
     <row r="52">
@@ -3949,13 +3949,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.179461</v>
+        <v>0.180461</v>
       </c>
       <c r="C52" t="n">
-        <v>0.237051</v>
+        <v>0.235461</v>
       </c>
       <c r="D52" t="n">
-        <v>0.237278</v>
+        <v>0.242654</v>
       </c>
     </row>
     <row r="53">
@@ -3963,13 +3963,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.246983</v>
+        <v>0.244615</v>
       </c>
       <c r="C53" t="n">
-        <v>0.258448</v>
+        <v>0.258188</v>
       </c>
       <c r="D53" t="n">
-        <v>0.261363</v>
+        <v>0.260968</v>
       </c>
     </row>
     <row r="54">
@@ -3977,13 +3977,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.241912</v>
+        <v>0.241932</v>
       </c>
       <c r="C54" t="n">
-        <v>0.253816</v>
+        <v>0.255407</v>
       </c>
       <c r="D54" t="n">
-        <v>0.256037</v>
+        <v>0.257158</v>
       </c>
     </row>
     <row r="55">
@@ -3991,13 +3991,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.235784</v>
+        <v>0.234986</v>
       </c>
       <c r="C55" t="n">
-        <v>0.254679</v>
+        <v>0.251236</v>
       </c>
       <c r="D55" t="n">
-        <v>0.256443</v>
+        <v>0.257528</v>
       </c>
     </row>
     <row r="56">
@@ -4005,13 +4005,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.231273</v>
+        <v>0.230117</v>
       </c>
       <c r="C56" t="n">
-        <v>0.253128</v>
+        <v>0.250715</v>
       </c>
       <c r="D56" t="n">
-        <v>0.253531</v>
+        <v>0.253915</v>
       </c>
     </row>
     <row r="57">
@@ -4019,13 +4019,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.226641</v>
+        <v>0.228915</v>
       </c>
       <c r="C57" t="n">
-        <v>0.250597</v>
+        <v>0.252838</v>
       </c>
       <c r="D57" t="n">
-        <v>0.252708</v>
+        <v>0.253339</v>
       </c>
     </row>
     <row r="58">
@@ -4033,13 +4033,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.222285</v>
+        <v>0.222076</v>
       </c>
       <c r="C58" t="n">
-        <v>0.248651</v>
+        <v>0.247355</v>
       </c>
       <c r="D58" t="n">
-        <v>0.248822</v>
+        <v>0.253299</v>
       </c>
     </row>
     <row r="59">
@@ -4047,13 +4047,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.218704</v>
+        <v>0.215167</v>
       </c>
       <c r="C59" t="n">
-        <v>0.24383</v>
+        <v>0.247168</v>
       </c>
       <c r="D59" t="n">
-        <v>0.248255</v>
+        <v>0.248372</v>
       </c>
     </row>
     <row r="60">
@@ -4061,13 +4061,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.214397</v>
+        <v>0.214975</v>
       </c>
       <c r="C60" t="n">
-        <v>0.246505</v>
+        <v>0.24564</v>
       </c>
       <c r="D60" t="n">
-        <v>0.25015</v>
+        <v>0.247994</v>
       </c>
     </row>
     <row r="61">
@@ -4075,13 +4075,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.210817</v>
+        <v>0.210014</v>
       </c>
       <c r="C61" t="n">
-        <v>0.245176</v>
+        <v>0.244412</v>
       </c>
       <c r="D61" t="n">
-        <v>0.245006</v>
+        <v>0.244756</v>
       </c>
     </row>
     <row r="62">
@@ -4089,13 +4089,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.206822</v>
+        <v>0.207035</v>
       </c>
       <c r="C62" t="n">
-        <v>0.241554</v>
+        <v>0.241635</v>
       </c>
       <c r="D62" t="n">
-        <v>0.245061</v>
+        <v>0.245412</v>
       </c>
     </row>
     <row r="63">
@@ -4103,13 +4103,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.201849</v>
+        <v>0.203677</v>
       </c>
       <c r="C63" t="n">
-        <v>0.241806</v>
+        <v>0.23737</v>
       </c>
       <c r="D63" t="n">
-        <v>0.244719</v>
+        <v>0.244865</v>
       </c>
     </row>
     <row r="64">
@@ -4117,13 +4117,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.198289</v>
+        <v>0.199328</v>
       </c>
       <c r="C64" t="n">
-        <v>0.24501</v>
+        <v>0.238884</v>
       </c>
       <c r="D64" t="n">
-        <v>0.242794</v>
+        <v>0.242996</v>
       </c>
     </row>
     <row r="65">
@@ -4131,13 +4131,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.191499</v>
+        <v>0.193157</v>
       </c>
       <c r="C65" t="n">
-        <v>0.23938</v>
+        <v>0.239294</v>
       </c>
       <c r="D65" t="n">
-        <v>0.241675</v>
+        <v>0.244727</v>
       </c>
     </row>
     <row r="66">
@@ -4145,13 +4145,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.186282</v>
+        <v>0.187211</v>
       </c>
       <c r="C66" t="n">
-        <v>0.236283</v>
+        <v>0.239428</v>
       </c>
       <c r="D66" t="n">
-        <v>0.239456</v>
+        <v>0.240437</v>
       </c>
     </row>
     <row r="67">
@@ -4159,13 +4159,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.252811</v>
+        <v>0.251339</v>
       </c>
       <c r="C67" t="n">
-        <v>0.261837</v>
+        <v>0.261788</v>
       </c>
       <c r="D67" t="n">
-        <v>0.266996</v>
+        <v>0.264276</v>
       </c>
     </row>
     <row r="68">
@@ -4173,13 +4173,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.246733</v>
+        <v>0.245857</v>
       </c>
       <c r="C68" t="n">
-        <v>0.259977</v>
+        <v>0.256184</v>
       </c>
       <c r="D68" t="n">
-        <v>0.265538</v>
+        <v>0.261746</v>
       </c>
     </row>
     <row r="69">
@@ -4187,13 +4187,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.243574</v>
+        <v>0.245167</v>
       </c>
       <c r="C69" t="n">
-        <v>0.25903</v>
+        <v>0.254386</v>
       </c>
       <c r="D69" t="n">
-        <v>0.258333</v>
+        <v>0.261027</v>
       </c>
     </row>
     <row r="70">
@@ -4201,13 +4201,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.236355</v>
+        <v>0.239137</v>
       </c>
       <c r="C70" t="n">
-        <v>0.253956</v>
+        <v>0.256386</v>
       </c>
       <c r="D70" t="n">
-        <v>0.25926</v>
+        <v>0.259305</v>
       </c>
     </row>
     <row r="71">
@@ -4215,13 +4215,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.234491</v>
+        <v>0.235613</v>
       </c>
       <c r="C71" t="n">
-        <v>0.253179</v>
+        <v>0.255487</v>
       </c>
       <c r="D71" t="n">
-        <v>0.258281</v>
+        <v>0.255245</v>
       </c>
     </row>
     <row r="72">
@@ -4229,13 +4229,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.228068</v>
+        <v>0.231013</v>
       </c>
       <c r="C72" t="n">
-        <v>0.253285</v>
+        <v>0.250848</v>
       </c>
       <c r="D72" t="n">
-        <v>0.255153</v>
+        <v>0.255505</v>
       </c>
     </row>
     <row r="73">
@@ -4243,13 +4243,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.225004</v>
+        <v>0.222601</v>
       </c>
       <c r="C73" t="n">
-        <v>0.253128</v>
+        <v>0.252334</v>
       </c>
       <c r="D73" t="n">
-        <v>0.254416</v>
+        <v>0.254287</v>
       </c>
     </row>
     <row r="74">
@@ -4257,13 +4257,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.218993</v>
+        <v>0.21818</v>
       </c>
       <c r="C74" t="n">
-        <v>0.250766</v>
+        <v>0.247036</v>
       </c>
       <c r="D74" t="n">
-        <v>0.249827</v>
+        <v>0.25349</v>
       </c>
     </row>
     <row r="75">
@@ -4271,13 +4271,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.21584</v>
+        <v>0.217048</v>
       </c>
       <c r="C75" t="n">
-        <v>0.244456</v>
+        <v>0.24737</v>
       </c>
       <c r="D75" t="n">
-        <v>0.248322</v>
+        <v>0.252001</v>
       </c>
     </row>
     <row r="76">
@@ -4285,13 +4285,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.20972</v>
+        <v>0.215416</v>
       </c>
       <c r="C76" t="n">
-        <v>0.246667</v>
+        <v>0.243037</v>
       </c>
       <c r="D76" t="n">
-        <v>0.249639</v>
+        <v>0.250345</v>
       </c>
     </row>
     <row r="77">
@@ -4299,13 +4299,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.20972</v>
+        <v>0.209345</v>
       </c>
       <c r="C77" t="n">
-        <v>0.248767</v>
+        <v>0.243736</v>
       </c>
       <c r="D77" t="n">
-        <v>0.247797</v>
+        <v>0.24737</v>
       </c>
     </row>
     <row r="78">
@@ -4313,13 +4313,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.203825</v>
+        <v>0.205536</v>
       </c>
       <c r="C78" t="n">
-        <v>0.242314</v>
+        <v>0.243075</v>
       </c>
       <c r="D78" t="n">
-        <v>0.244048</v>
+        <v>0.246571</v>
       </c>
     </row>
     <row r="79">
@@ -4327,13 +4327,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.199494</v>
+        <v>0.201747</v>
       </c>
       <c r="C79" t="n">
-        <v>0.244371</v>
+        <v>0.242563</v>
       </c>
       <c r="D79" t="n">
-        <v>0.247402</v>
+        <v>0.244319</v>
       </c>
     </row>
     <row r="80">
@@ -4341,13 +4341,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.194931</v>
+        <v>0.192666</v>
       </c>
       <c r="C80" t="n">
-        <v>0.239549</v>
+        <v>0.243145</v>
       </c>
       <c r="D80" t="n">
-        <v>0.240351</v>
+        <v>0.246916</v>
       </c>
     </row>
     <row r="81">
@@ -4355,13 +4355,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.262297</v>
+        <v>0.259101</v>
       </c>
       <c r="C81" t="n">
-        <v>0.270714</v>
+        <v>0.268487</v>
       </c>
       <c r="D81" t="n">
-        <v>0.2735</v>
+        <v>0.274697</v>
       </c>
     </row>
     <row r="82">
@@ -4369,13 +4369,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.255426</v>
+        <v>0.257715</v>
       </c>
       <c r="C82" t="n">
-        <v>0.268378</v>
+        <v>0.26772</v>
       </c>
       <c r="D82" t="n">
-        <v>0.269043</v>
+        <v>0.269557</v>
       </c>
     </row>
     <row r="83">
@@ -4383,13 +4383,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.251335</v>
+        <v>0.249707</v>
       </c>
       <c r="C83" t="n">
-        <v>0.264646</v>
+        <v>0.267252</v>
       </c>
       <c r="D83" t="n">
-        <v>0.267925</v>
+        <v>0.267882</v>
       </c>
     </row>
     <row r="84">
@@ -4397,13 +4397,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.248253</v>
+        <v>0.245145</v>
       </c>
       <c r="C84" t="n">
-        <v>0.260546</v>
+        <v>0.262876</v>
       </c>
       <c r="D84" t="n">
-        <v>0.263372</v>
+        <v>0.262772</v>
       </c>
     </row>
     <row r="85">
@@ -4411,13 +4411,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.239555</v>
+        <v>0.237027</v>
       </c>
       <c r="C85" t="n">
-        <v>0.262259</v>
+        <v>0.260696</v>
       </c>
       <c r="D85" t="n">
-        <v>0.260232</v>
+        <v>0.259245</v>
       </c>
     </row>
     <row r="86">
@@ -4425,13 +4425,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.237226</v>
+        <v>0.234502</v>
       </c>
       <c r="C86" t="n">
-        <v>0.258599</v>
+        <v>0.256259</v>
       </c>
       <c r="D86" t="n">
-        <v>0.261538</v>
+        <v>0.262664</v>
       </c>
     </row>
     <row r="87">
@@ -4439,13 +4439,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.22991</v>
+        <v>0.228128</v>
       </c>
       <c r="C87" t="n">
-        <v>0.257734</v>
+        <v>0.256712</v>
       </c>
       <c r="D87" t="n">
-        <v>0.257398</v>
+        <v>0.260575</v>
       </c>
     </row>
     <row r="88">
@@ -4453,13 +4453,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.225093</v>
+        <v>0.225568</v>
       </c>
       <c r="C88" t="n">
-        <v>0.256374</v>
+        <v>0.255595</v>
       </c>
       <c r="D88" t="n">
-        <v>0.256637</v>
+        <v>0.25761</v>
       </c>
     </row>
     <row r="89">
@@ -4467,13 +4467,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.221024</v>
+        <v>0.2197</v>
       </c>
       <c r="C89" t="n">
-        <v>0.255986</v>
+        <v>0.253514</v>
       </c>
       <c r="D89" t="n">
-        <v>0.253855</v>
+        <v>0.254424</v>
       </c>
     </row>
     <row r="90">
@@ -4481,13 +4481,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.215644</v>
+        <v>0.219552</v>
       </c>
       <c r="C90" t="n">
-        <v>0.25032</v>
+        <v>0.248812</v>
       </c>
       <c r="D90" t="n">
-        <v>0.251831</v>
+        <v>0.253669</v>
       </c>
     </row>
     <row r="91">
@@ -4495,13 +4495,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.212441</v>
+        <v>0.213416</v>
       </c>
       <c r="C91" t="n">
-        <v>0.247368</v>
+        <v>0.250319</v>
       </c>
       <c r="D91" t="n">
-        <v>0.251355</v>
+        <v>0.249017</v>
       </c>
     </row>
     <row r="92">
@@ -4509,13 +4509,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.205917</v>
+        <v>0.208957</v>
       </c>
       <c r="C92" t="n">
-        <v>0.249</v>
+        <v>0.248791</v>
       </c>
       <c r="D92" t="n">
-        <v>0.248664</v>
+        <v>0.249513</v>
       </c>
     </row>
     <row r="93">
@@ -4523,13 +4523,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.203986</v>
+        <v>0.205271</v>
       </c>
       <c r="C93" t="n">
-        <v>0.24703</v>
+        <v>0.247258</v>
       </c>
       <c r="D93" t="n">
-        <v>0.247249</v>
+        <v>0.251605</v>
       </c>
     </row>
     <row r="94">
@@ -4537,13 +4537,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.194941</v>
+        <v>0.197203</v>
       </c>
       <c r="C94" t="n">
-        <v>0.246978</v>
+        <v>0.243246</v>
       </c>
       <c r="D94" t="n">
-        <v>0.246568</v>
+        <v>0.24844</v>
       </c>
     </row>
     <row r="95">
@@ -4551,13 +4551,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.261018</v>
+        <v>0.259942</v>
       </c>
       <c r="C95" t="n">
-        <v>0.271794</v>
+        <v>0.273723</v>
       </c>
       <c r="D95" t="n">
-        <v>0.27309</v>
+        <v>0.280238</v>
       </c>
     </row>
     <row r="96">
@@ -4565,13 +4565,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.253442</v>
+        <v>0.255011</v>
       </c>
       <c r="C96" t="n">
-        <v>0.269721</v>
+        <v>0.270868</v>
       </c>
       <c r="D96" t="n">
-        <v>0.270559</v>
+        <v>0.267792</v>
       </c>
     </row>
     <row r="97">
@@ -4579,13 +4579,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.250944</v>
+        <v>0.254677</v>
       </c>
       <c r="C97" t="n">
-        <v>0.267393</v>
+        <v>0.26666</v>
       </c>
       <c r="D97" t="n">
-        <v>0.268095</v>
+        <v>0.273096</v>
       </c>
     </row>
     <row r="98">
@@ -4593,13 +4593,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.246077</v>
+        <v>0.250295</v>
       </c>
       <c r="C98" t="n">
-        <v>0.265341</v>
+        <v>0.262833</v>
       </c>
       <c r="D98" t="n">
-        <v>0.266304</v>
+        <v>0.264967</v>
       </c>
     </row>
     <row r="99">
@@ -4607,13 +4607,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.241129</v>
+        <v>0.240885</v>
       </c>
       <c r="C99" t="n">
-        <v>0.260945</v>
+        <v>0.262928</v>
       </c>
       <c r="D99" t="n">
-        <v>0.262254</v>
+        <v>0.265051</v>
       </c>
     </row>
     <row r="100">
@@ -4621,13 +4621,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.239003</v>
+        <v>0.234273</v>
       </c>
       <c r="C100" t="n">
-        <v>0.261385</v>
+        <v>0.258876</v>
       </c>
       <c r="D100" t="n">
-        <v>0.262516</v>
+        <v>0.262894</v>
       </c>
     </row>
     <row r="101">
@@ -4635,13 +4635,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.230293</v>
+        <v>0.233316</v>
       </c>
       <c r="C101" t="n">
-        <v>0.259638</v>
+        <v>0.258247</v>
       </c>
       <c r="D101" t="n">
-        <v>0.262011</v>
+        <v>0.260385</v>
       </c>
     </row>
     <row r="102">
@@ -4649,13 +4649,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.225748</v>
+        <v>0.227477</v>
       </c>
       <c r="C102" t="n">
-        <v>0.252523</v>
+        <v>0.255226</v>
       </c>
       <c r="D102" t="n">
-        <v>0.259892</v>
+        <v>0.254464</v>
       </c>
     </row>
     <row r="103">
@@ -4663,13 +4663,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.221024</v>
+        <v>0.224619</v>
       </c>
       <c r="C103" t="n">
-        <v>0.253155</v>
+        <v>0.25357</v>
       </c>
       <c r="D103" t="n">
-        <v>0.252609</v>
+        <v>0.254291</v>
       </c>
     </row>
     <row r="104">
@@ -4677,13 +4677,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.217771</v>
+        <v>0.220417</v>
       </c>
       <c r="C104" t="n">
-        <v>0.249686</v>
+        <v>0.254079</v>
       </c>
       <c r="D104" t="n">
-        <v>0.252709</v>
+        <v>0.253215</v>
       </c>
     </row>
     <row r="105">
@@ -4691,13 +4691,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.212648</v>
+        <v>0.211784</v>
       </c>
       <c r="C105" t="n">
-        <v>0.247394</v>
+        <v>0.251781</v>
       </c>
       <c r="D105" t="n">
-        <v>0.254236</v>
+        <v>0.255276</v>
       </c>
     </row>
     <row r="106">
@@ -4705,13 +4705,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.210244</v>
+        <v>0.212287</v>
       </c>
       <c r="C106" t="n">
-        <v>0.248302</v>
+        <v>0.24498</v>
       </c>
       <c r="D106" t="n">
-        <v>0.247517</v>
+        <v>0.248997</v>
       </c>
     </row>
     <row r="107">
@@ -4719,13 +4719,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.20077</v>
+        <v>0.205868</v>
       </c>
       <c r="C107" t="n">
-        <v>0.247639</v>
+        <v>0.247669</v>
       </c>
       <c r="D107" t="n">
-        <v>0.248177</v>
+        <v>0.250843</v>
       </c>
     </row>
     <row r="108">
@@ -4733,13 +4733,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.197966</v>
+        <v>0.200049</v>
       </c>
       <c r="C108" t="n">
-        <v>0.250074</v>
+        <v>0.244563</v>
       </c>
       <c r="D108" t="n">
-        <v>0.247258</v>
+        <v>0.247619</v>
       </c>
     </row>
     <row r="109">
@@ -4747,13 +4747,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.186857</v>
+        <v>0.194025</v>
       </c>
       <c r="C109" t="n">
-        <v>0.245199</v>
+        <v>0.243745</v>
       </c>
       <c r="D109" t="n">
-        <v>0.247797</v>
+        <v>0.245657</v>
       </c>
     </row>
     <row r="110">
@@ -4761,13 +4761,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.262514</v>
+        <v>0.258534</v>
       </c>
       <c r="C110" t="n">
-        <v>0.268265</v>
+        <v>0.271375</v>
       </c>
       <c r="D110" t="n">
-        <v>0.275573</v>
+        <v>0.276724</v>
       </c>
     </row>
     <row r="111">
@@ -4775,13 +4775,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.25316</v>
+        <v>0.254541</v>
       </c>
       <c r="C111" t="n">
-        <v>0.264512</v>
+        <v>0.268698</v>
       </c>
       <c r="D111" t="n">
-        <v>0.266952</v>
+        <v>0.275195</v>
       </c>
     </row>
     <row r="112">
@@ -4789,13 +4789,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.249511</v>
+        <v>0.250217</v>
       </c>
       <c r="C112" t="n">
-        <v>0.262435</v>
+        <v>0.265158</v>
       </c>
       <c r="D112" t="n">
-        <v>0.26345</v>
+        <v>0.271058</v>
       </c>
     </row>
     <row r="113">
@@ -4803,13 +4803,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.240635</v>
+        <v>0.244849</v>
       </c>
       <c r="C113" t="n">
-        <v>0.265914</v>
+        <v>0.261797</v>
       </c>
       <c r="D113" t="n">
-        <v>0.265778</v>
+        <v>0.26537</v>
       </c>
     </row>
     <row r="114">
@@ -4817,13 +4817,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.241513</v>
+        <v>0.236634</v>
       </c>
       <c r="C114" t="n">
-        <v>0.265641</v>
+        <v>0.262627</v>
       </c>
       <c r="D114" t="n">
-        <v>0.261382</v>
+        <v>0.26387</v>
       </c>
     </row>
     <row r="115">
@@ -4831,13 +4831,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.23211</v>
+        <v>0.237666</v>
       </c>
       <c r="C115" t="n">
-        <v>0.256499</v>
+        <v>0.258588</v>
       </c>
       <c r="D115" t="n">
-        <v>0.259886</v>
+        <v>0.260724</v>
       </c>
     </row>
     <row r="116">
@@ -4845,13 +4845,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.228717</v>
+        <v>0.228238</v>
       </c>
       <c r="C116" t="n">
-        <v>0.25906</v>
+        <v>0.254583</v>
       </c>
       <c r="D116" t="n">
-        <v>0.25937</v>
+        <v>0.257635</v>
       </c>
     </row>
     <row r="117">
@@ -4859,13 +4859,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.224079</v>
+        <v>0.223501</v>
       </c>
       <c r="C117" t="n">
-        <v>0.256334</v>
+        <v>0.253545</v>
       </c>
       <c r="D117" t="n">
-        <v>0.258396</v>
+        <v>0.261167</v>
       </c>
     </row>
     <row r="118">
@@ -4873,13 +4873,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.218324</v>
+        <v>0.221028</v>
       </c>
       <c r="C118" t="n">
-        <v>0.255589</v>
+        <v>0.252245</v>
       </c>
       <c r="D118" t="n">
-        <v>0.25269</v>
+        <v>0.25453</v>
       </c>
     </row>
     <row r="119">
@@ -4887,13 +4887,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.217053</v>
+        <v>0.21976</v>
       </c>
       <c r="C119" t="n">
-        <v>0.255472</v>
+        <v>0.25219</v>
       </c>
       <c r="D119" t="n">
-        <v>0.253837</v>
+        <v>0.254146</v>
       </c>
     </row>
     <row r="120">
@@ -4901,13 +4901,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.210349</v>
+        <v>0.210623</v>
       </c>
       <c r="C120" t="n">
-        <v>0.250467</v>
+        <v>0.249842</v>
       </c>
       <c r="D120" t="n">
-        <v>0.250089</v>
+        <v>0.24903</v>
       </c>
     </row>
     <row r="121">
@@ -4915,13 +4915,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.206426</v>
+        <v>0.207151</v>
       </c>
       <c r="C121" t="n">
-        <v>0.248179</v>
+        <v>0.248281</v>
       </c>
       <c r="D121" t="n">
-        <v>0.253733</v>
+        <v>0.251333</v>
       </c>
     </row>
     <row r="122">
@@ -4929,13 +4929,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.200674</v>
+        <v>0.200576</v>
       </c>
       <c r="C122" t="n">
-        <v>0.244561</v>
+        <v>0.250972</v>
       </c>
       <c r="D122" t="n">
-        <v>0.245292</v>
+        <v>0.247167</v>
       </c>
     </row>
     <row r="123">
@@ -4943,13 +4943,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.192479</v>
+        <v>0.191479</v>
       </c>
       <c r="C123" t="n">
-        <v>0.243068</v>
+        <v>0.248738</v>
       </c>
       <c r="D123" t="n">
-        <v>0.251333</v>
+        <v>0.245712</v>
       </c>
     </row>
     <row r="124">
@@ -4957,13 +4957,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.262159</v>
+        <v>0.257758</v>
       </c>
       <c r="C124" t="n">
-        <v>0.268448</v>
+        <v>0.274071</v>
       </c>
       <c r="D124" t="n">
-        <v>0.277515</v>
+        <v>0.27271</v>
       </c>
     </row>
     <row r="125">
@@ -4971,13 +4971,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.252992</v>
+        <v>0.255808</v>
       </c>
       <c r="C125" t="n">
-        <v>0.269232</v>
+        <v>0.270081</v>
       </c>
       <c r="D125" t="n">
-        <v>0.26755</v>
+        <v>0.269282</v>
       </c>
     </row>
     <row r="126">
@@ -4985,13 +4985,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.250922</v>
+        <v>0.247643</v>
       </c>
       <c r="C126" t="n">
-        <v>0.262245</v>
+        <v>0.265012</v>
       </c>
       <c r="D126" t="n">
-        <v>0.270768</v>
+        <v>0.268924</v>
       </c>
     </row>
     <row r="127">
@@ -4999,13 +4999,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.248811</v>
+        <v>0.243942</v>
       </c>
       <c r="C127" t="n">
-        <v>0.262601</v>
+        <v>0.267205</v>
       </c>
       <c r="D127" t="n">
-        <v>0.266318</v>
+        <v>0.266321</v>
       </c>
     </row>
     <row r="128">
@@ -5013,13 +5013,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.235799</v>
+        <v>0.241051</v>
       </c>
       <c r="C128" t="n">
-        <v>0.257111</v>
+        <v>0.258893</v>
       </c>
       <c r="D128" t="n">
-        <v>0.262693</v>
+        <v>0.263985</v>
       </c>
     </row>
     <row r="129">
@@ -5027,13 +5027,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.23406</v>
+        <v>0.232406</v>
       </c>
       <c r="C129" t="n">
-        <v>0.261187</v>
+        <v>0.264327</v>
       </c>
       <c r="D129" t="n">
-        <v>0.261066</v>
+        <v>0.26284</v>
       </c>
     </row>
     <row r="130">
@@ -5041,13 +5041,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.231195</v>
+        <v>0.229233</v>
       </c>
       <c r="C130" t="n">
-        <v>0.262636</v>
+        <v>0.260885</v>
       </c>
       <c r="D130" t="n">
-        <v>0.253868</v>
+        <v>0.263455</v>
       </c>
     </row>
     <row r="131">
@@ -5055,13 +5055,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.225716</v>
+        <v>0.225193</v>
       </c>
       <c r="C131" t="n">
-        <v>0.262056</v>
+        <v>0.262309</v>
       </c>
       <c r="D131" t="n">
-        <v>0.25729</v>
+        <v>0.256178</v>
       </c>
     </row>
     <row r="132">
@@ -5069,13 +5069,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.218875</v>
+        <v>0.222103</v>
       </c>
       <c r="C132" t="n">
-        <v>0.250309</v>
+        <v>0.251221</v>
       </c>
       <c r="D132" t="n">
-        <v>0.263802</v>
+        <v>0.252218</v>
       </c>
     </row>
     <row r="133">
@@ -5083,13 +5083,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.216984</v>
+        <v>0.212602</v>
       </c>
       <c r="C133" t="n">
-        <v>0.251218</v>
+        <v>0.247986</v>
       </c>
       <c r="D133" t="n">
-        <v>0.251278</v>
+        <v>0.252244</v>
       </c>
     </row>
     <row r="134">
@@ -5097,13 +5097,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.210341</v>
+        <v>0.214852</v>
       </c>
       <c r="C134" t="n">
-        <v>0.251298</v>
+        <v>0.25166</v>
       </c>
       <c r="D134" t="n">
-        <v>0.252232</v>
+        <v>0.24951</v>
       </c>
     </row>
     <row r="135">
@@ -5111,13 +5111,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.209188</v>
+        <v>0.209093</v>
       </c>
       <c r="C135" t="n">
-        <v>0.252659</v>
+        <v>0.247353</v>
       </c>
       <c r="D135" t="n">
-        <v>0.248065</v>
+        <v>0.249427</v>
       </c>
     </row>
     <row r="136">
@@ -5125,13 +5125,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.199737</v>
+        <v>0.203676</v>
       </c>
       <c r="C136" t="n">
-        <v>0.247691</v>
+        <v>0.244515</v>
       </c>
       <c r="D136" t="n">
-        <v>0.249548</v>
+        <v>0.248359</v>
       </c>
     </row>
     <row r="137">
@@ -5139,13 +5139,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.191853</v>
+        <v>0.196492</v>
       </c>
       <c r="C137" t="n">
-        <v>0.248634</v>
+        <v>0.246284</v>
       </c>
       <c r="D137" t="n">
-        <v>0.251029</v>
+        <v>0.24693</v>
       </c>
     </row>
     <row r="138">
@@ -5153,13 +5153,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.266944</v>
+        <v>0.262951</v>
       </c>
       <c r="C138" t="n">
-        <v>0.274162</v>
+        <v>0.279247</v>
       </c>
       <c r="D138" t="n">
-        <v>0.278712</v>
+        <v>0.27355</v>
       </c>
     </row>
     <row r="139">
@@ -5167,13 +5167,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.255881</v>
+        <v>0.256998</v>
       </c>
       <c r="C139" t="n">
-        <v>0.269755</v>
+        <v>0.268565</v>
       </c>
       <c r="D139" t="n">
-        <v>0.266611</v>
+        <v>0.270573</v>
       </c>
     </row>
     <row r="140">
@@ -5181,13 +5181,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.25518</v>
+        <v>0.247046</v>
       </c>
       <c r="C140" t="n">
-        <v>0.268404</v>
+        <v>0.270118</v>
       </c>
       <c r="D140" t="n">
-        <v>0.27035</v>
+        <v>0.26788</v>
       </c>
     </row>
     <row r="141">
@@ -5195,13 +5195,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.244798</v>
+        <v>0.247087</v>
       </c>
       <c r="C141" t="n">
-        <v>0.26364</v>
+        <v>0.26669</v>
       </c>
       <c r="D141" t="n">
-        <v>0.263428</v>
+        <v>0.264934</v>
       </c>
     </row>
     <row r="142">
@@ -5209,13 +5209,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.243636</v>
+        <v>0.238272</v>
       </c>
       <c r="C142" t="n">
-        <v>0.261882</v>
+        <v>0.261122</v>
       </c>
       <c r="D142" t="n">
-        <v>0.266485</v>
+        <v>0.266887</v>
       </c>
     </row>
     <row r="143">
@@ -5223,13 +5223,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.237927</v>
+        <v>0.234721</v>
       </c>
       <c r="C143" t="n">
-        <v>0.261137</v>
+        <v>0.261134</v>
       </c>
       <c r="D143" t="n">
-        <v>0.262769</v>
+        <v>0.263541</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Running erasure.xlsx
+++ b/vs-x64/Running erasure.xlsx
@@ -3249,13 +3249,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.197314</v>
+        <v>0.19798</v>
       </c>
       <c r="C2" t="n">
-        <v>0.231578</v>
+        <v>0.230304</v>
       </c>
       <c r="D2" t="n">
-        <v>0.233725</v>
+        <v>0.238081</v>
       </c>
     </row>
     <row r="3">
@@ -3263,13 +3263,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.194724</v>
+        <v>0.208827</v>
       </c>
       <c r="C3" t="n">
-        <v>0.230567</v>
+        <v>0.239608</v>
       </c>
       <c r="D3" t="n">
-        <v>0.230682</v>
+        <v>0.241075</v>
       </c>
     </row>
     <row r="4">
@@ -3277,13 +3277,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.190978</v>
+        <v>0.199971</v>
       </c>
       <c r="C4" t="n">
-        <v>0.233487</v>
+        <v>0.234384</v>
       </c>
       <c r="D4" t="n">
-        <v>0.234461</v>
+        <v>0.236694</v>
       </c>
     </row>
     <row r="5">
@@ -3291,13 +3291,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.192767</v>
+        <v>0.19598</v>
       </c>
       <c r="C5" t="n">
-        <v>0.228423</v>
+        <v>0.232902</v>
       </c>
       <c r="D5" t="n">
-        <v>0.230221</v>
+        <v>0.238436</v>
       </c>
     </row>
     <row r="6">
@@ -3305,13 +3305,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.192407</v>
+        <v>0.190406</v>
       </c>
       <c r="C6" t="n">
-        <v>0.231029</v>
+        <v>0.230535</v>
       </c>
       <c r="D6" t="n">
-        <v>0.2278</v>
+        <v>0.239862</v>
       </c>
     </row>
     <row r="7">
@@ -3319,13 +3319,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.184252</v>
+        <v>0.188488</v>
       </c>
       <c r="C7" t="n">
-        <v>0.231123</v>
+        <v>0.232791</v>
       </c>
       <c r="D7" t="n">
-        <v>0.236894</v>
+        <v>0.236255</v>
       </c>
     </row>
     <row r="8">
@@ -3333,13 +3333,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.185782</v>
+        <v>0.183277</v>
       </c>
       <c r="C8" t="n">
-        <v>0.224137</v>
+        <v>0.229581</v>
       </c>
       <c r="D8" t="n">
-        <v>0.228897</v>
+        <v>0.234107</v>
       </c>
     </row>
     <row r="9">
@@ -3347,13 +3347,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.172859</v>
+        <v>0.175685</v>
       </c>
       <c r="C9" t="n">
-        <v>0.227441</v>
+        <v>0.228131</v>
       </c>
       <c r="D9" t="n">
-        <v>0.230418</v>
+        <v>0.247442</v>
       </c>
     </row>
     <row r="10">
@@ -3361,13 +3361,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.226104</v>
+        <v>0.224977</v>
       </c>
       <c r="C10" t="n">
-        <v>0.240423</v>
+        <v>0.238275</v>
       </c>
       <c r="D10" t="n">
-        <v>0.244038</v>
+        <v>0.245316</v>
       </c>
     </row>
     <row r="11">
@@ -3375,13 +3375,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.225284</v>
+        <v>0.226968</v>
       </c>
       <c r="C11" t="n">
+        <v>0.237306</v>
+      </c>
+      <c r="D11" t="n">
         <v>0.244967</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0.247215</v>
       </c>
     </row>
     <row r="12">
@@ -3389,13 +3389,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.221452</v>
+        <v>0.21878</v>
       </c>
       <c r="C12" t="n">
-        <v>0.240669</v>
+        <v>0.236743</v>
       </c>
       <c r="D12" t="n">
-        <v>0.236163</v>
+        <v>0.241303</v>
       </c>
     </row>
     <row r="13">
@@ -3403,13 +3403,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.217212</v>
+        <v>0.224929</v>
       </c>
       <c r="C13" t="n">
-        <v>0.238673</v>
+        <v>0.240825</v>
       </c>
       <c r="D13" t="n">
-        <v>0.240961</v>
+        <v>0.243244</v>
       </c>
     </row>
     <row r="14">
@@ -3417,13 +3417,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.210852</v>
+        <v>0.217311</v>
       </c>
       <c r="C14" t="n">
-        <v>0.234988</v>
+        <v>0.236297</v>
       </c>
       <c r="D14" t="n">
-        <v>0.238659</v>
+        <v>0.238115</v>
       </c>
     </row>
     <row r="15">
@@ -3431,13 +3431,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.208167</v>
+        <v>0.212032</v>
       </c>
       <c r="C15" t="n">
-        <v>0.234222</v>
+        <v>0.231714</v>
       </c>
       <c r="D15" t="n">
-        <v>0.240232</v>
+        <v>0.239115</v>
       </c>
     </row>
     <row r="16">
@@ -3445,13 +3445,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.204739</v>
+        <v>0.205297</v>
       </c>
       <c r="C16" t="n">
-        <v>0.236473</v>
+        <v>0.23183</v>
       </c>
       <c r="D16" t="n">
-        <v>0.237623</v>
+        <v>0.236121</v>
       </c>
     </row>
     <row r="17">
@@ -3459,13 +3459,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.199669</v>
+        <v>0.2</v>
       </c>
       <c r="C17" t="n">
-        <v>0.235132</v>
+        <v>0.232511</v>
       </c>
       <c r="D17" t="n">
-        <v>0.237447</v>
+        <v>0.234186</v>
       </c>
     </row>
     <row r="18">
@@ -3473,13 +3473,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.200552</v>
+        <v>0.199902</v>
       </c>
       <c r="C18" t="n">
-        <v>0.235778</v>
+        <v>0.227402</v>
       </c>
       <c r="D18" t="n">
-        <v>0.235613</v>
+        <v>0.236049</v>
       </c>
     </row>
     <row r="19">
@@ -3487,13 +3487,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.199976</v>
+        <v>0.200317</v>
       </c>
       <c r="C19" t="n">
-        <v>0.230097</v>
+        <v>0.235862</v>
       </c>
       <c r="D19" t="n">
-        <v>0.233055</v>
+        <v>0.233249</v>
       </c>
     </row>
     <row r="20">
@@ -3501,13 +3501,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.195628</v>
+        <v>0.192092</v>
       </c>
       <c r="C20" t="n">
-        <v>0.230354</v>
+        <v>0.233885</v>
       </c>
       <c r="D20" t="n">
-        <v>0.23418</v>
+        <v>0.234577</v>
       </c>
     </row>
     <row r="21">
@@ -3515,13 +3515,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.192479</v>
+        <v>0.188873</v>
       </c>
       <c r="C21" t="n">
-        <v>0.238374</v>
+        <v>0.230459</v>
       </c>
       <c r="D21" t="n">
-        <v>0.230354</v>
+        <v>0.238066</v>
       </c>
     </row>
     <row r="22">
@@ -3529,13 +3529,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.18547</v>
+        <v>0.184364</v>
       </c>
       <c r="C22" t="n">
-        <v>0.229757</v>
+        <v>0.22541</v>
       </c>
       <c r="D22" t="n">
-        <v>0.233661</v>
+        <v>0.239683</v>
       </c>
     </row>
     <row r="23">
@@ -3543,13 +3543,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.181539</v>
+        <v>0.175963</v>
       </c>
       <c r="C23" t="n">
-        <v>0.231843</v>
+        <v>0.226257</v>
       </c>
       <c r="D23" t="n">
-        <v>0.235119</v>
+        <v>0.248208</v>
       </c>
     </row>
     <row r="24">
@@ -3557,13 +3557,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.236049</v>
+        <v>0.234327</v>
       </c>
       <c r="C24" t="n">
-        <v>0.243041</v>
+        <v>0.244386</v>
       </c>
       <c r="D24" t="n">
-        <v>0.248692</v>
+        <v>0.249823</v>
       </c>
     </row>
     <row r="25">
@@ -3571,13 +3571,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.231405</v>
+        <v>0.231035</v>
       </c>
       <c r="C25" t="n">
-        <v>0.240971</v>
+        <v>0.24414</v>
       </c>
       <c r="D25" t="n">
-        <v>0.243936</v>
+        <v>0.242847</v>
       </c>
     </row>
     <row r="26">
@@ -3585,13 +3585,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.224326</v>
+        <v>0.227706</v>
       </c>
       <c r="C26" t="n">
-        <v>0.241572</v>
+        <v>0.239197</v>
       </c>
       <c r="D26" t="n">
-        <v>0.243833</v>
+        <v>0.243185</v>
       </c>
     </row>
     <row r="27">
@@ -3599,13 +3599,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.223392</v>
+        <v>0.226702</v>
       </c>
       <c r="C27" t="n">
-        <v>0.243189</v>
+        <v>0.238992</v>
       </c>
       <c r="D27" t="n">
-        <v>0.241337</v>
+        <v>0.244309</v>
       </c>
     </row>
     <row r="28">
@@ -3613,13 +3613,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.21743</v>
+        <v>0.218631</v>
       </c>
       <c r="C28" t="n">
-        <v>0.237785</v>
+        <v>0.238005</v>
       </c>
       <c r="D28" t="n">
-        <v>0.241632</v>
+        <v>0.247206</v>
       </c>
     </row>
     <row r="29">
@@ -3627,13 +3627,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.218309</v>
+        <v>0.215097</v>
       </c>
       <c r="C29" t="n">
-        <v>0.238739</v>
+        <v>0.235119</v>
       </c>
       <c r="D29" t="n">
-        <v>0.241299</v>
+        <v>0.24464</v>
       </c>
     </row>
     <row r="30">
@@ -3641,13 +3641,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.209333</v>
+        <v>0.214943</v>
       </c>
       <c r="C30" t="n">
-        <v>0.23768</v>
+        <v>0.237347</v>
       </c>
       <c r="D30" t="n">
-        <v>0.242199</v>
+        <v>0.240788</v>
       </c>
     </row>
     <row r="31">
@@ -3655,13 +3655,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.208185</v>
+        <v>0.209728</v>
       </c>
       <c r="C31" t="n">
-        <v>0.235746</v>
+        <v>0.233134</v>
       </c>
       <c r="D31" t="n">
-        <v>0.240835</v>
+        <v>0.243723</v>
       </c>
     </row>
     <row r="32">
@@ -3669,13 +3669,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.207356</v>
+        <v>0.203436</v>
       </c>
       <c r="C32" t="n">
-        <v>0.231247</v>
+        <v>0.234875</v>
       </c>
       <c r="D32" t="n">
-        <v>0.23775</v>
+        <v>0.241314</v>
       </c>
     </row>
     <row r="33">
@@ -3683,13 +3683,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.201424</v>
+        <v>0.202543</v>
       </c>
       <c r="C33" t="n">
-        <v>0.232135</v>
+        <v>0.23043</v>
       </c>
       <c r="D33" t="n">
-        <v>0.236548</v>
+        <v>0.238643</v>
       </c>
     </row>
     <row r="34">
@@ -3697,13 +3697,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.201622</v>
+        <v>0.20018</v>
       </c>
       <c r="C34" t="n">
-        <v>0.235437</v>
+        <v>0.230902</v>
       </c>
       <c r="D34" t="n">
-        <v>0.235853</v>
+        <v>0.243407</v>
       </c>
     </row>
     <row r="35">
@@ -3711,13 +3711,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.193046</v>
+        <v>0.196788</v>
       </c>
       <c r="C35" t="n">
-        <v>0.232538</v>
+        <v>0.230046</v>
       </c>
       <c r="D35" t="n">
-        <v>0.236434</v>
+        <v>0.232498</v>
       </c>
     </row>
     <row r="36">
@@ -3725,13 +3725,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.190524</v>
+        <v>0.190014</v>
       </c>
       <c r="C36" t="n">
-        <v>0.232037</v>
+        <v>0.229454</v>
       </c>
       <c r="D36" t="n">
-        <v>0.238294</v>
+        <v>0.237465</v>
       </c>
     </row>
     <row r="37">
@@ -3739,13 +3739,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.18437</v>
+        <v>0.182905</v>
       </c>
       <c r="C37" t="n">
-        <v>0.230711</v>
+        <v>0.233501</v>
       </c>
       <c r="D37" t="n">
-        <v>0.23633</v>
+        <v>0.262541</v>
       </c>
     </row>
     <row r="38">
@@ -3753,13 +3753,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.238478</v>
+        <v>0.240845</v>
       </c>
       <c r="C38" t="n">
-        <v>0.258589</v>
+        <v>0.253452</v>
       </c>
       <c r="D38" t="n">
-        <v>0.259156</v>
+        <v>0.260613</v>
       </c>
     </row>
     <row r="39">
@@ -3767,13 +3767,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.235237</v>
+        <v>0.234876</v>
       </c>
       <c r="C39" t="n">
-        <v>0.257992</v>
+        <v>0.253046</v>
       </c>
       <c r="D39" t="n">
-        <v>0.259059</v>
+        <v>0.257892</v>
       </c>
     </row>
     <row r="40">
@@ -3781,13 +3781,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.232538</v>
+        <v>0.23123</v>
       </c>
       <c r="C40" t="n">
-        <v>0.253605</v>
+        <v>0.256382</v>
       </c>
       <c r="D40" t="n">
-        <v>0.256858</v>
+        <v>0.257728</v>
       </c>
     </row>
     <row r="41">
@@ -3795,13 +3795,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.228877</v>
+        <v>0.227097</v>
       </c>
       <c r="C41" t="n">
-        <v>0.255592</v>
+        <v>0.248436</v>
       </c>
       <c r="D41" t="n">
-        <v>0.255708</v>
+        <v>0.255147</v>
       </c>
     </row>
     <row r="42">
@@ -3809,13 +3809,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.22196</v>
+        <v>0.224827</v>
       </c>
       <c r="C42" t="n">
-        <v>0.248467</v>
+        <v>0.247606</v>
       </c>
       <c r="D42" t="n">
-        <v>0.254343</v>
+        <v>0.253845</v>
       </c>
     </row>
     <row r="43">
@@ -3823,13 +3823,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.219941</v>
+        <v>0.220886</v>
       </c>
       <c r="C43" t="n">
-        <v>0.250022</v>
+        <v>0.242562</v>
       </c>
       <c r="D43" t="n">
-        <v>0.25226</v>
+        <v>0.248833</v>
       </c>
     </row>
     <row r="44">
@@ -3837,13 +3837,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.213864</v>
+        <v>0.213458</v>
       </c>
       <c r="C44" t="n">
-        <v>0.244665</v>
+        <v>0.245008</v>
       </c>
       <c r="D44" t="n">
-        <v>0.251289</v>
+        <v>0.248914</v>
       </c>
     </row>
     <row r="45">
@@ -3851,13 +3851,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.211807</v>
+        <v>0.212865</v>
       </c>
       <c r="C45" t="n">
-        <v>0.246071</v>
+        <v>0.243116</v>
       </c>
       <c r="D45" t="n">
-        <v>0.249582</v>
+        <v>0.246631</v>
       </c>
     </row>
     <row r="46">
@@ -3865,13 +3865,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.204584</v>
+        <v>0.208436</v>
       </c>
       <c r="C46" t="n">
-        <v>0.246698</v>
+        <v>0.240523</v>
       </c>
       <c r="D46" t="n">
-        <v>0.249722</v>
+        <v>0.248969</v>
       </c>
     </row>
     <row r="47">
@@ -3879,13 +3879,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.204453</v>
+        <v>0.206292</v>
       </c>
       <c r="C47" t="n">
-        <v>0.241895</v>
+        <v>0.242457</v>
       </c>
       <c r="D47" t="n">
-        <v>0.244937</v>
+        <v>0.247546</v>
       </c>
     </row>
     <row r="48">
@@ -3893,13 +3893,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.201992</v>
+        <v>0.201505</v>
       </c>
       <c r="C48" t="n">
-        <v>0.241239</v>
+        <v>0.24182</v>
       </c>
       <c r="D48" t="n">
-        <v>0.242851</v>
+        <v>0.246203</v>
       </c>
     </row>
     <row r="49">
@@ -3907,13 +3907,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.199348</v>
+        <v>0.198056</v>
       </c>
       <c r="C49" t="n">
-        <v>0.242881</v>
+        <v>0.236997</v>
       </c>
       <c r="D49" t="n">
-        <v>0.241807</v>
+        <v>0.24041</v>
       </c>
     </row>
     <row r="50">
@@ -3921,13 +3921,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.194585</v>
+        <v>0.192353</v>
       </c>
       <c r="C50" t="n">
-        <v>0.241035</v>
+        <v>0.23833</v>
       </c>
       <c r="D50" t="n">
-        <v>0.241171</v>
+        <v>0.239241</v>
       </c>
     </row>
     <row r="51">
@@ -3935,13 +3935,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.18811</v>
+        <v>0.184571</v>
       </c>
       <c r="C51" t="n">
-        <v>0.23849</v>
+        <v>0.239287</v>
       </c>
       <c r="D51" t="n">
-        <v>0.239567</v>
+        <v>0.263895</v>
       </c>
     </row>
     <row r="52">
@@ -3949,13 +3949,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.180461</v>
+        <v>0.176803</v>
       </c>
       <c r="C52" t="n">
-        <v>0.235461</v>
+        <v>0.237206</v>
       </c>
       <c r="D52" t="n">
-        <v>0.242654</v>
+        <v>0.260591</v>
       </c>
     </row>
     <row r="53">
@@ -3963,13 +3963,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.244615</v>
+        <v>0.24249</v>
       </c>
       <c r="C53" t="n">
-        <v>0.258188</v>
+        <v>0.256104</v>
       </c>
       <c r="D53" t="n">
-        <v>0.260968</v>
+        <v>0.260029</v>
       </c>
     </row>
     <row r="54">
@@ -3977,13 +3977,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.241932</v>
+        <v>0.238172</v>
       </c>
       <c r="C54" t="n">
-        <v>0.255407</v>
+        <v>0.253066</v>
       </c>
       <c r="D54" t="n">
-        <v>0.257158</v>
+        <v>0.26356</v>
       </c>
     </row>
     <row r="55">
@@ -3991,13 +3991,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.234986</v>
+        <v>0.236237</v>
       </c>
       <c r="C55" t="n">
-        <v>0.251236</v>
+        <v>0.251989</v>
       </c>
       <c r="D55" t="n">
-        <v>0.257528</v>
+        <v>0.256875</v>
       </c>
     </row>
     <row r="56">
@@ -4005,13 +4005,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.230117</v>
+        <v>0.230886</v>
       </c>
       <c r="C56" t="n">
-        <v>0.250715</v>
+        <v>0.249213</v>
       </c>
       <c r="D56" t="n">
-        <v>0.253915</v>
+        <v>0.257294</v>
       </c>
     </row>
     <row r="57">
@@ -4019,13 +4019,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.228915</v>
+        <v>0.226808</v>
       </c>
       <c r="C57" t="n">
-        <v>0.252838</v>
+        <v>0.247625</v>
       </c>
       <c r="D57" t="n">
-        <v>0.253339</v>
+        <v>0.255841</v>
       </c>
     </row>
     <row r="58">
@@ -4033,13 +4033,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.222076</v>
+        <v>0.223905</v>
       </c>
       <c r="C58" t="n">
-        <v>0.247355</v>
+        <v>0.245891</v>
       </c>
       <c r="D58" t="n">
-        <v>0.253299</v>
+        <v>0.250365</v>
       </c>
     </row>
     <row r="59">
@@ -4047,13 +4047,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.215167</v>
+        <v>0.217988</v>
       </c>
       <c r="C59" t="n">
-        <v>0.247168</v>
+        <v>0.246698</v>
       </c>
       <c r="D59" t="n">
-        <v>0.248372</v>
+        <v>0.248898</v>
       </c>
     </row>
     <row r="60">
@@ -4061,13 +4061,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.214975</v>
+        <v>0.213791</v>
       </c>
       <c r="C60" t="n">
-        <v>0.24564</v>
+        <v>0.243215</v>
       </c>
       <c r="D60" t="n">
-        <v>0.247994</v>
+        <v>0.247805</v>
       </c>
     </row>
     <row r="61">
@@ -4075,13 +4075,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.210014</v>
+        <v>0.213817</v>
       </c>
       <c r="C61" t="n">
-        <v>0.244412</v>
+        <v>0.244434</v>
       </c>
       <c r="D61" t="n">
-        <v>0.244756</v>
+        <v>0.250077</v>
       </c>
     </row>
     <row r="62">
@@ -4089,13 +4089,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.207035</v>
+        <v>0.208067</v>
       </c>
       <c r="C62" t="n">
-        <v>0.241635</v>
+        <v>0.239976</v>
       </c>
       <c r="D62" t="n">
-        <v>0.245412</v>
+        <v>0.246111</v>
       </c>
     </row>
     <row r="63">
@@ -4103,13 +4103,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.203677</v>
+        <v>0.200797</v>
       </c>
       <c r="C63" t="n">
-        <v>0.23737</v>
+        <v>0.238016</v>
       </c>
       <c r="D63" t="n">
-        <v>0.244865</v>
+        <v>0.247944</v>
       </c>
     </row>
     <row r="64">
@@ -4117,13 +4117,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.199328</v>
+        <v>0.199904</v>
       </c>
       <c r="C64" t="n">
-        <v>0.238884</v>
+        <v>0.238309</v>
       </c>
       <c r="D64" t="n">
-        <v>0.242996</v>
+        <v>0.246004</v>
       </c>
     </row>
     <row r="65">
@@ -4131,13 +4131,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.193157</v>
+        <v>0.193328</v>
       </c>
       <c r="C65" t="n">
-        <v>0.239294</v>
+        <v>0.241536</v>
       </c>
       <c r="D65" t="n">
-        <v>0.244727</v>
+        <v>0.244481</v>
       </c>
     </row>
     <row r="66">
@@ -4145,13 +4145,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.187211</v>
+        <v>0.185954</v>
       </c>
       <c r="C66" t="n">
-        <v>0.239428</v>
+        <v>0.23624</v>
       </c>
       <c r="D66" t="n">
-        <v>0.240437</v>
+        <v>0.266301</v>
       </c>
     </row>
     <row r="67">
@@ -4159,13 +4159,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.251339</v>
+        <v>0.249521</v>
       </c>
       <c r="C67" t="n">
-        <v>0.261788</v>
+        <v>0.259561</v>
       </c>
       <c r="D67" t="n">
-        <v>0.264276</v>
+        <v>0.266516</v>
       </c>
     </row>
     <row r="68">
@@ -4173,13 +4173,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.245857</v>
+        <v>0.249215</v>
       </c>
       <c r="C68" t="n">
-        <v>0.256184</v>
+        <v>0.257992</v>
       </c>
       <c r="D68" t="n">
-        <v>0.261746</v>
+        <v>0.259687</v>
       </c>
     </row>
     <row r="69">
@@ -4187,13 +4187,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.245167</v>
+        <v>0.24339</v>
       </c>
       <c r="C69" t="n">
-        <v>0.254386</v>
+        <v>0.254492</v>
       </c>
       <c r="D69" t="n">
-        <v>0.261027</v>
+        <v>0.259076</v>
       </c>
     </row>
     <row r="70">
@@ -4201,13 +4201,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.239137</v>
+        <v>0.23914</v>
       </c>
       <c r="C70" t="n">
-        <v>0.256386</v>
+        <v>0.251339</v>
       </c>
       <c r="D70" t="n">
-        <v>0.259305</v>
+        <v>0.259835</v>
       </c>
     </row>
     <row r="71">
@@ -4215,13 +4215,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.235613</v>
+        <v>0.232762</v>
       </c>
       <c r="C71" t="n">
-        <v>0.255487</v>
+        <v>0.250121</v>
       </c>
       <c r="D71" t="n">
-        <v>0.255245</v>
+        <v>0.253072</v>
       </c>
     </row>
     <row r="72">
@@ -4229,13 +4229,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.231013</v>
+        <v>0.229044</v>
       </c>
       <c r="C72" t="n">
-        <v>0.250848</v>
+        <v>0.249284</v>
       </c>
       <c r="D72" t="n">
-        <v>0.255505</v>
+        <v>0.252366</v>
       </c>
     </row>
     <row r="73">
@@ -4243,13 +4243,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.222601</v>
+        <v>0.224843</v>
       </c>
       <c r="C73" t="n">
-        <v>0.252334</v>
+        <v>0.246773</v>
       </c>
       <c r="D73" t="n">
-        <v>0.254287</v>
+        <v>0.254738</v>
       </c>
     </row>
     <row r="74">
@@ -4257,13 +4257,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.21818</v>
+        <v>0.222483</v>
       </c>
       <c r="C74" t="n">
-        <v>0.247036</v>
+        <v>0.247867</v>
       </c>
       <c r="D74" t="n">
-        <v>0.25349</v>
+        <v>0.249055</v>
       </c>
     </row>
     <row r="75">
@@ -4271,13 +4271,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.217048</v>
+        <v>0.215067</v>
       </c>
       <c r="C75" t="n">
-        <v>0.24737</v>
+        <v>0.243725</v>
       </c>
       <c r="D75" t="n">
-        <v>0.252001</v>
+        <v>0.251994</v>
       </c>
     </row>
     <row r="76">
@@ -4285,13 +4285,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.215416</v>
+        <v>0.211558</v>
       </c>
       <c r="C76" t="n">
-        <v>0.243037</v>
+        <v>0.239959</v>
       </c>
       <c r="D76" t="n">
-        <v>0.250345</v>
+        <v>0.247314</v>
       </c>
     </row>
     <row r="77">
@@ -4299,13 +4299,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.209345</v>
+        <v>0.211537</v>
       </c>
       <c r="C77" t="n">
-        <v>0.243736</v>
+        <v>0.24674</v>
       </c>
       <c r="D77" t="n">
-        <v>0.24737</v>
+        <v>0.248686</v>
       </c>
     </row>
     <row r="78">
@@ -4313,13 +4313,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.205536</v>
+        <v>0.204716</v>
       </c>
       <c r="C78" t="n">
-        <v>0.243075</v>
+        <v>0.243041</v>
       </c>
       <c r="D78" t="n">
-        <v>0.246571</v>
+        <v>0.246176</v>
       </c>
     </row>
     <row r="79">
@@ -4327,13 +4327,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.201747</v>
+        <v>0.199593</v>
       </c>
       <c r="C79" t="n">
-        <v>0.242563</v>
+        <v>0.242167</v>
       </c>
       <c r="D79" t="n">
-        <v>0.244319</v>
+        <v>0.244696</v>
       </c>
     </row>
     <row r="80">
@@ -4341,13 +4341,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.192666</v>
+        <v>0.190888</v>
       </c>
       <c r="C80" t="n">
-        <v>0.243145</v>
+        <v>0.240513</v>
       </c>
       <c r="D80" t="n">
-        <v>0.246916</v>
+        <v>0.274662</v>
       </c>
     </row>
     <row r="81">
@@ -4355,13 +4355,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.259101</v>
+        <v>0.256851</v>
       </c>
       <c r="C81" t="n">
-        <v>0.268487</v>
+        <v>0.265296</v>
       </c>
       <c r="D81" t="n">
-        <v>0.274697</v>
+        <v>0.273216</v>
       </c>
     </row>
     <row r="82">
@@ -4369,13 +4369,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.257715</v>
+        <v>0.254444</v>
       </c>
       <c r="C82" t="n">
-        <v>0.26772</v>
+        <v>0.265237</v>
       </c>
       <c r="D82" t="n">
-        <v>0.269557</v>
+        <v>0.268411</v>
       </c>
     </row>
     <row r="83">
@@ -4383,13 +4383,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.249707</v>
+        <v>0.248957</v>
       </c>
       <c r="C83" t="n">
-        <v>0.267252</v>
+        <v>0.264729</v>
       </c>
       <c r="D83" t="n">
-        <v>0.267882</v>
+        <v>0.268386</v>
       </c>
     </row>
     <row r="84">
@@ -4397,13 +4397,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.245145</v>
+        <v>0.245369</v>
       </c>
       <c r="C84" t="n">
-        <v>0.262876</v>
+        <v>0.257646</v>
       </c>
       <c r="D84" t="n">
-        <v>0.262772</v>
+        <v>0.264747</v>
       </c>
     </row>
     <row r="85">
@@ -4411,13 +4411,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.237027</v>
+        <v>0.241162</v>
       </c>
       <c r="C85" t="n">
-        <v>0.260696</v>
+        <v>0.255913</v>
       </c>
       <c r="D85" t="n">
-        <v>0.259245</v>
+        <v>0.262015</v>
       </c>
     </row>
     <row r="86">
@@ -4425,13 +4425,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.234502</v>
+        <v>0.235279</v>
       </c>
       <c r="C86" t="n">
-        <v>0.256259</v>
+        <v>0.256051</v>
       </c>
       <c r="D86" t="n">
-        <v>0.262664</v>
+        <v>0.26077</v>
       </c>
     </row>
     <row r="87">
@@ -4439,13 +4439,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.228128</v>
+        <v>0.230112</v>
       </c>
       <c r="C87" t="n">
-        <v>0.256712</v>
+        <v>0.253131</v>
       </c>
       <c r="D87" t="n">
-        <v>0.260575</v>
+        <v>0.257496</v>
       </c>
     </row>
     <row r="88">
@@ -4453,13 +4453,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.225568</v>
+        <v>0.223392</v>
       </c>
       <c r="C88" t="n">
-        <v>0.255595</v>
+        <v>0.25006</v>
       </c>
       <c r="D88" t="n">
-        <v>0.25761</v>
+        <v>0.255451</v>
       </c>
     </row>
     <row r="89">
@@ -4467,13 +4467,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.2197</v>
+        <v>0.220449</v>
       </c>
       <c r="C89" t="n">
-        <v>0.253514</v>
+        <v>0.252339</v>
       </c>
       <c r="D89" t="n">
-        <v>0.254424</v>
+        <v>0.254328</v>
       </c>
     </row>
     <row r="90">
@@ -4481,13 +4481,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.219552</v>
+        <v>0.216424</v>
       </c>
       <c r="C90" t="n">
-        <v>0.248812</v>
+        <v>0.252343</v>
       </c>
       <c r="D90" t="n">
-        <v>0.253669</v>
+        <v>0.254516</v>
       </c>
     </row>
     <row r="91">
@@ -4495,13 +4495,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.213416</v>
+        <v>0.21288</v>
       </c>
       <c r="C91" t="n">
-        <v>0.250319</v>
+        <v>0.249626</v>
       </c>
       <c r="D91" t="n">
-        <v>0.249017</v>
+        <v>0.250838</v>
       </c>
     </row>
     <row r="92">
@@ -4509,13 +4509,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.208957</v>
+        <v>0.208442</v>
       </c>
       <c r="C92" t="n">
-        <v>0.248791</v>
+        <v>0.247046</v>
       </c>
       <c r="D92" t="n">
-        <v>0.249513</v>
+        <v>0.24867</v>
       </c>
     </row>
     <row r="93">
@@ -4523,13 +4523,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.205271</v>
+        <v>0.202483</v>
       </c>
       <c r="C93" t="n">
-        <v>0.247258</v>
+        <v>0.244642</v>
       </c>
       <c r="D93" t="n">
-        <v>0.251605</v>
+        <v>0.251448</v>
       </c>
     </row>
     <row r="94">
@@ -4537,13 +4537,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.197203</v>
+        <v>0.195889</v>
       </c>
       <c r="C94" t="n">
-        <v>0.243246</v>
+        <v>0.243577</v>
       </c>
       <c r="D94" t="n">
-        <v>0.24844</v>
+        <v>0.275978</v>
       </c>
     </row>
     <row r="95">
@@ -4551,13 +4551,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.259942</v>
+        <v>0.260363</v>
       </c>
       <c r="C95" t="n">
-        <v>0.273723</v>
+        <v>0.270795</v>
       </c>
       <c r="D95" t="n">
-        <v>0.280238</v>
+        <v>0.274705</v>
       </c>
     </row>
     <row r="96">
@@ -4565,13 +4565,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.255011</v>
+        <v>0.256878</v>
       </c>
       <c r="C96" t="n">
-        <v>0.270868</v>
+        <v>0.268636</v>
       </c>
       <c r="D96" t="n">
-        <v>0.267792</v>
+        <v>0.273954</v>
       </c>
     </row>
     <row r="97">
@@ -4579,13 +4579,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.254677</v>
+        <v>0.255558</v>
       </c>
       <c r="C97" t="n">
-        <v>0.26666</v>
+        <v>0.265315</v>
       </c>
       <c r="D97" t="n">
-        <v>0.273096</v>
+        <v>0.266885</v>
       </c>
     </row>
     <row r="98">
@@ -4593,13 +4593,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.250295</v>
+        <v>0.250774</v>
       </c>
       <c r="C98" t="n">
-        <v>0.262833</v>
+        <v>0.259185</v>
       </c>
       <c r="D98" t="n">
-        <v>0.264967</v>
+        <v>0.266491</v>
       </c>
     </row>
     <row r="99">
@@ -4607,13 +4607,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.240885</v>
+        <v>0.24371</v>
       </c>
       <c r="C99" t="n">
-        <v>0.262928</v>
+        <v>0.258468</v>
       </c>
       <c r="D99" t="n">
-        <v>0.265051</v>
+        <v>0.262938</v>
       </c>
     </row>
     <row r="100">
@@ -4621,13 +4621,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.234273</v>
+        <v>0.239105</v>
       </c>
       <c r="C100" t="n">
-        <v>0.258876</v>
+        <v>0.257036</v>
       </c>
       <c r="D100" t="n">
-        <v>0.262894</v>
+        <v>0.26067</v>
       </c>
     </row>
     <row r="101">
@@ -4635,13 +4635,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.233316</v>
+        <v>0.232398</v>
       </c>
       <c r="C101" t="n">
-        <v>0.258247</v>
+        <v>0.257981</v>
       </c>
       <c r="D101" t="n">
-        <v>0.260385</v>
+        <v>0.258064</v>
       </c>
     </row>
     <row r="102">
@@ -4649,13 +4649,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.227477</v>
+        <v>0.23047</v>
       </c>
       <c r="C102" t="n">
-        <v>0.255226</v>
+        <v>0.254149</v>
       </c>
       <c r="D102" t="n">
-        <v>0.254464</v>
+        <v>0.25676</v>
       </c>
     </row>
     <row r="103">
@@ -4663,13 +4663,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.224619</v>
+        <v>0.222237</v>
       </c>
       <c r="C103" t="n">
-        <v>0.25357</v>
+        <v>0.255167</v>
       </c>
       <c r="D103" t="n">
-        <v>0.254291</v>
+        <v>0.253948</v>
       </c>
     </row>
     <row r="104">
@@ -4677,13 +4677,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.220417</v>
+        <v>0.222072</v>
       </c>
       <c r="C104" t="n">
-        <v>0.254079</v>
+        <v>0.249522</v>
       </c>
       <c r="D104" t="n">
-        <v>0.253215</v>
+        <v>0.257427</v>
       </c>
     </row>
     <row r="105">
@@ -4691,13 +4691,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.211784</v>
+        <v>0.214204</v>
       </c>
       <c r="C105" t="n">
-        <v>0.251781</v>
+        <v>0.248216</v>
       </c>
       <c r="D105" t="n">
-        <v>0.255276</v>
+        <v>0.256299</v>
       </c>
     </row>
     <row r="106">
@@ -4705,13 +4705,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.212287</v>
+        <v>0.209977</v>
       </c>
       <c r="C106" t="n">
-        <v>0.24498</v>
+        <v>0.248647</v>
       </c>
       <c r="D106" t="n">
-        <v>0.248997</v>
+        <v>0.25231</v>
       </c>
     </row>
     <row r="107">
@@ -4719,13 +4719,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.205868</v>
+        <v>0.204198</v>
       </c>
       <c r="C107" t="n">
-        <v>0.247669</v>
+        <v>0.244802</v>
       </c>
       <c r="D107" t="n">
-        <v>0.250843</v>
+        <v>0.25062</v>
       </c>
     </row>
     <row r="108">
@@ -4733,13 +4733,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.200049</v>
+        <v>0.195897</v>
       </c>
       <c r="C108" t="n">
-        <v>0.244563</v>
+        <v>0.242497</v>
       </c>
       <c r="D108" t="n">
-        <v>0.247619</v>
+        <v>0.275798</v>
       </c>
     </row>
     <row r="109">
@@ -4747,13 +4747,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.194025</v>
+        <v>0.189923</v>
       </c>
       <c r="C109" t="n">
-        <v>0.243745</v>
+        <v>0.243958</v>
       </c>
       <c r="D109" t="n">
-        <v>0.245657</v>
+        <v>0.27183</v>
       </c>
     </row>
     <row r="110">
@@ -4761,13 +4761,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.258534</v>
+        <v>0.261851</v>
       </c>
       <c r="C110" t="n">
-        <v>0.271375</v>
+        <v>0.266882</v>
       </c>
       <c r="D110" t="n">
-        <v>0.276724</v>
+        <v>0.271679</v>
       </c>
     </row>
     <row r="111">
@@ -4775,13 +4775,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.254541</v>
+        <v>0.253511</v>
       </c>
       <c r="C111" t="n">
-        <v>0.268698</v>
+        <v>0.265094</v>
       </c>
       <c r="D111" t="n">
-        <v>0.275195</v>
+        <v>0.269006</v>
       </c>
     </row>
     <row r="112">
@@ -4789,13 +4789,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.250217</v>
+        <v>0.247522</v>
       </c>
       <c r="C112" t="n">
-        <v>0.265158</v>
+        <v>0.262943</v>
       </c>
       <c r="D112" t="n">
-        <v>0.271058</v>
+        <v>0.266489</v>
       </c>
     </row>
     <row r="113">
@@ -4803,13 +4803,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.244849</v>
+        <v>0.241848</v>
       </c>
       <c r="C113" t="n">
-        <v>0.261797</v>
+        <v>0.259936</v>
       </c>
       <c r="D113" t="n">
-        <v>0.26537</v>
+        <v>0.268991</v>
       </c>
     </row>
     <row r="114">
@@ -4817,13 +4817,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.236634</v>
+        <v>0.243833</v>
       </c>
       <c r="C114" t="n">
-        <v>0.262627</v>
+        <v>0.260667</v>
       </c>
       <c r="D114" t="n">
-        <v>0.26387</v>
+        <v>0.262873</v>
       </c>
     </row>
     <row r="115">
@@ -4831,13 +4831,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.237666</v>
+        <v>0.234498</v>
       </c>
       <c r="C115" t="n">
-        <v>0.258588</v>
+        <v>0.253792</v>
       </c>
       <c r="D115" t="n">
-        <v>0.260724</v>
+        <v>0.267272</v>
       </c>
     </row>
     <row r="116">
@@ -4845,13 +4845,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.228238</v>
+        <v>0.229563</v>
       </c>
       <c r="C116" t="n">
-        <v>0.254583</v>
+        <v>0.253846</v>
       </c>
       <c r="D116" t="n">
-        <v>0.257635</v>
+        <v>0.259707</v>
       </c>
     </row>
     <row r="117">
@@ -4859,13 +4859,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.223501</v>
+        <v>0.2237</v>
       </c>
       <c r="C117" t="n">
-        <v>0.253545</v>
+        <v>0.253662</v>
       </c>
       <c r="D117" t="n">
-        <v>0.261167</v>
+        <v>0.255568</v>
       </c>
     </row>
     <row r="118">
@@ -4873,13 +4873,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.221028</v>
+        <v>0.216958</v>
       </c>
       <c r="C118" t="n">
-        <v>0.252245</v>
+        <v>0.252605</v>
       </c>
       <c r="D118" t="n">
-        <v>0.25453</v>
+        <v>0.252523</v>
       </c>
     </row>
     <row r="119">
@@ -4887,13 +4887,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.21976</v>
+        <v>0.214155</v>
       </c>
       <c r="C119" t="n">
-        <v>0.25219</v>
+        <v>0.248232</v>
       </c>
       <c r="D119" t="n">
-        <v>0.254146</v>
+        <v>0.254284</v>
       </c>
     </row>
     <row r="120">
@@ -4901,13 +4901,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.210623</v>
+        <v>0.212234</v>
       </c>
       <c r="C120" t="n">
-        <v>0.249842</v>
+        <v>0.2485</v>
       </c>
       <c r="D120" t="n">
-        <v>0.24903</v>
+        <v>0.252547</v>
       </c>
     </row>
     <row r="121">
@@ -4915,13 +4915,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.207151</v>
+        <v>0.203346</v>
       </c>
       <c r="C121" t="n">
-        <v>0.248281</v>
+        <v>0.244994</v>
       </c>
       <c r="D121" t="n">
-        <v>0.251333</v>
+        <v>0.252163</v>
       </c>
     </row>
     <row r="122">
@@ -4929,13 +4929,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.200576</v>
+        <v>0.200951</v>
       </c>
       <c r="C122" t="n">
-        <v>0.250972</v>
+        <v>0.2436</v>
       </c>
       <c r="D122" t="n">
-        <v>0.247167</v>
+        <v>0.247657</v>
       </c>
     </row>
     <row r="123">
@@ -4943,13 +4943,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.191479</v>
+        <v>0.193662</v>
       </c>
       <c r="C123" t="n">
-        <v>0.248738</v>
+        <v>0.247061</v>
       </c>
       <c r="D123" t="n">
-        <v>0.245712</v>
+        <v>0.283189</v>
       </c>
     </row>
     <row r="124">
@@ -4957,13 +4957,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.257758</v>
+        <v>0.259648</v>
       </c>
       <c r="C124" t="n">
-        <v>0.274071</v>
+        <v>0.26607</v>
       </c>
       <c r="D124" t="n">
-        <v>0.27271</v>
+        <v>0.274074</v>
       </c>
     </row>
     <row r="125">
@@ -4971,13 +4971,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.255808</v>
+        <v>0.255324</v>
       </c>
       <c r="C125" t="n">
-        <v>0.270081</v>
+        <v>0.268585</v>
       </c>
       <c r="D125" t="n">
-        <v>0.269282</v>
+        <v>0.274267</v>
       </c>
     </row>
     <row r="126">
@@ -4985,13 +4985,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.247643</v>
+        <v>0.251179</v>
       </c>
       <c r="C126" t="n">
-        <v>0.265012</v>
+        <v>0.260292</v>
       </c>
       <c r="D126" t="n">
-        <v>0.268924</v>
+        <v>0.264455</v>
       </c>
     </row>
     <row r="127">
@@ -4999,13 +4999,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.243942</v>
+        <v>0.243849</v>
       </c>
       <c r="C127" t="n">
-        <v>0.267205</v>
+        <v>0.259125</v>
       </c>
       <c r="D127" t="n">
-        <v>0.266321</v>
+        <v>0.266172</v>
       </c>
     </row>
     <row r="128">
@@ -5013,13 +5013,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.241051</v>
+        <v>0.238315</v>
       </c>
       <c r="C128" t="n">
-        <v>0.258893</v>
+        <v>0.261668</v>
       </c>
       <c r="D128" t="n">
-        <v>0.263985</v>
+        <v>0.26355</v>
       </c>
     </row>
     <row r="129">
@@ -5027,13 +5027,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.232406</v>
+        <v>0.239929</v>
       </c>
       <c r="C129" t="n">
-        <v>0.264327</v>
+        <v>0.253747</v>
       </c>
       <c r="D129" t="n">
-        <v>0.26284</v>
+        <v>0.262998</v>
       </c>
     </row>
     <row r="130">
@@ -5041,13 +5041,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.229233</v>
+        <v>0.226629</v>
       </c>
       <c r="C130" t="n">
-        <v>0.260885</v>
+        <v>0.254469</v>
       </c>
       <c r="D130" t="n">
-        <v>0.263455</v>
+        <v>0.258836</v>
       </c>
     </row>
     <row r="131">
@@ -5055,13 +5055,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.225193</v>
+        <v>0.227548</v>
       </c>
       <c r="C131" t="n">
-        <v>0.262309</v>
+        <v>0.259017</v>
       </c>
       <c r="D131" t="n">
-        <v>0.256178</v>
+        <v>0.258657</v>
       </c>
     </row>
     <row r="132">
@@ -5069,13 +5069,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.222103</v>
+        <v>0.220127</v>
       </c>
       <c r="C132" t="n">
-        <v>0.251221</v>
+        <v>0.251068</v>
       </c>
       <c r="D132" t="n">
-        <v>0.252218</v>
+        <v>0.252365</v>
       </c>
     </row>
     <row r="133">
@@ -5083,13 +5083,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.212602</v>
+        <v>0.219841</v>
       </c>
       <c r="C133" t="n">
-        <v>0.247986</v>
+        <v>0.251711</v>
       </c>
       <c r="D133" t="n">
-        <v>0.252244</v>
+        <v>0.255223</v>
       </c>
     </row>
     <row r="134">
@@ -5097,13 +5097,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.214852</v>
+        <v>0.211684</v>
       </c>
       <c r="C134" t="n">
-        <v>0.25166</v>
+        <v>0.248479</v>
       </c>
       <c r="D134" t="n">
-        <v>0.24951</v>
+        <v>0.251113</v>
       </c>
     </row>
     <row r="135">
@@ -5111,13 +5111,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.209093</v>
+        <v>0.206798</v>
       </c>
       <c r="C135" t="n">
-        <v>0.247353</v>
+        <v>0.250952</v>
       </c>
       <c r="D135" t="n">
-        <v>0.249427</v>
+        <v>0.249196</v>
       </c>
     </row>
     <row r="136">
@@ -5125,13 +5125,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.203676</v>
+        <v>0.200186</v>
       </c>
       <c r="C136" t="n">
-        <v>0.244515</v>
+        <v>0.24399</v>
       </c>
       <c r="D136" t="n">
-        <v>0.248359</v>
+        <v>0.248093</v>
       </c>
     </row>
     <row r="137">
@@ -5139,13 +5139,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.196492</v>
+        <v>0.192827</v>
       </c>
       <c r="C137" t="n">
-        <v>0.246284</v>
+        <v>0.243806</v>
       </c>
       <c r="D137" t="n">
-        <v>0.24693</v>
+        <v>0.281695</v>
       </c>
     </row>
     <row r="138">
@@ -5153,13 +5153,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.262951</v>
+        <v>0.265149</v>
       </c>
       <c r="C138" t="n">
-        <v>0.279247</v>
+        <v>0.269653</v>
       </c>
       <c r="D138" t="n">
-        <v>0.27355</v>
+        <v>0.273382</v>
       </c>
     </row>
     <row r="139">
@@ -5167,13 +5167,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.256998</v>
+        <v>0.256028</v>
       </c>
       <c r="C139" t="n">
-        <v>0.268565</v>
+        <v>0.268506</v>
       </c>
       <c r="D139" t="n">
-        <v>0.270573</v>
+        <v>0.276313</v>
       </c>
     </row>
     <row r="140">
@@ -5181,13 +5181,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.247046</v>
+        <v>0.247247</v>
       </c>
       <c r="C140" t="n">
-        <v>0.270118</v>
+        <v>0.263881</v>
       </c>
       <c r="D140" t="n">
-        <v>0.26788</v>
+        <v>0.26707</v>
       </c>
     </row>
     <row r="141">
@@ -5195,13 +5195,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.247087</v>
+        <v>0.2428</v>
       </c>
       <c r="C141" t="n">
-        <v>0.26669</v>
+        <v>0.258771</v>
       </c>
       <c r="D141" t="n">
-        <v>0.264934</v>
+        <v>0.263633</v>
       </c>
     </row>
     <row r="142">
@@ -5209,13 +5209,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.238272</v>
+        <v>0.237954</v>
       </c>
       <c r="C142" t="n">
-        <v>0.261122</v>
+        <v>0.25695</v>
       </c>
       <c r="D142" t="n">
-        <v>0.266887</v>
+        <v>0.259332</v>
       </c>
     </row>
     <row r="143">
@@ -5223,13 +5223,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.234721</v>
+        <v>0.237825</v>
       </c>
       <c r="C143" t="n">
-        <v>0.261134</v>
+        <v>0.257028</v>
       </c>
       <c r="D143" t="n">
-        <v>0.263541</v>
+        <v>0.260777</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Running erasure.xlsx
+++ b/vs-x64/Running erasure.xlsx
@@ -3249,13 +3249,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.19798</v>
+        <v>0.202129</v>
       </c>
       <c r="C2" t="n">
-        <v>0.230304</v>
+        <v>0.242928</v>
       </c>
       <c r="D2" t="n">
-        <v>0.238081</v>
+        <v>0.245121</v>
       </c>
     </row>
     <row r="3">
@@ -3263,13 +3263,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.208827</v>
+        <v>0.199693</v>
       </c>
       <c r="C3" t="n">
-        <v>0.239608</v>
+        <v>0.235218</v>
       </c>
       <c r="D3" t="n">
-        <v>0.241075</v>
+        <v>0.239954</v>
       </c>
     </row>
     <row r="4">
@@ -3277,13 +3277,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.199971</v>
+        <v>0.198686</v>
       </c>
       <c r="C4" t="n">
-        <v>0.234384</v>
+        <v>0.239118</v>
       </c>
       <c r="D4" t="n">
-        <v>0.236694</v>
+        <v>0.243902</v>
       </c>
     </row>
     <row r="5">
@@ -3291,13 +3291,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.19598</v>
+        <v>0.197175</v>
       </c>
       <c r="C5" t="n">
-        <v>0.232902</v>
+        <v>0.234271</v>
       </c>
       <c r="D5" t="n">
-        <v>0.238436</v>
+        <v>0.240112</v>
       </c>
     </row>
     <row r="6">
@@ -3305,13 +3305,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.190406</v>
+        <v>0.194496</v>
       </c>
       <c r="C6" t="n">
-        <v>0.230535</v>
+        <v>0.228725</v>
       </c>
       <c r="D6" t="n">
-        <v>0.239862</v>
+        <v>0.239592</v>
       </c>
     </row>
     <row r="7">
@@ -3319,13 +3319,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.188488</v>
+        <v>0.188683</v>
       </c>
       <c r="C7" t="n">
-        <v>0.232791</v>
+        <v>0.233335</v>
       </c>
       <c r="D7" t="n">
-        <v>0.236255</v>
+        <v>0.23731</v>
       </c>
     </row>
     <row r="8">
@@ -3333,13 +3333,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.183277</v>
+        <v>0.185203</v>
       </c>
       <c r="C8" t="n">
-        <v>0.229581</v>
+        <v>0.233046</v>
       </c>
       <c r="D8" t="n">
-        <v>0.234107</v>
+        <v>0.234482</v>
       </c>
     </row>
     <row r="9">
@@ -3347,13 +3347,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.175685</v>
+        <v>0.175727</v>
       </c>
       <c r="C9" t="n">
-        <v>0.228131</v>
+        <v>0.231033</v>
       </c>
       <c r="D9" t="n">
-        <v>0.247442</v>
+        <v>0.248747</v>
       </c>
     </row>
     <row r="10">
@@ -3361,13 +3361,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.224977</v>
+        <v>0.227815</v>
       </c>
       <c r="C10" t="n">
-        <v>0.238275</v>
+        <v>0.242936</v>
       </c>
       <c r="D10" t="n">
-        <v>0.245316</v>
+        <v>0.24449</v>
       </c>
     </row>
     <row r="11">
@@ -3375,13 +3375,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.226968</v>
+        <v>0.222474</v>
       </c>
       <c r="C11" t="n">
-        <v>0.237306</v>
+        <v>0.239183</v>
       </c>
       <c r="D11" t="n">
-        <v>0.244967</v>
+        <v>0.243221</v>
       </c>
     </row>
     <row r="12">
@@ -3389,13 +3389,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.21878</v>
+        <v>0.221088</v>
       </c>
       <c r="C12" t="n">
-        <v>0.236743</v>
+        <v>0.239326</v>
       </c>
       <c r="D12" t="n">
-        <v>0.241303</v>
+        <v>0.250507</v>
       </c>
     </row>
     <row r="13">
@@ -3403,13 +3403,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.224929</v>
+        <v>0.214872</v>
       </c>
       <c r="C13" t="n">
-        <v>0.240825</v>
+        <v>0.232548</v>
       </c>
       <c r="D13" t="n">
-        <v>0.243244</v>
+        <v>0.243534</v>
       </c>
     </row>
     <row r="14">
@@ -3417,13 +3417,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.217311</v>
+        <v>0.216002</v>
       </c>
       <c r="C14" t="n">
-        <v>0.236297</v>
+        <v>0.237945</v>
       </c>
       <c r="D14" t="n">
-        <v>0.238115</v>
+        <v>0.244614</v>
       </c>
     </row>
     <row r="15">
@@ -3431,13 +3431,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.212032</v>
+        <v>0.212421</v>
       </c>
       <c r="C15" t="n">
-        <v>0.231714</v>
+        <v>0.232547</v>
       </c>
       <c r="D15" t="n">
-        <v>0.239115</v>
+        <v>0.241009</v>
       </c>
     </row>
     <row r="16">
@@ -3445,13 +3445,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.205297</v>
+        <v>0.209834</v>
       </c>
       <c r="C16" t="n">
-        <v>0.23183</v>
+        <v>0.233149</v>
       </c>
       <c r="D16" t="n">
-        <v>0.236121</v>
+        <v>0.237483</v>
       </c>
     </row>
     <row r="17">
@@ -3459,13 +3459,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.2</v>
+        <v>0.200263</v>
       </c>
       <c r="C17" t="n">
-        <v>0.232511</v>
+        <v>0.232678</v>
       </c>
       <c r="D17" t="n">
-        <v>0.234186</v>
+        <v>0.23803</v>
       </c>
     </row>
     <row r="18">
@@ -3473,13 +3473,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.199902</v>
+        <v>0.198203</v>
       </c>
       <c r="C18" t="n">
-        <v>0.227402</v>
+        <v>0.233868</v>
       </c>
       <c r="D18" t="n">
-        <v>0.236049</v>
+        <v>0.235787</v>
       </c>
     </row>
     <row r="19">
@@ -3487,13 +3487,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.200317</v>
+        <v>0.198025</v>
       </c>
       <c r="C19" t="n">
-        <v>0.235862</v>
+        <v>0.226154</v>
       </c>
       <c r="D19" t="n">
-        <v>0.233249</v>
+        <v>0.236512</v>
       </c>
     </row>
     <row r="20">
@@ -3501,13 +3501,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.192092</v>
+        <v>0.197844</v>
       </c>
       <c r="C20" t="n">
-        <v>0.233885</v>
+        <v>0.228808</v>
       </c>
       <c r="D20" t="n">
-        <v>0.234577</v>
+        <v>0.233724</v>
       </c>
     </row>
     <row r="21">
@@ -3515,13 +3515,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.188873</v>
+        <v>0.193782</v>
       </c>
       <c r="C21" t="n">
-        <v>0.230459</v>
+        <v>0.230738</v>
       </c>
       <c r="D21" t="n">
-        <v>0.238066</v>
+        <v>0.237382</v>
       </c>
     </row>
     <row r="22">
@@ -3529,13 +3529,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.184364</v>
+        <v>0.188275</v>
       </c>
       <c r="C22" t="n">
-        <v>0.22541</v>
+        <v>0.225035</v>
       </c>
       <c r="D22" t="n">
-        <v>0.239683</v>
+        <v>0.235853</v>
       </c>
     </row>
     <row r="23">
@@ -3543,13 +3543,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.175963</v>
+        <v>0.178802</v>
       </c>
       <c r="C23" t="n">
-        <v>0.226257</v>
+        <v>0.227134</v>
       </c>
       <c r="D23" t="n">
-        <v>0.248208</v>
+        <v>0.253452</v>
       </c>
     </row>
     <row r="24">
@@ -3557,13 +3557,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.234327</v>
+        <v>0.2352</v>
       </c>
       <c r="C24" t="n">
-        <v>0.244386</v>
+        <v>0.243778</v>
       </c>
       <c r="D24" t="n">
-        <v>0.249823</v>
+        <v>0.249395</v>
       </c>
     </row>
     <row r="25">
@@ -3571,13 +3571,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.231035</v>
+        <v>0.22935</v>
       </c>
       <c r="C25" t="n">
-        <v>0.24414</v>
+        <v>0.245151</v>
       </c>
       <c r="D25" t="n">
-        <v>0.242847</v>
+        <v>0.244379</v>
       </c>
     </row>
     <row r="26">
@@ -3585,13 +3585,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.227706</v>
+        <v>0.229573</v>
       </c>
       <c r="C26" t="n">
-        <v>0.239197</v>
+        <v>0.241586</v>
       </c>
       <c r="D26" t="n">
-        <v>0.243185</v>
+        <v>0.246822</v>
       </c>
     </row>
     <row r="27">
@@ -3599,13 +3599,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.226702</v>
+        <v>0.225219</v>
       </c>
       <c r="C27" t="n">
-        <v>0.238992</v>
+        <v>0.238361</v>
       </c>
       <c r="D27" t="n">
-        <v>0.244309</v>
+        <v>0.244146</v>
       </c>
     </row>
     <row r="28">
@@ -3613,13 +3613,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.218631</v>
+        <v>0.217352</v>
       </c>
       <c r="C28" t="n">
-        <v>0.238005</v>
+        <v>0.240704</v>
       </c>
       <c r="D28" t="n">
-        <v>0.247206</v>
+        <v>0.242664</v>
       </c>
     </row>
     <row r="29">
@@ -3627,13 +3627,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.215097</v>
+        <v>0.2169</v>
       </c>
       <c r="C29" t="n">
-        <v>0.235119</v>
+        <v>0.237333</v>
       </c>
       <c r="D29" t="n">
-        <v>0.24464</v>
+        <v>0.243689</v>
       </c>
     </row>
     <row r="30">
@@ -3641,13 +3641,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.214943</v>
+        <v>0.21522</v>
       </c>
       <c r="C30" t="n">
-        <v>0.237347</v>
+        <v>0.239197</v>
       </c>
       <c r="D30" t="n">
-        <v>0.240788</v>
+        <v>0.24689</v>
       </c>
     </row>
     <row r="31">
@@ -3655,13 +3655,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.209728</v>
+        <v>0.209128</v>
       </c>
       <c r="C31" t="n">
-        <v>0.233134</v>
+        <v>0.23713</v>
       </c>
       <c r="D31" t="n">
-        <v>0.243723</v>
+        <v>0.240918</v>
       </c>
     </row>
     <row r="32">
@@ -3669,13 +3669,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.203436</v>
+        <v>0.207572</v>
       </c>
       <c r="C32" t="n">
-        <v>0.234875</v>
+        <v>0.231912</v>
       </c>
       <c r="D32" t="n">
-        <v>0.241314</v>
+        <v>0.241818</v>
       </c>
     </row>
     <row r="33">
@@ -3683,13 +3683,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.202543</v>
+        <v>0.2057</v>
       </c>
       <c r="C33" t="n">
-        <v>0.23043</v>
+        <v>0.233188</v>
       </c>
       <c r="D33" t="n">
-        <v>0.238643</v>
+        <v>0.238041</v>
       </c>
     </row>
     <row r="34">
@@ -3697,13 +3697,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.20018</v>
+        <v>0.198809</v>
       </c>
       <c r="C34" t="n">
-        <v>0.230902</v>
+        <v>0.232526</v>
       </c>
       <c r="D34" t="n">
-        <v>0.243407</v>
+        <v>0.239936</v>
       </c>
     </row>
     <row r="35">
@@ -3711,13 +3711,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.196788</v>
+        <v>0.192594</v>
       </c>
       <c r="C35" t="n">
-        <v>0.230046</v>
+        <v>0.227407</v>
       </c>
       <c r="D35" t="n">
-        <v>0.232498</v>
+        <v>0.229155</v>
       </c>
     </row>
     <row r="36">
@@ -3725,13 +3725,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.190014</v>
+        <v>0.18599</v>
       </c>
       <c r="C36" t="n">
-        <v>0.229454</v>
+        <v>0.228233</v>
       </c>
       <c r="D36" t="n">
-        <v>0.237465</v>
+        <v>0.243963</v>
       </c>
     </row>
     <row r="37">
@@ -3739,13 +3739,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.182905</v>
+        <v>0.184316</v>
       </c>
       <c r="C37" t="n">
-        <v>0.233501</v>
+        <v>0.226194</v>
       </c>
       <c r="D37" t="n">
-        <v>0.262541</v>
+        <v>0.262049</v>
       </c>
     </row>
     <row r="38">
@@ -3753,13 +3753,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.240845</v>
+        <v>0.241776</v>
       </c>
       <c r="C38" t="n">
-        <v>0.253452</v>
+        <v>0.255173</v>
       </c>
       <c r="D38" t="n">
-        <v>0.260613</v>
+        <v>0.259566</v>
       </c>
     </row>
     <row r="39">
@@ -3767,13 +3767,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.234876</v>
+        <v>0.236949</v>
       </c>
       <c r="C39" t="n">
-        <v>0.253046</v>
+        <v>0.253666</v>
       </c>
       <c r="D39" t="n">
-        <v>0.257892</v>
+        <v>0.257572</v>
       </c>
     </row>
     <row r="40">
@@ -3781,13 +3781,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.23123</v>
+        <v>0.235371</v>
       </c>
       <c r="C40" t="n">
-        <v>0.256382</v>
+        <v>0.255637</v>
       </c>
       <c r="D40" t="n">
-        <v>0.257728</v>
+        <v>0.256655</v>
       </c>
     </row>
     <row r="41">
@@ -3795,13 +3795,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.227097</v>
+        <v>0.230917</v>
       </c>
       <c r="C41" t="n">
-        <v>0.248436</v>
+        <v>0.248702</v>
       </c>
       <c r="D41" t="n">
-        <v>0.255147</v>
+        <v>0.254086</v>
       </c>
     </row>
     <row r="42">
@@ -3809,13 +3809,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.224827</v>
+        <v>0.225713</v>
       </c>
       <c r="C42" t="n">
-        <v>0.247606</v>
+        <v>0.24633</v>
       </c>
       <c r="D42" t="n">
-        <v>0.253845</v>
+        <v>0.254099</v>
       </c>
     </row>
     <row r="43">
@@ -3823,13 +3823,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.220886</v>
+        <v>0.220044</v>
       </c>
       <c r="C43" t="n">
-        <v>0.242562</v>
+        <v>0.247739</v>
       </c>
       <c r="D43" t="n">
-        <v>0.248833</v>
+        <v>0.253675</v>
       </c>
     </row>
     <row r="44">
@@ -3837,13 +3837,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.213458</v>
+        <v>0.214031</v>
       </c>
       <c r="C44" t="n">
-        <v>0.245008</v>
+        <v>0.245172</v>
       </c>
       <c r="D44" t="n">
-        <v>0.248914</v>
+        <v>0.248658</v>
       </c>
     </row>
     <row r="45">
@@ -3851,13 +3851,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.212865</v>
+        <v>0.213988</v>
       </c>
       <c r="C45" t="n">
-        <v>0.243116</v>
+        <v>0.24544</v>
       </c>
       <c r="D45" t="n">
-        <v>0.246631</v>
+        <v>0.245757</v>
       </c>
     </row>
     <row r="46">
@@ -3865,13 +3865,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.208436</v>
+        <v>0.208671</v>
       </c>
       <c r="C46" t="n">
-        <v>0.240523</v>
+        <v>0.24223</v>
       </c>
       <c r="D46" t="n">
-        <v>0.248969</v>
+        <v>0.24754</v>
       </c>
     </row>
     <row r="47">
@@ -3879,13 +3879,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.206292</v>
+        <v>0.206283</v>
       </c>
       <c r="C47" t="n">
-        <v>0.242457</v>
+        <v>0.24096</v>
       </c>
       <c r="D47" t="n">
-        <v>0.247546</v>
+        <v>0.245083</v>
       </c>
     </row>
     <row r="48">
@@ -3893,13 +3893,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.201505</v>
+        <v>0.201533</v>
       </c>
       <c r="C48" t="n">
-        <v>0.24182</v>
+        <v>0.240397</v>
       </c>
       <c r="D48" t="n">
-        <v>0.246203</v>
+        <v>0.242464</v>
       </c>
     </row>
     <row r="49">
@@ -3907,13 +3907,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.198056</v>
+        <v>0.196118</v>
       </c>
       <c r="C49" t="n">
-        <v>0.236997</v>
+        <v>0.240819</v>
       </c>
       <c r="D49" t="n">
-        <v>0.24041</v>
+        <v>0.242487</v>
       </c>
     </row>
     <row r="50">
@@ -3921,13 +3921,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.192353</v>
+        <v>0.194254</v>
       </c>
       <c r="C50" t="n">
-        <v>0.23833</v>
+        <v>0.238205</v>
       </c>
       <c r="D50" t="n">
-        <v>0.239241</v>
+        <v>0.241839</v>
       </c>
     </row>
     <row r="51">
@@ -3935,13 +3935,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.184571</v>
+        <v>0.187264</v>
       </c>
       <c r="C51" t="n">
-        <v>0.239287</v>
+        <v>0.238695</v>
       </c>
       <c r="D51" t="n">
-        <v>0.263895</v>
+        <v>0.262295</v>
       </c>
     </row>
     <row r="52">
@@ -3949,13 +3949,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.176803</v>
+        <v>0.179381</v>
       </c>
       <c r="C52" t="n">
-        <v>0.237206</v>
+        <v>0.238901</v>
       </c>
       <c r="D52" t="n">
-        <v>0.260591</v>
+        <v>0.262236</v>
       </c>
     </row>
     <row r="53">
@@ -3963,13 +3963,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.24249</v>
+        <v>0.242587</v>
       </c>
       <c r="C53" t="n">
-        <v>0.256104</v>
+        <v>0.254988</v>
       </c>
       <c r="D53" t="n">
-        <v>0.260029</v>
+        <v>0.257847</v>
       </c>
     </row>
     <row r="54">
@@ -3977,13 +3977,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.238172</v>
+        <v>0.244043</v>
       </c>
       <c r="C54" t="n">
-        <v>0.253066</v>
+        <v>0.2535</v>
       </c>
       <c r="D54" t="n">
-        <v>0.26356</v>
+        <v>0.259172</v>
       </c>
     </row>
     <row r="55">
@@ -3991,13 +3991,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.236237</v>
+        <v>0.237304</v>
       </c>
       <c r="C55" t="n">
-        <v>0.251989</v>
+        <v>0.251509</v>
       </c>
       <c r="D55" t="n">
-        <v>0.256875</v>
+        <v>0.257043</v>
       </c>
     </row>
     <row r="56">
@@ -4005,13 +4005,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.230886</v>
+        <v>0.229468</v>
       </c>
       <c r="C56" t="n">
-        <v>0.249213</v>
+        <v>0.247725</v>
       </c>
       <c r="D56" t="n">
-        <v>0.257294</v>
+        <v>0.254036</v>
       </c>
     </row>
     <row r="57">
@@ -4019,13 +4019,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.226808</v>
+        <v>0.228347</v>
       </c>
       <c r="C57" t="n">
-        <v>0.247625</v>
+        <v>0.24852</v>
       </c>
       <c r="D57" t="n">
-        <v>0.255841</v>
+        <v>0.251603</v>
       </c>
     </row>
     <row r="58">
@@ -4033,13 +4033,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.223905</v>
+        <v>0.222031</v>
       </c>
       <c r="C58" t="n">
-        <v>0.245891</v>
+        <v>0.246442</v>
       </c>
       <c r="D58" t="n">
-        <v>0.250365</v>
+        <v>0.249626</v>
       </c>
     </row>
     <row r="59">
@@ -4047,13 +4047,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.217988</v>
+        <v>0.219125</v>
       </c>
       <c r="C59" t="n">
-        <v>0.246698</v>
+        <v>0.244356</v>
       </c>
       <c r="D59" t="n">
-        <v>0.248898</v>
+        <v>0.252306</v>
       </c>
     </row>
     <row r="60">
@@ -4061,13 +4061,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.213791</v>
+        <v>0.214685</v>
       </c>
       <c r="C60" t="n">
-        <v>0.243215</v>
+        <v>0.24454</v>
       </c>
       <c r="D60" t="n">
-        <v>0.247805</v>
+        <v>0.248933</v>
       </c>
     </row>
     <row r="61">
@@ -4075,13 +4075,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.213817</v>
+        <v>0.20968</v>
       </c>
       <c r="C61" t="n">
-        <v>0.244434</v>
+        <v>0.244337</v>
       </c>
       <c r="D61" t="n">
-        <v>0.250077</v>
+        <v>0.244291</v>
       </c>
     </row>
     <row r="62">
@@ -4089,13 +4089,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.208067</v>
+        <v>0.208068</v>
       </c>
       <c r="C62" t="n">
-        <v>0.239976</v>
+        <v>0.23987</v>
       </c>
       <c r="D62" t="n">
-        <v>0.246111</v>
+        <v>0.246037</v>
       </c>
     </row>
     <row r="63">
@@ -4103,13 +4103,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.200797</v>
+        <v>0.199756</v>
       </c>
       <c r="C63" t="n">
-        <v>0.238016</v>
+        <v>0.237491</v>
       </c>
       <c r="D63" t="n">
-        <v>0.247944</v>
+        <v>0.242089</v>
       </c>
     </row>
     <row r="64">
@@ -4117,13 +4117,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.199904</v>
+        <v>0.197571</v>
       </c>
       <c r="C64" t="n">
-        <v>0.238309</v>
+        <v>0.235084</v>
       </c>
       <c r="D64" t="n">
-        <v>0.246004</v>
+        <v>0.241388</v>
       </c>
     </row>
     <row r="65">
@@ -4131,13 +4131,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.193328</v>
+        <v>0.192651</v>
       </c>
       <c r="C65" t="n">
-        <v>0.241536</v>
+        <v>0.237665</v>
       </c>
       <c r="D65" t="n">
-        <v>0.244481</v>
+        <v>0.243045</v>
       </c>
     </row>
     <row r="66">
@@ -4145,13 +4145,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.185954</v>
+        <v>0.183884</v>
       </c>
       <c r="C66" t="n">
-        <v>0.23624</v>
+        <v>0.236589</v>
       </c>
       <c r="D66" t="n">
-        <v>0.266301</v>
+        <v>0.26641</v>
       </c>
     </row>
     <row r="67">
@@ -4159,13 +4159,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.249521</v>
+        <v>0.249861</v>
       </c>
       <c r="C67" t="n">
-        <v>0.259561</v>
+        <v>0.260579</v>
       </c>
       <c r="D67" t="n">
-        <v>0.266516</v>
+        <v>0.263751</v>
       </c>
     </row>
     <row r="68">
@@ -4173,13 +4173,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.249215</v>
+        <v>0.246387</v>
       </c>
       <c r="C68" t="n">
-        <v>0.257992</v>
+        <v>0.258044</v>
       </c>
       <c r="D68" t="n">
-        <v>0.259687</v>
+        <v>0.26343</v>
       </c>
     </row>
     <row r="69">
@@ -4187,13 +4187,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.24339</v>
+        <v>0.246175</v>
       </c>
       <c r="C69" t="n">
-        <v>0.254492</v>
+        <v>0.256862</v>
       </c>
       <c r="D69" t="n">
-        <v>0.259076</v>
+        <v>0.259253</v>
       </c>
     </row>
     <row r="70">
@@ -4201,13 +4201,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.23914</v>
+        <v>0.238474</v>
       </c>
       <c r="C70" t="n">
-        <v>0.251339</v>
+        <v>0.252686</v>
       </c>
       <c r="D70" t="n">
-        <v>0.259835</v>
+        <v>0.259733</v>
       </c>
     </row>
     <row r="71">
@@ -4215,13 +4215,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.232762</v>
+        <v>0.231589</v>
       </c>
       <c r="C71" t="n">
-        <v>0.250121</v>
+        <v>0.252885</v>
       </c>
       <c r="D71" t="n">
-        <v>0.253072</v>
+        <v>0.258114</v>
       </c>
     </row>
     <row r="72">
@@ -4229,13 +4229,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.229044</v>
+        <v>0.228376</v>
       </c>
       <c r="C72" t="n">
-        <v>0.249284</v>
+        <v>0.250715</v>
       </c>
       <c r="D72" t="n">
-        <v>0.252366</v>
+        <v>0.255987</v>
       </c>
     </row>
     <row r="73">
@@ -4243,13 +4243,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.224843</v>
+        <v>0.227713</v>
       </c>
       <c r="C73" t="n">
-        <v>0.246773</v>
+        <v>0.247824</v>
       </c>
       <c r="D73" t="n">
-        <v>0.254738</v>
+        <v>0.253677</v>
       </c>
     </row>
     <row r="74">
@@ -4257,13 +4257,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.222483</v>
+        <v>0.225253</v>
       </c>
       <c r="C74" t="n">
-        <v>0.247867</v>
+        <v>0.245982</v>
       </c>
       <c r="D74" t="n">
-        <v>0.249055</v>
+        <v>0.249087</v>
       </c>
     </row>
     <row r="75">
@@ -4271,13 +4271,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.215067</v>
+        <v>0.21617</v>
       </c>
       <c r="C75" t="n">
-        <v>0.243725</v>
+        <v>0.244891</v>
       </c>
       <c r="D75" t="n">
-        <v>0.251994</v>
+        <v>0.249432</v>
       </c>
     </row>
     <row r="76">
@@ -4285,13 +4285,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.211558</v>
+        <v>0.212811</v>
       </c>
       <c r="C76" t="n">
-        <v>0.239959</v>
+        <v>0.243841</v>
       </c>
       <c r="D76" t="n">
-        <v>0.247314</v>
+        <v>0.249007</v>
       </c>
     </row>
     <row r="77">
@@ -4299,13 +4299,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.211537</v>
+        <v>0.209754</v>
       </c>
       <c r="C77" t="n">
-        <v>0.24674</v>
+        <v>0.245179</v>
       </c>
       <c r="D77" t="n">
-        <v>0.248686</v>
+        <v>0.251461</v>
       </c>
     </row>
     <row r="78">
@@ -4313,13 +4313,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.204716</v>
+        <v>0.20331</v>
       </c>
       <c r="C78" t="n">
-        <v>0.243041</v>
+        <v>0.240568</v>
       </c>
       <c r="D78" t="n">
-        <v>0.246176</v>
+        <v>0.246048</v>
       </c>
     </row>
     <row r="79">
@@ -4327,13 +4327,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.199593</v>
+        <v>0.197702</v>
       </c>
       <c r="C79" t="n">
-        <v>0.242167</v>
+        <v>0.241219</v>
       </c>
       <c r="D79" t="n">
-        <v>0.244696</v>
+        <v>0.247071</v>
       </c>
     </row>
     <row r="80">
@@ -4341,13 +4341,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.190888</v>
+        <v>0.193233</v>
       </c>
       <c r="C80" t="n">
-        <v>0.240513</v>
+        <v>0.241608</v>
       </c>
       <c r="D80" t="n">
-        <v>0.274662</v>
+        <v>0.276066</v>
       </c>
     </row>
     <row r="81">
@@ -4355,13 +4355,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.256851</v>
+        <v>0.258018</v>
       </c>
       <c r="C81" t="n">
-        <v>0.265296</v>
+        <v>0.265141</v>
       </c>
       <c r="D81" t="n">
-        <v>0.273216</v>
+        <v>0.269966</v>
       </c>
     </row>
     <row r="82">
@@ -4369,13 +4369,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.254444</v>
+        <v>0.254248</v>
       </c>
       <c r="C82" t="n">
-        <v>0.265237</v>
+        <v>0.266203</v>
       </c>
       <c r="D82" t="n">
-        <v>0.268411</v>
+        <v>0.270417</v>
       </c>
     </row>
     <row r="83">
@@ -4383,13 +4383,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.248957</v>
+        <v>0.24815</v>
       </c>
       <c r="C83" t="n">
-        <v>0.264729</v>
+        <v>0.264903</v>
       </c>
       <c r="D83" t="n">
-        <v>0.268386</v>
+        <v>0.265735</v>
       </c>
     </row>
     <row r="84">
@@ -4397,13 +4397,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.245369</v>
+        <v>0.248529</v>
       </c>
       <c r="C84" t="n">
-        <v>0.257646</v>
+        <v>0.258925</v>
       </c>
       <c r="D84" t="n">
-        <v>0.264747</v>
+        <v>0.262154</v>
       </c>
     </row>
     <row r="85">
@@ -4411,13 +4411,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.241162</v>
+        <v>0.239251</v>
       </c>
       <c r="C85" t="n">
-        <v>0.255913</v>
+        <v>0.258127</v>
       </c>
       <c r="D85" t="n">
-        <v>0.262015</v>
+        <v>0.260275</v>
       </c>
     </row>
     <row r="86">
@@ -4425,13 +4425,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.235279</v>
+        <v>0.235112</v>
       </c>
       <c r="C86" t="n">
-        <v>0.256051</v>
+        <v>0.256348</v>
       </c>
       <c r="D86" t="n">
-        <v>0.26077</v>
+        <v>0.260561</v>
       </c>
     </row>
     <row r="87">
@@ -4439,13 +4439,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.230112</v>
+        <v>0.230819</v>
       </c>
       <c r="C87" t="n">
-        <v>0.253131</v>
+        <v>0.254</v>
       </c>
       <c r="D87" t="n">
-        <v>0.257496</v>
+        <v>0.258245</v>
       </c>
     </row>
     <row r="88">
@@ -4453,13 +4453,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.223392</v>
+        <v>0.224906</v>
       </c>
       <c r="C88" t="n">
-        <v>0.25006</v>
+        <v>0.253322</v>
       </c>
       <c r="D88" t="n">
-        <v>0.255451</v>
+        <v>0.255522</v>
       </c>
     </row>
     <row r="89">
@@ -4467,13 +4467,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.220449</v>
+        <v>0.218698</v>
       </c>
       <c r="C89" t="n">
-        <v>0.252339</v>
+        <v>0.25292</v>
       </c>
       <c r="D89" t="n">
-        <v>0.254328</v>
+        <v>0.254383</v>
       </c>
     </row>
     <row r="90">
@@ -4481,13 +4481,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.216424</v>
+        <v>0.217696</v>
       </c>
       <c r="C90" t="n">
-        <v>0.252343</v>
+        <v>0.251244</v>
       </c>
       <c r="D90" t="n">
-        <v>0.254516</v>
+        <v>0.252876</v>
       </c>
     </row>
     <row r="91">
@@ -4495,13 +4495,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.21288</v>
+        <v>0.214459</v>
       </c>
       <c r="C91" t="n">
-        <v>0.249626</v>
+        <v>0.246458</v>
       </c>
       <c r="D91" t="n">
-        <v>0.250838</v>
+        <v>0.250678</v>
       </c>
     </row>
     <row r="92">
@@ -4509,13 +4509,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.208442</v>
+        <v>0.208623</v>
       </c>
       <c r="C92" t="n">
-        <v>0.247046</v>
+        <v>0.245428</v>
       </c>
       <c r="D92" t="n">
-        <v>0.24867</v>
+        <v>0.252653</v>
       </c>
     </row>
     <row r="93">
@@ -4523,13 +4523,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.202483</v>
+        <v>0.205086</v>
       </c>
       <c r="C93" t="n">
-        <v>0.244642</v>
+        <v>0.246063</v>
       </c>
       <c r="D93" t="n">
-        <v>0.251448</v>
+        <v>0.248545</v>
       </c>
     </row>
     <row r="94">
@@ -4537,13 +4537,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.195889</v>
+        <v>0.194951</v>
       </c>
       <c r="C94" t="n">
-        <v>0.243577</v>
+        <v>0.245145</v>
       </c>
       <c r="D94" t="n">
-        <v>0.275978</v>
+        <v>0.27667</v>
       </c>
     </row>
     <row r="95">
@@ -4551,13 +4551,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.260363</v>
+        <v>0.263679</v>
       </c>
       <c r="C95" t="n">
-        <v>0.270795</v>
+        <v>0.268964</v>
       </c>
       <c r="D95" t="n">
-        <v>0.274705</v>
+        <v>0.272176</v>
       </c>
     </row>
     <row r="96">
@@ -4565,13 +4565,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.256878</v>
+        <v>0.265</v>
       </c>
       <c r="C96" t="n">
-        <v>0.268636</v>
+        <v>0.268443</v>
       </c>
       <c r="D96" t="n">
-        <v>0.273954</v>
+        <v>0.273216</v>
       </c>
     </row>
     <row r="97">
@@ -4579,13 +4579,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.255558</v>
+        <v>0.249656</v>
       </c>
       <c r="C97" t="n">
-        <v>0.265315</v>
+        <v>0.261649</v>
       </c>
       <c r="D97" t="n">
-        <v>0.266885</v>
+        <v>0.270748</v>
       </c>
     </row>
     <row r="98">
@@ -4593,13 +4593,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.250774</v>
+        <v>0.246377</v>
       </c>
       <c r="C98" t="n">
-        <v>0.259185</v>
+        <v>0.261744</v>
       </c>
       <c r="D98" t="n">
-        <v>0.266491</v>
+        <v>0.263792</v>
       </c>
     </row>
     <row r="99">
@@ -4607,13 +4607,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.24371</v>
+        <v>0.242768</v>
       </c>
       <c r="C99" t="n">
-        <v>0.258468</v>
+        <v>0.263126</v>
       </c>
       <c r="D99" t="n">
-        <v>0.262938</v>
+        <v>0.264299</v>
       </c>
     </row>
     <row r="100">
@@ -4621,13 +4621,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.239105</v>
+        <v>0.237038</v>
       </c>
       <c r="C100" t="n">
-        <v>0.257036</v>
+        <v>0.257925</v>
       </c>
       <c r="D100" t="n">
-        <v>0.26067</v>
+        <v>0.260867</v>
       </c>
     </row>
     <row r="101">
@@ -4635,13 +4635,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.232398</v>
+        <v>0.23433</v>
       </c>
       <c r="C101" t="n">
-        <v>0.257981</v>
+        <v>0.251815</v>
       </c>
       <c r="D101" t="n">
-        <v>0.258064</v>
+        <v>0.258035</v>
       </c>
     </row>
     <row r="102">
@@ -4649,13 +4649,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.23047</v>
+        <v>0.225909</v>
       </c>
       <c r="C102" t="n">
-        <v>0.254149</v>
+        <v>0.257317</v>
       </c>
       <c r="D102" t="n">
-        <v>0.25676</v>
+        <v>0.256499</v>
       </c>
     </row>
     <row r="103">
@@ -4663,13 +4663,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.222237</v>
+        <v>0.222008</v>
       </c>
       <c r="C103" t="n">
-        <v>0.255167</v>
+        <v>0.255227</v>
       </c>
       <c r="D103" t="n">
-        <v>0.253948</v>
+        <v>0.256715</v>
       </c>
     </row>
     <row r="104">
@@ -4677,13 +4677,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.222072</v>
+        <v>0.219821</v>
       </c>
       <c r="C104" t="n">
-        <v>0.249522</v>
+        <v>0.250591</v>
       </c>
       <c r="D104" t="n">
-        <v>0.257427</v>
+        <v>0.257176</v>
       </c>
     </row>
     <row r="105">
@@ -4691,13 +4691,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.214204</v>
+        <v>0.214786</v>
       </c>
       <c r="C105" t="n">
-        <v>0.248216</v>
+        <v>0.251371</v>
       </c>
       <c r="D105" t="n">
-        <v>0.256299</v>
+        <v>0.252959</v>
       </c>
     </row>
     <row r="106">
@@ -4705,13 +4705,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.209977</v>
+        <v>0.211376</v>
       </c>
       <c r="C106" t="n">
-        <v>0.248647</v>
+        <v>0.243326</v>
       </c>
       <c r="D106" t="n">
-        <v>0.25231</v>
+        <v>0.251605</v>
       </c>
     </row>
     <row r="107">
@@ -4719,13 +4719,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.204198</v>
+        <v>0.204559</v>
       </c>
       <c r="C107" t="n">
-        <v>0.244802</v>
+        <v>0.242253</v>
       </c>
       <c r="D107" t="n">
-        <v>0.25062</v>
+        <v>0.249791</v>
       </c>
     </row>
     <row r="108">
@@ -4733,13 +4733,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.195897</v>
+        <v>0.197704</v>
       </c>
       <c r="C108" t="n">
-        <v>0.242497</v>
+        <v>0.244777</v>
       </c>
       <c r="D108" t="n">
-        <v>0.275798</v>
+        <v>0.276474</v>
       </c>
     </row>
     <row r="109">
@@ -4747,13 +4747,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.189923</v>
+        <v>0.188981</v>
       </c>
       <c r="C109" t="n">
-        <v>0.243958</v>
+        <v>0.240395</v>
       </c>
       <c r="D109" t="n">
-        <v>0.27183</v>
+        <v>0.278411</v>
       </c>
     </row>
     <row r="110">
@@ -4761,13 +4761,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.261851</v>
+        <v>0.259623</v>
       </c>
       <c r="C110" t="n">
-        <v>0.266882</v>
+        <v>0.26667</v>
       </c>
       <c r="D110" t="n">
-        <v>0.271679</v>
+        <v>0.273178</v>
       </c>
     </row>
     <row r="111">
@@ -4775,13 +4775,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.253511</v>
+        <v>0.254273</v>
       </c>
       <c r="C111" t="n">
-        <v>0.265094</v>
+        <v>0.264527</v>
       </c>
       <c r="D111" t="n">
-        <v>0.269006</v>
+        <v>0.270127</v>
       </c>
     </row>
     <row r="112">
@@ -4789,13 +4789,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.247522</v>
+        <v>0.250975</v>
       </c>
       <c r="C112" t="n">
-        <v>0.262943</v>
+        <v>0.261012</v>
       </c>
       <c r="D112" t="n">
-        <v>0.266489</v>
+        <v>0.265057</v>
       </c>
     </row>
     <row r="113">
@@ -4803,13 +4803,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.241848</v>
+        <v>0.246427</v>
       </c>
       <c r="C113" t="n">
-        <v>0.259936</v>
+        <v>0.259845</v>
       </c>
       <c r="D113" t="n">
-        <v>0.268991</v>
+        <v>0.262084</v>
       </c>
     </row>
     <row r="114">
@@ -4817,13 +4817,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.243833</v>
+        <v>0.240387</v>
       </c>
       <c r="C114" t="n">
-        <v>0.260667</v>
+        <v>0.256842</v>
       </c>
       <c r="D114" t="n">
-        <v>0.262873</v>
+        <v>0.264552</v>
       </c>
     </row>
     <row r="115">
@@ -4831,13 +4831,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.234498</v>
+        <v>0.234097</v>
       </c>
       <c r="C115" t="n">
-        <v>0.253792</v>
+        <v>0.254257</v>
       </c>
       <c r="D115" t="n">
-        <v>0.267272</v>
+        <v>0.258767</v>
       </c>
     </row>
     <row r="116">
@@ -4845,13 +4845,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.229563</v>
+        <v>0.229349</v>
       </c>
       <c r="C116" t="n">
-        <v>0.253846</v>
+        <v>0.251121</v>
       </c>
       <c r="D116" t="n">
-        <v>0.259707</v>
+        <v>0.257395</v>
       </c>
     </row>
     <row r="117">
@@ -4859,13 +4859,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.2237</v>
+        <v>0.222394</v>
       </c>
       <c r="C117" t="n">
-        <v>0.253662</v>
+        <v>0.24976</v>
       </c>
       <c r="D117" t="n">
-        <v>0.255568</v>
+        <v>0.255417</v>
       </c>
     </row>
     <row r="118">
@@ -4873,13 +4873,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.216958</v>
+        <v>0.218936</v>
       </c>
       <c r="C118" t="n">
-        <v>0.252605</v>
+        <v>0.248188</v>
       </c>
       <c r="D118" t="n">
-        <v>0.252523</v>
+        <v>0.256258</v>
       </c>
     </row>
     <row r="119">
@@ -4887,13 +4887,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.214155</v>
+        <v>0.213099</v>
       </c>
       <c r="C119" t="n">
-        <v>0.248232</v>
+        <v>0.257108</v>
       </c>
       <c r="D119" t="n">
-        <v>0.254284</v>
+        <v>0.255905</v>
       </c>
     </row>
     <row r="120">
@@ -4901,13 +4901,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.212234</v>
+        <v>0.211659</v>
       </c>
       <c r="C120" t="n">
-        <v>0.2485</v>
+        <v>0.246037</v>
       </c>
       <c r="D120" t="n">
-        <v>0.252547</v>
+        <v>0.257781</v>
       </c>
     </row>
     <row r="121">
@@ -4915,13 +4915,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.203346</v>
+        <v>0.207575</v>
       </c>
       <c r="C121" t="n">
-        <v>0.244994</v>
+        <v>0.244122</v>
       </c>
       <c r="D121" t="n">
-        <v>0.252163</v>
+        <v>0.256428</v>
       </c>
     </row>
     <row r="122">
@@ -4929,13 +4929,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.200951</v>
+        <v>0.200097</v>
       </c>
       <c r="C122" t="n">
-        <v>0.2436</v>
+        <v>0.245937</v>
       </c>
       <c r="D122" t="n">
-        <v>0.247657</v>
+        <v>0.250064</v>
       </c>
     </row>
     <row r="123">
@@ -4943,13 +4943,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.193662</v>
+        <v>0.191534</v>
       </c>
       <c r="C123" t="n">
-        <v>0.247061</v>
+        <v>0.242378</v>
       </c>
       <c r="D123" t="n">
-        <v>0.283189</v>
+        <v>0.277923</v>
       </c>
     </row>
     <row r="124">
@@ -4957,13 +4957,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.259648</v>
+        <v>0.260377</v>
       </c>
       <c r="C124" t="n">
-        <v>0.26607</v>
+        <v>0.273674</v>
       </c>
       <c r="D124" t="n">
-        <v>0.274074</v>
+        <v>0.272674</v>
       </c>
     </row>
     <row r="125">
@@ -4971,13 +4971,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.255324</v>
+        <v>0.262082</v>
       </c>
       <c r="C125" t="n">
-        <v>0.268585</v>
+        <v>0.268193</v>
       </c>
       <c r="D125" t="n">
-        <v>0.274267</v>
+        <v>0.27342</v>
       </c>
     </row>
     <row r="126">
@@ -4985,13 +4985,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.251179</v>
+        <v>0.250317</v>
       </c>
       <c r="C126" t="n">
-        <v>0.260292</v>
+        <v>0.26132</v>
       </c>
       <c r="D126" t="n">
-        <v>0.264455</v>
+        <v>0.26833</v>
       </c>
     </row>
     <row r="127">
@@ -4999,13 +4999,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.243849</v>
+        <v>0.244368</v>
       </c>
       <c r="C127" t="n">
-        <v>0.259125</v>
+        <v>0.264432</v>
       </c>
       <c r="D127" t="n">
-        <v>0.266172</v>
+        <v>0.267939</v>
       </c>
     </row>
     <row r="128">
@@ -5013,13 +5013,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.238315</v>
+        <v>0.236367</v>
       </c>
       <c r="C128" t="n">
-        <v>0.261668</v>
+        <v>0.259806</v>
       </c>
       <c r="D128" t="n">
-        <v>0.26355</v>
+        <v>0.260043</v>
       </c>
     </row>
     <row r="129">
@@ -5027,13 +5027,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.239929</v>
+        <v>0.23288</v>
       </c>
       <c r="C129" t="n">
-        <v>0.253747</v>
+        <v>0.255684</v>
       </c>
       <c r="D129" t="n">
-        <v>0.262998</v>
+        <v>0.261061</v>
       </c>
     </row>
     <row r="130">
@@ -5041,13 +5041,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.226629</v>
+        <v>0.227018</v>
       </c>
       <c r="C130" t="n">
-        <v>0.254469</v>
+        <v>0.253906</v>
       </c>
       <c r="D130" t="n">
-        <v>0.258836</v>
+        <v>0.259477</v>
       </c>
     </row>
     <row r="131">
@@ -5055,13 +5055,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.227548</v>
+        <v>0.225076</v>
       </c>
       <c r="C131" t="n">
-        <v>0.259017</v>
+        <v>0.253008</v>
       </c>
       <c r="D131" t="n">
-        <v>0.258657</v>
+        <v>0.257787</v>
       </c>
     </row>
     <row r="132">
@@ -5069,13 +5069,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.220127</v>
+        <v>0.220311</v>
       </c>
       <c r="C132" t="n">
-        <v>0.251068</v>
+        <v>0.248957</v>
       </c>
       <c r="D132" t="n">
-        <v>0.252365</v>
+        <v>0.260642</v>
       </c>
     </row>
     <row r="133">
@@ -5083,13 +5083,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.219841</v>
+        <v>0.214367</v>
       </c>
       <c r="C133" t="n">
-        <v>0.251711</v>
+        <v>0.252942</v>
       </c>
       <c r="D133" t="n">
-        <v>0.255223</v>
+        <v>0.260539</v>
       </c>
     </row>
     <row r="134">
@@ -5097,13 +5097,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.211684</v>
+        <v>0.215917</v>
       </c>
       <c r="C134" t="n">
-        <v>0.248479</v>
+        <v>0.247361</v>
       </c>
       <c r="D134" t="n">
-        <v>0.251113</v>
+        <v>0.25043</v>
       </c>
     </row>
     <row r="135">
@@ -5111,13 +5111,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.206798</v>
+        <v>0.206324</v>
       </c>
       <c r="C135" t="n">
-        <v>0.250952</v>
+        <v>0.24469</v>
       </c>
       <c r="D135" t="n">
-        <v>0.249196</v>
+        <v>0.248141</v>
       </c>
     </row>
     <row r="136">
@@ -5125,13 +5125,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.200186</v>
+        <v>0.201561</v>
       </c>
       <c r="C136" t="n">
-        <v>0.24399</v>
+        <v>0.243554</v>
       </c>
       <c r="D136" t="n">
-        <v>0.248093</v>
+        <v>0.248992</v>
       </c>
     </row>
     <row r="137">
@@ -5139,13 +5139,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.192827</v>
+        <v>0.191961</v>
       </c>
       <c r="C137" t="n">
-        <v>0.243806</v>
+        <v>0.242183</v>
       </c>
       <c r="D137" t="n">
-        <v>0.281695</v>
+        <v>0.280505</v>
       </c>
     </row>
     <row r="138">
@@ -5153,13 +5153,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.265149</v>
+        <v>0.268169</v>
       </c>
       <c r="C138" t="n">
-        <v>0.269653</v>
+        <v>0.271167</v>
       </c>
       <c r="D138" t="n">
-        <v>0.273382</v>
+        <v>0.278303</v>
       </c>
     </row>
     <row r="139">
@@ -5167,13 +5167,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.256028</v>
+        <v>0.263572</v>
       </c>
       <c r="C139" t="n">
-        <v>0.268506</v>
+        <v>0.275764</v>
       </c>
       <c r="D139" t="n">
-        <v>0.276313</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="140">
@@ -5181,13 +5181,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.247247</v>
+        <v>0.247077</v>
       </c>
       <c r="C140" t="n">
-        <v>0.263881</v>
+        <v>0.26565</v>
       </c>
       <c r="D140" t="n">
-        <v>0.26707</v>
+        <v>0.268906</v>
       </c>
     </row>
     <row r="141">
@@ -5195,13 +5195,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.2428</v>
+        <v>0.247375</v>
       </c>
       <c r="C141" t="n">
-        <v>0.258771</v>
+        <v>0.259072</v>
       </c>
       <c r="D141" t="n">
-        <v>0.263633</v>
+        <v>0.264941</v>
       </c>
     </row>
     <row r="142">
@@ -5209,13 +5209,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.237954</v>
+        <v>0.244009</v>
       </c>
       <c r="C142" t="n">
-        <v>0.25695</v>
+        <v>0.258171</v>
       </c>
       <c r="D142" t="n">
-        <v>0.259332</v>
+        <v>0.26209</v>
       </c>
     </row>
     <row r="143">
@@ -5223,13 +5223,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.237825</v>
+        <v>0.233515</v>
       </c>
       <c r="C143" t="n">
-        <v>0.257028</v>
+        <v>0.262454</v>
       </c>
       <c r="D143" t="n">
-        <v>0.260777</v>
+        <v>0.25851</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Running erasure.xlsx
+++ b/vs-x64/Running erasure.xlsx
@@ -3249,13 +3249,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.202129</v>
+        <v>0.207672</v>
       </c>
       <c r="C2" t="n">
-        <v>0.242928</v>
+        <v>0.235893</v>
       </c>
       <c r="D2" t="n">
-        <v>0.245121</v>
+        <v>0.244435</v>
       </c>
     </row>
     <row r="3">
@@ -3263,13 +3263,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.199693</v>
+        <v>0.205515</v>
       </c>
       <c r="C3" t="n">
-        <v>0.235218</v>
+        <v>0.242075</v>
       </c>
       <c r="D3" t="n">
-        <v>0.239954</v>
+        <v>0.245028</v>
       </c>
     </row>
     <row r="4">
@@ -3277,13 +3277,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.198686</v>
+        <v>0.206167</v>
       </c>
       <c r="C4" t="n">
-        <v>0.239118</v>
+        <v>0.240106</v>
       </c>
       <c r="D4" t="n">
-        <v>0.243902</v>
+        <v>0.249927</v>
       </c>
     </row>
     <row r="5">
@@ -3291,13 +3291,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.197175</v>
+        <v>0.199636</v>
       </c>
       <c r="C5" t="n">
-        <v>0.234271</v>
+        <v>0.239294</v>
       </c>
       <c r="D5" t="n">
-        <v>0.240112</v>
+        <v>0.241213</v>
       </c>
     </row>
     <row r="6">
@@ -3305,13 +3305,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.194496</v>
+        <v>0.198267</v>
       </c>
       <c r="C6" t="n">
-        <v>0.228725</v>
+        <v>0.238194</v>
       </c>
       <c r="D6" t="n">
-        <v>0.239592</v>
+        <v>0.237044</v>
       </c>
     </row>
     <row r="7">
@@ -3319,13 +3319,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.188683</v>
+        <v>0.190987</v>
       </c>
       <c r="C7" t="n">
-        <v>0.233335</v>
+        <v>0.230321</v>
       </c>
       <c r="D7" t="n">
-        <v>0.23731</v>
+        <v>0.233027</v>
       </c>
     </row>
     <row r="8">
@@ -3333,13 +3333,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.185203</v>
+        <v>0.18222</v>
       </c>
       <c r="C8" t="n">
-        <v>0.233046</v>
+        <v>0.229829</v>
       </c>
       <c r="D8" t="n">
-        <v>0.234482</v>
+        <v>0.230696</v>
       </c>
     </row>
     <row r="9">
@@ -3347,13 +3347,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.175727</v>
+        <v>0.17193</v>
       </c>
       <c r="C9" t="n">
-        <v>0.231033</v>
+        <v>0.233079</v>
       </c>
       <c r="D9" t="n">
-        <v>0.248747</v>
+        <v>0.242348</v>
       </c>
     </row>
     <row r="10">
@@ -3361,13 +3361,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.227815</v>
+        <v>0.223264</v>
       </c>
       <c r="C10" t="n">
-        <v>0.242936</v>
+        <v>0.23939</v>
       </c>
       <c r="D10" t="n">
-        <v>0.24449</v>
+        <v>0.244167</v>
       </c>
     </row>
     <row r="11">
@@ -3375,13 +3375,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.222474</v>
+        <v>0.227916</v>
       </c>
       <c r="C11" t="n">
-        <v>0.239183</v>
+        <v>0.239138</v>
       </c>
       <c r="D11" t="n">
-        <v>0.243221</v>
+        <v>0.23834</v>
       </c>
     </row>
     <row r="12">
@@ -3389,13 +3389,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.221088</v>
+        <v>0.220783</v>
       </c>
       <c r="C12" t="n">
-        <v>0.239326</v>
+        <v>0.237813</v>
       </c>
       <c r="D12" t="n">
-        <v>0.250507</v>
+        <v>0.242001</v>
       </c>
     </row>
     <row r="13">
@@ -3403,13 +3403,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.214872</v>
+        <v>0.219062</v>
       </c>
       <c r="C13" t="n">
-        <v>0.232548</v>
+        <v>0.238249</v>
       </c>
       <c r="D13" t="n">
-        <v>0.243534</v>
+        <v>0.241674</v>
       </c>
     </row>
     <row r="14">
@@ -3417,13 +3417,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.216002</v>
+        <v>0.211013</v>
       </c>
       <c r="C14" t="n">
-        <v>0.237945</v>
+        <v>0.233826</v>
       </c>
       <c r="D14" t="n">
-        <v>0.244614</v>
+        <v>0.234285</v>
       </c>
     </row>
     <row r="15">
@@ -3431,13 +3431,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.212421</v>
+        <v>0.205864</v>
       </c>
       <c r="C15" t="n">
-        <v>0.232547</v>
+        <v>0.231412</v>
       </c>
       <c r="D15" t="n">
-        <v>0.241009</v>
+        <v>0.234679</v>
       </c>
     </row>
     <row r="16">
@@ -3445,13 +3445,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.209834</v>
+        <v>0.207867</v>
       </c>
       <c r="C16" t="n">
-        <v>0.233149</v>
+        <v>0.237376</v>
       </c>
       <c r="D16" t="n">
-        <v>0.237483</v>
+        <v>0.240359</v>
       </c>
     </row>
     <row r="17">
@@ -3459,13 +3459,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.200263</v>
+        <v>0.209415</v>
       </c>
       <c r="C17" t="n">
-        <v>0.232678</v>
+        <v>0.231536</v>
       </c>
       <c r="D17" t="n">
-        <v>0.23803</v>
+        <v>0.236625</v>
       </c>
     </row>
     <row r="18">
@@ -3473,13 +3473,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.198203</v>
+        <v>0.20505</v>
       </c>
       <c r="C18" t="n">
-        <v>0.233868</v>
+        <v>0.235559</v>
       </c>
       <c r="D18" t="n">
-        <v>0.235787</v>
+        <v>0.233877</v>
       </c>
     </row>
     <row r="19">
@@ -3487,13 +3487,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.198025</v>
+        <v>0.200696</v>
       </c>
       <c r="C19" t="n">
-        <v>0.226154</v>
+        <v>0.233121</v>
       </c>
       <c r="D19" t="n">
-        <v>0.236512</v>
+        <v>0.23228</v>
       </c>
     </row>
     <row r="20">
@@ -3501,13 +3501,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.197844</v>
+        <v>0.194004</v>
       </c>
       <c r="C20" t="n">
-        <v>0.228808</v>
+        <v>0.232723</v>
       </c>
       <c r="D20" t="n">
-        <v>0.233724</v>
+        <v>0.232289</v>
       </c>
     </row>
     <row r="21">
@@ -3515,13 +3515,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.193782</v>
+        <v>0.191727</v>
       </c>
       <c r="C21" t="n">
-        <v>0.230738</v>
+        <v>0.231472</v>
       </c>
       <c r="D21" t="n">
-        <v>0.237382</v>
+        <v>0.233221</v>
       </c>
     </row>
     <row r="22">
@@ -3529,13 +3529,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.188275</v>
+        <v>0.186083</v>
       </c>
       <c r="C22" t="n">
-        <v>0.225035</v>
+        <v>0.228086</v>
       </c>
       <c r="D22" t="n">
-        <v>0.235853</v>
+        <v>0.232048</v>
       </c>
     </row>
     <row r="23">
@@ -3543,13 +3543,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.178802</v>
+        <v>0.180594</v>
       </c>
       <c r="C23" t="n">
-        <v>0.227134</v>
+        <v>0.228913</v>
       </c>
       <c r="D23" t="n">
-        <v>0.253452</v>
+        <v>0.244142</v>
       </c>
     </row>
     <row r="24">
@@ -3557,13 +3557,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.2352</v>
+        <v>0.238699</v>
       </c>
       <c r="C24" t="n">
-        <v>0.243778</v>
+        <v>0.246693</v>
       </c>
       <c r="D24" t="n">
-        <v>0.249395</v>
+        <v>0.249104</v>
       </c>
     </row>
     <row r="25">
@@ -3571,13 +3571,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.22935</v>
+        <v>0.233403</v>
       </c>
       <c r="C25" t="n">
-        <v>0.245151</v>
+        <v>0.244614</v>
       </c>
       <c r="D25" t="n">
-        <v>0.244379</v>
+        <v>0.248376</v>
       </c>
     </row>
     <row r="26">
@@ -3585,13 +3585,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.229573</v>
+        <v>0.23128</v>
       </c>
       <c r="C26" t="n">
-        <v>0.241586</v>
+        <v>0.24633</v>
       </c>
       <c r="D26" t="n">
-        <v>0.246822</v>
+        <v>0.240633</v>
       </c>
     </row>
     <row r="27">
@@ -3599,13 +3599,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.225219</v>
+        <v>0.225637</v>
       </c>
       <c r="C27" t="n">
-        <v>0.238361</v>
+        <v>0.243611</v>
       </c>
       <c r="D27" t="n">
-        <v>0.244146</v>
+        <v>0.242518</v>
       </c>
     </row>
     <row r="28">
@@ -3613,13 +3613,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.217352</v>
+        <v>0.222328</v>
       </c>
       <c r="C28" t="n">
-        <v>0.240704</v>
+        <v>0.241319</v>
       </c>
       <c r="D28" t="n">
-        <v>0.242664</v>
+        <v>0.240878</v>
       </c>
     </row>
     <row r="29">
@@ -3627,13 +3627,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.2169</v>
+        <v>0.216809</v>
       </c>
       <c r="C29" t="n">
-        <v>0.237333</v>
+        <v>0.242764</v>
       </c>
       <c r="D29" t="n">
-        <v>0.243689</v>
+        <v>0.240509</v>
       </c>
     </row>
     <row r="30">
@@ -3641,13 +3641,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.21522</v>
+        <v>0.216155</v>
       </c>
       <c r="C30" t="n">
-        <v>0.239197</v>
+        <v>0.240708</v>
       </c>
       <c r="D30" t="n">
-        <v>0.24689</v>
+        <v>0.238068</v>
       </c>
     </row>
     <row r="31">
@@ -3655,13 +3655,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.209128</v>
+        <v>0.210046</v>
       </c>
       <c r="C31" t="n">
-        <v>0.23713</v>
+        <v>0.240364</v>
       </c>
       <c r="D31" t="n">
-        <v>0.240918</v>
+        <v>0.234748</v>
       </c>
     </row>
     <row r="32">
@@ -3669,13 +3669,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.207572</v>
+        <v>0.203284</v>
       </c>
       <c r="C32" t="n">
-        <v>0.231912</v>
+        <v>0.236813</v>
       </c>
       <c r="D32" t="n">
-        <v>0.241818</v>
+        <v>0.239293</v>
       </c>
     </row>
     <row r="33">
@@ -3683,13 +3683,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.2057</v>
+        <v>0.204514</v>
       </c>
       <c r="C33" t="n">
-        <v>0.233188</v>
+        <v>0.235023</v>
       </c>
       <c r="D33" t="n">
-        <v>0.238041</v>
+        <v>0.237021</v>
       </c>
     </row>
     <row r="34">
@@ -3697,13 +3697,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.198809</v>
+        <v>0.197347</v>
       </c>
       <c r="C34" t="n">
-        <v>0.232526</v>
+        <v>0.235751</v>
       </c>
       <c r="D34" t="n">
-        <v>0.239936</v>
+        <v>0.238279</v>
       </c>
     </row>
     <row r="35">
@@ -3711,13 +3711,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.192594</v>
+        <v>0.197069</v>
       </c>
       <c r="C35" t="n">
-        <v>0.227407</v>
+        <v>0.230817</v>
       </c>
       <c r="D35" t="n">
-        <v>0.229155</v>
+        <v>0.23801</v>
       </c>
     </row>
     <row r="36">
@@ -3725,13 +3725,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.18599</v>
+        <v>0.190943</v>
       </c>
       <c r="C36" t="n">
-        <v>0.228233</v>
+        <v>0.236702</v>
       </c>
       <c r="D36" t="n">
-        <v>0.243963</v>
+        <v>0.236955</v>
       </c>
     </row>
     <row r="37">
@@ -3739,13 +3739,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.184316</v>
+        <v>0.187482</v>
       </c>
       <c r="C37" t="n">
-        <v>0.226194</v>
+        <v>0.232808</v>
       </c>
       <c r="D37" t="n">
-        <v>0.262049</v>
+        <v>0.261304</v>
       </c>
     </row>
     <row r="38">
@@ -3753,13 +3753,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.241776</v>
+        <v>0.246563</v>
       </c>
       <c r="C38" t="n">
-        <v>0.255173</v>
+        <v>0.25823</v>
       </c>
       <c r="D38" t="n">
-        <v>0.259566</v>
+        <v>0.259738</v>
       </c>
     </row>
     <row r="39">
@@ -3767,13 +3767,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.236949</v>
+        <v>0.238335</v>
       </c>
       <c r="C39" t="n">
-        <v>0.253666</v>
+        <v>0.259242</v>
       </c>
       <c r="D39" t="n">
-        <v>0.257572</v>
+        <v>0.259034</v>
       </c>
     </row>
     <row r="40">
@@ -3781,13 +3781,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.235371</v>
+        <v>0.234479</v>
       </c>
       <c r="C40" t="n">
-        <v>0.255637</v>
+        <v>0.254956</v>
       </c>
       <c r="D40" t="n">
-        <v>0.256655</v>
+        <v>0.256727</v>
       </c>
     </row>
     <row r="41">
@@ -3795,13 +3795,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.230917</v>
+        <v>0.228874</v>
       </c>
       <c r="C41" t="n">
-        <v>0.248702</v>
+        <v>0.252678</v>
       </c>
       <c r="D41" t="n">
-        <v>0.254086</v>
+        <v>0.254112</v>
       </c>
     </row>
     <row r="42">
@@ -3809,13 +3809,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.225713</v>
+        <v>0.223938</v>
       </c>
       <c r="C42" t="n">
-        <v>0.24633</v>
+        <v>0.250326</v>
       </c>
       <c r="D42" t="n">
-        <v>0.254099</v>
+        <v>0.252678</v>
       </c>
     </row>
     <row r="43">
@@ -3823,13 +3823,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.220044</v>
+        <v>0.224485</v>
       </c>
       <c r="C43" t="n">
-        <v>0.247739</v>
+        <v>0.252624</v>
       </c>
       <c r="D43" t="n">
-        <v>0.253675</v>
+        <v>0.255498</v>
       </c>
     </row>
     <row r="44">
@@ -3837,13 +3837,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.214031</v>
+        <v>0.220292</v>
       </c>
       <c r="C44" t="n">
-        <v>0.245172</v>
+        <v>0.250902</v>
       </c>
       <c r="D44" t="n">
-        <v>0.248658</v>
+        <v>0.248467</v>
       </c>
     </row>
     <row r="45">
@@ -3851,13 +3851,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.213988</v>
+        <v>0.212921</v>
       </c>
       <c r="C45" t="n">
-        <v>0.24544</v>
+        <v>0.249884</v>
       </c>
       <c r="D45" t="n">
-        <v>0.245757</v>
+        <v>0.247779</v>
       </c>
     </row>
     <row r="46">
@@ -3865,13 +3865,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.208671</v>
+        <v>0.20907</v>
       </c>
       <c r="C46" t="n">
-        <v>0.24223</v>
+        <v>0.245219</v>
       </c>
       <c r="D46" t="n">
-        <v>0.24754</v>
+        <v>0.247573</v>
       </c>
     </row>
     <row r="47">
@@ -3879,13 +3879,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.206283</v>
+        <v>0.207235</v>
       </c>
       <c r="C47" t="n">
-        <v>0.24096</v>
+        <v>0.241679</v>
       </c>
       <c r="D47" t="n">
-        <v>0.245083</v>
+        <v>0.246287</v>
       </c>
     </row>
     <row r="48">
@@ -3893,13 +3893,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.201533</v>
+        <v>0.202354</v>
       </c>
       <c r="C48" t="n">
-        <v>0.240397</v>
+        <v>0.242162</v>
       </c>
       <c r="D48" t="n">
-        <v>0.242464</v>
+        <v>0.243226</v>
       </c>
     </row>
     <row r="49">
@@ -3907,13 +3907,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.196118</v>
+        <v>0.19819</v>
       </c>
       <c r="C49" t="n">
-        <v>0.240819</v>
+        <v>0.241046</v>
       </c>
       <c r="D49" t="n">
-        <v>0.242487</v>
+        <v>0.237537</v>
       </c>
     </row>
     <row r="50">
@@ -3921,13 +3921,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.194254</v>
+        <v>0.192388</v>
       </c>
       <c r="C50" t="n">
-        <v>0.238205</v>
+        <v>0.23995</v>
       </c>
       <c r="D50" t="n">
-        <v>0.241839</v>
+        <v>0.243342</v>
       </c>
     </row>
     <row r="51">
@@ -3935,13 +3935,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.187264</v>
+        <v>0.1893</v>
       </c>
       <c r="C51" t="n">
-        <v>0.238695</v>
+        <v>0.238406</v>
       </c>
       <c r="D51" t="n">
-        <v>0.262295</v>
+        <v>0.262956</v>
       </c>
     </row>
     <row r="52">
@@ -3949,13 +3949,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.179381</v>
+        <v>0.178654</v>
       </c>
       <c r="C52" t="n">
-        <v>0.238901</v>
+        <v>0.237968</v>
       </c>
       <c r="D52" t="n">
-        <v>0.262236</v>
+        <v>0.261373</v>
       </c>
     </row>
     <row r="53">
@@ -3963,13 +3963,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.242587</v>
+        <v>0.241564</v>
       </c>
       <c r="C53" t="n">
-        <v>0.254988</v>
+        <v>0.257158</v>
       </c>
       <c r="D53" t="n">
-        <v>0.257847</v>
+        <v>0.259776</v>
       </c>
     </row>
     <row r="54">
@@ -3977,13 +3977,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.244043</v>
+        <v>0.240498</v>
       </c>
       <c r="C54" t="n">
-        <v>0.2535</v>
+        <v>0.254009</v>
       </c>
       <c r="D54" t="n">
-        <v>0.259172</v>
+        <v>0.259101</v>
       </c>
     </row>
     <row r="55">
@@ -3991,13 +3991,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.237304</v>
+        <v>0.236049</v>
       </c>
       <c r="C55" t="n">
-        <v>0.251509</v>
+        <v>0.25334</v>
       </c>
       <c r="D55" t="n">
-        <v>0.257043</v>
+        <v>0.253198</v>
       </c>
     </row>
     <row r="56">
@@ -4005,13 +4005,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.229468</v>
+        <v>0.23031</v>
       </c>
       <c r="C56" t="n">
-        <v>0.247725</v>
+        <v>0.251818</v>
       </c>
       <c r="D56" t="n">
-        <v>0.254036</v>
+        <v>0.251883</v>
       </c>
     </row>
     <row r="57">
@@ -4019,13 +4019,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.228347</v>
+        <v>0.226078</v>
       </c>
       <c r="C57" t="n">
-        <v>0.24852</v>
+        <v>0.249075</v>
       </c>
       <c r="D57" t="n">
-        <v>0.251603</v>
+        <v>0.253215</v>
       </c>
     </row>
     <row r="58">
@@ -4033,13 +4033,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.222031</v>
+        <v>0.222293</v>
       </c>
       <c r="C58" t="n">
-        <v>0.246442</v>
+        <v>0.245938</v>
       </c>
       <c r="D58" t="n">
-        <v>0.249626</v>
+        <v>0.250762</v>
       </c>
     </row>
     <row r="59">
@@ -4047,13 +4047,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.219125</v>
+        <v>0.219023</v>
       </c>
       <c r="C59" t="n">
-        <v>0.244356</v>
+        <v>0.244271</v>
       </c>
       <c r="D59" t="n">
-        <v>0.252306</v>
+        <v>0.247931</v>
       </c>
     </row>
     <row r="60">
@@ -4061,13 +4061,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.214685</v>
+        <v>0.212798</v>
       </c>
       <c r="C60" t="n">
-        <v>0.24454</v>
+        <v>0.245064</v>
       </c>
       <c r="D60" t="n">
-        <v>0.248933</v>
+        <v>0.249391</v>
       </c>
     </row>
     <row r="61">
@@ -4075,13 +4075,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.20968</v>
+        <v>0.209741</v>
       </c>
       <c r="C61" t="n">
-        <v>0.244337</v>
+        <v>0.24428</v>
       </c>
       <c r="D61" t="n">
-        <v>0.244291</v>
+        <v>0.245202</v>
       </c>
     </row>
     <row r="62">
@@ -4089,13 +4089,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.208068</v>
+        <v>0.205124</v>
       </c>
       <c r="C62" t="n">
-        <v>0.23987</v>
+        <v>0.243982</v>
       </c>
       <c r="D62" t="n">
-        <v>0.246037</v>
+        <v>0.249226</v>
       </c>
     </row>
     <row r="63">
@@ -4103,13 +4103,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.199756</v>
+        <v>0.2</v>
       </c>
       <c r="C63" t="n">
-        <v>0.237491</v>
+        <v>0.241141</v>
       </c>
       <c r="D63" t="n">
-        <v>0.242089</v>
+        <v>0.243343</v>
       </c>
     </row>
     <row r="64">
@@ -4117,13 +4117,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.197571</v>
+        <v>0.198034</v>
       </c>
       <c r="C64" t="n">
-        <v>0.235084</v>
+        <v>0.242434</v>
       </c>
       <c r="D64" t="n">
-        <v>0.241388</v>
+        <v>0.243693</v>
       </c>
     </row>
     <row r="65">
@@ -4131,13 +4131,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.192651</v>
+        <v>0.192099</v>
       </c>
       <c r="C65" t="n">
-        <v>0.237665</v>
+        <v>0.236945</v>
       </c>
       <c r="D65" t="n">
-        <v>0.243045</v>
+        <v>0.238517</v>
       </c>
     </row>
     <row r="66">
@@ -4145,13 +4145,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.183884</v>
+        <v>0.185111</v>
       </c>
       <c r="C66" t="n">
-        <v>0.236589</v>
+        <v>0.23941</v>
       </c>
       <c r="D66" t="n">
-        <v>0.26641</v>
+        <v>0.267302</v>
       </c>
     </row>
     <row r="67">
@@ -4159,13 +4159,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.249861</v>
+        <v>0.255051</v>
       </c>
       <c r="C67" t="n">
-        <v>0.260579</v>
+        <v>0.264759</v>
       </c>
       <c r="D67" t="n">
-        <v>0.263751</v>
+        <v>0.266103</v>
       </c>
     </row>
     <row r="68">
@@ -4173,13 +4173,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.246387</v>
+        <v>0.248585</v>
       </c>
       <c r="C68" t="n">
-        <v>0.258044</v>
+        <v>0.260388</v>
       </c>
       <c r="D68" t="n">
-        <v>0.26343</v>
+        <v>0.263301</v>
       </c>
     </row>
     <row r="69">
@@ -4187,13 +4187,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.246175</v>
+        <v>0.243558</v>
       </c>
       <c r="C69" t="n">
-        <v>0.256862</v>
+        <v>0.255479</v>
       </c>
       <c r="D69" t="n">
-        <v>0.259253</v>
+        <v>0.255784</v>
       </c>
     </row>
     <row r="70">
@@ -4201,13 +4201,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.238474</v>
+        <v>0.242139</v>
       </c>
       <c r="C70" t="n">
-        <v>0.252686</v>
+        <v>0.25473</v>
       </c>
       <c r="D70" t="n">
-        <v>0.259733</v>
+        <v>0.256892</v>
       </c>
     </row>
     <row r="71">
@@ -4215,13 +4215,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.231589</v>
+        <v>0.234804</v>
       </c>
       <c r="C71" t="n">
-        <v>0.252885</v>
+        <v>0.254841</v>
       </c>
       <c r="D71" t="n">
-        <v>0.258114</v>
+        <v>0.255208</v>
       </c>
     </row>
     <row r="72">
@@ -4229,13 +4229,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.228376</v>
+        <v>0.231376</v>
       </c>
       <c r="C72" t="n">
-        <v>0.250715</v>
+        <v>0.254704</v>
       </c>
       <c r="D72" t="n">
-        <v>0.255987</v>
+        <v>0.25313</v>
       </c>
     </row>
     <row r="73">
@@ -4243,13 +4243,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.227713</v>
+        <v>0.222925</v>
       </c>
       <c r="C73" t="n">
-        <v>0.247824</v>
+        <v>0.254349</v>
       </c>
       <c r="D73" t="n">
-        <v>0.253677</v>
+        <v>0.255749</v>
       </c>
     </row>
     <row r="74">
@@ -4257,13 +4257,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.225253</v>
+        <v>0.219194</v>
       </c>
       <c r="C74" t="n">
-        <v>0.245982</v>
+        <v>0.249343</v>
       </c>
       <c r="D74" t="n">
-        <v>0.249087</v>
+        <v>0.251735</v>
       </c>
     </row>
     <row r="75">
@@ -4271,13 +4271,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.21617</v>
+        <v>0.214081</v>
       </c>
       <c r="C75" t="n">
-        <v>0.244891</v>
+        <v>0.246956</v>
       </c>
       <c r="D75" t="n">
-        <v>0.249432</v>
+        <v>0.246905</v>
       </c>
     </row>
     <row r="76">
@@ -4285,13 +4285,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.212811</v>
+        <v>0.213315</v>
       </c>
       <c r="C76" t="n">
-        <v>0.243841</v>
+        <v>0.244184</v>
       </c>
       <c r="D76" t="n">
-        <v>0.249007</v>
+        <v>0.247478</v>
       </c>
     </row>
     <row r="77">
@@ -4299,13 +4299,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.209754</v>
+        <v>0.208693</v>
       </c>
       <c r="C77" t="n">
-        <v>0.245179</v>
+        <v>0.245805</v>
       </c>
       <c r="D77" t="n">
-        <v>0.251461</v>
+        <v>0.246024</v>
       </c>
     </row>
     <row r="78">
@@ -4313,13 +4313,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.20331</v>
+        <v>0.205253</v>
       </c>
       <c r="C78" t="n">
-        <v>0.240568</v>
+        <v>0.244057</v>
       </c>
       <c r="D78" t="n">
-        <v>0.246048</v>
+        <v>0.248931</v>
       </c>
     </row>
     <row r="79">
@@ -4327,13 +4327,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.197702</v>
+        <v>0.200406</v>
       </c>
       <c r="C79" t="n">
-        <v>0.241219</v>
+        <v>0.243479</v>
       </c>
       <c r="D79" t="n">
-        <v>0.247071</v>
+        <v>0.248131</v>
       </c>
     </row>
     <row r="80">
@@ -4341,13 +4341,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.193233</v>
+        <v>0.190789</v>
       </c>
       <c r="C80" t="n">
-        <v>0.241608</v>
+        <v>0.242</v>
       </c>
       <c r="D80" t="n">
-        <v>0.276066</v>
+        <v>0.27613</v>
       </c>
     </row>
     <row r="81">
@@ -4355,13 +4355,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.258018</v>
+        <v>0.259596</v>
       </c>
       <c r="C81" t="n">
-        <v>0.265141</v>
+        <v>0.270649</v>
       </c>
       <c r="D81" t="n">
-        <v>0.269966</v>
+        <v>0.268954</v>
       </c>
     </row>
     <row r="82">
@@ -4369,13 +4369,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.254248</v>
+        <v>0.253738</v>
       </c>
       <c r="C82" t="n">
-        <v>0.266203</v>
+        <v>0.268115</v>
       </c>
       <c r="D82" t="n">
-        <v>0.270417</v>
+        <v>0.264634</v>
       </c>
     </row>
     <row r="83">
@@ -4383,13 +4383,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.24815</v>
+        <v>0.248222</v>
       </c>
       <c r="C83" t="n">
-        <v>0.264903</v>
+        <v>0.26526</v>
       </c>
       <c r="D83" t="n">
-        <v>0.265735</v>
+        <v>0.2627</v>
       </c>
     </row>
     <row r="84">
@@ -4397,13 +4397,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.248529</v>
+        <v>0.245179</v>
       </c>
       <c r="C84" t="n">
-        <v>0.258925</v>
+        <v>0.261008</v>
       </c>
       <c r="D84" t="n">
-        <v>0.262154</v>
+        <v>0.261715</v>
       </c>
     </row>
     <row r="85">
@@ -4411,13 +4411,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.239251</v>
+        <v>0.239835</v>
       </c>
       <c r="C85" t="n">
-        <v>0.258127</v>
+        <v>0.259459</v>
       </c>
       <c r="D85" t="n">
-        <v>0.260275</v>
+        <v>0.262768</v>
       </c>
     </row>
     <row r="86">
@@ -4425,13 +4425,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.235112</v>
+        <v>0.233673</v>
       </c>
       <c r="C86" t="n">
-        <v>0.256348</v>
+        <v>0.2571</v>
       </c>
       <c r="D86" t="n">
-        <v>0.260561</v>
+        <v>0.259772</v>
       </c>
     </row>
     <row r="87">
@@ -4439,13 +4439,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.230819</v>
+        <v>0.228069</v>
       </c>
       <c r="C87" t="n">
-        <v>0.254</v>
+        <v>0.255203</v>
       </c>
       <c r="D87" t="n">
-        <v>0.258245</v>
+        <v>0.258711</v>
       </c>
     </row>
     <row r="88">
@@ -4453,13 +4453,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.224906</v>
+        <v>0.224215</v>
       </c>
       <c r="C88" t="n">
-        <v>0.253322</v>
+        <v>0.255606</v>
       </c>
       <c r="D88" t="n">
-        <v>0.255522</v>
+        <v>0.254641</v>
       </c>
     </row>
     <row r="89">
@@ -4467,13 +4467,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.218698</v>
+        <v>0.222657</v>
       </c>
       <c r="C89" t="n">
-        <v>0.25292</v>
+        <v>0.254926</v>
       </c>
       <c r="D89" t="n">
-        <v>0.254383</v>
+        <v>0.251313</v>
       </c>
     </row>
     <row r="90">
@@ -4481,13 +4481,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.217696</v>
+        <v>0.215473</v>
       </c>
       <c r="C90" t="n">
-        <v>0.251244</v>
+        <v>0.248747</v>
       </c>
       <c r="D90" t="n">
-        <v>0.252876</v>
+        <v>0.24827</v>
       </c>
     </row>
     <row r="91">
@@ -4495,13 +4495,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.214459</v>
+        <v>0.211581</v>
       </c>
       <c r="C91" t="n">
-        <v>0.246458</v>
+        <v>0.248829</v>
       </c>
       <c r="D91" t="n">
-        <v>0.250678</v>
+        <v>0.252207</v>
       </c>
     </row>
     <row r="92">
@@ -4509,13 +4509,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.208623</v>
+        <v>0.206663</v>
       </c>
       <c r="C92" t="n">
-        <v>0.245428</v>
+        <v>0.246497</v>
       </c>
       <c r="D92" t="n">
-        <v>0.252653</v>
+        <v>0.252016</v>
       </c>
     </row>
     <row r="93">
@@ -4523,13 +4523,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.205086</v>
+        <v>0.203994</v>
       </c>
       <c r="C93" t="n">
-        <v>0.246063</v>
+        <v>0.247453</v>
       </c>
       <c r="D93" t="n">
-        <v>0.248545</v>
+        <v>0.244806</v>
       </c>
     </row>
     <row r="94">
@@ -4537,13 +4537,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.194951</v>
+        <v>0.195828</v>
       </c>
       <c r="C94" t="n">
-        <v>0.245145</v>
+        <v>0.245649</v>
       </c>
       <c r="D94" t="n">
-        <v>0.27667</v>
+        <v>0.273052</v>
       </c>
     </row>
     <row r="95">
@@ -4551,13 +4551,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.263679</v>
+        <v>0.261636</v>
       </c>
       <c r="C95" t="n">
-        <v>0.268964</v>
+        <v>0.270089</v>
       </c>
       <c r="D95" t="n">
-        <v>0.272176</v>
+        <v>0.269915</v>
       </c>
     </row>
     <row r="96">
@@ -4565,13 +4565,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.265</v>
+        <v>0.259383</v>
       </c>
       <c r="C96" t="n">
-        <v>0.268443</v>
+        <v>0.269772</v>
       </c>
       <c r="D96" t="n">
-        <v>0.273216</v>
+        <v>0.26677</v>
       </c>
     </row>
     <row r="97">
@@ -4579,13 +4579,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.249656</v>
+        <v>0.252633</v>
       </c>
       <c r="C97" t="n">
-        <v>0.261649</v>
+        <v>0.26719</v>
       </c>
       <c r="D97" t="n">
-        <v>0.270748</v>
+        <v>0.264812</v>
       </c>
     </row>
     <row r="98">
@@ -4593,13 +4593,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.246377</v>
+        <v>0.248463</v>
       </c>
       <c r="C98" t="n">
-        <v>0.261744</v>
+        <v>0.263009</v>
       </c>
       <c r="D98" t="n">
-        <v>0.263792</v>
+        <v>0.264145</v>
       </c>
     </row>
     <row r="99">
@@ -4607,13 +4607,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.242768</v>
+        <v>0.246706</v>
       </c>
       <c r="C99" t="n">
-        <v>0.263126</v>
+        <v>0.262776</v>
       </c>
       <c r="D99" t="n">
-        <v>0.264299</v>
+        <v>0.259539</v>
       </c>
     </row>
     <row r="100">
@@ -4621,13 +4621,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.237038</v>
+        <v>0.238905</v>
       </c>
       <c r="C100" t="n">
-        <v>0.257925</v>
+        <v>0.262995</v>
       </c>
       <c r="D100" t="n">
-        <v>0.260867</v>
+        <v>0.26225</v>
       </c>
     </row>
     <row r="101">
@@ -4635,13 +4635,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.23433</v>
+        <v>0.233517</v>
       </c>
       <c r="C101" t="n">
-        <v>0.251815</v>
+        <v>0.258414</v>
       </c>
       <c r="D101" t="n">
-        <v>0.258035</v>
+        <v>0.256292</v>
       </c>
     </row>
     <row r="102">
@@ -4649,13 +4649,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.225909</v>
+        <v>0.22791</v>
       </c>
       <c r="C102" t="n">
-        <v>0.257317</v>
+        <v>0.25972</v>
       </c>
       <c r="D102" t="n">
-        <v>0.256499</v>
+        <v>0.256608</v>
       </c>
     </row>
     <row r="103">
@@ -4663,13 +4663,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.222008</v>
+        <v>0.222915</v>
       </c>
       <c r="C103" t="n">
-        <v>0.255227</v>
+        <v>0.25286</v>
       </c>
       <c r="D103" t="n">
-        <v>0.256715</v>
+        <v>0.258153</v>
       </c>
     </row>
     <row r="104">
@@ -4677,13 +4677,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.219821</v>
+        <v>0.216509</v>
       </c>
       <c r="C104" t="n">
-        <v>0.250591</v>
+        <v>0.250068</v>
       </c>
       <c r="D104" t="n">
-        <v>0.257176</v>
+        <v>0.250678</v>
       </c>
     </row>
     <row r="105">
@@ -4691,13 +4691,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.214786</v>
+        <v>0.213334</v>
       </c>
       <c r="C105" t="n">
-        <v>0.251371</v>
+        <v>0.246921</v>
       </c>
       <c r="D105" t="n">
-        <v>0.252959</v>
+        <v>0.251954</v>
       </c>
     </row>
     <row r="106">
@@ -4705,13 +4705,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.211376</v>
+        <v>0.210316</v>
       </c>
       <c r="C106" t="n">
-        <v>0.243326</v>
+        <v>0.245726</v>
       </c>
       <c r="D106" t="n">
-        <v>0.251605</v>
+        <v>0.24932</v>
       </c>
     </row>
     <row r="107">
@@ -4719,13 +4719,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.204559</v>
+        <v>0.202803</v>
       </c>
       <c r="C107" t="n">
-        <v>0.242253</v>
+        <v>0.24563</v>
       </c>
       <c r="D107" t="n">
-        <v>0.249791</v>
+        <v>0.247056</v>
       </c>
     </row>
     <row r="108">
@@ -4733,13 +4733,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.197704</v>
+        <v>0.199481</v>
       </c>
       <c r="C108" t="n">
-        <v>0.244777</v>
+        <v>0.248108</v>
       </c>
       <c r="D108" t="n">
-        <v>0.276474</v>
+        <v>0.275653</v>
       </c>
     </row>
     <row r="109">
@@ -4747,13 +4747,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.188981</v>
+        <v>0.188973</v>
       </c>
       <c r="C109" t="n">
-        <v>0.240395</v>
+        <v>0.244077</v>
       </c>
       <c r="D109" t="n">
-        <v>0.278411</v>
+        <v>0.276042</v>
       </c>
     </row>
     <row r="110">
@@ -4761,13 +4761,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.259623</v>
+        <v>0.263347</v>
       </c>
       <c r="C110" t="n">
-        <v>0.26667</v>
+        <v>0.269995</v>
       </c>
       <c r="D110" t="n">
-        <v>0.273178</v>
+        <v>0.269526</v>
       </c>
     </row>
     <row r="111">
@@ -4775,13 +4775,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.254273</v>
+        <v>0.25427</v>
       </c>
       <c r="C111" t="n">
-        <v>0.264527</v>
+        <v>0.266613</v>
       </c>
       <c r="D111" t="n">
-        <v>0.270127</v>
+        <v>0.271086</v>
       </c>
     </row>
     <row r="112">
@@ -4789,13 +4789,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.250975</v>
+        <v>0.251795</v>
       </c>
       <c r="C112" t="n">
-        <v>0.261012</v>
+        <v>0.270096</v>
       </c>
       <c r="D112" t="n">
-        <v>0.265057</v>
+        <v>0.263362</v>
       </c>
     </row>
     <row r="113">
@@ -4803,13 +4803,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.246427</v>
+        <v>0.243699</v>
       </c>
       <c r="C113" t="n">
-        <v>0.259845</v>
+        <v>0.263408</v>
       </c>
       <c r="D113" t="n">
-        <v>0.262084</v>
+        <v>0.262745</v>
       </c>
     </row>
     <row r="114">
@@ -4817,13 +4817,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.240387</v>
+        <v>0.237732</v>
       </c>
       <c r="C114" t="n">
-        <v>0.256842</v>
+        <v>0.264492</v>
       </c>
       <c r="D114" t="n">
-        <v>0.264552</v>
+        <v>0.260648</v>
       </c>
     </row>
     <row r="115">
@@ -4831,13 +4831,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.234097</v>
+        <v>0.235084</v>
       </c>
       <c r="C115" t="n">
-        <v>0.254257</v>
+        <v>0.260624</v>
       </c>
       <c r="D115" t="n">
-        <v>0.258767</v>
+        <v>0.256596</v>
       </c>
     </row>
     <row r="116">
@@ -4845,13 +4845,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.229349</v>
+        <v>0.226001</v>
       </c>
       <c r="C116" t="n">
-        <v>0.251121</v>
+        <v>0.254709</v>
       </c>
       <c r="D116" t="n">
-        <v>0.257395</v>
+        <v>0.256166</v>
       </c>
     </row>
     <row r="117">
@@ -4859,13 +4859,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.222394</v>
+        <v>0.225519</v>
       </c>
       <c r="C117" t="n">
-        <v>0.24976</v>
+        <v>0.253555</v>
       </c>
       <c r="D117" t="n">
-        <v>0.255417</v>
+        <v>0.255457</v>
       </c>
     </row>
     <row r="118">
@@ -4873,13 +4873,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.218936</v>
+        <v>0.216855</v>
       </c>
       <c r="C118" t="n">
-        <v>0.248188</v>
+        <v>0.256689</v>
       </c>
       <c r="D118" t="n">
-        <v>0.256258</v>
+        <v>0.253913</v>
       </c>
     </row>
     <row r="119">
@@ -4887,13 +4887,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.213099</v>
+        <v>0.215762</v>
       </c>
       <c r="C119" t="n">
-        <v>0.257108</v>
+        <v>0.248773</v>
       </c>
       <c r="D119" t="n">
-        <v>0.255905</v>
+        <v>0.254405</v>
       </c>
     </row>
     <row r="120">
@@ -4901,13 +4901,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.211659</v>
+        <v>0.209171</v>
       </c>
       <c r="C120" t="n">
-        <v>0.246037</v>
+        <v>0.2506</v>
       </c>
       <c r="D120" t="n">
-        <v>0.257781</v>
+        <v>0.255798</v>
       </c>
     </row>
     <row r="121">
@@ -4915,13 +4915,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.207575</v>
+        <v>0.20491</v>
       </c>
       <c r="C121" t="n">
-        <v>0.244122</v>
+        <v>0.248353</v>
       </c>
       <c r="D121" t="n">
-        <v>0.256428</v>
+        <v>0.245957</v>
       </c>
     </row>
     <row r="122">
@@ -4929,13 +4929,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.200097</v>
+        <v>0.200515</v>
       </c>
       <c r="C122" t="n">
-        <v>0.245937</v>
+        <v>0.251604</v>
       </c>
       <c r="D122" t="n">
-        <v>0.250064</v>
+        <v>0.244491</v>
       </c>
     </row>
     <row r="123">
@@ -4943,13 +4943,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.191534</v>
+        <v>0.192583</v>
       </c>
       <c r="C123" t="n">
-        <v>0.242378</v>
+        <v>0.243004</v>
       </c>
       <c r="D123" t="n">
-        <v>0.277923</v>
+        <v>0.274206</v>
       </c>
     </row>
     <row r="124">
@@ -4957,13 +4957,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.260377</v>
+        <v>0.264085</v>
       </c>
       <c r="C124" t="n">
-        <v>0.273674</v>
+        <v>0.269135</v>
       </c>
       <c r="D124" t="n">
-        <v>0.272674</v>
+        <v>0.271297</v>
       </c>
     </row>
     <row r="125">
@@ -4971,13 +4971,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.262082</v>
+        <v>0.257413</v>
       </c>
       <c r="C125" t="n">
-        <v>0.268193</v>
+        <v>0.267305</v>
       </c>
       <c r="D125" t="n">
-        <v>0.27342</v>
+        <v>0.263994</v>
       </c>
     </row>
     <row r="126">
@@ -4985,13 +4985,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.250317</v>
+        <v>0.248256</v>
       </c>
       <c r="C126" t="n">
-        <v>0.26132</v>
+        <v>0.263931</v>
       </c>
       <c r="D126" t="n">
-        <v>0.26833</v>
+        <v>0.268978</v>
       </c>
     </row>
     <row r="127">
@@ -4999,13 +4999,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.244368</v>
+        <v>0.242608</v>
       </c>
       <c r="C127" t="n">
-        <v>0.264432</v>
+        <v>0.262147</v>
       </c>
       <c r="D127" t="n">
-        <v>0.267939</v>
+        <v>0.261417</v>
       </c>
     </row>
     <row r="128">
@@ -5013,13 +5013,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.236367</v>
+        <v>0.24056</v>
       </c>
       <c r="C128" t="n">
-        <v>0.259806</v>
+        <v>0.263494</v>
       </c>
       <c r="D128" t="n">
-        <v>0.260043</v>
+        <v>0.264437</v>
       </c>
     </row>
     <row r="129">
@@ -5027,13 +5027,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.23288</v>
+        <v>0.232253</v>
       </c>
       <c r="C129" t="n">
-        <v>0.255684</v>
+        <v>0.257482</v>
       </c>
       <c r="D129" t="n">
-        <v>0.261061</v>
+        <v>0.258159</v>
       </c>
     </row>
     <row r="130">
@@ -5041,13 +5041,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.227018</v>
+        <v>0.227849</v>
       </c>
       <c r="C130" t="n">
-        <v>0.253906</v>
+        <v>0.255254</v>
       </c>
       <c r="D130" t="n">
-        <v>0.259477</v>
+        <v>0.259116</v>
       </c>
     </row>
     <row r="131">
@@ -5055,13 +5055,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.225076</v>
+        <v>0.230784</v>
       </c>
       <c r="C131" t="n">
-        <v>0.253008</v>
+        <v>0.254097</v>
       </c>
       <c r="D131" t="n">
-        <v>0.257787</v>
+        <v>0.259452</v>
       </c>
     </row>
     <row r="132">
@@ -5069,13 +5069,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.220311</v>
+        <v>0.220112</v>
       </c>
       <c r="C132" t="n">
-        <v>0.248957</v>
+        <v>0.256139</v>
       </c>
       <c r="D132" t="n">
-        <v>0.260642</v>
+        <v>0.251314</v>
       </c>
     </row>
     <row r="133">
@@ -5083,13 +5083,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.214367</v>
+        <v>0.216389</v>
       </c>
       <c r="C133" t="n">
-        <v>0.252942</v>
+        <v>0.25051</v>
       </c>
       <c r="D133" t="n">
-        <v>0.260539</v>
+        <v>0.248563</v>
       </c>
     </row>
     <row r="134">
@@ -5097,13 +5097,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.215917</v>
+        <v>0.208396</v>
       </c>
       <c r="C134" t="n">
-        <v>0.247361</v>
+        <v>0.247975</v>
       </c>
       <c r="D134" t="n">
-        <v>0.25043</v>
+        <v>0.248893</v>
       </c>
     </row>
     <row r="135">
@@ -5111,13 +5111,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.206324</v>
+        <v>0.206665</v>
       </c>
       <c r="C135" t="n">
-        <v>0.24469</v>
+        <v>0.243151</v>
       </c>
       <c r="D135" t="n">
-        <v>0.248141</v>
+        <v>0.247696</v>
       </c>
     </row>
     <row r="136">
@@ -5125,13 +5125,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.201561</v>
+        <v>0.199831</v>
       </c>
       <c r="C136" t="n">
-        <v>0.243554</v>
+        <v>0.247</v>
       </c>
       <c r="D136" t="n">
-        <v>0.248992</v>
+        <v>0.252715</v>
       </c>
     </row>
     <row r="137">
@@ -5139,13 +5139,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.191961</v>
+        <v>0.188903</v>
       </c>
       <c r="C137" t="n">
-        <v>0.242183</v>
+        <v>0.247424</v>
       </c>
       <c r="D137" t="n">
-        <v>0.280505</v>
+        <v>0.273699</v>
       </c>
     </row>
     <row r="138">
@@ -5153,13 +5153,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.268169</v>
+        <v>0.256448</v>
       </c>
       <c r="C138" t="n">
-        <v>0.271167</v>
+        <v>0.271466</v>
       </c>
       <c r="D138" t="n">
-        <v>0.278303</v>
+        <v>0.274442</v>
       </c>
     </row>
     <row r="139">
@@ -5167,13 +5167,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.263572</v>
+        <v>0.256927</v>
       </c>
       <c r="C139" t="n">
-        <v>0.275764</v>
+        <v>0.269781</v>
       </c>
       <c r="D139" t="n">
-        <v>0.27</v>
+        <v>0.265153</v>
       </c>
     </row>
     <row r="140">
@@ -5181,13 +5181,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.247077</v>
+        <v>0.249187</v>
       </c>
       <c r="C140" t="n">
-        <v>0.26565</v>
+        <v>0.268564</v>
       </c>
       <c r="D140" t="n">
-        <v>0.268906</v>
+        <v>0.264838</v>
       </c>
     </row>
     <row r="141">
@@ -5195,13 +5195,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.247375</v>
+        <v>0.241716</v>
       </c>
       <c r="C141" t="n">
-        <v>0.259072</v>
+        <v>0.263025</v>
       </c>
       <c r="D141" t="n">
-        <v>0.264941</v>
+        <v>0.263823</v>
       </c>
     </row>
     <row r="142">
@@ -5209,13 +5209,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.244009</v>
+        <v>0.237866</v>
       </c>
       <c r="C142" t="n">
-        <v>0.258171</v>
+        <v>0.258531</v>
       </c>
       <c r="D142" t="n">
-        <v>0.26209</v>
+        <v>0.264566</v>
       </c>
     </row>
     <row r="143">
@@ -5223,13 +5223,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.233515</v>
+        <v>0.237057</v>
       </c>
       <c r="C143" t="n">
-        <v>0.262454</v>
+        <v>0.256924</v>
       </c>
       <c r="D143" t="n">
-        <v>0.25851</v>
+        <v>0.265641</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Running erasure.xlsx
+++ b/vs-x64/Running erasure.xlsx
@@ -3272,13 +3272,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.205624</v>
+        <v>0.206409</v>
       </c>
       <c r="C2" t="n">
-        <v>0.196833</v>
+        <v>0.20089</v>
       </c>
       <c r="D2" t="n">
-        <v>0.230602</v>
+        <v>0.236668</v>
       </c>
     </row>
     <row r="3">
@@ -3286,13 +3286,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.201123</v>
+        <v>0.202313</v>
       </c>
       <c r="C3" t="n">
-        <v>0.214247</v>
+        <v>0.215943</v>
       </c>
       <c r="D3" t="n">
-        <v>0.229574</v>
+        <v>0.23302</v>
       </c>
     </row>
     <row r="4">
@@ -3300,13 +3300,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.19214</v>
+        <v>0.199659</v>
       </c>
       <c r="C4" t="n">
-        <v>0.228713</v>
+        <v>0.231797</v>
       </c>
       <c r="D4" t="n">
-        <v>0.227872</v>
+        <v>0.233078</v>
       </c>
     </row>
     <row r="5">
@@ -3314,13 +3314,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.196878</v>
+        <v>0.191731</v>
       </c>
       <c r="C5" t="n">
-        <v>0.253987</v>
+        <v>0.256168</v>
       </c>
       <c r="D5" t="n">
-        <v>0.233746</v>
+        <v>0.225874</v>
       </c>
     </row>
     <row r="6">
@@ -3328,13 +3328,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.195607</v>
+        <v>0.189781</v>
       </c>
       <c r="C6" t="n">
-        <v>0.285158</v>
+        <v>0.289278</v>
       </c>
       <c r="D6" t="n">
-        <v>0.228611</v>
+        <v>0.232449</v>
       </c>
     </row>
     <row r="7">
@@ -3342,13 +3342,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.191572</v>
+        <v>0.187352</v>
       </c>
       <c r="C7" t="n">
-        <v>0.320965</v>
+        <v>0.327397</v>
       </c>
       <c r="D7" t="n">
-        <v>0.234825</v>
+        <v>0.246995</v>
       </c>
     </row>
     <row r="8">
@@ -3356,13 +3356,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.189</v>
+        <v>0.194601</v>
       </c>
       <c r="C8" t="n">
-        <v>0.152101</v>
+        <v>0.158236</v>
       </c>
       <c r="D8" t="n">
-        <v>0.232318</v>
+        <v>0.238775</v>
       </c>
     </row>
     <row r="9">
@@ -3370,13 +3370,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.177198</v>
+        <v>0.188483</v>
       </c>
       <c r="C9" t="n">
-        <v>0.15426</v>
+        <v>0.164516</v>
       </c>
       <c r="D9" t="n">
-        <v>0.246303</v>
+        <v>0.254646</v>
       </c>
     </row>
     <row r="10">
@@ -3384,13 +3384,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.232942</v>
+        <v>0.238143</v>
       </c>
       <c r="C10" t="n">
-        <v>0.161128</v>
+        <v>0.173208</v>
       </c>
       <c r="D10" t="n">
-        <v>0.245971</v>
+        <v>0.249056</v>
       </c>
     </row>
     <row r="11">
@@ -3398,13 +3398,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.226336</v>
+        <v>0.227693</v>
       </c>
       <c r="C11" t="n">
-        <v>0.165451</v>
+        <v>0.176758</v>
       </c>
       <c r="D11" t="n">
-        <v>0.241125</v>
+        <v>0.242916</v>
       </c>
     </row>
     <row r="12">
@@ -3412,13 +3412,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.224161</v>
+        <v>0.220534</v>
       </c>
       <c r="C12" t="n">
-        <v>0.171966</v>
+        <v>0.173585</v>
       </c>
       <c r="D12" t="n">
-        <v>0.242569</v>
+        <v>0.24176</v>
       </c>
     </row>
     <row r="13">
@@ -3426,13 +3426,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.222157</v>
+        <v>0.214763</v>
       </c>
       <c r="C13" t="n">
-        <v>0.183285</v>
+        <v>0.185457</v>
       </c>
       <c r="D13" t="n">
-        <v>0.236765</v>
+        <v>0.238896</v>
       </c>
     </row>
     <row r="14">
@@ -3440,13 +3440,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.217609</v>
+        <v>0.210264</v>
       </c>
       <c r="C14" t="n">
-        <v>0.18805</v>
+        <v>0.193951</v>
       </c>
       <c r="D14" t="n">
-        <v>0.233714</v>
+        <v>0.23786</v>
       </c>
     </row>
     <row r="15">
@@ -3454,13 +3454,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.21129</v>
+        <v>0.2095</v>
       </c>
       <c r="C15" t="n">
-        <v>0.209347</v>
+        <v>0.20433</v>
       </c>
       <c r="D15" t="n">
-        <v>0.236424</v>
+        <v>0.23388</v>
       </c>
     </row>
     <row r="16">
@@ -3468,13 +3468,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.206326</v>
+        <v>0.203465</v>
       </c>
       <c r="C16" t="n">
-        <v>0.216338</v>
+        <v>0.215845</v>
       </c>
       <c r="D16" t="n">
-        <v>0.236181</v>
+        <v>0.237315</v>
       </c>
     </row>
     <row r="17">
@@ -3482,13 +3482,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.20672</v>
+        <v>0.20563</v>
       </c>
       <c r="C17" t="n">
-        <v>0.230544</v>
+        <v>0.232115</v>
       </c>
       <c r="D17" t="n">
-        <v>0.233481</v>
+        <v>0.235017</v>
       </c>
     </row>
     <row r="18">
@@ -3496,13 +3496,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.200161</v>
+        <v>0.202364</v>
       </c>
       <c r="C18" t="n">
-        <v>0.251435</v>
+        <v>0.258507</v>
       </c>
       <c r="D18" t="n">
-        <v>0.238525</v>
+        <v>0.234382</v>
       </c>
     </row>
     <row r="19">
@@ -3510,13 +3510,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.199078</v>
+        <v>0.199917</v>
       </c>
       <c r="C19" t="n">
-        <v>0.269815</v>
+        <v>0.275302</v>
       </c>
       <c r="D19" t="n">
-        <v>0.230884</v>
+        <v>0.235728</v>
       </c>
     </row>
     <row r="20">
@@ -3524,13 +3524,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.19577</v>
+        <v>0.195625</v>
       </c>
       <c r="C20" t="n">
-        <v>0.288455</v>
+        <v>0.291775</v>
       </c>
       <c r="D20" t="n">
-        <v>0.233211</v>
+        <v>0.233609</v>
       </c>
     </row>
     <row r="21">
@@ -3538,13 +3538,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.196297</v>
+        <v>0.193223</v>
       </c>
       <c r="C21" t="n">
-        <v>0.321212</v>
+        <v>0.330067</v>
       </c>
       <c r="D21" t="n">
-        <v>0.235351</v>
+        <v>0.235347</v>
       </c>
     </row>
     <row r="22">
@@ -3552,13 +3552,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.189567</v>
+        <v>0.185809</v>
       </c>
       <c r="C22" t="n">
-        <v>0.164732</v>
+        <v>0.167133</v>
       </c>
       <c r="D22" t="n">
-        <v>0.240298</v>
+        <v>0.233323</v>
       </c>
     </row>
     <row r="23">
@@ -3566,13 +3566,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.183508</v>
+        <v>0.182755</v>
       </c>
       <c r="C23" t="n">
-        <v>0.169744</v>
+        <v>0.17187</v>
       </c>
       <c r="D23" t="n">
-        <v>0.248463</v>
+        <v>0.249481</v>
       </c>
     </row>
     <row r="24">
@@ -3580,13 +3580,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.235674</v>
+        <v>0.236196</v>
       </c>
       <c r="C24" t="n">
-        <v>0.174012</v>
+        <v>0.177621</v>
       </c>
       <c r="D24" t="n">
-        <v>0.245256</v>
+        <v>0.251937</v>
       </c>
     </row>
     <row r="25">
@@ -3594,13 +3594,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.23711</v>
+        <v>0.232076</v>
       </c>
       <c r="C25" t="n">
-        <v>0.183687</v>
+        <v>0.188388</v>
       </c>
       <c r="D25" t="n">
-        <v>0.24557</v>
+        <v>0.24556</v>
       </c>
     </row>
     <row r="26">
@@ -3608,13 +3608,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.230352</v>
+        <v>0.231895</v>
       </c>
       <c r="C26" t="n">
-        <v>0.193024</v>
+        <v>0.19492</v>
       </c>
       <c r="D26" t="n">
-        <v>0.241487</v>
+        <v>0.246618</v>
       </c>
     </row>
     <row r="27">
@@ -3622,13 +3622,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.226083</v>
+        <v>0.224375</v>
       </c>
       <c r="C27" t="n">
-        <v>0.205604</v>
+        <v>0.202891</v>
       </c>
       <c r="D27" t="n">
-        <v>0.247045</v>
+        <v>0.242042</v>
       </c>
     </row>
     <row r="28">
@@ -3636,13 +3636,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.225121</v>
+        <v>0.222419</v>
       </c>
       <c r="C28" t="n">
-        <v>0.212053</v>
+        <v>0.209531</v>
       </c>
       <c r="D28" t="n">
-        <v>0.24471</v>
+        <v>0.250167</v>
       </c>
     </row>
     <row r="29">
@@ -3650,13 +3650,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.216474</v>
+        <v>0.221049</v>
       </c>
       <c r="C29" t="n">
-        <v>0.22655</v>
+        <v>0.222152</v>
       </c>
       <c r="D29" t="n">
-        <v>0.239884</v>
+        <v>0.239994</v>
       </c>
     </row>
     <row r="30">
@@ -3664,13 +3664,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.211942</v>
+        <v>0.214256</v>
       </c>
       <c r="C30" t="n">
-        <v>0.236616</v>
+        <v>0.232494</v>
       </c>
       <c r="D30" t="n">
-        <v>0.237094</v>
+        <v>0.244875</v>
       </c>
     </row>
     <row r="31">
@@ -3678,13 +3678,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.209176</v>
+        <v>0.209898</v>
       </c>
       <c r="C31" t="n">
-        <v>0.247825</v>
+        <v>0.247024</v>
       </c>
       <c r="D31" t="n">
-        <v>0.242494</v>
+        <v>0.244193</v>
       </c>
     </row>
     <row r="32">
@@ -3692,13 +3692,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.205846</v>
+        <v>0.206688</v>
       </c>
       <c r="C32" t="n">
-        <v>0.263499</v>
+        <v>0.264072</v>
       </c>
       <c r="D32" t="n">
-        <v>0.239952</v>
+        <v>0.240523</v>
       </c>
     </row>
     <row r="33">
@@ -3706,13 +3706,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.2023</v>
+        <v>0.205868</v>
       </c>
       <c r="C33" t="n">
-        <v>0.280797</v>
+        <v>0.286958</v>
       </c>
       <c r="D33" t="n">
-        <v>0.242941</v>
+        <v>0.235968</v>
       </c>
     </row>
     <row r="34">
@@ -3720,13 +3720,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.201866</v>
+        <v>0.202617</v>
       </c>
       <c r="C34" t="n">
-        <v>0.304852</v>
+        <v>0.310173</v>
       </c>
       <c r="D34" t="n">
-        <v>0.247808</v>
+        <v>0.235067</v>
       </c>
     </row>
     <row r="35">
@@ -3734,13 +3734,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.196367</v>
+        <v>0.198928</v>
       </c>
       <c r="C35" t="n">
-        <v>0.334681</v>
+        <v>0.344393</v>
       </c>
       <c r="D35" t="n">
-        <v>0.236886</v>
+        <v>0.239243</v>
       </c>
     </row>
     <row r="36">
@@ -3748,13 +3748,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.192554</v>
+        <v>0.192898</v>
       </c>
       <c r="C36" t="n">
-        <v>0.384166</v>
+        <v>0.389246</v>
       </c>
       <c r="D36" t="n">
-        <v>0.240226</v>
+        <v>0.234609</v>
       </c>
     </row>
     <row r="37">
@@ -3762,13 +3762,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.188439</v>
+        <v>0.187696</v>
       </c>
       <c r="C37" t="n">
-        <v>0.189259</v>
+        <v>0.206737</v>
       </c>
       <c r="D37" t="n">
-        <v>0.263566</v>
+        <v>0.261568</v>
       </c>
     </row>
     <row r="38">
@@ -3776,13 +3776,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.239282</v>
+        <v>0.24199</v>
       </c>
       <c r="C38" t="n">
-        <v>0.200292</v>
+        <v>0.195454</v>
       </c>
       <c r="D38" t="n">
-        <v>0.259851</v>
+        <v>0.262512</v>
       </c>
     </row>
     <row r="39">
@@ -3790,13 +3790,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.240903</v>
+        <v>0.238474</v>
       </c>
       <c r="C39" t="n">
-        <v>0.197751</v>
+        <v>0.201765</v>
       </c>
       <c r="D39" t="n">
-        <v>0.258455</v>
+        <v>0.257556</v>
       </c>
     </row>
     <row r="40">
@@ -3804,13 +3804,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.232676</v>
+        <v>0.237718</v>
       </c>
       <c r="C40" t="n">
-        <v>0.202882</v>
+        <v>0.208837</v>
       </c>
       <c r="D40" t="n">
-        <v>0.256914</v>
+        <v>0.254236</v>
       </c>
     </row>
     <row r="41">
@@ -3818,13 +3818,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.229349</v>
+        <v>0.228845</v>
       </c>
       <c r="C41" t="n">
-        <v>0.212847</v>
+        <v>0.255303</v>
       </c>
       <c r="D41" t="n">
-        <v>0.252536</v>
+        <v>0.257777</v>
       </c>
     </row>
     <row r="42">
@@ -3832,13 +3832,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.224038</v>
+        <v>0.228538</v>
       </c>
       <c r="C42" t="n">
-        <v>0.220988</v>
+        <v>0.227639</v>
       </c>
       <c r="D42" t="n">
-        <v>0.252697</v>
+        <v>0.254813</v>
       </c>
     </row>
     <row r="43">
@@ -3846,13 +3846,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.21979</v>
+        <v>0.222338</v>
       </c>
       <c r="C43" t="n">
-        <v>0.2311</v>
+        <v>0.23644</v>
       </c>
       <c r="D43" t="n">
-        <v>0.250638</v>
+        <v>0.251825</v>
       </c>
     </row>
     <row r="44">
@@ -3860,13 +3860,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.215674</v>
+        <v>0.217013</v>
       </c>
       <c r="C44" t="n">
-        <v>0.241384</v>
+        <v>0.248187</v>
       </c>
       <c r="D44" t="n">
-        <v>0.249554</v>
+        <v>0.246642</v>
       </c>
     </row>
     <row r="45">
@@ -3874,13 +3874,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.21498</v>
+        <v>0.21391</v>
       </c>
       <c r="C45" t="n">
-        <v>0.266874</v>
+        <v>0.289058</v>
       </c>
       <c r="D45" t="n">
-        <v>0.248766</v>
+        <v>0.247774</v>
       </c>
     </row>
     <row r="46">
@@ -3888,13 +3888,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.208784</v>
+        <v>0.208273</v>
       </c>
       <c r="C46" t="n">
-        <v>0.274254</v>
+        <v>0.277928</v>
       </c>
       <c r="D46" t="n">
-        <v>0.249233</v>
+        <v>0.245003</v>
       </c>
     </row>
     <row r="47">
@@ -3902,13 +3902,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.204223</v>
+        <v>0.203682</v>
       </c>
       <c r="C47" t="n">
-        <v>0.293025</v>
+        <v>0.324688</v>
       </c>
       <c r="D47" t="n">
-        <v>0.244818</v>
+        <v>0.243255</v>
       </c>
     </row>
     <row r="48">
@@ -3916,13 +3916,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.202806</v>
+        <v>0.203083</v>
       </c>
       <c r="C48" t="n">
-        <v>0.319323</v>
+        <v>0.320083</v>
       </c>
       <c r="D48" t="n">
-        <v>0.242052</v>
+        <v>0.247367</v>
       </c>
     </row>
     <row r="49">
@@ -3930,13 +3930,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.202257</v>
+        <v>0.201912</v>
       </c>
       <c r="C49" t="n">
-        <v>0.342932</v>
+        <v>0.349975</v>
       </c>
       <c r="D49" t="n">
-        <v>0.244141</v>
+        <v>0.241319</v>
       </c>
     </row>
     <row r="50">
@@ -3944,13 +3944,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.196909</v>
+        <v>0.196885</v>
       </c>
       <c r="C50" t="n">
-        <v>0.380326</v>
+        <v>0.386712</v>
       </c>
       <c r="D50" t="n">
-        <v>0.242301</v>
+        <v>0.23969</v>
       </c>
     </row>
     <row r="51">
@@ -3958,13 +3958,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.191479</v>
+        <v>0.189576</v>
       </c>
       <c r="C51" t="n">
-        <v>0.311024</v>
+        <v>0.305447</v>
       </c>
       <c r="D51" t="n">
-        <v>0.264305</v>
+        <v>0.264882</v>
       </c>
     </row>
     <row r="52">
@@ -3972,13 +3972,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.180557</v>
+        <v>0.180901</v>
       </c>
       <c r="C52" t="n">
-        <v>0.305694</v>
+        <v>0.315456</v>
       </c>
       <c r="D52" t="n">
-        <v>0.26099</v>
+        <v>0.264883</v>
       </c>
     </row>
     <row r="53">
@@ -3986,13 +3986,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.245139</v>
+        <v>0.244503</v>
       </c>
       <c r="C53" t="n">
-        <v>0.309317</v>
+        <v>0.314147</v>
       </c>
       <c r="D53" t="n">
-        <v>0.260319</v>
+        <v>0.260344</v>
       </c>
     </row>
     <row r="54">
@@ -4000,13 +4000,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.241944</v>
+        <v>0.240376</v>
       </c>
       <c r="C54" t="n">
-        <v>0.314567</v>
+        <v>0.311484</v>
       </c>
       <c r="D54" t="n">
-        <v>0.25884</v>
+        <v>0.260939</v>
       </c>
     </row>
     <row r="55">
@@ -4014,13 +4014,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.238166</v>
+        <v>0.23427</v>
       </c>
       <c r="C55" t="n">
-        <v>0.316871</v>
+        <v>0.319504</v>
       </c>
       <c r="D55" t="n">
-        <v>0.258115</v>
+        <v>0.257231</v>
       </c>
     </row>
     <row r="56">
@@ -4028,13 +4028,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.231968</v>
+        <v>0.231061</v>
       </c>
       <c r="C56" t="n">
-        <v>0.316059</v>
+        <v>0.320677</v>
       </c>
       <c r="D56" t="n">
-        <v>0.255633</v>
+        <v>0.253308</v>
       </c>
     </row>
     <row r="57">
@@ -4042,13 +4042,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.227839</v>
+        <v>0.228006</v>
       </c>
       <c r="C57" t="n">
-        <v>0.326007</v>
+        <v>0.322835</v>
       </c>
       <c r="D57" t="n">
-        <v>0.254358</v>
+        <v>0.254151</v>
       </c>
     </row>
     <row r="58">
@@ -4056,13 +4056,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.225794</v>
+        <v>0.221867</v>
       </c>
       <c r="C58" t="n">
-        <v>0.330498</v>
+        <v>0.328254</v>
       </c>
       <c r="D58" t="n">
-        <v>0.251589</v>
+        <v>0.250719</v>
       </c>
     </row>
     <row r="59">
@@ -4070,13 +4070,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.219664</v>
+        <v>0.21771</v>
       </c>
       <c r="C59" t="n">
-        <v>0.336581</v>
+        <v>0.343732</v>
       </c>
       <c r="D59" t="n">
-        <v>0.249578</v>
+        <v>0.248639</v>
       </c>
     </row>
     <row r="60">
@@ -4084,13 +4084,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.216228</v>
+        <v>0.210586</v>
       </c>
       <c r="C60" t="n">
-        <v>0.351589</v>
+        <v>0.34943</v>
       </c>
       <c r="D60" t="n">
-        <v>0.24781</v>
+        <v>0.247666</v>
       </c>
     </row>
     <row r="61">
@@ -4098,13 +4098,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.213216</v>
+        <v>0.214698</v>
       </c>
       <c r="C61" t="n">
-        <v>0.37218</v>
+        <v>0.373521</v>
       </c>
       <c r="D61" t="n">
-        <v>0.250951</v>
+        <v>0.243746</v>
       </c>
     </row>
     <row r="62">
@@ -4112,13 +4112,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.208888</v>
+        <v>0.204509</v>
       </c>
       <c r="C62" t="n">
-        <v>0.38797</v>
+        <v>0.386545</v>
       </c>
       <c r="D62" t="n">
-        <v>0.245767</v>
+        <v>0.242572</v>
       </c>
     </row>
     <row r="63">
@@ -4126,13 +4126,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.205054</v>
+        <v>0.202776</v>
       </c>
       <c r="C63" t="n">
-        <v>0.4336</v>
+        <v>0.414666</v>
       </c>
       <c r="D63" t="n">
-        <v>0.242495</v>
+        <v>0.241838</v>
       </c>
     </row>
     <row r="64">
@@ -4140,13 +4140,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.202602</v>
+        <v>0.202237</v>
       </c>
       <c r="C64" t="n">
-        <v>0.44094</v>
+        <v>0.4449</v>
       </c>
       <c r="D64" t="n">
-        <v>0.244172</v>
+        <v>0.244117</v>
       </c>
     </row>
     <row r="65">
@@ -4154,13 +4154,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.198136</v>
+        <v>0.193579</v>
       </c>
       <c r="C65" t="n">
-        <v>0.533588</v>
+        <v>0.533274</v>
       </c>
       <c r="D65" t="n">
-        <v>0.241296</v>
+        <v>0.241492</v>
       </c>
     </row>
     <row r="66">
@@ -4168,13 +4168,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.187647</v>
+        <v>0.188433</v>
       </c>
       <c r="C66" t="n">
-        <v>0.538445</v>
+        <v>0.532326</v>
       </c>
       <c r="D66" t="n">
-        <v>0.269683</v>
+        <v>0.268151</v>
       </c>
     </row>
     <row r="67">
@@ -4182,13 +4182,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.25802</v>
+        <v>0.257286</v>
       </c>
       <c r="C67" t="n">
-        <v>0.538818</v>
+        <v>0.547885</v>
       </c>
       <c r="D67" t="n">
-        <v>0.264797</v>
+        <v>0.264855</v>
       </c>
     </row>
     <row r="68">
@@ -4196,13 +4196,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.252881</v>
+        <v>0.251351</v>
       </c>
       <c r="C68" t="n">
-        <v>0.52944</v>
+        <v>0.531653</v>
       </c>
       <c r="D68" t="n">
-        <v>0.261645</v>
+        <v>0.260605</v>
       </c>
     </row>
     <row r="69">
@@ -4210,13 +4210,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.249787</v>
+        <v>0.246402</v>
       </c>
       <c r="C69" t="n">
-        <v>0.533594</v>
+        <v>0.539778</v>
       </c>
       <c r="D69" t="n">
-        <v>0.257729</v>
+        <v>0.260798</v>
       </c>
     </row>
     <row r="70">
@@ -4224,13 +4224,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.242951</v>
+        <v>0.241477</v>
       </c>
       <c r="C70" t="n">
-        <v>0.605216</v>
+        <v>0.5588920000000001</v>
       </c>
       <c r="D70" t="n">
-        <v>0.256772</v>
+        <v>0.25865</v>
       </c>
     </row>
     <row r="71">
@@ -4238,13 +4238,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.237997</v>
+        <v>0.238596</v>
       </c>
       <c r="C71" t="n">
-        <v>0.533111</v>
+        <v>0.554692</v>
       </c>
       <c r="D71" t="n">
-        <v>0.25687</v>
+        <v>0.256701</v>
       </c>
     </row>
     <row r="72">
@@ -4252,13 +4252,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.232047</v>
+        <v>0.235934</v>
       </c>
       <c r="C72" t="n">
-        <v>0.550686</v>
+        <v>0.548603</v>
       </c>
       <c r="D72" t="n">
-        <v>0.259673</v>
+        <v>0.255688</v>
       </c>
     </row>
     <row r="73">
@@ -4266,13 +4266,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.229264</v>
+        <v>0.228092</v>
       </c>
       <c r="C73" t="n">
-        <v>0.564974</v>
+        <v>0.562621</v>
       </c>
       <c r="D73" t="n">
-        <v>0.254272</v>
+        <v>0.253162</v>
       </c>
     </row>
     <row r="74">
@@ -4280,13 +4280,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.224453</v>
+        <v>0.226204</v>
       </c>
       <c r="C74" t="n">
-        <v>0.568859</v>
+        <v>0.575233</v>
       </c>
       <c r="D74" t="n">
-        <v>0.252578</v>
+        <v>0.252929</v>
       </c>
     </row>
     <row r="75">
@@ -4294,13 +4294,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.221013</v>
+        <v>0.216761</v>
       </c>
       <c r="C75" t="n">
-        <v>0.583658</v>
+        <v>0.5952460000000001</v>
       </c>
       <c r="D75" t="n">
-        <v>0.254525</v>
+        <v>0.247604</v>
       </c>
     </row>
     <row r="76">
@@ -4308,13 +4308,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.217425</v>
+        <v>0.213665</v>
       </c>
       <c r="C76" t="n">
-        <v>0.596742</v>
+        <v>0.6086780000000001</v>
       </c>
       <c r="D76" t="n">
-        <v>0.248769</v>
+        <v>0.247603</v>
       </c>
     </row>
     <row r="77">
@@ -4322,13 +4322,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.212317</v>
+        <v>0.20908</v>
       </c>
       <c r="C77" t="n">
-        <v>0.617718</v>
+        <v>0.624974</v>
       </c>
       <c r="D77" t="n">
-        <v>0.249967</v>
+        <v>0.246301</v>
       </c>
     </row>
     <row r="78">
@@ -4336,13 +4336,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.209752</v>
+        <v>0.212059</v>
       </c>
       <c r="C78" t="n">
-        <v>0.64125</v>
+        <v>0.656108</v>
       </c>
       <c r="D78" t="n">
-        <v>0.248061</v>
+        <v>0.246859</v>
       </c>
     </row>
     <row r="79">
@@ -4350,13 +4350,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.204723</v>
+        <v>0.204517</v>
       </c>
       <c r="C79" t="n">
-        <v>0.712386</v>
+        <v>0.707944</v>
       </c>
       <c r="D79" t="n">
-        <v>0.248062</v>
+        <v>0.244143</v>
       </c>
     </row>
     <row r="80">
@@ -4364,13 +4364,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.19586</v>
+        <v>0.193126</v>
       </c>
       <c r="C80" t="n">
-        <v>0.712862</v>
+        <v>0.707835</v>
       </c>
       <c r="D80" t="n">
-        <v>0.27355</v>
+        <v>0.271371</v>
       </c>
     </row>
     <row r="81">
@@ -4378,13 +4378,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.264677</v>
+        <v>0.259864</v>
       </c>
       <c r="C81" t="n">
-        <v>0.70912</v>
+        <v>0.739428</v>
       </c>
       <c r="D81" t="n">
-        <v>0.273653</v>
+        <v>0.275242</v>
       </c>
     </row>
     <row r="82">
@@ -4392,13 +4392,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.254995</v>
+        <v>0.259632</v>
       </c>
       <c r="C82" t="n">
-        <v>0.715181</v>
+        <v>0.721876</v>
       </c>
       <c r="D82" t="n">
-        <v>0.269693</v>
+        <v>0.268263</v>
       </c>
     </row>
     <row r="83">
@@ -4406,13 +4406,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.25345</v>
+        <v>0.250565</v>
       </c>
       <c r="C83" t="n">
-        <v>0.714738</v>
+        <v>0.7223000000000001</v>
       </c>
       <c r="D83" t="n">
-        <v>0.266523</v>
+        <v>0.264484</v>
       </c>
     </row>
     <row r="84">
@@ -4420,13 +4420,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.246761</v>
+        <v>0.243909</v>
       </c>
       <c r="C84" t="n">
-        <v>0.735574</v>
+        <v>0.727169</v>
       </c>
       <c r="D84" t="n">
-        <v>0.265143</v>
+        <v>0.262488</v>
       </c>
     </row>
     <row r="85">
@@ -4434,13 +4434,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.241095</v>
+        <v>0.239522</v>
       </c>
       <c r="C85" t="n">
-        <v>0.733379</v>
+        <v>0.751741</v>
       </c>
       <c r="D85" t="n">
-        <v>0.259751</v>
+        <v>0.261063</v>
       </c>
     </row>
     <row r="86">
@@ -4448,13 +4448,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.238941</v>
+        <v>0.234592</v>
       </c>
       <c r="C86" t="n">
-        <v>0.73703</v>
+        <v>0.75879</v>
       </c>
       <c r="D86" t="n">
-        <v>0.260283</v>
+        <v>0.260964</v>
       </c>
     </row>
     <row r="87">
@@ -4462,13 +4462,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.232367</v>
+        <v>0.231554</v>
       </c>
       <c r="C87" t="n">
-        <v>0.7531369999999999</v>
+        <v>0.759475</v>
       </c>
       <c r="D87" t="n">
-        <v>0.257779</v>
+        <v>0.253697</v>
       </c>
     </row>
     <row r="88">
@@ -4476,13 +4476,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.22466</v>
+        <v>0.22499</v>
       </c>
       <c r="C88" t="n">
-        <v>0.783231</v>
+        <v>0.805678</v>
       </c>
       <c r="D88" t="n">
-        <v>0.258643</v>
+        <v>0.254886</v>
       </c>
     </row>
     <row r="89">
@@ -4490,13 +4490,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.222408</v>
+        <v>0.222655</v>
       </c>
       <c r="C89" t="n">
-        <v>0.777521</v>
+        <v>0.8076719999999999</v>
       </c>
       <c r="D89" t="n">
-        <v>0.252086</v>
+        <v>0.251312</v>
       </c>
     </row>
     <row r="90">
@@ -4504,13 +4504,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.217325</v>
+        <v>0.217025</v>
       </c>
       <c r="C90" t="n">
-        <v>0.801658</v>
+        <v>0.82034</v>
       </c>
       <c r="D90" t="n">
-        <v>0.256366</v>
+        <v>0.252492</v>
       </c>
     </row>
     <row r="91">
@@ -4518,13 +4518,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.215243</v>
+        <v>0.213223</v>
       </c>
       <c r="C91" t="n">
-        <v>0.843915</v>
+        <v>0.837706</v>
       </c>
       <c r="D91" t="n">
-        <v>0.249389</v>
+        <v>0.249539</v>
       </c>
     </row>
     <row r="92">
@@ -4532,13 +4532,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.210431</v>
+        <v>0.209632</v>
       </c>
       <c r="C92" t="n">
-        <v>0.8939240000000001</v>
+        <v>0.885927</v>
       </c>
       <c r="D92" t="n">
-        <v>0.250097</v>
+        <v>0.248533</v>
       </c>
     </row>
     <row r="93">
@@ -4546,13 +4546,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.207239</v>
+        <v>0.203833</v>
       </c>
       <c r="C93" t="n">
-        <v>0.930158</v>
+        <v>0.910643</v>
       </c>
       <c r="D93" t="n">
-        <v>0.247163</v>
+        <v>0.247288</v>
       </c>
     </row>
     <row r="94">
@@ -4560,13 +4560,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.200055</v>
+        <v>0.200468</v>
       </c>
       <c r="C94" t="n">
-        <v>0.857747</v>
+        <v>0.841588</v>
       </c>
       <c r="D94" t="n">
-        <v>0.276412</v>
+        <v>0.274157</v>
       </c>
     </row>
     <row r="95">
@@ -4574,13 +4574,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.258489</v>
+        <v>0.261371</v>
       </c>
       <c r="C95" t="n">
-        <v>0.845221</v>
+        <v>0.883562</v>
       </c>
       <c r="D95" t="n">
-        <v>0.276932</v>
+        <v>0.271205</v>
       </c>
     </row>
     <row r="96">
@@ -4588,13 +4588,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.257116</v>
+        <v>0.258169</v>
       </c>
       <c r="C96" t="n">
-        <v>0.847037</v>
+        <v>0.852962</v>
       </c>
       <c r="D96" t="n">
-        <v>0.269217</v>
+        <v>0.267818</v>
       </c>
     </row>
     <row r="97">
@@ -4602,13 +4602,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.251283</v>
+        <v>0.250209</v>
       </c>
       <c r="C97" t="n">
-        <v>0.859621</v>
+        <v>0.85963</v>
       </c>
       <c r="D97" t="n">
-        <v>0.264248</v>
+        <v>0.26719</v>
       </c>
     </row>
     <row r="98">
@@ -4616,13 +4616,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.25065</v>
+        <v>0.246329</v>
       </c>
       <c r="C98" t="n">
-        <v>0.870425</v>
+        <v>0.858623</v>
       </c>
       <c r="D98" t="n">
-        <v>0.267419</v>
+        <v>0.264037</v>
       </c>
     </row>
     <row r="99">
@@ -4630,13 +4630,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.241653</v>
+        <v>0.24254</v>
       </c>
       <c r="C99" t="n">
-        <v>0.889055</v>
+        <v>0.8809630000000001</v>
       </c>
       <c r="D99" t="n">
-        <v>0.264795</v>
+        <v>0.264355</v>
       </c>
     </row>
     <row r="100">
@@ -4644,13 +4644,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.237206</v>
+        <v>0.238404</v>
       </c>
       <c r="C100" t="n">
-        <v>0.876416</v>
+        <v>0.8669480000000001</v>
       </c>
       <c r="D100" t="n">
-        <v>0.258929</v>
+        <v>0.261116</v>
       </c>
     </row>
     <row r="101">
@@ -4658,13 +4658,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.231577</v>
+        <v>0.231333</v>
       </c>
       <c r="C101" t="n">
-        <v>0.895276</v>
+        <v>0.908976</v>
       </c>
       <c r="D101" t="n">
-        <v>0.261128</v>
+        <v>0.256306</v>
       </c>
     </row>
     <row r="102">
@@ -4672,13 +4672,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.227276</v>
+        <v>0.226865</v>
       </c>
       <c r="C102" t="n">
-        <v>0.918001</v>
+        <v>0.902728</v>
       </c>
       <c r="D102" t="n">
-        <v>0.258821</v>
+        <v>0.256246</v>
       </c>
     </row>
     <row r="103">
@@ -4686,13 +4686,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.225289</v>
+        <v>0.221497</v>
       </c>
       <c r="C103" t="n">
-        <v>0.936138</v>
+        <v>0.927792</v>
       </c>
       <c r="D103" t="n">
-        <v>0.253928</v>
+        <v>0.253313</v>
       </c>
     </row>
     <row r="104">
@@ -4700,13 +4700,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.219385</v>
+        <v>0.217276</v>
       </c>
       <c r="C104" t="n">
-        <v>0.977197</v>
+        <v>0.962041</v>
       </c>
       <c r="D104" t="n">
-        <v>0.251834</v>
+        <v>0.251672</v>
       </c>
     </row>
     <row r="105">
@@ -4714,13 +4714,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.215</v>
+        <v>0.216082</v>
       </c>
       <c r="C105" t="n">
-        <v>1.00201</v>
+        <v>1.00019</v>
       </c>
       <c r="D105" t="n">
-        <v>0.248668</v>
+        <v>0.25037</v>
       </c>
     </row>
     <row r="106">
@@ -4728,13 +4728,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.214127</v>
+        <v>0.209173</v>
       </c>
       <c r="C106" t="n">
-        <v>1.04288</v>
+        <v>1.03399</v>
       </c>
       <c r="D106" t="n">
-        <v>0.249789</v>
+        <v>0.251974</v>
       </c>
     </row>
     <row r="107">
@@ -4742,13 +4742,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.206318</v>
+        <v>0.207167</v>
       </c>
       <c r="C107" t="n">
-        <v>1.10371</v>
+        <v>1.11612</v>
       </c>
       <c r="D107" t="n">
-        <v>0.246006</v>
+        <v>0.252126</v>
       </c>
     </row>
     <row r="108">
@@ -4756,13 +4756,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.199629</v>
+        <v>0.200137</v>
       </c>
       <c r="C108" t="n">
-        <v>0.927798</v>
+        <v>0.916133</v>
       </c>
       <c r="D108" t="n">
-        <v>0.281699</v>
+        <v>0.274834</v>
       </c>
     </row>
     <row r="109">
@@ -4770,13 +4770,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.192472</v>
+        <v>0.18865</v>
       </c>
       <c r="C109" t="n">
-        <v>0.917044</v>
+        <v>0.923252</v>
       </c>
       <c r="D109" t="n">
-        <v>0.27572</v>
+        <v>0.278201</v>
       </c>
     </row>
     <row r="110">
@@ -4784,13 +4784,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.259903</v>
+        <v>0.259166</v>
       </c>
       <c r="C110" t="n">
-        <v>0.942545</v>
+        <v>0.935126</v>
       </c>
       <c r="D110" t="n">
-        <v>0.270702</v>
+        <v>0.269506</v>
       </c>
     </row>
     <row r="111">
@@ -4798,13 +4798,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.254463</v>
+        <v>0.250107</v>
       </c>
       <c r="C111" t="n">
-        <v>0.925331</v>
+        <v>0.942368</v>
       </c>
       <c r="D111" t="n">
-        <v>0.271891</v>
+        <v>0.264587</v>
       </c>
     </row>
     <row r="112">
@@ -4812,13 +4812,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.251601</v>
+        <v>0.249504</v>
       </c>
       <c r="C112" t="n">
-        <v>0.943689</v>
+        <v>0.946974</v>
       </c>
       <c r="D112" t="n">
-        <v>0.267501</v>
+        <v>0.268647</v>
       </c>
     </row>
     <row r="113">
@@ -4826,13 +4826,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.244947</v>
+        <v>0.242525</v>
       </c>
       <c r="C113" t="n">
-        <v>0.942912</v>
+        <v>0.953068</v>
       </c>
       <c r="D113" t="n">
-        <v>0.266659</v>
+        <v>0.259998</v>
       </c>
     </row>
     <row r="114">
@@ -4840,13 +4840,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.240167</v>
+        <v>0.237334</v>
       </c>
       <c r="C114" t="n">
-        <v>0.959709</v>
+        <v>0.969378</v>
       </c>
       <c r="D114" t="n">
-        <v>0.263049</v>
+        <v>0.264146</v>
       </c>
     </row>
     <row r="115">
@@ -4854,13 +4854,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.235023</v>
+        <v>0.230801</v>
       </c>
       <c r="C115" t="n">
-        <v>0.975174</v>
+        <v>0.979764</v>
       </c>
       <c r="D115" t="n">
-        <v>0.259504</v>
+        <v>0.263519</v>
       </c>
     </row>
     <row r="116">
@@ -4868,13 +4868,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.233938</v>
+        <v>0.229512</v>
       </c>
       <c r="C116" t="n">
-        <v>0.982222</v>
+        <v>1.00237</v>
       </c>
       <c r="D116" t="n">
-        <v>0.258042</v>
+        <v>0.260639</v>
       </c>
     </row>
     <row r="117">
@@ -4882,13 +4882,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.224576</v>
+        <v>0.223195</v>
       </c>
       <c r="C117" t="n">
-        <v>1.00979</v>
+        <v>1.04795</v>
       </c>
       <c r="D117" t="n">
-        <v>0.253291</v>
+        <v>0.255527</v>
       </c>
     </row>
     <row r="118">
@@ -4896,13 +4896,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.219342</v>
+        <v>0.216787</v>
       </c>
       <c r="C118" t="n">
-        <v>1.05446</v>
+        <v>1.04278</v>
       </c>
       <c r="D118" t="n">
-        <v>0.254732</v>
+        <v>0.253908</v>
       </c>
     </row>
     <row r="119">
@@ -4910,13 +4910,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.21708</v>
+        <v>0.214972</v>
       </c>
       <c r="C119" t="n">
-        <v>1.0885</v>
+        <v>1.07694</v>
       </c>
       <c r="D119" t="n">
-        <v>0.251979</v>
+        <v>0.250402</v>
       </c>
     </row>
     <row r="120">
@@ -4924,13 +4924,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.210784</v>
+        <v>0.214532</v>
       </c>
       <c r="C120" t="n">
-        <v>1.13857</v>
+        <v>1.14136</v>
       </c>
       <c r="D120" t="n">
-        <v>0.254633</v>
+        <v>0.251196</v>
       </c>
     </row>
     <row r="121">
@@ -4938,13 +4938,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.210476</v>
+        <v>0.209782</v>
       </c>
       <c r="C121" t="n">
-        <v>1.21756</v>
+        <v>1.1942</v>
       </c>
       <c r="D121" t="n">
-        <v>0.249724</v>
+        <v>0.253941</v>
       </c>
     </row>
     <row r="122">
@@ -4952,13 +4952,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.204299</v>
+        <v>0.203097</v>
       </c>
       <c r="C122" t="n">
-        <v>1.01271</v>
+        <v>1.00807</v>
       </c>
       <c r="D122" t="n">
-        <v>0.249666</v>
+        <v>0.254812</v>
       </c>
     </row>
     <row r="123">
@@ -4966,13 +4966,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.196439</v>
+        <v>0.195397</v>
       </c>
       <c r="C123" t="n">
-        <v>1.0168</v>
+        <v>1.01713</v>
       </c>
       <c r="D123" t="n">
-        <v>0.280595</v>
+        <v>0.27458</v>
       </c>
     </row>
     <row r="124">
@@ -4980,13 +4980,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.263932</v>
+        <v>0.261428</v>
       </c>
       <c r="C124" t="n">
-        <v>1.05073</v>
+        <v>1.02674</v>
       </c>
       <c r="D124" t="n">
-        <v>0.268833</v>
+        <v>0.274108</v>
       </c>
     </row>
     <row r="125">
@@ -4994,13 +4994,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.254556</v>
+        <v>0.257987</v>
       </c>
       <c r="C125" t="n">
-        <v>1.01976</v>
+        <v>1.00706</v>
       </c>
       <c r="D125" t="n">
-        <v>0.269625</v>
+        <v>0.270092</v>
       </c>
     </row>
     <row r="126">
@@ -5008,13 +5008,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.25565</v>
+        <v>0.246578</v>
       </c>
       <c r="C126" t="n">
-        <v>1.04619</v>
+        <v>1.04133</v>
       </c>
       <c r="D126" t="n">
-        <v>0.26889</v>
+        <v>0.266598</v>
       </c>
     </row>
     <row r="127">
@@ -5022,13 +5022,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.244017</v>
+        <v>0.242857</v>
       </c>
       <c r="C127" t="n">
-        <v>1.03857</v>
+        <v>1.02974</v>
       </c>
       <c r="D127" t="n">
-        <v>0.271231</v>
+        <v>0.266433</v>
       </c>
     </row>
     <row r="128">
@@ -5036,13 +5036,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.24136</v>
+        <v>0.239984</v>
       </c>
       <c r="C128" t="n">
-        <v>1.04608</v>
+        <v>1.0365</v>
       </c>
       <c r="D128" t="n">
-        <v>0.265347</v>
+        <v>0.259863</v>
       </c>
     </row>
     <row r="129">
@@ -5050,13 +5050,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.232857</v>
+        <v>0.241078</v>
       </c>
       <c r="C129" t="n">
-        <v>1.07927</v>
+        <v>1.06731</v>
       </c>
       <c r="D129" t="n">
-        <v>0.258318</v>
+        <v>0.259419</v>
       </c>
     </row>
     <row r="130">
@@ -5064,13 +5064,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.231177</v>
+        <v>0.229459</v>
       </c>
       <c r="C130" t="n">
-        <v>1.08474</v>
+        <v>1.07672</v>
       </c>
       <c r="D130" t="n">
-        <v>0.260087</v>
+        <v>0.254683</v>
       </c>
     </row>
     <row r="131">
@@ -5078,13 +5078,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.228804</v>
+        <v>0.226449</v>
       </c>
       <c r="C131" t="n">
-        <v>1.11412</v>
+        <v>1.12218</v>
       </c>
       <c r="D131" t="n">
-        <v>0.252335</v>
+        <v>0.255786</v>
       </c>
     </row>
     <row r="132">
@@ -5092,13 +5092,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.218819</v>
+        <v>0.21818</v>
       </c>
       <c r="C132" t="n">
-        <v>1.12823</v>
+        <v>1.11793</v>
       </c>
       <c r="D132" t="n">
-        <v>0.256096</v>
+        <v>0.2544</v>
       </c>
     </row>
     <row r="133">
@@ -5106,13 +5106,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.21888</v>
+        <v>0.220582</v>
       </c>
       <c r="C133" t="n">
-        <v>1.1653</v>
+        <v>1.19386</v>
       </c>
       <c r="D133" t="n">
-        <v>0.257215</v>
+        <v>0.250564</v>
       </c>
     </row>
     <row r="134">
@@ -5120,13 +5120,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.217569</v>
+        <v>0.212797</v>
       </c>
       <c r="C134" t="n">
-        <v>1.22497</v>
+        <v>1.25781</v>
       </c>
       <c r="D134" t="n">
-        <v>0.254896</v>
+        <v>0.247988</v>
       </c>
     </row>
     <row r="135">
@@ -5134,13 +5134,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.206979</v>
+        <v>0.208825</v>
       </c>
       <c r="C135" t="n">
-        <v>1.3038</v>
+        <v>1.33015</v>
       </c>
       <c r="D135" t="n">
-        <v>0.249084</v>
+        <v>0.250449</v>
       </c>
     </row>
     <row r="136">
@@ -5148,13 +5148,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.204253</v>
+        <v>0.209192</v>
       </c>
       <c r="C136" t="n">
-        <v>1.18136</v>
+        <v>1.17102</v>
       </c>
       <c r="D136" t="n">
-        <v>0.245615</v>
+        <v>0.244253</v>
       </c>
     </row>
     <row r="137">
@@ -5162,13 +5162,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.193605</v>
+        <v>0.202406</v>
       </c>
       <c r="C137" t="n">
-        <v>1.18128</v>
+        <v>1.19137</v>
       </c>
       <c r="D137" t="n">
-        <v>0.275883</v>
+        <v>0.276163</v>
       </c>
     </row>
     <row r="138">
@@ -5176,13 +5176,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.262712</v>
+        <v>0.274304</v>
       </c>
       <c r="C138" t="n">
-        <v>1.15787</v>
+        <v>1.18549</v>
       </c>
       <c r="D138" t="n">
-        <v>0.273594</v>
+        <v>0.274713</v>
       </c>
     </row>
     <row r="139">
@@ -5190,13 +5190,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.256926</v>
+        <v>0.254994</v>
       </c>
       <c r="C139" t="n">
-        <v>1.17127</v>
+        <v>1.18161</v>
       </c>
       <c r="D139" t="n">
-        <v>0.269031</v>
+        <v>0.27562</v>
       </c>
     </row>
     <row r="140">
@@ -5204,13 +5204,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.249374</v>
+        <v>0.249651</v>
       </c>
       <c r="C140" t="n">
-        <v>1.21428</v>
+        <v>1.18604</v>
       </c>
       <c r="D140" t="n">
-        <v>0.271178</v>
+        <v>0.264399</v>
       </c>
     </row>
     <row r="141">
@@ -5218,13 +5218,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.245822</v>
+        <v>0.241067</v>
       </c>
       <c r="C141" t="n">
-        <v>1.20289</v>
+        <v>1.19877</v>
       </c>
       <c r="D141" t="n">
-        <v>0.264448</v>
+        <v>0.262022</v>
       </c>
     </row>
     <row r="142">
@@ -5232,13 +5232,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.23863</v>
+        <v>0.239078</v>
       </c>
       <c r="C142" t="n">
-        <v>1.22241</v>
+        <v>1.21332</v>
       </c>
       <c r="D142" t="n">
-        <v>0.265126</v>
+        <v>0.26252</v>
       </c>
     </row>
     <row r="143">
@@ -5246,13 +5246,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.235715</v>
+        <v>0.234351</v>
       </c>
       <c r="C143" t="n">
-        <v>1.20382</v>
+        <v>1.22</v>
       </c>
       <c r="D143" t="n">
-        <v>0.266629</v>
+        <v>0.256707</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Running erasure.xlsx
+++ b/vs-x64/Running erasure.xlsx
@@ -3249,13 +3249,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.207672</v>
+        <v>0.203007</v>
       </c>
       <c r="C2" t="n">
-        <v>0.235893</v>
+        <v>0.234176</v>
       </c>
       <c r="D2" t="n">
-        <v>0.244435</v>
+        <v>0.242521</v>
       </c>
     </row>
     <row r="3">
@@ -3263,13 +3263,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.205515</v>
+        <v>0.199414</v>
       </c>
       <c r="C3" t="n">
-        <v>0.242075</v>
+        <v>0.234812</v>
       </c>
       <c r="D3" t="n">
-        <v>0.245028</v>
+        <v>0.239367</v>
       </c>
     </row>
     <row r="4">
@@ -3277,13 +3277,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.206167</v>
+        <v>0.196759</v>
       </c>
       <c r="C4" t="n">
-        <v>0.240106</v>
+        <v>0.234956</v>
       </c>
       <c r="D4" t="n">
-        <v>0.249927</v>
+        <v>0.237588</v>
       </c>
     </row>
     <row r="5">
@@ -3291,13 +3291,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.199636</v>
+        <v>0.198083</v>
       </c>
       <c r="C5" t="n">
-        <v>0.239294</v>
+        <v>0.235665</v>
       </c>
       <c r="D5" t="n">
-        <v>0.241213</v>
+        <v>0.241386</v>
       </c>
     </row>
     <row r="6">
@@ -3305,13 +3305,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.198267</v>
+        <v>0.193794</v>
       </c>
       <c r="C6" t="n">
-        <v>0.238194</v>
+        <v>0.237576</v>
       </c>
       <c r="D6" t="n">
-        <v>0.237044</v>
+        <v>0.233667</v>
       </c>
     </row>
     <row r="7">
@@ -3319,13 +3319,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.190987</v>
+        <v>0.188999</v>
       </c>
       <c r="C7" t="n">
-        <v>0.230321</v>
+        <v>0.235201</v>
       </c>
       <c r="D7" t="n">
-        <v>0.233027</v>
+        <v>0.235675</v>
       </c>
     </row>
     <row r="8">
@@ -3333,13 +3333,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.18222</v>
+        <v>0.182785</v>
       </c>
       <c r="C8" t="n">
-        <v>0.229829</v>
+        <v>0.235835</v>
       </c>
       <c r="D8" t="n">
-        <v>0.230696</v>
+        <v>0.235779</v>
       </c>
     </row>
     <row r="9">
@@ -3347,13 +3347,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.17193</v>
+        <v>0.177396</v>
       </c>
       <c r="C9" t="n">
-        <v>0.233079</v>
+        <v>0.230264</v>
       </c>
       <c r="D9" t="n">
-        <v>0.242348</v>
+        <v>0.249701</v>
       </c>
     </row>
     <row r="10">
@@ -3361,13 +3361,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.223264</v>
+        <v>0.228929</v>
       </c>
       <c r="C10" t="n">
-        <v>0.23939</v>
+        <v>0.240334</v>
       </c>
       <c r="D10" t="n">
-        <v>0.244167</v>
+        <v>0.249679</v>
       </c>
     </row>
     <row r="11">
@@ -3375,13 +3375,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.227916</v>
+        <v>0.224627</v>
       </c>
       <c r="C11" t="n">
-        <v>0.239138</v>
+        <v>0.242987</v>
       </c>
       <c r="D11" t="n">
-        <v>0.23834</v>
+        <v>0.246641</v>
       </c>
     </row>
     <row r="12">
@@ -3389,13 +3389,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.220783</v>
+        <v>0.220892</v>
       </c>
       <c r="C12" t="n">
-        <v>0.237813</v>
+        <v>0.239584</v>
       </c>
       <c r="D12" t="n">
-        <v>0.242001</v>
+        <v>0.242371</v>
       </c>
     </row>
     <row r="13">
@@ -3403,13 +3403,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.219062</v>
+        <v>0.216385</v>
       </c>
       <c r="C13" t="n">
-        <v>0.238249</v>
+        <v>0.234491</v>
       </c>
       <c r="D13" t="n">
-        <v>0.241674</v>
+        <v>0.243202</v>
       </c>
     </row>
     <row r="14">
@@ -3417,13 +3417,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.211013</v>
+        <v>0.212577</v>
       </c>
       <c r="C14" t="n">
-        <v>0.233826</v>
+        <v>0.233036</v>
       </c>
       <c r="D14" t="n">
-        <v>0.234285</v>
+        <v>0.240449</v>
       </c>
     </row>
     <row r="15">
@@ -3431,13 +3431,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.205864</v>
+        <v>0.209577</v>
       </c>
       <c r="C15" t="n">
-        <v>0.231412</v>
+        <v>0.231315</v>
       </c>
       <c r="D15" t="n">
-        <v>0.234679</v>
+        <v>0.241078</v>
       </c>
     </row>
     <row r="16">
@@ -3445,13 +3445,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.207867</v>
+        <v>0.207656</v>
       </c>
       <c r="C16" t="n">
-        <v>0.237376</v>
+        <v>0.235369</v>
       </c>
       <c r="D16" t="n">
-        <v>0.240359</v>
+        <v>0.238555</v>
       </c>
     </row>
     <row r="17">
@@ -3459,13 +3459,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.209415</v>
+        <v>0.205088</v>
       </c>
       <c r="C17" t="n">
-        <v>0.231536</v>
+        <v>0.232294</v>
       </c>
       <c r="D17" t="n">
-        <v>0.236625</v>
+        <v>0.236569</v>
       </c>
     </row>
     <row r="18">
@@ -3473,13 +3473,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.20505</v>
+        <v>0.198633</v>
       </c>
       <c r="C18" t="n">
-        <v>0.235559</v>
+        <v>0.230335</v>
       </c>
       <c r="D18" t="n">
-        <v>0.233877</v>
+        <v>0.238537</v>
       </c>
     </row>
     <row r="19">
@@ -3487,13 +3487,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.200696</v>
+        <v>0.198836</v>
       </c>
       <c r="C19" t="n">
-        <v>0.233121</v>
+        <v>0.230723</v>
       </c>
       <c r="D19" t="n">
-        <v>0.23228</v>
+        <v>0.237826</v>
       </c>
     </row>
     <row r="20">
@@ -3501,13 +3501,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.194004</v>
+        <v>0.198146</v>
       </c>
       <c r="C20" t="n">
-        <v>0.232723</v>
+        <v>0.22947</v>
       </c>
       <c r="D20" t="n">
-        <v>0.232289</v>
+        <v>0.239652</v>
       </c>
     </row>
     <row r="21">
@@ -3515,13 +3515,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.191727</v>
+        <v>0.189425</v>
       </c>
       <c r="C21" t="n">
-        <v>0.231472</v>
+        <v>0.228017</v>
       </c>
       <c r="D21" t="n">
-        <v>0.233221</v>
+        <v>0.233143</v>
       </c>
     </row>
     <row r="22">
@@ -3529,13 +3529,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.186083</v>
+        <v>0.185553</v>
       </c>
       <c r="C22" t="n">
-        <v>0.228086</v>
+        <v>0.226324</v>
       </c>
       <c r="D22" t="n">
-        <v>0.232048</v>
+        <v>0.236119</v>
       </c>
     </row>
     <row r="23">
@@ -3543,13 +3543,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.180594</v>
+        <v>0.180924</v>
       </c>
       <c r="C23" t="n">
-        <v>0.228913</v>
+        <v>0.231339</v>
       </c>
       <c r="D23" t="n">
-        <v>0.244142</v>
+        <v>0.25104</v>
       </c>
     </row>
     <row r="24">
@@ -3557,13 +3557,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.238699</v>
+        <v>0.23326</v>
       </c>
       <c r="C24" t="n">
-        <v>0.246693</v>
+        <v>0.242028</v>
       </c>
       <c r="D24" t="n">
-        <v>0.249104</v>
+        <v>0.25111</v>
       </c>
     </row>
     <row r="25">
@@ -3571,13 +3571,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.233403</v>
+        <v>0.233464</v>
       </c>
       <c r="C25" t="n">
-        <v>0.244614</v>
+        <v>0.242083</v>
       </c>
       <c r="D25" t="n">
-        <v>0.248376</v>
+        <v>0.242996</v>
       </c>
     </row>
     <row r="26">
@@ -3585,13 +3585,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.23128</v>
+        <v>0.227679</v>
       </c>
       <c r="C26" t="n">
-        <v>0.24633</v>
+        <v>0.246564</v>
       </c>
       <c r="D26" t="n">
-        <v>0.240633</v>
+        <v>0.246757</v>
       </c>
     </row>
     <row r="27">
@@ -3599,13 +3599,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.225637</v>
+        <v>0.224912</v>
       </c>
       <c r="C27" t="n">
-        <v>0.243611</v>
+        <v>0.24007</v>
       </c>
       <c r="D27" t="n">
-        <v>0.242518</v>
+        <v>0.24567</v>
       </c>
     </row>
     <row r="28">
@@ -3613,13 +3613,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.222328</v>
+        <v>0.221711</v>
       </c>
       <c r="C28" t="n">
-        <v>0.241319</v>
+        <v>0.235775</v>
       </c>
       <c r="D28" t="n">
-        <v>0.240878</v>
+        <v>0.249165</v>
       </c>
     </row>
     <row r="29">
@@ -3627,13 +3627,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.216809</v>
+        <v>0.215209</v>
       </c>
       <c r="C29" t="n">
-        <v>0.242764</v>
+        <v>0.238172</v>
       </c>
       <c r="D29" t="n">
-        <v>0.240509</v>
+        <v>0.244301</v>
       </c>
     </row>
     <row r="30">
@@ -3641,13 +3641,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.216155</v>
+        <v>0.211881</v>
       </c>
       <c r="C30" t="n">
-        <v>0.240708</v>
+        <v>0.237657</v>
       </c>
       <c r="D30" t="n">
-        <v>0.238068</v>
+        <v>0.239985</v>
       </c>
     </row>
     <row r="31">
@@ -3655,13 +3655,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.210046</v>
+        <v>0.207709</v>
       </c>
       <c r="C31" t="n">
-        <v>0.240364</v>
+        <v>0.234443</v>
       </c>
       <c r="D31" t="n">
-        <v>0.234748</v>
+        <v>0.240615</v>
       </c>
     </row>
     <row r="32">
@@ -3669,13 +3669,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.203284</v>
+        <v>0.205945</v>
       </c>
       <c r="C32" t="n">
-        <v>0.236813</v>
+        <v>0.232122</v>
       </c>
       <c r="D32" t="n">
-        <v>0.239293</v>
+        <v>0.238735</v>
       </c>
     </row>
     <row r="33">
@@ -3683,13 +3683,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.204514</v>
+        <v>0.200024</v>
       </c>
       <c r="C33" t="n">
-        <v>0.235023</v>
+        <v>0.229335</v>
       </c>
       <c r="D33" t="n">
-        <v>0.237021</v>
+        <v>0.239736</v>
       </c>
     </row>
     <row r="34">
@@ -3697,13 +3697,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.197347</v>
+        <v>0.198793</v>
       </c>
       <c r="C34" t="n">
-        <v>0.235751</v>
+        <v>0.233683</v>
       </c>
       <c r="D34" t="n">
-        <v>0.238279</v>
+        <v>0.231877</v>
       </c>
     </row>
     <row r="35">
@@ -3711,13 +3711,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.197069</v>
+        <v>0.192746</v>
       </c>
       <c r="C35" t="n">
-        <v>0.230817</v>
+        <v>0.230177</v>
       </c>
       <c r="D35" t="n">
-        <v>0.23801</v>
+        <v>0.241418</v>
       </c>
     </row>
     <row r="36">
@@ -3725,13 +3725,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.190943</v>
+        <v>0.186828</v>
       </c>
       <c r="C36" t="n">
-        <v>0.236702</v>
+        <v>0.229717</v>
       </c>
       <c r="D36" t="n">
-        <v>0.236955</v>
+        <v>0.2338</v>
       </c>
     </row>
     <row r="37">
@@ -3739,13 +3739,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.187482</v>
+        <v>0.182088</v>
       </c>
       <c r="C37" t="n">
-        <v>0.232808</v>
+        <v>0.229771</v>
       </c>
       <c r="D37" t="n">
-        <v>0.261304</v>
+        <v>0.260305</v>
       </c>
     </row>
     <row r="38">
@@ -3753,13 +3753,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.246563</v>
+        <v>0.240337</v>
       </c>
       <c r="C38" t="n">
-        <v>0.25823</v>
+        <v>0.255322</v>
       </c>
       <c r="D38" t="n">
-        <v>0.259738</v>
+        <v>0.256894</v>
       </c>
     </row>
     <row r="39">
@@ -3767,13 +3767,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.238335</v>
+        <v>0.237883</v>
       </c>
       <c r="C39" t="n">
-        <v>0.259242</v>
+        <v>0.255409</v>
       </c>
       <c r="D39" t="n">
-        <v>0.259034</v>
+        <v>0.260265</v>
       </c>
     </row>
     <row r="40">
@@ -3781,13 +3781,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.234479</v>
+        <v>0.233433</v>
       </c>
       <c r="C40" t="n">
-        <v>0.254956</v>
+        <v>0.252369</v>
       </c>
       <c r="D40" t="n">
-        <v>0.256727</v>
+        <v>0.255384</v>
       </c>
     </row>
     <row r="41">
@@ -3795,13 +3795,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.228874</v>
+        <v>0.22815</v>
       </c>
       <c r="C41" t="n">
-        <v>0.252678</v>
+        <v>0.251218</v>
       </c>
       <c r="D41" t="n">
-        <v>0.254112</v>
+        <v>0.254158</v>
       </c>
     </row>
     <row r="42">
@@ -3809,13 +3809,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.223938</v>
+        <v>0.22617</v>
       </c>
       <c r="C42" t="n">
-        <v>0.250326</v>
+        <v>0.248242</v>
       </c>
       <c r="D42" t="n">
-        <v>0.252678</v>
+        <v>0.250623</v>
       </c>
     </row>
     <row r="43">
@@ -3823,13 +3823,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.224485</v>
+        <v>0.224605</v>
       </c>
       <c r="C43" t="n">
-        <v>0.252624</v>
+        <v>0.246906</v>
       </c>
       <c r="D43" t="n">
-        <v>0.255498</v>
+        <v>0.252763</v>
       </c>
     </row>
     <row r="44">
@@ -3837,13 +3837,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.220292</v>
+        <v>0.21977</v>
       </c>
       <c r="C44" t="n">
-        <v>0.250902</v>
+        <v>0.241597</v>
       </c>
       <c r="D44" t="n">
-        <v>0.248467</v>
+        <v>0.248755</v>
       </c>
     </row>
     <row r="45">
@@ -3851,13 +3851,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.212921</v>
+        <v>0.213134</v>
       </c>
       <c r="C45" t="n">
-        <v>0.249884</v>
+        <v>0.241834</v>
       </c>
       <c r="D45" t="n">
-        <v>0.247779</v>
+        <v>0.249254</v>
       </c>
     </row>
     <row r="46">
@@ -3865,13 +3865,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.20907</v>
+        <v>0.209548</v>
       </c>
       <c r="C46" t="n">
-        <v>0.245219</v>
+        <v>0.240812</v>
       </c>
       <c r="D46" t="n">
-        <v>0.247573</v>
+        <v>0.24744</v>
       </c>
     </row>
     <row r="47">
@@ -3879,13 +3879,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.207235</v>
+        <v>0.206392</v>
       </c>
       <c r="C47" t="n">
-        <v>0.241679</v>
+        <v>0.242088</v>
       </c>
       <c r="D47" t="n">
-        <v>0.246287</v>
+        <v>0.245658</v>
       </c>
     </row>
     <row r="48">
@@ -3893,13 +3893,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.202354</v>
+        <v>0.204853</v>
       </c>
       <c r="C48" t="n">
-        <v>0.242162</v>
+        <v>0.238955</v>
       </c>
       <c r="D48" t="n">
-        <v>0.243226</v>
+        <v>0.244716</v>
       </c>
     </row>
     <row r="49">
@@ -3907,13 +3907,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.19819</v>
+        <v>0.196874</v>
       </c>
       <c r="C49" t="n">
-        <v>0.241046</v>
+        <v>0.2366</v>
       </c>
       <c r="D49" t="n">
-        <v>0.237537</v>
+        <v>0.242529</v>
       </c>
     </row>
     <row r="50">
@@ -3921,13 +3921,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.192388</v>
+        <v>0.197778</v>
       </c>
       <c r="C50" t="n">
-        <v>0.23995</v>
+        <v>0.235377</v>
       </c>
       <c r="D50" t="n">
-        <v>0.243342</v>
+        <v>0.241311</v>
       </c>
     </row>
     <row r="51">
@@ -3935,13 +3935,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.1893</v>
+        <v>0.190699</v>
       </c>
       <c r="C51" t="n">
-        <v>0.238406</v>
+        <v>0.237178</v>
       </c>
       <c r="D51" t="n">
-        <v>0.262956</v>
+        <v>0.265288</v>
       </c>
     </row>
     <row r="52">
@@ -3949,13 +3949,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.178654</v>
+        <v>0.17875</v>
       </c>
       <c r="C52" t="n">
-        <v>0.237968</v>
+        <v>0.236287</v>
       </c>
       <c r="D52" t="n">
-        <v>0.261373</v>
+        <v>0.265072</v>
       </c>
     </row>
     <row r="53">
@@ -3963,13 +3963,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.241564</v>
+        <v>0.242491</v>
       </c>
       <c r="C53" t="n">
-        <v>0.257158</v>
+        <v>0.252514</v>
       </c>
       <c r="D53" t="n">
-        <v>0.259776</v>
+        <v>0.265219</v>
       </c>
     </row>
     <row r="54">
@@ -3977,13 +3977,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.240498</v>
+        <v>0.243282</v>
       </c>
       <c r="C54" t="n">
-        <v>0.254009</v>
+        <v>0.251439</v>
       </c>
       <c r="D54" t="n">
-        <v>0.259101</v>
+        <v>0.26077</v>
       </c>
     </row>
     <row r="55">
@@ -3991,13 +3991,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.236049</v>
+        <v>0.239132</v>
       </c>
       <c r="C55" t="n">
-        <v>0.25334</v>
+        <v>0.251965</v>
       </c>
       <c r="D55" t="n">
-        <v>0.253198</v>
+        <v>0.257641</v>
       </c>
     </row>
     <row r="56">
@@ -4005,13 +4005,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.23031</v>
+        <v>0.232889</v>
       </c>
       <c r="C56" t="n">
-        <v>0.251818</v>
+        <v>0.246674</v>
       </c>
       <c r="D56" t="n">
-        <v>0.251883</v>
+        <v>0.254821</v>
       </c>
     </row>
     <row r="57">
@@ -4019,13 +4019,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.226078</v>
+        <v>0.226884</v>
       </c>
       <c r="C57" t="n">
-        <v>0.249075</v>
+        <v>0.246325</v>
       </c>
       <c r="D57" t="n">
-        <v>0.253215</v>
+        <v>0.255705</v>
       </c>
     </row>
     <row r="58">
@@ -4033,13 +4033,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.222293</v>
+        <v>0.224772</v>
       </c>
       <c r="C58" t="n">
-        <v>0.245938</v>
+        <v>0.244615</v>
       </c>
       <c r="D58" t="n">
-        <v>0.250762</v>
+        <v>0.251836</v>
       </c>
     </row>
     <row r="59">
@@ -4047,13 +4047,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.219023</v>
+        <v>0.224186</v>
       </c>
       <c r="C59" t="n">
-        <v>0.244271</v>
+        <v>0.244375</v>
       </c>
       <c r="D59" t="n">
-        <v>0.247931</v>
+        <v>0.250441</v>
       </c>
     </row>
     <row r="60">
@@ -4061,13 +4061,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.212798</v>
+        <v>0.215376</v>
       </c>
       <c r="C60" t="n">
-        <v>0.245064</v>
+        <v>0.240637</v>
       </c>
       <c r="D60" t="n">
-        <v>0.249391</v>
+        <v>0.252113</v>
       </c>
     </row>
     <row r="61">
@@ -4075,13 +4075,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.209741</v>
+        <v>0.211161</v>
       </c>
       <c r="C61" t="n">
-        <v>0.24428</v>
+        <v>0.240321</v>
       </c>
       <c r="D61" t="n">
-        <v>0.245202</v>
+        <v>0.246248</v>
       </c>
     </row>
     <row r="62">
@@ -4089,13 +4089,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.205124</v>
+        <v>0.207962</v>
       </c>
       <c r="C62" t="n">
-        <v>0.243982</v>
+        <v>0.237647</v>
       </c>
       <c r="D62" t="n">
-        <v>0.249226</v>
+        <v>0.246767</v>
       </c>
     </row>
     <row r="63">
@@ -4103,13 +4103,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.2</v>
+        <v>0.20326</v>
       </c>
       <c r="C63" t="n">
-        <v>0.241141</v>
+        <v>0.245434</v>
       </c>
       <c r="D63" t="n">
-        <v>0.243343</v>
+        <v>0.244298</v>
       </c>
     </row>
     <row r="64">
@@ -4117,13 +4117,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.198034</v>
+        <v>0.199132</v>
       </c>
       <c r="C64" t="n">
-        <v>0.242434</v>
+        <v>0.236461</v>
       </c>
       <c r="D64" t="n">
-        <v>0.243693</v>
+        <v>0.241234</v>
       </c>
     </row>
     <row r="65">
@@ -4131,13 +4131,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.192099</v>
+        <v>0.192117</v>
       </c>
       <c r="C65" t="n">
-        <v>0.236945</v>
+        <v>0.238664</v>
       </c>
       <c r="D65" t="n">
-        <v>0.238517</v>
+        <v>0.241938</v>
       </c>
     </row>
     <row r="66">
@@ -4145,13 +4145,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.185111</v>
+        <v>0.182218</v>
       </c>
       <c r="C66" t="n">
-        <v>0.23941</v>
+        <v>0.233313</v>
       </c>
       <c r="D66" t="n">
-        <v>0.267302</v>
+        <v>0.264895</v>
       </c>
     </row>
     <row r="67">
@@ -4159,13 +4159,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.255051</v>
+        <v>0.251511</v>
       </c>
       <c r="C67" t="n">
-        <v>0.264759</v>
+        <v>0.257616</v>
       </c>
       <c r="D67" t="n">
-        <v>0.266103</v>
+        <v>0.268163</v>
       </c>
     </row>
     <row r="68">
@@ -4173,13 +4173,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.248585</v>
+        <v>0.248862</v>
       </c>
       <c r="C68" t="n">
-        <v>0.260388</v>
+        <v>0.259994</v>
       </c>
       <c r="D68" t="n">
-        <v>0.263301</v>
+        <v>0.263236</v>
       </c>
     </row>
     <row r="69">
@@ -4187,13 +4187,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.243558</v>
+        <v>0.242156</v>
       </c>
       <c r="C69" t="n">
-        <v>0.255479</v>
+        <v>0.253407</v>
       </c>
       <c r="D69" t="n">
-        <v>0.255784</v>
+        <v>0.258034</v>
       </c>
     </row>
     <row r="70">
@@ -4201,13 +4201,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.242139</v>
+        <v>0.237113</v>
       </c>
       <c r="C70" t="n">
-        <v>0.25473</v>
+        <v>0.25363</v>
       </c>
       <c r="D70" t="n">
-        <v>0.256892</v>
+        <v>0.258803</v>
       </c>
     </row>
     <row r="71">
@@ -4215,13 +4215,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.234804</v>
+        <v>0.235202</v>
       </c>
       <c r="C71" t="n">
-        <v>0.254841</v>
+        <v>0.250928</v>
       </c>
       <c r="D71" t="n">
-        <v>0.255208</v>
+        <v>0.256873</v>
       </c>
     </row>
     <row r="72">
@@ -4229,13 +4229,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.231376</v>
+        <v>0.229443</v>
       </c>
       <c r="C72" t="n">
-        <v>0.254704</v>
+        <v>0.251454</v>
       </c>
       <c r="D72" t="n">
-        <v>0.25313</v>
+        <v>0.253709</v>
       </c>
     </row>
     <row r="73">
@@ -4243,13 +4243,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.222925</v>
+        <v>0.224989</v>
       </c>
       <c r="C73" t="n">
-        <v>0.254349</v>
+        <v>0.24812</v>
       </c>
       <c r="D73" t="n">
-        <v>0.255749</v>
+        <v>0.252971</v>
       </c>
     </row>
     <row r="74">
@@ -4257,13 +4257,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.219194</v>
+        <v>0.21981</v>
       </c>
       <c r="C74" t="n">
-        <v>0.249343</v>
+        <v>0.249727</v>
       </c>
       <c r="D74" t="n">
-        <v>0.251735</v>
+        <v>0.253317</v>
       </c>
     </row>
     <row r="75">
@@ -4271,13 +4271,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.214081</v>
+        <v>0.215383</v>
       </c>
       <c r="C75" t="n">
-        <v>0.246956</v>
+        <v>0.247954</v>
       </c>
       <c r="D75" t="n">
-        <v>0.246905</v>
+        <v>0.251041</v>
       </c>
     </row>
     <row r="76">
@@ -4285,13 +4285,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.213315</v>
+        <v>0.217402</v>
       </c>
       <c r="C76" t="n">
-        <v>0.244184</v>
+        <v>0.242818</v>
       </c>
       <c r="D76" t="n">
-        <v>0.247478</v>
+        <v>0.24995</v>
       </c>
     </row>
     <row r="77">
@@ -4299,13 +4299,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.208693</v>
+        <v>0.208789</v>
       </c>
       <c r="C77" t="n">
-        <v>0.245805</v>
+        <v>0.243789</v>
       </c>
       <c r="D77" t="n">
-        <v>0.246024</v>
+        <v>0.245185</v>
       </c>
     </row>
     <row r="78">
@@ -4313,13 +4313,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.205253</v>
+        <v>0.208247</v>
       </c>
       <c r="C78" t="n">
-        <v>0.244057</v>
+        <v>0.243289</v>
       </c>
       <c r="D78" t="n">
-        <v>0.248931</v>
+        <v>0.246488</v>
       </c>
     </row>
     <row r="79">
@@ -4327,13 +4327,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.200406</v>
+        <v>0.196738</v>
       </c>
       <c r="C79" t="n">
-        <v>0.243479</v>
+        <v>0.241104</v>
       </c>
       <c r="D79" t="n">
-        <v>0.248131</v>
+        <v>0.245909</v>
       </c>
     </row>
     <row r="80">
@@ -4341,13 +4341,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.190789</v>
+        <v>0.190105</v>
       </c>
       <c r="C80" t="n">
-        <v>0.242</v>
+        <v>0.239784</v>
       </c>
       <c r="D80" t="n">
-        <v>0.27613</v>
+        <v>0.276699</v>
       </c>
     </row>
     <row r="81">
@@ -4355,13 +4355,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.259596</v>
+        <v>0.259659</v>
       </c>
       <c r="C81" t="n">
-        <v>0.270649</v>
+        <v>0.26844</v>
       </c>
       <c r="D81" t="n">
-        <v>0.268954</v>
+        <v>0.2722</v>
       </c>
     </row>
     <row r="82">
@@ -4369,13 +4369,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.253738</v>
+        <v>0.253449</v>
       </c>
       <c r="C82" t="n">
-        <v>0.268115</v>
+        <v>0.264314</v>
       </c>
       <c r="D82" t="n">
-        <v>0.264634</v>
+        <v>0.268518</v>
       </c>
     </row>
     <row r="83">
@@ -4383,13 +4383,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.248222</v>
+        <v>0.250415</v>
       </c>
       <c r="C83" t="n">
-        <v>0.26526</v>
+        <v>0.261272</v>
       </c>
       <c r="D83" t="n">
-        <v>0.2627</v>
+        <v>0.267588</v>
       </c>
     </row>
     <row r="84">
@@ -4397,13 +4397,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.245179</v>
+        <v>0.245003</v>
       </c>
       <c r="C84" t="n">
-        <v>0.261008</v>
+        <v>0.262311</v>
       </c>
       <c r="D84" t="n">
-        <v>0.261715</v>
+        <v>0.26422</v>
       </c>
     </row>
     <row r="85">
@@ -4411,13 +4411,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.239835</v>
+        <v>0.240132</v>
       </c>
       <c r="C85" t="n">
-        <v>0.259459</v>
+        <v>0.259008</v>
       </c>
       <c r="D85" t="n">
-        <v>0.262768</v>
+        <v>0.265504</v>
       </c>
     </row>
     <row r="86">
@@ -4425,13 +4425,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.233673</v>
+        <v>0.233467</v>
       </c>
       <c r="C86" t="n">
-        <v>0.2571</v>
+        <v>0.256107</v>
       </c>
       <c r="D86" t="n">
-        <v>0.259772</v>
+        <v>0.257429</v>
       </c>
     </row>
     <row r="87">
@@ -4439,13 +4439,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.228069</v>
+        <v>0.228451</v>
       </c>
       <c r="C87" t="n">
-        <v>0.255203</v>
+        <v>0.256578</v>
       </c>
       <c r="D87" t="n">
-        <v>0.258711</v>
+        <v>0.260452</v>
       </c>
     </row>
     <row r="88">
@@ -4453,13 +4453,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.224215</v>
+        <v>0.227848</v>
       </c>
       <c r="C88" t="n">
-        <v>0.255606</v>
+        <v>0.248625</v>
       </c>
       <c r="D88" t="n">
-        <v>0.254641</v>
+        <v>0.257979</v>
       </c>
     </row>
     <row r="89">
@@ -4467,13 +4467,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.222657</v>
+        <v>0.222327</v>
       </c>
       <c r="C89" t="n">
-        <v>0.254926</v>
+        <v>0.249284</v>
       </c>
       <c r="D89" t="n">
-        <v>0.251313</v>
+        <v>0.257045</v>
       </c>
     </row>
     <row r="90">
@@ -4481,13 +4481,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.215473</v>
+        <v>0.214994</v>
       </c>
       <c r="C90" t="n">
-        <v>0.248747</v>
+        <v>0.249908</v>
       </c>
       <c r="D90" t="n">
-        <v>0.24827</v>
+        <v>0.253461</v>
       </c>
     </row>
     <row r="91">
@@ -4495,13 +4495,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.211581</v>
+        <v>0.214447</v>
       </c>
       <c r="C91" t="n">
-        <v>0.248829</v>
+        <v>0.246798</v>
       </c>
       <c r="D91" t="n">
-        <v>0.252207</v>
+        <v>0.253402</v>
       </c>
     </row>
     <row r="92">
@@ -4509,13 +4509,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.206663</v>
+        <v>0.208837</v>
       </c>
       <c r="C92" t="n">
-        <v>0.246497</v>
+        <v>0.245063</v>
       </c>
       <c r="D92" t="n">
-        <v>0.252016</v>
+        <v>0.246886</v>
       </c>
     </row>
     <row r="93">
@@ -4523,13 +4523,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.203994</v>
+        <v>0.201669</v>
       </c>
       <c r="C93" t="n">
-        <v>0.247453</v>
+        <v>0.245133</v>
       </c>
       <c r="D93" t="n">
-        <v>0.244806</v>
+        <v>0.248051</v>
       </c>
     </row>
     <row r="94">
@@ -4537,13 +4537,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.195828</v>
+        <v>0.193892</v>
       </c>
       <c r="C94" t="n">
-        <v>0.245649</v>
+        <v>0.239518</v>
       </c>
       <c r="D94" t="n">
-        <v>0.273052</v>
+        <v>0.275365</v>
       </c>
     </row>
     <row r="95">
@@ -4551,13 +4551,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.261636</v>
+        <v>0.260642</v>
       </c>
       <c r="C95" t="n">
-        <v>0.270089</v>
+        <v>0.269092</v>
       </c>
       <c r="D95" t="n">
-        <v>0.269915</v>
+        <v>0.27331</v>
       </c>
     </row>
     <row r="96">
@@ -4565,13 +4565,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.259383</v>
+        <v>0.254794</v>
       </c>
       <c r="C96" t="n">
-        <v>0.269772</v>
+        <v>0.264426</v>
       </c>
       <c r="D96" t="n">
-        <v>0.26677</v>
+        <v>0.272912</v>
       </c>
     </row>
     <row r="97">
@@ -4579,13 +4579,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.252633</v>
+        <v>0.252144</v>
       </c>
       <c r="C97" t="n">
-        <v>0.26719</v>
+        <v>0.264422</v>
       </c>
       <c r="D97" t="n">
-        <v>0.264812</v>
+        <v>0.270691</v>
       </c>
     </row>
     <row r="98">
@@ -4593,13 +4593,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.248463</v>
+        <v>0.245832</v>
       </c>
       <c r="C98" t="n">
-        <v>0.263009</v>
+        <v>0.258738</v>
       </c>
       <c r="D98" t="n">
-        <v>0.264145</v>
+        <v>0.264661</v>
       </c>
     </row>
     <row r="99">
@@ -4607,13 +4607,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.246706</v>
+        <v>0.243613</v>
       </c>
       <c r="C99" t="n">
-        <v>0.262776</v>
+        <v>0.258815</v>
       </c>
       <c r="D99" t="n">
-        <v>0.259539</v>
+        <v>0.264853</v>
       </c>
     </row>
     <row r="100">
@@ -4621,13 +4621,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.238905</v>
+        <v>0.238176</v>
       </c>
       <c r="C100" t="n">
-        <v>0.262995</v>
+        <v>0.257131</v>
       </c>
       <c r="D100" t="n">
-        <v>0.26225</v>
+        <v>0.260154</v>
       </c>
     </row>
     <row r="101">
@@ -4635,13 +4635,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.233517</v>
+        <v>0.230684</v>
       </c>
       <c r="C101" t="n">
-        <v>0.258414</v>
+        <v>0.256454</v>
       </c>
       <c r="D101" t="n">
-        <v>0.256292</v>
+        <v>0.258647</v>
       </c>
     </row>
     <row r="102">
@@ -4649,13 +4649,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.22791</v>
+        <v>0.225662</v>
       </c>
       <c r="C102" t="n">
-        <v>0.25972</v>
+        <v>0.251478</v>
       </c>
       <c r="D102" t="n">
-        <v>0.256608</v>
+        <v>0.259875</v>
       </c>
     </row>
     <row r="103">
@@ -4663,13 +4663,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.222915</v>
+        <v>0.222691</v>
       </c>
       <c r="C103" t="n">
-        <v>0.25286</v>
+        <v>0.25007</v>
       </c>
       <c r="D103" t="n">
-        <v>0.258153</v>
+        <v>0.256209</v>
       </c>
     </row>
     <row r="104">
@@ -4677,13 +4677,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.216509</v>
+        <v>0.220638</v>
       </c>
       <c r="C104" t="n">
-        <v>0.250068</v>
+        <v>0.247006</v>
       </c>
       <c r="D104" t="n">
-        <v>0.250678</v>
+        <v>0.254112</v>
       </c>
     </row>
     <row r="105">
@@ -4691,13 +4691,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.213334</v>
+        <v>0.212156</v>
       </c>
       <c r="C105" t="n">
-        <v>0.246921</v>
+        <v>0.246012</v>
       </c>
       <c r="D105" t="n">
-        <v>0.251954</v>
+        <v>0.251051</v>
       </c>
     </row>
     <row r="106">
@@ -4705,13 +4705,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.210316</v>
+        <v>0.210123</v>
       </c>
       <c r="C106" t="n">
-        <v>0.245726</v>
+        <v>0.245406</v>
       </c>
       <c r="D106" t="n">
-        <v>0.24932</v>
+        <v>0.25087</v>
       </c>
     </row>
     <row r="107">
@@ -4719,13 +4719,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.202803</v>
+        <v>0.204254</v>
       </c>
       <c r="C107" t="n">
-        <v>0.24563</v>
+        <v>0.24522</v>
       </c>
       <c r="D107" t="n">
-        <v>0.247056</v>
+        <v>0.249316</v>
       </c>
     </row>
     <row r="108">
@@ -4733,13 +4733,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.199481</v>
+        <v>0.196746</v>
       </c>
       <c r="C108" t="n">
-        <v>0.248108</v>
+        <v>0.243476</v>
       </c>
       <c r="D108" t="n">
-        <v>0.275653</v>
+        <v>0.278062</v>
       </c>
     </row>
     <row r="109">
@@ -4747,13 +4747,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.188973</v>
+        <v>0.188733</v>
       </c>
       <c r="C109" t="n">
-        <v>0.244077</v>
+        <v>0.243027</v>
       </c>
       <c r="D109" t="n">
-        <v>0.276042</v>
+        <v>0.275645</v>
       </c>
     </row>
     <row r="110">
@@ -4761,13 +4761,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.263347</v>
+        <v>0.256487</v>
       </c>
       <c r="C110" t="n">
-        <v>0.269995</v>
+        <v>0.266963</v>
       </c>
       <c r="D110" t="n">
-        <v>0.269526</v>
+        <v>0.274758</v>
       </c>
     </row>
     <row r="111">
@@ -4775,13 +4775,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.25427</v>
+        <v>0.250844</v>
       </c>
       <c r="C111" t="n">
-        <v>0.266613</v>
+        <v>0.267656</v>
       </c>
       <c r="D111" t="n">
-        <v>0.271086</v>
+        <v>0.269666</v>
       </c>
     </row>
     <row r="112">
@@ -4789,13 +4789,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.251795</v>
+        <v>0.2467</v>
       </c>
       <c r="C112" t="n">
-        <v>0.270096</v>
+        <v>0.263762</v>
       </c>
       <c r="D112" t="n">
-        <v>0.263362</v>
+        <v>0.268648</v>
       </c>
     </row>
     <row r="113">
@@ -4803,13 +4803,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.243699</v>
+        <v>0.245112</v>
       </c>
       <c r="C113" t="n">
-        <v>0.263408</v>
+        <v>0.260117</v>
       </c>
       <c r="D113" t="n">
-        <v>0.262745</v>
+        <v>0.267009</v>
       </c>
     </row>
     <row r="114">
@@ -4817,13 +4817,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.237732</v>
+        <v>0.242308</v>
       </c>
       <c r="C114" t="n">
-        <v>0.264492</v>
+        <v>0.261431</v>
       </c>
       <c r="D114" t="n">
-        <v>0.260648</v>
+        <v>0.260837</v>
       </c>
     </row>
     <row r="115">
@@ -4831,13 +4831,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.235084</v>
+        <v>0.233638</v>
       </c>
       <c r="C115" t="n">
-        <v>0.260624</v>
+        <v>0.256813</v>
       </c>
       <c r="D115" t="n">
-        <v>0.256596</v>
+        <v>0.259918</v>
       </c>
     </row>
     <row r="116">
@@ -4845,13 +4845,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.226001</v>
+        <v>0.230246</v>
       </c>
       <c r="C116" t="n">
-        <v>0.254709</v>
+        <v>0.252044</v>
       </c>
       <c r="D116" t="n">
-        <v>0.256166</v>
+        <v>0.256753</v>
       </c>
     </row>
     <row r="117">
@@ -4859,13 +4859,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.225519</v>
+        <v>0.225072</v>
       </c>
       <c r="C117" t="n">
-        <v>0.253555</v>
+        <v>0.252253</v>
       </c>
       <c r="D117" t="n">
-        <v>0.255457</v>
+        <v>0.255706</v>
       </c>
     </row>
     <row r="118">
@@ -4873,13 +4873,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.216855</v>
+        <v>0.217904</v>
       </c>
       <c r="C118" t="n">
-        <v>0.256689</v>
+        <v>0.251108</v>
       </c>
       <c r="D118" t="n">
-        <v>0.253913</v>
+        <v>0.254294</v>
       </c>
     </row>
     <row r="119">
@@ -4887,13 +4887,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.215762</v>
+        <v>0.212519</v>
       </c>
       <c r="C119" t="n">
-        <v>0.248773</v>
+        <v>0.248064</v>
       </c>
       <c r="D119" t="n">
-        <v>0.254405</v>
+        <v>0.254539</v>
       </c>
     </row>
     <row r="120">
@@ -4901,13 +4901,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.209171</v>
+        <v>0.210262</v>
       </c>
       <c r="C120" t="n">
-        <v>0.2506</v>
+        <v>0.250057</v>
       </c>
       <c r="D120" t="n">
-        <v>0.255798</v>
+        <v>0.248883</v>
       </c>
     </row>
     <row r="121">
@@ -4915,13 +4915,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.20491</v>
+        <v>0.206317</v>
       </c>
       <c r="C121" t="n">
-        <v>0.248353</v>
+        <v>0.247644</v>
       </c>
       <c r="D121" t="n">
-        <v>0.245957</v>
+        <v>0.249162</v>
       </c>
     </row>
     <row r="122">
@@ -4929,13 +4929,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.200515</v>
+        <v>0.199803</v>
       </c>
       <c r="C122" t="n">
-        <v>0.251604</v>
+        <v>0.243074</v>
       </c>
       <c r="D122" t="n">
-        <v>0.244491</v>
+        <v>0.245462</v>
       </c>
     </row>
     <row r="123">
@@ -4943,13 +4943,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.192583</v>
+        <v>0.189916</v>
       </c>
       <c r="C123" t="n">
-        <v>0.243004</v>
+        <v>0.243344</v>
       </c>
       <c r="D123" t="n">
-        <v>0.274206</v>
+        <v>0.281291</v>
       </c>
     </row>
     <row r="124">
@@ -4957,13 +4957,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.264085</v>
+        <v>0.257092</v>
       </c>
       <c r="C124" t="n">
-        <v>0.269135</v>
+        <v>0.271336</v>
       </c>
       <c r="D124" t="n">
-        <v>0.271297</v>
+        <v>0.270545</v>
       </c>
     </row>
     <row r="125">
@@ -4971,13 +4971,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.257413</v>
+        <v>0.254251</v>
       </c>
       <c r="C125" t="n">
-        <v>0.267305</v>
+        <v>0.267118</v>
       </c>
       <c r="D125" t="n">
-        <v>0.263994</v>
+        <v>0.269655</v>
       </c>
     </row>
     <row r="126">
@@ -4985,13 +4985,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.248256</v>
+        <v>0.250143</v>
       </c>
       <c r="C126" t="n">
-        <v>0.263931</v>
+        <v>0.260894</v>
       </c>
       <c r="D126" t="n">
-        <v>0.268978</v>
+        <v>0.266911</v>
       </c>
     </row>
     <row r="127">
@@ -4999,13 +4999,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.242608</v>
+        <v>0.240737</v>
       </c>
       <c r="C127" t="n">
-        <v>0.262147</v>
+        <v>0.260088</v>
       </c>
       <c r="D127" t="n">
-        <v>0.261417</v>
+        <v>0.26493</v>
       </c>
     </row>
     <row r="128">
@@ -5013,13 +5013,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.24056</v>
+        <v>0.239561</v>
       </c>
       <c r="C128" t="n">
-        <v>0.263494</v>
+        <v>0.257287</v>
       </c>
       <c r="D128" t="n">
-        <v>0.264437</v>
+        <v>0.260898</v>
       </c>
     </row>
     <row r="129">
@@ -5027,13 +5027,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.232253</v>
+        <v>0.233395</v>
       </c>
       <c r="C129" t="n">
-        <v>0.257482</v>
+        <v>0.256448</v>
       </c>
       <c r="D129" t="n">
-        <v>0.258159</v>
+        <v>0.260801</v>
       </c>
     </row>
     <row r="130">
@@ -5041,13 +5041,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.227849</v>
+        <v>0.230213</v>
       </c>
       <c r="C130" t="n">
-        <v>0.255254</v>
+        <v>0.252224</v>
       </c>
       <c r="D130" t="n">
-        <v>0.259116</v>
+        <v>0.258674</v>
       </c>
     </row>
     <row r="131">
@@ -5055,13 +5055,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.230784</v>
+        <v>0.227051</v>
       </c>
       <c r="C131" t